--- a/Data/National Accounts/PSA-05EOS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-05EOS_2018PSNA_Qrt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2021\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2021\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10788"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
   </bookViews>
   <sheets>
     <sheet name="EOS" sheetId="5" r:id="rId1"/>
@@ -42,9 +42,9 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">EOS!$A$37:$A$48</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EOS!$A$1:$CI$174</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EOS!$A$1:$CJ$174</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="56">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -215,13 +215,13 @@
     <t>2021 - 2021</t>
   </si>
   <si>
-    <t>As of August 2021</t>
+    <t>As of November 2021</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2021</t>
+    <t>Q1 2000 to Q3 2021</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2021</t>
+    <t>Q1 2001 to Q3 2021</t>
   </si>
 </sst>
 </file>
@@ -339,9 +339,6 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -354,6 +351,9 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -697,12 +697,12 @@
   </sheetPr>
   <dimension ref="A1:EU174"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="87" zoomScaleNormal="95" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="CA3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="95" zoomScaleNormal="95" zoomScaleSheetLayoutView="95" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="CA50" activePane="bottomRight" state="frozen"/>
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="BY28" sqref="BY28"/>
+      <selection pane="bottomRight" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -711,8 +711,8 @@
     <col min="2" max="73" width="8.81640625" style="1" customWidth="1"/>
     <col min="74" max="80" width="10" style="1" customWidth="1"/>
     <col min="81" max="81" width="10.26953125" style="1" customWidth="1"/>
-    <col min="82" max="87" width="10.26953125" style="18" customWidth="1"/>
-    <col min="88" max="16384" width="7.81640625" style="1"/>
+    <col min="82" max="88" width="11.36328125" style="18" customWidth="1"/>
+    <col min="89" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:151" x14ac:dyDescent="0.25">
@@ -877,6 +877,7 @@
         <v>2021</v>
       </c>
       <c r="CI9" s="28"/>
+      <c r="CJ9" s="28"/>
     </row>
     <row r="10" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -1120,23 +1121,26 @@
       <c r="CC10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CD10" s="20" t="s">
+      <c r="CD10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CE10" s="20" t="s">
+      <c r="CE10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CF10" s="20" t="s">
+      <c r="CF10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="CG10" s="20" t="s">
+      <c r="CG10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CH10" s="20" t="s">
+      <c r="CH10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CI10" s="20" t="s">
+      <c r="CI10" s="19" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ10" s="19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1386,25 +1390,27 @@
       <c r="CC12" s="7">
         <v>45790.436819050155</v>
       </c>
-      <c r="CD12" s="21">
+      <c r="CD12" s="20">
         <v>32010.978337237957</v>
       </c>
-      <c r="CE12" s="21">
+      <c r="CE12" s="20">
         <v>13299.247113344074</v>
       </c>
-      <c r="CF12" s="21">
+      <c r="CF12" s="20">
         <v>21183.699192354972</v>
       </c>
-      <c r="CG12" s="21">
+      <c r="CG12" s="20">
         <v>23901.456567192312</v>
       </c>
-      <c r="CH12" s="21">
+      <c r="CH12" s="20">
         <v>20322.731784015399</v>
       </c>
-      <c r="CI12" s="21">
-        <v>17066.282796217383</v>
-      </c>
-      <c r="CJ12" s="8"/>
+      <c r="CI12" s="20">
+        <v>16391.545194812847</v>
+      </c>
+      <c r="CJ12" s="20">
+        <v>25716.285814568222</v>
+      </c>
       <c r="CK12" s="8"/>
       <c r="CL12" s="8"/>
       <c r="CM12" s="8"/>
@@ -1713,25 +1719,27 @@
       <c r="CC13" s="7">
         <v>811.98755828997855</v>
       </c>
-      <c r="CD13" s="21">
+      <c r="CD13" s="20">
         <v>455.76866341495628</v>
       </c>
-      <c r="CE13" s="21">
+      <c r="CE13" s="20">
         <v>271.15791756005291</v>
       </c>
-      <c r="CF13" s="21">
+      <c r="CF13" s="20">
         <v>700.97163490021353</v>
       </c>
-      <c r="CG13" s="21">
+      <c r="CG13" s="20">
         <v>785.29196317838819</v>
       </c>
-      <c r="CH13" s="21">
+      <c r="CH13" s="20">
         <v>493.50282696812621</v>
       </c>
-      <c r="CI13" s="21">
-        <v>369.48270512812536</v>
-      </c>
-      <c r="CJ13" s="8"/>
+      <c r="CI13" s="20">
+        <v>387.57697975435258</v>
+      </c>
+      <c r="CJ13" s="20">
+        <v>812.3587129134221</v>
+      </c>
       <c r="CK13" s="8"/>
       <c r="CL13" s="8"/>
       <c r="CM13" s="8"/>
@@ -2040,25 +2048,27 @@
       <c r="CC14" s="7">
         <v>102672.183663597</v>
       </c>
-      <c r="CD14" s="21">
+      <c r="CD14" s="20">
         <v>113062.26479711011</v>
       </c>
-      <c r="CE14" s="21">
+      <c r="CE14" s="20">
         <v>5409.6907766346912</v>
       </c>
-      <c r="CF14" s="21">
+      <c r="CF14" s="20">
         <v>14472.992673047263</v>
       </c>
-      <c r="CG14" s="21">
+      <c r="CG14" s="20">
         <v>8252.2359478950566</v>
       </c>
-      <c r="CH14" s="21">
+      <c r="CH14" s="20">
         <v>2347.5074399000005</v>
       </c>
-      <c r="CI14" s="21">
-        <v>17497.304546236614</v>
-      </c>
-      <c r="CJ14" s="8"/>
+      <c r="CI14" s="20">
+        <v>29673.480158083239</v>
+      </c>
+      <c r="CJ14" s="20">
+        <v>23247.77711361623</v>
+      </c>
       <c r="CK14" s="8"/>
       <c r="CL14" s="8"/>
       <c r="CM14" s="8"/>
@@ -2367,25 +2377,27 @@
       <c r="CC15" s="7">
         <v>2687.5370860009766</v>
       </c>
-      <c r="CD15" s="21">
+      <c r="CD15" s="20">
         <v>2525.5740580868278</v>
       </c>
-      <c r="CE15" s="21">
+      <c r="CE15" s="20">
         <v>2718.4891110303574</v>
       </c>
-      <c r="CF15" s="21">
+      <c r="CF15" s="20">
         <v>2967.0275841402954</v>
       </c>
-      <c r="CG15" s="21">
+      <c r="CG15" s="20">
         <v>2953.3815928242416</v>
       </c>
-      <c r="CH15" s="21">
+      <c r="CH15" s="20">
         <v>3085.9450636350798</v>
       </c>
-      <c r="CI15" s="21">
-        <v>3360.4202604514762</v>
-      </c>
-      <c r="CJ15" s="8"/>
+      <c r="CI15" s="20">
+        <v>3438.8113492011848</v>
+      </c>
+      <c r="CJ15" s="20">
+        <v>3776.4891554276164</v>
+      </c>
       <c r="CK15" s="8"/>
       <c r="CL15" s="8"/>
       <c r="CM15" s="8"/>
@@ -2694,25 +2706,27 @@
       <c r="CC16" s="7">
         <v>64546.344676669141</v>
       </c>
-      <c r="CD16" s="21">
+      <c r="CD16" s="20">
         <v>106388.76006203156</v>
       </c>
-      <c r="CE16" s="21">
+      <c r="CE16" s="20">
         <v>86074.346190977856</v>
       </c>
-      <c r="CF16" s="21">
+      <c r="CF16" s="20">
         <v>58108.39956313611</v>
       </c>
-      <c r="CG16" s="21">
+      <c r="CG16" s="20">
         <v>60540.715796021614</v>
       </c>
-      <c r="CH16" s="21">
+      <c r="CH16" s="20">
         <v>104028.14005270365</v>
       </c>
-      <c r="CI16" s="21">
-        <v>104314.74675903127</v>
-      </c>
-      <c r="CJ16" s="8"/>
+      <c r="CI16" s="20">
+        <v>101878.54866967555</v>
+      </c>
+      <c r="CJ16" s="20">
+        <v>70922.376110319237</v>
+      </c>
       <c r="CK16" s="8"/>
       <c r="CL16" s="8"/>
       <c r="CM16" s="8"/>
@@ -3021,25 +3035,27 @@
       <c r="CC17" s="7">
         <v>269156.31011836824</v>
       </c>
-      <c r="CD17" s="21">
+      <c r="CD17" s="20">
         <v>346096.80980260269</v>
       </c>
-      <c r="CE17" s="21">
+      <c r="CE17" s="20">
         <v>299196.14261641022</v>
       </c>
-      <c r="CF17" s="21">
+      <c r="CF17" s="20">
         <v>251241.18618202559</v>
       </c>
-      <c r="CG17" s="21">
+      <c r="CG17" s="20">
         <v>270907.40938500199</v>
       </c>
-      <c r="CH17" s="21">
+      <c r="CH17" s="20">
         <v>342299.43622982444</v>
       </c>
-      <c r="CI17" s="21">
-        <v>352260.9583559772</v>
-      </c>
-      <c r="CJ17" s="8"/>
+      <c r="CI17" s="20">
+        <v>346990.80493395386</v>
+      </c>
+      <c r="CJ17" s="20">
+        <v>259288.63493118281</v>
+      </c>
       <c r="CK17" s="8"/>
       <c r="CL17" s="8"/>
       <c r="CM17" s="8"/>
@@ -3348,25 +3364,27 @@
       <c r="CC18" s="7">
         <v>46459.03507256334</v>
       </c>
-      <c r="CD18" s="21">
+      <c r="CD18" s="20">
         <v>71805.642590515621</v>
       </c>
-      <c r="CE18" s="21">
+      <c r="CE18" s="20">
         <v>59520.593464625519</v>
       </c>
-      <c r="CF18" s="21">
+      <c r="CF18" s="20">
         <v>45589.088109905439</v>
       </c>
-      <c r="CG18" s="21">
+      <c r="CG18" s="20">
         <v>42373.462819087537</v>
       </c>
-      <c r="CH18" s="21">
+      <c r="CH18" s="20">
         <v>70739.801760135873</v>
       </c>
-      <c r="CI18" s="21">
-        <v>71574.124143462002</v>
-      </c>
-      <c r="CJ18" s="8"/>
+      <c r="CI18" s="20">
+        <v>73530.605226210522</v>
+      </c>
+      <c r="CJ18" s="20">
+        <v>60443.261262100285</v>
+      </c>
       <c r="CK18" s="8"/>
       <c r="CL18" s="8"/>
       <c r="CM18" s="8"/>
@@ -3675,25 +3693,27 @@
       <c r="CC19" s="7">
         <v>7878.07073289245</v>
       </c>
-      <c r="CD19" s="21">
+      <c r="CD19" s="20">
         <v>6248.762207795804</v>
       </c>
-      <c r="CE19" s="21">
+      <c r="CE19" s="20">
         <v>6149.9095023102891</v>
       </c>
-      <c r="CF19" s="21">
+      <c r="CF19" s="20">
         <v>5608.2856491674693</v>
       </c>
-      <c r="CG19" s="21">
+      <c r="CG19" s="20">
         <v>5681.5271120043963</v>
       </c>
-      <c r="CH19" s="21">
+      <c r="CH19" s="20">
         <v>5334.4905963892161</v>
       </c>
-      <c r="CI19" s="21">
-        <v>6675.029720399265</v>
-      </c>
-      <c r="CJ19" s="8"/>
+      <c r="CI19" s="20">
+        <v>6709.2897414248655</v>
+      </c>
+      <c r="CJ19" s="20">
+        <v>6887.3941455703925</v>
+      </c>
       <c r="CK19" s="8"/>
       <c r="CL19" s="8"/>
       <c r="CM19" s="8"/>
@@ -3839,13 +3859,13 @@
       <c r="CA20" s="8"/>
       <c r="CB20" s="8"/>
       <c r="CC20" s="8"/>
-      <c r="CD20" s="22"/>
-      <c r="CE20" s="22"/>
-      <c r="CF20" s="22"/>
-      <c r="CG20" s="22"/>
-      <c r="CH20" s="22"/>
-      <c r="CI20" s="22"/>
-      <c r="CJ20" s="8"/>
+      <c r="CD20" s="21"/>
+      <c r="CE20" s="21"/>
+      <c r="CF20" s="21"/>
+      <c r="CG20" s="21"/>
+      <c r="CH20" s="21"/>
+      <c r="CI20" s="21"/>
+      <c r="CJ20" s="21"/>
       <c r="CK20" s="8"/>
       <c r="CL20" s="8"/>
       <c r="CM20" s="8"/>
@@ -4154,25 +4174,27 @@
       <c r="CC21" s="10">
         <v>540001.90572743129</v>
       </c>
-      <c r="CD21" s="23">
+      <c r="CD21" s="22">
         <v>678594.56051879551</v>
       </c>
-      <c r="CE21" s="23">
+      <c r="CE21" s="22">
         <v>472639.57669289305</v>
       </c>
-      <c r="CF21" s="23">
+      <c r="CF21" s="22">
         <v>399871.65058867732</v>
       </c>
-      <c r="CG21" s="23">
+      <c r="CG21" s="22">
         <v>415395.48118320556</v>
       </c>
-      <c r="CH21" s="23">
+      <c r="CH21" s="22">
         <v>548651.5557535718</v>
       </c>
-      <c r="CI21" s="23">
-        <v>573118.34928690339</v>
-      </c>
-      <c r="CJ21" s="8"/>
+      <c r="CI21" s="22">
+        <v>579000.66225311637</v>
+      </c>
+      <c r="CJ21" s="22">
+        <v>451094.57724569825</v>
+      </c>
       <c r="CK21" s="8"/>
       <c r="CL21" s="8"/>
       <c r="CM21" s="8"/>
@@ -4319,12 +4341,13 @@
       <c r="CA22" s="11"/>
       <c r="CB22" s="11"/>
       <c r="CC22" s="11"/>
-      <c r="CD22" s="24"/>
-      <c r="CE22" s="24"/>
-      <c r="CF22" s="24"/>
-      <c r="CG22" s="24"/>
-      <c r="CH22" s="24"/>
-      <c r="CI22" s="24"/>
+      <c r="CD22" s="23"/>
+      <c r="CE22" s="23"/>
+      <c r="CF22" s="23"/>
+      <c r="CG22" s="23"/>
+      <c r="CH22" s="23"/>
+      <c r="CI22" s="23"/>
+      <c r="CJ22" s="23"/>
     </row>
     <row r="23" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
@@ -4412,13 +4435,13 @@
       <c r="CA24" s="8"/>
       <c r="CB24" s="8"/>
       <c r="CC24" s="8"/>
-      <c r="CD24" s="22"/>
-      <c r="CE24" s="22"/>
-      <c r="CF24" s="22"/>
-      <c r="CG24" s="22"/>
-      <c r="CH24" s="22"/>
-      <c r="CI24" s="22"/>
-      <c r="CJ24" s="8"/>
+      <c r="CD24" s="21"/>
+      <c r="CE24" s="21"/>
+      <c r="CF24" s="21"/>
+      <c r="CG24" s="21"/>
+      <c r="CH24" s="21"/>
+      <c r="CI24" s="21"/>
+      <c r="CJ24" s="21"/>
       <c r="CK24" s="8"/>
       <c r="CL24" s="8"/>
       <c r="CM24" s="8"/>
@@ -4564,13 +4587,13 @@
       <c r="CA25" s="8"/>
       <c r="CB25" s="8"/>
       <c r="CC25" s="8"/>
-      <c r="CD25" s="22"/>
-      <c r="CE25" s="22"/>
-      <c r="CF25" s="22"/>
-      <c r="CG25" s="22"/>
-      <c r="CH25" s="22"/>
-      <c r="CI25" s="22"/>
-      <c r="CJ25" s="8"/>
+      <c r="CD25" s="21"/>
+      <c r="CE25" s="21"/>
+      <c r="CF25" s="21"/>
+      <c r="CG25" s="21"/>
+      <c r="CH25" s="21"/>
+      <c r="CI25" s="21"/>
+      <c r="CJ25" s="21"/>
       <c r="CK25" s="8"/>
       <c r="CL25" s="8"/>
       <c r="CM25" s="8"/>
@@ -4799,6 +4822,7 @@
       <c r="CI34" s="28">
         <v>0</v>
       </c>
+      <c r="CJ34" s="28"/>
     </row>
     <row r="35" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
@@ -5042,23 +5066,26 @@
       <c r="CC35" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CD35" s="25" t="s">
+      <c r="CD35" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CE35" s="25" t="s">
+      <c r="CE35" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CF35" s="25" t="s">
+      <c r="CF35" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="CG35" s="25" t="s">
+      <c r="CG35" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CH35" s="25" t="s">
+      <c r="CH35" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CI35" s="25" t="s">
+      <c r="CI35" s="24" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ35" s="24" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5308,25 +5335,27 @@
       <c r="CC37" s="7">
         <v>44725.990643891746</v>
       </c>
-      <c r="CD37" s="21">
+      <c r="CD37" s="20">
         <v>30626.489402743518</v>
       </c>
-      <c r="CE37" s="21">
+      <c r="CE37" s="20">
         <v>13543.604832631756</v>
       </c>
-      <c r="CF37" s="21">
+      <c r="CF37" s="20">
         <v>20313.003574479371</v>
       </c>
-      <c r="CG37" s="21">
+      <c r="CG37" s="20">
         <v>21626.707123416036</v>
       </c>
-      <c r="CH37" s="21">
+      <c r="CH37" s="20">
         <v>17520.856490481521</v>
       </c>
-      <c r="CI37" s="21">
-        <v>15734.679460408563</v>
-      </c>
-      <c r="CJ37" s="8"/>
+      <c r="CI37" s="20">
+        <v>15112.588522108954</v>
+      </c>
+      <c r="CJ37" s="20">
+        <v>23160.921553686745</v>
+      </c>
       <c r="CK37" s="8"/>
       <c r="CL37" s="8"/>
       <c r="CM37" s="8"/>
@@ -5635,25 +5664,27 @@
       <c r="CC38" s="7">
         <v>802.96901766546466</v>
       </c>
-      <c r="CD38" s="21">
+      <c r="CD38" s="20">
         <v>436.66876559975907</v>
       </c>
-      <c r="CE38" s="21">
+      <c r="CE38" s="20">
         <v>261.39181244364426</v>
       </c>
-      <c r="CF38" s="21">
+      <c r="CF38" s="20">
         <v>662.7779598139482</v>
       </c>
-      <c r="CG38" s="21">
+      <c r="CG38" s="20">
         <v>759.35743635758683</v>
       </c>
-      <c r="CH38" s="21">
+      <c r="CH38" s="20">
         <v>460.05588510441675</v>
       </c>
-      <c r="CI38" s="21">
-        <v>343.34089511218372</v>
-      </c>
-      <c r="CJ38" s="8"/>
+      <c r="CI38" s="20">
+        <v>360.15495531134843</v>
+      </c>
+      <c r="CJ38" s="20">
+        <v>743.48303901949737</v>
+      </c>
       <c r="CK38" s="8"/>
       <c r="CL38" s="8"/>
       <c r="CM38" s="8"/>
@@ -5962,25 +5993,27 @@
       <c r="CC39" s="7">
         <v>101660.9649982664</v>
       </c>
-      <c r="CD39" s="21">
+      <c r="CD39" s="20">
         <v>107615.99078256269</v>
       </c>
-      <c r="CE39" s="21">
+      <c r="CE39" s="20">
         <v>5149.6507164927534</v>
       </c>
-      <c r="CF39" s="21">
+      <c r="CF39" s="20">
         <v>13657.848098351255</v>
       </c>
-      <c r="CG39" s="21">
+      <c r="CG39" s="20">
         <v>7924.9178789822236</v>
       </c>
-      <c r="CH39" s="21">
+      <c r="CH39" s="20">
         <v>2138.9207396531883</v>
       </c>
-      <c r="CI39" s="21">
-        <v>15956.901007324566</v>
-      </c>
-      <c r="CJ39" s="8"/>
+      <c r="CI39" s="20">
+        <v>27061.127282441081</v>
+      </c>
+      <c r="CJ39" s="20">
+        <v>20980.58990697519</v>
+      </c>
       <c r="CK39" s="8"/>
       <c r="CL39" s="8"/>
       <c r="CM39" s="8"/>
@@ -6289,25 +6322,27 @@
       <c r="CC40" s="7">
         <v>2593.7949415158037</v>
       </c>
-      <c r="CD40" s="21">
+      <c r="CD40" s="20">
         <v>2466.8598585310178</v>
       </c>
-      <c r="CE40" s="21">
+      <c r="CE40" s="20">
         <v>2657.164078613212</v>
       </c>
-      <c r="CF40" s="21">
+      <c r="CF40" s="20">
         <v>2831.4912304316867</v>
       </c>
-      <c r="CG40" s="21">
+      <c r="CG40" s="20">
         <v>2794.4417354123757</v>
       </c>
-      <c r="CH40" s="21">
+      <c r="CH40" s="20">
         <v>2945.8113808788394</v>
       </c>
-      <c r="CI40" s="21">
-        <v>3205.4940922249707</v>
-      </c>
-      <c r="CJ40" s="8"/>
+      <c r="CI40" s="20">
+        <v>3280.2710999783149</v>
+      </c>
+      <c r="CJ40" s="20">
+        <v>3529.4697269102971</v>
+      </c>
       <c r="CK40" s="8"/>
       <c r="CL40" s="8"/>
       <c r="CM40" s="8"/>
@@ -6616,25 +6651,27 @@
       <c r="CC41" s="7">
         <v>65415.838723488094</v>
       </c>
-      <c r="CD41" s="21">
+      <c r="CD41" s="20">
         <v>105383.42652976808</v>
       </c>
-      <c r="CE41" s="21">
+      <c r="CE41" s="20">
         <v>85303.114535815388</v>
       </c>
-      <c r="CF41" s="21">
+      <c r="CF41" s="20">
         <v>57311.639636476502</v>
       </c>
-      <c r="CG41" s="21">
+      <c r="CG41" s="20">
         <v>61175.574457265568</v>
       </c>
-      <c r="CH41" s="21">
+      <c r="CH41" s="20">
         <v>102809.30125245436</v>
       </c>
-      <c r="CI41" s="21">
-        <v>103109.78309572217</v>
-      </c>
-      <c r="CJ41" s="8"/>
+      <c r="CI41" s="20">
+        <v>100701.72609154858</v>
+      </c>
+      <c r="CJ41" s="20">
+        <v>69767.204458864173</v>
+      </c>
       <c r="CK41" s="8"/>
       <c r="CL41" s="8"/>
       <c r="CM41" s="8"/>
@@ -6943,25 +6980,27 @@
       <c r="CC42" s="7">
         <v>261437.80028709813</v>
       </c>
-      <c r="CD42" s="21">
+      <c r="CD42" s="20">
         <v>325938.64012443181</v>
       </c>
-      <c r="CE42" s="21">
+      <c r="CE42" s="20">
         <v>297685.5064581047</v>
       </c>
-      <c r="CF42" s="21">
+      <c r="CF42" s="20">
         <v>237666.84089454132</v>
       </c>
-      <c r="CG42" s="21">
+      <c r="CG42" s="20">
         <v>257306.27757503474</v>
       </c>
-      <c r="CH42" s="21">
+      <c r="CH42" s="20">
         <v>313658.9729647651</v>
       </c>
-      <c r="CI42" s="21">
-        <v>337853.12707987509</v>
-      </c>
-      <c r="CJ42" s="8"/>
+      <c r="CI42" s="20">
+        <v>332798.52829001442</v>
+      </c>
+      <c r="CJ42" s="20">
+        <v>237419.75301103739</v>
+      </c>
       <c r="CK42" s="8"/>
       <c r="CL42" s="8"/>
       <c r="CM42" s="8"/>
@@ -7270,25 +7309,27 @@
       <c r="CC43" s="7">
         <v>46048.282508936878</v>
       </c>
-      <c r="CD43" s="21">
+      <c r="CD43" s="20">
         <v>68758.770421120236</v>
       </c>
-      <c r="CE43" s="21">
+      <c r="CE43" s="20">
         <v>57421.867763688169</v>
       </c>
-      <c r="CF43" s="21">
+      <c r="CF43" s="20">
         <v>43178.869113891196</v>
       </c>
-      <c r="CG43" s="21">
+      <c r="CG43" s="20">
         <v>41067.937424928037</v>
       </c>
-      <c r="CH43" s="21">
+      <c r="CH43" s="20">
         <v>65909.291972822029</v>
       </c>
-      <c r="CI43" s="21">
-        <v>66562.225553229669</v>
-      </c>
-      <c r="CJ43" s="8"/>
+      <c r="CI43" s="20">
+        <v>68381.706220006774</v>
+      </c>
+      <c r="CJ43" s="20">
+        <v>55413.279870243554</v>
+      </c>
       <c r="CK43" s="8"/>
       <c r="CL43" s="8"/>
       <c r="CM43" s="8"/>
@@ -7597,25 +7638,27 @@
       <c r="CC44" s="7">
         <v>7800.6818332445764</v>
       </c>
-      <c r="CD44" s="21">
+      <c r="CD44" s="20">
         <v>5980.2912905260628</v>
       </c>
-      <c r="CE44" s="21">
+      <c r="CE44" s="20">
         <v>5915.9463217096045</v>
       </c>
-      <c r="CF44" s="21">
+      <c r="CF44" s="20">
         <v>5306.3257063791525</v>
       </c>
-      <c r="CG44" s="21">
+      <c r="CG44" s="20">
         <v>5501.0229420066535</v>
       </c>
-      <c r="CH44" s="21">
+      <c r="CH44" s="20">
         <v>4967.4622236797732</v>
       </c>
-      <c r="CI44" s="21">
-        <v>6189.7118785046732</v>
-      </c>
-      <c r="CJ44" s="8"/>
+      <c r="CI44" s="20">
+        <v>6221.4809743713067</v>
+      </c>
+      <c r="CJ44" s="20">
+        <v>6307.7478536294502</v>
+      </c>
       <c r="CK44" s="8"/>
       <c r="CL44" s="8"/>
       <c r="CM44" s="8"/>
@@ -7761,13 +7804,13 @@
       <c r="CA45" s="8"/>
       <c r="CB45" s="8"/>
       <c r="CC45" s="8"/>
-      <c r="CD45" s="22"/>
-      <c r="CE45" s="22"/>
-      <c r="CF45" s="22"/>
-      <c r="CG45" s="22"/>
-      <c r="CH45" s="22"/>
-      <c r="CI45" s="22"/>
-      <c r="CJ45" s="8"/>
+      <c r="CD45" s="21"/>
+      <c r="CE45" s="21"/>
+      <c r="CF45" s="21"/>
+      <c r="CG45" s="21"/>
+      <c r="CH45" s="21"/>
+      <c r="CI45" s="21"/>
+      <c r="CJ45" s="21"/>
       <c r="CK45" s="8"/>
       <c r="CL45" s="8"/>
       <c r="CM45" s="8"/>
@@ -8076,25 +8119,27 @@
       <c r="CC46" s="10">
         <v>530486.32295410708</v>
       </c>
-      <c r="CD46" s="23">
+      <c r="CD46" s="22">
         <v>647207.13717528316</v>
       </c>
-      <c r="CE46" s="23">
+      <c r="CE46" s="22">
         <v>467938.24651949923</v>
       </c>
-      <c r="CF46" s="23">
+      <c r="CF46" s="22">
         <v>380928.79621436441</v>
       </c>
-      <c r="CG46" s="23">
+      <c r="CG46" s="22">
         <v>398156.23657340318</v>
       </c>
-      <c r="CH46" s="23">
+      <c r="CH46" s="22">
         <v>510410.6729098392</v>
       </c>
-      <c r="CI46" s="23">
-        <v>548955.26306240191</v>
-      </c>
-      <c r="CJ46" s="8"/>
+      <c r="CI46" s="22">
+        <v>553917.58343578083</v>
+      </c>
+      <c r="CJ46" s="22">
+        <v>417322.44942036632</v>
+      </c>
       <c r="CK46" s="8"/>
       <c r="CL46" s="8"/>
       <c r="CM46" s="8"/>
@@ -8241,12 +8286,13 @@
       <c r="CA47" s="11"/>
       <c r="CB47" s="11"/>
       <c r="CC47" s="11"/>
-      <c r="CD47" s="24"/>
-      <c r="CE47" s="24"/>
-      <c r="CF47" s="24"/>
-      <c r="CG47" s="24"/>
-      <c r="CH47" s="24"/>
-      <c r="CI47" s="24"/>
+      <c r="CD47" s="23"/>
+      <c r="CE47" s="23"/>
+      <c r="CF47" s="23"/>
+      <c r="CG47" s="23"/>
+      <c r="CH47" s="23"/>
+      <c r="CI47" s="23"/>
+      <c r="CJ47" s="23"/>
     </row>
     <row r="48" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
@@ -8334,13 +8380,13 @@
       <c r="CA49" s="8"/>
       <c r="CB49" s="8"/>
       <c r="CC49" s="8"/>
-      <c r="CD49" s="22"/>
-      <c r="CE49" s="22"/>
-      <c r="CF49" s="22"/>
-      <c r="CG49" s="22"/>
-      <c r="CH49" s="22"/>
-      <c r="CI49" s="22"/>
-      <c r="CJ49" s="8"/>
+      <c r="CD49" s="21"/>
+      <c r="CE49" s="21"/>
+      <c r="CF49" s="21"/>
+      <c r="CG49" s="21"/>
+      <c r="CH49" s="21"/>
+      <c r="CI49" s="21"/>
+      <c r="CJ49" s="21"/>
       <c r="CK49" s="8"/>
       <c r="CL49" s="8"/>
       <c r="CM49" s="8"/>
@@ -8486,13 +8532,13 @@
       <c r="CA50" s="8"/>
       <c r="CB50" s="8"/>
       <c r="CC50" s="8"/>
-      <c r="CD50" s="22"/>
-      <c r="CE50" s="22"/>
-      <c r="CF50" s="22"/>
-      <c r="CG50" s="22"/>
-      <c r="CH50" s="22"/>
-      <c r="CI50" s="22"/>
-      <c r="CJ50" s="8"/>
+      <c r="CD50" s="21"/>
+      <c r="CE50" s="21"/>
+      <c r="CF50" s="21"/>
+      <c r="CG50" s="21"/>
+      <c r="CH50" s="21"/>
+      <c r="CI50" s="21"/>
+      <c r="CJ50" s="21"/>
       <c r="CK50" s="8"/>
       <c r="CL50" s="8"/>
       <c r="CM50" s="8"/>
@@ -8715,10 +8761,11 @@
       <c r="CE59" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="CF59" s="19"/>
-      <c r="CG59" s="19"/>
-      <c r="CH59" s="19"/>
-      <c r="CI59" s="19"/>
+      <c r="CF59" s="27"/>
+      <c r="CG59" s="27"/>
+      <c r="CH59" s="27"/>
+      <c r="CI59" s="27"/>
+      <c r="CJ59" s="27"/>
     </row>
     <row r="60" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
@@ -8962,16 +9009,19 @@
       <c r="CC60" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CD60" s="20" t="s">
+      <c r="CD60" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CE60" s="20" t="s">
+      <c r="CE60" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CF60" s="20"/>
-      <c r="CG60" s="20"/>
-      <c r="CH60" s="20"/>
-      <c r="CI60" s="20"/>
+      <c r="CF60" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="CG60" s="19"/>
+      <c r="CH60" s="19"/>
+      <c r="CI60" s="19"/>
+      <c r="CJ60" s="19"/>
     </row>
     <row r="61" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
@@ -9220,17 +9270,19 @@
       <c r="CC62" s="14">
         <v>-47.802514613163481</v>
       </c>
-      <c r="CD62" s="26">
+      <c r="CD62" s="25">
         <v>-36.513243769328263</v>
       </c>
-      <c r="CE62" s="26">
-        <v>28.325179995291421</v>
-      </c>
-      <c r="CF62" s="22"/>
-      <c r="CG62" s="22"/>
-      <c r="CH62" s="22"/>
-      <c r="CI62" s="22"/>
-      <c r="CJ62" s="8"/>
+      <c r="CE62" s="25">
+        <v>23.251677746224075</v>
+      </c>
+      <c r="CF62" s="25">
+        <v>21.396577533771932</v>
+      </c>
+      <c r="CG62" s="21"/>
+      <c r="CH62" s="21"/>
+      <c r="CI62" s="21"/>
+      <c r="CJ62" s="21"/>
       <c r="CK62" s="8"/>
       <c r="CL62" s="8"/>
       <c r="CM62" s="8"/>
@@ -9535,17 +9587,19 @@
       <c r="CC63" s="14">
         <v>-3.2876852408687824</v>
       </c>
-      <c r="CD63" s="26">
+      <c r="CD63" s="25">
         <v>8.2792360647258221</v>
       </c>
-      <c r="CE63" s="26">
-        <v>36.261079319690765</v>
-      </c>
-      <c r="CF63" s="22"/>
-      <c r="CG63" s="22"/>
-      <c r="CH63" s="22"/>
-      <c r="CI63" s="22"/>
-      <c r="CJ63" s="8"/>
+      <c r="CE63" s="25">
+        <v>42.934044943945452</v>
+      </c>
+      <c r="CF63" s="25">
+        <v>15.890383072214462</v>
+      </c>
+      <c r="CG63" s="21"/>
+      <c r="CH63" s="21"/>
+      <c r="CI63" s="21"/>
+      <c r="CJ63" s="21"/>
       <c r="CK63" s="8"/>
       <c r="CL63" s="8"/>
       <c r="CM63" s="8"/>
@@ -9850,17 +9904,19 @@
       <c r="CC64" s="14">
         <v>-91.962539751824778</v>
       </c>
-      <c r="CD64" s="26">
+      <c r="CD64" s="25">
         <v>-97.923703859892953</v>
       </c>
-      <c r="CE64" s="26">
-        <v>223.44370997710689</v>
-      </c>
-      <c r="CF64" s="22"/>
-      <c r="CG64" s="22"/>
-      <c r="CH64" s="22"/>
-      <c r="CI64" s="22"/>
-      <c r="CJ64" s="8"/>
+      <c r="CE64" s="25">
+        <v>448.5245161562226</v>
+      </c>
+      <c r="CF64" s="25">
+        <v>60.628680182434238</v>
+      </c>
+      <c r="CG64" s="21"/>
+      <c r="CH64" s="21"/>
+      <c r="CI64" s="21"/>
+      <c r="CJ64" s="21"/>
       <c r="CK64" s="8"/>
       <c r="CL64" s="8"/>
       <c r="CM64" s="8"/>
@@ -10165,17 +10221,19 @@
       <c r="CC65" s="14">
         <v>9.8917521253200107</v>
       </c>
-      <c r="CD65" s="26">
+      <c r="CD65" s="25">
         <v>22.187866705153908</v>
       </c>
-      <c r="CE65" s="26">
-        <v>23.613526602569877</v>
-      </c>
-      <c r="CF65" s="22"/>
-      <c r="CG65" s="22"/>
-      <c r="CH65" s="22"/>
-      <c r="CI65" s="22"/>
-      <c r="CJ65" s="8"/>
+      <c r="CE65" s="25">
+        <v>26.497153703801743</v>
+      </c>
+      <c r="CF65" s="25">
+        <v>27.281902453962687</v>
+      </c>
+      <c r="CG65" s="21"/>
+      <c r="CH65" s="21"/>
+      <c r="CI65" s="21"/>
+      <c r="CJ65" s="21"/>
       <c r="CK65" s="8"/>
       <c r="CL65" s="8"/>
       <c r="CM65" s="8"/>
@@ -10480,17 +10538,19 @@
       <c r="CC66" s="14">
         <v>-6.2058183166108734</v>
       </c>
-      <c r="CD66" s="26">
+      <c r="CD66" s="25">
         <v>-2.2188622256256423</v>
       </c>
-      <c r="CE66" s="26">
-        <v>21.191448294689863</v>
-      </c>
-      <c r="CF66" s="22"/>
-      <c r="CG66" s="22"/>
-      <c r="CH66" s="22"/>
-      <c r="CI66" s="22"/>
-      <c r="CJ66" s="8"/>
+      <c r="CE66" s="25">
+        <v>18.361106622444794</v>
+      </c>
+      <c r="CF66" s="25">
+        <v>22.051849033048043</v>
+      </c>
+      <c r="CG66" s="21"/>
+      <c r="CH66" s="21"/>
+      <c r="CI66" s="21"/>
+      <c r="CJ66" s="21"/>
       <c r="CK66" s="8"/>
       <c r="CL66" s="8"/>
       <c r="CM66" s="8"/>
@@ -10795,17 +10855,19 @@
       <c r="CC67" s="14">
         <v>0.65058822728832411</v>
       </c>
-      <c r="CD67" s="26">
+      <c r="CD67" s="25">
         <v>-1.097199819595005</v>
       </c>
-      <c r="CE67" s="26">
-        <v>17.735795413512292</v>
-      </c>
-      <c r="CF67" s="22"/>
-      <c r="CG67" s="22"/>
-      <c r="CH67" s="22"/>
-      <c r="CI67" s="22"/>
-      <c r="CJ67" s="8"/>
+      <c r="CE67" s="25">
+        <v>15.974357790708439</v>
+      </c>
+      <c r="CF67" s="25">
+        <v>3.2030770398157529</v>
+      </c>
+      <c r="CG67" s="21"/>
+      <c r="CH67" s="21"/>
+      <c r="CI67" s="21"/>
+      <c r="CJ67" s="21"/>
       <c r="CK67" s="8"/>
       <c r="CL67" s="8"/>
       <c r="CM67" s="8"/>
@@ -11110,17 +11172,19 @@
       <c r="CC68" s="14">
         <v>-8.7939240388756161</v>
       </c>
-      <c r="CD68" s="26">
+      <c r="CD68" s="25">
         <v>-1.4843413301903041</v>
       </c>
-      <c r="CE68" s="26">
-        <v>20.25102569919801</v>
-      </c>
-      <c r="CF68" s="22"/>
-      <c r="CG68" s="22"/>
-      <c r="CH68" s="22"/>
-      <c r="CI68" s="22"/>
-      <c r="CJ68" s="8"/>
+      <c r="CE68" s="25">
+        <v>23.53809151770551</v>
+      </c>
+      <c r="CF68" s="25">
+        <v>32.582738036752659</v>
+      </c>
+      <c r="CG68" s="21"/>
+      <c r="CH68" s="21"/>
+      <c r="CI68" s="21"/>
+      <c r="CJ68" s="21"/>
       <c r="CK68" s="8"/>
       <c r="CL68" s="8"/>
       <c r="CM68" s="8"/>
@@ -11425,17 +11489,19 @@
       <c r="CC69" s="14">
         <v>-27.881745358252047</v>
       </c>
-      <c r="CD69" s="26">
+      <c r="CD69" s="25">
         <v>-14.631243452758767</v>
       </c>
-      <c r="CE69" s="26">
-        <v>8.5386657786054911</v>
-      </c>
-      <c r="CF69" s="22"/>
-      <c r="CG69" s="22"/>
-      <c r="CH69" s="22"/>
-      <c r="CI69" s="22"/>
-      <c r="CJ69" s="8"/>
+      <c r="CE69" s="25">
+        <v>9.0957474887140677</v>
+      </c>
+      <c r="CF69" s="25">
+        <v>22.807477657504876</v>
+      </c>
+      <c r="CG69" s="21"/>
+      <c r="CH69" s="21"/>
+      <c r="CI69" s="21"/>
+      <c r="CJ69" s="21"/>
       <c r="CK69" s="8"/>
       <c r="CL69" s="8"/>
       <c r="CM69" s="8"/>
@@ -11577,13 +11643,13 @@
       <c r="CA70" s="8"/>
       <c r="CB70" s="8"/>
       <c r="CC70" s="8"/>
-      <c r="CD70" s="22"/>
-      <c r="CE70" s="22"/>
-      <c r="CF70" s="22"/>
-      <c r="CG70" s="22"/>
-      <c r="CH70" s="22"/>
-      <c r="CI70" s="22"/>
-      <c r="CJ70" s="8"/>
+      <c r="CD70" s="21"/>
+      <c r="CE70" s="21"/>
+      <c r="CF70" s="21"/>
+      <c r="CG70" s="21"/>
+      <c r="CH70" s="21"/>
+      <c r="CI70" s="21"/>
+      <c r="CJ70" s="21"/>
       <c r="CK70" s="8"/>
       <c r="CL70" s="8"/>
       <c r="CM70" s="8"/>
@@ -11888,17 +11954,19 @@
       <c r="CC71" s="14">
         <v>-23.07518236928621</v>
       </c>
-      <c r="CD71" s="26">
+      <c r="CD71" s="25">
         <v>-19.148842670633897</v>
       </c>
-      <c r="CE71" s="26">
-        <v>21.25906875955468</v>
-      </c>
-      <c r="CF71" s="22"/>
-      <c r="CG71" s="22"/>
-      <c r="CH71" s="22"/>
-      <c r="CI71" s="22"/>
-      <c r="CJ71" s="8"/>
+      <c r="CE71" s="25">
+        <v>22.503635075260235</v>
+      </c>
+      <c r="CF71" s="25">
+        <v>12.809842003455941</v>
+      </c>
+      <c r="CG71" s="21"/>
+      <c r="CH71" s="21"/>
+      <c r="CI71" s="21"/>
+      <c r="CJ71" s="21"/>
       <c r="CK71" s="8"/>
       <c r="CL71" s="8"/>
       <c r="CM71" s="8"/>
@@ -12041,12 +12109,13 @@
       <c r="CA72" s="11"/>
       <c r="CB72" s="11"/>
       <c r="CC72" s="11"/>
-      <c r="CD72" s="24"/>
-      <c r="CE72" s="24"/>
-      <c r="CF72" s="24"/>
-      <c r="CG72" s="24"/>
-      <c r="CH72" s="24"/>
-      <c r="CI72" s="24"/>
+      <c r="CD72" s="23"/>
+      <c r="CE72" s="23"/>
+      <c r="CF72" s="23"/>
+      <c r="CG72" s="23"/>
+      <c r="CH72" s="23"/>
+      <c r="CI72" s="23"/>
+      <c r="CJ72" s="23"/>
     </row>
     <row r="73" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
@@ -12134,13 +12203,13 @@
       <c r="CA74" s="8"/>
       <c r="CB74" s="8"/>
       <c r="CC74" s="8"/>
-      <c r="CD74" s="22"/>
-      <c r="CE74" s="22"/>
-      <c r="CF74" s="22"/>
-      <c r="CG74" s="22"/>
-      <c r="CH74" s="22"/>
-      <c r="CI74" s="22"/>
-      <c r="CJ74" s="8"/>
+      <c r="CD74" s="21"/>
+      <c r="CE74" s="21"/>
+      <c r="CF74" s="21"/>
+      <c r="CG74" s="21"/>
+      <c r="CH74" s="21"/>
+      <c r="CI74" s="21"/>
+      <c r="CJ74" s="21"/>
       <c r="CK74" s="8"/>
       <c r="CL74" s="8"/>
       <c r="CM74" s="8"/>
@@ -12282,13 +12351,13 @@
       <c r="CA75" s="8"/>
       <c r="CB75" s="8"/>
       <c r="CC75" s="8"/>
-      <c r="CD75" s="22"/>
-      <c r="CE75" s="22"/>
-      <c r="CF75" s="22"/>
-      <c r="CG75" s="22"/>
-      <c r="CH75" s="22"/>
-      <c r="CI75" s="22"/>
-      <c r="CJ75" s="8"/>
+      <c r="CD75" s="21"/>
+      <c r="CE75" s="21"/>
+      <c r="CF75" s="21"/>
+      <c r="CG75" s="21"/>
+      <c r="CH75" s="21"/>
+      <c r="CI75" s="21"/>
+      <c r="CJ75" s="21"/>
       <c r="CK75" s="8"/>
       <c r="CL75" s="8"/>
       <c r="CM75" s="8"/>
@@ -12507,10 +12576,11 @@
       <c r="CE84" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="CF84" s="19"/>
-      <c r="CG84" s="19"/>
-      <c r="CH84" s="19"/>
-      <c r="CI84" s="19"/>
+      <c r="CF84" s="28"/>
+      <c r="CG84" s="27"/>
+      <c r="CH84" s="27"/>
+      <c r="CI84" s="27"/>
+      <c r="CJ84" s="27"/>
     </row>
     <row r="85" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
@@ -12754,16 +12824,19 @@
       <c r="CC85" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CD85" s="20" t="s">
+      <c r="CD85" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CE85" s="20" t="s">
+      <c r="CE85" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CF85" s="20"/>
-      <c r="CG85" s="20"/>
-      <c r="CH85" s="20"/>
-      <c r="CI85" s="20"/>
+      <c r="CF85" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="CG85" s="19"/>
+      <c r="CH85" s="19"/>
+      <c r="CI85" s="19"/>
+      <c r="CJ85" s="19"/>
     </row>
     <row r="86" spans="1:147" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
@@ -13012,17 +13085,19 @@
       <c r="CC87" s="14">
         <v>-51.646219989607751</v>
       </c>
-      <c r="CD87" s="26">
+      <c r="CD87" s="25">
         <v>-42.79182226836614</v>
       </c>
-      <c r="CE87" s="26">
-        <v>16.177927921358616</v>
-      </c>
-      <c r="CF87" s="22"/>
-      <c r="CG87" s="22"/>
-      <c r="CH87" s="22"/>
-      <c r="CI87" s="22"/>
-      <c r="CJ87" s="8"/>
+      <c r="CE87" s="25">
+        <v>11.58468302099979</v>
+      </c>
+      <c r="CF87" s="25">
+        <v>14.020171703141955</v>
+      </c>
+      <c r="CG87" s="21"/>
+      <c r="CH87" s="21"/>
+      <c r="CI87" s="21"/>
+      <c r="CJ87" s="21"/>
       <c r="CK87" s="8"/>
       <c r="CL87" s="8"/>
       <c r="CM87" s="8"/>
@@ -13327,17 +13402,19 @@
       <c r="CC88" s="14">
         <v>-5.43129066606744</v>
       </c>
-      <c r="CD88" s="26">
+      <c r="CD88" s="25">
         <v>5.3558031503663273</v>
       </c>
-      <c r="CE88" s="26">
-        <v>31.35105185676295</v>
-      </c>
-      <c r="CF88" s="22"/>
-      <c r="CG88" s="22"/>
-      <c r="CH88" s="22"/>
-      <c r="CI88" s="22"/>
-      <c r="CJ88" s="8"/>
+      <c r="CE88" s="25">
+        <v>37.783564046787944</v>
+      </c>
+      <c r="CF88" s="25">
+        <v>12.176789829915947</v>
+      </c>
+      <c r="CG88" s="21"/>
+      <c r="CH88" s="21"/>
+      <c r="CI88" s="21"/>
+      <c r="CJ88" s="21"/>
       <c r="CK88" s="8"/>
       <c r="CL88" s="8"/>
       <c r="CM88" s="8"/>
@@ -13642,17 +13719,19 @@
       <c r="CC89" s="14">
         <v>-92.20456162390613</v>
       </c>
-      <c r="CD89" s="26">
+      <c r="CD89" s="25">
         <v>-98.012450822503823</v>
       </c>
-      <c r="CE89" s="26">
-        <v>209.86375359826837</v>
-      </c>
-      <c r="CF89" s="22"/>
-      <c r="CG89" s="22"/>
-      <c r="CH89" s="22"/>
-      <c r="CI89" s="22"/>
-      <c r="CJ89" s="8"/>
+      <c r="CE89" s="25">
+        <v>425.49442228717726</v>
+      </c>
+      <c r="CF89" s="25">
+        <v>53.615633706659253</v>
+      </c>
+      <c r="CG89" s="21"/>
+      <c r="CH89" s="21"/>
+      <c r="CI89" s="21"/>
+      <c r="CJ89" s="21"/>
       <c r="CK89" s="8"/>
       <c r="CL89" s="8"/>
       <c r="CM89" s="8"/>
@@ -13957,17 +14036,19 @@
       <c r="CC90" s="14">
         <v>7.735645971277691</v>
       </c>
-      <c r="CD90" s="26">
+      <c r="CD90" s="25">
         <v>19.415432972063144</v>
       </c>
-      <c r="CE90" s="26">
-        <v>20.635910970839817</v>
-      </c>
-      <c r="CF90" s="22"/>
-      <c r="CG90" s="22"/>
-      <c r="CH90" s="22"/>
-      <c r="CI90" s="22"/>
-      <c r="CJ90" s="8"/>
+      <c r="CE90" s="25">
+        <v>23.450076959127998</v>
+      </c>
+      <c r="CF90" s="25">
+        <v>24.650561830353851</v>
+      </c>
+      <c r="CG90" s="21"/>
+      <c r="CH90" s="21"/>
+      <c r="CI90" s="21"/>
+      <c r="CJ90" s="21"/>
       <c r="CK90" s="8"/>
       <c r="CL90" s="8"/>
       <c r="CM90" s="8"/>
@@ -14272,17 +14353,19 @@
       <c r="CC91" s="14">
         <v>-6.4820146755987764</v>
       </c>
-      <c r="CD91" s="26">
+      <c r="CD91" s="25">
         <v>-2.4426281836514363</v>
       </c>
-      <c r="CE91" s="26">
-        <v>20.874581961987417</v>
-      </c>
-      <c r="CF91" s="22"/>
-      <c r="CG91" s="22"/>
-      <c r="CH91" s="22"/>
-      <c r="CI91" s="22"/>
-      <c r="CJ91" s="8"/>
+      <c r="CE91" s="25">
+        <v>18.05164048174106</v>
+      </c>
+      <c r="CF91" s="25">
+        <v>21.733045680410484</v>
+      </c>
+      <c r="CG91" s="21"/>
+      <c r="CH91" s="21"/>
+      <c r="CI91" s="21"/>
+      <c r="CJ91" s="21"/>
       <c r="CK91" s="8"/>
       <c r="CL91" s="8"/>
       <c r="CM91" s="8"/>
@@ -14587,17 +14670,19 @@
       <c r="CC92" s="14">
         <v>-1.5803080914567005</v>
       </c>
-      <c r="CD92" s="26">
+      <c r="CD92" s="25">
         <v>-3.7674781839240552</v>
       </c>
-      <c r="CE92" s="26">
-        <v>13.493307450432908</v>
-      </c>
-      <c r="CF92" s="22"/>
-      <c r="CG92" s="22"/>
-      <c r="CH92" s="22"/>
-      <c r="CI92" s="22"/>
-      <c r="CJ92" s="8"/>
+      <c r="CE92" s="25">
+        <v>11.795341415740495</v>
+      </c>
+      <c r="CF92" s="25">
+        <v>-0.10396397014153536</v>
+      </c>
+      <c r="CG92" s="21"/>
+      <c r="CH92" s="21"/>
+      <c r="CI92" s="21"/>
+      <c r="CJ92" s="21"/>
       <c r="CK92" s="8"/>
       <c r="CL92" s="8"/>
       <c r="CM92" s="8"/>
@@ -14902,17 +14987,19 @@
       <c r="CC93" s="14">
         <v>-10.815484992393081</v>
       </c>
-      <c r="CD93" s="26">
+      <c r="CD93" s="25">
         <v>-4.1441672543680994</v>
       </c>
-      <c r="CE93" s="26">
-        <v>15.917904006810417</v>
-      </c>
-      <c r="CF93" s="22"/>
-      <c r="CG93" s="22"/>
-      <c r="CH93" s="22"/>
-      <c r="CI93" s="22"/>
-      <c r="CJ93" s="8"/>
+      <c r="CE93" s="25">
+        <v>19.086523798602855</v>
+      </c>
+      <c r="CF93" s="25">
+        <v>28.334254711678852</v>
+      </c>
+      <c r="CG93" s="21"/>
+      <c r="CH93" s="21"/>
+      <c r="CI93" s="21"/>
+      <c r="CJ93" s="21"/>
       <c r="CK93" s="8"/>
       <c r="CL93" s="8"/>
       <c r="CM93" s="8"/>
@@ -15217,17 +15304,19 @@
       <c r="CC94" s="14">
         <v>-29.480229297871702</v>
       </c>
-      <c r="CD94" s="26">
+      <c r="CD94" s="25">
         <v>-16.936115945569526</v>
       </c>
-      <c r="CE94" s="26">
-        <v>4.6275868966294951</v>
-      </c>
-      <c r="CF94" s="22"/>
-      <c r="CG94" s="22"/>
-      <c r="CH94" s="22"/>
-      <c r="CI94" s="22"/>
-      <c r="CJ94" s="8"/>
+      <c r="CE94" s="25">
+        <v>5.1645947418503368</v>
+      </c>
+      <c r="CF94" s="25">
+        <v>18.872232928453855</v>
+      </c>
+      <c r="CG94" s="21"/>
+      <c r="CH94" s="21"/>
+      <c r="CI94" s="21"/>
+      <c r="CJ94" s="21"/>
       <c r="CK94" s="8"/>
       <c r="CL94" s="8"/>
       <c r="CM94" s="8"/>
@@ -15369,13 +15458,13 @@
       <c r="CA95" s="8"/>
       <c r="CB95" s="8"/>
       <c r="CC95" s="8"/>
-      <c r="CD95" s="22"/>
-      <c r="CE95" s="22"/>
-      <c r="CF95" s="22"/>
-      <c r="CG95" s="22"/>
-      <c r="CH95" s="22"/>
-      <c r="CI95" s="22"/>
-      <c r="CJ95" s="8"/>
+      <c r="CD95" s="21"/>
+      <c r="CE95" s="21"/>
+      <c r="CF95" s="21"/>
+      <c r="CG95" s="21"/>
+      <c r="CH95" s="21"/>
+      <c r="CI95" s="21"/>
+      <c r="CJ95" s="21"/>
       <c r="CK95" s="8"/>
       <c r="CL95" s="8"/>
       <c r="CM95" s="8"/>
@@ -15680,17 +15769,19 @@
       <c r="CC96" s="14">
         <v>-24.945051484796139</v>
       </c>
-      <c r="CD96" s="26">
+      <c r="CD96" s="25">
         <v>-21.136427027441044</v>
       </c>
-      <c r="CE96" s="26">
-        <v>17.313612884927252</v>
-      </c>
-      <c r="CF96" s="22"/>
-      <c r="CG96" s="22"/>
-      <c r="CH96" s="22"/>
-      <c r="CI96" s="22"/>
-      <c r="CJ96" s="8"/>
+      <c r="CE96" s="25">
+        <v>18.374077681358926</v>
+      </c>
+      <c r="CF96" s="25">
+        <v>9.55392544950098</v>
+      </c>
+      <c r="CG96" s="21"/>
+      <c r="CH96" s="21"/>
+      <c r="CI96" s="21"/>
+      <c r="CJ96" s="21"/>
       <c r="CK96" s="8"/>
       <c r="CL96" s="8"/>
       <c r="CM96" s="8"/>
@@ -15833,12 +15924,13 @@
       <c r="CA97" s="11"/>
       <c r="CB97" s="11"/>
       <c r="CC97" s="11"/>
-      <c r="CD97" s="24"/>
-      <c r="CE97" s="24"/>
-      <c r="CF97" s="24"/>
-      <c r="CG97" s="24"/>
-      <c r="CH97" s="24"/>
-      <c r="CI97" s="24"/>
+      <c r="CD97" s="23"/>
+      <c r="CE97" s="23"/>
+      <c r="CF97" s="23"/>
+      <c r="CG97" s="23"/>
+      <c r="CH97" s="23"/>
+      <c r="CI97" s="23"/>
+      <c r="CJ97" s="23"/>
     </row>
     <row r="98" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
@@ -15926,13 +16018,13 @@
       <c r="CA99" s="8"/>
       <c r="CB99" s="8"/>
       <c r="CC99" s="8"/>
-      <c r="CD99" s="22"/>
-      <c r="CE99" s="22"/>
-      <c r="CF99" s="22"/>
-      <c r="CG99" s="22"/>
-      <c r="CH99" s="22"/>
-      <c r="CI99" s="22"/>
-      <c r="CJ99" s="8"/>
+      <c r="CD99" s="21"/>
+      <c r="CE99" s="21"/>
+      <c r="CF99" s="21"/>
+      <c r="CG99" s="21"/>
+      <c r="CH99" s="21"/>
+      <c r="CI99" s="21"/>
+      <c r="CJ99" s="21"/>
       <c r="CK99" s="8"/>
       <c r="CL99" s="8"/>
       <c r="CM99" s="8"/>
@@ -16074,13 +16166,13 @@
       <c r="CA100" s="8"/>
       <c r="CB100" s="8"/>
       <c r="CC100" s="8"/>
-      <c r="CD100" s="22"/>
-      <c r="CE100" s="22"/>
-      <c r="CF100" s="22"/>
-      <c r="CG100" s="22"/>
-      <c r="CH100" s="22"/>
-      <c r="CI100" s="22"/>
-      <c r="CJ100" s="8"/>
+      <c r="CD100" s="21"/>
+      <c r="CE100" s="21"/>
+      <c r="CF100" s="21"/>
+      <c r="CG100" s="21"/>
+      <c r="CH100" s="21"/>
+      <c r="CI100" s="21"/>
+      <c r="CJ100" s="21"/>
       <c r="CK100" s="8"/>
       <c r="CL100" s="8"/>
       <c r="CM100" s="8"/>
@@ -16300,6 +16392,7 @@
       <c r="CI108" s="28">
         <v>0</v>
       </c>
+      <c r="CJ108" s="28"/>
     </row>
     <row r="109" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
@@ -16543,23 +16636,26 @@
       <c r="CC109" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CD109" s="25" t="s">
+      <c r="CD109" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CE109" s="25" t="s">
+      <c r="CE109" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CF109" s="25" t="s">
+      <c r="CF109" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="CG109" s="25" t="s">
+      <c r="CG109" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CH109" s="25" t="s">
+      <c r="CH109" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CI109" s="25" t="s">
+      <c r="CI109" s="24" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ109" s="24" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16809,25 +16905,27 @@
       <c r="CC111" s="14">
         <v>102.37992755405583</v>
       </c>
-      <c r="CD111" s="26">
+      <c r="CD111" s="25">
         <v>104.52056034332951</v>
       </c>
-      <c r="CE111" s="26">
+      <c r="CE111" s="25">
         <v>98.195770459140022</v>
       </c>
-      <c r="CF111" s="26">
+      <c r="CF111" s="25">
         <v>104.28639523782448</v>
       </c>
-      <c r="CG111" s="26">
+      <c r="CG111" s="25">
         <v>110.51824224000019</v>
       </c>
-      <c r="CH111" s="26">
+      <c r="CH111" s="25">
         <v>115.99165711479939</v>
       </c>
-      <c r="CI111" s="26">
-        <v>108.46285645131435</v>
-      </c>
-      <c r="CJ111" s="8"/>
+      <c r="CI111" s="25">
+        <v>108.46285645131437</v>
+      </c>
+      <c r="CJ111" s="25">
+        <v>111.03308542778909</v>
+      </c>
       <c r="CK111" s="8"/>
       <c r="CL111" s="8"/>
       <c r="CM111" s="8"/>
@@ -17136,25 +17234,27 @@
       <c r="CC112" s="14">
         <v>101.12314926555126</v>
       </c>
-      <c r="CD112" s="26">
+      <c r="CD112" s="25">
         <v>104.37400137584005</v>
       </c>
-      <c r="CE112" s="26">
+      <c r="CE112" s="25">
         <v>103.73619396304321</v>
       </c>
-      <c r="CF112" s="26">
+      <c r="CF112" s="25">
         <v>105.76266523663323</v>
       </c>
-      <c r="CG112" s="26">
+      <c r="CG112" s="25">
         <v>103.41532532363173</v>
       </c>
-      <c r="CH112" s="26">
+      <c r="CH112" s="25">
         <v>107.27019106735656</v>
       </c>
-      <c r="CI112" s="26">
+      <c r="CI112" s="25">
         <v>107.61395172788841</v>
       </c>
-      <c r="CJ112" s="8"/>
+      <c r="CJ112" s="25">
+        <v>109.26391999268171</v>
+      </c>
       <c r="CK112" s="8"/>
       <c r="CL112" s="8"/>
       <c r="CM112" s="8"/>
@@ -17463,25 +17563,27 @@
       <c r="CC113" s="14">
         <v>100.99469709474806</v>
       </c>
-      <c r="CD113" s="26">
+      <c r="CD113" s="25">
         <v>105.06084084246513</v>
       </c>
-      <c r="CE113" s="26">
+      <c r="CE113" s="25">
         <v>105.04966403467151</v>
       </c>
-      <c r="CF113" s="26">
+      <c r="CF113" s="25">
         <v>105.9683236248206</v>
       </c>
-      <c r="CG113" s="26">
+      <c r="CG113" s="25">
         <v>104.13023925182767</v>
       </c>
-      <c r="CH113" s="26">
+      <c r="CH113" s="25">
         <v>109.75196024704653</v>
       </c>
-      <c r="CI113" s="26">
+      <c r="CI113" s="25">
         <v>109.65352569527735</v>
       </c>
-      <c r="CJ113" s="8"/>
+      <c r="CJ113" s="25">
+        <v>110.8061175433742</v>
+      </c>
       <c r="CK113" s="8"/>
       <c r="CL113" s="8"/>
       <c r="CM113" s="8"/>
@@ -17790,25 +17892,27 @@
       <c r="CC114" s="14">
         <v>103.61409234726899</v>
       </c>
-      <c r="CD114" s="26">
+      <c r="CD114" s="25">
         <v>102.38011897403744</v>
       </c>
-      <c r="CE114" s="26">
+      <c r="CE114" s="25">
         <v>102.30791289520786</v>
       </c>
-      <c r="CF114" s="26">
+      <c r="CF114" s="25">
         <v>104.7867481365268</v>
       </c>
-      <c r="CG114" s="26">
+      <c r="CG114" s="25">
         <v>105.68771412900513</v>
       </c>
-      <c r="CH114" s="26">
+      <c r="CH114" s="25">
         <v>104.75704872572098</v>
       </c>
-      <c r="CI114" s="26">
+      <c r="CI114" s="25">
         <v>104.8331447124574</v>
       </c>
-      <c r="CJ114" s="8"/>
+      <c r="CJ114" s="25">
+        <v>106.99876886983701</v>
+      </c>
       <c r="CK114" s="8"/>
       <c r="CL114" s="8"/>
       <c r="CM114" s="8"/>
@@ -18117,25 +18221,27 @@
       <c r="CC115" s="14">
         <v>98.670820303177194</v>
       </c>
-      <c r="CD115" s="26">
+      <c r="CD115" s="25">
         <v>100.95397688741834</v>
       </c>
-      <c r="CE115" s="26">
+      <c r="CE115" s="25">
         <v>100.90410726426484</v>
       </c>
-      <c r="CF115" s="26">
+      <c r="CF115" s="25">
         <v>101.3902235771187</v>
       </c>
-      <c r="CG115" s="26">
+      <c r="CG115" s="25">
         <v>98.962235063787702</v>
       </c>
-      <c r="CH115" s="26">
+      <c r="CH115" s="25">
         <v>101.18553359025013</v>
       </c>
-      <c r="CI115" s="26">
-        <v>101.1686220522746</v>
-      </c>
-      <c r="CJ115" s="8"/>
+      <c r="CI115" s="25">
+        <v>101.16862205227457</v>
+      </c>
+      <c r="CJ115" s="25">
+        <v>101.65575166787164</v>
+      </c>
       <c r="CK115" s="8"/>
       <c r="CL115" s="8"/>
       <c r="CM115" s="8"/>
@@ -18444,25 +18550,27 @@
       <c r="CC116" s="14">
         <v>102.95233123243617</v>
       </c>
-      <c r="CD116" s="26">
+      <c r="CD116" s="25">
         <v>106.18465170943685</v>
       </c>
-      <c r="CE116" s="26">
+      <c r="CE116" s="25">
         <v>100.50746043241381</v>
       </c>
-      <c r="CF116" s="26">
+      <c r="CF116" s="25">
         <v>105.71150154409111</v>
       </c>
-      <c r="CG116" s="26">
+      <c r="CG116" s="25">
         <v>105.2859696771296</v>
       </c>
-      <c r="CH116" s="26">
+      <c r="CH116" s="25">
         <v>109.13108367165275</v>
       </c>
-      <c r="CI116" s="26">
+      <c r="CI116" s="25">
         <v>104.26452506171293</v>
       </c>
-      <c r="CJ116" s="8"/>
+      <c r="CJ116" s="25">
+        <v>109.21106253493944</v>
+      </c>
       <c r="CK116" s="8"/>
       <c r="CL116" s="8"/>
       <c r="CM116" s="8"/>
@@ -18771,25 +18879,27 @@
       <c r="CC117" s="14">
         <v>100.89200409059067</v>
       </c>
-      <c r="CD117" s="26">
+      <c r="CD117" s="25">
         <v>104.43124877122511</v>
       </c>
-      <c r="CE117" s="26">
+      <c r="CE117" s="25">
         <v>103.65492413025359</v>
       </c>
-      <c r="CF117" s="26">
+      <c r="CF117" s="25">
         <v>105.58194099446399</v>
       </c>
-      <c r="CG117" s="26">
+      <c r="CG117" s="25">
         <v>103.17894074068363</v>
       </c>
-      <c r="CH117" s="26">
+      <c r="CH117" s="25">
         <v>107.32902697438431</v>
       </c>
-      <c r="CI117" s="26">
+      <c r="CI117" s="25">
         <v>107.52964395131941</v>
       </c>
-      <c r="CJ117" s="8"/>
+      <c r="CJ117" s="25">
+        <v>109.07721290570601</v>
+      </c>
       <c r="CK117" s="8"/>
       <c r="CL117" s="8"/>
       <c r="CM117" s="8"/>
@@ -19098,25 +19208,27 @@
       <c r="CC118" s="14">
         <v>100.99207865802271</v>
       </c>
-      <c r="CD118" s="26">
+      <c r="CD118" s="25">
         <v>104.48926154642419</v>
       </c>
-      <c r="CE118" s="26">
+      <c r="CE118" s="25">
         <v>103.95478876713462</v>
       </c>
-      <c r="CF118" s="26">
+      <c r="CF118" s="25">
         <v>105.69056555320957</v>
       </c>
-      <c r="CG118" s="26">
+      <c r="CG118" s="25">
         <v>103.28128371578649</v>
       </c>
-      <c r="CH118" s="26">
+      <c r="CH118" s="25">
         <v>107.38864949913112</v>
       </c>
-      <c r="CI118" s="26">
-        <v>107.84071781402264</v>
-      </c>
-      <c r="CJ118" s="8"/>
+      <c r="CI118" s="25">
+        <v>107.84071781402263</v>
+      </c>
+      <c r="CJ118" s="25">
+        <v>109.18943346169769</v>
+      </c>
       <c r="CK118" s="8"/>
       <c r="CL118" s="8"/>
       <c r="CM118" s="8"/>
@@ -19262,13 +19374,13 @@
       <c r="CA119" s="8"/>
       <c r="CB119" s="8"/>
       <c r="CC119" s="8"/>
-      <c r="CD119" s="22"/>
-      <c r="CE119" s="22"/>
-      <c r="CF119" s="22"/>
-      <c r="CG119" s="22"/>
-      <c r="CH119" s="22"/>
-      <c r="CI119" s="22"/>
-      <c r="CJ119" s="8"/>
+      <c r="CD119" s="21"/>
+      <c r="CE119" s="21"/>
+      <c r="CF119" s="21"/>
+      <c r="CG119" s="21"/>
+      <c r="CH119" s="21"/>
+      <c r="CI119" s="21"/>
+      <c r="CJ119" s="21"/>
       <c r="CK119" s="8"/>
       <c r="CL119" s="8"/>
       <c r="CM119" s="8"/>
@@ -19577,25 +19689,27 @@
       <c r="CC120" s="14">
         <v>101.79374705088249</v>
       </c>
-      <c r="CD120" s="26">
+      <c r="CD120" s="25">
         <v>104.8496720046231</v>
       </c>
-      <c r="CE120" s="26">
+      <c r="CE120" s="25">
         <v>101.00469030013299</v>
       </c>
-      <c r="CF120" s="26">
+      <c r="CF120" s="25">
         <v>104.9728071394353</v>
       </c>
-      <c r="CG120" s="26">
+      <c r="CG120" s="25">
         <v>104.32976882596793</v>
       </c>
-      <c r="CH120" s="26">
+      <c r="CH120" s="25">
         <v>107.49217931234124</v>
       </c>
-      <c r="CI120" s="26">
-        <v>104.40164943308956</v>
-      </c>
-      <c r="CJ120" s="8"/>
+      <c r="CI120" s="25">
+        <v>104.5283052149659</v>
+      </c>
+      <c r="CJ120" s="25">
+        <v>108.09257394905048</v>
+      </c>
       <c r="CK120" s="8"/>
       <c r="CL120" s="8"/>
       <c r="CM120" s="8"/>
@@ -19742,12 +19856,13 @@
       <c r="CA121" s="11"/>
       <c r="CB121" s="11"/>
       <c r="CC121" s="11"/>
-      <c r="CD121" s="24"/>
-      <c r="CE121" s="24"/>
-      <c r="CF121" s="24"/>
-      <c r="CG121" s="24"/>
-      <c r="CH121" s="24"/>
-      <c r="CI121" s="24"/>
+      <c r="CD121" s="23"/>
+      <c r="CE121" s="23"/>
+      <c r="CF121" s="23"/>
+      <c r="CG121" s="23"/>
+      <c r="CH121" s="23"/>
+      <c r="CI121" s="23"/>
+      <c r="CJ121" s="23"/>
     </row>
     <row r="122" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
@@ -19918,6 +20033,7 @@
       <c r="CI133" s="28">
         <v>0</v>
       </c>
+      <c r="CJ133" s="28"/>
     </row>
     <row r="134" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
@@ -20161,23 +20277,26 @@
       <c r="CC134" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CD134" s="25" t="s">
+      <c r="CD134" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CE134" s="25" t="s">
+      <c r="CE134" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CF134" s="25" t="s">
+      <c r="CF134" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="CG134" s="25" t="s">
+      <c r="CG134" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CH134" s="25" t="s">
+      <c r="CH134" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CI134" s="25" t="s">
+      <c r="CI134" s="24" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ134" s="24" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20427,25 +20546,27 @@
       <c r="CC136" s="15">
         <v>8.4796805961946209</v>
       </c>
-      <c r="CD136" s="27">
+      <c r="CD136" s="26">
         <v>4.7172465268164094</v>
       </c>
-      <c r="CE136" s="27">
+      <c r="CE136" s="26">
         <v>2.8138242688858712</v>
       </c>
-      <c r="CF136" s="27">
+      <c r="CF136" s="26">
         <v>5.2976246656068406</v>
       </c>
-      <c r="CG136" s="27">
+      <c r="CG136" s="26">
         <v>5.7539038458270664</v>
       </c>
-      <c r="CH136" s="27">
+      <c r="CH136" s="26">
         <v>3.7041236046623744</v>
       </c>
-      <c r="CI136" s="27">
-        <v>2.9777938217214523</v>
-      </c>
-      <c r="CJ136" s="8"/>
+      <c r="CI136" s="26">
+        <v>2.8310062947125103</v>
+      </c>
+      <c r="CJ136" s="26">
+        <v>5.7008634356873014</v>
+      </c>
       <c r="CK136" s="8"/>
       <c r="CL136" s="8"/>
       <c r="CM136" s="8"/>
@@ -20754,25 +20875,27 @@
       <c r="CC137" s="15">
         <v>0.15036753568418579</v>
       </c>
-      <c r="CD137" s="27">
+      <c r="CD137" s="26">
         <v>6.7163618739666059E-2</v>
       </c>
-      <c r="CE137" s="27">
+      <c r="CE137" s="26">
         <v>5.7370971651881611E-2</v>
       </c>
-      <c r="CF137" s="27">
+      <c r="CF137" s="26">
         <v>0.17529915758425663</v>
       </c>
-      <c r="CG137" s="27">
+      <c r="CG137" s="26">
         <v>0.18904682375012258</v>
       </c>
-      <c r="CH137" s="27">
+      <c r="CH137" s="26">
         <v>8.994831451636022E-2</v>
       </c>
-      <c r="CI137" s="27">
-        <v>6.4468831889233774E-2</v>
-      </c>
-      <c r="CJ137" s="8"/>
+      <c r="CI137" s="26">
+        <v>6.693895275458582E-2</v>
+      </c>
+      <c r="CJ137" s="26">
+        <v>0.1800861180538984</v>
+      </c>
       <c r="CK137" s="8"/>
       <c r="CL137" s="8"/>
       <c r="CM137" s="8"/>
@@ -21081,25 +21204,27 @@
       <c r="CC138" s="15">
         <v>19.013300244799748</v>
       </c>
-      <c r="CD138" s="27">
+      <c r="CD138" s="26">
         <v>16.661239475699947</v>
       </c>
-      <c r="CE138" s="27">
+      <c r="CE138" s="26">
         <v>1.1445699944314536</v>
       </c>
-      <c r="CF138" s="27">
+      <c r="CF138" s="26">
         <v>3.6194095409716147</v>
       </c>
-      <c r="CG138" s="27">
+      <c r="CG138" s="26">
         <v>1.9865974286454744</v>
       </c>
-      <c r="CH138" s="27">
+      <c r="CH138" s="26">
         <v>0.42786854703723631</v>
       </c>
-      <c r="CI138" s="27">
-        <v>3.0530002342461127</v>
-      </c>
-      <c r="CJ138" s="8"/>
+      <c r="CI138" s="26">
+        <v>5.1249475333261634</v>
+      </c>
+      <c r="CJ138" s="26">
+        <v>5.153637016778819</v>
+      </c>
       <c r="CK138" s="8"/>
       <c r="CL138" s="8"/>
       <c r="CM138" s="8"/>
@@ -21408,25 +21533,27 @@
       <c r="CC139" s="15">
         <v>0.4976902965519393</v>
       </c>
-      <c r="CD139" s="27">
+      <c r="CD139" s="26">
         <v>0.37217717397498579</v>
       </c>
-      <c r="CE139" s="27">
+      <c r="CE139" s="26">
         <v>0.57517170484365721</v>
       </c>
-      <c r="CF139" s="27">
+      <c r="CF139" s="26">
         <v>0.74199498258312124</v>
       </c>
-      <c r="CG139" s="27">
+      <c r="CG139" s="26">
         <v>0.71098067422685463</v>
       </c>
-      <c r="CH139" s="27">
+      <c r="CH139" s="26">
         <v>0.56245991308573628</v>
       </c>
-      <c r="CI139" s="27">
-        <v>0.58633967393168351</v>
-      </c>
-      <c r="CJ139" s="8"/>
+      <c r="CI139" s="26">
+        <v>0.59392183349487626</v>
+      </c>
+      <c r="CJ139" s="26">
+        <v>0.83718345241172598</v>
+      </c>
       <c r="CK139" s="8"/>
       <c r="CL139" s="8"/>
       <c r="CM139" s="8"/>
@@ -21735,25 +21862,27 @@
       <c r="CC140" s="15">
         <v>11.952984608400481</v>
       </c>
-      <c r="CD140" s="27">
+      <c r="CD140" s="26">
         <v>15.677809144343243</v>
       </c>
-      <c r="CE140" s="27">
+      <c r="CE140" s="26">
         <v>18.21141318576171</v>
       </c>
-      <c r="CF140" s="27">
+      <c r="CF140" s="26">
         <v>14.531762748769742</v>
       </c>
-      <c r="CG140" s="27">
+      <c r="CG140" s="26">
         <v>14.574235526967808</v>
       </c>
-      <c r="CH140" s="27">
+      <c r="CH140" s="26">
         <v>18.960693533406864</v>
       </c>
-      <c r="CI140" s="27">
-        <v>18.20125753935881</v>
-      </c>
-      <c r="CJ140" s="8"/>
+      <c r="CI140" s="26">
+        <v>17.595584135124572</v>
+      </c>
+      <c r="CJ140" s="26">
+        <v>15.722285234142785</v>
+      </c>
       <c r="CK140" s="8"/>
       <c r="CL140" s="8"/>
       <c r="CM140" s="8"/>
@@ -22062,25 +22191,27 @@
       <c r="CC141" s="15">
         <v>49.84358522879478</v>
       </c>
-      <c r="CD141" s="27">
+      <c r="CD141" s="26">
         <v>51.002001775258357</v>
       </c>
-      <c r="CE141" s="27">
+      <c r="CE141" s="26">
         <v>63.303235143767665</v>
       </c>
-      <c r="CF141" s="27">
+      <c r="CF141" s="26">
         <v>62.830457175985579</v>
       </c>
-      <c r="CG141" s="27">
+      <c r="CG141" s="26">
         <v>65.216744441550929</v>
       </c>
-      <c r="CH141" s="27">
+      <c r="CH141" s="26">
         <v>62.389221836740596</v>
       </c>
-      <c r="CI141" s="27">
-        <v>61.463912086268792</v>
-      </c>
-      <c r="CJ141" s="8"/>
+      <c r="CI141" s="26">
+        <v>59.929258730668444</v>
+      </c>
+      <c r="CJ141" s="26">
+        <v>57.479882935936011</v>
+      </c>
       <c r="CK141" s="8"/>
       <c r="CL141" s="8"/>
       <c r="CM141" s="8"/>
@@ -22389,25 +22520,27 @@
       <c r="CC142" s="15">
         <v>8.603494650630692</v>
       </c>
-      <c r="CD142" s="27">
+      <c r="CD142" s="26">
         <v>10.581523455716939</v>
       </c>
-      <c r="CE142" s="27">
+      <c r="CE142" s="26">
         <v>12.593230952240001</v>
       </c>
-      <c r="CF142" s="27">
+      <c r="CF142" s="26">
         <v>11.40093028420263</v>
       </c>
-      <c r="CG142" s="27">
+      <c r="CG142" s="26">
         <v>10.200751991425538</v>
       </c>
-      <c r="CH142" s="27">
+      <c r="CH142" s="26">
         <v>12.89339308679712</v>
       </c>
-      <c r="CI142" s="27">
-        <v>12.488541717869856</v>
-      </c>
-      <c r="CJ142" s="8"/>
+      <c r="CI142" s="26">
+        <v>12.699571869240078</v>
+      </c>
+      <c r="CJ142" s="26">
+        <v>13.399243597907093</v>
+      </c>
       <c r="CK142" s="8"/>
       <c r="CL142" s="8"/>
       <c r="CM142" s="8"/>
@@ -22716,25 +22849,27 @@
       <c r="CC143" s="15">
         <v>1.4588968389435548</v>
       </c>
-      <c r="CD143" s="27">
+      <c r="CD143" s="26">
         <v>0.92083882945046491</v>
       </c>
-      <c r="CE143" s="27">
+      <c r="CE143" s="26">
         <v>1.3011837784177593</v>
       </c>
-      <c r="CF143" s="27">
+      <c r="CF143" s="26">
         <v>1.4025214442962244</v>
       </c>
-      <c r="CG143" s="27">
+      <c r="CG143" s="26">
         <v>1.3677392676061928</v>
       </c>
-      <c r="CH143" s="27">
+      <c r="CH143" s="26">
         <v>0.97229116375370606</v>
       </c>
-      <c r="CI143" s="27">
-        <v>1.1646860947140503</v>
-      </c>
-      <c r="CJ143" s="8"/>
+      <c r="CI143" s="26">
+        <v>1.1587706506787772</v>
+      </c>
+      <c r="CJ143" s="26">
+        <v>1.5268182090823554</v>
+      </c>
       <c r="CK143" s="8"/>
       <c r="CL143" s="8"/>
       <c r="CM143" s="8"/>
@@ -22880,13 +23015,13 @@
       <c r="CA144" s="8"/>
       <c r="CB144" s="8"/>
       <c r="CC144" s="8"/>
-      <c r="CD144" s="22"/>
-      <c r="CE144" s="22"/>
-      <c r="CF144" s="22"/>
-      <c r="CG144" s="22"/>
-      <c r="CH144" s="22"/>
-      <c r="CI144" s="22"/>
-      <c r="CJ144" s="8"/>
+      <c r="CD144" s="21"/>
+      <c r="CE144" s="21"/>
+      <c r="CF144" s="21"/>
+      <c r="CG144" s="21"/>
+      <c r="CH144" s="21"/>
+      <c r="CI144" s="21"/>
+      <c r="CJ144" s="21"/>
       <c r="CK144" s="8"/>
       <c r="CL144" s="8"/>
       <c r="CM144" s="8"/>
@@ -23195,25 +23330,27 @@
       <c r="CC145" s="14">
         <v>100</v>
       </c>
-      <c r="CD145" s="26">
+      <c r="CD145" s="25">
         <v>100</v>
       </c>
-      <c r="CE145" s="26">
+      <c r="CE145" s="25">
         <v>100</v>
       </c>
-      <c r="CF145" s="26">
+      <c r="CF145" s="25">
         <v>100</v>
       </c>
-      <c r="CG145" s="26">
+      <c r="CG145" s="25">
         <v>100</v>
       </c>
-      <c r="CH145" s="26">
+      <c r="CH145" s="25">
         <v>100</v>
       </c>
-      <c r="CI145" s="26">
+      <c r="CI145" s="25">
         <v>100</v>
       </c>
-      <c r="CJ145" s="8"/>
+      <c r="CJ145" s="25">
+        <v>100</v>
+      </c>
       <c r="CK145" s="8"/>
       <c r="CL145" s="8"/>
       <c r="CM145" s="8"/>
@@ -23360,12 +23497,13 @@
       <c r="CA146" s="11"/>
       <c r="CB146" s="11"/>
       <c r="CC146" s="11"/>
-      <c r="CD146" s="24"/>
-      <c r="CE146" s="24"/>
-      <c r="CF146" s="24"/>
-      <c r="CG146" s="24"/>
-      <c r="CH146" s="24"/>
-      <c r="CI146" s="24"/>
+      <c r="CD146" s="23"/>
+      <c r="CE146" s="23"/>
+      <c r="CF146" s="23"/>
+      <c r="CG146" s="23"/>
+      <c r="CH146" s="23"/>
+      <c r="CI146" s="23"/>
+      <c r="CJ146" s="23"/>
     </row>
     <row r="147" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A147" s="12" t="s">
@@ -23453,13 +23591,13 @@
       <c r="CA148" s="8"/>
       <c r="CB148" s="8"/>
       <c r="CC148" s="8"/>
-      <c r="CD148" s="22"/>
-      <c r="CE148" s="22"/>
-      <c r="CF148" s="22"/>
-      <c r="CG148" s="22"/>
-      <c r="CH148" s="22"/>
-      <c r="CI148" s="22"/>
-      <c r="CJ148" s="8"/>
+      <c r="CD148" s="21"/>
+      <c r="CE148" s="21"/>
+      <c r="CF148" s="21"/>
+      <c r="CG148" s="21"/>
+      <c r="CH148" s="21"/>
+      <c r="CI148" s="21"/>
+      <c r="CJ148" s="21"/>
       <c r="CK148" s="8"/>
       <c r="CL148" s="8"/>
       <c r="CM148" s="8"/>
@@ -23605,13 +23743,13 @@
       <c r="CA149" s="8"/>
       <c r="CB149" s="8"/>
       <c r="CC149" s="8"/>
-      <c r="CD149" s="22"/>
-      <c r="CE149" s="22"/>
-      <c r="CF149" s="22"/>
-      <c r="CG149" s="22"/>
-      <c r="CH149" s="22"/>
-      <c r="CI149" s="22"/>
-      <c r="CJ149" s="8"/>
+      <c r="CD149" s="21"/>
+      <c r="CE149" s="21"/>
+      <c r="CF149" s="21"/>
+      <c r="CG149" s="21"/>
+      <c r="CH149" s="21"/>
+      <c r="CI149" s="21"/>
+      <c r="CJ149" s="21"/>
       <c r="CK149" s="8"/>
       <c r="CL149" s="8"/>
       <c r="CM149" s="8"/>
@@ -23840,6 +23978,7 @@
       <c r="CI158" s="28">
         <v>0</v>
       </c>
+      <c r="CJ158" s="28"/>
     </row>
     <row r="159" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
@@ -24083,23 +24222,26 @@
       <c r="CC159" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CD159" s="25" t="s">
+      <c r="CD159" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CE159" s="25" t="s">
+      <c r="CE159" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CF159" s="25" t="s">
+      <c r="CF159" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="CG159" s="25" t="s">
+      <c r="CG159" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CH159" s="25" t="s">
+      <c r="CH159" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CI159" s="25" t="s">
+      <c r="CI159" s="24" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ159" s="24" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24349,25 +24491,27 @@
       <c r="CC161" s="15">
         <v>8.4311298347575008</v>
       </c>
-      <c r="CD161" s="27">
+      <c r="CD161" s="26">
         <v>4.7321000717655783</v>
       </c>
-      <c r="CE161" s="27">
+      <c r="CE161" s="26">
         <v>2.8943145667977341</v>
       </c>
-      <c r="CF161" s="27">
+      <c r="CF161" s="26">
         <v>5.3324935726435347</v>
       </c>
-      <c r="CG161" s="27">
+      <c r="CG161" s="26">
         <v>5.4317137688307904</v>
       </c>
-      <c r="CH161" s="27">
+      <c r="CH161" s="26">
         <v>3.4326979078622184</v>
       </c>
-      <c r="CI161" s="27">
-        <v>2.8662954013103139</v>
-      </c>
-      <c r="CJ161" s="8"/>
+      <c r="CI161" s="26">
+        <v>2.7283099461060982</v>
+      </c>
+      <c r="CJ161" s="26">
+        <v>5.549886325515379</v>
+      </c>
       <c r="CK161" s="8"/>
       <c r="CL161" s="8"/>
       <c r="CM161" s="8"/>
@@ -24676,25 +24820,27 @@
       <c r="CC162" s="15">
         <v>0.15136469743347755</v>
       </c>
-      <c r="CD162" s="27">
+      <c r="CD162" s="26">
         <v>6.7469707998831299E-2</v>
       </c>
-      <c r="CE162" s="27">
+      <c r="CE162" s="26">
         <v>5.5860322251464416E-2</v>
       </c>
-      <c r="CF162" s="27">
+      <c r="CF162" s="26">
         <v>0.17398998616029426</v>
       </c>
-      <c r="CG162" s="27">
+      <c r="CG162" s="26">
         <v>0.19071845838526591</v>
       </c>
-      <c r="CH162" s="27">
+      <c r="CH162" s="26">
         <v>9.013445633525824E-2</v>
       </c>
-      <c r="CI162" s="27">
-        <v>6.254442177980446E-2</v>
-      </c>
-      <c r="CJ162" s="8"/>
+      <c r="CI162" s="26">
+        <v>6.5019592459480649E-2</v>
+      </c>
+      <c r="CJ162" s="26">
+        <v>0.17815553418037944</v>
+      </c>
       <c r="CK162" s="8"/>
       <c r="CL162" s="8"/>
       <c r="CM162" s="8"/>
@@ -25003,25 +25149,27 @@
       <c r="CC163" s="15">
         <v>19.163729694697746</v>
       </c>
-      <c r="CD163" s="27">
+      <c r="CD163" s="26">
         <v>16.627750931834523</v>
       </c>
-      <c r="CE163" s="27">
+      <c r="CE163" s="26">
         <v>1.100497929971656</v>
       </c>
-      <c r="CF163" s="27">
+      <c r="CF163" s="26">
         <v>3.5854070981458221</v>
       </c>
-      <c r="CG163" s="27">
+      <c r="CG163" s="26">
         <v>1.9904040552485993</v>
       </c>
-      <c r="CH163" s="27">
+      <c r="CH163" s="26">
         <v>0.41905878015035458</v>
       </c>
-      <c r="CI163" s="27">
-        <v>2.9067762131120478</v>
-      </c>
-      <c r="CJ163" s="8"/>
+      <c r="CI163" s="26">
+        <v>4.8854067990745502</v>
+      </c>
+      <c r="CJ163" s="26">
+        <v>5.0274290146901661</v>
+      </c>
       <c r="CK163" s="8"/>
       <c r="CL163" s="8"/>
       <c r="CM163" s="8"/>
@@ -25330,25 +25478,27 @@
       <c r="CC164" s="15">
         <v>0.4889466192213584</v>
       </c>
-      <c r="CD164" s="27">
+      <c r="CD164" s="26">
         <v>0.38115461292617325</v>
       </c>
-      <c r="CE164" s="27">
+      <c r="CE164" s="26">
         <v>0.56784503048790369</v>
       </c>
-      <c r="CF164" s="27">
+      <c r="CF164" s="26">
         <v>0.74331246641650306</v>
       </c>
-      <c r="CG164" s="27">
+      <c r="CG164" s="26">
         <v>0.7018455266359237</v>
       </c>
-      <c r="CH164" s="27">
+      <c r="CH164" s="26">
         <v>0.57714533359673659</v>
       </c>
-      <c r="CI164" s="27">
-        <v>0.58392628833592031</v>
-      </c>
-      <c r="CJ164" s="8"/>
+      <c r="CI164" s="26">
+        <v>0.59219479541194553</v>
+      </c>
+      <c r="CJ164" s="26">
+        <v>0.84574163978297856</v>
+      </c>
       <c r="CK164" s="8"/>
       <c r="CL164" s="8"/>
       <c r="CM164" s="8"/>
@@ -25657,25 +25807,27 @@
       <c r="CC165" s="15">
         <v>12.331296000094479</v>
       </c>
-      <c r="CD165" s="27">
+      <c r="CD165" s="26">
         <v>16.282797342086027</v>
       </c>
-      <c r="CE165" s="27">
+      <c r="CE165" s="26">
         <v>18.229566651218533</v>
       </c>
-      <c r="CF165" s="27">
+      <c r="CF165" s="26">
         <v>15.045236854245292</v>
       </c>
-      <c r="CG165" s="27">
+      <c r="CG165" s="26">
         <v>15.36471586725664</v>
       </c>
-      <c r="CH165" s="27">
+      <c r="CH165" s="26">
         <v>20.142466979842126</v>
       </c>
-      <c r="CI165" s="27">
-        <v>18.782911838847109</v>
-      </c>
-      <c r="CJ165" s="8"/>
+      <c r="CI165" s="26">
+        <v>18.179911435005668</v>
+      </c>
+      <c r="CJ165" s="26">
+        <v>16.717817255162352</v>
+      </c>
       <c r="CK165" s="8"/>
       <c r="CL165" s="8"/>
       <c r="CM165" s="8"/>
@@ -25984,25 +26136,27 @@
       <c r="CC166" s="15">
         <v>49.282665541919236</v>
       </c>
-      <c r="CD166" s="27">
+      <c r="CD166" s="26">
         <v>50.360791994195488</v>
       </c>
-      <c r="CE166" s="27">
+      <c r="CE166" s="26">
         <v>63.616408505240663</v>
       </c>
-      <c r="CF166" s="27">
+      <c r="CF166" s="26">
         <v>62.391408382997739</v>
       </c>
-      <c r="CG166" s="27">
+      <c r="CG166" s="26">
         <v>64.624449886671144</v>
       </c>
-      <c r="CH166" s="27">
+      <c r="CH166" s="26">
         <v>61.452275513088836</v>
       </c>
-      <c r="CI166" s="27">
-        <v>61.54474686974082</v>
-      </c>
-      <c r="CJ166" s="8"/>
+      <c r="CI166" s="26">
+        <v>60.080874527536608</v>
+      </c>
+      <c r="CJ166" s="26">
+        <v>56.891200878552773</v>
+      </c>
       <c r="CK166" s="8"/>
       <c r="CL166" s="8"/>
       <c r="CM166" s="8"/>
@@ -26311,25 +26465,27 @@
       <c r="CC167" s="15">
         <v>8.6803901470086657</v>
       </c>
-      <c r="CD167" s="27">
+      <c r="CD167" s="26">
         <v>10.623920298718568</v>
       </c>
-      <c r="CE167" s="27">
+      <c r="CE167" s="26">
         <v>12.271249078439107</v>
       </c>
-      <c r="CF167" s="27">
+      <c r="CF167" s="26">
         <v>11.335154901125579</v>
       </c>
-      <c r="CG167" s="27">
+      <c r="CG167" s="26">
         <v>10.314528231019395</v>
       </c>
-      <c r="CH167" s="27">
+      <c r="CH167" s="26">
         <v>12.912992511907071</v>
       </c>
-      <c r="CI167" s="27">
-        <v>12.125255012932316</v>
-      </c>
-      <c r="CJ167" s="8"/>
+      <c r="CI167" s="26">
+        <v>12.345104807082677</v>
+      </c>
+      <c r="CJ167" s="26">
+        <v>13.278288754225656</v>
+      </c>
       <c r="CK167" s="8"/>
       <c r="CL167" s="8"/>
       <c r="CM167" s="8"/>
@@ -26638,25 +26794,27 @@
       <c r="CC168" s="15">
         <v>1.4704774648675385</v>
       </c>
-      <c r="CD168" s="27">
+      <c r="CD168" s="26">
         <v>0.92401504047481176</v>
       </c>
-      <c r="CE168" s="27">
+      <c r="CE168" s="26">
         <v>1.2642579155929465</v>
       </c>
-      <c r="CF168" s="27">
+      <c r="CF168" s="26">
         <v>1.3929967382652435</v>
       </c>
-      <c r="CG168" s="27">
+      <c r="CG168" s="26">
         <v>1.3816242059522525</v>
       </c>
-      <c r="CH168" s="27">
+      <c r="CH168" s="26">
         <v>0.97322851721739834</v>
       </c>
-      <c r="CI168" s="27">
-        <v>1.1275439539416647</v>
-      </c>
-      <c r="CJ168" s="8"/>
+      <c r="CI168" s="26">
+        <v>1.1231780973229573</v>
+      </c>
+      <c r="CJ168" s="26">
+        <v>1.5114805978903125</v>
+      </c>
       <c r="CK168" s="8"/>
       <c r="CL168" s="8"/>
       <c r="CM168" s="8"/>
@@ -26802,13 +26960,13 @@
       <c r="CA169" s="8"/>
       <c r="CB169" s="8"/>
       <c r="CC169" s="8"/>
-      <c r="CD169" s="22"/>
-      <c r="CE169" s="22"/>
-      <c r="CF169" s="22"/>
-      <c r="CG169" s="22"/>
-      <c r="CH169" s="22"/>
-      <c r="CI169" s="22"/>
-      <c r="CJ169" s="8"/>
+      <c r="CD169" s="21"/>
+      <c r="CE169" s="21"/>
+      <c r="CF169" s="21"/>
+      <c r="CG169" s="21"/>
+      <c r="CH169" s="21"/>
+      <c r="CI169" s="21"/>
+      <c r="CJ169" s="21"/>
       <c r="CK169" s="8"/>
       <c r="CL169" s="8"/>
       <c r="CM169" s="8"/>
@@ -27117,25 +27275,27 @@
       <c r="CC170" s="14">
         <v>100</v>
       </c>
-      <c r="CD170" s="26">
+      <c r="CD170" s="25">
         <v>100</v>
       </c>
-      <c r="CE170" s="26">
+      <c r="CE170" s="25">
         <v>100</v>
       </c>
-      <c r="CF170" s="26">
+      <c r="CF170" s="25">
         <v>100</v>
       </c>
-      <c r="CG170" s="26">
+      <c r="CG170" s="25">
         <v>100</v>
       </c>
-      <c r="CH170" s="26">
+      <c r="CH170" s="25">
         <v>100</v>
       </c>
-      <c r="CI170" s="26">
+      <c r="CI170" s="25">
         <v>100</v>
       </c>
-      <c r="CJ170" s="8"/>
+      <c r="CJ170" s="25">
+        <v>100</v>
+      </c>
       <c r="CK170" s="8"/>
       <c r="CL170" s="8"/>
       <c r="CM170" s="8"/>
@@ -27282,12 +27442,13 @@
       <c r="CA171" s="11"/>
       <c r="CB171" s="11"/>
       <c r="CC171" s="11"/>
-      <c r="CD171" s="24"/>
-      <c r="CE171" s="24"/>
-      <c r="CF171" s="24"/>
-      <c r="CG171" s="24"/>
-      <c r="CH171" s="24"/>
-      <c r="CI171" s="24"/>
+      <c r="CD171" s="23"/>
+      <c r="CE171" s="23"/>
+      <c r="CF171" s="23"/>
+      <c r="CG171" s="23"/>
+      <c r="CH171" s="23"/>
+      <c r="CI171" s="23"/>
+      <c r="CJ171" s="23"/>
     </row>
     <row r="172" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A172" s="12" t="s">
@@ -27382,7 +27543,7 @@
       <c r="CG173" s="18"/>
       <c r="CH173" s="18"/>
       <c r="CI173" s="18"/>
-      <c r="CJ173" s="16"/>
+      <c r="CJ173" s="18"/>
       <c r="CK173" s="16"/>
       <c r="CL173" s="16"/>
       <c r="CM173" s="16"/>
@@ -27535,7 +27696,7 @@
       <c r="CG174" s="18"/>
       <c r="CH174" s="18"/>
       <c r="CI174" s="18"/>
-      <c r="CJ174" s="16"/>
+      <c r="CJ174" s="18"/>
       <c r="CK174" s="16"/>
       <c r="CL174" s="16"/>
       <c r="CM174" s="16"/>
@@ -27602,11 +27763,6 @@
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="AD158:AG158"/>
-    <mergeCell ref="AH158:AK158"/>
-    <mergeCell ref="BZ59:CC59"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="CD9:CG9"/>
     <mergeCell ref="CD158:CG158"/>
     <mergeCell ref="CD133:CG133"/>
     <mergeCell ref="CD108:CG108"/>
@@ -27622,10 +27778,10 @@
     <mergeCell ref="BB108:BE108"/>
     <mergeCell ref="BF108:BI108"/>
     <mergeCell ref="BZ34:CC34"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR9:BU9"/>
     <mergeCell ref="BR59:BU59"/>
+    <mergeCell ref="BB133:BE133"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="F108:I108"/>
     <mergeCell ref="J108:M108"/>
     <mergeCell ref="N108:Q108"/>
     <mergeCell ref="B158:E158"/>
@@ -27635,14 +27791,8 @@
     <mergeCell ref="R158:U158"/>
     <mergeCell ref="V158:Y158"/>
     <mergeCell ref="Z158:AC158"/>
-    <mergeCell ref="AT108:AW108"/>
-    <mergeCell ref="AX108:BA108"/>
-    <mergeCell ref="AL158:AO158"/>
-    <mergeCell ref="AP158:AS158"/>
-    <mergeCell ref="AT158:AW158"/>
-    <mergeCell ref="AX158:BA158"/>
-    <mergeCell ref="BJ108:BM108"/>
-    <mergeCell ref="BN108:BQ108"/>
+    <mergeCell ref="AD158:AG158"/>
+    <mergeCell ref="AH158:AK158"/>
     <mergeCell ref="B133:E133"/>
     <mergeCell ref="F133:I133"/>
     <mergeCell ref="J133:M133"/>
@@ -27652,16 +27802,6 @@
     <mergeCell ref="Z133:AC133"/>
     <mergeCell ref="AD133:AG133"/>
     <mergeCell ref="AH133:AK133"/>
-    <mergeCell ref="AL133:AO133"/>
-    <mergeCell ref="AP133:AS133"/>
-    <mergeCell ref="AT133:AW133"/>
-    <mergeCell ref="AX133:BA133"/>
-    <mergeCell ref="BB133:BE133"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AP84:AS84"/>
     <mergeCell ref="R108:U108"/>
     <mergeCell ref="V108:Y108"/>
     <mergeCell ref="Z108:AC108"/>
@@ -27669,6 +27809,15 @@
     <mergeCell ref="AH108:AK108"/>
     <mergeCell ref="AL108:AO108"/>
     <mergeCell ref="AP108:AS108"/>
+    <mergeCell ref="AT108:AW108"/>
+    <mergeCell ref="AX108:BA108"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
     <mergeCell ref="BB34:BE34"/>
     <mergeCell ref="BF34:BI34"/>
     <mergeCell ref="V34:Y34"/>
@@ -27676,28 +27825,24 @@
     <mergeCell ref="AD34:AG34"/>
     <mergeCell ref="AH34:AK34"/>
     <mergeCell ref="AL34:AO34"/>
-    <mergeCell ref="BF59:BI59"/>
-    <mergeCell ref="BJ59:BM59"/>
     <mergeCell ref="AP34:AS34"/>
+    <mergeCell ref="AT34:AW34"/>
+    <mergeCell ref="AX34:BA34"/>
+    <mergeCell ref="AD59:AG59"/>
+    <mergeCell ref="AH59:AK59"/>
+    <mergeCell ref="BJ34:BM34"/>
+    <mergeCell ref="BN34:BQ34"/>
+    <mergeCell ref="AL59:AO59"/>
+    <mergeCell ref="AP59:AS59"/>
+    <mergeCell ref="AT59:AW59"/>
+    <mergeCell ref="AX59:BA59"/>
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="N9:Q9"/>
     <mergeCell ref="R9:U9"/>
     <mergeCell ref="V9:Y9"/>
     <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="R34:U34"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="AT34:AW34"/>
-    <mergeCell ref="AX34:BA34"/>
-    <mergeCell ref="BZ158:CC158"/>
-    <mergeCell ref="BR158:BU158"/>
-    <mergeCell ref="BV158:BY158"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BV84:BY84"/>
+    <mergeCell ref="BF59:BI59"/>
+    <mergeCell ref="BJ59:BM59"/>
     <mergeCell ref="AD9:AG9"/>
     <mergeCell ref="AH9:AK9"/>
     <mergeCell ref="AL9:AO9"/>
@@ -27707,14 +27852,36 @@
     <mergeCell ref="BB9:BE9"/>
     <mergeCell ref="BF9:BI9"/>
     <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="AD59:AG59"/>
-    <mergeCell ref="AH59:AK59"/>
-    <mergeCell ref="BJ34:BM34"/>
-    <mergeCell ref="BN34:BQ34"/>
-    <mergeCell ref="AL59:AO59"/>
-    <mergeCell ref="AP59:AS59"/>
-    <mergeCell ref="AT59:AW59"/>
-    <mergeCell ref="AX59:BA59"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="BZ158:CC158"/>
+    <mergeCell ref="BR158:BU158"/>
+    <mergeCell ref="BV158:BY158"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BV84:BY84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AL158:AO158"/>
+    <mergeCell ref="AP158:AS158"/>
+    <mergeCell ref="AT158:AW158"/>
+    <mergeCell ref="AX158:BA158"/>
+    <mergeCell ref="BJ108:BM108"/>
+    <mergeCell ref="BN108:BQ108"/>
+    <mergeCell ref="AL133:AO133"/>
+    <mergeCell ref="AP133:AS133"/>
+    <mergeCell ref="AT133:AW133"/>
+    <mergeCell ref="AX133:BA133"/>
+    <mergeCell ref="CH9:CJ9"/>
+    <mergeCell ref="CH34:CJ34"/>
+    <mergeCell ref="CD84:CF84"/>
+    <mergeCell ref="CH108:CJ108"/>
+    <mergeCell ref="CH133:CJ133"/>
+    <mergeCell ref="CH158:CJ158"/>
     <mergeCell ref="B84:E84"/>
     <mergeCell ref="BR133:BU133"/>
     <mergeCell ref="BV133:BY133"/>
@@ -27733,19 +27900,7 @@
     <mergeCell ref="V84:Y84"/>
     <mergeCell ref="BB59:BE59"/>
     <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="CH9:CI9"/>
-    <mergeCell ref="CH34:CI34"/>
     <mergeCell ref="CD59:CE59"/>
-    <mergeCell ref="CD84:CE84"/>
-    <mergeCell ref="CH108:CI108"/>
-    <mergeCell ref="CH133:CI133"/>
-    <mergeCell ref="CH158:CI158"/>
     <mergeCell ref="BN59:BQ59"/>
     <mergeCell ref="BZ108:CC108"/>
     <mergeCell ref="BR108:BU108"/>
@@ -27754,14 +27909,20 @@
     <mergeCell ref="BV108:BY108"/>
     <mergeCell ref="BV59:BY59"/>
     <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BZ59:CC59"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR9:BU9"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="50" max="86" man="1"/>
-    <brk id="100" max="86" man="1"/>
-    <brk id="124" max="86" man="1"/>
+    <brk id="50" max="87" man="1"/>
+    <brk id="100" max="87" man="1"/>
+    <brk id="124" max="87" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-05EOS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-05EOS_2018PSNA_Qrt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2021\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11424" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="EOS" sheetId="5" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="55">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -212,28 +212,26 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>2021 - 2021</t>
+    <t>As of January 2022</t>
   </si>
   <si>
-    <t>As of November 2021</t>
+    <t>Q1 2000 to Q4 2021</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2021</t>
-  </si>
-  <si>
-    <t>Q1 2001 to Q3 2021</t>
+    <t>Q1 2001 to Q4 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="#,##0;\-#,##0;\-;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -309,7 +307,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -354,6 +352,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -698,11 +698,11 @@
   <dimension ref="A1:EU174"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="95" zoomScaleNormal="95" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="CA50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="A56" sqref="A56"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -711,8 +711,9 @@
     <col min="2" max="73" width="8.81640625" style="1" customWidth="1"/>
     <col min="74" max="80" width="10" style="1" customWidth="1"/>
     <col min="81" max="81" width="10.26953125" style="1" customWidth="1"/>
-    <col min="82" max="88" width="11.36328125" style="18" customWidth="1"/>
-    <col min="89" max="16384" width="7.81640625" style="1"/>
+    <col min="82" max="89" width="10.6328125" style="18" customWidth="1"/>
+    <col min="90" max="90" width="1.90625" style="18" customWidth="1"/>
+    <col min="91" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:151" x14ac:dyDescent="0.25">
@@ -727,7 +728,7 @@
     </row>
     <row r="3" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:151" x14ac:dyDescent="0.25">
@@ -737,7 +738,7 @@
     </row>
     <row r="6" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:151" x14ac:dyDescent="0.25">
@@ -747,137 +748,139 @@
     </row>
     <row r="9" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="29">
+      <c r="B9" s="31">
         <v>2000</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29">
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31">
         <v>2001</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29">
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31">
         <v>2002</v>
       </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29">
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31">
         <v>2003</v>
       </c>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29">
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31">
         <v>2004</v>
       </c>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29">
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31">
         <v>2005</v>
       </c>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29">
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31">
         <v>2006</v>
       </c>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29">
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="31"/>
+      <c r="AD9" s="31">
         <v>2007</v>
       </c>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="29">
+      <c r="AE9" s="31"/>
+      <c r="AF9" s="31"/>
+      <c r="AG9" s="31"/>
+      <c r="AH9" s="31">
         <v>2008</v>
       </c>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="29"/>
-      <c r="AL9" s="29">
+      <c r="AI9" s="31"/>
+      <c r="AJ9" s="31"/>
+      <c r="AK9" s="31"/>
+      <c r="AL9" s="31">
         <v>2009</v>
       </c>
-      <c r="AM9" s="29"/>
-      <c r="AN9" s="29"/>
-      <c r="AO9" s="29"/>
-      <c r="AP9" s="29">
+      <c r="AM9" s="31"/>
+      <c r="AN9" s="31"/>
+      <c r="AO9" s="31"/>
+      <c r="AP9" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="29"/>
-      <c r="AR9" s="29"/>
-      <c r="AS9" s="29"/>
-      <c r="AT9" s="29">
+      <c r="AQ9" s="31"/>
+      <c r="AR9" s="31"/>
+      <c r="AS9" s="31"/>
+      <c r="AT9" s="31">
         <v>2011</v>
       </c>
-      <c r="AU9" s="29"/>
-      <c r="AV9" s="29"/>
-      <c r="AW9" s="29"/>
-      <c r="AX9" s="29">
+      <c r="AU9" s="31"/>
+      <c r="AV9" s="31"/>
+      <c r="AW9" s="31"/>
+      <c r="AX9" s="31">
         <v>2012</v>
       </c>
-      <c r="AY9" s="29"/>
-      <c r="AZ9" s="29"/>
-      <c r="BA9" s="29"/>
-      <c r="BB9" s="29">
+      <c r="AY9" s="31"/>
+      <c r="AZ9" s="31"/>
+      <c r="BA9" s="31"/>
+      <c r="BB9" s="31">
         <v>2013</v>
       </c>
-      <c r="BC9" s="29"/>
-      <c r="BD9" s="29"/>
-      <c r="BE9" s="29"/>
-      <c r="BF9" s="29">
+      <c r="BC9" s="31"/>
+      <c r="BD9" s="31"/>
+      <c r="BE9" s="31"/>
+      <c r="BF9" s="31">
         <v>2014</v>
       </c>
-      <c r="BG9" s="29"/>
-      <c r="BH9" s="29"/>
-      <c r="BI9" s="29"/>
-      <c r="BJ9" s="29">
+      <c r="BG9" s="31"/>
+      <c r="BH9" s="31"/>
+      <c r="BI9" s="31"/>
+      <c r="BJ9" s="31">
         <v>2015</v>
       </c>
-      <c r="BK9" s="29"/>
-      <c r="BL9" s="29"/>
-      <c r="BM9" s="29"/>
-      <c r="BN9" s="29">
+      <c r="BK9" s="31"/>
+      <c r="BL9" s="31"/>
+      <c r="BM9" s="31"/>
+      <c r="BN9" s="31">
         <v>2016</v>
       </c>
-      <c r="BO9" s="29"/>
-      <c r="BP9" s="29"/>
-      <c r="BQ9" s="29"/>
-      <c r="BR9" s="29">
+      <c r="BO9" s="31"/>
+      <c r="BP9" s="31"/>
+      <c r="BQ9" s="31"/>
+      <c r="BR9" s="31">
         <v>2017</v>
       </c>
-      <c r="BS9" s="29"/>
-      <c r="BT9" s="29"/>
-      <c r="BU9" s="29"/>
-      <c r="BV9" s="29">
+      <c r="BS9" s="31"/>
+      <c r="BT9" s="31"/>
+      <c r="BU9" s="31"/>
+      <c r="BV9" s="31">
         <v>2018</v>
       </c>
-      <c r="BW9" s="29"/>
-      <c r="BX9" s="29"/>
-      <c r="BY9" s="29"/>
-      <c r="BZ9" s="29">
+      <c r="BW9" s="31"/>
+      <c r="BX9" s="31"/>
+      <c r="BY9" s="31"/>
+      <c r="BZ9" s="31">
         <v>2019</v>
       </c>
-      <c r="CA9" s="29"/>
-      <c r="CB9" s="29"/>
-      <c r="CC9" s="29"/>
-      <c r="CD9" s="28">
+      <c r="CA9" s="31"/>
+      <c r="CB9" s="31"/>
+      <c r="CC9" s="31"/>
+      <c r="CD9" s="30">
         <v>2020</v>
       </c>
-      <c r="CE9" s="28"/>
-      <c r="CF9" s="28"/>
-      <c r="CG9" s="28"/>
-      <c r="CH9" s="28">
+      <c r="CE9" s="30"/>
+      <c r="CF9" s="30"/>
+      <c r="CG9" s="30"/>
+      <c r="CH9" s="30">
         <v>2021</v>
       </c>
-      <c r="CI9" s="28"/>
-      <c r="CJ9" s="28"/>
+      <c r="CI9" s="30"/>
+      <c r="CJ9" s="30"/>
+      <c r="CK9" s="30"/>
+      <c r="CL9" s="28"/>
     </row>
     <row r="10" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -1142,6 +1145,10 @@
       <c r="CJ10" s="19" t="s">
         <v>9</v>
       </c>
+      <c r="CK10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="CL10" s="19"/>
     </row>
     <row r="11" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
@@ -1409,10 +1416,12 @@
         <v>16391.545194812847</v>
       </c>
       <c r="CJ12" s="20">
-        <v>25716.285814568222</v>
-      </c>
-      <c r="CK12" s="8"/>
-      <c r="CL12" s="8"/>
+        <v>27080.676460143659</v>
+      </c>
+      <c r="CK12" s="20">
+        <v>28962.48869843475</v>
+      </c>
+      <c r="CL12" s="29"/>
       <c r="CM12" s="8"/>
       <c r="CN12" s="8"/>
       <c r="CO12" s="8"/>
@@ -1738,10 +1747,12 @@
         <v>387.57697975435258</v>
       </c>
       <c r="CJ13" s="20">
-        <v>812.3587129134221</v>
-      </c>
-      <c r="CK13" s="8"/>
-      <c r="CL13" s="8"/>
+        <v>807.76740179777687</v>
+      </c>
+      <c r="CK13" s="20">
+        <v>849.4940209236903</v>
+      </c>
+      <c r="CL13" s="29"/>
       <c r="CM13" s="8"/>
       <c r="CN13" s="8"/>
       <c r="CO13" s="8"/>
@@ -2067,10 +2078,12 @@
         <v>29673.480158083239</v>
       </c>
       <c r="CJ14" s="20">
-        <v>23247.77711361623</v>
-      </c>
-      <c r="CK14" s="8"/>
-      <c r="CL14" s="8"/>
+        <v>23926.254233887692</v>
+      </c>
+      <c r="CK14" s="20">
+        <v>14045.039601781906</v>
+      </c>
+      <c r="CL14" s="29"/>
       <c r="CM14" s="8"/>
       <c r="CN14" s="8"/>
       <c r="CO14" s="8"/>
@@ -2396,10 +2409,12 @@
         <v>3438.8113492011848</v>
       </c>
       <c r="CJ15" s="20">
-        <v>3776.4891554276164</v>
-      </c>
-      <c r="CK15" s="8"/>
-      <c r="CL15" s="8"/>
+        <v>3776.489155427616</v>
+      </c>
+      <c r="CK15" s="20">
+        <v>3717.6558698553504</v>
+      </c>
+      <c r="CL15" s="29"/>
       <c r="CM15" s="8"/>
       <c r="CN15" s="8"/>
       <c r="CO15" s="8"/>
@@ -2725,10 +2740,12 @@
         <v>101878.54866967555</v>
       </c>
       <c r="CJ16" s="20">
-        <v>70922.376110319237</v>
-      </c>
-      <c r="CK16" s="8"/>
-      <c r="CL16" s="8"/>
+        <v>69340.49337737613</v>
+      </c>
+      <c r="CK16" s="20">
+        <v>72213.867824437591</v>
+      </c>
+      <c r="CL16" s="29"/>
       <c r="CM16" s="8"/>
       <c r="CN16" s="8"/>
       <c r="CO16" s="8"/>
@@ -3054,10 +3071,12 @@
         <v>346990.80493395386</v>
       </c>
       <c r="CJ17" s="20">
-        <v>259288.63493118281</v>
-      </c>
-      <c r="CK17" s="8"/>
-      <c r="CL17" s="8"/>
+        <v>258653.62356516902</v>
+      </c>
+      <c r="CK17" s="20">
+        <v>301281.25579520763</v>
+      </c>
+      <c r="CL17" s="29"/>
       <c r="CM17" s="8"/>
       <c r="CN17" s="8"/>
       <c r="CO17" s="8"/>
@@ -3383,10 +3402,12 @@
         <v>73530.605226210522</v>
       </c>
       <c r="CJ18" s="20">
-        <v>60443.261262100285</v>
-      </c>
-      <c r="CK18" s="8"/>
-      <c r="CL18" s="8"/>
+        <v>59103.067755561111</v>
+      </c>
+      <c r="CK18" s="20">
+        <v>57635.006682118881</v>
+      </c>
+      <c r="CL18" s="29"/>
       <c r="CM18" s="8"/>
       <c r="CN18" s="8"/>
       <c r="CO18" s="8"/>
@@ -3712,10 +3733,12 @@
         <v>6709.2897414248655</v>
       </c>
       <c r="CJ19" s="20">
-        <v>6887.3941455703925</v>
-      </c>
-      <c r="CK19" s="8"/>
-      <c r="CL19" s="8"/>
+        <v>7280.0096377980935</v>
+      </c>
+      <c r="CK19" s="20">
+        <v>11334.370114203766</v>
+      </c>
+      <c r="CL19" s="29"/>
       <c r="CM19" s="8"/>
       <c r="CN19" s="8"/>
       <c r="CO19" s="8"/>
@@ -3866,8 +3889,8 @@
       <c r="CH20" s="21"/>
       <c r="CI20" s="21"/>
       <c r="CJ20" s="21"/>
-      <c r="CK20" s="8"/>
-      <c r="CL20" s="8"/>
+      <c r="CK20" s="21"/>
+      <c r="CL20" s="21"/>
       <c r="CM20" s="8"/>
       <c r="CN20" s="8"/>
       <c r="CO20" s="8"/>
@@ -4193,10 +4216,12 @@
         <v>579000.66225311637</v>
       </c>
       <c r="CJ21" s="22">
-        <v>451094.57724569825</v>
-      </c>
-      <c r="CK21" s="8"/>
-      <c r="CL21" s="8"/>
+        <v>449968.38158716104</v>
+      </c>
+      <c r="CK21" s="22">
+        <v>490039.1786069636</v>
+      </c>
+      <c r="CL21" s="22"/>
       <c r="CM21" s="8"/>
       <c r="CN21" s="8"/>
       <c r="CO21" s="8"/>
@@ -4348,6 +4373,8 @@
       <c r="CH22" s="23"/>
       <c r="CI22" s="23"/>
       <c r="CJ22" s="23"/>
+      <c r="CK22" s="23"/>
+      <c r="CL22" s="23"/>
     </row>
     <row r="23" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
@@ -4442,8 +4469,8 @@
       <c r="CH24" s="21"/>
       <c r="CI24" s="21"/>
       <c r="CJ24" s="21"/>
-      <c r="CK24" s="8"/>
-      <c r="CL24" s="8"/>
+      <c r="CK24" s="21"/>
+      <c r="CL24" s="21"/>
       <c r="CM24" s="8"/>
       <c r="CN24" s="8"/>
       <c r="CO24" s="8"/>
@@ -4594,8 +4621,8 @@
       <c r="CH25" s="21"/>
       <c r="CI25" s="21"/>
       <c r="CJ25" s="21"/>
-      <c r="CK25" s="8"/>
-      <c r="CL25" s="8"/>
+      <c r="CK25" s="21"/>
+      <c r="CL25" s="21"/>
       <c r="CM25" s="8"/>
       <c r="CN25" s="8"/>
       <c r="CO25" s="8"/>
@@ -4670,7 +4697,7 @@
     </row>
     <row r="28" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:151" x14ac:dyDescent="0.25">
@@ -4680,7 +4707,7 @@
     </row>
     <row r="31" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:151" x14ac:dyDescent="0.25">
@@ -4690,139 +4717,139 @@
     </row>
     <row r="34" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
-      <c r="B34" s="30">
+      <c r="B34" s="32">
         <v>2000</v>
       </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30">
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32">
         <v>2001</v>
       </c>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30">
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32">
         <v>2002</v>
       </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30">
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32">
         <v>2003</v>
       </c>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30">
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32">
         <v>2004</v>
       </c>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30">
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32">
         <v>2005</v>
       </c>
-      <c r="W34" s="30"/>
-      <c r="X34" s="30"/>
-      <c r="Y34" s="30"/>
-      <c r="Z34" s="30">
+      <c r="W34" s="32"/>
+      <c r="X34" s="32"/>
+      <c r="Y34" s="32"/>
+      <c r="Z34" s="32">
         <v>2006</v>
       </c>
-      <c r="AA34" s="30"/>
-      <c r="AB34" s="30"/>
-      <c r="AC34" s="30"/>
-      <c r="AD34" s="30">
+      <c r="AA34" s="32"/>
+      <c r="AB34" s="32"/>
+      <c r="AC34" s="32"/>
+      <c r="AD34" s="32">
         <v>2007</v>
       </c>
-      <c r="AE34" s="30"/>
-      <c r="AF34" s="30"/>
-      <c r="AG34" s="30"/>
-      <c r="AH34" s="30">
+      <c r="AE34" s="32"/>
+      <c r="AF34" s="32"/>
+      <c r="AG34" s="32"/>
+      <c r="AH34" s="32">
         <v>2008</v>
       </c>
-      <c r="AI34" s="30"/>
-      <c r="AJ34" s="30"/>
-      <c r="AK34" s="30"/>
-      <c r="AL34" s="30">
+      <c r="AI34" s="32"/>
+      <c r="AJ34" s="32"/>
+      <c r="AK34" s="32"/>
+      <c r="AL34" s="32">
         <v>2009</v>
       </c>
-      <c r="AM34" s="30"/>
-      <c r="AN34" s="30"/>
-      <c r="AO34" s="30"/>
-      <c r="AP34" s="30">
+      <c r="AM34" s="32"/>
+      <c r="AN34" s="32"/>
+      <c r="AO34" s="32"/>
+      <c r="AP34" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ34" s="30"/>
-      <c r="AR34" s="30"/>
-      <c r="AS34" s="30"/>
-      <c r="AT34" s="30">
+      <c r="AQ34" s="32"/>
+      <c r="AR34" s="32"/>
+      <c r="AS34" s="32"/>
+      <c r="AT34" s="32">
         <v>2011</v>
       </c>
-      <c r="AU34" s="30"/>
-      <c r="AV34" s="30"/>
-      <c r="AW34" s="30"/>
-      <c r="AX34" s="30">
+      <c r="AU34" s="32"/>
+      <c r="AV34" s="32"/>
+      <c r="AW34" s="32"/>
+      <c r="AX34" s="32">
         <v>2012</v>
       </c>
-      <c r="AY34" s="30"/>
-      <c r="AZ34" s="30"/>
-      <c r="BA34" s="30"/>
-      <c r="BB34" s="30">
+      <c r="AY34" s="32"/>
+      <c r="AZ34" s="32"/>
+      <c r="BA34" s="32"/>
+      <c r="BB34" s="32">
         <v>2013</v>
       </c>
-      <c r="BC34" s="30"/>
-      <c r="BD34" s="30"/>
-      <c r="BE34" s="30"/>
-      <c r="BF34" s="30">
+      <c r="BC34" s="32"/>
+      <c r="BD34" s="32"/>
+      <c r="BE34" s="32"/>
+      <c r="BF34" s="32">
         <v>2014</v>
       </c>
-      <c r="BG34" s="30"/>
-      <c r="BH34" s="30"/>
-      <c r="BI34" s="30"/>
-      <c r="BJ34" s="30">
+      <c r="BG34" s="32"/>
+      <c r="BH34" s="32"/>
+      <c r="BI34" s="32"/>
+      <c r="BJ34" s="32">
         <v>2015</v>
       </c>
-      <c r="BK34" s="30"/>
-      <c r="BL34" s="30"/>
-      <c r="BM34" s="30"/>
-      <c r="BN34" s="30">
+      <c r="BK34" s="32"/>
+      <c r="BL34" s="32"/>
+      <c r="BM34" s="32"/>
+      <c r="BN34" s="32">
         <v>2016</v>
       </c>
-      <c r="BO34" s="30"/>
-      <c r="BP34" s="30"/>
-      <c r="BQ34" s="30"/>
-      <c r="BR34" s="30">
+      <c r="BO34" s="32"/>
+      <c r="BP34" s="32"/>
+      <c r="BQ34" s="32"/>
+      <c r="BR34" s="32">
         <v>2017</v>
       </c>
-      <c r="BS34" s="30"/>
-      <c r="BT34" s="30"/>
-      <c r="BU34" s="30"/>
-      <c r="BV34" s="30">
+      <c r="BS34" s="32"/>
+      <c r="BT34" s="32"/>
+      <c r="BU34" s="32"/>
+      <c r="BV34" s="32">
         <v>2018</v>
       </c>
-      <c r="BW34" s="30"/>
-      <c r="BX34" s="30"/>
-      <c r="BY34" s="30"/>
-      <c r="BZ34" s="30">
+      <c r="BW34" s="32"/>
+      <c r="BX34" s="32"/>
+      <c r="BY34" s="32"/>
+      <c r="BZ34" s="32">
         <v>2019</v>
       </c>
-      <c r="CA34" s="30"/>
-      <c r="CB34" s="30"/>
-      <c r="CC34" s="30"/>
-      <c r="CD34" s="28">
+      <c r="CA34" s="32"/>
+      <c r="CB34" s="32"/>
+      <c r="CC34" s="32"/>
+      <c r="CD34" s="30">
         <v>2020</v>
       </c>
-      <c r="CE34" s="28"/>
-      <c r="CF34" s="28"/>
-      <c r="CG34" s="28"/>
-      <c r="CH34" s="28">
+      <c r="CE34" s="30"/>
+      <c r="CF34" s="30"/>
+      <c r="CG34" s="30"/>
+      <c r="CH34" s="30">
         <v>2021</v>
       </c>
-      <c r="CI34" s="28">
-        <v>0</v>
-      </c>
-      <c r="CJ34" s="28"/>
+      <c r="CI34" s="30"/>
+      <c r="CJ34" s="30"/>
+      <c r="CK34" s="30"/>
+      <c r="CL34" s="28"/>
     </row>
     <row r="35" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
@@ -5087,6 +5114,10 @@
       <c r="CJ35" s="24" t="s">
         <v>9</v>
       </c>
+      <c r="CK35" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="CL35" s="19"/>
     </row>
     <row r="36" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -5354,10 +5385,12 @@
         <v>15112.588522108954</v>
       </c>
       <c r="CJ37" s="20">
-        <v>23160.921553686745</v>
-      </c>
-      <c r="CK37" s="8"/>
-      <c r="CL37" s="8"/>
+        <v>24389.736046518952</v>
+      </c>
+      <c r="CK37" s="20">
+        <v>24413.819240993631</v>
+      </c>
+      <c r="CL37" s="29"/>
       <c r="CM37" s="8"/>
       <c r="CN37" s="8"/>
       <c r="CO37" s="8"/>
@@ -5683,10 +5716,12 @@
         <v>360.15495531134843</v>
       </c>
       <c r="CJ38" s="20">
-        <v>743.48303901949737</v>
-      </c>
-      <c r="CK38" s="8"/>
-      <c r="CL38" s="8"/>
+        <v>739.28100131487111</v>
+      </c>
+      <c r="CK38" s="20">
+        <v>790.87181199535985</v>
+      </c>
+      <c r="CL38" s="29"/>
       <c r="CM38" s="8"/>
       <c r="CN38" s="8"/>
       <c r="CO38" s="8"/>
@@ -6012,10 +6047,12 @@
         <v>27061.127282441081</v>
       </c>
       <c r="CJ39" s="20">
-        <v>20980.58990697519</v>
-      </c>
-      <c r="CK39" s="8"/>
-      <c r="CL39" s="8"/>
+        <v>21592.900071173368</v>
+      </c>
+      <c r="CK39" s="20">
+        <v>12949.02422457256</v>
+      </c>
+      <c r="CL39" s="29"/>
       <c r="CM39" s="8"/>
       <c r="CN39" s="8"/>
       <c r="CO39" s="8"/>
@@ -6341,10 +6378,12 @@
         <v>3280.2710999783149</v>
       </c>
       <c r="CJ40" s="20">
-        <v>3529.4697269102971</v>
-      </c>
-      <c r="CK40" s="8"/>
-      <c r="CL40" s="8"/>
+        <v>3529.4697269102967</v>
+      </c>
+      <c r="CK40" s="20">
+        <v>3409.7838609746696</v>
+      </c>
+      <c r="CL40" s="29"/>
       <c r="CM40" s="8"/>
       <c r="CN40" s="8"/>
       <c r="CO40" s="8"/>
@@ -6670,10 +6709,12 @@
         <v>100701.72609154858</v>
       </c>
       <c r="CJ41" s="20">
-        <v>69767.204458864173</v>
-      </c>
-      <c r="CK41" s="8"/>
-      <c r="CL41" s="8"/>
+        <v>68211.087163985067</v>
+      </c>
+      <c r="CK41" s="20">
+        <v>72804.427178662605</v>
+      </c>
+      <c r="CL41" s="29"/>
       <c r="CM41" s="8"/>
       <c r="CN41" s="8"/>
       <c r="CO41" s="8"/>
@@ -6999,10 +7040,12 @@
         <v>332798.52829001442</v>
       </c>
       <c r="CJ42" s="20">
-        <v>237419.75301103739</v>
-      </c>
-      <c r="CK42" s="8"/>
-      <c r="CL42" s="8"/>
+        <v>236838.2996753823</v>
+      </c>
+      <c r="CK42" s="20">
+        <v>275506.77585860383</v>
+      </c>
+      <c r="CL42" s="29"/>
       <c r="CM42" s="8"/>
       <c r="CN42" s="8"/>
       <c r="CO42" s="8"/>
@@ -7328,10 +7371,12 @@
         <v>68381.706220006774</v>
       </c>
       <c r="CJ43" s="20">
-        <v>55413.279870243554</v>
-      </c>
-      <c r="CK43" s="8"/>
-      <c r="CL43" s="8"/>
+        <v>54184.61489903849</v>
+      </c>
+      <c r="CK43" s="20">
+        <v>53780.63871151294</v>
+      </c>
+      <c r="CL43" s="29"/>
       <c r="CM43" s="8"/>
       <c r="CN43" s="8"/>
       <c r="CO43" s="8"/>
@@ -7657,10 +7702,12 @@
         <v>6221.4809743713067</v>
       </c>
       <c r="CJ44" s="20">
-        <v>6307.7478536294502</v>
-      </c>
-      <c r="CK44" s="8"/>
-      <c r="CL44" s="8"/>
+        <v>6667.3206435784195</v>
+      </c>
+      <c r="CK44" s="20">
+        <v>10565.898530360369</v>
+      </c>
+      <c r="CL44" s="29"/>
       <c r="CM44" s="8"/>
       <c r="CN44" s="8"/>
       <c r="CO44" s="8"/>
@@ -7811,8 +7858,8 @@
       <c r="CH45" s="21"/>
       <c r="CI45" s="21"/>
       <c r="CJ45" s="21"/>
-      <c r="CK45" s="8"/>
-      <c r="CL45" s="8"/>
+      <c r="CK45" s="21"/>
+      <c r="CL45" s="21"/>
       <c r="CM45" s="8"/>
       <c r="CN45" s="8"/>
       <c r="CO45" s="8"/>
@@ -8138,10 +8185,12 @@
         <v>553917.58343578083</v>
       </c>
       <c r="CJ46" s="22">
-        <v>417322.44942036632</v>
-      </c>
-      <c r="CK46" s="8"/>
-      <c r="CL46" s="8"/>
+        <v>416152.70922790183</v>
+      </c>
+      <c r="CK46" s="22">
+        <v>454221.239417676</v>
+      </c>
+      <c r="CL46" s="22"/>
       <c r="CM46" s="8"/>
       <c r="CN46" s="8"/>
       <c r="CO46" s="8"/>
@@ -8293,6 +8342,8 @@
       <c r="CH47" s="23"/>
       <c r="CI47" s="23"/>
       <c r="CJ47" s="23"/>
+      <c r="CK47" s="23"/>
+      <c r="CL47" s="23"/>
     </row>
     <row r="48" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
@@ -8387,8 +8438,8 @@
       <c r="CH49" s="21"/>
       <c r="CI49" s="21"/>
       <c r="CJ49" s="21"/>
-      <c r="CK49" s="8"/>
-      <c r="CL49" s="8"/>
+      <c r="CK49" s="21"/>
+      <c r="CL49" s="21"/>
       <c r="CM49" s="8"/>
       <c r="CN49" s="8"/>
       <c r="CO49" s="8"/>
@@ -8539,8 +8590,8 @@
       <c r="CH50" s="21"/>
       <c r="CI50" s="21"/>
       <c r="CJ50" s="21"/>
-      <c r="CK50" s="8"/>
-      <c r="CL50" s="8"/>
+      <c r="CK50" s="21"/>
+      <c r="CL50" s="21"/>
       <c r="CM50" s="8"/>
       <c r="CN50" s="8"/>
       <c r="CO50" s="8"/>
@@ -8615,7 +8666,7 @@
     </row>
     <row r="53" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:151" x14ac:dyDescent="0.25">
@@ -8625,7 +8676,7 @@
     </row>
     <row r="56" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:151" x14ac:dyDescent="0.25">
@@ -8635,137 +8686,137 @@
     </row>
     <row r="59" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29" t="s">
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29" t="s">
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="29"/>
-      <c r="N59" s="29" t="s">
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="O59" s="29"/>
-      <c r="P59" s="29"/>
-      <c r="Q59" s="29"/>
-      <c r="R59" s="29" t="s">
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="31"/>
+      <c r="R59" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="S59" s="29"/>
-      <c r="T59" s="29"/>
-      <c r="U59" s="29"/>
-      <c r="V59" s="29" t="s">
+      <c r="S59" s="31"/>
+      <c r="T59" s="31"/>
+      <c r="U59" s="31"/>
+      <c r="V59" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="W59" s="29"/>
-      <c r="X59" s="29"/>
-      <c r="Y59" s="29"/>
-      <c r="Z59" s="29" t="s">
+      <c r="W59" s="31"/>
+      <c r="X59" s="31"/>
+      <c r="Y59" s="31"/>
+      <c r="Z59" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="AA59" s="29"/>
-      <c r="AB59" s="29"/>
-      <c r="AC59" s="29"/>
-      <c r="AD59" s="29" t="s">
+      <c r="AA59" s="31"/>
+      <c r="AB59" s="31"/>
+      <c r="AC59" s="31"/>
+      <c r="AD59" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="AE59" s="29"/>
-      <c r="AF59" s="29"/>
-      <c r="AG59" s="29"/>
-      <c r="AH59" s="29" t="s">
+      <c r="AE59" s="31"/>
+      <c r="AF59" s="31"/>
+      <c r="AG59" s="31"/>
+      <c r="AH59" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AI59" s="29"/>
-      <c r="AJ59" s="29"/>
-      <c r="AK59" s="29"/>
-      <c r="AL59" s="29" t="s">
+      <c r="AI59" s="31"/>
+      <c r="AJ59" s="31"/>
+      <c r="AK59" s="31"/>
+      <c r="AL59" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="AM59" s="29"/>
-      <c r="AN59" s="29"/>
-      <c r="AO59" s="29"/>
-      <c r="AP59" s="29" t="s">
+      <c r="AM59" s="31"/>
+      <c r="AN59" s="31"/>
+      <c r="AO59" s="31"/>
+      <c r="AP59" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="AQ59" s="29"/>
-      <c r="AR59" s="29"/>
-      <c r="AS59" s="29"/>
-      <c r="AT59" s="29" t="s">
+      <c r="AQ59" s="31"/>
+      <c r="AR59" s="31"/>
+      <c r="AS59" s="31"/>
+      <c r="AT59" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="AU59" s="29"/>
-      <c r="AV59" s="29"/>
-      <c r="AW59" s="29"/>
-      <c r="AX59" s="29" t="s">
+      <c r="AU59" s="31"/>
+      <c r="AV59" s="31"/>
+      <c r="AW59" s="31"/>
+      <c r="AX59" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="AY59" s="29"/>
-      <c r="AZ59" s="29"/>
-      <c r="BA59" s="29"/>
-      <c r="BB59" s="29" t="s">
+      <c r="AY59" s="31"/>
+      <c r="AZ59" s="31"/>
+      <c r="BA59" s="31"/>
+      <c r="BB59" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="BC59" s="29"/>
-      <c r="BD59" s="29"/>
-      <c r="BE59" s="29"/>
-      <c r="BF59" s="29" t="s">
+      <c r="BC59" s="31"/>
+      <c r="BD59" s="31"/>
+      <c r="BE59" s="31"/>
+      <c r="BF59" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="BG59" s="29"/>
-      <c r="BH59" s="29"/>
-      <c r="BI59" s="29"/>
-      <c r="BJ59" s="29" t="s">
+      <c r="BG59" s="31"/>
+      <c r="BH59" s="31"/>
+      <c r="BI59" s="31"/>
+      <c r="BJ59" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="BK59" s="29"/>
-      <c r="BL59" s="29"/>
-      <c r="BM59" s="29"/>
-      <c r="BN59" s="29" t="s">
+      <c r="BK59" s="31"/>
+      <c r="BL59" s="31"/>
+      <c r="BM59" s="31"/>
+      <c r="BN59" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="BO59" s="29"/>
-      <c r="BP59" s="29"/>
-      <c r="BQ59" s="29"/>
-      <c r="BR59" s="29" t="s">
+      <c r="BO59" s="31"/>
+      <c r="BP59" s="31"/>
+      <c r="BQ59" s="31"/>
+      <c r="BR59" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="BS59" s="29"/>
-      <c r="BT59" s="29"/>
-      <c r="BU59" s="29"/>
-      <c r="BV59" s="29" t="s">
+      <c r="BS59" s="31"/>
+      <c r="BT59" s="31"/>
+      <c r="BU59" s="31"/>
+      <c r="BV59" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="BW59" s="29"/>
-      <c r="BX59" s="29"/>
-      <c r="BY59" s="29"/>
-      <c r="BZ59" s="29" t="s">
+      <c r="BW59" s="31"/>
+      <c r="BX59" s="31"/>
+      <c r="BY59" s="31"/>
+      <c r="BZ59" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="CA59" s="29"/>
-      <c r="CB59" s="29"/>
-      <c r="CC59" s="29"/>
-      <c r="CD59" s="28" t="s">
+      <c r="CA59" s="31"/>
+      <c r="CB59" s="31"/>
+      <c r="CC59" s="31"/>
+      <c r="CD59" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="CE59" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="CF59" s="27"/>
-      <c r="CG59" s="27"/>
+      <c r="CE59" s="30"/>
+      <c r="CF59" s="30"/>
+      <c r="CG59" s="30"/>
       <c r="CH59" s="27"/>
       <c r="CI59" s="27"/>
       <c r="CJ59" s="27"/>
+      <c r="CK59" s="27"/>
+      <c r="CL59" s="28"/>
     </row>
     <row r="60" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
@@ -9009,19 +9060,23 @@
       <c r="CC60" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CD60" s="19" t="s">
+      <c r="CD60" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CE60" s="19" t="s">
+      <c r="CE60" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CF60" s="19" t="s">
+      <c r="CF60" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="CG60" s="19"/>
+      <c r="CG60" s="24" t="s">
+        <v>10</v>
+      </c>
       <c r="CH60" s="19"/>
       <c r="CI60" s="19"/>
       <c r="CJ60" s="19"/>
+      <c r="CK60" s="19"/>
+      <c r="CL60" s="19"/>
     </row>
     <row r="61" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
@@ -9277,14 +9332,16 @@
         <v>23.251677746224075</v>
       </c>
       <c r="CF62" s="25">
-        <v>21.396577533771932</v>
-      </c>
-      <c r="CG62" s="21"/>
+        <v>27.837334802775416</v>
+      </c>
+      <c r="CG62" s="25">
+        <v>21.174576189592258</v>
+      </c>
       <c r="CH62" s="21"/>
       <c r="CI62" s="21"/>
       <c r="CJ62" s="21"/>
-      <c r="CK62" s="8"/>
-      <c r="CL62" s="8"/>
+      <c r="CK62" s="21"/>
+      <c r="CL62" s="25"/>
       <c r="CM62" s="8"/>
       <c r="CN62" s="8"/>
       <c r="CO62" s="8"/>
@@ -9594,14 +9651,16 @@
         <v>42.934044943945452</v>
       </c>
       <c r="CF63" s="25">
-        <v>15.890383072214462</v>
-      </c>
-      <c r="CG63" s="21"/>
+        <v>15.235390646408419</v>
+      </c>
+      <c r="CG63" s="25">
+        <v>8.1755653636707279</v>
+      </c>
       <c r="CH63" s="21"/>
       <c r="CI63" s="21"/>
       <c r="CJ63" s="21"/>
-      <c r="CK63" s="8"/>
-      <c r="CL63" s="8"/>
+      <c r="CK63" s="21"/>
+      <c r="CL63" s="25"/>
       <c r="CM63" s="8"/>
       <c r="CN63" s="8"/>
       <c r="CO63" s="8"/>
@@ -9911,14 +9970,16 @@
         <v>448.5245161562226</v>
       </c>
       <c r="CF64" s="25">
-        <v>60.628680182434238</v>
-      </c>
-      <c r="CG64" s="21"/>
+        <v>65.316564268321855</v>
+      </c>
+      <c r="CG64" s="25">
+        <v>70.196776854937752</v>
+      </c>
       <c r="CH64" s="21"/>
       <c r="CI64" s="21"/>
       <c r="CJ64" s="21"/>
-      <c r="CK64" s="8"/>
-      <c r="CL64" s="8"/>
+      <c r="CK64" s="21"/>
+      <c r="CL64" s="25"/>
       <c r="CM64" s="8"/>
       <c r="CN64" s="8"/>
       <c r="CO64" s="8"/>
@@ -10228,14 +10289,16 @@
         <v>26.497153703801743</v>
       </c>
       <c r="CF65" s="25">
-        <v>27.281902453962687</v>
-      </c>
-      <c r="CG65" s="21"/>
+        <v>27.281902453962672</v>
+      </c>
+      <c r="CG65" s="25">
+        <v>25.877938661500679</v>
+      </c>
       <c r="CH65" s="21"/>
       <c r="CI65" s="21"/>
       <c r="CJ65" s="21"/>
-      <c r="CK65" s="8"/>
-      <c r="CL65" s="8"/>
+      <c r="CK65" s="21"/>
+      <c r="CL65" s="25"/>
       <c r="CM65" s="8"/>
       <c r="CN65" s="8"/>
       <c r="CO65" s="8"/>
@@ -10545,14 +10608,16 @@
         <v>18.361106622444794</v>
       </c>
       <c r="CF66" s="25">
-        <v>22.051849033048043</v>
-      </c>
-      <c r="CG66" s="21"/>
+        <v>19.32955286788804</v>
+      </c>
+      <c r="CG66" s="25">
+        <v>19.281489944298059</v>
+      </c>
       <c r="CH66" s="21"/>
       <c r="CI66" s="21"/>
       <c r="CJ66" s="21"/>
-      <c r="CK66" s="8"/>
-      <c r="CL66" s="8"/>
+      <c r="CK66" s="21"/>
+      <c r="CL66" s="25"/>
       <c r="CM66" s="8"/>
       <c r="CN66" s="8"/>
       <c r="CO66" s="8"/>
@@ -10862,14 +10927,16 @@
         <v>15.974357790708439</v>
       </c>
       <c r="CF67" s="25">
-        <v>3.2030770398157529</v>
-      </c>
-      <c r="CG67" s="21"/>
+        <v>2.9503273311936482</v>
+      </c>
+      <c r="CG67" s="25">
+        <v>11.211892092268187</v>
+      </c>
       <c r="CH67" s="21"/>
       <c r="CI67" s="21"/>
       <c r="CJ67" s="21"/>
-      <c r="CK67" s="8"/>
-      <c r="CL67" s="8"/>
+      <c r="CK67" s="21"/>
+      <c r="CL67" s="25"/>
       <c r="CM67" s="8"/>
       <c r="CN67" s="8"/>
       <c r="CO67" s="8"/>
@@ -11179,14 +11246,16 @@
         <v>23.53809151770551</v>
       </c>
       <c r="CF68" s="25">
-        <v>32.582738036752659</v>
-      </c>
-      <c r="CG68" s="21"/>
+        <v>29.643013725294054</v>
+      </c>
+      <c r="CG68" s="25">
+        <v>36.01674927581476</v>
+      </c>
       <c r="CH68" s="21"/>
       <c r="CI68" s="21"/>
       <c r="CJ68" s="21"/>
-      <c r="CK68" s="8"/>
-      <c r="CL68" s="8"/>
+      <c r="CK68" s="21"/>
+      <c r="CL68" s="25"/>
       <c r="CM68" s="8"/>
       <c r="CN68" s="8"/>
       <c r="CO68" s="8"/>
@@ -11496,14 +11565,16 @@
         <v>9.0957474887140677</v>
       </c>
       <c r="CF69" s="25">
-        <v>22.807477657504876</v>
-      </c>
-      <c r="CG69" s="21"/>
+        <v>29.808110592205395</v>
+      </c>
+      <c r="CG69" s="25">
+        <v>99.495133804001028</v>
+      </c>
       <c r="CH69" s="21"/>
       <c r="CI69" s="21"/>
       <c r="CJ69" s="21"/>
-      <c r="CK69" s="8"/>
-      <c r="CL69" s="8"/>
+      <c r="CK69" s="21"/>
+      <c r="CL69" s="25"/>
       <c r="CM69" s="8"/>
       <c r="CN69" s="8"/>
       <c r="CO69" s="8"/>
@@ -11650,8 +11721,8 @@
       <c r="CH70" s="21"/>
       <c r="CI70" s="21"/>
       <c r="CJ70" s="21"/>
-      <c r="CK70" s="8"/>
-      <c r="CL70" s="8"/>
+      <c r="CK70" s="21"/>
+      <c r="CL70" s="21"/>
       <c r="CM70" s="8"/>
       <c r="CN70" s="8"/>
       <c r="CO70" s="8"/>
@@ -11961,14 +12032,16 @@
         <v>22.503635075260235</v>
       </c>
       <c r="CF71" s="25">
-        <v>12.809842003455941</v>
-      </c>
-      <c r="CG71" s="21"/>
+        <v>12.528202718230474</v>
+      </c>
+      <c r="CG71" s="25">
+        <v>17.969308960979589</v>
+      </c>
       <c r="CH71" s="21"/>
       <c r="CI71" s="21"/>
       <c r="CJ71" s="21"/>
-      <c r="CK71" s="8"/>
-      <c r="CL71" s="8"/>
+      <c r="CK71" s="21"/>
+      <c r="CL71" s="25"/>
       <c r="CM71" s="8"/>
       <c r="CN71" s="8"/>
       <c r="CO71" s="8"/>
@@ -12116,6 +12189,8 @@
       <c r="CH72" s="23"/>
       <c r="CI72" s="23"/>
       <c r="CJ72" s="23"/>
+      <c r="CK72" s="23"/>
+      <c r="CL72" s="23"/>
     </row>
     <row r="73" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
@@ -12210,8 +12285,8 @@
       <c r="CH74" s="21"/>
       <c r="CI74" s="21"/>
       <c r="CJ74" s="21"/>
-      <c r="CK74" s="8"/>
-      <c r="CL74" s="8"/>
+      <c r="CK74" s="21"/>
+      <c r="CL74" s="21"/>
       <c r="CM74" s="8"/>
       <c r="CN74" s="8"/>
       <c r="CO74" s="8"/>
@@ -12358,8 +12433,8 @@
       <c r="CH75" s="21"/>
       <c r="CI75" s="21"/>
       <c r="CJ75" s="21"/>
-      <c r="CK75" s="8"/>
-      <c r="CL75" s="8"/>
+      <c r="CK75" s="21"/>
+      <c r="CL75" s="21"/>
       <c r="CM75" s="8"/>
       <c r="CN75" s="8"/>
       <c r="CO75" s="8"/>
@@ -12430,7 +12505,7 @@
     </row>
     <row r="78" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:147" x14ac:dyDescent="0.25">
@@ -12440,7 +12515,7 @@
     </row>
     <row r="81" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" spans="1:147" x14ac:dyDescent="0.25">
@@ -12450,137 +12525,137 @@
     </row>
     <row r="84" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
-      <c r="B84" s="29" t="s">
+      <c r="B84" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29" t="s">
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G84" s="29"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="29"/>
-      <c r="J84" s="29" t="s">
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="31"/>
+      <c r="J84" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="K84" s="29"/>
-      <c r="L84" s="29"/>
-      <c r="M84" s="29"/>
-      <c r="N84" s="29" t="s">
+      <c r="K84" s="31"/>
+      <c r="L84" s="31"/>
+      <c r="M84" s="31"/>
+      <c r="N84" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="O84" s="29"/>
-      <c r="P84" s="29"/>
-      <c r="Q84" s="29"/>
-      <c r="R84" s="29" t="s">
+      <c r="O84" s="31"/>
+      <c r="P84" s="31"/>
+      <c r="Q84" s="31"/>
+      <c r="R84" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="S84" s="29"/>
-      <c r="T84" s="29"/>
-      <c r="U84" s="29"/>
-      <c r="V84" s="29" t="s">
+      <c r="S84" s="31"/>
+      <c r="T84" s="31"/>
+      <c r="U84" s="31"/>
+      <c r="V84" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="W84" s="29"/>
-      <c r="X84" s="29"/>
-      <c r="Y84" s="29"/>
-      <c r="Z84" s="29" t="s">
+      <c r="W84" s="31"/>
+      <c r="X84" s="31"/>
+      <c r="Y84" s="31"/>
+      <c r="Z84" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="AA84" s="29"/>
-      <c r="AB84" s="29"/>
-      <c r="AC84" s="29"/>
-      <c r="AD84" s="29" t="s">
+      <c r="AA84" s="31"/>
+      <c r="AB84" s="31"/>
+      <c r="AC84" s="31"/>
+      <c r="AD84" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="AE84" s="29"/>
-      <c r="AF84" s="29"/>
-      <c r="AG84" s="29"/>
-      <c r="AH84" s="29" t="s">
+      <c r="AE84" s="31"/>
+      <c r="AF84" s="31"/>
+      <c r="AG84" s="31"/>
+      <c r="AH84" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AI84" s="29"/>
-      <c r="AJ84" s="29"/>
-      <c r="AK84" s="29"/>
-      <c r="AL84" s="29" t="s">
+      <c r="AI84" s="31"/>
+      <c r="AJ84" s="31"/>
+      <c r="AK84" s="31"/>
+      <c r="AL84" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="AM84" s="29"/>
-      <c r="AN84" s="29"/>
-      <c r="AO84" s="29"/>
-      <c r="AP84" s="29" t="s">
+      <c r="AM84" s="31"/>
+      <c r="AN84" s="31"/>
+      <c r="AO84" s="31"/>
+      <c r="AP84" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="AQ84" s="29"/>
-      <c r="AR84" s="29"/>
-      <c r="AS84" s="29"/>
-      <c r="AT84" s="29" t="s">
+      <c r="AQ84" s="31"/>
+      <c r="AR84" s="31"/>
+      <c r="AS84" s="31"/>
+      <c r="AT84" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="AU84" s="29"/>
-      <c r="AV84" s="29"/>
-      <c r="AW84" s="29"/>
-      <c r="AX84" s="29" t="s">
+      <c r="AU84" s="31"/>
+      <c r="AV84" s="31"/>
+      <c r="AW84" s="31"/>
+      <c r="AX84" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="AY84" s="29"/>
-      <c r="AZ84" s="29"/>
-      <c r="BA84" s="29"/>
-      <c r="BB84" s="29" t="s">
+      <c r="AY84" s="31"/>
+      <c r="AZ84" s="31"/>
+      <c r="BA84" s="31"/>
+      <c r="BB84" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="BC84" s="29"/>
-      <c r="BD84" s="29"/>
-      <c r="BE84" s="29"/>
-      <c r="BF84" s="29" t="s">
+      <c r="BC84" s="31"/>
+      <c r="BD84" s="31"/>
+      <c r="BE84" s="31"/>
+      <c r="BF84" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="BG84" s="29"/>
-      <c r="BH84" s="29"/>
-      <c r="BI84" s="29"/>
-      <c r="BJ84" s="29" t="s">
+      <c r="BG84" s="31"/>
+      <c r="BH84" s="31"/>
+      <c r="BI84" s="31"/>
+      <c r="BJ84" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="BK84" s="29"/>
-      <c r="BL84" s="29"/>
-      <c r="BM84" s="29"/>
-      <c r="BN84" s="29" t="s">
+      <c r="BK84" s="31"/>
+      <c r="BL84" s="31"/>
+      <c r="BM84" s="31"/>
+      <c r="BN84" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="BO84" s="29"/>
-      <c r="BP84" s="29"/>
-      <c r="BQ84" s="29"/>
-      <c r="BR84" s="29" t="s">
+      <c r="BO84" s="31"/>
+      <c r="BP84" s="31"/>
+      <c r="BQ84" s="31"/>
+      <c r="BR84" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="BS84" s="29"/>
-      <c r="BT84" s="29"/>
-      <c r="BU84" s="29"/>
-      <c r="BV84" s="29" t="s">
+      <c r="BS84" s="31"/>
+      <c r="BT84" s="31"/>
+      <c r="BU84" s="31"/>
+      <c r="BV84" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="BW84" s="29"/>
-      <c r="BX84" s="29"/>
-      <c r="BY84" s="29"/>
-      <c r="BZ84" s="29" t="s">
+      <c r="BW84" s="31"/>
+      <c r="BX84" s="31"/>
+      <c r="BY84" s="31"/>
+      <c r="BZ84" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="CA84" s="29"/>
-      <c r="CB84" s="29"/>
-      <c r="CC84" s="29"/>
-      <c r="CD84" s="28" t="s">
+      <c r="CA84" s="31"/>
+      <c r="CB84" s="31"/>
+      <c r="CC84" s="31"/>
+      <c r="CD84" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="CE84" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="CF84" s="28"/>
-      <c r="CG84" s="27"/>
+      <c r="CE84" s="30"/>
+      <c r="CF84" s="30"/>
+      <c r="CG84" s="30"/>
       <c r="CH84" s="27"/>
       <c r="CI84" s="27"/>
       <c r="CJ84" s="27"/>
+      <c r="CK84" s="27"/>
+      <c r="CL84" s="28"/>
     </row>
     <row r="85" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
@@ -12833,10 +12908,14 @@
       <c r="CF85" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="CG85" s="19"/>
+      <c r="CG85" s="19" t="s">
+        <v>10</v>
+      </c>
       <c r="CH85" s="19"/>
       <c r="CI85" s="19"/>
       <c r="CJ85" s="19"/>
+      <c r="CK85" s="19"/>
+      <c r="CL85" s="19"/>
     </row>
     <row r="86" spans="1:147" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
@@ -13092,14 +13171,16 @@
         <v>11.58468302099979</v>
       </c>
       <c r="CF87" s="25">
-        <v>14.020171703141955</v>
-      </c>
-      <c r="CG87" s="21"/>
+        <v>20.069570002741784</v>
+      </c>
+      <c r="CG87" s="25">
+        <v>12.887362378713149</v>
+      </c>
       <c r="CH87" s="21"/>
       <c r="CI87" s="21"/>
       <c r="CJ87" s="21"/>
-      <c r="CK87" s="8"/>
-      <c r="CL87" s="8"/>
+      <c r="CK87" s="21"/>
+      <c r="CL87" s="25"/>
       <c r="CM87" s="8"/>
       <c r="CN87" s="8"/>
       <c r="CO87" s="8"/>
@@ -13409,14 +13490,16 @@
         <v>37.783564046787944</v>
       </c>
       <c r="CF88" s="25">
-        <v>12.176789829915947</v>
-      </c>
-      <c r="CG88" s="21"/>
+        <v>11.542785991616029</v>
+      </c>
+      <c r="CG88" s="25">
+        <v>4.1501372250910151</v>
+      </c>
       <c r="CH88" s="21"/>
       <c r="CI88" s="21"/>
       <c r="CJ88" s="21"/>
-      <c r="CK88" s="8"/>
-      <c r="CL88" s="8"/>
+      <c r="CK88" s="21"/>
+      <c r="CL88" s="25"/>
       <c r="CM88" s="8"/>
       <c r="CN88" s="8"/>
       <c r="CO88" s="8"/>
@@ -13726,14 +13809,16 @@
         <v>425.49442228717726</v>
       </c>
       <c r="CF89" s="25">
-        <v>53.615633706659253</v>
-      </c>
-      <c r="CG89" s="21"/>
+        <v>58.098844822999723</v>
+      </c>
+      <c r="CG89" s="25">
+        <v>63.396320596770266</v>
+      </c>
       <c r="CH89" s="21"/>
       <c r="CI89" s="21"/>
       <c r="CJ89" s="21"/>
-      <c r="CK89" s="8"/>
-      <c r="CL89" s="8"/>
+      <c r="CK89" s="21"/>
+      <c r="CL89" s="25"/>
       <c r="CM89" s="8"/>
       <c r="CN89" s="8"/>
       <c r="CO89" s="8"/>
@@ -14045,12 +14130,14 @@
       <c r="CF90" s="25">
         <v>24.650561830353851</v>
       </c>
-      <c r="CG90" s="21"/>
+      <c r="CG90" s="25">
+        <v>22.020216695320997</v>
+      </c>
       <c r="CH90" s="21"/>
       <c r="CI90" s="21"/>
       <c r="CJ90" s="21"/>
-      <c r="CK90" s="8"/>
-      <c r="CL90" s="8"/>
+      <c r="CK90" s="21"/>
+      <c r="CL90" s="25"/>
       <c r="CM90" s="8"/>
       <c r="CN90" s="8"/>
       <c r="CO90" s="8"/>
@@ -14360,14 +14447,16 @@
         <v>18.05164048174106</v>
       </c>
       <c r="CF91" s="25">
-        <v>21.733045680410484</v>
-      </c>
-      <c r="CG91" s="21"/>
+        <v>19.017860240333292</v>
+      </c>
+      <c r="CG91" s="25">
+        <v>19.008980012963207</v>
+      </c>
       <c r="CH91" s="21"/>
       <c r="CI91" s="21"/>
       <c r="CJ91" s="21"/>
-      <c r="CK91" s="8"/>
-      <c r="CL91" s="8"/>
+      <c r="CK91" s="21"/>
+      <c r="CL91" s="25"/>
       <c r="CM91" s="8"/>
       <c r="CN91" s="8"/>
       <c r="CO91" s="8"/>
@@ -14677,14 +14766,16 @@
         <v>11.795341415740495</v>
       </c>
       <c r="CF92" s="25">
-        <v>-0.10396397014153536</v>
-      </c>
-      <c r="CG92" s="21"/>
+        <v>-0.34861456315931605</v>
+      </c>
+      <c r="CG92" s="25">
+        <v>7.073476191524918</v>
+      </c>
       <c r="CH92" s="21"/>
       <c r="CI92" s="21"/>
       <c r="CJ92" s="21"/>
-      <c r="CK92" s="8"/>
-      <c r="CL92" s="8"/>
+      <c r="CK92" s="21"/>
+      <c r="CL92" s="25"/>
       <c r="CM92" s="8"/>
       <c r="CN92" s="8"/>
       <c r="CO92" s="8"/>
@@ -14994,14 +15085,16 @@
         <v>19.086523798602855</v>
       </c>
       <c r="CF93" s="25">
-        <v>28.334254711678852</v>
-      </c>
-      <c r="CG93" s="21"/>
+        <v>25.488730971897098</v>
+      </c>
+      <c r="CG93" s="25">
+        <v>30.95529525879806</v>
+      </c>
       <c r="CH93" s="21"/>
       <c r="CI93" s="21"/>
       <c r="CJ93" s="21"/>
-      <c r="CK93" s="8"/>
-      <c r="CL93" s="8"/>
+      <c r="CK93" s="21"/>
+      <c r="CL93" s="25"/>
       <c r="CM93" s="8"/>
       <c r="CN93" s="8"/>
       <c r="CO93" s="8"/>
@@ -15311,14 +15404,16 @@
         <v>5.1645947418503368</v>
       </c>
       <c r="CF94" s="25">
-        <v>18.872232928453855</v>
-      </c>
-      <c r="CG94" s="21"/>
+        <v>25.6485374722307</v>
+      </c>
+      <c r="CG94" s="25">
+        <v>92.071522728573825</v>
+      </c>
       <c r="CH94" s="21"/>
       <c r="CI94" s="21"/>
       <c r="CJ94" s="21"/>
-      <c r="CK94" s="8"/>
-      <c r="CL94" s="8"/>
+      <c r="CK94" s="21"/>
+      <c r="CL94" s="25"/>
       <c r="CM94" s="8"/>
       <c r="CN94" s="8"/>
       <c r="CO94" s="8"/>
@@ -15465,8 +15560,8 @@
       <c r="CH95" s="21"/>
       <c r="CI95" s="21"/>
       <c r="CJ95" s="21"/>
-      <c r="CK95" s="8"/>
-      <c r="CL95" s="8"/>
+      <c r="CK95" s="21"/>
+      <c r="CL95" s="21"/>
       <c r="CM95" s="8"/>
       <c r="CN95" s="8"/>
       <c r="CO95" s="8"/>
@@ -15776,14 +15871,16 @@
         <v>18.374077681358926</v>
       </c>
       <c r="CF96" s="25">
-        <v>9.55392544950098</v>
-      </c>
-      <c r="CG96" s="21"/>
+        <v>9.2468496379348011</v>
+      </c>
+      <c r="CG96" s="25">
+        <v>14.08115651453241</v>
+      </c>
       <c r="CH96" s="21"/>
       <c r="CI96" s="21"/>
       <c r="CJ96" s="21"/>
-      <c r="CK96" s="8"/>
-      <c r="CL96" s="8"/>
+      <c r="CK96" s="21"/>
+      <c r="CL96" s="25"/>
       <c r="CM96" s="8"/>
       <c r="CN96" s="8"/>
       <c r="CO96" s="8"/>
@@ -15931,6 +16028,8 @@
       <c r="CH97" s="23"/>
       <c r="CI97" s="23"/>
       <c r="CJ97" s="23"/>
+      <c r="CK97" s="23"/>
+      <c r="CL97" s="23"/>
     </row>
     <row r="98" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
@@ -16025,8 +16124,8 @@
       <c r="CH99" s="21"/>
       <c r="CI99" s="21"/>
       <c r="CJ99" s="21"/>
-      <c r="CK99" s="8"/>
-      <c r="CL99" s="8"/>
+      <c r="CK99" s="21"/>
+      <c r="CL99" s="21"/>
       <c r="CM99" s="8"/>
       <c r="CN99" s="8"/>
       <c r="CO99" s="8"/>
@@ -16173,8 +16272,8 @@
       <c r="CH100" s="21"/>
       <c r="CI100" s="21"/>
       <c r="CJ100" s="21"/>
-      <c r="CK100" s="8"/>
-      <c r="CL100" s="8"/>
+      <c r="CK100" s="21"/>
+      <c r="CL100" s="21"/>
       <c r="CM100" s="8"/>
       <c r="CN100" s="8"/>
       <c r="CO100" s="8"/>
@@ -16240,7 +16339,7 @@
     </row>
     <row r="102" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104" spans="1:151" x14ac:dyDescent="0.25">
@@ -16250,7 +16349,7 @@
     </row>
     <row r="105" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106" spans="1:151" x14ac:dyDescent="0.25">
@@ -16260,139 +16359,139 @@
     </row>
     <row r="108" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
-      <c r="B108" s="30">
+      <c r="B108" s="32">
         <v>2000</v>
       </c>
-      <c r="C108" s="30"/>
-      <c r="D108" s="30"/>
-      <c r="E108" s="30"/>
-      <c r="F108" s="30">
+      <c r="C108" s="32"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="32">
         <v>2001</v>
       </c>
-      <c r="G108" s="30"/>
-      <c r="H108" s="30"/>
-      <c r="I108" s="30"/>
-      <c r="J108" s="30">
+      <c r="G108" s="32"/>
+      <c r="H108" s="32"/>
+      <c r="I108" s="32"/>
+      <c r="J108" s="32">
         <v>2002</v>
       </c>
-      <c r="K108" s="30"/>
-      <c r="L108" s="30"/>
-      <c r="M108" s="30"/>
-      <c r="N108" s="30">
+      <c r="K108" s="32"/>
+      <c r="L108" s="32"/>
+      <c r="M108" s="32"/>
+      <c r="N108" s="32">
         <v>2003</v>
       </c>
-      <c r="O108" s="30"/>
-      <c r="P108" s="30"/>
-      <c r="Q108" s="30"/>
-      <c r="R108" s="30">
+      <c r="O108" s="32"/>
+      <c r="P108" s="32"/>
+      <c r="Q108" s="32"/>
+      <c r="R108" s="32">
         <v>2004</v>
       </c>
-      <c r="S108" s="30"/>
-      <c r="T108" s="30"/>
-      <c r="U108" s="30"/>
-      <c r="V108" s="30">
+      <c r="S108" s="32"/>
+      <c r="T108" s="32"/>
+      <c r="U108" s="32"/>
+      <c r="V108" s="32">
         <v>2005</v>
       </c>
-      <c r="W108" s="30"/>
-      <c r="X108" s="30"/>
-      <c r="Y108" s="30"/>
-      <c r="Z108" s="30">
+      <c r="W108" s="32"/>
+      <c r="X108" s="32"/>
+      <c r="Y108" s="32"/>
+      <c r="Z108" s="32">
         <v>2006</v>
       </c>
-      <c r="AA108" s="30"/>
-      <c r="AB108" s="30"/>
-      <c r="AC108" s="30"/>
-      <c r="AD108" s="30">
+      <c r="AA108" s="32"/>
+      <c r="AB108" s="32"/>
+      <c r="AC108" s="32"/>
+      <c r="AD108" s="32">
         <v>2007</v>
       </c>
-      <c r="AE108" s="30"/>
-      <c r="AF108" s="30"/>
-      <c r="AG108" s="30"/>
-      <c r="AH108" s="30">
+      <c r="AE108" s="32"/>
+      <c r="AF108" s="32"/>
+      <c r="AG108" s="32"/>
+      <c r="AH108" s="32">
         <v>2008</v>
       </c>
-      <c r="AI108" s="30"/>
-      <c r="AJ108" s="30"/>
-      <c r="AK108" s="30"/>
-      <c r="AL108" s="30">
+      <c r="AI108" s="32"/>
+      <c r="AJ108" s="32"/>
+      <c r="AK108" s="32"/>
+      <c r="AL108" s="32">
         <v>2009</v>
       </c>
-      <c r="AM108" s="30"/>
-      <c r="AN108" s="30"/>
-      <c r="AO108" s="30"/>
-      <c r="AP108" s="30">
+      <c r="AM108" s="32"/>
+      <c r="AN108" s="32"/>
+      <c r="AO108" s="32"/>
+      <c r="AP108" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="30"/>
-      <c r="AR108" s="30"/>
-      <c r="AS108" s="30"/>
-      <c r="AT108" s="30">
+      <c r="AQ108" s="32"/>
+      <c r="AR108" s="32"/>
+      <c r="AS108" s="32"/>
+      <c r="AT108" s="32">
         <v>2011</v>
       </c>
-      <c r="AU108" s="30"/>
-      <c r="AV108" s="30"/>
-      <c r="AW108" s="30"/>
-      <c r="AX108" s="30">
+      <c r="AU108" s="32"/>
+      <c r="AV108" s="32"/>
+      <c r="AW108" s="32"/>
+      <c r="AX108" s="32">
         <v>2012</v>
       </c>
-      <c r="AY108" s="30"/>
-      <c r="AZ108" s="30"/>
-      <c r="BA108" s="30"/>
-      <c r="BB108" s="30">
+      <c r="AY108" s="32"/>
+      <c r="AZ108" s="32"/>
+      <c r="BA108" s="32"/>
+      <c r="BB108" s="32">
         <v>2013</v>
       </c>
-      <c r="BC108" s="30"/>
-      <c r="BD108" s="30"/>
-      <c r="BE108" s="30"/>
-      <c r="BF108" s="30">
+      <c r="BC108" s="32"/>
+      <c r="BD108" s="32"/>
+      <c r="BE108" s="32"/>
+      <c r="BF108" s="32">
         <v>2014</v>
       </c>
-      <c r="BG108" s="30"/>
-      <c r="BH108" s="30"/>
-      <c r="BI108" s="30"/>
-      <c r="BJ108" s="30">
+      <c r="BG108" s="32"/>
+      <c r="BH108" s="32"/>
+      <c r="BI108" s="32"/>
+      <c r="BJ108" s="32">
         <v>2015</v>
       </c>
-      <c r="BK108" s="30"/>
-      <c r="BL108" s="30"/>
-      <c r="BM108" s="30"/>
-      <c r="BN108" s="30">
+      <c r="BK108" s="32"/>
+      <c r="BL108" s="32"/>
+      <c r="BM108" s="32"/>
+      <c r="BN108" s="32">
         <v>2016</v>
       </c>
-      <c r="BO108" s="30"/>
-      <c r="BP108" s="30"/>
-      <c r="BQ108" s="30"/>
-      <c r="BR108" s="30">
+      <c r="BO108" s="32"/>
+      <c r="BP108" s="32"/>
+      <c r="BQ108" s="32"/>
+      <c r="BR108" s="32">
         <v>2017</v>
       </c>
-      <c r="BS108" s="30"/>
-      <c r="BT108" s="30"/>
-      <c r="BU108" s="30"/>
-      <c r="BV108" s="30">
+      <c r="BS108" s="32"/>
+      <c r="BT108" s="32"/>
+      <c r="BU108" s="32"/>
+      <c r="BV108" s="32">
         <v>2018</v>
       </c>
-      <c r="BW108" s="30"/>
-      <c r="BX108" s="30"/>
-      <c r="BY108" s="30"/>
-      <c r="BZ108" s="30">
+      <c r="BW108" s="32"/>
+      <c r="BX108" s="32"/>
+      <c r="BY108" s="32"/>
+      <c r="BZ108" s="32">
         <v>2019</v>
       </c>
-      <c r="CA108" s="30"/>
-      <c r="CB108" s="30"/>
-      <c r="CC108" s="30"/>
-      <c r="CD108" s="28">
+      <c r="CA108" s="32"/>
+      <c r="CB108" s="32"/>
+      <c r="CC108" s="32"/>
+      <c r="CD108" s="30">
         <v>2020</v>
       </c>
-      <c r="CE108" s="28"/>
-      <c r="CF108" s="28"/>
-      <c r="CG108" s="28"/>
-      <c r="CH108" s="28">
+      <c r="CE108" s="30"/>
+      <c r="CF108" s="30"/>
+      <c r="CG108" s="30"/>
+      <c r="CH108" s="30">
         <v>2021</v>
       </c>
-      <c r="CI108" s="28">
-        <v>0</v>
-      </c>
-      <c r="CJ108" s="28"/>
+      <c r="CI108" s="30"/>
+      <c r="CJ108" s="30"/>
+      <c r="CK108" s="30"/>
+      <c r="CL108" s="28"/>
     </row>
     <row r="109" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
@@ -16657,6 +16756,10 @@
       <c r="CJ109" s="24" t="s">
         <v>9</v>
       </c>
+      <c r="CK109" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="CL109" s="19"/>
     </row>
     <row r="110" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
@@ -16926,8 +17029,10 @@
       <c r="CJ111" s="25">
         <v>111.03308542778909</v>
       </c>
-      <c r="CK111" s="8"/>
-      <c r="CL111" s="8"/>
+      <c r="CK111" s="25">
+        <v>118.631535740231</v>
+      </c>
+      <c r="CL111" s="25"/>
       <c r="CM111" s="8"/>
       <c r="CN111" s="8"/>
       <c r="CO111" s="8"/>
@@ -17255,8 +17360,10 @@
       <c r="CJ112" s="25">
         <v>109.26391999268171</v>
       </c>
-      <c r="CK112" s="8"/>
-      <c r="CL112" s="8"/>
+      <c r="CK112" s="25">
+        <v>107.41235280347485</v>
+      </c>
+      <c r="CL112" s="25"/>
       <c r="CM112" s="8"/>
       <c r="CN112" s="8"/>
       <c r="CO112" s="8"/>
@@ -17584,8 +17691,10 @@
       <c r="CJ113" s="25">
         <v>110.8061175433742</v>
       </c>
-      <c r="CK113" s="8"/>
-      <c r="CL113" s="8"/>
+      <c r="CK113" s="25">
+        <v>108.46407696982685</v>
+      </c>
+      <c r="CL113" s="25"/>
       <c r="CM113" s="8"/>
       <c r="CN113" s="8"/>
       <c r="CO113" s="8"/>
@@ -17913,8 +18022,10 @@
       <c r="CJ114" s="25">
         <v>106.99876886983701</v>
       </c>
-      <c r="CK114" s="8"/>
-      <c r="CL114" s="8"/>
+      <c r="CK114" s="25">
+        <v>109.02907695717339</v>
+      </c>
+      <c r="CL114" s="25"/>
       <c r="CM114" s="8"/>
       <c r="CN114" s="8"/>
       <c r="CO114" s="8"/>
@@ -18242,8 +18353,10 @@
       <c r="CJ115" s="25">
         <v>101.65575166787164</v>
       </c>
-      <c r="CK115" s="8"/>
-      <c r="CL115" s="8"/>
+      <c r="CK115" s="25">
+        <v>99.188841424744993</v>
+      </c>
+      <c r="CL115" s="25"/>
       <c r="CM115" s="8"/>
       <c r="CN115" s="8"/>
       <c r="CO115" s="8"/>
@@ -18571,8 +18684,10 @@
       <c r="CJ116" s="25">
         <v>109.21106253493944</v>
       </c>
-      <c r="CK116" s="8"/>
-      <c r="CL116" s="8"/>
+      <c r="CK116" s="25">
+        <v>109.35529801627524</v>
+      </c>
+      <c r="CL116" s="25"/>
       <c r="CM116" s="8"/>
       <c r="CN116" s="8"/>
       <c r="CO116" s="8"/>
@@ -18900,8 +19015,10 @@
       <c r="CJ117" s="25">
         <v>109.07721290570601</v>
       </c>
-      <c r="CK117" s="8"/>
-      <c r="CL117" s="8"/>
+      <c r="CK117" s="25">
+        <v>107.16683189889456</v>
+      </c>
+      <c r="CL117" s="25"/>
       <c r="CM117" s="8"/>
       <c r="CN117" s="8"/>
       <c r="CO117" s="8"/>
@@ -19229,8 +19346,10 @@
       <c r="CJ118" s="25">
         <v>109.18943346169769</v>
       </c>
-      <c r="CK118" s="8"/>
-      <c r="CL118" s="8"/>
+      <c r="CK118" s="25">
+        <v>107.27313045488036</v>
+      </c>
+      <c r="CL118" s="25"/>
       <c r="CM118" s="8"/>
       <c r="CN118" s="8"/>
       <c r="CO118" s="8"/>
@@ -19381,8 +19500,8 @@
       <c r="CH119" s="21"/>
       <c r="CI119" s="21"/>
       <c r="CJ119" s="21"/>
-      <c r="CK119" s="8"/>
-      <c r="CL119" s="8"/>
+      <c r="CK119" s="21"/>
+      <c r="CL119" s="21"/>
       <c r="CM119" s="8"/>
       <c r="CN119" s="8"/>
       <c r="CO119" s="8"/>
@@ -19708,10 +19827,12 @@
         <v>104.5283052149659</v>
       </c>
       <c r="CJ120" s="25">
-        <v>108.09257394905048</v>
-      </c>
-      <c r="CK120" s="8"/>
-      <c r="CL120" s="8"/>
+        <v>108.12578450396208</v>
+      </c>
+      <c r="CK120" s="25">
+        <v>107.8855711888786</v>
+      </c>
+      <c r="CL120" s="25"/>
       <c r="CM120" s="8"/>
       <c r="CN120" s="8"/>
       <c r="CO120" s="8"/>
@@ -19863,6 +19984,8 @@
       <c r="CH121" s="23"/>
       <c r="CI121" s="23"/>
       <c r="CJ121" s="23"/>
+      <c r="CK121" s="23"/>
+      <c r="CL121" s="23"/>
     </row>
     <row r="122" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
@@ -19881,7 +20004,7 @@
     </row>
     <row r="127" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="129" spans="1:151" x14ac:dyDescent="0.25">
@@ -19891,7 +20014,7 @@
     </row>
     <row r="130" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="131" spans="1:151" x14ac:dyDescent="0.25">
@@ -19901,139 +20024,139 @@
     </row>
     <row r="133" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
-      <c r="B133" s="30">
+      <c r="B133" s="32">
         <v>2000</v>
       </c>
-      <c r="C133" s="30"/>
-      <c r="D133" s="30"/>
-      <c r="E133" s="30"/>
-      <c r="F133" s="30">
+      <c r="C133" s="32"/>
+      <c r="D133" s="32"/>
+      <c r="E133" s="32"/>
+      <c r="F133" s="32">
         <v>2001</v>
       </c>
-      <c r="G133" s="30"/>
-      <c r="H133" s="30"/>
-      <c r="I133" s="30"/>
-      <c r="J133" s="30">
+      <c r="G133" s="32"/>
+      <c r="H133" s="32"/>
+      <c r="I133" s="32"/>
+      <c r="J133" s="32">
         <v>2002</v>
       </c>
-      <c r="K133" s="30"/>
-      <c r="L133" s="30"/>
-      <c r="M133" s="30"/>
-      <c r="N133" s="30">
+      <c r="K133" s="32"/>
+      <c r="L133" s="32"/>
+      <c r="M133" s="32"/>
+      <c r="N133" s="32">
         <v>2003</v>
       </c>
-      <c r="O133" s="30"/>
-      <c r="P133" s="30"/>
-      <c r="Q133" s="30"/>
-      <c r="R133" s="30">
+      <c r="O133" s="32"/>
+      <c r="P133" s="32"/>
+      <c r="Q133" s="32"/>
+      <c r="R133" s="32">
         <v>2004</v>
       </c>
-      <c r="S133" s="30"/>
-      <c r="T133" s="30"/>
-      <c r="U133" s="30"/>
-      <c r="V133" s="30">
+      <c r="S133" s="32"/>
+      <c r="T133" s="32"/>
+      <c r="U133" s="32"/>
+      <c r="V133" s="32">
         <v>2005</v>
       </c>
-      <c r="W133" s="30"/>
-      <c r="X133" s="30"/>
-      <c r="Y133" s="30"/>
-      <c r="Z133" s="30">
+      <c r="W133" s="32"/>
+      <c r="X133" s="32"/>
+      <c r="Y133" s="32"/>
+      <c r="Z133" s="32">
         <v>2006</v>
       </c>
-      <c r="AA133" s="30"/>
-      <c r="AB133" s="30"/>
-      <c r="AC133" s="30"/>
-      <c r="AD133" s="30">
+      <c r="AA133" s="32"/>
+      <c r="AB133" s="32"/>
+      <c r="AC133" s="32"/>
+      <c r="AD133" s="32">
         <v>2007</v>
       </c>
-      <c r="AE133" s="30"/>
-      <c r="AF133" s="30"/>
-      <c r="AG133" s="30"/>
-      <c r="AH133" s="30">
+      <c r="AE133" s="32"/>
+      <c r="AF133" s="32"/>
+      <c r="AG133" s="32"/>
+      <c r="AH133" s="32">
         <v>2008</v>
       </c>
-      <c r="AI133" s="30"/>
-      <c r="AJ133" s="30"/>
-      <c r="AK133" s="30"/>
-      <c r="AL133" s="30">
+      <c r="AI133" s="32"/>
+      <c r="AJ133" s="32"/>
+      <c r="AK133" s="32"/>
+      <c r="AL133" s="32">
         <v>2009</v>
       </c>
-      <c r="AM133" s="30"/>
-      <c r="AN133" s="30"/>
-      <c r="AO133" s="30"/>
-      <c r="AP133" s="30">
+      <c r="AM133" s="32"/>
+      <c r="AN133" s="32"/>
+      <c r="AO133" s="32"/>
+      <c r="AP133" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ133" s="30"/>
-      <c r="AR133" s="30"/>
-      <c r="AS133" s="30"/>
-      <c r="AT133" s="30">
+      <c r="AQ133" s="32"/>
+      <c r="AR133" s="32"/>
+      <c r="AS133" s="32"/>
+      <c r="AT133" s="32">
         <v>2011</v>
       </c>
-      <c r="AU133" s="30"/>
-      <c r="AV133" s="30"/>
-      <c r="AW133" s="30"/>
-      <c r="AX133" s="30">
+      <c r="AU133" s="32"/>
+      <c r="AV133" s="32"/>
+      <c r="AW133" s="32"/>
+      <c r="AX133" s="32">
         <v>2012</v>
       </c>
-      <c r="AY133" s="30"/>
-      <c r="AZ133" s="30"/>
-      <c r="BA133" s="30"/>
-      <c r="BB133" s="30">
+      <c r="AY133" s="32"/>
+      <c r="AZ133" s="32"/>
+      <c r="BA133" s="32"/>
+      <c r="BB133" s="32">
         <v>2013</v>
       </c>
-      <c r="BC133" s="30"/>
-      <c r="BD133" s="30"/>
-      <c r="BE133" s="30"/>
-      <c r="BF133" s="30">
+      <c r="BC133" s="32"/>
+      <c r="BD133" s="32"/>
+      <c r="BE133" s="32"/>
+      <c r="BF133" s="32">
         <v>2014</v>
       </c>
-      <c r="BG133" s="30"/>
-      <c r="BH133" s="30"/>
-      <c r="BI133" s="30"/>
-      <c r="BJ133" s="30">
+      <c r="BG133" s="32"/>
+      <c r="BH133" s="32"/>
+      <c r="BI133" s="32"/>
+      <c r="BJ133" s="32">
         <v>2015</v>
       </c>
-      <c r="BK133" s="30"/>
-      <c r="BL133" s="30"/>
-      <c r="BM133" s="30"/>
-      <c r="BN133" s="30">
+      <c r="BK133" s="32"/>
+      <c r="BL133" s="32"/>
+      <c r="BM133" s="32"/>
+      <c r="BN133" s="32">
         <v>2016</v>
       </c>
-      <c r="BO133" s="30"/>
-      <c r="BP133" s="30"/>
-      <c r="BQ133" s="30"/>
-      <c r="BR133" s="30">
+      <c r="BO133" s="32"/>
+      <c r="BP133" s="32"/>
+      <c r="BQ133" s="32"/>
+      <c r="BR133" s="32">
         <v>2017</v>
       </c>
-      <c r="BS133" s="30"/>
-      <c r="BT133" s="30"/>
-      <c r="BU133" s="30"/>
-      <c r="BV133" s="30">
+      <c r="BS133" s="32"/>
+      <c r="BT133" s="32"/>
+      <c r="BU133" s="32"/>
+      <c r="BV133" s="32">
         <v>2018</v>
       </c>
-      <c r="BW133" s="30"/>
-      <c r="BX133" s="30"/>
-      <c r="BY133" s="30"/>
-      <c r="BZ133" s="30">
+      <c r="BW133" s="32"/>
+      <c r="BX133" s="32"/>
+      <c r="BY133" s="32"/>
+      <c r="BZ133" s="32">
         <v>2019</v>
       </c>
-      <c r="CA133" s="30"/>
-      <c r="CB133" s="30"/>
-      <c r="CC133" s="30"/>
-      <c r="CD133" s="28">
+      <c r="CA133" s="32"/>
+      <c r="CB133" s="32"/>
+      <c r="CC133" s="32"/>
+      <c r="CD133" s="30">
         <v>2020</v>
       </c>
-      <c r="CE133" s="28"/>
-      <c r="CF133" s="28"/>
-      <c r="CG133" s="28"/>
-      <c r="CH133" s="28">
+      <c r="CE133" s="30"/>
+      <c r="CF133" s="30"/>
+      <c r="CG133" s="30"/>
+      <c r="CH133" s="30">
         <v>2021</v>
       </c>
-      <c r="CI133" s="28">
-        <v>0</v>
-      </c>
-      <c r="CJ133" s="28"/>
+      <c r="CI133" s="30"/>
+      <c r="CJ133" s="30"/>
+      <c r="CK133" s="30"/>
+      <c r="CL133" s="28"/>
     </row>
     <row r="134" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
@@ -20298,6 +20421,10 @@
       <c r="CJ134" s="24" t="s">
         <v>9</v>
       </c>
+      <c r="CK134" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="CL134" s="19"/>
     </row>
     <row r="135" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
@@ -20565,10 +20692,12 @@
         <v>2.8310062947125103</v>
       </c>
       <c r="CJ136" s="26">
-        <v>5.7008634356873014</v>
-      </c>
-      <c r="CK136" s="8"/>
-      <c r="CL136" s="8"/>
+        <v>6.0183509704888012</v>
+      </c>
+      <c r="CK136" s="26">
+        <v>5.910239418155613</v>
+      </c>
+      <c r="CL136" s="26"/>
       <c r="CM136" s="8"/>
       <c r="CN136" s="8"/>
       <c r="CO136" s="8"/>
@@ -20894,10 +21023,12 @@
         <v>6.693895275458582E-2</v>
       </c>
       <c r="CJ137" s="26">
-        <v>0.1800861180538984</v>
-      </c>
-      <c r="CK137" s="8"/>
-      <c r="CL137" s="8"/>
+        <v>0.1795164804577071</v>
+      </c>
+      <c r="CK137" s="26">
+        <v>0.17335226610626328</v>
+      </c>
+      <c r="CL137" s="26"/>
       <c r="CM137" s="8"/>
       <c r="CN137" s="8"/>
       <c r="CO137" s="8"/>
@@ -21223,10 +21354,12 @@
         <v>5.1249475333261634</v>
       </c>
       <c r="CJ138" s="26">
-        <v>5.153637016778819</v>
-      </c>
-      <c r="CK138" s="8"/>
-      <c r="CL138" s="8"/>
+        <v>5.3173189968355725</v>
+      </c>
+      <c r="CK138" s="26">
+        <v>2.8661054493046447</v>
+      </c>
+      <c r="CL138" s="26"/>
       <c r="CM138" s="8"/>
       <c r="CN138" s="8"/>
       <c r="CO138" s="8"/>
@@ -21552,10 +21685,12 @@
         <v>0.59392183349487626</v>
       </c>
       <c r="CJ139" s="26">
-        <v>0.83718345241172598</v>
-      </c>
-      <c r="CK139" s="8"/>
-      <c r="CL139" s="8"/>
+        <v>0.83927878267955403</v>
+      </c>
+      <c r="CK139" s="26">
+        <v>0.75864462111448849</v>
+      </c>
+      <c r="CL139" s="26"/>
       <c r="CM139" s="8"/>
       <c r="CN139" s="8"/>
       <c r="CO139" s="8"/>
@@ -21881,10 +22016,12 @@
         <v>17.595584135124572</v>
       </c>
       <c r="CJ140" s="26">
-        <v>15.722285234142785</v>
-      </c>
-      <c r="CK140" s="8"/>
-      <c r="CL140" s="8"/>
+        <v>15.410081288999312</v>
+      </c>
+      <c r="CK140" s="26">
+        <v>14.736345781518988</v>
+      </c>
+      <c r="CL140" s="26"/>
       <c r="CM140" s="8"/>
       <c r="CN140" s="8"/>
       <c r="CO140" s="8"/>
@@ -22210,10 +22347,12 @@
         <v>59.929258730668444</v>
       </c>
       <c r="CJ141" s="26">
-        <v>57.479882935936011</v>
-      </c>
-      <c r="CK141" s="8"/>
-      <c r="CL141" s="8"/>
+        <v>57.482621923973241</v>
+      </c>
+      <c r="CK141" s="26">
+        <v>61.48105477028615</v>
+      </c>
+      <c r="CL141" s="26"/>
       <c r="CM141" s="8"/>
       <c r="CN141" s="8"/>
       <c r="CO141" s="8"/>
@@ -22539,10 +22678,12 @@
         <v>12.699571869240078</v>
       </c>
       <c r="CJ142" s="26">
-        <v>13.399243597907093</v>
-      </c>
-      <c r="CK142" s="8"/>
-      <c r="CL142" s="8"/>
+        <v>13.134937958771346</v>
+      </c>
+      <c r="CK142" s="26">
+        <v>11.761305870677147</v>
+      </c>
+      <c r="CL142" s="26"/>
       <c r="CM142" s="8"/>
       <c r="CN142" s="8"/>
       <c r="CO142" s="8"/>
@@ -22868,10 +23009,12 @@
         <v>1.1587706506787772</v>
       </c>
       <c r="CJ143" s="26">
-        <v>1.5268182090823554</v>
-      </c>
-      <c r="CK143" s="8"/>
-      <c r="CL143" s="8"/>
+        <v>1.6178935977944755</v>
+      </c>
+      <c r="CK143" s="26">
+        <v>2.3129518228367019</v>
+      </c>
+      <c r="CL143" s="26"/>
       <c r="CM143" s="8"/>
       <c r="CN143" s="8"/>
       <c r="CO143" s="8"/>
@@ -23022,8 +23165,8 @@
       <c r="CH144" s="21"/>
       <c r="CI144" s="21"/>
       <c r="CJ144" s="21"/>
-      <c r="CK144" s="8"/>
-      <c r="CL144" s="8"/>
+      <c r="CK144" s="21"/>
+      <c r="CL144" s="21"/>
       <c r="CM144" s="8"/>
       <c r="CN144" s="8"/>
       <c r="CO144" s="8"/>
@@ -23351,8 +23494,10 @@
       <c r="CJ145" s="25">
         <v>100</v>
       </c>
-      <c r="CK145" s="8"/>
-      <c r="CL145" s="8"/>
+      <c r="CK145" s="25">
+        <v>100</v>
+      </c>
+      <c r="CL145" s="25"/>
       <c r="CM145" s="8"/>
       <c r="CN145" s="8"/>
       <c r="CO145" s="8"/>
@@ -23504,6 +23649,8 @@
       <c r="CH146" s="23"/>
       <c r="CI146" s="23"/>
       <c r="CJ146" s="23"/>
+      <c r="CK146" s="23"/>
+      <c r="CL146" s="23"/>
     </row>
     <row r="147" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A147" s="12" t="s">
@@ -23598,8 +23745,8 @@
       <c r="CH148" s="21"/>
       <c r="CI148" s="21"/>
       <c r="CJ148" s="21"/>
-      <c r="CK148" s="8"/>
-      <c r="CL148" s="8"/>
+      <c r="CK148" s="21"/>
+      <c r="CL148" s="21"/>
       <c r="CM148" s="8"/>
       <c r="CN148" s="8"/>
       <c r="CO148" s="8"/>
@@ -23750,8 +23897,8 @@
       <c r="CH149" s="21"/>
       <c r="CI149" s="21"/>
       <c r="CJ149" s="21"/>
-      <c r="CK149" s="8"/>
-      <c r="CL149" s="8"/>
+      <c r="CK149" s="21"/>
+      <c r="CL149" s="21"/>
       <c r="CM149" s="8"/>
       <c r="CN149" s="8"/>
       <c r="CO149" s="8"/>
@@ -23826,7 +23973,7 @@
     </row>
     <row r="152" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="154" spans="1:151" x14ac:dyDescent="0.25">
@@ -23836,7 +23983,7 @@
     </row>
     <row r="155" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="156" spans="1:151" x14ac:dyDescent="0.25">
@@ -23846,139 +23993,139 @@
     </row>
     <row r="158" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
-      <c r="B158" s="30">
+      <c r="B158" s="32">
         <v>2000</v>
       </c>
-      <c r="C158" s="30"/>
-      <c r="D158" s="30"/>
-      <c r="E158" s="30"/>
-      <c r="F158" s="30">
+      <c r="C158" s="32"/>
+      <c r="D158" s="32"/>
+      <c r="E158" s="32"/>
+      <c r="F158" s="32">
         <v>2001</v>
       </c>
-      <c r="G158" s="30"/>
-      <c r="H158" s="30"/>
-      <c r="I158" s="30"/>
-      <c r="J158" s="30">
+      <c r="G158" s="32"/>
+      <c r="H158" s="32"/>
+      <c r="I158" s="32"/>
+      <c r="J158" s="32">
         <v>2002</v>
       </c>
-      <c r="K158" s="30"/>
-      <c r="L158" s="30"/>
-      <c r="M158" s="30"/>
-      <c r="N158" s="30">
+      <c r="K158" s="32"/>
+      <c r="L158" s="32"/>
+      <c r="M158" s="32"/>
+      <c r="N158" s="32">
         <v>2003</v>
       </c>
-      <c r="O158" s="30"/>
-      <c r="P158" s="30"/>
-      <c r="Q158" s="30"/>
-      <c r="R158" s="30">
+      <c r="O158" s="32"/>
+      <c r="P158" s="32"/>
+      <c r="Q158" s="32"/>
+      <c r="R158" s="32">
         <v>2004</v>
       </c>
-      <c r="S158" s="30"/>
-      <c r="T158" s="30"/>
-      <c r="U158" s="30"/>
-      <c r="V158" s="30">
+      <c r="S158" s="32"/>
+      <c r="T158" s="32"/>
+      <c r="U158" s="32"/>
+      <c r="V158" s="32">
         <v>2005</v>
       </c>
-      <c r="W158" s="30"/>
-      <c r="X158" s="30"/>
-      <c r="Y158" s="30"/>
-      <c r="Z158" s="30">
+      <c r="W158" s="32"/>
+      <c r="X158" s="32"/>
+      <c r="Y158" s="32"/>
+      <c r="Z158" s="32">
         <v>2006</v>
       </c>
-      <c r="AA158" s="30"/>
-      <c r="AB158" s="30"/>
-      <c r="AC158" s="30"/>
-      <c r="AD158" s="30">
+      <c r="AA158" s="32"/>
+      <c r="AB158" s="32"/>
+      <c r="AC158" s="32"/>
+      <c r="AD158" s="32">
         <v>2007</v>
       </c>
-      <c r="AE158" s="30"/>
-      <c r="AF158" s="30"/>
-      <c r="AG158" s="30"/>
-      <c r="AH158" s="30">
+      <c r="AE158" s="32"/>
+      <c r="AF158" s="32"/>
+      <c r="AG158" s="32"/>
+      <c r="AH158" s="32">
         <v>2008</v>
       </c>
-      <c r="AI158" s="30"/>
-      <c r="AJ158" s="30"/>
-      <c r="AK158" s="30"/>
-      <c r="AL158" s="30">
+      <c r="AI158" s="32"/>
+      <c r="AJ158" s="32"/>
+      <c r="AK158" s="32"/>
+      <c r="AL158" s="32">
         <v>2009</v>
       </c>
-      <c r="AM158" s="30"/>
-      <c r="AN158" s="30"/>
-      <c r="AO158" s="30"/>
-      <c r="AP158" s="30">
+      <c r="AM158" s="32"/>
+      <c r="AN158" s="32"/>
+      <c r="AO158" s="32"/>
+      <c r="AP158" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ158" s="30"/>
-      <c r="AR158" s="30"/>
-      <c r="AS158" s="30"/>
-      <c r="AT158" s="30">
+      <c r="AQ158" s="32"/>
+      <c r="AR158" s="32"/>
+      <c r="AS158" s="32"/>
+      <c r="AT158" s="32">
         <v>2011</v>
       </c>
-      <c r="AU158" s="30"/>
-      <c r="AV158" s="30"/>
-      <c r="AW158" s="30"/>
-      <c r="AX158" s="30">
+      <c r="AU158" s="32"/>
+      <c r="AV158" s="32"/>
+      <c r="AW158" s="32"/>
+      <c r="AX158" s="32">
         <v>2012</v>
       </c>
-      <c r="AY158" s="30"/>
-      <c r="AZ158" s="30"/>
-      <c r="BA158" s="30"/>
-      <c r="BB158" s="30">
+      <c r="AY158" s="32"/>
+      <c r="AZ158" s="32"/>
+      <c r="BA158" s="32"/>
+      <c r="BB158" s="32">
         <v>2013</v>
       </c>
-      <c r="BC158" s="30"/>
-      <c r="BD158" s="30"/>
-      <c r="BE158" s="30"/>
-      <c r="BF158" s="30">
+      <c r="BC158" s="32"/>
+      <c r="BD158" s="32"/>
+      <c r="BE158" s="32"/>
+      <c r="BF158" s="32">
         <v>2014</v>
       </c>
-      <c r="BG158" s="30"/>
-      <c r="BH158" s="30"/>
-      <c r="BI158" s="30"/>
-      <c r="BJ158" s="30">
+      <c r="BG158" s="32"/>
+      <c r="BH158" s="32"/>
+      <c r="BI158" s="32"/>
+      <c r="BJ158" s="32">
         <v>2015</v>
       </c>
-      <c r="BK158" s="30"/>
-      <c r="BL158" s="30"/>
-      <c r="BM158" s="30"/>
-      <c r="BN158" s="30">
+      <c r="BK158" s="32"/>
+      <c r="BL158" s="32"/>
+      <c r="BM158" s="32"/>
+      <c r="BN158" s="32">
         <v>2016</v>
       </c>
-      <c r="BO158" s="30"/>
-      <c r="BP158" s="30"/>
-      <c r="BQ158" s="30"/>
-      <c r="BR158" s="30">
+      <c r="BO158" s="32"/>
+      <c r="BP158" s="32"/>
+      <c r="BQ158" s="32"/>
+      <c r="BR158" s="32">
         <v>2017</v>
       </c>
-      <c r="BS158" s="30"/>
-      <c r="BT158" s="30"/>
-      <c r="BU158" s="30"/>
-      <c r="BV158" s="30">
+      <c r="BS158" s="32"/>
+      <c r="BT158" s="32"/>
+      <c r="BU158" s="32"/>
+      <c r="BV158" s="32">
         <v>2018</v>
       </c>
-      <c r="BW158" s="30"/>
-      <c r="BX158" s="30"/>
-      <c r="BY158" s="30"/>
-      <c r="BZ158" s="30">
+      <c r="BW158" s="32"/>
+      <c r="BX158" s="32"/>
+      <c r="BY158" s="32"/>
+      <c r="BZ158" s="32">
         <v>2019</v>
       </c>
-      <c r="CA158" s="30"/>
-      <c r="CB158" s="30"/>
-      <c r="CC158" s="30"/>
-      <c r="CD158" s="28">
+      <c r="CA158" s="32"/>
+      <c r="CB158" s="32"/>
+      <c r="CC158" s="32"/>
+      <c r="CD158" s="30">
         <v>2020</v>
       </c>
-      <c r="CE158" s="28"/>
-      <c r="CF158" s="28"/>
-      <c r="CG158" s="28"/>
-      <c r="CH158" s="28">
+      <c r="CE158" s="30"/>
+      <c r="CF158" s="30"/>
+      <c r="CG158" s="30"/>
+      <c r="CH158" s="30">
         <v>2021</v>
       </c>
-      <c r="CI158" s="28">
-        <v>0</v>
-      </c>
-      <c r="CJ158" s="28"/>
+      <c r="CI158" s="30"/>
+      <c r="CJ158" s="30"/>
+      <c r="CK158" s="30"/>
+      <c r="CL158" s="28"/>
     </row>
     <row r="159" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
@@ -24243,6 +24390,10 @@
       <c r="CJ159" s="24" t="s">
         <v>9</v>
       </c>
+      <c r="CK159" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="CL159" s="19"/>
     </row>
     <row r="160" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
@@ -24510,10 +24661,12 @@
         <v>2.7283099461060982</v>
       </c>
       <c r="CJ161" s="26">
-        <v>5.549886325515379</v>
-      </c>
-      <c r="CK161" s="8"/>
-      <c r="CL161" s="8"/>
+        <v>5.8607658933110924</v>
+      </c>
+      <c r="CK161" s="26">
+        <v>5.374873987022891</v>
+      </c>
+      <c r="CL161" s="26"/>
       <c r="CM161" s="8"/>
       <c r="CN161" s="8"/>
       <c r="CO161" s="8"/>
@@ -24839,10 +24992,12 @@
         <v>6.5019592459480649E-2</v>
       </c>
       <c r="CJ162" s="26">
-        <v>0.17815553418037944</v>
-      </c>
-      <c r="CK162" s="8"/>
-      <c r="CL162" s="8"/>
+        <v>0.17764656697453129</v>
+      </c>
+      <c r="CK162" s="26">
+        <v>0.17411599092311911</v>
+      </c>
+      <c r="CL162" s="26"/>
       <c r="CM162" s="8"/>
       <c r="CN162" s="8"/>
       <c r="CO162" s="8"/>
@@ -25168,10 +25323,12 @@
         <v>4.8854067990745502</v>
       </c>
       <c r="CJ163" s="26">
-        <v>5.0274290146901661</v>
-      </c>
-      <c r="CK163" s="8"/>
-      <c r="CL163" s="8"/>
+        <v>5.1886962627818036</v>
+      </c>
+      <c r="CK163" s="26">
+        <v>2.8508187422441016</v>
+      </c>
+      <c r="CL163" s="26"/>
       <c r="CM163" s="8"/>
       <c r="CN163" s="8"/>
       <c r="CO163" s="8"/>
@@ -25497,10 +25654,12 @@
         <v>0.59219479541194553</v>
       </c>
       <c r="CJ164" s="26">
-        <v>0.84574163978297856</v>
-      </c>
-      <c r="CK164" s="8"/>
-      <c r="CL164" s="8"/>
+        <v>0.84811888728505636</v>
+      </c>
+      <c r="CK164" s="26">
+        <v>0.75068789503240874</v>
+      </c>
+      <c r="CL164" s="26"/>
       <c r="CM164" s="8"/>
       <c r="CN164" s="8"/>
       <c r="CO164" s="8"/>
@@ -25826,10 +25985,12 @@
         <v>18.179911435005668</v>
       </c>
       <c r="CJ165" s="26">
-        <v>16.717817255162352</v>
-      </c>
-      <c r="CK165" s="8"/>
-      <c r="CL165" s="8"/>
+        <v>16.390879033453547</v>
+      </c>
+      <c r="CK165" s="26">
+        <v>16.028406613481984</v>
+      </c>
+      <c r="CL165" s="26"/>
       <c r="CM165" s="8"/>
       <c r="CN165" s="8"/>
       <c r="CO165" s="8"/>
@@ -26155,10 +26316,12 @@
         <v>60.080874527536608</v>
       </c>
       <c r="CJ166" s="26">
-        <v>56.891200878552773</v>
-      </c>
-      <c r="CK166" s="8"/>
-      <c r="CL166" s="8"/>
+        <v>56.911392001939412</v>
+      </c>
+      <c r="CK166" s="26">
+        <v>60.65475410436796</v>
+      </c>
+      <c r="CL166" s="26"/>
       <c r="CM166" s="8"/>
       <c r="CN166" s="8"/>
       <c r="CO166" s="8"/>
@@ -26484,10 +26647,12 @@
         <v>12.345104807082677</v>
       </c>
       <c r="CJ167" s="26">
-        <v>13.278288754225656</v>
-      </c>
-      <c r="CK167" s="8"/>
-      <c r="CL167" s="8"/>
+        <v>13.020368171955077</v>
+      </c>
+      <c r="CK167" s="26">
+        <v>11.840185804710758</v>
+      </c>
+      <c r="CL167" s="26"/>
       <c r="CM167" s="8"/>
       <c r="CN167" s="8"/>
       <c r="CO167" s="8"/>
@@ -26813,10 +26978,12 @@
         <v>1.1231780973229573</v>
       </c>
       <c r="CJ168" s="26">
-        <v>1.5114805978903125</v>
-      </c>
-      <c r="CK168" s="8"/>
-      <c r="CL168" s="8"/>
+        <v>1.602133182299464</v>
+      </c>
+      <c r="CK168" s="26">
+        <v>2.3261568622167776</v>
+      </c>
+      <c r="CL168" s="26"/>
       <c r="CM168" s="8"/>
       <c r="CN168" s="8"/>
       <c r="CO168" s="8"/>
@@ -26967,8 +27134,8 @@
       <c r="CH169" s="21"/>
       <c r="CI169" s="21"/>
       <c r="CJ169" s="21"/>
-      <c r="CK169" s="8"/>
-      <c r="CL169" s="8"/>
+      <c r="CK169" s="21"/>
+      <c r="CL169" s="21"/>
       <c r="CM169" s="8"/>
       <c r="CN169" s="8"/>
       <c r="CO169" s="8"/>
@@ -27296,8 +27463,10 @@
       <c r="CJ170" s="25">
         <v>100</v>
       </c>
-      <c r="CK170" s="8"/>
-      <c r="CL170" s="8"/>
+      <c r="CK170" s="25">
+        <v>100</v>
+      </c>
+      <c r="CL170" s="25"/>
       <c r="CM170" s="8"/>
       <c r="CN170" s="8"/>
       <c r="CO170" s="8"/>
@@ -27449,6 +27618,8 @@
       <c r="CH171" s="23"/>
       <c r="CI171" s="23"/>
       <c r="CJ171" s="23"/>
+      <c r="CK171" s="23"/>
+      <c r="CL171" s="23"/>
     </row>
     <row r="172" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A172" s="12" t="s">
@@ -27544,8 +27715,8 @@
       <c r="CH173" s="18"/>
       <c r="CI173" s="18"/>
       <c r="CJ173" s="18"/>
-      <c r="CK173" s="16"/>
-      <c r="CL173" s="16"/>
+      <c r="CK173" s="18"/>
+      <c r="CL173" s="18"/>
       <c r="CM173" s="16"/>
       <c r="CN173" s="16"/>
       <c r="CO173" s="16"/>
@@ -27697,8 +27868,8 @@
       <c r="CH174" s="18"/>
       <c r="CI174" s="18"/>
       <c r="CJ174" s="18"/>
-      <c r="CK174" s="16"/>
-      <c r="CL174" s="16"/>
+      <c r="CK174" s="18"/>
+      <c r="CL174" s="18"/>
       <c r="CM174" s="16"/>
       <c r="CN174" s="16"/>
       <c r="CO174" s="16"/>
@@ -27763,6 +27934,7 @@
     </row>
   </sheetData>
   <mergeCells count="152">
+    <mergeCell ref="R108:U108"/>
     <mergeCell ref="CD158:CG158"/>
     <mergeCell ref="CD133:CG133"/>
     <mergeCell ref="CD108:CG108"/>
@@ -27780,15 +27952,12 @@
     <mergeCell ref="BZ34:CC34"/>
     <mergeCell ref="BR59:BU59"/>
     <mergeCell ref="BB133:BE133"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="J108:M108"/>
-    <mergeCell ref="N108:Q108"/>
-    <mergeCell ref="B158:E158"/>
-    <mergeCell ref="F158:I158"/>
-    <mergeCell ref="J158:M158"/>
-    <mergeCell ref="N158:Q158"/>
-    <mergeCell ref="R158:U158"/>
+    <mergeCell ref="BJ34:BM34"/>
+    <mergeCell ref="BN34:BQ34"/>
+    <mergeCell ref="BF59:BI59"/>
+    <mergeCell ref="BJ59:BM59"/>
+    <mergeCell ref="BB59:BE59"/>
+    <mergeCell ref="BN59:BQ59"/>
     <mergeCell ref="V158:Y158"/>
     <mergeCell ref="Z158:AC158"/>
     <mergeCell ref="AD158:AG158"/>
@@ -27802,7 +27971,11 @@
     <mergeCell ref="Z133:AC133"/>
     <mergeCell ref="AD133:AG133"/>
     <mergeCell ref="AH133:AK133"/>
-    <mergeCell ref="R108:U108"/>
+    <mergeCell ref="B158:E158"/>
+    <mergeCell ref="F158:I158"/>
+    <mergeCell ref="J158:M158"/>
+    <mergeCell ref="N158:Q158"/>
+    <mergeCell ref="R158:U158"/>
     <mergeCell ref="V108:Y108"/>
     <mergeCell ref="Z108:AC108"/>
     <mergeCell ref="AD108:AG108"/>
@@ -27816,6 +27989,17 @@
     <mergeCell ref="J34:M34"/>
     <mergeCell ref="N34:Q34"/>
     <mergeCell ref="R34:U34"/>
+    <mergeCell ref="AD59:AG59"/>
+    <mergeCell ref="AH59:AK59"/>
+    <mergeCell ref="AL59:AO59"/>
+    <mergeCell ref="AP59:AS59"/>
+    <mergeCell ref="AT59:AW59"/>
+    <mergeCell ref="AX59:BA59"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="J108:M108"/>
+    <mergeCell ref="N108:Q108"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="BB34:BE34"/>
@@ -27828,21 +28012,11 @@
     <mergeCell ref="AP34:AS34"/>
     <mergeCell ref="AT34:AW34"/>
     <mergeCell ref="AX34:BA34"/>
-    <mergeCell ref="AD59:AG59"/>
-    <mergeCell ref="AH59:AK59"/>
-    <mergeCell ref="BJ34:BM34"/>
-    <mergeCell ref="BN34:BQ34"/>
-    <mergeCell ref="AL59:AO59"/>
-    <mergeCell ref="AP59:AS59"/>
-    <mergeCell ref="AT59:AW59"/>
-    <mergeCell ref="AX59:BA59"/>
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="N9:Q9"/>
     <mergeCell ref="R9:U9"/>
     <mergeCell ref="V9:Y9"/>
     <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="BF59:BI59"/>
-    <mergeCell ref="BJ59:BM59"/>
     <mergeCell ref="AD9:AG9"/>
     <mergeCell ref="AH9:AK9"/>
     <mergeCell ref="AL9:AO9"/>
@@ -27850,9 +28024,6 @@
     <mergeCell ref="AT9:AW9"/>
     <mergeCell ref="AX9:BA9"/>
     <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="AX84:BA84"/>
     <mergeCell ref="BB84:BE84"/>
     <mergeCell ref="BF84:BI84"/>
     <mergeCell ref="BJ84:BM84"/>
@@ -27874,14 +28045,11 @@
     <mergeCell ref="BN108:BQ108"/>
     <mergeCell ref="AL133:AO133"/>
     <mergeCell ref="AP133:AS133"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BZ59:CC59"/>
+    <mergeCell ref="BZ84:CC84"/>
     <mergeCell ref="AT133:AW133"/>
     <mergeCell ref="AX133:BA133"/>
-    <mergeCell ref="CH9:CJ9"/>
-    <mergeCell ref="CH34:CJ34"/>
-    <mergeCell ref="CD84:CF84"/>
-    <mergeCell ref="CH108:CJ108"/>
-    <mergeCell ref="CH133:CJ133"/>
-    <mergeCell ref="CH158:CJ158"/>
     <mergeCell ref="B84:E84"/>
     <mergeCell ref="BR133:BU133"/>
     <mergeCell ref="BV133:BY133"/>
@@ -27898,23 +28066,26 @@
     <mergeCell ref="N84:Q84"/>
     <mergeCell ref="R84:U84"/>
     <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="BB59:BE59"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="CD59:CE59"/>
-    <mergeCell ref="BN59:BQ59"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="CH133:CK133"/>
+    <mergeCell ref="CH158:CK158"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH34:CK34"/>
+    <mergeCell ref="CD59:CG59"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="CH108:CK108"/>
     <mergeCell ref="BZ108:CC108"/>
     <mergeCell ref="BR108:BU108"/>
     <mergeCell ref="BR34:BU34"/>
     <mergeCell ref="BV34:BY34"/>
     <mergeCell ref="BV108:BY108"/>
     <mergeCell ref="BV59:BY59"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BZ59:CC59"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR9:BU9"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>

--- a/Data/National Accounts/PSA-05EOS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-05EOS_2018PSNA_Qrt.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Time Series\2022\As of May 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828174F0-B5C8-4675-8147-2605E79F9AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11424" windowHeight="9180"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EOS" sheetId="5" r:id="rId1"/>
@@ -42,7 +43,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">EOS!$A$37:$A$48</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EOS!$A$1:$CJ$174</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EOS!$A$1:$CL$174</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="56">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -212,26 +213,28 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of January 2022</t>
+    <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2021</t>
+    <t>As of May 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2021</t>
+    <t>Q1 2000 to Q1 2022</t>
+  </si>
+  <si>
+    <t>Q1 2001 to Q1 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="#,##0;\-#,##0;\-;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -304,7 +307,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
@@ -321,53 +324,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -691,198 +696,199 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:EU174"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="95" zoomScaleNormal="95" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BZ150" activePane="bottomRight" state="frozen"/>
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="CJ167" sqref="CJ167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.81640625" style="1" customWidth="1"/>
-    <col min="2" max="73" width="8.81640625" style="1" customWidth="1"/>
-    <col min="74" max="80" width="10" style="1" customWidth="1"/>
-    <col min="81" max="81" width="10.26953125" style="1" customWidth="1"/>
-    <col min="82" max="89" width="10.6328125" style="18" customWidth="1"/>
-    <col min="90" max="90" width="1.90625" style="18" customWidth="1"/>
-    <col min="91" max="16384" width="7.81640625" style="1"/>
+    <col min="1" max="1" width="43.77734375" style="1" customWidth="1"/>
+    <col min="2" max="73" width="8.77734375" style="1" customWidth="1"/>
+    <col min="74" max="77" width="10" style="1" customWidth="1"/>
+    <col min="78" max="90" width="10" style="18" customWidth="1"/>
+    <col min="91" max="91" width="7.77734375" style="1" customWidth="1"/>
+    <col min="92" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="31">
+      <c r="B9" s="29">
         <v>2000</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31">
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29">
         <v>2001</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31">
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29">
         <v>2002</v>
       </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31">
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29">
         <v>2003</v>
       </c>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31">
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29">
         <v>2004</v>
       </c>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31">
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29">
         <v>2005</v>
       </c>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31">
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29">
         <v>2006</v>
       </c>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31">
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29">
         <v>2007</v>
       </c>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
-      <c r="AG9" s="31"/>
-      <c r="AH9" s="31">
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="29">
         <v>2008</v>
       </c>
-      <c r="AI9" s="31"/>
-      <c r="AJ9" s="31"/>
-      <c r="AK9" s="31"/>
-      <c r="AL9" s="31">
+      <c r="AI9" s="29"/>
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="29"/>
+      <c r="AL9" s="29">
         <v>2009</v>
       </c>
-      <c r="AM9" s="31"/>
-      <c r="AN9" s="31"/>
-      <c r="AO9" s="31"/>
-      <c r="AP9" s="31">
+      <c r="AM9" s="29"/>
+      <c r="AN9" s="29"/>
+      <c r="AO9" s="29"/>
+      <c r="AP9" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="31"/>
-      <c r="AR9" s="31"/>
-      <c r="AS9" s="31"/>
-      <c r="AT9" s="31">
+      <c r="AQ9" s="29"/>
+      <c r="AR9" s="29"/>
+      <c r="AS9" s="29"/>
+      <c r="AT9" s="29">
         <v>2011</v>
       </c>
-      <c r="AU9" s="31"/>
-      <c r="AV9" s="31"/>
-      <c r="AW9" s="31"/>
-      <c r="AX9" s="31">
+      <c r="AU9" s="29"/>
+      <c r="AV9" s="29"/>
+      <c r="AW9" s="29"/>
+      <c r="AX9" s="29">
         <v>2012</v>
       </c>
-      <c r="AY9" s="31"/>
-      <c r="AZ9" s="31"/>
-      <c r="BA9" s="31"/>
-      <c r="BB9" s="31">
+      <c r="AY9" s="29"/>
+      <c r="AZ9" s="29"/>
+      <c r="BA9" s="29"/>
+      <c r="BB9" s="29">
         <v>2013</v>
       </c>
-      <c r="BC9" s="31"/>
-      <c r="BD9" s="31"/>
-      <c r="BE9" s="31"/>
-      <c r="BF9" s="31">
+      <c r="BC9" s="29"/>
+      <c r="BD9" s="29"/>
+      <c r="BE9" s="29"/>
+      <c r="BF9" s="29">
         <v>2014</v>
       </c>
-      <c r="BG9" s="31"/>
-      <c r="BH9" s="31"/>
-      <c r="BI9" s="31"/>
-      <c r="BJ9" s="31">
+      <c r="BG9" s="29"/>
+      <c r="BH9" s="29"/>
+      <c r="BI9" s="29"/>
+      <c r="BJ9" s="29">
         <v>2015</v>
       </c>
-      <c r="BK9" s="31"/>
-      <c r="BL9" s="31"/>
-      <c r="BM9" s="31"/>
-      <c r="BN9" s="31">
+      <c r="BK9" s="29"/>
+      <c r="BL9" s="29"/>
+      <c r="BM9" s="29"/>
+      <c r="BN9" s="29">
         <v>2016</v>
       </c>
-      <c r="BO9" s="31"/>
-      <c r="BP9" s="31"/>
-      <c r="BQ9" s="31"/>
-      <c r="BR9" s="31">
+      <c r="BO9" s="29"/>
+      <c r="BP9" s="29"/>
+      <c r="BQ9" s="29"/>
+      <c r="BR9" s="29">
         <v>2017</v>
       </c>
-      <c r="BS9" s="31"/>
-      <c r="BT9" s="31"/>
-      <c r="BU9" s="31"/>
-      <c r="BV9" s="31">
+      <c r="BS9" s="29"/>
+      <c r="BT9" s="29"/>
+      <c r="BU9" s="29"/>
+      <c r="BV9" s="29">
         <v>2018</v>
       </c>
-      <c r="BW9" s="31"/>
-      <c r="BX9" s="31"/>
-      <c r="BY9" s="31"/>
-      <c r="BZ9" s="31">
+      <c r="BW9" s="29"/>
+      <c r="BX9" s="29"/>
+      <c r="BY9" s="29"/>
+      <c r="BZ9" s="28">
         <v>2019</v>
       </c>
-      <c r="CA9" s="31"/>
-      <c r="CB9" s="31"/>
-      <c r="CC9" s="31"/>
-      <c r="CD9" s="30">
+      <c r="CA9" s="28"/>
+      <c r="CB9" s="28"/>
+      <c r="CC9" s="28"/>
+      <c r="CD9" s="28">
         <v>2020</v>
       </c>
-      <c r="CE9" s="30"/>
-      <c r="CF9" s="30"/>
-      <c r="CG9" s="30"/>
-      <c r="CH9" s="30">
+      <c r="CE9" s="28"/>
+      <c r="CF9" s="28"/>
+      <c r="CG9" s="28"/>
+      <c r="CH9" s="28">
         <v>2021</v>
       </c>
-      <c r="CI9" s="30"/>
-      <c r="CJ9" s="30"/>
-      <c r="CK9" s="30"/>
-      <c r="CL9" s="28"/>
+      <c r="CI9" s="28"/>
+      <c r="CJ9" s="28"/>
+      <c r="CK9" s="28"/>
+      <c r="CL9" s="27">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="10" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>7</v>
@@ -1112,16 +1118,16 @@
       <c r="BY10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="BZ10" s="5" t="s">
+      <c r="BZ10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CA10" s="5" t="s">
+      <c r="CA10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CB10" s="5" t="s">
+      <c r="CB10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="CC10" s="5" t="s">
+      <c r="CC10" s="19" t="s">
         <v>10</v>
       </c>
       <c r="CD10" s="19" t="s">
@@ -1148,12 +1154,14 @@
       <c r="CK10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CL10" s="19"/>
+      <c r="CL10" s="19" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
     </row>
-    <row r="12" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1385,43 +1393,45 @@
       <c r="BY12" s="7">
         <v>42624.351329436598</v>
       </c>
-      <c r="BZ12" s="7">
+      <c r="BZ12" s="20">
         <v>40432.192677417719</v>
       </c>
-      <c r="CA12" s="7">
+      <c r="CA12" s="20">
         <v>41319.8898629619</v>
       </c>
-      <c r="CB12" s="7">
+      <c r="CB12" s="20">
         <v>42837.454724796349</v>
       </c>
-      <c r="CC12" s="7">
+      <c r="CC12" s="20">
         <v>45790.436819050155</v>
       </c>
       <c r="CD12" s="20">
-        <v>32010.978337237957</v>
+        <v>34443.779051241945</v>
       </c>
       <c r="CE12" s="20">
-        <v>13299.247113344074</v>
+        <v>14174.47972644388</v>
       </c>
       <c r="CF12" s="20">
-        <v>21183.699192354972</v>
+        <v>20115.500886305032</v>
       </c>
       <c r="CG12" s="20">
-        <v>23901.456567192312</v>
+        <v>22216.480801235044</v>
       </c>
       <c r="CH12" s="20">
-        <v>20322.731784015399</v>
+        <v>21033.793561145554</v>
       </c>
       <c r="CI12" s="20">
-        <v>16391.545194812847</v>
+        <v>18620.122244720733</v>
       </c>
       <c r="CJ12" s="20">
-        <v>27080.676460143659</v>
+        <v>26603.035473364289</v>
       </c>
       <c r="CK12" s="20">
-        <v>28962.48869843475</v>
-      </c>
-      <c r="CL12" s="29"/>
+        <v>30251.874477730737</v>
+      </c>
+      <c r="CL12" s="20">
+        <v>42557.256473515154</v>
+      </c>
       <c r="CM12" s="8"/>
       <c r="CN12" s="8"/>
       <c r="CO12" s="8"/>
@@ -1484,7 +1494,7 @@
       <c r="ET12" s="8"/>
       <c r="EU12" s="8"/>
     </row>
-    <row r="13" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1716,43 +1726,45 @@
       <c r="BY13" s="7">
         <v>772.79781208080999</v>
       </c>
-      <c r="BZ13" s="7">
+      <c r="BZ13" s="20">
         <v>508.58266453968685</v>
       </c>
-      <c r="CA13" s="7">
+      <c r="CA13" s="20">
         <v>419.67368422295664</v>
       </c>
-      <c r="CB13" s="7">
+      <c r="CB13" s="20">
         <v>800.99575106575696</v>
       </c>
-      <c r="CC13" s="7">
+      <c r="CC13" s="20">
         <v>811.98755828997855</v>
       </c>
       <c r="CD13" s="20">
-        <v>455.76866341495628</v>
+        <v>480.0441985661364</v>
       </c>
       <c r="CE13" s="20">
-        <v>271.15791756005291</v>
+        <v>295.26631563989986</v>
       </c>
       <c r="CF13" s="20">
-        <v>700.97163490021353</v>
+        <v>689.27086824640162</v>
       </c>
       <c r="CG13" s="20">
-        <v>785.29196317838819</v>
+        <v>764.01571953703251</v>
       </c>
       <c r="CH13" s="20">
-        <v>493.50282696812621</v>
+        <v>494.94355919274147</v>
       </c>
       <c r="CI13" s="20">
-        <v>387.57697975435258</v>
+        <v>373.40447089070352</v>
       </c>
       <c r="CJ13" s="20">
-        <v>807.76740179777687</v>
+        <v>784.47112518823997</v>
       </c>
       <c r="CK13" s="20">
-        <v>849.4940209236903</v>
-      </c>
-      <c r="CL13" s="29"/>
+        <v>830.4420663112827</v>
+      </c>
+      <c r="CL13" s="20">
+        <v>557.55235291345628</v>
+      </c>
       <c r="CM13" s="8"/>
       <c r="CN13" s="8"/>
       <c r="CO13" s="8"/>
@@ -1815,7 +1827,7 @@
       <c r="ET13" s="8"/>
       <c r="EU13" s="8"/>
     </row>
-    <row r="14" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2047,16 +2059,16 @@
       <c r="BY14" s="7">
         <v>84131.976438938029</v>
       </c>
-      <c r="BZ14" s="7">
+      <c r="BZ14" s="20">
         <v>156544.746770167</v>
       </c>
-      <c r="CA14" s="7">
+      <c r="CA14" s="20">
         <v>150109.835100989</v>
       </c>
-      <c r="CB14" s="7">
+      <c r="CB14" s="20">
         <v>168700.29436524701</v>
       </c>
-      <c r="CC14" s="7">
+      <c r="CC14" s="20">
         <v>102672.183663597</v>
       </c>
       <c r="CD14" s="20">
@@ -2072,18 +2084,20 @@
         <v>8252.2359478950566</v>
       </c>
       <c r="CH14" s="20">
-        <v>2347.5074399000005</v>
+        <v>1824.7826860301004</v>
       </c>
       <c r="CI14" s="20">
-        <v>29673.480158083239</v>
+        <v>29756.647764917354</v>
       </c>
       <c r="CJ14" s="20">
-        <v>23926.254233887692</v>
+        <v>23926.254159618922</v>
       </c>
       <c r="CK14" s="20">
-        <v>14045.039601781906</v>
-      </c>
-      <c r="CL14" s="29"/>
+        <v>13235.535014912855</v>
+      </c>
+      <c r="CL14" s="20">
+        <v>17456.163863680598</v>
+      </c>
       <c r="CM14" s="8"/>
       <c r="CN14" s="8"/>
       <c r="CO14" s="8"/>
@@ -2146,7 +2160,7 @@
       <c r="ET14" s="8"/>
       <c r="EU14" s="8"/>
     </row>
-    <row r="15" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2378,43 +2392,45 @@
       <c r="BY15" s="7">
         <v>2516.3230146574101</v>
       </c>
-      <c r="BZ15" s="7">
+      <c r="BZ15" s="20">
         <v>2234.8910044188465</v>
       </c>
-      <c r="CA15" s="7">
+      <c r="CA15" s="20">
         <v>2434.1008170299829</v>
       </c>
-      <c r="CB15" s="7">
+      <c r="CB15" s="20">
         <v>2689.6706049143772</v>
       </c>
-      <c r="CC15" s="7">
+      <c r="CC15" s="20">
         <v>2687.5370860009766</v>
       </c>
       <c r="CD15" s="20">
-        <v>2525.5740580868278</v>
+        <v>2105.4323915538039</v>
       </c>
       <c r="CE15" s="20">
-        <v>2718.4891110303574</v>
+        <v>2266.2550765925102</v>
       </c>
       <c r="CF15" s="20">
-        <v>2967.0275841402954</v>
+        <v>2473.4479522705974</v>
       </c>
       <c r="CG15" s="20">
-        <v>2953.3815928242416</v>
+        <v>2462.0720387274218</v>
       </c>
       <c r="CH15" s="20">
-        <v>3085.9450636350798</v>
+        <v>3176.1164861084762</v>
       </c>
       <c r="CI15" s="20">
-        <v>3438.8113492011848</v>
+        <v>3438.8113492011862</v>
       </c>
       <c r="CJ15" s="20">
         <v>3776.489155427616</v>
       </c>
       <c r="CK15" s="20">
-        <v>3717.6558698553504</v>
-      </c>
-      <c r="CL15" s="29"/>
+        <v>3766.3361559899336</v>
+      </c>
+      <c r="CL15" s="20">
+        <v>3573.2744309920454</v>
+      </c>
       <c r="CM15" s="8"/>
       <c r="CN15" s="8"/>
       <c r="CO15" s="8"/>
@@ -2477,7 +2493,7 @@
       <c r="ET15" s="8"/>
       <c r="EU15" s="8"/>
     </row>
-    <row r="16" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2709,43 +2725,45 @@
       <c r="BY16" s="7">
         <v>61255.114533223765</v>
       </c>
-      <c r="BZ16" s="7">
+      <c r="BZ16" s="20">
         <v>105508.83527054502</v>
       </c>
-      <c r="CA16" s="7">
+      <c r="CA16" s="20">
         <v>120503.71338368337</v>
       </c>
-      <c r="CB16" s="7">
+      <c r="CB16" s="20">
         <v>75851.246935623087</v>
       </c>
-      <c r="CC16" s="7">
+      <c r="CC16" s="20">
         <v>64546.344676669141</v>
       </c>
       <c r="CD16" s="20">
-        <v>106388.76006203156</v>
+        <v>108730.73949534736</v>
       </c>
       <c r="CE16" s="20">
-        <v>86074.346190977856</v>
+        <v>94355.463227557135</v>
       </c>
       <c r="CF16" s="20">
-        <v>58108.39956313611</v>
+        <v>58108.424492498925</v>
       </c>
       <c r="CG16" s="20">
-        <v>60540.715796021614</v>
+        <v>63032.484317865848</v>
       </c>
       <c r="CH16" s="20">
-        <v>104028.14005270365</v>
+        <v>109197.40960693023</v>
       </c>
       <c r="CI16" s="20">
-        <v>101878.54866967555</v>
+        <v>104767.58928580767</v>
       </c>
       <c r="CJ16" s="20">
-        <v>69340.49337737613</v>
+        <v>69917.210739065209</v>
       </c>
       <c r="CK16" s="20">
-        <v>72213.867824437591</v>
-      </c>
-      <c r="CL16" s="29"/>
+        <v>71687.597244250457</v>
+      </c>
+      <c r="CL16" s="20">
+        <v>123235.25019913775</v>
+      </c>
       <c r="CM16" s="8"/>
       <c r="CN16" s="8"/>
       <c r="CO16" s="8"/>
@@ -2808,7 +2826,7 @@
       <c r="ET16" s="8"/>
       <c r="EU16" s="8"/>
     </row>
-    <row r="17" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -3040,43 +3058,45 @@
       <c r="BY17" s="7">
         <v>277339.67259211745</v>
       </c>
-      <c r="BZ17" s="7">
+      <c r="BZ17" s="20">
         <v>322804.9239772397</v>
       </c>
-      <c r="CA17" s="7">
+      <c r="CA17" s="20">
         <v>338877.35487584147</v>
       </c>
-      <c r="CB17" s="7">
+      <c r="CB17" s="20">
         <v>256365.77376729166</v>
       </c>
-      <c r="CC17" s="7">
+      <c r="CC17" s="20">
         <v>269156.31011836824</v>
       </c>
       <c r="CD17" s="20">
-        <v>346096.80980260269</v>
+        <v>353046.08775540534</v>
       </c>
       <c r="CE17" s="20">
-        <v>299196.14261641022</v>
+        <v>298544.10569727549</v>
       </c>
       <c r="CF17" s="20">
-        <v>251241.18618202559</v>
+        <v>249825.37479479954</v>
       </c>
       <c r="CG17" s="20">
-        <v>270907.40938500199</v>
+        <v>265829.70707802282</v>
       </c>
       <c r="CH17" s="20">
-        <v>342299.43622982444</v>
+        <v>351110.89551138802</v>
       </c>
       <c r="CI17" s="20">
-        <v>346990.80493395386</v>
+        <v>354259.84603114275</v>
       </c>
       <c r="CJ17" s="20">
-        <v>258653.62356516902</v>
+        <v>261571.11927991663</v>
       </c>
       <c r="CK17" s="20">
-        <v>301281.25579520763</v>
-      </c>
-      <c r="CL17" s="29"/>
+        <v>292354.81528290245</v>
+      </c>
+      <c r="CL17" s="20">
+        <v>398999.59706351632</v>
+      </c>
       <c r="CM17" s="8"/>
       <c r="CN17" s="8"/>
       <c r="CO17" s="8"/>
@@ -3139,7 +3159,7 @@
       <c r="ET17" s="8"/>
       <c r="EU17" s="8"/>
     </row>
-    <row r="18" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -3371,23 +3391,23 @@
       <c r="BY18" s="7">
         <v>42165.608541257541</v>
       </c>
-      <c r="BZ18" s="7">
+      <c r="BZ18" s="20">
         <v>70817.959040484013</v>
       </c>
-      <c r="CA18" s="7">
+      <c r="CA18" s="20">
         <v>78950.263516608989</v>
       </c>
-      <c r="CB18" s="7">
+      <c r="CB18" s="20">
         <v>51418.900646949529</v>
       </c>
-      <c r="CC18" s="7">
+      <c r="CC18" s="20">
         <v>46459.03507256334</v>
       </c>
       <c r="CD18" s="20">
         <v>71805.642590515621</v>
       </c>
       <c r="CE18" s="20">
-        <v>59520.593464625519</v>
+        <v>55514.527226990889</v>
       </c>
       <c r="CF18" s="20">
         <v>45589.088109905439</v>
@@ -3396,18 +3416,20 @@
         <v>42373.462819087537</v>
       </c>
       <c r="CH18" s="20">
-        <v>70739.801760135873</v>
+        <v>72915.18059972288</v>
       </c>
       <c r="CI18" s="20">
-        <v>73530.605226210522</v>
+        <v>74563.954960931631</v>
       </c>
       <c r="CJ18" s="20">
-        <v>59103.067755561111</v>
+        <v>52823.822989122251</v>
       </c>
       <c r="CK18" s="20">
-        <v>57635.006682118881</v>
-      </c>
-      <c r="CL18" s="29"/>
+        <v>54093.085107005565</v>
+      </c>
+      <c r="CL18" s="20">
+        <v>90438.765311851326</v>
+      </c>
       <c r="CM18" s="8"/>
       <c r="CN18" s="8"/>
       <c r="CO18" s="8"/>
@@ -3470,7 +3492,7 @@
       <c r="ET18" s="8"/>
       <c r="EU18" s="8"/>
     </row>
-    <row r="19" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -3702,43 +3724,45 @@
       <c r="BY19" s="7">
         <v>8354.5650842207506</v>
       </c>
-      <c r="BZ19" s="7">
+      <c r="BZ19" s="20">
         <v>10422.450513838163</v>
       </c>
-      <c r="CA19" s="7">
+      <c r="CA19" s="20">
         <v>11134.232544967574</v>
       </c>
-      <c r="CB19" s="7">
+      <c r="CB19" s="20">
         <v>6472.4065861981717</v>
       </c>
-      <c r="CC19" s="7">
+      <c r="CC19" s="20">
         <v>7878.07073289245</v>
       </c>
       <c r="CD19" s="20">
-        <v>6248.762207795804</v>
+        <v>5858.8082420570718</v>
       </c>
       <c r="CE19" s="20">
-        <v>6149.9095023102891</v>
+        <v>6145.9804818577413</v>
       </c>
       <c r="CF19" s="20">
-        <v>5608.2856491674693</v>
+        <v>5573.8622809499757</v>
       </c>
       <c r="CG19" s="20">
-        <v>5681.5271120043963</v>
+        <v>4400.8441803208916</v>
       </c>
       <c r="CH19" s="20">
-        <v>5334.4905963892161</v>
+        <v>5517.5954396211473</v>
       </c>
       <c r="CI19" s="20">
-        <v>6709.2897414248655</v>
+        <v>7227.2269652881387</v>
       </c>
       <c r="CJ19" s="20">
-        <v>7280.0096377980935</v>
+        <v>7609.4855653468167</v>
       </c>
       <c r="CK19" s="20">
-        <v>11334.370114203766</v>
-      </c>
-      <c r="CL19" s="29"/>
+        <v>9079.7759989805163</v>
+      </c>
+      <c r="CL19" s="20">
+        <v>6909.6990385703484</v>
+      </c>
       <c r="CM19" s="8"/>
       <c r="CN19" s="8"/>
       <c r="CO19" s="8"/>
@@ -3801,7 +3825,7 @@
       <c r="ET19" s="8"/>
       <c r="EU19" s="8"/>
     </row>
-    <row r="20" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -3878,10 +3902,10 @@
       <c r="BW20" s="8"/>
       <c r="BX20" s="8"/>
       <c r="BY20" s="8"/>
-      <c r="BZ20" s="8"/>
-      <c r="CA20" s="8"/>
-      <c r="CB20" s="8"/>
-      <c r="CC20" s="8"/>
+      <c r="BZ20" s="21"/>
+      <c r="CA20" s="21"/>
+      <c r="CB20" s="21"/>
+      <c r="CC20" s="21"/>
       <c r="CD20" s="21"/>
       <c r="CE20" s="21"/>
       <c r="CF20" s="21"/>
@@ -3953,7 +3977,7 @@
       <c r="ET20" s="8"/>
       <c r="EU20" s="8"/>
     </row>
-    <row r="21" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>18</v>
       </c>
@@ -4185,43 +4209,45 @@
       <c r="BY21" s="10">
         <v>519160.40934593236</v>
       </c>
-      <c r="BZ21" s="10">
+      <c r="BZ21" s="22">
         <v>709274.58191865019</v>
       </c>
-      <c r="CA21" s="10">
+      <c r="CA21" s="22">
         <v>743749.06378630525</v>
       </c>
-      <c r="CB21" s="10">
+      <c r="CB21" s="22">
         <v>605136.74338208593</v>
       </c>
-      <c r="CC21" s="10">
+      <c r="CC21" s="22">
         <v>540001.90572743129</v>
       </c>
       <c r="CD21" s="22">
-        <v>678594.56051879551</v>
+        <v>689532.79852179741</v>
       </c>
       <c r="CE21" s="22">
-        <v>472639.57669289305</v>
+        <v>476705.76852899225</v>
       </c>
       <c r="CF21" s="22">
-        <v>399871.65058867732</v>
+        <v>396847.96205802314</v>
       </c>
       <c r="CG21" s="22">
-        <v>415395.48118320556</v>
+        <v>409331.30290269171</v>
       </c>
       <c r="CH21" s="22">
-        <v>548651.5557535718</v>
+        <v>565270.71745013911</v>
       </c>
       <c r="CI21" s="22">
-        <v>579000.66225311637</v>
+        <v>593007.60307290021</v>
       </c>
       <c r="CJ21" s="22">
-        <v>449968.38158716104</v>
+        <v>447011.88848705002</v>
       </c>
       <c r="CK21" s="22">
-        <v>490039.1786069636</v>
-      </c>
-      <c r="CL21" s="22"/>
+        <v>475299.4613480838</v>
+      </c>
+      <c r="CL21" s="22">
+        <v>683727.55873417703</v>
+      </c>
       <c r="CM21" s="8"/>
       <c r="CN21" s="8"/>
       <c r="CO21" s="8"/>
@@ -4284,7 +4310,7 @@
       <c r="ET21" s="8"/>
       <c r="EU21" s="8"/>
     </row>
-    <row r="22" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -4362,10 +4388,10 @@
       <c r="BW22" s="11"/>
       <c r="BX22" s="11"/>
       <c r="BY22" s="11"/>
-      <c r="BZ22" s="11"/>
-      <c r="CA22" s="11"/>
-      <c r="CB22" s="11"/>
-      <c r="CC22" s="11"/>
+      <c r="BZ22" s="23"/>
+      <c r="CA22" s="23"/>
+      <c r="CB22" s="23"/>
+      <c r="CC22" s="23"/>
       <c r="CD22" s="23"/>
       <c r="CE22" s="23"/>
       <c r="CF22" s="23"/>
@@ -4376,12 +4402,12 @@
       <c r="CK22" s="23"/>
       <c r="CL22" s="23"/>
     </row>
-    <row r="23" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -4458,10 +4484,10 @@
       <c r="BW24" s="8"/>
       <c r="BX24" s="8"/>
       <c r="BY24" s="8"/>
-      <c r="BZ24" s="8"/>
-      <c r="CA24" s="8"/>
-      <c r="CB24" s="8"/>
-      <c r="CC24" s="8"/>
+      <c r="BZ24" s="21"/>
+      <c r="CA24" s="21"/>
+      <c r="CB24" s="21"/>
+      <c r="CC24" s="21"/>
       <c r="CD24" s="21"/>
       <c r="CE24" s="21"/>
       <c r="CF24" s="21"/>
@@ -4533,7 +4559,7 @@
       <c r="ET24" s="8"/>
       <c r="EU24" s="8"/>
     </row>
-    <row r="25" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -4610,10 +4636,10 @@
       <c r="BW25" s="8"/>
       <c r="BX25" s="8"/>
       <c r="BY25" s="8"/>
-      <c r="BZ25" s="8"/>
-      <c r="CA25" s="8"/>
-      <c r="CB25" s="8"/>
-      <c r="CC25" s="8"/>
+      <c r="BZ25" s="21"/>
+      <c r="CA25" s="21"/>
+      <c r="CB25" s="21"/>
+      <c r="CC25" s="21"/>
       <c r="CD25" s="21"/>
       <c r="CE25" s="21"/>
       <c r="CF25" s="21"/>
@@ -4685,173 +4711,175 @@
       <c r="ET25" s="8"/>
       <c r="EU25" s="8"/>
     </row>
-    <row r="26" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="32">
+      <c r="B34" s="31">
         <v>2000</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32">
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31">
         <v>2001</v>
       </c>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32">
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31">
         <v>2002</v>
       </c>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32">
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31">
         <v>2003</v>
       </c>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32">
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31">
         <v>2004</v>
       </c>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="32">
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31">
         <v>2005</v>
       </c>
-      <c r="W34" s="32"/>
-      <c r="X34" s="32"/>
-      <c r="Y34" s="32"/>
-      <c r="Z34" s="32">
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31">
         <v>2006</v>
       </c>
-      <c r="AA34" s="32"/>
-      <c r="AB34" s="32"/>
-      <c r="AC34" s="32"/>
-      <c r="AD34" s="32">
+      <c r="AA34" s="31"/>
+      <c r="AB34" s="31"/>
+      <c r="AC34" s="31"/>
+      <c r="AD34" s="31">
         <v>2007</v>
       </c>
-      <c r="AE34" s="32"/>
-      <c r="AF34" s="32"/>
-      <c r="AG34" s="32"/>
-      <c r="AH34" s="32">
+      <c r="AE34" s="31"/>
+      <c r="AF34" s="31"/>
+      <c r="AG34" s="31"/>
+      <c r="AH34" s="31">
         <v>2008</v>
       </c>
-      <c r="AI34" s="32"/>
-      <c r="AJ34" s="32"/>
-      <c r="AK34" s="32"/>
-      <c r="AL34" s="32">
+      <c r="AI34" s="31"/>
+      <c r="AJ34" s="31"/>
+      <c r="AK34" s="31"/>
+      <c r="AL34" s="31">
         <v>2009</v>
       </c>
-      <c r="AM34" s="32"/>
-      <c r="AN34" s="32"/>
-      <c r="AO34" s="32"/>
-      <c r="AP34" s="32">
+      <c r="AM34" s="31"/>
+      <c r="AN34" s="31"/>
+      <c r="AO34" s="31"/>
+      <c r="AP34" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ34" s="32"/>
-      <c r="AR34" s="32"/>
-      <c r="AS34" s="32"/>
-      <c r="AT34" s="32">
+      <c r="AQ34" s="31"/>
+      <c r="AR34" s="31"/>
+      <c r="AS34" s="31"/>
+      <c r="AT34" s="31">
         <v>2011</v>
       </c>
-      <c r="AU34" s="32"/>
-      <c r="AV34" s="32"/>
-      <c r="AW34" s="32"/>
-      <c r="AX34" s="32">
+      <c r="AU34" s="31"/>
+      <c r="AV34" s="31"/>
+      <c r="AW34" s="31"/>
+      <c r="AX34" s="31">
         <v>2012</v>
       </c>
-      <c r="AY34" s="32"/>
-      <c r="AZ34" s="32"/>
-      <c r="BA34" s="32"/>
-      <c r="BB34" s="32">
+      <c r="AY34" s="31"/>
+      <c r="AZ34" s="31"/>
+      <c r="BA34" s="31"/>
+      <c r="BB34" s="31">
         <v>2013</v>
       </c>
-      <c r="BC34" s="32"/>
-      <c r="BD34" s="32"/>
-      <c r="BE34" s="32"/>
-      <c r="BF34" s="32">
+      <c r="BC34" s="31"/>
+      <c r="BD34" s="31"/>
+      <c r="BE34" s="31"/>
+      <c r="BF34" s="31">
         <v>2014</v>
       </c>
-      <c r="BG34" s="32"/>
-      <c r="BH34" s="32"/>
-      <c r="BI34" s="32"/>
-      <c r="BJ34" s="32">
+      <c r="BG34" s="31"/>
+      <c r="BH34" s="31"/>
+      <c r="BI34" s="31"/>
+      <c r="BJ34" s="31">
         <v>2015</v>
       </c>
-      <c r="BK34" s="32"/>
-      <c r="BL34" s="32"/>
-      <c r="BM34" s="32"/>
-      <c r="BN34" s="32">
+      <c r="BK34" s="31"/>
+      <c r="BL34" s="31"/>
+      <c r="BM34" s="31"/>
+      <c r="BN34" s="31">
         <v>2016</v>
       </c>
-      <c r="BO34" s="32"/>
-      <c r="BP34" s="32"/>
-      <c r="BQ34" s="32"/>
-      <c r="BR34" s="32">
+      <c r="BO34" s="31"/>
+      <c r="BP34" s="31"/>
+      <c r="BQ34" s="31"/>
+      <c r="BR34" s="31">
         <v>2017</v>
       </c>
-      <c r="BS34" s="32"/>
-      <c r="BT34" s="32"/>
-      <c r="BU34" s="32"/>
-      <c r="BV34" s="32">
+      <c r="BS34" s="31"/>
+      <c r="BT34" s="31"/>
+      <c r="BU34" s="31"/>
+      <c r="BV34" s="31">
         <v>2018</v>
       </c>
-      <c r="BW34" s="32"/>
-      <c r="BX34" s="32"/>
-      <c r="BY34" s="32"/>
-      <c r="BZ34" s="32">
+      <c r="BW34" s="31"/>
+      <c r="BX34" s="31"/>
+      <c r="BY34" s="31"/>
+      <c r="BZ34" s="30">
         <v>2019</v>
       </c>
-      <c r="CA34" s="32"/>
-      <c r="CB34" s="32"/>
-      <c r="CC34" s="32"/>
-      <c r="CD34" s="30">
+      <c r="CA34" s="30"/>
+      <c r="CB34" s="30"/>
+      <c r="CC34" s="30"/>
+      <c r="CD34" s="28">
         <v>2020</v>
       </c>
-      <c r="CE34" s="30"/>
-      <c r="CF34" s="30"/>
-      <c r="CG34" s="30"/>
-      <c r="CH34" s="30">
+      <c r="CE34" s="28"/>
+      <c r="CF34" s="28"/>
+      <c r="CG34" s="28"/>
+      <c r="CH34" s="28">
         <v>2021</v>
       </c>
-      <c r="CI34" s="30"/>
-      <c r="CJ34" s="30"/>
-      <c r="CK34" s="30"/>
-      <c r="CL34" s="28"/>
+      <c r="CI34" s="28"/>
+      <c r="CJ34" s="28"/>
+      <c r="CK34" s="28"/>
+      <c r="CL34" s="27">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="35" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="13" t="s">
         <v>7</v>
@@ -5081,16 +5109,16 @@
       <c r="BY35" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="BZ35" s="13" t="s">
+      <c r="BZ35" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CA35" s="13" t="s">
+      <c r="CA35" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CB35" s="13" t="s">
+      <c r="CB35" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="CC35" s="13" t="s">
+      <c r="CC35" s="24" t="s">
         <v>10</v>
       </c>
       <c r="CD35" s="24" t="s">
@@ -5117,12 +5145,14 @@
       <c r="CK35" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CL35" s="19"/>
+      <c r="CL35" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="36" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
     </row>
-    <row r="37" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
@@ -5354,43 +5384,45 @@
       <c r="BY37" s="7">
         <v>41032.932851026701</v>
       </c>
-      <c r="BZ37" s="7">
+      <c r="BZ37" s="20">
         <v>39072.434063373323</v>
       </c>
-      <c r="CA37" s="7">
+      <c r="CA37" s="20">
         <v>40792.024225756264</v>
       </c>
-      <c r="CB37" s="7">
+      <c r="CB37" s="20">
         <v>43941.408452512456</v>
       </c>
-      <c r="CC37" s="7">
+      <c r="CC37" s="20">
         <v>44725.990643891746</v>
       </c>
       <c r="CD37" s="20">
-        <v>30626.489402743518</v>
+        <v>32954.070412654604</v>
       </c>
       <c r="CE37" s="20">
-        <v>13543.604832631756</v>
+        <v>14434.918795552388</v>
       </c>
       <c r="CF37" s="20">
-        <v>20313.003574479371</v>
+        <v>19288.710517255629</v>
       </c>
       <c r="CG37" s="20">
-        <v>21626.707123416036</v>
+        <v>20102.093872421516</v>
       </c>
       <c r="CH37" s="20">
-        <v>17520.856490481521</v>
+        <v>18133.884870985134</v>
       </c>
       <c r="CI37" s="20">
-        <v>15112.588522108954</v>
+        <v>17167.279983151406</v>
       </c>
       <c r="CJ37" s="20">
-        <v>24389.736046518952</v>
+        <v>23959.557073342527</v>
       </c>
       <c r="CK37" s="20">
-        <v>24413.819240993631</v>
-      </c>
-      <c r="CL37" s="29"/>
+        <v>25500.702059504361</v>
+      </c>
+      <c r="CL37" s="20">
+        <v>33749.771345216897</v>
+      </c>
       <c r="CM37" s="8"/>
       <c r="CN37" s="8"/>
       <c r="CO37" s="8"/>
@@ -5453,7 +5485,7 @@
       <c r="ET37" s="8"/>
       <c r="EU37" s="8"/>
     </row>
-    <row r="38" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -5685,43 +5717,45 @@
       <c r="BY38" s="7">
         <v>778.73178185077302</v>
       </c>
-      <c r="BZ38" s="7">
+      <c r="BZ38" s="20">
         <v>497.77938925970301</v>
       </c>
-      <c r="CA38" s="7">
+      <c r="CA38" s="20">
         <v>408.58218124951048</v>
       </c>
-      <c r="CB38" s="7">
+      <c r="CB38" s="20">
         <v>774.14337399980457</v>
       </c>
-      <c r="CC38" s="7">
+      <c r="CC38" s="20">
         <v>802.96901766546466</v>
       </c>
       <c r="CD38" s="20">
-        <v>436.66876559975907</v>
+        <v>459.92698587605793</v>
       </c>
       <c r="CE38" s="20">
-        <v>261.39181244364426</v>
+        <v>284.63191520704015</v>
       </c>
       <c r="CF38" s="20">
-        <v>662.7779598139482</v>
+        <v>651.71473005547659</v>
       </c>
       <c r="CG38" s="20">
-        <v>759.35743635758683</v>
+        <v>738.78384769964555</v>
       </c>
       <c r="CH38" s="20">
-        <v>460.05588510441675</v>
+        <v>461.39897232210484</v>
       </c>
       <c r="CI38" s="20">
-        <v>360.15495531134843</v>
+        <v>346.9851863026928</v>
       </c>
       <c r="CJ38" s="20">
-        <v>739.28100131487111</v>
+        <v>717.95989494133323</v>
       </c>
       <c r="CK38" s="20">
-        <v>790.87181199535985</v>
-      </c>
-      <c r="CL38" s="29"/>
+        <v>773.13460196769609</v>
+      </c>
+      <c r="CL38" s="20">
+        <v>498.34680396052988</v>
+      </c>
       <c r="CM38" s="8"/>
       <c r="CN38" s="8"/>
       <c r="CO38" s="8"/>
@@ -5784,7 +5818,7 @@
       <c r="ET38" s="8"/>
       <c r="EU38" s="8"/>
     </row>
-    <row r="39" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
@@ -6016,16 +6050,16 @@
       <c r="BY39" s="7">
         <v>84527.121745630007</v>
       </c>
-      <c r="BZ39" s="7">
+      <c r="BZ39" s="20">
         <v>153003.09527246599</v>
       </c>
-      <c r="CA39" s="7">
+      <c r="CA39" s="20">
         <v>146115.380019851</v>
       </c>
-      <c r="CB39" s="7">
+      <c r="CB39" s="20">
         <v>163165.91594509999</v>
       </c>
-      <c r="CC39" s="7">
+      <c r="CC39" s="20">
         <v>101660.9649982664</v>
       </c>
       <c r="CD39" s="20">
@@ -6041,18 +6075,20 @@
         <v>7924.9178789822236</v>
       </c>
       <c r="CH39" s="20">
-        <v>2138.9207396531883</v>
+        <v>1662.6424547885979</v>
       </c>
       <c r="CI39" s="20">
-        <v>27061.127282441081</v>
+        <v>27136.973094335204</v>
       </c>
       <c r="CJ39" s="20">
-        <v>21592.900071173368</v>
+        <v>21592.900004147494</v>
       </c>
       <c r="CK39" s="20">
-        <v>12949.02422457256</v>
-      </c>
-      <c r="CL39" s="29"/>
+        <v>12202.689945533572</v>
+      </c>
+      <c r="CL39" s="20">
+        <v>15389.064093647212</v>
+      </c>
       <c r="CM39" s="8"/>
       <c r="CN39" s="8"/>
       <c r="CO39" s="8"/>
@@ -6115,7 +6151,7 @@
       <c r="ET39" s="8"/>
       <c r="EU39" s="8"/>
     </row>
-    <row r="40" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
@@ -6347,43 +6383,45 @@
       <c r="BY40" s="7">
         <v>2474.1142641042211</v>
       </c>
-      <c r="BZ40" s="7">
+      <c r="BZ40" s="20">
         <v>2208.6339865395412</v>
       </c>
-      <c r="CA40" s="7">
+      <c r="CA40" s="20">
         <v>2391.2737858277633</v>
       </c>
-      <c r="CB40" s="7">
+      <c r="CB40" s="20">
         <v>2622.1615879048381</v>
       </c>
-      <c r="CC40" s="7">
+      <c r="CC40" s="20">
         <v>2593.7949415158037</v>
       </c>
       <c r="CD40" s="20">
-        <v>2466.8598585310178</v>
+        <v>2056.4855878783655</v>
       </c>
       <c r="CE40" s="20">
-        <v>2657.164078613212</v>
+        <v>2215.1317649435327</v>
       </c>
       <c r="CF40" s="20">
-        <v>2831.4912304316867</v>
+        <v>2360.4587376334443</v>
       </c>
       <c r="CG40" s="20">
-        <v>2794.4417354123757</v>
+        <v>2329.5726083375725</v>
       </c>
       <c r="CH40" s="20">
-        <v>2945.8113808788394</v>
+        <v>3031.8880922507747</v>
       </c>
       <c r="CI40" s="20">
-        <v>3280.2710999783149</v>
+        <v>3280.2710999783162</v>
       </c>
       <c r="CJ40" s="20">
         <v>3529.4697269102967</v>
       </c>
       <c r="CK40" s="20">
-        <v>3409.7838609746696</v>
-      </c>
-      <c r="CL40" s="29"/>
+        <v>3454.4327633529815</v>
+      </c>
+      <c r="CL40" s="20">
+        <v>3290.694869486982</v>
+      </c>
       <c r="CM40" s="8"/>
       <c r="CN40" s="8"/>
       <c r="CO40" s="8"/>
@@ -6446,7 +6484,7 @@
       <c r="ET40" s="8"/>
       <c r="EU40" s="8"/>
     </row>
-    <row r="41" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -6678,43 +6716,45 @@
       <c r="BY41" s="7">
         <v>62310.691878200902</v>
       </c>
-      <c r="BZ41" s="7">
+      <c r="BZ41" s="20">
         <v>104958.88928992864</v>
       </c>
-      <c r="CA41" s="7">
+      <c r="CA41" s="20">
         <v>119816.57619460554</v>
       </c>
-      <c r="CB41" s="7">
+      <c r="CB41" s="20">
         <v>75056.88933893932</v>
       </c>
-      <c r="CC41" s="7">
+      <c r="CC41" s="20">
         <v>65415.838723488094</v>
       </c>
       <c r="CD41" s="20">
-        <v>105383.42652976808</v>
+        <v>107703.27514348591</v>
       </c>
       <c r="CE41" s="20">
-        <v>85303.114535815388</v>
+        <v>93510.032233319303</v>
       </c>
       <c r="CF41" s="20">
-        <v>57311.639636476502</v>
+        <v>57311.664224017528</v>
       </c>
       <c r="CG41" s="20">
-        <v>61175.574457265568</v>
+        <v>63693.472845714576</v>
       </c>
       <c r="CH41" s="20">
-        <v>102809.30125245436</v>
+        <v>107918.00540295031</v>
       </c>
       <c r="CI41" s="20">
-        <v>100701.72609154858</v>
+        <v>103557.39473418298</v>
       </c>
       <c r="CJ41" s="20">
-        <v>68211.087163985067</v>
+        <v>68778.411050953422</v>
       </c>
       <c r="CK41" s="20">
-        <v>72804.427178662605</v>
-      </c>
-      <c r="CL41" s="29"/>
+        <v>72273.852798895867</v>
+      </c>
+      <c r="CL41" s="20">
+        <v>120994.81670854299</v>
+      </c>
       <c r="CM41" s="8"/>
       <c r="CN41" s="8"/>
       <c r="CO41" s="8"/>
@@ -6777,7 +6817,7 @@
       <c r="ET41" s="8"/>
       <c r="EU41" s="8"/>
     </row>
-    <row r="42" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>15</v>
       </c>
@@ -7009,43 +7049,45 @@
       <c r="BY42" s="7">
         <v>272246.43358790607</v>
       </c>
-      <c r="BZ42" s="7">
+      <c r="BZ42" s="20">
         <v>310560.41245737555</v>
       </c>
-      <c r="CA42" s="7">
+      <c r="CA42" s="20">
         <v>340519.70142420341</v>
       </c>
-      <c r="CB42" s="7">
+      <c r="CB42" s="20">
         <v>247891.35281058587</v>
       </c>
-      <c r="CC42" s="7">
+      <c r="CC42" s="20">
         <v>261437.80028709813</v>
       </c>
       <c r="CD42" s="20">
-        <v>325938.64012443181</v>
+        <v>332483.16218193091</v>
       </c>
       <c r="CE42" s="20">
-        <v>297685.5064581047</v>
+        <v>297036.76166211697</v>
       </c>
       <c r="CF42" s="20">
-        <v>237666.84089454132</v>
+        <v>236327.52457933835</v>
       </c>
       <c r="CG42" s="20">
-        <v>257306.27757503474</v>
+        <v>252483.50553565435</v>
       </c>
       <c r="CH42" s="20">
-        <v>313658.9729647651</v>
+        <v>321733.17051243625</v>
       </c>
       <c r="CI42" s="20">
-        <v>332798.52829001442</v>
+        <v>339770.25821722258</v>
       </c>
       <c r="CJ42" s="20">
-        <v>236838.2996753823</v>
+        <v>239509.72841806503</v>
       </c>
       <c r="CK42" s="20">
-        <v>275506.77585860383</v>
-      </c>
-      <c r="CL42" s="29"/>
+        <v>267343.98843610822</v>
+      </c>
+      <c r="CL42" s="20">
+        <v>350549.270730349</v>
+      </c>
       <c r="CM42" s="8"/>
       <c r="CN42" s="8"/>
       <c r="CO42" s="8"/>
@@ -7108,7 +7150,7 @@
       <c r="ET42" s="8"/>
       <c r="EU42" s="8"/>
     </row>
-    <row r="43" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
@@ -7340,23 +7382,23 @@
       <c r="BY43" s="7">
         <v>42390.714053373711</v>
       </c>
-      <c r="BZ43" s="7">
+      <c r="BZ43" s="20">
         <v>69275.652663644185</v>
       </c>
-      <c r="CA43" s="7">
+      <c r="CA43" s="20">
         <v>76923.961320669943</v>
       </c>
-      <c r="CB43" s="7">
+      <c r="CB43" s="20">
         <v>49780.2095587847</v>
       </c>
-      <c r="CC43" s="7">
+      <c r="CC43" s="20">
         <v>46048.282508936878</v>
       </c>
       <c r="CD43" s="20">
         <v>68758.770421120236</v>
       </c>
       <c r="CE43" s="20">
-        <v>57421.867763688169</v>
+        <v>53557.057412179376</v>
       </c>
       <c r="CF43" s="20">
         <v>43178.869113891196</v>
@@ -7365,18 +7407,20 @@
         <v>41067.937424928037</v>
       </c>
       <c r="CH43" s="20">
-        <v>65909.291972822029</v>
+        <v>67936.12376372813</v>
       </c>
       <c r="CI43" s="20">
-        <v>68381.706220006774</v>
+        <v>69342.696786653614</v>
       </c>
       <c r="CJ43" s="20">
-        <v>54184.61489903849</v>
+        <v>48427.917785896192</v>
       </c>
       <c r="CK43" s="20">
-        <v>53780.63871151294</v>
-      </c>
-      <c r="CL43" s="29"/>
+        <v>50475.584794779723</v>
+      </c>
+      <c r="CL43" s="20">
+        <v>80790.912087029137</v>
+      </c>
       <c r="CM43" s="8"/>
       <c r="CN43" s="8"/>
       <c r="CO43" s="8"/>
@@ -7439,7 +7483,7 @@
       <c r="ET43" s="8"/>
       <c r="EU43" s="8"/>
     </row>
-    <row r="44" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>17</v>
       </c>
@@ -7671,43 +7715,45 @@
       <c r="BY44" s="7">
         <v>8399.66918383966</v>
       </c>
-      <c r="BZ44" s="7">
+      <c r="BZ44" s="20">
         <v>10189.804994373186</v>
       </c>
-      <c r="CA44" s="7">
+      <c r="CA44" s="20">
         <v>10838.559551888897</v>
       </c>
-      <c r="CB44" s="7">
+      <c r="CB44" s="20">
         <v>6259.6945894326018</v>
       </c>
-      <c r="CC44" s="7">
+      <c r="CC44" s="20">
         <v>7800.6818332445764</v>
       </c>
       <c r="CD44" s="20">
-        <v>5980.2912905260628</v>
+        <v>5607.0912506679224</v>
       </c>
       <c r="CE44" s="20">
-        <v>5915.9463217096045</v>
+        <v>5912.1667743706657</v>
       </c>
       <c r="CF44" s="20">
-        <v>5306.3257063791525</v>
+        <v>5273.7557527249992</v>
       </c>
       <c r="CG44" s="20">
-        <v>5501.0229420066535</v>
+        <v>4261.0277699794169</v>
       </c>
       <c r="CH44" s="20">
-        <v>4967.4622236797732</v>
+        <v>5137.968924421375</v>
       </c>
       <c r="CI44" s="20">
-        <v>6221.4809743713067</v>
+        <v>6701.7608114885679</v>
       </c>
       <c r="CJ44" s="20">
-        <v>6667.3206435784195</v>
+        <v>6969.0677239534634</v>
       </c>
       <c r="CK44" s="20">
-        <v>10565.898530360369</v>
-      </c>
-      <c r="CL44" s="29"/>
+        <v>8464.1661527716096</v>
+      </c>
+      <c r="CL44" s="20">
+        <v>6169.1570921703114</v>
+      </c>
       <c r="CM44" s="8"/>
       <c r="CN44" s="8"/>
       <c r="CO44" s="8"/>
@@ -7770,7 +7816,7 @@
       <c r="ET44" s="8"/>
       <c r="EU44" s="8"/>
     </row>
-    <row r="45" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -7847,10 +7893,10 @@
       <c r="BW45" s="8"/>
       <c r="BX45" s="8"/>
       <c r="BY45" s="8"/>
-      <c r="BZ45" s="8"/>
-      <c r="CA45" s="8"/>
-      <c r="CB45" s="8"/>
-      <c r="CC45" s="8"/>
+      <c r="BZ45" s="21"/>
+      <c r="CA45" s="21"/>
+      <c r="CB45" s="21"/>
+      <c r="CC45" s="21"/>
       <c r="CD45" s="21"/>
       <c r="CE45" s="21"/>
       <c r="CF45" s="21"/>
@@ -7922,7 +7968,7 @@
       <c r="ET45" s="8"/>
       <c r="EU45" s="8"/>
     </row>
-    <row r="46" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>18</v>
       </c>
@@ -8154,43 +8200,45 @@
       <c r="BY46" s="10">
         <v>514160.40934593201</v>
       </c>
-      <c r="BZ46" s="10">
+      <c r="BZ46" s="22">
         <v>689766.70211696008</v>
       </c>
-      <c r="CA46" s="10">
+      <c r="CA46" s="22">
         <v>737806.05870405224</v>
       </c>
-      <c r="CB46" s="10">
+      <c r="CB46" s="22">
         <v>589491.77565725963</v>
       </c>
-      <c r="CC46" s="10">
+      <c r="CC46" s="22">
         <v>530486.32295410708</v>
       </c>
       <c r="CD46" s="22">
-        <v>647207.13717528316</v>
+        <v>657638.77276617661</v>
       </c>
       <c r="CE46" s="22">
-        <v>467938.24651949923</v>
+        <v>472100.35127418197</v>
       </c>
       <c r="CF46" s="22">
-        <v>380928.79621436441</v>
+        <v>378050.54575326788</v>
       </c>
       <c r="CG46" s="22">
-        <v>398156.23657340318</v>
+        <v>392601.31178371736</v>
       </c>
       <c r="CH46" s="22">
-        <v>510410.6729098392</v>
+        <v>526015.08299388271</v>
       </c>
       <c r="CI46" s="22">
-        <v>553917.58343578083</v>
+        <v>567303.6199133154</v>
       </c>
       <c r="CJ46" s="22">
-        <v>416152.70922790183</v>
+        <v>413485.01167820982</v>
       </c>
       <c r="CK46" s="22">
-        <v>454221.239417676</v>
-      </c>
-      <c r="CL46" s="22"/>
+        <v>440488.55155291402</v>
+      </c>
+      <c r="CL46" s="22">
+        <v>611432.03373040305</v>
+      </c>
       <c r="CM46" s="8"/>
       <c r="CN46" s="8"/>
       <c r="CO46" s="8"/>
@@ -8253,7 +8301,7 @@
       <c r="ET46" s="8"/>
       <c r="EU46" s="8"/>
     </row>
-    <row r="47" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -8331,10 +8379,10 @@
       <c r="BW47" s="11"/>
       <c r="BX47" s="11"/>
       <c r="BY47" s="11"/>
-      <c r="BZ47" s="11"/>
-      <c r="CA47" s="11"/>
-      <c r="CB47" s="11"/>
-      <c r="CC47" s="11"/>
+      <c r="BZ47" s="23"/>
+      <c r="CA47" s="23"/>
+      <c r="CB47" s="23"/>
+      <c r="CC47" s="23"/>
       <c r="CD47" s="23"/>
       <c r="CE47" s="23"/>
       <c r="CF47" s="23"/>
@@ -8345,12 +8393,12 @@
       <c r="CK47" s="23"/>
       <c r="CL47" s="23"/>
     </row>
-    <row r="48" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -8427,10 +8475,10 @@
       <c r="BW49" s="8"/>
       <c r="BX49" s="8"/>
       <c r="BY49" s="8"/>
-      <c r="BZ49" s="8"/>
-      <c r="CA49" s="8"/>
-      <c r="CB49" s="8"/>
-      <c r="CC49" s="8"/>
+      <c r="BZ49" s="21"/>
+      <c r="CA49" s="21"/>
+      <c r="CB49" s="21"/>
+      <c r="CC49" s="21"/>
       <c r="CD49" s="21"/>
       <c r="CE49" s="21"/>
       <c r="CF49" s="21"/>
@@ -8502,7 +8550,7 @@
       <c r="ET49" s="8"/>
       <c r="EU49" s="8"/>
     </row>
-    <row r="50" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -8579,10 +8627,10 @@
       <c r="BW50" s="8"/>
       <c r="BX50" s="8"/>
       <c r="BY50" s="8"/>
-      <c r="BZ50" s="8"/>
-      <c r="CA50" s="8"/>
-      <c r="CB50" s="8"/>
-      <c r="CC50" s="8"/>
+      <c r="BZ50" s="21"/>
+      <c r="CA50" s="21"/>
+      <c r="CB50" s="21"/>
+      <c r="CC50" s="21"/>
       <c r="CD50" s="21"/>
       <c r="CE50" s="21"/>
       <c r="CF50" s="21"/>
@@ -8654,171 +8702,173 @@
       <c r="ET50" s="8"/>
       <c r="EU50" s="8"/>
     </row>
-    <row r="51" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31" t="s">
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31" t="s">
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="31" t="s">
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="O59" s="31"/>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="31"/>
-      <c r="R59" s="31" t="s">
+      <c r="O59" s="29"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="S59" s="31"/>
-      <c r="T59" s="31"/>
-      <c r="U59" s="31"/>
-      <c r="V59" s="31" t="s">
+      <c r="S59" s="29"/>
+      <c r="T59" s="29"/>
+      <c r="U59" s="29"/>
+      <c r="V59" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="W59" s="31"/>
-      <c r="X59" s="31"/>
-      <c r="Y59" s="31"/>
-      <c r="Z59" s="31" t="s">
+      <c r="W59" s="29"/>
+      <c r="X59" s="29"/>
+      <c r="Y59" s="29"/>
+      <c r="Z59" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AA59" s="31"/>
-      <c r="AB59" s="31"/>
-      <c r="AC59" s="31"/>
-      <c r="AD59" s="31" t="s">
+      <c r="AA59" s="29"/>
+      <c r="AB59" s="29"/>
+      <c r="AC59" s="29"/>
+      <c r="AD59" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AE59" s="31"/>
-      <c r="AF59" s="31"/>
-      <c r="AG59" s="31"/>
-      <c r="AH59" s="31" t="s">
+      <c r="AE59" s="29"/>
+      <c r="AF59" s="29"/>
+      <c r="AG59" s="29"/>
+      <c r="AH59" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AI59" s="31"/>
-      <c r="AJ59" s="31"/>
-      <c r="AK59" s="31"/>
-      <c r="AL59" s="31" t="s">
+      <c r="AI59" s="29"/>
+      <c r="AJ59" s="29"/>
+      <c r="AK59" s="29"/>
+      <c r="AL59" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AM59" s="31"/>
-      <c r="AN59" s="31"/>
-      <c r="AO59" s="31"/>
-      <c r="AP59" s="31" t="s">
+      <c r="AM59" s="29"/>
+      <c r="AN59" s="29"/>
+      <c r="AO59" s="29"/>
+      <c r="AP59" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="AQ59" s="31"/>
-      <c r="AR59" s="31"/>
-      <c r="AS59" s="31"/>
-      <c r="AT59" s="31" t="s">
+      <c r="AQ59" s="29"/>
+      <c r="AR59" s="29"/>
+      <c r="AS59" s="29"/>
+      <c r="AT59" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="AU59" s="31"/>
-      <c r="AV59" s="31"/>
-      <c r="AW59" s="31"/>
-      <c r="AX59" s="31" t="s">
+      <c r="AU59" s="29"/>
+      <c r="AV59" s="29"/>
+      <c r="AW59" s="29"/>
+      <c r="AX59" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="AY59" s="31"/>
-      <c r="AZ59" s="31"/>
-      <c r="BA59" s="31"/>
-      <c r="BB59" s="31" t="s">
+      <c r="AY59" s="29"/>
+      <c r="AZ59" s="29"/>
+      <c r="BA59" s="29"/>
+      <c r="BB59" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="BC59" s="31"/>
-      <c r="BD59" s="31"/>
-      <c r="BE59" s="31"/>
-      <c r="BF59" s="31" t="s">
+      <c r="BC59" s="29"/>
+      <c r="BD59" s="29"/>
+      <c r="BE59" s="29"/>
+      <c r="BF59" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="BG59" s="31"/>
-      <c r="BH59" s="31"/>
-      <c r="BI59" s="31"/>
-      <c r="BJ59" s="31" t="s">
+      <c r="BG59" s="29"/>
+      <c r="BH59" s="29"/>
+      <c r="BI59" s="29"/>
+      <c r="BJ59" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="BK59" s="31"/>
-      <c r="BL59" s="31"/>
-      <c r="BM59" s="31"/>
-      <c r="BN59" s="31" t="s">
+      <c r="BK59" s="29"/>
+      <c r="BL59" s="29"/>
+      <c r="BM59" s="29"/>
+      <c r="BN59" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="BO59" s="31"/>
-      <c r="BP59" s="31"/>
-      <c r="BQ59" s="31"/>
-      <c r="BR59" s="31" t="s">
+      <c r="BO59" s="29"/>
+      <c r="BP59" s="29"/>
+      <c r="BQ59" s="29"/>
+      <c r="BR59" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="BS59" s="31"/>
-      <c r="BT59" s="31"/>
-      <c r="BU59" s="31"/>
-      <c r="BV59" s="31" t="s">
+      <c r="BS59" s="29"/>
+      <c r="BT59" s="29"/>
+      <c r="BU59" s="29"/>
+      <c r="BV59" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="BW59" s="31"/>
-      <c r="BX59" s="31"/>
-      <c r="BY59" s="31"/>
-      <c r="BZ59" s="31" t="s">
+      <c r="BW59" s="29"/>
+      <c r="BX59" s="29"/>
+      <c r="BY59" s="29"/>
+      <c r="BZ59" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="CA59" s="31"/>
-      <c r="CB59" s="31"/>
-      <c r="CC59" s="31"/>
-      <c r="CD59" s="30" t="s">
+      <c r="CA59" s="28"/>
+      <c r="CB59" s="28"/>
+      <c r="CC59" s="28"/>
+      <c r="CD59" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="CE59" s="30"/>
-      <c r="CF59" s="30"/>
-      <c r="CG59" s="30"/>
-      <c r="CH59" s="27"/>
+      <c r="CE59" s="28"/>
+      <c r="CF59" s="28"/>
+      <c r="CG59" s="28"/>
+      <c r="CH59" s="27" t="s">
+        <v>52</v>
+      </c>
       <c r="CI59" s="27"/>
       <c r="CJ59" s="27"/>
       <c r="CK59" s="27"/>
-      <c r="CL59" s="28"/>
+      <c r="CL59" s="27"/>
     </row>
-    <row r="60" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="5" t="s">
         <v>7</v>
@@ -9048,16 +9098,16 @@
       <c r="BY60" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="BZ60" s="5" t="s">
+      <c r="BZ60" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CA60" s="5" t="s">
+      <c r="CA60" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CB60" s="5" t="s">
+      <c r="CB60" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="CC60" s="5" t="s">
+      <c r="CC60" s="24" t="s">
         <v>10</v>
       </c>
       <c r="CD60" s="24" t="s">
@@ -9072,16 +9122,18 @@
       <c r="CG60" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CH60" s="19"/>
+      <c r="CH60" s="24" t="s">
+        <v>7</v>
+      </c>
       <c r="CI60" s="19"/>
       <c r="CJ60" s="19"/>
       <c r="CK60" s="19"/>
       <c r="CL60" s="19"/>
     </row>
-    <row r="61" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
     </row>
-    <row r="62" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -9313,35 +9365,37 @@
       <c r="BY62" s="14">
         <v>7.4278795825968302</v>
       </c>
-      <c r="BZ62" s="14">
-        <v>-20.827993196825062</v>
-      </c>
-      <c r="CA62" s="14">
-        <v>-67.813933779951384</v>
-      </c>
-      <c r="CB62" s="14">
-        <v>-50.548651108132148</v>
-      </c>
-      <c r="CC62" s="14">
-        <v>-47.802514613163481</v>
+      <c r="BZ62" s="25">
+        <v>-14.811003879887124</v>
+      </c>
+      <c r="CA62" s="25">
+        <v>-65.695746592128444</v>
+      </c>
+      <c r="CB62" s="25">
+        <v>-53.042259360332103</v>
+      </c>
+      <c r="CC62" s="25">
+        <v>-51.482269345829124</v>
       </c>
       <c r="CD62" s="25">
-        <v>-36.513243769328263</v>
+        <v>-38.932968040894643</v>
       </c>
       <c r="CE62" s="25">
-        <v>23.251677746224075</v>
+        <v>31.363708609234322</v>
       </c>
       <c r="CF62" s="25">
-        <v>27.837334802775416</v>
+        <v>32.251419558118386</v>
       </c>
       <c r="CG62" s="25">
-        <v>21.174576189592258</v>
-      </c>
-      <c r="CH62" s="21"/>
+        <v>36.168616210579103</v>
+      </c>
+      <c r="CH62" s="25">
+        <v>102.32801253754141</v>
+      </c>
       <c r="CI62" s="21"/>
       <c r="CJ62" s="21"/>
       <c r="CK62" s="21"/>
-      <c r="CL62" s="25"/>
+      <c r="CL62" s="21"/>
       <c r="CM62" s="8"/>
       <c r="CN62" s="8"/>
       <c r="CO62" s="8"/>
@@ -9400,7 +9454,7 @@
       <c r="EP62" s="8"/>
       <c r="EQ62" s="8"/>
     </row>
-    <row r="63" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -9632,35 +9686,37 @@
       <c r="BY63" s="14">
         <v>5.0711512890606656</v>
       </c>
-      <c r="BZ63" s="14">
-        <v>-10.384546074241825</v>
-      </c>
-      <c r="CA63" s="14">
-        <v>-35.388391563766234</v>
-      </c>
-      <c r="CB63" s="14">
-        <v>-12.487471504369068</v>
-      </c>
-      <c r="CC63" s="14">
-        <v>-3.2876852408687824</v>
+      <c r="BZ63" s="25">
+        <v>-5.6113721452500442</v>
+      </c>
+      <c r="CA63" s="25">
+        <v>-29.643833592616659</v>
+      </c>
+      <c r="CB63" s="25">
+        <v>-13.948249122507946</v>
+      </c>
+      <c r="CC63" s="25">
+        <v>-5.907952438824708</v>
       </c>
       <c r="CD63" s="25">
-        <v>8.2792360647258221</v>
+        <v>3.1037476697163697</v>
       </c>
       <c r="CE63" s="25">
-        <v>42.934044943945452</v>
+        <v>26.463619827904509</v>
       </c>
       <c r="CF63" s="25">
-        <v>15.235390646408419</v>
+        <v>13.811733721467249</v>
       </c>
       <c r="CG63" s="25">
-        <v>8.1755653636707279</v>
-      </c>
-      <c r="CH63" s="21"/>
+        <v>8.6943691177587539</v>
+      </c>
+      <c r="CH63" s="25">
+        <v>12.649683495797063</v>
+      </c>
       <c r="CI63" s="21"/>
       <c r="CJ63" s="21"/>
       <c r="CK63" s="21"/>
-      <c r="CL63" s="25"/>
+      <c r="CL63" s="21"/>
       <c r="CM63" s="8"/>
       <c r="CN63" s="8"/>
       <c r="CO63" s="8"/>
@@ -9719,7 +9775,7 @@
       <c r="EP63" s="8"/>
       <c r="EQ63" s="8"/>
     </row>
-    <row r="64" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
@@ -9951,35 +10007,37 @@
       <c r="BY64" s="14">
         <v>22.037051795776151</v>
       </c>
-      <c r="BZ64" s="14">
+      <c r="BZ64" s="25">
         <v>-27.776391651708508</v>
       </c>
-      <c r="CA64" s="14">
+      <c r="CA64" s="25">
         <v>-96.396178323029119</v>
       </c>
-      <c r="CB64" s="14">
+      <c r="CB64" s="25">
         <v>-91.420884754526682</v>
       </c>
-      <c r="CC64" s="14">
+      <c r="CC64" s="25">
         <v>-91.962539751824778</v>
       </c>
       <c r="CD64" s="25">
-        <v>-97.923703859892953</v>
+        <v>-98.386037384529075</v>
       </c>
       <c r="CE64" s="25">
-        <v>448.5245161562226</v>
+        <v>450.06189805600377</v>
       </c>
       <c r="CF64" s="25">
-        <v>65.316564268321855</v>
+        <v>65.316563755167664</v>
       </c>
       <c r="CG64" s="25">
-        <v>70.196776854937752</v>
-      </c>
-      <c r="CH64" s="21"/>
+        <v>60.387258659138524</v>
+      </c>
+      <c r="CH64" s="25">
+        <v>856.61603966975906</v>
+      </c>
       <c r="CI64" s="21"/>
       <c r="CJ64" s="21"/>
       <c r="CK64" s="21"/>
-      <c r="CL64" s="25"/>
+      <c r="CL64" s="21"/>
       <c r="CM64" s="8"/>
       <c r="CN64" s="8"/>
       <c r="CO64" s="8"/>
@@ -10038,7 +10096,7 @@
       <c r="EP64" s="8"/>
       <c r="EQ64" s="8"/>
     </row>
-    <row r="65" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>13</v>
       </c>
@@ -10270,35 +10328,37 @@
       <c r="BY65" s="14">
         <v>6.8041372409764591</v>
       </c>
-      <c r="BZ65" s="14">
-        <v>13.006587484277318</v>
-      </c>
-      <c r="CA65" s="14">
-        <v>11.683505137119866</v>
-      </c>
-      <c r="CB65" s="14">
-        <v>10.311931086250908</v>
-      </c>
-      <c r="CC65" s="14">
-        <v>9.8917521253200107</v>
+      <c r="BZ65" s="25">
+        <v>-5.7926141636919084</v>
+      </c>
+      <c r="CA65" s="25">
+        <v>-6.8955952548536175</v>
+      </c>
+      <c r="CB65" s="25">
+        <v>-8.0390012163092734</v>
+      </c>
+      <c r="CC65" s="25">
+        <v>-8.3892813404500401</v>
       </c>
       <c r="CD65" s="25">
-        <v>22.187866705153908</v>
+        <v>50.853406590012128</v>
       </c>
       <c r="CE65" s="25">
-        <v>26.497153703801743</v>
+        <v>51.739818907397876</v>
       </c>
       <c r="CF65" s="25">
-        <v>27.281902453962672</v>
+        <v>52.681165251965012</v>
       </c>
       <c r="CG65" s="25">
-        <v>25.877938661500679</v>
-      </c>
-      <c r="CH65" s="21"/>
+        <v>52.974246762359172</v>
+      </c>
+      <c r="CH65" s="25">
+        <v>12.504514447774099</v>
+      </c>
       <c r="CI65" s="21"/>
       <c r="CJ65" s="21"/>
       <c r="CK65" s="21"/>
-      <c r="CL65" s="25"/>
+      <c r="CL65" s="21"/>
       <c r="CM65" s="8"/>
       <c r="CN65" s="8"/>
       <c r="CO65" s="8"/>
@@ -10357,7 +10417,7 @@
       <c r="EP65" s="8"/>
       <c r="EQ65" s="8"/>
     </row>
-    <row r="66" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>14</v>
       </c>
@@ -10589,35 +10649,37 @@
       <c r="BY66" s="14">
         <v>5.3729883104867326</v>
       </c>
-      <c r="BZ66" s="14">
-        <v>0.83398209186012195</v>
-      </c>
-      <c r="CA66" s="14">
-        <v>-28.571208493038341</v>
-      </c>
-      <c r="CB66" s="14">
-        <v>-23.391635720301068</v>
-      </c>
-      <c r="CC66" s="14">
-        <v>-6.2058183166108734</v>
+      <c r="BZ66" s="25">
+        <v>3.0536819182400734</v>
+      </c>
+      <c r="CA66" s="25">
+        <v>-21.699123970454167</v>
+      </c>
+      <c r="CB66" s="25">
+        <v>-23.39160285417978</v>
+      </c>
+      <c r="CC66" s="25">
+        <v>-2.3453851126452605</v>
       </c>
       <c r="CD66" s="25">
-        <v>-2.2188622256256423</v>
+        <v>0.42919795611511802</v>
       </c>
       <c r="CE66" s="25">
-        <v>18.361106622444794</v>
+        <v>11.035000732431996</v>
       </c>
       <c r="CF66" s="25">
-        <v>19.32955286788804</v>
+        <v>20.321986613301917</v>
       </c>
       <c r="CG66" s="25">
-        <v>19.281489944298059</v>
-      </c>
-      <c r="CH66" s="21"/>
+        <v>13.731194351689879</v>
+      </c>
+      <c r="CH66" s="25">
+        <v>12.855470329139209</v>
+      </c>
       <c r="CI66" s="21"/>
       <c r="CJ66" s="21"/>
       <c r="CK66" s="21"/>
-      <c r="CL66" s="25"/>
+      <c r="CL66" s="21"/>
       <c r="CM66" s="8"/>
       <c r="CN66" s="8"/>
       <c r="CO66" s="8"/>
@@ -10676,7 +10738,7 @@
       <c r="EP66" s="8"/>
       <c r="EQ66" s="8"/>
     </row>
-    <row r="67" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>15</v>
       </c>
@@ -10908,35 +10970,37 @@
       <c r="BY67" s="14">
         <v>-2.9506642152074818</v>
       </c>
-      <c r="BZ67" s="14">
-        <v>7.2154679483777784</v>
-      </c>
-      <c r="CA67" s="14">
-        <v>-11.709608709017971</v>
-      </c>
-      <c r="CB67" s="14">
-        <v>-1.9989359382730072</v>
-      </c>
-      <c r="CC67" s="14">
-        <v>0.65058822728832411</v>
+      <c r="BZ67" s="25">
+        <v>9.3682473630104539</v>
+      </c>
+      <c r="CA67" s="25">
+        <v>-11.9020195944764</v>
+      </c>
+      <c r="CB67" s="25">
+        <v>-2.5511981870204465</v>
+      </c>
+      <c r="CC67" s="25">
+        <v>-1.2359372287732953</v>
       </c>
       <c r="CD67" s="25">
-        <v>-1.097199819595005</v>
+        <v>-0.54814153481231642</v>
       </c>
       <c r="CE67" s="25">
-        <v>15.974357790708439</v>
+        <v>18.662482115913278</v>
       </c>
       <c r="CF67" s="25">
-        <v>2.9503273311936482</v>
+        <v>4.7015818528300883</v>
       </c>
       <c r="CG67" s="25">
-        <v>11.211892092268187</v>
-      </c>
-      <c r="CH67" s="21"/>
+        <v>9.9782332442981385</v>
+      </c>
+      <c r="CH67" s="25">
+        <v>13.639195526068519</v>
+      </c>
       <c r="CI67" s="21"/>
       <c r="CJ67" s="21"/>
       <c r="CK67" s="21"/>
-      <c r="CL67" s="25"/>
+      <c r="CL67" s="21"/>
       <c r="CM67" s="8"/>
       <c r="CN67" s="8"/>
       <c r="CO67" s="8"/>
@@ -10995,7 +11059,7 @@
       <c r="EP67" s="8"/>
       <c r="EQ67" s="8"/>
     </row>
-    <row r="68" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>16</v>
       </c>
@@ -11227,35 +11291,37 @@
       <c r="BY68" s="14">
         <v>10.182294717992349</v>
       </c>
-      <c r="BZ68" s="14">
+      <c r="BZ68" s="25">
         <v>1.3946794900810318</v>
       </c>
-      <c r="CA68" s="14">
-        <v>-24.610012920217798</v>
-      </c>
-      <c r="CB68" s="14">
+      <c r="CA68" s="25">
+        <v>-29.684177412134744</v>
+      </c>
+      <c r="CB68" s="25">
         <v>-11.337878608242761</v>
       </c>
-      <c r="CC68" s="14">
+      <c r="CC68" s="25">
         <v>-8.7939240388756161</v>
       </c>
       <c r="CD68" s="25">
-        <v>-1.4843413301903041</v>
+        <v>1.5451961282967517</v>
       </c>
       <c r="CE68" s="25">
-        <v>23.53809151770551</v>
+        <v>34.314311380245357</v>
       </c>
       <c r="CF68" s="25">
-        <v>29.643013725294054</v>
+        <v>15.8694441568461</v>
       </c>
       <c r="CG68" s="25">
-        <v>36.01674927581476</v>
-      </c>
-      <c r="CH68" s="21"/>
+        <v>27.657929062712356</v>
+      </c>
+      <c r="CH68" s="25">
+        <v>24.032834545561059</v>
+      </c>
       <c r="CI68" s="21"/>
       <c r="CJ68" s="21"/>
       <c r="CK68" s="21"/>
-      <c r="CL68" s="25"/>
+      <c r="CL68" s="21"/>
       <c r="CM68" s="8"/>
       <c r="CN68" s="8"/>
       <c r="CO68" s="8"/>
@@ -11314,7 +11380,7 @@
       <c r="EP68" s="8"/>
       <c r="EQ68" s="8"/>
     </row>
-    <row r="69" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>17</v>
       </c>
@@ -11546,35 +11612,37 @@
       <c r="BY69" s="14">
         <v>-5.7034010331459939</v>
       </c>
-      <c r="BZ69" s="14">
-        <v>-40.045172682766328</v>
-      </c>
-      <c r="CA69" s="14">
-        <v>-44.765753028124855</v>
-      </c>
-      <c r="CB69" s="14">
-        <v>-13.35084447372887</v>
-      </c>
-      <c r="CC69" s="14">
-        <v>-27.881745358252047</v>
+      <c r="BZ69" s="25">
+        <v>-43.78665329925839</v>
+      </c>
+      <c r="CA69" s="25">
+        <v>-44.801040780888059</v>
+      </c>
+      <c r="CB69" s="25">
+        <v>-13.882692523740118</v>
+      </c>
+      <c r="CC69" s="25">
+        <v>-44.138046870453621</v>
       </c>
       <c r="CD69" s="25">
-        <v>-14.631243452758767</v>
+        <v>-5.8239284908925839</v>
       </c>
       <c r="CE69" s="25">
-        <v>9.0957474887140677</v>
+        <v>17.592741900533497</v>
       </c>
       <c r="CF69" s="25">
-        <v>29.808110592205395</v>
+        <v>36.520875145302341</v>
       </c>
       <c r="CG69" s="25">
-        <v>99.495133804001028</v>
-      </c>
-      <c r="CH69" s="21"/>
+        <v>106.31896124798618</v>
+      </c>
+      <c r="CH69" s="25">
+        <v>25.230258618685284</v>
+      </c>
       <c r="CI69" s="21"/>
       <c r="CJ69" s="21"/>
       <c r="CK69" s="21"/>
-      <c r="CL69" s="25"/>
+      <c r="CL69" s="21"/>
       <c r="CM69" s="8"/>
       <c r="CN69" s="8"/>
       <c r="CO69" s="8"/>
@@ -11633,7 +11701,7 @@
       <c r="EP69" s="8"/>
       <c r="EQ69" s="8"/>
     </row>
-    <row r="70" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -11710,10 +11778,10 @@
       <c r="BW70" s="8"/>
       <c r="BX70" s="8"/>
       <c r="BY70" s="8"/>
-      <c r="BZ70" s="8"/>
-      <c r="CA70" s="8"/>
-      <c r="CB70" s="8"/>
-      <c r="CC70" s="8"/>
+      <c r="BZ70" s="21"/>
+      <c r="CA70" s="21"/>
+      <c r="CB70" s="21"/>
+      <c r="CC70" s="21"/>
       <c r="CD70" s="21"/>
       <c r="CE70" s="21"/>
       <c r="CF70" s="21"/>
@@ -11781,7 +11849,7 @@
       <c r="EP70" s="8"/>
       <c r="EQ70" s="8"/>
     </row>
-    <row r="71" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>18</v>
       </c>
@@ -12013,35 +12081,37 @@
       <c r="BY71" s="14">
         <v>4.0144618130177179</v>
       </c>
-      <c r="BZ71" s="14">
-        <v>-4.3255492558132431</v>
-      </c>
-      <c r="CA71" s="14">
-        <v>-36.451741628182766</v>
-      </c>
-      <c r="CB71" s="14">
-        <v>-33.920447739826514</v>
-      </c>
-      <c r="CC71" s="14">
-        <v>-23.07518236928621</v>
+      <c r="BZ71" s="25">
+        <v>-2.7833766922042429</v>
+      </c>
+      <c r="CA71" s="25">
+        <v>-35.905026071271834</v>
+      </c>
+      <c r="CB71" s="25">
+        <v>-34.420118031495633</v>
+      </c>
+      <c r="CC71" s="25">
+        <v>-24.198174383980088</v>
       </c>
       <c r="CD71" s="25">
-        <v>-19.148842670633897</v>
+        <v>-18.02119947565194</v>
       </c>
       <c r="CE71" s="25">
-        <v>22.503635075260235</v>
+        <v>24.396984937436244</v>
       </c>
       <c r="CF71" s="25">
-        <v>12.528202718230474</v>
+        <v>12.640590660685419</v>
       </c>
       <c r="CG71" s="25">
-        <v>17.969308960979589</v>
-      </c>
-      <c r="CH71" s="21"/>
+        <v>16.116079561370469</v>
+      </c>
+      <c r="CH71" s="25">
+        <v>20.955771743914298</v>
+      </c>
       <c r="CI71" s="21"/>
       <c r="CJ71" s="21"/>
       <c r="CK71" s="21"/>
-      <c r="CL71" s="25"/>
+      <c r="CL71" s="21"/>
       <c r="CM71" s="8"/>
       <c r="CN71" s="8"/>
       <c r="CO71" s="8"/>
@@ -12100,7 +12170,7 @@
       <c r="EP71" s="8"/>
       <c r="EQ71" s="8"/>
     </row>
-    <row r="72" spans="1:147" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:147" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -12178,10 +12248,10 @@
       <c r="BW72" s="11"/>
       <c r="BX72" s="11"/>
       <c r="BY72" s="11"/>
-      <c r="BZ72" s="11"/>
-      <c r="CA72" s="11"/>
-      <c r="CB72" s="11"/>
-      <c r="CC72" s="11"/>
+      <c r="BZ72" s="23"/>
+      <c r="CA72" s="23"/>
+      <c r="CB72" s="23"/>
+      <c r="CC72" s="23"/>
       <c r="CD72" s="23"/>
       <c r="CE72" s="23"/>
       <c r="CF72" s="23"/>
@@ -12192,12 +12262,12 @@
       <c r="CK72" s="23"/>
       <c r="CL72" s="23"/>
     </row>
-    <row r="73" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -12274,10 +12344,10 @@
       <c r="BW74" s="8"/>
       <c r="BX74" s="8"/>
       <c r="BY74" s="8"/>
-      <c r="BZ74" s="8"/>
-      <c r="CA74" s="8"/>
-      <c r="CB74" s="8"/>
-      <c r="CC74" s="8"/>
+      <c r="BZ74" s="21"/>
+      <c r="CA74" s="21"/>
+      <c r="CB74" s="21"/>
+      <c r="CC74" s="21"/>
       <c r="CD74" s="21"/>
       <c r="CE74" s="21"/>
       <c r="CF74" s="21"/>
@@ -12345,7 +12415,7 @@
       <c r="EP74" s="8"/>
       <c r="EQ74" s="8"/>
     </row>
-    <row r="75" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -12422,10 +12492,10 @@
       <c r="BW75" s="8"/>
       <c r="BX75" s="8"/>
       <c r="BY75" s="8"/>
-      <c r="BZ75" s="8"/>
-      <c r="CA75" s="8"/>
-      <c r="CB75" s="8"/>
-      <c r="CC75" s="8"/>
+      <c r="BZ75" s="21"/>
+      <c r="CA75" s="21"/>
+      <c r="CB75" s="21"/>
+      <c r="CC75" s="21"/>
       <c r="CD75" s="21"/>
       <c r="CE75" s="21"/>
       <c r="CF75" s="21"/>
@@ -12493,171 +12563,173 @@
       <c r="EP75" s="8"/>
       <c r="EQ75" s="8"/>
     </row>
-    <row r="76" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="82" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
-      <c r="B84" s="31" t="s">
+      <c r="B84" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31" t="s">
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="31"/>
-      <c r="J84" s="31" t="s">
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K84" s="31"/>
-      <c r="L84" s="31"/>
-      <c r="M84" s="31"/>
-      <c r="N84" s="31" t="s">
+      <c r="K84" s="29"/>
+      <c r="L84" s="29"/>
+      <c r="M84" s="29"/>
+      <c r="N84" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="O84" s="31"/>
-      <c r="P84" s="31"/>
-      <c r="Q84" s="31"/>
-      <c r="R84" s="31" t="s">
+      <c r="O84" s="29"/>
+      <c r="P84" s="29"/>
+      <c r="Q84" s="29"/>
+      <c r="R84" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="S84" s="31"/>
-      <c r="T84" s="31"/>
-      <c r="U84" s="31"/>
-      <c r="V84" s="31" t="s">
+      <c r="S84" s="29"/>
+      <c r="T84" s="29"/>
+      <c r="U84" s="29"/>
+      <c r="V84" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="W84" s="31"/>
-      <c r="X84" s="31"/>
-      <c r="Y84" s="31"/>
-      <c r="Z84" s="31" t="s">
+      <c r="W84" s="29"/>
+      <c r="X84" s="29"/>
+      <c r="Y84" s="29"/>
+      <c r="Z84" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AA84" s="31"/>
-      <c r="AB84" s="31"/>
-      <c r="AC84" s="31"/>
-      <c r="AD84" s="31" t="s">
+      <c r="AA84" s="29"/>
+      <c r="AB84" s="29"/>
+      <c r="AC84" s="29"/>
+      <c r="AD84" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AE84" s="31"/>
-      <c r="AF84" s="31"/>
-      <c r="AG84" s="31"/>
-      <c r="AH84" s="31" t="s">
+      <c r="AE84" s="29"/>
+      <c r="AF84" s="29"/>
+      <c r="AG84" s="29"/>
+      <c r="AH84" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AI84" s="31"/>
-      <c r="AJ84" s="31"/>
-      <c r="AK84" s="31"/>
-      <c r="AL84" s="31" t="s">
+      <c r="AI84" s="29"/>
+      <c r="AJ84" s="29"/>
+      <c r="AK84" s="29"/>
+      <c r="AL84" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AM84" s="31"/>
-      <c r="AN84" s="31"/>
-      <c r="AO84" s="31"/>
-      <c r="AP84" s="31" t="s">
+      <c r="AM84" s="29"/>
+      <c r="AN84" s="29"/>
+      <c r="AO84" s="29"/>
+      <c r="AP84" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="AQ84" s="31"/>
-      <c r="AR84" s="31"/>
-      <c r="AS84" s="31"/>
-      <c r="AT84" s="31" t="s">
+      <c r="AQ84" s="29"/>
+      <c r="AR84" s="29"/>
+      <c r="AS84" s="29"/>
+      <c r="AT84" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="AU84" s="31"/>
-      <c r="AV84" s="31"/>
-      <c r="AW84" s="31"/>
-      <c r="AX84" s="31" t="s">
+      <c r="AU84" s="29"/>
+      <c r="AV84" s="29"/>
+      <c r="AW84" s="29"/>
+      <c r="AX84" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="AY84" s="31"/>
-      <c r="AZ84" s="31"/>
-      <c r="BA84" s="31"/>
-      <c r="BB84" s="31" t="s">
+      <c r="AY84" s="29"/>
+      <c r="AZ84" s="29"/>
+      <c r="BA84" s="29"/>
+      <c r="BB84" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="BC84" s="31"/>
-      <c r="BD84" s="31"/>
-      <c r="BE84" s="31"/>
-      <c r="BF84" s="31" t="s">
+      <c r="BC84" s="29"/>
+      <c r="BD84" s="29"/>
+      <c r="BE84" s="29"/>
+      <c r="BF84" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="BG84" s="31"/>
-      <c r="BH84" s="31"/>
-      <c r="BI84" s="31"/>
-      <c r="BJ84" s="31" t="s">
+      <c r="BG84" s="29"/>
+      <c r="BH84" s="29"/>
+      <c r="BI84" s="29"/>
+      <c r="BJ84" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="BK84" s="31"/>
-      <c r="BL84" s="31"/>
-      <c r="BM84" s="31"/>
-      <c r="BN84" s="31" t="s">
+      <c r="BK84" s="29"/>
+      <c r="BL84" s="29"/>
+      <c r="BM84" s="29"/>
+      <c r="BN84" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="BO84" s="31"/>
-      <c r="BP84" s="31"/>
-      <c r="BQ84" s="31"/>
-      <c r="BR84" s="31" t="s">
+      <c r="BO84" s="29"/>
+      <c r="BP84" s="29"/>
+      <c r="BQ84" s="29"/>
+      <c r="BR84" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="BS84" s="31"/>
-      <c r="BT84" s="31"/>
-      <c r="BU84" s="31"/>
-      <c r="BV84" s="31" t="s">
+      <c r="BS84" s="29"/>
+      <c r="BT84" s="29"/>
+      <c r="BU84" s="29"/>
+      <c r="BV84" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="BW84" s="31"/>
-      <c r="BX84" s="31"/>
-      <c r="BY84" s="31"/>
-      <c r="BZ84" s="31" t="s">
+      <c r="BW84" s="29"/>
+      <c r="BX84" s="29"/>
+      <c r="BY84" s="29"/>
+      <c r="BZ84" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="CA84" s="31"/>
-      <c r="CB84" s="31"/>
-      <c r="CC84" s="31"/>
-      <c r="CD84" s="30" t="s">
+      <c r="CA84" s="28"/>
+      <c r="CB84" s="28"/>
+      <c r="CC84" s="28"/>
+      <c r="CD84" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="CE84" s="30"/>
-      <c r="CF84" s="30"/>
-      <c r="CG84" s="30"/>
-      <c r="CH84" s="27"/>
+      <c r="CE84" s="28"/>
+      <c r="CF84" s="28"/>
+      <c r="CG84" s="28"/>
+      <c r="CH84" s="27" t="s">
+        <v>52</v>
+      </c>
       <c r="CI84" s="27"/>
       <c r="CJ84" s="27"/>
       <c r="CK84" s="27"/>
-      <c r="CL84" s="28"/>
+      <c r="CL84" s="27"/>
     </row>
-    <row r="85" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="5" t="s">
         <v>7</v>
@@ -12887,16 +12959,16 @@
       <c r="BY85" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="BZ85" s="5" t="s">
+      <c r="BZ85" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CA85" s="5" t="s">
+      <c r="CA85" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CB85" s="5" t="s">
+      <c r="CB85" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="CC85" s="5" t="s">
+      <c r="CC85" s="19" t="s">
         <v>10</v>
       </c>
       <c r="CD85" s="19" t="s">
@@ -12911,16 +12983,18 @@
       <c r="CG85" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CH85" s="19"/>
+      <c r="CH85" s="19" t="s">
+        <v>7</v>
+      </c>
       <c r="CI85" s="19"/>
       <c r="CJ85" s="19"/>
       <c r="CK85" s="19"/>
       <c r="CL85" s="19"/>
     </row>
-    <row r="86" spans="1:147" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:147" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
     </row>
-    <row r="87" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>1</v>
       </c>
@@ -13152,35 +13226,37 @@
       <c r="BY87" s="14">
         <v>9.0002286852684392</v>
       </c>
-      <c r="BZ87" s="14">
-        <v>-21.616121091741945</v>
-      </c>
-      <c r="CA87" s="14">
-        <v>-66.798399712460792</v>
-      </c>
-      <c r="CB87" s="14">
-        <v>-53.772525074084356</v>
-      </c>
-      <c r="CC87" s="14">
-        <v>-51.646219989607751</v>
+      <c r="BZ87" s="25">
+        <v>-15.659028666591567</v>
+      </c>
+      <c r="CA87" s="25">
+        <v>-64.613379528152677</v>
+      </c>
+      <c r="CB87" s="25">
+        <v>-56.103567917944716</v>
+      </c>
+      <c r="CC87" s="25">
+        <v>-55.055005863426594</v>
       </c>
       <c r="CD87" s="25">
-        <v>-42.79182226836614</v>
+        <v>-44.97224578356915</v>
       </c>
       <c r="CE87" s="25">
-        <v>11.58468302099979</v>
+        <v>18.928829640807535</v>
       </c>
       <c r="CF87" s="25">
-        <v>20.069570002741784</v>
+        <v>24.21544225005799</v>
       </c>
       <c r="CG87" s="25">
-        <v>12.887362378713149</v>
-      </c>
-      <c r="CH87" s="21"/>
+        <v>26.855949541103826</v>
+      </c>
+      <c r="CH87" s="25">
+        <v>86.11440176957197</v>
+      </c>
       <c r="CI87" s="21"/>
       <c r="CJ87" s="21"/>
       <c r="CK87" s="21"/>
-      <c r="CL87" s="25"/>
+      <c r="CL87" s="21"/>
       <c r="CM87" s="8"/>
       <c r="CN87" s="8"/>
       <c r="CO87" s="8"/>
@@ -13239,7 +13315,7 @@
       <c r="EP87" s="8"/>
       <c r="EQ87" s="8"/>
     </row>
-    <row r="88" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>11</v>
       </c>
@@ -13471,35 +13547,37 @@
       <c r="BY88" s="14">
         <v>3.1123984380203638</v>
       </c>
-      <c r="BZ88" s="14">
-        <v>-12.276648044995923</v>
-      </c>
-      <c r="CA88" s="14">
-        <v>-36.024666654755777</v>
-      </c>
-      <c r="CB88" s="14">
-        <v>-14.38563164475066</v>
-      </c>
-      <c r="CC88" s="14">
-        <v>-5.43129066606744</v>
+      <c r="BZ88" s="25">
+        <v>-7.6042528478206179</v>
+      </c>
+      <c r="CA88" s="25">
+        <v>-30.336679309756079</v>
+      </c>
+      <c r="CB88" s="25">
+        <v>-15.814724772721348</v>
+      </c>
+      <c r="CC88" s="25">
+        <v>-7.9934802655810699</v>
       </c>
       <c r="CD88" s="25">
-        <v>5.3558031503663273</v>
+        <v>0.32004785351811904</v>
       </c>
       <c r="CE88" s="25">
-        <v>37.783564046787944</v>
+        <v>21.906633713333633</v>
       </c>
       <c r="CF88" s="25">
-        <v>11.542785991616029</v>
+        <v>10.164748751377402</v>
       </c>
       <c r="CG88" s="25">
-        <v>4.1501372250910151</v>
-      </c>
-      <c r="CH88" s="21"/>
+        <v>4.649635258676625</v>
+      </c>
+      <c r="CH88" s="25">
+        <v>8.0077836871798667</v>
+      </c>
       <c r="CI88" s="21"/>
       <c r="CJ88" s="21"/>
       <c r="CK88" s="21"/>
-      <c r="CL88" s="25"/>
+      <c r="CL88" s="21"/>
       <c r="CM88" s="8"/>
       <c r="CN88" s="8"/>
       <c r="CO88" s="8"/>
@@ -13558,7 +13636,7 @@
       <c r="EP88" s="8"/>
       <c r="EQ88" s="8"/>
     </row>
-    <row r="89" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>12</v>
       </c>
@@ -13790,35 +13868,37 @@
       <c r="BY89" s="14">
         <v>20.270231493505463</v>
       </c>
-      <c r="BZ89" s="14">
+      <c r="BZ89" s="25">
         <v>-29.664174054177465</v>
       </c>
-      <c r="CA89" s="14">
+      <c r="CA89" s="25">
         <v>-96.475627195581239</v>
       </c>
-      <c r="CB89" s="14">
+      <c r="CB89" s="25">
         <v>-91.629472356869755</v>
       </c>
-      <c r="CC89" s="14">
+      <c r="CC89" s="25">
         <v>-92.20456162390613</v>
       </c>
       <c r="CD89" s="25">
-        <v>-98.012450822503823</v>
+        <v>-98.455022861660069</v>
       </c>
       <c r="CE89" s="25">
-        <v>425.49442228717726</v>
+        <v>426.96725638932742</v>
       </c>
       <c r="CF89" s="25">
-        <v>58.098844822999723</v>
+        <v>58.098844332249826</v>
       </c>
       <c r="CG89" s="25">
-        <v>63.396320596770266</v>
-      </c>
-      <c r="CH89" s="21"/>
+        <v>53.97875576599327</v>
+      </c>
+      <c r="CH89" s="25">
+        <v>825.57868045080716</v>
+      </c>
       <c r="CI89" s="21"/>
       <c r="CJ89" s="21"/>
       <c r="CK89" s="21"/>
-      <c r="CL89" s="25"/>
+      <c r="CL89" s="21"/>
       <c r="CM89" s="8"/>
       <c r="CN89" s="8"/>
       <c r="CO89" s="8"/>
@@ -13877,7 +13957,7 @@
       <c r="EP89" s="8"/>
       <c r="EQ89" s="8"/>
     </row>
-    <row r="90" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>13</v>
       </c>
@@ -14109,35 +14189,37 @@
       <c r="BY90" s="14">
         <v>4.8373140702502724</v>
       </c>
-      <c r="BZ90" s="14">
-        <v>11.691655274944935</v>
-      </c>
-      <c r="CA90" s="14">
-        <v>11.119190715897403</v>
-      </c>
-      <c r="CB90" s="14">
-        <v>7.9830946915101322</v>
-      </c>
-      <c r="CC90" s="14">
-        <v>7.735645971277691</v>
+      <c r="BZ90" s="25">
+        <v>-6.8888009325420114</v>
+      </c>
+      <c r="CA90" s="25">
+        <v>-7.366033196539945</v>
+      </c>
+      <c r="CB90" s="25">
+        <v>-9.980424222463725</v>
+      </c>
+      <c r="CC90" s="25">
+        <v>-10.186708631015392</v>
       </c>
       <c r="CD90" s="25">
-        <v>19.415432972063144</v>
+        <v>47.430553859544034</v>
       </c>
       <c r="CE90" s="25">
-        <v>23.450076959127998</v>
+        <v>48.084694188019824</v>
       </c>
       <c r="CF90" s="25">
-        <v>24.650561830353851</v>
+        <v>49.524737316479559</v>
       </c>
       <c r="CG90" s="25">
-        <v>22.020216695320997</v>
-      </c>
-      <c r="CH90" s="21"/>
+        <v>48.28611698942197</v>
+      </c>
+      <c r="CH90" s="25">
+        <v>8.5361586365173991</v>
+      </c>
       <c r="CI90" s="21"/>
       <c r="CJ90" s="21"/>
       <c r="CK90" s="21"/>
-      <c r="CL90" s="25"/>
+      <c r="CL90" s="21"/>
       <c r="CM90" s="8"/>
       <c r="CN90" s="8"/>
       <c r="CO90" s="8"/>
@@ -14196,7 +14278,7 @@
       <c r="EP90" s="8"/>
       <c r="EQ90" s="8"/>
     </row>
-    <row r="91" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>14</v>
       </c>
@@ -14428,35 +14510,37 @@
       <c r="BY91" s="14">
         <v>4.9833291072370685</v>
       </c>
-      <c r="BZ91" s="14">
-        <v>0.40447954690787924</v>
-      </c>
-      <c r="CA91" s="14">
-        <v>-28.805247783690248</v>
-      </c>
-      <c r="CB91" s="14">
-        <v>-23.642399596830387</v>
-      </c>
-      <c r="CC91" s="14">
-        <v>-6.4820146755987764</v>
+      <c r="BZ91" s="25">
+        <v>2.6147245575135969</v>
+      </c>
+      <c r="CA91" s="25">
+        <v>-21.955679920747585</v>
+      </c>
+      <c r="CB91" s="25">
+        <v>-23.642366838290513</v>
+      </c>
+      <c r="CC91" s="25">
+        <v>-2.6329493153086929</v>
       </c>
       <c r="CD91" s="25">
-        <v>-2.4426281836514363</v>
+        <v>0.19937207961255865</v>
       </c>
       <c r="CE91" s="25">
-        <v>18.05164048174106</v>
+        <v>10.744689378134581</v>
       </c>
       <c r="CF91" s="25">
-        <v>19.017860240333292</v>
+        <v>20.00770171690553</v>
       </c>
       <c r="CG91" s="25">
-        <v>19.008980012963207</v>
-      </c>
-      <c r="CH91" s="21"/>
+        <v>13.471364599580937</v>
+      </c>
+      <c r="CH91" s="25">
+        <v>12.117358226521844</v>
+      </c>
       <c r="CI91" s="21"/>
       <c r="CJ91" s="21"/>
       <c r="CK91" s="21"/>
-      <c r="CL91" s="25"/>
+      <c r="CL91" s="21"/>
       <c r="CM91" s="8"/>
       <c r="CN91" s="8"/>
       <c r="CO91" s="8"/>
@@ -14515,7 +14599,7 @@
       <c r="EP91" s="8"/>
       <c r="EQ91" s="8"/>
     </row>
-    <row r="92" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>15</v>
       </c>
@@ -14747,35 +14831,37 @@
       <c r="BY92" s="14">
         <v>-3.9701652500501581</v>
       </c>
-      <c r="BZ92" s="14">
-        <v>4.9517668866333509</v>
-      </c>
-      <c r="CA92" s="14">
-        <v>-12.579065113397917</v>
-      </c>
-      <c r="CB92" s="14">
-        <v>-4.1245940207753478</v>
-      </c>
-      <c r="CC92" s="14">
-        <v>-1.5803080914567005</v>
+      <c r="BZ92" s="25">
+        <v>7.0590934469357762</v>
+      </c>
+      <c r="CA92" s="25">
+        <v>-12.769581196101612</v>
+      </c>
+      <c r="CB92" s="25">
+        <v>-4.6648776168015189</v>
+      </c>
+      <c r="CC92" s="25">
+        <v>-3.4250191600490183</v>
       </c>
       <c r="CD92" s="25">
-        <v>-3.7674781839240552</v>
+        <v>-3.2332439330002529</v>
       </c>
       <c r="CE92" s="25">
-        <v>11.795341415740495</v>
+        <v>14.386601953234162</v>
       </c>
       <c r="CF92" s="25">
-        <v>-0.34861456315931605</v>
+        <v>1.3465227312776875</v>
       </c>
       <c r="CG92" s="25">
-        <v>7.073476191524918</v>
-      </c>
-      <c r="CH92" s="21"/>
+        <v>5.8857242452043437</v>
+      </c>
+      <c r="CH92" s="25">
+        <v>8.9565213844802827</v>
+      </c>
       <c r="CI92" s="21"/>
       <c r="CJ92" s="21"/>
       <c r="CK92" s="21"/>
-      <c r="CL92" s="25"/>
+      <c r="CL92" s="21"/>
       <c r="CM92" s="8"/>
       <c r="CN92" s="8"/>
       <c r="CO92" s="8"/>
@@ -14834,7 +14920,7 @@
       <c r="EP92" s="8"/>
       <c r="EQ92" s="8"/>
     </row>
-    <row r="93" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>16</v>
       </c>
@@ -15066,35 +15152,37 @@
       <c r="BY93" s="14">
         <v>8.6282303500666728</v>
       </c>
-      <c r="BZ93" s="14">
+      <c r="BZ93" s="25">
         <v>-0.74612395935636755</v>
       </c>
-      <c r="CA93" s="14">
-        <v>-25.352430142909768</v>
-      </c>
-      <c r="CB93" s="14">
+      <c r="CA93" s="25">
+        <v>-30.376625835845687</v>
+      </c>
+      <c r="CB93" s="25">
         <v>-13.260973594532743</v>
       </c>
-      <c r="CC93" s="14">
+      <c r="CC93" s="25">
         <v>-10.815484992393081</v>
       </c>
       <c r="CD93" s="25">
-        <v>-4.1441672543680994</v>
+        <v>-1.1964243286401484</v>
       </c>
       <c r="CE93" s="25">
-        <v>19.086523798602855</v>
+        <v>29.474433692252177</v>
       </c>
       <c r="CF93" s="25">
-        <v>25.488730971897098</v>
+        <v>12.156521881478156</v>
       </c>
       <c r="CG93" s="25">
-        <v>30.95529525879806</v>
-      </c>
-      <c r="CH93" s="21"/>
+        <v>22.907523386215374</v>
+      </c>
+      <c r="CH93" s="25">
+        <v>18.921874859990638</v>
+      </c>
       <c r="CI93" s="21"/>
       <c r="CJ93" s="21"/>
       <c r="CK93" s="21"/>
-      <c r="CL93" s="25"/>
+      <c r="CL93" s="21"/>
       <c r="CM93" s="8"/>
       <c r="CN93" s="8"/>
       <c r="CO93" s="8"/>
@@ -15153,7 +15241,7 @@
       <c r="EP93" s="8"/>
       <c r="EQ93" s="8"/>
     </row>
-    <row r="94" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>17</v>
       </c>
@@ -15385,35 +15473,37 @@
       <c r="BY94" s="14">
         <v>-7.1310826353434322</v>
       </c>
-      <c r="BZ94" s="14">
-        <v>-41.311032999862299</v>
-      </c>
-      <c r="CA94" s="14">
-        <v>-45.417596375354151</v>
-      </c>
-      <c r="CB94" s="14">
-        <v>-15.23027792223111</v>
-      </c>
-      <c r="CC94" s="14">
-        <v>-29.480229297871702</v>
+      <c r="BZ94" s="25">
+        <v>-44.973517611336419</v>
+      </c>
+      <c r="CA94" s="25">
+        <v>-45.45246768201482</v>
+      </c>
+      <c r="CB94" s="25">
+        <v>-15.750590106616869</v>
+      </c>
+      <c r="CC94" s="25">
+        <v>-45.376213758392623</v>
       </c>
       <c r="CD94" s="25">
-        <v>-16.936115945569526</v>
+        <v>-8.3665898283832121</v>
       </c>
       <c r="CE94" s="25">
-        <v>5.1645947418503368</v>
+        <v>13.355408723258691</v>
       </c>
       <c r="CF94" s="25">
-        <v>25.6485374722307</v>
+        <v>32.146198093312904</v>
       </c>
       <c r="CG94" s="25">
-        <v>92.071522728573825</v>
-      </c>
-      <c r="CH94" s="21"/>
+        <v>98.641421968777649</v>
+      </c>
+      <c r="CH94" s="25">
+        <v>20.069957271395268</v>
+      </c>
       <c r="CI94" s="21"/>
       <c r="CJ94" s="21"/>
       <c r="CK94" s="21"/>
-      <c r="CL94" s="25"/>
+      <c r="CL94" s="21"/>
       <c r="CM94" s="8"/>
       <c r="CN94" s="8"/>
       <c r="CO94" s="8"/>
@@ -15472,7 +15562,7 @@
       <c r="EP94" s="8"/>
       <c r="EQ94" s="8"/>
     </row>
-    <row r="95" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
@@ -15549,10 +15639,10 @@
       <c r="BW95" s="8"/>
       <c r="BX95" s="8"/>
       <c r="BY95" s="8"/>
-      <c r="BZ95" s="8"/>
-      <c r="CA95" s="8"/>
-      <c r="CB95" s="8"/>
-      <c r="CC95" s="8"/>
+      <c r="BZ95" s="21"/>
+      <c r="CA95" s="21"/>
+      <c r="CB95" s="21"/>
+      <c r="CC95" s="21"/>
       <c r="CD95" s="21"/>
       <c r="CE95" s="21"/>
       <c r="CF95" s="21"/>
@@ -15620,7 +15710,7 @@
       <c r="EP95" s="8"/>
       <c r="EQ95" s="8"/>
     </row>
-    <row r="96" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>18</v>
       </c>
@@ -15852,35 +15942,37 @@
       <c r="BY96" s="14">
         <v>3.1752568481387726</v>
       </c>
-      <c r="BZ96" s="14">
-        <v>-6.1701390935598255</v>
-      </c>
-      <c r="CA96" s="14">
-        <v>-36.577066425636659</v>
-      </c>
-      <c r="CB96" s="14">
-        <v>-35.380133880639107</v>
-      </c>
-      <c r="CC96" s="14">
-        <v>-24.945051484796139</v>
+      <c r="BZ96" s="25">
+        <v>-4.6577965060041038</v>
+      </c>
+      <c r="CA96" s="25">
+        <v>-36.012947345075915</v>
+      </c>
+      <c r="CB96" s="25">
+        <v>-35.868393527330085</v>
+      </c>
+      <c r="CC96" s="25">
+        <v>-25.992189657699853</v>
       </c>
       <c r="CD96" s="25">
-        <v>-21.136427027441044</v>
+        <v>-20.014587828916333</v>
       </c>
       <c r="CE96" s="25">
-        <v>18.374077681358926</v>
+        <v>20.165896590032872</v>
       </c>
       <c r="CF96" s="25">
-        <v>9.2468496379348011</v>
+        <v>9.3729439946551594</v>
       </c>
       <c r="CG96" s="25">
-        <v>14.08115651453241</v>
-      </c>
-      <c r="CH96" s="21"/>
+        <v>12.197422253030467</v>
+      </c>
+      <c r="CH96" s="25">
+        <v>16.238498381141241</v>
+      </c>
       <c r="CI96" s="21"/>
       <c r="CJ96" s="21"/>
       <c r="CK96" s="21"/>
-      <c r="CL96" s="25"/>
+      <c r="CL96" s="21"/>
       <c r="CM96" s="8"/>
       <c r="CN96" s="8"/>
       <c r="CO96" s="8"/>
@@ -15939,7 +16031,7 @@
       <c r="EP96" s="8"/>
       <c r="EQ96" s="8"/>
     </row>
-    <row r="97" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -16017,10 +16109,10 @@
       <c r="BW97" s="11"/>
       <c r="BX97" s="11"/>
       <c r="BY97" s="11"/>
-      <c r="BZ97" s="11"/>
-      <c r="CA97" s="11"/>
-      <c r="CB97" s="11"/>
-      <c r="CC97" s="11"/>
+      <c r="BZ97" s="23"/>
+      <c r="CA97" s="23"/>
+      <c r="CB97" s="23"/>
+      <c r="CC97" s="23"/>
       <c r="CD97" s="23"/>
       <c r="CE97" s="23"/>
       <c r="CF97" s="23"/>
@@ -16031,12 +16123,12 @@
       <c r="CK97" s="23"/>
       <c r="CL97" s="23"/>
     </row>
-    <row r="98" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
@@ -16113,10 +16205,10 @@
       <c r="BW99" s="8"/>
       <c r="BX99" s="8"/>
       <c r="BY99" s="8"/>
-      <c r="BZ99" s="8"/>
-      <c r="CA99" s="8"/>
-      <c r="CB99" s="8"/>
-      <c r="CC99" s="8"/>
+      <c r="BZ99" s="21"/>
+      <c r="CA99" s="21"/>
+      <c r="CB99" s="21"/>
+      <c r="CC99" s="21"/>
       <c r="CD99" s="21"/>
       <c r="CE99" s="21"/>
       <c r="CF99" s="21"/>
@@ -16184,7 +16276,7 @@
       <c r="EP99" s="8"/>
       <c r="EQ99" s="8"/>
     </row>
-    <row r="100" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
@@ -16261,10 +16353,10 @@
       <c r="BW100" s="8"/>
       <c r="BX100" s="8"/>
       <c r="BY100" s="8"/>
-      <c r="BZ100" s="8"/>
-      <c r="CA100" s="8"/>
-      <c r="CB100" s="8"/>
-      <c r="CC100" s="8"/>
+      <c r="BZ100" s="21"/>
+      <c r="CA100" s="21"/>
+      <c r="CB100" s="21"/>
+      <c r="CC100" s="21"/>
       <c r="CD100" s="21"/>
       <c r="CE100" s="21"/>
       <c r="CF100" s="21"/>
@@ -16332,168 +16424,170 @@
       <c r="EP100" s="8"/>
       <c r="EQ100" s="8"/>
     </row>
-    <row r="101" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="106" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
-      <c r="B108" s="32">
+      <c r="B108" s="31">
         <v>2000</v>
       </c>
-      <c r="C108" s="32"/>
-      <c r="D108" s="32"/>
-      <c r="E108" s="32"/>
-      <c r="F108" s="32">
+      <c r="C108" s="31"/>
+      <c r="D108" s="31"/>
+      <c r="E108" s="31"/>
+      <c r="F108" s="31">
         <v>2001</v>
       </c>
-      <c r="G108" s="32"/>
-      <c r="H108" s="32"/>
-      <c r="I108" s="32"/>
-      <c r="J108" s="32">
+      <c r="G108" s="31"/>
+      <c r="H108" s="31"/>
+      <c r="I108" s="31"/>
+      <c r="J108" s="31">
         <v>2002</v>
       </c>
-      <c r="K108" s="32"/>
-      <c r="L108" s="32"/>
-      <c r="M108" s="32"/>
-      <c r="N108" s="32">
+      <c r="K108" s="31"/>
+      <c r="L108" s="31"/>
+      <c r="M108" s="31"/>
+      <c r="N108" s="31">
         <v>2003</v>
       </c>
-      <c r="O108" s="32"/>
-      <c r="P108" s="32"/>
-      <c r="Q108" s="32"/>
-      <c r="R108" s="32">
+      <c r="O108" s="31"/>
+      <c r="P108" s="31"/>
+      <c r="Q108" s="31"/>
+      <c r="R108" s="31">
         <v>2004</v>
       </c>
-      <c r="S108" s="32"/>
-      <c r="T108" s="32"/>
-      <c r="U108" s="32"/>
-      <c r="V108" s="32">
+      <c r="S108" s="31"/>
+      <c r="T108" s="31"/>
+      <c r="U108" s="31"/>
+      <c r="V108" s="31">
         <v>2005</v>
       </c>
-      <c r="W108" s="32"/>
-      <c r="X108" s="32"/>
-      <c r="Y108" s="32"/>
-      <c r="Z108" s="32">
+      <c r="W108" s="31"/>
+      <c r="X108" s="31"/>
+      <c r="Y108" s="31"/>
+      <c r="Z108" s="31">
         <v>2006</v>
       </c>
-      <c r="AA108" s="32"/>
-      <c r="AB108" s="32"/>
-      <c r="AC108" s="32"/>
-      <c r="AD108" s="32">
+      <c r="AA108" s="31"/>
+      <c r="AB108" s="31"/>
+      <c r="AC108" s="31"/>
+      <c r="AD108" s="31">
         <v>2007</v>
       </c>
-      <c r="AE108" s="32"/>
-      <c r="AF108" s="32"/>
-      <c r="AG108" s="32"/>
-      <c r="AH108" s="32">
+      <c r="AE108" s="31"/>
+      <c r="AF108" s="31"/>
+      <c r="AG108" s="31"/>
+      <c r="AH108" s="31">
         <v>2008</v>
       </c>
-      <c r="AI108" s="32"/>
-      <c r="AJ108" s="32"/>
-      <c r="AK108" s="32"/>
-      <c r="AL108" s="32">
+      <c r="AI108" s="31"/>
+      <c r="AJ108" s="31"/>
+      <c r="AK108" s="31"/>
+      <c r="AL108" s="31">
         <v>2009</v>
       </c>
-      <c r="AM108" s="32"/>
-      <c r="AN108" s="32"/>
-      <c r="AO108" s="32"/>
-      <c r="AP108" s="32">
+      <c r="AM108" s="31"/>
+      <c r="AN108" s="31"/>
+      <c r="AO108" s="31"/>
+      <c r="AP108" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="32"/>
-      <c r="AR108" s="32"/>
-      <c r="AS108" s="32"/>
-      <c r="AT108" s="32">
+      <c r="AQ108" s="31"/>
+      <c r="AR108" s="31"/>
+      <c r="AS108" s="31"/>
+      <c r="AT108" s="31">
         <v>2011</v>
       </c>
-      <c r="AU108" s="32"/>
-      <c r="AV108" s="32"/>
-      <c r="AW108" s="32"/>
-      <c r="AX108" s="32">
+      <c r="AU108" s="31"/>
+      <c r="AV108" s="31"/>
+      <c r="AW108" s="31"/>
+      <c r="AX108" s="31">
         <v>2012</v>
       </c>
-      <c r="AY108" s="32"/>
-      <c r="AZ108" s="32"/>
-      <c r="BA108" s="32"/>
-      <c r="BB108" s="32">
+      <c r="AY108" s="31"/>
+      <c r="AZ108" s="31"/>
+      <c r="BA108" s="31"/>
+      <c r="BB108" s="31">
         <v>2013</v>
       </c>
-      <c r="BC108" s="32"/>
-      <c r="BD108" s="32"/>
-      <c r="BE108" s="32"/>
-      <c r="BF108" s="32">
+      <c r="BC108" s="31"/>
+      <c r="BD108" s="31"/>
+      <c r="BE108" s="31"/>
+      <c r="BF108" s="31">
         <v>2014</v>
       </c>
-      <c r="BG108" s="32"/>
-      <c r="BH108" s="32"/>
-      <c r="BI108" s="32"/>
-      <c r="BJ108" s="32">
+      <c r="BG108" s="31"/>
+      <c r="BH108" s="31"/>
+      <c r="BI108" s="31"/>
+      <c r="BJ108" s="31">
         <v>2015</v>
       </c>
-      <c r="BK108" s="32"/>
-      <c r="BL108" s="32"/>
-      <c r="BM108" s="32"/>
-      <c r="BN108" s="32">
+      <c r="BK108" s="31"/>
+      <c r="BL108" s="31"/>
+      <c r="BM108" s="31"/>
+      <c r="BN108" s="31">
         <v>2016</v>
       </c>
-      <c r="BO108" s="32"/>
-      <c r="BP108" s="32"/>
-      <c r="BQ108" s="32"/>
-      <c r="BR108" s="32">
+      <c r="BO108" s="31"/>
+      <c r="BP108" s="31"/>
+      <c r="BQ108" s="31"/>
+      <c r="BR108" s="31">
         <v>2017</v>
       </c>
-      <c r="BS108" s="32"/>
-      <c r="BT108" s="32"/>
-      <c r="BU108" s="32"/>
-      <c r="BV108" s="32">
+      <c r="BS108" s="31"/>
+      <c r="BT108" s="31"/>
+      <c r="BU108" s="31"/>
+      <c r="BV108" s="31">
         <v>2018</v>
       </c>
-      <c r="BW108" s="32"/>
-      <c r="BX108" s="32"/>
-      <c r="BY108" s="32"/>
-      <c r="BZ108" s="32">
+      <c r="BW108" s="31"/>
+      <c r="BX108" s="31"/>
+      <c r="BY108" s="31"/>
+      <c r="BZ108" s="30">
         <v>2019</v>
       </c>
-      <c r="CA108" s="32"/>
-      <c r="CB108" s="32"/>
-      <c r="CC108" s="32"/>
-      <c r="CD108" s="30">
+      <c r="CA108" s="30"/>
+      <c r="CB108" s="30"/>
+      <c r="CC108" s="30"/>
+      <c r="CD108" s="28">
         <v>2020</v>
       </c>
-      <c r="CE108" s="30"/>
-      <c r="CF108" s="30"/>
-      <c r="CG108" s="30"/>
-      <c r="CH108" s="30">
+      <c r="CE108" s="28"/>
+      <c r="CF108" s="28"/>
+      <c r="CG108" s="28"/>
+      <c r="CH108" s="28">
         <v>2021</v>
       </c>
-      <c r="CI108" s="30"/>
-      <c r="CJ108" s="30"/>
-      <c r="CK108" s="30"/>
-      <c r="CL108" s="28"/>
+      <c r="CI108" s="28"/>
+      <c r="CJ108" s="28"/>
+      <c r="CK108" s="28"/>
+      <c r="CL108" s="27">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="109" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="13" t="s">
         <v>7</v>
@@ -16723,16 +16817,16 @@
       <c r="BY109" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="BZ109" s="13" t="s">
+      <c r="BZ109" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CA109" s="13" t="s">
+      <c r="CA109" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CB109" s="13" t="s">
+      <c r="CB109" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="CC109" s="13" t="s">
+      <c r="CC109" s="24" t="s">
         <v>10</v>
       </c>
       <c r="CD109" s="24" t="s">
@@ -16759,12 +16853,14 @@
       <c r="CK109" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CL109" s="19"/>
+      <c r="CL109" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="110" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6"/>
     </row>
-    <row r="111" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>1</v>
       </c>
@@ -16996,35 +17092,35 @@
       <c r="BY111" s="14">
         <v>103.87839320232769</v>
       </c>
-      <c r="BZ111" s="14">
+      <c r="BZ111" s="25">
         <v>103.48009702144213</v>
       </c>
-      <c r="CA111" s="14">
+      <c r="CA111" s="25">
         <v>101.29404129171</v>
       </c>
-      <c r="CB111" s="14">
+      <c r="CB111" s="25">
         <v>97.487668769404252</v>
       </c>
-      <c r="CC111" s="14">
+      <c r="CC111" s="25">
         <v>102.37992755405583</v>
       </c>
       <c r="CD111" s="25">
-        <v>104.52056034332951</v>
+        <v>104.52056034332948</v>
       </c>
       <c r="CE111" s="25">
-        <v>98.195770459140022</v>
+        <v>98.195770459140007</v>
       </c>
       <c r="CF111" s="25">
-        <v>104.28639523782448</v>
+        <v>104.28639523782452</v>
       </c>
       <c r="CG111" s="25">
-        <v>110.51824224000019</v>
+        <v>110.51824224000018</v>
       </c>
       <c r="CH111" s="25">
-        <v>115.99165711479939</v>
+        <v>115.99165711479938</v>
       </c>
       <c r="CI111" s="25">
-        <v>108.46285645131437</v>
+        <v>108.46285645131435</v>
       </c>
       <c r="CJ111" s="25">
         <v>111.03308542778909</v>
@@ -17032,7 +17128,9 @@
       <c r="CK111" s="25">
         <v>118.631535740231</v>
       </c>
-      <c r="CL111" s="25"/>
+      <c r="CL111" s="25">
+        <v>126.09642903416729</v>
+      </c>
       <c r="CM111" s="8"/>
       <c r="CN111" s="8"/>
       <c r="CO111" s="8"/>
@@ -17095,7 +17193,7 @@
       <c r="ET111" s="8"/>
       <c r="EU111" s="8"/>
     </row>
-    <row r="112" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>11</v>
       </c>
@@ -17327,16 +17425,16 @@
       <c r="BY112" s="14">
         <v>99.237995686286226</v>
       </c>
-      <c r="BZ112" s="14">
+      <c r="BZ112" s="25">
         <v>102.17029381149156</v>
       </c>
-      <c r="CA112" s="14">
+      <c r="CA112" s="25">
         <v>102.71463208197835</v>
       </c>
-      <c r="CB112" s="14">
+      <c r="CB112" s="25">
         <v>103.46865683642204</v>
       </c>
-      <c r="CC112" s="14">
+      <c r="CC112" s="25">
         <v>101.12314926555126</v>
       </c>
       <c r="CD112" s="25">
@@ -17363,7 +17461,9 @@
       <c r="CK112" s="25">
         <v>107.41235280347485</v>
       </c>
-      <c r="CL112" s="25"/>
+      <c r="CL112" s="25">
+        <v>111.88039102135299</v>
+      </c>
       <c r="CM112" s="8"/>
       <c r="CN112" s="8"/>
       <c r="CO112" s="8"/>
@@ -17426,7 +17526,7 @@
       <c r="ET112" s="8"/>
       <c r="EU112" s="8"/>
     </row>
-    <row r="113" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>12</v>
       </c>
@@ -17658,16 +17758,16 @@
       <c r="BY113" s="14">
         <v>99.532522463167382</v>
       </c>
-      <c r="BZ113" s="14">
+      <c r="BZ113" s="25">
         <v>102.31475807165475</v>
       </c>
-      <c r="CA113" s="14">
+      <c r="CA113" s="25">
         <v>102.73376771192417</v>
       </c>
-      <c r="CB113" s="14">
+      <c r="CB113" s="25">
         <v>103.39187163452026</v>
       </c>
-      <c r="CC113" s="14">
+      <c r="CC113" s="25">
         <v>100.99469709474806</v>
       </c>
       <c r="CD113" s="25">
@@ -17694,7 +17794,9 @@
       <c r="CK113" s="25">
         <v>108.46407696982685</v>
       </c>
-      <c r="CL113" s="25"/>
+      <c r="CL113" s="25">
+        <v>113.43226434989448</v>
+      </c>
       <c r="CM113" s="8"/>
       <c r="CN113" s="8"/>
       <c r="CO113" s="8"/>
@@ -17757,7 +17859,7 @@
       <c r="ET113" s="8"/>
       <c r="EU113" s="8"/>
     </row>
-    <row r="114" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>13</v>
       </c>
@@ -17989,16 +18091,16 @@
       <c r="BY114" s="14">
         <v>101.70601459947004</v>
       </c>
-      <c r="BZ114" s="14">
+      <c r="BZ114" s="25">
         <v>101.18883518225871</v>
       </c>
-      <c r="CA114" s="14">
+      <c r="CA114" s="25">
         <v>101.79097146700811</v>
       </c>
-      <c r="CB114" s="14">
+      <c r="CB114" s="25">
         <v>102.57455594349851</v>
       </c>
-      <c r="CC114" s="14">
+      <c r="CC114" s="25">
         <v>103.61409234726899</v>
       </c>
       <c r="CD114" s="25">
@@ -18025,7 +18127,9 @@
       <c r="CK114" s="25">
         <v>109.02907695717339</v>
       </c>
-      <c r="CL114" s="25"/>
+      <c r="CL114" s="25">
+        <v>108.58723074343011</v>
+      </c>
       <c r="CM114" s="8"/>
       <c r="CN114" s="8"/>
       <c r="CO114" s="8"/>
@@ -18088,7 +18192,7 @@
       <c r="ET114" s="8"/>
       <c r="EU114" s="8"/>
     </row>
-    <row r="115" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>14</v>
       </c>
@@ -18320,16 +18424,16 @@
       <c r="BY115" s="14">
         <v>98.305945074337359</v>
       </c>
-      <c r="BZ115" s="14">
+      <c r="BZ115" s="25">
         <v>100.52396322439851</v>
       </c>
-      <c r="CA115" s="14">
+      <c r="CA115" s="25">
         <v>100.5734909232941</v>
       </c>
-      <c r="CB115" s="14">
+      <c r="CB115" s="25">
         <v>101.05834068488588</v>
       </c>
-      <c r="CC115" s="14">
+      <c r="CC115" s="25">
         <v>98.670820303177194</v>
       </c>
       <c r="CD115" s="25">
@@ -18351,12 +18455,14 @@
         <v>101.16862205227457</v>
       </c>
       <c r="CJ115" s="25">
-        <v>101.65575166787164</v>
+        <v>101.65575166787167</v>
       </c>
       <c r="CK115" s="25">
-        <v>99.188841424744993</v>
-      </c>
-      <c r="CL115" s="25"/>
+        <v>99.188841424745007</v>
+      </c>
+      <c r="CL115" s="25">
+        <v>101.85167724663083</v>
+      </c>
       <c r="CM115" s="8"/>
       <c r="CN115" s="8"/>
       <c r="CO115" s="8"/>
@@ -18419,7 +18525,7 @@
       <c r="ET115" s="8"/>
       <c r="EU115" s="8"/>
     </row>
-    <row r="116" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>15</v>
       </c>
@@ -18651,32 +18757,32 @@
       <c r="BY116" s="14">
         <v>101.8708193665159</v>
       </c>
-      <c r="BZ116" s="14">
+      <c r="BZ116" s="25">
         <v>103.94271485633884</v>
       </c>
-      <c r="CA116" s="14">
+      <c r="CA116" s="25">
         <v>99.51769411828657</v>
       </c>
-      <c r="CB116" s="14">
+      <c r="CB116" s="25">
         <v>103.41860289220379</v>
       </c>
-      <c r="CC116" s="14">
+      <c r="CC116" s="25">
         <v>102.95233123243617</v>
       </c>
       <c r="CD116" s="25">
-        <v>106.18465170943685</v>
+        <v>106.18465170943682</v>
       </c>
       <c r="CE116" s="25">
-        <v>100.50746043241381</v>
+        <v>100.50746043241378</v>
       </c>
       <c r="CF116" s="25">
         <v>105.71150154409111</v>
       </c>
       <c r="CG116" s="25">
-        <v>105.2859696771296</v>
+        <v>105.28596967712957</v>
       </c>
       <c r="CH116" s="25">
-        <v>109.13108367165275</v>
+        <v>109.13108367165276</v>
       </c>
       <c r="CI116" s="25">
         <v>104.26452506171293</v>
@@ -18685,9 +18791,11 @@
         <v>109.21106253493944</v>
       </c>
       <c r="CK116" s="25">
-        <v>109.35529801627524</v>
-      </c>
-      <c r="CL116" s="25"/>
+        <v>109.3552980162752</v>
+      </c>
+      <c r="CL116" s="25">
+        <v>113.82126005631787</v>
+      </c>
       <c r="CM116" s="8"/>
       <c r="CN116" s="8"/>
       <c r="CO116" s="8"/>
@@ -18750,7 +18858,7 @@
       <c r="ET116" s="8"/>
       <c r="EU116" s="8"/>
     </row>
-    <row r="117" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>16</v>
       </c>
@@ -18982,16 +19090,16 @@
       <c r="BY117" s="14">
         <v>99.468974474379607</v>
       </c>
-      <c r="BZ117" s="14">
+      <c r="BZ117" s="25">
         <v>102.22633251010744</v>
       </c>
-      <c r="CA117" s="14">
+      <c r="CA117" s="25">
         <v>102.63416256930928</v>
       </c>
-      <c r="CB117" s="14">
+      <c r="CB117" s="25">
         <v>103.29185253073257</v>
       </c>
-      <c r="CC117" s="14">
+      <c r="CC117" s="25">
         <v>100.89200409059067</v>
       </c>
       <c r="CD117" s="25">
@@ -19018,7 +19126,9 @@
       <c r="CK117" s="25">
         <v>107.16683189889456</v>
       </c>
-      <c r="CL117" s="25"/>
+      <c r="CL117" s="25">
+        <v>111.94175554600669</v>
+      </c>
       <c r="CM117" s="8"/>
       <c r="CN117" s="8"/>
       <c r="CO117" s="8"/>
@@ -19081,7 +19191,7 @@
       <c r="ET117" s="8"/>
       <c r="EU117" s="8"/>
     </row>
-    <row r="118" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>17</v>
       </c>
@@ -19313,23 +19423,23 @@
       <c r="BY118" s="14">
         <v>99.463025285499498</v>
       </c>
-      <c r="BZ118" s="14">
+      <c r="BZ118" s="25">
         <v>102.28312042863867</v>
       </c>
-      <c r="CA118" s="14">
+      <c r="CA118" s="25">
         <v>102.7279731376034</v>
       </c>
-      <c r="CB118" s="14">
+      <c r="CB118" s="25">
         <v>103.39812100616959</v>
       </c>
-      <c r="CC118" s="14">
+      <c r="CC118" s="25">
         <v>100.99207865802271</v>
       </c>
       <c r="CD118" s="25">
-        <v>104.48926154642419</v>
+        <v>104.48926154642417</v>
       </c>
       <c r="CE118" s="25">
-        <v>103.95478876713462</v>
+        <v>103.9547887671346</v>
       </c>
       <c r="CF118" s="25">
         <v>105.69056555320957</v>
@@ -19349,7 +19459,9 @@
       <c r="CK118" s="25">
         <v>107.27313045488036</v>
       </c>
-      <c r="CL118" s="25"/>
+      <c r="CL118" s="25">
+        <v>112.00394049520814</v>
+      </c>
       <c r="CM118" s="8"/>
       <c r="CN118" s="8"/>
       <c r="CO118" s="8"/>
@@ -19412,7 +19524,7 @@
       <c r="ET118" s="8"/>
       <c r="EU118" s="8"/>
     </row>
-    <row r="119" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
@@ -19489,10 +19601,10 @@
       <c r="BW119" s="8"/>
       <c r="BX119" s="8"/>
       <c r="BY119" s="8"/>
-      <c r="BZ119" s="8"/>
-      <c r="CA119" s="8"/>
-      <c r="CB119" s="8"/>
-      <c r="CC119" s="8"/>
+      <c r="BZ119" s="21"/>
+      <c r="CA119" s="21"/>
+      <c r="CB119" s="21"/>
+      <c r="CC119" s="21"/>
       <c r="CD119" s="21"/>
       <c r="CE119" s="21"/>
       <c r="CF119" s="21"/>
@@ -19564,7 +19676,7 @@
       <c r="ET119" s="8"/>
       <c r="EU119" s="8"/>
     </row>
-    <row r="120" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
         <v>18</v>
       </c>
@@ -19796,43 +19908,45 @@
       <c r="BY120" s="14">
         <v>100.97245916043222</v>
       </c>
-      <c r="BZ120" s="14">
+      <c r="BZ120" s="25">
         <v>102.82818520259364</v>
       </c>
-      <c r="CA120" s="14">
+      <c r="CA120" s="25">
         <v>100.80549692051754</v>
       </c>
-      <c r="CB120" s="14">
+      <c r="CB120" s="25">
         <v>102.65397557198874</v>
       </c>
-      <c r="CC120" s="14">
+      <c r="CC120" s="25">
         <v>101.79374705088249</v>
       </c>
       <c r="CD120" s="25">
-        <v>104.8496720046231</v>
+        <v>104.84977879595927</v>
       </c>
       <c r="CE120" s="25">
-        <v>101.00469030013299</v>
+        <v>100.97551659141546</v>
       </c>
       <c r="CF120" s="25">
-        <v>104.9728071394353</v>
+        <v>104.97219657950798</v>
       </c>
       <c r="CG120" s="25">
-        <v>104.32976882596793</v>
+        <v>104.26131819146616</v>
       </c>
       <c r="CH120" s="25">
-        <v>107.49217931234124</v>
+        <v>107.46283437973449</v>
       </c>
       <c r="CI120" s="25">
-        <v>104.5283052149659</v>
+        <v>104.53090413269572</v>
       </c>
       <c r="CJ120" s="25">
-        <v>108.12578450396208</v>
+        <v>108.10836568725063</v>
       </c>
       <c r="CK120" s="25">
-        <v>107.8855711888786</v>
-      </c>
-      <c r="CL120" s="25"/>
+        <v>107.90279558286954</v>
+      </c>
+      <c r="CL120" s="25">
+        <v>111.82396750832507</v>
+      </c>
       <c r="CM120" s="8"/>
       <c r="CN120" s="8"/>
       <c r="CO120" s="8"/>
@@ -19895,7 +20009,7 @@
       <c r="ET120" s="8"/>
       <c r="EU120" s="8"/>
     </row>
-    <row r="121" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -19973,10 +20087,10 @@
       <c r="BW121" s="11"/>
       <c r="BX121" s="11"/>
       <c r="BY121" s="11"/>
-      <c r="BZ121" s="11"/>
-      <c r="CA121" s="11"/>
-      <c r="CB121" s="11"/>
-      <c r="CC121" s="11"/>
+      <c r="BZ121" s="23"/>
+      <c r="CA121" s="23"/>
+      <c r="CB121" s="23"/>
+      <c r="CC121" s="23"/>
       <c r="CD121" s="23"/>
       <c r="CE121" s="23"/>
       <c r="CF121" s="23"/>
@@ -19987,178 +20101,180 @@
       <c r="CK121" s="23"/>
       <c r="CL121" s="23"/>
     </row>
-    <row r="122" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="129" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="131" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="133" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
-      <c r="B133" s="32">
+      <c r="B133" s="31">
         <v>2000</v>
       </c>
-      <c r="C133" s="32"/>
-      <c r="D133" s="32"/>
-      <c r="E133" s="32"/>
-      <c r="F133" s="32">
+      <c r="C133" s="31"/>
+      <c r="D133" s="31"/>
+      <c r="E133" s="31"/>
+      <c r="F133" s="31">
         <v>2001</v>
       </c>
-      <c r="G133" s="32"/>
-      <c r="H133" s="32"/>
-      <c r="I133" s="32"/>
-      <c r="J133" s="32">
+      <c r="G133" s="31"/>
+      <c r="H133" s="31"/>
+      <c r="I133" s="31"/>
+      <c r="J133" s="31">
         <v>2002</v>
       </c>
-      <c r="K133" s="32"/>
-      <c r="L133" s="32"/>
-      <c r="M133" s="32"/>
-      <c r="N133" s="32">
+      <c r="K133" s="31"/>
+      <c r="L133" s="31"/>
+      <c r="M133" s="31"/>
+      <c r="N133" s="31">
         <v>2003</v>
       </c>
-      <c r="O133" s="32"/>
-      <c r="P133" s="32"/>
-      <c r="Q133" s="32"/>
-      <c r="R133" s="32">
+      <c r="O133" s="31"/>
+      <c r="P133" s="31"/>
+      <c r="Q133" s="31"/>
+      <c r="R133" s="31">
         <v>2004</v>
       </c>
-      <c r="S133" s="32"/>
-      <c r="T133" s="32"/>
-      <c r="U133" s="32"/>
-      <c r="V133" s="32">
+      <c r="S133" s="31"/>
+      <c r="T133" s="31"/>
+      <c r="U133" s="31"/>
+      <c r="V133" s="31">
         <v>2005</v>
       </c>
-      <c r="W133" s="32"/>
-      <c r="X133" s="32"/>
-      <c r="Y133" s="32"/>
-      <c r="Z133" s="32">
+      <c r="W133" s="31"/>
+      <c r="X133" s="31"/>
+      <c r="Y133" s="31"/>
+      <c r="Z133" s="31">
         <v>2006</v>
       </c>
-      <c r="AA133" s="32"/>
-      <c r="AB133" s="32"/>
-      <c r="AC133" s="32"/>
-      <c r="AD133" s="32">
+      <c r="AA133" s="31"/>
+      <c r="AB133" s="31"/>
+      <c r="AC133" s="31"/>
+      <c r="AD133" s="31">
         <v>2007</v>
       </c>
-      <c r="AE133" s="32"/>
-      <c r="AF133" s="32"/>
-      <c r="AG133" s="32"/>
-      <c r="AH133" s="32">
+      <c r="AE133" s="31"/>
+      <c r="AF133" s="31"/>
+      <c r="AG133" s="31"/>
+      <c r="AH133" s="31">
         <v>2008</v>
       </c>
-      <c r="AI133" s="32"/>
-      <c r="AJ133" s="32"/>
-      <c r="AK133" s="32"/>
-      <c r="AL133" s="32">
+      <c r="AI133" s="31"/>
+      <c r="AJ133" s="31"/>
+      <c r="AK133" s="31"/>
+      <c r="AL133" s="31">
         <v>2009</v>
       </c>
-      <c r="AM133" s="32"/>
-      <c r="AN133" s="32"/>
-      <c r="AO133" s="32"/>
-      <c r="AP133" s="32">
+      <c r="AM133" s="31"/>
+      <c r="AN133" s="31"/>
+      <c r="AO133" s="31"/>
+      <c r="AP133" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ133" s="32"/>
-      <c r="AR133" s="32"/>
-      <c r="AS133" s="32"/>
-      <c r="AT133" s="32">
+      <c r="AQ133" s="31"/>
+      <c r="AR133" s="31"/>
+      <c r="AS133" s="31"/>
+      <c r="AT133" s="31">
         <v>2011</v>
       </c>
-      <c r="AU133" s="32"/>
-      <c r="AV133" s="32"/>
-      <c r="AW133" s="32"/>
-      <c r="AX133" s="32">
+      <c r="AU133" s="31"/>
+      <c r="AV133" s="31"/>
+      <c r="AW133" s="31"/>
+      <c r="AX133" s="31">
         <v>2012</v>
       </c>
-      <c r="AY133" s="32"/>
-      <c r="AZ133" s="32"/>
-      <c r="BA133" s="32"/>
-      <c r="BB133" s="32">
+      <c r="AY133" s="31"/>
+      <c r="AZ133" s="31"/>
+      <c r="BA133" s="31"/>
+      <c r="BB133" s="31">
         <v>2013</v>
       </c>
-      <c r="BC133" s="32"/>
-      <c r="BD133" s="32"/>
-      <c r="BE133" s="32"/>
-      <c r="BF133" s="32">
+      <c r="BC133" s="31"/>
+      <c r="BD133" s="31"/>
+      <c r="BE133" s="31"/>
+      <c r="BF133" s="31">
         <v>2014</v>
       </c>
-      <c r="BG133" s="32"/>
-      <c r="BH133" s="32"/>
-      <c r="BI133" s="32"/>
-      <c r="BJ133" s="32">
+      <c r="BG133" s="31"/>
+      <c r="BH133" s="31"/>
+      <c r="BI133" s="31"/>
+      <c r="BJ133" s="31">
         <v>2015</v>
       </c>
-      <c r="BK133" s="32"/>
-      <c r="BL133" s="32"/>
-      <c r="BM133" s="32"/>
-      <c r="BN133" s="32">
+      <c r="BK133" s="31"/>
+      <c r="BL133" s="31"/>
+      <c r="BM133" s="31"/>
+      <c r="BN133" s="31">
         <v>2016</v>
       </c>
-      <c r="BO133" s="32"/>
-      <c r="BP133" s="32"/>
-      <c r="BQ133" s="32"/>
-      <c r="BR133" s="32">
+      <c r="BO133" s="31"/>
+      <c r="BP133" s="31"/>
+      <c r="BQ133" s="31"/>
+      <c r="BR133" s="31">
         <v>2017</v>
       </c>
-      <c r="BS133" s="32"/>
-      <c r="BT133" s="32"/>
-      <c r="BU133" s="32"/>
-      <c r="BV133" s="32">
+      <c r="BS133" s="31"/>
+      <c r="BT133" s="31"/>
+      <c r="BU133" s="31"/>
+      <c r="BV133" s="31">
         <v>2018</v>
       </c>
-      <c r="BW133" s="32"/>
-      <c r="BX133" s="32"/>
-      <c r="BY133" s="32"/>
-      <c r="BZ133" s="32">
+      <c r="BW133" s="31"/>
+      <c r="BX133" s="31"/>
+      <c r="BY133" s="31"/>
+      <c r="BZ133" s="30">
         <v>2019</v>
       </c>
-      <c r="CA133" s="32"/>
-      <c r="CB133" s="32"/>
-      <c r="CC133" s="32"/>
-      <c r="CD133" s="30">
+      <c r="CA133" s="30"/>
+      <c r="CB133" s="30"/>
+      <c r="CC133" s="30"/>
+      <c r="CD133" s="28">
         <v>2020</v>
       </c>
-      <c r="CE133" s="30"/>
-      <c r="CF133" s="30"/>
-      <c r="CG133" s="30"/>
-      <c r="CH133" s="30">
+      <c r="CE133" s="28"/>
+      <c r="CF133" s="28"/>
+      <c r="CG133" s="28"/>
+      <c r="CH133" s="28">
         <v>2021</v>
       </c>
-      <c r="CI133" s="30"/>
-      <c r="CJ133" s="30"/>
-      <c r="CK133" s="30"/>
-      <c r="CL133" s="28"/>
+      <c r="CI133" s="28"/>
+      <c r="CJ133" s="28"/>
+      <c r="CK133" s="28"/>
+      <c r="CL133" s="27">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="134" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134" s="13" t="s">
         <v>7</v>
@@ -20388,16 +20504,16 @@
       <c r="BY134" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="BZ134" s="13" t="s">
+      <c r="BZ134" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CA134" s="13" t="s">
+      <c r="CA134" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CB134" s="13" t="s">
+      <c r="CB134" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="CC134" s="13" t="s">
+      <c r="CC134" s="24" t="s">
         <v>10</v>
       </c>
       <c r="CD134" s="24" t="s">
@@ -20424,12 +20540,14 @@
       <c r="CK134" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CL134" s="19"/>
+      <c r="CL134" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="135" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="6"/>
     </row>
-    <row r="136" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>1</v>
       </c>
@@ -20661,43 +20779,45 @@
       <c r="BY136" s="15">
         <v>8.2102468836437605</v>
       </c>
-      <c r="BZ136" s="15">
+      <c r="BZ136" s="26">
         <v>5.7004993141083782</v>
       </c>
-      <c r="CA136" s="15">
+      <c r="CA136" s="26">
         <v>5.5556224370366367</v>
       </c>
-      <c r="CB136" s="15">
+      <c r="CB136" s="26">
         <v>7.0789710248595163</v>
       </c>
-      <c r="CC136" s="15">
+      <c r="CC136" s="26">
         <v>8.4796805961946209</v>
       </c>
       <c r="CD136" s="26">
-        <v>4.7172465268164094</v>
+        <v>4.9952343275159103</v>
       </c>
       <c r="CE136" s="26">
-        <v>2.8138242688858712</v>
+        <v>2.9734231599888474</v>
       </c>
       <c r="CF136" s="26">
-        <v>5.2976246656068406</v>
+        <v>5.0688179881251214</v>
       </c>
       <c r="CG136" s="26">
-        <v>5.7539038458270664</v>
+        <v>5.4275059453531354</v>
       </c>
       <c r="CH136" s="26">
-        <v>3.7041236046623744</v>
+        <v>3.7210124126058028</v>
       </c>
       <c r="CI136" s="26">
-        <v>2.8310062947125103</v>
+        <v>3.1399466293911424</v>
       </c>
       <c r="CJ136" s="26">
-        <v>6.0183509704888012</v>
+        <v>5.9513037927032633</v>
       </c>
       <c r="CK136" s="26">
-        <v>5.910239418155613</v>
-      </c>
-      <c r="CL136" s="26"/>
+        <v>6.3648030216419471</v>
+      </c>
+      <c r="CL136" s="26">
+        <v>6.2243002976658977</v>
+      </c>
       <c r="CM136" s="8"/>
       <c r="CN136" s="8"/>
       <c r="CO136" s="8"/>
@@ -20760,7 +20880,7 @@
       <c r="ET136" s="8"/>
       <c r="EU136" s="8"/>
     </row>
-    <row r="137" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>11</v>
       </c>
@@ -20992,43 +21112,45 @@
       <c r="BY137" s="15">
         <v>0.14885530525226767</v>
       </c>
-      <c r="BZ137" s="15">
+      <c r="BZ137" s="26">
         <v>7.1704622935158058E-2</v>
       </c>
-      <c r="CA137" s="15">
+      <c r="CA137" s="26">
         <v>5.6426784873713498E-2</v>
       </c>
-      <c r="CB137" s="15">
+      <c r="CB137" s="26">
         <v>0.13236607425108954</v>
       </c>
-      <c r="CC137" s="15">
+      <c r="CC137" s="26">
         <v>0.15036753568418579</v>
       </c>
       <c r="CD137" s="26">
-        <v>6.7163618739666059E-2</v>
+        <v>6.9618762094456235E-2</v>
       </c>
       <c r="CE137" s="26">
-        <v>5.7370971651881611E-2</v>
+        <v>6.1938901337616682E-2</v>
       </c>
       <c r="CF137" s="26">
-        <v>0.17529915758425663</v>
+        <v>0.1736863822285733</v>
       </c>
       <c r="CG137" s="26">
-        <v>0.18904682375012258</v>
+        <v>0.18664971726304994</v>
       </c>
       <c r="CH137" s="26">
-        <v>8.994831451636022E-2</v>
+        <v>8.7558676562155199E-2</v>
       </c>
       <c r="CI137" s="26">
-        <v>6.693895275458582E-2</v>
+        <v>6.2967906137419247E-2</v>
       </c>
       <c r="CJ137" s="26">
-        <v>0.1795164804577071</v>
+        <v>0.17549222859448987</v>
       </c>
       <c r="CK137" s="26">
-        <v>0.17335226610626328</v>
-      </c>
-      <c r="CL137" s="26"/>
+        <v>0.17471975750948968</v>
+      </c>
+      <c r="CL137" s="26">
+        <v>8.154598213734196E-2</v>
+      </c>
       <c r="CM137" s="8"/>
       <c r="CN137" s="8"/>
       <c r="CO137" s="8"/>
@@ -21091,7 +21213,7 @@
       <c r="ET137" s="8"/>
       <c r="EU137" s="8"/>
     </row>
-    <row r="138" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>12</v>
       </c>
@@ -21323,43 +21445,45 @@
       <c r="BY138" s="15">
         <v>16.205391421301222</v>
       </c>
-      <c r="BZ138" s="15">
+      <c r="BZ138" s="26">
         <v>22.071106276880766</v>
       </c>
-      <c r="CA138" s="15">
+      <c r="CA138" s="26">
         <v>20.18286037723588</v>
       </c>
-      <c r="CB138" s="15">
+      <c r="CB138" s="26">
         <v>27.878045121237815</v>
       </c>
-      <c r="CC138" s="15">
+      <c r="CC138" s="26">
         <v>19.013300244799748</v>
       </c>
       <c r="CD138" s="26">
-        <v>16.661239475699947</v>
+        <v>16.396937903387638</v>
       </c>
       <c r="CE138" s="26">
-        <v>1.1445699944314536</v>
+        <v>1.1348070725738837</v>
       </c>
       <c r="CF138" s="26">
-        <v>3.6194095409716147</v>
+        <v>3.6469867699436915</v>
       </c>
       <c r="CG138" s="26">
-        <v>1.9865974286454744</v>
+        <v>2.0160285542239165</v>
       </c>
       <c r="CH138" s="26">
-        <v>0.42786854703723631</v>
+        <v>0.32281571107405882</v>
       </c>
       <c r="CI138" s="26">
-        <v>5.1249475333261634</v>
+        <v>5.017920109408661</v>
       </c>
       <c r="CJ138" s="26">
-        <v>5.3173189968355725</v>
+        <v>5.3524872102617618</v>
       </c>
       <c r="CK138" s="26">
-        <v>2.8661054493046447</v>
-      </c>
-      <c r="CL138" s="26"/>
+        <v>2.7846728412805546</v>
+      </c>
+      <c r="CL138" s="26">
+        <v>2.5530876502913191</v>
+      </c>
       <c r="CM138" s="8"/>
       <c r="CN138" s="8"/>
       <c r="CO138" s="8"/>
@@ -21422,7 +21546,7 @@
       <c r="ET138" s="8"/>
       <c r="EU138" s="8"/>
     </row>
-    <row r="139" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>13</v>
       </c>
@@ -21654,43 +21778,45 @@
       <c r="BY139" s="15">
         <v>0.48469085264564299</v>
       </c>
-      <c r="BZ139" s="15">
+      <c r="BZ139" s="26">
         <v>0.31509531870904911</v>
       </c>
-      <c r="CA139" s="15">
+      <c r="CA139" s="26">
         <v>0.32727447139743238</v>
       </c>
-      <c r="CB139" s="15">
+      <c r="CB139" s="26">
         <v>0.44447319293188375</v>
       </c>
-      <c r="CC139" s="15">
+      <c r="CC139" s="26">
         <v>0.4976902965519393</v>
       </c>
       <c r="CD139" s="26">
-        <v>0.37217717397498579</v>
+        <v>0.30534187729247619</v>
       </c>
       <c r="CE139" s="26">
-        <v>0.57517170484365721</v>
+        <v>0.47539913007255363</v>
       </c>
       <c r="CF139" s="26">
-        <v>0.74199498258312124</v>
+        <v>0.62327344191047018</v>
       </c>
       <c r="CG139" s="26">
-        <v>0.71098067422685463</v>
+        <v>0.60148638065745919</v>
       </c>
       <c r="CH139" s="26">
-        <v>0.56245991308573628</v>
+        <v>0.56187529055733054</v>
       </c>
       <c r="CI139" s="26">
-        <v>0.59392183349487626</v>
+        <v>0.57989329839645298</v>
       </c>
       <c r="CJ139" s="26">
-        <v>0.83927878267955403</v>
+        <v>0.84482969081861936</v>
       </c>
       <c r="CK139" s="26">
-        <v>0.75864462111448849</v>
-      </c>
-      <c r="CL139" s="26"/>
+        <v>0.79241330198598137</v>
+      </c>
+      <c r="CL139" s="26">
+        <v>0.52261670388238379</v>
+      </c>
       <c r="CM139" s="8"/>
       <c r="CN139" s="8"/>
       <c r="CO139" s="8"/>
@@ -21753,7 +21879,7 @@
       <c r="ET139" s="8"/>
       <c r="EU139" s="8"/>
     </row>
-    <row r="140" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>14</v>
       </c>
@@ -21985,43 +22111,45 @@
       <c r="BY140" s="15">
         <v>11.798880159293429</v>
       </c>
-      <c r="BZ140" s="15">
+      <c r="BZ140" s="26">
         <v>14.875597964491316</v>
       </c>
-      <c r="CA140" s="15">
+      <c r="CA140" s="26">
         <v>16.202200345667475</v>
       </c>
-      <c r="CB140" s="15">
+      <c r="CB140" s="26">
         <v>12.534563099191992</v>
       </c>
-      <c r="CC140" s="15">
+      <c r="CC140" s="26">
         <v>11.952984608400481</v>
       </c>
       <c r="CD140" s="26">
-        <v>15.677809144343243</v>
+        <v>15.76875526855887</v>
       </c>
       <c r="CE140" s="26">
-        <v>18.21141318576171</v>
+        <v>19.793228749615736</v>
       </c>
       <c r="CF140" s="26">
-        <v>14.531762748769742</v>
+        <v>14.642490335884069</v>
       </c>
       <c r="CG140" s="26">
-        <v>14.574235526967808</v>
+        <v>15.398891770769421</v>
       </c>
       <c r="CH140" s="26">
-        <v>18.960693533406864</v>
+        <v>19.317719145174404</v>
       </c>
       <c r="CI140" s="26">
-        <v>17.595584135124572</v>
+        <v>17.667157848046728</v>
       </c>
       <c r="CJ140" s="26">
-        <v>15.410081288999312</v>
+        <v>15.641018178667684</v>
       </c>
       <c r="CK140" s="26">
-        <v>14.736345781518988</v>
-      </c>
-      <c r="CL140" s="26"/>
+        <v>15.082616976026891</v>
+      </c>
+      <c r="CL140" s="26">
+        <v>18.024028522016874</v>
+      </c>
       <c r="CM140" s="8"/>
       <c r="CN140" s="8"/>
       <c r="CO140" s="8"/>
@@ -22084,7 +22212,7 @@
       <c r="ET140" s="8"/>
       <c r="EU140" s="8"/>
     </row>
-    <row r="141" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>15</v>
       </c>
@@ -22316,43 +22444,45 @@
       <c r="BY141" s="15">
         <v>53.420805515876232</v>
       </c>
-      <c r="BZ141" s="15">
+      <c r="BZ141" s="26">
         <v>45.51198255321993</v>
       </c>
-      <c r="CA141" s="15">
+      <c r="CA141" s="26">
         <v>45.563399186100767</v>
       </c>
-      <c r="CB141" s="15">
+      <c r="CB141" s="26">
         <v>42.364932648854406</v>
       </c>
-      <c r="CC141" s="15">
+      <c r="CC141" s="26">
         <v>49.84358522879478</v>
       </c>
       <c r="CD141" s="26">
-        <v>51.002001775258357</v>
+        <v>51.200767898533094</v>
       </c>
       <c r="CE141" s="26">
-        <v>63.303235143767665</v>
+        <v>62.626493196949575</v>
       </c>
       <c r="CF141" s="26">
-        <v>62.830457175985579</v>
+        <v>62.952414697866729</v>
       </c>
       <c r="CG141" s="26">
-        <v>65.216744441550929</v>
+        <v>64.942432985931987</v>
       </c>
       <c r="CH141" s="26">
-        <v>62.389221836740596</v>
+        <v>62.113759774290536</v>
       </c>
       <c r="CI141" s="26">
-        <v>59.929258730668444</v>
+        <v>59.739511634489538</v>
       </c>
       <c r="CJ141" s="26">
-        <v>57.482621923973241</v>
+        <v>58.515472634346807</v>
       </c>
       <c r="CK141" s="26">
-        <v>61.48105477028615</v>
-      </c>
-      <c r="CL141" s="26"/>
+        <v>61.509603746173291</v>
+      </c>
+      <c r="CL141" s="26">
+        <v>58.356518172560797</v>
+      </c>
       <c r="CM141" s="8"/>
       <c r="CN141" s="8"/>
       <c r="CO141" s="8"/>
@@ -22415,7 +22545,7 @@
       <c r="ET141" s="8"/>
       <c r="EU141" s="8"/>
     </row>
-    <row r="142" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>16</v>
       </c>
@@ -22647,43 +22777,45 @@
       <c r="BY142" s="15">
         <v>8.1218844469246338</v>
       </c>
-      <c r="BZ142" s="15">
+      <c r="BZ142" s="26">
         <v>9.9845618108737515</v>
       </c>
-      <c r="CA142" s="15">
+      <c r="CA142" s="26">
         <v>10.615174843338433</v>
       </c>
-      <c r="CB142" s="15">
+      <c r="CB142" s="26">
         <v>8.4970713164054921</v>
       </c>
-      <c r="CC142" s="15">
+      <c r="CC142" s="26">
         <v>8.603494650630692</v>
       </c>
       <c r="CD142" s="26">
-        <v>10.581523455716939</v>
+        <v>10.413665998840187</v>
       </c>
       <c r="CE142" s="26">
-        <v>12.593230952240001</v>
+        <v>11.645449015290154</v>
       </c>
       <c r="CF142" s="26">
-        <v>11.40093028420263</v>
+        <v>11.487796957173201</v>
       </c>
       <c r="CG142" s="26">
-        <v>10.200751991425538</v>
+        <v>10.351874513042256</v>
       </c>
       <c r="CH142" s="26">
-        <v>12.89339308679712</v>
+        <v>12.899161118522739</v>
       </c>
       <c r="CI142" s="26">
-        <v>12.699571869240078</v>
+        <v>12.573861544868803</v>
       </c>
       <c r="CJ142" s="26">
-        <v>13.134937958771346</v>
+        <v>11.817095775217298</v>
       </c>
       <c r="CK142" s="26">
-        <v>11.761305870677147</v>
-      </c>
-      <c r="CL142" s="26"/>
+        <v>11.380842922393025</v>
+      </c>
+      <c r="CL142" s="26">
+        <v>13.227310228548584</v>
+      </c>
       <c r="CM142" s="8"/>
       <c r="CN142" s="8"/>
       <c r="CO142" s="8"/>
@@ -22746,7 +22878,7 @@
       <c r="ET142" s="8"/>
       <c r="EU142" s="8"/>
     </row>
-    <row r="143" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>17</v>
       </c>
@@ -22978,43 +23110,45 @@
       <c r="BY143" s="15">
         <v>1.6092454150628135</v>
       </c>
-      <c r="BZ143" s="15">
+      <c r="BZ143" s="26">
         <v>1.4694521387816433</v>
       </c>
-      <c r="CA143" s="15">
+      <c r="CA143" s="26">
         <v>1.4970415543496634</v>
       </c>
-      <c r="CB143" s="15">
+      <c r="CB143" s="26">
         <v>1.0695775222678001</v>
       </c>
-      <c r="CC143" s="15">
+      <c r="CC143" s="26">
         <v>1.4588968389435548</v>
       </c>
       <c r="CD143" s="26">
-        <v>0.92083882945046491</v>
+        <v>0.84967796377736249</v>
       </c>
       <c r="CE143" s="26">
-        <v>1.3011837784177593</v>
+        <v>1.2892607741716378</v>
       </c>
       <c r="CF143" s="26">
-        <v>1.4025214442962244</v>
+        <v>1.404533426868152</v>
       </c>
       <c r="CG143" s="26">
-        <v>1.3677392676061928</v>
+        <v>1.075130132758765</v>
       </c>
       <c r="CH143" s="26">
-        <v>0.97229116375370606</v>
+        <v>0.97609787121298008</v>
       </c>
       <c r="CI143" s="26">
-        <v>1.1587706506787772</v>
+        <v>1.2187410292612511</v>
       </c>
       <c r="CJ143" s="26">
-        <v>1.6178935977944755</v>
+        <v>1.7023004893900633</v>
       </c>
       <c r="CK143" s="26">
-        <v>2.3129518228367019</v>
-      </c>
-      <c r="CL143" s="26"/>
+        <v>1.9103274329888156</v>
+      </c>
+      <c r="CL143" s="26">
+        <v>1.0105924428967965</v>
+      </c>
       <c r="CM143" s="8"/>
       <c r="CN143" s="8"/>
       <c r="CO143" s="8"/>
@@ -23077,7 +23211,7 @@
       <c r="ET143" s="8"/>
       <c r="EU143" s="8"/>
     </row>
-    <row r="144" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
@@ -23154,10 +23288,10 @@
       <c r="BW144" s="8"/>
       <c r="BX144" s="8"/>
       <c r="BY144" s="8"/>
-      <c r="BZ144" s="8"/>
-      <c r="CA144" s="8"/>
-      <c r="CB144" s="8"/>
-      <c r="CC144" s="8"/>
+      <c r="BZ144" s="21"/>
+      <c r="CA144" s="21"/>
+      <c r="CB144" s="21"/>
+      <c r="CC144" s="21"/>
       <c r="CD144" s="21"/>
       <c r="CE144" s="21"/>
       <c r="CF144" s="21"/>
@@ -23229,7 +23363,7 @@
       <c r="ET144" s="8"/>
       <c r="EU144" s="8"/>
     </row>
-    <row r="145" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A145" s="9" t="s">
         <v>18</v>
       </c>
@@ -23461,16 +23595,16 @@
       <c r="BY145" s="14">
         <v>100</v>
       </c>
-      <c r="BZ145" s="14">
+      <c r="BZ145" s="25">
         <v>100</v>
       </c>
-      <c r="CA145" s="14">
+      <c r="CA145" s="25">
         <v>100</v>
       </c>
-      <c r="CB145" s="14">
+      <c r="CB145" s="25">
         <v>100</v>
       </c>
-      <c r="CC145" s="14">
+      <c r="CC145" s="25">
         <v>100</v>
       </c>
       <c r="CD145" s="25">
@@ -23497,7 +23631,9 @@
       <c r="CK145" s="25">
         <v>100</v>
       </c>
-      <c r="CL145" s="25"/>
+      <c r="CL145" s="25">
+        <v>100</v>
+      </c>
       <c r="CM145" s="8"/>
       <c r="CN145" s="8"/>
       <c r="CO145" s="8"/>
@@ -23560,7 +23696,7 @@
       <c r="ET145" s="8"/>
       <c r="EU145" s="8"/>
     </row>
-    <row r="146" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
@@ -23638,10 +23774,10 @@
       <c r="BW146" s="11"/>
       <c r="BX146" s="11"/>
       <c r="BY146" s="11"/>
-      <c r="BZ146" s="11"/>
-      <c r="CA146" s="11"/>
-      <c r="CB146" s="11"/>
-      <c r="CC146" s="11"/>
+      <c r="BZ146" s="23"/>
+      <c r="CA146" s="23"/>
+      <c r="CB146" s="23"/>
+      <c r="CC146" s="23"/>
       <c r="CD146" s="23"/>
       <c r="CE146" s="23"/>
       <c r="CF146" s="23"/>
@@ -23652,12 +23788,12 @@
       <c r="CK146" s="23"/>
       <c r="CL146" s="23"/>
     </row>
-    <row r="147" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
@@ -23734,10 +23870,10 @@
       <c r="BW148" s="8"/>
       <c r="BX148" s="8"/>
       <c r="BY148" s="8"/>
-      <c r="BZ148" s="8"/>
-      <c r="CA148" s="8"/>
-      <c r="CB148" s="8"/>
-      <c r="CC148" s="8"/>
+      <c r="BZ148" s="21"/>
+      <c r="CA148" s="21"/>
+      <c r="CB148" s="21"/>
+      <c r="CC148" s="21"/>
       <c r="CD148" s="21"/>
       <c r="CE148" s="21"/>
       <c r="CF148" s="21"/>
@@ -23809,7 +23945,7 @@
       <c r="ET148" s="8"/>
       <c r="EU148" s="8"/>
     </row>
-    <row r="149" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
@@ -23886,10 +24022,10 @@
       <c r="BW149" s="8"/>
       <c r="BX149" s="8"/>
       <c r="BY149" s="8"/>
-      <c r="BZ149" s="8"/>
-      <c r="CA149" s="8"/>
-      <c r="CB149" s="8"/>
-      <c r="CC149" s="8"/>
+      <c r="BZ149" s="21"/>
+      <c r="CA149" s="21"/>
+      <c r="CB149" s="21"/>
+      <c r="CC149" s="21"/>
       <c r="CD149" s="21"/>
       <c r="CE149" s="21"/>
       <c r="CF149" s="21"/>
@@ -23961,173 +24097,175 @@
       <c r="ET149" s="8"/>
       <c r="EU149" s="8"/>
     </row>
-    <row r="150" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="154" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="156" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="158" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
-      <c r="B158" s="32">
+      <c r="B158" s="31">
         <v>2000</v>
       </c>
-      <c r="C158" s="32"/>
-      <c r="D158" s="32"/>
-      <c r="E158" s="32"/>
-      <c r="F158" s="32">
+      <c r="C158" s="31"/>
+      <c r="D158" s="31"/>
+      <c r="E158" s="31"/>
+      <c r="F158" s="31">
         <v>2001</v>
       </c>
-      <c r="G158" s="32"/>
-      <c r="H158" s="32"/>
-      <c r="I158" s="32"/>
-      <c r="J158" s="32">
+      <c r="G158" s="31"/>
+      <c r="H158" s="31"/>
+      <c r="I158" s="31"/>
+      <c r="J158" s="31">
         <v>2002</v>
       </c>
-      <c r="K158" s="32"/>
-      <c r="L158" s="32"/>
-      <c r="M158" s="32"/>
-      <c r="N158" s="32">
+      <c r="K158" s="31"/>
+      <c r="L158" s="31"/>
+      <c r="M158" s="31"/>
+      <c r="N158" s="31">
         <v>2003</v>
       </c>
-      <c r="O158" s="32"/>
-      <c r="P158" s="32"/>
-      <c r="Q158" s="32"/>
-      <c r="R158" s="32">
+      <c r="O158" s="31"/>
+      <c r="P158" s="31"/>
+      <c r="Q158" s="31"/>
+      <c r="R158" s="31">
         <v>2004</v>
       </c>
-      <c r="S158" s="32"/>
-      <c r="T158" s="32"/>
-      <c r="U158" s="32"/>
-      <c r="V158" s="32">
+      <c r="S158" s="31"/>
+      <c r="T158" s="31"/>
+      <c r="U158" s="31"/>
+      <c r="V158" s="31">
         <v>2005</v>
       </c>
-      <c r="W158" s="32"/>
-      <c r="X158" s="32"/>
-      <c r="Y158" s="32"/>
-      <c r="Z158" s="32">
+      <c r="W158" s="31"/>
+      <c r="X158" s="31"/>
+      <c r="Y158" s="31"/>
+      <c r="Z158" s="31">
         <v>2006</v>
       </c>
-      <c r="AA158" s="32"/>
-      <c r="AB158" s="32"/>
-      <c r="AC158" s="32"/>
-      <c r="AD158" s="32">
+      <c r="AA158" s="31"/>
+      <c r="AB158" s="31"/>
+      <c r="AC158" s="31"/>
+      <c r="AD158" s="31">
         <v>2007</v>
       </c>
-      <c r="AE158" s="32"/>
-      <c r="AF158" s="32"/>
-      <c r="AG158" s="32"/>
-      <c r="AH158" s="32">
+      <c r="AE158" s="31"/>
+      <c r="AF158" s="31"/>
+      <c r="AG158" s="31"/>
+      <c r="AH158" s="31">
         <v>2008</v>
       </c>
-      <c r="AI158" s="32"/>
-      <c r="AJ158" s="32"/>
-      <c r="AK158" s="32"/>
-      <c r="AL158" s="32">
+      <c r="AI158" s="31"/>
+      <c r="AJ158" s="31"/>
+      <c r="AK158" s="31"/>
+      <c r="AL158" s="31">
         <v>2009</v>
       </c>
-      <c r="AM158" s="32"/>
-      <c r="AN158" s="32"/>
-      <c r="AO158" s="32"/>
-      <c r="AP158" s="32">
+      <c r="AM158" s="31"/>
+      <c r="AN158" s="31"/>
+      <c r="AO158" s="31"/>
+      <c r="AP158" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ158" s="32"/>
-      <c r="AR158" s="32"/>
-      <c r="AS158" s="32"/>
-      <c r="AT158" s="32">
+      <c r="AQ158" s="31"/>
+      <c r="AR158" s="31"/>
+      <c r="AS158" s="31"/>
+      <c r="AT158" s="31">
         <v>2011</v>
       </c>
-      <c r="AU158" s="32"/>
-      <c r="AV158" s="32"/>
-      <c r="AW158" s="32"/>
-      <c r="AX158" s="32">
+      <c r="AU158" s="31"/>
+      <c r="AV158" s="31"/>
+      <c r="AW158" s="31"/>
+      <c r="AX158" s="31">
         <v>2012</v>
       </c>
-      <c r="AY158" s="32"/>
-      <c r="AZ158" s="32"/>
-      <c r="BA158" s="32"/>
-      <c r="BB158" s="32">
+      <c r="AY158" s="31"/>
+      <c r="AZ158" s="31"/>
+      <c r="BA158" s="31"/>
+      <c r="BB158" s="31">
         <v>2013</v>
       </c>
-      <c r="BC158" s="32"/>
-      <c r="BD158" s="32"/>
-      <c r="BE158" s="32"/>
-      <c r="BF158" s="32">
+      <c r="BC158" s="31"/>
+      <c r="BD158" s="31"/>
+      <c r="BE158" s="31"/>
+      <c r="BF158" s="31">
         <v>2014</v>
       </c>
-      <c r="BG158" s="32"/>
-      <c r="BH158" s="32"/>
-      <c r="BI158" s="32"/>
-      <c r="BJ158" s="32">
+      <c r="BG158" s="31"/>
+      <c r="BH158" s="31"/>
+      <c r="BI158" s="31"/>
+      <c r="BJ158" s="31">
         <v>2015</v>
       </c>
-      <c r="BK158" s="32"/>
-      <c r="BL158" s="32"/>
-      <c r="BM158" s="32"/>
-      <c r="BN158" s="32">
+      <c r="BK158" s="31"/>
+      <c r="BL158" s="31"/>
+      <c r="BM158" s="31"/>
+      <c r="BN158" s="31">
         <v>2016</v>
       </c>
-      <c r="BO158" s="32"/>
-      <c r="BP158" s="32"/>
-      <c r="BQ158" s="32"/>
-      <c r="BR158" s="32">
+      <c r="BO158" s="31"/>
+      <c r="BP158" s="31"/>
+      <c r="BQ158" s="31"/>
+      <c r="BR158" s="31">
         <v>2017</v>
       </c>
-      <c r="BS158" s="32"/>
-      <c r="BT158" s="32"/>
-      <c r="BU158" s="32"/>
-      <c r="BV158" s="32">
+      <c r="BS158" s="31"/>
+      <c r="BT158" s="31"/>
+      <c r="BU158" s="31"/>
+      <c r="BV158" s="31">
         <v>2018</v>
       </c>
-      <c r="BW158" s="32"/>
-      <c r="BX158" s="32"/>
-      <c r="BY158" s="32"/>
-      <c r="BZ158" s="32">
+      <c r="BW158" s="31"/>
+      <c r="BX158" s="31"/>
+      <c r="BY158" s="31"/>
+      <c r="BZ158" s="30">
         <v>2019</v>
       </c>
-      <c r="CA158" s="32"/>
-      <c r="CB158" s="32"/>
-      <c r="CC158" s="32"/>
-      <c r="CD158" s="30">
+      <c r="CA158" s="30"/>
+      <c r="CB158" s="30"/>
+      <c r="CC158" s="30"/>
+      <c r="CD158" s="28">
         <v>2020</v>
       </c>
-      <c r="CE158" s="30"/>
-      <c r="CF158" s="30"/>
-      <c r="CG158" s="30"/>
-      <c r="CH158" s="30">
+      <c r="CE158" s="28"/>
+      <c r="CF158" s="28"/>
+      <c r="CG158" s="28"/>
+      <c r="CH158" s="28">
         <v>2021</v>
       </c>
-      <c r="CI158" s="30"/>
-      <c r="CJ158" s="30"/>
-      <c r="CK158" s="30"/>
-      <c r="CL158" s="28"/>
+      <c r="CI158" s="28"/>
+      <c r="CJ158" s="28"/>
+      <c r="CK158" s="28"/>
+      <c r="CL158" s="27">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="159" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
       <c r="B159" s="13" t="s">
         <v>7</v>
@@ -24357,16 +24495,16 @@
       <c r="BY159" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="BZ159" s="13" t="s">
+      <c r="BZ159" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CA159" s="13" t="s">
+      <c r="CA159" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CB159" s="13" t="s">
+      <c r="CB159" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="CC159" s="13" t="s">
+      <c r="CC159" s="24" t="s">
         <v>10</v>
       </c>
       <c r="CD159" s="24" t="s">
@@ -24393,12 +24531,14 @@
       <c r="CK159" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CL159" s="19"/>
+      <c r="CL159" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="160" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="6"/>
     </row>
-    <row r="161" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>1</v>
       </c>
@@ -24630,43 +24770,45 @@
       <c r="BY161" s="15">
         <v>7.9805702860757126</v>
       </c>
-      <c r="BZ161" s="15">
+      <c r="BZ161" s="26">
         <v>5.6645868731349722</v>
       </c>
-      <c r="CA161" s="15">
+      <c r="CA161" s="26">
         <v>5.5288274939632478</v>
       </c>
-      <c r="CB161" s="15">
+      <c r="CB161" s="26">
         <v>7.4541173035908015</v>
       </c>
-      <c r="CC161" s="15">
+      <c r="CC161" s="26">
         <v>8.4311298347575008</v>
       </c>
       <c r="CD161" s="26">
-        <v>4.7321000717655783</v>
+        <v>5.0109682970854008</v>
       </c>
       <c r="CE161" s="26">
-        <v>2.8943145667977341</v>
+        <v>3.0575954363501445</v>
       </c>
       <c r="CF161" s="26">
-        <v>5.3324935726435347</v>
+        <v>5.1021512160028131</v>
       </c>
       <c r="CG161" s="26">
-        <v>5.4317137688307904</v>
+        <v>5.1202309490742826</v>
       </c>
       <c r="CH161" s="26">
-        <v>3.4326979078622184</v>
+        <v>3.4474077754146877</v>
       </c>
       <c r="CI161" s="26">
-        <v>2.7283099461060982</v>
+        <v>3.0261185334538467</v>
       </c>
       <c r="CJ161" s="26">
-        <v>5.8607658933110924</v>
+        <v>5.7945406475794554</v>
       </c>
       <c r="CK161" s="26">
-        <v>5.374873987022891</v>
-      </c>
-      <c r="CL161" s="26"/>
+        <v>5.7891861138282206</v>
+      </c>
+      <c r="CL161" s="26">
+        <v>5.5197911596660116</v>
+      </c>
       <c r="CM161" s="8"/>
       <c r="CN161" s="8"/>
       <c r="CO161" s="8"/>
@@ -24729,7 +24871,7 @@
       <c r="ET161" s="8"/>
       <c r="EU161" s="8"/>
     </row>
-    <row r="162" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>11</v>
       </c>
@@ -24961,43 +25103,45 @@
       <c r="BY162" s="15">
         <v>0.15145697095608832</v>
       </c>
-      <c r="BZ162" s="15">
+      <c r="BZ162" s="26">
         <v>7.2166340841326559E-2</v>
       </c>
-      <c r="CA162" s="15">
+      <c r="CA162" s="26">
         <v>5.537799214703934E-2</v>
       </c>
-      <c r="CB162" s="15">
+      <c r="CB162" s="26">
         <v>0.13132386336292237</v>
       </c>
-      <c r="CC162" s="15">
+      <c r="CC162" s="26">
         <v>0.15136469743347755</v>
       </c>
       <c r="CD162" s="26">
-        <v>6.7469707998831299E-2</v>
+        <v>6.9936111574063903E-2</v>
       </c>
       <c r="CE162" s="26">
-        <v>5.5860322251464416E-2</v>
+        <v>6.0290553573796077E-2</v>
       </c>
       <c r="CF162" s="26">
-        <v>0.17398998616029426</v>
+        <v>0.17238825267582442</v>
       </c>
       <c r="CG162" s="26">
-        <v>0.19071845838526591</v>
+        <v>0.18817661213181042</v>
       </c>
       <c r="CH162" s="26">
-        <v>9.013445633525824E-2</v>
+        <v>8.7715920558017663E-2</v>
       </c>
       <c r="CI162" s="26">
-        <v>6.5019592459480649E-2</v>
+        <v>6.116392952960753E-2</v>
       </c>
       <c r="CJ162" s="26">
-        <v>0.17764656697453129</v>
+        <v>0.17363625637295835</v>
       </c>
       <c r="CK162" s="26">
-        <v>0.17411599092311911</v>
-      </c>
-      <c r="CL162" s="26"/>
+        <v>0.17551752463079001</v>
+      </c>
+      <c r="CL162" s="26">
+        <v>8.150485687183745E-2</v>
+      </c>
       <c r="CM162" s="8"/>
       <c r="CN162" s="8"/>
       <c r="CO162" s="8"/>
@@ -25060,7 +25204,7 @@
       <c r="ET162" s="8"/>
       <c r="EU162" s="8"/>
     </row>
-    <row r="163" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>12</v>
       </c>
@@ -25292,43 +25436,45 @@
       <c r="BY163" s="15">
         <v>16.43983476930044</v>
       </c>
-      <c r="BZ163" s="15">
+      <c r="BZ163" s="26">
         <v>22.18186160666858</v>
       </c>
-      <c r="CA163" s="15">
+      <c r="CA163" s="26">
         <v>19.804036344795133</v>
       </c>
-      <c r="CB163" s="15">
+      <c r="CB163" s="26">
         <v>27.679082674762771</v>
       </c>
-      <c r="CC163" s="15">
+      <c r="CC163" s="26">
         <v>19.163729694697746</v>
       </c>
       <c r="CD163" s="26">
-        <v>16.627750931834523</v>
+        <v>16.363997264015566</v>
       </c>
       <c r="CE163" s="26">
-        <v>1.100497929971656</v>
+        <v>1.0907957815735638</v>
       </c>
       <c r="CF163" s="26">
-        <v>3.5854070981458221</v>
+        <v>3.612704240682397</v>
       </c>
       <c r="CG163" s="26">
-        <v>1.9904040552485993</v>
+        <v>2.0185663269887475</v>
       </c>
       <c r="CH163" s="26">
-        <v>0.41905878015035458</v>
+        <v>0.31608265780620848</v>
       </c>
       <c r="CI163" s="26">
-        <v>4.8854067990745502</v>
+        <v>4.7835007819061266</v>
       </c>
       <c r="CJ163" s="26">
-        <v>5.1886962627818036</v>
+        <v>5.2221723627921808</v>
       </c>
       <c r="CK163" s="26">
-        <v>2.8508187422441016</v>
-      </c>
-      <c r="CL163" s="26"/>
+        <v>2.7702626782271129</v>
+      </c>
+      <c r="CL163" s="26">
+        <v>2.5168887537273958</v>
+      </c>
       <c r="CM163" s="8"/>
       <c r="CN163" s="8"/>
       <c r="CO163" s="8"/>
@@ -25391,7 +25537,7 @@
       <c r="ET163" s="8"/>
       <c r="EU163" s="8"/>
     </row>
-    <row r="164" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>13</v>
       </c>
@@ -25623,43 +25769,45 @@
       <c r="BY164" s="15">
         <v>0.48119501601680376</v>
       </c>
-      <c r="BZ164" s="15">
+      <c r="BZ164" s="26">
         <v>0.32020014589875562</v>
       </c>
-      <c r="CA164" s="15">
+      <c r="CA164" s="26">
         <v>0.32410601100619962</v>
       </c>
-      <c r="CB164" s="15">
+      <c r="CB164" s="26">
         <v>0.44481733184169253</v>
       </c>
-      <c r="CC164" s="15">
+      <c r="CC164" s="26">
         <v>0.4889466192213584</v>
       </c>
       <c r="CD164" s="26">
-        <v>0.38115461292617325</v>
+        <v>0.31270747301414797</v>
       </c>
       <c r="CE164" s="26">
-        <v>0.56784503048790369</v>
+        <v>0.46920781968599923</v>
       </c>
       <c r="CF164" s="26">
-        <v>0.74331246641650306</v>
+        <v>0.62437649254816352</v>
       </c>
       <c r="CG164" s="26">
-        <v>0.7018455266359237</v>
+        <v>0.59336852384765482</v>
       </c>
       <c r="CH164" s="26">
-        <v>0.57714533359673659</v>
+        <v>0.57638805240990287</v>
       </c>
       <c r="CI164" s="26">
-        <v>0.59219479541194553</v>
+        <v>0.57822142937842447</v>
       </c>
       <c r="CJ164" s="26">
-        <v>0.84811888728505636</v>
+        <v>0.85359072934355051</v>
       </c>
       <c r="CK164" s="26">
-        <v>0.75068789503240874</v>
-      </c>
-      <c r="CL164" s="26"/>
+        <v>0.784227592561623</v>
+      </c>
+      <c r="CL164" s="26">
+        <v>0.53819471142363118</v>
+      </c>
       <c r="CM164" s="8"/>
       <c r="CN164" s="8"/>
       <c r="CO164" s="8"/>
@@ -25722,7 +25870,7 @@
       <c r="ET164" s="8"/>
       <c r="EU164" s="8"/>
     </row>
-    <row r="165" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>14</v>
       </c>
@@ -25954,43 +26102,45 @@
       <c r="BY165" s="15">
         <v>12.118920621964433</v>
       </c>
-      <c r="BZ165" s="15">
+      <c r="BZ165" s="26">
         <v>15.216578151395213</v>
       </c>
-      <c r="CA165" s="15">
+      <c r="CA165" s="26">
         <v>16.239576075732145</v>
       </c>
-      <c r="CB165" s="15">
+      <c r="CB165" s="26">
         <v>12.732474385287887</v>
       </c>
-      <c r="CC165" s="15">
+      <c r="CC165" s="26">
         <v>12.331296000094479</v>
       </c>
       <c r="CD165" s="26">
-        <v>16.282797342086027</v>
+        <v>16.377269650702271</v>
       </c>
       <c r="CE165" s="26">
-        <v>18.229566651218533</v>
+        <v>19.807236317647099</v>
       </c>
       <c r="CF165" s="26">
-        <v>15.045236854245292</v>
+        <v>15.159788781635985</v>
       </c>
       <c r="CG165" s="26">
-        <v>15.36471586725664</v>
+        <v>16.223448810278832</v>
       </c>
       <c r="CH165" s="26">
-        <v>20.142466979842126</v>
+        <v>20.516142766994637</v>
       </c>
       <c r="CI165" s="26">
-        <v>18.179911435005668</v>
+        <v>18.254315872337752</v>
       </c>
       <c r="CJ165" s="26">
-        <v>16.390879033453547</v>
+        <v>16.633834143540728</v>
       </c>
       <c r="CK165" s="26">
-        <v>16.028406613481984</v>
-      </c>
-      <c r="CL165" s="26"/>
+        <v>16.40765748487652</v>
+      </c>
+      <c r="CL165" s="26">
+        <v>19.788759834898162</v>
+      </c>
       <c r="CM165" s="8"/>
       <c r="CN165" s="8"/>
       <c r="CO165" s="8"/>
@@ -26053,7 +26203,7 @@
       <c r="ET165" s="8"/>
       <c r="EU165" s="8"/>
     </row>
-    <row r="166" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>15</v>
       </c>
@@ -26285,43 +26435,45 @@
       <c r="BY166" s="15">
         <v>52.949707647508902</v>
       </c>
-      <c r="BZ166" s="15">
+      <c r="BZ166" s="26">
         <v>45.02397861541241</v>
       </c>
-      <c r="CA166" s="15">
+      <c r="CA166" s="26">
         <v>46.153009643526417</v>
       </c>
-      <c r="CB166" s="15">
+      <c r="CB166" s="26">
         <v>42.05170674929213</v>
       </c>
-      <c r="CC166" s="15">
+      <c r="CC166" s="26">
         <v>49.282665541919236</v>
       </c>
       <c r="CD166" s="26">
-        <v>50.360791994195488</v>
+        <v>50.55711067390871</v>
       </c>
       <c r="CE166" s="26">
-        <v>63.616408505240663</v>
+        <v>62.918140361561981</v>
       </c>
       <c r="CF166" s="26">
-        <v>62.391408382997739</v>
+        <v>62.512150090526752</v>
       </c>
       <c r="CG166" s="26">
-        <v>64.624449886671144</v>
+        <v>64.310408029086403</v>
       </c>
       <c r="CH166" s="26">
-        <v>61.452275513088836</v>
+        <v>61.164248120272603</v>
       </c>
       <c r="CI166" s="26">
-        <v>60.080874527536608</v>
+        <v>59.892136466384585</v>
       </c>
       <c r="CJ166" s="26">
-        <v>56.911392001939412</v>
+        <v>57.924645792109352</v>
       </c>
       <c r="CK166" s="26">
-        <v>60.65475410436796</v>
-      </c>
-      <c r="CL166" s="26"/>
+        <v>60.692607672459189</v>
+      </c>
+      <c r="CL166" s="26">
+        <v>57.332499998669626</v>
+      </c>
       <c r="CM166" s="8"/>
       <c r="CN166" s="8"/>
       <c r="CO166" s="8"/>
@@ -26384,7 +26536,7 @@
       <c r="ET166" s="8"/>
       <c r="EU166" s="8"/>
     </row>
-    <row r="167" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>16</v>
       </c>
@@ -26616,43 +26768,45 @@
       <c r="BY167" s="15">
         <v>8.2446476396927011</v>
       </c>
-      <c r="BZ167" s="15">
+      <c r="BZ167" s="26">
         <v>10.043345445790667</v>
       </c>
-      <c r="CA167" s="15">
+      <c r="CA167" s="26">
         <v>10.42604088339773</v>
       </c>
-      <c r="CB167" s="15">
+      <c r="CB167" s="26">
         <v>8.4445978068619816</v>
       </c>
-      <c r="CC167" s="15">
+      <c r="CC167" s="26">
         <v>8.6803901470086657</v>
       </c>
       <c r="CD167" s="26">
-        <v>10.623920298718568</v>
+        <v>10.455400938710682</v>
       </c>
       <c r="CE167" s="26">
-        <v>12.271249078439107</v>
+        <v>11.344422275397761</v>
       </c>
       <c r="CF167" s="26">
-        <v>11.335154901125579</v>
+        <v>11.421453982524229</v>
       </c>
       <c r="CG167" s="26">
-        <v>10.314528231019395</v>
+        <v>10.46046872292475</v>
       </c>
       <c r="CH167" s="26">
-        <v>12.912992511907071</v>
+        <v>12.915242539636109</v>
       </c>
       <c r="CI167" s="26">
-        <v>12.345104807082677</v>
+        <v>12.223207177357558</v>
       </c>
       <c r="CJ167" s="26">
-        <v>13.020368171955077</v>
+        <v>11.71213379400187</v>
       </c>
       <c r="CK167" s="26">
-        <v>11.840185804710758</v>
-      </c>
-      <c r="CL167" s="26"/>
+        <v>11.45900037965375</v>
+      </c>
+      <c r="CL167" s="26">
+        <v>13.213392107396851</v>
+      </c>
       <c r="CM167" s="8"/>
       <c r="CN167" s="8"/>
       <c r="CO167" s="8"/>
@@ -26715,7 +26869,7 @@
       <c r="ET167" s="8"/>
       <c r="EU167" s="8"/>
     </row>
-    <row r="168" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>17</v>
       </c>
@@ -26947,43 +27101,45 @@
       <c r="BY168" s="15">
         <v>1.6336670484849178</v>
       </c>
-      <c r="BZ168" s="15">
+      <c r="BZ168" s="26">
         <v>1.4772828208580813</v>
       </c>
-      <c r="CA168" s="15">
+      <c r="CA168" s="26">
         <v>1.469025555432101</v>
       </c>
-      <c r="CB168" s="15">
+      <c r="CB168" s="26">
         <v>1.0618798849998023</v>
       </c>
-      <c r="CC168" s="15">
+      <c r="CC168" s="26">
         <v>1.4704774648675385</v>
       </c>
       <c r="CD168" s="26">
-        <v>0.92401504047481176</v>
+        <v>0.8526095909891741</v>
       </c>
       <c r="CE168" s="26">
-        <v>1.2642579155929465</v>
+        <v>1.2523114542096694</v>
       </c>
       <c r="CF168" s="26">
-        <v>1.3929967382652435</v>
+        <v>1.3949869434038273</v>
       </c>
       <c r="CG168" s="26">
-        <v>1.3816242059522525</v>
+        <v>1.085332025667505</v>
       </c>
       <c r="CH168" s="26">
-        <v>0.97322851721739834</v>
+        <v>0.9767721669078312</v>
       </c>
       <c r="CI168" s="26">
-        <v>1.1231780973229573</v>
+        <v>1.1813358096520878</v>
       </c>
       <c r="CJ168" s="26">
-        <v>1.602133182299464</v>
+        <v>1.6854462742598915</v>
       </c>
       <c r="CK168" s="26">
-        <v>2.3261568622167776</v>
-      </c>
-      <c r="CL168" s="26"/>
+        <v>1.9215405537628021</v>
+      </c>
+      <c r="CL168" s="26">
+        <v>1.0089685773464823</v>
+      </c>
       <c r="CM168" s="8"/>
       <c r="CN168" s="8"/>
       <c r="CO168" s="8"/>
@@ -27046,7 +27202,7 @@
       <c r="ET168" s="8"/>
       <c r="EU168" s="8"/>
     </row>
-    <row r="169" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
       <c r="D169" s="8"/>
@@ -27123,10 +27279,10 @@
       <c r="BW169" s="8"/>
       <c r="BX169" s="8"/>
       <c r="BY169" s="8"/>
-      <c r="BZ169" s="8"/>
-      <c r="CA169" s="8"/>
-      <c r="CB169" s="8"/>
-      <c r="CC169" s="8"/>
+      <c r="BZ169" s="21"/>
+      <c r="CA169" s="21"/>
+      <c r="CB169" s="21"/>
+      <c r="CC169" s="21"/>
       <c r="CD169" s="21"/>
       <c r="CE169" s="21"/>
       <c r="CF169" s="21"/>
@@ -27198,7 +27354,7 @@
       <c r="ET169" s="8"/>
       <c r="EU169" s="8"/>
     </row>
-    <row r="170" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A170" s="9" t="s">
         <v>18</v>
       </c>
@@ -27430,16 +27586,16 @@
       <c r="BY170" s="14">
         <v>100</v>
       </c>
-      <c r="BZ170" s="14">
+      <c r="BZ170" s="25">
         <v>100</v>
       </c>
-      <c r="CA170" s="14">
+      <c r="CA170" s="25">
         <v>100</v>
       </c>
-      <c r="CB170" s="14">
+      <c r="CB170" s="25">
         <v>100</v>
       </c>
-      <c r="CC170" s="14">
+      <c r="CC170" s="25">
         <v>100</v>
       </c>
       <c r="CD170" s="25">
@@ -27466,7 +27622,9 @@
       <c r="CK170" s="25">
         <v>100</v>
       </c>
-      <c r="CL170" s="25"/>
+      <c r="CL170" s="25">
+        <v>100</v>
+      </c>
       <c r="CM170" s="8"/>
       <c r="CN170" s="8"/>
       <c r="CO170" s="8"/>
@@ -27529,7 +27687,7 @@
       <c r="ET170" s="8"/>
       <c r="EU170" s="8"/>
     </row>
-    <row r="171" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -27607,10 +27765,10 @@
       <c r="BW171" s="11"/>
       <c r="BX171" s="11"/>
       <c r="BY171" s="11"/>
-      <c r="BZ171" s="11"/>
-      <c r="CA171" s="11"/>
-      <c r="CB171" s="11"/>
-      <c r="CC171" s="11"/>
+      <c r="BZ171" s="23"/>
+      <c r="CA171" s="23"/>
+      <c r="CB171" s="23"/>
+      <c r="CC171" s="23"/>
       <c r="CD171" s="23"/>
       <c r="CE171" s="23"/>
       <c r="CF171" s="23"/>
@@ -27621,12 +27779,12 @@
       <c r="CK171" s="23"/>
       <c r="CL171" s="23"/>
     </row>
-    <row r="172" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:151" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:151" s="17" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="16"/>
       <c r="C173" s="16"/>
@@ -27704,19 +27862,19 @@
       <c r="BW173" s="1"/>
       <c r="BX173" s="1"/>
       <c r="BY173" s="1"/>
-      <c r="BZ173" s="1"/>
-      <c r="CA173" s="1"/>
-      <c r="CB173" s="1"/>
-      <c r="CC173" s="1"/>
+      <c r="BZ173" s="18"/>
+      <c r="CA173" s="18"/>
+      <c r="CB173" s="18"/>
+      <c r="CC173" s="18"/>
       <c r="CD173" s="18"/>
       <c r="CE173" s="18"/>
       <c r="CF173" s="18"/>
       <c r="CG173" s="18"/>
-      <c r="CH173" s="18"/>
-      <c r="CI173" s="18"/>
-      <c r="CJ173" s="18"/>
-      <c r="CK173" s="18"/>
-      <c r="CL173" s="18"/>
+      <c r="CH173" s="32"/>
+      <c r="CI173" s="32"/>
+      <c r="CJ173" s="32"/>
+      <c r="CK173" s="32"/>
+      <c r="CL173" s="32"/>
       <c r="CM173" s="16"/>
       <c r="CN173" s="16"/>
       <c r="CO173" s="16"/>
@@ -27779,7 +27937,7 @@
       <c r="ET173" s="16"/>
       <c r="EU173" s="16"/>
     </row>
-    <row r="174" spans="1:151" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:151" s="17" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="16"/>
       <c r="C174" s="16"/>
@@ -27857,19 +28015,19 @@
       <c r="BW174" s="1"/>
       <c r="BX174" s="1"/>
       <c r="BY174" s="1"/>
-      <c r="BZ174" s="1"/>
-      <c r="CA174" s="1"/>
-      <c r="CB174" s="1"/>
-      <c r="CC174" s="1"/>
+      <c r="BZ174" s="18"/>
+      <c r="CA174" s="18"/>
+      <c r="CB174" s="18"/>
+      <c r="CC174" s="18"/>
       <c r="CD174" s="18"/>
       <c r="CE174" s="18"/>
       <c r="CF174" s="18"/>
       <c r="CG174" s="18"/>
-      <c r="CH174" s="18"/>
-      <c r="CI174" s="18"/>
-      <c r="CJ174" s="18"/>
-      <c r="CK174" s="18"/>
-      <c r="CL174" s="18"/>
+      <c r="CH174" s="32"/>
+      <c r="CI174" s="32"/>
+      <c r="CJ174" s="32"/>
+      <c r="CK174" s="32"/>
+      <c r="CL174" s="32"/>
       <c r="CM174" s="16"/>
       <c r="CN174" s="16"/>
       <c r="CO174" s="16"/>
@@ -28091,9 +28249,9 @@
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="50" max="87" man="1"/>
-    <brk id="100" max="87" man="1"/>
-    <brk id="124" max="87" man="1"/>
+    <brk id="50" max="89" man="1"/>
+    <brk id="100" max="89" man="1"/>
+    <brk id="124" max="89" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-05EOS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-05EOS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Time Series\2022\As of May 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828174F0-B5C8-4675-8147-2605E79F9AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7007E629-03CE-48DA-B8A6-47B6F8CC71CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EOS" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">EOS!$A$37:$A$48</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EOS!$A$1:$CL$174</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EOS!$A$1:$CM$174</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="56">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -216,13 +216,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of May 2022</t>
+    <t>As of August 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2022</t>
+    <t>Q1 2000 to Q2 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2022</t>
+    <t>Q1 2001 to Q2 2022</t>
   </si>
 </sst>
 </file>
@@ -230,11 +230,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -305,74 +305,61 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{6723F22D-4F90-4FF9-9259-EC4466D72A7E}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{78159270-CE73-4CE4-AA2D-A6D5E43E5F2C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -703,192 +690,191 @@
   <dimension ref="A1:EU174"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="95" zoomScaleNormal="95" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BZ150" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="CG3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="CJ167" sqref="CJ167"/>
+      <selection pane="bottomRight" activeCell="CP20" sqref="CP20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.77734375" style="1" customWidth="1"/>
-    <col min="2" max="73" width="8.77734375" style="1" customWidth="1"/>
-    <col min="74" max="77" width="10" style="1" customWidth="1"/>
-    <col min="78" max="90" width="10" style="18" customWidth="1"/>
-    <col min="91" max="91" width="7.77734375" style="1" customWidth="1"/>
-    <col min="92" max="16384" width="7.77734375" style="1"/>
+    <col min="1" max="1" width="43.81640625" style="1" customWidth="1"/>
+    <col min="2" max="73" width="8.81640625" style="1" customWidth="1"/>
+    <col min="74" max="91" width="10" style="1" customWidth="1"/>
+    <col min="92" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="29">
+      <c r="B9" s="22">
         <v>2000</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22">
         <v>2001</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29">
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22">
         <v>2002</v>
       </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29">
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22">
         <v>2003</v>
       </c>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29">
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22">
         <v>2004</v>
       </c>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29">
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22">
         <v>2005</v>
       </c>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29">
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22">
         <v>2006</v>
       </c>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29">
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22">
         <v>2007</v>
       </c>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="29">
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22">
         <v>2008</v>
       </c>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="29"/>
-      <c r="AL9" s="29">
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22">
         <v>2009</v>
       </c>
-      <c r="AM9" s="29"/>
-      <c r="AN9" s="29"/>
-      <c r="AO9" s="29"/>
-      <c r="AP9" s="29">
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="22"/>
+      <c r="AP9" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="29"/>
-      <c r="AR9" s="29"/>
-      <c r="AS9" s="29"/>
-      <c r="AT9" s="29">
+      <c r="AQ9" s="22"/>
+      <c r="AR9" s="22"/>
+      <c r="AS9" s="22"/>
+      <c r="AT9" s="22">
         <v>2011</v>
       </c>
-      <c r="AU9" s="29"/>
-      <c r="AV9" s="29"/>
-      <c r="AW9" s="29"/>
-      <c r="AX9" s="29">
+      <c r="AU9" s="22"/>
+      <c r="AV9" s="22"/>
+      <c r="AW9" s="22"/>
+      <c r="AX9" s="22">
         <v>2012</v>
       </c>
-      <c r="AY9" s="29"/>
-      <c r="AZ9" s="29"/>
-      <c r="BA9" s="29"/>
-      <c r="BB9" s="29">
+      <c r="AY9" s="22"/>
+      <c r="AZ9" s="22"/>
+      <c r="BA9" s="22"/>
+      <c r="BB9" s="22">
         <v>2013</v>
       </c>
-      <c r="BC9" s="29"/>
-      <c r="BD9" s="29"/>
-      <c r="BE9" s="29"/>
-      <c r="BF9" s="29">
+      <c r="BC9" s="22"/>
+      <c r="BD9" s="22"/>
+      <c r="BE9" s="22"/>
+      <c r="BF9" s="22">
         <v>2014</v>
       </c>
-      <c r="BG9" s="29"/>
-      <c r="BH9" s="29"/>
-      <c r="BI9" s="29"/>
-      <c r="BJ9" s="29">
+      <c r="BG9" s="22"/>
+      <c r="BH9" s="22"/>
+      <c r="BI9" s="22"/>
+      <c r="BJ9" s="22">
         <v>2015</v>
       </c>
-      <c r="BK9" s="29"/>
-      <c r="BL9" s="29"/>
-      <c r="BM9" s="29"/>
-      <c r="BN9" s="29">
+      <c r="BK9" s="22"/>
+      <c r="BL9" s="22"/>
+      <c r="BM9" s="22"/>
+      <c r="BN9" s="22">
         <v>2016</v>
       </c>
-      <c r="BO9" s="29"/>
-      <c r="BP9" s="29"/>
-      <c r="BQ9" s="29"/>
-      <c r="BR9" s="29">
+      <c r="BO9" s="22"/>
+      <c r="BP9" s="22"/>
+      <c r="BQ9" s="22"/>
+      <c r="BR9" s="22">
         <v>2017</v>
       </c>
-      <c r="BS9" s="29"/>
-      <c r="BT9" s="29"/>
-      <c r="BU9" s="29"/>
-      <c r="BV9" s="29">
+      <c r="BS9" s="22"/>
+      <c r="BT9" s="22"/>
+      <c r="BU9" s="22"/>
+      <c r="BV9" s="22">
         <v>2018</v>
       </c>
-      <c r="BW9" s="29"/>
-      <c r="BX9" s="29"/>
-      <c r="BY9" s="29"/>
-      <c r="BZ9" s="28">
+      <c r="BW9" s="22"/>
+      <c r="BX9" s="22"/>
+      <c r="BY9" s="22"/>
+      <c r="BZ9" s="22">
         <v>2019</v>
       </c>
-      <c r="CA9" s="28"/>
-      <c r="CB9" s="28"/>
-      <c r="CC9" s="28"/>
-      <c r="CD9" s="28">
+      <c r="CA9" s="22"/>
+      <c r="CB9" s="22"/>
+      <c r="CC9" s="22"/>
+      <c r="CD9" s="22">
         <v>2020</v>
       </c>
-      <c r="CE9" s="28"/>
-      <c r="CF9" s="28"/>
-      <c r="CG9" s="28"/>
-      <c r="CH9" s="28">
+      <c r="CE9" s="22"/>
+      <c r="CF9" s="22"/>
+      <c r="CG9" s="22"/>
+      <c r="CH9" s="22">
         <v>2021</v>
       </c>
-      <c r="CI9" s="28"/>
-      <c r="CJ9" s="28"/>
-      <c r="CK9" s="28"/>
-      <c r="CL9" s="27">
+      <c r="CI9" s="22"/>
+      <c r="CJ9" s="22"/>
+      <c r="CK9" s="22"/>
+      <c r="CL9" s="22">
         <v>2022</v>
       </c>
+      <c r="CM9" s="22"/>
     </row>
-    <row r="10" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>7</v>
@@ -1118,50 +1104,53 @@
       <c r="BY10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="BZ10" s="19" t="s">
+      <c r="BZ10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CA10" s="19" t="s">
+      <c r="CA10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CB10" s="19" t="s">
+      <c r="CB10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CC10" s="19" t="s">
+      <c r="CC10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CD10" s="19" t="s">
+      <c r="CD10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CE10" s="19" t="s">
+      <c r="CE10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CF10" s="19" t="s">
+      <c r="CF10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CG10" s="19" t="s">
+      <c r="CG10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CH10" s="19" t="s">
+      <c r="CH10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CI10" s="19" t="s">
+      <c r="CI10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CJ10" s="19" t="s">
+      <c r="CJ10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CK10" s="19" t="s">
+      <c r="CK10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CL10" s="19" t="s">
+      <c r="CL10" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="CM10" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
     </row>
-    <row r="12" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1393,46 +1382,48 @@
       <c r="BY12" s="7">
         <v>42624.351329436598</v>
       </c>
-      <c r="BZ12" s="20">
+      <c r="BZ12" s="7">
         <v>40432.192677417719</v>
       </c>
-      <c r="CA12" s="20">
+      <c r="CA12" s="7">
         <v>41319.8898629619</v>
       </c>
-      <c r="CB12" s="20">
+      <c r="CB12" s="7">
         <v>42837.454724796349</v>
       </c>
-      <c r="CC12" s="20">
+      <c r="CC12" s="7">
         <v>45790.436819050155</v>
       </c>
-      <c r="CD12" s="20">
+      <c r="CD12" s="7">
         <v>34443.779051241945</v>
       </c>
-      <c r="CE12" s="20">
+      <c r="CE12" s="7">
         <v>14174.47972644388</v>
       </c>
-      <c r="CF12" s="20">
+      <c r="CF12" s="7">
         <v>20115.500886305032</v>
       </c>
-      <c r="CG12" s="20">
+      <c r="CG12" s="7">
         <v>22216.480801235044</v>
       </c>
-      <c r="CH12" s="20">
+      <c r="CH12" s="19">
         <v>21033.793561145554</v>
       </c>
-      <c r="CI12" s="20">
+      <c r="CI12" s="19">
         <v>18620.122244720733</v>
       </c>
-      <c r="CJ12" s="20">
+      <c r="CJ12" s="19">
         <v>26603.035473364289</v>
       </c>
-      <c r="CK12" s="20">
+      <c r="CK12" s="19">
         <v>30251.874477730737</v>
       </c>
-      <c r="CL12" s="20">
-        <v>42557.256473515154</v>
-      </c>
-      <c r="CM12" s="8"/>
+      <c r="CL12" s="19">
+        <v>50258.560429231249</v>
+      </c>
+      <c r="CM12" s="19">
+        <v>36009.046918646607</v>
+      </c>
       <c r="CN12" s="8"/>
       <c r="CO12" s="8"/>
       <c r="CP12" s="8"/>
@@ -1494,7 +1485,7 @@
       <c r="ET12" s="8"/>
       <c r="EU12" s="8"/>
     </row>
-    <row r="13" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1726,46 +1717,48 @@
       <c r="BY13" s="7">
         <v>772.79781208080999</v>
       </c>
-      <c r="BZ13" s="20">
+      <c r="BZ13" s="7">
         <v>508.58266453968685</v>
       </c>
-      <c r="CA13" s="20">
+      <c r="CA13" s="7">
         <v>419.67368422295664</v>
       </c>
-      <c r="CB13" s="20">
+      <c r="CB13" s="7">
         <v>800.99575106575696</v>
       </c>
-      <c r="CC13" s="20">
+      <c r="CC13" s="7">
         <v>811.98755828997855</v>
       </c>
-      <c r="CD13" s="20">
+      <c r="CD13" s="7">
         <v>480.0441985661364</v>
       </c>
-      <c r="CE13" s="20">
+      <c r="CE13" s="7">
         <v>295.26631563989986</v>
       </c>
-      <c r="CF13" s="20">
+      <c r="CF13" s="7">
         <v>689.27086824640162</v>
       </c>
-      <c r="CG13" s="20">
+      <c r="CG13" s="7">
         <v>764.01571953703251</v>
       </c>
-      <c r="CH13" s="20">
+      <c r="CH13" s="19">
         <v>494.94355919274147</v>
       </c>
-      <c r="CI13" s="20">
+      <c r="CI13" s="19">
         <v>373.40447089070352</v>
       </c>
-      <c r="CJ13" s="20">
+      <c r="CJ13" s="19">
         <v>784.47112518823997</v>
       </c>
-      <c r="CK13" s="20">
+      <c r="CK13" s="19">
         <v>830.4420663112827</v>
       </c>
-      <c r="CL13" s="20">
-        <v>557.55235291345628</v>
-      </c>
-      <c r="CM13" s="8"/>
+      <c r="CL13" s="19">
+        <v>585.8994176014229</v>
+      </c>
+      <c r="CM13" s="19">
+        <v>428.04849707079131</v>
+      </c>
       <c r="CN13" s="8"/>
       <c r="CO13" s="8"/>
       <c r="CP13" s="8"/>
@@ -1827,7 +1820,7 @@
       <c r="ET13" s="8"/>
       <c r="EU13" s="8"/>
     </row>
-    <row r="14" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2059,46 +2052,48 @@
       <c r="BY14" s="7">
         <v>84131.976438938029</v>
       </c>
-      <c r="BZ14" s="20">
+      <c r="BZ14" s="7">
         <v>156544.746770167</v>
       </c>
-      <c r="CA14" s="20">
+      <c r="CA14" s="7">
         <v>150109.835100989</v>
       </c>
-      <c r="CB14" s="20">
+      <c r="CB14" s="7">
         <v>168700.29436524701</v>
       </c>
-      <c r="CC14" s="20">
+      <c r="CC14" s="7">
         <v>102672.183663597</v>
       </c>
-      <c r="CD14" s="20">
+      <c r="CD14" s="7">
         <v>113062.26479711011</v>
       </c>
-      <c r="CE14" s="20">
+      <c r="CE14" s="7">
         <v>5409.6907766346912</v>
       </c>
-      <c r="CF14" s="20">
+      <c r="CF14" s="7">
         <v>14472.992673047263</v>
       </c>
-      <c r="CG14" s="20">
+      <c r="CG14" s="7">
         <v>8252.2359478950566</v>
       </c>
-      <c r="CH14" s="20">
+      <c r="CH14" s="19">
         <v>1824.7826860301004</v>
       </c>
-      <c r="CI14" s="20">
+      <c r="CI14" s="19">
         <v>29756.647764917354</v>
       </c>
-      <c r="CJ14" s="20">
+      <c r="CJ14" s="19">
         <v>23926.254159618922</v>
       </c>
-      <c r="CK14" s="20">
+      <c r="CK14" s="19">
         <v>13235.535014912855</v>
       </c>
-      <c r="CL14" s="20">
+      <c r="CL14" s="19">
         <v>17456.163863680598</v>
       </c>
-      <c r="CM14" s="8"/>
+      <c r="CM14" s="19">
+        <v>65688.282806033225</v>
+      </c>
       <c r="CN14" s="8"/>
       <c r="CO14" s="8"/>
       <c r="CP14" s="8"/>
@@ -2160,7 +2155,7 @@
       <c r="ET14" s="8"/>
       <c r="EU14" s="8"/>
     </row>
-    <row r="15" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2392,46 +2387,48 @@
       <c r="BY15" s="7">
         <v>2516.3230146574101</v>
       </c>
-      <c r="BZ15" s="20">
+      <c r="BZ15" s="7">
         <v>2234.8910044188465</v>
       </c>
-      <c r="CA15" s="20">
+      <c r="CA15" s="7">
         <v>2434.1008170299829</v>
       </c>
-      <c r="CB15" s="20">
+      <c r="CB15" s="7">
         <v>2689.6706049143772</v>
       </c>
-      <c r="CC15" s="20">
+      <c r="CC15" s="7">
         <v>2687.5370860009766</v>
       </c>
-      <c r="CD15" s="20">
+      <c r="CD15" s="7">
         <v>2105.4323915538039</v>
       </c>
-      <c r="CE15" s="20">
+      <c r="CE15" s="7">
         <v>2266.2550765925102</v>
       </c>
-      <c r="CF15" s="20">
+      <c r="CF15" s="7">
         <v>2473.4479522705974</v>
       </c>
-      <c r="CG15" s="20">
+      <c r="CG15" s="7">
         <v>2462.0720387274218</v>
       </c>
-      <c r="CH15" s="20">
+      <c r="CH15" s="19">
         <v>3176.1164861084762</v>
       </c>
-      <c r="CI15" s="20">
+      <c r="CI15" s="19">
         <v>3438.8113492011862</v>
       </c>
-      <c r="CJ15" s="20">
+      <c r="CJ15" s="19">
         <v>3776.489155427616</v>
       </c>
-      <c r="CK15" s="20">
+      <c r="CK15" s="19">
         <v>3766.3361559899336</v>
       </c>
-      <c r="CL15" s="20">
-        <v>3573.2744309920454</v>
-      </c>
-      <c r="CM15" s="8"/>
+      <c r="CL15" s="19">
+        <v>3348.254398481552</v>
+      </c>
+      <c r="CM15" s="19">
+        <v>3614.5559700248496</v>
+      </c>
       <c r="CN15" s="8"/>
       <c r="CO15" s="8"/>
       <c r="CP15" s="8"/>
@@ -2493,7 +2490,7 @@
       <c r="ET15" s="8"/>
       <c r="EU15" s="8"/>
     </row>
-    <row r="16" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2725,46 +2722,48 @@
       <c r="BY16" s="7">
         <v>61255.114533223765</v>
       </c>
-      <c r="BZ16" s="20">
+      <c r="BZ16" s="7">
         <v>105508.83527054502</v>
       </c>
-      <c r="CA16" s="20">
+      <c r="CA16" s="7">
         <v>120503.71338368337</v>
       </c>
-      <c r="CB16" s="20">
+      <c r="CB16" s="7">
         <v>75851.246935623087</v>
       </c>
-      <c r="CC16" s="20">
+      <c r="CC16" s="7">
         <v>64546.344676669141</v>
       </c>
-      <c r="CD16" s="20">
+      <c r="CD16" s="7">
         <v>108730.73949534736</v>
       </c>
-      <c r="CE16" s="20">
+      <c r="CE16" s="7">
         <v>94355.463227557135</v>
       </c>
-      <c r="CF16" s="20">
+      <c r="CF16" s="7">
         <v>58108.424492498925</v>
       </c>
-      <c r="CG16" s="20">
+      <c r="CG16" s="7">
         <v>63032.484317865848</v>
       </c>
-      <c r="CH16" s="20">
+      <c r="CH16" s="19">
         <v>109197.40960693023</v>
       </c>
-      <c r="CI16" s="20">
+      <c r="CI16" s="19">
         <v>104767.58928580767</v>
       </c>
-      <c r="CJ16" s="20">
+      <c r="CJ16" s="19">
         <v>69917.210739065209</v>
       </c>
-      <c r="CK16" s="20">
+      <c r="CK16" s="19">
         <v>71687.597244250457</v>
       </c>
-      <c r="CL16" s="20">
-        <v>123235.25019913775</v>
-      </c>
-      <c r="CM16" s="8"/>
+      <c r="CL16" s="19">
+        <v>119249.64583015742</v>
+      </c>
+      <c r="CM16" s="19">
+        <v>115181.52408087405</v>
+      </c>
       <c r="CN16" s="8"/>
       <c r="CO16" s="8"/>
       <c r="CP16" s="8"/>
@@ -2826,7 +2825,7 @@
       <c r="ET16" s="8"/>
       <c r="EU16" s="8"/>
     </row>
-    <row r="17" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -3058,46 +3057,48 @@
       <c r="BY17" s="7">
         <v>277339.67259211745</v>
       </c>
-      <c r="BZ17" s="20">
+      <c r="BZ17" s="7">
         <v>322804.9239772397</v>
       </c>
-      <c r="CA17" s="20">
+      <c r="CA17" s="7">
         <v>338877.35487584147</v>
       </c>
-      <c r="CB17" s="20">
+      <c r="CB17" s="7">
         <v>256365.77376729166</v>
       </c>
-      <c r="CC17" s="20">
+      <c r="CC17" s="7">
         <v>269156.31011836824</v>
       </c>
-      <c r="CD17" s="20">
+      <c r="CD17" s="7">
         <v>353046.08775540534</v>
       </c>
-      <c r="CE17" s="20">
+      <c r="CE17" s="7">
         <v>298544.10569727549</v>
       </c>
-      <c r="CF17" s="20">
+      <c r="CF17" s="7">
         <v>249825.37479479954</v>
       </c>
-      <c r="CG17" s="20">
+      <c r="CG17" s="7">
         <v>265829.70707802282</v>
       </c>
-      <c r="CH17" s="20">
+      <c r="CH17" s="19">
         <v>351110.89551138802</v>
       </c>
-      <c r="CI17" s="20">
+      <c r="CI17" s="19">
         <v>354259.84603114275</v>
       </c>
-      <c r="CJ17" s="20">
+      <c r="CJ17" s="19">
         <v>261571.11927991663</v>
       </c>
-      <c r="CK17" s="20">
+      <c r="CK17" s="19">
         <v>292354.81528290245</v>
       </c>
-      <c r="CL17" s="20">
-        <v>398999.59706351632</v>
-      </c>
-      <c r="CM17" s="8"/>
+      <c r="CL17" s="19">
+        <v>404523.9111191493</v>
+      </c>
+      <c r="CM17" s="19">
+        <v>412500.31654613063</v>
+      </c>
       <c r="CN17" s="8"/>
       <c r="CO17" s="8"/>
       <c r="CP17" s="8"/>
@@ -3159,7 +3160,7 @@
       <c r="ET17" s="8"/>
       <c r="EU17" s="8"/>
     </row>
-    <row r="18" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -3391,46 +3392,48 @@
       <c r="BY18" s="7">
         <v>42165.608541257541</v>
       </c>
-      <c r="BZ18" s="20">
+      <c r="BZ18" s="7">
         <v>70817.959040484013</v>
       </c>
-      <c r="CA18" s="20">
+      <c r="CA18" s="7">
         <v>78950.263516608989</v>
       </c>
-      <c r="CB18" s="20">
+      <c r="CB18" s="7">
         <v>51418.900646949529</v>
       </c>
-      <c r="CC18" s="20">
+      <c r="CC18" s="7">
         <v>46459.03507256334</v>
       </c>
-      <c r="CD18" s="20">
+      <c r="CD18" s="7">
         <v>71805.642590515621</v>
       </c>
-      <c r="CE18" s="20">
+      <c r="CE18" s="7">
         <v>55514.527226990889</v>
       </c>
-      <c r="CF18" s="20">
+      <c r="CF18" s="7">
         <v>45589.088109905439</v>
       </c>
-      <c r="CG18" s="20">
+      <c r="CG18" s="7">
         <v>42373.462819087537</v>
       </c>
-      <c r="CH18" s="20">
+      <c r="CH18" s="19">
         <v>72915.18059972288</v>
       </c>
-      <c r="CI18" s="20">
+      <c r="CI18" s="19">
         <v>74563.954960931631</v>
       </c>
-      <c r="CJ18" s="20">
+      <c r="CJ18" s="19">
         <v>52823.822989122251</v>
       </c>
-      <c r="CK18" s="20">
+      <c r="CK18" s="19">
         <v>54093.085107005565</v>
       </c>
-      <c r="CL18" s="20">
-        <v>90438.765311851326</v>
-      </c>
-      <c r="CM18" s="8"/>
+      <c r="CL18" s="19">
+        <v>85078.686739903889</v>
+      </c>
+      <c r="CM18" s="19">
+        <v>79550.49411432122</v>
+      </c>
       <c r="CN18" s="8"/>
       <c r="CO18" s="8"/>
       <c r="CP18" s="8"/>
@@ -3492,7 +3495,7 @@
       <c r="ET18" s="8"/>
       <c r="EU18" s="8"/>
     </row>
-    <row r="19" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -3724,46 +3727,48 @@
       <c r="BY19" s="7">
         <v>8354.5650842207506</v>
       </c>
-      <c r="BZ19" s="20">
+      <c r="BZ19" s="7">
         <v>10422.450513838163</v>
       </c>
-      <c r="CA19" s="20">
+      <c r="CA19" s="7">
         <v>11134.232544967574</v>
       </c>
-      <c r="CB19" s="20">
+      <c r="CB19" s="7">
         <v>6472.4065861981717</v>
       </c>
-      <c r="CC19" s="20">
+      <c r="CC19" s="7">
         <v>7878.07073289245</v>
       </c>
-      <c r="CD19" s="20">
+      <c r="CD19" s="7">
         <v>5858.8082420570718</v>
       </c>
-      <c r="CE19" s="20">
+      <c r="CE19" s="7">
         <v>6145.9804818577413</v>
       </c>
-      <c r="CF19" s="20">
+      <c r="CF19" s="7">
         <v>5573.8622809499757</v>
       </c>
-      <c r="CG19" s="20">
+      <c r="CG19" s="7">
         <v>4400.8441803208916</v>
       </c>
-      <c r="CH19" s="20">
+      <c r="CH19" s="19">
         <v>5517.5954396211473</v>
       </c>
-      <c r="CI19" s="20">
+      <c r="CI19" s="19">
         <v>7227.2269652881387</v>
       </c>
-      <c r="CJ19" s="20">
+      <c r="CJ19" s="19">
         <v>7609.4855653468167</v>
       </c>
-      <c r="CK19" s="20">
+      <c r="CK19" s="19">
         <v>9079.7759989805163</v>
       </c>
-      <c r="CL19" s="20">
-        <v>6909.6990385703484</v>
-      </c>
-      <c r="CM19" s="8"/>
+      <c r="CL19" s="19">
+        <v>6829.4635405949539</v>
+      </c>
+      <c r="CM19" s="19">
+        <v>9087.6639798793731</v>
+      </c>
       <c r="CN19" s="8"/>
       <c r="CO19" s="8"/>
       <c r="CP19" s="8"/>
@@ -3825,7 +3830,7 @@
       <c r="ET19" s="8"/>
       <c r="EU19" s="8"/>
     </row>
-    <row r="20" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -3902,19 +3907,19 @@
       <c r="BW20" s="8"/>
       <c r="BX20" s="8"/>
       <c r="BY20" s="8"/>
-      <c r="BZ20" s="21"/>
-      <c r="CA20" s="21"/>
-      <c r="CB20" s="21"/>
-      <c r="CC20" s="21"/>
-      <c r="CD20" s="21"/>
-      <c r="CE20" s="21"/>
-      <c r="CF20" s="21"/>
-      <c r="CG20" s="21"/>
-      <c r="CH20" s="21"/>
-      <c r="CI20" s="21"/>
-      <c r="CJ20" s="21"/>
-      <c r="CK20" s="21"/>
-      <c r="CL20" s="21"/>
+      <c r="BZ20" s="8"/>
+      <c r="CA20" s="8"/>
+      <c r="CB20" s="8"/>
+      <c r="CC20" s="8"/>
+      <c r="CD20" s="8"/>
+      <c r="CE20" s="8"/>
+      <c r="CF20" s="8"/>
+      <c r="CG20" s="8"/>
+      <c r="CH20" s="8"/>
+      <c r="CI20" s="8"/>
+      <c r="CJ20" s="8"/>
+      <c r="CK20" s="8"/>
+      <c r="CL20" s="8"/>
       <c r="CM20" s="8"/>
       <c r="CN20" s="8"/>
       <c r="CO20" s="8"/>
@@ -3977,7 +3982,7 @@
       <c r="ET20" s="8"/>
       <c r="EU20" s="8"/>
     </row>
-    <row r="21" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>18</v>
       </c>
@@ -4209,46 +4214,48 @@
       <c r="BY21" s="10">
         <v>519160.40934593236</v>
       </c>
-      <c r="BZ21" s="22">
+      <c r="BZ21" s="10">
         <v>709274.58191865019</v>
       </c>
-      <c r="CA21" s="22">
+      <c r="CA21" s="10">
         <v>743749.06378630525</v>
       </c>
-      <c r="CB21" s="22">
+      <c r="CB21" s="10">
         <v>605136.74338208593</v>
       </c>
-      <c r="CC21" s="22">
+      <c r="CC21" s="10">
         <v>540001.90572743129</v>
       </c>
-      <c r="CD21" s="22">
+      <c r="CD21" s="10">
         <v>689532.79852179741</v>
       </c>
-      <c r="CE21" s="22">
+      <c r="CE21" s="10">
         <v>476705.76852899225</v>
       </c>
-      <c r="CF21" s="22">
+      <c r="CF21" s="10">
         <v>396847.96205802314</v>
       </c>
-      <c r="CG21" s="22">
+      <c r="CG21" s="10">
         <v>409331.30290269171</v>
       </c>
-      <c r="CH21" s="22">
+      <c r="CH21" s="20">
         <v>565270.71745013911</v>
       </c>
-      <c r="CI21" s="22">
+      <c r="CI21" s="20">
         <v>593007.60307290021</v>
       </c>
-      <c r="CJ21" s="22">
+      <c r="CJ21" s="20">
         <v>447011.88848705002</v>
       </c>
-      <c r="CK21" s="22">
+      <c r="CK21" s="20">
         <v>475299.4613480838</v>
       </c>
-      <c r="CL21" s="22">
-        <v>683727.55873417703</v>
-      </c>
-      <c r="CM21" s="8"/>
+      <c r="CL21" s="20">
+        <v>687330.58533880033</v>
+      </c>
+      <c r="CM21" s="20">
+        <v>722059.93291298067</v>
+      </c>
       <c r="CN21" s="8"/>
       <c r="CO21" s="8"/>
       <c r="CP21" s="8"/>
@@ -4310,7 +4317,7 @@
       <c r="ET21" s="8"/>
       <c r="EU21" s="8"/>
     </row>
-    <row r="22" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -4388,26 +4395,27 @@
       <c r="BW22" s="11"/>
       <c r="BX22" s="11"/>
       <c r="BY22" s="11"/>
-      <c r="BZ22" s="23"/>
-      <c r="CA22" s="23"/>
-      <c r="CB22" s="23"/>
-      <c r="CC22" s="23"/>
-      <c r="CD22" s="23"/>
-      <c r="CE22" s="23"/>
-      <c r="CF22" s="23"/>
-      <c r="CG22" s="23"/>
-      <c r="CH22" s="23"/>
-      <c r="CI22" s="23"/>
-      <c r="CJ22" s="23"/>
-      <c r="CK22" s="23"/>
-      <c r="CL22" s="23"/>
+      <c r="BZ22" s="11"/>
+      <c r="CA22" s="11"/>
+      <c r="CB22" s="11"/>
+      <c r="CC22" s="11"/>
+      <c r="CD22" s="11"/>
+      <c r="CE22" s="11"/>
+      <c r="CF22" s="11"/>
+      <c r="CG22" s="11"/>
+      <c r="CH22" s="11"/>
+      <c r="CI22" s="11"/>
+      <c r="CJ22" s="11"/>
+      <c r="CK22" s="11"/>
+      <c r="CL22" s="11"/>
+      <c r="CM22" s="11"/>
     </row>
-    <row r="23" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -4484,19 +4492,19 @@
       <c r="BW24" s="8"/>
       <c r="BX24" s="8"/>
       <c r="BY24" s="8"/>
-      <c r="BZ24" s="21"/>
-      <c r="CA24" s="21"/>
-      <c r="CB24" s="21"/>
-      <c r="CC24" s="21"/>
-      <c r="CD24" s="21"/>
-      <c r="CE24" s="21"/>
-      <c r="CF24" s="21"/>
-      <c r="CG24" s="21"/>
-      <c r="CH24" s="21"/>
-      <c r="CI24" s="21"/>
-      <c r="CJ24" s="21"/>
-      <c r="CK24" s="21"/>
-      <c r="CL24" s="21"/>
+      <c r="BZ24" s="8"/>
+      <c r="CA24" s="8"/>
+      <c r="CB24" s="8"/>
+      <c r="CC24" s="8"/>
+      <c r="CD24" s="8"/>
+      <c r="CE24" s="8"/>
+      <c r="CF24" s="8"/>
+      <c r="CG24" s="8"/>
+      <c r="CH24" s="8"/>
+      <c r="CI24" s="8"/>
+      <c r="CJ24" s="8"/>
+      <c r="CK24" s="8"/>
+      <c r="CL24" s="8"/>
       <c r="CM24" s="8"/>
       <c r="CN24" s="8"/>
       <c r="CO24" s="8"/>
@@ -4559,7 +4567,7 @@
       <c r="ET24" s="8"/>
       <c r="EU24" s="8"/>
     </row>
-    <row r="25" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -4636,19 +4644,19 @@
       <c r="BW25" s="8"/>
       <c r="BX25" s="8"/>
       <c r="BY25" s="8"/>
-      <c r="BZ25" s="21"/>
-      <c r="CA25" s="21"/>
-      <c r="CB25" s="21"/>
-      <c r="CC25" s="21"/>
-      <c r="CD25" s="21"/>
-      <c r="CE25" s="21"/>
-      <c r="CF25" s="21"/>
-      <c r="CG25" s="21"/>
-      <c r="CH25" s="21"/>
-      <c r="CI25" s="21"/>
-      <c r="CJ25" s="21"/>
-      <c r="CK25" s="21"/>
-      <c r="CL25" s="21"/>
+      <c r="BZ25" s="8"/>
+      <c r="CA25" s="8"/>
+      <c r="CB25" s="8"/>
+      <c r="CC25" s="8"/>
+      <c r="CD25" s="8"/>
+      <c r="CE25" s="8"/>
+      <c r="CF25" s="8"/>
+      <c r="CG25" s="8"/>
+      <c r="CH25" s="8"/>
+      <c r="CI25" s="8"/>
+      <c r="CJ25" s="8"/>
+      <c r="CK25" s="8"/>
+      <c r="CL25" s="8"/>
       <c r="CM25" s="8"/>
       <c r="CN25" s="8"/>
       <c r="CO25" s="8"/>
@@ -4711,175 +4719,176 @@
       <c r="ET25" s="8"/>
       <c r="EU25" s="8"/>
     </row>
-    <row r="26" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
-      <c r="B34" s="31">
+      <c r="B34" s="23">
         <v>2000</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31">
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23">
         <v>2001</v>
       </c>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31">
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23">
         <v>2002</v>
       </c>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31">
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23">
         <v>2003</v>
       </c>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31">
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23">
         <v>2004</v>
       </c>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31">
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23">
         <v>2005</v>
       </c>
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="31"/>
-      <c r="Z34" s="31">
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23">
         <v>2006</v>
       </c>
-      <c r="AA34" s="31"/>
-      <c r="AB34" s="31"/>
-      <c r="AC34" s="31"/>
-      <c r="AD34" s="31">
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23">
         <v>2007</v>
       </c>
-      <c r="AE34" s="31"/>
-      <c r="AF34" s="31"/>
-      <c r="AG34" s="31"/>
-      <c r="AH34" s="31">
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="23"/>
+      <c r="AG34" s="23"/>
+      <c r="AH34" s="23">
         <v>2008</v>
       </c>
-      <c r="AI34" s="31"/>
-      <c r="AJ34" s="31"/>
-      <c r="AK34" s="31"/>
-      <c r="AL34" s="31">
+      <c r="AI34" s="23"/>
+      <c r="AJ34" s="23"/>
+      <c r="AK34" s="23"/>
+      <c r="AL34" s="23">
         <v>2009</v>
       </c>
-      <c r="AM34" s="31"/>
-      <c r="AN34" s="31"/>
-      <c r="AO34" s="31"/>
-      <c r="AP34" s="31">
+      <c r="AM34" s="23"/>
+      <c r="AN34" s="23"/>
+      <c r="AO34" s="23"/>
+      <c r="AP34" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ34" s="31"/>
-      <c r="AR34" s="31"/>
-      <c r="AS34" s="31"/>
-      <c r="AT34" s="31">
+      <c r="AQ34" s="23"/>
+      <c r="AR34" s="23"/>
+      <c r="AS34" s="23"/>
+      <c r="AT34" s="23">
         <v>2011</v>
       </c>
-      <c r="AU34" s="31"/>
-      <c r="AV34" s="31"/>
-      <c r="AW34" s="31"/>
-      <c r="AX34" s="31">
+      <c r="AU34" s="23"/>
+      <c r="AV34" s="23"/>
+      <c r="AW34" s="23"/>
+      <c r="AX34" s="23">
         <v>2012</v>
       </c>
-      <c r="AY34" s="31"/>
-      <c r="AZ34" s="31"/>
-      <c r="BA34" s="31"/>
-      <c r="BB34" s="31">
+      <c r="AY34" s="23"/>
+      <c r="AZ34" s="23"/>
+      <c r="BA34" s="23"/>
+      <c r="BB34" s="23">
         <v>2013</v>
       </c>
-      <c r="BC34" s="31"/>
-      <c r="BD34" s="31"/>
-      <c r="BE34" s="31"/>
-      <c r="BF34" s="31">
+      <c r="BC34" s="23"/>
+      <c r="BD34" s="23"/>
+      <c r="BE34" s="23"/>
+      <c r="BF34" s="23">
         <v>2014</v>
       </c>
-      <c r="BG34" s="31"/>
-      <c r="BH34" s="31"/>
-      <c r="BI34" s="31"/>
-      <c r="BJ34" s="31">
+      <c r="BG34" s="23"/>
+      <c r="BH34" s="23"/>
+      <c r="BI34" s="23"/>
+      <c r="BJ34" s="23">
         <v>2015</v>
       </c>
-      <c r="BK34" s="31"/>
-      <c r="BL34" s="31"/>
-      <c r="BM34" s="31"/>
-      <c r="BN34" s="31">
+      <c r="BK34" s="23"/>
+      <c r="BL34" s="23"/>
+      <c r="BM34" s="23"/>
+      <c r="BN34" s="23">
         <v>2016</v>
       </c>
-      <c r="BO34" s="31"/>
-      <c r="BP34" s="31"/>
-      <c r="BQ34" s="31"/>
-      <c r="BR34" s="31">
+      <c r="BO34" s="23"/>
+      <c r="BP34" s="23"/>
+      <c r="BQ34" s="23"/>
+      <c r="BR34" s="23">
         <v>2017</v>
       </c>
-      <c r="BS34" s="31"/>
-      <c r="BT34" s="31"/>
-      <c r="BU34" s="31"/>
-      <c r="BV34" s="31">
+      <c r="BS34" s="23"/>
+      <c r="BT34" s="23"/>
+      <c r="BU34" s="23"/>
+      <c r="BV34" s="23">
         <v>2018</v>
       </c>
-      <c r="BW34" s="31"/>
-      <c r="BX34" s="31"/>
-      <c r="BY34" s="31"/>
-      <c r="BZ34" s="30">
+      <c r="BW34" s="23"/>
+      <c r="BX34" s="23"/>
+      <c r="BY34" s="23"/>
+      <c r="BZ34" s="23">
         <v>2019</v>
       </c>
-      <c r="CA34" s="30"/>
-      <c r="CB34" s="30"/>
-      <c r="CC34" s="30"/>
-      <c r="CD34" s="28">
+      <c r="CA34" s="23"/>
+      <c r="CB34" s="23"/>
+      <c r="CC34" s="23"/>
+      <c r="CD34" s="23">
         <v>2020</v>
       </c>
-      <c r="CE34" s="28"/>
-      <c r="CF34" s="28"/>
-      <c r="CG34" s="28"/>
-      <c r="CH34" s="28">
+      <c r="CE34" s="23"/>
+      <c r="CF34" s="23"/>
+      <c r="CG34" s="23"/>
+      <c r="CH34" s="22">
         <v>2021</v>
       </c>
-      <c r="CI34" s="28"/>
-      <c r="CJ34" s="28"/>
-      <c r="CK34" s="28"/>
-      <c r="CL34" s="27">
+      <c r="CI34" s="22"/>
+      <c r="CJ34" s="22"/>
+      <c r="CK34" s="22"/>
+      <c r="CL34" s="22">
         <v>2022</v>
       </c>
+      <c r="CM34" s="22"/>
     </row>
-    <row r="35" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="13" t="s">
         <v>7</v>
@@ -5109,50 +5118,53 @@
       <c r="BY35" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="BZ35" s="24" t="s">
+      <c r="BZ35" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CA35" s="24" t="s">
+      <c r="CA35" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="CB35" s="24" t="s">
+      <c r="CB35" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="CC35" s="24" t="s">
+      <c r="CC35" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CD35" s="24" t="s">
+      <c r="CD35" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CE35" s="24" t="s">
+      <c r="CE35" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="CF35" s="24" t="s">
+      <c r="CF35" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="CG35" s="24" t="s">
+      <c r="CG35" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CH35" s="24" t="s">
+      <c r="CH35" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CI35" s="24" t="s">
+      <c r="CI35" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="CJ35" s="24" t="s">
+      <c r="CJ35" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="CK35" s="24" t="s">
+      <c r="CK35" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CL35" s="24" t="s">
+      <c r="CL35" s="13" t="s">
         <v>7</v>
       </c>
+      <c r="CM35" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="36" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
     </row>
-    <row r="37" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
@@ -5384,46 +5396,48 @@
       <c r="BY37" s="7">
         <v>41032.932851026701</v>
       </c>
-      <c r="BZ37" s="20">
+      <c r="BZ37" s="7">
         <v>39072.434063373323</v>
       </c>
-      <c r="CA37" s="20">
+      <c r="CA37" s="7">
         <v>40792.024225756264</v>
       </c>
-      <c r="CB37" s="20">
+      <c r="CB37" s="7">
         <v>43941.408452512456</v>
       </c>
-      <c r="CC37" s="20">
+      <c r="CC37" s="7">
         <v>44725.990643891746</v>
       </c>
-      <c r="CD37" s="20">
+      <c r="CD37" s="7">
         <v>32954.070412654604</v>
       </c>
-      <c r="CE37" s="20">
+      <c r="CE37" s="7">
         <v>14434.918795552388</v>
       </c>
-      <c r="CF37" s="20">
+      <c r="CF37" s="7">
         <v>19288.710517255629</v>
       </c>
-      <c r="CG37" s="20">
+      <c r="CG37" s="7">
         <v>20102.093872421516</v>
       </c>
-      <c r="CH37" s="20">
+      <c r="CH37" s="19">
         <v>18133.884870985134</v>
       </c>
-      <c r="CI37" s="20">
+      <c r="CI37" s="19">
         <v>17167.279983151406</v>
       </c>
-      <c r="CJ37" s="20">
+      <c r="CJ37" s="19">
         <v>23959.557073342527</v>
       </c>
-      <c r="CK37" s="20">
+      <c r="CK37" s="19">
         <v>25500.702059504361</v>
       </c>
-      <c r="CL37" s="20">
-        <v>33749.771345216897</v>
-      </c>
-      <c r="CM37" s="8"/>
+      <c r="CL37" s="19">
+        <v>39857.243233758119</v>
+      </c>
+      <c r="CM37" s="19">
+        <v>28895.117715212793</v>
+      </c>
       <c r="CN37" s="8"/>
       <c r="CO37" s="8"/>
       <c r="CP37" s="8"/>
@@ -5485,7 +5499,7 @@
       <c r="ET37" s="8"/>
       <c r="EU37" s="8"/>
     </row>
-    <row r="38" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -5717,46 +5731,48 @@
       <c r="BY38" s="7">
         <v>778.73178185077302</v>
       </c>
-      <c r="BZ38" s="20">
+      <c r="BZ38" s="7">
         <v>497.77938925970301</v>
       </c>
-      <c r="CA38" s="20">
+      <c r="CA38" s="7">
         <v>408.58218124951048</v>
       </c>
-      <c r="CB38" s="20">
+      <c r="CB38" s="7">
         <v>774.14337399980457</v>
       </c>
-      <c r="CC38" s="20">
+      <c r="CC38" s="7">
         <v>802.96901766546466</v>
       </c>
-      <c r="CD38" s="20">
+      <c r="CD38" s="7">
         <v>459.92698587605793</v>
       </c>
-      <c r="CE38" s="20">
+      <c r="CE38" s="7">
         <v>284.63191520704015</v>
       </c>
-      <c r="CF38" s="20">
+      <c r="CF38" s="7">
         <v>651.71473005547659</v>
       </c>
-      <c r="CG38" s="20">
+      <c r="CG38" s="7">
         <v>738.78384769964555</v>
       </c>
-      <c r="CH38" s="20">
+      <c r="CH38" s="19">
         <v>461.39897232210484</v>
       </c>
-      <c r="CI38" s="20">
+      <c r="CI38" s="19">
         <v>346.9851863026928</v>
       </c>
-      <c r="CJ38" s="20">
+      <c r="CJ38" s="19">
         <v>717.95989494133323</v>
       </c>
-      <c r="CK38" s="20">
+      <c r="CK38" s="19">
         <v>773.13460196769609</v>
       </c>
-      <c r="CL38" s="20">
-        <v>498.34680396052988</v>
-      </c>
-      <c r="CM38" s="8"/>
+      <c r="CL38" s="19">
+        <v>523.68374140701815</v>
+      </c>
+      <c r="CM38" s="19">
+        <v>376.33753513737076</v>
+      </c>
       <c r="CN38" s="8"/>
       <c r="CO38" s="8"/>
       <c r="CP38" s="8"/>
@@ -5818,7 +5834,7 @@
       <c r="ET38" s="8"/>
       <c r="EU38" s="8"/>
     </row>
-    <row r="39" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
@@ -6050,46 +6066,48 @@
       <c r="BY39" s="7">
         <v>84527.121745630007</v>
       </c>
-      <c r="BZ39" s="20">
+      <c r="BZ39" s="7">
         <v>153003.09527246599</v>
       </c>
-      <c r="CA39" s="20">
+      <c r="CA39" s="7">
         <v>146115.380019851</v>
       </c>
-      <c r="CB39" s="20">
+      <c r="CB39" s="7">
         <v>163165.91594509999</v>
       </c>
-      <c r="CC39" s="20">
+      <c r="CC39" s="7">
         <v>101660.9649982664</v>
       </c>
-      <c r="CD39" s="20">
+      <c r="CD39" s="7">
         <v>107615.99078256269</v>
       </c>
-      <c r="CE39" s="20">
+      <c r="CE39" s="7">
         <v>5149.6507164927534</v>
       </c>
-      <c r="CF39" s="20">
+      <c r="CF39" s="7">
         <v>13657.848098351255</v>
       </c>
-      <c r="CG39" s="20">
+      <c r="CG39" s="7">
         <v>7924.9178789822236</v>
       </c>
-      <c r="CH39" s="20">
+      <c r="CH39" s="19">
         <v>1662.6424547885979</v>
       </c>
-      <c r="CI39" s="20">
+      <c r="CI39" s="19">
         <v>27136.973094335204</v>
       </c>
-      <c r="CJ39" s="20">
+      <c r="CJ39" s="19">
         <v>21592.900004147494</v>
       </c>
-      <c r="CK39" s="20">
+      <c r="CK39" s="19">
         <v>12202.689945533572</v>
       </c>
-      <c r="CL39" s="20">
+      <c r="CL39" s="19">
         <v>15389.064093647212</v>
       </c>
-      <c r="CM39" s="8"/>
+      <c r="CM39" s="19">
+        <v>56806.970520483963</v>
+      </c>
       <c r="CN39" s="8"/>
       <c r="CO39" s="8"/>
       <c r="CP39" s="8"/>
@@ -6151,7 +6169,7 @@
       <c r="ET39" s="8"/>
       <c r="EU39" s="8"/>
     </row>
-    <row r="40" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
@@ -6383,46 +6401,48 @@
       <c r="BY40" s="7">
         <v>2474.1142641042211</v>
       </c>
-      <c r="BZ40" s="20">
+      <c r="BZ40" s="7">
         <v>2208.6339865395412</v>
       </c>
-      <c r="CA40" s="20">
+      <c r="CA40" s="7">
         <v>2391.2737858277633</v>
       </c>
-      <c r="CB40" s="20">
+      <c r="CB40" s="7">
         <v>2622.1615879048381</v>
       </c>
-      <c r="CC40" s="20">
+      <c r="CC40" s="7">
         <v>2593.7949415158037</v>
       </c>
-      <c r="CD40" s="20">
+      <c r="CD40" s="7">
         <v>2056.4855878783655</v>
       </c>
-      <c r="CE40" s="20">
+      <c r="CE40" s="7">
         <v>2215.1317649435327</v>
       </c>
-      <c r="CF40" s="20">
+      <c r="CF40" s="7">
         <v>2360.4587376334443</v>
       </c>
-      <c r="CG40" s="20">
+      <c r="CG40" s="7">
         <v>2329.5726083375725</v>
       </c>
-      <c r="CH40" s="20">
+      <c r="CH40" s="19">
         <v>3031.8880922507747</v>
       </c>
-      <c r="CI40" s="20">
+      <c r="CI40" s="19">
         <v>3280.2710999783162</v>
       </c>
-      <c r="CJ40" s="20">
+      <c r="CJ40" s="19">
         <v>3529.4697269102967</v>
       </c>
-      <c r="CK40" s="20">
+      <c r="CK40" s="19">
         <v>3454.4327633529815</v>
       </c>
-      <c r="CL40" s="20">
-        <v>3290.694869486982</v>
-      </c>
-      <c r="CM40" s="8"/>
+      <c r="CL40" s="19">
+        <v>3083.4697372408427</v>
+      </c>
+      <c r="CM40" s="19">
+        <v>3286.5504481939315</v>
+      </c>
       <c r="CN40" s="8"/>
       <c r="CO40" s="8"/>
       <c r="CP40" s="8"/>
@@ -6484,7 +6504,7 @@
       <c r="ET40" s="8"/>
       <c r="EU40" s="8"/>
     </row>
-    <row r="41" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -6716,46 +6736,48 @@
       <c r="BY41" s="7">
         <v>62310.691878200902</v>
       </c>
-      <c r="BZ41" s="20">
+      <c r="BZ41" s="7">
         <v>104958.88928992864</v>
       </c>
-      <c r="CA41" s="20">
+      <c r="CA41" s="7">
         <v>119816.57619460554</v>
       </c>
-      <c r="CB41" s="20">
+      <c r="CB41" s="7">
         <v>75056.88933893932</v>
       </c>
-      <c r="CC41" s="20">
+      <c r="CC41" s="7">
         <v>65415.838723488094</v>
       </c>
-      <c r="CD41" s="20">
+      <c r="CD41" s="7">
         <v>107703.27514348591</v>
       </c>
-      <c r="CE41" s="20">
+      <c r="CE41" s="7">
         <v>93510.032233319303</v>
       </c>
-      <c r="CF41" s="20">
+      <c r="CF41" s="7">
         <v>57311.664224017528</v>
       </c>
-      <c r="CG41" s="20">
+      <c r="CG41" s="7">
         <v>63693.472845714576</v>
       </c>
-      <c r="CH41" s="20">
+      <c r="CH41" s="19">
         <v>107918.00540295031</v>
       </c>
-      <c r="CI41" s="20">
+      <c r="CI41" s="19">
         <v>103557.39473418298</v>
       </c>
-      <c r="CJ41" s="20">
+      <c r="CJ41" s="19">
         <v>68778.411050953422</v>
       </c>
-      <c r="CK41" s="20">
+      <c r="CK41" s="19">
         <v>72273.852798895867</v>
       </c>
-      <c r="CL41" s="20">
-        <v>120994.81670854299</v>
-      </c>
-      <c r="CM41" s="8"/>
+      <c r="CL41" s="19">
+        <v>117081.671165216</v>
+      </c>
+      <c r="CM41" s="19">
+        <v>112948.31703593825</v>
+      </c>
       <c r="CN41" s="8"/>
       <c r="CO41" s="8"/>
       <c r="CP41" s="8"/>
@@ -6817,7 +6839,7 @@
       <c r="ET41" s="8"/>
       <c r="EU41" s="8"/>
     </row>
-    <row r="42" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>15</v>
       </c>
@@ -7049,46 +7071,48 @@
       <c r="BY42" s="7">
         <v>272246.43358790607</v>
       </c>
-      <c r="BZ42" s="20">
+      <c r="BZ42" s="7">
         <v>310560.41245737555</v>
       </c>
-      <c r="CA42" s="20">
+      <c r="CA42" s="7">
         <v>340519.70142420341</v>
       </c>
-      <c r="CB42" s="20">
+      <c r="CB42" s="7">
         <v>247891.35281058587</v>
       </c>
-      <c r="CC42" s="20">
+      <c r="CC42" s="7">
         <v>261437.80028709813</v>
       </c>
-      <c r="CD42" s="20">
+      <c r="CD42" s="7">
         <v>332483.16218193091</v>
       </c>
-      <c r="CE42" s="20">
+      <c r="CE42" s="7">
         <v>297036.76166211697</v>
       </c>
-      <c r="CF42" s="20">
+      <c r="CF42" s="7">
         <v>236327.52457933835</v>
       </c>
-      <c r="CG42" s="20">
+      <c r="CG42" s="7">
         <v>252483.50553565435</v>
       </c>
-      <c r="CH42" s="20">
+      <c r="CH42" s="19">
         <v>321733.17051243625</v>
       </c>
-      <c r="CI42" s="20">
+      <c r="CI42" s="19">
         <v>339770.25821722258</v>
       </c>
-      <c r="CJ42" s="20">
+      <c r="CJ42" s="19">
         <v>239509.72841806503</v>
       </c>
-      <c r="CK42" s="20">
+      <c r="CK42" s="19">
         <v>267343.98843610822</v>
       </c>
-      <c r="CL42" s="20">
-        <v>350549.270730349</v>
-      </c>
-      <c r="CM42" s="8"/>
+      <c r="CL42" s="19">
+        <v>355402.77002643788</v>
+      </c>
+      <c r="CM42" s="19">
+        <v>357943.77339257195</v>
+      </c>
       <c r="CN42" s="8"/>
       <c r="CO42" s="8"/>
       <c r="CP42" s="8"/>
@@ -7150,7 +7174,7 @@
       <c r="ET42" s="8"/>
       <c r="EU42" s="8"/>
     </row>
-    <row r="43" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
@@ -7382,46 +7406,48 @@
       <c r="BY43" s="7">
         <v>42390.714053373711</v>
       </c>
-      <c r="BZ43" s="20">
+      <c r="BZ43" s="7">
         <v>69275.652663644185</v>
       </c>
-      <c r="CA43" s="20">
+      <c r="CA43" s="7">
         <v>76923.961320669943</v>
       </c>
-      <c r="CB43" s="20">
+      <c r="CB43" s="7">
         <v>49780.2095587847</v>
       </c>
-      <c r="CC43" s="20">
+      <c r="CC43" s="7">
         <v>46048.282508936878</v>
       </c>
-      <c r="CD43" s="20">
+      <c r="CD43" s="7">
         <v>68758.770421120236</v>
       </c>
-      <c r="CE43" s="20">
+      <c r="CE43" s="7">
         <v>53557.057412179376</v>
       </c>
-      <c r="CF43" s="20">
+      <c r="CF43" s="7">
         <v>43178.869113891196</v>
       </c>
-      <c r="CG43" s="20">
+      <c r="CG43" s="7">
         <v>41067.937424928037</v>
       </c>
-      <c r="CH43" s="20">
+      <c r="CH43" s="19">
         <v>67936.12376372813</v>
       </c>
-      <c r="CI43" s="20">
+      <c r="CI43" s="19">
         <v>69342.696786653614</v>
       </c>
-      <c r="CJ43" s="20">
+      <c r="CJ43" s="19">
         <v>48427.917785896192</v>
       </c>
-      <c r="CK43" s="20">
+      <c r="CK43" s="19">
         <v>50475.584794779723</v>
       </c>
-      <c r="CL43" s="20">
-        <v>80790.912087029137</v>
-      </c>
-      <c r="CM43" s="8"/>
+      <c r="CL43" s="19">
+        <v>76002.637554614368</v>
+      </c>
+      <c r="CM43" s="19">
+        <v>70517.780779077191</v>
+      </c>
       <c r="CN43" s="8"/>
       <c r="CO43" s="8"/>
       <c r="CP43" s="8"/>
@@ -7483,7 +7509,7 @@
       <c r="ET43" s="8"/>
       <c r="EU43" s="8"/>
     </row>
-    <row r="44" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>17</v>
       </c>
@@ -7715,46 +7741,48 @@
       <c r="BY44" s="7">
         <v>8399.66918383966</v>
       </c>
-      <c r="BZ44" s="20">
+      <c r="BZ44" s="7">
         <v>10189.804994373186</v>
       </c>
-      <c r="CA44" s="20">
+      <c r="CA44" s="7">
         <v>10838.559551888897</v>
       </c>
-      <c r="CB44" s="20">
+      <c r="CB44" s="7">
         <v>6259.6945894326018</v>
       </c>
-      <c r="CC44" s="20">
+      <c r="CC44" s="7">
         <v>7800.6818332445764</v>
       </c>
-      <c r="CD44" s="20">
+      <c r="CD44" s="7">
         <v>5607.0912506679224</v>
       </c>
-      <c r="CE44" s="20">
+      <c r="CE44" s="7">
         <v>5912.1667743706657</v>
       </c>
-      <c r="CF44" s="20">
+      <c r="CF44" s="7">
         <v>5273.7557527249992</v>
       </c>
-      <c r="CG44" s="20">
+      <c r="CG44" s="7">
         <v>4261.0277699794169</v>
       </c>
-      <c r="CH44" s="20">
+      <c r="CH44" s="19">
         <v>5137.968924421375</v>
       </c>
-      <c r="CI44" s="20">
+      <c r="CI44" s="19">
         <v>6701.7608114885679</v>
       </c>
-      <c r="CJ44" s="20">
+      <c r="CJ44" s="19">
         <v>6969.0677239534634</v>
       </c>
-      <c r="CK44" s="20">
+      <c r="CK44" s="19">
         <v>8464.1661527716096</v>
       </c>
-      <c r="CL44" s="20">
-        <v>6169.1570921703114</v>
-      </c>
-      <c r="CM44" s="8"/>
+      <c r="CL44" s="19">
+        <v>6097.5207750723184</v>
+      </c>
+      <c r="CM44" s="19">
+        <v>8032.5502882024521</v>
+      </c>
       <c r="CN44" s="8"/>
       <c r="CO44" s="8"/>
       <c r="CP44" s="8"/>
@@ -7816,7 +7844,7 @@
       <c r="ET44" s="8"/>
       <c r="EU44" s="8"/>
     </row>
-    <row r="45" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -7893,19 +7921,19 @@
       <c r="BW45" s="8"/>
       <c r="BX45" s="8"/>
       <c r="BY45" s="8"/>
-      <c r="BZ45" s="21"/>
-      <c r="CA45" s="21"/>
-      <c r="CB45" s="21"/>
-      <c r="CC45" s="21"/>
-      <c r="CD45" s="21"/>
-      <c r="CE45" s="21"/>
-      <c r="CF45" s="21"/>
-      <c r="CG45" s="21"/>
-      <c r="CH45" s="21"/>
-      <c r="CI45" s="21"/>
-      <c r="CJ45" s="21"/>
-      <c r="CK45" s="21"/>
-      <c r="CL45" s="21"/>
+      <c r="BZ45" s="8"/>
+      <c r="CA45" s="8"/>
+      <c r="CB45" s="8"/>
+      <c r="CC45" s="8"/>
+      <c r="CD45" s="8"/>
+      <c r="CE45" s="8"/>
+      <c r="CF45" s="8"/>
+      <c r="CG45" s="8"/>
+      <c r="CH45" s="8"/>
+      <c r="CI45" s="8"/>
+      <c r="CJ45" s="8"/>
+      <c r="CK45" s="8"/>
+      <c r="CL45" s="8"/>
       <c r="CM45" s="8"/>
       <c r="CN45" s="8"/>
       <c r="CO45" s="8"/>
@@ -7968,7 +7996,7 @@
       <c r="ET45" s="8"/>
       <c r="EU45" s="8"/>
     </row>
-    <row r="46" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>18</v>
       </c>
@@ -8200,46 +8228,48 @@
       <c r="BY46" s="10">
         <v>514160.40934593201</v>
       </c>
-      <c r="BZ46" s="22">
+      <c r="BZ46" s="10">
         <v>689766.70211696008</v>
       </c>
-      <c r="CA46" s="22">
+      <c r="CA46" s="10">
         <v>737806.05870405224</v>
       </c>
-      <c r="CB46" s="22">
+      <c r="CB46" s="10">
         <v>589491.77565725963</v>
       </c>
-      <c r="CC46" s="22">
+      <c r="CC46" s="10">
         <v>530486.32295410708</v>
       </c>
-      <c r="CD46" s="22">
+      <c r="CD46" s="10">
         <v>657638.77276617661</v>
       </c>
-      <c r="CE46" s="22">
+      <c r="CE46" s="10">
         <v>472100.35127418197</v>
       </c>
-      <c r="CF46" s="22">
+      <c r="CF46" s="10">
         <v>378050.54575326788</v>
       </c>
-      <c r="CG46" s="22">
+      <c r="CG46" s="10">
         <v>392601.31178371736</v>
       </c>
-      <c r="CH46" s="22">
+      <c r="CH46" s="20">
         <v>526015.08299388271</v>
       </c>
-      <c r="CI46" s="22">
+      <c r="CI46" s="20">
         <v>567303.6199133154</v>
       </c>
-      <c r="CJ46" s="22">
+      <c r="CJ46" s="20">
         <v>413485.01167820982</v>
       </c>
-      <c r="CK46" s="22">
+      <c r="CK46" s="20">
         <v>440488.55155291402</v>
       </c>
-      <c r="CL46" s="22">
-        <v>611432.03373040305</v>
-      </c>
-      <c r="CM46" s="8"/>
+      <c r="CL46" s="20">
+        <v>613438.0603273937</v>
+      </c>
+      <c r="CM46" s="20">
+        <v>638807.3977148179</v>
+      </c>
       <c r="CN46" s="8"/>
       <c r="CO46" s="8"/>
       <c r="CP46" s="8"/>
@@ -8301,7 +8331,7 @@
       <c r="ET46" s="8"/>
       <c r="EU46" s="8"/>
     </row>
-    <row r="47" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -8379,26 +8409,27 @@
       <c r="BW47" s="11"/>
       <c r="BX47" s="11"/>
       <c r="BY47" s="11"/>
-      <c r="BZ47" s="23"/>
-      <c r="CA47" s="23"/>
-      <c r="CB47" s="23"/>
-      <c r="CC47" s="23"/>
-      <c r="CD47" s="23"/>
-      <c r="CE47" s="23"/>
-      <c r="CF47" s="23"/>
-      <c r="CG47" s="23"/>
-      <c r="CH47" s="23"/>
-      <c r="CI47" s="23"/>
-      <c r="CJ47" s="23"/>
-      <c r="CK47" s="23"/>
-      <c r="CL47" s="23"/>
+      <c r="BZ47" s="11"/>
+      <c r="CA47" s="11"/>
+      <c r="CB47" s="11"/>
+      <c r="CC47" s="11"/>
+      <c r="CD47" s="11"/>
+      <c r="CE47" s="11"/>
+      <c r="CF47" s="11"/>
+      <c r="CG47" s="11"/>
+      <c r="CH47" s="11"/>
+      <c r="CI47" s="11"/>
+      <c r="CJ47" s="11"/>
+      <c r="CK47" s="11"/>
+      <c r="CL47" s="11"/>
+      <c r="CM47" s="11"/>
     </row>
-    <row r="48" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -8475,19 +8506,19 @@
       <c r="BW49" s="8"/>
       <c r="BX49" s="8"/>
       <c r="BY49" s="8"/>
-      <c r="BZ49" s="21"/>
-      <c r="CA49" s="21"/>
-      <c r="CB49" s="21"/>
-      <c r="CC49" s="21"/>
-      <c r="CD49" s="21"/>
-      <c r="CE49" s="21"/>
-      <c r="CF49" s="21"/>
-      <c r="CG49" s="21"/>
-      <c r="CH49" s="21"/>
-      <c r="CI49" s="21"/>
-      <c r="CJ49" s="21"/>
-      <c r="CK49" s="21"/>
-      <c r="CL49" s="21"/>
+      <c r="BZ49" s="8"/>
+      <c r="CA49" s="8"/>
+      <c r="CB49" s="8"/>
+      <c r="CC49" s="8"/>
+      <c r="CD49" s="8"/>
+      <c r="CE49" s="8"/>
+      <c r="CF49" s="8"/>
+      <c r="CG49" s="8"/>
+      <c r="CH49" s="8"/>
+      <c r="CI49" s="8"/>
+      <c r="CJ49" s="8"/>
+      <c r="CK49" s="8"/>
+      <c r="CL49" s="8"/>
       <c r="CM49" s="8"/>
       <c r="CN49" s="8"/>
       <c r="CO49" s="8"/>
@@ -8550,7 +8581,7 @@
       <c r="ET49" s="8"/>
       <c r="EU49" s="8"/>
     </row>
-    <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -8627,19 +8658,19 @@
       <c r="BW50" s="8"/>
       <c r="BX50" s="8"/>
       <c r="BY50" s="8"/>
-      <c r="BZ50" s="21"/>
-      <c r="CA50" s="21"/>
-      <c r="CB50" s="21"/>
-      <c r="CC50" s="21"/>
-      <c r="CD50" s="21"/>
-      <c r="CE50" s="21"/>
-      <c r="CF50" s="21"/>
-      <c r="CG50" s="21"/>
-      <c r="CH50" s="21"/>
-      <c r="CI50" s="21"/>
-      <c r="CJ50" s="21"/>
-      <c r="CK50" s="21"/>
-      <c r="CL50" s="21"/>
+      <c r="BZ50" s="8"/>
+      <c r="CA50" s="8"/>
+      <c r="CB50" s="8"/>
+      <c r="CC50" s="8"/>
+      <c r="CD50" s="8"/>
+      <c r="CE50" s="8"/>
+      <c r="CF50" s="8"/>
+      <c r="CG50" s="8"/>
+      <c r="CH50" s="8"/>
+      <c r="CI50" s="8"/>
+      <c r="CJ50" s="8"/>
+      <c r="CK50" s="8"/>
+      <c r="CL50" s="8"/>
       <c r="CM50" s="8"/>
       <c r="CN50" s="8"/>
       <c r="CO50" s="8"/>
@@ -8702,173 +8733,174 @@
       <c r="ET50" s="8"/>
       <c r="EU50" s="8"/>
     </row>
-    <row r="51" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29" t="s">
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29" t="s">
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="29"/>
-      <c r="N59" s="29" t="s">
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="O59" s="29"/>
-      <c r="P59" s="29"/>
-      <c r="Q59" s="29"/>
-      <c r="R59" s="29" t="s">
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="S59" s="29"/>
-      <c r="T59" s="29"/>
-      <c r="U59" s="29"/>
-      <c r="V59" s="29" t="s">
+      <c r="S59" s="22"/>
+      <c r="T59" s="22"/>
+      <c r="U59" s="22"/>
+      <c r="V59" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="W59" s="29"/>
-      <c r="X59" s="29"/>
-      <c r="Y59" s="29"/>
-      <c r="Z59" s="29" t="s">
+      <c r="W59" s="22"/>
+      <c r="X59" s="22"/>
+      <c r="Y59" s="22"/>
+      <c r="Z59" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AA59" s="29"/>
-      <c r="AB59" s="29"/>
-      <c r="AC59" s="29"/>
-      <c r="AD59" s="29" t="s">
+      <c r="AA59" s="22"/>
+      <c r="AB59" s="22"/>
+      <c r="AC59" s="22"/>
+      <c r="AD59" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AE59" s="29"/>
-      <c r="AF59" s="29"/>
-      <c r="AG59" s="29"/>
-      <c r="AH59" s="29" t="s">
+      <c r="AE59" s="22"/>
+      <c r="AF59" s="22"/>
+      <c r="AG59" s="22"/>
+      <c r="AH59" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="AI59" s="29"/>
-      <c r="AJ59" s="29"/>
-      <c r="AK59" s="29"/>
-      <c r="AL59" s="29" t="s">
+      <c r="AI59" s="22"/>
+      <c r="AJ59" s="22"/>
+      <c r="AK59" s="22"/>
+      <c r="AL59" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AM59" s="29"/>
-      <c r="AN59" s="29"/>
-      <c r="AO59" s="29"/>
-      <c r="AP59" s="29" t="s">
+      <c r="AM59" s="22"/>
+      <c r="AN59" s="22"/>
+      <c r="AO59" s="22"/>
+      <c r="AP59" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AQ59" s="29"/>
-      <c r="AR59" s="29"/>
-      <c r="AS59" s="29"/>
-      <c r="AT59" s="29" t="s">
+      <c r="AQ59" s="22"/>
+      <c r="AR59" s="22"/>
+      <c r="AS59" s="22"/>
+      <c r="AT59" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AU59" s="29"/>
-      <c r="AV59" s="29"/>
-      <c r="AW59" s="29"/>
-      <c r="AX59" s="29" t="s">
+      <c r="AU59" s="22"/>
+      <c r="AV59" s="22"/>
+      <c r="AW59" s="22"/>
+      <c r="AX59" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="AY59" s="29"/>
-      <c r="AZ59" s="29"/>
-      <c r="BA59" s="29"/>
-      <c r="BB59" s="29" t="s">
+      <c r="AY59" s="22"/>
+      <c r="AZ59" s="22"/>
+      <c r="BA59" s="22"/>
+      <c r="BB59" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="BC59" s="29"/>
-      <c r="BD59" s="29"/>
-      <c r="BE59" s="29"/>
-      <c r="BF59" s="29" t="s">
+      <c r="BC59" s="22"/>
+      <c r="BD59" s="22"/>
+      <c r="BE59" s="22"/>
+      <c r="BF59" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="BG59" s="29"/>
-      <c r="BH59" s="29"/>
-      <c r="BI59" s="29"/>
-      <c r="BJ59" s="29" t="s">
+      <c r="BG59" s="22"/>
+      <c r="BH59" s="22"/>
+      <c r="BI59" s="22"/>
+      <c r="BJ59" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="BK59" s="29"/>
-      <c r="BL59" s="29"/>
-      <c r="BM59" s="29"/>
-      <c r="BN59" s="29" t="s">
+      <c r="BK59" s="22"/>
+      <c r="BL59" s="22"/>
+      <c r="BM59" s="22"/>
+      <c r="BN59" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="BO59" s="29"/>
-      <c r="BP59" s="29"/>
-      <c r="BQ59" s="29"/>
-      <c r="BR59" s="29" t="s">
+      <c r="BO59" s="22"/>
+      <c r="BP59" s="22"/>
+      <c r="BQ59" s="22"/>
+      <c r="BR59" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="BS59" s="29"/>
-      <c r="BT59" s="29"/>
-      <c r="BU59" s="29"/>
-      <c r="BV59" s="29" t="s">
+      <c r="BS59" s="22"/>
+      <c r="BT59" s="22"/>
+      <c r="BU59" s="22"/>
+      <c r="BV59" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="BW59" s="29"/>
-      <c r="BX59" s="29"/>
-      <c r="BY59" s="29"/>
-      <c r="BZ59" s="28" t="s">
+      <c r="BW59" s="22"/>
+      <c r="BX59" s="22"/>
+      <c r="BY59" s="22"/>
+      <c r="BZ59" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="CA59" s="28"/>
-      <c r="CB59" s="28"/>
-      <c r="CC59" s="28"/>
-      <c r="CD59" s="28" t="s">
+      <c r="CA59" s="22"/>
+      <c r="CB59" s="22"/>
+      <c r="CC59" s="22"/>
+      <c r="CD59" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="CE59" s="28"/>
-      <c r="CF59" s="28"/>
-      <c r="CG59" s="28"/>
-      <c r="CH59" s="27" t="s">
+      <c r="CE59" s="22"/>
+      <c r="CF59" s="22"/>
+      <c r="CG59" s="22"/>
+      <c r="CH59" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="CI59" s="27"/>
-      <c r="CJ59" s="27"/>
-      <c r="CK59" s="27"/>
-      <c r="CL59" s="27"/>
+      <c r="CI59" s="22"/>
+      <c r="CJ59" s="3"/>
+      <c r="CK59" s="3"/>
+      <c r="CL59" s="18"/>
+      <c r="CM59" s="18"/>
     </row>
-    <row r="60" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="5" t="s">
         <v>7</v>
@@ -9098,42 +9130,45 @@
       <c r="BY60" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="BZ60" s="24" t="s">
+      <c r="BZ60" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CA60" s="24" t="s">
+      <c r="CA60" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CB60" s="24" t="s">
+      <c r="CB60" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CC60" s="24" t="s">
+      <c r="CC60" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CD60" s="24" t="s">
+      <c r="CD60" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CE60" s="24" t="s">
+      <c r="CE60" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CF60" s="24" t="s">
+      <c r="CF60" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CG60" s="24" t="s">
+      <c r="CG60" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CH60" s="24" t="s">
+      <c r="CH60" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CI60" s="19"/>
-      <c r="CJ60" s="19"/>
-      <c r="CK60" s="19"/>
-      <c r="CL60" s="19"/>
+      <c r="CI60" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ60" s="13"/>
+      <c r="CK60" s="13"/>
+      <c r="CL60" s="13"/>
+      <c r="CM60" s="5"/>
     </row>
-    <row r="61" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
     </row>
-    <row r="62" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -9365,37 +9400,39 @@
       <c r="BY62" s="14">
         <v>7.4278795825968302</v>
       </c>
-      <c r="BZ62" s="25">
+      <c r="BZ62" s="14">
         <v>-14.811003879887124</v>
       </c>
-      <c r="CA62" s="25">
+      <c r="CA62" s="14">
         <v>-65.695746592128444</v>
       </c>
-      <c r="CB62" s="25">
+      <c r="CB62" s="14">
         <v>-53.042259360332103</v>
       </c>
-      <c r="CC62" s="25">
+      <c r="CC62" s="14">
         <v>-51.482269345829124</v>
       </c>
-      <c r="CD62" s="25">
+      <c r="CD62" s="14">
         <v>-38.932968040894643</v>
       </c>
-      <c r="CE62" s="25">
+      <c r="CE62" s="14">
         <v>31.363708609234322</v>
       </c>
-      <c r="CF62" s="25">
+      <c r="CF62" s="14">
         <v>32.251419558118386</v>
       </c>
-      <c r="CG62" s="25">
+      <c r="CG62" s="14">
         <v>36.168616210579103</v>
       </c>
-      <c r="CH62" s="25">
-        <v>102.32801253754141</v>
-      </c>
-      <c r="CI62" s="21"/>
-      <c r="CJ62" s="21"/>
-      <c r="CK62" s="21"/>
-      <c r="CL62" s="21"/>
+      <c r="CH62" s="14">
+        <v>138.94196870920533</v>
+      </c>
+      <c r="CI62" s="14">
+        <v>93.387811558842316</v>
+      </c>
+      <c r="CJ62" s="14"/>
+      <c r="CK62" s="14"/>
+      <c r="CL62" s="14"/>
       <c r="CM62" s="8"/>
       <c r="CN62" s="8"/>
       <c r="CO62" s="8"/>
@@ -9454,7 +9491,7 @@
       <c r="EP62" s="8"/>
       <c r="EQ62" s="8"/>
     </row>
-    <row r="63" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -9686,37 +9723,39 @@
       <c r="BY63" s="14">
         <v>5.0711512890606656</v>
       </c>
-      <c r="BZ63" s="25">
+      <c r="BZ63" s="14">
         <v>-5.6113721452500442</v>
       </c>
-      <c r="CA63" s="25">
+      <c r="CA63" s="14">
         <v>-29.643833592616659</v>
       </c>
-      <c r="CB63" s="25">
+      <c r="CB63" s="14">
         <v>-13.948249122507946</v>
       </c>
-      <c r="CC63" s="25">
+      <c r="CC63" s="14">
         <v>-5.907952438824708</v>
       </c>
-      <c r="CD63" s="25">
+      <c r="CD63" s="14">
         <v>3.1037476697163697</v>
       </c>
-      <c r="CE63" s="25">
+      <c r="CE63" s="14">
         <v>26.463619827904509</v>
       </c>
-      <c r="CF63" s="25">
+      <c r="CF63" s="14">
         <v>13.811733721467249</v>
       </c>
-      <c r="CG63" s="25">
+      <c r="CG63" s="14">
         <v>8.6943691177587539</v>
       </c>
-      <c r="CH63" s="25">
-        <v>12.649683495797063</v>
-      </c>
-      <c r="CI63" s="21"/>
-      <c r="CJ63" s="21"/>
-      <c r="CK63" s="21"/>
-      <c r="CL63" s="21"/>
+      <c r="CH63" s="14">
+        <v>18.377016271720237</v>
+      </c>
+      <c r="CI63" s="14">
+        <v>14.63400426077979</v>
+      </c>
+      <c r="CJ63" s="14"/>
+      <c r="CK63" s="14"/>
+      <c r="CL63" s="14"/>
       <c r="CM63" s="8"/>
       <c r="CN63" s="8"/>
       <c r="CO63" s="8"/>
@@ -9775,7 +9814,7 @@
       <c r="EP63" s="8"/>
       <c r="EQ63" s="8"/>
     </row>
-    <row r="64" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
@@ -10007,37 +10046,39 @@
       <c r="BY64" s="14">
         <v>22.037051795776151</v>
       </c>
-      <c r="BZ64" s="25">
+      <c r="BZ64" s="14">
         <v>-27.776391651708508</v>
       </c>
-      <c r="CA64" s="25">
+      <c r="CA64" s="14">
         <v>-96.396178323029119</v>
       </c>
-      <c r="CB64" s="25">
+      <c r="CB64" s="14">
         <v>-91.420884754526682</v>
       </c>
-      <c r="CC64" s="25">
+      <c r="CC64" s="14">
         <v>-91.962539751824778</v>
       </c>
-      <c r="CD64" s="25">
+      <c r="CD64" s="14">
         <v>-98.386037384529075</v>
       </c>
-      <c r="CE64" s="25">
+      <c r="CE64" s="14">
         <v>450.06189805600377</v>
       </c>
-      <c r="CF64" s="25">
+      <c r="CF64" s="14">
         <v>65.316563755167664</v>
       </c>
-      <c r="CG64" s="25">
+      <c r="CG64" s="14">
         <v>60.387258659138524</v>
       </c>
-      <c r="CH64" s="25">
+      <c r="CH64" s="14">
         <v>856.61603966975906</v>
       </c>
-      <c r="CI64" s="21"/>
-      <c r="CJ64" s="21"/>
-      <c r="CK64" s="21"/>
-      <c r="CL64" s="21"/>
+      <c r="CI64" s="14">
+        <v>120.75162271295471</v>
+      </c>
+      <c r="CJ64" s="14"/>
+      <c r="CK64" s="14"/>
+      <c r="CL64" s="14"/>
       <c r="CM64" s="8"/>
       <c r="CN64" s="8"/>
       <c r="CO64" s="8"/>
@@ -10096,7 +10137,7 @@
       <c r="EP64" s="8"/>
       <c r="EQ64" s="8"/>
     </row>
-    <row r="65" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>13</v>
       </c>
@@ -10328,37 +10369,39 @@
       <c r="BY65" s="14">
         <v>6.8041372409764591</v>
       </c>
-      <c r="BZ65" s="25">
+      <c r="BZ65" s="14">
         <v>-5.7926141636919084</v>
       </c>
-      <c r="CA65" s="25">
+      <c r="CA65" s="14">
         <v>-6.8955952548536175</v>
       </c>
-      <c r="CB65" s="25">
+      <c r="CB65" s="14">
         <v>-8.0390012163092734</v>
       </c>
-      <c r="CC65" s="25">
+      <c r="CC65" s="14">
         <v>-8.3892813404500401</v>
       </c>
-      <c r="CD65" s="25">
+      <c r="CD65" s="14">
         <v>50.853406590012128</v>
       </c>
-      <c r="CE65" s="25">
+      <c r="CE65" s="14">
         <v>51.739818907397876</v>
       </c>
-      <c r="CF65" s="25">
+      <c r="CF65" s="14">
         <v>52.681165251965012</v>
       </c>
-      <c r="CG65" s="25">
+      <c r="CG65" s="14">
         <v>52.974246762359172</v>
       </c>
-      <c r="CH65" s="25">
-        <v>12.504514447774099</v>
-      </c>
-      <c r="CI65" s="21"/>
-      <c r="CJ65" s="21"/>
-      <c r="CK65" s="21"/>
-      <c r="CL65" s="21"/>
+      <c r="CH65" s="14">
+        <v>5.4197606771024596</v>
+      </c>
+      <c r="CI65" s="14">
+        <v>5.1106211704369287</v>
+      </c>
+      <c r="CJ65" s="14"/>
+      <c r="CK65" s="14"/>
+      <c r="CL65" s="14"/>
       <c r="CM65" s="8"/>
       <c r="CN65" s="8"/>
       <c r="CO65" s="8"/>
@@ -10417,7 +10460,7 @@
       <c r="EP65" s="8"/>
       <c r="EQ65" s="8"/>
     </row>
-    <row r="66" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>14</v>
       </c>
@@ -10649,37 +10692,39 @@
       <c r="BY66" s="14">
         <v>5.3729883104867326</v>
       </c>
-      <c r="BZ66" s="25">
+      <c r="BZ66" s="14">
         <v>3.0536819182400734</v>
       </c>
-      <c r="CA66" s="25">
+      <c r="CA66" s="14">
         <v>-21.699123970454167</v>
       </c>
-      <c r="CB66" s="25">
+      <c r="CB66" s="14">
         <v>-23.39160285417978</v>
       </c>
-      <c r="CC66" s="25">
+      <c r="CC66" s="14">
         <v>-2.3453851126452605</v>
       </c>
-      <c r="CD66" s="25">
+      <c r="CD66" s="14">
         <v>0.42919795611511802</v>
       </c>
-      <c r="CE66" s="25">
+      <c r="CE66" s="14">
         <v>11.035000732431996</v>
       </c>
-      <c r="CF66" s="25">
+      <c r="CF66" s="14">
         <v>20.321986613301917</v>
       </c>
-      <c r="CG66" s="25">
+      <c r="CG66" s="14">
         <v>13.731194351689879</v>
       </c>
-      <c r="CH66" s="25">
-        <v>12.855470329139209</v>
-      </c>
-      <c r="CI66" s="21"/>
-      <c r="CJ66" s="21"/>
-      <c r="CK66" s="21"/>
-      <c r="CL66" s="21"/>
+      <c r="CH66" s="14">
+        <v>9.2055628969693259</v>
+      </c>
+      <c r="CI66" s="14">
+        <v>9.9400347627136796</v>
+      </c>
+      <c r="CJ66" s="14"/>
+      <c r="CK66" s="14"/>
+      <c r="CL66" s="14"/>
       <c r="CM66" s="8"/>
       <c r="CN66" s="8"/>
       <c r="CO66" s="8"/>
@@ -10738,7 +10783,7 @@
       <c r="EP66" s="8"/>
       <c r="EQ66" s="8"/>
     </row>
-    <row r="67" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>15</v>
       </c>
@@ -10970,37 +11015,39 @@
       <c r="BY67" s="14">
         <v>-2.9506642152074818</v>
       </c>
-      <c r="BZ67" s="25">
+      <c r="BZ67" s="14">
         <v>9.3682473630104539</v>
       </c>
-      <c r="CA67" s="25">
+      <c r="CA67" s="14">
         <v>-11.9020195944764</v>
       </c>
-      <c r="CB67" s="25">
+      <c r="CB67" s="14">
         <v>-2.5511981870204465</v>
       </c>
-      <c r="CC67" s="25">
+      <c r="CC67" s="14">
         <v>-1.2359372287732953</v>
       </c>
-      <c r="CD67" s="25">
+      <c r="CD67" s="14">
         <v>-0.54814153481231642</v>
       </c>
-      <c r="CE67" s="25">
+      <c r="CE67" s="14">
         <v>18.662482115913278</v>
       </c>
-      <c r="CF67" s="25">
+      <c r="CF67" s="14">
         <v>4.7015818528300883</v>
       </c>
-      <c r="CG67" s="25">
+      <c r="CG67" s="14">
         <v>9.9782332442981385</v>
       </c>
-      <c r="CH67" s="25">
-        <v>13.639195526068519</v>
-      </c>
-      <c r="CI67" s="21"/>
-      <c r="CJ67" s="21"/>
-      <c r="CK67" s="21"/>
-      <c r="CL67" s="21"/>
+      <c r="CH67" s="14">
+        <v>15.2125770776683</v>
+      </c>
+      <c r="CI67" s="14">
+        <v>16.440042857656522</v>
+      </c>
+      <c r="CJ67" s="14"/>
+      <c r="CK67" s="14"/>
+      <c r="CL67" s="14"/>
       <c r="CM67" s="8"/>
       <c r="CN67" s="8"/>
       <c r="CO67" s="8"/>
@@ -11059,7 +11106,7 @@
       <c r="EP67" s="8"/>
       <c r="EQ67" s="8"/>
     </row>
-    <row r="68" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>16</v>
       </c>
@@ -11291,37 +11338,39 @@
       <c r="BY68" s="14">
         <v>10.182294717992349</v>
       </c>
-      <c r="BZ68" s="25">
+      <c r="BZ68" s="14">
         <v>1.3946794900810318</v>
       </c>
-      <c r="CA68" s="25">
+      <c r="CA68" s="14">
         <v>-29.684177412134744</v>
       </c>
-      <c r="CB68" s="25">
+      <c r="CB68" s="14">
         <v>-11.337878608242761</v>
       </c>
-      <c r="CC68" s="25">
+      <c r="CC68" s="14">
         <v>-8.7939240388756161</v>
       </c>
-      <c r="CD68" s="25">
+      <c r="CD68" s="14">
         <v>1.5451961282967517</v>
       </c>
-      <c r="CE68" s="25">
+      <c r="CE68" s="14">
         <v>34.314311380245357</v>
       </c>
-      <c r="CF68" s="25">
+      <c r="CF68" s="14">
         <v>15.8694441568461</v>
       </c>
-      <c r="CG68" s="25">
+      <c r="CG68" s="14">
         <v>27.657929062712356</v>
       </c>
-      <c r="CH68" s="25">
-        <v>24.032834545561059</v>
-      </c>
-      <c r="CI68" s="21"/>
-      <c r="CJ68" s="21"/>
-      <c r="CK68" s="21"/>
-      <c r="CL68" s="21"/>
+      <c r="CH68" s="14">
+        <v>16.681719828624054</v>
+      </c>
+      <c r="CI68" s="14">
+        <v>6.6876001360205919</v>
+      </c>
+      <c r="CJ68" s="14"/>
+      <c r="CK68" s="14"/>
+      <c r="CL68" s="14"/>
       <c r="CM68" s="8"/>
       <c r="CN68" s="8"/>
       <c r="CO68" s="8"/>
@@ -11380,7 +11429,7 @@
       <c r="EP68" s="8"/>
       <c r="EQ68" s="8"/>
     </row>
-    <row r="69" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>17</v>
       </c>
@@ -11612,37 +11661,39 @@
       <c r="BY69" s="14">
         <v>-5.7034010331459939</v>
       </c>
-      <c r="BZ69" s="25">
+      <c r="BZ69" s="14">
         <v>-43.78665329925839</v>
       </c>
-      <c r="CA69" s="25">
+      <c r="CA69" s="14">
         <v>-44.801040780888059</v>
       </c>
-      <c r="CB69" s="25">
+      <c r="CB69" s="14">
         <v>-13.882692523740118</v>
       </c>
-      <c r="CC69" s="25">
+      <c r="CC69" s="14">
         <v>-44.138046870453621</v>
       </c>
-      <c r="CD69" s="25">
+      <c r="CD69" s="14">
         <v>-5.8239284908925839</v>
       </c>
-      <c r="CE69" s="25">
+      <c r="CE69" s="14">
         <v>17.592741900533497</v>
       </c>
-      <c r="CF69" s="25">
+      <c r="CF69" s="14">
         <v>36.520875145302341</v>
       </c>
-      <c r="CG69" s="25">
+      <c r="CG69" s="14">
         <v>106.31896124798618</v>
       </c>
-      <c r="CH69" s="25">
-        <v>25.230258618685284</v>
-      </c>
-      <c r="CI69" s="21"/>
-      <c r="CJ69" s="21"/>
-      <c r="CK69" s="21"/>
-      <c r="CL69" s="21"/>
+      <c r="CH69" s="14">
+        <v>23.776083537285999</v>
+      </c>
+      <c r="CI69" s="14">
+        <v>25.742058794151362</v>
+      </c>
+      <c r="CJ69" s="14"/>
+      <c r="CK69" s="14"/>
+      <c r="CL69" s="14"/>
       <c r="CM69" s="8"/>
       <c r="CN69" s="8"/>
       <c r="CO69" s="8"/>
@@ -11701,7 +11752,7 @@
       <c r="EP69" s="8"/>
       <c r="EQ69" s="8"/>
     </row>
-    <row r="70" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -11778,19 +11829,19 @@
       <c r="BW70" s="8"/>
       <c r="BX70" s="8"/>
       <c r="BY70" s="8"/>
-      <c r="BZ70" s="21"/>
-      <c r="CA70" s="21"/>
-      <c r="CB70" s="21"/>
-      <c r="CC70" s="21"/>
-      <c r="CD70" s="21"/>
-      <c r="CE70" s="21"/>
-      <c r="CF70" s="21"/>
-      <c r="CG70" s="21"/>
-      <c r="CH70" s="21"/>
-      <c r="CI70" s="21"/>
-      <c r="CJ70" s="21"/>
-      <c r="CK70" s="21"/>
-      <c r="CL70" s="21"/>
+      <c r="BZ70" s="8"/>
+      <c r="CA70" s="8"/>
+      <c r="CB70" s="8"/>
+      <c r="CC70" s="8"/>
+      <c r="CD70" s="8"/>
+      <c r="CE70" s="8"/>
+      <c r="CF70" s="8"/>
+      <c r="CG70" s="8"/>
+      <c r="CH70" s="8"/>
+      <c r="CI70" s="8"/>
+      <c r="CJ70" s="8"/>
+      <c r="CK70" s="8"/>
+      <c r="CL70" s="8"/>
       <c r="CM70" s="8"/>
       <c r="CN70" s="8"/>
       <c r="CO70" s="8"/>
@@ -11849,7 +11900,7 @@
       <c r="EP70" s="8"/>
       <c r="EQ70" s="8"/>
     </row>
-    <row r="71" spans="1:147" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>18</v>
       </c>
@@ -12081,37 +12132,39 @@
       <c r="BY71" s="14">
         <v>4.0144618130177179</v>
       </c>
-      <c r="BZ71" s="25">
+      <c r="BZ71" s="14">
         <v>-2.7833766922042429</v>
       </c>
-      <c r="CA71" s="25">
+      <c r="CA71" s="14">
         <v>-35.905026071271834</v>
       </c>
-      <c r="CB71" s="25">
+      <c r="CB71" s="14">
         <v>-34.420118031495633</v>
       </c>
-      <c r="CC71" s="25">
+      <c r="CC71" s="14">
         <v>-24.198174383980088</v>
       </c>
-      <c r="CD71" s="25">
+      <c r="CD71" s="14">
         <v>-18.02119947565194</v>
       </c>
-      <c r="CE71" s="25">
+      <c r="CE71" s="14">
         <v>24.396984937436244</v>
       </c>
-      <c r="CF71" s="25">
+      <c r="CF71" s="14">
         <v>12.640590660685419</v>
       </c>
-      <c r="CG71" s="25">
+      <c r="CG71" s="14">
         <v>16.116079561370469</v>
       </c>
-      <c r="CH71" s="25">
-        <v>20.955771743914298</v>
-      </c>
-      <c r="CI71" s="21"/>
-      <c r="CJ71" s="21"/>
-      <c r="CK71" s="21"/>
-      <c r="CL71" s="21"/>
+      <c r="CH71" s="14">
+        <v>21.593170160884512</v>
+      </c>
+      <c r="CI71" s="14">
+        <v>21.762339837018189</v>
+      </c>
+      <c r="CJ71" s="14"/>
+      <c r="CK71" s="14"/>
+      <c r="CL71" s="14"/>
       <c r="CM71" s="8"/>
       <c r="CN71" s="8"/>
       <c r="CO71" s="8"/>
@@ -12170,7 +12223,7 @@
       <c r="EP71" s="8"/>
       <c r="EQ71" s="8"/>
     </row>
-    <row r="72" spans="1:147" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:147" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -12248,26 +12301,27 @@
       <c r="BW72" s="11"/>
       <c r="BX72" s="11"/>
       <c r="BY72" s="11"/>
-      <c r="BZ72" s="23"/>
-      <c r="CA72" s="23"/>
-      <c r="CB72" s="23"/>
-      <c r="CC72" s="23"/>
-      <c r="CD72" s="23"/>
-      <c r="CE72" s="23"/>
-      <c r="CF72" s="23"/>
-      <c r="CG72" s="23"/>
-      <c r="CH72" s="23"/>
-      <c r="CI72" s="23"/>
-      <c r="CJ72" s="23"/>
-      <c r="CK72" s="23"/>
-      <c r="CL72" s="23"/>
+      <c r="BZ72" s="11"/>
+      <c r="CA72" s="11"/>
+      <c r="CB72" s="11"/>
+      <c r="CC72" s="11"/>
+      <c r="CD72" s="11"/>
+      <c r="CE72" s="11"/>
+      <c r="CF72" s="11"/>
+      <c r="CG72" s="11"/>
+      <c r="CH72" s="11"/>
+      <c r="CI72" s="11"/>
+      <c r="CJ72" s="11"/>
+      <c r="CK72" s="11"/>
+      <c r="CL72" s="11"/>
+      <c r="CM72" s="11"/>
     </row>
-    <row r="73" spans="1:147" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -12344,19 +12398,19 @@
       <c r="BW74" s="8"/>
       <c r="BX74" s="8"/>
       <c r="BY74" s="8"/>
-      <c r="BZ74" s="21"/>
-      <c r="CA74" s="21"/>
-      <c r="CB74" s="21"/>
-      <c r="CC74" s="21"/>
-      <c r="CD74" s="21"/>
-      <c r="CE74" s="21"/>
-      <c r="CF74" s="21"/>
-      <c r="CG74" s="21"/>
-      <c r="CH74" s="21"/>
-      <c r="CI74" s="21"/>
-      <c r="CJ74" s="21"/>
-      <c r="CK74" s="21"/>
-      <c r="CL74" s="21"/>
+      <c r="BZ74" s="8"/>
+      <c r="CA74" s="8"/>
+      <c r="CB74" s="8"/>
+      <c r="CC74" s="8"/>
+      <c r="CD74" s="8"/>
+      <c r="CE74" s="8"/>
+      <c r="CF74" s="8"/>
+      <c r="CG74" s="8"/>
+      <c r="CH74" s="8"/>
+      <c r="CI74" s="8"/>
+      <c r="CJ74" s="8"/>
+      <c r="CK74" s="8"/>
+      <c r="CL74" s="8"/>
       <c r="CM74" s="8"/>
       <c r="CN74" s="8"/>
       <c r="CO74" s="8"/>
@@ -12415,7 +12469,7 @@
       <c r="EP74" s="8"/>
       <c r="EQ74" s="8"/>
     </row>
-    <row r="75" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -12492,19 +12546,19 @@
       <c r="BW75" s="8"/>
       <c r="BX75" s="8"/>
       <c r="BY75" s="8"/>
-      <c r="BZ75" s="21"/>
-      <c r="CA75" s="21"/>
-      <c r="CB75" s="21"/>
-      <c r="CC75" s="21"/>
-      <c r="CD75" s="21"/>
-      <c r="CE75" s="21"/>
-      <c r="CF75" s="21"/>
-      <c r="CG75" s="21"/>
-      <c r="CH75" s="21"/>
-      <c r="CI75" s="21"/>
-      <c r="CJ75" s="21"/>
-      <c r="CK75" s="21"/>
-      <c r="CL75" s="21"/>
+      <c r="BZ75" s="8"/>
+      <c r="CA75" s="8"/>
+      <c r="CB75" s="8"/>
+      <c r="CC75" s="8"/>
+      <c r="CD75" s="8"/>
+      <c r="CE75" s="8"/>
+      <c r="CF75" s="8"/>
+      <c r="CG75" s="8"/>
+      <c r="CH75" s="8"/>
+      <c r="CI75" s="8"/>
+      <c r="CJ75" s="8"/>
+      <c r="CK75" s="8"/>
+      <c r="CL75" s="8"/>
       <c r="CM75" s="8"/>
       <c r="CN75" s="8"/>
       <c r="CO75" s="8"/>
@@ -12563,173 +12617,174 @@
       <c r="EP75" s="8"/>
       <c r="EQ75" s="8"/>
     </row>
-    <row r="76" spans="1:147" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:147" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:147" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:147" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:147" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="1:147" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:147" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
-      <c r="B84" s="29" t="s">
+      <c r="B84" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29" t="s">
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G84" s="29"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="29"/>
-      <c r="J84" s="29" t="s">
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="K84" s="29"/>
-      <c r="L84" s="29"/>
-      <c r="M84" s="29"/>
-      <c r="N84" s="29" t="s">
+      <c r="K84" s="22"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="O84" s="29"/>
-      <c r="P84" s="29"/>
-      <c r="Q84" s="29"/>
-      <c r="R84" s="29" t="s">
+      <c r="O84" s="22"/>
+      <c r="P84" s="22"/>
+      <c r="Q84" s="22"/>
+      <c r="R84" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="S84" s="29"/>
-      <c r="T84" s="29"/>
-      <c r="U84" s="29"/>
-      <c r="V84" s="29" t="s">
+      <c r="S84" s="22"/>
+      <c r="T84" s="22"/>
+      <c r="U84" s="22"/>
+      <c r="V84" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="W84" s="29"/>
-      <c r="X84" s="29"/>
-      <c r="Y84" s="29"/>
-      <c r="Z84" s="29" t="s">
+      <c r="W84" s="22"/>
+      <c r="X84" s="22"/>
+      <c r="Y84" s="22"/>
+      <c r="Z84" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AA84" s="29"/>
-      <c r="AB84" s="29"/>
-      <c r="AC84" s="29"/>
-      <c r="AD84" s="29" t="s">
+      <c r="AA84" s="22"/>
+      <c r="AB84" s="22"/>
+      <c r="AC84" s="22"/>
+      <c r="AD84" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AE84" s="29"/>
-      <c r="AF84" s="29"/>
-      <c r="AG84" s="29"/>
-      <c r="AH84" s="29" t="s">
+      <c r="AE84" s="22"/>
+      <c r="AF84" s="22"/>
+      <c r="AG84" s="22"/>
+      <c r="AH84" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="AI84" s="29"/>
-      <c r="AJ84" s="29"/>
-      <c r="AK84" s="29"/>
-      <c r="AL84" s="29" t="s">
+      <c r="AI84" s="22"/>
+      <c r="AJ84" s="22"/>
+      <c r="AK84" s="22"/>
+      <c r="AL84" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AM84" s="29"/>
-      <c r="AN84" s="29"/>
-      <c r="AO84" s="29"/>
-      <c r="AP84" s="29" t="s">
+      <c r="AM84" s="22"/>
+      <c r="AN84" s="22"/>
+      <c r="AO84" s="22"/>
+      <c r="AP84" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AQ84" s="29"/>
-      <c r="AR84" s="29"/>
-      <c r="AS84" s="29"/>
-      <c r="AT84" s="29" t="s">
+      <c r="AQ84" s="22"/>
+      <c r="AR84" s="22"/>
+      <c r="AS84" s="22"/>
+      <c r="AT84" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AU84" s="29"/>
-      <c r="AV84" s="29"/>
-      <c r="AW84" s="29"/>
-      <c r="AX84" s="29" t="s">
+      <c r="AU84" s="22"/>
+      <c r="AV84" s="22"/>
+      <c r="AW84" s="22"/>
+      <c r="AX84" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="AY84" s="29"/>
-      <c r="AZ84" s="29"/>
-      <c r="BA84" s="29"/>
-      <c r="BB84" s="29" t="s">
+      <c r="AY84" s="22"/>
+      <c r="AZ84" s="22"/>
+      <c r="BA84" s="22"/>
+      <c r="BB84" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="BC84" s="29"/>
-      <c r="BD84" s="29"/>
-      <c r="BE84" s="29"/>
-      <c r="BF84" s="29" t="s">
+      <c r="BC84" s="22"/>
+      <c r="BD84" s="22"/>
+      <c r="BE84" s="22"/>
+      <c r="BF84" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="BG84" s="29"/>
-      <c r="BH84" s="29"/>
-      <c r="BI84" s="29"/>
-      <c r="BJ84" s="29" t="s">
+      <c r="BG84" s="22"/>
+      <c r="BH84" s="22"/>
+      <c r="BI84" s="22"/>
+      <c r="BJ84" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="BK84" s="29"/>
-      <c r="BL84" s="29"/>
-      <c r="BM84" s="29"/>
-      <c r="BN84" s="29" t="s">
+      <c r="BK84" s="22"/>
+      <c r="BL84" s="22"/>
+      <c r="BM84" s="22"/>
+      <c r="BN84" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="BO84" s="29"/>
-      <c r="BP84" s="29"/>
-      <c r="BQ84" s="29"/>
-      <c r="BR84" s="29" t="s">
+      <c r="BO84" s="22"/>
+      <c r="BP84" s="22"/>
+      <c r="BQ84" s="22"/>
+      <c r="BR84" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="BS84" s="29"/>
-      <c r="BT84" s="29"/>
-      <c r="BU84" s="29"/>
-      <c r="BV84" s="29" t="s">
+      <c r="BS84" s="22"/>
+      <c r="BT84" s="22"/>
+      <c r="BU84" s="22"/>
+      <c r="BV84" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="BW84" s="29"/>
-      <c r="BX84" s="29"/>
-      <c r="BY84" s="29"/>
-      <c r="BZ84" s="28" t="s">
+      <c r="BW84" s="22"/>
+      <c r="BX84" s="22"/>
+      <c r="BY84" s="22"/>
+      <c r="BZ84" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="CA84" s="28"/>
-      <c r="CB84" s="28"/>
-      <c r="CC84" s="28"/>
-      <c r="CD84" s="28" t="s">
+      <c r="CA84" s="22"/>
+      <c r="CB84" s="22"/>
+      <c r="CC84" s="22"/>
+      <c r="CD84" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="CE84" s="28"/>
-      <c r="CF84" s="28"/>
-      <c r="CG84" s="28"/>
-      <c r="CH84" s="27" t="s">
+      <c r="CE84" s="22"/>
+      <c r="CF84" s="22"/>
+      <c r="CG84" s="22"/>
+      <c r="CH84" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="CI84" s="27"/>
-      <c r="CJ84" s="27"/>
-      <c r="CK84" s="27"/>
-      <c r="CL84" s="27"/>
+      <c r="CI84" s="22"/>
+      <c r="CJ84" s="3"/>
+      <c r="CK84" s="3"/>
+      <c r="CL84" s="18"/>
+      <c r="CM84" s="18"/>
     </row>
-    <row r="85" spans="1:147" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="5" t="s">
         <v>7</v>
@@ -12959,42 +13014,45 @@
       <c r="BY85" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="BZ85" s="19" t="s">
+      <c r="BZ85" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CA85" s="19" t="s">
+      <c r="CA85" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CB85" s="19" t="s">
+      <c r="CB85" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CC85" s="19" t="s">
+      <c r="CC85" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CD85" s="19" t="s">
+      <c r="CD85" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CE85" s="19" t="s">
+      <c r="CE85" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CF85" s="19" t="s">
+      <c r="CF85" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CG85" s="19" t="s">
+      <c r="CG85" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CH85" s="19" t="s">
+      <c r="CH85" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CI85" s="19"/>
-      <c r="CJ85" s="19"/>
-      <c r="CK85" s="19"/>
-      <c r="CL85" s="19"/>
+      <c r="CI85" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ85" s="5"/>
+      <c r="CK85" s="5"/>
+      <c r="CL85" s="5"/>
+      <c r="CM85" s="5"/>
     </row>
-    <row r="86" spans="1:147" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:147" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
     </row>
-    <row r="87" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>1</v>
       </c>
@@ -13226,37 +13284,39 @@
       <c r="BY87" s="14">
         <v>9.0002286852684392</v>
       </c>
-      <c r="BZ87" s="25">
+      <c r="BZ87" s="14">
         <v>-15.659028666591567</v>
       </c>
-      <c r="CA87" s="25">
+      <c r="CA87" s="14">
         <v>-64.613379528152677</v>
       </c>
-      <c r="CB87" s="25">
+      <c r="CB87" s="14">
         <v>-56.103567917944716</v>
       </c>
-      <c r="CC87" s="25">
+      <c r="CC87" s="14">
         <v>-55.055005863426594</v>
       </c>
-      <c r="CD87" s="25">
+      <c r="CD87" s="14">
         <v>-44.97224578356915</v>
       </c>
-      <c r="CE87" s="25">
+      <c r="CE87" s="14">
         <v>18.928829640807535</v>
       </c>
-      <c r="CF87" s="25">
+      <c r="CF87" s="14">
         <v>24.21544225005799</v>
       </c>
-      <c r="CG87" s="25">
+      <c r="CG87" s="14">
         <v>26.855949541103826</v>
       </c>
-      <c r="CH87" s="25">
-        <v>86.11440176957197</v>
-      </c>
-      <c r="CI87" s="21"/>
-      <c r="CJ87" s="21"/>
-      <c r="CK87" s="21"/>
-      <c r="CL87" s="21"/>
+      <c r="CH87" s="14">
+        <v>119.79428852298017</v>
+      </c>
+      <c r="CI87" s="14">
+        <v>68.315060647764312</v>
+      </c>
+      <c r="CJ87" s="14"/>
+      <c r="CK87" s="14"/>
+      <c r="CL87" s="14"/>
       <c r="CM87" s="8"/>
       <c r="CN87" s="8"/>
       <c r="CO87" s="8"/>
@@ -13315,7 +13375,7 @@
       <c r="EP87" s="8"/>
       <c r="EQ87" s="8"/>
     </row>
-    <row r="88" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>11</v>
       </c>
@@ -13547,37 +13607,39 @@
       <c r="BY88" s="14">
         <v>3.1123984380203638</v>
       </c>
-      <c r="BZ88" s="25">
+      <c r="BZ88" s="14">
         <v>-7.6042528478206179</v>
       </c>
-      <c r="CA88" s="25">
+      <c r="CA88" s="14">
         <v>-30.336679309756079</v>
       </c>
-      <c r="CB88" s="25">
+      <c r="CB88" s="14">
         <v>-15.814724772721348</v>
       </c>
-      <c r="CC88" s="25">
+      <c r="CC88" s="14">
         <v>-7.9934802655810699</v>
       </c>
-      <c r="CD88" s="25">
+      <c r="CD88" s="14">
         <v>0.32004785351811904</v>
       </c>
-      <c r="CE88" s="25">
+      <c r="CE88" s="14">
         <v>21.906633713333633</v>
       </c>
-      <c r="CF88" s="25">
+      <c r="CF88" s="14">
         <v>10.164748751377402</v>
       </c>
-      <c r="CG88" s="25">
+      <c r="CG88" s="14">
         <v>4.649635258676625</v>
       </c>
-      <c r="CH88" s="25">
-        <v>8.0077836871798667</v>
-      </c>
-      <c r="CI88" s="21"/>
-      <c r="CJ88" s="21"/>
-      <c r="CK88" s="21"/>
-      <c r="CL88" s="21"/>
+      <c r="CH88" s="14">
+        <v>13.499113093262821</v>
+      </c>
+      <c r="CI88" s="14">
+        <v>8.4592512860397449</v>
+      </c>
+      <c r="CJ88" s="14"/>
+      <c r="CK88" s="14"/>
+      <c r="CL88" s="14"/>
       <c r="CM88" s="8"/>
       <c r="CN88" s="8"/>
       <c r="CO88" s="8"/>
@@ -13636,7 +13698,7 @@
       <c r="EP88" s="8"/>
       <c r="EQ88" s="8"/>
     </row>
-    <row r="89" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>12</v>
       </c>
@@ -13868,37 +13930,39 @@
       <c r="BY89" s="14">
         <v>20.270231493505463</v>
       </c>
-      <c r="BZ89" s="25">
+      <c r="BZ89" s="14">
         <v>-29.664174054177465</v>
       </c>
-      <c r="CA89" s="25">
+      <c r="CA89" s="14">
         <v>-96.475627195581239</v>
       </c>
-      <c r="CB89" s="25">
+      <c r="CB89" s="14">
         <v>-91.629472356869755</v>
       </c>
-      <c r="CC89" s="25">
+      <c r="CC89" s="14">
         <v>-92.20456162390613</v>
       </c>
-      <c r="CD89" s="25">
+      <c r="CD89" s="14">
         <v>-98.455022861660069</v>
       </c>
-      <c r="CE89" s="25">
+      <c r="CE89" s="14">
         <v>426.96725638932742</v>
       </c>
-      <c r="CF89" s="25">
+      <c r="CF89" s="14">
         <v>58.098844332249826</v>
       </c>
-      <c r="CG89" s="25">
+      <c r="CG89" s="14">
         <v>53.97875576599327</v>
       </c>
-      <c r="CH89" s="25">
+      <c r="CH89" s="14">
         <v>825.57868045080716</v>
       </c>
-      <c r="CI89" s="21"/>
-      <c r="CJ89" s="21"/>
-      <c r="CK89" s="21"/>
-      <c r="CL89" s="21"/>
+      <c r="CI89" s="14">
+        <v>109.33421838540394</v>
+      </c>
+      <c r="CJ89" s="14"/>
+      <c r="CK89" s="14"/>
+      <c r="CL89" s="14"/>
       <c r="CM89" s="8"/>
       <c r="CN89" s="8"/>
       <c r="CO89" s="8"/>
@@ -13957,7 +14021,7 @@
       <c r="EP89" s="8"/>
       <c r="EQ89" s="8"/>
     </row>
-    <row r="90" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>13</v>
       </c>
@@ -14189,37 +14253,39 @@
       <c r="BY90" s="14">
         <v>4.8373140702502724</v>
       </c>
-      <c r="BZ90" s="25">
+      <c r="BZ90" s="14">
         <v>-6.8888009325420114</v>
       </c>
-      <c r="CA90" s="25">
+      <c r="CA90" s="14">
         <v>-7.366033196539945</v>
       </c>
-      <c r="CB90" s="25">
+      <c r="CB90" s="14">
         <v>-9.980424222463725</v>
       </c>
-      <c r="CC90" s="25">
+      <c r="CC90" s="14">
         <v>-10.186708631015392</v>
       </c>
-      <c r="CD90" s="25">
+      <c r="CD90" s="14">
         <v>47.430553859544034</v>
       </c>
-      <c r="CE90" s="25">
+      <c r="CE90" s="14">
         <v>48.084694188019824</v>
       </c>
-      <c r="CF90" s="25">
+      <c r="CF90" s="14">
         <v>49.524737316479559</v>
       </c>
-      <c r="CG90" s="25">
+      <c r="CG90" s="14">
         <v>48.28611698942197</v>
       </c>
-      <c r="CH90" s="25">
-        <v>8.5361586365173991</v>
-      </c>
-      <c r="CI90" s="21"/>
-      <c r="CJ90" s="21"/>
-      <c r="CK90" s="21"/>
-      <c r="CL90" s="21"/>
+      <c r="CH90" s="14">
+        <v>1.7013043826355556</v>
+      </c>
+      <c r="CI90" s="14">
+        <v>0.19142772119221263</v>
+      </c>
+      <c r="CJ90" s="14"/>
+      <c r="CK90" s="14"/>
+      <c r="CL90" s="14"/>
       <c r="CM90" s="8"/>
       <c r="CN90" s="8"/>
       <c r="CO90" s="8"/>
@@ -14278,7 +14344,7 @@
       <c r="EP90" s="8"/>
       <c r="EQ90" s="8"/>
     </row>
-    <row r="91" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>14</v>
       </c>
@@ -14510,37 +14576,39 @@
       <c r="BY91" s="14">
         <v>4.9833291072370685</v>
       </c>
-      <c r="BZ91" s="25">
+      <c r="BZ91" s="14">
         <v>2.6147245575135969</v>
       </c>
-      <c r="CA91" s="25">
+      <c r="CA91" s="14">
         <v>-21.955679920747585</v>
       </c>
-      <c r="CB91" s="25">
+      <c r="CB91" s="14">
         <v>-23.642366838290513</v>
       </c>
-      <c r="CC91" s="25">
+      <c r="CC91" s="14">
         <v>-2.6329493153086929</v>
       </c>
-      <c r="CD91" s="25">
+      <c r="CD91" s="14">
         <v>0.19937207961255865</v>
       </c>
-      <c r="CE91" s="25">
+      <c r="CE91" s="14">
         <v>10.744689378134581</v>
       </c>
-      <c r="CF91" s="25">
+      <c r="CF91" s="14">
         <v>20.00770171690553</v>
       </c>
-      <c r="CG91" s="25">
+      <c r="CG91" s="14">
         <v>13.471364599580937</v>
       </c>
-      <c r="CH91" s="25">
-        <v>12.117358226521844</v>
-      </c>
-      <c r="CI91" s="21"/>
-      <c r="CJ91" s="21"/>
-      <c r="CK91" s="21"/>
-      <c r="CL91" s="21"/>
+      <c r="CH91" s="14">
+        <v>8.4913223961561357</v>
+      </c>
+      <c r="CI91" s="14">
+        <v>9.0683261449946855</v>
+      </c>
+      <c r="CJ91" s="14"/>
+      <c r="CK91" s="14"/>
+      <c r="CL91" s="14"/>
       <c r="CM91" s="8"/>
       <c r="CN91" s="8"/>
       <c r="CO91" s="8"/>
@@ -14599,7 +14667,7 @@
       <c r="EP91" s="8"/>
       <c r="EQ91" s="8"/>
     </row>
-    <row r="92" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>15</v>
       </c>
@@ -14831,37 +14899,39 @@
       <c r="BY92" s="14">
         <v>-3.9701652500501581</v>
       </c>
-      <c r="BZ92" s="25">
+      <c r="BZ92" s="14">
         <v>7.0590934469357762</v>
       </c>
-      <c r="CA92" s="25">
+      <c r="CA92" s="14">
         <v>-12.769581196101612</v>
       </c>
-      <c r="CB92" s="25">
+      <c r="CB92" s="14">
         <v>-4.6648776168015189</v>
       </c>
-      <c r="CC92" s="25">
+      <c r="CC92" s="14">
         <v>-3.4250191600490183</v>
       </c>
-      <c r="CD92" s="25">
+      <c r="CD92" s="14">
         <v>-3.2332439330002529</v>
       </c>
-      <c r="CE92" s="25">
+      <c r="CE92" s="14">
         <v>14.386601953234162</v>
       </c>
-      <c r="CF92" s="25">
+      <c r="CF92" s="14">
         <v>1.3465227312776875</v>
       </c>
-      <c r="CG92" s="25">
+      <c r="CG92" s="14">
         <v>5.8857242452043437</v>
       </c>
-      <c r="CH92" s="25">
-        <v>8.9565213844802827</v>
-      </c>
-      <c r="CI92" s="21"/>
-      <c r="CJ92" s="21"/>
-      <c r="CK92" s="21"/>
-      <c r="CL92" s="21"/>
+      <c r="CH92" s="14">
+        <v>10.465069380435608</v>
+      </c>
+      <c r="CI92" s="14">
+        <v>5.3487657426832982</v>
+      </c>
+      <c r="CJ92" s="14"/>
+      <c r="CK92" s="14"/>
+      <c r="CL92" s="14"/>
       <c r="CM92" s="8"/>
       <c r="CN92" s="8"/>
       <c r="CO92" s="8"/>
@@ -14920,7 +14990,7 @@
       <c r="EP92" s="8"/>
       <c r="EQ92" s="8"/>
     </row>
-    <row r="93" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>16</v>
       </c>
@@ -15152,37 +15222,39 @@
       <c r="BY93" s="14">
         <v>8.6282303500666728</v>
       </c>
-      <c r="BZ93" s="25">
+      <c r="BZ93" s="14">
         <v>-0.74612395935636755</v>
       </c>
-      <c r="CA93" s="25">
+      <c r="CA93" s="14">
         <v>-30.376625835845687</v>
       </c>
-      <c r="CB93" s="25">
+      <c r="CB93" s="14">
         <v>-13.260973594532743</v>
       </c>
-      <c r="CC93" s="25">
+      <c r="CC93" s="14">
         <v>-10.815484992393081</v>
       </c>
-      <c r="CD93" s="25">
+      <c r="CD93" s="14">
         <v>-1.1964243286401484</v>
       </c>
-      <c r="CE93" s="25">
+      <c r="CE93" s="14">
         <v>29.474433692252177</v>
       </c>
-      <c r="CF93" s="25">
+      <c r="CF93" s="14">
         <v>12.156521881478156</v>
       </c>
-      <c r="CG93" s="25">
+      <c r="CG93" s="14">
         <v>22.907523386215374</v>
       </c>
-      <c r="CH93" s="25">
-        <v>18.921874859990638</v>
-      </c>
-      <c r="CI93" s="21"/>
-      <c r="CJ93" s="21"/>
-      <c r="CK93" s="21"/>
-      <c r="CL93" s="21"/>
+      <c r="CH93" s="14">
+        <v>11.873673892464609</v>
+      </c>
+      <c r="CI93" s="14">
+        <v>1.6946038254597369</v>
+      </c>
+      <c r="CJ93" s="14"/>
+      <c r="CK93" s="14"/>
+      <c r="CL93" s="14"/>
       <c r="CM93" s="8"/>
       <c r="CN93" s="8"/>
       <c r="CO93" s="8"/>
@@ -15241,7 +15313,7 @@
       <c r="EP93" s="8"/>
       <c r="EQ93" s="8"/>
     </row>
-    <row r="94" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>17</v>
       </c>
@@ -15473,37 +15545,39 @@
       <c r="BY94" s="14">
         <v>-7.1310826353434322</v>
       </c>
-      <c r="BZ94" s="25">
+      <c r="BZ94" s="14">
         <v>-44.973517611336419</v>
       </c>
-      <c r="CA94" s="25">
+      <c r="CA94" s="14">
         <v>-45.45246768201482</v>
       </c>
-      <c r="CB94" s="25">
+      <c r="CB94" s="14">
         <v>-15.750590106616869</v>
       </c>
-      <c r="CC94" s="25">
+      <c r="CC94" s="14">
         <v>-45.376213758392623</v>
       </c>
-      <c r="CD94" s="25">
+      <c r="CD94" s="14">
         <v>-8.3665898283832121</v>
       </c>
-      <c r="CE94" s="25">
+      <c r="CE94" s="14">
         <v>13.355408723258691</v>
       </c>
-      <c r="CF94" s="25">
+      <c r="CF94" s="14">
         <v>32.146198093312904</v>
       </c>
-      <c r="CG94" s="25">
+      <c r="CG94" s="14">
         <v>98.641421968777649</v>
       </c>
-      <c r="CH94" s="25">
-        <v>20.069957271395268</v>
-      </c>
-      <c r="CI94" s="21"/>
-      <c r="CJ94" s="21"/>
-      <c r="CK94" s="21"/>
-      <c r="CL94" s="21"/>
+      <c r="CH94" s="14">
+        <v>18.675703663564008</v>
+      </c>
+      <c r="CI94" s="14">
+        <v>19.857310849300418</v>
+      </c>
+      <c r="CJ94" s="14"/>
+      <c r="CK94" s="14"/>
+      <c r="CL94" s="14"/>
       <c r="CM94" s="8"/>
       <c r="CN94" s="8"/>
       <c r="CO94" s="8"/>
@@ -15562,7 +15636,7 @@
       <c r="EP94" s="8"/>
       <c r="EQ94" s="8"/>
     </row>
-    <row r="95" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
@@ -15639,19 +15713,19 @@
       <c r="BW95" s="8"/>
       <c r="BX95" s="8"/>
       <c r="BY95" s="8"/>
-      <c r="BZ95" s="21"/>
-      <c r="CA95" s="21"/>
-      <c r="CB95" s="21"/>
-      <c r="CC95" s="21"/>
-      <c r="CD95" s="21"/>
-      <c r="CE95" s="21"/>
-      <c r="CF95" s="21"/>
-      <c r="CG95" s="21"/>
-      <c r="CH95" s="21"/>
-      <c r="CI95" s="21"/>
-      <c r="CJ95" s="21"/>
-      <c r="CK95" s="21"/>
-      <c r="CL95" s="21"/>
+      <c r="BZ95" s="8"/>
+      <c r="CA95" s="8"/>
+      <c r="CB95" s="8"/>
+      <c r="CC95" s="8"/>
+      <c r="CD95" s="8"/>
+      <c r="CE95" s="8"/>
+      <c r="CF95" s="8"/>
+      <c r="CG95" s="8"/>
+      <c r="CH95" s="8"/>
+      <c r="CI95" s="8"/>
+      <c r="CJ95" s="8"/>
+      <c r="CK95" s="8"/>
+      <c r="CL95" s="8"/>
       <c r="CM95" s="8"/>
       <c r="CN95" s="8"/>
       <c r="CO95" s="8"/>
@@ -15710,7 +15784,7 @@
       <c r="EP95" s="8"/>
       <c r="EQ95" s="8"/>
     </row>
-    <row r="96" spans="1:147" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>18</v>
       </c>
@@ -15942,37 +16016,39 @@
       <c r="BY96" s="14">
         <v>3.1752568481387726</v>
       </c>
-      <c r="BZ96" s="25">
+      <c r="BZ96" s="14">
         <v>-4.6577965060041038</v>
       </c>
-      <c r="CA96" s="25">
+      <c r="CA96" s="14">
         <v>-36.012947345075915</v>
       </c>
-      <c r="CB96" s="25">
+      <c r="CB96" s="14">
         <v>-35.868393527330085</v>
       </c>
-      <c r="CC96" s="25">
+      <c r="CC96" s="14">
         <v>-25.992189657699853</v>
       </c>
-      <c r="CD96" s="25">
+      <c r="CD96" s="14">
         <v>-20.014587828916333</v>
       </c>
-      <c r="CE96" s="25">
+      <c r="CE96" s="14">
         <v>20.165896590032872</v>
       </c>
-      <c r="CF96" s="25">
+      <c r="CF96" s="14">
         <v>9.3729439946551594</v>
       </c>
-      <c r="CG96" s="25">
+      <c r="CG96" s="14">
         <v>12.197422253030467</v>
       </c>
-      <c r="CH96" s="25">
-        <v>16.238498381141241</v>
-      </c>
-      <c r="CI96" s="21"/>
-      <c r="CJ96" s="21"/>
-      <c r="CK96" s="21"/>
-      <c r="CL96" s="21"/>
+      <c r="CH96" s="14">
+        <v>16.619861323354428</v>
+      </c>
+      <c r="CI96" s="14">
+        <v>12.60414622639432</v>
+      </c>
+      <c r="CJ96" s="14"/>
+      <c r="CK96" s="14"/>
+      <c r="CL96" s="14"/>
       <c r="CM96" s="8"/>
       <c r="CN96" s="8"/>
       <c r="CO96" s="8"/>
@@ -16031,7 +16107,7 @@
       <c r="EP96" s="8"/>
       <c r="EQ96" s="8"/>
     </row>
-    <row r="97" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -16109,26 +16185,27 @@
       <c r="BW97" s="11"/>
       <c r="BX97" s="11"/>
       <c r="BY97" s="11"/>
-      <c r="BZ97" s="23"/>
-      <c r="CA97" s="23"/>
-      <c r="CB97" s="23"/>
-      <c r="CC97" s="23"/>
-      <c r="CD97" s="23"/>
-      <c r="CE97" s="23"/>
-      <c r="CF97" s="23"/>
-      <c r="CG97" s="23"/>
-      <c r="CH97" s="23"/>
-      <c r="CI97" s="23"/>
-      <c r="CJ97" s="23"/>
-      <c r="CK97" s="23"/>
-      <c r="CL97" s="23"/>
+      <c r="BZ97" s="11"/>
+      <c r="CA97" s="11"/>
+      <c r="CB97" s="11"/>
+      <c r="CC97" s="11"/>
+      <c r="CD97" s="11"/>
+      <c r="CE97" s="11"/>
+      <c r="CF97" s="11"/>
+      <c r="CG97" s="11"/>
+      <c r="CH97" s="11"/>
+      <c r="CI97" s="11"/>
+      <c r="CJ97" s="11"/>
+      <c r="CK97" s="11"/>
+      <c r="CL97" s="11"/>
+      <c r="CM97" s="11"/>
     </row>
-    <row r="98" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
@@ -16205,19 +16282,19 @@
       <c r="BW99" s="8"/>
       <c r="BX99" s="8"/>
       <c r="BY99" s="8"/>
-      <c r="BZ99" s="21"/>
-      <c r="CA99" s="21"/>
-      <c r="CB99" s="21"/>
-      <c r="CC99" s="21"/>
-      <c r="CD99" s="21"/>
-      <c r="CE99" s="21"/>
-      <c r="CF99" s="21"/>
-      <c r="CG99" s="21"/>
-      <c r="CH99" s="21"/>
-      <c r="CI99" s="21"/>
-      <c r="CJ99" s="21"/>
-      <c r="CK99" s="21"/>
-      <c r="CL99" s="21"/>
+      <c r="BZ99" s="8"/>
+      <c r="CA99" s="8"/>
+      <c r="CB99" s="8"/>
+      <c r="CC99" s="8"/>
+      <c r="CD99" s="8"/>
+      <c r="CE99" s="8"/>
+      <c r="CF99" s="8"/>
+      <c r="CG99" s="8"/>
+      <c r="CH99" s="8"/>
+      <c r="CI99" s="8"/>
+      <c r="CJ99" s="8"/>
+      <c r="CK99" s="8"/>
+      <c r="CL99" s="8"/>
       <c r="CM99" s="8"/>
       <c r="CN99" s="8"/>
       <c r="CO99" s="8"/>
@@ -16276,7 +16353,7 @@
       <c r="EP99" s="8"/>
       <c r="EQ99" s="8"/>
     </row>
-    <row r="100" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
@@ -16353,19 +16430,19 @@
       <c r="BW100" s="8"/>
       <c r="BX100" s="8"/>
       <c r="BY100" s="8"/>
-      <c r="BZ100" s="21"/>
-      <c r="CA100" s="21"/>
-      <c r="CB100" s="21"/>
-      <c r="CC100" s="21"/>
-      <c r="CD100" s="21"/>
-      <c r="CE100" s="21"/>
-      <c r="CF100" s="21"/>
-      <c r="CG100" s="21"/>
-      <c r="CH100" s="21"/>
-      <c r="CI100" s="21"/>
-      <c r="CJ100" s="21"/>
-      <c r="CK100" s="21"/>
-      <c r="CL100" s="21"/>
+      <c r="BZ100" s="8"/>
+      <c r="CA100" s="8"/>
+      <c r="CB100" s="8"/>
+      <c r="CC100" s="8"/>
+      <c r="CD100" s="8"/>
+      <c r="CE100" s="8"/>
+      <c r="CF100" s="8"/>
+      <c r="CG100" s="8"/>
+      <c r="CH100" s="8"/>
+      <c r="CI100" s="8"/>
+      <c r="CJ100" s="8"/>
+      <c r="CK100" s="8"/>
+      <c r="CL100" s="8"/>
       <c r="CM100" s="8"/>
       <c r="CN100" s="8"/>
       <c r="CO100" s="8"/>
@@ -16424,170 +16501,171 @@
       <c r="EP100" s="8"/>
       <c r="EQ100" s="8"/>
     </row>
-    <row r="101" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="106" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
-      <c r="B108" s="31">
+      <c r="B108" s="23">
         <v>2000</v>
       </c>
-      <c r="C108" s="31"/>
-      <c r="D108" s="31"/>
-      <c r="E108" s="31"/>
-      <c r="F108" s="31">
+      <c r="C108" s="23"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="23">
         <v>2001</v>
       </c>
-      <c r="G108" s="31"/>
-      <c r="H108" s="31"/>
-      <c r="I108" s="31"/>
-      <c r="J108" s="31">
+      <c r="G108" s="23"/>
+      <c r="H108" s="23"/>
+      <c r="I108" s="23"/>
+      <c r="J108" s="23">
         <v>2002</v>
       </c>
-      <c r="K108" s="31"/>
-      <c r="L108" s="31"/>
-      <c r="M108" s="31"/>
-      <c r="N108" s="31">
+      <c r="K108" s="23"/>
+      <c r="L108" s="23"/>
+      <c r="M108" s="23"/>
+      <c r="N108" s="23">
         <v>2003</v>
       </c>
-      <c r="O108" s="31"/>
-      <c r="P108" s="31"/>
-      <c r="Q108" s="31"/>
-      <c r="R108" s="31">
+      <c r="O108" s="23"/>
+      <c r="P108" s="23"/>
+      <c r="Q108" s="23"/>
+      <c r="R108" s="23">
         <v>2004</v>
       </c>
-      <c r="S108" s="31"/>
-      <c r="T108" s="31"/>
-      <c r="U108" s="31"/>
-      <c r="V108" s="31">
+      <c r="S108" s="23"/>
+      <c r="T108" s="23"/>
+      <c r="U108" s="23"/>
+      <c r="V108" s="23">
         <v>2005</v>
       </c>
-      <c r="W108" s="31"/>
-      <c r="X108" s="31"/>
-      <c r="Y108" s="31"/>
-      <c r="Z108" s="31">
+      <c r="W108" s="23"/>
+      <c r="X108" s="23"/>
+      <c r="Y108" s="23"/>
+      <c r="Z108" s="23">
         <v>2006</v>
       </c>
-      <c r="AA108" s="31"/>
-      <c r="AB108" s="31"/>
-      <c r="AC108" s="31"/>
-      <c r="AD108" s="31">
+      <c r="AA108" s="23"/>
+      <c r="AB108" s="23"/>
+      <c r="AC108" s="23"/>
+      <c r="AD108" s="23">
         <v>2007</v>
       </c>
-      <c r="AE108" s="31"/>
-      <c r="AF108" s="31"/>
-      <c r="AG108" s="31"/>
-      <c r="AH108" s="31">
+      <c r="AE108" s="23"/>
+      <c r="AF108" s="23"/>
+      <c r="AG108" s="23"/>
+      <c r="AH108" s="23">
         <v>2008</v>
       </c>
-      <c r="AI108" s="31"/>
-      <c r="AJ108" s="31"/>
-      <c r="AK108" s="31"/>
-      <c r="AL108" s="31">
+      <c r="AI108" s="23"/>
+      <c r="AJ108" s="23"/>
+      <c r="AK108" s="23"/>
+      <c r="AL108" s="23">
         <v>2009</v>
       </c>
-      <c r="AM108" s="31"/>
-      <c r="AN108" s="31"/>
-      <c r="AO108" s="31"/>
-      <c r="AP108" s="31">
+      <c r="AM108" s="23"/>
+      <c r="AN108" s="23"/>
+      <c r="AO108" s="23"/>
+      <c r="AP108" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="31"/>
-      <c r="AR108" s="31"/>
-      <c r="AS108" s="31"/>
-      <c r="AT108" s="31">
+      <c r="AQ108" s="23"/>
+      <c r="AR108" s="23"/>
+      <c r="AS108" s="23"/>
+      <c r="AT108" s="23">
         <v>2011</v>
       </c>
-      <c r="AU108" s="31"/>
-      <c r="AV108" s="31"/>
-      <c r="AW108" s="31"/>
-      <c r="AX108" s="31">
+      <c r="AU108" s="23"/>
+      <c r="AV108" s="23"/>
+      <c r="AW108" s="23"/>
+      <c r="AX108" s="23">
         <v>2012</v>
       </c>
-      <c r="AY108" s="31"/>
-      <c r="AZ108" s="31"/>
-      <c r="BA108" s="31"/>
-      <c r="BB108" s="31">
+      <c r="AY108" s="23"/>
+      <c r="AZ108" s="23"/>
+      <c r="BA108" s="23"/>
+      <c r="BB108" s="23">
         <v>2013</v>
       </c>
-      <c r="BC108" s="31"/>
-      <c r="BD108" s="31"/>
-      <c r="BE108" s="31"/>
-      <c r="BF108" s="31">
+      <c r="BC108" s="23"/>
+      <c r="BD108" s="23"/>
+      <c r="BE108" s="23"/>
+      <c r="BF108" s="23">
         <v>2014</v>
       </c>
-      <c r="BG108" s="31"/>
-      <c r="BH108" s="31"/>
-      <c r="BI108" s="31"/>
-      <c r="BJ108" s="31">
+      <c r="BG108" s="23"/>
+      <c r="BH108" s="23"/>
+      <c r="BI108" s="23"/>
+      <c r="BJ108" s="23">
         <v>2015</v>
       </c>
-      <c r="BK108" s="31"/>
-      <c r="BL108" s="31"/>
-      <c r="BM108" s="31"/>
-      <c r="BN108" s="31">
+      <c r="BK108" s="23"/>
+      <c r="BL108" s="23"/>
+      <c r="BM108" s="23"/>
+      <c r="BN108" s="23">
         <v>2016</v>
       </c>
-      <c r="BO108" s="31"/>
-      <c r="BP108" s="31"/>
-      <c r="BQ108" s="31"/>
-      <c r="BR108" s="31">
+      <c r="BO108" s="23"/>
+      <c r="BP108" s="23"/>
+      <c r="BQ108" s="23"/>
+      <c r="BR108" s="23">
         <v>2017</v>
       </c>
-      <c r="BS108" s="31"/>
-      <c r="BT108" s="31"/>
-      <c r="BU108" s="31"/>
-      <c r="BV108" s="31">
+      <c r="BS108" s="23"/>
+      <c r="BT108" s="23"/>
+      <c r="BU108" s="23"/>
+      <c r="BV108" s="23">
         <v>2018</v>
       </c>
-      <c r="BW108" s="31"/>
-      <c r="BX108" s="31"/>
-      <c r="BY108" s="31"/>
-      <c r="BZ108" s="30">
+      <c r="BW108" s="23"/>
+      <c r="BX108" s="23"/>
+      <c r="BY108" s="23"/>
+      <c r="BZ108" s="23">
         <v>2019</v>
       </c>
-      <c r="CA108" s="30"/>
-      <c r="CB108" s="30"/>
-      <c r="CC108" s="30"/>
-      <c r="CD108" s="28">
+      <c r="CA108" s="23"/>
+      <c r="CB108" s="23"/>
+      <c r="CC108" s="23"/>
+      <c r="CD108" s="23">
         <v>2020</v>
       </c>
-      <c r="CE108" s="28"/>
-      <c r="CF108" s="28"/>
-      <c r="CG108" s="28"/>
-      <c r="CH108" s="28">
+      <c r="CE108" s="23"/>
+      <c r="CF108" s="23"/>
+      <c r="CG108" s="23"/>
+      <c r="CH108" s="22">
         <v>2021</v>
       </c>
-      <c r="CI108" s="28"/>
-      <c r="CJ108" s="28"/>
-      <c r="CK108" s="28"/>
-      <c r="CL108" s="27">
+      <c r="CI108" s="22"/>
+      <c r="CJ108" s="22"/>
+      <c r="CK108" s="22"/>
+      <c r="CL108" s="22">
         <v>2022</v>
       </c>
+      <c r="CM108" s="22"/>
     </row>
-    <row r="109" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="13" t="s">
         <v>7</v>
@@ -16817,50 +16895,53 @@
       <c r="BY109" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="BZ109" s="24" t="s">
+      <c r="BZ109" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CA109" s="24" t="s">
+      <c r="CA109" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="CB109" s="24" t="s">
+      <c r="CB109" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="CC109" s="24" t="s">
+      <c r="CC109" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CD109" s="24" t="s">
+      <c r="CD109" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CE109" s="24" t="s">
+      <c r="CE109" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="CF109" s="24" t="s">
+      <c r="CF109" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="CG109" s="24" t="s">
+      <c r="CG109" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CH109" s="24" t="s">
+      <c r="CH109" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CI109" s="24" t="s">
+      <c r="CI109" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="CJ109" s="24" t="s">
+      <c r="CJ109" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="CK109" s="24" t="s">
+      <c r="CK109" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CL109" s="24" t="s">
+      <c r="CL109" s="13" t="s">
         <v>7</v>
       </c>
+      <c r="CM109" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="110" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
     </row>
-    <row r="111" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>1</v>
       </c>
@@ -17092,46 +17173,48 @@
       <c r="BY111" s="14">
         <v>103.87839320232769</v>
       </c>
-      <c r="BZ111" s="25">
+      <c r="BZ111" s="14">
         <v>103.48009702144213</v>
       </c>
-      <c r="CA111" s="25">
+      <c r="CA111" s="14">
         <v>101.29404129171</v>
       </c>
-      <c r="CB111" s="25">
+      <c r="CB111" s="14">
         <v>97.487668769404252</v>
       </c>
-      <c r="CC111" s="25">
+      <c r="CC111" s="14">
         <v>102.37992755405583</v>
       </c>
-      <c r="CD111" s="25">
+      <c r="CD111" s="14">
         <v>104.52056034332948</v>
       </c>
-      <c r="CE111" s="25">
+      <c r="CE111" s="14">
         <v>98.195770459140007</v>
       </c>
-      <c r="CF111" s="25">
+      <c r="CF111" s="14">
         <v>104.28639523782452</v>
       </c>
-      <c r="CG111" s="25">
+      <c r="CG111" s="14">
         <v>110.51824224000018</v>
       </c>
-      <c r="CH111" s="25">
+      <c r="CH111" s="14">
         <v>115.99165711479938</v>
       </c>
-      <c r="CI111" s="25">
+      <c r="CI111" s="14">
         <v>108.46285645131435</v>
       </c>
-      <c r="CJ111" s="25">
+      <c r="CJ111" s="14">
         <v>111.03308542778909</v>
       </c>
-      <c r="CK111" s="25">
+      <c r="CK111" s="14">
         <v>118.631535740231</v>
       </c>
-      <c r="CL111" s="25">
+      <c r="CL111" s="14">
         <v>126.09642903416729</v>
       </c>
-      <c r="CM111" s="8"/>
+      <c r="CM111" s="14">
+        <v>124.61983118929621</v>
+      </c>
       <c r="CN111" s="8"/>
       <c r="CO111" s="8"/>
       <c r="CP111" s="8"/>
@@ -17193,7 +17276,7 @@
       <c r="ET111" s="8"/>
       <c r="EU111" s="8"/>
     </row>
-    <row r="112" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>11</v>
       </c>
@@ -17425,46 +17508,48 @@
       <c r="BY112" s="14">
         <v>99.237995686286226</v>
       </c>
-      <c r="BZ112" s="25">
+      <c r="BZ112" s="14">
         <v>102.17029381149156</v>
       </c>
-      <c r="CA112" s="25">
+      <c r="CA112" s="14">
         <v>102.71463208197835</v>
       </c>
-      <c r="CB112" s="25">
+      <c r="CB112" s="14">
         <v>103.46865683642204</v>
       </c>
-      <c r="CC112" s="25">
+      <c r="CC112" s="14">
         <v>101.12314926555126</v>
       </c>
-      <c r="CD112" s="25">
+      <c r="CD112" s="14">
         <v>104.37400137584005</v>
       </c>
-      <c r="CE112" s="25">
+      <c r="CE112" s="14">
         <v>103.73619396304321</v>
       </c>
-      <c r="CF112" s="25">
+      <c r="CF112" s="14">
         <v>105.76266523663323</v>
       </c>
-      <c r="CG112" s="25">
+      <c r="CG112" s="14">
         <v>103.41532532363173</v>
       </c>
-      <c r="CH112" s="25">
+      <c r="CH112" s="14">
         <v>107.27019106735656</v>
       </c>
-      <c r="CI112" s="25">
+      <c r="CI112" s="14">
         <v>107.61395172788841</v>
       </c>
-      <c r="CJ112" s="25">
+      <c r="CJ112" s="14">
         <v>109.26391999268171</v>
       </c>
-      <c r="CK112" s="25">
+      <c r="CK112" s="14">
         <v>107.41235280347485</v>
       </c>
-      <c r="CL112" s="25">
+      <c r="CL112" s="14">
         <v>111.88039102135299</v>
       </c>
-      <c r="CM112" s="8"/>
+      <c r="CM112" s="14">
+        <v>113.74058049100657</v>
+      </c>
       <c r="CN112" s="8"/>
       <c r="CO112" s="8"/>
       <c r="CP112" s="8"/>
@@ -17526,7 +17611,7 @@
       <c r="ET112" s="8"/>
       <c r="EU112" s="8"/>
     </row>
-    <row r="113" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>12</v>
       </c>
@@ -17758,46 +17843,48 @@
       <c r="BY113" s="14">
         <v>99.532522463167382</v>
       </c>
-      <c r="BZ113" s="25">
+      <c r="BZ113" s="14">
         <v>102.31475807165475</v>
       </c>
-      <c r="CA113" s="25">
+      <c r="CA113" s="14">
         <v>102.73376771192417</v>
       </c>
-      <c r="CB113" s="25">
+      <c r="CB113" s="14">
         <v>103.39187163452026</v>
       </c>
-      <c r="CC113" s="25">
+      <c r="CC113" s="14">
         <v>100.99469709474806</v>
       </c>
-      <c r="CD113" s="25">
+      <c r="CD113" s="14">
         <v>105.06084084246513</v>
       </c>
-      <c r="CE113" s="25">
+      <c r="CE113" s="14">
         <v>105.04966403467151</v>
       </c>
-      <c r="CF113" s="25">
+      <c r="CF113" s="14">
         <v>105.9683236248206</v>
       </c>
-      <c r="CG113" s="25">
+      <c r="CG113" s="14">
         <v>104.13023925182767</v>
       </c>
-      <c r="CH113" s="25">
+      <c r="CH113" s="14">
         <v>109.75196024704653</v>
       </c>
-      <c r="CI113" s="25">
+      <c r="CI113" s="14">
         <v>109.65352569527735</v>
       </c>
-      <c r="CJ113" s="25">
+      <c r="CJ113" s="14">
         <v>110.8061175433742</v>
       </c>
-      <c r="CK113" s="25">
+      <c r="CK113" s="14">
         <v>108.46407696982685</v>
       </c>
-      <c r="CL113" s="25">
+      <c r="CL113" s="14">
         <v>113.43226434989448</v>
       </c>
-      <c r="CM113" s="8"/>
+      <c r="CM113" s="14">
+        <v>115.6341945436903</v>
+      </c>
       <c r="CN113" s="8"/>
       <c r="CO113" s="8"/>
       <c r="CP113" s="8"/>
@@ -17859,7 +17946,7 @@
       <c r="ET113" s="8"/>
       <c r="EU113" s="8"/>
     </row>
-    <row r="114" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>13</v>
       </c>
@@ -18091,46 +18178,48 @@
       <c r="BY114" s="14">
         <v>101.70601459947004</v>
       </c>
-      <c r="BZ114" s="25">
+      <c r="BZ114" s="14">
         <v>101.18883518225871</v>
       </c>
-      <c r="CA114" s="25">
+      <c r="CA114" s="14">
         <v>101.79097146700811</v>
       </c>
-      <c r="CB114" s="25">
+      <c r="CB114" s="14">
         <v>102.57455594349851</v>
       </c>
-      <c r="CC114" s="25">
+      <c r="CC114" s="14">
         <v>103.61409234726899</v>
       </c>
-      <c r="CD114" s="25">
+      <c r="CD114" s="14">
         <v>102.38011897403744</v>
       </c>
-      <c r="CE114" s="25">
+      <c r="CE114" s="14">
         <v>102.30791289520786</v>
       </c>
-      <c r="CF114" s="25">
+      <c r="CF114" s="14">
         <v>104.7867481365268</v>
       </c>
-      <c r="CG114" s="25">
+      <c r="CG114" s="14">
         <v>105.68771412900513</v>
       </c>
-      <c r="CH114" s="25">
+      <c r="CH114" s="14">
         <v>104.75704872572098</v>
       </c>
-      <c r="CI114" s="25">
+      <c r="CI114" s="14">
         <v>104.8331447124574</v>
       </c>
-      <c r="CJ114" s="25">
+      <c r="CJ114" s="14">
         <v>106.99876886983701</v>
       </c>
-      <c r="CK114" s="25">
+      <c r="CK114" s="14">
         <v>109.02907695717339</v>
       </c>
-      <c r="CL114" s="25">
+      <c r="CL114" s="14">
         <v>108.58723074343011</v>
       </c>
-      <c r="CM114" s="8"/>
+      <c r="CM114" s="14">
+        <v>109.98023693843398</v>
+      </c>
       <c r="CN114" s="8"/>
       <c r="CO114" s="8"/>
       <c r="CP114" s="8"/>
@@ -18192,7 +18281,7 @@
       <c r="ET114" s="8"/>
       <c r="EU114" s="8"/>
     </row>
-    <row r="115" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>14</v>
       </c>
@@ -18424,46 +18513,48 @@
       <c r="BY115" s="14">
         <v>98.305945074337359</v>
       </c>
-      <c r="BZ115" s="25">
+      <c r="BZ115" s="14">
         <v>100.52396322439851</v>
       </c>
-      <c r="CA115" s="25">
+      <c r="CA115" s="14">
         <v>100.5734909232941</v>
       </c>
-      <c r="CB115" s="25">
+      <c r="CB115" s="14">
         <v>101.05834068488588</v>
       </c>
-      <c r="CC115" s="25">
+      <c r="CC115" s="14">
         <v>98.670820303177194</v>
       </c>
-      <c r="CD115" s="25">
+      <c r="CD115" s="14">
         <v>100.95397688741834</v>
       </c>
-      <c r="CE115" s="25">
+      <c r="CE115" s="14">
         <v>100.90410726426484</v>
       </c>
-      <c r="CF115" s="25">
+      <c r="CF115" s="14">
         <v>101.3902235771187</v>
       </c>
-      <c r="CG115" s="25">
+      <c r="CG115" s="14">
         <v>98.962235063787702</v>
       </c>
-      <c r="CH115" s="25">
+      <c r="CH115" s="14">
         <v>101.18553359025013</v>
       </c>
-      <c r="CI115" s="25">
+      <c r="CI115" s="14">
         <v>101.16862205227457</v>
       </c>
-      <c r="CJ115" s="25">
+      <c r="CJ115" s="14">
         <v>101.65575166787167</v>
       </c>
-      <c r="CK115" s="25">
+      <c r="CK115" s="14">
         <v>99.188841424745007</v>
       </c>
-      <c r="CL115" s="25">
+      <c r="CL115" s="14">
         <v>101.85167724663083</v>
       </c>
-      <c r="CM115" s="8"/>
+      <c r="CM115" s="14">
+        <v>101.97719373209009</v>
+      </c>
       <c r="CN115" s="8"/>
       <c r="CO115" s="8"/>
       <c r="CP115" s="8"/>
@@ -18525,7 +18616,7 @@
       <c r="ET115" s="8"/>
       <c r="EU115" s="8"/>
     </row>
-    <row r="116" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>15</v>
       </c>
@@ -18757,46 +18848,48 @@
       <c r="BY116" s="14">
         <v>101.8708193665159</v>
       </c>
-      <c r="BZ116" s="25">
+      <c r="BZ116" s="14">
         <v>103.94271485633884</v>
       </c>
-      <c r="CA116" s="25">
+      <c r="CA116" s="14">
         <v>99.51769411828657</v>
       </c>
-      <c r="CB116" s="25">
+      <c r="CB116" s="14">
         <v>103.41860289220379</v>
       </c>
-      <c r="CC116" s="25">
+      <c r="CC116" s="14">
         <v>102.95233123243617</v>
       </c>
-      <c r="CD116" s="25">
+      <c r="CD116" s="14">
         <v>106.18465170943682</v>
       </c>
-      <c r="CE116" s="25">
+      <c r="CE116" s="14">
         <v>100.50746043241378</v>
       </c>
-      <c r="CF116" s="25">
+      <c r="CF116" s="14">
         <v>105.71150154409111</v>
       </c>
-      <c r="CG116" s="25">
+      <c r="CG116" s="14">
         <v>105.28596967712957</v>
       </c>
-      <c r="CH116" s="25">
+      <c r="CH116" s="14">
         <v>109.13108367165276</v>
       </c>
-      <c r="CI116" s="25">
+      <c r="CI116" s="14">
         <v>104.26452506171293</v>
       </c>
-      <c r="CJ116" s="25">
+      <c r="CJ116" s="14">
         <v>109.21106253493944</v>
       </c>
-      <c r="CK116" s="25">
+      <c r="CK116" s="14">
         <v>109.3552980162752</v>
       </c>
-      <c r="CL116" s="25">
-        <v>113.82126005631787</v>
-      </c>
-      <c r="CM116" s="8"/>
+      <c r="CL116" s="14">
+        <v>113.8212600563179</v>
+      </c>
+      <c r="CM116" s="14">
+        <v>115.24165168078626</v>
+      </c>
       <c r="CN116" s="8"/>
       <c r="CO116" s="8"/>
       <c r="CP116" s="8"/>
@@ -18858,7 +18951,7 @@
       <c r="ET116" s="8"/>
       <c r="EU116" s="8"/>
     </row>
-    <row r="117" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>16</v>
       </c>
@@ -19090,46 +19183,48 @@
       <c r="BY117" s="14">
         <v>99.468974474379607</v>
       </c>
-      <c r="BZ117" s="25">
+      <c r="BZ117" s="14">
         <v>102.22633251010744</v>
       </c>
-      <c r="CA117" s="25">
+      <c r="CA117" s="14">
         <v>102.63416256930928</v>
       </c>
-      <c r="CB117" s="25">
+      <c r="CB117" s="14">
         <v>103.29185253073257</v>
       </c>
-      <c r="CC117" s="25">
+      <c r="CC117" s="14">
         <v>100.89200409059067</v>
       </c>
-      <c r="CD117" s="25">
+      <c r="CD117" s="14">
         <v>104.43124877122511</v>
       </c>
-      <c r="CE117" s="25">
+      <c r="CE117" s="14">
         <v>103.65492413025359</v>
       </c>
-      <c r="CF117" s="25">
+      <c r="CF117" s="14">
         <v>105.58194099446399</v>
       </c>
-      <c r="CG117" s="25">
+      <c r="CG117" s="14">
         <v>103.17894074068363</v>
       </c>
-      <c r="CH117" s="25">
+      <c r="CH117" s="14">
         <v>107.32902697438431</v>
       </c>
-      <c r="CI117" s="25">
+      <c r="CI117" s="14">
         <v>107.52964395131941</v>
       </c>
-      <c r="CJ117" s="25">
+      <c r="CJ117" s="14">
         <v>109.07721290570601</v>
       </c>
-      <c r="CK117" s="25">
+      <c r="CK117" s="14">
         <v>107.16683189889456</v>
       </c>
-      <c r="CL117" s="25">
+      <c r="CL117" s="14">
         <v>111.94175554600669</v>
       </c>
-      <c r="CM117" s="8"/>
+      <c r="CM117" s="14">
+        <v>112.80912875511827</v>
+      </c>
       <c r="CN117" s="8"/>
       <c r="CO117" s="8"/>
       <c r="CP117" s="8"/>
@@ -19191,7 +19286,7 @@
       <c r="ET117" s="8"/>
       <c r="EU117" s="8"/>
     </row>
-    <row r="118" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>17</v>
       </c>
@@ -19423,46 +19518,48 @@
       <c r="BY118" s="14">
         <v>99.463025285499498</v>
       </c>
-      <c r="BZ118" s="25">
+      <c r="BZ118" s="14">
         <v>102.28312042863867</v>
       </c>
-      <c r="CA118" s="25">
+      <c r="CA118" s="14">
         <v>102.7279731376034</v>
       </c>
-      <c r="CB118" s="25">
+      <c r="CB118" s="14">
         <v>103.39812100616959</v>
       </c>
-      <c r="CC118" s="25">
+      <c r="CC118" s="14">
         <v>100.99207865802271</v>
       </c>
-      <c r="CD118" s="25">
+      <c r="CD118" s="14">
         <v>104.48926154642417</v>
       </c>
-      <c r="CE118" s="25">
+      <c r="CE118" s="14">
         <v>103.9547887671346</v>
       </c>
-      <c r="CF118" s="25">
+      <c r="CF118" s="14">
         <v>105.69056555320957</v>
       </c>
-      <c r="CG118" s="25">
+      <c r="CG118" s="14">
         <v>103.28128371578649</v>
       </c>
-      <c r="CH118" s="25">
+      <c r="CH118" s="14">
         <v>107.38864949913112</v>
       </c>
-      <c r="CI118" s="25">
+      <c r="CI118" s="14">
         <v>107.84071781402263</v>
       </c>
-      <c r="CJ118" s="25">
+      <c r="CJ118" s="14">
         <v>109.18943346169769</v>
       </c>
-      <c r="CK118" s="25">
+      <c r="CK118" s="14">
         <v>107.27313045488036</v>
       </c>
-      <c r="CL118" s="25">
+      <c r="CL118" s="14">
         <v>112.00394049520814</v>
       </c>
-      <c r="CM118" s="8"/>
+      <c r="CM118" s="14">
+        <v>113.13547570597329</v>
+      </c>
       <c r="CN118" s="8"/>
       <c r="CO118" s="8"/>
       <c r="CP118" s="8"/>
@@ -19524,7 +19621,7 @@
       <c r="ET118" s="8"/>
       <c r="EU118" s="8"/>
     </row>
-    <row r="119" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
@@ -19601,19 +19698,19 @@
       <c r="BW119" s="8"/>
       <c r="BX119" s="8"/>
       <c r="BY119" s="8"/>
-      <c r="BZ119" s="21"/>
-      <c r="CA119" s="21"/>
-      <c r="CB119" s="21"/>
-      <c r="CC119" s="21"/>
-      <c r="CD119" s="21"/>
-      <c r="CE119" s="21"/>
-      <c r="CF119" s="21"/>
-      <c r="CG119" s="21"/>
-      <c r="CH119" s="21"/>
-      <c r="CI119" s="21"/>
-      <c r="CJ119" s="21"/>
-      <c r="CK119" s="21"/>
-      <c r="CL119" s="21"/>
+      <c r="BZ119" s="8"/>
+      <c r="CA119" s="8"/>
+      <c r="CB119" s="8"/>
+      <c r="CC119" s="8"/>
+      <c r="CD119" s="8"/>
+      <c r="CE119" s="8"/>
+      <c r="CF119" s="8"/>
+      <c r="CG119" s="8"/>
+      <c r="CH119" s="8"/>
+      <c r="CI119" s="8"/>
+      <c r="CJ119" s="8"/>
+      <c r="CK119" s="8"/>
+      <c r="CL119" s="8"/>
       <c r="CM119" s="8"/>
       <c r="CN119" s="8"/>
       <c r="CO119" s="8"/>
@@ -19676,7 +19773,7 @@
       <c r="ET119" s="8"/>
       <c r="EU119" s="8"/>
     </row>
-    <row r="120" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>18</v>
       </c>
@@ -19908,46 +20005,48 @@
       <c r="BY120" s="14">
         <v>100.97245916043222</v>
       </c>
-      <c r="BZ120" s="25">
+      <c r="BZ120" s="14">
         <v>102.82818520259364</v>
       </c>
-      <c r="CA120" s="25">
+      <c r="CA120" s="14">
         <v>100.80549692051754</v>
       </c>
-      <c r="CB120" s="25">
+      <c r="CB120" s="14">
         <v>102.65397557198874</v>
       </c>
-      <c r="CC120" s="25">
+      <c r="CC120" s="14">
         <v>101.79374705088249</v>
       </c>
-      <c r="CD120" s="25">
+      <c r="CD120" s="14">
         <v>104.84977879595927</v>
       </c>
-      <c r="CE120" s="25">
+      <c r="CE120" s="14">
         <v>100.97551659141546</v>
       </c>
-      <c r="CF120" s="25">
+      <c r="CF120" s="14">
         <v>104.97219657950798</v>
       </c>
-      <c r="CG120" s="25">
+      <c r="CG120" s="14">
         <v>104.26131819146616</v>
       </c>
-      <c r="CH120" s="25">
+      <c r="CH120" s="14">
         <v>107.46283437973449</v>
       </c>
-      <c r="CI120" s="25">
+      <c r="CI120" s="14">
         <v>104.53090413269572</v>
       </c>
-      <c r="CJ120" s="25">
+      <c r="CJ120" s="14">
         <v>108.10836568725063</v>
       </c>
-      <c r="CK120" s="25">
+      <c r="CK120" s="14">
         <v>107.90279558286954</v>
       </c>
-      <c r="CL120" s="25">
-        <v>111.82396750832507</v>
-      </c>
-      <c r="CM120" s="8"/>
+      <c r="CL120" s="14">
+        <v>112.04563749630564</v>
+      </c>
+      <c r="CM120" s="14">
+        <v>113.03249390911549</v>
+      </c>
       <c r="CN120" s="8"/>
       <c r="CO120" s="8"/>
       <c r="CP120" s="8"/>
@@ -20009,7 +20108,7 @@
       <c r="ET120" s="8"/>
       <c r="EU120" s="8"/>
     </row>
-    <row r="121" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -20087,194 +20186,196 @@
       <c r="BW121" s="11"/>
       <c r="BX121" s="11"/>
       <c r="BY121" s="11"/>
-      <c r="BZ121" s="23"/>
-      <c r="CA121" s="23"/>
-      <c r="CB121" s="23"/>
-      <c r="CC121" s="23"/>
-      <c r="CD121" s="23"/>
-      <c r="CE121" s="23"/>
-      <c r="CF121" s="23"/>
-      <c r="CG121" s="23"/>
-      <c r="CH121" s="23"/>
-      <c r="CI121" s="23"/>
-      <c r="CJ121" s="23"/>
-      <c r="CK121" s="23"/>
-      <c r="CL121" s="23"/>
+      <c r="BZ121" s="11"/>
+      <c r="CA121" s="11"/>
+      <c r="CB121" s="11"/>
+      <c r="CC121" s="11"/>
+      <c r="CD121" s="11"/>
+      <c r="CE121" s="11"/>
+      <c r="CF121" s="11"/>
+      <c r="CG121" s="11"/>
+      <c r="CH121" s="11"/>
+      <c r="CI121" s="11"/>
+      <c r="CJ121" s="11"/>
+      <c r="CK121" s="11"/>
+      <c r="CL121" s="11"/>
+      <c r="CM121" s="11"/>
     </row>
-    <row r="122" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="129" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="131" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="133" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
-      <c r="B133" s="31">
+      <c r="B133" s="23">
         <v>2000</v>
       </c>
-      <c r="C133" s="31"/>
-      <c r="D133" s="31"/>
-      <c r="E133" s="31"/>
-      <c r="F133" s="31">
+      <c r="C133" s="23"/>
+      <c r="D133" s="23"/>
+      <c r="E133" s="23"/>
+      <c r="F133" s="23">
         <v>2001</v>
       </c>
-      <c r="G133" s="31"/>
-      <c r="H133" s="31"/>
-      <c r="I133" s="31"/>
-      <c r="J133" s="31">
+      <c r="G133" s="23"/>
+      <c r="H133" s="23"/>
+      <c r="I133" s="23"/>
+      <c r="J133" s="23">
         <v>2002</v>
       </c>
-      <c r="K133" s="31"/>
-      <c r="L133" s="31"/>
-      <c r="M133" s="31"/>
-      <c r="N133" s="31">
+      <c r="K133" s="23"/>
+      <c r="L133" s="23"/>
+      <c r="M133" s="23"/>
+      <c r="N133" s="23">
         <v>2003</v>
       </c>
-      <c r="O133" s="31"/>
-      <c r="P133" s="31"/>
-      <c r="Q133" s="31"/>
-      <c r="R133" s="31">
+      <c r="O133" s="23"/>
+      <c r="P133" s="23"/>
+      <c r="Q133" s="23"/>
+      <c r="R133" s="23">
         <v>2004</v>
       </c>
-      <c r="S133" s="31"/>
-      <c r="T133" s="31"/>
-      <c r="U133" s="31"/>
-      <c r="V133" s="31">
+      <c r="S133" s="23"/>
+      <c r="T133" s="23"/>
+      <c r="U133" s="23"/>
+      <c r="V133" s="23">
         <v>2005</v>
       </c>
-      <c r="W133" s="31"/>
-      <c r="X133" s="31"/>
-      <c r="Y133" s="31"/>
-      <c r="Z133" s="31">
+      <c r="W133" s="23"/>
+      <c r="X133" s="23"/>
+      <c r="Y133" s="23"/>
+      <c r="Z133" s="23">
         <v>2006</v>
       </c>
-      <c r="AA133" s="31"/>
-      <c r="AB133" s="31"/>
-      <c r="AC133" s="31"/>
-      <c r="AD133" s="31">
+      <c r="AA133" s="23"/>
+      <c r="AB133" s="23"/>
+      <c r="AC133" s="23"/>
+      <c r="AD133" s="23">
         <v>2007</v>
       </c>
-      <c r="AE133" s="31"/>
-      <c r="AF133" s="31"/>
-      <c r="AG133" s="31"/>
-      <c r="AH133" s="31">
+      <c r="AE133" s="23"/>
+      <c r="AF133" s="23"/>
+      <c r="AG133" s="23"/>
+      <c r="AH133" s="23">
         <v>2008</v>
       </c>
-      <c r="AI133" s="31"/>
-      <c r="AJ133" s="31"/>
-      <c r="AK133" s="31"/>
-      <c r="AL133" s="31">
+      <c r="AI133" s="23"/>
+      <c r="AJ133" s="23"/>
+      <c r="AK133" s="23"/>
+      <c r="AL133" s="23">
         <v>2009</v>
       </c>
-      <c r="AM133" s="31"/>
-      <c r="AN133" s="31"/>
-      <c r="AO133" s="31"/>
-      <c r="AP133" s="31">
+      <c r="AM133" s="23"/>
+      <c r="AN133" s="23"/>
+      <c r="AO133" s="23"/>
+      <c r="AP133" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ133" s="31"/>
-      <c r="AR133" s="31"/>
-      <c r="AS133" s="31"/>
-      <c r="AT133" s="31">
+      <c r="AQ133" s="23"/>
+      <c r="AR133" s="23"/>
+      <c r="AS133" s="23"/>
+      <c r="AT133" s="23">
         <v>2011</v>
       </c>
-      <c r="AU133" s="31"/>
-      <c r="AV133" s="31"/>
-      <c r="AW133" s="31"/>
-      <c r="AX133" s="31">
+      <c r="AU133" s="23"/>
+      <c r="AV133" s="23"/>
+      <c r="AW133" s="23"/>
+      <c r="AX133" s="23">
         <v>2012</v>
       </c>
-      <c r="AY133" s="31"/>
-      <c r="AZ133" s="31"/>
-      <c r="BA133" s="31"/>
-      <c r="BB133" s="31">
+      <c r="AY133" s="23"/>
+      <c r="AZ133" s="23"/>
+      <c r="BA133" s="23"/>
+      <c r="BB133" s="23">
         <v>2013</v>
       </c>
-      <c r="BC133" s="31"/>
-      <c r="BD133" s="31"/>
-      <c r="BE133" s="31"/>
-      <c r="BF133" s="31">
+      <c r="BC133" s="23"/>
+      <c r="BD133" s="23"/>
+      <c r="BE133" s="23"/>
+      <c r="BF133" s="23">
         <v>2014</v>
       </c>
-      <c r="BG133" s="31"/>
-      <c r="BH133" s="31"/>
-      <c r="BI133" s="31"/>
-      <c r="BJ133" s="31">
+      <c r="BG133" s="23"/>
+      <c r="BH133" s="23"/>
+      <c r="BI133" s="23"/>
+      <c r="BJ133" s="23">
         <v>2015</v>
       </c>
-      <c r="BK133" s="31"/>
-      <c r="BL133" s="31"/>
-      <c r="BM133" s="31"/>
-      <c r="BN133" s="31">
+      <c r="BK133" s="23"/>
+      <c r="BL133" s="23"/>
+      <c r="BM133" s="23"/>
+      <c r="BN133" s="23">
         <v>2016</v>
       </c>
-      <c r="BO133" s="31"/>
-      <c r="BP133" s="31"/>
-      <c r="BQ133" s="31"/>
-      <c r="BR133" s="31">
+      <c r="BO133" s="23"/>
+      <c r="BP133" s="23"/>
+      <c r="BQ133" s="23"/>
+      <c r="BR133" s="23">
         <v>2017</v>
       </c>
-      <c r="BS133" s="31"/>
-      <c r="BT133" s="31"/>
-      <c r="BU133" s="31"/>
-      <c r="BV133" s="31">
+      <c r="BS133" s="23"/>
+      <c r="BT133" s="23"/>
+      <c r="BU133" s="23"/>
+      <c r="BV133" s="23">
         <v>2018</v>
       </c>
-      <c r="BW133" s="31"/>
-      <c r="BX133" s="31"/>
-      <c r="BY133" s="31"/>
-      <c r="BZ133" s="30">
+      <c r="BW133" s="23"/>
+      <c r="BX133" s="23"/>
+      <c r="BY133" s="23"/>
+      <c r="BZ133" s="23">
         <v>2019</v>
       </c>
-      <c r="CA133" s="30"/>
-      <c r="CB133" s="30"/>
-      <c r="CC133" s="30"/>
-      <c r="CD133" s="28">
+      <c r="CA133" s="23"/>
+      <c r="CB133" s="23"/>
+      <c r="CC133" s="23"/>
+      <c r="CD133" s="23">
         <v>2020</v>
       </c>
-      <c r="CE133" s="28"/>
-      <c r="CF133" s="28"/>
-      <c r="CG133" s="28"/>
-      <c r="CH133" s="28">
+      <c r="CE133" s="23"/>
+      <c r="CF133" s="23"/>
+      <c r="CG133" s="23"/>
+      <c r="CH133" s="22">
         <v>2021</v>
       </c>
-      <c r="CI133" s="28"/>
-      <c r="CJ133" s="28"/>
-      <c r="CK133" s="28"/>
-      <c r="CL133" s="27">
+      <c r="CI133" s="22"/>
+      <c r="CJ133" s="22"/>
+      <c r="CK133" s="22"/>
+      <c r="CL133" s="22">
         <v>2022</v>
       </c>
+      <c r="CM133" s="22"/>
     </row>
-    <row r="134" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="13" t="s">
         <v>7</v>
@@ -20504,50 +20605,53 @@
       <c r="BY134" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="BZ134" s="24" t="s">
+      <c r="BZ134" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CA134" s="24" t="s">
+      <c r="CA134" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="CB134" s="24" t="s">
+      <c r="CB134" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="CC134" s="24" t="s">
+      <c r="CC134" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CD134" s="24" t="s">
+      <c r="CD134" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CE134" s="24" t="s">
+      <c r="CE134" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="CF134" s="24" t="s">
+      <c r="CF134" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="CG134" s="24" t="s">
+      <c r="CG134" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CH134" s="24" t="s">
+      <c r="CH134" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CI134" s="24" t="s">
+      <c r="CI134" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="CJ134" s="24" t="s">
+      <c r="CJ134" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="CK134" s="24" t="s">
+      <c r="CK134" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CL134" s="24" t="s">
+      <c r="CL134" s="13" t="s">
         <v>7</v>
       </c>
+      <c r="CM134" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="135" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
     </row>
-    <row r="136" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>1</v>
       </c>
@@ -20779,46 +20883,48 @@
       <c r="BY136" s="15">
         <v>8.2102468836437605</v>
       </c>
-      <c r="BZ136" s="26">
+      <c r="BZ136" s="15">
         <v>5.7004993141083782</v>
       </c>
-      <c r="CA136" s="26">
+      <c r="CA136" s="15">
         <v>5.5556224370366367</v>
       </c>
-      <c r="CB136" s="26">
+      <c r="CB136" s="15">
         <v>7.0789710248595163</v>
       </c>
-      <c r="CC136" s="26">
+      <c r="CC136" s="15">
         <v>8.4796805961946209</v>
       </c>
-      <c r="CD136" s="26">
+      <c r="CD136" s="15">
         <v>4.9952343275159103</v>
       </c>
-      <c r="CE136" s="26">
+      <c r="CE136" s="15">
         <v>2.9734231599888474</v>
       </c>
-      <c r="CF136" s="26">
+      <c r="CF136" s="15">
         <v>5.0688179881251214</v>
       </c>
-      <c r="CG136" s="26">
+      <c r="CG136" s="15">
         <v>5.4275059453531354</v>
       </c>
-      <c r="CH136" s="26">
+      <c r="CH136" s="21">
         <v>3.7210124126058028</v>
       </c>
-      <c r="CI136" s="26">
+      <c r="CI136" s="21">
         <v>3.1399466293911424</v>
       </c>
-      <c r="CJ136" s="26">
+      <c r="CJ136" s="21">
         <v>5.9513037927032633</v>
       </c>
-      <c r="CK136" s="26">
+      <c r="CK136" s="21">
         <v>6.3648030216419471</v>
       </c>
-      <c r="CL136" s="26">
-        <v>6.2243002976658977</v>
-      </c>
-      <c r="CM136" s="8"/>
+      <c r="CL136" s="21">
+        <v>7.3121379291535087</v>
+      </c>
+      <c r="CM136" s="21">
+        <v>4.9869886525037597</v>
+      </c>
       <c r="CN136" s="8"/>
       <c r="CO136" s="8"/>
       <c r="CP136" s="8"/>
@@ -20880,7 +20986,7 @@
       <c r="ET136" s="8"/>
       <c r="EU136" s="8"/>
     </row>
-    <row r="137" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>11</v>
       </c>
@@ -21112,46 +21218,48 @@
       <c r="BY137" s="15">
         <v>0.14885530525226767</v>
       </c>
-      <c r="BZ137" s="26">
+      <c r="BZ137" s="15">
         <v>7.1704622935158058E-2</v>
       </c>
-      <c r="CA137" s="26">
+      <c r="CA137" s="15">
         <v>5.6426784873713498E-2</v>
       </c>
-      <c r="CB137" s="26">
+      <c r="CB137" s="15">
         <v>0.13236607425108954</v>
       </c>
-      <c r="CC137" s="26">
+      <c r="CC137" s="15">
         <v>0.15036753568418579</v>
       </c>
-      <c r="CD137" s="26">
+      <c r="CD137" s="15">
         <v>6.9618762094456235E-2</v>
       </c>
-      <c r="CE137" s="26">
+      <c r="CE137" s="15">
         <v>6.1938901337616682E-2</v>
       </c>
-      <c r="CF137" s="26">
+      <c r="CF137" s="15">
         <v>0.1736863822285733</v>
       </c>
-      <c r="CG137" s="26">
+      <c r="CG137" s="15">
         <v>0.18664971726304994</v>
       </c>
-      <c r="CH137" s="26">
+      <c r="CH137" s="21">
         <v>8.7558676562155199E-2</v>
       </c>
-      <c r="CI137" s="26">
+      <c r="CI137" s="21">
         <v>6.2967906137419247E-2</v>
       </c>
-      <c r="CJ137" s="26">
+      <c r="CJ137" s="21">
         <v>0.17549222859448987</v>
       </c>
-      <c r="CK137" s="26">
+      <c r="CK137" s="21">
         <v>0.17471975750948968</v>
       </c>
-      <c r="CL137" s="26">
-        <v>8.154598213734196E-2</v>
-      </c>
-      <c r="CM137" s="8"/>
+      <c r="CL137" s="21">
+        <v>8.5242739098045542E-2</v>
+      </c>
+      <c r="CM137" s="21">
+        <v>5.9281574500877031E-2</v>
+      </c>
       <c r="CN137" s="8"/>
       <c r="CO137" s="8"/>
       <c r="CP137" s="8"/>
@@ -21213,7 +21321,7 @@
       <c r="ET137" s="8"/>
       <c r="EU137" s="8"/>
     </row>
-    <row r="138" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>12</v>
       </c>
@@ -21445,46 +21553,48 @@
       <c r="BY138" s="15">
         <v>16.205391421301222</v>
       </c>
-      <c r="BZ138" s="26">
+      <c r="BZ138" s="15">
         <v>22.071106276880766</v>
       </c>
-      <c r="CA138" s="26">
+      <c r="CA138" s="15">
         <v>20.18286037723588</v>
       </c>
-      <c r="CB138" s="26">
+      <c r="CB138" s="15">
         <v>27.878045121237815</v>
       </c>
-      <c r="CC138" s="26">
+      <c r="CC138" s="15">
         <v>19.013300244799748</v>
       </c>
-      <c r="CD138" s="26">
+      <c r="CD138" s="15">
         <v>16.396937903387638</v>
       </c>
-      <c r="CE138" s="26">
+      <c r="CE138" s="15">
         <v>1.1348070725738837</v>
       </c>
-      <c r="CF138" s="26">
+      <c r="CF138" s="15">
         <v>3.6469867699436915</v>
       </c>
-      <c r="CG138" s="26">
+      <c r="CG138" s="15">
         <v>2.0160285542239165</v>
       </c>
-      <c r="CH138" s="26">
+      <c r="CH138" s="21">
         <v>0.32281571107405882</v>
       </c>
-      <c r="CI138" s="26">
+      <c r="CI138" s="21">
         <v>5.017920109408661</v>
       </c>
-      <c r="CJ138" s="26">
+      <c r="CJ138" s="21">
         <v>5.3524872102617618</v>
       </c>
-      <c r="CK138" s="26">
+      <c r="CK138" s="21">
         <v>2.7846728412805546</v>
       </c>
-      <c r="CL138" s="26">
-        <v>2.5530876502913191</v>
-      </c>
-      <c r="CM138" s="8"/>
+      <c r="CL138" s="21">
+        <v>2.5397042174510642</v>
+      </c>
+      <c r="CM138" s="21">
+        <v>9.097344944903579</v>
+      </c>
       <c r="CN138" s="8"/>
       <c r="CO138" s="8"/>
       <c r="CP138" s="8"/>
@@ -21546,7 +21656,7 @@
       <c r="ET138" s="8"/>
       <c r="EU138" s="8"/>
     </row>
-    <row r="139" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>13</v>
       </c>
@@ -21778,46 +21888,48 @@
       <c r="BY139" s="15">
         <v>0.48469085264564299</v>
       </c>
-      <c r="BZ139" s="26">
+      <c r="BZ139" s="15">
         <v>0.31509531870904911</v>
       </c>
-      <c r="CA139" s="26">
+      <c r="CA139" s="15">
         <v>0.32727447139743238</v>
       </c>
-      <c r="CB139" s="26">
+      <c r="CB139" s="15">
         <v>0.44447319293188375</v>
       </c>
-      <c r="CC139" s="26">
+      <c r="CC139" s="15">
         <v>0.4976902965519393</v>
       </c>
-      <c r="CD139" s="26">
+      <c r="CD139" s="15">
         <v>0.30534187729247619</v>
       </c>
-      <c r="CE139" s="26">
+      <c r="CE139" s="15">
         <v>0.47539913007255363</v>
       </c>
-      <c r="CF139" s="26">
+      <c r="CF139" s="15">
         <v>0.62327344191047018</v>
       </c>
-      <c r="CG139" s="26">
+      <c r="CG139" s="15">
         <v>0.60148638065745919</v>
       </c>
-      <c r="CH139" s="26">
+      <c r="CH139" s="21">
         <v>0.56187529055733054</v>
       </c>
-      <c r="CI139" s="26">
+      <c r="CI139" s="21">
         <v>0.57989329839645298</v>
       </c>
-      <c r="CJ139" s="26">
+      <c r="CJ139" s="21">
         <v>0.84482969081861936</v>
       </c>
-      <c r="CK139" s="26">
+      <c r="CK139" s="21">
         <v>0.79241330198598137</v>
       </c>
-      <c r="CL139" s="26">
-        <v>0.52261670388238379</v>
-      </c>
-      <c r="CM139" s="8"/>
+      <c r="CL139" s="21">
+        <v>0.48713886300158227</v>
+      </c>
+      <c r="CM139" s="21">
+        <v>0.5005894670602723</v>
+      </c>
       <c r="CN139" s="8"/>
       <c r="CO139" s="8"/>
       <c r="CP139" s="8"/>
@@ -21879,7 +21991,7 @@
       <c r="ET139" s="8"/>
       <c r="EU139" s="8"/>
     </row>
-    <row r="140" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>14</v>
       </c>
@@ -22111,46 +22223,48 @@
       <c r="BY140" s="15">
         <v>11.798880159293429</v>
       </c>
-      <c r="BZ140" s="26">
+      <c r="BZ140" s="15">
         <v>14.875597964491316</v>
       </c>
-      <c r="CA140" s="26">
+      <c r="CA140" s="15">
         <v>16.202200345667475</v>
       </c>
-      <c r="CB140" s="26">
+      <c r="CB140" s="15">
         <v>12.534563099191992</v>
       </c>
-      <c r="CC140" s="26">
+      <c r="CC140" s="15">
         <v>11.952984608400481</v>
       </c>
-      <c r="CD140" s="26">
+      <c r="CD140" s="15">
         <v>15.76875526855887</v>
       </c>
-      <c r="CE140" s="26">
+      <c r="CE140" s="15">
         <v>19.793228749615736</v>
       </c>
-      <c r="CF140" s="26">
+      <c r="CF140" s="15">
         <v>14.642490335884069</v>
       </c>
-      <c r="CG140" s="26">
+      <c r="CG140" s="15">
         <v>15.398891770769421</v>
       </c>
-      <c r="CH140" s="26">
+      <c r="CH140" s="21">
         <v>19.317719145174404</v>
       </c>
-      <c r="CI140" s="26">
+      <c r="CI140" s="21">
         <v>17.667157848046728</v>
       </c>
-      <c r="CJ140" s="26">
+      <c r="CJ140" s="21">
         <v>15.641018178667684</v>
       </c>
-      <c r="CK140" s="26">
+      <c r="CK140" s="21">
         <v>15.082616976026891</v>
       </c>
-      <c r="CL140" s="26">
-        <v>18.024028522016874</v>
-      </c>
-      <c r="CM140" s="8"/>
+      <c r="CL140" s="21">
+        <v>17.349678360577634</v>
+      </c>
+      <c r="CM140" s="21">
+        <v>15.951795527027976</v>
+      </c>
       <c r="CN140" s="8"/>
       <c r="CO140" s="8"/>
       <c r="CP140" s="8"/>
@@ -22212,7 +22326,7 @@
       <c r="ET140" s="8"/>
       <c r="EU140" s="8"/>
     </row>
-    <row r="141" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>15</v>
       </c>
@@ -22444,46 +22558,48 @@
       <c r="BY141" s="15">
         <v>53.420805515876232</v>
       </c>
-      <c r="BZ141" s="26">
+      <c r="BZ141" s="15">
         <v>45.51198255321993</v>
       </c>
-      <c r="CA141" s="26">
+      <c r="CA141" s="15">
         <v>45.563399186100767</v>
       </c>
-      <c r="CB141" s="26">
+      <c r="CB141" s="15">
         <v>42.364932648854406</v>
       </c>
-      <c r="CC141" s="26">
+      <c r="CC141" s="15">
         <v>49.84358522879478</v>
       </c>
-      <c r="CD141" s="26">
+      <c r="CD141" s="15">
         <v>51.200767898533094</v>
       </c>
-      <c r="CE141" s="26">
+      <c r="CE141" s="15">
         <v>62.626493196949575</v>
       </c>
-      <c r="CF141" s="26">
+      <c r="CF141" s="15">
         <v>62.952414697866729</v>
       </c>
-      <c r="CG141" s="26">
+      <c r="CG141" s="15">
         <v>64.942432985931987</v>
       </c>
-      <c r="CH141" s="26">
+      <c r="CH141" s="21">
         <v>62.113759774290536</v>
       </c>
-      <c r="CI141" s="26">
+      <c r="CI141" s="21">
         <v>59.739511634489538</v>
       </c>
-      <c r="CJ141" s="26">
+      <c r="CJ141" s="21">
         <v>58.515472634346807</v>
       </c>
-      <c r="CK141" s="26">
+      <c r="CK141" s="21">
         <v>61.509603746173291</v>
       </c>
-      <c r="CL141" s="26">
-        <v>58.356518172560797</v>
-      </c>
-      <c r="CM141" s="8"/>
+      <c r="CL141" s="21">
+        <v>58.854344582927389</v>
+      </c>
+      <c r="CM141" s="21">
+        <v>57.128265638836282</v>
+      </c>
       <c r="CN141" s="8"/>
       <c r="CO141" s="8"/>
       <c r="CP141" s="8"/>
@@ -22545,7 +22661,7 @@
       <c r="ET141" s="8"/>
       <c r="EU141" s="8"/>
     </row>
-    <row r="142" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>16</v>
       </c>
@@ -22777,46 +22893,48 @@
       <c r="BY142" s="15">
         <v>8.1218844469246338</v>
       </c>
-      <c r="BZ142" s="26">
+      <c r="BZ142" s="15">
         <v>9.9845618108737515</v>
       </c>
-      <c r="CA142" s="26">
+      <c r="CA142" s="15">
         <v>10.615174843338433</v>
       </c>
-      <c r="CB142" s="26">
+      <c r="CB142" s="15">
         <v>8.4970713164054921</v>
       </c>
-      <c r="CC142" s="26">
+      <c r="CC142" s="15">
         <v>8.603494650630692</v>
       </c>
-      <c r="CD142" s="26">
+      <c r="CD142" s="15">
         <v>10.413665998840187</v>
       </c>
-      <c r="CE142" s="26">
+      <c r="CE142" s="15">
         <v>11.645449015290154</v>
       </c>
-      <c r="CF142" s="26">
+      <c r="CF142" s="15">
         <v>11.487796957173201</v>
       </c>
-      <c r="CG142" s="26">
+      <c r="CG142" s="15">
         <v>10.351874513042256</v>
       </c>
-      <c r="CH142" s="26">
+      <c r="CH142" s="21">
         <v>12.899161118522739</v>
       </c>
-      <c r="CI142" s="26">
+      <c r="CI142" s="21">
         <v>12.573861544868803</v>
       </c>
-      <c r="CJ142" s="26">
+      <c r="CJ142" s="21">
         <v>11.817095775217298</v>
       </c>
-      <c r="CK142" s="26">
+      <c r="CK142" s="21">
         <v>11.380842922393025</v>
       </c>
-      <c r="CL142" s="26">
-        <v>13.227310228548584</v>
-      </c>
-      <c r="CM142" s="8"/>
+      <c r="CL142" s="21">
+        <v>12.378131943301597</v>
+      </c>
+      <c r="CM142" s="21">
+        <v>11.017159447331954</v>
+      </c>
       <c r="CN142" s="8"/>
       <c r="CO142" s="8"/>
       <c r="CP142" s="8"/>
@@ -22878,7 +22996,7 @@
       <c r="ET142" s="8"/>
       <c r="EU142" s="8"/>
     </row>
-    <row r="143" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>17</v>
       </c>
@@ -23110,46 +23228,48 @@
       <c r="BY143" s="15">
         <v>1.6092454150628135</v>
       </c>
-      <c r="BZ143" s="26">
+      <c r="BZ143" s="15">
         <v>1.4694521387816433</v>
       </c>
-      <c r="CA143" s="26">
+      <c r="CA143" s="15">
         <v>1.4970415543496634</v>
       </c>
-      <c r="CB143" s="26">
+      <c r="CB143" s="15">
         <v>1.0695775222678001</v>
       </c>
-      <c r="CC143" s="26">
+      <c r="CC143" s="15">
         <v>1.4588968389435548</v>
       </c>
-      <c r="CD143" s="26">
+      <c r="CD143" s="15">
         <v>0.84967796377736249</v>
       </c>
-      <c r="CE143" s="26">
+      <c r="CE143" s="15">
         <v>1.2892607741716378</v>
       </c>
-      <c r="CF143" s="26">
+      <c r="CF143" s="15">
         <v>1.404533426868152</v>
       </c>
-      <c r="CG143" s="26">
+      <c r="CG143" s="15">
         <v>1.075130132758765</v>
       </c>
-      <c r="CH143" s="26">
+      <c r="CH143" s="21">
         <v>0.97609787121298008</v>
       </c>
-      <c r="CI143" s="26">
+      <c r="CI143" s="21">
         <v>1.2187410292612511</v>
       </c>
-      <c r="CJ143" s="26">
+      <c r="CJ143" s="21">
         <v>1.7023004893900633</v>
       </c>
-      <c r="CK143" s="26">
+      <c r="CK143" s="21">
         <v>1.9103274329888156</v>
       </c>
-      <c r="CL143" s="26">
-        <v>1.0105924428967965</v>
-      </c>
-      <c r="CM143" s="8"/>
+      <c r="CL143" s="21">
+        <v>0.99362136448919425</v>
+      </c>
+      <c r="CM143" s="21">
+        <v>1.2585747478353126</v>
+      </c>
       <c r="CN143" s="8"/>
       <c r="CO143" s="8"/>
       <c r="CP143" s="8"/>
@@ -23211,7 +23331,7 @@
       <c r="ET143" s="8"/>
       <c r="EU143" s="8"/>
     </row>
-    <row r="144" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
@@ -23288,19 +23408,19 @@
       <c r="BW144" s="8"/>
       <c r="BX144" s="8"/>
       <c r="BY144" s="8"/>
-      <c r="BZ144" s="21"/>
-      <c r="CA144" s="21"/>
-      <c r="CB144" s="21"/>
-      <c r="CC144" s="21"/>
-      <c r="CD144" s="21"/>
-      <c r="CE144" s="21"/>
-      <c r="CF144" s="21"/>
-      <c r="CG144" s="21"/>
-      <c r="CH144" s="21"/>
-      <c r="CI144" s="21"/>
-      <c r="CJ144" s="21"/>
-      <c r="CK144" s="21"/>
-      <c r="CL144" s="21"/>
+      <c r="BZ144" s="8"/>
+      <c r="CA144" s="8"/>
+      <c r="CB144" s="8"/>
+      <c r="CC144" s="8"/>
+      <c r="CD144" s="8"/>
+      <c r="CE144" s="8"/>
+      <c r="CF144" s="8"/>
+      <c r="CG144" s="8"/>
+      <c r="CH144" s="8"/>
+      <c r="CI144" s="8"/>
+      <c r="CJ144" s="8"/>
+      <c r="CK144" s="8"/>
+      <c r="CL144" s="8"/>
       <c r="CM144" s="8"/>
       <c r="CN144" s="8"/>
       <c r="CO144" s="8"/>
@@ -23363,7 +23483,7 @@
       <c r="ET144" s="8"/>
       <c r="EU144" s="8"/>
     </row>
-    <row r="145" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
         <v>18</v>
       </c>
@@ -23595,46 +23715,48 @@
       <c r="BY145" s="14">
         <v>100</v>
       </c>
-      <c r="BZ145" s="25">
+      <c r="BZ145" s="14">
         <v>100</v>
       </c>
-      <c r="CA145" s="25">
+      <c r="CA145" s="14">
         <v>100</v>
       </c>
-      <c r="CB145" s="25">
+      <c r="CB145" s="14">
         <v>100</v>
       </c>
-      <c r="CC145" s="25">
+      <c r="CC145" s="14">
         <v>100</v>
       </c>
-      <c r="CD145" s="25">
+      <c r="CD145" s="14">
         <v>100</v>
       </c>
-      <c r="CE145" s="25">
+      <c r="CE145" s="14">
         <v>100</v>
       </c>
-      <c r="CF145" s="25">
+      <c r="CF145" s="14">
         <v>100</v>
       </c>
-      <c r="CG145" s="25">
+      <c r="CG145" s="14">
         <v>100</v>
       </c>
-      <c r="CH145" s="25">
+      <c r="CH145" s="14">
         <v>100</v>
       </c>
-      <c r="CI145" s="25">
+      <c r="CI145" s="14">
         <v>100</v>
       </c>
-      <c r="CJ145" s="25">
+      <c r="CJ145" s="14">
         <v>100</v>
       </c>
-      <c r="CK145" s="25">
+      <c r="CK145" s="14">
         <v>100</v>
       </c>
-      <c r="CL145" s="25">
+      <c r="CL145" s="14">
         <v>100</v>
       </c>
-      <c r="CM145" s="8"/>
+      <c r="CM145" s="14">
+        <v>100</v>
+      </c>
       <c r="CN145" s="8"/>
       <c r="CO145" s="8"/>
       <c r="CP145" s="8"/>
@@ -23696,7 +23818,7 @@
       <c r="ET145" s="8"/>
       <c r="EU145" s="8"/>
     </row>
-    <row r="146" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
@@ -23774,26 +23896,27 @@
       <c r="BW146" s="11"/>
       <c r="BX146" s="11"/>
       <c r="BY146" s="11"/>
-      <c r="BZ146" s="23"/>
-      <c r="CA146" s="23"/>
-      <c r="CB146" s="23"/>
-      <c r="CC146" s="23"/>
-      <c r="CD146" s="23"/>
-      <c r="CE146" s="23"/>
-      <c r="CF146" s="23"/>
-      <c r="CG146" s="23"/>
-      <c r="CH146" s="23"/>
-      <c r="CI146" s="23"/>
-      <c r="CJ146" s="23"/>
-      <c r="CK146" s="23"/>
-      <c r="CL146" s="23"/>
+      <c r="BZ146" s="11"/>
+      <c r="CA146" s="11"/>
+      <c r="CB146" s="11"/>
+      <c r="CC146" s="11"/>
+      <c r="CD146" s="11"/>
+      <c r="CE146" s="11"/>
+      <c r="CF146" s="11"/>
+      <c r="CG146" s="11"/>
+      <c r="CH146" s="11"/>
+      <c r="CI146" s="11"/>
+      <c r="CJ146" s="11"/>
+      <c r="CK146" s="11"/>
+      <c r="CL146" s="11"/>
+      <c r="CM146" s="11"/>
     </row>
-    <row r="147" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A147" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
@@ -23870,19 +23993,19 @@
       <c r="BW148" s="8"/>
       <c r="BX148" s="8"/>
       <c r="BY148" s="8"/>
-      <c r="BZ148" s="21"/>
-      <c r="CA148" s="21"/>
-      <c r="CB148" s="21"/>
-      <c r="CC148" s="21"/>
-      <c r="CD148" s="21"/>
-      <c r="CE148" s="21"/>
-      <c r="CF148" s="21"/>
-      <c r="CG148" s="21"/>
-      <c r="CH148" s="21"/>
-      <c r="CI148" s="21"/>
-      <c r="CJ148" s="21"/>
-      <c r="CK148" s="21"/>
-      <c r="CL148" s="21"/>
+      <c r="BZ148" s="8"/>
+      <c r="CA148" s="8"/>
+      <c r="CB148" s="8"/>
+      <c r="CC148" s="8"/>
+      <c r="CD148" s="8"/>
+      <c r="CE148" s="8"/>
+      <c r="CF148" s="8"/>
+      <c r="CG148" s="8"/>
+      <c r="CH148" s="8"/>
+      <c r="CI148" s="8"/>
+      <c r="CJ148" s="8"/>
+      <c r="CK148" s="8"/>
+      <c r="CL148" s="8"/>
       <c r="CM148" s="8"/>
       <c r="CN148" s="8"/>
       <c r="CO148" s="8"/>
@@ -23945,7 +24068,7 @@
       <c r="ET148" s="8"/>
       <c r="EU148" s="8"/>
     </row>
-    <row r="149" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
@@ -24022,19 +24145,19 @@
       <c r="BW149" s="8"/>
       <c r="BX149" s="8"/>
       <c r="BY149" s="8"/>
-      <c r="BZ149" s="21"/>
-      <c r="CA149" s="21"/>
-      <c r="CB149" s="21"/>
-      <c r="CC149" s="21"/>
-      <c r="CD149" s="21"/>
-      <c r="CE149" s="21"/>
-      <c r="CF149" s="21"/>
-      <c r="CG149" s="21"/>
-      <c r="CH149" s="21"/>
-      <c r="CI149" s="21"/>
-      <c r="CJ149" s="21"/>
-      <c r="CK149" s="21"/>
-      <c r="CL149" s="21"/>
+      <c r="BZ149" s="8"/>
+      <c r="CA149" s="8"/>
+      <c r="CB149" s="8"/>
+      <c r="CC149" s="8"/>
+      <c r="CD149" s="8"/>
+      <c r="CE149" s="8"/>
+      <c r="CF149" s="8"/>
+      <c r="CG149" s="8"/>
+      <c r="CH149" s="8"/>
+      <c r="CI149" s="8"/>
+      <c r="CJ149" s="8"/>
+      <c r="CK149" s="8"/>
+      <c r="CL149" s="8"/>
       <c r="CM149" s="8"/>
       <c r="CN149" s="8"/>
       <c r="CO149" s="8"/>
@@ -24097,175 +24220,176 @@
       <c r="ET149" s="8"/>
       <c r="EU149" s="8"/>
     </row>
-    <row r="150" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="154" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="156" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="158" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
-      <c r="B158" s="31">
+      <c r="B158" s="23">
         <v>2000</v>
       </c>
-      <c r="C158" s="31"/>
-      <c r="D158" s="31"/>
-      <c r="E158" s="31"/>
-      <c r="F158" s="31">
+      <c r="C158" s="23"/>
+      <c r="D158" s="23"/>
+      <c r="E158" s="23"/>
+      <c r="F158" s="23">
         <v>2001</v>
       </c>
-      <c r="G158" s="31"/>
-      <c r="H158" s="31"/>
-      <c r="I158" s="31"/>
-      <c r="J158" s="31">
+      <c r="G158" s="23"/>
+      <c r="H158" s="23"/>
+      <c r="I158" s="23"/>
+      <c r="J158" s="23">
         <v>2002</v>
       </c>
-      <c r="K158" s="31"/>
-      <c r="L158" s="31"/>
-      <c r="M158" s="31"/>
-      <c r="N158" s="31">
+      <c r="K158" s="23"/>
+      <c r="L158" s="23"/>
+      <c r="M158" s="23"/>
+      <c r="N158" s="23">
         <v>2003</v>
       </c>
-      <c r="O158" s="31"/>
-      <c r="P158" s="31"/>
-      <c r="Q158" s="31"/>
-      <c r="R158" s="31">
+      <c r="O158" s="23"/>
+      <c r="P158" s="23"/>
+      <c r="Q158" s="23"/>
+      <c r="R158" s="23">
         <v>2004</v>
       </c>
-      <c r="S158" s="31"/>
-      <c r="T158" s="31"/>
-      <c r="U158" s="31"/>
-      <c r="V158" s="31">
+      <c r="S158" s="23"/>
+      <c r="T158" s="23"/>
+      <c r="U158" s="23"/>
+      <c r="V158" s="23">
         <v>2005</v>
       </c>
-      <c r="W158" s="31"/>
-      <c r="X158" s="31"/>
-      <c r="Y158" s="31"/>
-      <c r="Z158" s="31">
+      <c r="W158" s="23"/>
+      <c r="X158" s="23"/>
+      <c r="Y158" s="23"/>
+      <c r="Z158" s="23">
         <v>2006</v>
       </c>
-      <c r="AA158" s="31"/>
-      <c r="AB158" s="31"/>
-      <c r="AC158" s="31"/>
-      <c r="AD158" s="31">
+      <c r="AA158" s="23"/>
+      <c r="AB158" s="23"/>
+      <c r="AC158" s="23"/>
+      <c r="AD158" s="23">
         <v>2007</v>
       </c>
-      <c r="AE158" s="31"/>
-      <c r="AF158" s="31"/>
-      <c r="AG158" s="31"/>
-      <c r="AH158" s="31">
+      <c r="AE158" s="23"/>
+      <c r="AF158" s="23"/>
+      <c r="AG158" s="23"/>
+      <c r="AH158" s="23">
         <v>2008</v>
       </c>
-      <c r="AI158" s="31"/>
-      <c r="AJ158" s="31"/>
-      <c r="AK158" s="31"/>
-      <c r="AL158" s="31">
+      <c r="AI158" s="23"/>
+      <c r="AJ158" s="23"/>
+      <c r="AK158" s="23"/>
+      <c r="AL158" s="23">
         <v>2009</v>
       </c>
-      <c r="AM158" s="31"/>
-      <c r="AN158" s="31"/>
-      <c r="AO158" s="31"/>
-      <c r="AP158" s="31">
+      <c r="AM158" s="23"/>
+      <c r="AN158" s="23"/>
+      <c r="AO158" s="23"/>
+      <c r="AP158" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ158" s="31"/>
-      <c r="AR158" s="31"/>
-      <c r="AS158" s="31"/>
-      <c r="AT158" s="31">
+      <c r="AQ158" s="23"/>
+      <c r="AR158" s="23"/>
+      <c r="AS158" s="23"/>
+      <c r="AT158" s="23">
         <v>2011</v>
       </c>
-      <c r="AU158" s="31"/>
-      <c r="AV158" s="31"/>
-      <c r="AW158" s="31"/>
-      <c r="AX158" s="31">
+      <c r="AU158" s="23"/>
+      <c r="AV158" s="23"/>
+      <c r="AW158" s="23"/>
+      <c r="AX158" s="23">
         <v>2012</v>
       </c>
-      <c r="AY158" s="31"/>
-      <c r="AZ158" s="31"/>
-      <c r="BA158" s="31"/>
-      <c r="BB158" s="31">
+      <c r="AY158" s="23"/>
+      <c r="AZ158" s="23"/>
+      <c r="BA158" s="23"/>
+      <c r="BB158" s="23">
         <v>2013</v>
       </c>
-      <c r="BC158" s="31"/>
-      <c r="BD158" s="31"/>
-      <c r="BE158" s="31"/>
-      <c r="BF158" s="31">
+      <c r="BC158" s="23"/>
+      <c r="BD158" s="23"/>
+      <c r="BE158" s="23"/>
+      <c r="BF158" s="23">
         <v>2014</v>
       </c>
-      <c r="BG158" s="31"/>
-      <c r="BH158" s="31"/>
-      <c r="BI158" s="31"/>
-      <c r="BJ158" s="31">
+      <c r="BG158" s="23"/>
+      <c r="BH158" s="23"/>
+      <c r="BI158" s="23"/>
+      <c r="BJ158" s="23">
         <v>2015</v>
       </c>
-      <c r="BK158" s="31"/>
-      <c r="BL158" s="31"/>
-      <c r="BM158" s="31"/>
-      <c r="BN158" s="31">
+      <c r="BK158" s="23"/>
+      <c r="BL158" s="23"/>
+      <c r="BM158" s="23"/>
+      <c r="BN158" s="23">
         <v>2016</v>
       </c>
-      <c r="BO158" s="31"/>
-      <c r="BP158" s="31"/>
-      <c r="BQ158" s="31"/>
-      <c r="BR158" s="31">
+      <c r="BO158" s="23"/>
+      <c r="BP158" s="23"/>
+      <c r="BQ158" s="23"/>
+      <c r="BR158" s="23">
         <v>2017</v>
       </c>
-      <c r="BS158" s="31"/>
-      <c r="BT158" s="31"/>
-      <c r="BU158" s="31"/>
-      <c r="BV158" s="31">
+      <c r="BS158" s="23"/>
+      <c r="BT158" s="23"/>
+      <c r="BU158" s="23"/>
+      <c r="BV158" s="23">
         <v>2018</v>
       </c>
-      <c r="BW158" s="31"/>
-      <c r="BX158" s="31"/>
-      <c r="BY158" s="31"/>
-      <c r="BZ158" s="30">
+      <c r="BW158" s="23"/>
+      <c r="BX158" s="23"/>
+      <c r="BY158" s="23"/>
+      <c r="BZ158" s="23">
         <v>2019</v>
       </c>
-      <c r="CA158" s="30"/>
-      <c r="CB158" s="30"/>
-      <c r="CC158" s="30"/>
-      <c r="CD158" s="28">
+      <c r="CA158" s="23"/>
+      <c r="CB158" s="23"/>
+      <c r="CC158" s="23"/>
+      <c r="CD158" s="23">
         <v>2020</v>
       </c>
-      <c r="CE158" s="28"/>
-      <c r="CF158" s="28"/>
-      <c r="CG158" s="28"/>
-      <c r="CH158" s="28">
+      <c r="CE158" s="23"/>
+      <c r="CF158" s="23"/>
+      <c r="CG158" s="23"/>
+      <c r="CH158" s="22">
         <v>2021</v>
       </c>
-      <c r="CI158" s="28"/>
-      <c r="CJ158" s="28"/>
-      <c r="CK158" s="28"/>
-      <c r="CL158" s="27">
+      <c r="CI158" s="22"/>
+      <c r="CJ158" s="22"/>
+      <c r="CK158" s="22"/>
+      <c r="CL158" s="22">
         <v>2022</v>
       </c>
+      <c r="CM158" s="22"/>
     </row>
-    <row r="159" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="13" t="s">
         <v>7</v>
@@ -24495,50 +24619,53 @@
       <c r="BY159" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="BZ159" s="24" t="s">
+      <c r="BZ159" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CA159" s="24" t="s">
+      <c r="CA159" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="CB159" s="24" t="s">
+      <c r="CB159" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="CC159" s="24" t="s">
+      <c r="CC159" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CD159" s="24" t="s">
+      <c r="CD159" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CE159" s="24" t="s">
+      <c r="CE159" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="CF159" s="24" t="s">
+      <c r="CF159" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="CG159" s="24" t="s">
+      <c r="CG159" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CH159" s="24" t="s">
+      <c r="CH159" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CI159" s="24" t="s">
+      <c r="CI159" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="CJ159" s="24" t="s">
+      <c r="CJ159" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="CK159" s="24" t="s">
+      <c r="CK159" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CL159" s="24" t="s">
+      <c r="CL159" s="13" t="s">
         <v>7</v>
       </c>
+      <c r="CM159" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="160" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
     </row>
-    <row r="161" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>1</v>
       </c>
@@ -24770,46 +24897,48 @@
       <c r="BY161" s="15">
         <v>7.9805702860757126</v>
       </c>
-      <c r="BZ161" s="26">
+      <c r="BZ161" s="15">
         <v>5.6645868731349722</v>
       </c>
-      <c r="CA161" s="26">
+      <c r="CA161" s="15">
         <v>5.5288274939632478</v>
       </c>
-      <c r="CB161" s="26">
+      <c r="CB161" s="15">
         <v>7.4541173035908015</v>
       </c>
-      <c r="CC161" s="26">
+      <c r="CC161" s="15">
         <v>8.4311298347575008</v>
       </c>
-      <c r="CD161" s="26">
+      <c r="CD161" s="15">
         <v>5.0109682970854008</v>
       </c>
-      <c r="CE161" s="26">
+      <c r="CE161" s="15">
         <v>3.0575954363501445</v>
       </c>
-      <c r="CF161" s="26">
+      <c r="CF161" s="15">
         <v>5.1021512160028131</v>
       </c>
-      <c r="CG161" s="26">
+      <c r="CG161" s="15">
         <v>5.1202309490742826</v>
       </c>
-      <c r="CH161" s="26">
+      <c r="CH161" s="21">
         <v>3.4474077754146877</v>
       </c>
-      <c r="CI161" s="26">
+      <c r="CI161" s="21">
         <v>3.0261185334538467</v>
       </c>
-      <c r="CJ161" s="26">
+      <c r="CJ161" s="21">
         <v>5.7945406475794554</v>
       </c>
-      <c r="CK161" s="26">
+      <c r="CK161" s="21">
         <v>5.7891861138282206</v>
       </c>
-      <c r="CL161" s="26">
-        <v>5.5197911596660116</v>
-      </c>
-      <c r="CM161" s="8"/>
+      <c r="CL161" s="21">
+        <v>6.4973541440330891</v>
+      </c>
+      <c r="CM161" s="21">
+        <v>4.5232910292802231</v>
+      </c>
       <c r="CN161" s="8"/>
       <c r="CO161" s="8"/>
       <c r="CP161" s="8"/>
@@ -24871,7 +25000,7 @@
       <c r="ET161" s="8"/>
       <c r="EU161" s="8"/>
     </row>
-    <row r="162" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>11</v>
       </c>
@@ -25103,46 +25232,48 @@
       <c r="BY162" s="15">
         <v>0.15145697095608832</v>
       </c>
-      <c r="BZ162" s="26">
+      <c r="BZ162" s="15">
         <v>7.2166340841326559E-2</v>
       </c>
-      <c r="CA162" s="26">
+      <c r="CA162" s="15">
         <v>5.537799214703934E-2</v>
       </c>
-      <c r="CB162" s="26">
+      <c r="CB162" s="15">
         <v>0.13132386336292237</v>
       </c>
-      <c r="CC162" s="26">
+      <c r="CC162" s="15">
         <v>0.15136469743347755</v>
       </c>
-      <c r="CD162" s="26">
+      <c r="CD162" s="15">
         <v>6.9936111574063903E-2</v>
       </c>
-      <c r="CE162" s="26">
+      <c r="CE162" s="15">
         <v>6.0290553573796077E-2</v>
       </c>
-      <c r="CF162" s="26">
+      <c r="CF162" s="15">
         <v>0.17238825267582442</v>
       </c>
-      <c r="CG162" s="26">
+      <c r="CG162" s="15">
         <v>0.18817661213181042</v>
       </c>
-      <c r="CH162" s="26">
+      <c r="CH162" s="21">
         <v>8.7715920558017663E-2</v>
       </c>
-      <c r="CI162" s="26">
+      <c r="CI162" s="21">
         <v>6.116392952960753E-2</v>
       </c>
-      <c r="CJ162" s="26">
+      <c r="CJ162" s="21">
         <v>0.17363625637295835</v>
       </c>
-      <c r="CK162" s="26">
+      <c r="CK162" s="21">
         <v>0.17551752463079001</v>
       </c>
-      <c r="CL162" s="26">
-        <v>8.150485687183745E-2</v>
-      </c>
-      <c r="CM162" s="8"/>
+      <c r="CL162" s="21">
+        <v>8.5368641966480946E-2</v>
+      </c>
+      <c r="CM162" s="21">
+        <v>5.8912519874320356E-2</v>
+      </c>
       <c r="CN162" s="8"/>
       <c r="CO162" s="8"/>
       <c r="CP162" s="8"/>
@@ -25204,7 +25335,7 @@
       <c r="ET162" s="8"/>
       <c r="EU162" s="8"/>
     </row>
-    <row r="163" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>12</v>
       </c>
@@ -25436,46 +25567,48 @@
       <c r="BY163" s="15">
         <v>16.43983476930044</v>
       </c>
-      <c r="BZ163" s="26">
+      <c r="BZ163" s="15">
         <v>22.18186160666858</v>
       </c>
-      <c r="CA163" s="26">
+      <c r="CA163" s="15">
         <v>19.804036344795133</v>
       </c>
-      <c r="CB163" s="26">
+      <c r="CB163" s="15">
         <v>27.679082674762771</v>
       </c>
-      <c r="CC163" s="26">
+      <c r="CC163" s="15">
         <v>19.163729694697746</v>
       </c>
-      <c r="CD163" s="26">
+      <c r="CD163" s="15">
         <v>16.363997264015566</v>
       </c>
-      <c r="CE163" s="26">
+      <c r="CE163" s="15">
         <v>1.0907957815735638</v>
       </c>
-      <c r="CF163" s="26">
+      <c r="CF163" s="15">
         <v>3.612704240682397</v>
       </c>
-      <c r="CG163" s="26">
+      <c r="CG163" s="15">
         <v>2.0185663269887475</v>
       </c>
-      <c r="CH163" s="26">
+      <c r="CH163" s="21">
         <v>0.31608265780620848</v>
       </c>
-      <c r="CI163" s="26">
+      <c r="CI163" s="21">
         <v>4.7835007819061266</v>
       </c>
-      <c r="CJ163" s="26">
+      <c r="CJ163" s="21">
         <v>5.2221723627921808</v>
       </c>
-      <c r="CK163" s="26">
+      <c r="CK163" s="21">
         <v>2.7702626782271129</v>
       </c>
-      <c r="CL163" s="26">
-        <v>2.5168887537273958</v>
-      </c>
-      <c r="CM163" s="8"/>
+      <c r="CL163" s="21">
+        <v>2.5086581822839658</v>
+      </c>
+      <c r="CM163" s="21">
+        <v>8.8926600918676648</v>
+      </c>
       <c r="CN163" s="8"/>
       <c r="CO163" s="8"/>
       <c r="CP163" s="8"/>
@@ -25537,7 +25670,7 @@
       <c r="ET163" s="8"/>
       <c r="EU163" s="8"/>
     </row>
-    <row r="164" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>13</v>
       </c>
@@ -25769,46 +25902,48 @@
       <c r="BY164" s="15">
         <v>0.48119501601680376</v>
       </c>
-      <c r="BZ164" s="26">
+      <c r="BZ164" s="15">
         <v>0.32020014589875562</v>
       </c>
-      <c r="CA164" s="26">
+      <c r="CA164" s="15">
         <v>0.32410601100619962</v>
       </c>
-      <c r="CB164" s="26">
+      <c r="CB164" s="15">
         <v>0.44481733184169253</v>
       </c>
-      <c r="CC164" s="26">
+      <c r="CC164" s="15">
         <v>0.4889466192213584</v>
       </c>
-      <c r="CD164" s="26">
+      <c r="CD164" s="15">
         <v>0.31270747301414797</v>
       </c>
-      <c r="CE164" s="26">
+      <c r="CE164" s="15">
         <v>0.46920781968599923</v>
       </c>
-      <c r="CF164" s="26">
+      <c r="CF164" s="15">
         <v>0.62437649254816352</v>
       </c>
-      <c r="CG164" s="26">
+      <c r="CG164" s="15">
         <v>0.59336852384765482</v>
       </c>
-      <c r="CH164" s="26">
+      <c r="CH164" s="21">
         <v>0.57638805240990287</v>
       </c>
-      <c r="CI164" s="26">
+      <c r="CI164" s="21">
         <v>0.57822142937842447</v>
       </c>
-      <c r="CJ164" s="26">
+      <c r="CJ164" s="21">
         <v>0.85359072934355051</v>
       </c>
-      <c r="CK164" s="26">
+      <c r="CK164" s="21">
         <v>0.784227592561623</v>
       </c>
-      <c r="CL164" s="26">
-        <v>0.53819471142363118</v>
-      </c>
-      <c r="CM164" s="8"/>
+      <c r="CL164" s="21">
+        <v>0.50265380266675763</v>
+      </c>
+      <c r="CM164" s="21">
+        <v>0.51448221481948819</v>
+      </c>
       <c r="CN164" s="8"/>
       <c r="CO164" s="8"/>
       <c r="CP164" s="8"/>
@@ -25870,7 +26005,7 @@
       <c r="ET164" s="8"/>
       <c r="EU164" s="8"/>
     </row>
-    <row r="165" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>14</v>
       </c>
@@ -26102,46 +26237,48 @@
       <c r="BY165" s="15">
         <v>12.118920621964433</v>
       </c>
-      <c r="BZ165" s="26">
+      <c r="BZ165" s="15">
         <v>15.216578151395213</v>
       </c>
-      <c r="CA165" s="26">
+      <c r="CA165" s="15">
         <v>16.239576075732145</v>
       </c>
-      <c r="CB165" s="26">
+      <c r="CB165" s="15">
         <v>12.732474385287887</v>
       </c>
-      <c r="CC165" s="26">
+      <c r="CC165" s="15">
         <v>12.331296000094479</v>
       </c>
-      <c r="CD165" s="26">
+      <c r="CD165" s="15">
         <v>16.377269650702271</v>
       </c>
-      <c r="CE165" s="26">
+      <c r="CE165" s="15">
         <v>19.807236317647099</v>
       </c>
-      <c r="CF165" s="26">
+      <c r="CF165" s="15">
         <v>15.159788781635985</v>
       </c>
-      <c r="CG165" s="26">
+      <c r="CG165" s="15">
         <v>16.223448810278832</v>
       </c>
-      <c r="CH165" s="26">
+      <c r="CH165" s="21">
         <v>20.516142766994637</v>
       </c>
-      <c r="CI165" s="26">
+      <c r="CI165" s="21">
         <v>18.254315872337752</v>
       </c>
-      <c r="CJ165" s="26">
+      <c r="CJ165" s="21">
         <v>16.633834143540728</v>
       </c>
-      <c r="CK165" s="26">
+      <c r="CK165" s="21">
         <v>16.40765748487652</v>
       </c>
-      <c r="CL165" s="26">
-        <v>19.788759834898162</v>
-      </c>
-      <c r="CM165" s="8"/>
+      <c r="CL165" s="21">
+        <v>19.086143938106673</v>
+      </c>
+      <c r="CM165" s="21">
+        <v>17.68112226627057</v>
+      </c>
       <c r="CN165" s="8"/>
       <c r="CO165" s="8"/>
       <c r="CP165" s="8"/>
@@ -26203,7 +26340,7 @@
       <c r="ET165" s="8"/>
       <c r="EU165" s="8"/>
     </row>
-    <row r="166" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>15</v>
       </c>
@@ -26435,46 +26572,48 @@
       <c r="BY166" s="15">
         <v>52.949707647508902</v>
       </c>
-      <c r="BZ166" s="26">
+      <c r="BZ166" s="15">
         <v>45.02397861541241</v>
       </c>
-      <c r="CA166" s="26">
+      <c r="CA166" s="15">
         <v>46.153009643526417</v>
       </c>
-      <c r="CB166" s="26">
+      <c r="CB166" s="15">
         <v>42.05170674929213</v>
       </c>
-      <c r="CC166" s="26">
+      <c r="CC166" s="15">
         <v>49.282665541919236</v>
       </c>
-      <c r="CD166" s="26">
+      <c r="CD166" s="15">
         <v>50.55711067390871</v>
       </c>
-      <c r="CE166" s="26">
+      <c r="CE166" s="15">
         <v>62.918140361561981</v>
       </c>
-      <c r="CF166" s="26">
+      <c r="CF166" s="15">
         <v>62.512150090526752</v>
       </c>
-      <c r="CG166" s="26">
+      <c r="CG166" s="15">
         <v>64.310408029086403</v>
       </c>
-      <c r="CH166" s="26">
+      <c r="CH166" s="21">
         <v>61.164248120272603</v>
       </c>
-      <c r="CI166" s="26">
+      <c r="CI166" s="21">
         <v>59.892136466384585</v>
       </c>
-      <c r="CJ166" s="26">
+      <c r="CJ166" s="21">
         <v>57.924645792109352</v>
       </c>
-      <c r="CK166" s="26">
+      <c r="CK166" s="21">
         <v>60.692607672459189</v>
       </c>
-      <c r="CL166" s="26">
-        <v>57.332499998669626</v>
-      </c>
-      <c r="CM166" s="8"/>
+      <c r="CL166" s="21">
+        <v>57.936211169675126</v>
+      </c>
+      <c r="CM166" s="21">
+        <v>56.033129026531469</v>
+      </c>
       <c r="CN166" s="8"/>
       <c r="CO166" s="8"/>
       <c r="CP166" s="8"/>
@@ -26536,7 +26675,7 @@
       <c r="ET166" s="8"/>
       <c r="EU166" s="8"/>
     </row>
-    <row r="167" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>16</v>
       </c>
@@ -26768,46 +26907,48 @@
       <c r="BY167" s="15">
         <v>8.2446476396927011</v>
       </c>
-      <c r="BZ167" s="26">
+      <c r="BZ167" s="15">
         <v>10.043345445790667</v>
       </c>
-      <c r="CA167" s="26">
+      <c r="CA167" s="15">
         <v>10.42604088339773</v>
       </c>
-      <c r="CB167" s="26">
+      <c r="CB167" s="15">
         <v>8.4445978068619816</v>
       </c>
-      <c r="CC167" s="26">
+      <c r="CC167" s="15">
         <v>8.6803901470086657</v>
       </c>
-      <c r="CD167" s="26">
+      <c r="CD167" s="15">
         <v>10.455400938710682</v>
       </c>
-      <c r="CE167" s="26">
+      <c r="CE167" s="15">
         <v>11.344422275397761</v>
       </c>
-      <c r="CF167" s="26">
+      <c r="CF167" s="15">
         <v>11.421453982524229</v>
       </c>
-      <c r="CG167" s="26">
+      <c r="CG167" s="15">
         <v>10.46046872292475</v>
       </c>
-      <c r="CH167" s="26">
+      <c r="CH167" s="21">
         <v>12.915242539636109</v>
       </c>
-      <c r="CI167" s="26">
+      <c r="CI167" s="21">
         <v>12.223207177357558</v>
       </c>
-      <c r="CJ167" s="26">
+      <c r="CJ167" s="21">
         <v>11.71213379400187</v>
       </c>
-      <c r="CK167" s="26">
+      <c r="CK167" s="21">
         <v>11.45900037965375</v>
       </c>
-      <c r="CL167" s="26">
-        <v>13.213392107396851</v>
-      </c>
-      <c r="CM167" s="8"/>
+      <c r="CL167" s="21">
+        <v>12.389618849872395</v>
+      </c>
+      <c r="CM167" s="21">
+        <v>11.038973723744878</v>
+      </c>
       <c r="CN167" s="8"/>
       <c r="CO167" s="8"/>
       <c r="CP167" s="8"/>
@@ -26869,7 +27010,7 @@
       <c r="ET167" s="8"/>
       <c r="EU167" s="8"/>
     </row>
-    <row r="168" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>17</v>
       </c>
@@ -27101,46 +27242,48 @@
       <c r="BY168" s="15">
         <v>1.6336670484849178</v>
       </c>
-      <c r="BZ168" s="26">
+      <c r="BZ168" s="15">
         <v>1.4772828208580813</v>
       </c>
-      <c r="CA168" s="26">
+      <c r="CA168" s="15">
         <v>1.469025555432101</v>
       </c>
-      <c r="CB168" s="26">
+      <c r="CB168" s="15">
         <v>1.0618798849998023</v>
       </c>
-      <c r="CC168" s="26">
+      <c r="CC168" s="15">
         <v>1.4704774648675385</v>
       </c>
-      <c r="CD168" s="26">
+      <c r="CD168" s="15">
         <v>0.8526095909891741</v>
       </c>
-      <c r="CE168" s="26">
+      <c r="CE168" s="15">
         <v>1.2523114542096694</v>
       </c>
-      <c r="CF168" s="26">
+      <c r="CF168" s="15">
         <v>1.3949869434038273</v>
       </c>
-      <c r="CG168" s="26">
+      <c r="CG168" s="15">
         <v>1.085332025667505</v>
       </c>
-      <c r="CH168" s="26">
+      <c r="CH168" s="21">
         <v>0.9767721669078312</v>
       </c>
-      <c r="CI168" s="26">
+      <c r="CI168" s="21">
         <v>1.1813358096520878</v>
       </c>
-      <c r="CJ168" s="26">
+      <c r="CJ168" s="21">
         <v>1.6854462742598915</v>
       </c>
-      <c r="CK168" s="26">
+      <c r="CK168" s="21">
         <v>1.9215405537628021</v>
       </c>
-      <c r="CL168" s="26">
-        <v>1.0089685773464823</v>
-      </c>
-      <c r="CM168" s="8"/>
+      <c r="CL168" s="21">
+        <v>0.99399127139552668</v>
+      </c>
+      <c r="CM168" s="21">
+        <v>1.2574291276113891</v>
+      </c>
       <c r="CN168" s="8"/>
       <c r="CO168" s="8"/>
       <c r="CP168" s="8"/>
@@ -27202,7 +27345,7 @@
       <c r="ET168" s="8"/>
       <c r="EU168" s="8"/>
     </row>
-    <row r="169" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
       <c r="D169" s="8"/>
@@ -27279,19 +27422,19 @@
       <c r="BW169" s="8"/>
       <c r="BX169" s="8"/>
       <c r="BY169" s="8"/>
-      <c r="BZ169" s="21"/>
-      <c r="CA169" s="21"/>
-      <c r="CB169" s="21"/>
-      <c r="CC169" s="21"/>
-      <c r="CD169" s="21"/>
-      <c r="CE169" s="21"/>
-      <c r="CF169" s="21"/>
-      <c r="CG169" s="21"/>
-      <c r="CH169" s="21"/>
-      <c r="CI169" s="21"/>
-      <c r="CJ169" s="21"/>
-      <c r="CK169" s="21"/>
-      <c r="CL169" s="21"/>
+      <c r="BZ169" s="8"/>
+      <c r="CA169" s="8"/>
+      <c r="CB169" s="8"/>
+      <c r="CC169" s="8"/>
+      <c r="CD169" s="8"/>
+      <c r="CE169" s="8"/>
+      <c r="CF169" s="8"/>
+      <c r="CG169" s="8"/>
+      <c r="CH169" s="8"/>
+      <c r="CI169" s="8"/>
+      <c r="CJ169" s="8"/>
+      <c r="CK169" s="8"/>
+      <c r="CL169" s="8"/>
       <c r="CM169" s="8"/>
       <c r="CN169" s="8"/>
       <c r="CO169" s="8"/>
@@ -27354,7 +27497,7 @@
       <c r="ET169" s="8"/>
       <c r="EU169" s="8"/>
     </row>
-    <row r="170" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
         <v>18</v>
       </c>
@@ -27586,46 +27729,48 @@
       <c r="BY170" s="14">
         <v>100</v>
       </c>
-      <c r="BZ170" s="25">
+      <c r="BZ170" s="14">
         <v>100</v>
       </c>
-      <c r="CA170" s="25">
+      <c r="CA170" s="14">
         <v>100</v>
       </c>
-      <c r="CB170" s="25">
+      <c r="CB170" s="14">
         <v>100</v>
       </c>
-      <c r="CC170" s="25">
+      <c r="CC170" s="14">
         <v>100</v>
       </c>
-      <c r="CD170" s="25">
+      <c r="CD170" s="14">
         <v>100</v>
       </c>
-      <c r="CE170" s="25">
+      <c r="CE170" s="14">
         <v>100</v>
       </c>
-      <c r="CF170" s="25">
+      <c r="CF170" s="14">
         <v>100</v>
       </c>
-      <c r="CG170" s="25">
+      <c r="CG170" s="14">
         <v>100</v>
       </c>
-      <c r="CH170" s="25">
+      <c r="CH170" s="14">
         <v>100</v>
       </c>
-      <c r="CI170" s="25">
+      <c r="CI170" s="14">
         <v>100</v>
       </c>
-      <c r="CJ170" s="25">
+      <c r="CJ170" s="14">
         <v>100</v>
       </c>
-      <c r="CK170" s="25">
+      <c r="CK170" s="14">
         <v>100</v>
       </c>
-      <c r="CL170" s="25">
+      <c r="CL170" s="14">
         <v>100</v>
       </c>
-      <c r="CM170" s="8"/>
+      <c r="CM170" s="14">
+        <v>100</v>
+      </c>
       <c r="CN170" s="8"/>
       <c r="CO170" s="8"/>
       <c r="CP170" s="8"/>
@@ -27687,7 +27832,7 @@
       <c r="ET170" s="8"/>
       <c r="EU170" s="8"/>
     </row>
-    <row r="171" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -27765,26 +27910,27 @@
       <c r="BW171" s="11"/>
       <c r="BX171" s="11"/>
       <c r="BY171" s="11"/>
-      <c r="BZ171" s="23"/>
-      <c r="CA171" s="23"/>
-      <c r="CB171" s="23"/>
-      <c r="CC171" s="23"/>
-      <c r="CD171" s="23"/>
-      <c r="CE171" s="23"/>
-      <c r="CF171" s="23"/>
-      <c r="CG171" s="23"/>
-      <c r="CH171" s="23"/>
-      <c r="CI171" s="23"/>
-      <c r="CJ171" s="23"/>
-      <c r="CK171" s="23"/>
-      <c r="CL171" s="23"/>
+      <c r="BZ171" s="11"/>
+      <c r="CA171" s="11"/>
+      <c r="CB171" s="11"/>
+      <c r="CC171" s="11"/>
+      <c r="CD171" s="11"/>
+      <c r="CE171" s="11"/>
+      <c r="CF171" s="11"/>
+      <c r="CG171" s="11"/>
+      <c r="CH171" s="11"/>
+      <c r="CI171" s="11"/>
+      <c r="CJ171" s="11"/>
+      <c r="CK171" s="11"/>
+      <c r="CL171" s="11"/>
+      <c r="CM171" s="11"/>
     </row>
-    <row r="172" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A172" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:151" s="17" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:151" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="16"/>
       <c r="C173" s="16"/>
@@ -27862,20 +28008,20 @@
       <c r="BW173" s="1"/>
       <c r="BX173" s="1"/>
       <c r="BY173" s="1"/>
-      <c r="BZ173" s="18"/>
-      <c r="CA173" s="18"/>
-      <c r="CB173" s="18"/>
-      <c r="CC173" s="18"/>
-      <c r="CD173" s="18"/>
-      <c r="CE173" s="18"/>
-      <c r="CF173" s="18"/>
-      <c r="CG173" s="18"/>
-      <c r="CH173" s="32"/>
-      <c r="CI173" s="32"/>
-      <c r="CJ173" s="32"/>
-      <c r="CK173" s="32"/>
-      <c r="CL173" s="32"/>
-      <c r="CM173" s="16"/>
+      <c r="BZ173" s="1"/>
+      <c r="CA173" s="1"/>
+      <c r="CB173" s="1"/>
+      <c r="CC173" s="1"/>
+      <c r="CD173" s="1"/>
+      <c r="CE173" s="1"/>
+      <c r="CF173" s="1"/>
+      <c r="CG173" s="1"/>
+      <c r="CH173" s="1"/>
+      <c r="CI173" s="1"/>
+      <c r="CJ173" s="1"/>
+      <c r="CK173" s="1"/>
+      <c r="CL173" s="1"/>
+      <c r="CM173" s="1"/>
       <c r="CN173" s="16"/>
       <c r="CO173" s="16"/>
       <c r="CP173" s="16"/>
@@ -27937,7 +28083,7 @@
       <c r="ET173" s="16"/>
       <c r="EU173" s="16"/>
     </row>
-    <row r="174" spans="1:151" s="17" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:151" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="16"/>
       <c r="C174" s="16"/>
@@ -28015,20 +28161,20 @@
       <c r="BW174" s="1"/>
       <c r="BX174" s="1"/>
       <c r="BY174" s="1"/>
-      <c r="BZ174" s="18"/>
-      <c r="CA174" s="18"/>
-      <c r="CB174" s="18"/>
-      <c r="CC174" s="18"/>
-      <c r="CD174" s="18"/>
-      <c r="CE174" s="18"/>
-      <c r="CF174" s="18"/>
-      <c r="CG174" s="18"/>
-      <c r="CH174" s="32"/>
-      <c r="CI174" s="32"/>
-      <c r="CJ174" s="32"/>
-      <c r="CK174" s="32"/>
-      <c r="CL174" s="32"/>
-      <c r="CM174" s="16"/>
+      <c r="BZ174" s="1"/>
+      <c r="CA174" s="1"/>
+      <c r="CB174" s="1"/>
+      <c r="CC174" s="1"/>
+      <c r="CD174" s="1"/>
+      <c r="CE174" s="1"/>
+      <c r="CF174" s="1"/>
+      <c r="CG174" s="1"/>
+      <c r="CH174" s="1"/>
+      <c r="CI174" s="1"/>
+      <c r="CJ174" s="1"/>
+      <c r="CK174" s="1"/>
+      <c r="CL174" s="1"/>
+      <c r="CM174" s="1"/>
       <c r="CN174" s="16"/>
       <c r="CO174" s="16"/>
       <c r="CP174" s="16"/>
@@ -28091,7 +28237,7 @@
       <c r="EU174" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="159">
     <mergeCell ref="R108:U108"/>
     <mergeCell ref="CD158:CG158"/>
     <mergeCell ref="CD133:CG133"/>
@@ -28227,8 +28373,6 @@
     <mergeCell ref="BF9:BI9"/>
     <mergeCell ref="BJ9:BM9"/>
     <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="CH133:CK133"/>
-    <mergeCell ref="CH158:CK158"/>
     <mergeCell ref="CD9:CG9"/>
     <mergeCell ref="BV9:BY9"/>
     <mergeCell ref="BZ9:CC9"/>
@@ -28244,14 +28388,23 @@
     <mergeCell ref="BV34:BY34"/>
     <mergeCell ref="BV108:BY108"/>
     <mergeCell ref="BV59:BY59"/>
+    <mergeCell ref="CL9:CM9"/>
+    <mergeCell ref="CL34:CM34"/>
+    <mergeCell ref="CH59:CI59"/>
+    <mergeCell ref="CH84:CI84"/>
+    <mergeCell ref="CL108:CM108"/>
+    <mergeCell ref="CL133:CM133"/>
+    <mergeCell ref="CL158:CM158"/>
+    <mergeCell ref="CH133:CK133"/>
+    <mergeCell ref="CH158:CK158"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="50" max="89" man="1"/>
-    <brk id="100" max="89" man="1"/>
-    <brk id="124" max="89" man="1"/>
+    <brk id="50" max="90" man="1"/>
+    <brk id="100" max="90" man="1"/>
+    <brk id="124" max="90" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-05EOS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-05EOS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7007E629-03CE-48DA-B8A6-47B6F8CC71CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C3DF31-EA59-43AD-ADED-27B3819A7DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EOS" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">EOS!$A$37:$A$48</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EOS!$A$1:$CM$174</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EOS!$A$1:$CN$174</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="56">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -216,13 +216,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of August 2022</t>
+    <t>Q1 2000 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2022</t>
+    <t>Q1 2001 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2022</t>
+    <t>As of November 2022</t>
   </si>
 </sst>
 </file>
@@ -230,11 +230,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -307,12 +307,12 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -326,31 +326,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -694,48 +691,48 @@
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="CP20" sqref="CP20"/>
+      <selection pane="bottomRight" activeCell="CH1" sqref="CH1:CN1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.81640625" style="1" customWidth="1"/>
-    <col min="2" max="73" width="8.81640625" style="1" customWidth="1"/>
-    <col min="74" max="91" width="10" style="1" customWidth="1"/>
-    <col min="92" max="16384" width="7.81640625" style="1"/>
+    <col min="1" max="1" width="43.77734375" style="1" customWidth="1"/>
+    <col min="2" max="73" width="8.77734375" style="1" customWidth="1"/>
+    <col min="74" max="92" width="10" style="1" customWidth="1"/>
+    <col min="93" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="22">
         <v>2000</v>
@@ -873,8 +870,9 @@
         <v>2022</v>
       </c>
       <c r="CM9" s="22"/>
+      <c r="CN9" s="22"/>
     </row>
-    <row r="10" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>7</v>
@@ -1146,11 +1144,14 @@
       <c r="CM10" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="CN10" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
     </row>
-    <row r="12" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1406,25 +1407,27 @@
       <c r="CG12" s="7">
         <v>22216.480801235044</v>
       </c>
-      <c r="CH12" s="19">
+      <c r="CH12" s="18">
         <v>21033.793561145554</v>
       </c>
-      <c r="CI12" s="19">
+      <c r="CI12" s="18">
         <v>18620.122244720733</v>
       </c>
-      <c r="CJ12" s="19">
+      <c r="CJ12" s="18">
         <v>26603.035473364289</v>
       </c>
-      <c r="CK12" s="19">
+      <c r="CK12" s="18">
         <v>30251.874477730737</v>
       </c>
-      <c r="CL12" s="19">
+      <c r="CL12" s="18">
         <v>50258.560429231249</v>
       </c>
-      <c r="CM12" s="19">
-        <v>36009.046918646607</v>
-      </c>
-      <c r="CN12" s="8"/>
+      <c r="CM12" s="18">
+        <v>33139.468201854463</v>
+      </c>
+      <c r="CN12" s="18">
+        <v>43217.206854579359</v>
+      </c>
       <c r="CO12" s="8"/>
       <c r="CP12" s="8"/>
       <c r="CQ12" s="8"/>
@@ -1485,7 +1488,7 @@
       <c r="ET12" s="8"/>
       <c r="EU12" s="8"/>
     </row>
-    <row r="13" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1741,25 +1744,27 @@
       <c r="CG13" s="7">
         <v>764.01571953703251</v>
       </c>
-      <c r="CH13" s="19">
+      <c r="CH13" s="18">
         <v>494.94355919274147</v>
       </c>
-      <c r="CI13" s="19">
+      <c r="CI13" s="18">
         <v>373.40447089070352</v>
       </c>
-      <c r="CJ13" s="19">
+      <c r="CJ13" s="18">
         <v>784.47112518823997</v>
       </c>
-      <c r="CK13" s="19">
+      <c r="CK13" s="18">
         <v>830.4420663112827</v>
       </c>
-      <c r="CL13" s="19">
+      <c r="CL13" s="18">
         <v>585.8994176014229</v>
       </c>
-      <c r="CM13" s="19">
-        <v>428.04849707079131</v>
-      </c>
-      <c r="CN13" s="8"/>
+      <c r="CM13" s="18">
+        <v>428.54422513630175</v>
+      </c>
+      <c r="CN13" s="18">
+        <v>879.23593363272391</v>
+      </c>
       <c r="CO13" s="8"/>
       <c r="CP13" s="8"/>
       <c r="CQ13" s="8"/>
@@ -1820,7 +1825,7 @@
       <c r="ET13" s="8"/>
       <c r="EU13" s="8"/>
     </row>
-    <row r="14" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2076,25 +2081,27 @@
       <c r="CG14" s="7">
         <v>8252.2359478950566</v>
       </c>
-      <c r="CH14" s="19">
+      <c r="CH14" s="18">
         <v>1824.7826860301004</v>
       </c>
-      <c r="CI14" s="19">
+      <c r="CI14" s="18">
         <v>29756.647764917354</v>
       </c>
-      <c r="CJ14" s="19">
+      <c r="CJ14" s="18">
         <v>23926.254159618922</v>
       </c>
-      <c r="CK14" s="19">
+      <c r="CK14" s="18">
         <v>13235.535014912855</v>
       </c>
-      <c r="CL14" s="19">
+      <c r="CL14" s="18">
         <v>17456.163863680598</v>
       </c>
-      <c r="CM14" s="19">
-        <v>65688.282806033225</v>
-      </c>
-      <c r="CN14" s="8"/>
+      <c r="CM14" s="18">
+        <v>66283.591438967225</v>
+      </c>
+      <c r="CN14" s="18">
+        <v>105311.49157059008</v>
+      </c>
       <c r="CO14" s="8"/>
       <c r="CP14" s="8"/>
       <c r="CQ14" s="8"/>
@@ -2155,7 +2162,7 @@
       <c r="ET14" s="8"/>
       <c r="EU14" s="8"/>
     </row>
-    <row r="15" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2411,25 +2418,27 @@
       <c r="CG15" s="7">
         <v>2462.0720387274218</v>
       </c>
-      <c r="CH15" s="19">
+      <c r="CH15" s="18">
         <v>3176.1164861084762</v>
       </c>
-      <c r="CI15" s="19">
+      <c r="CI15" s="18">
         <v>3438.8113492011862</v>
       </c>
-      <c r="CJ15" s="19">
+      <c r="CJ15" s="18">
         <v>3776.489155427616</v>
       </c>
-      <c r="CK15" s="19">
+      <c r="CK15" s="18">
         <v>3766.3361559899336</v>
       </c>
-      <c r="CL15" s="19">
+      <c r="CL15" s="18">
         <v>3348.254398481552</v>
       </c>
-      <c r="CM15" s="19">
+      <c r="CM15" s="18">
         <v>3614.5559700248496</v>
       </c>
-      <c r="CN15" s="8"/>
+      <c r="CN15" s="18">
+        <v>3957.2414924143222</v>
+      </c>
       <c r="CO15" s="8"/>
       <c r="CP15" s="8"/>
       <c r="CQ15" s="8"/>
@@ -2490,7 +2499,7 @@
       <c r="ET15" s="8"/>
       <c r="EU15" s="8"/>
     </row>
-    <row r="16" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2746,25 +2755,27 @@
       <c r="CG16" s="7">
         <v>63032.484317865848</v>
       </c>
-      <c r="CH16" s="19">
+      <c r="CH16" s="18">
         <v>109197.40960693023</v>
       </c>
-      <c r="CI16" s="19">
+      <c r="CI16" s="18">
         <v>104767.58928580767</v>
       </c>
-      <c r="CJ16" s="19">
+      <c r="CJ16" s="18">
         <v>69917.210739065209</v>
       </c>
-      <c r="CK16" s="19">
+      <c r="CK16" s="18">
         <v>71687.597244250457</v>
       </c>
-      <c r="CL16" s="19">
+      <c r="CL16" s="18">
         <v>119249.64583015742</v>
       </c>
-      <c r="CM16" s="19">
-        <v>115181.52408087405</v>
-      </c>
-      <c r="CN16" s="8"/>
+      <c r="CM16" s="18">
+        <v>115547.1899997116</v>
+      </c>
+      <c r="CN16" s="18">
+        <v>86613.84807447737</v>
+      </c>
       <c r="CO16" s="8"/>
       <c r="CP16" s="8"/>
       <c r="CQ16" s="8"/>
@@ -2825,7 +2836,7 @@
       <c r="ET16" s="8"/>
       <c r="EU16" s="8"/>
     </row>
-    <row r="17" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -3081,25 +3092,27 @@
       <c r="CG17" s="7">
         <v>265829.70707802282</v>
       </c>
-      <c r="CH17" s="19">
+      <c r="CH17" s="18">
         <v>351110.89551138802</v>
       </c>
-      <c r="CI17" s="19">
+      <c r="CI17" s="18">
         <v>354259.84603114275</v>
       </c>
-      <c r="CJ17" s="19">
+      <c r="CJ17" s="18">
         <v>261571.11927991663</v>
       </c>
-      <c r="CK17" s="19">
+      <c r="CK17" s="18">
         <v>292354.81528290245</v>
       </c>
-      <c r="CL17" s="19">
+      <c r="CL17" s="18">
         <v>404523.9111191493</v>
       </c>
-      <c r="CM17" s="19">
-        <v>412500.31654613063</v>
-      </c>
-      <c r="CN17" s="8"/>
+      <c r="CM17" s="18">
+        <v>413962.86167124903</v>
+      </c>
+      <c r="CN17" s="18">
+        <v>328287.92511520284</v>
+      </c>
       <c r="CO17" s="8"/>
       <c r="CP17" s="8"/>
       <c r="CQ17" s="8"/>
@@ -3160,7 +3173,7 @@
       <c r="ET17" s="8"/>
       <c r="EU17" s="8"/>
     </row>
-    <row r="18" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -3416,25 +3429,27 @@
       <c r="CG18" s="7">
         <v>42373.462819087537</v>
       </c>
-      <c r="CH18" s="19">
+      <c r="CH18" s="18">
         <v>72915.18059972288</v>
       </c>
-      <c r="CI18" s="19">
+      <c r="CI18" s="18">
         <v>74563.954960931631</v>
       </c>
-      <c r="CJ18" s="19">
+      <c r="CJ18" s="18">
         <v>52823.822989122251</v>
       </c>
-      <c r="CK18" s="19">
+      <c r="CK18" s="18">
         <v>54093.085107005565</v>
       </c>
-      <c r="CL18" s="19">
+      <c r="CL18" s="18">
         <v>85078.686739903889</v>
       </c>
-      <c r="CM18" s="19">
-        <v>79550.49411432122</v>
-      </c>
-      <c r="CN18" s="8"/>
+      <c r="CM18" s="18">
+        <v>81053.824402224651</v>
+      </c>
+      <c r="CN18" s="18">
+        <v>48660.04313149958</v>
+      </c>
       <c r="CO18" s="8"/>
       <c r="CP18" s="8"/>
       <c r="CQ18" s="8"/>
@@ -3495,7 +3510,7 @@
       <c r="ET18" s="8"/>
       <c r="EU18" s="8"/>
     </row>
-    <row r="19" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -3751,25 +3766,27 @@
       <c r="CG19" s="7">
         <v>4400.8441803208916</v>
       </c>
-      <c r="CH19" s="19">
+      <c r="CH19" s="18">
         <v>5517.5954396211473</v>
       </c>
-      <c r="CI19" s="19">
+      <c r="CI19" s="18">
         <v>7227.2269652881387</v>
       </c>
-      <c r="CJ19" s="19">
+      <c r="CJ19" s="18">
         <v>7609.4855653468167</v>
       </c>
-      <c r="CK19" s="19">
+      <c r="CK19" s="18">
         <v>9079.7759989805163</v>
       </c>
-      <c r="CL19" s="19">
+      <c r="CL19" s="18">
         <v>6829.4635405949539</v>
       </c>
-      <c r="CM19" s="19">
-        <v>9087.6639798793731</v>
-      </c>
-      <c r="CN19" s="8"/>
+      <c r="CM19" s="18">
+        <v>9475.4469136321841</v>
+      </c>
+      <c r="CN19" s="18">
+        <v>12638.320907460035</v>
+      </c>
       <c r="CO19" s="8"/>
       <c r="CP19" s="8"/>
       <c r="CQ19" s="8"/>
@@ -3830,7 +3847,7 @@
       <c r="ET19" s="8"/>
       <c r="EU19" s="8"/>
     </row>
-    <row r="20" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -3982,7 +3999,7 @@
       <c r="ET20" s="8"/>
       <c r="EU20" s="8"/>
     </row>
-    <row r="21" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>18</v>
       </c>
@@ -4238,25 +4255,27 @@
       <c r="CG21" s="10">
         <v>409331.30290269171</v>
       </c>
-      <c r="CH21" s="20">
+      <c r="CH21" s="19">
         <v>565270.71745013911</v>
       </c>
-      <c r="CI21" s="20">
+      <c r="CI21" s="19">
         <v>593007.60307290021</v>
       </c>
-      <c r="CJ21" s="20">
+      <c r="CJ21" s="19">
         <v>447011.88848705002</v>
       </c>
-      <c r="CK21" s="20">
+      <c r="CK21" s="19">
         <v>475299.4613480838</v>
       </c>
-      <c r="CL21" s="20">
+      <c r="CL21" s="19">
         <v>687330.58533880033</v>
       </c>
-      <c r="CM21" s="20">
-        <v>722059.93291298067</v>
-      </c>
-      <c r="CN21" s="8"/>
+      <c r="CM21" s="19">
+        <v>723505.48282280029</v>
+      </c>
+      <c r="CN21" s="19">
+        <v>629565.31307985634</v>
+      </c>
       <c r="CO21" s="8"/>
       <c r="CP21" s="8"/>
       <c r="CQ21" s="8"/>
@@ -4317,7 +4336,7 @@
       <c r="ET21" s="8"/>
       <c r="EU21" s="8"/>
     </row>
-    <row r="22" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -4409,13 +4428,14 @@
       <c r="CK22" s="11"/>
       <c r="CL22" s="11"/>
       <c r="CM22" s="11"/>
+      <c r="CN22" s="11"/>
     </row>
-    <row r="23" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -4567,7 +4587,7 @@
       <c r="ET24" s="8"/>
       <c r="EU24" s="8"/>
     </row>
-    <row r="25" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -4719,164 +4739,164 @@
       <c r="ET25" s="8"/>
       <c r="EU25" s="8"/>
     </row>
-    <row r="26" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="23">
+      <c r="B34" s="21">
         <v>2000</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23">
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21">
         <v>2001</v>
       </c>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23">
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21">
         <v>2002</v>
       </c>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23">
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21">
         <v>2003</v>
       </c>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23">
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21">
         <v>2004</v>
       </c>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23">
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21">
         <v>2005</v>
       </c>
-      <c r="W34" s="23"/>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="23"/>
-      <c r="Z34" s="23">
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="21">
         <v>2006</v>
       </c>
-      <c r="AA34" s="23"/>
-      <c r="AB34" s="23"/>
-      <c r="AC34" s="23"/>
-      <c r="AD34" s="23">
+      <c r="AA34" s="21"/>
+      <c r="AB34" s="21"/>
+      <c r="AC34" s="21"/>
+      <c r="AD34" s="21">
         <v>2007</v>
       </c>
-      <c r="AE34" s="23"/>
-      <c r="AF34" s="23"/>
-      <c r="AG34" s="23"/>
-      <c r="AH34" s="23">
+      <c r="AE34" s="21"/>
+      <c r="AF34" s="21"/>
+      <c r="AG34" s="21"/>
+      <c r="AH34" s="21">
         <v>2008</v>
       </c>
-      <c r="AI34" s="23"/>
-      <c r="AJ34" s="23"/>
-      <c r="AK34" s="23"/>
-      <c r="AL34" s="23">
+      <c r="AI34" s="21"/>
+      <c r="AJ34" s="21"/>
+      <c r="AK34" s="21"/>
+      <c r="AL34" s="21">
         <v>2009</v>
       </c>
-      <c r="AM34" s="23"/>
-      <c r="AN34" s="23"/>
-      <c r="AO34" s="23"/>
-      <c r="AP34" s="23">
+      <c r="AM34" s="21"/>
+      <c r="AN34" s="21"/>
+      <c r="AO34" s="21"/>
+      <c r="AP34" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ34" s="23"/>
-      <c r="AR34" s="23"/>
-      <c r="AS34" s="23"/>
-      <c r="AT34" s="23">
+      <c r="AQ34" s="21"/>
+      <c r="AR34" s="21"/>
+      <c r="AS34" s="21"/>
+      <c r="AT34" s="21">
         <v>2011</v>
       </c>
-      <c r="AU34" s="23"/>
-      <c r="AV34" s="23"/>
-      <c r="AW34" s="23"/>
-      <c r="AX34" s="23">
+      <c r="AU34" s="21"/>
+      <c r="AV34" s="21"/>
+      <c r="AW34" s="21"/>
+      <c r="AX34" s="21">
         <v>2012</v>
       </c>
-      <c r="AY34" s="23"/>
-      <c r="AZ34" s="23"/>
-      <c r="BA34" s="23"/>
-      <c r="BB34" s="23">
+      <c r="AY34" s="21"/>
+      <c r="AZ34" s="21"/>
+      <c r="BA34" s="21"/>
+      <c r="BB34" s="21">
         <v>2013</v>
       </c>
-      <c r="BC34" s="23"/>
-      <c r="BD34" s="23"/>
-      <c r="BE34" s="23"/>
-      <c r="BF34" s="23">
+      <c r="BC34" s="21"/>
+      <c r="BD34" s="21"/>
+      <c r="BE34" s="21"/>
+      <c r="BF34" s="21">
         <v>2014</v>
       </c>
-      <c r="BG34" s="23"/>
-      <c r="BH34" s="23"/>
-      <c r="BI34" s="23"/>
-      <c r="BJ34" s="23">
+      <c r="BG34" s="21"/>
+      <c r="BH34" s="21"/>
+      <c r="BI34" s="21"/>
+      <c r="BJ34" s="21">
         <v>2015</v>
       </c>
-      <c r="BK34" s="23"/>
-      <c r="BL34" s="23"/>
-      <c r="BM34" s="23"/>
-      <c r="BN34" s="23">
+      <c r="BK34" s="21"/>
+      <c r="BL34" s="21"/>
+      <c r="BM34" s="21"/>
+      <c r="BN34" s="21">
         <v>2016</v>
       </c>
-      <c r="BO34" s="23"/>
-      <c r="BP34" s="23"/>
-      <c r="BQ34" s="23"/>
-      <c r="BR34" s="23">
+      <c r="BO34" s="21"/>
+      <c r="BP34" s="21"/>
+      <c r="BQ34" s="21"/>
+      <c r="BR34" s="21">
         <v>2017</v>
       </c>
-      <c r="BS34" s="23"/>
-      <c r="BT34" s="23"/>
-      <c r="BU34" s="23"/>
-      <c r="BV34" s="23">
+      <c r="BS34" s="21"/>
+      <c r="BT34" s="21"/>
+      <c r="BU34" s="21"/>
+      <c r="BV34" s="21">
         <v>2018</v>
       </c>
-      <c r="BW34" s="23"/>
-      <c r="BX34" s="23"/>
-      <c r="BY34" s="23"/>
-      <c r="BZ34" s="23">
+      <c r="BW34" s="21"/>
+      <c r="BX34" s="21"/>
+      <c r="BY34" s="21"/>
+      <c r="BZ34" s="21">
         <v>2019</v>
       </c>
-      <c r="CA34" s="23"/>
-      <c r="CB34" s="23"/>
-      <c r="CC34" s="23"/>
-      <c r="CD34" s="23">
+      <c r="CA34" s="21"/>
+      <c r="CB34" s="21"/>
+      <c r="CC34" s="21"/>
+      <c r="CD34" s="21">
         <v>2020</v>
       </c>
-      <c r="CE34" s="23"/>
-      <c r="CF34" s="23"/>
-      <c r="CG34" s="23"/>
+      <c r="CE34" s="21"/>
+      <c r="CF34" s="21"/>
+      <c r="CG34" s="21"/>
       <c r="CH34" s="22">
         <v>2021</v>
       </c>
@@ -4887,8 +4907,9 @@
         <v>2022</v>
       </c>
       <c r="CM34" s="22"/>
+      <c r="CN34" s="22"/>
     </row>
-    <row r="35" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="13" t="s">
         <v>7</v>
@@ -5160,11 +5181,14 @@
       <c r="CM35" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="CN35" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="36" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
     </row>
-    <row r="37" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
@@ -5420,25 +5444,27 @@
       <c r="CG37" s="7">
         <v>20102.093872421516</v>
       </c>
-      <c r="CH37" s="19">
+      <c r="CH37" s="18">
         <v>18133.884870985134</v>
       </c>
-      <c r="CI37" s="19">
+      <c r="CI37" s="18">
         <v>17167.279983151406</v>
       </c>
-      <c r="CJ37" s="19">
+      <c r="CJ37" s="18">
         <v>23959.557073342527</v>
       </c>
-      <c r="CK37" s="19">
+      <c r="CK37" s="18">
         <v>25500.702059504361</v>
       </c>
-      <c r="CL37" s="19">
+      <c r="CL37" s="18">
         <v>39857.243233758119</v>
       </c>
-      <c r="CM37" s="19">
-        <v>28895.117715212793</v>
-      </c>
-      <c r="CN37" s="8"/>
+      <c r="CM37" s="18">
+        <v>26592.451526848847</v>
+      </c>
+      <c r="CN37" s="18">
+        <v>33632.696464730521</v>
+      </c>
       <c r="CO37" s="8"/>
       <c r="CP37" s="8"/>
       <c r="CQ37" s="8"/>
@@ -5499,7 +5525,7 @@
       <c r="ET37" s="8"/>
       <c r="EU37" s="8"/>
     </row>
-    <row r="38" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -5755,25 +5781,27 @@
       <c r="CG38" s="7">
         <v>738.78384769964555</v>
       </c>
-      <c r="CH38" s="19">
+      <c r="CH38" s="18">
         <v>461.39897232210484</v>
       </c>
-      <c r="CI38" s="19">
+      <c r="CI38" s="18">
         <v>346.9851863026928</v>
       </c>
-      <c r="CJ38" s="19">
+      <c r="CJ38" s="18">
         <v>717.95989494133323</v>
       </c>
-      <c r="CK38" s="19">
+      <c r="CK38" s="18">
         <v>773.13460196769609</v>
       </c>
-      <c r="CL38" s="19">
+      <c r="CL38" s="18">
         <v>523.68374140701815</v>
       </c>
-      <c r="CM38" s="19">
-        <v>376.33753513737076</v>
-      </c>
-      <c r="CN38" s="8"/>
+      <c r="CM38" s="18">
+        <v>376.77337612162671</v>
+      </c>
+      <c r="CN38" s="18">
+        <v>757.61715954279009</v>
+      </c>
       <c r="CO38" s="8"/>
       <c r="CP38" s="8"/>
       <c r="CQ38" s="8"/>
@@ -5834,7 +5862,7 @@
       <c r="ET38" s="8"/>
       <c r="EU38" s="8"/>
     </row>
-    <row r="39" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
@@ -6090,25 +6118,27 @@
       <c r="CG39" s="7">
         <v>7924.9178789822236</v>
       </c>
-      <c r="CH39" s="19">
+      <c r="CH39" s="18">
         <v>1662.6424547885979</v>
       </c>
-      <c r="CI39" s="19">
+      <c r="CI39" s="18">
         <v>27136.973094335204</v>
       </c>
-      <c r="CJ39" s="19">
+      <c r="CJ39" s="18">
         <v>21592.900004147494</v>
       </c>
-      <c r="CK39" s="19">
+      <c r="CK39" s="18">
         <v>12202.689945533572</v>
       </c>
-      <c r="CL39" s="19">
+      <c r="CL39" s="18">
         <v>15389.064093647212</v>
       </c>
-      <c r="CM39" s="19">
-        <v>56806.970520483963</v>
-      </c>
-      <c r="CN39" s="8"/>
+      <c r="CM39" s="18">
+        <v>57321.791102132127</v>
+      </c>
+      <c r="CN39" s="18">
+        <v>89211.882351201872</v>
+      </c>
       <c r="CO39" s="8"/>
       <c r="CP39" s="8"/>
       <c r="CQ39" s="8"/>
@@ -6169,7 +6199,7 @@
       <c r="ET39" s="8"/>
       <c r="EU39" s="8"/>
     </row>
-    <row r="40" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
@@ -6425,25 +6455,27 @@
       <c r="CG40" s="7">
         <v>2329.5726083375725</v>
       </c>
-      <c r="CH40" s="19">
+      <c r="CH40" s="18">
         <v>3031.8880922507747</v>
       </c>
-      <c r="CI40" s="19">
+      <c r="CI40" s="18">
         <v>3280.2710999783162</v>
       </c>
-      <c r="CJ40" s="19">
+      <c r="CJ40" s="18">
         <v>3529.4697269102967</v>
       </c>
-      <c r="CK40" s="19">
+      <c r="CK40" s="18">
         <v>3454.4327633529815</v>
       </c>
-      <c r="CL40" s="19">
+      <c r="CL40" s="18">
         <v>3083.4697372408427</v>
       </c>
-      <c r="CM40" s="19">
+      <c r="CM40" s="18">
         <v>3286.5504481939315</v>
       </c>
-      <c r="CN40" s="8"/>
+      <c r="CN40" s="18">
+        <v>3516.3866208110007</v>
+      </c>
       <c r="CO40" s="8"/>
       <c r="CP40" s="8"/>
       <c r="CQ40" s="8"/>
@@ -6504,7 +6536,7 @@
       <c r="ET40" s="8"/>
       <c r="EU40" s="8"/>
     </row>
-    <row r="41" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -6760,25 +6792,27 @@
       <c r="CG41" s="7">
         <v>63693.472845714576</v>
       </c>
-      <c r="CH41" s="19">
+      <c r="CH41" s="18">
         <v>107918.00540295031</v>
       </c>
-      <c r="CI41" s="19">
+      <c r="CI41" s="18">
         <v>103557.39473418298</v>
       </c>
-      <c r="CJ41" s="19">
+      <c r="CJ41" s="18">
         <v>68778.411050953422</v>
       </c>
-      <c r="CK41" s="19">
+      <c r="CK41" s="18">
         <v>72273.852798895867</v>
       </c>
-      <c r="CL41" s="19">
+      <c r="CL41" s="18">
         <v>117081.671165216</v>
       </c>
-      <c r="CM41" s="19">
-        <v>112948.31703593825</v>
-      </c>
-      <c r="CN41" s="8"/>
+      <c r="CM41" s="18">
+        <v>113306.89320915419</v>
+      </c>
+      <c r="CN41" s="18">
+        <v>84813.532645284067</v>
+      </c>
       <c r="CO41" s="8"/>
       <c r="CP41" s="8"/>
       <c r="CQ41" s="8"/>
@@ -6839,7 +6873,7 @@
       <c r="ET41" s="8"/>
       <c r="EU41" s="8"/>
     </row>
-    <row r="42" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>15</v>
       </c>
@@ -7095,25 +7129,27 @@
       <c r="CG42" s="7">
         <v>252483.50553565435</v>
       </c>
-      <c r="CH42" s="19">
+      <c r="CH42" s="18">
         <v>321733.17051243625</v>
       </c>
-      <c r="CI42" s="19">
+      <c r="CI42" s="18">
         <v>339770.25821722258</v>
       </c>
-      <c r="CJ42" s="19">
+      <c r="CJ42" s="18">
         <v>239509.72841806503</v>
       </c>
-      <c r="CK42" s="19">
+      <c r="CK42" s="18">
         <v>267343.98843610822</v>
       </c>
-      <c r="CL42" s="19">
+      <c r="CL42" s="18">
         <v>355402.77002643788</v>
       </c>
-      <c r="CM42" s="19">
-        <v>357943.77339257195</v>
-      </c>
-      <c r="CN42" s="8"/>
+      <c r="CM42" s="18">
+        <v>359212.88495404937</v>
+      </c>
+      <c r="CN42" s="18">
+        <v>283014.98272622202</v>
+      </c>
       <c r="CO42" s="8"/>
       <c r="CP42" s="8"/>
       <c r="CQ42" s="8"/>
@@ -7174,7 +7210,7 @@
       <c r="ET42" s="8"/>
       <c r="EU42" s="8"/>
     </row>
-    <row r="43" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
@@ -7430,25 +7466,27 @@
       <c r="CG43" s="7">
         <v>41067.937424928037</v>
       </c>
-      <c r="CH43" s="19">
+      <c r="CH43" s="18">
         <v>67936.12376372813</v>
       </c>
-      <c r="CI43" s="19">
+      <c r="CI43" s="18">
         <v>69342.696786653614</v>
       </c>
-      <c r="CJ43" s="19">
+      <c r="CJ43" s="18">
         <v>48427.917785896192</v>
       </c>
-      <c r="CK43" s="19">
+      <c r="CK43" s="18">
         <v>50475.584794779723</v>
       </c>
-      <c r="CL43" s="19">
+      <c r="CL43" s="18">
         <v>76002.637554614368</v>
       </c>
-      <c r="CM43" s="19">
-        <v>70517.780779077191</v>
-      </c>
-      <c r="CN43" s="8"/>
+      <c r="CM43" s="18">
+        <v>71850.412547882705</v>
+      </c>
+      <c r="CN43" s="18">
+        <v>42000.997810433466</v>
+      </c>
       <c r="CO43" s="8"/>
       <c r="CP43" s="8"/>
       <c r="CQ43" s="8"/>
@@ -7509,7 +7547,7 @@
       <c r="ET43" s="8"/>
       <c r="EU43" s="8"/>
     </row>
-    <row r="44" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>17</v>
       </c>
@@ -7765,25 +7803,27 @@
       <c r="CG44" s="7">
         <v>4261.0277699794169</v>
       </c>
-      <c r="CH44" s="19">
+      <c r="CH44" s="18">
         <v>5137.968924421375</v>
       </c>
-      <c r="CI44" s="19">
+      <c r="CI44" s="18">
         <v>6701.7608114885679</v>
       </c>
-      <c r="CJ44" s="19">
+      <c r="CJ44" s="18">
         <v>6969.0677239534634</v>
       </c>
-      <c r="CK44" s="19">
+      <c r="CK44" s="18">
         <v>8464.1661527716096</v>
       </c>
-      <c r="CL44" s="19">
+      <c r="CL44" s="18">
         <v>6097.5207750723184</v>
       </c>
-      <c r="CM44" s="19">
-        <v>8032.5502882024521</v>
-      </c>
-      <c r="CN44" s="8"/>
+      <c r="CM44" s="18">
+        <v>8375.3100912907576</v>
+      </c>
+      <c r="CN44" s="18">
+        <v>10897.576261961607</v>
+      </c>
       <c r="CO44" s="8"/>
       <c r="CP44" s="8"/>
       <c r="CQ44" s="8"/>
@@ -7844,7 +7884,7 @@
       <c r="ET44" s="8"/>
       <c r="EU44" s="8"/>
     </row>
-    <row r="45" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -7996,7 +8036,7 @@
       <c r="ET45" s="8"/>
       <c r="EU45" s="8"/>
     </row>
-    <row r="46" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>18</v>
       </c>
@@ -8252,25 +8292,27 @@
       <c r="CG46" s="10">
         <v>392601.31178371736</v>
       </c>
-      <c r="CH46" s="20">
+      <c r="CH46" s="19">
         <v>526015.08299388271</v>
       </c>
-      <c r="CI46" s="20">
+      <c r="CI46" s="19">
         <v>567303.6199133154</v>
       </c>
-      <c r="CJ46" s="20">
+      <c r="CJ46" s="19">
         <v>413485.01167820982</v>
       </c>
-      <c r="CK46" s="20">
+      <c r="CK46" s="19">
         <v>440488.55155291402</v>
       </c>
-      <c r="CL46" s="20">
+      <c r="CL46" s="19">
         <v>613438.0603273937</v>
       </c>
-      <c r="CM46" s="20">
-        <v>638807.3977148179</v>
-      </c>
-      <c r="CN46" s="8"/>
+      <c r="CM46" s="19">
+        <v>640323.06725567358</v>
+      </c>
+      <c r="CN46" s="19">
+        <v>547845.6720401874</v>
+      </c>
       <c r="CO46" s="8"/>
       <c r="CP46" s="8"/>
       <c r="CQ46" s="8"/>
@@ -8331,7 +8373,7 @@
       <c r="ET46" s="8"/>
       <c r="EU46" s="8"/>
     </row>
-    <row r="47" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -8423,13 +8465,14 @@
       <c r="CK47" s="11"/>
       <c r="CL47" s="11"/>
       <c r="CM47" s="11"/>
+      <c r="CN47" s="11"/>
     </row>
-    <row r="48" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -8581,7 +8624,7 @@
       <c r="ET49" s="8"/>
       <c r="EU49" s="8"/>
     </row>
-    <row r="50" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -8733,37 +8776,37 @@
       <c r="ET50" s="8"/>
       <c r="EU50" s="8"/>
     </row>
-    <row r="51" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="22" t="s">
         <v>34</v>
@@ -8895,12 +8938,13 @@
         <v>52</v>
       </c>
       <c r="CI59" s="22"/>
-      <c r="CJ59" s="3"/>
+      <c r="CJ59" s="22"/>
       <c r="CK59" s="3"/>
-      <c r="CL59" s="18"/>
-      <c r="CM59" s="18"/>
+      <c r="CL59" s="22"/>
+      <c r="CM59" s="22"/>
+      <c r="CN59" s="3"/>
     </row>
-    <row r="60" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="5" t="s">
         <v>7</v>
@@ -9160,15 +9204,18 @@
       <c r="CI60" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="CJ60" s="13"/>
+      <c r="CJ60" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="CK60" s="13"/>
       <c r="CL60" s="13"/>
-      <c r="CM60" s="5"/>
+      <c r="CM60" s="13"/>
+      <c r="CN60" s="13"/>
     </row>
-    <row r="61" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
     </row>
-    <row r="62" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -9428,13 +9475,15 @@
         <v>138.94196870920533</v>
       </c>
       <c r="CI62" s="14">
-        <v>93.387811558842316</v>
-      </c>
-      <c r="CJ62" s="14"/>
+        <v>77.976641432901033</v>
+      </c>
+      <c r="CJ62" s="14">
+        <v>62.452164144387382</v>
+      </c>
       <c r="CK62" s="14"/>
       <c r="CL62" s="14"/>
-      <c r="CM62" s="8"/>
-      <c r="CN62" s="8"/>
+      <c r="CM62" s="14"/>
+      <c r="CN62" s="14"/>
       <c r="CO62" s="8"/>
       <c r="CP62" s="8"/>
       <c r="CQ62" s="8"/>
@@ -9491,7 +9540,7 @@
       <c r="EP62" s="8"/>
       <c r="EQ62" s="8"/>
     </row>
-    <row r="63" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -9751,13 +9800,15 @@
         <v>18.377016271720237</v>
       </c>
       <c r="CI63" s="14">
-        <v>14.63400426077979</v>
-      </c>
-      <c r="CJ63" s="14"/>
+        <v>14.766763267207324</v>
+      </c>
+      <c r="CJ63" s="14">
+        <v>12.080088788703904</v>
+      </c>
       <c r="CK63" s="14"/>
       <c r="CL63" s="14"/>
-      <c r="CM63" s="8"/>
-      <c r="CN63" s="8"/>
+      <c r="CM63" s="14"/>
+      <c r="CN63" s="14"/>
       <c r="CO63" s="8"/>
       <c r="CP63" s="8"/>
       <c r="CQ63" s="8"/>
@@ -9814,7 +9865,7 @@
       <c r="EP63" s="8"/>
       <c r="EQ63" s="8"/>
     </row>
-    <row r="64" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
@@ -10074,13 +10125,15 @@
         <v>856.61603966975906</v>
       </c>
       <c r="CI64" s="14">
-        <v>120.75162271295471</v>
-      </c>
-      <c r="CJ64" s="14"/>
+        <v>122.75221309409253</v>
+      </c>
+      <c r="CJ64" s="14">
+        <v>340.15035060660495</v>
+      </c>
       <c r="CK64" s="14"/>
       <c r="CL64" s="14"/>
-      <c r="CM64" s="8"/>
-      <c r="CN64" s="8"/>
+      <c r="CM64" s="14"/>
+      <c r="CN64" s="14"/>
       <c r="CO64" s="8"/>
       <c r="CP64" s="8"/>
       <c r="CQ64" s="8"/>
@@ -10137,7 +10190,7 @@
       <c r="EP64" s="8"/>
       <c r="EQ64" s="8"/>
     </row>
-    <row r="65" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>13</v>
       </c>
@@ -10399,11 +10452,13 @@
       <c r="CI65" s="14">
         <v>5.1106211704369287</v>
       </c>
-      <c r="CJ65" s="14"/>
+      <c r="CJ65" s="14">
+        <v>4.7862533042608391</v>
+      </c>
       <c r="CK65" s="14"/>
       <c r="CL65" s="14"/>
-      <c r="CM65" s="8"/>
-      <c r="CN65" s="8"/>
+      <c r="CM65" s="14"/>
+      <c r="CN65" s="14"/>
       <c r="CO65" s="8"/>
       <c r="CP65" s="8"/>
       <c r="CQ65" s="8"/>
@@ -10460,7 +10515,7 @@
       <c r="EP65" s="8"/>
       <c r="EQ65" s="8"/>
     </row>
-    <row r="66" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>14</v>
       </c>
@@ -10720,13 +10775,15 @@
         <v>9.2055628969693259</v>
       </c>
       <c r="CI66" s="14">
-        <v>9.9400347627136796</v>
-      </c>
-      <c r="CJ66" s="14"/>
+        <v>10.289060564805979</v>
+      </c>
+      <c r="CJ66" s="14">
+        <v>23.880582704771953</v>
+      </c>
       <c r="CK66" s="14"/>
       <c r="CL66" s="14"/>
-      <c r="CM66" s="8"/>
-      <c r="CN66" s="8"/>
+      <c r="CM66" s="14"/>
+      <c r="CN66" s="14"/>
       <c r="CO66" s="8"/>
       <c r="CP66" s="8"/>
       <c r="CQ66" s="8"/>
@@ -10783,7 +10840,7 @@
       <c r="EP66" s="8"/>
       <c r="EQ66" s="8"/>
     </row>
-    <row r="67" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>15</v>
       </c>
@@ -11043,13 +11100,15 @@
         <v>15.2125770776683</v>
       </c>
       <c r="CI67" s="14">
-        <v>16.440042857656522</v>
-      </c>
-      <c r="CJ67" s="14"/>
+        <v>16.85288815793642</v>
+      </c>
+      <c r="CJ67" s="14">
+        <v>25.506182035291957</v>
+      </c>
       <c r="CK67" s="14"/>
       <c r="CL67" s="14"/>
-      <c r="CM67" s="8"/>
-      <c r="CN67" s="8"/>
+      <c r="CM67" s="14"/>
+      <c r="CN67" s="14"/>
       <c r="CO67" s="8"/>
       <c r="CP67" s="8"/>
       <c r="CQ67" s="8"/>
@@ -11106,7 +11165,7 @@
       <c r="EP67" s="8"/>
       <c r="EQ67" s="8"/>
     </row>
-    <row r="68" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>16</v>
       </c>
@@ -11366,13 +11425,15 @@
         <v>16.681719828624054</v>
       </c>
       <c r="CI68" s="14">
-        <v>6.6876001360205919</v>
-      </c>
-      <c r="CJ68" s="14"/>
+        <v>8.7037623536646294</v>
+      </c>
+      <c r="CJ68" s="14">
+        <v>-7.8823902209427388</v>
+      </c>
       <c r="CK68" s="14"/>
       <c r="CL68" s="14"/>
-      <c r="CM68" s="8"/>
-      <c r="CN68" s="8"/>
+      <c r="CM68" s="14"/>
+      <c r="CN68" s="14"/>
       <c r="CO68" s="8"/>
       <c r="CP68" s="8"/>
       <c r="CQ68" s="8"/>
@@ -11429,7 +11490,7 @@
       <c r="EP68" s="8"/>
       <c r="EQ68" s="8"/>
     </row>
-    <row r="69" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>17</v>
       </c>
@@ -11689,13 +11750,15 @@
         <v>23.776083537285999</v>
       </c>
       <c r="CI69" s="14">
-        <v>25.742058794151362</v>
-      </c>
-      <c r="CJ69" s="14"/>
+        <v>31.107642794976385</v>
+      </c>
+      <c r="CJ69" s="14">
+        <v>66.086403593618229</v>
+      </c>
       <c r="CK69" s="14"/>
       <c r="CL69" s="14"/>
-      <c r="CM69" s="8"/>
-      <c r="CN69" s="8"/>
+      <c r="CM69" s="14"/>
+      <c r="CN69" s="14"/>
       <c r="CO69" s="8"/>
       <c r="CP69" s="8"/>
       <c r="CQ69" s="8"/>
@@ -11752,7 +11815,7 @@
       <c r="EP69" s="8"/>
       <c r="EQ69" s="8"/>
     </row>
-    <row r="70" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -11900,7 +11963,7 @@
       <c r="EP70" s="8"/>
       <c r="EQ70" s="8"/>
     </row>
-    <row r="71" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>18</v>
       </c>
@@ -12160,13 +12223,15 @@
         <v>21.593170160884512</v>
       </c>
       <c r="CI71" s="14">
-        <v>21.762339837018189</v>
-      </c>
-      <c r="CJ71" s="14"/>
+        <v>22.006105667730807</v>
+      </c>
+      <c r="CJ71" s="14">
+        <v>40.838606152215334</v>
+      </c>
       <c r="CK71" s="14"/>
       <c r="CL71" s="14"/>
-      <c r="CM71" s="8"/>
-      <c r="CN71" s="8"/>
+      <c r="CM71" s="14"/>
+      <c r="CN71" s="14"/>
       <c r="CO71" s="8"/>
       <c r="CP71" s="8"/>
       <c r="CQ71" s="8"/>
@@ -12223,7 +12288,7 @@
       <c r="EP71" s="8"/>
       <c r="EQ71" s="8"/>
     </row>
-    <row r="72" spans="1:147" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:147" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -12315,13 +12380,14 @@
       <c r="CK72" s="11"/>
       <c r="CL72" s="11"/>
       <c r="CM72" s="11"/>
+      <c r="CN72" s="11"/>
     </row>
-    <row r="73" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -12469,7 +12535,7 @@
       <c r="EP74" s="8"/>
       <c r="EQ74" s="8"/>
     </row>
-    <row r="75" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -12617,37 +12683,37 @@
       <c r="EP75" s="8"/>
       <c r="EQ75" s="8"/>
     </row>
-    <row r="76" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="22" t="s">
         <v>34</v>
@@ -12779,12 +12845,13 @@
         <v>52</v>
       </c>
       <c r="CI84" s="22"/>
-      <c r="CJ84" s="3"/>
+      <c r="CJ84" s="22"/>
       <c r="CK84" s="3"/>
-      <c r="CL84" s="18"/>
-      <c r="CM84" s="18"/>
+      <c r="CL84" s="22"/>
+      <c r="CM84" s="22"/>
+      <c r="CN84" s="3"/>
     </row>
-    <row r="85" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="5" t="s">
         <v>7</v>
@@ -13044,15 +13111,18 @@
       <c r="CI85" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CJ85" s="5"/>
+      <c r="CJ85" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="CK85" s="5"/>
       <c r="CL85" s="5"/>
       <c r="CM85" s="5"/>
+      <c r="CN85" s="5"/>
     </row>
-    <row r="86" spans="1:147" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:147" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
     </row>
-    <row r="87" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>1</v>
       </c>
@@ -13312,13 +13382,15 @@
         <v>119.79428852298017</v>
       </c>
       <c r="CI87" s="14">
-        <v>68.315060647764312</v>
-      </c>
-      <c r="CJ87" s="14"/>
+        <v>54.901950413505489</v>
+      </c>
+      <c r="CJ87" s="14">
+        <v>40.372780522517928</v>
+      </c>
       <c r="CK87" s="14"/>
       <c r="CL87" s="14"/>
-      <c r="CM87" s="8"/>
-      <c r="CN87" s="8"/>
+      <c r="CM87" s="14"/>
+      <c r="CN87" s="14"/>
       <c r="CO87" s="8"/>
       <c r="CP87" s="8"/>
       <c r="CQ87" s="8"/>
@@ -13375,7 +13447,7 @@
       <c r="EP87" s="8"/>
       <c r="EQ87" s="8"/>
     </row>
-    <row r="88" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>11</v>
       </c>
@@ -13635,13 +13707,15 @@
         <v>13.499113093262821</v>
       </c>
       <c r="CI88" s="14">
-        <v>8.4592512860397449</v>
-      </c>
-      <c r="CJ88" s="14"/>
+        <v>8.5848592374627088</v>
+      </c>
+      <c r="CJ88" s="14">
+        <v>5.5236044354117269</v>
+      </c>
       <c r="CK88" s="14"/>
       <c r="CL88" s="14"/>
-      <c r="CM88" s="8"/>
-      <c r="CN88" s="8"/>
+      <c r="CM88" s="14"/>
+      <c r="CN88" s="14"/>
       <c r="CO88" s="8"/>
       <c r="CP88" s="8"/>
       <c r="CQ88" s="8"/>
@@ -13698,7 +13772,7 @@
       <c r="EP88" s="8"/>
       <c r="EQ88" s="8"/>
     </row>
-    <row r="89" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>12</v>
       </c>
@@ -13958,13 +14032,15 @@
         <v>825.57868045080716</v>
       </c>
       <c r="CI89" s="14">
-        <v>109.33421838540394</v>
-      </c>
-      <c r="CJ89" s="14"/>
+        <v>111.23133705025472</v>
+      </c>
+      <c r="CJ89" s="14">
+        <v>313.15377894616444</v>
+      </c>
       <c r="CK89" s="14"/>
       <c r="CL89" s="14"/>
-      <c r="CM89" s="8"/>
-      <c r="CN89" s="8"/>
+      <c r="CM89" s="14"/>
+      <c r="CN89" s="14"/>
       <c r="CO89" s="8"/>
       <c r="CP89" s="8"/>
       <c r="CQ89" s="8"/>
@@ -14021,7 +14097,7 @@
       <c r="EP89" s="8"/>
       <c r="EQ89" s="8"/>
     </row>
-    <row r="90" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>13</v>
       </c>
@@ -14283,11 +14359,13 @@
       <c r="CI90" s="14">
         <v>0.19142772119221263</v>
       </c>
-      <c r="CJ90" s="14"/>
+      <c r="CJ90" s="14">
+        <v>-0.37068191857673582</v>
+      </c>
       <c r="CK90" s="14"/>
       <c r="CL90" s="14"/>
-      <c r="CM90" s="8"/>
-      <c r="CN90" s="8"/>
+      <c r="CM90" s="14"/>
+      <c r="CN90" s="14"/>
       <c r="CO90" s="8"/>
       <c r="CP90" s="8"/>
       <c r="CQ90" s="8"/>
@@ -14344,7 +14422,7 @@
       <c r="EP90" s="8"/>
       <c r="EQ90" s="8"/>
     </row>
-    <row r="91" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>14</v>
       </c>
@@ -14604,13 +14682,15 @@
         <v>8.4913223961561357</v>
       </c>
       <c r="CI91" s="14">
-        <v>9.0683261449946855</v>
-      </c>
-      <c r="CJ91" s="14"/>
+        <v>9.4145845402897379</v>
+      </c>
+      <c r="CJ91" s="14">
+        <v>23.314178605334845</v>
+      </c>
       <c r="CK91" s="14"/>
       <c r="CL91" s="14"/>
-      <c r="CM91" s="8"/>
-      <c r="CN91" s="8"/>
+      <c r="CM91" s="14"/>
+      <c r="CN91" s="14"/>
       <c r="CO91" s="8"/>
       <c r="CP91" s="8"/>
       <c r="CQ91" s="8"/>
@@ -14667,7 +14747,7 @@
       <c r="EP91" s="8"/>
       <c r="EQ91" s="8"/>
     </row>
-    <row r="92" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>15</v>
       </c>
@@ -14927,13 +15007,15 @@
         <v>10.465069380435608</v>
       </c>
       <c r="CI92" s="14">
-        <v>5.3487657426832982</v>
-      </c>
-      <c r="CJ92" s="14"/>
+        <v>5.722286240956592</v>
+      </c>
+      <c r="CJ92" s="14">
+        <v>18.164295285834257</v>
+      </c>
       <c r="CK92" s="14"/>
       <c r="CL92" s="14"/>
-      <c r="CM92" s="8"/>
-      <c r="CN92" s="8"/>
+      <c r="CM92" s="14"/>
+      <c r="CN92" s="14"/>
       <c r="CO92" s="8"/>
       <c r="CP92" s="8"/>
       <c r="CQ92" s="8"/>
@@ -14990,7 +15072,7 @@
       <c r="EP92" s="8"/>
       <c r="EQ92" s="8"/>
     </row>
-    <row r="93" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>16</v>
       </c>
@@ -15250,13 +15332,15 @@
         <v>11.873673892464609</v>
       </c>
       <c r="CI93" s="14">
-        <v>1.6946038254597369</v>
-      </c>
-      <c r="CJ93" s="14"/>
+        <v>3.6164093371571226</v>
+      </c>
+      <c r="CJ93" s="14">
+        <v>-13.271105323744592</v>
+      </c>
       <c r="CK93" s="14"/>
       <c r="CL93" s="14"/>
-      <c r="CM93" s="8"/>
-      <c r="CN93" s="8"/>
+      <c r="CM93" s="14"/>
+      <c r="CN93" s="14"/>
       <c r="CO93" s="8"/>
       <c r="CP93" s="8"/>
       <c r="CQ93" s="8"/>
@@ -15313,7 +15397,7 @@
       <c r="EP93" s="8"/>
       <c r="EQ93" s="8"/>
     </row>
-    <row r="94" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>17</v>
       </c>
@@ -15573,13 +15657,15 @@
         <v>18.675703663564008</v>
       </c>
       <c r="CI94" s="14">
-        <v>19.857310849300418</v>
-      </c>
-      <c r="CJ94" s="14"/>
+        <v>24.971784682814842</v>
+      </c>
+      <c r="CJ94" s="14">
+        <v>56.370646600339683</v>
+      </c>
       <c r="CK94" s="14"/>
       <c r="CL94" s="14"/>
-      <c r="CM94" s="8"/>
-      <c r="CN94" s="8"/>
+      <c r="CM94" s="14"/>
+      <c r="CN94" s="14"/>
       <c r="CO94" s="8"/>
       <c r="CP94" s="8"/>
       <c r="CQ94" s="8"/>
@@ -15636,7 +15722,7 @@
       <c r="EP94" s="8"/>
       <c r="EQ94" s="8"/>
     </row>
-    <row r="95" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
@@ -15784,7 +15870,7 @@
       <c r="EP95" s="8"/>
       <c r="EQ95" s="8"/>
     </row>
-    <row r="96" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>18</v>
       </c>
@@ -16044,13 +16130,15 @@
         <v>16.619861323354428</v>
       </c>
       <c r="CI96" s="14">
-        <v>12.60414622639432</v>
-      </c>
-      <c r="CJ96" s="14"/>
+        <v>12.871317012487182</v>
+      </c>
+      <c r="CJ96" s="14">
+        <v>32.494687006101771</v>
+      </c>
       <c r="CK96" s="14"/>
       <c r="CL96" s="14"/>
-      <c r="CM96" s="8"/>
-      <c r="CN96" s="8"/>
+      <c r="CM96" s="14"/>
+      <c r="CN96" s="14"/>
       <c r="CO96" s="8"/>
       <c r="CP96" s="8"/>
       <c r="CQ96" s="8"/>
@@ -16107,7 +16195,7 @@
       <c r="EP96" s="8"/>
       <c r="EQ96" s="8"/>
     </row>
-    <row r="97" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -16199,13 +16287,14 @@
       <c r="CK97" s="11"/>
       <c r="CL97" s="11"/>
       <c r="CM97" s="11"/>
+      <c r="CN97" s="11"/>
     </row>
-    <row r="98" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
@@ -16353,7 +16442,7 @@
       <c r="EP99" s="8"/>
       <c r="EQ99" s="8"/>
     </row>
-    <row r="100" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
@@ -16501,159 +16590,159 @@
       <c r="EP100" s="8"/>
       <c r="EQ100" s="8"/>
     </row>
-    <row r="101" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="104" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="106" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
-      <c r="B108" s="23">
+      <c r="B108" s="21">
         <v>2000</v>
       </c>
-      <c r="C108" s="23"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="23"/>
-      <c r="F108" s="23">
+      <c r="C108" s="21"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="21">
         <v>2001</v>
       </c>
-      <c r="G108" s="23"/>
-      <c r="H108" s="23"/>
-      <c r="I108" s="23"/>
-      <c r="J108" s="23">
+      <c r="G108" s="21"/>
+      <c r="H108" s="21"/>
+      <c r="I108" s="21"/>
+      <c r="J108" s="21">
         <v>2002</v>
       </c>
-      <c r="K108" s="23"/>
-      <c r="L108" s="23"/>
-      <c r="M108" s="23"/>
-      <c r="N108" s="23">
+      <c r="K108" s="21"/>
+      <c r="L108" s="21"/>
+      <c r="M108" s="21"/>
+      <c r="N108" s="21">
         <v>2003</v>
       </c>
-      <c r="O108" s="23"/>
-      <c r="P108" s="23"/>
-      <c r="Q108" s="23"/>
-      <c r="R108" s="23">
+      <c r="O108" s="21"/>
+      <c r="P108" s="21"/>
+      <c r="Q108" s="21"/>
+      <c r="R108" s="21">
         <v>2004</v>
       </c>
-      <c r="S108" s="23"/>
-      <c r="T108" s="23"/>
-      <c r="U108" s="23"/>
-      <c r="V108" s="23">
+      <c r="S108" s="21"/>
+      <c r="T108" s="21"/>
+      <c r="U108" s="21"/>
+      <c r="V108" s="21">
         <v>2005</v>
       </c>
-      <c r="W108" s="23"/>
-      <c r="X108" s="23"/>
-      <c r="Y108" s="23"/>
-      <c r="Z108" s="23">
+      <c r="W108" s="21"/>
+      <c r="X108" s="21"/>
+      <c r="Y108" s="21"/>
+      <c r="Z108" s="21">
         <v>2006</v>
       </c>
-      <c r="AA108" s="23"/>
-      <c r="AB108" s="23"/>
-      <c r="AC108" s="23"/>
-      <c r="AD108" s="23">
+      <c r="AA108" s="21"/>
+      <c r="AB108" s="21"/>
+      <c r="AC108" s="21"/>
+      <c r="AD108" s="21">
         <v>2007</v>
       </c>
-      <c r="AE108" s="23"/>
-      <c r="AF108" s="23"/>
-      <c r="AG108" s="23"/>
-      <c r="AH108" s="23">
+      <c r="AE108" s="21"/>
+      <c r="AF108" s="21"/>
+      <c r="AG108" s="21"/>
+      <c r="AH108" s="21">
         <v>2008</v>
       </c>
-      <c r="AI108" s="23"/>
-      <c r="AJ108" s="23"/>
-      <c r="AK108" s="23"/>
-      <c r="AL108" s="23">
+      <c r="AI108" s="21"/>
+      <c r="AJ108" s="21"/>
+      <c r="AK108" s="21"/>
+      <c r="AL108" s="21">
         <v>2009</v>
       </c>
-      <c r="AM108" s="23"/>
-      <c r="AN108" s="23"/>
-      <c r="AO108" s="23"/>
-      <c r="AP108" s="23">
+      <c r="AM108" s="21"/>
+      <c r="AN108" s="21"/>
+      <c r="AO108" s="21"/>
+      <c r="AP108" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="23"/>
-      <c r="AR108" s="23"/>
-      <c r="AS108" s="23"/>
-      <c r="AT108" s="23">
+      <c r="AQ108" s="21"/>
+      <c r="AR108" s="21"/>
+      <c r="AS108" s="21"/>
+      <c r="AT108" s="21">
         <v>2011</v>
       </c>
-      <c r="AU108" s="23"/>
-      <c r="AV108" s="23"/>
-      <c r="AW108" s="23"/>
-      <c r="AX108" s="23">
+      <c r="AU108" s="21"/>
+      <c r="AV108" s="21"/>
+      <c r="AW108" s="21"/>
+      <c r="AX108" s="21">
         <v>2012</v>
       </c>
-      <c r="AY108" s="23"/>
-      <c r="AZ108" s="23"/>
-      <c r="BA108" s="23"/>
-      <c r="BB108" s="23">
+      <c r="AY108" s="21"/>
+      <c r="AZ108" s="21"/>
+      <c r="BA108" s="21"/>
+      <c r="BB108" s="21">
         <v>2013</v>
       </c>
-      <c r="BC108" s="23"/>
-      <c r="BD108" s="23"/>
-      <c r="BE108" s="23"/>
-      <c r="BF108" s="23">
+      <c r="BC108" s="21"/>
+      <c r="BD108" s="21"/>
+      <c r="BE108" s="21"/>
+      <c r="BF108" s="21">
         <v>2014</v>
       </c>
-      <c r="BG108" s="23"/>
-      <c r="BH108" s="23"/>
-      <c r="BI108" s="23"/>
-      <c r="BJ108" s="23">
+      <c r="BG108" s="21"/>
+      <c r="BH108" s="21"/>
+      <c r="BI108" s="21"/>
+      <c r="BJ108" s="21">
         <v>2015</v>
       </c>
-      <c r="BK108" s="23"/>
-      <c r="BL108" s="23"/>
-      <c r="BM108" s="23"/>
-      <c r="BN108" s="23">
+      <c r="BK108" s="21"/>
+      <c r="BL108" s="21"/>
+      <c r="BM108" s="21"/>
+      <c r="BN108" s="21">
         <v>2016</v>
       </c>
-      <c r="BO108" s="23"/>
-      <c r="BP108" s="23"/>
-      <c r="BQ108" s="23"/>
-      <c r="BR108" s="23">
+      <c r="BO108" s="21"/>
+      <c r="BP108" s="21"/>
+      <c r="BQ108" s="21"/>
+      <c r="BR108" s="21">
         <v>2017</v>
       </c>
-      <c r="BS108" s="23"/>
-      <c r="BT108" s="23"/>
-      <c r="BU108" s="23"/>
-      <c r="BV108" s="23">
+      <c r="BS108" s="21"/>
+      <c r="BT108" s="21"/>
+      <c r="BU108" s="21"/>
+      <c r="BV108" s="21">
         <v>2018</v>
       </c>
-      <c r="BW108" s="23"/>
-      <c r="BX108" s="23"/>
-      <c r="BY108" s="23"/>
-      <c r="BZ108" s="23">
+      <c r="BW108" s="21"/>
+      <c r="BX108" s="21"/>
+      <c r="BY108" s="21"/>
+      <c r="BZ108" s="21">
         <v>2019</v>
       </c>
-      <c r="CA108" s="23"/>
-      <c r="CB108" s="23"/>
-      <c r="CC108" s="23"/>
-      <c r="CD108" s="23">
+      <c r="CA108" s="21"/>
+      <c r="CB108" s="21"/>
+      <c r="CC108" s="21"/>
+      <c r="CD108" s="21">
         <v>2020</v>
       </c>
-      <c r="CE108" s="23"/>
-      <c r="CF108" s="23"/>
-      <c r="CG108" s="23"/>
+      <c r="CE108" s="21"/>
+      <c r="CF108" s="21"/>
+      <c r="CG108" s="21"/>
       <c r="CH108" s="22">
         <v>2021</v>
       </c>
@@ -16664,8 +16753,9 @@
         <v>2022</v>
       </c>
       <c r="CM108" s="22"/>
+      <c r="CN108" s="22"/>
     </row>
-    <row r="109" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="13" t="s">
         <v>7</v>
@@ -16937,11 +17027,14 @@
       <c r="CM109" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="CN109" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="110" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6"/>
     </row>
-    <row r="111" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>1</v>
       </c>
@@ -17213,9 +17306,11 @@
         <v>126.09642903416729</v>
       </c>
       <c r="CM111" s="14">
-        <v>124.61983118929621</v>
-      </c>
-      <c r="CN111" s="8"/>
+        <v>124.61983118929625</v>
+      </c>
+      <c r="CN111" s="14">
+        <v>128.49759727085751</v>
+      </c>
       <c r="CO111" s="8"/>
       <c r="CP111" s="8"/>
       <c r="CQ111" s="8"/>
@@ -17276,7 +17371,7 @@
       <c r="ET111" s="8"/>
       <c r="EU111" s="8"/>
     </row>
-    <row r="112" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>11</v>
       </c>
@@ -17550,7 +17645,9 @@
       <c r="CM112" s="14">
         <v>113.74058049100657</v>
       </c>
-      <c r="CN112" s="8"/>
+      <c r="CN112" s="14">
+        <v>116.05280088472769</v>
+      </c>
       <c r="CO112" s="8"/>
       <c r="CP112" s="8"/>
       <c r="CQ112" s="8"/>
@@ -17611,7 +17708,7 @@
       <c r="ET112" s="8"/>
       <c r="EU112" s="8"/>
     </row>
-    <row r="113" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>12</v>
       </c>
@@ -17885,7 +17982,9 @@
       <c r="CM113" s="14">
         <v>115.6341945436903</v>
       </c>
-      <c r="CN113" s="8"/>
+      <c r="CN113" s="14">
+        <v>118.04648528321442</v>
+      </c>
       <c r="CO113" s="8"/>
       <c r="CP113" s="8"/>
       <c r="CQ113" s="8"/>
@@ -17946,7 +18045,7 @@
       <c r="ET113" s="8"/>
       <c r="EU113" s="8"/>
     </row>
-    <row r="114" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>13</v>
       </c>
@@ -18220,7 +18319,9 @@
       <c r="CM114" s="14">
         <v>109.98023693843398</v>
       </c>
-      <c r="CN114" s="8"/>
+      <c r="CN114" s="14">
+        <v>112.53715586887442</v>
+      </c>
       <c r="CO114" s="8"/>
       <c r="CP114" s="8"/>
       <c r="CQ114" s="8"/>
@@ -18281,7 +18382,7 @@
       <c r="ET114" s="8"/>
       <c r="EU114" s="8"/>
     </row>
-    <row r="115" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>14</v>
       </c>
@@ -18555,7 +18656,9 @@
       <c r="CM115" s="14">
         <v>101.97719373209009</v>
       </c>
-      <c r="CN115" s="8"/>
+      <c r="CN115" s="14">
+        <v>102.12267473484775</v>
+      </c>
       <c r="CO115" s="8"/>
       <c r="CP115" s="8"/>
       <c r="CQ115" s="8"/>
@@ -18616,7 +18719,7 @@
       <c r="ET115" s="8"/>
       <c r="EU115" s="8"/>
     </row>
-    <row r="116" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>15</v>
       </c>
@@ -18890,7 +18993,9 @@
       <c r="CM116" s="14">
         <v>115.24165168078626</v>
       </c>
-      <c r="CN116" s="8"/>
+      <c r="CN116" s="14">
+        <v>115.99665924145654</v>
+      </c>
       <c r="CO116" s="8"/>
       <c r="CP116" s="8"/>
       <c r="CQ116" s="8"/>
@@ -18951,7 +19056,7 @@
       <c r="ET116" s="8"/>
       <c r="EU116" s="8"/>
     </row>
-    <row r="117" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>16</v>
       </c>
@@ -19225,7 +19330,9 @@
       <c r="CM117" s="14">
         <v>112.80912875511827</v>
       </c>
-      <c r="CN117" s="8"/>
+      <c r="CN117" s="14">
+        <v>115.85449315066496</v>
+      </c>
       <c r="CO117" s="8"/>
       <c r="CP117" s="8"/>
       <c r="CQ117" s="8"/>
@@ -19286,7 +19393,7 @@
       <c r="ET117" s="8"/>
       <c r="EU117" s="8"/>
     </row>
-    <row r="118" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>17</v>
       </c>
@@ -19560,7 +19667,9 @@
       <c r="CM118" s="14">
         <v>113.13547570597329</v>
       </c>
-      <c r="CN118" s="8"/>
+      <c r="CN118" s="14">
+        <v>115.97368629182768</v>
+      </c>
       <c r="CO118" s="8"/>
       <c r="CP118" s="8"/>
       <c r="CQ118" s="8"/>
@@ -19621,7 +19730,7 @@
       <c r="ET118" s="8"/>
       <c r="EU118" s="8"/>
     </row>
-    <row r="119" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
@@ -19773,7 +19882,7 @@
       <c r="ET119" s="8"/>
       <c r="EU119" s="8"/>
     </row>
-    <row r="120" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
         <v>18</v>
       </c>
@@ -20045,9 +20154,11 @@
         <v>112.04563749630564</v>
       </c>
       <c r="CM120" s="14">
-        <v>113.03249390911549</v>
-      </c>
-      <c r="CN120" s="8"/>
+        <v>112.99069482591557</v>
+      </c>
+      <c r="CN120" s="14">
+        <v>114.91654405799055</v>
+      </c>
       <c r="CO120" s="8"/>
       <c r="CP120" s="8"/>
       <c r="CQ120" s="8"/>
@@ -20108,7 +20219,7 @@
       <c r="ET120" s="8"/>
       <c r="EU120" s="8"/>
     </row>
-    <row r="121" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -20200,170 +20311,171 @@
       <c r="CK121" s="11"/>
       <c r="CL121" s="11"/>
       <c r="CM121" s="11"/>
+      <c r="CN121" s="11"/>
     </row>
-    <row r="122" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="129" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="131" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="133" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
-      <c r="B133" s="23">
+      <c r="B133" s="21">
         <v>2000</v>
       </c>
-      <c r="C133" s="23"/>
-      <c r="D133" s="23"/>
-      <c r="E133" s="23"/>
-      <c r="F133" s="23">
+      <c r="C133" s="21"/>
+      <c r="D133" s="21"/>
+      <c r="E133" s="21"/>
+      <c r="F133" s="21">
         <v>2001</v>
       </c>
-      <c r="G133" s="23"/>
-      <c r="H133" s="23"/>
-      <c r="I133" s="23"/>
-      <c r="J133" s="23">
+      <c r="G133" s="21"/>
+      <c r="H133" s="21"/>
+      <c r="I133" s="21"/>
+      <c r="J133" s="21">
         <v>2002</v>
       </c>
-      <c r="K133" s="23"/>
-      <c r="L133" s="23"/>
-      <c r="M133" s="23"/>
-      <c r="N133" s="23">
+      <c r="K133" s="21"/>
+      <c r="L133" s="21"/>
+      <c r="M133" s="21"/>
+      <c r="N133" s="21">
         <v>2003</v>
       </c>
-      <c r="O133" s="23"/>
-      <c r="P133" s="23"/>
-      <c r="Q133" s="23"/>
-      <c r="R133" s="23">
+      <c r="O133" s="21"/>
+      <c r="P133" s="21"/>
+      <c r="Q133" s="21"/>
+      <c r="R133" s="21">
         <v>2004</v>
       </c>
-      <c r="S133" s="23"/>
-      <c r="T133" s="23"/>
-      <c r="U133" s="23"/>
-      <c r="V133" s="23">
+      <c r="S133" s="21"/>
+      <c r="T133" s="21"/>
+      <c r="U133" s="21"/>
+      <c r="V133" s="21">
         <v>2005</v>
       </c>
-      <c r="W133" s="23"/>
-      <c r="X133" s="23"/>
-      <c r="Y133" s="23"/>
-      <c r="Z133" s="23">
+      <c r="W133" s="21"/>
+      <c r="X133" s="21"/>
+      <c r="Y133" s="21"/>
+      <c r="Z133" s="21">
         <v>2006</v>
       </c>
-      <c r="AA133" s="23"/>
-      <c r="AB133" s="23"/>
-      <c r="AC133" s="23"/>
-      <c r="AD133" s="23">
+      <c r="AA133" s="21"/>
+      <c r="AB133" s="21"/>
+      <c r="AC133" s="21"/>
+      <c r="AD133" s="21">
         <v>2007</v>
       </c>
-      <c r="AE133" s="23"/>
-      <c r="AF133" s="23"/>
-      <c r="AG133" s="23"/>
-      <c r="AH133" s="23">
+      <c r="AE133" s="21"/>
+      <c r="AF133" s="21"/>
+      <c r="AG133" s="21"/>
+      <c r="AH133" s="21">
         <v>2008</v>
       </c>
-      <c r="AI133" s="23"/>
-      <c r="AJ133" s="23"/>
-      <c r="AK133" s="23"/>
-      <c r="AL133" s="23">
+      <c r="AI133" s="21"/>
+      <c r="AJ133" s="21"/>
+      <c r="AK133" s="21"/>
+      <c r="AL133" s="21">
         <v>2009</v>
       </c>
-      <c r="AM133" s="23"/>
-      <c r="AN133" s="23"/>
-      <c r="AO133" s="23"/>
-      <c r="AP133" s="23">
+      <c r="AM133" s="21"/>
+      <c r="AN133" s="21"/>
+      <c r="AO133" s="21"/>
+      <c r="AP133" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ133" s="23"/>
-      <c r="AR133" s="23"/>
-      <c r="AS133" s="23"/>
-      <c r="AT133" s="23">
+      <c r="AQ133" s="21"/>
+      <c r="AR133" s="21"/>
+      <c r="AS133" s="21"/>
+      <c r="AT133" s="21">
         <v>2011</v>
       </c>
-      <c r="AU133" s="23"/>
-      <c r="AV133" s="23"/>
-      <c r="AW133" s="23"/>
-      <c r="AX133" s="23">
+      <c r="AU133" s="21"/>
+      <c r="AV133" s="21"/>
+      <c r="AW133" s="21"/>
+      <c r="AX133" s="21">
         <v>2012</v>
       </c>
-      <c r="AY133" s="23"/>
-      <c r="AZ133" s="23"/>
-      <c r="BA133" s="23"/>
-      <c r="BB133" s="23">
+      <c r="AY133" s="21"/>
+      <c r="AZ133" s="21"/>
+      <c r="BA133" s="21"/>
+      <c r="BB133" s="21">
         <v>2013</v>
       </c>
-      <c r="BC133" s="23"/>
-      <c r="BD133" s="23"/>
-      <c r="BE133" s="23"/>
-      <c r="BF133" s="23">
+      <c r="BC133" s="21"/>
+      <c r="BD133" s="21"/>
+      <c r="BE133" s="21"/>
+      <c r="BF133" s="21">
         <v>2014</v>
       </c>
-      <c r="BG133" s="23"/>
-      <c r="BH133" s="23"/>
-      <c r="BI133" s="23"/>
-      <c r="BJ133" s="23">
+      <c r="BG133" s="21"/>
+      <c r="BH133" s="21"/>
+      <c r="BI133" s="21"/>
+      <c r="BJ133" s="21">
         <v>2015</v>
       </c>
-      <c r="BK133" s="23"/>
-      <c r="BL133" s="23"/>
-      <c r="BM133" s="23"/>
-      <c r="BN133" s="23">
+      <c r="BK133" s="21"/>
+      <c r="BL133" s="21"/>
+      <c r="BM133" s="21"/>
+      <c r="BN133" s="21">
         <v>2016</v>
       </c>
-      <c r="BO133" s="23"/>
-      <c r="BP133" s="23"/>
-      <c r="BQ133" s="23"/>
-      <c r="BR133" s="23">
+      <c r="BO133" s="21"/>
+      <c r="BP133" s="21"/>
+      <c r="BQ133" s="21"/>
+      <c r="BR133" s="21">
         <v>2017</v>
       </c>
-      <c r="BS133" s="23"/>
-      <c r="BT133" s="23"/>
-      <c r="BU133" s="23"/>
-      <c r="BV133" s="23">
+      <c r="BS133" s="21"/>
+      <c r="BT133" s="21"/>
+      <c r="BU133" s="21"/>
+      <c r="BV133" s="21">
         <v>2018</v>
       </c>
-      <c r="BW133" s="23"/>
-      <c r="BX133" s="23"/>
-      <c r="BY133" s="23"/>
-      <c r="BZ133" s="23">
+      <c r="BW133" s="21"/>
+      <c r="BX133" s="21"/>
+      <c r="BY133" s="21"/>
+      <c r="BZ133" s="21">
         <v>2019</v>
       </c>
-      <c r="CA133" s="23"/>
-      <c r="CB133" s="23"/>
-      <c r="CC133" s="23"/>
-      <c r="CD133" s="23">
+      <c r="CA133" s="21"/>
+      <c r="CB133" s="21"/>
+      <c r="CC133" s="21"/>
+      <c r="CD133" s="21">
         <v>2020</v>
       </c>
-      <c r="CE133" s="23"/>
-      <c r="CF133" s="23"/>
-      <c r="CG133" s="23"/>
+      <c r="CE133" s="21"/>
+      <c r="CF133" s="21"/>
+      <c r="CG133" s="21"/>
       <c r="CH133" s="22">
         <v>2021</v>
       </c>
@@ -20374,8 +20486,9 @@
         <v>2022</v>
       </c>
       <c r="CM133" s="22"/>
+      <c r="CN133" s="22"/>
     </row>
-    <row r="134" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134" s="13" t="s">
         <v>7</v>
@@ -20647,11 +20760,14 @@
       <c r="CM134" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="CN134" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="135" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="6"/>
     </row>
-    <row r="136" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>1</v>
       </c>
@@ -20907,25 +21023,27 @@
       <c r="CG136" s="15">
         <v>5.4275059453531354</v>
       </c>
-      <c r="CH136" s="21">
+      <c r="CH136" s="20">
         <v>3.7210124126058028</v>
       </c>
-      <c r="CI136" s="21">
+      <c r="CI136" s="20">
         <v>3.1399466293911424</v>
       </c>
-      <c r="CJ136" s="21">
+      <c r="CJ136" s="20">
         <v>5.9513037927032633</v>
       </c>
-      <c r="CK136" s="21">
+      <c r="CK136" s="20">
         <v>6.3648030216419471</v>
       </c>
-      <c r="CL136" s="21">
+      <c r="CL136" s="20">
         <v>7.3121379291535087</v>
       </c>
-      <c r="CM136" s="21">
-        <v>4.9869886525037597</v>
-      </c>
-      <c r="CN136" s="8"/>
+      <c r="CM136" s="20">
+        <v>4.5804031881774865</v>
+      </c>
+      <c r="CN136" s="20">
+        <v>6.8646105426550932</v>
+      </c>
       <c r="CO136" s="8"/>
       <c r="CP136" s="8"/>
       <c r="CQ136" s="8"/>
@@ -20986,7 +21104,7 @@
       <c r="ET136" s="8"/>
       <c r="EU136" s="8"/>
     </row>
-    <row r="137" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>11</v>
       </c>
@@ -21242,25 +21360,27 @@
       <c r="CG137" s="15">
         <v>0.18664971726304994</v>
       </c>
-      <c r="CH137" s="21">
+      <c r="CH137" s="20">
         <v>8.7558676562155199E-2</v>
       </c>
-      <c r="CI137" s="21">
+      <c r="CI137" s="20">
         <v>6.2967906137419247E-2</v>
       </c>
-      <c r="CJ137" s="21">
+      <c r="CJ137" s="20">
         <v>0.17549222859448987</v>
       </c>
-      <c r="CK137" s="21">
+      <c r="CK137" s="20">
         <v>0.17471975750948968</v>
       </c>
-      <c r="CL137" s="21">
+      <c r="CL137" s="20">
         <v>8.5242739098045542E-2</v>
       </c>
-      <c r="CM137" s="21">
-        <v>5.9281574500877031E-2</v>
-      </c>
-      <c r="CN137" s="8"/>
+      <c r="CM137" s="20">
+        <v>5.9231648592946468E-2</v>
+      </c>
+      <c r="CN137" s="20">
+        <v>0.13965762016516917</v>
+      </c>
       <c r="CO137" s="8"/>
       <c r="CP137" s="8"/>
       <c r="CQ137" s="8"/>
@@ -21321,7 +21441,7 @@
       <c r="ET137" s="8"/>
       <c r="EU137" s="8"/>
     </row>
-    <row r="138" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>12</v>
       </c>
@@ -21577,25 +21697,27 @@
       <c r="CG138" s="15">
         <v>2.0160285542239165</v>
       </c>
-      <c r="CH138" s="21">
+      <c r="CH138" s="20">
         <v>0.32281571107405882</v>
       </c>
-      <c r="CI138" s="21">
+      <c r="CI138" s="20">
         <v>5.017920109408661</v>
       </c>
-      <c r="CJ138" s="21">
+      <c r="CJ138" s="20">
         <v>5.3524872102617618</v>
       </c>
-      <c r="CK138" s="21">
+      <c r="CK138" s="20">
         <v>2.7846728412805546</v>
       </c>
-      <c r="CL138" s="21">
+      <c r="CL138" s="20">
         <v>2.5397042174510642</v>
       </c>
-      <c r="CM138" s="21">
-        <v>9.097344944903579</v>
-      </c>
-      <c r="CN138" s="8"/>
+      <c r="CM138" s="20">
+        <v>9.1614497764906773</v>
+      </c>
+      <c r="CN138" s="20">
+        <v>16.727651505354139</v>
+      </c>
       <c r="CO138" s="8"/>
       <c r="CP138" s="8"/>
       <c r="CQ138" s="8"/>
@@ -21656,7 +21778,7 @@
       <c r="ET138" s="8"/>
       <c r="EU138" s="8"/>
     </row>
-    <row r="139" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>13</v>
       </c>
@@ -21912,25 +22034,27 @@
       <c r="CG139" s="15">
         <v>0.60148638065745919</v>
       </c>
-      <c r="CH139" s="21">
+      <c r="CH139" s="20">
         <v>0.56187529055733054</v>
       </c>
-      <c r="CI139" s="21">
+      <c r="CI139" s="20">
         <v>0.57989329839645298</v>
       </c>
-      <c r="CJ139" s="21">
+      <c r="CJ139" s="20">
         <v>0.84482969081861936</v>
       </c>
-      <c r="CK139" s="21">
+      <c r="CK139" s="20">
         <v>0.79241330198598137</v>
       </c>
-      <c r="CL139" s="21">
+      <c r="CL139" s="20">
         <v>0.48713886300158227</v>
       </c>
-      <c r="CM139" s="21">
-        <v>0.5005894670602723</v>
-      </c>
-      <c r="CN139" s="8"/>
+      <c r="CM139" s="20">
+        <v>0.49958929902264754</v>
+      </c>
+      <c r="CN139" s="20">
+        <v>0.62856726858971201</v>
+      </c>
       <c r="CO139" s="8"/>
       <c r="CP139" s="8"/>
       <c r="CQ139" s="8"/>
@@ -21991,7 +22115,7 @@
       <c r="ET139" s="8"/>
       <c r="EU139" s="8"/>
     </row>
-    <row r="140" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>14</v>
       </c>
@@ -22247,25 +22371,27 @@
       <c r="CG140" s="15">
         <v>15.398891770769421</v>
       </c>
-      <c r="CH140" s="21">
+      <c r="CH140" s="20">
         <v>19.317719145174404</v>
       </c>
-      <c r="CI140" s="21">
+      <c r="CI140" s="20">
         <v>17.667157848046728</v>
       </c>
-      <c r="CJ140" s="21">
+      <c r="CJ140" s="20">
         <v>15.641018178667684</v>
       </c>
-      <c r="CK140" s="21">
+      <c r="CK140" s="20">
         <v>15.082616976026891</v>
       </c>
-      <c r="CL140" s="21">
+      <c r="CL140" s="20">
         <v>17.349678360577634</v>
       </c>
-      <c r="CM140" s="21">
-        <v>15.951795527027976</v>
-      </c>
-      <c r="CN140" s="8"/>
+      <c r="CM140" s="20">
+        <v>15.970465012773264</v>
+      </c>
+      <c r="CN140" s="20">
+        <v>13.75772239591144</v>
+      </c>
       <c r="CO140" s="8"/>
       <c r="CP140" s="8"/>
       <c r="CQ140" s="8"/>
@@ -22326,7 +22452,7 @@
       <c r="ET140" s="8"/>
       <c r="EU140" s="8"/>
     </row>
-    <row r="141" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>15</v>
       </c>
@@ -22582,25 +22708,27 @@
       <c r="CG141" s="15">
         <v>64.942432985931987</v>
       </c>
-      <c r="CH141" s="21">
+      <c r="CH141" s="20">
         <v>62.113759774290536</v>
       </c>
-      <c r="CI141" s="21">
+      <c r="CI141" s="20">
         <v>59.739511634489538</v>
       </c>
-      <c r="CJ141" s="21">
+      <c r="CJ141" s="20">
         <v>58.515472634346807</v>
       </c>
-      <c r="CK141" s="21">
+      <c r="CK141" s="20">
         <v>61.509603746173291</v>
       </c>
-      <c r="CL141" s="21">
+      <c r="CL141" s="20">
         <v>58.854344582927389</v>
       </c>
-      <c r="CM141" s="21">
-        <v>57.128265638836282</v>
-      </c>
-      <c r="CN141" s="8"/>
+      <c r="CM141" s="20">
+        <v>57.216271541737044</v>
+      </c>
+      <c r="CN141" s="20">
+        <v>52.145173549858782</v>
+      </c>
       <c r="CO141" s="8"/>
       <c r="CP141" s="8"/>
       <c r="CQ141" s="8"/>
@@ -22661,7 +22789,7 @@
       <c r="ET141" s="8"/>
       <c r="EU141" s="8"/>
     </row>
-    <row r="142" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>16</v>
       </c>
@@ -22917,25 +23045,27 @@
       <c r="CG142" s="15">
         <v>10.351874513042256</v>
       </c>
-      <c r="CH142" s="21">
+      <c r="CH142" s="20">
         <v>12.899161118522739</v>
       </c>
-      <c r="CI142" s="21">
+      <c r="CI142" s="20">
         <v>12.573861544868803</v>
       </c>
-      <c r="CJ142" s="21">
+      <c r="CJ142" s="20">
         <v>11.817095775217298</v>
       </c>
-      <c r="CK142" s="21">
+      <c r="CK142" s="20">
         <v>11.380842922393025</v>
       </c>
-      <c r="CL142" s="21">
+      <c r="CL142" s="20">
         <v>12.378131943301597</v>
       </c>
-      <c r="CM142" s="21">
-        <v>11.017159447331954</v>
-      </c>
-      <c r="CN142" s="8"/>
+      <c r="CM142" s="20">
+        <v>11.202931605436945</v>
+      </c>
+      <c r="CN142" s="20">
+        <v>7.7291493226418222</v>
+      </c>
       <c r="CO142" s="8"/>
       <c r="CP142" s="8"/>
       <c r="CQ142" s="8"/>
@@ -22996,7 +23126,7 @@
       <c r="ET142" s="8"/>
       <c r="EU142" s="8"/>
     </row>
-    <row r="143" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>17</v>
       </c>
@@ -23252,25 +23382,27 @@
       <c r="CG143" s="15">
         <v>1.075130132758765</v>
       </c>
-      <c r="CH143" s="21">
+      <c r="CH143" s="20">
         <v>0.97609787121298008</v>
       </c>
-      <c r="CI143" s="21">
+      <c r="CI143" s="20">
         <v>1.2187410292612511</v>
       </c>
-      <c r="CJ143" s="21">
+      <c r="CJ143" s="20">
         <v>1.7023004893900633</v>
       </c>
-      <c r="CK143" s="21">
+      <c r="CK143" s="20">
         <v>1.9103274329888156</v>
       </c>
-      <c r="CL143" s="21">
+      <c r="CL143" s="20">
         <v>0.99362136448919425</v>
       </c>
-      <c r="CM143" s="21">
-        <v>1.2585747478353126</v>
-      </c>
-      <c r="CN143" s="8"/>
+      <c r="CM143" s="20">
+        <v>1.3096579277689999</v>
+      </c>
+      <c r="CN143" s="20">
+        <v>2.007467794823846</v>
+      </c>
       <c r="CO143" s="8"/>
       <c r="CP143" s="8"/>
       <c r="CQ143" s="8"/>
@@ -23331,7 +23463,7 @@
       <c r="ET143" s="8"/>
       <c r="EU143" s="8"/>
     </row>
-    <row r="144" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
@@ -23483,7 +23615,7 @@
       <c r="ET144" s="8"/>
       <c r="EU144" s="8"/>
     </row>
-    <row r="145" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A145" s="9" t="s">
         <v>18</v>
       </c>
@@ -23757,7 +23889,9 @@
       <c r="CM145" s="14">
         <v>100</v>
       </c>
-      <c r="CN145" s="8"/>
+      <c r="CN145" s="14">
+        <v>100</v>
+      </c>
       <c r="CO145" s="8"/>
       <c r="CP145" s="8"/>
       <c r="CQ145" s="8"/>
@@ -23818,7 +23952,7 @@
       <c r="ET145" s="8"/>
       <c r="EU145" s="8"/>
     </row>
-    <row r="146" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
@@ -23910,13 +24044,14 @@
       <c r="CK146" s="11"/>
       <c r="CL146" s="11"/>
       <c r="CM146" s="11"/>
+      <c r="CN146" s="11"/>
     </row>
-    <row r="147" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
@@ -24068,7 +24203,7 @@
       <c r="ET148" s="8"/>
       <c r="EU148" s="8"/>
     </row>
-    <row r="149" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
@@ -24220,164 +24355,164 @@
       <c r="ET149" s="8"/>
       <c r="EU149" s="8"/>
     </row>
-    <row r="150" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="154" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="156" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="158" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
-      <c r="B158" s="23">
+      <c r="B158" s="21">
         <v>2000</v>
       </c>
-      <c r="C158" s="23"/>
-      <c r="D158" s="23"/>
-      <c r="E158" s="23"/>
-      <c r="F158" s="23">
+      <c r="C158" s="21"/>
+      <c r="D158" s="21"/>
+      <c r="E158" s="21"/>
+      <c r="F158" s="21">
         <v>2001</v>
       </c>
-      <c r="G158" s="23"/>
-      <c r="H158" s="23"/>
-      <c r="I158" s="23"/>
-      <c r="J158" s="23">
+      <c r="G158" s="21"/>
+      <c r="H158" s="21"/>
+      <c r="I158" s="21"/>
+      <c r="J158" s="21">
         <v>2002</v>
       </c>
-      <c r="K158" s="23"/>
-      <c r="L158" s="23"/>
-      <c r="M158" s="23"/>
-      <c r="N158" s="23">
+      <c r="K158" s="21"/>
+      <c r="L158" s="21"/>
+      <c r="M158" s="21"/>
+      <c r="N158" s="21">
         <v>2003</v>
       </c>
-      <c r="O158" s="23"/>
-      <c r="P158" s="23"/>
-      <c r="Q158" s="23"/>
-      <c r="R158" s="23">
+      <c r="O158" s="21"/>
+      <c r="P158" s="21"/>
+      <c r="Q158" s="21"/>
+      <c r="R158" s="21">
         <v>2004</v>
       </c>
-      <c r="S158" s="23"/>
-      <c r="T158" s="23"/>
-      <c r="U158" s="23"/>
-      <c r="V158" s="23">
+      <c r="S158" s="21"/>
+      <c r="T158" s="21"/>
+      <c r="U158" s="21"/>
+      <c r="V158" s="21">
         <v>2005</v>
       </c>
-      <c r="W158" s="23"/>
-      <c r="X158" s="23"/>
-      <c r="Y158" s="23"/>
-      <c r="Z158" s="23">
+      <c r="W158" s="21"/>
+      <c r="X158" s="21"/>
+      <c r="Y158" s="21"/>
+      <c r="Z158" s="21">
         <v>2006</v>
       </c>
-      <c r="AA158" s="23"/>
-      <c r="AB158" s="23"/>
-      <c r="AC158" s="23"/>
-      <c r="AD158" s="23">
+      <c r="AA158" s="21"/>
+      <c r="AB158" s="21"/>
+      <c r="AC158" s="21"/>
+      <c r="AD158" s="21">
         <v>2007</v>
       </c>
-      <c r="AE158" s="23"/>
-      <c r="AF158" s="23"/>
-      <c r="AG158" s="23"/>
-      <c r="AH158" s="23">
+      <c r="AE158" s="21"/>
+      <c r="AF158" s="21"/>
+      <c r="AG158" s="21"/>
+      <c r="AH158" s="21">
         <v>2008</v>
       </c>
-      <c r="AI158" s="23"/>
-      <c r="AJ158" s="23"/>
-      <c r="AK158" s="23"/>
-      <c r="AL158" s="23">
+      <c r="AI158" s="21"/>
+      <c r="AJ158" s="21"/>
+      <c r="AK158" s="21"/>
+      <c r="AL158" s="21">
         <v>2009</v>
       </c>
-      <c r="AM158" s="23"/>
-      <c r="AN158" s="23"/>
-      <c r="AO158" s="23"/>
-      <c r="AP158" s="23">
+      <c r="AM158" s="21"/>
+      <c r="AN158" s="21"/>
+      <c r="AO158" s="21"/>
+      <c r="AP158" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ158" s="23"/>
-      <c r="AR158" s="23"/>
-      <c r="AS158" s="23"/>
-      <c r="AT158" s="23">
+      <c r="AQ158" s="21"/>
+      <c r="AR158" s="21"/>
+      <c r="AS158" s="21"/>
+      <c r="AT158" s="21">
         <v>2011</v>
       </c>
-      <c r="AU158" s="23"/>
-      <c r="AV158" s="23"/>
-      <c r="AW158" s="23"/>
-      <c r="AX158" s="23">
+      <c r="AU158" s="21"/>
+      <c r="AV158" s="21"/>
+      <c r="AW158" s="21"/>
+      <c r="AX158" s="21">
         <v>2012</v>
       </c>
-      <c r="AY158" s="23"/>
-      <c r="AZ158" s="23"/>
-      <c r="BA158" s="23"/>
-      <c r="BB158" s="23">
+      <c r="AY158" s="21"/>
+      <c r="AZ158" s="21"/>
+      <c r="BA158" s="21"/>
+      <c r="BB158" s="21">
         <v>2013</v>
       </c>
-      <c r="BC158" s="23"/>
-      <c r="BD158" s="23"/>
-      <c r="BE158" s="23"/>
-      <c r="BF158" s="23">
+      <c r="BC158" s="21"/>
+      <c r="BD158" s="21"/>
+      <c r="BE158" s="21"/>
+      <c r="BF158" s="21">
         <v>2014</v>
       </c>
-      <c r="BG158" s="23"/>
-      <c r="BH158" s="23"/>
-      <c r="BI158" s="23"/>
-      <c r="BJ158" s="23">
+      <c r="BG158" s="21"/>
+      <c r="BH158" s="21"/>
+      <c r="BI158" s="21"/>
+      <c r="BJ158" s="21">
         <v>2015</v>
       </c>
-      <c r="BK158" s="23"/>
-      <c r="BL158" s="23"/>
-      <c r="BM158" s="23"/>
-      <c r="BN158" s="23">
+      <c r="BK158" s="21"/>
+      <c r="BL158" s="21"/>
+      <c r="BM158" s="21"/>
+      <c r="BN158" s="21">
         <v>2016</v>
       </c>
-      <c r="BO158" s="23"/>
-      <c r="BP158" s="23"/>
-      <c r="BQ158" s="23"/>
-      <c r="BR158" s="23">
+      <c r="BO158" s="21"/>
+      <c r="BP158" s="21"/>
+      <c r="BQ158" s="21"/>
+      <c r="BR158" s="21">
         <v>2017</v>
       </c>
-      <c r="BS158" s="23"/>
-      <c r="BT158" s="23"/>
-      <c r="BU158" s="23"/>
-      <c r="BV158" s="23">
+      <c r="BS158" s="21"/>
+      <c r="BT158" s="21"/>
+      <c r="BU158" s="21"/>
+      <c r="BV158" s="21">
         <v>2018</v>
       </c>
-      <c r="BW158" s="23"/>
-      <c r="BX158" s="23"/>
-      <c r="BY158" s="23"/>
-      <c r="BZ158" s="23">
+      <c r="BW158" s="21"/>
+      <c r="BX158" s="21"/>
+      <c r="BY158" s="21"/>
+      <c r="BZ158" s="21">
         <v>2019</v>
       </c>
-      <c r="CA158" s="23"/>
-      <c r="CB158" s="23"/>
-      <c r="CC158" s="23"/>
-      <c r="CD158" s="23">
+      <c r="CA158" s="21"/>
+      <c r="CB158" s="21"/>
+      <c r="CC158" s="21"/>
+      <c r="CD158" s="21">
         <v>2020</v>
       </c>
-      <c r="CE158" s="23"/>
-      <c r="CF158" s="23"/>
-      <c r="CG158" s="23"/>
+      <c r="CE158" s="21"/>
+      <c r="CF158" s="21"/>
+      <c r="CG158" s="21"/>
       <c r="CH158" s="22">
         <v>2021</v>
       </c>
@@ -24388,8 +24523,9 @@
         <v>2022</v>
       </c>
       <c r="CM158" s="22"/>
+      <c r="CN158" s="22"/>
     </row>
-    <row r="159" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
       <c r="B159" s="13" t="s">
         <v>7</v>
@@ -24661,11 +24797,14 @@
       <c r="CM159" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="CN159" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="160" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="6"/>
     </row>
-    <row r="161" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>1</v>
       </c>
@@ -24921,25 +25060,27 @@
       <c r="CG161" s="15">
         <v>5.1202309490742826</v>
       </c>
-      <c r="CH161" s="21">
+      <c r="CH161" s="20">
         <v>3.4474077754146877</v>
       </c>
-      <c r="CI161" s="21">
+      <c r="CI161" s="20">
         <v>3.0261185334538467</v>
       </c>
-      <c r="CJ161" s="21">
+      <c r="CJ161" s="20">
         <v>5.7945406475794554</v>
       </c>
-      <c r="CK161" s="21">
+      <c r="CK161" s="20">
         <v>5.7891861138282206</v>
       </c>
-      <c r="CL161" s="21">
+      <c r="CL161" s="20">
         <v>6.4973541440330891</v>
       </c>
-      <c r="CM161" s="21">
-        <v>4.5232910292802231</v>
-      </c>
-      <c r="CN161" s="8"/>
+      <c r="CM161" s="20">
+        <v>4.1529741604999515</v>
+      </c>
+      <c r="CN161" s="20">
+        <v>6.1390822600608921</v>
+      </c>
       <c r="CO161" s="8"/>
       <c r="CP161" s="8"/>
       <c r="CQ161" s="8"/>
@@ -25000,7 +25141,7 @@
       <c r="ET161" s="8"/>
       <c r="EU161" s="8"/>
     </row>
-    <row r="162" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>11</v>
       </c>
@@ -25256,25 +25397,27 @@
       <c r="CG162" s="15">
         <v>0.18817661213181042</v>
       </c>
-      <c r="CH162" s="21">
+      <c r="CH162" s="20">
         <v>8.7715920558017663E-2</v>
       </c>
-      <c r="CI162" s="21">
+      <c r="CI162" s="20">
         <v>6.116392952960753E-2</v>
       </c>
-      <c r="CJ162" s="21">
+      <c r="CJ162" s="20">
         <v>0.17363625637295835</v>
       </c>
-      <c r="CK162" s="21">
+      <c r="CK162" s="20">
         <v>0.17551752463079001</v>
       </c>
-      <c r="CL162" s="21">
+      <c r="CL162" s="20">
         <v>8.5368641966480946E-2</v>
       </c>
-      <c r="CM162" s="21">
-        <v>5.8912519874320356E-2</v>
-      </c>
-      <c r="CN162" s="8"/>
+      <c r="CM162" s="20">
+        <v>5.8841137449009859E-2</v>
+      </c>
+      <c r="CN162" s="20">
+        <v>0.13829025183705657</v>
+      </c>
       <c r="CO162" s="8"/>
       <c r="CP162" s="8"/>
       <c r="CQ162" s="8"/>
@@ -25335,7 +25478,7 @@
       <c r="ET162" s="8"/>
       <c r="EU162" s="8"/>
     </row>
-    <row r="163" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>12</v>
       </c>
@@ -25591,25 +25734,27 @@
       <c r="CG163" s="15">
         <v>2.0185663269887475</v>
       </c>
-      <c r="CH163" s="21">
+      <c r="CH163" s="20">
         <v>0.31608265780620848</v>
       </c>
-      <c r="CI163" s="21">
+      <c r="CI163" s="20">
         <v>4.7835007819061266</v>
       </c>
-      <c r="CJ163" s="21">
+      <c r="CJ163" s="20">
         <v>5.2221723627921808</v>
       </c>
-      <c r="CK163" s="21">
+      <c r="CK163" s="20">
         <v>2.7702626782271129</v>
       </c>
-      <c r="CL163" s="21">
+      <c r="CL163" s="20">
         <v>2.5086581822839658</v>
       </c>
-      <c r="CM163" s="21">
-        <v>8.8926600918676648</v>
-      </c>
-      <c r="CN163" s="8"/>
+      <c r="CM163" s="20">
+        <v>8.9520109509414567</v>
+      </c>
+      <c r="CN163" s="20">
+        <v>16.284126516684008</v>
+      </c>
       <c r="CO163" s="8"/>
       <c r="CP163" s="8"/>
       <c r="CQ163" s="8"/>
@@ -25670,7 +25815,7 @@
       <c r="ET163" s="8"/>
       <c r="EU163" s="8"/>
     </row>
-    <row r="164" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>13</v>
       </c>
@@ -25926,25 +26071,27 @@
       <c r="CG164" s="15">
         <v>0.59336852384765482</v>
       </c>
-      <c r="CH164" s="21">
+      <c r="CH164" s="20">
         <v>0.57638805240990287</v>
       </c>
-      <c r="CI164" s="21">
+      <c r="CI164" s="20">
         <v>0.57822142937842447</v>
       </c>
-      <c r="CJ164" s="21">
+      <c r="CJ164" s="20">
         <v>0.85359072934355051</v>
       </c>
-      <c r="CK164" s="21">
+      <c r="CK164" s="20">
         <v>0.784227592561623</v>
       </c>
-      <c r="CL164" s="21">
+      <c r="CL164" s="20">
         <v>0.50265380266675763</v>
       </c>
-      <c r="CM164" s="21">
-        <v>0.51448221481948819</v>
-      </c>
-      <c r="CN164" s="8"/>
+      <c r="CM164" s="20">
+        <v>0.51326441545821277</v>
+      </c>
+      <c r="CN164" s="20">
+        <v>0.64185715070375782</v>
+      </c>
       <c r="CO164" s="8"/>
       <c r="CP164" s="8"/>
       <c r="CQ164" s="8"/>
@@ -26005,7 +26152,7 @@
       <c r="ET164" s="8"/>
       <c r="EU164" s="8"/>
     </row>
-    <row r="165" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>14</v>
       </c>
@@ -26261,25 +26408,27 @@
       <c r="CG165" s="15">
         <v>16.223448810278832</v>
       </c>
-      <c r="CH165" s="21">
+      <c r="CH165" s="20">
         <v>20.516142766994637</v>
       </c>
-      <c r="CI165" s="21">
+      <c r="CI165" s="20">
         <v>18.254315872337752</v>
       </c>
-      <c r="CJ165" s="21">
+      <c r="CJ165" s="20">
         <v>16.633834143540728</v>
       </c>
-      <c r="CK165" s="21">
+      <c r="CK165" s="20">
         <v>16.40765748487652</v>
       </c>
-      <c r="CL165" s="21">
+      <c r="CL165" s="20">
         <v>19.086143938106673</v>
       </c>
-      <c r="CM165" s="21">
-        <v>17.68112226627057</v>
-      </c>
-      <c r="CN165" s="8"/>
+      <c r="CM165" s="20">
+        <v>17.695269622999863</v>
+      </c>
+      <c r="CN165" s="20">
+        <v>15.481281859804952</v>
+      </c>
       <c r="CO165" s="8"/>
       <c r="CP165" s="8"/>
       <c r="CQ165" s="8"/>
@@ -26340,7 +26489,7 @@
       <c r="ET165" s="8"/>
       <c r="EU165" s="8"/>
     </row>
-    <row r="166" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>15</v>
       </c>
@@ -26596,25 +26745,27 @@
       <c r="CG166" s="15">
         <v>64.310408029086403</v>
       </c>
-      <c r="CH166" s="21">
+      <c r="CH166" s="20">
         <v>61.164248120272603</v>
       </c>
-      <c r="CI166" s="21">
+      <c r="CI166" s="20">
         <v>59.892136466384585</v>
       </c>
-      <c r="CJ166" s="21">
+      <c r="CJ166" s="20">
         <v>57.924645792109352</v>
       </c>
-      <c r="CK166" s="21">
+      <c r="CK166" s="20">
         <v>60.692607672459189</v>
       </c>
-      <c r="CL166" s="21">
+      <c r="CL166" s="20">
         <v>57.936211169675126</v>
       </c>
-      <c r="CM166" s="21">
-        <v>56.033129026531469</v>
-      </c>
-      <c r="CN166" s="8"/>
+      <c r="CM166" s="20">
+        <v>56.098695068659744</v>
+      </c>
+      <c r="CN166" s="20">
+        <v>51.659618241076721</v>
+      </c>
       <c r="CO166" s="8"/>
       <c r="CP166" s="8"/>
       <c r="CQ166" s="8"/>
@@ -26675,7 +26826,7 @@
       <c r="ET166" s="8"/>
       <c r="EU166" s="8"/>
     </row>
-    <row r="167" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>16</v>
       </c>
@@ -26931,25 +27082,27 @@
       <c r="CG167" s="15">
         <v>10.46046872292475</v>
       </c>
-      <c r="CH167" s="21">
+      <c r="CH167" s="20">
         <v>12.915242539636109</v>
       </c>
-      <c r="CI167" s="21">
+      <c r="CI167" s="20">
         <v>12.223207177357558</v>
       </c>
-      <c r="CJ167" s="21">
+      <c r="CJ167" s="20">
         <v>11.71213379400187</v>
       </c>
-      <c r="CK167" s="21">
+      <c r="CK167" s="20">
         <v>11.45900037965375</v>
       </c>
-      <c r="CL167" s="21">
+      <c r="CL167" s="20">
         <v>12.389618849872395</v>
       </c>
-      <c r="CM167" s="21">
-        <v>11.038973723744878</v>
-      </c>
-      <c r="CN167" s="8"/>
+      <c r="CM167" s="20">
+        <v>11.220962701815905</v>
+      </c>
+      <c r="CN167" s="20">
+        <v>7.6665747224069465</v>
+      </c>
       <c r="CO167" s="8"/>
       <c r="CP167" s="8"/>
       <c r="CQ167" s="8"/>
@@ -27010,7 +27163,7 @@
       <c r="ET167" s="8"/>
       <c r="EU167" s="8"/>
     </row>
-    <row r="168" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>17</v>
       </c>
@@ -27266,25 +27419,27 @@
       <c r="CG168" s="15">
         <v>1.085332025667505</v>
       </c>
-      <c r="CH168" s="21">
+      <c r="CH168" s="20">
         <v>0.9767721669078312</v>
       </c>
-      <c r="CI168" s="21">
+      <c r="CI168" s="20">
         <v>1.1813358096520878</v>
       </c>
-      <c r="CJ168" s="21">
+      <c r="CJ168" s="20">
         <v>1.6854462742598915</v>
       </c>
-      <c r="CK168" s="21">
+      <c r="CK168" s="20">
         <v>1.9215405537628021</v>
       </c>
-      <c r="CL168" s="21">
+      <c r="CL168" s="20">
         <v>0.99399127139552668</v>
       </c>
-      <c r="CM168" s="21">
-        <v>1.2574291276113891</v>
-      </c>
-      <c r="CN168" s="8"/>
+      <c r="CM168" s="20">
+        <v>1.3079819421758536</v>
+      </c>
+      <c r="CN168" s="20">
+        <v>1.9891689974256495</v>
+      </c>
       <c r="CO168" s="8"/>
       <c r="CP168" s="8"/>
       <c r="CQ168" s="8"/>
@@ -27345,7 +27500,7 @@
       <c r="ET168" s="8"/>
       <c r="EU168" s="8"/>
     </row>
-    <row r="169" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
       <c r="D169" s="8"/>
@@ -27497,7 +27652,7 @@
       <c r="ET169" s="8"/>
       <c r="EU169" s="8"/>
     </row>
-    <row r="170" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A170" s="9" t="s">
         <v>18</v>
       </c>
@@ -27771,7 +27926,9 @@
       <c r="CM170" s="14">
         <v>100</v>
       </c>
-      <c r="CN170" s="8"/>
+      <c r="CN170" s="14">
+        <v>100</v>
+      </c>
       <c r="CO170" s="8"/>
       <c r="CP170" s="8"/>
       <c r="CQ170" s="8"/>
@@ -27832,7 +27989,7 @@
       <c r="ET170" s="8"/>
       <c r="EU170" s="8"/>
     </row>
-    <row r="171" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -27924,13 +28081,14 @@
       <c r="CK171" s="11"/>
       <c r="CL171" s="11"/>
       <c r="CM171" s="11"/>
+      <c r="CN171" s="11"/>
     </row>
-    <row r="172" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:151" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:151" s="17" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="16"/>
       <c r="C173" s="16"/>
@@ -28022,7 +28180,7 @@
       <c r="CK173" s="1"/>
       <c r="CL173" s="1"/>
       <c r="CM173" s="1"/>
-      <c r="CN173" s="16"/>
+      <c r="CN173" s="1"/>
       <c r="CO173" s="16"/>
       <c r="CP173" s="16"/>
       <c r="CQ173" s="16"/>
@@ -28083,7 +28241,7 @@
       <c r="ET173" s="16"/>
       <c r="EU173" s="16"/>
     </row>
-    <row r="174" spans="1:151" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:151" s="17" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="16"/>
       <c r="C174" s="16"/>
@@ -28175,7 +28333,7 @@
       <c r="CK174" s="1"/>
       <c r="CL174" s="1"/>
       <c r="CM174" s="1"/>
-      <c r="CN174" s="16"/>
+      <c r="CN174" s="1"/>
       <c r="CO174" s="16"/>
       <c r="CP174" s="16"/>
       <c r="CQ174" s="16"/>
@@ -28237,7 +28395,144 @@
       <c r="EU174" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="159">
+  <mergeCells count="161">
+    <mergeCell ref="CH133:CK133"/>
+    <mergeCell ref="CH158:CK158"/>
+    <mergeCell ref="CL9:CN9"/>
+    <mergeCell ref="CL34:CN34"/>
+    <mergeCell ref="CH59:CJ59"/>
+    <mergeCell ref="CL59:CM59"/>
+    <mergeCell ref="CH84:CJ84"/>
+    <mergeCell ref="CL84:CM84"/>
+    <mergeCell ref="CL108:CN108"/>
+    <mergeCell ref="CL133:CN133"/>
+    <mergeCell ref="CL158:CN158"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH34:CK34"/>
+    <mergeCell ref="CD59:CG59"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="CH108:CK108"/>
+    <mergeCell ref="BZ108:CC108"/>
+    <mergeCell ref="BR108:BU108"/>
+    <mergeCell ref="BR34:BU34"/>
+    <mergeCell ref="BV34:BY34"/>
+    <mergeCell ref="BV108:BY108"/>
+    <mergeCell ref="BV59:BY59"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BZ59:CC59"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="AT133:AW133"/>
+    <mergeCell ref="AX133:BA133"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="BR133:BU133"/>
+    <mergeCell ref="BV133:BY133"/>
+    <mergeCell ref="BZ133:CC133"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="N59:Q59"/>
+    <mergeCell ref="R59:U59"/>
+    <mergeCell ref="V59:Y59"/>
+    <mergeCell ref="Z59:AC59"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="BZ158:CC158"/>
+    <mergeCell ref="BR158:BU158"/>
+    <mergeCell ref="BV158:BY158"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BV84:BY84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AL158:AO158"/>
+    <mergeCell ref="AP158:AS158"/>
+    <mergeCell ref="AT158:AW158"/>
+    <mergeCell ref="AX158:BA158"/>
+    <mergeCell ref="BJ108:BM108"/>
+    <mergeCell ref="BN108:BQ108"/>
+    <mergeCell ref="AL133:AO133"/>
+    <mergeCell ref="AP133:AS133"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="BB34:BE34"/>
+    <mergeCell ref="BF34:BI34"/>
+    <mergeCell ref="V34:Y34"/>
+    <mergeCell ref="Z34:AC34"/>
+    <mergeCell ref="AD34:AG34"/>
+    <mergeCell ref="AH34:AK34"/>
+    <mergeCell ref="AL34:AO34"/>
+    <mergeCell ref="AP34:AS34"/>
+    <mergeCell ref="AT34:AW34"/>
+    <mergeCell ref="AX34:BA34"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="V108:Y108"/>
+    <mergeCell ref="Z108:AC108"/>
+    <mergeCell ref="AD108:AG108"/>
+    <mergeCell ref="AH108:AK108"/>
+    <mergeCell ref="AL108:AO108"/>
+    <mergeCell ref="AP108:AS108"/>
+    <mergeCell ref="AT108:AW108"/>
+    <mergeCell ref="AX108:BA108"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="AD59:AG59"/>
+    <mergeCell ref="AH59:AK59"/>
+    <mergeCell ref="AL59:AO59"/>
+    <mergeCell ref="AP59:AS59"/>
+    <mergeCell ref="AT59:AW59"/>
+    <mergeCell ref="AX59:BA59"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="J108:M108"/>
+    <mergeCell ref="N108:Q108"/>
+    <mergeCell ref="V158:Y158"/>
+    <mergeCell ref="Z158:AC158"/>
+    <mergeCell ref="AD158:AG158"/>
+    <mergeCell ref="AH158:AK158"/>
+    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="F133:I133"/>
+    <mergeCell ref="J133:M133"/>
+    <mergeCell ref="N133:Q133"/>
+    <mergeCell ref="R133:U133"/>
+    <mergeCell ref="V133:Y133"/>
+    <mergeCell ref="Z133:AC133"/>
+    <mergeCell ref="AD133:AG133"/>
+    <mergeCell ref="AH133:AK133"/>
+    <mergeCell ref="B158:E158"/>
+    <mergeCell ref="F158:I158"/>
+    <mergeCell ref="J158:M158"/>
+    <mergeCell ref="N158:Q158"/>
+    <mergeCell ref="R158:U158"/>
     <mergeCell ref="R108:U108"/>
     <mergeCell ref="CD158:CG158"/>
     <mergeCell ref="CD133:CG133"/>
@@ -28262,149 +28557,14 @@
     <mergeCell ref="BJ59:BM59"/>
     <mergeCell ref="BB59:BE59"/>
     <mergeCell ref="BN59:BQ59"/>
-    <mergeCell ref="V158:Y158"/>
-    <mergeCell ref="Z158:AC158"/>
-    <mergeCell ref="AD158:AG158"/>
-    <mergeCell ref="AH158:AK158"/>
-    <mergeCell ref="B133:E133"/>
-    <mergeCell ref="F133:I133"/>
-    <mergeCell ref="J133:M133"/>
-    <mergeCell ref="N133:Q133"/>
-    <mergeCell ref="R133:U133"/>
-    <mergeCell ref="V133:Y133"/>
-    <mergeCell ref="Z133:AC133"/>
-    <mergeCell ref="AD133:AG133"/>
-    <mergeCell ref="AH133:AK133"/>
-    <mergeCell ref="B158:E158"/>
-    <mergeCell ref="F158:I158"/>
-    <mergeCell ref="J158:M158"/>
-    <mergeCell ref="N158:Q158"/>
-    <mergeCell ref="R158:U158"/>
-    <mergeCell ref="V108:Y108"/>
-    <mergeCell ref="Z108:AC108"/>
-    <mergeCell ref="AD108:AG108"/>
-    <mergeCell ref="AH108:AK108"/>
-    <mergeCell ref="AL108:AO108"/>
-    <mergeCell ref="AP108:AS108"/>
-    <mergeCell ref="AT108:AW108"/>
-    <mergeCell ref="AX108:BA108"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="R34:U34"/>
-    <mergeCell ref="AD59:AG59"/>
-    <mergeCell ref="AH59:AK59"/>
-    <mergeCell ref="AL59:AO59"/>
-    <mergeCell ref="AP59:AS59"/>
-    <mergeCell ref="AT59:AW59"/>
-    <mergeCell ref="AX59:BA59"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="J108:M108"/>
-    <mergeCell ref="N108:Q108"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="BB34:BE34"/>
-    <mergeCell ref="BF34:BI34"/>
-    <mergeCell ref="V34:Y34"/>
-    <mergeCell ref="Z34:AC34"/>
-    <mergeCell ref="AD34:AG34"/>
-    <mergeCell ref="AH34:AK34"/>
-    <mergeCell ref="AL34:AO34"/>
-    <mergeCell ref="AP34:AS34"/>
-    <mergeCell ref="AT34:AW34"/>
-    <mergeCell ref="AX34:BA34"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="BZ158:CC158"/>
-    <mergeCell ref="BR158:BU158"/>
-    <mergeCell ref="BV158:BY158"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BV84:BY84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AL158:AO158"/>
-    <mergeCell ref="AP158:AS158"/>
-    <mergeCell ref="AT158:AW158"/>
-    <mergeCell ref="AX158:BA158"/>
-    <mergeCell ref="BJ108:BM108"/>
-    <mergeCell ref="BN108:BQ108"/>
-    <mergeCell ref="AL133:AO133"/>
-    <mergeCell ref="AP133:AS133"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BZ59:CC59"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="AT133:AW133"/>
-    <mergeCell ref="AX133:BA133"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="BR133:BU133"/>
-    <mergeCell ref="BV133:BY133"/>
-    <mergeCell ref="BZ133:CC133"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="N59:Q59"/>
-    <mergeCell ref="R59:U59"/>
-    <mergeCell ref="V59:Y59"/>
-    <mergeCell ref="Z59:AC59"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH34:CK34"/>
-    <mergeCell ref="CD59:CG59"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="CH108:CK108"/>
-    <mergeCell ref="BZ108:CC108"/>
-    <mergeCell ref="BR108:BU108"/>
-    <mergeCell ref="BR34:BU34"/>
-    <mergeCell ref="BV34:BY34"/>
-    <mergeCell ref="BV108:BY108"/>
-    <mergeCell ref="BV59:BY59"/>
-    <mergeCell ref="CL9:CM9"/>
-    <mergeCell ref="CL34:CM34"/>
-    <mergeCell ref="CH59:CI59"/>
-    <mergeCell ref="CH84:CI84"/>
-    <mergeCell ref="CL108:CM108"/>
-    <mergeCell ref="CL133:CM133"/>
-    <mergeCell ref="CL158:CM158"/>
-    <mergeCell ref="CH133:CK133"/>
-    <mergeCell ref="CH158:CK158"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="50" max="90" man="1"/>
-    <brk id="100" max="90" man="1"/>
-    <brk id="124" max="90" man="1"/>
+    <brk id="50" max="91" man="1"/>
+    <brk id="100" max="91" man="1"/>
+    <brk id="124" max="91" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-05EOS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-05EOS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C3DF31-EA59-43AD-ADED-27B3819A7DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3A1B69-B6BB-49A6-9992-4AF6E4671BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14685" yWindow="2430" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EOS" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">EOS!$A$37:$A$48</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EOS!$A$1:$CN$174</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EOS!$A$1:$CO$174</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="56">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -216,13 +216,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2022</t>
+    <t>As of January 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2022</t>
+    <t>Q1 2000 to Q4 2022</t>
   </si>
   <si>
-    <t>As of November 2022</t>
+    <t>Q1 2001 to Q4 2022</t>
   </si>
 </sst>
 </file>
@@ -312,7 +312,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -341,9 +341,6 @@
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -372,7 +369,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="HFCE"/>
@@ -673,7 +670,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -686,20 +683,20 @@
   </sheetPr>
   <dimension ref="A1:EU174"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="95" zoomScaleNormal="95" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="CG3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="95" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="CD3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="CH1" sqref="CH1:CN1048576"/>
+      <selection pane="bottomRight" activeCell="CH1" sqref="CH1:CO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.77734375" style="1" customWidth="1"/>
     <col min="2" max="73" width="8.77734375" style="1" customWidth="1"/>
-    <col min="74" max="92" width="10" style="1" customWidth="1"/>
-    <col min="93" max="16384" width="7.77734375" style="1"/>
+    <col min="74" max="93" width="10" style="1" customWidth="1"/>
+    <col min="94" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:151" x14ac:dyDescent="0.2">
@@ -714,7 +711,7 @@
     </row>
     <row r="3" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:151" x14ac:dyDescent="0.2">
@@ -724,7 +721,7 @@
     </row>
     <row r="6" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:151" x14ac:dyDescent="0.2">
@@ -734,143 +731,144 @@
     </row>
     <row r="9" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="22">
+      <c r="B9" s="19">
         <v>2000</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19">
         <v>2001</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22">
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19">
         <v>2002</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22">
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19">
         <v>2003</v>
       </c>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22">
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19">
         <v>2004</v>
       </c>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22">
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19">
         <v>2005</v>
       </c>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22">
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19">
         <v>2006</v>
       </c>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22">
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19">
         <v>2007</v>
       </c>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22">
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19">
         <v>2008</v>
       </c>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="22"/>
-      <c r="AL9" s="22">
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19">
         <v>2009</v>
       </c>
-      <c r="AM9" s="22"/>
-      <c r="AN9" s="22"/>
-      <c r="AO9" s="22"/>
-      <c r="AP9" s="22">
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="19"/>
+      <c r="AP9" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="22"/>
-      <c r="AR9" s="22"/>
-      <c r="AS9" s="22"/>
-      <c r="AT9" s="22">
+      <c r="AQ9" s="19"/>
+      <c r="AR9" s="19"/>
+      <c r="AS9" s="19"/>
+      <c r="AT9" s="19">
         <v>2011</v>
       </c>
-      <c r="AU9" s="22"/>
-      <c r="AV9" s="22"/>
-      <c r="AW9" s="22"/>
-      <c r="AX9" s="22">
+      <c r="AU9" s="19"/>
+      <c r="AV9" s="19"/>
+      <c r="AW9" s="19"/>
+      <c r="AX9" s="19">
         <v>2012</v>
       </c>
-      <c r="AY9" s="22"/>
-      <c r="AZ9" s="22"/>
-      <c r="BA9" s="22"/>
-      <c r="BB9" s="22">
+      <c r="AY9" s="19"/>
+      <c r="AZ9" s="19"/>
+      <c r="BA9" s="19"/>
+      <c r="BB9" s="19">
         <v>2013</v>
       </c>
-      <c r="BC9" s="22"/>
-      <c r="BD9" s="22"/>
-      <c r="BE9" s="22"/>
-      <c r="BF9" s="22">
+      <c r="BC9" s="19"/>
+      <c r="BD9" s="19"/>
+      <c r="BE9" s="19"/>
+      <c r="BF9" s="19">
         <v>2014</v>
       </c>
-      <c r="BG9" s="22"/>
-      <c r="BH9" s="22"/>
-      <c r="BI9" s="22"/>
-      <c r="BJ9" s="22">
+      <c r="BG9" s="19"/>
+      <c r="BH9" s="19"/>
+      <c r="BI9" s="19"/>
+      <c r="BJ9" s="19">
         <v>2015</v>
       </c>
-      <c r="BK9" s="22"/>
-      <c r="BL9" s="22"/>
-      <c r="BM9" s="22"/>
-      <c r="BN9" s="22">
+      <c r="BK9" s="19"/>
+      <c r="BL9" s="19"/>
+      <c r="BM9" s="19"/>
+      <c r="BN9" s="19">
         <v>2016</v>
       </c>
-      <c r="BO9" s="22"/>
-      <c r="BP9" s="22"/>
-      <c r="BQ9" s="22"/>
-      <c r="BR9" s="22">
+      <c r="BO9" s="19"/>
+      <c r="BP9" s="19"/>
+      <c r="BQ9" s="19"/>
+      <c r="BR9" s="19">
         <v>2017</v>
       </c>
-      <c r="BS9" s="22"/>
-      <c r="BT9" s="22"/>
-      <c r="BU9" s="22"/>
-      <c r="BV9" s="22">
+      <c r="BS9" s="19"/>
+      <c r="BT9" s="19"/>
+      <c r="BU9" s="19"/>
+      <c r="BV9" s="19">
         <v>2018</v>
       </c>
-      <c r="BW9" s="22"/>
-      <c r="BX9" s="22"/>
-      <c r="BY9" s="22"/>
-      <c r="BZ9" s="22">
+      <c r="BW9" s="19"/>
+      <c r="BX9" s="19"/>
+      <c r="BY9" s="19"/>
+      <c r="BZ9" s="19">
         <v>2019</v>
       </c>
-      <c r="CA9" s="22"/>
-      <c r="CB9" s="22"/>
-      <c r="CC9" s="22"/>
-      <c r="CD9" s="22">
+      <c r="CA9" s="19"/>
+      <c r="CB9" s="19"/>
+      <c r="CC9" s="19"/>
+      <c r="CD9" s="19">
         <v>2020</v>
       </c>
-      <c r="CE9" s="22"/>
-      <c r="CF9" s="22"/>
-      <c r="CG9" s="22"/>
-      <c r="CH9" s="22">
+      <c r="CE9" s="19"/>
+      <c r="CF9" s="19"/>
+      <c r="CG9" s="19"/>
+      <c r="CH9" s="19">
         <v>2021</v>
       </c>
-      <c r="CI9" s="22"/>
-      <c r="CJ9" s="22"/>
-      <c r="CK9" s="22"/>
-      <c r="CL9" s="22">
+      <c r="CI9" s="19"/>
+      <c r="CJ9" s="19"/>
+      <c r="CK9" s="19"/>
+      <c r="CL9" s="19">
         <v>2022</v>
       </c>
-      <c r="CM9" s="22"/>
-      <c r="CN9" s="22"/>
+      <c r="CM9" s="19"/>
+      <c r="CN9" s="19"/>
+      <c r="CO9" s="19"/>
     </row>
     <row r="10" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
@@ -1146,6 +1144,9 @@
       </c>
       <c r="CN10" s="5" t="s">
         <v>9</v>
+      </c>
+      <c r="CO10" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1407,28 +1408,30 @@
       <c r="CG12" s="7">
         <v>22216.480801235044</v>
       </c>
-      <c r="CH12" s="18">
+      <c r="CH12" s="7">
         <v>21033.793561145554</v>
       </c>
-      <c r="CI12" s="18">
+      <c r="CI12" s="7">
         <v>18620.122244720733</v>
       </c>
-      <c r="CJ12" s="18">
+      <c r="CJ12" s="7">
         <v>26603.035473364289</v>
       </c>
-      <c r="CK12" s="18">
+      <c r="CK12" s="7">
         <v>30251.874477730737</v>
       </c>
-      <c r="CL12" s="18">
+      <c r="CL12" s="7">
         <v>50258.560429231249</v>
       </c>
-      <c r="CM12" s="18">
+      <c r="CM12" s="7">
         <v>33139.468201854463</v>
       </c>
-      <c r="CN12" s="18">
-        <v>43217.206854579359</v>
-      </c>
-      <c r="CO12" s="8"/>
+      <c r="CN12" s="7">
+        <v>47100.625898760809</v>
+      </c>
+      <c r="CO12" s="7">
+        <v>57930.409105300379</v>
+      </c>
       <c r="CP12" s="8"/>
       <c r="CQ12" s="8"/>
       <c r="CR12" s="8"/>
@@ -1744,28 +1747,30 @@
       <c r="CG13" s="7">
         <v>764.01571953703251</v>
       </c>
-      <c r="CH13" s="18">
+      <c r="CH13" s="7">
         <v>494.94355919274147</v>
       </c>
-      <c r="CI13" s="18">
+      <c r="CI13" s="7">
         <v>373.40447089070352</v>
       </c>
-      <c r="CJ13" s="18">
+      <c r="CJ13" s="7">
         <v>784.47112518823997</v>
       </c>
-      <c r="CK13" s="18">
+      <c r="CK13" s="7">
         <v>830.4420663112827</v>
       </c>
-      <c r="CL13" s="18">
+      <c r="CL13" s="7">
         <v>585.8994176014229</v>
       </c>
-      <c r="CM13" s="18">
+      <c r="CM13" s="7">
         <v>428.54422513630175</v>
       </c>
-      <c r="CN13" s="18">
-        <v>879.23593363272391</v>
-      </c>
-      <c r="CO13" s="8"/>
+      <c r="CN13" s="7">
+        <v>899.71179006084117</v>
+      </c>
+      <c r="CO13" s="7">
+        <v>1087.3279799203588</v>
+      </c>
       <c r="CP13" s="8"/>
       <c r="CQ13" s="8"/>
       <c r="CR13" s="8"/>
@@ -2081,28 +2086,30 @@
       <c r="CG14" s="7">
         <v>8252.2359478950566</v>
       </c>
-      <c r="CH14" s="18">
+      <c r="CH14" s="7">
         <v>1824.7826860301004</v>
       </c>
-      <c r="CI14" s="18">
+      <c r="CI14" s="7">
         <v>29756.647764917354</v>
       </c>
-      <c r="CJ14" s="18">
+      <c r="CJ14" s="7">
         <v>23926.254159618922</v>
       </c>
-      <c r="CK14" s="18">
+      <c r="CK14" s="7">
         <v>13235.535014912855</v>
       </c>
-      <c r="CL14" s="18">
+      <c r="CL14" s="7">
         <v>17456.163863680598</v>
       </c>
-      <c r="CM14" s="18">
+      <c r="CM14" s="7">
         <v>66283.591438967225</v>
       </c>
-      <c r="CN14" s="18">
+      <c r="CN14" s="7">
         <v>105311.49157059008</v>
       </c>
-      <c r="CO14" s="8"/>
+      <c r="CO14" s="7">
+        <v>64203.136054041541</v>
+      </c>
       <c r="CP14" s="8"/>
       <c r="CQ14" s="8"/>
       <c r="CR14" s="8"/>
@@ -2418,28 +2425,30 @@
       <c r="CG15" s="7">
         <v>2462.0720387274218</v>
       </c>
-      <c r="CH15" s="18">
+      <c r="CH15" s="7">
         <v>3176.1164861084762</v>
       </c>
-      <c r="CI15" s="18">
+      <c r="CI15" s="7">
         <v>3438.8113492011862</v>
       </c>
-      <c r="CJ15" s="18">
+      <c r="CJ15" s="7">
         <v>3776.489155427616</v>
       </c>
-      <c r="CK15" s="18">
+      <c r="CK15" s="7">
         <v>3766.3361559899336</v>
       </c>
-      <c r="CL15" s="18">
+      <c r="CL15" s="7">
         <v>3348.254398481552</v>
       </c>
-      <c r="CM15" s="18">
+      <c r="CM15" s="7">
         <v>3614.5559700248496</v>
       </c>
-      <c r="CN15" s="18">
+      <c r="CN15" s="7">
         <v>3957.2414924143222</v>
       </c>
-      <c r="CO15" s="8"/>
+      <c r="CO15" s="7">
+        <v>3973.6460348422115</v>
+      </c>
       <c r="CP15" s="8"/>
       <c r="CQ15" s="8"/>
       <c r="CR15" s="8"/>
@@ -2755,28 +2764,30 @@
       <c r="CG16" s="7">
         <v>63032.484317865848</v>
       </c>
-      <c r="CH16" s="18">
+      <c r="CH16" s="7">
         <v>109197.40960693023</v>
       </c>
-      <c r="CI16" s="18">
+      <c r="CI16" s="7">
         <v>104767.58928580767</v>
       </c>
-      <c r="CJ16" s="18">
+      <c r="CJ16" s="7">
         <v>69917.210739065209</v>
       </c>
-      <c r="CK16" s="18">
+      <c r="CK16" s="7">
         <v>71687.597244250457</v>
       </c>
-      <c r="CL16" s="18">
+      <c r="CL16" s="7">
         <v>119249.64583015742</v>
       </c>
-      <c r="CM16" s="18">
+      <c r="CM16" s="7">
         <v>115547.1899997116</v>
       </c>
-      <c r="CN16" s="18">
-        <v>86613.84807447737</v>
-      </c>
-      <c r="CO16" s="8"/>
+      <c r="CN16" s="7">
+        <v>86679.396652543262</v>
+      </c>
+      <c r="CO16" s="7">
+        <v>82442.991612176251</v>
+      </c>
       <c r="CP16" s="8"/>
       <c r="CQ16" s="8"/>
       <c r="CR16" s="8"/>
@@ -3092,28 +3103,30 @@
       <c r="CG17" s="7">
         <v>265829.70707802282</v>
       </c>
-      <c r="CH17" s="18">
+      <c r="CH17" s="7">
         <v>351110.89551138802</v>
       </c>
-      <c r="CI17" s="18">
+      <c r="CI17" s="7">
         <v>354259.84603114275</v>
       </c>
-      <c r="CJ17" s="18">
+      <c r="CJ17" s="7">
         <v>261571.11927991663</v>
       </c>
-      <c r="CK17" s="18">
+      <c r="CK17" s="7">
         <v>292354.81528290245</v>
       </c>
-      <c r="CL17" s="18">
+      <c r="CL17" s="7">
         <v>404523.9111191493</v>
       </c>
-      <c r="CM17" s="18">
+      <c r="CM17" s="7">
         <v>413962.86167124903</v>
       </c>
-      <c r="CN17" s="18">
-        <v>328287.92511520284</v>
-      </c>
-      <c r="CO17" s="8"/>
+      <c r="CN17" s="7">
+        <v>324997.45571864391</v>
+      </c>
+      <c r="CO17" s="7">
+        <v>327757.84519779845</v>
+      </c>
       <c r="CP17" s="8"/>
       <c r="CQ17" s="8"/>
       <c r="CR17" s="8"/>
@@ -3429,28 +3442,30 @@
       <c r="CG18" s="7">
         <v>42373.462819087537</v>
       </c>
-      <c r="CH18" s="18">
+      <c r="CH18" s="7">
         <v>72915.18059972288</v>
       </c>
-      <c r="CI18" s="18">
+      <c r="CI18" s="7">
         <v>74563.954960931631</v>
       </c>
-      <c r="CJ18" s="18">
+      <c r="CJ18" s="7">
         <v>52823.822989122251</v>
       </c>
-      <c r="CK18" s="18">
+      <c r="CK18" s="7">
         <v>54093.085107005565</v>
       </c>
-      <c r="CL18" s="18">
+      <c r="CL18" s="7">
         <v>85078.686739903889</v>
       </c>
-      <c r="CM18" s="18">
+      <c r="CM18" s="7">
         <v>81053.824402224651</v>
       </c>
-      <c r="CN18" s="18">
-        <v>48660.04313149958</v>
-      </c>
-      <c r="CO18" s="8"/>
+      <c r="CN18" s="7">
+        <v>52754.874364057599</v>
+      </c>
+      <c r="CO18" s="7">
+        <v>64278.232171322059</v>
+      </c>
       <c r="CP18" s="8"/>
       <c r="CQ18" s="8"/>
       <c r="CR18" s="8"/>
@@ -3766,28 +3781,30 @@
       <c r="CG19" s="7">
         <v>4400.8441803208916</v>
       </c>
-      <c r="CH19" s="18">
+      <c r="CH19" s="7">
         <v>5517.5954396211473</v>
       </c>
-      <c r="CI19" s="18">
+      <c r="CI19" s="7">
         <v>7227.2269652881387</v>
       </c>
-      <c r="CJ19" s="18">
+      <c r="CJ19" s="7">
         <v>7609.4855653468167</v>
       </c>
-      <c r="CK19" s="18">
+      <c r="CK19" s="7">
         <v>9079.7759989805163</v>
       </c>
-      <c r="CL19" s="18">
+      <c r="CL19" s="7">
         <v>6829.4635405949539</v>
       </c>
-      <c r="CM19" s="18">
+      <c r="CM19" s="7">
         <v>9475.4469136321841</v>
       </c>
-      <c r="CN19" s="18">
-        <v>12638.320907460035</v>
-      </c>
-      <c r="CO19" s="8"/>
+      <c r="CN19" s="7">
+        <v>10463.323286919072</v>
+      </c>
+      <c r="CO19" s="7">
+        <v>15827.44440426162</v>
+      </c>
       <c r="CP19" s="8"/>
       <c r="CQ19" s="8"/>
       <c r="CR19" s="8"/>
@@ -4255,28 +4272,30 @@
       <c r="CG21" s="10">
         <v>409331.30290269171</v>
       </c>
-      <c r="CH21" s="19">
+      <c r="CH21" s="10">
         <v>565270.71745013911</v>
       </c>
-      <c r="CI21" s="19">
+      <c r="CI21" s="10">
         <v>593007.60307290021</v>
       </c>
-      <c r="CJ21" s="19">
+      <c r="CJ21" s="10">
         <v>447011.88848705002</v>
       </c>
-      <c r="CK21" s="19">
+      <c r="CK21" s="10">
         <v>475299.4613480838</v>
       </c>
-      <c r="CL21" s="19">
+      <c r="CL21" s="10">
         <v>687330.58533880033</v>
       </c>
-      <c r="CM21" s="19">
+      <c r="CM21" s="10">
         <v>723505.48282280029</v>
       </c>
-      <c r="CN21" s="19">
-        <v>629565.31307985634</v>
-      </c>
-      <c r="CO21" s="8"/>
+      <c r="CN21" s="10">
+        <v>632164.12077398982</v>
+      </c>
+      <c r="CO21" s="10">
+        <v>617501.03255966294</v>
+      </c>
       <c r="CP21" s="8"/>
       <c r="CQ21" s="8"/>
       <c r="CR21" s="8"/>
@@ -4429,6 +4448,7 @@
       <c r="CL22" s="11"/>
       <c r="CM22" s="11"/>
       <c r="CN22" s="11"/>
+      <c r="CO22" s="11"/>
     </row>
     <row r="23" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
@@ -4751,7 +4771,7 @@
     </row>
     <row r="28" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:151" x14ac:dyDescent="0.2">
@@ -4761,7 +4781,7 @@
     </row>
     <row r="31" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:151" x14ac:dyDescent="0.2">
@@ -4771,143 +4791,144 @@
     </row>
     <row r="34" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="21">
+      <c r="B34" s="18">
         <v>2000</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21">
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18">
         <v>2001</v>
       </c>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21">
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18">
         <v>2002</v>
       </c>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21">
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18">
         <v>2003</v>
       </c>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21">
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18">
         <v>2004</v>
       </c>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="21">
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18">
         <v>2005</v>
       </c>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="21"/>
-      <c r="Z34" s="21">
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
+      <c r="Y34" s="18"/>
+      <c r="Z34" s="18">
         <v>2006</v>
       </c>
-      <c r="AA34" s="21"/>
-      <c r="AB34" s="21"/>
-      <c r="AC34" s="21"/>
-      <c r="AD34" s="21">
+      <c r="AA34" s="18"/>
+      <c r="AB34" s="18"/>
+      <c r="AC34" s="18"/>
+      <c r="AD34" s="18">
         <v>2007</v>
       </c>
-      <c r="AE34" s="21"/>
-      <c r="AF34" s="21"/>
-      <c r="AG34" s="21"/>
-      <c r="AH34" s="21">
+      <c r="AE34" s="18"/>
+      <c r="AF34" s="18"/>
+      <c r="AG34" s="18"/>
+      <c r="AH34" s="18">
         <v>2008</v>
       </c>
-      <c r="AI34" s="21"/>
-      <c r="AJ34" s="21"/>
-      <c r="AK34" s="21"/>
-      <c r="AL34" s="21">
+      <c r="AI34" s="18"/>
+      <c r="AJ34" s="18"/>
+      <c r="AK34" s="18"/>
+      <c r="AL34" s="18">
         <v>2009</v>
       </c>
-      <c r="AM34" s="21"/>
-      <c r="AN34" s="21"/>
-      <c r="AO34" s="21"/>
-      <c r="AP34" s="21">
+      <c r="AM34" s="18"/>
+      <c r="AN34" s="18"/>
+      <c r="AO34" s="18"/>
+      <c r="AP34" s="18">
         <v>2010</v>
       </c>
-      <c r="AQ34" s="21"/>
-      <c r="AR34" s="21"/>
-      <c r="AS34" s="21"/>
-      <c r="AT34" s="21">
+      <c r="AQ34" s="18"/>
+      <c r="AR34" s="18"/>
+      <c r="AS34" s="18"/>
+      <c r="AT34" s="18">
         <v>2011</v>
       </c>
-      <c r="AU34" s="21"/>
-      <c r="AV34" s="21"/>
-      <c r="AW34" s="21"/>
-      <c r="AX34" s="21">
+      <c r="AU34" s="18"/>
+      <c r="AV34" s="18"/>
+      <c r="AW34" s="18"/>
+      <c r="AX34" s="18">
         <v>2012</v>
       </c>
-      <c r="AY34" s="21"/>
-      <c r="AZ34" s="21"/>
-      <c r="BA34" s="21"/>
-      <c r="BB34" s="21">
+      <c r="AY34" s="18"/>
+      <c r="AZ34" s="18"/>
+      <c r="BA34" s="18"/>
+      <c r="BB34" s="18">
         <v>2013</v>
       </c>
-      <c r="BC34" s="21"/>
-      <c r="BD34" s="21"/>
-      <c r="BE34" s="21"/>
-      <c r="BF34" s="21">
+      <c r="BC34" s="18"/>
+      <c r="BD34" s="18"/>
+      <c r="BE34" s="18"/>
+      <c r="BF34" s="18">
         <v>2014</v>
       </c>
-      <c r="BG34" s="21"/>
-      <c r="BH34" s="21"/>
-      <c r="BI34" s="21"/>
-      <c r="BJ34" s="21">
+      <c r="BG34" s="18"/>
+      <c r="BH34" s="18"/>
+      <c r="BI34" s="18"/>
+      <c r="BJ34" s="18">
         <v>2015</v>
       </c>
-      <c r="BK34" s="21"/>
-      <c r="BL34" s="21"/>
-      <c r="BM34" s="21"/>
-      <c r="BN34" s="21">
+      <c r="BK34" s="18"/>
+      <c r="BL34" s="18"/>
+      <c r="BM34" s="18"/>
+      <c r="BN34" s="18">
         <v>2016</v>
       </c>
-      <c r="BO34" s="21"/>
-      <c r="BP34" s="21"/>
-      <c r="BQ34" s="21"/>
-      <c r="BR34" s="21">
+      <c r="BO34" s="18"/>
+      <c r="BP34" s="18"/>
+      <c r="BQ34" s="18"/>
+      <c r="BR34" s="18">
         <v>2017</v>
       </c>
-      <c r="BS34" s="21"/>
-      <c r="BT34" s="21"/>
-      <c r="BU34" s="21"/>
-      <c r="BV34" s="21">
+      <c r="BS34" s="18"/>
+      <c r="BT34" s="18"/>
+      <c r="BU34" s="18"/>
+      <c r="BV34" s="18">
         <v>2018</v>
       </c>
-      <c r="BW34" s="21"/>
-      <c r="BX34" s="21"/>
-      <c r="BY34" s="21"/>
-      <c r="BZ34" s="21">
+      <c r="BW34" s="18"/>
+      <c r="BX34" s="18"/>
+      <c r="BY34" s="18"/>
+      <c r="BZ34" s="18">
         <v>2019</v>
       </c>
-      <c r="CA34" s="21"/>
-      <c r="CB34" s="21"/>
-      <c r="CC34" s="21"/>
-      <c r="CD34" s="21">
+      <c r="CA34" s="18"/>
+      <c r="CB34" s="18"/>
+      <c r="CC34" s="18"/>
+      <c r="CD34" s="18">
         <v>2020</v>
       </c>
-      <c r="CE34" s="21"/>
-      <c r="CF34" s="21"/>
-      <c r="CG34" s="21"/>
-      <c r="CH34" s="22">
+      <c r="CE34" s="18"/>
+      <c r="CF34" s="18"/>
+      <c r="CG34" s="18"/>
+      <c r="CH34" s="18">
         <v>2021</v>
       </c>
-      <c r="CI34" s="22"/>
-      <c r="CJ34" s="22"/>
-      <c r="CK34" s="22"/>
-      <c r="CL34" s="22">
+      <c r="CI34" s="18"/>
+      <c r="CJ34" s="18"/>
+      <c r="CK34" s="18"/>
+      <c r="CL34" s="18">
         <v>2022</v>
       </c>
-      <c r="CM34" s="22"/>
-      <c r="CN34" s="22"/>
+      <c r="CM34" s="18"/>
+      <c r="CN34" s="18"/>
+      <c r="CO34" s="18"/>
     </row>
     <row r="35" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
@@ -5183,6 +5204,9 @@
       </c>
       <c r="CN35" s="13" t="s">
         <v>9</v>
+      </c>
+      <c r="CO35" s="13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -5444,28 +5468,30 @@
       <c r="CG37" s="7">
         <v>20102.093872421516</v>
       </c>
-      <c r="CH37" s="18">
+      <c r="CH37" s="7">
         <v>18133.884870985134</v>
       </c>
-      <c r="CI37" s="18">
+      <c r="CI37" s="7">
         <v>17167.279983151406</v>
       </c>
-      <c r="CJ37" s="18">
+      <c r="CJ37" s="7">
         <v>23959.557073342527</v>
       </c>
-      <c r="CK37" s="18">
+      <c r="CK37" s="7">
         <v>25500.702059504361</v>
       </c>
-      <c r="CL37" s="18">
+      <c r="CL37" s="7">
         <v>39857.243233758119</v>
       </c>
-      <c r="CM37" s="18">
+      <c r="CM37" s="7">
         <v>26592.451526848847</v>
       </c>
-      <c r="CN37" s="18">
-        <v>33632.696464730521</v>
-      </c>
-      <c r="CO37" s="8"/>
+      <c r="CN37" s="7">
+        <v>36654.868961851753</v>
+      </c>
+      <c r="CO37" s="7">
+        <v>43546.191932634538</v>
+      </c>
       <c r="CP37" s="8"/>
       <c r="CQ37" s="8"/>
       <c r="CR37" s="8"/>
@@ -5781,28 +5807,30 @@
       <c r="CG38" s="7">
         <v>738.78384769964555</v>
       </c>
-      <c r="CH38" s="18">
+      <c r="CH38" s="7">
         <v>461.39897232210484</v>
       </c>
-      <c r="CI38" s="18">
+      <c r="CI38" s="7">
         <v>346.9851863026928</v>
       </c>
-      <c r="CJ38" s="18">
+      <c r="CJ38" s="7">
         <v>717.95989494133323</v>
       </c>
-      <c r="CK38" s="18">
+      <c r="CK38" s="7">
         <v>773.13460196769609</v>
       </c>
-      <c r="CL38" s="18">
+      <c r="CL38" s="7">
         <v>523.68374140701815</v>
       </c>
-      <c r="CM38" s="18">
+      <c r="CM38" s="7">
         <v>376.77337612162671</v>
       </c>
-      <c r="CN38" s="18">
-        <v>757.61715954279009</v>
-      </c>
-      <c r="CO38" s="8"/>
+      <c r="CN38" s="7">
+        <v>775.26072891123249</v>
+      </c>
+      <c r="CO38" s="7">
+        <v>950.31142897860434</v>
+      </c>
       <c r="CP38" s="8"/>
       <c r="CQ38" s="8"/>
       <c r="CR38" s="8"/>
@@ -6118,28 +6146,30 @@
       <c r="CG39" s="7">
         <v>7924.9178789822236</v>
       </c>
-      <c r="CH39" s="18">
+      <c r="CH39" s="7">
         <v>1662.6424547885979</v>
       </c>
-      <c r="CI39" s="18">
+      <c r="CI39" s="7">
         <v>27136.973094335204</v>
       </c>
-      <c r="CJ39" s="18">
+      <c r="CJ39" s="7">
         <v>21592.900004147494</v>
       </c>
-      <c r="CK39" s="18">
+      <c r="CK39" s="7">
         <v>12202.689945533572</v>
       </c>
-      <c r="CL39" s="18">
+      <c r="CL39" s="7">
         <v>15389.064093647212</v>
       </c>
-      <c r="CM39" s="18">
+      <c r="CM39" s="7">
         <v>57321.791102132127</v>
       </c>
-      <c r="CN39" s="18">
+      <c r="CN39" s="7">
         <v>89211.882351201872</v>
       </c>
-      <c r="CO39" s="8"/>
+      <c r="CO39" s="7">
+        <v>54857.258251901527</v>
+      </c>
       <c r="CP39" s="8"/>
       <c r="CQ39" s="8"/>
       <c r="CR39" s="8"/>
@@ -6455,28 +6485,30 @@
       <c r="CG40" s="7">
         <v>2329.5726083375725</v>
       </c>
-      <c r="CH40" s="18">
+      <c r="CH40" s="7">
         <v>3031.8880922507747</v>
       </c>
-      <c r="CI40" s="18">
+      <c r="CI40" s="7">
         <v>3280.2710999783162</v>
       </c>
-      <c r="CJ40" s="18">
+      <c r="CJ40" s="7">
         <v>3529.4697269102967</v>
       </c>
-      <c r="CK40" s="18">
+      <c r="CK40" s="7">
         <v>3454.4327633529815</v>
       </c>
-      <c r="CL40" s="18">
+      <c r="CL40" s="7">
         <v>3083.4697372408427</v>
       </c>
-      <c r="CM40" s="18">
+      <c r="CM40" s="7">
         <v>3286.5504481939315</v>
       </c>
-      <c r="CN40" s="18">
+      <c r="CN40" s="7">
         <v>3516.3866208110007</v>
       </c>
-      <c r="CO40" s="8"/>
+      <c r="CO40" s="7">
+        <v>3439.289410458297</v>
+      </c>
       <c r="CP40" s="8"/>
       <c r="CQ40" s="8"/>
       <c r="CR40" s="8"/>
@@ -6792,28 +6824,30 @@
       <c r="CG41" s="7">
         <v>63693.472845714576</v>
       </c>
-      <c r="CH41" s="18">
+      <c r="CH41" s="7">
         <v>107918.00540295031</v>
       </c>
-      <c r="CI41" s="18">
+      <c r="CI41" s="7">
         <v>103557.39473418298</v>
       </c>
-      <c r="CJ41" s="18">
+      <c r="CJ41" s="7">
         <v>68778.411050953422</v>
       </c>
-      <c r="CK41" s="18">
+      <c r="CK41" s="7">
         <v>72273.852798895867</v>
       </c>
-      <c r="CL41" s="18">
+      <c r="CL41" s="7">
         <v>117081.671165216</v>
       </c>
-      <c r="CM41" s="18">
+      <c r="CM41" s="7">
         <v>113306.89320915419</v>
       </c>
-      <c r="CN41" s="18">
-        <v>84813.532645284067</v>
-      </c>
-      <c r="CO41" s="8"/>
+      <c r="CN41" s="7">
+        <v>84877.718760890682</v>
+      </c>
+      <c r="CO41" s="7">
+        <v>82602.982806572036</v>
+      </c>
       <c r="CP41" s="8"/>
       <c r="CQ41" s="8"/>
       <c r="CR41" s="8"/>
@@ -7129,28 +7163,30 @@
       <c r="CG42" s="7">
         <v>252483.50553565435</v>
       </c>
-      <c r="CH42" s="18">
+      <c r="CH42" s="7">
         <v>321733.17051243625</v>
       </c>
-      <c r="CI42" s="18">
+      <c r="CI42" s="7">
         <v>339770.25821722258</v>
       </c>
-      <c r="CJ42" s="18">
+      <c r="CJ42" s="7">
         <v>239509.72841806503</v>
       </c>
-      <c r="CK42" s="18">
+      <c r="CK42" s="7">
         <v>267343.98843610822</v>
       </c>
-      <c r="CL42" s="18">
+      <c r="CL42" s="7">
         <v>355402.77002643788</v>
       </c>
-      <c r="CM42" s="18">
+      <c r="CM42" s="7">
         <v>359212.88495404937</v>
       </c>
-      <c r="CN42" s="18">
-        <v>283014.98272622202</v>
-      </c>
-      <c r="CO42" s="8"/>
+      <c r="CN42" s="7">
+        <v>280178.28948171262</v>
+      </c>
+      <c r="CO42" s="7">
+        <v>281366.82214230852</v>
+      </c>
       <c r="CP42" s="8"/>
       <c r="CQ42" s="8"/>
       <c r="CR42" s="8"/>
@@ -7466,28 +7502,30 @@
       <c r="CG43" s="7">
         <v>41067.937424928037</v>
       </c>
-      <c r="CH43" s="18">
+      <c r="CH43" s="7">
         <v>67936.12376372813</v>
       </c>
-      <c r="CI43" s="18">
+      <c r="CI43" s="7">
         <v>69342.696786653614</v>
       </c>
-      <c r="CJ43" s="18">
+      <c r="CJ43" s="7">
         <v>48427.917785896192</v>
       </c>
-      <c r="CK43" s="18">
+      <c r="CK43" s="7">
         <v>50475.584794779723</v>
       </c>
-      <c r="CL43" s="18">
+      <c r="CL43" s="7">
         <v>76002.637554614368</v>
       </c>
-      <c r="CM43" s="18">
+      <c r="CM43" s="7">
         <v>71850.412547882705</v>
       </c>
-      <c r="CN43" s="18">
-        <v>42000.997810433466</v>
-      </c>
-      <c r="CO43" s="8"/>
+      <c r="CN43" s="7">
+        <v>45535.458254045974</v>
+      </c>
+      <c r="CO43" s="7">
+        <v>56307.098669662613</v>
+      </c>
       <c r="CP43" s="8"/>
       <c r="CQ43" s="8"/>
       <c r="CR43" s="8"/>
@@ -7803,28 +7841,30 @@
       <c r="CG44" s="7">
         <v>4261.0277699794169</v>
       </c>
-      <c r="CH44" s="18">
+      <c r="CH44" s="7">
         <v>5137.968924421375</v>
       </c>
-      <c r="CI44" s="18">
+      <c r="CI44" s="7">
         <v>6701.7608114885679</v>
       </c>
-      <c r="CJ44" s="18">
+      <c r="CJ44" s="7">
         <v>6969.0677239534634</v>
       </c>
-      <c r="CK44" s="18">
+      <c r="CK44" s="7">
         <v>8464.1661527716096</v>
       </c>
-      <c r="CL44" s="18">
+      <c r="CL44" s="7">
         <v>6097.5207750723184</v>
       </c>
-      <c r="CM44" s="18">
+      <c r="CM44" s="7">
         <v>8375.3100912907576</v>
       </c>
-      <c r="CN44" s="18">
-        <v>10897.576261961607</v>
-      </c>
-      <c r="CO44" s="8"/>
+      <c r="CN44" s="7">
+        <v>9022.1528878455538</v>
+      </c>
+      <c r="CO44" s="7">
+        <v>13850.946778152134</v>
+      </c>
       <c r="CP44" s="8"/>
       <c r="CQ44" s="8"/>
       <c r="CR44" s="8"/>
@@ -8292,28 +8332,30 @@
       <c r="CG46" s="10">
         <v>392601.31178371736</v>
       </c>
-      <c r="CH46" s="19">
+      <c r="CH46" s="10">
         <v>526015.08299388271</v>
       </c>
-      <c r="CI46" s="19">
+      <c r="CI46" s="10">
         <v>567303.6199133154</v>
       </c>
-      <c r="CJ46" s="19">
+      <c r="CJ46" s="10">
         <v>413485.01167820982</v>
       </c>
-      <c r="CK46" s="19">
+      <c r="CK46" s="10">
         <v>440488.55155291402</v>
       </c>
-      <c r="CL46" s="19">
+      <c r="CL46" s="10">
         <v>613438.0603273937</v>
       </c>
-      <c r="CM46" s="19">
+      <c r="CM46" s="10">
         <v>640323.06725567358</v>
       </c>
-      <c r="CN46" s="19">
-        <v>547845.6720401874</v>
-      </c>
-      <c r="CO46" s="8"/>
+      <c r="CN46" s="10">
+        <v>549772.0180472706</v>
+      </c>
+      <c r="CO46" s="10">
+        <v>536920.90142066823</v>
+      </c>
       <c r="CP46" s="8"/>
       <c r="CQ46" s="8"/>
       <c r="CR46" s="8"/>
@@ -8466,6 +8508,7 @@
       <c r="CL47" s="11"/>
       <c r="CM47" s="11"/>
       <c r="CN47" s="11"/>
+      <c r="CO47" s="11"/>
     </row>
     <row r="48" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
@@ -8788,7 +8831,7 @@
     </row>
     <row r="53" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:151" x14ac:dyDescent="0.2">
@@ -8798,7 +8841,7 @@
     </row>
     <row r="56" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:151" x14ac:dyDescent="0.2">
@@ -8808,141 +8851,142 @@
     </row>
     <row r="59" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22" t="s">
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22" t="s">
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="22" t="s">
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="O59" s="22"/>
-      <c r="P59" s="22"/>
-      <c r="Q59" s="22"/>
-      <c r="R59" s="22" t="s">
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="S59" s="22"/>
-      <c r="T59" s="22"/>
-      <c r="U59" s="22"/>
-      <c r="V59" s="22" t="s">
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="W59" s="22"/>
-      <c r="X59" s="22"/>
-      <c r="Y59" s="22"/>
-      <c r="Z59" s="22" t="s">
+      <c r="W59" s="19"/>
+      <c r="X59" s="19"/>
+      <c r="Y59" s="19"/>
+      <c r="Z59" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AA59" s="22"/>
-      <c r="AB59" s="22"/>
-      <c r="AC59" s="22"/>
-      <c r="AD59" s="22" t="s">
+      <c r="AA59" s="19"/>
+      <c r="AB59" s="19"/>
+      <c r="AC59" s="19"/>
+      <c r="AD59" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AE59" s="22"/>
-      <c r="AF59" s="22"/>
-      <c r="AG59" s="22"/>
-      <c r="AH59" s="22" t="s">
+      <c r="AE59" s="19"/>
+      <c r="AF59" s="19"/>
+      <c r="AG59" s="19"/>
+      <c r="AH59" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="AI59" s="22"/>
-      <c r="AJ59" s="22"/>
-      <c r="AK59" s="22"/>
-      <c r="AL59" s="22" t="s">
+      <c r="AI59" s="19"/>
+      <c r="AJ59" s="19"/>
+      <c r="AK59" s="19"/>
+      <c r="AL59" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AM59" s="22"/>
-      <c r="AN59" s="22"/>
-      <c r="AO59" s="22"/>
-      <c r="AP59" s="22" t="s">
+      <c r="AM59" s="19"/>
+      <c r="AN59" s="19"/>
+      <c r="AO59" s="19"/>
+      <c r="AP59" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="AQ59" s="22"/>
-      <c r="AR59" s="22"/>
-      <c r="AS59" s="22"/>
-      <c r="AT59" s="22" t="s">
+      <c r="AQ59" s="19"/>
+      <c r="AR59" s="19"/>
+      <c r="AS59" s="19"/>
+      <c r="AT59" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="AU59" s="22"/>
-      <c r="AV59" s="22"/>
-      <c r="AW59" s="22"/>
-      <c r="AX59" s="22" t="s">
+      <c r="AU59" s="19"/>
+      <c r="AV59" s="19"/>
+      <c r="AW59" s="19"/>
+      <c r="AX59" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="AY59" s="22"/>
-      <c r="AZ59" s="22"/>
-      <c r="BA59" s="22"/>
-      <c r="BB59" s="22" t="s">
+      <c r="AY59" s="19"/>
+      <c r="AZ59" s="19"/>
+      <c r="BA59" s="19"/>
+      <c r="BB59" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="BC59" s="22"/>
-      <c r="BD59" s="22"/>
-      <c r="BE59" s="22"/>
-      <c r="BF59" s="22" t="s">
+      <c r="BC59" s="19"/>
+      <c r="BD59" s="19"/>
+      <c r="BE59" s="19"/>
+      <c r="BF59" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="BG59" s="22"/>
-      <c r="BH59" s="22"/>
-      <c r="BI59" s="22"/>
-      <c r="BJ59" s="22" t="s">
+      <c r="BG59" s="19"/>
+      <c r="BH59" s="19"/>
+      <c r="BI59" s="19"/>
+      <c r="BJ59" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="BK59" s="22"/>
-      <c r="BL59" s="22"/>
-      <c r="BM59" s="22"/>
-      <c r="BN59" s="22" t="s">
+      <c r="BK59" s="19"/>
+      <c r="BL59" s="19"/>
+      <c r="BM59" s="19"/>
+      <c r="BN59" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="BO59" s="22"/>
-      <c r="BP59" s="22"/>
-      <c r="BQ59" s="22"/>
-      <c r="BR59" s="22" t="s">
+      <c r="BO59" s="19"/>
+      <c r="BP59" s="19"/>
+      <c r="BQ59" s="19"/>
+      <c r="BR59" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="BS59" s="22"/>
-      <c r="BT59" s="22"/>
-      <c r="BU59" s="22"/>
-      <c r="BV59" s="22" t="s">
+      <c r="BS59" s="19"/>
+      <c r="BT59" s="19"/>
+      <c r="BU59" s="19"/>
+      <c r="BV59" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="BW59" s="22"/>
-      <c r="BX59" s="22"/>
-      <c r="BY59" s="22"/>
-      <c r="BZ59" s="22" t="s">
+      <c r="BW59" s="19"/>
+      <c r="BX59" s="19"/>
+      <c r="BY59" s="19"/>
+      <c r="BZ59" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="CA59" s="22"/>
-      <c r="CB59" s="22"/>
-      <c r="CC59" s="22"/>
-      <c r="CD59" s="22" t="s">
+      <c r="CA59" s="19"/>
+      <c r="CB59" s="19"/>
+      <c r="CC59" s="19"/>
+      <c r="CD59" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="CE59" s="22"/>
-      <c r="CF59" s="22"/>
-      <c r="CG59" s="22"/>
-      <c r="CH59" s="22" t="s">
+      <c r="CE59" s="19"/>
+      <c r="CF59" s="19"/>
+      <c r="CG59" s="19"/>
+      <c r="CH59" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="CI59" s="22"/>
-      <c r="CJ59" s="22"/>
-      <c r="CK59" s="3"/>
-      <c r="CL59" s="22"/>
-      <c r="CM59" s="22"/>
-      <c r="CN59" s="3"/>
+      <c r="CI59" s="19"/>
+      <c r="CJ59" s="19"/>
+      <c r="CK59" s="19"/>
+      <c r="CL59" s="19"/>
+      <c r="CM59" s="19"/>
+      <c r="CN59" s="19"/>
+      <c r="CO59" s="19"/>
     </row>
     <row r="60" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
@@ -9198,19 +9242,22 @@
       <c r="CG60" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CH60" s="13" t="s">
+      <c r="CH60" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CI60" s="13" t="s">
+      <c r="CI60" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CJ60" s="13" t="s">
+      <c r="CJ60" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CK60" s="13"/>
-      <c r="CL60" s="13"/>
-      <c r="CM60" s="13"/>
-      <c r="CN60" s="13"/>
+      <c r="CK60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="CL60" s="5"/>
+      <c r="CM60" s="5"/>
+      <c r="CN60" s="5"/>
+      <c r="CO60" s="5"/>
     </row>
     <row r="61" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
@@ -9478,13 +9525,15 @@
         <v>77.976641432901033</v>
       </c>
       <c r="CJ62" s="14">
-        <v>62.452164144387382</v>
-      </c>
-      <c r="CK62" s="14"/>
+        <v>77.049818040198033</v>
+      </c>
+      <c r="CK62" s="14">
+        <v>91.493618512613494</v>
+      </c>
       <c r="CL62" s="14"/>
       <c r="CM62" s="14"/>
       <c r="CN62" s="14"/>
-      <c r="CO62" s="8"/>
+      <c r="CO62" s="14"/>
       <c r="CP62" s="8"/>
       <c r="CQ62" s="8"/>
       <c r="CR62" s="8"/>
@@ -9803,13 +9852,15 @@
         <v>14.766763267207324</v>
       </c>
       <c r="CJ63" s="14">
-        <v>12.080088788703904</v>
-      </c>
-      <c r="CK63" s="14"/>
+        <v>14.690236666766836</v>
+      </c>
+      <c r="CK63" s="14">
+        <v>30.933634509885849</v>
+      </c>
       <c r="CL63" s="14"/>
       <c r="CM63" s="14"/>
       <c r="CN63" s="14"/>
-      <c r="CO63" s="8"/>
+      <c r="CO63" s="14"/>
       <c r="CP63" s="8"/>
       <c r="CQ63" s="8"/>
       <c r="CR63" s="8"/>
@@ -10130,11 +10181,13 @@
       <c r="CJ64" s="14">
         <v>340.15035060660495</v>
       </c>
-      <c r="CK64" s="14"/>
+      <c r="CK64" s="14">
+        <v>385.08153226675034</v>
+      </c>
       <c r="CL64" s="14"/>
       <c r="CM64" s="14"/>
       <c r="CN64" s="14"/>
-      <c r="CO64" s="8"/>
+      <c r="CO64" s="14"/>
       <c r="CP64" s="8"/>
       <c r="CQ64" s="8"/>
       <c r="CR64" s="8"/>
@@ -10455,11 +10508,13 @@
       <c r="CJ65" s="14">
         <v>4.7862533042608391</v>
       </c>
-      <c r="CK65" s="14"/>
+      <c r="CK65" s="14">
+        <v>5.5042850735077025</v>
+      </c>
       <c r="CL65" s="14"/>
       <c r="CM65" s="14"/>
       <c r="CN65" s="14"/>
-      <c r="CO65" s="8"/>
+      <c r="CO65" s="14"/>
       <c r="CP65" s="8"/>
       <c r="CQ65" s="8"/>
       <c r="CR65" s="8"/>
@@ -10778,13 +10833,15 @@
         <v>10.289060564805979</v>
       </c>
       <c r="CJ66" s="14">
-        <v>23.880582704771953</v>
-      </c>
-      <c r="CK66" s="14"/>
+        <v>23.974334411072888</v>
+      </c>
+      <c r="CK66" s="14">
+        <v>15.003145287852988</v>
+      </c>
       <c r="CL66" s="14"/>
       <c r="CM66" s="14"/>
       <c r="CN66" s="14"/>
-      <c r="CO66" s="8"/>
+      <c r="CO66" s="14"/>
       <c r="CP66" s="8"/>
       <c r="CQ66" s="8"/>
       <c r="CR66" s="8"/>
@@ -11103,13 +11160,15 @@
         <v>16.85288815793642</v>
       </c>
       <c r="CJ67" s="14">
-        <v>25.506182035291957</v>
-      </c>
-      <c r="CK67" s="14"/>
+        <v>24.248218462854254</v>
+      </c>
+      <c r="CK67" s="14">
+        <v>12.109610673125943</v>
+      </c>
       <c r="CL67" s="14"/>
       <c r="CM67" s="14"/>
       <c r="CN67" s="14"/>
-      <c r="CO67" s="8"/>
+      <c r="CO67" s="14"/>
       <c r="CP67" s="8"/>
       <c r="CQ67" s="8"/>
       <c r="CR67" s="8"/>
@@ -11428,13 +11487,15 @@
         <v>8.7037623536646294</v>
       </c>
       <c r="CJ68" s="14">
-        <v>-7.8823902209427388</v>
-      </c>
-      <c r="CK68" s="14"/>
+        <v>-0.1305256249227682</v>
+      </c>
+      <c r="CK68" s="14">
+        <v>18.828926181911228</v>
+      </c>
       <c r="CL68" s="14"/>
       <c r="CM68" s="14"/>
       <c r="CN68" s="14"/>
-      <c r="CO68" s="8"/>
+      <c r="CO68" s="14"/>
       <c r="CP68" s="8"/>
       <c r="CQ68" s="8"/>
       <c r="CR68" s="8"/>
@@ -11753,13 +11814,15 @@
         <v>31.107642794976385</v>
       </c>
       <c r="CJ69" s="14">
-        <v>66.086403593618229</v>
-      </c>
-      <c r="CK69" s="14"/>
+        <v>37.503687957152806</v>
+      </c>
+      <c r="CK69" s="14">
+        <v>74.315362031384211</v>
+      </c>
       <c r="CL69" s="14"/>
       <c r="CM69" s="14"/>
       <c r="CN69" s="14"/>
-      <c r="CO69" s="8"/>
+      <c r="CO69" s="14"/>
       <c r="CP69" s="8"/>
       <c r="CQ69" s="8"/>
       <c r="CR69" s="8"/>
@@ -12226,13 +12289,15 @@
         <v>22.006105667730807</v>
       </c>
       <c r="CJ71" s="14">
-        <v>40.838606152215334</v>
-      </c>
-      <c r="CK71" s="14"/>
+        <v>41.419979435805033</v>
+      </c>
+      <c r="CK71" s="14">
+        <v>29.918311038740768</v>
+      </c>
       <c r="CL71" s="14"/>
       <c r="CM71" s="14"/>
       <c r="CN71" s="14"/>
-      <c r="CO71" s="8"/>
+      <c r="CO71" s="14"/>
       <c r="CP71" s="8"/>
       <c r="CQ71" s="8"/>
       <c r="CR71" s="8"/>
@@ -12381,6 +12446,7 @@
       <c r="CL72" s="11"/>
       <c r="CM72" s="11"/>
       <c r="CN72" s="11"/>
+      <c r="CO72" s="11"/>
     </row>
     <row r="73" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
@@ -12695,7 +12761,7 @@
     </row>
     <row r="78" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:147" x14ac:dyDescent="0.2">
@@ -12705,7 +12771,7 @@
     </row>
     <row r="81" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:147" x14ac:dyDescent="0.2">
@@ -12715,141 +12781,142 @@
     </row>
     <row r="84" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
-      <c r="B84" s="22" t="s">
+      <c r="B84" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22" t="s">
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="22"/>
-      <c r="J84" s="22" t="s">
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K84" s="22"/>
-      <c r="L84" s="22"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="22" t="s">
+      <c r="K84" s="19"/>
+      <c r="L84" s="19"/>
+      <c r="M84" s="19"/>
+      <c r="N84" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="O84" s="22"/>
-      <c r="P84" s="22"/>
-      <c r="Q84" s="22"/>
-      <c r="R84" s="22" t="s">
+      <c r="O84" s="19"/>
+      <c r="P84" s="19"/>
+      <c r="Q84" s="19"/>
+      <c r="R84" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="S84" s="22"/>
-      <c r="T84" s="22"/>
-      <c r="U84" s="22"/>
-      <c r="V84" s="22" t="s">
+      <c r="S84" s="19"/>
+      <c r="T84" s="19"/>
+      <c r="U84" s="19"/>
+      <c r="V84" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="W84" s="22"/>
-      <c r="X84" s="22"/>
-      <c r="Y84" s="22"/>
-      <c r="Z84" s="22" t="s">
+      <c r="W84" s="19"/>
+      <c r="X84" s="19"/>
+      <c r="Y84" s="19"/>
+      <c r="Z84" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AA84" s="22"/>
-      <c r="AB84" s="22"/>
-      <c r="AC84" s="22"/>
-      <c r="AD84" s="22" t="s">
+      <c r="AA84" s="19"/>
+      <c r="AB84" s="19"/>
+      <c r="AC84" s="19"/>
+      <c r="AD84" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AE84" s="22"/>
-      <c r="AF84" s="22"/>
-      <c r="AG84" s="22"/>
-      <c r="AH84" s="22" t="s">
+      <c r="AE84" s="19"/>
+      <c r="AF84" s="19"/>
+      <c r="AG84" s="19"/>
+      <c r="AH84" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="AI84" s="22"/>
-      <c r="AJ84" s="22"/>
-      <c r="AK84" s="22"/>
-      <c r="AL84" s="22" t="s">
+      <c r="AI84" s="19"/>
+      <c r="AJ84" s="19"/>
+      <c r="AK84" s="19"/>
+      <c r="AL84" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AM84" s="22"/>
-      <c r="AN84" s="22"/>
-      <c r="AO84" s="22"/>
-      <c r="AP84" s="22" t="s">
+      <c r="AM84" s="19"/>
+      <c r="AN84" s="19"/>
+      <c r="AO84" s="19"/>
+      <c r="AP84" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="AQ84" s="22"/>
-      <c r="AR84" s="22"/>
-      <c r="AS84" s="22"/>
-      <c r="AT84" s="22" t="s">
+      <c r="AQ84" s="19"/>
+      <c r="AR84" s="19"/>
+      <c r="AS84" s="19"/>
+      <c r="AT84" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="AU84" s="22"/>
-      <c r="AV84" s="22"/>
-      <c r="AW84" s="22"/>
-      <c r="AX84" s="22" t="s">
+      <c r="AU84" s="19"/>
+      <c r="AV84" s="19"/>
+      <c r="AW84" s="19"/>
+      <c r="AX84" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="AY84" s="22"/>
-      <c r="AZ84" s="22"/>
-      <c r="BA84" s="22"/>
-      <c r="BB84" s="22" t="s">
+      <c r="AY84" s="19"/>
+      <c r="AZ84" s="19"/>
+      <c r="BA84" s="19"/>
+      <c r="BB84" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="BC84" s="22"/>
-      <c r="BD84" s="22"/>
-      <c r="BE84" s="22"/>
-      <c r="BF84" s="22" t="s">
+      <c r="BC84" s="19"/>
+      <c r="BD84" s="19"/>
+      <c r="BE84" s="19"/>
+      <c r="BF84" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="BG84" s="22"/>
-      <c r="BH84" s="22"/>
-      <c r="BI84" s="22"/>
-      <c r="BJ84" s="22" t="s">
+      <c r="BG84" s="19"/>
+      <c r="BH84" s="19"/>
+      <c r="BI84" s="19"/>
+      <c r="BJ84" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="BK84" s="22"/>
-      <c r="BL84" s="22"/>
-      <c r="BM84" s="22"/>
-      <c r="BN84" s="22" t="s">
+      <c r="BK84" s="19"/>
+      <c r="BL84" s="19"/>
+      <c r="BM84" s="19"/>
+      <c r="BN84" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="BO84" s="22"/>
-      <c r="BP84" s="22"/>
-      <c r="BQ84" s="22"/>
-      <c r="BR84" s="22" t="s">
+      <c r="BO84" s="19"/>
+      <c r="BP84" s="19"/>
+      <c r="BQ84" s="19"/>
+      <c r="BR84" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="BS84" s="22"/>
-      <c r="BT84" s="22"/>
-      <c r="BU84" s="22"/>
-      <c r="BV84" s="22" t="s">
+      <c r="BS84" s="19"/>
+      <c r="BT84" s="19"/>
+      <c r="BU84" s="19"/>
+      <c r="BV84" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="BW84" s="22"/>
-      <c r="BX84" s="22"/>
-      <c r="BY84" s="22"/>
-      <c r="BZ84" s="22" t="s">
+      <c r="BW84" s="19"/>
+      <c r="BX84" s="19"/>
+      <c r="BY84" s="19"/>
+      <c r="BZ84" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="CA84" s="22"/>
-      <c r="CB84" s="22"/>
-      <c r="CC84" s="22"/>
-      <c r="CD84" s="22" t="s">
+      <c r="CA84" s="19"/>
+      <c r="CB84" s="19"/>
+      <c r="CC84" s="19"/>
+      <c r="CD84" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="CE84" s="22"/>
-      <c r="CF84" s="22"/>
-      <c r="CG84" s="22"/>
-      <c r="CH84" s="22" t="s">
+      <c r="CE84" s="19"/>
+      <c r="CF84" s="19"/>
+      <c r="CG84" s="19"/>
+      <c r="CH84" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="CI84" s="22"/>
-      <c r="CJ84" s="22"/>
-      <c r="CK84" s="3"/>
-      <c r="CL84" s="22"/>
-      <c r="CM84" s="22"/>
-      <c r="CN84" s="3"/>
+      <c r="CI84" s="19"/>
+      <c r="CJ84" s="19"/>
+      <c r="CK84" s="19"/>
+      <c r="CL84" s="19"/>
+      <c r="CM84" s="19"/>
+      <c r="CN84" s="19"/>
+      <c r="CO84" s="19"/>
     </row>
     <row r="85" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
@@ -13114,10 +13181,13 @@
       <c r="CJ85" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CK85" s="5"/>
+      <c r="CK85" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="CL85" s="5"/>
       <c r="CM85" s="5"/>
       <c r="CN85" s="5"/>
+      <c r="CO85" s="5"/>
     </row>
     <row r="86" spans="1:147" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
@@ -13385,13 +13455,15 @@
         <v>54.901950413505489</v>
       </c>
       <c r="CJ87" s="14">
-        <v>40.372780522517928</v>
-      </c>
-      <c r="CK87" s="14"/>
+        <v>52.986421450311639</v>
+      </c>
+      <c r="CK87" s="14">
+        <v>70.764678678344268</v>
+      </c>
       <c r="CL87" s="14"/>
       <c r="CM87" s="14"/>
       <c r="CN87" s="14"/>
-      <c r="CO87" s="8"/>
+      <c r="CO87" s="14"/>
       <c r="CP87" s="8"/>
       <c r="CQ87" s="8"/>
       <c r="CR87" s="8"/>
@@ -13710,13 +13782,15 @@
         <v>8.5848592374627088</v>
       </c>
       <c r="CJ88" s="14">
-        <v>5.5236044354117269</v>
-      </c>
-      <c r="CK88" s="14"/>
+        <v>7.9810633398375899</v>
+      </c>
+      <c r="CK88" s="14">
+        <v>22.916685731045732</v>
+      </c>
       <c r="CL88" s="14"/>
       <c r="CM88" s="14"/>
       <c r="CN88" s="14"/>
-      <c r="CO88" s="8"/>
+      <c r="CO88" s="14"/>
       <c r="CP88" s="8"/>
       <c r="CQ88" s="8"/>
       <c r="CR88" s="8"/>
@@ -14037,11 +14111,13 @@
       <c r="CJ89" s="14">
         <v>313.15377894616444</v>
       </c>
-      <c r="CK89" s="14"/>
+      <c r="CK89" s="14">
+        <v>349.55053760077203</v>
+      </c>
       <c r="CL89" s="14"/>
       <c r="CM89" s="14"/>
       <c r="CN89" s="14"/>
-      <c r="CO89" s="8"/>
+      <c r="CO89" s="14"/>
       <c r="CP89" s="8"/>
       <c r="CQ89" s="8"/>
       <c r="CR89" s="8"/>
@@ -14362,11 +14438,13 @@
       <c r="CJ90" s="14">
         <v>-0.37068191857673582</v>
       </c>
-      <c r="CK90" s="14"/>
+      <c r="CK90" s="14">
+        <v>-0.43837451564655794</v>
+      </c>
       <c r="CL90" s="14"/>
       <c r="CM90" s="14"/>
       <c r="CN90" s="14"/>
-      <c r="CO90" s="8"/>
+      <c r="CO90" s="14"/>
       <c r="CP90" s="8"/>
       <c r="CQ90" s="8"/>
       <c r="CR90" s="8"/>
@@ -14685,13 +14763,15 @@
         <v>9.4145845402897379</v>
       </c>
       <c r="CJ91" s="14">
-        <v>23.314178605334845</v>
-      </c>
-      <c r="CK91" s="14"/>
+        <v>23.407501662128155</v>
+      </c>
+      <c r="CK91" s="14">
+        <v>14.29165542954695</v>
+      </c>
       <c r="CL91" s="14"/>
       <c r="CM91" s="14"/>
       <c r="CN91" s="14"/>
-      <c r="CO91" s="8"/>
+      <c r="CO91" s="14"/>
       <c r="CP91" s="8"/>
       <c r="CQ91" s="8"/>
       <c r="CR91" s="8"/>
@@ -15010,13 +15090,15 @@
         <v>5.722286240956592</v>
       </c>
       <c r="CJ92" s="14">
-        <v>18.164295285834257</v>
-      </c>
-      <c r="CK92" s="14"/>
+        <v>16.979920328188285</v>
+      </c>
+      <c r="CK92" s="14">
+        <v>5.2452399577900337</v>
+      </c>
       <c r="CL92" s="14"/>
       <c r="CM92" s="14"/>
       <c r="CN92" s="14"/>
-      <c r="CO92" s="8"/>
+      <c r="CO92" s="14"/>
       <c r="CP92" s="8"/>
       <c r="CQ92" s="8"/>
       <c r="CR92" s="8"/>
@@ -15335,13 +15417,15 @@
         <v>3.6164093371571226</v>
       </c>
       <c r="CJ93" s="14">
-        <v>-13.271105323744592</v>
-      </c>
-      <c r="CK93" s="14"/>
+        <v>-5.9727109157119145</v>
+      </c>
+      <c r="CK93" s="14">
+        <v>11.553137816218026</v>
+      </c>
       <c r="CL93" s="14"/>
       <c r="CM93" s="14"/>
       <c r="CN93" s="14"/>
-      <c r="CO93" s="8"/>
+      <c r="CO93" s="14"/>
       <c r="CP93" s="8"/>
       <c r="CQ93" s="8"/>
       <c r="CR93" s="8"/>
@@ -15660,13 +15744,15 @@
         <v>24.971784682814842</v>
       </c>
       <c r="CJ94" s="14">
-        <v>56.370646600339683</v>
-      </c>
-      <c r="CK94" s="14"/>
+        <v>29.459968610082626</v>
+      </c>
+      <c r="CK94" s="14">
+        <v>63.642189060958032</v>
+      </c>
       <c r="CL94" s="14"/>
       <c r="CM94" s="14"/>
       <c r="CN94" s="14"/>
-      <c r="CO94" s="8"/>
+      <c r="CO94" s="14"/>
       <c r="CP94" s="8"/>
       <c r="CQ94" s="8"/>
       <c r="CR94" s="8"/>
@@ -16133,13 +16219,15 @@
         <v>12.871317012487182</v>
       </c>
       <c r="CJ96" s="14">
-        <v>32.494687006101771</v>
-      </c>
-      <c r="CK96" s="14"/>
+        <v>32.960567498181689</v>
+      </c>
+      <c r="CK96" s="14">
+        <v>21.892135341040799</v>
+      </c>
       <c r="CL96" s="14"/>
       <c r="CM96" s="14"/>
       <c r="CN96" s="14"/>
-      <c r="CO96" s="8"/>
+      <c r="CO96" s="14"/>
       <c r="CP96" s="8"/>
       <c r="CQ96" s="8"/>
       <c r="CR96" s="8"/>
@@ -16288,6 +16376,7 @@
       <c r="CL97" s="11"/>
       <c r="CM97" s="11"/>
       <c r="CN97" s="11"/>
+      <c r="CO97" s="11"/>
     </row>
     <row r="98" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
@@ -16597,7 +16686,7 @@
     </row>
     <row r="102" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:151" x14ac:dyDescent="0.2">
@@ -16607,7 +16696,7 @@
     </row>
     <row r="105" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="106" spans="1:151" x14ac:dyDescent="0.2">
@@ -16617,143 +16706,144 @@
     </row>
     <row r="108" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
-      <c r="B108" s="21">
+      <c r="B108" s="18">
         <v>2000</v>
       </c>
-      <c r="C108" s="21"/>
-      <c r="D108" s="21"/>
-      <c r="E108" s="21"/>
-      <c r="F108" s="21">
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18">
         <v>2001</v>
       </c>
-      <c r="G108" s="21"/>
-      <c r="H108" s="21"/>
-      <c r="I108" s="21"/>
-      <c r="J108" s="21">
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="18"/>
+      <c r="J108" s="18">
         <v>2002</v>
       </c>
-      <c r="K108" s="21"/>
-      <c r="L108" s="21"/>
-      <c r="M108" s="21"/>
-      <c r="N108" s="21">
+      <c r="K108" s="18"/>
+      <c r="L108" s="18"/>
+      <c r="M108" s="18"/>
+      <c r="N108" s="18">
         <v>2003</v>
       </c>
-      <c r="O108" s="21"/>
-      <c r="P108" s="21"/>
-      <c r="Q108" s="21"/>
-      <c r="R108" s="21">
+      <c r="O108" s="18"/>
+      <c r="P108" s="18"/>
+      <c r="Q108" s="18"/>
+      <c r="R108" s="18">
         <v>2004</v>
       </c>
-      <c r="S108" s="21"/>
-      <c r="T108" s="21"/>
-      <c r="U108" s="21"/>
-      <c r="V108" s="21">
+      <c r="S108" s="18"/>
+      <c r="T108" s="18"/>
+      <c r="U108" s="18"/>
+      <c r="V108" s="18">
         <v>2005</v>
       </c>
-      <c r="W108" s="21"/>
-      <c r="X108" s="21"/>
-      <c r="Y108" s="21"/>
-      <c r="Z108" s="21">
+      <c r="W108" s="18"/>
+      <c r="X108" s="18"/>
+      <c r="Y108" s="18"/>
+      <c r="Z108" s="18">
         <v>2006</v>
       </c>
-      <c r="AA108" s="21"/>
-      <c r="AB108" s="21"/>
-      <c r="AC108" s="21"/>
-      <c r="AD108" s="21">
+      <c r="AA108" s="18"/>
+      <c r="AB108" s="18"/>
+      <c r="AC108" s="18"/>
+      <c r="AD108" s="18">
         <v>2007</v>
       </c>
-      <c r="AE108" s="21"/>
-      <c r="AF108" s="21"/>
-      <c r="AG108" s="21"/>
-      <c r="AH108" s="21">
+      <c r="AE108" s="18"/>
+      <c r="AF108" s="18"/>
+      <c r="AG108" s="18"/>
+      <c r="AH108" s="18">
         <v>2008</v>
       </c>
-      <c r="AI108" s="21"/>
-      <c r="AJ108" s="21"/>
-      <c r="AK108" s="21"/>
-      <c r="AL108" s="21">
+      <c r="AI108" s="18"/>
+      <c r="AJ108" s="18"/>
+      <c r="AK108" s="18"/>
+      <c r="AL108" s="18">
         <v>2009</v>
       </c>
-      <c r="AM108" s="21"/>
-      <c r="AN108" s="21"/>
-      <c r="AO108" s="21"/>
-      <c r="AP108" s="21">
+      <c r="AM108" s="18"/>
+      <c r="AN108" s="18"/>
+      <c r="AO108" s="18"/>
+      <c r="AP108" s="18">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="21"/>
-      <c r="AR108" s="21"/>
-      <c r="AS108" s="21"/>
-      <c r="AT108" s="21">
+      <c r="AQ108" s="18"/>
+      <c r="AR108" s="18"/>
+      <c r="AS108" s="18"/>
+      <c r="AT108" s="18">
         <v>2011</v>
       </c>
-      <c r="AU108" s="21"/>
-      <c r="AV108" s="21"/>
-      <c r="AW108" s="21"/>
-      <c r="AX108" s="21">
+      <c r="AU108" s="18"/>
+      <c r="AV108" s="18"/>
+      <c r="AW108" s="18"/>
+      <c r="AX108" s="18">
         <v>2012</v>
       </c>
-      <c r="AY108" s="21"/>
-      <c r="AZ108" s="21"/>
-      <c r="BA108" s="21"/>
-      <c r="BB108" s="21">
+      <c r="AY108" s="18"/>
+      <c r="AZ108" s="18"/>
+      <c r="BA108" s="18"/>
+      <c r="BB108" s="18">
         <v>2013</v>
       </c>
-      <c r="BC108" s="21"/>
-      <c r="BD108" s="21"/>
-      <c r="BE108" s="21"/>
-      <c r="BF108" s="21">
+      <c r="BC108" s="18"/>
+      <c r="BD108" s="18"/>
+      <c r="BE108" s="18"/>
+      <c r="BF108" s="18">
         <v>2014</v>
       </c>
-      <c r="BG108" s="21"/>
-      <c r="BH108" s="21"/>
-      <c r="BI108" s="21"/>
-      <c r="BJ108" s="21">
+      <c r="BG108" s="18"/>
+      <c r="BH108" s="18"/>
+      <c r="BI108" s="18"/>
+      <c r="BJ108" s="18">
         <v>2015</v>
       </c>
-      <c r="BK108" s="21"/>
-      <c r="BL108" s="21"/>
-      <c r="BM108" s="21"/>
-      <c r="BN108" s="21">
+      <c r="BK108" s="18"/>
+      <c r="BL108" s="18"/>
+      <c r="BM108" s="18"/>
+      <c r="BN108" s="18">
         <v>2016</v>
       </c>
-      <c r="BO108" s="21"/>
-      <c r="BP108" s="21"/>
-      <c r="BQ108" s="21"/>
-      <c r="BR108" s="21">
+      <c r="BO108" s="18"/>
+      <c r="BP108" s="18"/>
+      <c r="BQ108" s="18"/>
+      <c r="BR108" s="18">
         <v>2017</v>
       </c>
-      <c r="BS108" s="21"/>
-      <c r="BT108" s="21"/>
-      <c r="BU108" s="21"/>
-      <c r="BV108" s="21">
+      <c r="BS108" s="18"/>
+      <c r="BT108" s="18"/>
+      <c r="BU108" s="18"/>
+      <c r="BV108" s="18">
         <v>2018</v>
       </c>
-      <c r="BW108" s="21"/>
-      <c r="BX108" s="21"/>
-      <c r="BY108" s="21"/>
-      <c r="BZ108" s="21">
+      <c r="BW108" s="18"/>
+      <c r="BX108" s="18"/>
+      <c r="BY108" s="18"/>
+      <c r="BZ108" s="18">
         <v>2019</v>
       </c>
-      <c r="CA108" s="21"/>
-      <c r="CB108" s="21"/>
-      <c r="CC108" s="21"/>
-      <c r="CD108" s="21">
+      <c r="CA108" s="18"/>
+      <c r="CB108" s="18"/>
+      <c r="CC108" s="18"/>
+      <c r="CD108" s="18">
         <v>2020</v>
       </c>
-      <c r="CE108" s="21"/>
-      <c r="CF108" s="21"/>
-      <c r="CG108" s="21"/>
-      <c r="CH108" s="22">
+      <c r="CE108" s="18"/>
+      <c r="CF108" s="18"/>
+      <c r="CG108" s="18"/>
+      <c r="CH108" s="18">
         <v>2021</v>
       </c>
-      <c r="CI108" s="22"/>
-      <c r="CJ108" s="22"/>
-      <c r="CK108" s="22"/>
-      <c r="CL108" s="22">
+      <c r="CI108" s="18"/>
+      <c r="CJ108" s="18"/>
+      <c r="CK108" s="18"/>
+      <c r="CL108" s="18">
         <v>2022</v>
       </c>
-      <c r="CM108" s="22"/>
-      <c r="CN108" s="22"/>
+      <c r="CM108" s="18"/>
+      <c r="CN108" s="18"/>
+      <c r="CO108" s="18"/>
     </row>
     <row r="109" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
@@ -17029,6 +17119,9 @@
       </c>
       <c r="CN109" s="13" t="s">
         <v>9</v>
+      </c>
+      <c r="CO109" s="13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -17311,7 +17404,9 @@
       <c r="CN111" s="14">
         <v>128.49759727085751</v>
       </c>
-      <c r="CO111" s="8"/>
+      <c r="CO111" s="14">
+        <v>133.0320896828776</v>
+      </c>
       <c r="CP111" s="8"/>
       <c r="CQ111" s="8"/>
       <c r="CR111" s="8"/>
@@ -17648,7 +17743,9 @@
       <c r="CN112" s="14">
         <v>116.05280088472769</v>
       </c>
-      <c r="CO112" s="8"/>
+      <c r="CO112" s="14">
+        <v>114.41806830514707</v>
+      </c>
       <c r="CP112" s="8"/>
       <c r="CQ112" s="8"/>
       <c r="CR112" s="8"/>
@@ -17985,7 +18082,9 @@
       <c r="CN113" s="14">
         <v>118.04648528321442</v>
       </c>
-      <c r="CO113" s="8"/>
+      <c r="CO113" s="14">
+        <v>117.03672057255258</v>
+      </c>
       <c r="CP113" s="8"/>
       <c r="CQ113" s="8"/>
       <c r="CR113" s="8"/>
@@ -18322,7 +18421,9 @@
       <c r="CN114" s="14">
         <v>112.53715586887442</v>
       </c>
-      <c r="CO114" s="8"/>
+      <c r="CO114" s="14">
+        <v>115.53683219443604</v>
+      </c>
       <c r="CP114" s="8"/>
       <c r="CQ114" s="8"/>
       <c r="CR114" s="8"/>
@@ -18657,9 +18758,11 @@
         <v>101.97719373209009</v>
       </c>
       <c r="CN115" s="14">
-        <v>102.12267473484775</v>
-      </c>
-      <c r="CO115" s="8"/>
+        <v>102.12267473484778</v>
+      </c>
+      <c r="CO115" s="14">
+        <v>99.80631305437187</v>
+      </c>
       <c r="CP115" s="8"/>
       <c r="CQ115" s="8"/>
       <c r="CR115" s="8"/>
@@ -18996,7 +19099,9 @@
       <c r="CN116" s="14">
         <v>115.99665924145654</v>
       </c>
-      <c r="CO116" s="8"/>
+      <c r="CO116" s="14">
+        <v>116.48773750304736</v>
+      </c>
       <c r="CP116" s="8"/>
       <c r="CQ116" s="8"/>
       <c r="CR116" s="8"/>
@@ -19333,7 +19438,9 @@
       <c r="CN117" s="14">
         <v>115.85449315066496</v>
       </c>
-      <c r="CO117" s="8"/>
+      <c r="CO117" s="14">
+        <v>114.15653388291904</v>
+      </c>
       <c r="CP117" s="8"/>
       <c r="CQ117" s="8"/>
       <c r="CR117" s="8"/>
@@ -19670,7 +19777,9 @@
       <c r="CN118" s="14">
         <v>115.97368629182768</v>
       </c>
-      <c r="CO118" s="8"/>
+      <c r="CO118" s="14">
+        <v>114.26976550965544</v>
+      </c>
       <c r="CP118" s="8"/>
       <c r="CQ118" s="8"/>
       <c r="CR118" s="8"/>
@@ -20157,9 +20266,11 @@
         <v>112.99069482591557</v>
       </c>
       <c r="CN120" s="14">
-        <v>114.91654405799055</v>
-      </c>
-      <c r="CO120" s="8"/>
+        <v>114.98659444679757</v>
+      </c>
+      <c r="CO120" s="14">
+        <v>115.00782162247425</v>
+      </c>
       <c r="CP120" s="8"/>
       <c r="CQ120" s="8"/>
       <c r="CR120" s="8"/>
@@ -20312,6 +20423,7 @@
       <c r="CL121" s="11"/>
       <c r="CM121" s="11"/>
       <c r="CN121" s="11"/>
+      <c r="CO121" s="11"/>
     </row>
     <row r="122" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
@@ -20330,7 +20442,7 @@
     </row>
     <row r="127" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="129" spans="1:151" x14ac:dyDescent="0.2">
@@ -20340,7 +20452,7 @@
     </row>
     <row r="130" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="131" spans="1:151" x14ac:dyDescent="0.2">
@@ -20350,143 +20462,144 @@
     </row>
     <row r="133" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
-      <c r="B133" s="21">
+      <c r="B133" s="18">
         <v>2000</v>
       </c>
-      <c r="C133" s="21"/>
-      <c r="D133" s="21"/>
-      <c r="E133" s="21"/>
-      <c r="F133" s="21">
+      <c r="C133" s="18"/>
+      <c r="D133" s="18"/>
+      <c r="E133" s="18"/>
+      <c r="F133" s="18">
         <v>2001</v>
       </c>
-      <c r="G133" s="21"/>
-      <c r="H133" s="21"/>
-      <c r="I133" s="21"/>
-      <c r="J133" s="21">
+      <c r="G133" s="18"/>
+      <c r="H133" s="18"/>
+      <c r="I133" s="18"/>
+      <c r="J133" s="18">
         <v>2002</v>
       </c>
-      <c r="K133" s="21"/>
-      <c r="L133" s="21"/>
-      <c r="M133" s="21"/>
-      <c r="N133" s="21">
+      <c r="K133" s="18"/>
+      <c r="L133" s="18"/>
+      <c r="M133" s="18"/>
+      <c r="N133" s="18">
         <v>2003</v>
       </c>
-      <c r="O133" s="21"/>
-      <c r="P133" s="21"/>
-      <c r="Q133" s="21"/>
-      <c r="R133" s="21">
+      <c r="O133" s="18"/>
+      <c r="P133" s="18"/>
+      <c r="Q133" s="18"/>
+      <c r="R133" s="18">
         <v>2004</v>
       </c>
-      <c r="S133" s="21"/>
-      <c r="T133" s="21"/>
-      <c r="U133" s="21"/>
-      <c r="V133" s="21">
+      <c r="S133" s="18"/>
+      <c r="T133" s="18"/>
+      <c r="U133" s="18"/>
+      <c r="V133" s="18">
         <v>2005</v>
       </c>
-      <c r="W133" s="21"/>
-      <c r="X133" s="21"/>
-      <c r="Y133" s="21"/>
-      <c r="Z133" s="21">
+      <c r="W133" s="18"/>
+      <c r="X133" s="18"/>
+      <c r="Y133" s="18"/>
+      <c r="Z133" s="18">
         <v>2006</v>
       </c>
-      <c r="AA133" s="21"/>
-      <c r="AB133" s="21"/>
-      <c r="AC133" s="21"/>
-      <c r="AD133" s="21">
+      <c r="AA133" s="18"/>
+      <c r="AB133" s="18"/>
+      <c r="AC133" s="18"/>
+      <c r="AD133" s="18">
         <v>2007</v>
       </c>
-      <c r="AE133" s="21"/>
-      <c r="AF133" s="21"/>
-      <c r="AG133" s="21"/>
-      <c r="AH133" s="21">
+      <c r="AE133" s="18"/>
+      <c r="AF133" s="18"/>
+      <c r="AG133" s="18"/>
+      <c r="AH133" s="18">
         <v>2008</v>
       </c>
-      <c r="AI133" s="21"/>
-      <c r="AJ133" s="21"/>
-      <c r="AK133" s="21"/>
-      <c r="AL133" s="21">
+      <c r="AI133" s="18"/>
+      <c r="AJ133" s="18"/>
+      <c r="AK133" s="18"/>
+      <c r="AL133" s="18">
         <v>2009</v>
       </c>
-      <c r="AM133" s="21"/>
-      <c r="AN133" s="21"/>
-      <c r="AO133" s="21"/>
-      <c r="AP133" s="21">
+      <c r="AM133" s="18"/>
+      <c r="AN133" s="18"/>
+      <c r="AO133" s="18"/>
+      <c r="AP133" s="18">
         <v>2010</v>
       </c>
-      <c r="AQ133" s="21"/>
-      <c r="AR133" s="21"/>
-      <c r="AS133" s="21"/>
-      <c r="AT133" s="21">
+      <c r="AQ133" s="18"/>
+      <c r="AR133" s="18"/>
+      <c r="AS133" s="18"/>
+      <c r="AT133" s="18">
         <v>2011</v>
       </c>
-      <c r="AU133" s="21"/>
-      <c r="AV133" s="21"/>
-      <c r="AW133" s="21"/>
-      <c r="AX133" s="21">
+      <c r="AU133" s="18"/>
+      <c r="AV133" s="18"/>
+      <c r="AW133" s="18"/>
+      <c r="AX133" s="18">
         <v>2012</v>
       </c>
-      <c r="AY133" s="21"/>
-      <c r="AZ133" s="21"/>
-      <c r="BA133" s="21"/>
-      <c r="BB133" s="21">
+      <c r="AY133" s="18"/>
+      <c r="AZ133" s="18"/>
+      <c r="BA133" s="18"/>
+      <c r="BB133" s="18">
         <v>2013</v>
       </c>
-      <c r="BC133" s="21"/>
-      <c r="BD133" s="21"/>
-      <c r="BE133" s="21"/>
-      <c r="BF133" s="21">
+      <c r="BC133" s="18"/>
+      <c r="BD133" s="18"/>
+      <c r="BE133" s="18"/>
+      <c r="BF133" s="18">
         <v>2014</v>
       </c>
-      <c r="BG133" s="21"/>
-      <c r="BH133" s="21"/>
-      <c r="BI133" s="21"/>
-      <c r="BJ133" s="21">
+      <c r="BG133" s="18"/>
+      <c r="BH133" s="18"/>
+      <c r="BI133" s="18"/>
+      <c r="BJ133" s="18">
         <v>2015</v>
       </c>
-      <c r="BK133" s="21"/>
-      <c r="BL133" s="21"/>
-      <c r="BM133" s="21"/>
-      <c r="BN133" s="21">
+      <c r="BK133" s="18"/>
+      <c r="BL133" s="18"/>
+      <c r="BM133" s="18"/>
+      <c r="BN133" s="18">
         <v>2016</v>
       </c>
-      <c r="BO133" s="21"/>
-      <c r="BP133" s="21"/>
-      <c r="BQ133" s="21"/>
-      <c r="BR133" s="21">
+      <c r="BO133" s="18"/>
+      <c r="BP133" s="18"/>
+      <c r="BQ133" s="18"/>
+      <c r="BR133" s="18">
         <v>2017</v>
       </c>
-      <c r="BS133" s="21"/>
-      <c r="BT133" s="21"/>
-      <c r="BU133" s="21"/>
-      <c r="BV133" s="21">
+      <c r="BS133" s="18"/>
+      <c r="BT133" s="18"/>
+      <c r="BU133" s="18"/>
+      <c r="BV133" s="18">
         <v>2018</v>
       </c>
-      <c r="BW133" s="21"/>
-      <c r="BX133" s="21"/>
-      <c r="BY133" s="21"/>
-      <c r="BZ133" s="21">
+      <c r="BW133" s="18"/>
+      <c r="BX133" s="18"/>
+      <c r="BY133" s="18"/>
+      <c r="BZ133" s="18">
         <v>2019</v>
       </c>
-      <c r="CA133" s="21"/>
-      <c r="CB133" s="21"/>
-      <c r="CC133" s="21"/>
-      <c r="CD133" s="21">
+      <c r="CA133" s="18"/>
+      <c r="CB133" s="18"/>
+      <c r="CC133" s="18"/>
+      <c r="CD133" s="18">
         <v>2020</v>
       </c>
-      <c r="CE133" s="21"/>
-      <c r="CF133" s="21"/>
-      <c r="CG133" s="21"/>
-      <c r="CH133" s="22">
+      <c r="CE133" s="18"/>
+      <c r="CF133" s="18"/>
+      <c r="CG133" s="18"/>
+      <c r="CH133" s="18">
         <v>2021</v>
       </c>
-      <c r="CI133" s="22"/>
-      <c r="CJ133" s="22"/>
-      <c r="CK133" s="22"/>
-      <c r="CL133" s="22">
+      <c r="CI133" s="18"/>
+      <c r="CJ133" s="18"/>
+      <c r="CK133" s="18"/>
+      <c r="CL133" s="18">
         <v>2022</v>
       </c>
-      <c r="CM133" s="22"/>
-      <c r="CN133" s="22"/>
+      <c r="CM133" s="18"/>
+      <c r="CN133" s="18"/>
+      <c r="CO133" s="18"/>
     </row>
     <row r="134" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
@@ -20762,6 +20875,9 @@
       </c>
       <c r="CN134" s="13" t="s">
         <v>9</v>
+      </c>
+      <c r="CO134" s="13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -21023,28 +21139,30 @@
       <c r="CG136" s="15">
         <v>5.4275059453531354</v>
       </c>
-      <c r="CH136" s="20">
+      <c r="CH136" s="15">
         <v>3.7210124126058028</v>
       </c>
-      <c r="CI136" s="20">
+      <c r="CI136" s="15">
         <v>3.1399466293911424</v>
       </c>
-      <c r="CJ136" s="20">
+      <c r="CJ136" s="15">
         <v>5.9513037927032633</v>
       </c>
-      <c r="CK136" s="20">
+      <c r="CK136" s="15">
         <v>6.3648030216419471</v>
       </c>
-      <c r="CL136" s="20">
+      <c r="CL136" s="15">
         <v>7.3121379291535087</v>
       </c>
-      <c r="CM136" s="20">
+      <c r="CM136" s="15">
         <v>4.5804031881774865</v>
       </c>
-      <c r="CN136" s="20">
-        <v>6.8646105426550932</v>
-      </c>
-      <c r="CO136" s="8"/>
+      <c r="CN136" s="15">
+        <v>7.4506958479537211</v>
+      </c>
+      <c r="CO136" s="15">
+        <v>9.3814270828289104</v>
+      </c>
       <c r="CP136" s="8"/>
       <c r="CQ136" s="8"/>
       <c r="CR136" s="8"/>
@@ -21360,28 +21478,30 @@
       <c r="CG137" s="15">
         <v>0.18664971726304994</v>
       </c>
-      <c r="CH137" s="20">
+      <c r="CH137" s="15">
         <v>8.7558676562155199E-2</v>
       </c>
-      <c r="CI137" s="20">
+      <c r="CI137" s="15">
         <v>6.2967906137419247E-2</v>
       </c>
-      <c r="CJ137" s="20">
+      <c r="CJ137" s="15">
         <v>0.17549222859448987</v>
       </c>
-      <c r="CK137" s="20">
+      <c r="CK137" s="15">
         <v>0.17471975750948968</v>
       </c>
-      <c r="CL137" s="20">
+      <c r="CL137" s="15">
         <v>8.5242739098045542E-2</v>
       </c>
-      <c r="CM137" s="20">
+      <c r="CM137" s="15">
         <v>5.9231648592946468E-2</v>
       </c>
-      <c r="CN137" s="20">
-        <v>0.13965762016516917</v>
-      </c>
-      <c r="CO137" s="8"/>
+      <c r="CN137" s="15">
+        <v>0.14232250146675193</v>
+      </c>
+      <c r="CO137" s="15">
+        <v>0.17608520837822261</v>
+      </c>
       <c r="CP137" s="8"/>
       <c r="CQ137" s="8"/>
       <c r="CR137" s="8"/>
@@ -21697,28 +21817,30 @@
       <c r="CG138" s="15">
         <v>2.0160285542239165</v>
       </c>
-      <c r="CH138" s="20">
+      <c r="CH138" s="15">
         <v>0.32281571107405882</v>
       </c>
-      <c r="CI138" s="20">
+      <c r="CI138" s="15">
         <v>5.017920109408661</v>
       </c>
-      <c r="CJ138" s="20">
+      <c r="CJ138" s="15">
         <v>5.3524872102617618</v>
       </c>
-      <c r="CK138" s="20">
+      <c r="CK138" s="15">
         <v>2.7846728412805546</v>
       </c>
-      <c r="CL138" s="20">
+      <c r="CL138" s="15">
         <v>2.5397042174510642</v>
       </c>
-      <c r="CM138" s="20">
+      <c r="CM138" s="15">
         <v>9.1614497764906773</v>
       </c>
-      <c r="CN138" s="20">
-        <v>16.727651505354139</v>
-      </c>
-      <c r="CO138" s="8"/>
+      <c r="CN138" s="15">
+        <v>16.658884632941838</v>
+      </c>
+      <c r="CO138" s="15">
+        <v>10.397251610723133</v>
+      </c>
       <c r="CP138" s="8"/>
       <c r="CQ138" s="8"/>
       <c r="CR138" s="8"/>
@@ -22034,28 +22156,30 @@
       <c r="CG139" s="15">
         <v>0.60148638065745919</v>
       </c>
-      <c r="CH139" s="20">
+      <c r="CH139" s="15">
         <v>0.56187529055733054</v>
       </c>
-      <c r="CI139" s="20">
+      <c r="CI139" s="15">
         <v>0.57989329839645298</v>
       </c>
-      <c r="CJ139" s="20">
+      <c r="CJ139" s="15">
         <v>0.84482969081861936</v>
       </c>
-      <c r="CK139" s="20">
+      <c r="CK139" s="15">
         <v>0.79241330198598137</v>
       </c>
-      <c r="CL139" s="20">
+      <c r="CL139" s="15">
         <v>0.48713886300158227</v>
       </c>
-      <c r="CM139" s="20">
+      <c r="CM139" s="15">
         <v>0.49958929902264754</v>
       </c>
-      <c r="CN139" s="20">
-        <v>0.62856726858971201</v>
-      </c>
-      <c r="CO139" s="8"/>
+      <c r="CN139" s="15">
+        <v>0.6259832474467667</v>
+      </c>
+      <c r="CO139" s="15">
+        <v>0.64350435470053691</v>
+      </c>
       <c r="CP139" s="8"/>
       <c r="CQ139" s="8"/>
       <c r="CR139" s="8"/>
@@ -22371,28 +22495,30 @@
       <c r="CG140" s="15">
         <v>15.398891770769421</v>
       </c>
-      <c r="CH140" s="20">
+      <c r="CH140" s="15">
         <v>19.317719145174404</v>
       </c>
-      <c r="CI140" s="20">
+      <c r="CI140" s="15">
         <v>17.667157848046728</v>
       </c>
-      <c r="CJ140" s="20">
+      <c r="CJ140" s="15">
         <v>15.641018178667684</v>
       </c>
-      <c r="CK140" s="20">
+      <c r="CK140" s="15">
         <v>15.082616976026891</v>
       </c>
-      <c r="CL140" s="20">
+      <c r="CL140" s="15">
         <v>17.349678360577634</v>
       </c>
-      <c r="CM140" s="20">
+      <c r="CM140" s="15">
         <v>15.970465012773264</v>
       </c>
-      <c r="CN140" s="20">
-        <v>13.75772239591144</v>
-      </c>
-      <c r="CO140" s="8"/>
+      <c r="CN140" s="15">
+        <v>13.711533730578918</v>
+      </c>
+      <c r="CO140" s="15">
+        <v>13.35106943391396</v>
+      </c>
       <c r="CP140" s="8"/>
       <c r="CQ140" s="8"/>
       <c r="CR140" s="8"/>
@@ -22708,28 +22834,30 @@
       <c r="CG141" s="15">
         <v>64.942432985931987</v>
       </c>
-      <c r="CH141" s="20">
+      <c r="CH141" s="15">
         <v>62.113759774290536</v>
       </c>
-      <c r="CI141" s="20">
+      <c r="CI141" s="15">
         <v>59.739511634489538</v>
       </c>
-      <c r="CJ141" s="20">
+      <c r="CJ141" s="15">
         <v>58.515472634346807</v>
       </c>
-      <c r="CK141" s="20">
+      <c r="CK141" s="15">
         <v>61.509603746173291</v>
       </c>
-      <c r="CL141" s="20">
+      <c r="CL141" s="15">
         <v>58.854344582927389</v>
       </c>
-      <c r="CM141" s="20">
+      <c r="CM141" s="15">
         <v>57.216271541737044</v>
       </c>
-      <c r="CN141" s="20">
-        <v>52.145173549858782</v>
-      </c>
-      <c r="CO141" s="8"/>
+      <c r="CN141" s="15">
+        <v>51.410297585496224</v>
+      </c>
+      <c r="CO141" s="15">
+        <v>53.078104799141443</v>
+      </c>
       <c r="CP141" s="8"/>
       <c r="CQ141" s="8"/>
       <c r="CR141" s="8"/>
@@ -23045,28 +23173,30 @@
       <c r="CG142" s="15">
         <v>10.351874513042256</v>
       </c>
-      <c r="CH142" s="20">
+      <c r="CH142" s="15">
         <v>12.899161118522739</v>
       </c>
-      <c r="CI142" s="20">
+      <c r="CI142" s="15">
         <v>12.573861544868803</v>
       </c>
-      <c r="CJ142" s="20">
+      <c r="CJ142" s="15">
         <v>11.817095775217298</v>
       </c>
-      <c r="CK142" s="20">
+      <c r="CK142" s="15">
         <v>11.380842922393025</v>
       </c>
-      <c r="CL142" s="20">
+      <c r="CL142" s="15">
         <v>12.378131943301597</v>
       </c>
-      <c r="CM142" s="20">
+      <c r="CM142" s="15">
         <v>11.202931605436945</v>
       </c>
-      <c r="CN142" s="20">
-        <v>7.7291493226418222</v>
-      </c>
-      <c r="CO142" s="8"/>
+      <c r="CN142" s="15">
+        <v>8.345123146101237</v>
+      </c>
+      <c r="CO142" s="15">
+        <v>10.409412904926842</v>
+      </c>
       <c r="CP142" s="8"/>
       <c r="CQ142" s="8"/>
       <c r="CR142" s="8"/>
@@ -23382,28 +23512,30 @@
       <c r="CG143" s="15">
         <v>1.075130132758765</v>
       </c>
-      <c r="CH143" s="20">
+      <c r="CH143" s="15">
         <v>0.97609787121298008</v>
       </c>
-      <c r="CI143" s="20">
+      <c r="CI143" s="15">
         <v>1.2187410292612511</v>
       </c>
-      <c r="CJ143" s="20">
+      <c r="CJ143" s="15">
         <v>1.7023004893900633</v>
       </c>
-      <c r="CK143" s="20">
+      <c r="CK143" s="15">
         <v>1.9103274329888156</v>
       </c>
-      <c r="CL143" s="20">
+      <c r="CL143" s="15">
         <v>0.99362136448919425</v>
       </c>
-      <c r="CM143" s="20">
+      <c r="CM143" s="15">
         <v>1.3096579277689999</v>
       </c>
-      <c r="CN143" s="20">
-        <v>2.007467794823846</v>
-      </c>
-      <c r="CO143" s="8"/>
+      <c r="CN143" s="15">
+        <v>1.6551593080145559</v>
+      </c>
+      <c r="CO143" s="15">
+        <v>2.5631446053869347</v>
+      </c>
       <c r="CP143" s="8"/>
       <c r="CQ143" s="8"/>
       <c r="CR143" s="8"/>
@@ -23892,7 +24024,9 @@
       <c r="CN145" s="14">
         <v>100</v>
       </c>
-      <c r="CO145" s="8"/>
+      <c r="CO145" s="14">
+        <v>100</v>
+      </c>
       <c r="CP145" s="8"/>
       <c r="CQ145" s="8"/>
       <c r="CR145" s="8"/>
@@ -24045,6 +24179,7 @@
       <c r="CL146" s="11"/>
       <c r="CM146" s="11"/>
       <c r="CN146" s="11"/>
+      <c r="CO146" s="11"/>
     </row>
     <row r="147" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
@@ -24367,7 +24502,7 @@
     </row>
     <row r="152" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="154" spans="1:151" x14ac:dyDescent="0.2">
@@ -24377,7 +24512,7 @@
     </row>
     <row r="155" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="156" spans="1:151" x14ac:dyDescent="0.2">
@@ -24387,143 +24522,144 @@
     </row>
     <row r="158" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
-      <c r="B158" s="21">
+      <c r="B158" s="18">
         <v>2000</v>
       </c>
-      <c r="C158" s="21"/>
-      <c r="D158" s="21"/>
-      <c r="E158" s="21"/>
-      <c r="F158" s="21">
+      <c r="C158" s="18"/>
+      <c r="D158" s="18"/>
+      <c r="E158" s="18"/>
+      <c r="F158" s="18">
         <v>2001</v>
       </c>
-      <c r="G158" s="21"/>
-      <c r="H158" s="21"/>
-      <c r="I158" s="21"/>
-      <c r="J158" s="21">
+      <c r="G158" s="18"/>
+      <c r="H158" s="18"/>
+      <c r="I158" s="18"/>
+      <c r="J158" s="18">
         <v>2002</v>
       </c>
-      <c r="K158" s="21"/>
-      <c r="L158" s="21"/>
-      <c r="M158" s="21"/>
-      <c r="N158" s="21">
+      <c r="K158" s="18"/>
+      <c r="L158" s="18"/>
+      <c r="M158" s="18"/>
+      <c r="N158" s="18">
         <v>2003</v>
       </c>
-      <c r="O158" s="21"/>
-      <c r="P158" s="21"/>
-      <c r="Q158" s="21"/>
-      <c r="R158" s="21">
+      <c r="O158" s="18"/>
+      <c r="P158" s="18"/>
+      <c r="Q158" s="18"/>
+      <c r="R158" s="18">
         <v>2004</v>
       </c>
-      <c r="S158" s="21"/>
-      <c r="T158" s="21"/>
-      <c r="U158" s="21"/>
-      <c r="V158" s="21">
+      <c r="S158" s="18"/>
+      <c r="T158" s="18"/>
+      <c r="U158" s="18"/>
+      <c r="V158" s="18">
         <v>2005</v>
       </c>
-      <c r="W158" s="21"/>
-      <c r="X158" s="21"/>
-      <c r="Y158" s="21"/>
-      <c r="Z158" s="21">
+      <c r="W158" s="18"/>
+      <c r="X158" s="18"/>
+      <c r="Y158" s="18"/>
+      <c r="Z158" s="18">
         <v>2006</v>
       </c>
-      <c r="AA158" s="21"/>
-      <c r="AB158" s="21"/>
-      <c r="AC158" s="21"/>
-      <c r="AD158" s="21">
+      <c r="AA158" s="18"/>
+      <c r="AB158" s="18"/>
+      <c r="AC158" s="18"/>
+      <c r="AD158" s="18">
         <v>2007</v>
       </c>
-      <c r="AE158" s="21"/>
-      <c r="AF158" s="21"/>
-      <c r="AG158" s="21"/>
-      <c r="AH158" s="21">
+      <c r="AE158" s="18"/>
+      <c r="AF158" s="18"/>
+      <c r="AG158" s="18"/>
+      <c r="AH158" s="18">
         <v>2008</v>
       </c>
-      <c r="AI158" s="21"/>
-      <c r="AJ158" s="21"/>
-      <c r="AK158" s="21"/>
-      <c r="AL158" s="21">
+      <c r="AI158" s="18"/>
+      <c r="AJ158" s="18"/>
+      <c r="AK158" s="18"/>
+      <c r="AL158" s="18">
         <v>2009</v>
       </c>
-      <c r="AM158" s="21"/>
-      <c r="AN158" s="21"/>
-      <c r="AO158" s="21"/>
-      <c r="AP158" s="21">
+      <c r="AM158" s="18"/>
+      <c r="AN158" s="18"/>
+      <c r="AO158" s="18"/>
+      <c r="AP158" s="18">
         <v>2010</v>
       </c>
-      <c r="AQ158" s="21"/>
-      <c r="AR158" s="21"/>
-      <c r="AS158" s="21"/>
-      <c r="AT158" s="21">
+      <c r="AQ158" s="18"/>
+      <c r="AR158" s="18"/>
+      <c r="AS158" s="18"/>
+      <c r="AT158" s="18">
         <v>2011</v>
       </c>
-      <c r="AU158" s="21"/>
-      <c r="AV158" s="21"/>
-      <c r="AW158" s="21"/>
-      <c r="AX158" s="21">
+      <c r="AU158" s="18"/>
+      <c r="AV158" s="18"/>
+      <c r="AW158" s="18"/>
+      <c r="AX158" s="18">
         <v>2012</v>
       </c>
-      <c r="AY158" s="21"/>
-      <c r="AZ158" s="21"/>
-      <c r="BA158" s="21"/>
-      <c r="BB158" s="21">
+      <c r="AY158" s="18"/>
+      <c r="AZ158" s="18"/>
+      <c r="BA158" s="18"/>
+      <c r="BB158" s="18">
         <v>2013</v>
       </c>
-      <c r="BC158" s="21"/>
-      <c r="BD158" s="21"/>
-      <c r="BE158" s="21"/>
-      <c r="BF158" s="21">
+      <c r="BC158" s="18"/>
+      <c r="BD158" s="18"/>
+      <c r="BE158" s="18"/>
+      <c r="BF158" s="18">
         <v>2014</v>
       </c>
-      <c r="BG158" s="21"/>
-      <c r="BH158" s="21"/>
-      <c r="BI158" s="21"/>
-      <c r="BJ158" s="21">
+      <c r="BG158" s="18"/>
+      <c r="BH158" s="18"/>
+      <c r="BI158" s="18"/>
+      <c r="BJ158" s="18">
         <v>2015</v>
       </c>
-      <c r="BK158" s="21"/>
-      <c r="BL158" s="21"/>
-      <c r="BM158" s="21"/>
-      <c r="BN158" s="21">
+      <c r="BK158" s="18"/>
+      <c r="BL158" s="18"/>
+      <c r="BM158" s="18"/>
+      <c r="BN158" s="18">
         <v>2016</v>
       </c>
-      <c r="BO158" s="21"/>
-      <c r="BP158" s="21"/>
-      <c r="BQ158" s="21"/>
-      <c r="BR158" s="21">
+      <c r="BO158" s="18"/>
+      <c r="BP158" s="18"/>
+      <c r="BQ158" s="18"/>
+      <c r="BR158" s="18">
         <v>2017</v>
       </c>
-      <c r="BS158" s="21"/>
-      <c r="BT158" s="21"/>
-      <c r="BU158" s="21"/>
-      <c r="BV158" s="21">
+      <c r="BS158" s="18"/>
+      <c r="BT158" s="18"/>
+      <c r="BU158" s="18"/>
+      <c r="BV158" s="18">
         <v>2018</v>
       </c>
-      <c r="BW158" s="21"/>
-      <c r="BX158" s="21"/>
-      <c r="BY158" s="21"/>
-      <c r="BZ158" s="21">
+      <c r="BW158" s="18"/>
+      <c r="BX158" s="18"/>
+      <c r="BY158" s="18"/>
+      <c r="BZ158" s="18">
         <v>2019</v>
       </c>
-      <c r="CA158" s="21"/>
-      <c r="CB158" s="21"/>
-      <c r="CC158" s="21"/>
-      <c r="CD158" s="21">
+      <c r="CA158" s="18"/>
+      <c r="CB158" s="18"/>
+      <c r="CC158" s="18"/>
+      <c r="CD158" s="18">
         <v>2020</v>
       </c>
-      <c r="CE158" s="21"/>
-      <c r="CF158" s="21"/>
-      <c r="CG158" s="21"/>
-      <c r="CH158" s="22">
+      <c r="CE158" s="18"/>
+      <c r="CF158" s="18"/>
+      <c r="CG158" s="18"/>
+      <c r="CH158" s="18">
         <v>2021</v>
       </c>
-      <c r="CI158" s="22"/>
-      <c r="CJ158" s="22"/>
-      <c r="CK158" s="22"/>
-      <c r="CL158" s="22">
+      <c r="CI158" s="18"/>
+      <c r="CJ158" s="18"/>
+      <c r="CK158" s="18"/>
+      <c r="CL158" s="18">
         <v>2022</v>
       </c>
-      <c r="CM158" s="22"/>
-      <c r="CN158" s="22"/>
+      <c r="CM158" s="18"/>
+      <c r="CN158" s="18"/>
+      <c r="CO158" s="18"/>
     </row>
     <row r="159" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
@@ -24799,6 +24935,9 @@
       </c>
       <c r="CN159" s="13" t="s">
         <v>9</v>
+      </c>
+      <c r="CO159" s="13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -25060,28 +25199,30 @@
       <c r="CG161" s="15">
         <v>5.1202309490742826</v>
       </c>
-      <c r="CH161" s="20">
+      <c r="CH161" s="15">
         <v>3.4474077754146877</v>
       </c>
-      <c r="CI161" s="20">
+      <c r="CI161" s="15">
         <v>3.0261185334538467</v>
       </c>
-      <c r="CJ161" s="20">
+      <c r="CJ161" s="15">
         <v>5.7945406475794554</v>
       </c>
-      <c r="CK161" s="20">
+      <c r="CK161" s="15">
         <v>5.7891861138282206</v>
       </c>
-      <c r="CL161" s="20">
+      <c r="CL161" s="15">
         <v>6.4973541440330891</v>
       </c>
-      <c r="CM161" s="20">
+      <c r="CM161" s="15">
         <v>4.1529741604999515</v>
       </c>
-      <c r="CN161" s="20">
-        <v>6.1390822600608921</v>
-      </c>
-      <c r="CO161" s="8"/>
+      <c r="CN161" s="15">
+        <v>6.6672853034692077</v>
+      </c>
+      <c r="CO161" s="15">
+        <v>8.1103551412160151</v>
+      </c>
       <c r="CP161" s="8"/>
       <c r="CQ161" s="8"/>
       <c r="CR161" s="8"/>
@@ -25397,28 +25538,30 @@
       <c r="CG162" s="15">
         <v>0.18817661213181042</v>
       </c>
-      <c r="CH162" s="20">
+      <c r="CH162" s="15">
         <v>8.7715920558017663E-2</v>
       </c>
-      <c r="CI162" s="20">
+      <c r="CI162" s="15">
         <v>6.116392952960753E-2</v>
       </c>
-      <c r="CJ162" s="20">
+      <c r="CJ162" s="15">
         <v>0.17363625637295835</v>
       </c>
-      <c r="CK162" s="20">
+      <c r="CK162" s="15">
         <v>0.17551752463079001</v>
       </c>
-      <c r="CL162" s="20">
+      <c r="CL162" s="15">
         <v>8.5368641966480946E-2</v>
       </c>
-      <c r="CM162" s="20">
+      <c r="CM162" s="15">
         <v>5.8841137449009859E-2</v>
       </c>
-      <c r="CN162" s="20">
-        <v>0.13829025183705657</v>
-      </c>
-      <c r="CO162" s="8"/>
+      <c r="CN162" s="15">
+        <v>0.14101494864450775</v>
+      </c>
+      <c r="CO162" s="15">
+        <v>0.17699281709170264</v>
+      </c>
       <c r="CP162" s="8"/>
       <c r="CQ162" s="8"/>
       <c r="CR162" s="8"/>
@@ -25734,28 +25877,30 @@
       <c r="CG163" s="15">
         <v>2.0185663269887475</v>
       </c>
-      <c r="CH163" s="20">
+      <c r="CH163" s="15">
         <v>0.31608265780620848</v>
       </c>
-      <c r="CI163" s="20">
+      <c r="CI163" s="15">
         <v>4.7835007819061266</v>
       </c>
-      <c r="CJ163" s="20">
+      <c r="CJ163" s="15">
         <v>5.2221723627921808</v>
       </c>
-      <c r="CK163" s="20">
+      <c r="CK163" s="15">
         <v>2.7702626782271129</v>
       </c>
-      <c r="CL163" s="20">
+      <c r="CL163" s="15">
         <v>2.5086581822839658</v>
       </c>
-      <c r="CM163" s="20">
+      <c r="CM163" s="15">
         <v>8.9520109509414567</v>
       </c>
-      <c r="CN163" s="20">
-        <v>16.284126516684008</v>
-      </c>
-      <c r="CO163" s="8"/>
+      <c r="CN163" s="15">
+        <v>16.227068570727301</v>
+      </c>
+      <c r="CO163" s="15">
+        <v>10.217009266495628</v>
+      </c>
       <c r="CP163" s="8"/>
       <c r="CQ163" s="8"/>
       <c r="CR163" s="8"/>
@@ -26071,28 +26216,30 @@
       <c r="CG164" s="15">
         <v>0.59336852384765482</v>
       </c>
-      <c r="CH164" s="20">
+      <c r="CH164" s="15">
         <v>0.57638805240990287</v>
       </c>
-      <c r="CI164" s="20">
+      <c r="CI164" s="15">
         <v>0.57822142937842447</v>
       </c>
-      <c r="CJ164" s="20">
+      <c r="CJ164" s="15">
         <v>0.85359072934355051</v>
       </c>
-      <c r="CK164" s="20">
+      <c r="CK164" s="15">
         <v>0.784227592561623</v>
       </c>
-      <c r="CL164" s="20">
+      <c r="CL164" s="15">
         <v>0.50265380266675763</v>
       </c>
-      <c r="CM164" s="20">
+      <c r="CM164" s="15">
         <v>0.51326441545821277</v>
       </c>
-      <c r="CN164" s="20">
-        <v>0.64185715070375782</v>
-      </c>
-      <c r="CO164" s="8"/>
+      <c r="CN164" s="15">
+        <v>0.63960814762832363</v>
+      </c>
+      <c r="CO164" s="15">
+        <v>0.64055792973566383</v>
+      </c>
       <c r="CP164" s="8"/>
       <c r="CQ164" s="8"/>
       <c r="CR164" s="8"/>
@@ -26408,28 +26555,30 @@
       <c r="CG165" s="15">
         <v>16.223448810278832</v>
       </c>
-      <c r="CH165" s="20">
+      <c r="CH165" s="15">
         <v>20.516142766994637</v>
       </c>
-      <c r="CI165" s="20">
+      <c r="CI165" s="15">
         <v>18.254315872337752</v>
       </c>
-      <c r="CJ165" s="20">
+      <c r="CJ165" s="15">
         <v>16.633834143540728</v>
       </c>
-      <c r="CK165" s="20">
+      <c r="CK165" s="15">
         <v>16.40765748487652</v>
       </c>
-      <c r="CL165" s="20">
+      <c r="CL165" s="15">
         <v>19.086143938106673</v>
       </c>
-      <c r="CM165" s="20">
+      <c r="CM165" s="15">
         <v>17.695269622999863</v>
       </c>
-      <c r="CN165" s="20">
-        <v>15.481281859804952</v>
-      </c>
-      <c r="CO165" s="8"/>
+      <c r="CN165" s="15">
+        <v>15.438712043287861</v>
+      </c>
+      <c r="CO165" s="15">
+        <v>15.384572026905325</v>
+      </c>
       <c r="CP165" s="8"/>
       <c r="CQ165" s="8"/>
       <c r="CR165" s="8"/>
@@ -26745,28 +26894,30 @@
       <c r="CG166" s="15">
         <v>64.310408029086403</v>
       </c>
-      <c r="CH166" s="20">
+      <c r="CH166" s="15">
         <v>61.164248120272603</v>
       </c>
-      <c r="CI166" s="20">
+      <c r="CI166" s="15">
         <v>59.892136466384585</v>
       </c>
-      <c r="CJ166" s="20">
+      <c r="CJ166" s="15">
         <v>57.924645792109352</v>
       </c>
-      <c r="CK166" s="20">
+      <c r="CK166" s="15">
         <v>60.692607672459189</v>
       </c>
-      <c r="CL166" s="20">
+      <c r="CL166" s="15">
         <v>57.936211169675126</v>
       </c>
-      <c r="CM166" s="20">
+      <c r="CM166" s="15">
         <v>56.098695068659744</v>
       </c>
-      <c r="CN166" s="20">
-        <v>51.659618241076721</v>
-      </c>
-      <c r="CO166" s="8"/>
+      <c r="CN166" s="15">
+        <v>50.962631833623497</v>
+      </c>
+      <c r="CO166" s="15">
+        <v>52.403775192551592</v>
+      </c>
       <c r="CP166" s="8"/>
       <c r="CQ166" s="8"/>
       <c r="CR166" s="8"/>
@@ -27082,28 +27233,30 @@
       <c r="CG167" s="15">
         <v>10.46046872292475</v>
       </c>
-      <c r="CH167" s="20">
+      <c r="CH167" s="15">
         <v>12.915242539636109</v>
       </c>
-      <c r="CI167" s="20">
+      <c r="CI167" s="15">
         <v>12.223207177357558</v>
       </c>
-      <c r="CJ167" s="20">
+      <c r="CJ167" s="15">
         <v>11.71213379400187</v>
       </c>
-      <c r="CK167" s="20">
+      <c r="CK167" s="15">
         <v>11.45900037965375</v>
       </c>
-      <c r="CL167" s="20">
+      <c r="CL167" s="15">
         <v>12.389618849872395</v>
       </c>
-      <c r="CM167" s="20">
+      <c r="CM167" s="15">
         <v>11.220962701815905</v>
       </c>
-      <c r="CN167" s="20">
-        <v>7.6665747224069465</v>
-      </c>
-      <c r="CO167" s="8"/>
+      <c r="CN167" s="15">
+        <v>8.2826074735092714</v>
+      </c>
+      <c r="CO167" s="15">
+        <v>10.487037945566396</v>
+      </c>
       <c r="CP167" s="8"/>
       <c r="CQ167" s="8"/>
       <c r="CR167" s="8"/>
@@ -27419,28 +27572,30 @@
       <c r="CG168" s="15">
         <v>1.085332025667505</v>
       </c>
-      <c r="CH168" s="20">
+      <c r="CH168" s="15">
         <v>0.9767721669078312</v>
       </c>
-      <c r="CI168" s="20">
+      <c r="CI168" s="15">
         <v>1.1813358096520878</v>
       </c>
-      <c r="CJ168" s="20">
+      <c r="CJ168" s="15">
         <v>1.6854462742598915</v>
       </c>
-      <c r="CK168" s="20">
+      <c r="CK168" s="15">
         <v>1.9215405537628021</v>
       </c>
-      <c r="CL168" s="20">
+      <c r="CL168" s="15">
         <v>0.99399127139552668</v>
       </c>
-      <c r="CM168" s="20">
+      <c r="CM168" s="15">
         <v>1.3079819421758536</v>
       </c>
-      <c r="CN168" s="20">
-        <v>1.9891689974256495</v>
-      </c>
-      <c r="CO168" s="8"/>
+      <c r="CN168" s="15">
+        <v>1.6410716791100506</v>
+      </c>
+      <c r="CO168" s="15">
+        <v>2.5796996804376882</v>
+      </c>
       <c r="CP168" s="8"/>
       <c r="CQ168" s="8"/>
       <c r="CR168" s="8"/>
@@ -27929,7 +28084,9 @@
       <c r="CN170" s="14">
         <v>100</v>
       </c>
-      <c r="CO170" s="8"/>
+      <c r="CO170" s="14">
+        <v>100</v>
+      </c>
       <c r="CP170" s="8"/>
       <c r="CQ170" s="8"/>
       <c r="CR170" s="8"/>
@@ -28082,6 +28239,7 @@
       <c r="CL171" s="11"/>
       <c r="CM171" s="11"/>
       <c r="CN171" s="11"/>
+      <c r="CO171" s="11"/>
     </row>
     <row r="172" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
@@ -28181,7 +28339,7 @@
       <c r="CL173" s="1"/>
       <c r="CM173" s="1"/>
       <c r="CN173" s="1"/>
-      <c r="CO173" s="16"/>
+      <c r="CO173" s="1"/>
       <c r="CP173" s="16"/>
       <c r="CQ173" s="16"/>
       <c r="CR173" s="16"/>
@@ -28334,7 +28492,7 @@
       <c r="CL174" s="1"/>
       <c r="CM174" s="1"/>
       <c r="CN174" s="1"/>
-      <c r="CO174" s="16"/>
+      <c r="CO174" s="1"/>
       <c r="CP174" s="16"/>
       <c r="CQ174" s="16"/>
       <c r="CR174" s="16"/>
@@ -28396,32 +28554,117 @@
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="CH133:CK133"/>
-    <mergeCell ref="CH158:CK158"/>
-    <mergeCell ref="CL9:CN9"/>
-    <mergeCell ref="CL34:CN34"/>
-    <mergeCell ref="CH59:CJ59"/>
-    <mergeCell ref="CL59:CM59"/>
-    <mergeCell ref="CH84:CJ84"/>
-    <mergeCell ref="CL84:CM84"/>
-    <mergeCell ref="CL108:CN108"/>
-    <mergeCell ref="CL133:CN133"/>
-    <mergeCell ref="CL158:CN158"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH34:CK34"/>
-    <mergeCell ref="CD59:CG59"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="CH108:CK108"/>
-    <mergeCell ref="BZ108:CC108"/>
-    <mergeCell ref="BR108:BU108"/>
-    <mergeCell ref="BR34:BU34"/>
-    <mergeCell ref="BV34:BY34"/>
-    <mergeCell ref="BV108:BY108"/>
-    <mergeCell ref="BV59:BY59"/>
+    <mergeCell ref="R108:U108"/>
+    <mergeCell ref="CD158:CG158"/>
+    <mergeCell ref="CD133:CG133"/>
+    <mergeCell ref="CD108:CG108"/>
+    <mergeCell ref="CD34:CG34"/>
+    <mergeCell ref="BB158:BE158"/>
+    <mergeCell ref="BF158:BI158"/>
+    <mergeCell ref="BJ158:BM158"/>
+    <mergeCell ref="BN158:BQ158"/>
+    <mergeCell ref="BF133:BI133"/>
+    <mergeCell ref="BJ133:BM133"/>
+    <mergeCell ref="BN133:BQ133"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="BB108:BE108"/>
+    <mergeCell ref="BF108:BI108"/>
+    <mergeCell ref="BZ34:CC34"/>
+    <mergeCell ref="BR59:BU59"/>
+    <mergeCell ref="BB133:BE133"/>
+    <mergeCell ref="BJ34:BM34"/>
+    <mergeCell ref="BN34:BQ34"/>
+    <mergeCell ref="BF59:BI59"/>
+    <mergeCell ref="BJ59:BM59"/>
+    <mergeCell ref="BB59:BE59"/>
+    <mergeCell ref="BN59:BQ59"/>
+    <mergeCell ref="V158:Y158"/>
+    <mergeCell ref="Z158:AC158"/>
+    <mergeCell ref="AD158:AG158"/>
+    <mergeCell ref="AH158:AK158"/>
+    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="F133:I133"/>
+    <mergeCell ref="J133:M133"/>
+    <mergeCell ref="N133:Q133"/>
+    <mergeCell ref="R133:U133"/>
+    <mergeCell ref="V133:Y133"/>
+    <mergeCell ref="Z133:AC133"/>
+    <mergeCell ref="AD133:AG133"/>
+    <mergeCell ref="AH133:AK133"/>
+    <mergeCell ref="B158:E158"/>
+    <mergeCell ref="F158:I158"/>
+    <mergeCell ref="J158:M158"/>
+    <mergeCell ref="N158:Q158"/>
+    <mergeCell ref="R158:U158"/>
+    <mergeCell ref="V108:Y108"/>
+    <mergeCell ref="Z108:AC108"/>
+    <mergeCell ref="AD108:AG108"/>
+    <mergeCell ref="AH108:AK108"/>
+    <mergeCell ref="AL108:AO108"/>
+    <mergeCell ref="AP108:AS108"/>
+    <mergeCell ref="AT108:AW108"/>
+    <mergeCell ref="AX108:BA108"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="AD59:AG59"/>
+    <mergeCell ref="AH59:AK59"/>
+    <mergeCell ref="AL59:AO59"/>
+    <mergeCell ref="AP59:AS59"/>
+    <mergeCell ref="AT59:AW59"/>
+    <mergeCell ref="AX59:BA59"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="J108:M108"/>
+    <mergeCell ref="N108:Q108"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="BB34:BE34"/>
+    <mergeCell ref="BF34:BI34"/>
+    <mergeCell ref="V34:Y34"/>
+    <mergeCell ref="Z34:AC34"/>
+    <mergeCell ref="AD34:AG34"/>
+    <mergeCell ref="AH34:AK34"/>
+    <mergeCell ref="AL34:AO34"/>
+    <mergeCell ref="AP34:AS34"/>
+    <mergeCell ref="AT34:AW34"/>
+    <mergeCell ref="AX34:BA34"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="BZ158:CC158"/>
+    <mergeCell ref="BR158:BU158"/>
+    <mergeCell ref="BV158:BY158"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BV84:BY84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AL158:AO158"/>
+    <mergeCell ref="AP158:AS158"/>
+    <mergeCell ref="AT158:AW158"/>
+    <mergeCell ref="AX158:BA158"/>
+    <mergeCell ref="BJ108:BM108"/>
+    <mergeCell ref="BN108:BQ108"/>
+    <mergeCell ref="AL133:AO133"/>
+    <mergeCell ref="AP133:AS133"/>
     <mergeCell ref="BN9:BQ9"/>
     <mergeCell ref="BZ59:CC59"/>
     <mergeCell ref="BZ84:CC84"/>
@@ -28446,125 +28689,40 @@
     <mergeCell ref="BF9:BI9"/>
     <mergeCell ref="BJ9:BM9"/>
     <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="BZ158:CC158"/>
-    <mergeCell ref="BR158:BU158"/>
-    <mergeCell ref="BV158:BY158"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BV84:BY84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AL158:AO158"/>
-    <mergeCell ref="AP158:AS158"/>
-    <mergeCell ref="AT158:AW158"/>
-    <mergeCell ref="AX158:BA158"/>
-    <mergeCell ref="BJ108:BM108"/>
-    <mergeCell ref="BN108:BQ108"/>
-    <mergeCell ref="AL133:AO133"/>
-    <mergeCell ref="AP133:AS133"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="BB34:BE34"/>
-    <mergeCell ref="BF34:BI34"/>
-    <mergeCell ref="V34:Y34"/>
-    <mergeCell ref="Z34:AC34"/>
-    <mergeCell ref="AD34:AG34"/>
-    <mergeCell ref="AH34:AK34"/>
-    <mergeCell ref="AL34:AO34"/>
-    <mergeCell ref="AP34:AS34"/>
-    <mergeCell ref="AT34:AW34"/>
-    <mergeCell ref="AX34:BA34"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="V108:Y108"/>
-    <mergeCell ref="Z108:AC108"/>
-    <mergeCell ref="AD108:AG108"/>
-    <mergeCell ref="AH108:AK108"/>
-    <mergeCell ref="AL108:AO108"/>
-    <mergeCell ref="AP108:AS108"/>
-    <mergeCell ref="AT108:AW108"/>
-    <mergeCell ref="AX108:BA108"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="R34:U34"/>
-    <mergeCell ref="AD59:AG59"/>
-    <mergeCell ref="AH59:AK59"/>
-    <mergeCell ref="AL59:AO59"/>
-    <mergeCell ref="AP59:AS59"/>
-    <mergeCell ref="AT59:AW59"/>
-    <mergeCell ref="AX59:BA59"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="J108:M108"/>
-    <mergeCell ref="N108:Q108"/>
-    <mergeCell ref="V158:Y158"/>
-    <mergeCell ref="Z158:AC158"/>
-    <mergeCell ref="AD158:AG158"/>
-    <mergeCell ref="AH158:AK158"/>
-    <mergeCell ref="B133:E133"/>
-    <mergeCell ref="F133:I133"/>
-    <mergeCell ref="J133:M133"/>
-    <mergeCell ref="N133:Q133"/>
-    <mergeCell ref="R133:U133"/>
-    <mergeCell ref="V133:Y133"/>
-    <mergeCell ref="Z133:AC133"/>
-    <mergeCell ref="AD133:AG133"/>
-    <mergeCell ref="AH133:AK133"/>
-    <mergeCell ref="B158:E158"/>
-    <mergeCell ref="F158:I158"/>
-    <mergeCell ref="J158:M158"/>
-    <mergeCell ref="N158:Q158"/>
-    <mergeCell ref="R158:U158"/>
-    <mergeCell ref="R108:U108"/>
-    <mergeCell ref="CD158:CG158"/>
-    <mergeCell ref="CD133:CG133"/>
-    <mergeCell ref="CD108:CG108"/>
-    <mergeCell ref="CD34:CG34"/>
-    <mergeCell ref="BB158:BE158"/>
-    <mergeCell ref="BF158:BI158"/>
-    <mergeCell ref="BJ158:BM158"/>
-    <mergeCell ref="BN158:BQ158"/>
-    <mergeCell ref="BF133:BI133"/>
-    <mergeCell ref="BJ133:BM133"/>
-    <mergeCell ref="BN133:BQ133"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="BB108:BE108"/>
-    <mergeCell ref="BF108:BI108"/>
-    <mergeCell ref="BZ34:CC34"/>
-    <mergeCell ref="BR59:BU59"/>
-    <mergeCell ref="BB133:BE133"/>
-    <mergeCell ref="BJ34:BM34"/>
-    <mergeCell ref="BN34:BQ34"/>
-    <mergeCell ref="BF59:BI59"/>
-    <mergeCell ref="BJ59:BM59"/>
-    <mergeCell ref="BB59:BE59"/>
-    <mergeCell ref="BN59:BQ59"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH34:CK34"/>
+    <mergeCell ref="CD59:CG59"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="CH108:CK108"/>
+    <mergeCell ref="BZ108:CC108"/>
+    <mergeCell ref="BR108:BU108"/>
+    <mergeCell ref="BR34:BU34"/>
+    <mergeCell ref="BV34:BY34"/>
+    <mergeCell ref="BV108:BY108"/>
+    <mergeCell ref="BV59:BY59"/>
+    <mergeCell ref="CH59:CK59"/>
+    <mergeCell ref="CH84:CK84"/>
+    <mergeCell ref="CH133:CK133"/>
+    <mergeCell ref="CH158:CK158"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CL34:CO34"/>
+    <mergeCell ref="CL108:CO108"/>
+    <mergeCell ref="CL133:CO133"/>
+    <mergeCell ref="CL158:CO158"/>
+    <mergeCell ref="CL59:CO59"/>
+    <mergeCell ref="CL84:CO84"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="50" max="91" man="1"/>
-    <brk id="100" max="91" man="1"/>
-    <brk id="124" max="91" man="1"/>
+    <brk id="50" max="92" man="1"/>
+    <brk id="100" max="92" man="1"/>
+    <brk id="124" max="92" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-05EOS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-05EOS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3A1B69-B6BB-49A6-9992-4AF6E4671BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC599D29-E3C3-4F9D-AA4D-899DE756C4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14685" yWindow="2430" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EOS" sheetId="5" r:id="rId1"/>
@@ -216,13 +216,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of January 2023</t>
-  </si>
-  <si>
     <t>Q1 2000 to Q4 2022</t>
   </si>
   <si>
     <t>Q1 2001 to Q4 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -305,12 +305,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -341,16 +342,17 @@
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="3" xr:uid="{6723F22D-4F90-4FF9-9259-EC4466D72A7E}"/>
+    <cellStyle name="Comma 3" xfId="5" xr:uid="{93CE3068-515D-4122-A982-E127FA521813}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 2 2" xfId="4" xr:uid="{78159270-CE73-4CE4-AA2D-A6D5E43E5F2C}"/>
@@ -670,7 +672,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -684,11 +686,11 @@
   <dimension ref="A1:EU174"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="95" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="CD3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BX3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="CH1" sqref="CH1:CO1048576"/>
+      <selection pane="bottomRight" activeCell="CD1" sqref="CD1:CO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -711,7 +713,7 @@
     </row>
     <row r="3" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:151" x14ac:dyDescent="0.2">
@@ -721,7 +723,7 @@
     </row>
     <row r="6" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:151" x14ac:dyDescent="0.2">
@@ -731,144 +733,144 @@
     </row>
     <row r="9" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <v>2000</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18">
         <v>2001</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19">
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18">
         <v>2002</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19">
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18">
         <v>2003</v>
       </c>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19">
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18">
         <v>2004</v>
       </c>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19">
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18">
         <v>2005</v>
       </c>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19">
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18">
         <v>2006</v>
       </c>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19">
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18">
         <v>2007</v>
       </c>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19">
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18">
         <v>2008</v>
       </c>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="19"/>
-      <c r="AL9" s="19">
+      <c r="AI9" s="18"/>
+      <c r="AJ9" s="18"/>
+      <c r="AK9" s="18"/>
+      <c r="AL9" s="18">
         <v>2009</v>
       </c>
-      <c r="AM9" s="19"/>
-      <c r="AN9" s="19"/>
-      <c r="AO9" s="19"/>
-      <c r="AP9" s="19">
+      <c r="AM9" s="18"/>
+      <c r="AN9" s="18"/>
+      <c r="AO9" s="18"/>
+      <c r="AP9" s="18">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="19"/>
-      <c r="AR9" s="19"/>
-      <c r="AS9" s="19"/>
-      <c r="AT9" s="19">
+      <c r="AQ9" s="18"/>
+      <c r="AR9" s="18"/>
+      <c r="AS9" s="18"/>
+      <c r="AT9" s="18">
         <v>2011</v>
       </c>
-      <c r="AU9" s="19"/>
-      <c r="AV9" s="19"/>
-      <c r="AW9" s="19"/>
-      <c r="AX9" s="19">
+      <c r="AU9" s="18"/>
+      <c r="AV9" s="18"/>
+      <c r="AW9" s="18"/>
+      <c r="AX9" s="18">
         <v>2012</v>
       </c>
-      <c r="AY9" s="19"/>
-      <c r="AZ9" s="19"/>
-      <c r="BA9" s="19"/>
-      <c r="BB9" s="19">
+      <c r="AY9" s="18"/>
+      <c r="AZ9" s="18"/>
+      <c r="BA9" s="18"/>
+      <c r="BB9" s="18">
         <v>2013</v>
       </c>
-      <c r="BC9" s="19"/>
-      <c r="BD9" s="19"/>
-      <c r="BE9" s="19"/>
-      <c r="BF9" s="19">
+      <c r="BC9" s="18"/>
+      <c r="BD9" s="18"/>
+      <c r="BE9" s="18"/>
+      <c r="BF9" s="18">
         <v>2014</v>
       </c>
-      <c r="BG9" s="19"/>
-      <c r="BH9" s="19"/>
-      <c r="BI9" s="19"/>
-      <c r="BJ9" s="19">
+      <c r="BG9" s="18"/>
+      <c r="BH9" s="18"/>
+      <c r="BI9" s="18"/>
+      <c r="BJ9" s="18">
         <v>2015</v>
       </c>
-      <c r="BK9" s="19"/>
-      <c r="BL9" s="19"/>
-      <c r="BM9" s="19"/>
-      <c r="BN9" s="19">
+      <c r="BK9" s="18"/>
+      <c r="BL9" s="18"/>
+      <c r="BM9" s="18"/>
+      <c r="BN9" s="18">
         <v>2016</v>
       </c>
-      <c r="BO9" s="19"/>
-      <c r="BP9" s="19"/>
-      <c r="BQ9" s="19"/>
-      <c r="BR9" s="19">
+      <c r="BO9" s="18"/>
+      <c r="BP9" s="18"/>
+      <c r="BQ9" s="18"/>
+      <c r="BR9" s="18">
         <v>2017</v>
       </c>
-      <c r="BS9" s="19"/>
-      <c r="BT9" s="19"/>
-      <c r="BU9" s="19"/>
-      <c r="BV9" s="19">
+      <c r="BS9" s="18"/>
+      <c r="BT9" s="18"/>
+      <c r="BU9" s="18"/>
+      <c r="BV9" s="18">
         <v>2018</v>
       </c>
-      <c r="BW9" s="19"/>
-      <c r="BX9" s="19"/>
-      <c r="BY9" s="19"/>
-      <c r="BZ9" s="19">
+      <c r="BW9" s="18"/>
+      <c r="BX9" s="18"/>
+      <c r="BY9" s="18"/>
+      <c r="BZ9" s="18">
         <v>2019</v>
       </c>
-      <c r="CA9" s="19"/>
-      <c r="CB9" s="19"/>
-      <c r="CC9" s="19"/>
-      <c r="CD9" s="19">
+      <c r="CA9" s="18"/>
+      <c r="CB9" s="18"/>
+      <c r="CC9" s="18"/>
+      <c r="CD9" s="18">
         <v>2020</v>
       </c>
-      <c r="CE9" s="19"/>
-      <c r="CF9" s="19"/>
-      <c r="CG9" s="19"/>
-      <c r="CH9" s="19">
+      <c r="CE9" s="18"/>
+      <c r="CF9" s="18"/>
+      <c r="CG9" s="18"/>
+      <c r="CH9" s="18">
         <v>2021</v>
       </c>
-      <c r="CI9" s="19"/>
-      <c r="CJ9" s="19"/>
-      <c r="CK9" s="19"/>
-      <c r="CL9" s="19">
+      <c r="CI9" s="18"/>
+      <c r="CJ9" s="18"/>
+      <c r="CK9" s="18"/>
+      <c r="CL9" s="18">
         <v>2022</v>
       </c>
-      <c r="CM9" s="19"/>
-      <c r="CN9" s="19"/>
-      <c r="CO9" s="19"/>
+      <c r="CM9" s="18"/>
+      <c r="CN9" s="18"/>
+      <c r="CO9" s="18"/>
     </row>
     <row r="10" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
@@ -1409,28 +1411,28 @@
         <v>22216.480801235044</v>
       </c>
       <c r="CH12" s="7">
-        <v>21033.793561145554</v>
+        <v>20994.845549091202</v>
       </c>
       <c r="CI12" s="7">
-        <v>18620.122244720733</v>
+        <v>18720.249271725566</v>
       </c>
       <c r="CJ12" s="7">
-        <v>26603.035473364289</v>
+        <v>26605.64460961007</v>
       </c>
       <c r="CK12" s="7">
-        <v>30251.874477730737</v>
+        <v>30220.178862962039</v>
       </c>
       <c r="CL12" s="7">
-        <v>50258.560429231249</v>
+        <v>50141.526896531599</v>
       </c>
       <c r="CM12" s="7">
-        <v>33139.468201854463</v>
+        <v>33174.177713591889</v>
       </c>
       <c r="CN12" s="7">
-        <v>47100.625898760809</v>
+        <v>45433.318337045661</v>
       </c>
       <c r="CO12" s="7">
-        <v>57930.409105300379</v>
+        <v>57101.427341662231</v>
       </c>
       <c r="CP12" s="8"/>
       <c r="CQ12" s="8"/>
@@ -1748,28 +1750,28 @@
         <v>764.01571953703251</v>
       </c>
       <c r="CH13" s="7">
-        <v>494.94355919274147</v>
+        <v>492.15836377201595</v>
       </c>
       <c r="CI13" s="7">
-        <v>373.40447089070352</v>
+        <v>378.65196210954639</v>
       </c>
       <c r="CJ13" s="7">
-        <v>784.47112518823997</v>
+        <v>784.71308324092604</v>
       </c>
       <c r="CK13" s="7">
-        <v>830.4420663112827</v>
+        <v>827.28506832280971</v>
       </c>
       <c r="CL13" s="7">
-        <v>585.8994176014229</v>
+        <v>574.23768992813712</v>
       </c>
       <c r="CM13" s="7">
-        <v>428.54422513630175</v>
+        <v>434.56660096089865</v>
       </c>
       <c r="CN13" s="7">
-        <v>899.71179006084117</v>
+        <v>901.3910259754723</v>
       </c>
       <c r="CO13" s="7">
-        <v>1087.3279799203588</v>
+        <v>1017.4234524259053</v>
       </c>
       <c r="CP13" s="8"/>
       <c r="CQ13" s="8"/>
@@ -2426,28 +2428,28 @@
         <v>2462.0720387274218</v>
       </c>
       <c r="CH15" s="7">
-        <v>3176.1164861084762</v>
+        <v>3537.7886341314402</v>
       </c>
       <c r="CI15" s="7">
-        <v>3438.8113492011862</v>
+        <v>3830.3972034200297</v>
       </c>
       <c r="CJ15" s="7">
-        <v>3776.489155427616</v>
+        <v>4206.527206866479</v>
       </c>
       <c r="CK15" s="7">
-        <v>3766.3361559899336</v>
+        <v>4195.2180605646736</v>
       </c>
       <c r="CL15" s="7">
-        <v>3348.254398481552</v>
+        <v>3729.5283113630962</v>
       </c>
       <c r="CM15" s="7">
-        <v>3614.5559700248496</v>
+        <v>4331.5359392082883</v>
       </c>
       <c r="CN15" s="7">
-        <v>3957.2414924143222</v>
+        <v>4463.2768148689938</v>
       </c>
       <c r="CO15" s="7">
-        <v>3973.6460348422115</v>
+        <v>4595.0686874499042</v>
       </c>
       <c r="CP15" s="8"/>
       <c r="CQ15" s="8"/>
@@ -2774,19 +2776,19 @@
         <v>69917.210739065209</v>
       </c>
       <c r="CK16" s="7">
-        <v>71687.597244250457</v>
+        <v>71751.796558186717</v>
       </c>
       <c r="CL16" s="7">
-        <v>119249.64583015742</v>
+        <v>119217.8979954884</v>
       </c>
       <c r="CM16" s="7">
-        <v>115547.1899997116</v>
+        <v>118035.67759448505</v>
       </c>
       <c r="CN16" s="7">
-        <v>86679.396652543262</v>
+        <v>85298.716941900639</v>
       </c>
       <c r="CO16" s="7">
-        <v>82442.991612176251</v>
+        <v>88349.252531254111</v>
       </c>
       <c r="CP16" s="8"/>
       <c r="CQ16" s="8"/>
@@ -3104,28 +3106,28 @@
         <v>265829.70707802282</v>
       </c>
       <c r="CH17" s="7">
-        <v>351110.89551138802</v>
+        <v>351679.52114254609</v>
       </c>
       <c r="CI17" s="7">
-        <v>354259.84603114275</v>
+        <v>353529.65916494699</v>
       </c>
       <c r="CJ17" s="7">
-        <v>261571.11927991663</v>
+        <v>260960.18699456754</v>
       </c>
       <c r="CK17" s="7">
         <v>292354.81528290245</v>
       </c>
       <c r="CL17" s="7">
-        <v>404523.9111191493</v>
+        <v>407354.16197559203</v>
       </c>
       <c r="CM17" s="7">
-        <v>413962.86167124903</v>
+        <v>417649.08107765322</v>
       </c>
       <c r="CN17" s="7">
-        <v>324997.45571864391</v>
+        <v>328602.19931776245</v>
       </c>
       <c r="CO17" s="7">
-        <v>327757.84519779845</v>
+        <v>330617.25478872925</v>
       </c>
       <c r="CP17" s="8"/>
       <c r="CQ17" s="8"/>
@@ -3443,28 +3445,28 @@
         <v>42373.462819087537</v>
       </c>
       <c r="CH18" s="7">
-        <v>72915.18059972288</v>
+        <v>72843.014409014562</v>
       </c>
       <c r="CI18" s="7">
-        <v>74563.954960931631</v>
+        <v>73018.929677039428</v>
       </c>
       <c r="CJ18" s="7">
-        <v>52823.822989122251</v>
+        <v>55170.75949903814</v>
       </c>
       <c r="CK18" s="7">
-        <v>54093.085107005565</v>
+        <v>55767.085148338512</v>
       </c>
       <c r="CL18" s="7">
-        <v>85078.686739903889</v>
+        <v>86134.983310187468</v>
       </c>
       <c r="CM18" s="7">
-        <v>81053.824402224651</v>
+        <v>79391.782907497327</v>
       </c>
       <c r="CN18" s="7">
-        <v>52754.874364057599</v>
+        <v>58500.276885178675</v>
       </c>
       <c r="CO18" s="7">
-        <v>64278.232171322059</v>
+        <v>67519.422955250629</v>
       </c>
       <c r="CP18" s="8"/>
       <c r="CQ18" s="8"/>
@@ -3782,28 +3784,28 @@
         <v>4400.8441803208916</v>
       </c>
       <c r="CH19" s="7">
-        <v>5517.5954396211473</v>
+        <v>5640.3280777314121</v>
       </c>
       <c r="CI19" s="7">
-        <v>7227.2269652881387</v>
+        <v>6788.76393724439</v>
       </c>
       <c r="CJ19" s="7">
-        <v>7609.4855653468167</v>
+        <v>6327.8293279513873</v>
       </c>
       <c r="CK19" s="7">
-        <v>9079.7759989805163</v>
+        <v>7425.0266070361704</v>
       </c>
       <c r="CL19" s="7">
-        <v>6829.4635405949539</v>
+        <v>6985.328235938412</v>
       </c>
       <c r="CM19" s="7">
-        <v>9475.4469136321841</v>
+        <v>9386.617492368041</v>
       </c>
       <c r="CN19" s="7">
-        <v>10463.323286919072</v>
+        <v>9326.1589327401853</v>
       </c>
       <c r="CO19" s="7">
-        <v>15827.44440426162</v>
+        <v>11124.599699881461</v>
       </c>
       <c r="CP19" s="8"/>
       <c r="CQ19" s="8"/>
@@ -4273,28 +4275,28 @@
         <v>409331.30290269171</v>
       </c>
       <c r="CH21" s="10">
-        <v>565270.71745013911</v>
+        <v>566209.84846924711</v>
       </c>
       <c r="CI21" s="10">
-        <v>593007.60307290021</v>
+        <v>590790.88826721103</v>
       </c>
       <c r="CJ21" s="10">
-        <v>447011.88848705002</v>
+        <v>447899.12561995868</v>
       </c>
       <c r="CK21" s="10">
-        <v>475299.4613480838</v>
+        <v>475776.94060322625</v>
       </c>
       <c r="CL21" s="10">
-        <v>687330.58533880033</v>
+        <v>691593.82827870979</v>
       </c>
       <c r="CM21" s="10">
-        <v>723505.48282280029</v>
+        <v>728687.03076473204</v>
       </c>
       <c r="CN21" s="10">
-        <v>632164.12077398982</v>
+        <v>637836.8298260622</v>
       </c>
       <c r="CO21" s="10">
-        <v>617501.03255966294</v>
+        <v>624527.585510695</v>
       </c>
       <c r="CP21" s="8"/>
       <c r="CQ21" s="8"/>
@@ -4771,7 +4773,7 @@
     </row>
     <row r="28" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:151" x14ac:dyDescent="0.2">
@@ -4781,7 +4783,7 @@
     </row>
     <row r="31" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:151" x14ac:dyDescent="0.2">
@@ -4791,144 +4793,144 @@
     </row>
     <row r="34" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="18">
+      <c r="B34" s="19">
         <v>2000</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18">
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19">
         <v>2001</v>
       </c>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18">
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19">
         <v>2002</v>
       </c>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18">
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19">
         <v>2003</v>
       </c>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18">
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19">
         <v>2004</v>
       </c>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18"/>
-      <c r="V34" s="18">
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19">
         <v>2005</v>
       </c>
-      <c r="W34" s="18"/>
-      <c r="X34" s="18"/>
-      <c r="Y34" s="18"/>
-      <c r="Z34" s="18">
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19">
         <v>2006</v>
       </c>
-      <c r="AA34" s="18"/>
-      <c r="AB34" s="18"/>
-      <c r="AC34" s="18"/>
-      <c r="AD34" s="18">
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="19"/>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="19">
         <v>2007</v>
       </c>
-      <c r="AE34" s="18"/>
-      <c r="AF34" s="18"/>
-      <c r="AG34" s="18"/>
-      <c r="AH34" s="18">
+      <c r="AE34" s="19"/>
+      <c r="AF34" s="19"/>
+      <c r="AG34" s="19"/>
+      <c r="AH34" s="19">
         <v>2008</v>
       </c>
-      <c r="AI34" s="18"/>
-      <c r="AJ34" s="18"/>
-      <c r="AK34" s="18"/>
-      <c r="AL34" s="18">
+      <c r="AI34" s="19"/>
+      <c r="AJ34" s="19"/>
+      <c r="AK34" s="19"/>
+      <c r="AL34" s="19">
         <v>2009</v>
       </c>
-      <c r="AM34" s="18"/>
-      <c r="AN34" s="18"/>
-      <c r="AO34" s="18"/>
-      <c r="AP34" s="18">
+      <c r="AM34" s="19"/>
+      <c r="AN34" s="19"/>
+      <c r="AO34" s="19"/>
+      <c r="AP34" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ34" s="18"/>
-      <c r="AR34" s="18"/>
-      <c r="AS34" s="18"/>
-      <c r="AT34" s="18">
+      <c r="AQ34" s="19"/>
+      <c r="AR34" s="19"/>
+      <c r="AS34" s="19"/>
+      <c r="AT34" s="19">
         <v>2011</v>
       </c>
-      <c r="AU34" s="18"/>
-      <c r="AV34" s="18"/>
-      <c r="AW34" s="18"/>
-      <c r="AX34" s="18">
+      <c r="AU34" s="19"/>
+      <c r="AV34" s="19"/>
+      <c r="AW34" s="19"/>
+      <c r="AX34" s="19">
         <v>2012</v>
       </c>
-      <c r="AY34" s="18"/>
-      <c r="AZ34" s="18"/>
-      <c r="BA34" s="18"/>
-      <c r="BB34" s="18">
+      <c r="AY34" s="19"/>
+      <c r="AZ34" s="19"/>
+      <c r="BA34" s="19"/>
+      <c r="BB34" s="19">
         <v>2013</v>
       </c>
-      <c r="BC34" s="18"/>
-      <c r="BD34" s="18"/>
-      <c r="BE34" s="18"/>
-      <c r="BF34" s="18">
+      <c r="BC34" s="19"/>
+      <c r="BD34" s="19"/>
+      <c r="BE34" s="19"/>
+      <c r="BF34" s="19">
         <v>2014</v>
       </c>
-      <c r="BG34" s="18"/>
-      <c r="BH34" s="18"/>
-      <c r="BI34" s="18"/>
-      <c r="BJ34" s="18">
+      <c r="BG34" s="19"/>
+      <c r="BH34" s="19"/>
+      <c r="BI34" s="19"/>
+      <c r="BJ34" s="19">
         <v>2015</v>
       </c>
-      <c r="BK34" s="18"/>
-      <c r="BL34" s="18"/>
-      <c r="BM34" s="18"/>
-      <c r="BN34" s="18">
+      <c r="BK34" s="19"/>
+      <c r="BL34" s="19"/>
+      <c r="BM34" s="19"/>
+      <c r="BN34" s="19">
         <v>2016</v>
       </c>
-      <c r="BO34" s="18"/>
-      <c r="BP34" s="18"/>
-      <c r="BQ34" s="18"/>
-      <c r="BR34" s="18">
+      <c r="BO34" s="19"/>
+      <c r="BP34" s="19"/>
+      <c r="BQ34" s="19"/>
+      <c r="BR34" s="19">
         <v>2017</v>
       </c>
-      <c r="BS34" s="18"/>
-      <c r="BT34" s="18"/>
-      <c r="BU34" s="18"/>
-      <c r="BV34" s="18">
+      <c r="BS34" s="19"/>
+      <c r="BT34" s="19"/>
+      <c r="BU34" s="19"/>
+      <c r="BV34" s="19">
         <v>2018</v>
       </c>
-      <c r="BW34" s="18"/>
-      <c r="BX34" s="18"/>
-      <c r="BY34" s="18"/>
-      <c r="BZ34" s="18">
+      <c r="BW34" s="19"/>
+      <c r="BX34" s="19"/>
+      <c r="BY34" s="19"/>
+      <c r="BZ34" s="19">
         <v>2019</v>
       </c>
-      <c r="CA34" s="18"/>
-      <c r="CB34" s="18"/>
-      <c r="CC34" s="18"/>
-      <c r="CD34" s="18">
+      <c r="CA34" s="19"/>
+      <c r="CB34" s="19"/>
+      <c r="CC34" s="19"/>
+      <c r="CD34" s="19">
         <v>2020</v>
       </c>
-      <c r="CE34" s="18"/>
-      <c r="CF34" s="18"/>
-      <c r="CG34" s="18"/>
-      <c r="CH34" s="18">
+      <c r="CE34" s="19"/>
+      <c r="CF34" s="19"/>
+      <c r="CG34" s="19"/>
+      <c r="CH34" s="19">
         <v>2021</v>
       </c>
-      <c r="CI34" s="18"/>
-      <c r="CJ34" s="18"/>
-      <c r="CK34" s="18"/>
-      <c r="CL34" s="18">
+      <c r="CI34" s="19"/>
+      <c r="CJ34" s="19"/>
+      <c r="CK34" s="19"/>
+      <c r="CL34" s="19">
         <v>2022</v>
       </c>
-      <c r="CM34" s="18"/>
-      <c r="CN34" s="18"/>
-      <c r="CO34" s="18"/>
+      <c r="CM34" s="19"/>
+      <c r="CN34" s="19"/>
+      <c r="CO34" s="19"/>
     </row>
     <row r="35" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
@@ -5469,28 +5471,28 @@
         <v>20102.093872421516</v>
       </c>
       <c r="CH37" s="7">
-        <v>18133.884870985134</v>
+        <v>18100.306583526231</v>
       </c>
       <c r="CI37" s="7">
-        <v>17167.279983151406</v>
+        <v>17259.594560031259</v>
       </c>
       <c r="CJ37" s="7">
-        <v>23959.557073342527</v>
+        <v>23961.906946117593</v>
       </c>
       <c r="CK37" s="7">
-        <v>25500.702059504361</v>
+        <v>25473.984362080206</v>
       </c>
       <c r="CL37" s="7">
-        <v>39857.243233758119</v>
+        <v>39764.430508135309</v>
       </c>
       <c r="CM37" s="7">
-        <v>26592.451526848847</v>
+        <v>26620.30384489982</v>
       </c>
       <c r="CN37" s="7">
-        <v>36654.868961851753</v>
+        <v>35357.329087856539</v>
       </c>
       <c r="CO37" s="7">
-        <v>43546.191932634538</v>
+        <v>42923.047723132688</v>
       </c>
       <c r="CP37" s="8"/>
       <c r="CQ37" s="8"/>
@@ -5808,28 +5810,28 @@
         <v>738.78384769964555</v>
       </c>
       <c r="CH38" s="7">
-        <v>461.39897232210484</v>
+        <v>458.80254232322784</v>
       </c>
       <c r="CI38" s="7">
-        <v>346.9851863026928</v>
+        <v>351.86140461322526</v>
       </c>
       <c r="CJ38" s="7">
-        <v>717.95989494133323</v>
+        <v>718.1813386280528</v>
       </c>
       <c r="CK38" s="7">
-        <v>773.13460196769609</v>
+        <v>770.19546330619676</v>
       </c>
       <c r="CL38" s="7">
-        <v>523.68374140701815</v>
+        <v>513.260353030533</v>
       </c>
       <c r="CM38" s="7">
-        <v>376.77337612162671</v>
+        <v>382.06821091022977</v>
       </c>
       <c r="CN38" s="7">
-        <v>775.26072891123249</v>
+        <v>776.70768745237024</v>
       </c>
       <c r="CO38" s="7">
-        <v>950.31142897860434</v>
+        <v>889.21572221660801</v>
       </c>
       <c r="CP38" s="8"/>
       <c r="CQ38" s="8"/>
@@ -6165,7 +6167,7 @@
         <v>57321.791102132127</v>
       </c>
       <c r="CN39" s="7">
-        <v>89211.882351201872</v>
+        <v>88956.594041921373</v>
       </c>
       <c r="CO39" s="7">
         <v>54857.258251901527</v>
@@ -6486,28 +6488,28 @@
         <v>2329.5726083375725</v>
       </c>
       <c r="CH40" s="7">
-        <v>3031.8880922507747</v>
+        <v>3377.1366005109758</v>
       </c>
       <c r="CI40" s="7">
-        <v>3280.2710999783162</v>
+        <v>3653.8035884798378</v>
       </c>
       <c r="CJ40" s="7">
-        <v>3529.4697269102967</v>
+        <v>3931.3790722056619</v>
       </c>
       <c r="CK40" s="7">
-        <v>3454.4327633529815</v>
+        <v>3847.7974661865246</v>
       </c>
       <c r="CL40" s="7">
-        <v>3083.4697372408427</v>
+        <v>3434.5919735030589</v>
       </c>
       <c r="CM40" s="7">
-        <v>3286.5504481939315</v>
+        <v>3938.4675463402086</v>
       </c>
       <c r="CN40" s="7">
-        <v>3516.3866208110007</v>
+        <v>3966.0472849247194</v>
       </c>
       <c r="CO40" s="7">
-        <v>3439.289410458297</v>
+        <v>3977.1461621146914</v>
       </c>
       <c r="CP40" s="8"/>
       <c r="CQ40" s="8"/>
@@ -6834,19 +6836,19 @@
         <v>68778.411050953422</v>
       </c>
       <c r="CK41" s="7">
-        <v>72273.852798895867</v>
+        <v>72338.577129792466</v>
       </c>
       <c r="CL41" s="7">
-        <v>117081.671165216</v>
+        <v>116677.43002870887</v>
       </c>
       <c r="CM41" s="7">
-        <v>113306.89320915419</v>
+        <v>114398.77827366724</v>
       </c>
       <c r="CN41" s="7">
-        <v>84877.718760890682</v>
+        <v>83482.535941170252</v>
       </c>
       <c r="CO41" s="7">
-        <v>82602.982806572036</v>
+        <v>85486.339096444455</v>
       </c>
       <c r="CP41" s="8"/>
       <c r="CQ41" s="8"/>
@@ -7164,28 +7166,28 @@
         <v>252483.50553565435</v>
       </c>
       <c r="CH42" s="7">
-        <v>321733.17051243625</v>
+        <v>322254.21878945042</v>
       </c>
       <c r="CI42" s="7">
-        <v>339770.25821722258</v>
+        <v>339069.93673610175</v>
       </c>
       <c r="CJ42" s="7">
-        <v>239509.72841806503</v>
+        <v>238950.32328897968</v>
       </c>
       <c r="CK42" s="7">
         <v>267343.98843610822</v>
       </c>
       <c r="CL42" s="7">
-        <v>355402.77002643788</v>
+        <v>357362.75456158456</v>
       </c>
       <c r="CM42" s="7">
-        <v>359212.88495404937</v>
+        <v>362411.57167247194</v>
       </c>
       <c r="CN42" s="7">
-        <v>280178.28948171262</v>
+        <v>282000.18209253578</v>
       </c>
       <c r="CO42" s="7">
-        <v>281366.82214230852</v>
+        <v>282568.33591674821</v>
       </c>
       <c r="CP42" s="8"/>
       <c r="CQ42" s="8"/>
@@ -7503,28 +7505,28 @@
         <v>41067.937424928037</v>
       </c>
       <c r="CH43" s="7">
-        <v>67936.12376372813</v>
+        <v>67868.885484631886</v>
       </c>
       <c r="CI43" s="7">
-        <v>69342.696786653614</v>
+        <v>67905.860183166238</v>
       </c>
       <c r="CJ43" s="7">
-        <v>48427.917785896192</v>
+        <v>50579.546386770642</v>
       </c>
       <c r="CK43" s="7">
-        <v>50475.584794779723</v>
+        <v>52037.635302078721</v>
       </c>
       <c r="CL43" s="7">
-        <v>76002.637554614368</v>
+        <v>76295.067345606396</v>
       </c>
       <c r="CM43" s="7">
-        <v>71850.412547882705</v>
+        <v>69855.480841691693</v>
       </c>
       <c r="CN43" s="7">
-        <v>45535.458254045974</v>
+        <v>48935.143393238061</v>
       </c>
       <c r="CO43" s="7">
-        <v>56307.098669662613</v>
+        <v>57321.148454949551</v>
       </c>
       <c r="CP43" s="8"/>
       <c r="CQ43" s="8"/>
@@ -7842,28 +7844,28 @@
         <v>4261.0277699794169</v>
       </c>
       <c r="CH44" s="7">
-        <v>5137.968924421375</v>
+        <v>5252.2572022633067</v>
       </c>
       <c r="CI44" s="7">
-        <v>6701.7608114885679</v>
+        <v>6295.1768820307689</v>
       </c>
       <c r="CJ44" s="7">
-        <v>6969.0677239534634</v>
+        <v>5795.276271097342</v>
       </c>
       <c r="CK44" s="7">
-        <v>8464.1661527716096</v>
+        <v>6921.6089579479312</v>
       </c>
       <c r="CL44" s="7">
-        <v>6097.5207750723184</v>
+        <v>6236.6807855633124</v>
       </c>
       <c r="CM44" s="7">
-        <v>8375.3100912907576</v>
+        <v>8296.7941167833451</v>
       </c>
       <c r="CN44" s="7">
-        <v>9022.1528878455538</v>
+        <v>8381.4864233369353</v>
       </c>
       <c r="CO44" s="7">
-        <v>13850.946778152134</v>
+        <v>9735.3833275709912</v>
       </c>
       <c r="CP44" s="8"/>
       <c r="CQ44" s="8"/>
@@ -8333,28 +8335,28 @@
         <v>392601.31178371736</v>
       </c>
       <c r="CH46" s="10">
-        <v>526015.08299388271</v>
+        <v>526892.25506044494</v>
       </c>
       <c r="CI46" s="10">
-        <v>567303.6199133154</v>
+        <v>565230.60118294123</v>
       </c>
       <c r="CJ46" s="10">
-        <v>413485.01167820982</v>
+        <v>414307.92435889994</v>
       </c>
       <c r="CK46" s="10">
-        <v>440488.55155291402</v>
+        <v>440936.47706303385</v>
       </c>
       <c r="CL46" s="10">
-        <v>613438.0603273937</v>
+        <v>615673.2796497792</v>
       </c>
       <c r="CM46" s="10">
-        <v>640323.06725567358</v>
+        <v>643225.25560889661</v>
       </c>
       <c r="CN46" s="10">
-        <v>549772.0180472706</v>
+        <v>551856.02595243603</v>
       </c>
       <c r="CO46" s="10">
-        <v>536920.90142066823</v>
+        <v>537757.87465507863</v>
       </c>
       <c r="CP46" s="8"/>
       <c r="CQ46" s="8"/>
@@ -8831,7 +8833,7 @@
     </row>
     <row r="53" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:151" x14ac:dyDescent="0.2">
@@ -8841,7 +8843,7 @@
     </row>
     <row r="56" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:151" x14ac:dyDescent="0.2">
@@ -8851,142 +8853,142 @@
     </row>
     <row r="59" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19" t="s">
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19" t="s">
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19" t="s">
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="19" t="s">
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18"/>
+      <c r="R59" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="S59" s="19"/>
-      <c r="T59" s="19"/>
-      <c r="U59" s="19"/>
-      <c r="V59" s="19" t="s">
+      <c r="S59" s="18"/>
+      <c r="T59" s="18"/>
+      <c r="U59" s="18"/>
+      <c r="V59" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="W59" s="19"/>
-      <c r="X59" s="19"/>
-      <c r="Y59" s="19"/>
-      <c r="Z59" s="19" t="s">
+      <c r="W59" s="18"/>
+      <c r="X59" s="18"/>
+      <c r="Y59" s="18"/>
+      <c r="Z59" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AA59" s="19"/>
-      <c r="AB59" s="19"/>
-      <c r="AC59" s="19"/>
-      <c r="AD59" s="19" t="s">
+      <c r="AA59" s="18"/>
+      <c r="AB59" s="18"/>
+      <c r="AC59" s="18"/>
+      <c r="AD59" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AE59" s="19"/>
-      <c r="AF59" s="19"/>
-      <c r="AG59" s="19"/>
-      <c r="AH59" s="19" t="s">
+      <c r="AE59" s="18"/>
+      <c r="AF59" s="18"/>
+      <c r="AG59" s="18"/>
+      <c r="AH59" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AI59" s="19"/>
-      <c r="AJ59" s="19"/>
-      <c r="AK59" s="19"/>
-      <c r="AL59" s="19" t="s">
+      <c r="AI59" s="18"/>
+      <c r="AJ59" s="18"/>
+      <c r="AK59" s="18"/>
+      <c r="AL59" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="AM59" s="19"/>
-      <c r="AN59" s="19"/>
-      <c r="AO59" s="19"/>
-      <c r="AP59" s="19" t="s">
+      <c r="AM59" s="18"/>
+      <c r="AN59" s="18"/>
+      <c r="AO59" s="18"/>
+      <c r="AP59" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="AQ59" s="19"/>
-      <c r="AR59" s="19"/>
-      <c r="AS59" s="19"/>
-      <c r="AT59" s="19" t="s">
+      <c r="AQ59" s="18"/>
+      <c r="AR59" s="18"/>
+      <c r="AS59" s="18"/>
+      <c r="AT59" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="AU59" s="19"/>
-      <c r="AV59" s="19"/>
-      <c r="AW59" s="19"/>
-      <c r="AX59" s="19" t="s">
+      <c r="AU59" s="18"/>
+      <c r="AV59" s="18"/>
+      <c r="AW59" s="18"/>
+      <c r="AX59" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="AY59" s="19"/>
-      <c r="AZ59" s="19"/>
-      <c r="BA59" s="19"/>
-      <c r="BB59" s="19" t="s">
+      <c r="AY59" s="18"/>
+      <c r="AZ59" s="18"/>
+      <c r="BA59" s="18"/>
+      <c r="BB59" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="BC59" s="19"/>
-      <c r="BD59" s="19"/>
-      <c r="BE59" s="19"/>
-      <c r="BF59" s="19" t="s">
+      <c r="BC59" s="18"/>
+      <c r="BD59" s="18"/>
+      <c r="BE59" s="18"/>
+      <c r="BF59" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="BG59" s="19"/>
-      <c r="BH59" s="19"/>
-      <c r="BI59" s="19"/>
-      <c r="BJ59" s="19" t="s">
+      <c r="BG59" s="18"/>
+      <c r="BH59" s="18"/>
+      <c r="BI59" s="18"/>
+      <c r="BJ59" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="BK59" s="19"/>
-      <c r="BL59" s="19"/>
-      <c r="BM59" s="19"/>
-      <c r="BN59" s="19" t="s">
+      <c r="BK59" s="18"/>
+      <c r="BL59" s="18"/>
+      <c r="BM59" s="18"/>
+      <c r="BN59" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="BO59" s="19"/>
-      <c r="BP59" s="19"/>
-      <c r="BQ59" s="19"/>
-      <c r="BR59" s="19" t="s">
+      <c r="BO59" s="18"/>
+      <c r="BP59" s="18"/>
+      <c r="BQ59" s="18"/>
+      <c r="BR59" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="BS59" s="19"/>
-      <c r="BT59" s="19"/>
-      <c r="BU59" s="19"/>
-      <c r="BV59" s="19" t="s">
+      <c r="BS59" s="18"/>
+      <c r="BT59" s="18"/>
+      <c r="BU59" s="18"/>
+      <c r="BV59" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="BW59" s="19"/>
-      <c r="BX59" s="19"/>
-      <c r="BY59" s="19"/>
-      <c r="BZ59" s="19" t="s">
+      <c r="BW59" s="18"/>
+      <c r="BX59" s="18"/>
+      <c r="BY59" s="18"/>
+      <c r="BZ59" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="CA59" s="19"/>
-      <c r="CB59" s="19"/>
-      <c r="CC59" s="19"/>
-      <c r="CD59" s="19" t="s">
+      <c r="CA59" s="18"/>
+      <c r="CB59" s="18"/>
+      <c r="CC59" s="18"/>
+      <c r="CD59" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="CE59" s="19"/>
-      <c r="CF59" s="19"/>
-      <c r="CG59" s="19"/>
-      <c r="CH59" s="19" t="s">
+      <c r="CE59" s="18"/>
+      <c r="CF59" s="18"/>
+      <c r="CG59" s="18"/>
+      <c r="CH59" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="CI59" s="19"/>
-      <c r="CJ59" s="19"/>
-      <c r="CK59" s="19"/>
-      <c r="CL59" s="19"/>
-      <c r="CM59" s="19"/>
-      <c r="CN59" s="19"/>
-      <c r="CO59" s="19"/>
+      <c r="CI59" s="18"/>
+      <c r="CJ59" s="18"/>
+      <c r="CK59" s="18"/>
+      <c r="CL59" s="18"/>
+      <c r="CM59" s="18"/>
+      <c r="CN59" s="18"/>
+      <c r="CO59" s="18"/>
     </row>
     <row r="60" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
@@ -9507,28 +9509,28 @@
         <v>-51.482269345829124</v>
       </c>
       <c r="CD62" s="14">
-        <v>-38.932968040894643</v>
+        <v>-39.046045099008417</v>
       </c>
       <c r="CE62" s="14">
-        <v>31.363708609234322</v>
+        <v>32.070098042477753</v>
       </c>
       <c r="CF62" s="14">
-        <v>32.251419558118386</v>
+        <v>32.264390332550136</v>
       </c>
       <c r="CG62" s="14">
-        <v>36.168616210579103</v>
+        <v>36.025949084078405</v>
       </c>
       <c r="CH62" s="14">
-        <v>138.94196870920533</v>
+        <v>138.82779599063096</v>
       </c>
       <c r="CI62" s="14">
-        <v>77.976641432901033</v>
+        <v>77.210128092135221</v>
       </c>
       <c r="CJ62" s="14">
-        <v>77.049818040198033</v>
+        <v>70.765711576238061</v>
       </c>
       <c r="CK62" s="14">
-        <v>91.493618512613494</v>
+        <v>88.951321567609739</v>
       </c>
       <c r="CL62" s="14"/>
       <c r="CM62" s="14"/>
@@ -9834,28 +9836,28 @@
         <v>-5.907952438824708</v>
       </c>
       <c r="CD63" s="14">
-        <v>3.1037476697163697</v>
+        <v>2.5235520483455076</v>
       </c>
       <c r="CE63" s="14">
-        <v>26.463619827904509</v>
+        <v>28.240826011234475</v>
       </c>
       <c r="CF63" s="14">
-        <v>13.811733721467249</v>
+        <v>13.846837200205826</v>
       </c>
       <c r="CG63" s="14">
-        <v>8.6943691177587539</v>
+        <v>8.2811579877068766</v>
       </c>
       <c r="CH63" s="14">
-        <v>18.377016271720237</v>
+        <v>16.677421780876813</v>
       </c>
       <c r="CI63" s="14">
         <v>14.766763267207324</v>
       </c>
       <c r="CJ63" s="14">
-        <v>14.690236666766836</v>
+        <v>14.868866752247499</v>
       </c>
       <c r="CK63" s="14">
-        <v>30.933634509885849</v>
+        <v>22.983417854811677</v>
       </c>
       <c r="CL63" s="14"/>
       <c r="CM63" s="14"/>
@@ -10488,28 +10490,28 @@
         <v>-8.3892813404500401</v>
       </c>
       <c r="CD65" s="14">
-        <v>50.853406590012128</v>
+        <v>68.031452746889727</v>
       </c>
       <c r="CE65" s="14">
-        <v>51.739818907397876</v>
+        <v>69.01880300161659</v>
       </c>
       <c r="CF65" s="14">
-        <v>52.681165251965012</v>
+        <v>70.067342755481661</v>
       </c>
       <c r="CG65" s="14">
-        <v>52.974246762359172</v>
+        <v>70.393798173877485</v>
       </c>
       <c r="CH65" s="14">
         <v>5.4197606771024596</v>
       </c>
       <c r="CI65" s="14">
-        <v>5.1106211704369287</v>
+        <v>13.083205452969963</v>
       </c>
       <c r="CJ65" s="14">
-        <v>4.7862533042608391</v>
+        <v>6.1036003186526955</v>
       </c>
       <c r="CK65" s="14">
-        <v>5.5042850735077025</v>
+        <v>9.5311047271619174</v>
       </c>
       <c r="CL65" s="14"/>
       <c r="CM65" s="14"/>
@@ -10824,19 +10826,19 @@
         <v>20.321986613301917</v>
       </c>
       <c r="CG66" s="14">
-        <v>13.731194351689879</v>
+        <v>13.833045507694635</v>
       </c>
       <c r="CH66" s="14">
-        <v>9.2055628969693259</v>
+        <v>9.1764890986225396</v>
       </c>
       <c r="CI66" s="14">
-        <v>10.289060564805979</v>
+        <v>12.664306203020303</v>
       </c>
       <c r="CJ66" s="14">
-        <v>23.974334411072888</v>
+        <v>21.999599297861067</v>
       </c>
       <c r="CK66" s="14">
-        <v>15.003145287852988</v>
+        <v>23.131763620173302</v>
       </c>
       <c r="CL66" s="14"/>
       <c r="CM66" s="14"/>
@@ -11142,28 +11144,28 @@
         <v>-1.2359372287732953</v>
       </c>
       <c r="CD67" s="14">
-        <v>-0.54814153481231642</v>
+        <v>-0.3870788149920088</v>
       </c>
       <c r="CE67" s="14">
-        <v>18.662482115913278</v>
+        <v>18.41789953924831</v>
       </c>
       <c r="CF67" s="14">
-        <v>4.7015818528300883</v>
+        <v>4.457038124695643</v>
       </c>
       <c r="CG67" s="14">
         <v>9.9782332442981385</v>
       </c>
       <c r="CH67" s="14">
-        <v>15.2125770776683</v>
+        <v>15.831072748327401</v>
       </c>
       <c r="CI67" s="14">
-        <v>16.85288815793642</v>
+        <v>18.136928614181684</v>
       </c>
       <c r="CJ67" s="14">
-        <v>24.248218462854254</v>
+        <v>25.920433726774974</v>
       </c>
       <c r="CK67" s="14">
-        <v>12.109610673125943</v>
+        <v>13.08767207025528</v>
       </c>
       <c r="CL67" s="14"/>
       <c r="CM67" s="14"/>
@@ -11469,28 +11471,28 @@
         <v>-8.7939240388756161</v>
       </c>
       <c r="CD68" s="14">
-        <v>1.5451961282967517</v>
+        <v>1.4446940116039855</v>
       </c>
       <c r="CE68" s="14">
-        <v>34.314311380245357</v>
+        <v>31.531210521663212</v>
       </c>
       <c r="CF68" s="14">
-        <v>15.8694441568461</v>
+        <v>21.017466649109906</v>
       </c>
       <c r="CG68" s="14">
-        <v>27.657929062712356</v>
+        <v>31.608514948222933</v>
       </c>
       <c r="CH68" s="14">
-        <v>16.681719828624054</v>
+        <v>18.247417420891338</v>
       </c>
       <c r="CI68" s="14">
-        <v>8.7037623536646294</v>
+        <v>8.727672753688438</v>
       </c>
       <c r="CJ68" s="14">
-        <v>-0.1305256249227682</v>
+        <v>6.0349312142396343</v>
       </c>
       <c r="CK68" s="14">
-        <v>18.828926181911228</v>
+        <v>21.073968229917895</v>
       </c>
       <c r="CL68" s="14"/>
       <c r="CM68" s="14"/>
@@ -11796,28 +11798,28 @@
         <v>-44.138046870453621</v>
       </c>
       <c r="CD69" s="14">
-        <v>-5.8239284908925839</v>
+        <v>-3.72908884024082</v>
       </c>
       <c r="CE69" s="14">
-        <v>17.592741900533497</v>
+        <v>10.458599035321939</v>
       </c>
       <c r="CF69" s="14">
-        <v>36.520875145302341</v>
+        <v>13.526833082659337</v>
       </c>
       <c r="CG69" s="14">
-        <v>106.31896124798618</v>
+        <v>68.718234565959278</v>
       </c>
       <c r="CH69" s="14">
-        <v>23.776083537285999</v>
+        <v>23.84613341052264</v>
       </c>
       <c r="CI69" s="14">
-        <v>31.107642794976385</v>
+        <v>38.266959628266875</v>
       </c>
       <c r="CJ69" s="14">
-        <v>37.503687957152806</v>
+        <v>47.383224948001214</v>
       </c>
       <c r="CK69" s="14">
-        <v>74.315362031384211</v>
+        <v>49.825721692895598</v>
       </c>
       <c r="CL69" s="14"/>
       <c r="CM69" s="14"/>
@@ -12271,28 +12273,28 @@
         <v>-24.198174383980088</v>
       </c>
       <c r="CD71" s="14">
-        <v>-18.02119947565194</v>
+        <v>-17.885001310586944</v>
       </c>
       <c r="CE71" s="14">
-        <v>24.396984937436244</v>
+        <v>23.931978018696952</v>
       </c>
       <c r="CF71" s="14">
-        <v>12.640590660685419</v>
+        <v>12.864161704948202</v>
       </c>
       <c r="CG71" s="14">
-        <v>16.116079561370469</v>
+        <v>16.232728166487263</v>
       </c>
       <c r="CH71" s="14">
-        <v>21.593170160884512</v>
+        <v>22.144436404354195</v>
       </c>
       <c r="CI71" s="14">
-        <v>22.006105667730807</v>
+        <v>23.340939279204221</v>
       </c>
       <c r="CJ71" s="14">
-        <v>41.419979435805033</v>
+        <v>42.406357445597052</v>
       </c>
       <c r="CK71" s="14">
-        <v>29.918311038740768</v>
+        <v>31.264786544482661</v>
       </c>
       <c r="CL71" s="14"/>
       <c r="CM71" s="14"/>
@@ -12761,7 +12763,7 @@
     </row>
     <row r="78" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:147" x14ac:dyDescent="0.2">
@@ -12771,7 +12773,7 @@
     </row>
     <row r="81" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" spans="1:147" x14ac:dyDescent="0.2">
@@ -12781,142 +12783,142 @@
     </row>
     <row r="84" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
-      <c r="B84" s="19" t="s">
+      <c r="B84" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19" t="s">
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G84" s="19"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="19" t="s">
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="K84" s="19"/>
-      <c r="L84" s="19"/>
-      <c r="M84" s="19"/>
-      <c r="N84" s="19" t="s">
+      <c r="K84" s="18"/>
+      <c r="L84" s="18"/>
+      <c r="M84" s="18"/>
+      <c r="N84" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="O84" s="19"/>
-      <c r="P84" s="19"/>
-      <c r="Q84" s="19"/>
-      <c r="R84" s="19" t="s">
+      <c r="O84" s="18"/>
+      <c r="P84" s="18"/>
+      <c r="Q84" s="18"/>
+      <c r="R84" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="S84" s="19"/>
-      <c r="T84" s="19"/>
-      <c r="U84" s="19"/>
-      <c r="V84" s="19" t="s">
+      <c r="S84" s="18"/>
+      <c r="T84" s="18"/>
+      <c r="U84" s="18"/>
+      <c r="V84" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="W84" s="19"/>
-      <c r="X84" s="19"/>
-      <c r="Y84" s="19"/>
-      <c r="Z84" s="19" t="s">
+      <c r="W84" s="18"/>
+      <c r="X84" s="18"/>
+      <c r="Y84" s="18"/>
+      <c r="Z84" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AA84" s="19"/>
-      <c r="AB84" s="19"/>
-      <c r="AC84" s="19"/>
-      <c r="AD84" s="19" t="s">
+      <c r="AA84" s="18"/>
+      <c r="AB84" s="18"/>
+      <c r="AC84" s="18"/>
+      <c r="AD84" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AE84" s="19"/>
-      <c r="AF84" s="19"/>
-      <c r="AG84" s="19"/>
-      <c r="AH84" s="19" t="s">
+      <c r="AE84" s="18"/>
+      <c r="AF84" s="18"/>
+      <c r="AG84" s="18"/>
+      <c r="AH84" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AI84" s="19"/>
-      <c r="AJ84" s="19"/>
-      <c r="AK84" s="19"/>
-      <c r="AL84" s="19" t="s">
+      <c r="AI84" s="18"/>
+      <c r="AJ84" s="18"/>
+      <c r="AK84" s="18"/>
+      <c r="AL84" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="AM84" s="19"/>
-      <c r="AN84" s="19"/>
-      <c r="AO84" s="19"/>
-      <c r="AP84" s="19" t="s">
+      <c r="AM84" s="18"/>
+      <c r="AN84" s="18"/>
+      <c r="AO84" s="18"/>
+      <c r="AP84" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="AQ84" s="19"/>
-      <c r="AR84" s="19"/>
-      <c r="AS84" s="19"/>
-      <c r="AT84" s="19" t="s">
+      <c r="AQ84" s="18"/>
+      <c r="AR84" s="18"/>
+      <c r="AS84" s="18"/>
+      <c r="AT84" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="AU84" s="19"/>
-      <c r="AV84" s="19"/>
-      <c r="AW84" s="19"/>
-      <c r="AX84" s="19" t="s">
+      <c r="AU84" s="18"/>
+      <c r="AV84" s="18"/>
+      <c r="AW84" s="18"/>
+      <c r="AX84" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="AY84" s="19"/>
-      <c r="AZ84" s="19"/>
-      <c r="BA84" s="19"/>
-      <c r="BB84" s="19" t="s">
+      <c r="AY84" s="18"/>
+      <c r="AZ84" s="18"/>
+      <c r="BA84" s="18"/>
+      <c r="BB84" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="BC84" s="19"/>
-      <c r="BD84" s="19"/>
-      <c r="BE84" s="19"/>
-      <c r="BF84" s="19" t="s">
+      <c r="BC84" s="18"/>
+      <c r="BD84" s="18"/>
+      <c r="BE84" s="18"/>
+      <c r="BF84" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="BG84" s="19"/>
-      <c r="BH84" s="19"/>
-      <c r="BI84" s="19"/>
-      <c r="BJ84" s="19" t="s">
+      <c r="BG84" s="18"/>
+      <c r="BH84" s="18"/>
+      <c r="BI84" s="18"/>
+      <c r="BJ84" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="BK84" s="19"/>
-      <c r="BL84" s="19"/>
-      <c r="BM84" s="19"/>
-      <c r="BN84" s="19" t="s">
+      <c r="BK84" s="18"/>
+      <c r="BL84" s="18"/>
+      <c r="BM84" s="18"/>
+      <c r="BN84" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="BO84" s="19"/>
-      <c r="BP84" s="19"/>
-      <c r="BQ84" s="19"/>
-      <c r="BR84" s="19" t="s">
+      <c r="BO84" s="18"/>
+      <c r="BP84" s="18"/>
+      <c r="BQ84" s="18"/>
+      <c r="BR84" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="BS84" s="19"/>
-      <c r="BT84" s="19"/>
-      <c r="BU84" s="19"/>
-      <c r="BV84" s="19" t="s">
+      <c r="BS84" s="18"/>
+      <c r="BT84" s="18"/>
+      <c r="BU84" s="18"/>
+      <c r="BV84" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="BW84" s="19"/>
-      <c r="BX84" s="19"/>
-      <c r="BY84" s="19"/>
-      <c r="BZ84" s="19" t="s">
+      <c r="BW84" s="18"/>
+      <c r="BX84" s="18"/>
+      <c r="BY84" s="18"/>
+      <c r="BZ84" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="CA84" s="19"/>
-      <c r="CB84" s="19"/>
-      <c r="CC84" s="19"/>
-      <c r="CD84" s="19" t="s">
+      <c r="CA84" s="18"/>
+      <c r="CB84" s="18"/>
+      <c r="CC84" s="18"/>
+      <c r="CD84" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="CE84" s="19"/>
-      <c r="CF84" s="19"/>
-      <c r="CG84" s="19"/>
-      <c r="CH84" s="19" t="s">
+      <c r="CE84" s="18"/>
+      <c r="CF84" s="18"/>
+      <c r="CG84" s="18"/>
+      <c r="CH84" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="CI84" s="19"/>
-      <c r="CJ84" s="19"/>
-      <c r="CK84" s="19"/>
-      <c r="CL84" s="19"/>
-      <c r="CM84" s="19"/>
-      <c r="CN84" s="19"/>
-      <c r="CO84" s="19"/>
+      <c r="CI84" s="18"/>
+      <c r="CJ84" s="18"/>
+      <c r="CK84" s="18"/>
+      <c r="CL84" s="18"/>
+      <c r="CM84" s="18"/>
+      <c r="CN84" s="18"/>
+      <c r="CO84" s="18"/>
     </row>
     <row r="85" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
@@ -13437,28 +13439,28 @@
         <v>-55.055005863426594</v>
       </c>
       <c r="CD87" s="14">
-        <v>-44.97224578356915</v>
+        <v>-45.074139986738693</v>
       </c>
       <c r="CE87" s="14">
-        <v>18.928829640807535</v>
+        <v>19.568352302398779</v>
       </c>
       <c r="CF87" s="14">
-        <v>24.21544225005799</v>
+        <v>24.227624882862614</v>
       </c>
       <c r="CG87" s="14">
-        <v>26.855949541103826</v>
+        <v>26.723039518925432</v>
       </c>
       <c r="CH87" s="14">
-        <v>119.79428852298017</v>
+        <v>119.68926506651778</v>
       </c>
       <c r="CI87" s="14">
-        <v>54.901950413505489</v>
+        <v>54.234815611170461</v>
       </c>
       <c r="CJ87" s="14">
-        <v>52.986421450311639</v>
+        <v>47.556407623831774</v>
       </c>
       <c r="CK87" s="14">
-        <v>70.764678678344268</v>
+        <v>68.497582133349454</v>
       </c>
       <c r="CL87" s="14"/>
       <c r="CM87" s="14"/>
@@ -13764,28 +13766,28 @@
         <v>-7.9934802655810699</v>
       </c>
       <c r="CD88" s="14">
-        <v>0.32004785351811904</v>
+        <v>-0.24448305651999647</v>
       </c>
       <c r="CE88" s="14">
-        <v>21.906633713333633</v>
+        <v>23.619800104736186</v>
       </c>
       <c r="CF88" s="14">
-        <v>10.164748751377402</v>
+        <v>10.198727373695888</v>
       </c>
       <c r="CG88" s="14">
-        <v>4.649635258676625</v>
+        <v>4.2518005373774344</v>
       </c>
       <c r="CH88" s="14">
-        <v>13.499113093262821</v>
+        <v>11.869552952245726</v>
       </c>
       <c r="CI88" s="14">
         <v>8.5848592374627088</v>
       </c>
       <c r="CJ88" s="14">
-        <v>7.9810633398375899</v>
+        <v>8.149243885412119</v>
       </c>
       <c r="CK88" s="14">
-        <v>22.916685731045732</v>
+        <v>15.453253697379125</v>
       </c>
       <c r="CL88" s="14"/>
       <c r="CM88" s="14"/>
@@ -14109,7 +14111,7 @@
         <v>111.23133705025472</v>
       </c>
       <c r="CJ89" s="14">
-        <v>313.15377894616444</v>
+        <v>311.971500006182</v>
       </c>
       <c r="CK89" s="14">
         <v>349.55053760077203</v>
@@ -14418,28 +14420,28 @@
         <v>-10.186708631015392</v>
       </c>
       <c r="CD90" s="14">
-        <v>47.430553859544034</v>
+        <v>64.218831409127404</v>
       </c>
       <c r="CE90" s="14">
-        <v>48.084694188019824</v>
+        <v>64.947460295797754</v>
       </c>
       <c r="CF90" s="14">
-        <v>49.524737316479559</v>
+        <v>66.551484655359644</v>
       </c>
       <c r="CG90" s="14">
-        <v>48.28611698942197</v>
+        <v>65.17181960395672</v>
       </c>
       <c r="CH90" s="14">
         <v>1.7013043826355556</v>
       </c>
       <c r="CI90" s="14">
-        <v>0.19142772119221263</v>
+        <v>7.7908938170046866</v>
       </c>
       <c r="CJ90" s="14">
-        <v>-0.37068191857673582</v>
+        <v>0.88183337404824158</v>
       </c>
       <c r="CK90" s="14">
-        <v>-0.43837451564655794</v>
+        <v>3.3616295313059226</v>
       </c>
       <c r="CL90" s="14"/>
       <c r="CM90" s="14"/>
@@ -14754,19 +14756,19 @@
         <v>20.00770171690553</v>
       </c>
       <c r="CG91" s="14">
-        <v>13.471364599580937</v>
+        <v>13.572983066913352</v>
       </c>
       <c r="CH91" s="14">
-        <v>8.4913223961561357</v>
+        <v>8.1167406616274462</v>
       </c>
       <c r="CI91" s="14">
-        <v>9.4145845402897379</v>
+        <v>10.468961262797833</v>
       </c>
       <c r="CJ91" s="14">
-        <v>23.407501662128155</v>
+        <v>21.378983122078083</v>
       </c>
       <c r="CK91" s="14">
-        <v>14.29165542954695</v>
+        <v>18.175311829899286</v>
       </c>
       <c r="CL91" s="14"/>
       <c r="CM91" s="14"/>
@@ -15072,28 +15074,28 @@
         <v>-3.4250191600490183</v>
       </c>
       <c r="CD92" s="14">
-        <v>-3.2332439330002529</v>
+        <v>-3.0765297482593468</v>
       </c>
       <c r="CE92" s="14">
-        <v>14.386601953234162</v>
+        <v>14.150832657473572</v>
       </c>
       <c r="CF92" s="14">
-        <v>1.3465227312776875</v>
+        <v>1.1098151661808657</v>
       </c>
       <c r="CG92" s="14">
         <v>5.8857242452043437</v>
       </c>
       <c r="CH92" s="14">
-        <v>10.465069380435608</v>
+        <v>10.894670643574372</v>
       </c>
       <c r="CI92" s="14">
-        <v>5.722286240956592</v>
+        <v>6.8840178404070684</v>
       </c>
       <c r="CJ92" s="14">
-        <v>16.979920328188285</v>
+        <v>18.016237940591878</v>
       </c>
       <c r="CK92" s="14">
-        <v>5.2452399577900337</v>
+        <v>5.6946661002921388</v>
       </c>
       <c r="CL92" s="14"/>
       <c r="CM92" s="14"/>
@@ -15399,28 +15401,28 @@
         <v>-10.815484992393081</v>
       </c>
       <c r="CD93" s="14">
-        <v>-1.1964243286401484</v>
+        <v>-1.2942129869951913</v>
       </c>
       <c r="CE93" s="14">
-        <v>29.474433692252177</v>
+        <v>26.791619002809156</v>
       </c>
       <c r="CF93" s="14">
-        <v>12.156521881478156</v>
+        <v>17.139581060724325</v>
       </c>
       <c r="CG93" s="14">
-        <v>22.907523386215374</v>
+        <v>26.711100106264723</v>
       </c>
       <c r="CH93" s="14">
-        <v>11.873673892464609</v>
+        <v>12.415382690912935</v>
       </c>
       <c r="CI93" s="14">
-        <v>3.6164093371571226</v>
+        <v>2.8710639306631833</v>
       </c>
       <c r="CJ93" s="14">
-        <v>-5.9727109157119145</v>
+        <v>-3.2511224615543171</v>
       </c>
       <c r="CK93" s="14">
-        <v>11.553137816218026</v>
+        <v>10.153253740682118</v>
       </c>
       <c r="CL93" s="14"/>
       <c r="CM93" s="14"/>
@@ -15726,28 +15728,28 @@
         <v>-45.376213758392623</v>
       </c>
       <c r="CD94" s="14">
-        <v>-8.3665898283832121</v>
+        <v>-6.3283087886673428</v>
       </c>
       <c r="CE94" s="14">
-        <v>13.355408723258691</v>
+        <v>6.4783373385280356</v>
       </c>
       <c r="CF94" s="14">
-        <v>32.146198093312904</v>
+        <v>9.8889774730820363</v>
       </c>
       <c r="CG94" s="14">
-        <v>98.641421968777649</v>
+        <v>62.43989318054517</v>
       </c>
       <c r="CH94" s="14">
-        <v>18.675703663564008</v>
+        <v>18.74286702631008</v>
       </c>
       <c r="CI94" s="14">
-        <v>24.971784682814842</v>
+        <v>31.796044372733689</v>
       </c>
       <c r="CJ94" s="14">
-        <v>29.459968610082626</v>
+        <v>44.626175375585518</v>
       </c>
       <c r="CK94" s="14">
-        <v>63.642189060958032</v>
+        <v>40.652027393024923</v>
       </c>
       <c r="CL94" s="14"/>
       <c r="CM94" s="14"/>
@@ -16201,28 +16203,28 @@
         <v>-25.992189657699853</v>
       </c>
       <c r="CD96" s="14">
-        <v>-20.014587828916333</v>
+        <v>-19.881205780459439</v>
       </c>
       <c r="CE96" s="14">
-        <v>20.165896590032872</v>
+        <v>19.726791064104063</v>
       </c>
       <c r="CF96" s="14">
-        <v>9.3729439946551594</v>
+        <v>9.5906166550795433</v>
       </c>
       <c r="CG96" s="14">
-        <v>12.197422253030467</v>
+        <v>12.311513952847946</v>
       </c>
       <c r="CH96" s="14">
-        <v>16.619861323354428</v>
+        <v>16.849939192814546</v>
       </c>
       <c r="CI96" s="14">
-        <v>12.871317012487182</v>
+        <v>13.798731749966194</v>
       </c>
       <c r="CJ96" s="14">
-        <v>32.960567498181689</v>
+        <v>33.199486060127384</v>
       </c>
       <c r="CK96" s="14">
-        <v>21.892135341040799</v>
+        <v>21.958128353759164</v>
       </c>
       <c r="CL96" s="14"/>
       <c r="CM96" s="14"/>
@@ -16686,7 +16688,7 @@
     </row>
     <row r="102" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="104" spans="1:151" x14ac:dyDescent="0.2">
@@ -16696,7 +16698,7 @@
     </row>
     <row r="105" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106" spans="1:151" x14ac:dyDescent="0.2">
@@ -16706,144 +16708,144 @@
     </row>
     <row r="108" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
-      <c r="B108" s="18">
+      <c r="B108" s="19">
         <v>2000</v>
       </c>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="18">
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19">
         <v>2001</v>
       </c>
-      <c r="G108" s="18"/>
-      <c r="H108" s="18"/>
-      <c r="I108" s="18"/>
-      <c r="J108" s="18">
+      <c r="G108" s="19"/>
+      <c r="H108" s="19"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="19">
         <v>2002</v>
       </c>
-      <c r="K108" s="18"/>
-      <c r="L108" s="18"/>
-      <c r="M108" s="18"/>
-      <c r="N108" s="18">
+      <c r="K108" s="19"/>
+      <c r="L108" s="19"/>
+      <c r="M108" s="19"/>
+      <c r="N108" s="19">
         <v>2003</v>
       </c>
-      <c r="O108" s="18"/>
-      <c r="P108" s="18"/>
-      <c r="Q108" s="18"/>
-      <c r="R108" s="18">
+      <c r="O108" s="19"/>
+      <c r="P108" s="19"/>
+      <c r="Q108" s="19"/>
+      <c r="R108" s="19">
         <v>2004</v>
       </c>
-      <c r="S108" s="18"/>
-      <c r="T108" s="18"/>
-      <c r="U108" s="18"/>
-      <c r="V108" s="18">
+      <c r="S108" s="19"/>
+      <c r="T108" s="19"/>
+      <c r="U108" s="19"/>
+      <c r="V108" s="19">
         <v>2005</v>
       </c>
-      <c r="W108" s="18"/>
-      <c r="X108" s="18"/>
-      <c r="Y108" s="18"/>
-      <c r="Z108" s="18">
+      <c r="W108" s="19"/>
+      <c r="X108" s="19"/>
+      <c r="Y108" s="19"/>
+      <c r="Z108" s="19">
         <v>2006</v>
       </c>
-      <c r="AA108" s="18"/>
-      <c r="AB108" s="18"/>
-      <c r="AC108" s="18"/>
-      <c r="AD108" s="18">
+      <c r="AA108" s="19"/>
+      <c r="AB108" s="19"/>
+      <c r="AC108" s="19"/>
+      <c r="AD108" s="19">
         <v>2007</v>
       </c>
-      <c r="AE108" s="18"/>
-      <c r="AF108" s="18"/>
-      <c r="AG108" s="18"/>
-      <c r="AH108" s="18">
+      <c r="AE108" s="19"/>
+      <c r="AF108" s="19"/>
+      <c r="AG108" s="19"/>
+      <c r="AH108" s="19">
         <v>2008</v>
       </c>
-      <c r="AI108" s="18"/>
-      <c r="AJ108" s="18"/>
-      <c r="AK108" s="18"/>
-      <c r="AL108" s="18">
+      <c r="AI108" s="19"/>
+      <c r="AJ108" s="19"/>
+      <c r="AK108" s="19"/>
+      <c r="AL108" s="19">
         <v>2009</v>
       </c>
-      <c r="AM108" s="18"/>
-      <c r="AN108" s="18"/>
-      <c r="AO108" s="18"/>
-      <c r="AP108" s="18">
+      <c r="AM108" s="19"/>
+      <c r="AN108" s="19"/>
+      <c r="AO108" s="19"/>
+      <c r="AP108" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="18"/>
-      <c r="AR108" s="18"/>
-      <c r="AS108" s="18"/>
-      <c r="AT108" s="18">
+      <c r="AQ108" s="19"/>
+      <c r="AR108" s="19"/>
+      <c r="AS108" s="19"/>
+      <c r="AT108" s="19">
         <v>2011</v>
       </c>
-      <c r="AU108" s="18"/>
-      <c r="AV108" s="18"/>
-      <c r="AW108" s="18"/>
-      <c r="AX108" s="18">
+      <c r="AU108" s="19"/>
+      <c r="AV108" s="19"/>
+      <c r="AW108" s="19"/>
+      <c r="AX108" s="19">
         <v>2012</v>
       </c>
-      <c r="AY108" s="18"/>
-      <c r="AZ108" s="18"/>
-      <c r="BA108" s="18"/>
-      <c r="BB108" s="18">
+      <c r="AY108" s="19"/>
+      <c r="AZ108" s="19"/>
+      <c r="BA108" s="19"/>
+      <c r="BB108" s="19">
         <v>2013</v>
       </c>
-      <c r="BC108" s="18"/>
-      <c r="BD108" s="18"/>
-      <c r="BE108" s="18"/>
-      <c r="BF108" s="18">
+      <c r="BC108" s="19"/>
+      <c r="BD108" s="19"/>
+      <c r="BE108" s="19"/>
+      <c r="BF108" s="19">
         <v>2014</v>
       </c>
-      <c r="BG108" s="18"/>
-      <c r="BH108" s="18"/>
-      <c r="BI108" s="18"/>
-      <c r="BJ108" s="18">
+      <c r="BG108" s="19"/>
+      <c r="BH108" s="19"/>
+      <c r="BI108" s="19"/>
+      <c r="BJ108" s="19">
         <v>2015</v>
       </c>
-      <c r="BK108" s="18"/>
-      <c r="BL108" s="18"/>
-      <c r="BM108" s="18"/>
-      <c r="BN108" s="18">
+      <c r="BK108" s="19"/>
+      <c r="BL108" s="19"/>
+      <c r="BM108" s="19"/>
+      <c r="BN108" s="19">
         <v>2016</v>
       </c>
-      <c r="BO108" s="18"/>
-      <c r="BP108" s="18"/>
-      <c r="BQ108" s="18"/>
-      <c r="BR108" s="18">
+      <c r="BO108" s="19"/>
+      <c r="BP108" s="19"/>
+      <c r="BQ108" s="19"/>
+      <c r="BR108" s="19">
         <v>2017</v>
       </c>
-      <c r="BS108" s="18"/>
-      <c r="BT108" s="18"/>
-      <c r="BU108" s="18"/>
-      <c r="BV108" s="18">
+      <c r="BS108" s="19"/>
+      <c r="BT108" s="19"/>
+      <c r="BU108" s="19"/>
+      <c r="BV108" s="19">
         <v>2018</v>
       </c>
-      <c r="BW108" s="18"/>
-      <c r="BX108" s="18"/>
-      <c r="BY108" s="18"/>
-      <c r="BZ108" s="18">
+      <c r="BW108" s="19"/>
+      <c r="BX108" s="19"/>
+      <c r="BY108" s="19"/>
+      <c r="BZ108" s="19">
         <v>2019</v>
       </c>
-      <c r="CA108" s="18"/>
-      <c r="CB108" s="18"/>
-      <c r="CC108" s="18"/>
-      <c r="CD108" s="18">
+      <c r="CA108" s="19"/>
+      <c r="CB108" s="19"/>
+      <c r="CC108" s="19"/>
+      <c r="CD108" s="19">
         <v>2020</v>
       </c>
-      <c r="CE108" s="18"/>
-      <c r="CF108" s="18"/>
-      <c r="CG108" s="18"/>
-      <c r="CH108" s="18">
+      <c r="CE108" s="19"/>
+      <c r="CF108" s="19"/>
+      <c r="CG108" s="19"/>
+      <c r="CH108" s="19">
         <v>2021</v>
       </c>
-      <c r="CI108" s="18"/>
-      <c r="CJ108" s="18"/>
-      <c r="CK108" s="18"/>
-      <c r="CL108" s="18">
+      <c r="CI108" s="19"/>
+      <c r="CJ108" s="19"/>
+      <c r="CK108" s="19"/>
+      <c r="CL108" s="19">
         <v>2022</v>
       </c>
-      <c r="CM108" s="18"/>
-      <c r="CN108" s="18"/>
-      <c r="CO108" s="18"/>
+      <c r="CM108" s="19"/>
+      <c r="CN108" s="19"/>
+      <c r="CO108" s="19"/>
     </row>
     <row r="109" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
@@ -17390,19 +17392,19 @@
         <v>108.46285645131435</v>
       </c>
       <c r="CJ111" s="14">
-        <v>111.03308542778909</v>
+        <v>111.03308542778908</v>
       </c>
       <c r="CK111" s="14">
-        <v>118.631535740231</v>
+        <v>118.63153574023102</v>
       </c>
       <c r="CL111" s="14">
-        <v>126.09642903416729</v>
+        <v>126.09642903416727</v>
       </c>
       <c r="CM111" s="14">
-        <v>124.61983118929625</v>
+        <v>124.61983118929622</v>
       </c>
       <c r="CN111" s="14">
-        <v>128.49759727085751</v>
+        <v>128.49759727085754</v>
       </c>
       <c r="CO111" s="14">
         <v>133.0320896828776</v>
@@ -18080,7 +18082,7 @@
         <v>115.6341945436903</v>
       </c>
       <c r="CN113" s="14">
-        <v>118.04648528321442</v>
+        <v>118.385255983341</v>
       </c>
       <c r="CO113" s="14">
         <v>117.03672057255258</v>
@@ -18749,19 +18751,19 @@
         <v>101.65575166787167</v>
       </c>
       <c r="CK115" s="14">
-        <v>99.188841424745007</v>
+        <v>99.188841424745021</v>
       </c>
       <c r="CL115" s="14">
-        <v>101.85167724663083</v>
+        <v>102.1773430955365</v>
       </c>
       <c r="CM115" s="14">
-        <v>101.97719373209009</v>
+        <v>103.17914174932667</v>
       </c>
       <c r="CN115" s="14">
-        <v>102.12267473484778</v>
+        <v>102.17552207806702</v>
       </c>
       <c r="CO115" s="14">
-        <v>99.80631305437187</v>
+        <v>103.34897185336216</v>
       </c>
       <c r="CP115" s="8"/>
       <c r="CQ115" s="8"/>
@@ -19091,16 +19093,16 @@
         <v>109.3552980162752</v>
       </c>
       <c r="CL116" s="14">
-        <v>113.8212600563179</v>
+        <v>113.98898088171985</v>
       </c>
       <c r="CM116" s="14">
-        <v>115.24165168078626</v>
+        <v>115.24165168078628</v>
       </c>
       <c r="CN116" s="14">
-        <v>115.99665924145654</v>
+        <v>116.52552735229604</v>
       </c>
       <c r="CO116" s="14">
-        <v>116.48773750304736</v>
+        <v>117.00435355436905</v>
       </c>
       <c r="CP116" s="8"/>
       <c r="CQ116" s="8"/>
@@ -19430,16 +19432,16 @@
         <v>107.16683189889456</v>
       </c>
       <c r="CL117" s="14">
-        <v>111.94175554600669</v>
+        <v>112.89718497790633</v>
       </c>
       <c r="CM117" s="14">
-        <v>112.80912875511827</v>
+        <v>113.65147294228359</v>
       </c>
       <c r="CN117" s="14">
-        <v>115.85449315066496</v>
+        <v>119.54655249515902</v>
       </c>
       <c r="CO117" s="14">
-        <v>114.15653388291904</v>
+        <v>117.79146924859019</v>
       </c>
       <c r="CP117" s="8"/>
       <c r="CQ117" s="8"/>
@@ -19766,19 +19768,19 @@
         <v>109.18943346169769</v>
       </c>
       <c r="CK118" s="14">
-        <v>107.27313045488036</v>
+        <v>107.27313045488039</v>
       </c>
       <c r="CL118" s="14">
         <v>112.00394049520814</v>
       </c>
       <c r="CM118" s="14">
-        <v>113.13547570597329</v>
+        <v>113.13547570597326</v>
       </c>
       <c r="CN118" s="14">
-        <v>115.97368629182768</v>
+        <v>111.27094242821842</v>
       </c>
       <c r="CO118" s="14">
-        <v>114.26976550965544</v>
+        <v>114.26976550965541</v>
       </c>
       <c r="CP118" s="8"/>
       <c r="CQ118" s="8"/>
@@ -20248,28 +20250,28 @@
         <v>104.26131819146616</v>
       </c>
       <c r="CH120" s="14">
-        <v>107.46283437973449</v>
+        <v>107.46216954817294</v>
       </c>
       <c r="CI120" s="14">
-        <v>104.53090413269572</v>
+        <v>104.52209895054798</v>
       </c>
       <c r="CJ120" s="14">
-        <v>108.10836568725063</v>
+        <v>108.10778633139537</v>
       </c>
       <c r="CK120" s="14">
-        <v>107.90279558286954</v>
+        <v>107.90147001950392</v>
       </c>
       <c r="CL120" s="14">
-        <v>112.04563749630564</v>
+        <v>112.33130479076783</v>
       </c>
       <c r="CM120" s="14">
-        <v>112.99069482591557</v>
+        <v>113.28644583069654</v>
       </c>
       <c r="CN120" s="14">
-        <v>114.98659444679757</v>
+        <v>115.58029627840591</v>
       </c>
       <c r="CO120" s="14">
-        <v>115.00782162247425</v>
+        <v>116.13546076127123</v>
       </c>
       <c r="CP120" s="8"/>
       <c r="CQ120" s="8"/>
@@ -20442,7 +20444,7 @@
     </row>
     <row r="127" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="129" spans="1:151" x14ac:dyDescent="0.2">
@@ -20452,7 +20454,7 @@
     </row>
     <row r="130" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="131" spans="1:151" x14ac:dyDescent="0.2">
@@ -20462,144 +20464,144 @@
     </row>
     <row r="133" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
-      <c r="B133" s="18">
+      <c r="B133" s="19">
         <v>2000</v>
       </c>
-      <c r="C133" s="18"/>
-      <c r="D133" s="18"/>
-      <c r="E133" s="18"/>
-      <c r="F133" s="18">
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="19">
         <v>2001</v>
       </c>
-      <c r="G133" s="18"/>
-      <c r="H133" s="18"/>
-      <c r="I133" s="18"/>
-      <c r="J133" s="18">
+      <c r="G133" s="19"/>
+      <c r="H133" s="19"/>
+      <c r="I133" s="19"/>
+      <c r="J133" s="19">
         <v>2002</v>
       </c>
-      <c r="K133" s="18"/>
-      <c r="L133" s="18"/>
-      <c r="M133" s="18"/>
-      <c r="N133" s="18">
+      <c r="K133" s="19"/>
+      <c r="L133" s="19"/>
+      <c r="M133" s="19"/>
+      <c r="N133" s="19">
         <v>2003</v>
       </c>
-      <c r="O133" s="18"/>
-      <c r="P133" s="18"/>
-      <c r="Q133" s="18"/>
-      <c r="R133" s="18">
+      <c r="O133" s="19"/>
+      <c r="P133" s="19"/>
+      <c r="Q133" s="19"/>
+      <c r="R133" s="19">
         <v>2004</v>
       </c>
-      <c r="S133" s="18"/>
-      <c r="T133" s="18"/>
-      <c r="U133" s="18"/>
-      <c r="V133" s="18">
+      <c r="S133" s="19"/>
+      <c r="T133" s="19"/>
+      <c r="U133" s="19"/>
+      <c r="V133" s="19">
         <v>2005</v>
       </c>
-      <c r="W133" s="18"/>
-      <c r="X133" s="18"/>
-      <c r="Y133" s="18"/>
-      <c r="Z133" s="18">
+      <c r="W133" s="19"/>
+      <c r="X133" s="19"/>
+      <c r="Y133" s="19"/>
+      <c r="Z133" s="19">
         <v>2006</v>
       </c>
-      <c r="AA133" s="18"/>
-      <c r="AB133" s="18"/>
-      <c r="AC133" s="18"/>
-      <c r="AD133" s="18">
+      <c r="AA133" s="19"/>
+      <c r="AB133" s="19"/>
+      <c r="AC133" s="19"/>
+      <c r="AD133" s="19">
         <v>2007</v>
       </c>
-      <c r="AE133" s="18"/>
-      <c r="AF133" s="18"/>
-      <c r="AG133" s="18"/>
-      <c r="AH133" s="18">
+      <c r="AE133" s="19"/>
+      <c r="AF133" s="19"/>
+      <c r="AG133" s="19"/>
+      <c r="AH133" s="19">
         <v>2008</v>
       </c>
-      <c r="AI133" s="18"/>
-      <c r="AJ133" s="18"/>
-      <c r="AK133" s="18"/>
-      <c r="AL133" s="18">
+      <c r="AI133" s="19"/>
+      <c r="AJ133" s="19"/>
+      <c r="AK133" s="19"/>
+      <c r="AL133" s="19">
         <v>2009</v>
       </c>
-      <c r="AM133" s="18"/>
-      <c r="AN133" s="18"/>
-      <c r="AO133" s="18"/>
-      <c r="AP133" s="18">
+      <c r="AM133" s="19"/>
+      <c r="AN133" s="19"/>
+      <c r="AO133" s="19"/>
+      <c r="AP133" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ133" s="18"/>
-      <c r="AR133" s="18"/>
-      <c r="AS133" s="18"/>
-      <c r="AT133" s="18">
+      <c r="AQ133" s="19"/>
+      <c r="AR133" s="19"/>
+      <c r="AS133" s="19"/>
+      <c r="AT133" s="19">
         <v>2011</v>
       </c>
-      <c r="AU133" s="18"/>
-      <c r="AV133" s="18"/>
-      <c r="AW133" s="18"/>
-      <c r="AX133" s="18">
+      <c r="AU133" s="19"/>
+      <c r="AV133" s="19"/>
+      <c r="AW133" s="19"/>
+      <c r="AX133" s="19">
         <v>2012</v>
       </c>
-      <c r="AY133" s="18"/>
-      <c r="AZ133" s="18"/>
-      <c r="BA133" s="18"/>
-      <c r="BB133" s="18">
+      <c r="AY133" s="19"/>
+      <c r="AZ133" s="19"/>
+      <c r="BA133" s="19"/>
+      <c r="BB133" s="19">
         <v>2013</v>
       </c>
-      <c r="BC133" s="18"/>
-      <c r="BD133" s="18"/>
-      <c r="BE133" s="18"/>
-      <c r="BF133" s="18">
+      <c r="BC133" s="19"/>
+      <c r="BD133" s="19"/>
+      <c r="BE133" s="19"/>
+      <c r="BF133" s="19">
         <v>2014</v>
       </c>
-      <c r="BG133" s="18"/>
-      <c r="BH133" s="18"/>
-      <c r="BI133" s="18"/>
-      <c r="BJ133" s="18">
+      <c r="BG133" s="19"/>
+      <c r="BH133" s="19"/>
+      <c r="BI133" s="19"/>
+      <c r="BJ133" s="19">
         <v>2015</v>
       </c>
-      <c r="BK133" s="18"/>
-      <c r="BL133" s="18"/>
-      <c r="BM133" s="18"/>
-      <c r="BN133" s="18">
+      <c r="BK133" s="19"/>
+      <c r="BL133" s="19"/>
+      <c r="BM133" s="19"/>
+      <c r="BN133" s="19">
         <v>2016</v>
       </c>
-      <c r="BO133" s="18"/>
-      <c r="BP133" s="18"/>
-      <c r="BQ133" s="18"/>
-      <c r="BR133" s="18">
+      <c r="BO133" s="19"/>
+      <c r="BP133" s="19"/>
+      <c r="BQ133" s="19"/>
+      <c r="BR133" s="19">
         <v>2017</v>
       </c>
-      <c r="BS133" s="18"/>
-      <c r="BT133" s="18"/>
-      <c r="BU133" s="18"/>
-      <c r="BV133" s="18">
+      <c r="BS133" s="19"/>
+      <c r="BT133" s="19"/>
+      <c r="BU133" s="19"/>
+      <c r="BV133" s="19">
         <v>2018</v>
       </c>
-      <c r="BW133" s="18"/>
-      <c r="BX133" s="18"/>
-      <c r="BY133" s="18"/>
-      <c r="BZ133" s="18">
+      <c r="BW133" s="19"/>
+      <c r="BX133" s="19"/>
+      <c r="BY133" s="19"/>
+      <c r="BZ133" s="19">
         <v>2019</v>
       </c>
-      <c r="CA133" s="18"/>
-      <c r="CB133" s="18"/>
-      <c r="CC133" s="18"/>
-      <c r="CD133" s="18">
+      <c r="CA133" s="19"/>
+      <c r="CB133" s="19"/>
+      <c r="CC133" s="19"/>
+      <c r="CD133" s="19">
         <v>2020</v>
       </c>
-      <c r="CE133" s="18"/>
-      <c r="CF133" s="18"/>
-      <c r="CG133" s="18"/>
-      <c r="CH133" s="18">
+      <c r="CE133" s="19"/>
+      <c r="CF133" s="19"/>
+      <c r="CG133" s="19"/>
+      <c r="CH133" s="19">
         <v>2021</v>
       </c>
-      <c r="CI133" s="18"/>
-      <c r="CJ133" s="18"/>
-      <c r="CK133" s="18"/>
-      <c r="CL133" s="18">
+      <c r="CI133" s="19"/>
+      <c r="CJ133" s="19"/>
+      <c r="CK133" s="19"/>
+      <c r="CL133" s="19">
         <v>2022</v>
       </c>
-      <c r="CM133" s="18"/>
-      <c r="CN133" s="18"/>
-      <c r="CO133" s="18"/>
+      <c r="CM133" s="19"/>
+      <c r="CN133" s="19"/>
+      <c r="CO133" s="19"/>
     </row>
     <row r="134" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
@@ -21140,28 +21142,28 @@
         <v>5.4275059453531354</v>
       </c>
       <c r="CH136" s="15">
-        <v>3.7210124126058028</v>
+        <v>3.7079619165669646</v>
       </c>
       <c r="CI136" s="15">
-        <v>3.1399466293911424</v>
+        <v>3.1686760313166022</v>
       </c>
       <c r="CJ136" s="15">
-        <v>5.9513037927032633</v>
+        <v>5.9400974656478551</v>
       </c>
       <c r="CK136" s="15">
-        <v>6.3648030216419471</v>
+        <v>6.3517535811312325</v>
       </c>
       <c r="CL136" s="15">
-        <v>7.3121379291535087</v>
+        <v>7.2501408841845167</v>
       </c>
       <c r="CM136" s="15">
-        <v>4.5804031881774865</v>
+        <v>4.5525961507475614</v>
       </c>
       <c r="CN136" s="15">
-        <v>7.4506958479537211</v>
+        <v>7.123031504693027</v>
       </c>
       <c r="CO136" s="15">
-        <v>9.3814270828289104</v>
+        <v>9.1431393370668612</v>
       </c>
       <c r="CP136" s="8"/>
       <c r="CQ136" s="8"/>
@@ -21479,28 +21481,28 @@
         <v>0.18664971726304994</v>
       </c>
       <c r="CH137" s="15">
-        <v>8.7558676562155199E-2</v>
+        <v>8.6921547744633912E-2</v>
       </c>
       <c r="CI137" s="15">
-        <v>6.2967906137419247E-2</v>
+        <v>6.4092383553871687E-2</v>
       </c>
       <c r="CJ137" s="15">
-        <v>0.17549222859448987</v>
+        <v>0.17519861914326512</v>
       </c>
       <c r="CK137" s="15">
-        <v>0.17471975750948968</v>
+        <v>0.17388086679314779</v>
       </c>
       <c r="CL137" s="15">
-        <v>8.5242739098045542E-2</v>
+        <v>8.303106049360541E-2</v>
       </c>
       <c r="CM137" s="15">
-        <v>5.9231648592946468E-2</v>
+        <v>5.9636933637316959E-2</v>
       </c>
       <c r="CN137" s="15">
-        <v>0.14232250146675193</v>
+        <v>0.14132000283227314</v>
       </c>
       <c r="CO137" s="15">
-        <v>0.17608520837822261</v>
+        <v>0.16291089073254109</v>
       </c>
       <c r="CP137" s="8"/>
       <c r="CQ137" s="8"/>
@@ -21818,28 +21820,28 @@
         <v>2.0160285542239165</v>
       </c>
       <c r="CH138" s="15">
-        <v>0.32281571107405882</v>
+        <v>0.3222802801758774</v>
       </c>
       <c r="CI138" s="15">
-        <v>5.017920109408661</v>
+        <v>5.0367479180651493</v>
       </c>
       <c r="CJ138" s="15">
-        <v>5.3524872102617618</v>
+        <v>5.3418845429763779</v>
       </c>
       <c r="CK138" s="15">
-        <v>2.7846728412805546</v>
+        <v>2.7818782049697144</v>
       </c>
       <c r="CL138" s="15">
-        <v>2.5397042174510642</v>
+        <v>2.5240485310759349</v>
       </c>
       <c r="CM138" s="15">
-        <v>9.1614497764906773</v>
+        <v>9.0963045368606146</v>
       </c>
       <c r="CN138" s="15">
-        <v>16.658884632941838</v>
+        <v>16.510726042475234</v>
       </c>
       <c r="CO138" s="15">
-        <v>10.397251610723133</v>
+        <v>10.280272247948936</v>
       </c>
       <c r="CP138" s="8"/>
       <c r="CQ138" s="8"/>
@@ -22157,28 +22159,28 @@
         <v>0.60148638065745919</v>
       </c>
       <c r="CH139" s="15">
-        <v>0.56187529055733054</v>
+        <v>0.62481933927781019</v>
       </c>
       <c r="CI139" s="15">
-        <v>0.57989329839645298</v>
+        <v>0.64835075819374599</v>
       </c>
       <c r="CJ139" s="15">
-        <v>0.84482969081861936</v>
+        <v>0.93916843464340838</v>
       </c>
       <c r="CK139" s="15">
-        <v>0.79241330198598137</v>
+        <v>0.88176153624546327</v>
       </c>
       <c r="CL139" s="15">
-        <v>0.48713886300158227</v>
+        <v>0.53926570175523747</v>
       </c>
       <c r="CM139" s="15">
-        <v>0.49958929902264754</v>
+        <v>0.59443022262417511</v>
       </c>
       <c r="CN139" s="15">
-        <v>0.6259832474467667</v>
+        <v>0.69975213191846064</v>
       </c>
       <c r="CO139" s="15">
-        <v>0.64350435470053691</v>
+        <v>0.73576712927618371</v>
       </c>
       <c r="CP139" s="8"/>
       <c r="CQ139" s="8"/>
@@ -22496,28 +22498,28 @@
         <v>15.398891770769421</v>
       </c>
       <c r="CH140" s="15">
-        <v>19.317719145174404</v>
+        <v>19.285678252002558</v>
       </c>
       <c r="CI140" s="15">
-        <v>17.667157848046728</v>
+        <v>17.733447039626977</v>
       </c>
       <c r="CJ140" s="15">
-        <v>15.641018178667684</v>
+        <v>15.610035103839385</v>
       </c>
       <c r="CK140" s="15">
-        <v>15.082616976026891</v>
+        <v>15.080973968014156</v>
       </c>
       <c r="CL140" s="15">
-        <v>17.349678360577634</v>
+        <v>17.238137924424048</v>
       </c>
       <c r="CM140" s="15">
-        <v>15.970465012773264</v>
+        <v>16.198405160389729</v>
       </c>
       <c r="CN140" s="15">
-        <v>13.711533730578918</v>
+        <v>13.373125061649633</v>
       </c>
       <c r="CO140" s="15">
-        <v>13.35106943391396</v>
+        <v>14.14657327890621</v>
       </c>
       <c r="CP140" s="8"/>
       <c r="CQ140" s="8"/>
@@ -22835,28 +22837,28 @@
         <v>64.942432985931987</v>
       </c>
       <c r="CH141" s="15">
-        <v>62.113759774290536</v>
+        <v>62.111162865378354</v>
       </c>
       <c r="CI141" s="15">
-        <v>59.739511634489538</v>
+        <v>59.840066288403506</v>
       </c>
       <c r="CJ141" s="15">
-        <v>58.515472634346807</v>
+        <v>58.263160624249942</v>
       </c>
       <c r="CK141" s="15">
-        <v>61.509603746173291</v>
+        <v>61.447874063049959</v>
       </c>
       <c r="CL141" s="15">
-        <v>58.854344582927389</v>
+        <v>58.900780388605469</v>
       </c>
       <c r="CM141" s="15">
-        <v>57.216271541737044</v>
+        <v>57.315289478851419</v>
       </c>
       <c r="CN141" s="15">
-        <v>51.410297585496224</v>
+        <v>51.518222835669761</v>
       </c>
       <c r="CO141" s="15">
-        <v>53.078104799141443</v>
+        <v>52.938775237345773</v>
       </c>
       <c r="CP141" s="8"/>
       <c r="CQ141" s="8"/>
@@ -23174,28 +23176,28 @@
         <v>10.351874513042256</v>
       </c>
       <c r="CH142" s="15">
-        <v>12.899161118522739</v>
+        <v>12.865020734970653</v>
       </c>
       <c r="CI142" s="15">
-        <v>12.573861544868803</v>
+        <v>12.359521977599192</v>
       </c>
       <c r="CJ142" s="15">
-        <v>11.817095775217298</v>
+        <v>12.317675195876671</v>
       </c>
       <c r="CK142" s="15">
-        <v>11.380842922393025</v>
+        <v>11.721266919248494</v>
       </c>
       <c r="CL142" s="15">
-        <v>12.378131943301597</v>
+        <v>12.454562170481861</v>
       </c>
       <c r="CM142" s="15">
-        <v>11.202931605436945</v>
+        <v>10.895182644348477</v>
       </c>
       <c r="CN142" s="15">
-        <v>8.345123146101237</v>
+        <v>9.1716680739699008</v>
       </c>
       <c r="CO142" s="15">
-        <v>10.409412904926842</v>
+        <v>10.811279520989928</v>
       </c>
       <c r="CP142" s="8"/>
       <c r="CQ142" s="8"/>
@@ -23513,28 +23515,28 @@
         <v>1.075130132758765</v>
       </c>
       <c r="CH143" s="15">
-        <v>0.97609787121298008</v>
+        <v>0.99615506388313169</v>
       </c>
       <c r="CI143" s="15">
-        <v>1.2187410292612511</v>
+        <v>1.1490976032409415</v>
       </c>
       <c r="CJ143" s="15">
-        <v>1.7023004893900633</v>
+        <v>1.4127800136230975</v>
       </c>
       <c r="CK143" s="15">
-        <v>1.9103274329888156</v>
+        <v>1.5606108605478348</v>
       </c>
       <c r="CL143" s="15">
-        <v>0.99362136448919425</v>
+        <v>1.0100333389793279</v>
       </c>
       <c r="CM143" s="15">
-        <v>1.3096579277689999</v>
+        <v>1.2881548725406995</v>
       </c>
       <c r="CN143" s="15">
-        <v>1.6551593080145559</v>
+        <v>1.462154346791706</v>
       </c>
       <c r="CO143" s="15">
-        <v>2.5631446053869347</v>
+        <v>1.7812823577335724</v>
       </c>
       <c r="CP143" s="8"/>
       <c r="CQ143" s="8"/>
@@ -24502,7 +24504,7 @@
     </row>
     <row r="152" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="154" spans="1:151" x14ac:dyDescent="0.2">
@@ -24512,7 +24514,7 @@
     </row>
     <row r="155" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="156" spans="1:151" x14ac:dyDescent="0.2">
@@ -24522,144 +24524,144 @@
     </row>
     <row r="158" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
-      <c r="B158" s="18">
+      <c r="B158" s="19">
         <v>2000</v>
       </c>
-      <c r="C158" s="18"/>
-      <c r="D158" s="18"/>
-      <c r="E158" s="18"/>
-      <c r="F158" s="18">
+      <c r="C158" s="19"/>
+      <c r="D158" s="19"/>
+      <c r="E158" s="19"/>
+      <c r="F158" s="19">
         <v>2001</v>
       </c>
-      <c r="G158" s="18"/>
-      <c r="H158" s="18"/>
-      <c r="I158" s="18"/>
-      <c r="J158" s="18">
+      <c r="G158" s="19"/>
+      <c r="H158" s="19"/>
+      <c r="I158" s="19"/>
+      <c r="J158" s="19">
         <v>2002</v>
       </c>
-      <c r="K158" s="18"/>
-      <c r="L158" s="18"/>
-      <c r="M158" s="18"/>
-      <c r="N158" s="18">
+      <c r="K158" s="19"/>
+      <c r="L158" s="19"/>
+      <c r="M158" s="19"/>
+      <c r="N158" s="19">
         <v>2003</v>
       </c>
-      <c r="O158" s="18"/>
-      <c r="P158" s="18"/>
-      <c r="Q158" s="18"/>
-      <c r="R158" s="18">
+      <c r="O158" s="19"/>
+      <c r="P158" s="19"/>
+      <c r="Q158" s="19"/>
+      <c r="R158" s="19">
         <v>2004</v>
       </c>
-      <c r="S158" s="18"/>
-      <c r="T158" s="18"/>
-      <c r="U158" s="18"/>
-      <c r="V158" s="18">
+      <c r="S158" s="19"/>
+      <c r="T158" s="19"/>
+      <c r="U158" s="19"/>
+      <c r="V158" s="19">
         <v>2005</v>
       </c>
-      <c r="W158" s="18"/>
-      <c r="X158" s="18"/>
-      <c r="Y158" s="18"/>
-      <c r="Z158" s="18">
+      <c r="W158" s="19"/>
+      <c r="X158" s="19"/>
+      <c r="Y158" s="19"/>
+      <c r="Z158" s="19">
         <v>2006</v>
       </c>
-      <c r="AA158" s="18"/>
-      <c r="AB158" s="18"/>
-      <c r="AC158" s="18"/>
-      <c r="AD158" s="18">
+      <c r="AA158" s="19"/>
+      <c r="AB158" s="19"/>
+      <c r="AC158" s="19"/>
+      <c r="AD158" s="19">
         <v>2007</v>
       </c>
-      <c r="AE158" s="18"/>
-      <c r="AF158" s="18"/>
-      <c r="AG158" s="18"/>
-      <c r="AH158" s="18">
+      <c r="AE158" s="19"/>
+      <c r="AF158" s="19"/>
+      <c r="AG158" s="19"/>
+      <c r="AH158" s="19">
         <v>2008</v>
       </c>
-      <c r="AI158" s="18"/>
-      <c r="AJ158" s="18"/>
-      <c r="AK158" s="18"/>
-      <c r="AL158" s="18">
+      <c r="AI158" s="19"/>
+      <c r="AJ158" s="19"/>
+      <c r="AK158" s="19"/>
+      <c r="AL158" s="19">
         <v>2009</v>
       </c>
-      <c r="AM158" s="18"/>
-      <c r="AN158" s="18"/>
-      <c r="AO158" s="18"/>
-      <c r="AP158" s="18">
+      <c r="AM158" s="19"/>
+      <c r="AN158" s="19"/>
+      <c r="AO158" s="19"/>
+      <c r="AP158" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ158" s="18"/>
-      <c r="AR158" s="18"/>
-      <c r="AS158" s="18"/>
-      <c r="AT158" s="18">
+      <c r="AQ158" s="19"/>
+      <c r="AR158" s="19"/>
+      <c r="AS158" s="19"/>
+      <c r="AT158" s="19">
         <v>2011</v>
       </c>
-      <c r="AU158" s="18"/>
-      <c r="AV158" s="18"/>
-      <c r="AW158" s="18"/>
-      <c r="AX158" s="18">
+      <c r="AU158" s="19"/>
+      <c r="AV158" s="19"/>
+      <c r="AW158" s="19"/>
+      <c r="AX158" s="19">
         <v>2012</v>
       </c>
-      <c r="AY158" s="18"/>
-      <c r="AZ158" s="18"/>
-      <c r="BA158" s="18"/>
-      <c r="BB158" s="18">
+      <c r="AY158" s="19"/>
+      <c r="AZ158" s="19"/>
+      <c r="BA158" s="19"/>
+      <c r="BB158" s="19">
         <v>2013</v>
       </c>
-      <c r="BC158" s="18"/>
-      <c r="BD158" s="18"/>
-      <c r="BE158" s="18"/>
-      <c r="BF158" s="18">
+      <c r="BC158" s="19"/>
+      <c r="BD158" s="19"/>
+      <c r="BE158" s="19"/>
+      <c r="BF158" s="19">
         <v>2014</v>
       </c>
-      <c r="BG158" s="18"/>
-      <c r="BH158" s="18"/>
-      <c r="BI158" s="18"/>
-      <c r="BJ158" s="18">
+      <c r="BG158" s="19"/>
+      <c r="BH158" s="19"/>
+      <c r="BI158" s="19"/>
+      <c r="BJ158" s="19">
         <v>2015</v>
       </c>
-      <c r="BK158" s="18"/>
-      <c r="BL158" s="18"/>
-      <c r="BM158" s="18"/>
-      <c r="BN158" s="18">
+      <c r="BK158" s="19"/>
+      <c r="BL158" s="19"/>
+      <c r="BM158" s="19"/>
+      <c r="BN158" s="19">
         <v>2016</v>
       </c>
-      <c r="BO158" s="18"/>
-      <c r="BP158" s="18"/>
-      <c r="BQ158" s="18"/>
-      <c r="BR158" s="18">
+      <c r="BO158" s="19"/>
+      <c r="BP158" s="19"/>
+      <c r="BQ158" s="19"/>
+      <c r="BR158" s="19">
         <v>2017</v>
       </c>
-      <c r="BS158" s="18"/>
-      <c r="BT158" s="18"/>
-      <c r="BU158" s="18"/>
-      <c r="BV158" s="18">
+      <c r="BS158" s="19"/>
+      <c r="BT158" s="19"/>
+      <c r="BU158" s="19"/>
+      <c r="BV158" s="19">
         <v>2018</v>
       </c>
-      <c r="BW158" s="18"/>
-      <c r="BX158" s="18"/>
-      <c r="BY158" s="18"/>
-      <c r="BZ158" s="18">
+      <c r="BW158" s="19"/>
+      <c r="BX158" s="19"/>
+      <c r="BY158" s="19"/>
+      <c r="BZ158" s="19">
         <v>2019</v>
       </c>
-      <c r="CA158" s="18"/>
-      <c r="CB158" s="18"/>
-      <c r="CC158" s="18"/>
-      <c r="CD158" s="18">
+      <c r="CA158" s="19"/>
+      <c r="CB158" s="19"/>
+      <c r="CC158" s="19"/>
+      <c r="CD158" s="19">
         <v>2020</v>
       </c>
-      <c r="CE158" s="18"/>
-      <c r="CF158" s="18"/>
-      <c r="CG158" s="18"/>
-      <c r="CH158" s="18">
+      <c r="CE158" s="19"/>
+      <c r="CF158" s="19"/>
+      <c r="CG158" s="19"/>
+      <c r="CH158" s="19">
         <v>2021</v>
       </c>
-      <c r="CI158" s="18"/>
-      <c r="CJ158" s="18"/>
-      <c r="CK158" s="18"/>
-      <c r="CL158" s="18">
+      <c r="CI158" s="19"/>
+      <c r="CJ158" s="19"/>
+      <c r="CK158" s="19"/>
+      <c r="CL158" s="19">
         <v>2022</v>
       </c>
-      <c r="CM158" s="18"/>
-      <c r="CN158" s="18"/>
-      <c r="CO158" s="18"/>
+      <c r="CM158" s="19"/>
+      <c r="CN158" s="19"/>
+      <c r="CO158" s="19"/>
     </row>
     <row r="159" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
@@ -25200,28 +25202,28 @@
         <v>5.1202309490742826</v>
       </c>
       <c r="CH161" s="15">
-        <v>3.4474077754146877</v>
+        <v>3.4352956244251054</v>
       </c>
       <c r="CI161" s="15">
-        <v>3.0261185334538467</v>
+        <v>3.0535492105186033</v>
       </c>
       <c r="CJ161" s="15">
-        <v>5.7945406475794554</v>
+        <v>5.7835985114685524</v>
       </c>
       <c r="CK161" s="15">
-        <v>5.7891861138282206</v>
+        <v>5.7772458590307521</v>
       </c>
       <c r="CL161" s="15">
-        <v>6.4973541440330891</v>
+        <v>6.4586903187929448</v>
       </c>
       <c r="CM161" s="15">
-        <v>4.1529741604999515</v>
+        <v>4.1385663284785403</v>
       </c>
       <c r="CN161" s="15">
-        <v>6.6672853034692077</v>
+        <v>6.4069843265431619</v>
       </c>
       <c r="CO161" s="15">
-        <v>8.1103551412160151</v>
+        <v>7.9818538688371241</v>
       </c>
       <c r="CP161" s="8"/>
       <c r="CQ161" s="8"/>
@@ -25539,28 +25541,28 @@
         <v>0.18817661213181042</v>
       </c>
       <c r="CH162" s="15">
-        <v>8.7715920558017663E-2</v>
+        <v>8.7077108823813351E-2</v>
       </c>
       <c r="CI162" s="15">
-        <v>6.116392952960753E-2</v>
+        <v>6.2250947467605816E-2</v>
       </c>
       <c r="CJ162" s="15">
-        <v>0.17363625637295835</v>
+        <v>0.17334482311420102</v>
       </c>
       <c r="CK162" s="15">
-        <v>0.17551752463079001</v>
+        <v>0.17467265771166715</v>
       </c>
       <c r="CL162" s="15">
-        <v>8.5368641966480946E-2</v>
+        <v>8.3365702231303115E-2</v>
       </c>
       <c r="CM162" s="15">
-        <v>5.8841137449009859E-2</v>
+        <v>5.9398819865764195E-2</v>
       </c>
       <c r="CN162" s="15">
-        <v>0.14101494864450775</v>
+        <v>0.14074462376520538</v>
       </c>
       <c r="CO162" s="15">
-        <v>0.17699281709170264</v>
+        <v>0.16535615081173041</v>
       </c>
       <c r="CP162" s="8"/>
       <c r="CQ162" s="8"/>
@@ -25878,28 +25880,28 @@
         <v>2.0185663269887475</v>
       </c>
       <c r="CH163" s="15">
-        <v>0.31608265780620848</v>
+        <v>0.31555644229347418</v>
       </c>
       <c r="CI163" s="15">
-        <v>4.7835007819061266</v>
+        <v>4.801044571461925</v>
       </c>
       <c r="CJ163" s="15">
-        <v>5.2221723627921808</v>
+        <v>5.2117999040352281</v>
       </c>
       <c r="CK163" s="15">
-        <v>2.7702626782271129</v>
+        <v>2.7674485056923839</v>
       </c>
       <c r="CL163" s="15">
-        <v>2.5086581822839658</v>
+        <v>2.4995504275256444</v>
       </c>
       <c r="CM163" s="15">
-        <v>8.9520109509414567</v>
+        <v>8.911620089896747</v>
       </c>
       <c r="CN163" s="15">
-        <v>16.227068570727301</v>
+        <v>16.119529344341789</v>
       </c>
       <c r="CO163" s="15">
-        <v>10.217009266495628</v>
+        <v>10.2011073825906</v>
       </c>
       <c r="CP163" s="8"/>
       <c r="CQ163" s="8"/>
@@ -26217,28 +26219,28 @@
         <v>0.59336852384765482</v>
       </c>
       <c r="CH164" s="15">
-        <v>0.57638805240990287</v>
+        <v>0.64095392712188404</v>
       </c>
       <c r="CI164" s="15">
-        <v>0.57822142937842447</v>
+        <v>0.6464270654902593</v>
       </c>
       <c r="CJ164" s="15">
-        <v>0.85359072934355051</v>
+        <v>0.94890269798461568</v>
       </c>
       <c r="CK164" s="15">
-        <v>0.784227592561623</v>
+        <v>0.87264213018068471</v>
       </c>
       <c r="CL164" s="15">
-        <v>0.50265380266675763</v>
+        <v>0.55785951527030686</v>
       </c>
       <c r="CM164" s="15">
-        <v>0.51326441545821277</v>
+        <v>0.61229989214461655</v>
       </c>
       <c r="CN164" s="15">
-        <v>0.63960814762832363</v>
+        <v>0.71867427343568591</v>
       </c>
       <c r="CO164" s="15">
-        <v>0.64055792973566383</v>
+        <v>0.73957934408039272</v>
       </c>
       <c r="CP164" s="8"/>
       <c r="CQ164" s="8"/>
@@ -26556,28 +26558,28 @@
         <v>16.223448810278832</v>
       </c>
       <c r="CH165" s="15">
-        <v>20.516142766994637</v>
+        <v>20.481987420857038</v>
       </c>
       <c r="CI165" s="15">
-        <v>18.254315872337752</v>
+        <v>18.321264722301514</v>
       </c>
       <c r="CJ165" s="15">
-        <v>16.633834143540728</v>
+        <v>16.600795448791171</v>
       </c>
       <c r="CK165" s="15">
-        <v>16.40765748487652</v>
+        <v>16.405668592360829</v>
       </c>
       <c r="CL165" s="15">
-        <v>19.086143938106673</v>
+        <v>18.951192764948299</v>
       </c>
       <c r="CM165" s="15">
-        <v>17.695269622999863</v>
+        <v>17.785181361601524</v>
       </c>
       <c r="CN165" s="15">
-        <v>15.438712043287861</v>
+        <v>15.127593432922945</v>
       </c>
       <c r="CO165" s="15">
-        <v>15.384572026905325</v>
+        <v>15.896808419825733</v>
       </c>
       <c r="CP165" s="8"/>
       <c r="CQ165" s="8"/>
@@ -26895,28 +26897,28 @@
         <v>64.310408029086403</v>
       </c>
       <c r="CH166" s="15">
-        <v>61.164248120272603</v>
+        <v>61.161312525362796</v>
       </c>
       <c r="CI166" s="15">
-        <v>59.892136466384585</v>
+        <v>59.98789450296573</v>
       </c>
       <c r="CJ166" s="15">
-        <v>57.924645792109352</v>
+        <v>57.674572278271384</v>
       </c>
       <c r="CK166" s="15">
-        <v>60.692607672459189</v>
+        <v>60.630953060817014</v>
       </c>
       <c r="CL166" s="15">
-        <v>57.936211169675126</v>
+        <v>58.044220266448377</v>
       </c>
       <c r="CM166" s="15">
-        <v>56.098695068659744</v>
+        <v>56.342870326104055</v>
       </c>
       <c r="CN166" s="15">
-        <v>50.962631833623497</v>
+        <v>51.100317624662694</v>
       </c>
       <c r="CO166" s="15">
-        <v>52.403775192551592</v>
+        <v>52.545643538551502</v>
       </c>
       <c r="CP166" s="8"/>
       <c r="CQ166" s="8"/>
@@ -27234,28 +27236,28 @@
         <v>10.46046872292475</v>
       </c>
       <c r="CH167" s="15">
-        <v>12.915242539636109</v>
+        <v>12.880979902968203</v>
       </c>
       <c r="CI167" s="15">
-        <v>12.223207177357558</v>
+        <v>12.013832945535796</v>
       </c>
       <c r="CJ167" s="15">
-        <v>11.71213379400187</v>
+        <v>12.208201536342186</v>
       </c>
       <c r="CK167" s="15">
-        <v>11.45900037965375</v>
+        <v>11.801617241714322</v>
       </c>
       <c r="CL167" s="15">
-        <v>12.389618849872395</v>
+        <v>12.392135547770765</v>
       </c>
       <c r="CM167" s="15">
-        <v>11.220962701815905</v>
+        <v>10.860189371072559</v>
       </c>
       <c r="CN167" s="15">
-        <v>8.2826074735092714</v>
+        <v>8.8673750202839567</v>
       </c>
       <c r="CO167" s="15">
-        <v>10.487037945566396</v>
+        <v>10.659285741136884</v>
       </c>
       <c r="CP167" s="8"/>
       <c r="CQ167" s="8"/>
@@ -27573,28 +27575,28 @@
         <v>1.085332025667505</v>
       </c>
       <c r="CH168" s="15">
-        <v>0.9767721669078312</v>
+        <v>0.99683704814768415</v>
       </c>
       <c r="CI168" s="15">
-        <v>1.1813358096520878</v>
+        <v>1.1137360342585709</v>
       </c>
       <c r="CJ168" s="15">
-        <v>1.6854462742598915</v>
+        <v>1.3987847999926508</v>
       </c>
       <c r="CK168" s="15">
-        <v>1.9215405537628021</v>
+        <v>1.5697519524923442</v>
       </c>
       <c r="CL168" s="15">
-        <v>0.99399127139552668</v>
+        <v>1.012985457012362</v>
       </c>
       <c r="CM168" s="15">
-        <v>1.3079819421758536</v>
+        <v>1.2898738108361971</v>
       </c>
       <c r="CN168" s="15">
-        <v>1.6410716791100506</v>
+        <v>1.5187813540445654</v>
       </c>
       <c r="CO168" s="15">
-        <v>2.5796996804376882</v>
+        <v>1.8103655541660508</v>
       </c>
       <c r="CP168" s="8"/>
       <c r="CQ168" s="8"/>

--- a/Data/National Accounts/PSA-05EOS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-05EOS_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC599D29-E3C3-4F9D-AA4D-899DE756C4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A263CCA-1744-4034-885C-F78EC05C7AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">EOS!$A$37:$A$48</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EOS!$A$1:$CO$174</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EOS!$A$1:$CP$174</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="57">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -216,13 +216,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2022</t>
+    <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2022</t>
+    <t>As of May 2023</t>
   </si>
   <si>
-    <t>As of April 2023</t>
+    <t>Q1 2000 to Q1 2023</t>
+  </si>
+  <si>
+    <t>Q1 2001 to Q1 2023</t>
   </si>
 </sst>
 </file>
@@ -313,7 +316,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -342,6 +345,12 @@
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -690,15 +699,15 @@
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="CD1" sqref="CD1:CO1048576"/>
+      <selection pane="bottomRight" activeCell="CD1" sqref="CD1:CP1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.77734375" style="1" customWidth="1"/>
     <col min="2" max="73" width="8.77734375" style="1" customWidth="1"/>
-    <col min="74" max="93" width="10" style="1" customWidth="1"/>
-    <col min="94" max="16384" width="7.77734375" style="1"/>
+    <col min="74" max="94" width="10" style="1" customWidth="1"/>
+    <col min="95" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:151" x14ac:dyDescent="0.2">
@@ -713,7 +722,7 @@
     </row>
     <row r="3" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:151" x14ac:dyDescent="0.2">
@@ -723,7 +732,7 @@
     </row>
     <row r="6" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:151" x14ac:dyDescent="0.2">
@@ -733,144 +742,147 @@
     </row>
     <row r="9" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="18">
+      <c r="B9" s="22">
         <v>2000</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22">
         <v>2001</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18">
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22">
         <v>2002</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18">
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22">
         <v>2003</v>
       </c>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18">
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22">
         <v>2004</v>
       </c>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18">
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22">
         <v>2005</v>
       </c>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18">
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22">
         <v>2006</v>
       </c>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18">
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22">
         <v>2007</v>
       </c>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="18"/>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="18">
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22">
         <v>2008</v>
       </c>
-      <c r="AI9" s="18"/>
-      <c r="AJ9" s="18"/>
-      <c r="AK9" s="18"/>
-      <c r="AL9" s="18">
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22">
         <v>2009</v>
       </c>
-      <c r="AM9" s="18"/>
-      <c r="AN9" s="18"/>
-      <c r="AO9" s="18"/>
-      <c r="AP9" s="18">
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="22"/>
+      <c r="AP9" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="18"/>
-      <c r="AR9" s="18"/>
-      <c r="AS9" s="18"/>
-      <c r="AT9" s="18">
+      <c r="AQ9" s="22"/>
+      <c r="AR9" s="22"/>
+      <c r="AS9" s="22"/>
+      <c r="AT9" s="22">
         <v>2011</v>
       </c>
-      <c r="AU9" s="18"/>
-      <c r="AV9" s="18"/>
-      <c r="AW9" s="18"/>
-      <c r="AX9" s="18">
+      <c r="AU9" s="22"/>
+      <c r="AV9" s="22"/>
+      <c r="AW9" s="22"/>
+      <c r="AX9" s="22">
         <v>2012</v>
       </c>
-      <c r="AY9" s="18"/>
-      <c r="AZ9" s="18"/>
-      <c r="BA9" s="18"/>
-      <c r="BB9" s="18">
+      <c r="AY9" s="22"/>
+      <c r="AZ9" s="22"/>
+      <c r="BA9" s="22"/>
+      <c r="BB9" s="22">
         <v>2013</v>
       </c>
-      <c r="BC9" s="18"/>
-      <c r="BD9" s="18"/>
-      <c r="BE9" s="18"/>
-      <c r="BF9" s="18">
+      <c r="BC9" s="22"/>
+      <c r="BD9" s="22"/>
+      <c r="BE9" s="22"/>
+      <c r="BF9" s="22">
         <v>2014</v>
       </c>
-      <c r="BG9" s="18"/>
-      <c r="BH9" s="18"/>
-      <c r="BI9" s="18"/>
-      <c r="BJ9" s="18">
+      <c r="BG9" s="22"/>
+      <c r="BH9" s="22"/>
+      <c r="BI9" s="22"/>
+      <c r="BJ9" s="22">
         <v>2015</v>
       </c>
-      <c r="BK9" s="18"/>
-      <c r="BL9" s="18"/>
-      <c r="BM9" s="18"/>
-      <c r="BN9" s="18">
+      <c r="BK9" s="22"/>
+      <c r="BL9" s="22"/>
+      <c r="BM9" s="22"/>
+      <c r="BN9" s="22">
         <v>2016</v>
       </c>
-      <c r="BO9" s="18"/>
-      <c r="BP9" s="18"/>
-      <c r="BQ9" s="18"/>
-      <c r="BR9" s="18">
+      <c r="BO9" s="22"/>
+      <c r="BP9" s="22"/>
+      <c r="BQ9" s="22"/>
+      <c r="BR9" s="22">
         <v>2017</v>
       </c>
-      <c r="BS9" s="18"/>
-      <c r="BT9" s="18"/>
-      <c r="BU9" s="18"/>
-      <c r="BV9" s="18">
+      <c r="BS9" s="22"/>
+      <c r="BT9" s="22"/>
+      <c r="BU9" s="22"/>
+      <c r="BV9" s="22">
         <v>2018</v>
       </c>
-      <c r="BW9" s="18"/>
-      <c r="BX9" s="18"/>
-      <c r="BY9" s="18"/>
-      <c r="BZ9" s="18">
+      <c r="BW9" s="22"/>
+      <c r="BX9" s="22"/>
+      <c r="BY9" s="22"/>
+      <c r="BZ9" s="22">
         <v>2019</v>
       </c>
-      <c r="CA9" s="18"/>
-      <c r="CB9" s="18"/>
-      <c r="CC9" s="18"/>
-      <c r="CD9" s="18">
+      <c r="CA9" s="22"/>
+      <c r="CB9" s="22"/>
+      <c r="CC9" s="22"/>
+      <c r="CD9" s="22">
         <v>2020</v>
       </c>
-      <c r="CE9" s="18"/>
-      <c r="CF9" s="18"/>
-      <c r="CG9" s="18"/>
-      <c r="CH9" s="18">
+      <c r="CE9" s="22"/>
+      <c r="CF9" s="22"/>
+      <c r="CG9" s="22"/>
+      <c r="CH9" s="22">
         <v>2021</v>
       </c>
-      <c r="CI9" s="18"/>
-      <c r="CJ9" s="18"/>
-      <c r="CK9" s="18"/>
-      <c r="CL9" s="18">
+      <c r="CI9" s="22"/>
+      <c r="CJ9" s="22"/>
+      <c r="CK9" s="22"/>
+      <c r="CL9" s="22">
         <v>2022</v>
       </c>
-      <c r="CM9" s="18"/>
-      <c r="CN9" s="18"/>
-      <c r="CO9" s="18"/>
+      <c r="CM9" s="22"/>
+      <c r="CN9" s="22"/>
+      <c r="CO9" s="22"/>
+      <c r="CP9" s="18">
+        <v>2023</v>
+      </c>
     </row>
     <row r="10" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
@@ -1149,6 +1161,9 @@
       </c>
       <c r="CO10" s="5" t="s">
         <v>10</v>
+      </c>
+      <c r="CP10" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1398,43 +1413,45 @@
       <c r="CC12" s="7">
         <v>45790.436819050155</v>
       </c>
-      <c r="CD12" s="7">
+      <c r="CD12" s="19">
         <v>34443.779051241945</v>
       </c>
-      <c r="CE12" s="7">
+      <c r="CE12" s="19">
         <v>14174.47972644388</v>
       </c>
-      <c r="CF12" s="7">
+      <c r="CF12" s="19">
         <v>20115.500886305032</v>
       </c>
-      <c r="CG12" s="7">
+      <c r="CG12" s="19">
         <v>22216.480801235044</v>
       </c>
-      <c r="CH12" s="7">
+      <c r="CH12" s="19">
         <v>20994.845549091202</v>
       </c>
-      <c r="CI12" s="7">
+      <c r="CI12" s="19">
         <v>18720.249271725566</v>
       </c>
-      <c r="CJ12" s="7">
+      <c r="CJ12" s="19">
         <v>26605.64460961007</v>
       </c>
-      <c r="CK12" s="7">
+      <c r="CK12" s="19">
         <v>30220.178862962039</v>
       </c>
-      <c r="CL12" s="7">
+      <c r="CL12" s="19">
         <v>50141.526896531599</v>
       </c>
-      <c r="CM12" s="7">
+      <c r="CM12" s="19">
         <v>33174.177713591889</v>
       </c>
-      <c r="CN12" s="7">
+      <c r="CN12" s="19">
         <v>45433.318337045661</v>
       </c>
-      <c r="CO12" s="7">
+      <c r="CO12" s="19">
         <v>57101.427341662231</v>
       </c>
-      <c r="CP12" s="8"/>
+      <c r="CP12" s="19">
+        <v>92805.314241712244</v>
+      </c>
       <c r="CQ12" s="8"/>
       <c r="CR12" s="8"/>
       <c r="CS12" s="8"/>
@@ -1737,43 +1754,45 @@
       <c r="CC13" s="7">
         <v>811.98755828997855</v>
       </c>
-      <c r="CD13" s="7">
+      <c r="CD13" s="19">
         <v>480.0441985661364</v>
       </c>
-      <c r="CE13" s="7">
+      <c r="CE13" s="19">
         <v>295.26631563989986</v>
       </c>
-      <c r="CF13" s="7">
+      <c r="CF13" s="19">
         <v>689.27086824640162</v>
       </c>
-      <c r="CG13" s="7">
+      <c r="CG13" s="19">
         <v>764.01571953703251</v>
       </c>
-      <c r="CH13" s="7">
+      <c r="CH13" s="19">
         <v>492.15836377201595</v>
       </c>
-      <c r="CI13" s="7">
+      <c r="CI13" s="19">
         <v>378.65196210954639</v>
       </c>
-      <c r="CJ13" s="7">
+      <c r="CJ13" s="19">
         <v>784.71308324092604</v>
       </c>
-      <c r="CK13" s="7">
+      <c r="CK13" s="19">
         <v>827.28506832280971</v>
       </c>
-      <c r="CL13" s="7">
+      <c r="CL13" s="19">
         <v>574.23768992813712</v>
       </c>
-      <c r="CM13" s="7">
+      <c r="CM13" s="19">
         <v>434.56660096089865</v>
       </c>
-      <c r="CN13" s="7">
+      <c r="CN13" s="19">
         <v>901.3910259754723</v>
       </c>
-      <c r="CO13" s="7">
+      <c r="CO13" s="19">
         <v>1017.4234524259053</v>
       </c>
-      <c r="CP13" s="8"/>
+      <c r="CP13" s="19">
+        <v>527.64640731919224</v>
+      </c>
       <c r="CQ13" s="8"/>
       <c r="CR13" s="8"/>
       <c r="CS13" s="8"/>
@@ -2076,43 +2095,45 @@
       <c r="CC14" s="7">
         <v>102672.183663597</v>
       </c>
-      <c r="CD14" s="7">
+      <c r="CD14" s="19">
         <v>113062.26479711011</v>
       </c>
-      <c r="CE14" s="7">
+      <c r="CE14" s="19">
         <v>5409.6907766346912</v>
       </c>
-      <c r="CF14" s="7">
+      <c r="CF14" s="19">
         <v>14472.992673047263</v>
       </c>
-      <c r="CG14" s="7">
+      <c r="CG14" s="19">
         <v>8252.2359478950566</v>
       </c>
-      <c r="CH14" s="7">
+      <c r="CH14" s="19">
         <v>1824.7826860301004</v>
       </c>
-      <c r="CI14" s="7">
+      <c r="CI14" s="19">
         <v>29756.647764917354</v>
       </c>
-      <c r="CJ14" s="7">
+      <c r="CJ14" s="19">
         <v>23926.254159618922</v>
       </c>
-      <c r="CK14" s="7">
+      <c r="CK14" s="19">
         <v>13235.535014912855</v>
       </c>
-      <c r="CL14" s="7">
+      <c r="CL14" s="19">
         <v>17456.163863680598</v>
       </c>
-      <c r="CM14" s="7">
+      <c r="CM14" s="19">
         <v>66283.591438967225</v>
       </c>
-      <c r="CN14" s="7">
+      <c r="CN14" s="19">
         <v>105311.49157059008</v>
       </c>
-      <c r="CO14" s="7">
+      <c r="CO14" s="19">
         <v>64203.136054041541</v>
       </c>
-      <c r="CP14" s="8"/>
+      <c r="CP14" s="19">
+        <v>128049.61270907105</v>
+      </c>
       <c r="CQ14" s="8"/>
       <c r="CR14" s="8"/>
       <c r="CS14" s="8"/>
@@ -2415,43 +2436,45 @@
       <c r="CC15" s="7">
         <v>2687.5370860009766</v>
       </c>
-      <c r="CD15" s="7">
+      <c r="CD15" s="19">
         <v>2105.4323915538039</v>
       </c>
-      <c r="CE15" s="7">
+      <c r="CE15" s="19">
         <v>2266.2550765925102</v>
       </c>
-      <c r="CF15" s="7">
+      <c r="CF15" s="19">
         <v>2473.4479522705974</v>
       </c>
-      <c r="CG15" s="7">
+      <c r="CG15" s="19">
         <v>2462.0720387274218</v>
       </c>
-      <c r="CH15" s="7">
+      <c r="CH15" s="19">
         <v>3537.7886341314402</v>
       </c>
-      <c r="CI15" s="7">
+      <c r="CI15" s="19">
         <v>3830.3972034200297</v>
       </c>
-      <c r="CJ15" s="7">
+      <c r="CJ15" s="19">
         <v>4206.527206866479</v>
       </c>
-      <c r="CK15" s="7">
+      <c r="CK15" s="19">
         <v>4195.2180605646736</v>
       </c>
-      <c r="CL15" s="7">
+      <c r="CL15" s="19">
         <v>3729.5283113630962</v>
       </c>
-      <c r="CM15" s="7">
+      <c r="CM15" s="19">
         <v>4331.5359392082883</v>
       </c>
-      <c r="CN15" s="7">
+      <c r="CN15" s="19">
         <v>4463.2768148689938</v>
       </c>
-      <c r="CO15" s="7">
+      <c r="CO15" s="19">
         <v>4595.0686874499042</v>
       </c>
-      <c r="CP15" s="8"/>
+      <c r="CP15" s="19">
+        <v>4570.1940500558103</v>
+      </c>
       <c r="CQ15" s="8"/>
       <c r="CR15" s="8"/>
       <c r="CS15" s="8"/>
@@ -2754,43 +2777,45 @@
       <c r="CC16" s="7">
         <v>64546.344676669141</v>
       </c>
-      <c r="CD16" s="7">
+      <c r="CD16" s="19">
         <v>108730.73949534736</v>
       </c>
-      <c r="CE16" s="7">
+      <c r="CE16" s="19">
         <v>94355.463227557135</v>
       </c>
-      <c r="CF16" s="7">
+      <c r="CF16" s="19">
         <v>58108.424492498925</v>
       </c>
-      <c r="CG16" s="7">
+      <c r="CG16" s="19">
         <v>63032.484317865848</v>
       </c>
-      <c r="CH16" s="7">
+      <c r="CH16" s="19">
         <v>109197.40960693023</v>
       </c>
-      <c r="CI16" s="7">
+      <c r="CI16" s="19">
         <v>104767.58928580767</v>
       </c>
-      <c r="CJ16" s="7">
+      <c r="CJ16" s="19">
         <v>69917.210739065209</v>
       </c>
-      <c r="CK16" s="7">
+      <c r="CK16" s="19">
         <v>71751.796558186717</v>
       </c>
-      <c r="CL16" s="7">
+      <c r="CL16" s="19">
         <v>119217.8979954884</v>
       </c>
-      <c r="CM16" s="7">
+      <c r="CM16" s="19">
         <v>118035.67759448505</v>
       </c>
-      <c r="CN16" s="7">
+      <c r="CN16" s="19">
         <v>85298.716941900639</v>
       </c>
-      <c r="CO16" s="7">
+      <c r="CO16" s="19">
         <v>88349.252531254111</v>
       </c>
-      <c r="CP16" s="8"/>
+      <c r="CP16" s="19">
+        <v>130698.48918918465</v>
+      </c>
       <c r="CQ16" s="8"/>
       <c r="CR16" s="8"/>
       <c r="CS16" s="8"/>
@@ -3093,43 +3118,45 @@
       <c r="CC17" s="7">
         <v>269156.31011836824</v>
       </c>
-      <c r="CD17" s="7">
+      <c r="CD17" s="19">
         <v>353046.08775540534</v>
       </c>
-      <c r="CE17" s="7">
+      <c r="CE17" s="19">
         <v>298544.10569727549</v>
       </c>
-      <c r="CF17" s="7">
+      <c r="CF17" s="19">
         <v>249825.37479479954</v>
       </c>
-      <c r="CG17" s="7">
+      <c r="CG17" s="19">
         <v>265829.70707802282</v>
       </c>
-      <c r="CH17" s="7">
+      <c r="CH17" s="19">
         <v>351679.52114254609</v>
       </c>
-      <c r="CI17" s="7">
+      <c r="CI17" s="19">
         <v>353529.65916494699</v>
       </c>
-      <c r="CJ17" s="7">
+      <c r="CJ17" s="19">
         <v>260960.18699456754</v>
       </c>
-      <c r="CK17" s="7">
+      <c r="CK17" s="19">
         <v>292354.81528290245</v>
       </c>
-      <c r="CL17" s="7">
+      <c r="CL17" s="19">
         <v>407354.16197559203</v>
       </c>
-      <c r="CM17" s="7">
+      <c r="CM17" s="19">
         <v>417649.08107765322</v>
       </c>
-      <c r="CN17" s="7">
+      <c r="CN17" s="19">
         <v>328602.19931776245</v>
       </c>
-      <c r="CO17" s="7">
+      <c r="CO17" s="19">
         <v>330617.25478872925</v>
       </c>
-      <c r="CP17" s="8"/>
+      <c r="CP17" s="19">
+        <v>438218.31011370319</v>
+      </c>
       <c r="CQ17" s="8"/>
       <c r="CR17" s="8"/>
       <c r="CS17" s="8"/>
@@ -3432,43 +3459,45 @@
       <c r="CC18" s="7">
         <v>46459.03507256334</v>
       </c>
-      <c r="CD18" s="7">
+      <c r="CD18" s="19">
         <v>71805.642590515621</v>
       </c>
-      <c r="CE18" s="7">
+      <c r="CE18" s="19">
         <v>55514.527226990889</v>
       </c>
-      <c r="CF18" s="7">
+      <c r="CF18" s="19">
         <v>45589.088109905439</v>
       </c>
-      <c r="CG18" s="7">
+      <c r="CG18" s="19">
         <v>42373.462819087537</v>
       </c>
-      <c r="CH18" s="7">
+      <c r="CH18" s="19">
         <v>72843.014409014562</v>
       </c>
-      <c r="CI18" s="7">
+      <c r="CI18" s="19">
         <v>73018.929677039428</v>
       </c>
-      <c r="CJ18" s="7">
+      <c r="CJ18" s="19">
         <v>55170.75949903814</v>
       </c>
-      <c r="CK18" s="7">
+      <c r="CK18" s="19">
         <v>55767.085148338512</v>
       </c>
-      <c r="CL18" s="7">
+      <c r="CL18" s="19">
         <v>86134.983310187468</v>
       </c>
-      <c r="CM18" s="7">
+      <c r="CM18" s="19">
         <v>79391.782907497327</v>
       </c>
-      <c r="CN18" s="7">
+      <c r="CN18" s="19">
         <v>58500.276885178675</v>
       </c>
-      <c r="CO18" s="7">
+      <c r="CO18" s="19">
         <v>67519.422955250629</v>
       </c>
-      <c r="CP18" s="8"/>
+      <c r="CP18" s="19">
+        <v>66237.008735992858</v>
+      </c>
       <c r="CQ18" s="8"/>
       <c r="CR18" s="8"/>
       <c r="CS18" s="8"/>
@@ -3771,43 +3800,45 @@
       <c r="CC19" s="7">
         <v>7878.07073289245</v>
       </c>
-      <c r="CD19" s="7">
+      <c r="CD19" s="19">
         <v>5858.8082420570718</v>
       </c>
-      <c r="CE19" s="7">
+      <c r="CE19" s="19">
         <v>6145.9804818577413</v>
       </c>
-      <c r="CF19" s="7">
+      <c r="CF19" s="19">
         <v>5573.8622809499757</v>
       </c>
-      <c r="CG19" s="7">
+      <c r="CG19" s="19">
         <v>4400.8441803208916</v>
       </c>
-      <c r="CH19" s="7">
+      <c r="CH19" s="19">
         <v>5640.3280777314121</v>
       </c>
-      <c r="CI19" s="7">
+      <c r="CI19" s="19">
         <v>6788.76393724439</v>
       </c>
-      <c r="CJ19" s="7">
+      <c r="CJ19" s="19">
         <v>6327.8293279513873</v>
       </c>
-      <c r="CK19" s="7">
+      <c r="CK19" s="19">
         <v>7425.0266070361704</v>
       </c>
-      <c r="CL19" s="7">
+      <c r="CL19" s="19">
         <v>6985.328235938412</v>
       </c>
-      <c r="CM19" s="7">
+      <c r="CM19" s="19">
         <v>9386.617492368041</v>
       </c>
-      <c r="CN19" s="7">
+      <c r="CN19" s="19">
         <v>9326.1589327401853</v>
       </c>
-      <c r="CO19" s="7">
+      <c r="CO19" s="19">
         <v>11124.599699881461</v>
       </c>
-      <c r="CP19" s="8"/>
+      <c r="CP19" s="19">
+        <v>8418.0409910299168</v>
+      </c>
       <c r="CQ19" s="8"/>
       <c r="CR19" s="8"/>
       <c r="CS19" s="8"/>
@@ -4262,43 +4293,45 @@
       <c r="CC21" s="10">
         <v>540001.90572743129</v>
       </c>
-      <c r="CD21" s="10">
+      <c r="CD21" s="20">
         <v>689532.79852179741</v>
       </c>
-      <c r="CE21" s="10">
+      <c r="CE21" s="20">
         <v>476705.76852899225</v>
       </c>
-      <c r="CF21" s="10">
+      <c r="CF21" s="20">
         <v>396847.96205802314</v>
       </c>
-      <c r="CG21" s="10">
+      <c r="CG21" s="20">
         <v>409331.30290269171</v>
       </c>
-      <c r="CH21" s="10">
+      <c r="CH21" s="20">
         <v>566209.84846924711</v>
       </c>
-      <c r="CI21" s="10">
+      <c r="CI21" s="20">
         <v>590790.88826721103</v>
       </c>
-      <c r="CJ21" s="10">
+      <c r="CJ21" s="20">
         <v>447899.12561995868</v>
       </c>
-      <c r="CK21" s="10">
+      <c r="CK21" s="20">
         <v>475776.94060322625</v>
       </c>
-      <c r="CL21" s="10">
+      <c r="CL21" s="20">
         <v>691593.82827870979</v>
       </c>
-      <c r="CM21" s="10">
+      <c r="CM21" s="20">
         <v>728687.03076473204</v>
       </c>
-      <c r="CN21" s="10">
+      <c r="CN21" s="20">
         <v>637836.8298260622</v>
       </c>
-      <c r="CO21" s="10">
+      <c r="CO21" s="20">
         <v>624527.585510695</v>
       </c>
-      <c r="CP21" s="8"/>
+      <c r="CP21" s="20">
+        <v>869524.6164380688</v>
+      </c>
       <c r="CQ21" s="8"/>
       <c r="CR21" s="8"/>
       <c r="CS21" s="8"/>
@@ -4451,6 +4484,7 @@
       <c r="CM22" s="11"/>
       <c r="CN22" s="11"/>
       <c r="CO22" s="11"/>
+      <c r="CP22" s="11"/>
     </row>
     <row r="23" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
@@ -4773,7 +4807,7 @@
     </row>
     <row r="28" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:151" x14ac:dyDescent="0.2">
@@ -4783,7 +4817,7 @@
     </row>
     <row r="31" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:151" x14ac:dyDescent="0.2">
@@ -4793,144 +4827,147 @@
     </row>
     <row r="34" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="19">
+      <c r="B34" s="23">
         <v>2000</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19">
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23">
         <v>2001</v>
       </c>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19">
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23">
         <v>2002</v>
       </c>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19">
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23">
         <v>2003</v>
       </c>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19">
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23">
         <v>2004</v>
       </c>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19">
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23">
         <v>2005</v>
       </c>
-      <c r="W34" s="19"/>
-      <c r="X34" s="19"/>
-      <c r="Y34" s="19"/>
-      <c r="Z34" s="19">
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23">
         <v>2006</v>
       </c>
-      <c r="AA34" s="19"/>
-      <c r="AB34" s="19"/>
-      <c r="AC34" s="19"/>
-      <c r="AD34" s="19">
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23">
         <v>2007</v>
       </c>
-      <c r="AE34" s="19"/>
-      <c r="AF34" s="19"/>
-      <c r="AG34" s="19"/>
-      <c r="AH34" s="19">
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="23"/>
+      <c r="AG34" s="23"/>
+      <c r="AH34" s="23">
         <v>2008</v>
       </c>
-      <c r="AI34" s="19"/>
-      <c r="AJ34" s="19"/>
-      <c r="AK34" s="19"/>
-      <c r="AL34" s="19">
+      <c r="AI34" s="23"/>
+      <c r="AJ34" s="23"/>
+      <c r="AK34" s="23"/>
+      <c r="AL34" s="23">
         <v>2009</v>
       </c>
-      <c r="AM34" s="19"/>
-      <c r="AN34" s="19"/>
-      <c r="AO34" s="19"/>
-      <c r="AP34" s="19">
+      <c r="AM34" s="23"/>
+      <c r="AN34" s="23"/>
+      <c r="AO34" s="23"/>
+      <c r="AP34" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ34" s="19"/>
-      <c r="AR34" s="19"/>
-      <c r="AS34" s="19"/>
-      <c r="AT34" s="19">
+      <c r="AQ34" s="23"/>
+      <c r="AR34" s="23"/>
+      <c r="AS34" s="23"/>
+      <c r="AT34" s="23">
         <v>2011</v>
       </c>
-      <c r="AU34" s="19"/>
-      <c r="AV34" s="19"/>
-      <c r="AW34" s="19"/>
-      <c r="AX34" s="19">
+      <c r="AU34" s="23"/>
+      <c r="AV34" s="23"/>
+      <c r="AW34" s="23"/>
+      <c r="AX34" s="23">
         <v>2012</v>
       </c>
-      <c r="AY34" s="19"/>
-      <c r="AZ34" s="19"/>
-      <c r="BA34" s="19"/>
-      <c r="BB34" s="19">
+      <c r="AY34" s="23"/>
+      <c r="AZ34" s="23"/>
+      <c r="BA34" s="23"/>
+      <c r="BB34" s="23">
         <v>2013</v>
       </c>
-      <c r="BC34" s="19"/>
-      <c r="BD34" s="19"/>
-      <c r="BE34" s="19"/>
-      <c r="BF34" s="19">
+      <c r="BC34" s="23"/>
+      <c r="BD34" s="23"/>
+      <c r="BE34" s="23"/>
+      <c r="BF34" s="23">
         <v>2014</v>
       </c>
-      <c r="BG34" s="19"/>
-      <c r="BH34" s="19"/>
-      <c r="BI34" s="19"/>
-      <c r="BJ34" s="19">
+      <c r="BG34" s="23"/>
+      <c r="BH34" s="23"/>
+      <c r="BI34" s="23"/>
+      <c r="BJ34" s="23">
         <v>2015</v>
       </c>
-      <c r="BK34" s="19"/>
-      <c r="BL34" s="19"/>
-      <c r="BM34" s="19"/>
-      <c r="BN34" s="19">
+      <c r="BK34" s="23"/>
+      <c r="BL34" s="23"/>
+      <c r="BM34" s="23"/>
+      <c r="BN34" s="23">
         <v>2016</v>
       </c>
-      <c r="BO34" s="19"/>
-      <c r="BP34" s="19"/>
-      <c r="BQ34" s="19"/>
-      <c r="BR34" s="19">
+      <c r="BO34" s="23"/>
+      <c r="BP34" s="23"/>
+      <c r="BQ34" s="23"/>
+      <c r="BR34" s="23">
         <v>2017</v>
       </c>
-      <c r="BS34" s="19"/>
-      <c r="BT34" s="19"/>
-      <c r="BU34" s="19"/>
-      <c r="BV34" s="19">
+      <c r="BS34" s="23"/>
+      <c r="BT34" s="23"/>
+      <c r="BU34" s="23"/>
+      <c r="BV34" s="23">
         <v>2018</v>
       </c>
-      <c r="BW34" s="19"/>
-      <c r="BX34" s="19"/>
-      <c r="BY34" s="19"/>
-      <c r="BZ34" s="19">
+      <c r="BW34" s="23"/>
+      <c r="BX34" s="23"/>
+      <c r="BY34" s="23"/>
+      <c r="BZ34" s="23">
         <v>2019</v>
       </c>
-      <c r="CA34" s="19"/>
-      <c r="CB34" s="19"/>
-      <c r="CC34" s="19"/>
-      <c r="CD34" s="19">
+      <c r="CA34" s="23"/>
+      <c r="CB34" s="23"/>
+      <c r="CC34" s="23"/>
+      <c r="CD34" s="22">
         <v>2020</v>
       </c>
-      <c r="CE34" s="19"/>
-      <c r="CF34" s="19"/>
-      <c r="CG34" s="19"/>
-      <c r="CH34" s="19">
+      <c r="CE34" s="22"/>
+      <c r="CF34" s="22"/>
+      <c r="CG34" s="22"/>
+      <c r="CH34" s="22">
         <v>2021</v>
       </c>
-      <c r="CI34" s="19"/>
-      <c r="CJ34" s="19"/>
-      <c r="CK34" s="19"/>
-      <c r="CL34" s="19">
+      <c r="CI34" s="22"/>
+      <c r="CJ34" s="22"/>
+      <c r="CK34" s="22"/>
+      <c r="CL34" s="22">
         <v>2022</v>
       </c>
-      <c r="CM34" s="19"/>
-      <c r="CN34" s="19"/>
-      <c r="CO34" s="19"/>
+      <c r="CM34" s="22"/>
+      <c r="CN34" s="22"/>
+      <c r="CO34" s="22"/>
+      <c r="CP34" s="18">
+        <v>2023</v>
+      </c>
     </row>
     <row r="35" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
@@ -5209,6 +5246,9 @@
       </c>
       <c r="CO35" s="13" t="s">
         <v>10</v>
+      </c>
+      <c r="CP35" s="13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -5458,43 +5498,45 @@
       <c r="CC37" s="7">
         <v>44725.990643891746</v>
       </c>
-      <c r="CD37" s="7">
+      <c r="CD37" s="19">
         <v>32954.070412654604</v>
       </c>
-      <c r="CE37" s="7">
+      <c r="CE37" s="19">
         <v>14434.918795552388</v>
       </c>
-      <c r="CF37" s="7">
+      <c r="CF37" s="19">
         <v>19288.710517255629</v>
       </c>
-      <c r="CG37" s="7">
+      <c r="CG37" s="19">
         <v>20102.093872421516</v>
       </c>
-      <c r="CH37" s="7">
+      <c r="CH37" s="19">
         <v>18100.306583526231</v>
       </c>
-      <c r="CI37" s="7">
+      <c r="CI37" s="19">
         <v>17259.594560031259</v>
       </c>
-      <c r="CJ37" s="7">
+      <c r="CJ37" s="19">
         <v>23961.906946117593</v>
       </c>
-      <c r="CK37" s="7">
+      <c r="CK37" s="19">
         <v>25473.984362080206</v>
       </c>
-      <c r="CL37" s="7">
+      <c r="CL37" s="19">
         <v>39764.430508135309</v>
       </c>
-      <c r="CM37" s="7">
+      <c r="CM37" s="19">
         <v>26620.30384489982</v>
       </c>
-      <c r="CN37" s="7">
+      <c r="CN37" s="19">
         <v>35357.329087856539</v>
       </c>
-      <c r="CO37" s="7">
+      <c r="CO37" s="19">
         <v>42923.047723132688</v>
       </c>
-      <c r="CP37" s="8"/>
+      <c r="CP37" s="19">
+        <v>67876.745434995828</v>
+      </c>
       <c r="CQ37" s="8"/>
       <c r="CR37" s="8"/>
       <c r="CS37" s="8"/>
@@ -5797,43 +5839,45 @@
       <c r="CC38" s="7">
         <v>802.96901766546466</v>
       </c>
-      <c r="CD38" s="7">
+      <c r="CD38" s="19">
         <v>459.92698587605793</v>
       </c>
-      <c r="CE38" s="7">
+      <c r="CE38" s="19">
         <v>284.63191520704015</v>
       </c>
-      <c r="CF38" s="7">
+      <c r="CF38" s="19">
         <v>651.71473005547659</v>
       </c>
-      <c r="CG38" s="7">
+      <c r="CG38" s="19">
         <v>738.78384769964555</v>
       </c>
-      <c r="CH38" s="7">
+      <c r="CH38" s="19">
         <v>458.80254232322784</v>
       </c>
-      <c r="CI38" s="7">
+      <c r="CI38" s="19">
         <v>351.86140461322526</v>
       </c>
-      <c r="CJ38" s="7">
+      <c r="CJ38" s="19">
         <v>718.1813386280528</v>
       </c>
-      <c r="CK38" s="7">
+      <c r="CK38" s="19">
         <v>770.19546330619676</v>
       </c>
-      <c r="CL38" s="7">
+      <c r="CL38" s="19">
         <v>513.260353030533</v>
       </c>
-      <c r="CM38" s="7">
+      <c r="CM38" s="19">
         <v>382.06821091022977</v>
       </c>
-      <c r="CN38" s="7">
+      <c r="CN38" s="19">
         <v>776.70768745237024</v>
       </c>
-      <c r="CO38" s="7">
+      <c r="CO38" s="19">
         <v>889.21572221660801</v>
       </c>
-      <c r="CP38" s="8"/>
+      <c r="CP38" s="19">
+        <v>441.20738253262351</v>
+      </c>
       <c r="CQ38" s="8"/>
       <c r="CR38" s="8"/>
       <c r="CS38" s="8"/>
@@ -6136,43 +6180,45 @@
       <c r="CC39" s="7">
         <v>101660.9649982664</v>
       </c>
-      <c r="CD39" s="7">
+      <c r="CD39" s="19">
         <v>107615.99078256269</v>
       </c>
-      <c r="CE39" s="7">
+      <c r="CE39" s="19">
         <v>5149.6507164927534</v>
       </c>
-      <c r="CF39" s="7">
+      <c r="CF39" s="19">
         <v>13657.848098351255</v>
       </c>
-      <c r="CG39" s="7">
+      <c r="CG39" s="19">
         <v>7924.9178789822236</v>
       </c>
-      <c r="CH39" s="7">
+      <c r="CH39" s="19">
         <v>1662.6424547885979</v>
       </c>
-      <c r="CI39" s="7">
+      <c r="CI39" s="19">
         <v>27136.973094335204</v>
       </c>
-      <c r="CJ39" s="7">
+      <c r="CJ39" s="19">
         <v>21592.900004147494</v>
       </c>
-      <c r="CK39" s="7">
+      <c r="CK39" s="19">
         <v>12202.689945533572</v>
       </c>
-      <c r="CL39" s="7">
+      <c r="CL39" s="19">
         <v>15389.064093647212</v>
       </c>
-      <c r="CM39" s="7">
+      <c r="CM39" s="19">
         <v>57321.791102132127</v>
       </c>
-      <c r="CN39" s="7">
+      <c r="CN39" s="19">
         <v>88956.594041921373</v>
       </c>
-      <c r="CO39" s="7">
+      <c r="CO39" s="19">
         <v>54857.258251901527</v>
       </c>
-      <c r="CP39" s="8"/>
+      <c r="CP39" s="19">
+        <v>104952.98838100983</v>
+      </c>
       <c r="CQ39" s="8"/>
       <c r="CR39" s="8"/>
       <c r="CS39" s="8"/>
@@ -6475,43 +6521,45 @@
       <c r="CC40" s="7">
         <v>2593.7949415158037</v>
       </c>
-      <c r="CD40" s="7">
+      <c r="CD40" s="19">
         <v>2056.4855878783655</v>
       </c>
-      <c r="CE40" s="7">
+      <c r="CE40" s="19">
         <v>2215.1317649435327</v>
       </c>
-      <c r="CF40" s="7">
+      <c r="CF40" s="19">
         <v>2360.4587376334443</v>
       </c>
-      <c r="CG40" s="7">
+      <c r="CG40" s="19">
         <v>2329.5726083375725</v>
       </c>
-      <c r="CH40" s="7">
+      <c r="CH40" s="19">
         <v>3377.1366005109758</v>
       </c>
-      <c r="CI40" s="7">
+      <c r="CI40" s="19">
         <v>3653.8035884798378</v>
       </c>
-      <c r="CJ40" s="7">
+      <c r="CJ40" s="19">
         <v>3931.3790722056619</v>
       </c>
-      <c r="CK40" s="7">
+      <c r="CK40" s="19">
         <v>3847.7974661865246</v>
       </c>
-      <c r="CL40" s="7">
+      <c r="CL40" s="19">
         <v>3434.5919735030589</v>
       </c>
-      <c r="CM40" s="7">
+      <c r="CM40" s="19">
         <v>3938.4675463402086</v>
       </c>
-      <c r="CN40" s="7">
+      <c r="CN40" s="19">
         <v>3966.0472849247194</v>
       </c>
-      <c r="CO40" s="7">
+      <c r="CO40" s="19">
         <v>3977.1461621146914</v>
       </c>
-      <c r="CP40" s="8"/>
+      <c r="CP40" s="19">
+        <v>3948.5227029077737</v>
+      </c>
       <c r="CQ40" s="8"/>
       <c r="CR40" s="8"/>
       <c r="CS40" s="8"/>
@@ -6814,43 +6862,45 @@
       <c r="CC41" s="7">
         <v>65415.838723488094</v>
       </c>
-      <c r="CD41" s="7">
+      <c r="CD41" s="19">
         <v>107703.27514348591</v>
       </c>
-      <c r="CE41" s="7">
+      <c r="CE41" s="19">
         <v>93510.032233319303</v>
       </c>
-      <c r="CF41" s="7">
+      <c r="CF41" s="19">
         <v>57311.664224017528</v>
       </c>
-      <c r="CG41" s="7">
+      <c r="CG41" s="19">
         <v>63693.472845714576</v>
       </c>
-      <c r="CH41" s="7">
+      <c r="CH41" s="19">
         <v>107918.00540295031</v>
       </c>
-      <c r="CI41" s="7">
+      <c r="CI41" s="19">
         <v>103557.39473418298</v>
       </c>
-      <c r="CJ41" s="7">
+      <c r="CJ41" s="19">
         <v>68778.411050953422</v>
       </c>
-      <c r="CK41" s="7">
+      <c r="CK41" s="19">
         <v>72338.577129792466</v>
       </c>
-      <c r="CL41" s="7">
+      <c r="CL41" s="19">
         <v>116677.43002870887</v>
       </c>
-      <c r="CM41" s="7">
+      <c r="CM41" s="19">
         <v>114398.77827366724</v>
       </c>
-      <c r="CN41" s="7">
+      <c r="CN41" s="19">
         <v>83482.535941170252</v>
       </c>
-      <c r="CO41" s="7">
+      <c r="CO41" s="19">
         <v>85486.339096444455</v>
       </c>
-      <c r="CP41" s="8"/>
+      <c r="CP41" s="19">
+        <v>126991.69383114183</v>
+      </c>
       <c r="CQ41" s="8"/>
       <c r="CR41" s="8"/>
       <c r="CS41" s="8"/>
@@ -7153,43 +7203,45 @@
       <c r="CC42" s="7">
         <v>261437.80028709813</v>
       </c>
-      <c r="CD42" s="7">
+      <c r="CD42" s="19">
         <v>332483.16218193091</v>
       </c>
-      <c r="CE42" s="7">
+      <c r="CE42" s="19">
         <v>297036.76166211697</v>
       </c>
-      <c r="CF42" s="7">
+      <c r="CF42" s="19">
         <v>236327.52457933835</v>
       </c>
-      <c r="CG42" s="7">
+      <c r="CG42" s="19">
         <v>252483.50553565435</v>
       </c>
-      <c r="CH42" s="7">
+      <c r="CH42" s="19">
         <v>322254.21878945042</v>
       </c>
-      <c r="CI42" s="7">
+      <c r="CI42" s="19">
         <v>339069.93673610175</v>
       </c>
-      <c r="CJ42" s="7">
+      <c r="CJ42" s="19">
         <v>238950.32328897968</v>
       </c>
-      <c r="CK42" s="7">
+      <c r="CK42" s="19">
         <v>267343.98843610822</v>
       </c>
-      <c r="CL42" s="7">
+      <c r="CL42" s="19">
         <v>357362.75456158456</v>
       </c>
-      <c r="CM42" s="7">
+      <c r="CM42" s="19">
         <v>362411.57167247194</v>
       </c>
-      <c r="CN42" s="7">
+      <c r="CN42" s="19">
         <v>282000.18209253578</v>
       </c>
-      <c r="CO42" s="7">
+      <c r="CO42" s="19">
         <v>282568.33591674821</v>
       </c>
-      <c r="CP42" s="8"/>
+      <c r="CP42" s="19">
+        <v>369428.71940770088</v>
+      </c>
       <c r="CQ42" s="8"/>
       <c r="CR42" s="8"/>
       <c r="CS42" s="8"/>
@@ -7492,43 +7544,45 @@
       <c r="CC43" s="7">
         <v>46048.282508936878</v>
       </c>
-      <c r="CD43" s="7">
+      <c r="CD43" s="19">
         <v>68758.770421120236</v>
       </c>
-      <c r="CE43" s="7">
+      <c r="CE43" s="19">
         <v>53557.057412179376</v>
       </c>
-      <c r="CF43" s="7">
+      <c r="CF43" s="19">
         <v>43178.869113891196</v>
       </c>
-      <c r="CG43" s="7">
+      <c r="CG43" s="19">
         <v>41067.937424928037</v>
       </c>
-      <c r="CH43" s="7">
+      <c r="CH43" s="19">
         <v>67868.885484631886</v>
       </c>
-      <c r="CI43" s="7">
+      <c r="CI43" s="19">
         <v>67905.860183166238</v>
       </c>
-      <c r="CJ43" s="7">
+      <c r="CJ43" s="19">
         <v>50579.546386770642</v>
       </c>
-      <c r="CK43" s="7">
+      <c r="CK43" s="19">
         <v>52037.635302078721</v>
       </c>
-      <c r="CL43" s="7">
+      <c r="CL43" s="19">
         <v>76295.067345606396</v>
       </c>
-      <c r="CM43" s="7">
+      <c r="CM43" s="19">
         <v>69855.480841691693</v>
       </c>
-      <c r="CN43" s="7">
+      <c r="CN43" s="19">
         <v>48935.143393238061</v>
       </c>
-      <c r="CO43" s="7">
+      <c r="CO43" s="19">
         <v>57321.148454949551</v>
       </c>
-      <c r="CP43" s="8"/>
+      <c r="CP43" s="19">
+        <v>54887.235732692599</v>
+      </c>
       <c r="CQ43" s="8"/>
       <c r="CR43" s="8"/>
       <c r="CS43" s="8"/>
@@ -7831,43 +7885,45 @@
       <c r="CC44" s="7">
         <v>7800.6818332445764</v>
       </c>
-      <c r="CD44" s="7">
+      <c r="CD44" s="19">
         <v>5607.0912506679224</v>
       </c>
-      <c r="CE44" s="7">
+      <c r="CE44" s="19">
         <v>5912.1667743706657</v>
       </c>
-      <c r="CF44" s="7">
+      <c r="CF44" s="19">
         <v>5273.7557527249992</v>
       </c>
-      <c r="CG44" s="7">
+      <c r="CG44" s="19">
         <v>4261.0277699794169</v>
       </c>
-      <c r="CH44" s="7">
+      <c r="CH44" s="19">
         <v>5252.2572022633067</v>
       </c>
-      <c r="CI44" s="7">
+      <c r="CI44" s="19">
         <v>6295.1768820307689</v>
       </c>
-      <c r="CJ44" s="7">
+      <c r="CJ44" s="19">
         <v>5795.276271097342</v>
       </c>
-      <c r="CK44" s="7">
+      <c r="CK44" s="19">
         <v>6921.6089579479312</v>
       </c>
-      <c r="CL44" s="7">
+      <c r="CL44" s="19">
         <v>6236.6807855633124</v>
       </c>
-      <c r="CM44" s="7">
+      <c r="CM44" s="19">
         <v>8296.7941167833451</v>
       </c>
-      <c r="CN44" s="7">
+      <c r="CN44" s="19">
         <v>8381.4864233369353</v>
       </c>
-      <c r="CO44" s="7">
+      <c r="CO44" s="19">
         <v>9735.3833275709912</v>
       </c>
-      <c r="CP44" s="8"/>
+      <c r="CP44" s="19">
+        <v>7031.2330819458293</v>
+      </c>
       <c r="CQ44" s="8"/>
       <c r="CR44" s="8"/>
       <c r="CS44" s="8"/>
@@ -8322,43 +8378,45 @@
       <c r="CC46" s="10">
         <v>530486.32295410708</v>
       </c>
-      <c r="CD46" s="10">
+      <c r="CD46" s="20">
         <v>657638.77276617661</v>
       </c>
-      <c r="CE46" s="10">
+      <c r="CE46" s="20">
         <v>472100.35127418197</v>
       </c>
-      <c r="CF46" s="10">
+      <c r="CF46" s="20">
         <v>378050.54575326788</v>
       </c>
-      <c r="CG46" s="10">
+      <c r="CG46" s="20">
         <v>392601.31178371736</v>
       </c>
-      <c r="CH46" s="10">
+      <c r="CH46" s="20">
         <v>526892.25506044494</v>
       </c>
-      <c r="CI46" s="10">
+      <c r="CI46" s="20">
         <v>565230.60118294123</v>
       </c>
-      <c r="CJ46" s="10">
+      <c r="CJ46" s="20">
         <v>414307.92435889994</v>
       </c>
-      <c r="CK46" s="10">
+      <c r="CK46" s="20">
         <v>440936.47706303385</v>
       </c>
-      <c r="CL46" s="10">
+      <c r="CL46" s="20">
         <v>615673.2796497792</v>
       </c>
-      <c r="CM46" s="10">
+      <c r="CM46" s="20">
         <v>643225.25560889661</v>
       </c>
-      <c r="CN46" s="10">
+      <c r="CN46" s="20">
         <v>551856.02595243603</v>
       </c>
-      <c r="CO46" s="10">
+      <c r="CO46" s="20">
         <v>537757.87465507863</v>
       </c>
-      <c r="CP46" s="8"/>
+      <c r="CP46" s="20">
+        <v>735558.34595492715</v>
+      </c>
       <c r="CQ46" s="8"/>
       <c r="CR46" s="8"/>
       <c r="CS46" s="8"/>
@@ -8511,6 +8569,7 @@
       <c r="CM47" s="11"/>
       <c r="CN47" s="11"/>
       <c r="CO47" s="11"/>
+      <c r="CP47" s="11"/>
     </row>
     <row r="48" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
@@ -8833,7 +8892,7 @@
     </row>
     <row r="53" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:151" x14ac:dyDescent="0.2">
@@ -8843,7 +8902,7 @@
     </row>
     <row r="56" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:151" x14ac:dyDescent="0.2">
@@ -8853,142 +8912,145 @@
     </row>
     <row r="59" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18" t="s">
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18" t="s">
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="18" t="s">
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="O59" s="18"/>
-      <c r="P59" s="18"/>
-      <c r="Q59" s="18"/>
-      <c r="R59" s="18" t="s">
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="S59" s="18"/>
-      <c r="T59" s="18"/>
-      <c r="U59" s="18"/>
-      <c r="V59" s="18" t="s">
+      <c r="S59" s="22"/>
+      <c r="T59" s="22"/>
+      <c r="U59" s="22"/>
+      <c r="V59" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="W59" s="18"/>
-      <c r="X59" s="18"/>
-      <c r="Y59" s="18"/>
-      <c r="Z59" s="18" t="s">
+      <c r="W59" s="22"/>
+      <c r="X59" s="22"/>
+      <c r="Y59" s="22"/>
+      <c r="Z59" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AA59" s="18"/>
-      <c r="AB59" s="18"/>
-      <c r="AC59" s="18"/>
-      <c r="AD59" s="18" t="s">
+      <c r="AA59" s="22"/>
+      <c r="AB59" s="22"/>
+      <c r="AC59" s="22"/>
+      <c r="AD59" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AE59" s="18"/>
-      <c r="AF59" s="18"/>
-      <c r="AG59" s="18"/>
-      <c r="AH59" s="18" t="s">
+      <c r="AE59" s="22"/>
+      <c r="AF59" s="22"/>
+      <c r="AG59" s="22"/>
+      <c r="AH59" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="AI59" s="18"/>
-      <c r="AJ59" s="18"/>
-      <c r="AK59" s="18"/>
-      <c r="AL59" s="18" t="s">
+      <c r="AI59" s="22"/>
+      <c r="AJ59" s="22"/>
+      <c r="AK59" s="22"/>
+      <c r="AL59" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AM59" s="18"/>
-      <c r="AN59" s="18"/>
-      <c r="AO59" s="18"/>
-      <c r="AP59" s="18" t="s">
+      <c r="AM59" s="22"/>
+      <c r="AN59" s="22"/>
+      <c r="AO59" s="22"/>
+      <c r="AP59" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AQ59" s="18"/>
-      <c r="AR59" s="18"/>
-      <c r="AS59" s="18"/>
-      <c r="AT59" s="18" t="s">
+      <c r="AQ59" s="22"/>
+      <c r="AR59" s="22"/>
+      <c r="AS59" s="22"/>
+      <c r="AT59" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AU59" s="18"/>
-      <c r="AV59" s="18"/>
-      <c r="AW59" s="18"/>
-      <c r="AX59" s="18" t="s">
+      <c r="AU59" s="22"/>
+      <c r="AV59" s="22"/>
+      <c r="AW59" s="22"/>
+      <c r="AX59" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="AY59" s="18"/>
-      <c r="AZ59" s="18"/>
-      <c r="BA59" s="18"/>
-      <c r="BB59" s="18" t="s">
+      <c r="AY59" s="22"/>
+      <c r="AZ59" s="22"/>
+      <c r="BA59" s="22"/>
+      <c r="BB59" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="BC59" s="18"/>
-      <c r="BD59" s="18"/>
-      <c r="BE59" s="18"/>
-      <c r="BF59" s="18" t="s">
+      <c r="BC59" s="22"/>
+      <c r="BD59" s="22"/>
+      <c r="BE59" s="22"/>
+      <c r="BF59" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="BG59" s="18"/>
-      <c r="BH59" s="18"/>
-      <c r="BI59" s="18"/>
-      <c r="BJ59" s="18" t="s">
+      <c r="BG59" s="22"/>
+      <c r="BH59" s="22"/>
+      <c r="BI59" s="22"/>
+      <c r="BJ59" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="BK59" s="18"/>
-      <c r="BL59" s="18"/>
-      <c r="BM59" s="18"/>
-      <c r="BN59" s="18" t="s">
+      <c r="BK59" s="22"/>
+      <c r="BL59" s="22"/>
+      <c r="BM59" s="22"/>
+      <c r="BN59" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="BO59" s="18"/>
-      <c r="BP59" s="18"/>
-      <c r="BQ59" s="18"/>
-      <c r="BR59" s="18" t="s">
+      <c r="BO59" s="22"/>
+      <c r="BP59" s="22"/>
+      <c r="BQ59" s="22"/>
+      <c r="BR59" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="BS59" s="18"/>
-      <c r="BT59" s="18"/>
-      <c r="BU59" s="18"/>
-      <c r="BV59" s="18" t="s">
+      <c r="BS59" s="22"/>
+      <c r="BT59" s="22"/>
+      <c r="BU59" s="22"/>
+      <c r="BV59" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="BW59" s="18"/>
-      <c r="BX59" s="18"/>
-      <c r="BY59" s="18"/>
-      <c r="BZ59" s="18" t="s">
+      <c r="BW59" s="22"/>
+      <c r="BX59" s="22"/>
+      <c r="BY59" s="22"/>
+      <c r="BZ59" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="CA59" s="18"/>
-      <c r="CB59" s="18"/>
-      <c r="CC59" s="18"/>
-      <c r="CD59" s="18" t="s">
+      <c r="CA59" s="22"/>
+      <c r="CB59" s="22"/>
+      <c r="CC59" s="22"/>
+      <c r="CD59" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="CE59" s="18"/>
-      <c r="CF59" s="18"/>
-      <c r="CG59" s="18"/>
-      <c r="CH59" s="18" t="s">
+      <c r="CE59" s="22"/>
+      <c r="CF59" s="22"/>
+      <c r="CG59" s="22"/>
+      <c r="CH59" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="CI59" s="18"/>
-      <c r="CJ59" s="18"/>
-      <c r="CK59" s="18"/>
-      <c r="CL59" s="18"/>
+      <c r="CI59" s="22"/>
+      <c r="CJ59" s="22"/>
+      <c r="CK59" s="22"/>
+      <c r="CL59" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="CM59" s="18"/>
       <c r="CN59" s="18"/>
       <c r="CO59" s="18"/>
+      <c r="CP59" s="18"/>
     </row>
     <row r="60" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
@@ -9232,34 +9294,37 @@
       <c r="CC60" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CD60" s="5" t="s">
+      <c r="CD60" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CE60" s="5" t="s">
+      <c r="CE60" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="CF60" s="5" t="s">
+      <c r="CF60" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="CG60" s="5" t="s">
+      <c r="CG60" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CH60" s="5" t="s">
+      <c r="CH60" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CI60" s="5" t="s">
+      <c r="CI60" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="CJ60" s="5" t="s">
+      <c r="CJ60" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="CK60" s="5" t="s">
+      <c r="CK60" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CL60" s="5"/>
-      <c r="CM60" s="5"/>
-      <c r="CN60" s="5"/>
-      <c r="CO60" s="5"/>
+      <c r="CL60" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="CM60" s="13"/>
+      <c r="CN60" s="13"/>
+      <c r="CO60" s="13"/>
+      <c r="CP60" s="13"/>
     </row>
     <row r="61" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
@@ -9532,11 +9597,13 @@
       <c r="CK62" s="14">
         <v>88.951321567609739</v>
       </c>
-      <c r="CL62" s="14"/>
+      <c r="CL62" s="14">
+        <v>85.086733463898156</v>
+      </c>
       <c r="CM62" s="14"/>
       <c r="CN62" s="14"/>
       <c r="CO62" s="14"/>
-      <c r="CP62" s="8"/>
+      <c r="CP62" s="14"/>
       <c r="CQ62" s="8"/>
       <c r="CR62" s="8"/>
       <c r="CS62" s="8"/>
@@ -9859,11 +9926,13 @@
       <c r="CK63" s="14">
         <v>22.983417854811677</v>
       </c>
-      <c r="CL63" s="14"/>
+      <c r="CL63" s="14">
+        <v>-8.1135884018298299</v>
+      </c>
       <c r="CM63" s="14"/>
       <c r="CN63" s="14"/>
       <c r="CO63" s="14"/>
-      <c r="CP63" s="8"/>
+      <c r="CP63" s="14"/>
       <c r="CQ63" s="8"/>
       <c r="CR63" s="8"/>
       <c r="CS63" s="8"/>
@@ -10186,11 +10255,13 @@
       <c r="CK64" s="14">
         <v>385.08153226675034</v>
       </c>
-      <c r="CL64" s="14"/>
+      <c r="CL64" s="14">
+        <v>633.54955710224431</v>
+      </c>
       <c r="CM64" s="14"/>
       <c r="CN64" s="14"/>
       <c r="CO64" s="14"/>
-      <c r="CP64" s="8"/>
+      <c r="CP64" s="14"/>
       <c r="CQ64" s="8"/>
       <c r="CR64" s="8"/>
       <c r="CS64" s="8"/>
@@ -10513,11 +10584,13 @@
       <c r="CK65" s="14">
         <v>9.5311047271619174</v>
       </c>
-      <c r="CL65" s="14"/>
+      <c r="CL65" s="14">
+        <v>22.540805927960932</v>
+      </c>
       <c r="CM65" s="14"/>
       <c r="CN65" s="14"/>
       <c r="CO65" s="14"/>
-      <c r="CP65" s="8"/>
+      <c r="CP65" s="14"/>
       <c r="CQ65" s="8"/>
       <c r="CR65" s="8"/>
       <c r="CS65" s="8"/>
@@ -10840,11 +10913,13 @@
       <c r="CK66" s="14">
         <v>23.131763620173302</v>
       </c>
-      <c r="CL66" s="14"/>
+      <c r="CL66" s="14">
+        <v>9.6299225088926761</v>
+      </c>
       <c r="CM66" s="14"/>
       <c r="CN66" s="14"/>
       <c r="CO66" s="14"/>
-      <c r="CP66" s="8"/>
+      <c r="CP66" s="14"/>
       <c r="CQ66" s="8"/>
       <c r="CR66" s="8"/>
       <c r="CS66" s="8"/>
@@ -11167,11 +11242,13 @@
       <c r="CK67" s="14">
         <v>13.08767207025528</v>
       </c>
-      <c r="CL67" s="14"/>
+      <c r="CL67" s="14">
+        <v>7.5767356809184747</v>
+      </c>
       <c r="CM67" s="14"/>
       <c r="CN67" s="14"/>
       <c r="CO67" s="14"/>
-      <c r="CP67" s="8"/>
+      <c r="CP67" s="14"/>
       <c r="CQ67" s="8"/>
       <c r="CR67" s="8"/>
       <c r="CS67" s="8"/>
@@ -11494,11 +11571,13 @@
       <c r="CK68" s="14">
         <v>21.073968229917895</v>
       </c>
-      <c r="CL68" s="14"/>
+      <c r="CL68" s="14">
+        <v>-23.10092114668258</v>
+      </c>
       <c r="CM68" s="14"/>
       <c r="CN68" s="14"/>
       <c r="CO68" s="14"/>
-      <c r="CP68" s="8"/>
+      <c r="CP68" s="14"/>
       <c r="CQ68" s="8"/>
       <c r="CR68" s="8"/>
       <c r="CS68" s="8"/>
@@ -11821,11 +11900,13 @@
       <c r="CK69" s="14">
         <v>49.825721692895598</v>
       </c>
-      <c r="CL69" s="14"/>
+      <c r="CL69" s="14">
+        <v>20.510313999568751</v>
+      </c>
       <c r="CM69" s="14"/>
       <c r="CN69" s="14"/>
       <c r="CO69" s="14"/>
-      <c r="CP69" s="8"/>
+      <c r="CP69" s="14"/>
       <c r="CQ69" s="8"/>
       <c r="CR69" s="8"/>
       <c r="CS69" s="8"/>
@@ -12296,11 +12377,13 @@
       <c r="CK71" s="14">
         <v>31.264786544482661</v>
       </c>
-      <c r="CL71" s="14"/>
+      <c r="CL71" s="14">
+        <v>25.727642567633424</v>
+      </c>
       <c r="CM71" s="14"/>
       <c r="CN71" s="14"/>
       <c r="CO71" s="14"/>
-      <c r="CP71" s="8"/>
+      <c r="CP71" s="14"/>
       <c r="CQ71" s="8"/>
       <c r="CR71" s="8"/>
       <c r="CS71" s="8"/>
@@ -12449,6 +12532,7 @@
       <c r="CM72" s="11"/>
       <c r="CN72" s="11"/>
       <c r="CO72" s="11"/>
+      <c r="CP72" s="11"/>
     </row>
     <row r="73" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
@@ -12763,7 +12847,7 @@
     </row>
     <row r="78" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:147" x14ac:dyDescent="0.2">
@@ -12773,7 +12857,7 @@
     </row>
     <row r="81" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:147" x14ac:dyDescent="0.2">
@@ -12783,142 +12867,145 @@
     </row>
     <row r="84" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18" t="s">
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18" t="s">
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="K84" s="18"/>
-      <c r="L84" s="18"/>
-      <c r="M84" s="18"/>
-      <c r="N84" s="18" t="s">
+      <c r="K84" s="22"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="O84" s="18"/>
-      <c r="P84" s="18"/>
-      <c r="Q84" s="18"/>
-      <c r="R84" s="18" t="s">
+      <c r="O84" s="22"/>
+      <c r="P84" s="22"/>
+      <c r="Q84" s="22"/>
+      <c r="R84" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="S84" s="18"/>
-      <c r="T84" s="18"/>
-      <c r="U84" s="18"/>
-      <c r="V84" s="18" t="s">
+      <c r="S84" s="22"/>
+      <c r="T84" s="22"/>
+      <c r="U84" s="22"/>
+      <c r="V84" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="W84" s="18"/>
-      <c r="X84" s="18"/>
-      <c r="Y84" s="18"/>
-      <c r="Z84" s="18" t="s">
+      <c r="W84" s="22"/>
+      <c r="X84" s="22"/>
+      <c r="Y84" s="22"/>
+      <c r="Z84" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AA84" s="18"/>
-      <c r="AB84" s="18"/>
-      <c r="AC84" s="18"/>
-      <c r="AD84" s="18" t="s">
+      <c r="AA84" s="22"/>
+      <c r="AB84" s="22"/>
+      <c r="AC84" s="22"/>
+      <c r="AD84" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AE84" s="18"/>
-      <c r="AF84" s="18"/>
-      <c r="AG84" s="18"/>
-      <c r="AH84" s="18" t="s">
+      <c r="AE84" s="22"/>
+      <c r="AF84" s="22"/>
+      <c r="AG84" s="22"/>
+      <c r="AH84" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="AI84" s="18"/>
-      <c r="AJ84" s="18"/>
-      <c r="AK84" s="18"/>
-      <c r="AL84" s="18" t="s">
+      <c r="AI84" s="22"/>
+      <c r="AJ84" s="22"/>
+      <c r="AK84" s="22"/>
+      <c r="AL84" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AM84" s="18"/>
-      <c r="AN84" s="18"/>
-      <c r="AO84" s="18"/>
-      <c r="AP84" s="18" t="s">
+      <c r="AM84" s="22"/>
+      <c r="AN84" s="22"/>
+      <c r="AO84" s="22"/>
+      <c r="AP84" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AQ84" s="18"/>
-      <c r="AR84" s="18"/>
-      <c r="AS84" s="18"/>
-      <c r="AT84" s="18" t="s">
+      <c r="AQ84" s="22"/>
+      <c r="AR84" s="22"/>
+      <c r="AS84" s="22"/>
+      <c r="AT84" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AU84" s="18"/>
-      <c r="AV84" s="18"/>
-      <c r="AW84" s="18"/>
-      <c r="AX84" s="18" t="s">
+      <c r="AU84" s="22"/>
+      <c r="AV84" s="22"/>
+      <c r="AW84" s="22"/>
+      <c r="AX84" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="AY84" s="18"/>
-      <c r="AZ84" s="18"/>
-      <c r="BA84" s="18"/>
-      <c r="BB84" s="18" t="s">
+      <c r="AY84" s="22"/>
+      <c r="AZ84" s="22"/>
+      <c r="BA84" s="22"/>
+      <c r="BB84" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="BC84" s="18"/>
-      <c r="BD84" s="18"/>
-      <c r="BE84" s="18"/>
-      <c r="BF84" s="18" t="s">
+      <c r="BC84" s="22"/>
+      <c r="BD84" s="22"/>
+      <c r="BE84" s="22"/>
+      <c r="BF84" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="BG84" s="18"/>
-      <c r="BH84" s="18"/>
-      <c r="BI84" s="18"/>
-      <c r="BJ84" s="18" t="s">
+      <c r="BG84" s="22"/>
+      <c r="BH84" s="22"/>
+      <c r="BI84" s="22"/>
+      <c r="BJ84" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="BK84" s="18"/>
-      <c r="BL84" s="18"/>
-      <c r="BM84" s="18"/>
-      <c r="BN84" s="18" t="s">
+      <c r="BK84" s="22"/>
+      <c r="BL84" s="22"/>
+      <c r="BM84" s="22"/>
+      <c r="BN84" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="BO84" s="18"/>
-      <c r="BP84" s="18"/>
-      <c r="BQ84" s="18"/>
-      <c r="BR84" s="18" t="s">
+      <c r="BO84" s="22"/>
+      <c r="BP84" s="22"/>
+      <c r="BQ84" s="22"/>
+      <c r="BR84" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="BS84" s="18"/>
-      <c r="BT84" s="18"/>
-      <c r="BU84" s="18"/>
-      <c r="BV84" s="18" t="s">
+      <c r="BS84" s="22"/>
+      <c r="BT84" s="22"/>
+      <c r="BU84" s="22"/>
+      <c r="BV84" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="BW84" s="18"/>
-      <c r="BX84" s="18"/>
-      <c r="BY84" s="18"/>
-      <c r="BZ84" s="18" t="s">
+      <c r="BW84" s="22"/>
+      <c r="BX84" s="22"/>
+      <c r="BY84" s="22"/>
+      <c r="BZ84" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="CA84" s="18"/>
-      <c r="CB84" s="18"/>
-      <c r="CC84" s="18"/>
-      <c r="CD84" s="18" t="s">
+      <c r="CA84" s="22"/>
+      <c r="CB84" s="22"/>
+      <c r="CC84" s="22"/>
+      <c r="CD84" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="CE84" s="18"/>
-      <c r="CF84" s="18"/>
-      <c r="CG84" s="18"/>
-      <c r="CH84" s="18" t="s">
+      <c r="CE84" s="22"/>
+      <c r="CF84" s="22"/>
+      <c r="CG84" s="22"/>
+      <c r="CH84" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="CI84" s="18"/>
-      <c r="CJ84" s="18"/>
-      <c r="CK84" s="18"/>
-      <c r="CL84" s="18"/>
+      <c r="CI84" s="22"/>
+      <c r="CJ84" s="22"/>
+      <c r="CK84" s="22"/>
+      <c r="CL84" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="CM84" s="18"/>
       <c r="CN84" s="18"/>
       <c r="CO84" s="18"/>
+      <c r="CP84" s="18"/>
     </row>
     <row r="85" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
@@ -13186,10 +13273,13 @@
       <c r="CK85" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CL85" s="5"/>
+      <c r="CL85" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="CM85" s="5"/>
       <c r="CN85" s="5"/>
       <c r="CO85" s="5"/>
+      <c r="CP85" s="5"/>
     </row>
     <row r="86" spans="1:147" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
@@ -13462,11 +13552,13 @@
       <c r="CK87" s="14">
         <v>68.497582133349454</v>
       </c>
-      <c r="CL87" s="14"/>
+      <c r="CL87" s="14">
+        <v>70.697139548142388</v>
+      </c>
       <c r="CM87" s="14"/>
       <c r="CN87" s="14"/>
       <c r="CO87" s="14"/>
-      <c r="CP87" s="8"/>
+      <c r="CP87" s="14"/>
       <c r="CQ87" s="8"/>
       <c r="CR87" s="8"/>
       <c r="CS87" s="8"/>
@@ -13789,11 +13881,13 @@
       <c r="CK88" s="14">
         <v>15.453253697379125</v>
       </c>
-      <c r="CL88" s="14"/>
+      <c r="CL88" s="14">
+        <v>-14.038288769524968</v>
+      </c>
       <c r="CM88" s="14"/>
       <c r="CN88" s="14"/>
       <c r="CO88" s="14"/>
-      <c r="CP88" s="8"/>
+      <c r="CP88" s="14"/>
       <c r="CQ88" s="8"/>
       <c r="CR88" s="8"/>
       <c r="CS88" s="8"/>
@@ -14116,11 +14210,13 @@
       <c r="CK89" s="14">
         <v>349.55053760077203</v>
       </c>
-      <c r="CL89" s="14"/>
+      <c r="CL89" s="14">
+        <v>581.9972140107966</v>
+      </c>
       <c r="CM89" s="14"/>
       <c r="CN89" s="14"/>
       <c r="CO89" s="14"/>
-      <c r="CP89" s="8"/>
+      <c r="CP89" s="14"/>
       <c r="CQ89" s="8"/>
       <c r="CR89" s="8"/>
       <c r="CS89" s="8"/>
@@ -14443,11 +14539,13 @@
       <c r="CK90" s="14">
         <v>3.3616295313059226</v>
       </c>
-      <c r="CL90" s="14"/>
+      <c r="CL90" s="14">
+        <v>14.963370710976747</v>
+      </c>
       <c r="CM90" s="14"/>
       <c r="CN90" s="14"/>
       <c r="CO90" s="14"/>
-      <c r="CP90" s="8"/>
+      <c r="CP90" s="14"/>
       <c r="CQ90" s="8"/>
       <c r="CR90" s="8"/>
       <c r="CS90" s="8"/>
@@ -14770,11 +14868,13 @@
       <c r="CK91" s="14">
         <v>18.175311829899286</v>
       </c>
-      <c r="CL91" s="14"/>
+      <c r="CL91" s="14">
+        <v>8.8399819912858106</v>
+      </c>
       <c r="CM91" s="14"/>
       <c r="CN91" s="14"/>
       <c r="CO91" s="14"/>
-      <c r="CP91" s="8"/>
+      <c r="CP91" s="14"/>
       <c r="CQ91" s="8"/>
       <c r="CR91" s="8"/>
       <c r="CS91" s="8"/>
@@ -15097,11 +15197,13 @@
       <c r="CK92" s="14">
         <v>5.6946661002921388</v>
       </c>
-      <c r="CL92" s="14"/>
+      <c r="CL92" s="14">
+        <v>3.3763912696830829</v>
+      </c>
       <c r="CM92" s="14"/>
       <c r="CN92" s="14"/>
       <c r="CO92" s="14"/>
-      <c r="CP92" s="8"/>
+      <c r="CP92" s="14"/>
       <c r="CQ92" s="8"/>
       <c r="CR92" s="8"/>
       <c r="CS92" s="8"/>
@@ -15424,11 +15526,13 @@
       <c r="CK93" s="14">
         <v>10.153253740682118</v>
       </c>
-      <c r="CL93" s="14"/>
+      <c r="CL93" s="14">
+        <v>-28.059260392207534</v>
+      </c>
       <c r="CM93" s="14"/>
       <c r="CN93" s="14"/>
       <c r="CO93" s="14"/>
-      <c r="CP93" s="8"/>
+      <c r="CP93" s="14"/>
       <c r="CQ93" s="8"/>
       <c r="CR93" s="8"/>
       <c r="CS93" s="8"/>
@@ -15751,11 +15855,13 @@
       <c r="CK94" s="14">
         <v>40.652027393024923</v>
       </c>
-      <c r="CL94" s="14"/>
+      <c r="CL94" s="14">
+        <v>12.739986600272204</v>
+      </c>
       <c r="CM94" s="14"/>
       <c r="CN94" s="14"/>
       <c r="CO94" s="14"/>
-      <c r="CP94" s="8"/>
+      <c r="CP94" s="14"/>
       <c r="CQ94" s="8"/>
       <c r="CR94" s="8"/>
       <c r="CS94" s="8"/>
@@ -16226,11 +16332,13 @@
       <c r="CK96" s="14">
         <v>21.958128353759164</v>
       </c>
-      <c r="CL96" s="14"/>
+      <c r="CL96" s="14">
+        <v>19.472189271125046</v>
+      </c>
       <c r="CM96" s="14"/>
       <c r="CN96" s="14"/>
       <c r="CO96" s="14"/>
-      <c r="CP96" s="8"/>
+      <c r="CP96" s="14"/>
       <c r="CQ96" s="8"/>
       <c r="CR96" s="8"/>
       <c r="CS96" s="8"/>
@@ -16379,6 +16487,7 @@
       <c r="CM97" s="11"/>
       <c r="CN97" s="11"/>
       <c r="CO97" s="11"/>
+      <c r="CP97" s="11"/>
     </row>
     <row r="98" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
@@ -16688,7 +16797,7 @@
     </row>
     <row r="102" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="104" spans="1:151" x14ac:dyDescent="0.2">
@@ -16698,7 +16807,7 @@
     </row>
     <row r="105" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="106" spans="1:151" x14ac:dyDescent="0.2">
@@ -16708,144 +16817,147 @@
     </row>
     <row r="108" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
-      <c r="B108" s="19">
+      <c r="B108" s="23">
         <v>2000</v>
       </c>
-      <c r="C108" s="19"/>
-      <c r="D108" s="19"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="19">
+      <c r="C108" s="23"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="23">
         <v>2001</v>
       </c>
-      <c r="G108" s="19"/>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="19">
+      <c r="G108" s="23"/>
+      <c r="H108" s="23"/>
+      <c r="I108" s="23"/>
+      <c r="J108" s="23">
         <v>2002</v>
       </c>
-      <c r="K108" s="19"/>
-      <c r="L108" s="19"/>
-      <c r="M108" s="19"/>
-      <c r="N108" s="19">
+      <c r="K108" s="23"/>
+      <c r="L108" s="23"/>
+      <c r="M108" s="23"/>
+      <c r="N108" s="23">
         <v>2003</v>
       </c>
-      <c r="O108" s="19"/>
-      <c r="P108" s="19"/>
-      <c r="Q108" s="19"/>
-      <c r="R108" s="19">
+      <c r="O108" s="23"/>
+      <c r="P108" s="23"/>
+      <c r="Q108" s="23"/>
+      <c r="R108" s="23">
         <v>2004</v>
       </c>
-      <c r="S108" s="19"/>
-      <c r="T108" s="19"/>
-      <c r="U108" s="19"/>
-      <c r="V108" s="19">
+      <c r="S108" s="23"/>
+      <c r="T108" s="23"/>
+      <c r="U108" s="23"/>
+      <c r="V108" s="23">
         <v>2005</v>
       </c>
-      <c r="W108" s="19"/>
-      <c r="X108" s="19"/>
-      <c r="Y108" s="19"/>
-      <c r="Z108" s="19">
+      <c r="W108" s="23"/>
+      <c r="X108" s="23"/>
+      <c r="Y108" s="23"/>
+      <c r="Z108" s="23">
         <v>2006</v>
       </c>
-      <c r="AA108" s="19"/>
-      <c r="AB108" s="19"/>
-      <c r="AC108" s="19"/>
-      <c r="AD108" s="19">
+      <c r="AA108" s="23"/>
+      <c r="AB108" s="23"/>
+      <c r="AC108" s="23"/>
+      <c r="AD108" s="23">
         <v>2007</v>
       </c>
-      <c r="AE108" s="19"/>
-      <c r="AF108" s="19"/>
-      <c r="AG108" s="19"/>
-      <c r="AH108" s="19">
+      <c r="AE108" s="23"/>
+      <c r="AF108" s="23"/>
+      <c r="AG108" s="23"/>
+      <c r="AH108" s="23">
         <v>2008</v>
       </c>
-      <c r="AI108" s="19"/>
-      <c r="AJ108" s="19"/>
-      <c r="AK108" s="19"/>
-      <c r="AL108" s="19">
+      <c r="AI108" s="23"/>
+      <c r="AJ108" s="23"/>
+      <c r="AK108" s="23"/>
+      <c r="AL108" s="23">
         <v>2009</v>
       </c>
-      <c r="AM108" s="19"/>
-      <c r="AN108" s="19"/>
-      <c r="AO108" s="19"/>
-      <c r="AP108" s="19">
+      <c r="AM108" s="23"/>
+      <c r="AN108" s="23"/>
+      <c r="AO108" s="23"/>
+      <c r="AP108" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="19"/>
-      <c r="AR108" s="19"/>
-      <c r="AS108" s="19"/>
-      <c r="AT108" s="19">
+      <c r="AQ108" s="23"/>
+      <c r="AR108" s="23"/>
+      <c r="AS108" s="23"/>
+      <c r="AT108" s="23">
         <v>2011</v>
       </c>
-      <c r="AU108" s="19"/>
-      <c r="AV108" s="19"/>
-      <c r="AW108" s="19"/>
-      <c r="AX108" s="19">
+      <c r="AU108" s="23"/>
+      <c r="AV108" s="23"/>
+      <c r="AW108" s="23"/>
+      <c r="AX108" s="23">
         <v>2012</v>
       </c>
-      <c r="AY108" s="19"/>
-      <c r="AZ108" s="19"/>
-      <c r="BA108" s="19"/>
-      <c r="BB108" s="19">
+      <c r="AY108" s="23"/>
+      <c r="AZ108" s="23"/>
+      <c r="BA108" s="23"/>
+      <c r="BB108" s="23">
         <v>2013</v>
       </c>
-      <c r="BC108" s="19"/>
-      <c r="BD108" s="19"/>
-      <c r="BE108" s="19"/>
-      <c r="BF108" s="19">
+      <c r="BC108" s="23"/>
+      <c r="BD108" s="23"/>
+      <c r="BE108" s="23"/>
+      <c r="BF108" s="23">
         <v>2014</v>
       </c>
-      <c r="BG108" s="19"/>
-      <c r="BH108" s="19"/>
-      <c r="BI108" s="19"/>
-      <c r="BJ108" s="19">
+      <c r="BG108" s="23"/>
+      <c r="BH108" s="23"/>
+      <c r="BI108" s="23"/>
+      <c r="BJ108" s="23">
         <v>2015</v>
       </c>
-      <c r="BK108" s="19"/>
-      <c r="BL108" s="19"/>
-      <c r="BM108" s="19"/>
-      <c r="BN108" s="19">
+      <c r="BK108" s="23"/>
+      <c r="BL108" s="23"/>
+      <c r="BM108" s="23"/>
+      <c r="BN108" s="23">
         <v>2016</v>
       </c>
-      <c r="BO108" s="19"/>
-      <c r="BP108" s="19"/>
-      <c r="BQ108" s="19"/>
-      <c r="BR108" s="19">
+      <c r="BO108" s="23"/>
+      <c r="BP108" s="23"/>
+      <c r="BQ108" s="23"/>
+      <c r="BR108" s="23">
         <v>2017</v>
       </c>
-      <c r="BS108" s="19"/>
-      <c r="BT108" s="19"/>
-      <c r="BU108" s="19"/>
-      <c r="BV108" s="19">
+      <c r="BS108" s="23"/>
+      <c r="BT108" s="23"/>
+      <c r="BU108" s="23"/>
+      <c r="BV108" s="23">
         <v>2018</v>
       </c>
-      <c r="BW108" s="19"/>
-      <c r="BX108" s="19"/>
-      <c r="BY108" s="19"/>
-      <c r="BZ108" s="19">
+      <c r="BW108" s="23"/>
+      <c r="BX108" s="23"/>
+      <c r="BY108" s="23"/>
+      <c r="BZ108" s="23">
         <v>2019</v>
       </c>
-      <c r="CA108" s="19"/>
-      <c r="CB108" s="19"/>
-      <c r="CC108" s="19"/>
-      <c r="CD108" s="19">
+      <c r="CA108" s="23"/>
+      <c r="CB108" s="23"/>
+      <c r="CC108" s="23"/>
+      <c r="CD108" s="22">
         <v>2020</v>
       </c>
-      <c r="CE108" s="19"/>
-      <c r="CF108" s="19"/>
-      <c r="CG108" s="19"/>
-      <c r="CH108" s="19">
+      <c r="CE108" s="22"/>
+      <c r="CF108" s="22"/>
+      <c r="CG108" s="22"/>
+      <c r="CH108" s="22">
         <v>2021</v>
       </c>
-      <c r="CI108" s="19"/>
-      <c r="CJ108" s="19"/>
-      <c r="CK108" s="19"/>
-      <c r="CL108" s="19">
+      <c r="CI108" s="22"/>
+      <c r="CJ108" s="22"/>
+      <c r="CK108" s="22"/>
+      <c r="CL108" s="22">
         <v>2022</v>
       </c>
-      <c r="CM108" s="19"/>
-      <c r="CN108" s="19"/>
-      <c r="CO108" s="19"/>
+      <c r="CM108" s="22"/>
+      <c r="CN108" s="22"/>
+      <c r="CO108" s="22"/>
+      <c r="CP108" s="18">
+        <v>2023</v>
+      </c>
     </row>
     <row r="109" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
@@ -17124,6 +17236,9 @@
       </c>
       <c r="CO109" s="13" t="s">
         <v>10</v>
+      </c>
+      <c r="CP109" s="13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -17409,7 +17524,9 @@
       <c r="CO111" s="14">
         <v>133.0320896828776</v>
       </c>
-      <c r="CP111" s="8"/>
+      <c r="CP111" s="14">
+        <v>136.72622876503411</v>
+      </c>
       <c r="CQ111" s="8"/>
       <c r="CR111" s="8"/>
       <c r="CS111" s="8"/>
@@ -17748,7 +17865,9 @@
       <c r="CO112" s="14">
         <v>114.41806830514707</v>
       </c>
-      <c r="CP112" s="8"/>
+      <c r="CP112" s="14">
+        <v>119.59147290110843</v>
+      </c>
       <c r="CQ112" s="8"/>
       <c r="CR112" s="8"/>
       <c r="CS112" s="8"/>
@@ -18087,7 +18206,9 @@
       <c r="CO113" s="14">
         <v>117.03672057255258</v>
       </c>
-      <c r="CP113" s="8"/>
+      <c r="CP113" s="14">
+        <v>122.00663809992125</v>
+      </c>
       <c r="CQ113" s="8"/>
       <c r="CR113" s="8"/>
       <c r="CS113" s="8"/>
@@ -18426,7 +18547,9 @@
       <c r="CO114" s="14">
         <v>115.53683219443604</v>
       </c>
-      <c r="CP114" s="8"/>
+      <c r="CP114" s="14">
+        <v>115.7444035129955</v>
+      </c>
       <c r="CQ114" s="8"/>
       <c r="CR114" s="8"/>
       <c r="CS114" s="8"/>
@@ -18765,7 +18888,9 @@
       <c r="CO115" s="14">
         <v>103.34897185336216</v>
       </c>
-      <c r="CP115" s="8"/>
+      <c r="CP115" s="14">
+        <v>102.91892740872616</v>
+      </c>
       <c r="CQ115" s="8"/>
       <c r="CR115" s="8"/>
       <c r="CS115" s="8"/>
@@ -19104,7 +19229,9 @@
       <c r="CO116" s="14">
         <v>117.00435355436905</v>
       </c>
-      <c r="CP116" s="8"/>
+      <c r="CP116" s="14">
+        <v>118.62053140218541</v>
+      </c>
       <c r="CQ116" s="8"/>
       <c r="CR116" s="8"/>
       <c r="CS116" s="8"/>
@@ -19443,7 +19570,9 @@
       <c r="CO117" s="14">
         <v>117.79146924859019</v>
       </c>
-      <c r="CP117" s="8"/>
+      <c r="CP117" s="14">
+        <v>120.67834689029524</v>
+      </c>
       <c r="CQ117" s="8"/>
       <c r="CR117" s="8"/>
       <c r="CS117" s="8"/>
@@ -19782,7 +19911,9 @@
       <c r="CO118" s="14">
         <v>114.26976550965541</v>
       </c>
-      <c r="CP118" s="8"/>
+      <c r="CP118" s="14">
+        <v>119.72353771979212</v>
+      </c>
       <c r="CQ118" s="8"/>
       <c r="CR118" s="8"/>
       <c r="CS118" s="8"/>
@@ -20273,7 +20404,9 @@
       <c r="CO120" s="14">
         <v>116.13546076127123</v>
       </c>
-      <c r="CP120" s="8"/>
+      <c r="CP120" s="14">
+        <v>118.21286798251498</v>
+      </c>
       <c r="CQ120" s="8"/>
       <c r="CR120" s="8"/>
       <c r="CS120" s="8"/>
@@ -20426,6 +20559,7 @@
       <c r="CM121" s="11"/>
       <c r="CN121" s="11"/>
       <c r="CO121" s="11"/>
+      <c r="CP121" s="11"/>
     </row>
     <row r="122" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
@@ -20444,7 +20578,7 @@
     </row>
     <row r="127" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="129" spans="1:151" x14ac:dyDescent="0.2">
@@ -20454,7 +20588,7 @@
     </row>
     <row r="130" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="131" spans="1:151" x14ac:dyDescent="0.2">
@@ -20464,144 +20598,147 @@
     </row>
     <row r="133" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
-      <c r="B133" s="19">
+      <c r="B133" s="23">
         <v>2000</v>
       </c>
-      <c r="C133" s="19"/>
-      <c r="D133" s="19"/>
-      <c r="E133" s="19"/>
-      <c r="F133" s="19">
+      <c r="C133" s="23"/>
+      <c r="D133" s="23"/>
+      <c r="E133" s="23"/>
+      <c r="F133" s="23">
         <v>2001</v>
       </c>
-      <c r="G133" s="19"/>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="19">
+      <c r="G133" s="23"/>
+      <c r="H133" s="23"/>
+      <c r="I133" s="23"/>
+      <c r="J133" s="23">
         <v>2002</v>
       </c>
-      <c r="K133" s="19"/>
-      <c r="L133" s="19"/>
-      <c r="M133" s="19"/>
-      <c r="N133" s="19">
+      <c r="K133" s="23"/>
+      <c r="L133" s="23"/>
+      <c r="M133" s="23"/>
+      <c r="N133" s="23">
         <v>2003</v>
       </c>
-      <c r="O133" s="19"/>
-      <c r="P133" s="19"/>
-      <c r="Q133" s="19"/>
-      <c r="R133" s="19">
+      <c r="O133" s="23"/>
+      <c r="P133" s="23"/>
+      <c r="Q133" s="23"/>
+      <c r="R133" s="23">
         <v>2004</v>
       </c>
-      <c r="S133" s="19"/>
-      <c r="T133" s="19"/>
-      <c r="U133" s="19"/>
-      <c r="V133" s="19">
+      <c r="S133" s="23"/>
+      <c r="T133" s="23"/>
+      <c r="U133" s="23"/>
+      <c r="V133" s="23">
         <v>2005</v>
       </c>
-      <c r="W133" s="19"/>
-      <c r="X133" s="19"/>
-      <c r="Y133" s="19"/>
-      <c r="Z133" s="19">
+      <c r="W133" s="23"/>
+      <c r="X133" s="23"/>
+      <c r="Y133" s="23"/>
+      <c r="Z133" s="23">
         <v>2006</v>
       </c>
-      <c r="AA133" s="19"/>
-      <c r="AB133" s="19"/>
-      <c r="AC133" s="19"/>
-      <c r="AD133" s="19">
+      <c r="AA133" s="23"/>
+      <c r="AB133" s="23"/>
+      <c r="AC133" s="23"/>
+      <c r="AD133" s="23">
         <v>2007</v>
       </c>
-      <c r="AE133" s="19"/>
-      <c r="AF133" s="19"/>
-      <c r="AG133" s="19"/>
-      <c r="AH133" s="19">
+      <c r="AE133" s="23"/>
+      <c r="AF133" s="23"/>
+      <c r="AG133" s="23"/>
+      <c r="AH133" s="23">
         <v>2008</v>
       </c>
-      <c r="AI133" s="19"/>
-      <c r="AJ133" s="19"/>
-      <c r="AK133" s="19"/>
-      <c r="AL133" s="19">
+      <c r="AI133" s="23"/>
+      <c r="AJ133" s="23"/>
+      <c r="AK133" s="23"/>
+      <c r="AL133" s="23">
         <v>2009</v>
       </c>
-      <c r="AM133" s="19"/>
-      <c r="AN133" s="19"/>
-      <c r="AO133" s="19"/>
-      <c r="AP133" s="19">
+      <c r="AM133" s="23"/>
+      <c r="AN133" s="23"/>
+      <c r="AO133" s="23"/>
+      <c r="AP133" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ133" s="19"/>
-      <c r="AR133" s="19"/>
-      <c r="AS133" s="19"/>
-      <c r="AT133" s="19">
+      <c r="AQ133" s="23"/>
+      <c r="AR133" s="23"/>
+      <c r="AS133" s="23"/>
+      <c r="AT133" s="23">
         <v>2011</v>
       </c>
-      <c r="AU133" s="19"/>
-      <c r="AV133" s="19"/>
-      <c r="AW133" s="19"/>
-      <c r="AX133" s="19">
+      <c r="AU133" s="23"/>
+      <c r="AV133" s="23"/>
+      <c r="AW133" s="23"/>
+      <c r="AX133" s="23">
         <v>2012</v>
       </c>
-      <c r="AY133" s="19"/>
-      <c r="AZ133" s="19"/>
-      <c r="BA133" s="19"/>
-      <c r="BB133" s="19">
+      <c r="AY133" s="23"/>
+      <c r="AZ133" s="23"/>
+      <c r="BA133" s="23"/>
+      <c r="BB133" s="23">
         <v>2013</v>
       </c>
-      <c r="BC133" s="19"/>
-      <c r="BD133" s="19"/>
-      <c r="BE133" s="19"/>
-      <c r="BF133" s="19">
+      <c r="BC133" s="23"/>
+      <c r="BD133" s="23"/>
+      <c r="BE133" s="23"/>
+      <c r="BF133" s="23">
         <v>2014</v>
       </c>
-      <c r="BG133" s="19"/>
-      <c r="BH133" s="19"/>
-      <c r="BI133" s="19"/>
-      <c r="BJ133" s="19">
+      <c r="BG133" s="23"/>
+      <c r="BH133" s="23"/>
+      <c r="BI133" s="23"/>
+      <c r="BJ133" s="23">
         <v>2015</v>
       </c>
-      <c r="BK133" s="19"/>
-      <c r="BL133" s="19"/>
-      <c r="BM133" s="19"/>
-      <c r="BN133" s="19">
+      <c r="BK133" s="23"/>
+      <c r="BL133" s="23"/>
+      <c r="BM133" s="23"/>
+      <c r="BN133" s="23">
         <v>2016</v>
       </c>
-      <c r="BO133" s="19"/>
-      <c r="BP133" s="19"/>
-      <c r="BQ133" s="19"/>
-      <c r="BR133" s="19">
+      <c r="BO133" s="23"/>
+      <c r="BP133" s="23"/>
+      <c r="BQ133" s="23"/>
+      <c r="BR133" s="23">
         <v>2017</v>
       </c>
-      <c r="BS133" s="19"/>
-      <c r="BT133" s="19"/>
-      <c r="BU133" s="19"/>
-      <c r="BV133" s="19">
+      <c r="BS133" s="23"/>
+      <c r="BT133" s="23"/>
+      <c r="BU133" s="23"/>
+      <c r="BV133" s="23">
         <v>2018</v>
       </c>
-      <c r="BW133" s="19"/>
-      <c r="BX133" s="19"/>
-      <c r="BY133" s="19"/>
-      <c r="BZ133" s="19">
+      <c r="BW133" s="23"/>
+      <c r="BX133" s="23"/>
+      <c r="BY133" s="23"/>
+      <c r="BZ133" s="23">
         <v>2019</v>
       </c>
-      <c r="CA133" s="19"/>
-      <c r="CB133" s="19"/>
-      <c r="CC133" s="19"/>
-      <c r="CD133" s="19">
+      <c r="CA133" s="23"/>
+      <c r="CB133" s="23"/>
+      <c r="CC133" s="23"/>
+      <c r="CD133" s="22">
         <v>2020</v>
       </c>
-      <c r="CE133" s="19"/>
-      <c r="CF133" s="19"/>
-      <c r="CG133" s="19"/>
-      <c r="CH133" s="19">
+      <c r="CE133" s="22"/>
+      <c r="CF133" s="22"/>
+      <c r="CG133" s="22"/>
+      <c r="CH133" s="22">
         <v>2021</v>
       </c>
-      <c r="CI133" s="19"/>
-      <c r="CJ133" s="19"/>
-      <c r="CK133" s="19"/>
-      <c r="CL133" s="19">
+      <c r="CI133" s="22"/>
+      <c r="CJ133" s="22"/>
+      <c r="CK133" s="22"/>
+      <c r="CL133" s="22">
         <v>2022</v>
       </c>
-      <c r="CM133" s="19"/>
-      <c r="CN133" s="19"/>
-      <c r="CO133" s="19"/>
+      <c r="CM133" s="22"/>
+      <c r="CN133" s="22"/>
+      <c r="CO133" s="22"/>
+      <c r="CP133" s="18">
+        <v>2023</v>
+      </c>
     </row>
     <row r="134" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
@@ -20880,6 +21017,9 @@
       </c>
       <c r="CO134" s="13" t="s">
         <v>10</v>
+      </c>
+      <c r="CP134" s="13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -21129,43 +21269,45 @@
       <c r="CC136" s="15">
         <v>8.4796805961946209</v>
       </c>
-      <c r="CD136" s="15">
+      <c r="CD136" s="21">
         <v>4.9952343275159103</v>
       </c>
-      <c r="CE136" s="15">
+      <c r="CE136" s="21">
         <v>2.9734231599888474</v>
       </c>
-      <c r="CF136" s="15">
+      <c r="CF136" s="21">
         <v>5.0688179881251214</v>
       </c>
-      <c r="CG136" s="15">
+      <c r="CG136" s="21">
         <v>5.4275059453531354</v>
       </c>
-      <c r="CH136" s="15">
+      <c r="CH136" s="21">
         <v>3.7079619165669646</v>
       </c>
-      <c r="CI136" s="15">
+      <c r="CI136" s="21">
         <v>3.1686760313166022</v>
       </c>
-      <c r="CJ136" s="15">
+      <c r="CJ136" s="21">
         <v>5.9400974656478551</v>
       </c>
-      <c r="CK136" s="15">
+      <c r="CK136" s="21">
         <v>6.3517535811312325</v>
       </c>
-      <c r="CL136" s="15">
+      <c r="CL136" s="21">
         <v>7.2501408841845167</v>
       </c>
-      <c r="CM136" s="15">
+      <c r="CM136" s="21">
         <v>4.5525961507475614</v>
       </c>
-      <c r="CN136" s="15">
+      <c r="CN136" s="21">
         <v>7.123031504693027</v>
       </c>
-      <c r="CO136" s="15">
+      <c r="CO136" s="21">
         <v>9.1431393370668612</v>
       </c>
-      <c r="CP136" s="8"/>
+      <c r="CP136" s="21">
+        <v>10.673109476978473</v>
+      </c>
       <c r="CQ136" s="8"/>
       <c r="CR136" s="8"/>
       <c r="CS136" s="8"/>
@@ -21468,43 +21610,45 @@
       <c r="CC137" s="15">
         <v>0.15036753568418579</v>
       </c>
-      <c r="CD137" s="15">
+      <c r="CD137" s="21">
         <v>6.9618762094456235E-2</v>
       </c>
-      <c r="CE137" s="15">
+      <c r="CE137" s="21">
         <v>6.1938901337616682E-2</v>
       </c>
-      <c r="CF137" s="15">
+      <c r="CF137" s="21">
         <v>0.1736863822285733</v>
       </c>
-      <c r="CG137" s="15">
+      <c r="CG137" s="21">
         <v>0.18664971726304994</v>
       </c>
-      <c r="CH137" s="15">
+      <c r="CH137" s="21">
         <v>8.6921547744633912E-2</v>
       </c>
-      <c r="CI137" s="15">
+      <c r="CI137" s="21">
         <v>6.4092383553871687E-2</v>
       </c>
-      <c r="CJ137" s="15">
+      <c r="CJ137" s="21">
         <v>0.17519861914326512</v>
       </c>
-      <c r="CK137" s="15">
+      <c r="CK137" s="21">
         <v>0.17388086679314779</v>
       </c>
-      <c r="CL137" s="15">
+      <c r="CL137" s="21">
         <v>8.303106049360541E-2</v>
       </c>
-      <c r="CM137" s="15">
+      <c r="CM137" s="21">
         <v>5.9636933637316959E-2</v>
       </c>
-      <c r="CN137" s="15">
+      <c r="CN137" s="21">
         <v>0.14132000283227314</v>
       </c>
-      <c r="CO137" s="15">
+      <c r="CO137" s="21">
         <v>0.16291089073254109</v>
       </c>
-      <c r="CP137" s="8"/>
+      <c r="CP137" s="21">
+        <v>6.0682170158752886E-2</v>
+      </c>
       <c r="CQ137" s="8"/>
       <c r="CR137" s="8"/>
       <c r="CS137" s="8"/>
@@ -21807,43 +21951,45 @@
       <c r="CC138" s="15">
         <v>19.013300244799748</v>
       </c>
-      <c r="CD138" s="15">
+      <c r="CD138" s="21">
         <v>16.396937903387638</v>
       </c>
-      <c r="CE138" s="15">
+      <c r="CE138" s="21">
         <v>1.1348070725738837</v>
       </c>
-      <c r="CF138" s="15">
+      <c r="CF138" s="21">
         <v>3.6469867699436915</v>
       </c>
-      <c r="CG138" s="15">
+      <c r="CG138" s="21">
         <v>2.0160285542239165</v>
       </c>
-      <c r="CH138" s="15">
+      <c r="CH138" s="21">
         <v>0.3222802801758774</v>
       </c>
-      <c r="CI138" s="15">
+      <c r="CI138" s="21">
         <v>5.0367479180651493</v>
       </c>
-      <c r="CJ138" s="15">
+      <c r="CJ138" s="21">
         <v>5.3418845429763779</v>
       </c>
-      <c r="CK138" s="15">
+      <c r="CK138" s="21">
         <v>2.7818782049697144</v>
       </c>
-      <c r="CL138" s="15">
+      <c r="CL138" s="21">
         <v>2.5240485310759349</v>
       </c>
-      <c r="CM138" s="15">
+      <c r="CM138" s="21">
         <v>9.0963045368606146</v>
       </c>
-      <c r="CN138" s="15">
+      <c r="CN138" s="21">
         <v>16.510726042475234</v>
       </c>
-      <c r="CO138" s="15">
+      <c r="CO138" s="21">
         <v>10.280272247948936</v>
       </c>
-      <c r="CP138" s="8"/>
+      <c r="CP138" s="21">
+        <v>14.726393052978192</v>
+      </c>
       <c r="CQ138" s="8"/>
       <c r="CR138" s="8"/>
       <c r="CS138" s="8"/>
@@ -22146,43 +22292,45 @@
       <c r="CC139" s="15">
         <v>0.4976902965519393</v>
       </c>
-      <c r="CD139" s="15">
+      <c r="CD139" s="21">
         <v>0.30534187729247619</v>
       </c>
-      <c r="CE139" s="15">
+      <c r="CE139" s="21">
         <v>0.47539913007255363</v>
       </c>
-      <c r="CF139" s="15">
+      <c r="CF139" s="21">
         <v>0.62327344191047018</v>
       </c>
-      <c r="CG139" s="15">
+      <c r="CG139" s="21">
         <v>0.60148638065745919</v>
       </c>
-      <c r="CH139" s="15">
+      <c r="CH139" s="21">
         <v>0.62481933927781019</v>
       </c>
-      <c r="CI139" s="15">
+      <c r="CI139" s="21">
         <v>0.64835075819374599</v>
       </c>
-      <c r="CJ139" s="15">
+      <c r="CJ139" s="21">
         <v>0.93916843464340838</v>
       </c>
-      <c r="CK139" s="15">
+      <c r="CK139" s="21">
         <v>0.88176153624546327</v>
       </c>
-      <c r="CL139" s="15">
+      <c r="CL139" s="21">
         <v>0.53926570175523747</v>
       </c>
-      <c r="CM139" s="15">
+      <c r="CM139" s="21">
         <v>0.59443022262417511</v>
       </c>
-      <c r="CN139" s="15">
+      <c r="CN139" s="21">
         <v>0.69975213191846064</v>
       </c>
-      <c r="CO139" s="15">
+      <c r="CO139" s="21">
         <v>0.73576712927618371</v>
       </c>
-      <c r="CP139" s="8"/>
+      <c r="CP139" s="21">
+        <v>0.52559685644981602</v>
+      </c>
       <c r="CQ139" s="8"/>
       <c r="CR139" s="8"/>
       <c r="CS139" s="8"/>
@@ -22485,43 +22633,45 @@
       <c r="CC140" s="15">
         <v>11.952984608400481</v>
       </c>
-      <c r="CD140" s="15">
+      <c r="CD140" s="21">
         <v>15.76875526855887</v>
       </c>
-      <c r="CE140" s="15">
+      <c r="CE140" s="21">
         <v>19.793228749615736</v>
       </c>
-      <c r="CF140" s="15">
+      <c r="CF140" s="21">
         <v>14.642490335884069</v>
       </c>
-      <c r="CG140" s="15">
+      <c r="CG140" s="21">
         <v>15.398891770769421</v>
       </c>
-      <c r="CH140" s="15">
+      <c r="CH140" s="21">
         <v>19.285678252002558</v>
       </c>
-      <c r="CI140" s="15">
+      <c r="CI140" s="21">
         <v>17.733447039626977</v>
       </c>
-      <c r="CJ140" s="15">
+      <c r="CJ140" s="21">
         <v>15.610035103839385</v>
       </c>
-      <c r="CK140" s="15">
+      <c r="CK140" s="21">
         <v>15.080973968014156</v>
       </c>
-      <c r="CL140" s="15">
+      <c r="CL140" s="21">
         <v>17.238137924424048</v>
       </c>
-      <c r="CM140" s="15">
+      <c r="CM140" s="21">
         <v>16.198405160389729</v>
       </c>
-      <c r="CN140" s="15">
+      <c r="CN140" s="21">
         <v>13.373125061649633</v>
       </c>
-      <c r="CO140" s="15">
+      <c r="CO140" s="21">
         <v>14.14657327890621</v>
       </c>
-      <c r="CP140" s="8"/>
+      <c r="CP140" s="21">
+        <v>15.031028071934241</v>
+      </c>
       <c r="CQ140" s="8"/>
       <c r="CR140" s="8"/>
       <c r="CS140" s="8"/>
@@ -22824,43 +22974,45 @@
       <c r="CC141" s="15">
         <v>49.84358522879478</v>
       </c>
-      <c r="CD141" s="15">
+      <c r="CD141" s="21">
         <v>51.200767898533094</v>
       </c>
-      <c r="CE141" s="15">
+      <c r="CE141" s="21">
         <v>62.626493196949575</v>
       </c>
-      <c r="CF141" s="15">
+      <c r="CF141" s="21">
         <v>62.952414697866729</v>
       </c>
-      <c r="CG141" s="15">
+      <c r="CG141" s="21">
         <v>64.942432985931987</v>
       </c>
-      <c r="CH141" s="15">
+      <c r="CH141" s="21">
         <v>62.111162865378354</v>
       </c>
-      <c r="CI141" s="15">
+      <c r="CI141" s="21">
         <v>59.840066288403506</v>
       </c>
-      <c r="CJ141" s="15">
+      <c r="CJ141" s="21">
         <v>58.263160624249942</v>
       </c>
-      <c r="CK141" s="15">
+      <c r="CK141" s="21">
         <v>61.447874063049959</v>
       </c>
-      <c r="CL141" s="15">
+      <c r="CL141" s="21">
         <v>58.900780388605469</v>
       </c>
-      <c r="CM141" s="15">
+      <c r="CM141" s="21">
         <v>57.315289478851419</v>
       </c>
-      <c r="CN141" s="15">
+      <c r="CN141" s="21">
         <v>51.518222835669761</v>
       </c>
-      <c r="CO141" s="15">
+      <c r="CO141" s="21">
         <v>52.938775237345773</v>
       </c>
-      <c r="CP141" s="8"/>
+      <c r="CP141" s="21">
+        <v>50.397458775672852</v>
+      </c>
       <c r="CQ141" s="8"/>
       <c r="CR141" s="8"/>
       <c r="CS141" s="8"/>
@@ -23163,43 +23315,45 @@
       <c r="CC142" s="15">
         <v>8.603494650630692</v>
       </c>
-      <c r="CD142" s="15">
+      <c r="CD142" s="21">
         <v>10.413665998840187</v>
       </c>
-      <c r="CE142" s="15">
+      <c r="CE142" s="21">
         <v>11.645449015290154</v>
       </c>
-      <c r="CF142" s="15">
+      <c r="CF142" s="21">
         <v>11.487796957173201</v>
       </c>
-      <c r="CG142" s="15">
+      <c r="CG142" s="21">
         <v>10.351874513042256</v>
       </c>
-      <c r="CH142" s="15">
+      <c r="CH142" s="21">
         <v>12.865020734970653</v>
       </c>
-      <c r="CI142" s="15">
+      <c r="CI142" s="21">
         <v>12.359521977599192</v>
       </c>
-      <c r="CJ142" s="15">
+      <c r="CJ142" s="21">
         <v>12.317675195876671</v>
       </c>
-      <c r="CK142" s="15">
+      <c r="CK142" s="21">
         <v>11.721266919248494</v>
       </c>
-      <c r="CL142" s="15">
+      <c r="CL142" s="21">
         <v>12.454562170481861</v>
       </c>
-      <c r="CM142" s="15">
+      <c r="CM142" s="21">
         <v>10.895182644348477</v>
       </c>
-      <c r="CN142" s="15">
+      <c r="CN142" s="21">
         <v>9.1716680739699008</v>
       </c>
-      <c r="CO142" s="15">
+      <c r="CO142" s="21">
         <v>10.811279520989928</v>
       </c>
-      <c r="CP142" s="8"/>
+      <c r="CP142" s="21">
+        <v>7.6176116792790696</v>
+      </c>
       <c r="CQ142" s="8"/>
       <c r="CR142" s="8"/>
       <c r="CS142" s="8"/>
@@ -23502,43 +23656,45 @@
       <c r="CC143" s="15">
         <v>1.4588968389435548</v>
       </c>
-      <c r="CD143" s="15">
+      <c r="CD143" s="21">
         <v>0.84967796377736249</v>
       </c>
-      <c r="CE143" s="15">
+      <c r="CE143" s="21">
         <v>1.2892607741716378</v>
       </c>
-      <c r="CF143" s="15">
+      <c r="CF143" s="21">
         <v>1.404533426868152</v>
       </c>
-      <c r="CG143" s="15">
+      <c r="CG143" s="21">
         <v>1.075130132758765</v>
       </c>
-      <c r="CH143" s="15">
+      <c r="CH143" s="21">
         <v>0.99615506388313169</v>
       </c>
-      <c r="CI143" s="15">
+      <c r="CI143" s="21">
         <v>1.1490976032409415</v>
       </c>
-      <c r="CJ143" s="15">
+      <c r="CJ143" s="21">
         <v>1.4127800136230975</v>
       </c>
-      <c r="CK143" s="15">
+      <c r="CK143" s="21">
         <v>1.5606108605478348</v>
       </c>
-      <c r="CL143" s="15">
+      <c r="CL143" s="21">
         <v>1.0100333389793279</v>
       </c>
-      <c r="CM143" s="15">
+      <c r="CM143" s="21">
         <v>1.2881548725406995</v>
       </c>
-      <c r="CN143" s="15">
+      <c r="CN143" s="21">
         <v>1.462154346791706</v>
       </c>
-      <c r="CO143" s="15">
+      <c r="CO143" s="21">
         <v>1.7812823577335724</v>
       </c>
-      <c r="CP143" s="8"/>
+      <c r="CP143" s="21">
+        <v>0.96811991654861729</v>
+      </c>
       <c r="CQ143" s="8"/>
       <c r="CR143" s="8"/>
       <c r="CS143" s="8"/>
@@ -24029,7 +24185,9 @@
       <c r="CO145" s="14">
         <v>100</v>
       </c>
-      <c r="CP145" s="8"/>
+      <c r="CP145" s="14">
+        <v>100</v>
+      </c>
       <c r="CQ145" s="8"/>
       <c r="CR145" s="8"/>
       <c r="CS145" s="8"/>
@@ -24182,6 +24340,7 @@
       <c r="CM146" s="11"/>
       <c r="CN146" s="11"/>
       <c r="CO146" s="11"/>
+      <c r="CP146" s="11"/>
     </row>
     <row r="147" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
@@ -24504,7 +24663,7 @@
     </row>
     <row r="152" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="154" spans="1:151" x14ac:dyDescent="0.2">
@@ -24514,7 +24673,7 @@
     </row>
     <row r="155" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="156" spans="1:151" x14ac:dyDescent="0.2">
@@ -24524,144 +24683,147 @@
     </row>
     <row r="158" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
-      <c r="B158" s="19">
+      <c r="B158" s="23">
         <v>2000</v>
       </c>
-      <c r="C158" s="19"/>
-      <c r="D158" s="19"/>
-      <c r="E158" s="19"/>
-      <c r="F158" s="19">
+      <c r="C158" s="23"/>
+      <c r="D158" s="23"/>
+      <c r="E158" s="23"/>
+      <c r="F158" s="23">
         <v>2001</v>
       </c>
-      <c r="G158" s="19"/>
-      <c r="H158" s="19"/>
-      <c r="I158" s="19"/>
-      <c r="J158" s="19">
+      <c r="G158" s="23"/>
+      <c r="H158" s="23"/>
+      <c r="I158" s="23"/>
+      <c r="J158" s="23">
         <v>2002</v>
       </c>
-      <c r="K158" s="19"/>
-      <c r="L158" s="19"/>
-      <c r="M158" s="19"/>
-      <c r="N158" s="19">
+      <c r="K158" s="23"/>
+      <c r="L158" s="23"/>
+      <c r="M158" s="23"/>
+      <c r="N158" s="23">
         <v>2003</v>
       </c>
-      <c r="O158" s="19"/>
-      <c r="P158" s="19"/>
-      <c r="Q158" s="19"/>
-      <c r="R158" s="19">
+      <c r="O158" s="23"/>
+      <c r="P158" s="23"/>
+      <c r="Q158" s="23"/>
+      <c r="R158" s="23">
         <v>2004</v>
       </c>
-      <c r="S158" s="19"/>
-      <c r="T158" s="19"/>
-      <c r="U158" s="19"/>
-      <c r="V158" s="19">
+      <c r="S158" s="23"/>
+      <c r="T158" s="23"/>
+      <c r="U158" s="23"/>
+      <c r="V158" s="23">
         <v>2005</v>
       </c>
-      <c r="W158" s="19"/>
-      <c r="X158" s="19"/>
-      <c r="Y158" s="19"/>
-      <c r="Z158" s="19">
+      <c r="W158" s="23"/>
+      <c r="X158" s="23"/>
+      <c r="Y158" s="23"/>
+      <c r="Z158" s="23">
         <v>2006</v>
       </c>
-      <c r="AA158" s="19"/>
-      <c r="AB158" s="19"/>
-      <c r="AC158" s="19"/>
-      <c r="AD158" s="19">
+      <c r="AA158" s="23"/>
+      <c r="AB158" s="23"/>
+      <c r="AC158" s="23"/>
+      <c r="AD158" s="23">
         <v>2007</v>
       </c>
-      <c r="AE158" s="19"/>
-      <c r="AF158" s="19"/>
-      <c r="AG158" s="19"/>
-      <c r="AH158" s="19">
+      <c r="AE158" s="23"/>
+      <c r="AF158" s="23"/>
+      <c r="AG158" s="23"/>
+      <c r="AH158" s="23">
         <v>2008</v>
       </c>
-      <c r="AI158" s="19"/>
-      <c r="AJ158" s="19"/>
-      <c r="AK158" s="19"/>
-      <c r="AL158" s="19">
+      <c r="AI158" s="23"/>
+      <c r="AJ158" s="23"/>
+      <c r="AK158" s="23"/>
+      <c r="AL158" s="23">
         <v>2009</v>
       </c>
-      <c r="AM158" s="19"/>
-      <c r="AN158" s="19"/>
-      <c r="AO158" s="19"/>
-      <c r="AP158" s="19">
+      <c r="AM158" s="23"/>
+      <c r="AN158" s="23"/>
+      <c r="AO158" s="23"/>
+      <c r="AP158" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ158" s="19"/>
-      <c r="AR158" s="19"/>
-      <c r="AS158" s="19"/>
-      <c r="AT158" s="19">
+      <c r="AQ158" s="23"/>
+      <c r="AR158" s="23"/>
+      <c r="AS158" s="23"/>
+      <c r="AT158" s="23">
         <v>2011</v>
       </c>
-      <c r="AU158" s="19"/>
-      <c r="AV158" s="19"/>
-      <c r="AW158" s="19"/>
-      <c r="AX158" s="19">
+      <c r="AU158" s="23"/>
+      <c r="AV158" s="23"/>
+      <c r="AW158" s="23"/>
+      <c r="AX158" s="23">
         <v>2012</v>
       </c>
-      <c r="AY158" s="19"/>
-      <c r="AZ158" s="19"/>
-      <c r="BA158" s="19"/>
-      <c r="BB158" s="19">
+      <c r="AY158" s="23"/>
+      <c r="AZ158" s="23"/>
+      <c r="BA158" s="23"/>
+      <c r="BB158" s="23">
         <v>2013</v>
       </c>
-      <c r="BC158" s="19"/>
-      <c r="BD158" s="19"/>
-      <c r="BE158" s="19"/>
-      <c r="BF158" s="19">
+      <c r="BC158" s="23"/>
+      <c r="BD158" s="23"/>
+      <c r="BE158" s="23"/>
+      <c r="BF158" s="23">
         <v>2014</v>
       </c>
-      <c r="BG158" s="19"/>
-      <c r="BH158" s="19"/>
-      <c r="BI158" s="19"/>
-      <c r="BJ158" s="19">
+      <c r="BG158" s="23"/>
+      <c r="BH158" s="23"/>
+      <c r="BI158" s="23"/>
+      <c r="BJ158" s="23">
         <v>2015</v>
       </c>
-      <c r="BK158" s="19"/>
-      <c r="BL158" s="19"/>
-      <c r="BM158" s="19"/>
-      <c r="BN158" s="19">
+      <c r="BK158" s="23"/>
+      <c r="BL158" s="23"/>
+      <c r="BM158" s="23"/>
+      <c r="BN158" s="23">
         <v>2016</v>
       </c>
-      <c r="BO158" s="19"/>
-      <c r="BP158" s="19"/>
-      <c r="BQ158" s="19"/>
-      <c r="BR158" s="19">
+      <c r="BO158" s="23"/>
+      <c r="BP158" s="23"/>
+      <c r="BQ158" s="23"/>
+      <c r="BR158" s="23">
         <v>2017</v>
       </c>
-      <c r="BS158" s="19"/>
-      <c r="BT158" s="19"/>
-      <c r="BU158" s="19"/>
-      <c r="BV158" s="19">
+      <c r="BS158" s="23"/>
+      <c r="BT158" s="23"/>
+      <c r="BU158" s="23"/>
+      <c r="BV158" s="23">
         <v>2018</v>
       </c>
-      <c r="BW158" s="19"/>
-      <c r="BX158" s="19"/>
-      <c r="BY158" s="19"/>
-      <c r="BZ158" s="19">
+      <c r="BW158" s="23"/>
+      <c r="BX158" s="23"/>
+      <c r="BY158" s="23"/>
+      <c r="BZ158" s="23">
         <v>2019</v>
       </c>
-      <c r="CA158" s="19"/>
-      <c r="CB158" s="19"/>
-      <c r="CC158" s="19"/>
-      <c r="CD158" s="19">
+      <c r="CA158" s="23"/>
+      <c r="CB158" s="23"/>
+      <c r="CC158" s="23"/>
+      <c r="CD158" s="22">
         <v>2020</v>
       </c>
-      <c r="CE158" s="19"/>
-      <c r="CF158" s="19"/>
-      <c r="CG158" s="19"/>
-      <c r="CH158" s="19">
+      <c r="CE158" s="22"/>
+      <c r="CF158" s="22"/>
+      <c r="CG158" s="22"/>
+      <c r="CH158" s="22">
         <v>2021</v>
       </c>
-      <c r="CI158" s="19"/>
-      <c r="CJ158" s="19"/>
-      <c r="CK158" s="19"/>
-      <c r="CL158" s="19">
+      <c r="CI158" s="22"/>
+      <c r="CJ158" s="22"/>
+      <c r="CK158" s="22"/>
+      <c r="CL158" s="22">
         <v>2022</v>
       </c>
-      <c r="CM158" s="19"/>
-      <c r="CN158" s="19"/>
-      <c r="CO158" s="19"/>
+      <c r="CM158" s="22"/>
+      <c r="CN158" s="22"/>
+      <c r="CO158" s="22"/>
+      <c r="CP158" s="18">
+        <v>2023</v>
+      </c>
     </row>
     <row r="159" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
@@ -24940,6 +25102,9 @@
       </c>
       <c r="CO159" s="13" t="s">
         <v>10</v>
+      </c>
+      <c r="CP159" s="13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -25189,43 +25354,45 @@
       <c r="CC161" s="15">
         <v>8.4311298347575008</v>
       </c>
-      <c r="CD161" s="15">
+      <c r="CD161" s="21">
         <v>5.0109682970854008</v>
       </c>
-      <c r="CE161" s="15">
+      <c r="CE161" s="21">
         <v>3.0575954363501445</v>
       </c>
-      <c r="CF161" s="15">
+      <c r="CF161" s="21">
         <v>5.1021512160028131</v>
       </c>
-      <c r="CG161" s="15">
+      <c r="CG161" s="21">
         <v>5.1202309490742826</v>
       </c>
-      <c r="CH161" s="15">
+      <c r="CH161" s="21">
         <v>3.4352956244251054</v>
       </c>
-      <c r="CI161" s="15">
+      <c r="CI161" s="21">
         <v>3.0535492105186033</v>
       </c>
-      <c r="CJ161" s="15">
+      <c r="CJ161" s="21">
         <v>5.7835985114685524</v>
       </c>
-      <c r="CK161" s="15">
+      <c r="CK161" s="21">
         <v>5.7772458590307521</v>
       </c>
-      <c r="CL161" s="15">
+      <c r="CL161" s="21">
         <v>6.4586903187929448</v>
       </c>
-      <c r="CM161" s="15">
+      <c r="CM161" s="21">
         <v>4.1385663284785403</v>
       </c>
-      <c r="CN161" s="15">
+      <c r="CN161" s="21">
         <v>6.4069843265431619</v>
       </c>
-      <c r="CO161" s="15">
+      <c r="CO161" s="21">
         <v>7.9818538688371241</v>
       </c>
-      <c r="CP161" s="8"/>
+      <c r="CP161" s="21">
+        <v>9.2279213210307471</v>
+      </c>
       <c r="CQ161" s="8"/>
       <c r="CR161" s="8"/>
       <c r="CS161" s="8"/>
@@ -25528,43 +25695,45 @@
       <c r="CC162" s="15">
         <v>0.15136469743347755</v>
       </c>
-      <c r="CD162" s="15">
+      <c r="CD162" s="21">
         <v>6.9936111574063903E-2</v>
       </c>
-      <c r="CE162" s="15">
+      <c r="CE162" s="21">
         <v>6.0290553573796077E-2</v>
       </c>
-      <c r="CF162" s="15">
+      <c r="CF162" s="21">
         <v>0.17238825267582442</v>
       </c>
-      <c r="CG162" s="15">
+      <c r="CG162" s="21">
         <v>0.18817661213181042</v>
       </c>
-      <c r="CH162" s="15">
+      <c r="CH162" s="21">
         <v>8.7077108823813351E-2</v>
       </c>
-      <c r="CI162" s="15">
+      <c r="CI162" s="21">
         <v>6.2250947467605816E-2</v>
       </c>
-      <c r="CJ162" s="15">
+      <c r="CJ162" s="21">
         <v>0.17334482311420102</v>
       </c>
-      <c r="CK162" s="15">
+      <c r="CK162" s="21">
         <v>0.17467265771166715</v>
       </c>
-      <c r="CL162" s="15">
+      <c r="CL162" s="21">
         <v>8.3365702231303115E-2</v>
       </c>
-      <c r="CM162" s="15">
+      <c r="CM162" s="21">
         <v>5.9398819865764195E-2</v>
       </c>
-      <c r="CN162" s="15">
+      <c r="CN162" s="21">
         <v>0.14074462376520538</v>
       </c>
-      <c r="CO162" s="15">
+      <c r="CO162" s="21">
         <v>0.16535615081173041</v>
       </c>
-      <c r="CP162" s="8"/>
+      <c r="CP162" s="21">
+        <v>5.9982649229522761E-2</v>
+      </c>
       <c r="CQ162" s="8"/>
       <c r="CR162" s="8"/>
       <c r="CS162" s="8"/>
@@ -25867,43 +26036,45 @@
       <c r="CC163" s="15">
         <v>19.163729694697746</v>
       </c>
-      <c r="CD163" s="15">
+      <c r="CD163" s="21">
         <v>16.363997264015566</v>
       </c>
-      <c r="CE163" s="15">
+      <c r="CE163" s="21">
         <v>1.0907957815735638</v>
       </c>
-      <c r="CF163" s="15">
+      <c r="CF163" s="21">
         <v>3.612704240682397</v>
       </c>
-      <c r="CG163" s="15">
+      <c r="CG163" s="21">
         <v>2.0185663269887475</v>
       </c>
-      <c r="CH163" s="15">
+      <c r="CH163" s="21">
         <v>0.31555644229347418</v>
       </c>
-      <c r="CI163" s="15">
+      <c r="CI163" s="21">
         <v>4.801044571461925</v>
       </c>
-      <c r="CJ163" s="15">
+      <c r="CJ163" s="21">
         <v>5.2117999040352281</v>
       </c>
-      <c r="CK163" s="15">
+      <c r="CK163" s="21">
         <v>2.7674485056923839</v>
       </c>
-      <c r="CL163" s="15">
+      <c r="CL163" s="21">
         <v>2.4995504275256444</v>
       </c>
-      <c r="CM163" s="15">
+      <c r="CM163" s="21">
         <v>8.911620089896747</v>
       </c>
-      <c r="CN163" s="15">
+      <c r="CN163" s="21">
         <v>16.119529344341789</v>
       </c>
-      <c r="CO163" s="15">
+      <c r="CO163" s="21">
         <v>10.2011073825906</v>
       </c>
-      <c r="CP163" s="8"/>
+      <c r="CP163" s="21">
+        <v>14.268479034760492</v>
+      </c>
       <c r="CQ163" s="8"/>
       <c r="CR163" s="8"/>
       <c r="CS163" s="8"/>
@@ -26206,43 +26377,45 @@
       <c r="CC164" s="15">
         <v>0.4889466192213584</v>
       </c>
-      <c r="CD164" s="15">
+      <c r="CD164" s="21">
         <v>0.31270747301414797</v>
       </c>
-      <c r="CE164" s="15">
+      <c r="CE164" s="21">
         <v>0.46920781968599923</v>
       </c>
-      <c r="CF164" s="15">
+      <c r="CF164" s="21">
         <v>0.62437649254816352</v>
       </c>
-      <c r="CG164" s="15">
+      <c r="CG164" s="21">
         <v>0.59336852384765482</v>
       </c>
-      <c r="CH164" s="15">
+      <c r="CH164" s="21">
         <v>0.64095392712188404</v>
       </c>
-      <c r="CI164" s="15">
+      <c r="CI164" s="21">
         <v>0.6464270654902593</v>
       </c>
-      <c r="CJ164" s="15">
+      <c r="CJ164" s="21">
         <v>0.94890269798461568</v>
       </c>
-      <c r="CK164" s="15">
+      <c r="CK164" s="21">
         <v>0.87264213018068471</v>
       </c>
-      <c r="CL164" s="15">
+      <c r="CL164" s="21">
         <v>0.55785951527030686</v>
       </c>
-      <c r="CM164" s="15">
+      <c r="CM164" s="21">
         <v>0.61229989214461655</v>
       </c>
-      <c r="CN164" s="15">
+      <c r="CN164" s="21">
         <v>0.71867427343568591</v>
       </c>
-      <c r="CO164" s="15">
+      <c r="CO164" s="21">
         <v>0.73957934408039272</v>
       </c>
-      <c r="CP164" s="8"/>
+      <c r="CP164" s="21">
+        <v>0.53680618602480346</v>
+      </c>
       <c r="CQ164" s="8"/>
       <c r="CR164" s="8"/>
       <c r="CS164" s="8"/>
@@ -26545,43 +26718,45 @@
       <c r="CC165" s="15">
         <v>12.331296000094479</v>
       </c>
-      <c r="CD165" s="15">
+      <c r="CD165" s="21">
         <v>16.377269650702271</v>
       </c>
-      <c r="CE165" s="15">
+      <c r="CE165" s="21">
         <v>19.807236317647099</v>
       </c>
-      <c r="CF165" s="15">
+      <c r="CF165" s="21">
         <v>15.159788781635985</v>
       </c>
-      <c r="CG165" s="15">
+      <c r="CG165" s="21">
         <v>16.223448810278832</v>
       </c>
-      <c r="CH165" s="15">
+      <c r="CH165" s="21">
         <v>20.481987420857038</v>
       </c>
-      <c r="CI165" s="15">
+      <c r="CI165" s="21">
         <v>18.321264722301514</v>
       </c>
-      <c r="CJ165" s="15">
+      <c r="CJ165" s="21">
         <v>16.600795448791171</v>
       </c>
-      <c r="CK165" s="15">
+      <c r="CK165" s="21">
         <v>16.405668592360829</v>
       </c>
-      <c r="CL165" s="15">
+      <c r="CL165" s="21">
         <v>18.951192764948299</v>
       </c>
-      <c r="CM165" s="15">
+      <c r="CM165" s="21">
         <v>17.785181361601524</v>
       </c>
-      <c r="CN165" s="15">
+      <c r="CN165" s="21">
         <v>15.127593432922945</v>
       </c>
-      <c r="CO165" s="15">
+      <c r="CO165" s="21">
         <v>15.896808419825733</v>
       </c>
-      <c r="CP165" s="8"/>
+      <c r="CP165" s="21">
+        <v>17.264666294592423</v>
+      </c>
       <c r="CQ165" s="8"/>
       <c r="CR165" s="8"/>
       <c r="CS165" s="8"/>
@@ -26884,43 +27059,45 @@
       <c r="CC166" s="15">
         <v>49.282665541919236</v>
       </c>
-      <c r="CD166" s="15">
+      <c r="CD166" s="21">
         <v>50.55711067390871</v>
       </c>
-      <c r="CE166" s="15">
+      <c r="CE166" s="21">
         <v>62.918140361561981</v>
       </c>
-      <c r="CF166" s="15">
+      <c r="CF166" s="21">
         <v>62.512150090526752</v>
       </c>
-      <c r="CG166" s="15">
+      <c r="CG166" s="21">
         <v>64.310408029086403</v>
       </c>
-      <c r="CH166" s="15">
+      <c r="CH166" s="21">
         <v>61.161312525362796</v>
       </c>
-      <c r="CI166" s="15">
+      <c r="CI166" s="21">
         <v>59.98789450296573</v>
       </c>
-      <c r="CJ166" s="15">
+      <c r="CJ166" s="21">
         <v>57.674572278271384</v>
       </c>
-      <c r="CK166" s="15">
+      <c r="CK166" s="21">
         <v>60.630953060817014</v>
       </c>
-      <c r="CL166" s="15">
+      <c r="CL166" s="21">
         <v>58.044220266448377</v>
       </c>
-      <c r="CM166" s="15">
+      <c r="CM166" s="21">
         <v>56.342870326104055</v>
       </c>
-      <c r="CN166" s="15">
+      <c r="CN166" s="21">
         <v>51.100317624662694</v>
       </c>
-      <c r="CO166" s="15">
+      <c r="CO166" s="21">
         <v>52.545643538551502</v>
       </c>
-      <c r="CP166" s="8"/>
+      <c r="CP166" s="21">
+        <v>50.224257727386103</v>
+      </c>
       <c r="CQ166" s="8"/>
       <c r="CR166" s="8"/>
       <c r="CS166" s="8"/>
@@ -27223,43 +27400,45 @@
       <c r="CC167" s="15">
         <v>8.6803901470086657</v>
       </c>
-      <c r="CD167" s="15">
+      <c r="CD167" s="21">
         <v>10.455400938710682</v>
       </c>
-      <c r="CE167" s="15">
+      <c r="CE167" s="21">
         <v>11.344422275397761</v>
       </c>
-      <c r="CF167" s="15">
+      <c r="CF167" s="21">
         <v>11.421453982524229</v>
       </c>
-      <c r="CG167" s="15">
+      <c r="CG167" s="21">
         <v>10.46046872292475</v>
       </c>
-      <c r="CH167" s="15">
+      <c r="CH167" s="21">
         <v>12.880979902968203</v>
       </c>
-      <c r="CI167" s="15">
+      <c r="CI167" s="21">
         <v>12.013832945535796</v>
       </c>
-      <c r="CJ167" s="15">
+      <c r="CJ167" s="21">
         <v>12.208201536342186</v>
       </c>
-      <c r="CK167" s="15">
+      <c r="CK167" s="21">
         <v>11.801617241714322</v>
       </c>
-      <c r="CL167" s="15">
+      <c r="CL167" s="21">
         <v>12.392135547770765</v>
       </c>
-      <c r="CM167" s="15">
+      <c r="CM167" s="21">
         <v>10.860189371072559</v>
       </c>
-      <c r="CN167" s="15">
+      <c r="CN167" s="21">
         <v>8.8673750202839567</v>
       </c>
-      <c r="CO167" s="15">
+      <c r="CO167" s="21">
         <v>10.659285741136884</v>
       </c>
-      <c r="CP167" s="8"/>
+      <c r="CP167" s="21">
+        <v>7.4619825924802887</v>
+      </c>
       <c r="CQ167" s="8"/>
       <c r="CR167" s="8"/>
       <c r="CS167" s="8"/>
@@ -27562,43 +27741,45 @@
       <c r="CC168" s="15">
         <v>1.4704774648675385</v>
       </c>
-      <c r="CD168" s="15">
+      <c r="CD168" s="21">
         <v>0.8526095909891741</v>
       </c>
-      <c r="CE168" s="15">
+      <c r="CE168" s="21">
         <v>1.2523114542096694</v>
       </c>
-      <c r="CF168" s="15">
+      <c r="CF168" s="21">
         <v>1.3949869434038273</v>
       </c>
-      <c r="CG168" s="15">
+      <c r="CG168" s="21">
         <v>1.085332025667505</v>
       </c>
-      <c r="CH168" s="15">
+      <c r="CH168" s="21">
         <v>0.99683704814768415</v>
       </c>
-      <c r="CI168" s="15">
+      <c r="CI168" s="21">
         <v>1.1137360342585709</v>
       </c>
-      <c r="CJ168" s="15">
+      <c r="CJ168" s="21">
         <v>1.3987847999926508</v>
       </c>
-      <c r="CK168" s="15">
+      <c r="CK168" s="21">
         <v>1.5697519524923442</v>
       </c>
-      <c r="CL168" s="15">
+      <c r="CL168" s="21">
         <v>1.012985457012362</v>
       </c>
-      <c r="CM168" s="15">
+      <c r="CM168" s="21">
         <v>1.2898738108361971</v>
       </c>
-      <c r="CN168" s="15">
+      <c r="CN168" s="21">
         <v>1.5187813540445654</v>
       </c>
-      <c r="CO168" s="15">
+      <c r="CO168" s="21">
         <v>1.8103655541660508</v>
       </c>
-      <c r="CP168" s="8"/>
+      <c r="CP168" s="21">
+        <v>0.95590419449563047</v>
+      </c>
       <c r="CQ168" s="8"/>
       <c r="CR168" s="8"/>
       <c r="CS168" s="8"/>
@@ -28089,7 +28270,9 @@
       <c r="CO170" s="14">
         <v>100</v>
       </c>
-      <c r="CP170" s="8"/>
+      <c r="CP170" s="14">
+        <v>100</v>
+      </c>
       <c r="CQ170" s="8"/>
       <c r="CR170" s="8"/>
       <c r="CS170" s="8"/>
@@ -28242,6 +28425,7 @@
       <c r="CM171" s="11"/>
       <c r="CN171" s="11"/>
       <c r="CO171" s="11"/>
+      <c r="CP171" s="11"/>
     </row>
     <row r="172" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
@@ -28342,7 +28526,7 @@
       <c r="CM173" s="1"/>
       <c r="CN173" s="1"/>
       <c r="CO173" s="1"/>
-      <c r="CP173" s="16"/>
+      <c r="CP173" s="1"/>
       <c r="CQ173" s="16"/>
       <c r="CR173" s="16"/>
       <c r="CS173" s="16"/>
@@ -28495,7 +28679,7 @@
       <c r="CM174" s="1"/>
       <c r="CN174" s="1"/>
       <c r="CO174" s="1"/>
-      <c r="CP174" s="16"/>
+      <c r="CP174" s="1"/>
       <c r="CQ174" s="16"/>
       <c r="CR174" s="16"/>
       <c r="CS174" s="16"/>
@@ -28555,7 +28739,7 @@
       <c r="EU174" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="161">
+  <mergeCells count="159">
     <mergeCell ref="R108:U108"/>
     <mergeCell ref="CD158:CG158"/>
     <mergeCell ref="CD133:CG133"/>
@@ -28691,9 +28875,6 @@
     <mergeCell ref="BF9:BI9"/>
     <mergeCell ref="BJ9:BM9"/>
     <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ9:CC9"/>
     <mergeCell ref="BR9:BU9"/>
     <mergeCell ref="CH9:CK9"/>
     <mergeCell ref="CH34:CK34"/>
@@ -28715,16 +28896,17 @@
     <mergeCell ref="CL108:CO108"/>
     <mergeCell ref="CL133:CO133"/>
     <mergeCell ref="CL158:CO158"/>
-    <mergeCell ref="CL59:CO59"/>
-    <mergeCell ref="CL84:CO84"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ9:CC9"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="50" max="92" man="1"/>
-    <brk id="100" max="92" man="1"/>
-    <brk id="124" max="92" man="1"/>
+    <brk id="50" max="93" man="1"/>
+    <brk id="100" max="93" man="1"/>
+    <brk id="124" max="93" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-05EOS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-05EOS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A263CCA-1744-4034-885C-F78EC05C7AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948E9536-37C6-4E2F-9EEC-A6ADE40659E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="1560" windowWidth="28770" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EOS" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">EOS!$A$37:$A$48</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EOS!$A$1:$CP$174</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EOS!$A$1:$CQ$174</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="57">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -219,13 +219,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of May 2023</t>
+    <t>As of August 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2023</t>
+    <t>Q1 2000 to Q2 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2023</t>
+    <t>Q1 2001 to Q2 2023</t>
   </si>
 </sst>
 </file>
@@ -345,16 +345,16 @@
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -694,20 +694,20 @@
   </sheetPr>
   <dimension ref="A1:EU174"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="95" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BX3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="95" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="BX14" activePane="bottomRight" state="frozen"/>
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="CD1" sqref="CD1:CP1048576"/>
+      <selection pane="bottomRight" activeCell="CQ5" sqref="CQ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.77734375" style="1" customWidth="1"/>
     <col min="2" max="73" width="8.77734375" style="1" customWidth="1"/>
-    <col min="74" max="94" width="10" style="1" customWidth="1"/>
-    <col min="95" max="16384" width="7.77734375" style="1"/>
+    <col min="74" max="95" width="10" style="1" customWidth="1"/>
+    <col min="96" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:151" x14ac:dyDescent="0.2">
@@ -880,9 +880,10 @@
       <c r="CM9" s="22"/>
       <c r="CN9" s="22"/>
       <c r="CO9" s="22"/>
-      <c r="CP9" s="18">
+      <c r="CP9" s="22">
         <v>2023</v>
       </c>
+      <c r="CQ9" s="23"/>
     </row>
     <row r="10" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
@@ -1164,6 +1165,9 @@
       </c>
       <c r="CP10" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ10" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1413,46 +1417,48 @@
       <c r="CC12" s="7">
         <v>45790.436819050155</v>
       </c>
-      <c r="CD12" s="19">
+      <c r="CD12" s="18">
         <v>34443.779051241945</v>
       </c>
-      <c r="CE12" s="19">
+      <c r="CE12" s="18">
         <v>14174.47972644388</v>
       </c>
-      <c r="CF12" s="19">
+      <c r="CF12" s="18">
         <v>20115.500886305032</v>
       </c>
-      <c r="CG12" s="19">
+      <c r="CG12" s="18">
         <v>22216.480801235044</v>
       </c>
-      <c r="CH12" s="19">
+      <c r="CH12" s="18">
         <v>20994.845549091202</v>
       </c>
-      <c r="CI12" s="19">
+      <c r="CI12" s="18">
         <v>18720.249271725566</v>
       </c>
-      <c r="CJ12" s="19">
+      <c r="CJ12" s="18">
         <v>26605.64460961007</v>
       </c>
-      <c r="CK12" s="19">
+      <c r="CK12" s="18">
         <v>30220.178862962039</v>
       </c>
-      <c r="CL12" s="19">
+      <c r="CL12" s="18">
         <v>50141.526896531599</v>
       </c>
-      <c r="CM12" s="19">
+      <c r="CM12" s="18">
         <v>33174.177713591889</v>
       </c>
-      <c r="CN12" s="19">
+      <c r="CN12" s="18">
         <v>45433.318337045661</v>
       </c>
-      <c r="CO12" s="19">
+      <c r="CO12" s="18">
         <v>57101.427341662231</v>
       </c>
-      <c r="CP12" s="19">
-        <v>92805.314241712244</v>
-      </c>
-      <c r="CQ12" s="8"/>
+      <c r="CP12" s="18">
+        <v>90759.354467504862</v>
+      </c>
+      <c r="CQ12" s="18">
+        <v>36688.044009385638</v>
+      </c>
       <c r="CR12" s="8"/>
       <c r="CS12" s="8"/>
       <c r="CT12" s="8"/>
@@ -1754,46 +1760,48 @@
       <c r="CC13" s="7">
         <v>811.98755828997855</v>
       </c>
-      <c r="CD13" s="19">
+      <c r="CD13" s="18">
         <v>480.0441985661364</v>
       </c>
-      <c r="CE13" s="19">
+      <c r="CE13" s="18">
         <v>295.26631563989986</v>
       </c>
-      <c r="CF13" s="19">
+      <c r="CF13" s="18">
         <v>689.27086824640162</v>
       </c>
-      <c r="CG13" s="19">
+      <c r="CG13" s="18">
         <v>764.01571953703251</v>
       </c>
-      <c r="CH13" s="19">
+      <c r="CH13" s="18">
         <v>492.15836377201595</v>
       </c>
-      <c r="CI13" s="19">
+      <c r="CI13" s="18">
         <v>378.65196210954639</v>
       </c>
-      <c r="CJ13" s="19">
+      <c r="CJ13" s="18">
         <v>784.71308324092604</v>
       </c>
-      <c r="CK13" s="19">
+      <c r="CK13" s="18">
         <v>827.28506832280971</v>
       </c>
-      <c r="CL13" s="19">
+      <c r="CL13" s="18">
         <v>574.23768992813712</v>
       </c>
-      <c r="CM13" s="19">
+      <c r="CM13" s="18">
         <v>434.56660096089865</v>
       </c>
-      <c r="CN13" s="19">
+      <c r="CN13" s="18">
         <v>901.3910259754723</v>
       </c>
-      <c r="CO13" s="19">
+      <c r="CO13" s="18">
         <v>1017.4234524259053</v>
       </c>
-      <c r="CP13" s="19">
-        <v>527.64640731919224</v>
-      </c>
-      <c r="CQ13" s="8"/>
+      <c r="CP13" s="18">
+        <v>474.27613087101957</v>
+      </c>
+      <c r="CQ13" s="18">
+        <v>455.9713996188803</v>
+      </c>
       <c r="CR13" s="8"/>
       <c r="CS13" s="8"/>
       <c r="CT13" s="8"/>
@@ -2095,46 +2103,48 @@
       <c r="CC14" s="7">
         <v>102672.183663597</v>
       </c>
-      <c r="CD14" s="19">
+      <c r="CD14" s="18">
         <v>113062.26479711011</v>
       </c>
-      <c r="CE14" s="19">
+      <c r="CE14" s="18">
         <v>5409.6907766346912</v>
       </c>
-      <c r="CF14" s="19">
+      <c r="CF14" s="18">
         <v>14472.992673047263</v>
       </c>
-      <c r="CG14" s="19">
+      <c r="CG14" s="18">
         <v>8252.2359478950566</v>
       </c>
-      <c r="CH14" s="19">
+      <c r="CH14" s="18">
         <v>1824.7826860301004</v>
       </c>
-      <c r="CI14" s="19">
+      <c r="CI14" s="18">
         <v>29756.647764917354</v>
       </c>
-      <c r="CJ14" s="19">
+      <c r="CJ14" s="18">
         <v>23926.254159618922</v>
       </c>
-      <c r="CK14" s="19">
+      <c r="CK14" s="18">
         <v>13235.535014912855</v>
       </c>
-      <c r="CL14" s="19">
+      <c r="CL14" s="18">
         <v>17456.163863680598</v>
       </c>
-      <c r="CM14" s="19">
+      <c r="CM14" s="18">
         <v>66283.591438967225</v>
       </c>
-      <c r="CN14" s="19">
+      <c r="CN14" s="18">
         <v>105311.49157059008</v>
       </c>
-      <c r="CO14" s="19">
+      <c r="CO14" s="18">
         <v>64203.136054041541</v>
       </c>
-      <c r="CP14" s="19">
+      <c r="CP14" s="18">
         <v>128049.61270907105</v>
       </c>
-      <c r="CQ14" s="8"/>
+      <c r="CQ14" s="18">
+        <v>132330.33872905793</v>
+      </c>
       <c r="CR14" s="8"/>
       <c r="CS14" s="8"/>
       <c r="CT14" s="8"/>
@@ -2436,46 +2446,48 @@
       <c r="CC15" s="7">
         <v>2687.5370860009766</v>
       </c>
-      <c r="CD15" s="19">
+      <c r="CD15" s="18">
         <v>2105.4323915538039</v>
       </c>
-      <c r="CE15" s="19">
+      <c r="CE15" s="18">
         <v>2266.2550765925102</v>
       </c>
-      <c r="CF15" s="19">
+      <c r="CF15" s="18">
         <v>2473.4479522705974</v>
       </c>
-      <c r="CG15" s="19">
+      <c r="CG15" s="18">
         <v>2462.0720387274218</v>
       </c>
-      <c r="CH15" s="19">
+      <c r="CH15" s="18">
         <v>3537.7886341314402</v>
       </c>
-      <c r="CI15" s="19">
+      <c r="CI15" s="18">
         <v>3830.3972034200297</v>
       </c>
-      <c r="CJ15" s="19">
+      <c r="CJ15" s="18">
         <v>4206.527206866479</v>
       </c>
-      <c r="CK15" s="19">
+      <c r="CK15" s="18">
         <v>4195.2180605646736</v>
       </c>
-      <c r="CL15" s="19">
+      <c r="CL15" s="18">
         <v>3729.5283113630962</v>
       </c>
-      <c r="CM15" s="19">
+      <c r="CM15" s="18">
         <v>4331.5359392082883</v>
       </c>
-      <c r="CN15" s="19">
+      <c r="CN15" s="18">
         <v>4463.2768148689938</v>
       </c>
-      <c r="CO15" s="19">
+      <c r="CO15" s="18">
         <v>4595.0686874499042</v>
       </c>
-      <c r="CP15" s="19">
+      <c r="CP15" s="18">
         <v>4570.1940500558103</v>
       </c>
-      <c r="CQ15" s="8"/>
+      <c r="CQ15" s="18">
+        <v>5219.9633965336925</v>
+      </c>
       <c r="CR15" s="8"/>
       <c r="CS15" s="8"/>
       <c r="CT15" s="8"/>
@@ -2777,46 +2789,48 @@
       <c r="CC16" s="7">
         <v>64546.344676669141</v>
       </c>
-      <c r="CD16" s="19">
+      <c r="CD16" s="18">
         <v>108730.73949534736</v>
       </c>
-      <c r="CE16" s="19">
+      <c r="CE16" s="18">
         <v>94355.463227557135</v>
       </c>
-      <c r="CF16" s="19">
+      <c r="CF16" s="18">
         <v>58108.424492498925</v>
       </c>
-      <c r="CG16" s="19">
+      <c r="CG16" s="18">
         <v>63032.484317865848</v>
       </c>
-      <c r="CH16" s="19">
+      <c r="CH16" s="18">
         <v>109197.40960693023</v>
       </c>
-      <c r="CI16" s="19">
+      <c r="CI16" s="18">
         <v>104767.58928580767</v>
       </c>
-      <c r="CJ16" s="19">
+      <c r="CJ16" s="18">
         <v>69917.210739065209</v>
       </c>
-      <c r="CK16" s="19">
+      <c r="CK16" s="18">
         <v>71751.796558186717</v>
       </c>
-      <c r="CL16" s="19">
+      <c r="CL16" s="18">
         <v>119217.8979954884</v>
       </c>
-      <c r="CM16" s="19">
+      <c r="CM16" s="18">
         <v>118035.67759448505</v>
       </c>
-      <c r="CN16" s="19">
+      <c r="CN16" s="18">
         <v>85298.716941900639</v>
       </c>
-      <c r="CO16" s="19">
+      <c r="CO16" s="18">
         <v>88349.252531254111</v>
       </c>
-      <c r="CP16" s="19">
-        <v>130698.48918918465</v>
-      </c>
-      <c r="CQ16" s="8"/>
+      <c r="CP16" s="18">
+        <v>135502.32232032763</v>
+      </c>
+      <c r="CQ16" s="18">
+        <v>128987.3449783593</v>
+      </c>
       <c r="CR16" s="8"/>
       <c r="CS16" s="8"/>
       <c r="CT16" s="8"/>
@@ -3118,46 +3132,48 @@
       <c r="CC17" s="7">
         <v>269156.31011836824</v>
       </c>
-      <c r="CD17" s="19">
+      <c r="CD17" s="18">
         <v>353046.08775540534</v>
       </c>
-      <c r="CE17" s="19">
+      <c r="CE17" s="18">
         <v>298544.10569727549</v>
       </c>
-      <c r="CF17" s="19">
+      <c r="CF17" s="18">
         <v>249825.37479479954</v>
       </c>
-      <c r="CG17" s="19">
+      <c r="CG17" s="18">
         <v>265829.70707802282</v>
       </c>
-      <c r="CH17" s="19">
+      <c r="CH17" s="18">
         <v>351679.52114254609</v>
       </c>
-      <c r="CI17" s="19">
+      <c r="CI17" s="18">
         <v>353529.65916494699</v>
       </c>
-      <c r="CJ17" s="19">
+      <c r="CJ17" s="18">
         <v>260960.18699456754</v>
       </c>
-      <c r="CK17" s="19">
+      <c r="CK17" s="18">
         <v>292354.81528290245</v>
       </c>
-      <c r="CL17" s="19">
+      <c r="CL17" s="18">
         <v>407354.16197559203</v>
       </c>
-      <c r="CM17" s="19">
+      <c r="CM17" s="18">
         <v>417649.08107765322</v>
       </c>
-      <c r="CN17" s="19">
+      <c r="CN17" s="18">
         <v>328602.19931776245</v>
       </c>
-      <c r="CO17" s="19">
+      <c r="CO17" s="18">
         <v>330617.25478872925</v>
       </c>
-      <c r="CP17" s="19">
-        <v>438218.31011370319</v>
-      </c>
-      <c r="CQ17" s="8"/>
+      <c r="CP17" s="18">
+        <v>438458.15859506308</v>
+      </c>
+      <c r="CQ17" s="18">
+        <v>441409.99578828533</v>
+      </c>
       <c r="CR17" s="8"/>
       <c r="CS17" s="8"/>
       <c r="CT17" s="8"/>
@@ -3459,46 +3475,48 @@
       <c r="CC18" s="7">
         <v>46459.03507256334</v>
       </c>
-      <c r="CD18" s="19">
+      <c r="CD18" s="18">
         <v>71805.642590515621</v>
       </c>
-      <c r="CE18" s="19">
+      <c r="CE18" s="18">
         <v>55514.527226990889</v>
       </c>
-      <c r="CF18" s="19">
+      <c r="CF18" s="18">
         <v>45589.088109905439</v>
       </c>
-      <c r="CG18" s="19">
+      <c r="CG18" s="18">
         <v>42373.462819087537</v>
       </c>
-      <c r="CH18" s="19">
+      <c r="CH18" s="18">
         <v>72843.014409014562</v>
       </c>
-      <c r="CI18" s="19">
+      <c r="CI18" s="18">
         <v>73018.929677039428</v>
       </c>
-      <c r="CJ18" s="19">
+      <c r="CJ18" s="18">
         <v>55170.75949903814</v>
       </c>
-      <c r="CK18" s="19">
+      <c r="CK18" s="18">
         <v>55767.085148338512</v>
       </c>
-      <c r="CL18" s="19">
+      <c r="CL18" s="18">
         <v>86134.983310187468</v>
       </c>
-      <c r="CM18" s="19">
+      <c r="CM18" s="18">
         <v>79391.782907497327</v>
       </c>
-      <c r="CN18" s="19">
+      <c r="CN18" s="18">
         <v>58500.276885178675</v>
       </c>
-      <c r="CO18" s="19">
+      <c r="CO18" s="18">
         <v>67519.422955250629</v>
       </c>
-      <c r="CP18" s="19">
-        <v>66237.008735992858</v>
-      </c>
-      <c r="CQ18" s="8"/>
+      <c r="CP18" s="18">
+        <v>67323.097737259697</v>
+      </c>
+      <c r="CQ18" s="18">
+        <v>72565.429562570003</v>
+      </c>
       <c r="CR18" s="8"/>
       <c r="CS18" s="8"/>
       <c r="CT18" s="8"/>
@@ -3800,46 +3818,48 @@
       <c r="CC19" s="7">
         <v>7878.07073289245</v>
       </c>
-      <c r="CD19" s="19">
+      <c r="CD19" s="18">
         <v>5858.8082420570718</v>
       </c>
-      <c r="CE19" s="19">
+      <c r="CE19" s="18">
         <v>6145.9804818577413</v>
       </c>
-      <c r="CF19" s="19">
+      <c r="CF19" s="18">
         <v>5573.8622809499757</v>
       </c>
-      <c r="CG19" s="19">
+      <c r="CG19" s="18">
         <v>4400.8441803208916</v>
       </c>
-      <c r="CH19" s="19">
+      <c r="CH19" s="18">
         <v>5640.3280777314121</v>
       </c>
-      <c r="CI19" s="19">
+      <c r="CI19" s="18">
         <v>6788.76393724439</v>
       </c>
-      <c r="CJ19" s="19">
+      <c r="CJ19" s="18">
         <v>6327.8293279513873</v>
       </c>
-      <c r="CK19" s="19">
+      <c r="CK19" s="18">
         <v>7425.0266070361704</v>
       </c>
-      <c r="CL19" s="19">
+      <c r="CL19" s="18">
         <v>6985.328235938412</v>
       </c>
-      <c r="CM19" s="19">
+      <c r="CM19" s="18">
         <v>9386.617492368041</v>
       </c>
-      <c r="CN19" s="19">
+      <c r="CN19" s="18">
         <v>9326.1589327401853</v>
       </c>
-      <c r="CO19" s="19">
+      <c r="CO19" s="18">
         <v>11124.599699881461</v>
       </c>
-      <c r="CP19" s="19">
-        <v>8418.0409910299168</v>
-      </c>
-      <c r="CQ19" s="8"/>
+      <c r="CP19" s="18">
+        <v>8730.0729440266932</v>
+      </c>
+      <c r="CQ19" s="18">
+        <v>14091.47674314199</v>
+      </c>
       <c r="CR19" s="8"/>
       <c r="CS19" s="8"/>
       <c r="CT19" s="8"/>
@@ -4293,46 +4313,48 @@
       <c r="CC21" s="10">
         <v>540001.90572743129</v>
       </c>
-      <c r="CD21" s="20">
+      <c r="CD21" s="19">
         <v>689532.79852179741</v>
       </c>
-      <c r="CE21" s="20">
+      <c r="CE21" s="19">
         <v>476705.76852899225</v>
       </c>
-      <c r="CF21" s="20">
+      <c r="CF21" s="19">
         <v>396847.96205802314</v>
       </c>
-      <c r="CG21" s="20">
+      <c r="CG21" s="19">
         <v>409331.30290269171</v>
       </c>
-      <c r="CH21" s="20">
+      <c r="CH21" s="19">
         <v>566209.84846924711</v>
       </c>
-      <c r="CI21" s="20">
+      <c r="CI21" s="19">
         <v>590790.88826721103</v>
       </c>
-      <c r="CJ21" s="20">
+      <c r="CJ21" s="19">
         <v>447899.12561995868</v>
       </c>
-      <c r="CK21" s="20">
+      <c r="CK21" s="19">
         <v>475776.94060322625</v>
       </c>
-      <c r="CL21" s="20">
+      <c r="CL21" s="19">
         <v>691593.82827870979</v>
       </c>
-      <c r="CM21" s="20">
+      <c r="CM21" s="19">
         <v>728687.03076473204</v>
       </c>
-      <c r="CN21" s="20">
+      <c r="CN21" s="19">
         <v>637836.8298260622</v>
       </c>
-      <c r="CO21" s="20">
+      <c r="CO21" s="19">
         <v>624527.585510695</v>
       </c>
-      <c r="CP21" s="20">
-        <v>869524.6164380688</v>
-      </c>
-      <c r="CQ21" s="8"/>
+      <c r="CP21" s="19">
+        <v>873867.08895417978</v>
+      </c>
+      <c r="CQ21" s="19">
+        <v>831748.56460695283</v>
+      </c>
       <c r="CR21" s="8"/>
       <c r="CS21" s="8"/>
       <c r="CT21" s="8"/>
@@ -4485,6 +4507,7 @@
       <c r="CN22" s="11"/>
       <c r="CO22" s="11"/>
       <c r="CP22" s="11"/>
+      <c r="CQ22" s="11"/>
     </row>
     <row r="23" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
@@ -4827,126 +4850,126 @@
     </row>
     <row r="34" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="23">
+      <c r="B34" s="21">
         <v>2000</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23">
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21">
         <v>2001</v>
       </c>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23">
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21">
         <v>2002</v>
       </c>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23">
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21">
         <v>2003</v>
       </c>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23">
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21">
         <v>2004</v>
       </c>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23">
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21">
         <v>2005</v>
       </c>
-      <c r="W34" s="23"/>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="23"/>
-      <c r="Z34" s="23">
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="21">
         <v>2006</v>
       </c>
-      <c r="AA34" s="23"/>
-      <c r="AB34" s="23"/>
-      <c r="AC34" s="23"/>
-      <c r="AD34" s="23">
+      <c r="AA34" s="21"/>
+      <c r="AB34" s="21"/>
+      <c r="AC34" s="21"/>
+      <c r="AD34" s="21">
         <v>2007</v>
       </c>
-      <c r="AE34" s="23"/>
-      <c r="AF34" s="23"/>
-      <c r="AG34" s="23"/>
-      <c r="AH34" s="23">
+      <c r="AE34" s="21"/>
+      <c r="AF34" s="21"/>
+      <c r="AG34" s="21"/>
+      <c r="AH34" s="21">
         <v>2008</v>
       </c>
-      <c r="AI34" s="23"/>
-      <c r="AJ34" s="23"/>
-      <c r="AK34" s="23"/>
-      <c r="AL34" s="23">
+      <c r="AI34" s="21"/>
+      <c r="AJ34" s="21"/>
+      <c r="AK34" s="21"/>
+      <c r="AL34" s="21">
         <v>2009</v>
       </c>
-      <c r="AM34" s="23"/>
-      <c r="AN34" s="23"/>
-      <c r="AO34" s="23"/>
-      <c r="AP34" s="23">
+      <c r="AM34" s="21"/>
+      <c r="AN34" s="21"/>
+      <c r="AO34" s="21"/>
+      <c r="AP34" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ34" s="23"/>
-      <c r="AR34" s="23"/>
-      <c r="AS34" s="23"/>
-      <c r="AT34" s="23">
+      <c r="AQ34" s="21"/>
+      <c r="AR34" s="21"/>
+      <c r="AS34" s="21"/>
+      <c r="AT34" s="21">
         <v>2011</v>
       </c>
-      <c r="AU34" s="23"/>
-      <c r="AV34" s="23"/>
-      <c r="AW34" s="23"/>
-      <c r="AX34" s="23">
+      <c r="AU34" s="21"/>
+      <c r="AV34" s="21"/>
+      <c r="AW34" s="21"/>
+      <c r="AX34" s="21">
         <v>2012</v>
       </c>
-      <c r="AY34" s="23"/>
-      <c r="AZ34" s="23"/>
-      <c r="BA34" s="23"/>
-      <c r="BB34" s="23">
+      <c r="AY34" s="21"/>
+      <c r="AZ34" s="21"/>
+      <c r="BA34" s="21"/>
+      <c r="BB34" s="21">
         <v>2013</v>
       </c>
-      <c r="BC34" s="23"/>
-      <c r="BD34" s="23"/>
-      <c r="BE34" s="23"/>
-      <c r="BF34" s="23">
+      <c r="BC34" s="21"/>
+      <c r="BD34" s="21"/>
+      <c r="BE34" s="21"/>
+      <c r="BF34" s="21">
         <v>2014</v>
       </c>
-      <c r="BG34" s="23"/>
-      <c r="BH34" s="23"/>
-      <c r="BI34" s="23"/>
-      <c r="BJ34" s="23">
+      <c r="BG34" s="21"/>
+      <c r="BH34" s="21"/>
+      <c r="BI34" s="21"/>
+      <c r="BJ34" s="21">
         <v>2015</v>
       </c>
-      <c r="BK34" s="23"/>
-      <c r="BL34" s="23"/>
-      <c r="BM34" s="23"/>
-      <c r="BN34" s="23">
+      <c r="BK34" s="21"/>
+      <c r="BL34" s="21"/>
+      <c r="BM34" s="21"/>
+      <c r="BN34" s="21">
         <v>2016</v>
       </c>
-      <c r="BO34" s="23"/>
-      <c r="BP34" s="23"/>
-      <c r="BQ34" s="23"/>
-      <c r="BR34" s="23">
+      <c r="BO34" s="21"/>
+      <c r="BP34" s="21"/>
+      <c r="BQ34" s="21"/>
+      <c r="BR34" s="21">
         <v>2017</v>
       </c>
-      <c r="BS34" s="23"/>
-      <c r="BT34" s="23"/>
-      <c r="BU34" s="23"/>
-      <c r="BV34" s="23">
+      <c r="BS34" s="21"/>
+      <c r="BT34" s="21"/>
+      <c r="BU34" s="21"/>
+      <c r="BV34" s="21">
         <v>2018</v>
       </c>
-      <c r="BW34" s="23"/>
-      <c r="BX34" s="23"/>
-      <c r="BY34" s="23"/>
-      <c r="BZ34" s="23">
+      <c r="BW34" s="21"/>
+      <c r="BX34" s="21"/>
+      <c r="BY34" s="21"/>
+      <c r="BZ34" s="21">
         <v>2019</v>
       </c>
-      <c r="CA34" s="23"/>
-      <c r="CB34" s="23"/>
-      <c r="CC34" s="23"/>
+      <c r="CA34" s="21"/>
+      <c r="CB34" s="21"/>
+      <c r="CC34" s="21"/>
       <c r="CD34" s="22">
         <v>2020</v>
       </c>
@@ -4965,9 +4988,10 @@
       <c r="CM34" s="22"/>
       <c r="CN34" s="22"/>
       <c r="CO34" s="22"/>
-      <c r="CP34" s="18">
+      <c r="CP34" s="22">
         <v>2023</v>
       </c>
+      <c r="CQ34" s="23"/>
     </row>
     <row r="35" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
@@ -5249,6 +5273,9 @@
       </c>
       <c r="CP35" s="13" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ35" s="13" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -5498,46 +5525,48 @@
       <c r="CC37" s="7">
         <v>44725.990643891746</v>
       </c>
-      <c r="CD37" s="19">
+      <c r="CD37" s="18">
         <v>32954.070412654604</v>
       </c>
-      <c r="CE37" s="19">
+      <c r="CE37" s="18">
         <v>14434.918795552388</v>
       </c>
-      <c r="CF37" s="19">
+      <c r="CF37" s="18">
         <v>19288.710517255629</v>
       </c>
-      <c r="CG37" s="19">
+      <c r="CG37" s="18">
         <v>20102.093872421516</v>
       </c>
-      <c r="CH37" s="19">
+      <c r="CH37" s="18">
         <v>18100.306583526231</v>
       </c>
-      <c r="CI37" s="19">
+      <c r="CI37" s="18">
         <v>17259.594560031259</v>
       </c>
-      <c r="CJ37" s="19">
+      <c r="CJ37" s="18">
         <v>23961.906946117593</v>
       </c>
-      <c r="CK37" s="19">
+      <c r="CK37" s="18">
         <v>25473.984362080206</v>
       </c>
-      <c r="CL37" s="19">
+      <c r="CL37" s="18">
         <v>39764.430508135309</v>
       </c>
-      <c r="CM37" s="19">
+      <c r="CM37" s="18">
         <v>26620.30384489982</v>
       </c>
-      <c r="CN37" s="19">
+      <c r="CN37" s="18">
         <v>35357.329087856539</v>
       </c>
-      <c r="CO37" s="19">
+      <c r="CO37" s="18">
         <v>42923.047723132688</v>
       </c>
-      <c r="CP37" s="19">
-        <v>67876.745434995828</v>
-      </c>
-      <c r="CQ37" s="8"/>
+      <c r="CP37" s="18">
+        <v>66380.3538554962</v>
+      </c>
+      <c r="CQ37" s="18">
+        <v>25899.265033307081</v>
+      </c>
       <c r="CR37" s="8"/>
       <c r="CS37" s="8"/>
       <c r="CT37" s="8"/>
@@ -5839,46 +5868,48 @@
       <c r="CC38" s="7">
         <v>802.96901766546466</v>
       </c>
-      <c r="CD38" s="19">
+      <c r="CD38" s="18">
         <v>459.92698587605793</v>
       </c>
-      <c r="CE38" s="19">
+      <c r="CE38" s="18">
         <v>284.63191520704015</v>
       </c>
-      <c r="CF38" s="19">
+      <c r="CF38" s="18">
         <v>651.71473005547659</v>
       </c>
-      <c r="CG38" s="19">
+      <c r="CG38" s="18">
         <v>738.78384769964555</v>
       </c>
-      <c r="CH38" s="19">
+      <c r="CH38" s="18">
         <v>458.80254232322784</v>
       </c>
-      <c r="CI38" s="19">
+      <c r="CI38" s="18">
         <v>351.86140461322526</v>
       </c>
-      <c r="CJ38" s="19">
+      <c r="CJ38" s="18">
         <v>718.1813386280528</v>
       </c>
-      <c r="CK38" s="19">
+      <c r="CK38" s="18">
         <v>770.19546330619676</v>
       </c>
-      <c r="CL38" s="19">
+      <c r="CL38" s="18">
         <v>513.260353030533</v>
       </c>
-      <c r="CM38" s="19">
+      <c r="CM38" s="18">
         <v>382.06821091022977</v>
       </c>
-      <c r="CN38" s="19">
+      <c r="CN38" s="18">
         <v>776.70768745237024</v>
       </c>
-      <c r="CO38" s="19">
+      <c r="CO38" s="18">
         <v>889.21572221660801</v>
       </c>
-      <c r="CP38" s="19">
-        <v>441.20738253262351</v>
-      </c>
-      <c r="CQ38" s="8"/>
+      <c r="CP38" s="18">
+        <v>396.58022379505599</v>
+      </c>
+      <c r="CQ38" s="18">
+        <v>382.30657292821888</v>
+      </c>
       <c r="CR38" s="8"/>
       <c r="CS38" s="8"/>
       <c r="CT38" s="8"/>
@@ -6180,46 +6211,48 @@
       <c r="CC39" s="7">
         <v>101660.9649982664</v>
       </c>
-      <c r="CD39" s="19">
+      <c r="CD39" s="18">
         <v>107615.99078256269</v>
       </c>
-      <c r="CE39" s="19">
+      <c r="CE39" s="18">
         <v>5149.6507164927534</v>
       </c>
-      <c r="CF39" s="19">
+      <c r="CF39" s="18">
         <v>13657.848098351255</v>
       </c>
-      <c r="CG39" s="19">
+      <c r="CG39" s="18">
         <v>7924.9178789822236</v>
       </c>
-      <c r="CH39" s="19">
+      <c r="CH39" s="18">
         <v>1662.6424547885979</v>
       </c>
-      <c r="CI39" s="19">
+      <c r="CI39" s="18">
         <v>27136.973094335204</v>
       </c>
-      <c r="CJ39" s="19">
+      <c r="CJ39" s="18">
         <v>21592.900004147494</v>
       </c>
-      <c r="CK39" s="19">
+      <c r="CK39" s="18">
         <v>12202.689945533572</v>
       </c>
-      <c r="CL39" s="19">
+      <c r="CL39" s="18">
         <v>15389.064093647212</v>
       </c>
-      <c r="CM39" s="19">
+      <c r="CM39" s="18">
         <v>57321.791102132127</v>
       </c>
-      <c r="CN39" s="19">
+      <c r="CN39" s="18">
         <v>88956.594041921373</v>
       </c>
-      <c r="CO39" s="19">
+      <c r="CO39" s="18">
         <v>54857.258251901527</v>
       </c>
-      <c r="CP39" s="19">
+      <c r="CP39" s="18">
         <v>104952.98838100983</v>
       </c>
-      <c r="CQ39" s="8"/>
+      <c r="CQ39" s="18">
+        <v>107908.32982931691</v>
+      </c>
       <c r="CR39" s="8"/>
       <c r="CS39" s="8"/>
       <c r="CT39" s="8"/>
@@ -6521,46 +6554,48 @@
       <c r="CC40" s="7">
         <v>2593.7949415158037</v>
       </c>
-      <c r="CD40" s="19">
+      <c r="CD40" s="18">
         <v>2056.4855878783655</v>
       </c>
-      <c r="CE40" s="19">
+      <c r="CE40" s="18">
         <v>2215.1317649435327</v>
       </c>
-      <c r="CF40" s="19">
+      <c r="CF40" s="18">
         <v>2360.4587376334443</v>
       </c>
-      <c r="CG40" s="19">
+      <c r="CG40" s="18">
         <v>2329.5726083375725</v>
       </c>
-      <c r="CH40" s="19">
+      <c r="CH40" s="18">
         <v>3377.1366005109758</v>
       </c>
-      <c r="CI40" s="19">
+      <c r="CI40" s="18">
         <v>3653.8035884798378</v>
       </c>
-      <c r="CJ40" s="19">
+      <c r="CJ40" s="18">
         <v>3931.3790722056619</v>
       </c>
-      <c r="CK40" s="19">
+      <c r="CK40" s="18">
         <v>3847.7974661865246</v>
       </c>
-      <c r="CL40" s="19">
+      <c r="CL40" s="18">
         <v>3434.5919735030589</v>
       </c>
-      <c r="CM40" s="19">
+      <c r="CM40" s="18">
         <v>3938.4675463402086</v>
       </c>
-      <c r="CN40" s="19">
+      <c r="CN40" s="18">
         <v>3966.0472849247194</v>
       </c>
-      <c r="CO40" s="19">
+      <c r="CO40" s="18">
         <v>3977.1461621146914</v>
       </c>
-      <c r="CP40" s="19">
+      <c r="CP40" s="18">
         <v>3948.5227029077737</v>
       </c>
-      <c r="CQ40" s="8"/>
+      <c r="CQ40" s="18">
+        <v>4480.5580480484614</v>
+      </c>
       <c r="CR40" s="8"/>
       <c r="CS40" s="8"/>
       <c r="CT40" s="8"/>
@@ -6862,46 +6897,48 @@
       <c r="CC41" s="7">
         <v>65415.838723488094</v>
       </c>
-      <c r="CD41" s="19">
+      <c r="CD41" s="18">
         <v>107703.27514348591</v>
       </c>
-      <c r="CE41" s="19">
+      <c r="CE41" s="18">
         <v>93510.032233319303</v>
       </c>
-      <c r="CF41" s="19">
+      <c r="CF41" s="18">
         <v>57311.664224017528</v>
       </c>
-      <c r="CG41" s="19">
+      <c r="CG41" s="18">
         <v>63693.472845714576</v>
       </c>
-      <c r="CH41" s="19">
+      <c r="CH41" s="18">
         <v>107918.00540295031</v>
       </c>
-      <c r="CI41" s="19">
+      <c r="CI41" s="18">
         <v>103557.39473418298</v>
       </c>
-      <c r="CJ41" s="19">
+      <c r="CJ41" s="18">
         <v>68778.411050953422</v>
       </c>
-      <c r="CK41" s="19">
+      <c r="CK41" s="18">
         <v>72338.577129792466</v>
       </c>
-      <c r="CL41" s="19">
+      <c r="CL41" s="18">
         <v>116677.43002870887</v>
       </c>
-      <c r="CM41" s="19">
+      <c r="CM41" s="18">
         <v>114398.77827366724</v>
       </c>
-      <c r="CN41" s="19">
+      <c r="CN41" s="18">
         <v>83482.535941170252</v>
       </c>
-      <c r="CO41" s="19">
+      <c r="CO41" s="18">
         <v>85486.339096444455</v>
       </c>
-      <c r="CP41" s="19">
-        <v>126991.69383114183</v>
-      </c>
-      <c r="CQ41" s="8"/>
+      <c r="CP41" s="18">
+        <v>131657.7994655674</v>
+      </c>
+      <c r="CQ41" s="18">
+        <v>124483.47918496309</v>
+      </c>
       <c r="CR41" s="8"/>
       <c r="CS41" s="8"/>
       <c r="CT41" s="8"/>
@@ -7203,46 +7240,48 @@
       <c r="CC42" s="7">
         <v>261437.80028709813</v>
       </c>
-      <c r="CD42" s="19">
+      <c r="CD42" s="18">
         <v>332483.16218193091</v>
       </c>
-      <c r="CE42" s="19">
+      <c r="CE42" s="18">
         <v>297036.76166211697</v>
       </c>
-      <c r="CF42" s="19">
+      <c r="CF42" s="18">
         <v>236327.52457933835</v>
       </c>
-      <c r="CG42" s="19">
+      <c r="CG42" s="18">
         <v>252483.50553565435</v>
       </c>
-      <c r="CH42" s="19">
+      <c r="CH42" s="18">
         <v>322254.21878945042</v>
       </c>
-      <c r="CI42" s="19">
+      <c r="CI42" s="18">
         <v>339069.93673610175</v>
       </c>
-      <c r="CJ42" s="19">
+      <c r="CJ42" s="18">
         <v>238950.32328897968</v>
       </c>
-      <c r="CK42" s="19">
+      <c r="CK42" s="18">
         <v>267343.98843610822</v>
       </c>
-      <c r="CL42" s="19">
+      <c r="CL42" s="18">
         <v>357362.75456158456</v>
       </c>
-      <c r="CM42" s="19">
+      <c r="CM42" s="18">
         <v>362411.57167247194</v>
       </c>
-      <c r="CN42" s="19">
+      <c r="CN42" s="18">
         <v>282000.18209253578</v>
       </c>
-      <c r="CO42" s="19">
+      <c r="CO42" s="18">
         <v>282568.33591674821</v>
       </c>
-      <c r="CP42" s="19">
-        <v>369428.71940770088</v>
-      </c>
-      <c r="CQ42" s="8"/>
+      <c r="CP42" s="18">
+        <v>369595.05173715425</v>
+      </c>
+      <c r="CQ42" s="18">
+        <v>369271.05106020212</v>
+      </c>
       <c r="CR42" s="8"/>
       <c r="CS42" s="8"/>
       <c r="CT42" s="8"/>
@@ -7544,46 +7583,48 @@
       <c r="CC43" s="7">
         <v>46048.282508936878</v>
       </c>
-      <c r="CD43" s="19">
+      <c r="CD43" s="18">
         <v>68758.770421120236</v>
       </c>
-      <c r="CE43" s="19">
+      <c r="CE43" s="18">
         <v>53557.057412179376</v>
       </c>
-      <c r="CF43" s="19">
+      <c r="CF43" s="18">
         <v>43178.869113891196</v>
       </c>
-      <c r="CG43" s="19">
+      <c r="CG43" s="18">
         <v>41067.937424928037</v>
       </c>
-      <c r="CH43" s="19">
+      <c r="CH43" s="18">
         <v>67868.885484631886</v>
       </c>
-      <c r="CI43" s="19">
+      <c r="CI43" s="18">
         <v>67905.860183166238</v>
       </c>
-      <c r="CJ43" s="19">
+      <c r="CJ43" s="18">
         <v>50579.546386770642</v>
       </c>
-      <c r="CK43" s="19">
+      <c r="CK43" s="18">
         <v>52037.635302078721</v>
       </c>
-      <c r="CL43" s="19">
+      <c r="CL43" s="18">
         <v>76295.067345606396</v>
       </c>
-      <c r="CM43" s="19">
+      <c r="CM43" s="18">
         <v>69855.480841691693</v>
       </c>
-      <c r="CN43" s="19">
+      <c r="CN43" s="18">
         <v>48935.143393238061</v>
       </c>
-      <c r="CO43" s="19">
+      <c r="CO43" s="18">
         <v>57321.148454949551</v>
       </c>
-      <c r="CP43" s="19">
-        <v>54887.235732692599</v>
-      </c>
-      <c r="CQ43" s="8"/>
+      <c r="CP43" s="18">
+        <v>55787.222374251556</v>
+      </c>
+      <c r="CQ43" s="18">
+        <v>60889.765891529736</v>
+      </c>
       <c r="CR43" s="8"/>
       <c r="CS43" s="8"/>
       <c r="CT43" s="8"/>
@@ -7885,46 +7926,48 @@
       <c r="CC44" s="7">
         <v>7800.6818332445764</v>
       </c>
-      <c r="CD44" s="19">
+      <c r="CD44" s="18">
         <v>5607.0912506679224</v>
       </c>
-      <c r="CE44" s="19">
+      <c r="CE44" s="18">
         <v>5912.1667743706657</v>
       </c>
-      <c r="CF44" s="19">
+      <c r="CF44" s="18">
         <v>5273.7557527249992</v>
       </c>
-      <c r="CG44" s="19">
+      <c r="CG44" s="18">
         <v>4261.0277699794169</v>
       </c>
-      <c r="CH44" s="19">
+      <c r="CH44" s="18">
         <v>5252.2572022633067</v>
       </c>
-      <c r="CI44" s="19">
+      <c r="CI44" s="18">
         <v>6295.1768820307689</v>
       </c>
-      <c r="CJ44" s="19">
+      <c r="CJ44" s="18">
         <v>5795.276271097342</v>
       </c>
-      <c r="CK44" s="19">
+      <c r="CK44" s="18">
         <v>6921.6089579479312</v>
       </c>
-      <c r="CL44" s="19">
+      <c r="CL44" s="18">
         <v>6236.6807855633124</v>
       </c>
-      <c r="CM44" s="19">
+      <c r="CM44" s="18">
         <v>8296.7941167833451</v>
       </c>
-      <c r="CN44" s="19">
+      <c r="CN44" s="18">
         <v>8381.4864233369353</v>
       </c>
-      <c r="CO44" s="19">
+      <c r="CO44" s="18">
         <v>9735.3833275709912</v>
       </c>
-      <c r="CP44" s="19">
-        <v>7031.2330819458293</v>
-      </c>
-      <c r="CQ44" s="8"/>
+      <c r="CP44" s="18">
+        <v>7291.860155735676</v>
+      </c>
+      <c r="CQ44" s="18">
+        <v>11878.108919901721</v>
+      </c>
       <c r="CR44" s="8"/>
       <c r="CS44" s="8"/>
       <c r="CT44" s="8"/>
@@ -8378,46 +8421,48 @@
       <c r="CC46" s="10">
         <v>530486.32295410708</v>
       </c>
-      <c r="CD46" s="20">
+      <c r="CD46" s="19">
         <v>657638.77276617661</v>
       </c>
-      <c r="CE46" s="20">
+      <c r="CE46" s="19">
         <v>472100.35127418197</v>
       </c>
-      <c r="CF46" s="20">
+      <c r="CF46" s="19">
         <v>378050.54575326788</v>
       </c>
-      <c r="CG46" s="20">
+      <c r="CG46" s="19">
         <v>392601.31178371736</v>
       </c>
-      <c r="CH46" s="20">
+      <c r="CH46" s="19">
         <v>526892.25506044494</v>
       </c>
-      <c r="CI46" s="20">
+      <c r="CI46" s="19">
         <v>565230.60118294123</v>
       </c>
-      <c r="CJ46" s="20">
+      <c r="CJ46" s="19">
         <v>414307.92435889994</v>
       </c>
-      <c r="CK46" s="20">
+      <c r="CK46" s="19">
         <v>440936.47706303385</v>
       </c>
-      <c r="CL46" s="20">
+      <c r="CL46" s="19">
         <v>615673.2796497792</v>
       </c>
-      <c r="CM46" s="20">
+      <c r="CM46" s="19">
         <v>643225.25560889661</v>
       </c>
-      <c r="CN46" s="20">
+      <c r="CN46" s="19">
         <v>551856.02595243603</v>
       </c>
-      <c r="CO46" s="20">
+      <c r="CO46" s="19">
         <v>537757.87465507863</v>
       </c>
-      <c r="CP46" s="20">
-        <v>735558.34595492715</v>
-      </c>
-      <c r="CQ46" s="8"/>
+      <c r="CP46" s="19">
+        <v>740010.37889591767</v>
+      </c>
+      <c r="CQ46" s="19">
+        <v>705192.86454019742</v>
+      </c>
       <c r="CR46" s="8"/>
       <c r="CS46" s="8"/>
       <c r="CT46" s="8"/>
@@ -8570,6 +8615,7 @@
       <c r="CN47" s="11"/>
       <c r="CO47" s="11"/>
       <c r="CP47" s="11"/>
+      <c r="CQ47" s="11"/>
     </row>
     <row r="48" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
@@ -9044,13 +9090,16 @@
       <c r="CI59" s="22"/>
       <c r="CJ59" s="22"/>
       <c r="CK59" s="22"/>
-      <c r="CL59" s="18" t="s">
+      <c r="CL59" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="CM59" s="18"/>
-      <c r="CN59" s="18"/>
-      <c r="CO59" s="18"/>
-      <c r="CP59" s="18"/>
+      <c r="CM59" s="22">
+        <v>0</v>
+      </c>
+      <c r="CN59" s="22"/>
+      <c r="CO59" s="22"/>
+      <c r="CP59" s="22"/>
+      <c r="CQ59" s="23"/>
     </row>
     <row r="60" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
@@ -9321,10 +9370,13 @@
       <c r="CL60" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CM60" s="13"/>
+      <c r="CM60" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="CN60" s="13"/>
       <c r="CO60" s="13"/>
       <c r="CP60" s="13"/>
+      <c r="CQ60" s="13"/>
     </row>
     <row r="61" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
@@ -9598,13 +9650,15 @@
         <v>88.951321567609739</v>
       </c>
       <c r="CL62" s="14">
-        <v>85.086733463898156</v>
-      </c>
-      <c r="CM62" s="14"/>
+        <v>81.00636355727508</v>
+      </c>
+      <c r="CM62" s="14">
+        <v>10.592173003142975</v>
+      </c>
       <c r="CN62" s="14"/>
       <c r="CO62" s="14"/>
       <c r="CP62" s="14"/>
-      <c r="CQ62" s="8"/>
+      <c r="CQ62" s="14"/>
       <c r="CR62" s="8"/>
       <c r="CS62" s="8"/>
       <c r="CT62" s="8"/>
@@ -9927,13 +9981,15 @@
         <v>22.983417854811677</v>
       </c>
       <c r="CL63" s="14">
-        <v>-8.1135884018298299</v>
-      </c>
-      <c r="CM63" s="14"/>
+        <v>-17.407697336903681</v>
+      </c>
+      <c r="CM63" s="14">
+        <v>4.9255507925947626</v>
+      </c>
       <c r="CN63" s="14"/>
       <c r="CO63" s="14"/>
       <c r="CP63" s="14"/>
-      <c r="CQ63" s="8"/>
+      <c r="CQ63" s="14"/>
       <c r="CR63" s="8"/>
       <c r="CS63" s="8"/>
       <c r="CT63" s="8"/>
@@ -10258,11 +10314,13 @@
       <c r="CL64" s="14">
         <v>633.54955710224431</v>
       </c>
-      <c r="CM64" s="14"/>
+      <c r="CM64" s="14">
+        <v>99.642680573374463</v>
+      </c>
       <c r="CN64" s="14"/>
       <c r="CO64" s="14"/>
       <c r="CP64" s="14"/>
-      <c r="CQ64" s="8"/>
+      <c r="CQ64" s="14"/>
       <c r="CR64" s="8"/>
       <c r="CS64" s="8"/>
       <c r="CT64" s="8"/>
@@ -10587,11 +10645,13 @@
       <c r="CL65" s="14">
         <v>22.540805927960932</v>
       </c>
-      <c r="CM65" s="14"/>
+      <c r="CM65" s="14">
+        <v>20.510679578657488</v>
+      </c>
       <c r="CN65" s="14"/>
       <c r="CO65" s="14"/>
       <c r="CP65" s="14"/>
-      <c r="CQ65" s="8"/>
+      <c r="CQ65" s="14"/>
       <c r="CR65" s="8"/>
       <c r="CS65" s="8"/>
       <c r="CT65" s="8"/>
@@ -10914,13 +10974,15 @@
         <v>23.131763620173302</v>
       </c>
       <c r="CL66" s="14">
-        <v>9.6299225088926761</v>
-      </c>
-      <c r="CM66" s="14"/>
+        <v>13.659378833751518</v>
+      </c>
+      <c r="CM66" s="14">
+        <v>9.2782687464200535</v>
+      </c>
       <c r="CN66" s="14"/>
       <c r="CO66" s="14"/>
       <c r="CP66" s="14"/>
-      <c r="CQ66" s="8"/>
+      <c r="CQ66" s="14"/>
       <c r="CR66" s="8"/>
       <c r="CS66" s="8"/>
       <c r="CT66" s="8"/>
@@ -11243,13 +11305,15 @@
         <v>13.08767207025528</v>
       </c>
       <c r="CL67" s="14">
-        <v>7.5767356809184747</v>
-      </c>
-      <c r="CM67" s="14"/>
+        <v>7.6356152760591556</v>
+      </c>
+      <c r="CM67" s="14">
+        <v>5.6892055524993026</v>
+      </c>
       <c r="CN67" s="14"/>
       <c r="CO67" s="14"/>
       <c r="CP67" s="14"/>
-      <c r="CQ67" s="8"/>
+      <c r="CQ67" s="14"/>
       <c r="CR67" s="8"/>
       <c r="CS67" s="8"/>
       <c r="CT67" s="8"/>
@@ -11572,13 +11636,15 @@
         <v>21.073968229917895</v>
       </c>
       <c r="CL68" s="14">
-        <v>-23.10092114668258</v>
-      </c>
-      <c r="CM68" s="14"/>
+        <v>-21.840006057913556</v>
+      </c>
+      <c r="CM68" s="14">
+        <v>-8.5983121866415217</v>
+      </c>
       <c r="CN68" s="14"/>
       <c r="CO68" s="14"/>
       <c r="CP68" s="14"/>
-      <c r="CQ68" s="8"/>
+      <c r="CQ68" s="14"/>
       <c r="CR68" s="8"/>
       <c r="CS68" s="8"/>
       <c r="CT68" s="8"/>
@@ -11901,13 +11967,15 @@
         <v>49.825721692895598</v>
       </c>
       <c r="CL69" s="14">
-        <v>20.510313999568751</v>
-      </c>
-      <c r="CM69" s="14"/>
+        <v>24.977275929738639</v>
+      </c>
+      <c r="CM69" s="14">
+        <v>50.123052895244939</v>
+      </c>
       <c r="CN69" s="14"/>
       <c r="CO69" s="14"/>
       <c r="CP69" s="14"/>
-      <c r="CQ69" s="8"/>
+      <c r="CQ69" s="14"/>
       <c r="CR69" s="8"/>
       <c r="CS69" s="8"/>
       <c r="CT69" s="8"/>
@@ -12378,13 +12446,15 @@
         <v>31.264786544482661</v>
       </c>
       <c r="CL71" s="14">
-        <v>25.727642567633424</v>
-      </c>
-      <c r="CM71" s="14"/>
+        <v>26.355536041888229</v>
+      </c>
+      <c r="CM71" s="14">
+        <v>14.143456585752759</v>
+      </c>
       <c r="CN71" s="14"/>
       <c r="CO71" s="14"/>
       <c r="CP71" s="14"/>
-      <c r="CQ71" s="8"/>
+      <c r="CQ71" s="14"/>
       <c r="CR71" s="8"/>
       <c r="CS71" s="8"/>
       <c r="CT71" s="8"/>
@@ -12533,6 +12603,7 @@
       <c r="CN72" s="11"/>
       <c r="CO72" s="11"/>
       <c r="CP72" s="11"/>
+      <c r="CQ72" s="11"/>
     </row>
     <row r="73" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
@@ -12999,13 +13070,16 @@
       <c r="CI84" s="22"/>
       <c r="CJ84" s="22"/>
       <c r="CK84" s="22"/>
-      <c r="CL84" s="18" t="s">
+      <c r="CL84" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="CM84" s="18"/>
-      <c r="CN84" s="18"/>
-      <c r="CO84" s="18"/>
-      <c r="CP84" s="18"/>
+      <c r="CM84" s="22">
+        <v>0</v>
+      </c>
+      <c r="CN84" s="22"/>
+      <c r="CO84" s="22"/>
+      <c r="CP84" s="22"/>
+      <c r="CQ84" s="23"/>
     </row>
     <row r="85" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
@@ -13276,10 +13350,13 @@
       <c r="CL85" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CM85" s="5"/>
+      <c r="CM85" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="CN85" s="5"/>
       <c r="CO85" s="5"/>
       <c r="CP85" s="5"/>
+      <c r="CQ85" s="5"/>
     </row>
     <row r="86" spans="1:147" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
@@ -13553,13 +13630,15 @@
         <v>68.497582133349454</v>
       </c>
       <c r="CL87" s="14">
-        <v>70.697139548142388</v>
-      </c>
-      <c r="CM87" s="14"/>
+        <v>66.933998569187622</v>
+      </c>
+      <c r="CM87" s="14">
+        <v>-2.7086047394266757</v>
+      </c>
       <c r="CN87" s="14"/>
       <c r="CO87" s="14"/>
       <c r="CP87" s="14"/>
-      <c r="CQ87" s="8"/>
+      <c r="CQ87" s="14"/>
       <c r="CR87" s="8"/>
       <c r="CS87" s="8"/>
       <c r="CT87" s="8"/>
@@ -13882,13 +13961,15 @@
         <v>15.453253697379125</v>
       </c>
       <c r="CL88" s="14">
-        <v>-14.038288769524968</v>
-      </c>
-      <c r="CM88" s="14"/>
+        <v>-22.733127261153541</v>
+      </c>
+      <c r="CM88" s="14">
+        <v>6.2387293991619686E-2</v>
+      </c>
       <c r="CN88" s="14"/>
       <c r="CO88" s="14"/>
       <c r="CP88" s="14"/>
-      <c r="CQ88" s="8"/>
+      <c r="CQ88" s="14"/>
       <c r="CR88" s="8"/>
       <c r="CS88" s="8"/>
       <c r="CT88" s="8"/>
@@ -14213,11 +14294,13 @@
       <c r="CL89" s="14">
         <v>581.9972140107966</v>
       </c>
-      <c r="CM89" s="14"/>
+      <c r="CM89" s="14">
+        <v>88.250101321944186</v>
+      </c>
       <c r="CN89" s="14"/>
       <c r="CO89" s="14"/>
       <c r="CP89" s="14"/>
-      <c r="CQ89" s="8"/>
+      <c r="CQ89" s="14"/>
       <c r="CR89" s="8"/>
       <c r="CS89" s="8"/>
       <c r="CT89" s="8"/>
@@ -14542,11 +14625,13 @@
       <c r="CL90" s="14">
         <v>14.963370710976747</v>
       </c>
-      <c r="CM90" s="14"/>
+      <c r="CM90" s="14">
+        <v>13.763995648814898</v>
+      </c>
       <c r="CN90" s="14"/>
       <c r="CO90" s="14"/>
       <c r="CP90" s="14"/>
-      <c r="CQ90" s="8"/>
+      <c r="CQ90" s="14"/>
       <c r="CR90" s="8"/>
       <c r="CS90" s="8"/>
       <c r="CT90" s="8"/>
@@ -14869,13 +14954,15 @@
         <v>18.175311829899286</v>
       </c>
       <c r="CL91" s="14">
-        <v>8.8399819912858106</v>
-      </c>
-      <c r="CM91" s="14"/>
+        <v>12.839132155355642</v>
+      </c>
+      <c r="CM91" s="14">
+        <v>8.8153921427124118</v>
+      </c>
       <c r="CN91" s="14"/>
       <c r="CO91" s="14"/>
       <c r="CP91" s="14"/>
-      <c r="CQ91" s="8"/>
+      <c r="CQ91" s="14"/>
       <c r="CR91" s="8"/>
       <c r="CS91" s="8"/>
       <c r="CT91" s="8"/>
@@ -15198,13 +15285,15 @@
         <v>5.6946661002921388</v>
       </c>
       <c r="CL92" s="14">
-        <v>3.3763912696830829</v>
-      </c>
-      <c r="CM92" s="14"/>
+        <v>3.4229356639520034</v>
+      </c>
+      <c r="CM92" s="14">
+        <v>1.8927318893474592</v>
+      </c>
       <c r="CN92" s="14"/>
       <c r="CO92" s="14"/>
       <c r="CP92" s="14"/>
-      <c r="CQ92" s="8"/>
+      <c r="CQ92" s="14"/>
       <c r="CR92" s="8"/>
       <c r="CS92" s="8"/>
       <c r="CT92" s="8"/>
@@ -15527,13 +15616,15 @@
         <v>10.153253740682118</v>
       </c>
       <c r="CL93" s="14">
-        <v>-28.059260392207534</v>
-      </c>
-      <c r="CM93" s="14"/>
+        <v>-26.879647249614521</v>
+      </c>
+      <c r="CM93" s="14">
+        <v>-12.834662136934242</v>
+      </c>
       <c r="CN93" s="14"/>
       <c r="CO93" s="14"/>
       <c r="CP93" s="14"/>
-      <c r="CQ93" s="8"/>
+      <c r="CQ93" s="14"/>
       <c r="CR93" s="8"/>
       <c r="CS93" s="8"/>
       <c r="CT93" s="8"/>
@@ -15856,13 +15947,15 @@
         <v>40.652027393024923</v>
       </c>
       <c r="CL94" s="14">
-        <v>12.739986600272204</v>
-      </c>
-      <c r="CM94" s="14"/>
+        <v>16.918925410049781</v>
+      </c>
+      <c r="CM94" s="14">
+        <v>43.165043662754471</v>
+      </c>
       <c r="CN94" s="14"/>
       <c r="CO94" s="14"/>
       <c r="CP94" s="14"/>
-      <c r="CQ94" s="8"/>
+      <c r="CQ94" s="14"/>
       <c r="CR94" s="8"/>
       <c r="CS94" s="8"/>
       <c r="CT94" s="8"/>
@@ -16333,13 +16426,15 @@
         <v>21.958128353759164</v>
       </c>
       <c r="CL96" s="14">
-        <v>19.472189271125046</v>
-      </c>
-      <c r="CM96" s="14"/>
+        <v>20.195305425122001</v>
+      </c>
+      <c r="CM96" s="14">
+        <v>9.6338892776590939</v>
+      </c>
       <c r="CN96" s="14"/>
       <c r="CO96" s="14"/>
       <c r="CP96" s="14"/>
-      <c r="CQ96" s="8"/>
+      <c r="CQ96" s="14"/>
       <c r="CR96" s="8"/>
       <c r="CS96" s="8"/>
       <c r="CT96" s="8"/>
@@ -16488,6 +16583,7 @@
       <c r="CN97" s="11"/>
       <c r="CO97" s="11"/>
       <c r="CP97" s="11"/>
+      <c r="CQ97" s="11"/>
     </row>
     <row r="98" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
@@ -16817,126 +16913,126 @@
     </row>
     <row r="108" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
-      <c r="B108" s="23">
+      <c r="B108" s="21">
         <v>2000</v>
       </c>
-      <c r="C108" s="23"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="23"/>
-      <c r="F108" s="23">
+      <c r="C108" s="21"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="21">
         <v>2001</v>
       </c>
-      <c r="G108" s="23"/>
-      <c r="H108" s="23"/>
-      <c r="I108" s="23"/>
-      <c r="J108" s="23">
+      <c r="G108" s="21"/>
+      <c r="H108" s="21"/>
+      <c r="I108" s="21"/>
+      <c r="J108" s="21">
         <v>2002</v>
       </c>
-      <c r="K108" s="23"/>
-      <c r="L108" s="23"/>
-      <c r="M108" s="23"/>
-      <c r="N108" s="23">
+      <c r="K108" s="21"/>
+      <c r="L108" s="21"/>
+      <c r="M108" s="21"/>
+      <c r="N108" s="21">
         <v>2003</v>
       </c>
-      <c r="O108" s="23"/>
-      <c r="P108" s="23"/>
-      <c r="Q108" s="23"/>
-      <c r="R108" s="23">
+      <c r="O108" s="21"/>
+      <c r="P108" s="21"/>
+      <c r="Q108" s="21"/>
+      <c r="R108" s="21">
         <v>2004</v>
       </c>
-      <c r="S108" s="23"/>
-      <c r="T108" s="23"/>
-      <c r="U108" s="23"/>
-      <c r="V108" s="23">
+      <c r="S108" s="21"/>
+      <c r="T108" s="21"/>
+      <c r="U108" s="21"/>
+      <c r="V108" s="21">
         <v>2005</v>
       </c>
-      <c r="W108" s="23"/>
-      <c r="X108" s="23"/>
-      <c r="Y108" s="23"/>
-      <c r="Z108" s="23">
+      <c r="W108" s="21"/>
+      <c r="X108" s="21"/>
+      <c r="Y108" s="21"/>
+      <c r="Z108" s="21">
         <v>2006</v>
       </c>
-      <c r="AA108" s="23"/>
-      <c r="AB108" s="23"/>
-      <c r="AC108" s="23"/>
-      <c r="AD108" s="23">
+      <c r="AA108" s="21"/>
+      <c r="AB108" s="21"/>
+      <c r="AC108" s="21"/>
+      <c r="AD108" s="21">
         <v>2007</v>
       </c>
-      <c r="AE108" s="23"/>
-      <c r="AF108" s="23"/>
-      <c r="AG108" s="23"/>
-      <c r="AH108" s="23">
+      <c r="AE108" s="21"/>
+      <c r="AF108" s="21"/>
+      <c r="AG108" s="21"/>
+      <c r="AH108" s="21">
         <v>2008</v>
       </c>
-      <c r="AI108" s="23"/>
-      <c r="AJ108" s="23"/>
-      <c r="AK108" s="23"/>
-      <c r="AL108" s="23">
+      <c r="AI108" s="21"/>
+      <c r="AJ108" s="21"/>
+      <c r="AK108" s="21"/>
+      <c r="AL108" s="21">
         <v>2009</v>
       </c>
-      <c r="AM108" s="23"/>
-      <c r="AN108" s="23"/>
-      <c r="AO108" s="23"/>
-      <c r="AP108" s="23">
+      <c r="AM108" s="21"/>
+      <c r="AN108" s="21"/>
+      <c r="AO108" s="21"/>
+      <c r="AP108" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="23"/>
-      <c r="AR108" s="23"/>
-      <c r="AS108" s="23"/>
-      <c r="AT108" s="23">
+      <c r="AQ108" s="21"/>
+      <c r="AR108" s="21"/>
+      <c r="AS108" s="21"/>
+      <c r="AT108" s="21">
         <v>2011</v>
       </c>
-      <c r="AU108" s="23"/>
-      <c r="AV108" s="23"/>
-      <c r="AW108" s="23"/>
-      <c r="AX108" s="23">
+      <c r="AU108" s="21"/>
+      <c r="AV108" s="21"/>
+      <c r="AW108" s="21"/>
+      <c r="AX108" s="21">
         <v>2012</v>
       </c>
-      <c r="AY108" s="23"/>
-      <c r="AZ108" s="23"/>
-      <c r="BA108" s="23"/>
-      <c r="BB108" s="23">
+      <c r="AY108" s="21"/>
+      <c r="AZ108" s="21"/>
+      <c r="BA108" s="21"/>
+      <c r="BB108" s="21">
         <v>2013</v>
       </c>
-      <c r="BC108" s="23"/>
-      <c r="BD108" s="23"/>
-      <c r="BE108" s="23"/>
-      <c r="BF108" s="23">
+      <c r="BC108" s="21"/>
+      <c r="BD108" s="21"/>
+      <c r="BE108" s="21"/>
+      <c r="BF108" s="21">
         <v>2014</v>
       </c>
-      <c r="BG108" s="23"/>
-      <c r="BH108" s="23"/>
-      <c r="BI108" s="23"/>
-      <c r="BJ108" s="23">
+      <c r="BG108" s="21"/>
+      <c r="BH108" s="21"/>
+      <c r="BI108" s="21"/>
+      <c r="BJ108" s="21">
         <v>2015</v>
       </c>
-      <c r="BK108" s="23"/>
-      <c r="BL108" s="23"/>
-      <c r="BM108" s="23"/>
-      <c r="BN108" s="23">
+      <c r="BK108" s="21"/>
+      <c r="BL108" s="21"/>
+      <c r="BM108" s="21"/>
+      <c r="BN108" s="21">
         <v>2016</v>
       </c>
-      <c r="BO108" s="23"/>
-      <c r="BP108" s="23"/>
-      <c r="BQ108" s="23"/>
-      <c r="BR108" s="23">
+      <c r="BO108" s="21"/>
+      <c r="BP108" s="21"/>
+      <c r="BQ108" s="21"/>
+      <c r="BR108" s="21">
         <v>2017</v>
       </c>
-      <c r="BS108" s="23"/>
-      <c r="BT108" s="23"/>
-      <c r="BU108" s="23"/>
-      <c r="BV108" s="23">
+      <c r="BS108" s="21"/>
+      <c r="BT108" s="21"/>
+      <c r="BU108" s="21"/>
+      <c r="BV108" s="21">
         <v>2018</v>
       </c>
-      <c r="BW108" s="23"/>
-      <c r="BX108" s="23"/>
-      <c r="BY108" s="23"/>
-      <c r="BZ108" s="23">
+      <c r="BW108" s="21"/>
+      <c r="BX108" s="21"/>
+      <c r="BY108" s="21"/>
+      <c r="BZ108" s="21">
         <v>2019</v>
       </c>
-      <c r="CA108" s="23"/>
-      <c r="CB108" s="23"/>
-      <c r="CC108" s="23"/>
+      <c r="CA108" s="21"/>
+      <c r="CB108" s="21"/>
+      <c r="CC108" s="21"/>
       <c r="CD108" s="22">
         <v>2020</v>
       </c>
@@ -16955,9 +17051,10 @@
       <c r="CM108" s="22"/>
       <c r="CN108" s="22"/>
       <c r="CO108" s="22"/>
-      <c r="CP108" s="18">
+      <c r="CP108" s="22">
         <v>2023</v>
       </c>
+      <c r="CQ108" s="23"/>
     </row>
     <row r="109" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
@@ -17239,6 +17336,9 @@
       </c>
       <c r="CP109" s="13" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ109" s="13" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -17525,9 +17625,11 @@
         <v>133.0320896828776</v>
       </c>
       <c r="CP111" s="14">
-        <v>136.72622876503411</v>
-      </c>
-      <c r="CQ111" s="8"/>
+        <v>136.72622876503408</v>
+      </c>
+      <c r="CQ111" s="14">
+        <v>141.65669937816355</v>
+      </c>
       <c r="CR111" s="8"/>
       <c r="CS111" s="8"/>
       <c r="CT111" s="8"/>
@@ -17868,7 +17970,9 @@
       <c r="CP112" s="14">
         <v>119.59147290110843</v>
       </c>
-      <c r="CQ112" s="8"/>
+      <c r="CQ112" s="14">
+        <v>119.26852215132922</v>
+      </c>
       <c r="CR112" s="8"/>
       <c r="CS112" s="8"/>
       <c r="CT112" s="8"/>
@@ -18209,7 +18313,9 @@
       <c r="CP113" s="14">
         <v>122.00663809992125</v>
       </c>
-      <c r="CQ113" s="8"/>
+      <c r="CQ113" s="14">
+        <v>122.63218135093956</v>
+      </c>
       <c r="CR113" s="8"/>
       <c r="CS113" s="8"/>
       <c r="CT113" s="8"/>
@@ -18550,7 +18656,9 @@
       <c r="CP114" s="14">
         <v>115.7444035129955</v>
       </c>
-      <c r="CQ114" s="8"/>
+      <c r="CQ114" s="14">
+        <v>116.50252804574832</v>
+      </c>
       <c r="CR114" s="8"/>
       <c r="CS114" s="8"/>
       <c r="CT114" s="8"/>
@@ -18889,9 +18997,11 @@
         <v>103.34897185336216</v>
       </c>
       <c r="CP115" s="14">
-        <v>102.91892740872616</v>
-      </c>
-      <c r="CQ115" s="8"/>
+        <v>102.92008743148232</v>
+      </c>
+      <c r="CQ115" s="14">
+        <v>103.61804299083268</v>
+      </c>
       <c r="CR115" s="8"/>
       <c r="CS115" s="8"/>
       <c r="CT115" s="8"/>
@@ -19230,9 +19340,11 @@
         <v>117.00435355436905</v>
       </c>
       <c r="CP116" s="14">
-        <v>118.62053140218541</v>
-      </c>
-      <c r="CQ116" s="8"/>
+        <v>118.63204242974616</v>
+      </c>
+      <c r="CQ116" s="14">
+        <v>119.53549960685177</v>
+      </c>
       <c r="CR116" s="8"/>
       <c r="CS116" s="8"/>
       <c r="CT116" s="8"/>
@@ -19573,7 +19685,9 @@
       <c r="CP117" s="14">
         <v>120.67834689029524</v>
       </c>
-      <c r="CQ117" s="8"/>
+      <c r="CQ117" s="14">
+        <v>119.17508385865621</v>
+      </c>
       <c r="CR117" s="8"/>
       <c r="CS117" s="8"/>
       <c r="CT117" s="8"/>
@@ -19912,9 +20026,11 @@
         <v>114.26976550965541</v>
       </c>
       <c r="CP118" s="14">
-        <v>119.72353771979212</v>
-      </c>
-      <c r="CQ118" s="8"/>
+        <v>119.72353771979209</v>
+      </c>
+      <c r="CQ118" s="14">
+        <v>118.63400847867105</v>
+      </c>
       <c r="CR118" s="8"/>
       <c r="CS118" s="8"/>
       <c r="CT118" s="8"/>
@@ -20405,9 +20521,11 @@
         <v>116.13546076127123</v>
       </c>
       <c r="CP120" s="14">
-        <v>118.21286798251498</v>
-      </c>
-      <c r="CQ120" s="8"/>
+        <v>118.08849090170519</v>
+      </c>
+      <c r="CQ120" s="14">
+        <v>117.94625363222767</v>
+      </c>
       <c r="CR120" s="8"/>
       <c r="CS120" s="8"/>
       <c r="CT120" s="8"/>
@@ -20560,6 +20678,7 @@
       <c r="CN121" s="11"/>
       <c r="CO121" s="11"/>
       <c r="CP121" s="11"/>
+      <c r="CQ121" s="11"/>
     </row>
     <row r="122" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
@@ -20598,126 +20717,126 @@
     </row>
     <row r="133" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
-      <c r="B133" s="23">
+      <c r="B133" s="21">
         <v>2000</v>
       </c>
-      <c r="C133" s="23"/>
-      <c r="D133" s="23"/>
-      <c r="E133" s="23"/>
-      <c r="F133" s="23">
+      <c r="C133" s="21"/>
+      <c r="D133" s="21"/>
+      <c r="E133" s="21"/>
+      <c r="F133" s="21">
         <v>2001</v>
       </c>
-      <c r="G133" s="23"/>
-      <c r="H133" s="23"/>
-      <c r="I133" s="23"/>
-      <c r="J133" s="23">
+      <c r="G133" s="21"/>
+      <c r="H133" s="21"/>
+      <c r="I133" s="21"/>
+      <c r="J133" s="21">
         <v>2002</v>
       </c>
-      <c r="K133" s="23"/>
-      <c r="L133" s="23"/>
-      <c r="M133" s="23"/>
-      <c r="N133" s="23">
+      <c r="K133" s="21"/>
+      <c r="L133" s="21"/>
+      <c r="M133" s="21"/>
+      <c r="N133" s="21">
         <v>2003</v>
       </c>
-      <c r="O133" s="23"/>
-      <c r="P133" s="23"/>
-      <c r="Q133" s="23"/>
-      <c r="R133" s="23">
+      <c r="O133" s="21"/>
+      <c r="P133" s="21"/>
+      <c r="Q133" s="21"/>
+      <c r="R133" s="21">
         <v>2004</v>
       </c>
-      <c r="S133" s="23"/>
-      <c r="T133" s="23"/>
-      <c r="U133" s="23"/>
-      <c r="V133" s="23">
+      <c r="S133" s="21"/>
+      <c r="T133" s="21"/>
+      <c r="U133" s="21"/>
+      <c r="V133" s="21">
         <v>2005</v>
       </c>
-      <c r="W133" s="23"/>
-      <c r="X133" s="23"/>
-      <c r="Y133" s="23"/>
-      <c r="Z133" s="23">
+      <c r="W133" s="21"/>
+      <c r="X133" s="21"/>
+      <c r="Y133" s="21"/>
+      <c r="Z133" s="21">
         <v>2006</v>
       </c>
-      <c r="AA133" s="23"/>
-      <c r="AB133" s="23"/>
-      <c r="AC133" s="23"/>
-      <c r="AD133" s="23">
+      <c r="AA133" s="21"/>
+      <c r="AB133" s="21"/>
+      <c r="AC133" s="21"/>
+      <c r="AD133" s="21">
         <v>2007</v>
       </c>
-      <c r="AE133" s="23"/>
-      <c r="AF133" s="23"/>
-      <c r="AG133" s="23"/>
-      <c r="AH133" s="23">
+      <c r="AE133" s="21"/>
+      <c r="AF133" s="21"/>
+      <c r="AG133" s="21"/>
+      <c r="AH133" s="21">
         <v>2008</v>
       </c>
-      <c r="AI133" s="23"/>
-      <c r="AJ133" s="23"/>
-      <c r="AK133" s="23"/>
-      <c r="AL133" s="23">
+      <c r="AI133" s="21"/>
+      <c r="AJ133" s="21"/>
+      <c r="AK133" s="21"/>
+      <c r="AL133" s="21">
         <v>2009</v>
       </c>
-      <c r="AM133" s="23"/>
-      <c r="AN133" s="23"/>
-      <c r="AO133" s="23"/>
-      <c r="AP133" s="23">
+      <c r="AM133" s="21"/>
+      <c r="AN133" s="21"/>
+      <c r="AO133" s="21"/>
+      <c r="AP133" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ133" s="23"/>
-      <c r="AR133" s="23"/>
-      <c r="AS133" s="23"/>
-      <c r="AT133" s="23">
+      <c r="AQ133" s="21"/>
+      <c r="AR133" s="21"/>
+      <c r="AS133" s="21"/>
+      <c r="AT133" s="21">
         <v>2011</v>
       </c>
-      <c r="AU133" s="23"/>
-      <c r="AV133" s="23"/>
-      <c r="AW133" s="23"/>
-      <c r="AX133" s="23">
+      <c r="AU133" s="21"/>
+      <c r="AV133" s="21"/>
+      <c r="AW133" s="21"/>
+      <c r="AX133" s="21">
         <v>2012</v>
       </c>
-      <c r="AY133" s="23"/>
-      <c r="AZ133" s="23"/>
-      <c r="BA133" s="23"/>
-      <c r="BB133" s="23">
+      <c r="AY133" s="21"/>
+      <c r="AZ133" s="21"/>
+      <c r="BA133" s="21"/>
+      <c r="BB133" s="21">
         <v>2013</v>
       </c>
-      <c r="BC133" s="23"/>
-      <c r="BD133" s="23"/>
-      <c r="BE133" s="23"/>
-      <c r="BF133" s="23">
+      <c r="BC133" s="21"/>
+      <c r="BD133" s="21"/>
+      <c r="BE133" s="21"/>
+      <c r="BF133" s="21">
         <v>2014</v>
       </c>
-      <c r="BG133" s="23"/>
-      <c r="BH133" s="23"/>
-      <c r="BI133" s="23"/>
-      <c r="BJ133" s="23">
+      <c r="BG133" s="21"/>
+      <c r="BH133" s="21"/>
+      <c r="BI133" s="21"/>
+      <c r="BJ133" s="21">
         <v>2015</v>
       </c>
-      <c r="BK133" s="23"/>
-      <c r="BL133" s="23"/>
-      <c r="BM133" s="23"/>
-      <c r="BN133" s="23">
+      <c r="BK133" s="21"/>
+      <c r="BL133" s="21"/>
+      <c r="BM133" s="21"/>
+      <c r="BN133" s="21">
         <v>2016</v>
       </c>
-      <c r="BO133" s="23"/>
-      <c r="BP133" s="23"/>
-      <c r="BQ133" s="23"/>
-      <c r="BR133" s="23">
+      <c r="BO133" s="21"/>
+      <c r="BP133" s="21"/>
+      <c r="BQ133" s="21"/>
+      <c r="BR133" s="21">
         <v>2017</v>
       </c>
-      <c r="BS133" s="23"/>
-      <c r="BT133" s="23"/>
-      <c r="BU133" s="23"/>
-      <c r="BV133" s="23">
+      <c r="BS133" s="21"/>
+      <c r="BT133" s="21"/>
+      <c r="BU133" s="21"/>
+      <c r="BV133" s="21">
         <v>2018</v>
       </c>
-      <c r="BW133" s="23"/>
-      <c r="BX133" s="23"/>
-      <c r="BY133" s="23"/>
-      <c r="BZ133" s="23">
+      <c r="BW133" s="21"/>
+      <c r="BX133" s="21"/>
+      <c r="BY133" s="21"/>
+      <c r="BZ133" s="21">
         <v>2019</v>
       </c>
-      <c r="CA133" s="23"/>
-      <c r="CB133" s="23"/>
-      <c r="CC133" s="23"/>
+      <c r="CA133" s="21"/>
+      <c r="CB133" s="21"/>
+      <c r="CC133" s="21"/>
       <c r="CD133" s="22">
         <v>2020</v>
       </c>
@@ -20736,9 +20855,10 @@
       <c r="CM133" s="22"/>
       <c r="CN133" s="22"/>
       <c r="CO133" s="22"/>
-      <c r="CP133" s="18">
+      <c r="CP133" s="22">
         <v>2023</v>
       </c>
+      <c r="CQ133" s="23"/>
     </row>
     <row r="134" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
@@ -21020,6 +21140,9 @@
       </c>
       <c r="CP134" s="13" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ134" s="13" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -21269,46 +21392,48 @@
       <c r="CC136" s="15">
         <v>8.4796805961946209</v>
       </c>
-      <c r="CD136" s="21">
+      <c r="CD136" s="20">
         <v>4.9952343275159103</v>
       </c>
-      <c r="CE136" s="21">
+      <c r="CE136" s="20">
         <v>2.9734231599888474</v>
       </c>
-      <c r="CF136" s="21">
+      <c r="CF136" s="20">
         <v>5.0688179881251214</v>
       </c>
-      <c r="CG136" s="21">
+      <c r="CG136" s="20">
         <v>5.4275059453531354</v>
       </c>
-      <c r="CH136" s="21">
+      <c r="CH136" s="20">
         <v>3.7079619165669646</v>
       </c>
-      <c r="CI136" s="21">
+      <c r="CI136" s="20">
         <v>3.1686760313166022</v>
       </c>
-      <c r="CJ136" s="21">
+      <c r="CJ136" s="20">
         <v>5.9400974656478551</v>
       </c>
-      <c r="CK136" s="21">
+      <c r="CK136" s="20">
         <v>6.3517535811312325</v>
       </c>
-      <c r="CL136" s="21">
+      <c r="CL136" s="20">
         <v>7.2501408841845167</v>
       </c>
-      <c r="CM136" s="21">
+      <c r="CM136" s="20">
         <v>4.5525961507475614</v>
       </c>
-      <c r="CN136" s="21">
+      <c r="CN136" s="20">
         <v>7.123031504693027</v>
       </c>
-      <c r="CO136" s="21">
+      <c r="CO136" s="20">
         <v>9.1431393370668612</v>
       </c>
-      <c r="CP136" s="21">
-        <v>10.673109476978473</v>
-      </c>
-      <c r="CQ136" s="8"/>
+      <c r="CP136" s="20">
+        <v>10.385944912529338</v>
+      </c>
+      <c r="CQ136" s="20">
+        <v>4.4109536908816631</v>
+      </c>
       <c r="CR136" s="8"/>
       <c r="CS136" s="8"/>
       <c r="CT136" s="8"/>
@@ -21610,46 +21735,48 @@
       <c r="CC137" s="15">
         <v>0.15036753568418579</v>
       </c>
-      <c r="CD137" s="21">
+      <c r="CD137" s="20">
         <v>6.9618762094456235E-2</v>
       </c>
-      <c r="CE137" s="21">
+      <c r="CE137" s="20">
         <v>6.1938901337616682E-2</v>
       </c>
-      <c r="CF137" s="21">
+      <c r="CF137" s="20">
         <v>0.1736863822285733</v>
       </c>
-      <c r="CG137" s="21">
+      <c r="CG137" s="20">
         <v>0.18664971726304994</v>
       </c>
-      <c r="CH137" s="21">
+      <c r="CH137" s="20">
         <v>8.6921547744633912E-2</v>
       </c>
-      <c r="CI137" s="21">
+      <c r="CI137" s="20">
         <v>6.4092383553871687E-2</v>
       </c>
-      <c r="CJ137" s="21">
+      <c r="CJ137" s="20">
         <v>0.17519861914326512</v>
       </c>
-      <c r="CK137" s="21">
+      <c r="CK137" s="20">
         <v>0.17388086679314779</v>
       </c>
-      <c r="CL137" s="21">
+      <c r="CL137" s="20">
         <v>8.303106049360541E-2</v>
       </c>
-      <c r="CM137" s="21">
+      <c r="CM137" s="20">
         <v>5.9636933637316959E-2</v>
       </c>
-      <c r="CN137" s="21">
+      <c r="CN137" s="20">
         <v>0.14132000283227314</v>
       </c>
-      <c r="CO137" s="21">
+      <c r="CO137" s="20">
         <v>0.16291089073254109</v>
       </c>
-      <c r="CP137" s="21">
-        <v>6.0682170158752886E-2</v>
-      </c>
-      <c r="CQ137" s="8"/>
+      <c r="CP137" s="20">
+        <v>5.4273256982205413E-2</v>
+      </c>
+      <c r="CQ137" s="20">
+        <v>5.4820821943269836E-2</v>
+      </c>
       <c r="CR137" s="8"/>
       <c r="CS137" s="8"/>
       <c r="CT137" s="8"/>
@@ -21951,46 +22078,48 @@
       <c r="CC138" s="15">
         <v>19.013300244799748</v>
       </c>
-      <c r="CD138" s="21">
+      <c r="CD138" s="20">
         <v>16.396937903387638</v>
       </c>
-      <c r="CE138" s="21">
+      <c r="CE138" s="20">
         <v>1.1348070725738837</v>
       </c>
-      <c r="CF138" s="21">
+      <c r="CF138" s="20">
         <v>3.6469867699436915</v>
       </c>
-      <c r="CG138" s="21">
+      <c r="CG138" s="20">
         <v>2.0160285542239165</v>
       </c>
-      <c r="CH138" s="21">
+      <c r="CH138" s="20">
         <v>0.3222802801758774</v>
       </c>
-      <c r="CI138" s="21">
+      <c r="CI138" s="20">
         <v>5.0367479180651493</v>
       </c>
-      <c r="CJ138" s="21">
+      <c r="CJ138" s="20">
         <v>5.3418845429763779</v>
       </c>
-      <c r="CK138" s="21">
+      <c r="CK138" s="20">
         <v>2.7818782049697144</v>
       </c>
-      <c r="CL138" s="21">
+      <c r="CL138" s="20">
         <v>2.5240485310759349</v>
       </c>
-      <c r="CM138" s="21">
+      <c r="CM138" s="20">
         <v>9.0963045368606146</v>
       </c>
-      <c r="CN138" s="21">
+      <c r="CN138" s="20">
         <v>16.510726042475234</v>
       </c>
-      <c r="CO138" s="21">
+      <c r="CO138" s="20">
         <v>10.280272247948936</v>
       </c>
-      <c r="CP138" s="21">
-        <v>14.726393052978192</v>
-      </c>
-      <c r="CQ138" s="8"/>
+      <c r="CP138" s="20">
+        <v>14.653213781321977</v>
+      </c>
+      <c r="CQ138" s="20">
+        <v>15.909896855859479</v>
+      </c>
       <c r="CR138" s="8"/>
       <c r="CS138" s="8"/>
       <c r="CT138" s="8"/>
@@ -22292,46 +22421,48 @@
       <c r="CC139" s="15">
         <v>0.4976902965519393</v>
       </c>
-      <c r="CD139" s="21">
+      <c r="CD139" s="20">
         <v>0.30534187729247619</v>
       </c>
-      <c r="CE139" s="21">
+      <c r="CE139" s="20">
         <v>0.47539913007255363</v>
       </c>
-      <c r="CF139" s="21">
+      <c r="CF139" s="20">
         <v>0.62327344191047018</v>
       </c>
-      <c r="CG139" s="21">
+      <c r="CG139" s="20">
         <v>0.60148638065745919</v>
       </c>
-      <c r="CH139" s="21">
+      <c r="CH139" s="20">
         <v>0.62481933927781019</v>
       </c>
-      <c r="CI139" s="21">
+      <c r="CI139" s="20">
         <v>0.64835075819374599</v>
       </c>
-      <c r="CJ139" s="21">
+      <c r="CJ139" s="20">
         <v>0.93916843464340838</v>
       </c>
-      <c r="CK139" s="21">
+      <c r="CK139" s="20">
         <v>0.88176153624546327</v>
       </c>
-      <c r="CL139" s="21">
+      <c r="CL139" s="20">
         <v>0.53926570175523747</v>
       </c>
-      <c r="CM139" s="21">
+      <c r="CM139" s="20">
         <v>0.59443022262417511</v>
       </c>
-      <c r="CN139" s="21">
+      <c r="CN139" s="20">
         <v>0.69975213191846064</v>
       </c>
-      <c r="CO139" s="21">
+      <c r="CO139" s="20">
         <v>0.73576712927618371</v>
       </c>
-      <c r="CP139" s="21">
-        <v>0.52559685644981602</v>
-      </c>
-      <c r="CQ139" s="8"/>
+      <c r="CP139" s="20">
+        <v>0.52298502916791312</v>
+      </c>
+      <c r="CQ139" s="20">
+        <v>0.62758910789349109</v>
+      </c>
       <c r="CR139" s="8"/>
       <c r="CS139" s="8"/>
       <c r="CT139" s="8"/>
@@ -22633,46 +22764,48 @@
       <c r="CC140" s="15">
         <v>11.952984608400481</v>
       </c>
-      <c r="CD140" s="21">
+      <c r="CD140" s="20">
         <v>15.76875526855887</v>
       </c>
-      <c r="CE140" s="21">
+      <c r="CE140" s="20">
         <v>19.793228749615736</v>
       </c>
-      <c r="CF140" s="21">
+      <c r="CF140" s="20">
         <v>14.642490335884069</v>
       </c>
-      <c r="CG140" s="21">
+      <c r="CG140" s="20">
         <v>15.398891770769421</v>
       </c>
-      <c r="CH140" s="21">
+      <c r="CH140" s="20">
         <v>19.285678252002558</v>
       </c>
-      <c r="CI140" s="21">
+      <c r="CI140" s="20">
         <v>17.733447039626977</v>
       </c>
-      <c r="CJ140" s="21">
+      <c r="CJ140" s="20">
         <v>15.610035103839385</v>
       </c>
-      <c r="CK140" s="21">
+      <c r="CK140" s="20">
         <v>15.080973968014156</v>
       </c>
-      <c r="CL140" s="21">
+      <c r="CL140" s="20">
         <v>17.238137924424048</v>
       </c>
-      <c r="CM140" s="21">
+      <c r="CM140" s="20">
         <v>16.198405160389729</v>
       </c>
-      <c r="CN140" s="21">
+      <c r="CN140" s="20">
         <v>13.373125061649633</v>
       </c>
-      <c r="CO140" s="21">
+      <c r="CO140" s="20">
         <v>14.14657327890621</v>
       </c>
-      <c r="CP140" s="21">
-        <v>15.031028071934241</v>
-      </c>
-      <c r="CQ140" s="8"/>
+      <c r="CP140" s="20">
+        <v>15.506056245062746</v>
+      </c>
+      <c r="CQ140" s="20">
+        <v>15.507973258638918</v>
+      </c>
       <c r="CR140" s="8"/>
       <c r="CS140" s="8"/>
       <c r="CT140" s="8"/>
@@ -22974,46 +23107,48 @@
       <c r="CC141" s="15">
         <v>49.84358522879478</v>
       </c>
-      <c r="CD141" s="21">
+      <c r="CD141" s="20">
         <v>51.200767898533094</v>
       </c>
-      <c r="CE141" s="21">
+      <c r="CE141" s="20">
         <v>62.626493196949575</v>
       </c>
-      <c r="CF141" s="21">
+      <c r="CF141" s="20">
         <v>62.952414697866729</v>
       </c>
-      <c r="CG141" s="21">
+      <c r="CG141" s="20">
         <v>64.942432985931987</v>
       </c>
-      <c r="CH141" s="21">
+      <c r="CH141" s="20">
         <v>62.111162865378354</v>
       </c>
-      <c r="CI141" s="21">
+      <c r="CI141" s="20">
         <v>59.840066288403506</v>
       </c>
-      <c r="CJ141" s="21">
+      <c r="CJ141" s="20">
         <v>58.263160624249942</v>
       </c>
-      <c r="CK141" s="21">
+      <c r="CK141" s="20">
         <v>61.447874063049959</v>
       </c>
-      <c r="CL141" s="21">
+      <c r="CL141" s="20">
         <v>58.900780388605469</v>
       </c>
-      <c r="CM141" s="21">
+      <c r="CM141" s="20">
         <v>57.315289478851419</v>
       </c>
-      <c r="CN141" s="21">
+      <c r="CN141" s="20">
         <v>51.518222835669761</v>
       </c>
-      <c r="CO141" s="21">
+      <c r="CO141" s="20">
         <v>52.938775237345773</v>
       </c>
-      <c r="CP141" s="21">
-        <v>50.397458775672852</v>
-      </c>
-      <c r="CQ141" s="8"/>
+      <c r="CP141" s="20">
+        <v>50.174467506242607</v>
+      </c>
+      <c r="CQ141" s="20">
+        <v>53.070124142249163</v>
+      </c>
       <c r="CR141" s="8"/>
       <c r="CS141" s="8"/>
       <c r="CT141" s="8"/>
@@ -23315,46 +23450,48 @@
       <c r="CC142" s="15">
         <v>8.603494650630692</v>
       </c>
-      <c r="CD142" s="21">
+      <c r="CD142" s="20">
         <v>10.413665998840187</v>
       </c>
-      <c r="CE142" s="21">
+      <c r="CE142" s="20">
         <v>11.645449015290154</v>
       </c>
-      <c r="CF142" s="21">
+      <c r="CF142" s="20">
         <v>11.487796957173201</v>
       </c>
-      <c r="CG142" s="21">
+      <c r="CG142" s="20">
         <v>10.351874513042256</v>
       </c>
-      <c r="CH142" s="21">
+      <c r="CH142" s="20">
         <v>12.865020734970653</v>
       </c>
-      <c r="CI142" s="21">
+      <c r="CI142" s="20">
         <v>12.359521977599192</v>
       </c>
-      <c r="CJ142" s="21">
+      <c r="CJ142" s="20">
         <v>12.317675195876671</v>
       </c>
-      <c r="CK142" s="21">
+      <c r="CK142" s="20">
         <v>11.721266919248494</v>
       </c>
-      <c r="CL142" s="21">
+      <c r="CL142" s="20">
         <v>12.454562170481861</v>
       </c>
-      <c r="CM142" s="21">
+      <c r="CM142" s="20">
         <v>10.895182644348477</v>
       </c>
-      <c r="CN142" s="21">
+      <c r="CN142" s="20">
         <v>9.1716680739699008</v>
       </c>
-      <c r="CO142" s="21">
+      <c r="CO142" s="20">
         <v>10.811279520989928</v>
       </c>
-      <c r="CP142" s="21">
-        <v>7.6176116792790696</v>
-      </c>
-      <c r="CQ142" s="8"/>
+      <c r="CP142" s="20">
+        <v>7.7040431649428687</v>
+      </c>
+      <c r="CQ142" s="20">
+        <v>8.7244430168462248</v>
+      </c>
       <c r="CR142" s="8"/>
       <c r="CS142" s="8"/>
       <c r="CT142" s="8"/>
@@ -23656,46 +23793,48 @@
       <c r="CC143" s="15">
         <v>1.4588968389435548</v>
       </c>
-      <c r="CD143" s="21">
+      <c r="CD143" s="20">
         <v>0.84967796377736249</v>
       </c>
-      <c r="CE143" s="21">
+      <c r="CE143" s="20">
         <v>1.2892607741716378</v>
       </c>
-      <c r="CF143" s="21">
+      <c r="CF143" s="20">
         <v>1.404533426868152</v>
       </c>
-      <c r="CG143" s="21">
+      <c r="CG143" s="20">
         <v>1.075130132758765</v>
       </c>
-      <c r="CH143" s="21">
+      <c r="CH143" s="20">
         <v>0.99615506388313169</v>
       </c>
-      <c r="CI143" s="21">
+      <c r="CI143" s="20">
         <v>1.1490976032409415</v>
       </c>
-      <c r="CJ143" s="21">
+      <c r="CJ143" s="20">
         <v>1.4127800136230975</v>
       </c>
-      <c r="CK143" s="21">
+      <c r="CK143" s="20">
         <v>1.5606108605478348</v>
       </c>
-      <c r="CL143" s="21">
+      <c r="CL143" s="20">
         <v>1.0100333389793279</v>
       </c>
-      <c r="CM143" s="21">
+      <c r="CM143" s="20">
         <v>1.2881548725406995</v>
       </c>
-      <c r="CN143" s="21">
+      <c r="CN143" s="20">
         <v>1.462154346791706</v>
       </c>
-      <c r="CO143" s="21">
+      <c r="CO143" s="20">
         <v>1.7812823577335724</v>
       </c>
-      <c r="CP143" s="21">
-        <v>0.96811991654861729</v>
-      </c>
-      <c r="CQ143" s="8"/>
+      <c r="CP143" s="20">
+        <v>0.99901610375035477</v>
+      </c>
+      <c r="CQ143" s="20">
+        <v>1.6941991056877856</v>
+      </c>
       <c r="CR143" s="8"/>
       <c r="CS143" s="8"/>
       <c r="CT143" s="8"/>
@@ -24188,7 +24327,9 @@
       <c r="CP145" s="14">
         <v>100</v>
       </c>
-      <c r="CQ145" s="8"/>
+      <c r="CQ145" s="14">
+        <v>100</v>
+      </c>
       <c r="CR145" s="8"/>
       <c r="CS145" s="8"/>
       <c r="CT145" s="8"/>
@@ -24341,6 +24482,7 @@
       <c r="CN146" s="11"/>
       <c r="CO146" s="11"/>
       <c r="CP146" s="11"/>
+      <c r="CQ146" s="11"/>
     </row>
     <row r="147" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
@@ -24683,126 +24825,126 @@
     </row>
     <row r="158" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
-      <c r="B158" s="23">
+      <c r="B158" s="21">
         <v>2000</v>
       </c>
-      <c r="C158" s="23"/>
-      <c r="D158" s="23"/>
-      <c r="E158" s="23"/>
-      <c r="F158" s="23">
+      <c r="C158" s="21"/>
+      <c r="D158" s="21"/>
+      <c r="E158" s="21"/>
+      <c r="F158" s="21">
         <v>2001</v>
       </c>
-      <c r="G158" s="23"/>
-      <c r="H158" s="23"/>
-      <c r="I158" s="23"/>
-      <c r="J158" s="23">
+      <c r="G158" s="21"/>
+      <c r="H158" s="21"/>
+      <c r="I158" s="21"/>
+      <c r="J158" s="21">
         <v>2002</v>
       </c>
-      <c r="K158" s="23"/>
-      <c r="L158" s="23"/>
-      <c r="M158" s="23"/>
-      <c r="N158" s="23">
+      <c r="K158" s="21"/>
+      <c r="L158" s="21"/>
+      <c r="M158" s="21"/>
+      <c r="N158" s="21">
         <v>2003</v>
       </c>
-      <c r="O158" s="23"/>
-      <c r="P158" s="23"/>
-      <c r="Q158" s="23"/>
-      <c r="R158" s="23">
+      <c r="O158" s="21"/>
+      <c r="P158" s="21"/>
+      <c r="Q158" s="21"/>
+      <c r="R158" s="21">
         <v>2004</v>
       </c>
-      <c r="S158" s="23"/>
-      <c r="T158" s="23"/>
-      <c r="U158" s="23"/>
-      <c r="V158" s="23">
+      <c r="S158" s="21"/>
+      <c r="T158" s="21"/>
+      <c r="U158" s="21"/>
+      <c r="V158" s="21">
         <v>2005</v>
       </c>
-      <c r="W158" s="23"/>
-      <c r="X158" s="23"/>
-      <c r="Y158" s="23"/>
-      <c r="Z158" s="23">
+      <c r="W158" s="21"/>
+      <c r="X158" s="21"/>
+      <c r="Y158" s="21"/>
+      <c r="Z158" s="21">
         <v>2006</v>
       </c>
-      <c r="AA158" s="23"/>
-      <c r="AB158" s="23"/>
-      <c r="AC158" s="23"/>
-      <c r="AD158" s="23">
+      <c r="AA158" s="21"/>
+      <c r="AB158" s="21"/>
+      <c r="AC158" s="21"/>
+      <c r="AD158" s="21">
         <v>2007</v>
       </c>
-      <c r="AE158" s="23"/>
-      <c r="AF158" s="23"/>
-      <c r="AG158" s="23"/>
-      <c r="AH158" s="23">
+      <c r="AE158" s="21"/>
+      <c r="AF158" s="21"/>
+      <c r="AG158" s="21"/>
+      <c r="AH158" s="21">
         <v>2008</v>
       </c>
-      <c r="AI158" s="23"/>
-      <c r="AJ158" s="23"/>
-      <c r="AK158" s="23"/>
-      <c r="AL158" s="23">
+      <c r="AI158" s="21"/>
+      <c r="AJ158" s="21"/>
+      <c r="AK158" s="21"/>
+      <c r="AL158" s="21">
         <v>2009</v>
       </c>
-      <c r="AM158" s="23"/>
-      <c r="AN158" s="23"/>
-      <c r="AO158" s="23"/>
-      <c r="AP158" s="23">
+      <c r="AM158" s="21"/>
+      <c r="AN158" s="21"/>
+      <c r="AO158" s="21"/>
+      <c r="AP158" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ158" s="23"/>
-      <c r="AR158" s="23"/>
-      <c r="AS158" s="23"/>
-      <c r="AT158" s="23">
+      <c r="AQ158" s="21"/>
+      <c r="AR158" s="21"/>
+      <c r="AS158" s="21"/>
+      <c r="AT158" s="21">
         <v>2011</v>
       </c>
-      <c r="AU158" s="23"/>
-      <c r="AV158" s="23"/>
-      <c r="AW158" s="23"/>
-      <c r="AX158" s="23">
+      <c r="AU158" s="21"/>
+      <c r="AV158" s="21"/>
+      <c r="AW158" s="21"/>
+      <c r="AX158" s="21">
         <v>2012</v>
       </c>
-      <c r="AY158" s="23"/>
-      <c r="AZ158" s="23"/>
-      <c r="BA158" s="23"/>
-      <c r="BB158" s="23">
+      <c r="AY158" s="21"/>
+      <c r="AZ158" s="21"/>
+      <c r="BA158" s="21"/>
+      <c r="BB158" s="21">
         <v>2013</v>
       </c>
-      <c r="BC158" s="23"/>
-      <c r="BD158" s="23"/>
-      <c r="BE158" s="23"/>
-      <c r="BF158" s="23">
+      <c r="BC158" s="21"/>
+      <c r="BD158" s="21"/>
+      <c r="BE158" s="21"/>
+      <c r="BF158" s="21">
         <v>2014</v>
       </c>
-      <c r="BG158" s="23"/>
-      <c r="BH158" s="23"/>
-      <c r="BI158" s="23"/>
-      <c r="BJ158" s="23">
+      <c r="BG158" s="21"/>
+      <c r="BH158" s="21"/>
+      <c r="BI158" s="21"/>
+      <c r="BJ158" s="21">
         <v>2015</v>
       </c>
-      <c r="BK158" s="23"/>
-      <c r="BL158" s="23"/>
-      <c r="BM158" s="23"/>
-      <c r="BN158" s="23">
+      <c r="BK158" s="21"/>
+      <c r="BL158" s="21"/>
+      <c r="BM158" s="21"/>
+      <c r="BN158" s="21">
         <v>2016</v>
       </c>
-      <c r="BO158" s="23"/>
-      <c r="BP158" s="23"/>
-      <c r="BQ158" s="23"/>
-      <c r="BR158" s="23">
+      <c r="BO158" s="21"/>
+      <c r="BP158" s="21"/>
+      <c r="BQ158" s="21"/>
+      <c r="BR158" s="21">
         <v>2017</v>
       </c>
-      <c r="BS158" s="23"/>
-      <c r="BT158" s="23"/>
-      <c r="BU158" s="23"/>
-      <c r="BV158" s="23">
+      <c r="BS158" s="21"/>
+      <c r="BT158" s="21"/>
+      <c r="BU158" s="21"/>
+      <c r="BV158" s="21">
         <v>2018</v>
       </c>
-      <c r="BW158" s="23"/>
-      <c r="BX158" s="23"/>
-      <c r="BY158" s="23"/>
-      <c r="BZ158" s="23">
+      <c r="BW158" s="21"/>
+      <c r="BX158" s="21"/>
+      <c r="BY158" s="21"/>
+      <c r="BZ158" s="21">
         <v>2019</v>
       </c>
-      <c r="CA158" s="23"/>
-      <c r="CB158" s="23"/>
-      <c r="CC158" s="23"/>
+      <c r="CA158" s="21"/>
+      <c r="CB158" s="21"/>
+      <c r="CC158" s="21"/>
       <c r="CD158" s="22">
         <v>2020</v>
       </c>
@@ -24821,9 +24963,10 @@
       <c r="CM158" s="22"/>
       <c r="CN158" s="22"/>
       <c r="CO158" s="22"/>
-      <c r="CP158" s="18">
+      <c r="CP158" s="22">
         <v>2023</v>
       </c>
+      <c r="CQ158" s="23"/>
     </row>
     <row r="159" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
@@ -25105,6 +25248,9 @@
       </c>
       <c r="CP159" s="13" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ159" s="13" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -25354,46 +25500,48 @@
       <c r="CC161" s="15">
         <v>8.4311298347575008</v>
       </c>
-      <c r="CD161" s="21">
+      <c r="CD161" s="20">
         <v>5.0109682970854008</v>
       </c>
-      <c r="CE161" s="21">
+      <c r="CE161" s="20">
         <v>3.0575954363501445</v>
       </c>
-      <c r="CF161" s="21">
+      <c r="CF161" s="20">
         <v>5.1021512160028131</v>
       </c>
-      <c r="CG161" s="21">
+      <c r="CG161" s="20">
         <v>5.1202309490742826</v>
       </c>
-      <c r="CH161" s="21">
+      <c r="CH161" s="20">
         <v>3.4352956244251054</v>
       </c>
-      <c r="CI161" s="21">
+      <c r="CI161" s="20">
         <v>3.0535492105186033</v>
       </c>
-      <c r="CJ161" s="21">
+      <c r="CJ161" s="20">
         <v>5.7835985114685524</v>
       </c>
-      <c r="CK161" s="21">
+      <c r="CK161" s="20">
         <v>5.7772458590307521</v>
       </c>
-      <c r="CL161" s="21">
+      <c r="CL161" s="20">
         <v>6.4586903187929448</v>
       </c>
-      <c r="CM161" s="21">
+      <c r="CM161" s="20">
         <v>4.1385663284785403</v>
       </c>
-      <c r="CN161" s="21">
+      <c r="CN161" s="20">
         <v>6.4069843265431619</v>
       </c>
-      <c r="CO161" s="21">
+      <c r="CO161" s="20">
         <v>7.9818538688371241</v>
       </c>
-      <c r="CP161" s="21">
-        <v>9.2279213210307471</v>
-      </c>
-      <c r="CQ161" s="8"/>
+      <c r="CP161" s="20">
+        <v>8.9701922768346183</v>
+      </c>
+      <c r="CQ161" s="20">
+        <v>3.6726498998531447</v>
+      </c>
       <c r="CR161" s="8"/>
       <c r="CS161" s="8"/>
       <c r="CT161" s="8"/>
@@ -25695,46 +25843,48 @@
       <c r="CC162" s="15">
         <v>0.15136469743347755</v>
       </c>
-      <c r="CD162" s="21">
+      <c r="CD162" s="20">
         <v>6.9936111574063903E-2</v>
       </c>
-      <c r="CE162" s="21">
+      <c r="CE162" s="20">
         <v>6.0290553573796077E-2</v>
       </c>
-      <c r="CF162" s="21">
+      <c r="CF162" s="20">
         <v>0.17238825267582442</v>
       </c>
-      <c r="CG162" s="21">
+      <c r="CG162" s="20">
         <v>0.18817661213181042</v>
       </c>
-      <c r="CH162" s="21">
+      <c r="CH162" s="20">
         <v>8.7077108823813351E-2</v>
       </c>
-      <c r="CI162" s="21">
+      <c r="CI162" s="20">
         <v>6.2250947467605816E-2</v>
       </c>
-      <c r="CJ162" s="21">
+      <c r="CJ162" s="20">
         <v>0.17334482311420102</v>
       </c>
-      <c r="CK162" s="21">
+      <c r="CK162" s="20">
         <v>0.17467265771166715</v>
       </c>
-      <c r="CL162" s="21">
+      <c r="CL162" s="20">
         <v>8.3365702231303115E-2</v>
       </c>
-      <c r="CM162" s="21">
+      <c r="CM162" s="20">
         <v>5.9398819865764195E-2</v>
       </c>
-      <c r="CN162" s="21">
+      <c r="CN162" s="20">
         <v>0.14074462376520538</v>
       </c>
-      <c r="CO162" s="21">
+      <c r="CO162" s="20">
         <v>0.16535615081173041</v>
       </c>
-      <c r="CP162" s="21">
-        <v>5.9982649229522761E-2</v>
-      </c>
-      <c r="CQ162" s="8"/>
+      <c r="CP162" s="20">
+        <v>5.3591170489628352E-2</v>
+      </c>
+      <c r="CQ162" s="20">
+        <v>5.4213051797892466E-2</v>
+      </c>
       <c r="CR162" s="8"/>
       <c r="CS162" s="8"/>
       <c r="CT162" s="8"/>
@@ -26036,46 +26186,48 @@
       <c r="CC163" s="15">
         <v>19.163729694697746</v>
       </c>
-      <c r="CD163" s="21">
+      <c r="CD163" s="20">
         <v>16.363997264015566</v>
       </c>
-      <c r="CE163" s="21">
+      <c r="CE163" s="20">
         <v>1.0907957815735638</v>
       </c>
-      <c r="CF163" s="21">
+      <c r="CF163" s="20">
         <v>3.612704240682397</v>
       </c>
-      <c r="CG163" s="21">
+      <c r="CG163" s="20">
         <v>2.0185663269887475</v>
       </c>
-      <c r="CH163" s="21">
+      <c r="CH163" s="20">
         <v>0.31555644229347418</v>
       </c>
-      <c r="CI163" s="21">
+      <c r="CI163" s="20">
         <v>4.801044571461925</v>
       </c>
-      <c r="CJ163" s="21">
+      <c r="CJ163" s="20">
         <v>5.2117999040352281</v>
       </c>
-      <c r="CK163" s="21">
+      <c r="CK163" s="20">
         <v>2.7674485056923839</v>
       </c>
-      <c r="CL163" s="21">
+      <c r="CL163" s="20">
         <v>2.4995504275256444</v>
       </c>
-      <c r="CM163" s="21">
+      <c r="CM163" s="20">
         <v>8.911620089896747</v>
       </c>
-      <c r="CN163" s="21">
+      <c r="CN163" s="20">
         <v>16.119529344341789</v>
       </c>
-      <c r="CO163" s="21">
+      <c r="CO163" s="20">
         <v>10.2011073825906</v>
       </c>
-      <c r="CP163" s="21">
-        <v>14.268479034760492</v>
-      </c>
-      <c r="CQ163" s="8"/>
+      <c r="CP163" s="20">
+        <v>14.182637348627166</v>
+      </c>
+      <c r="CQ163" s="20">
+        <v>15.30195996802601</v>
+      </c>
       <c r="CR163" s="8"/>
       <c r="CS163" s="8"/>
       <c r="CT163" s="8"/>
@@ -26377,46 +26529,48 @@
       <c r="CC164" s="15">
         <v>0.4889466192213584</v>
       </c>
-      <c r="CD164" s="21">
+      <c r="CD164" s="20">
         <v>0.31270747301414797</v>
       </c>
-      <c r="CE164" s="21">
+      <c r="CE164" s="20">
         <v>0.46920781968599923</v>
       </c>
-      <c r="CF164" s="21">
+      <c r="CF164" s="20">
         <v>0.62437649254816352</v>
       </c>
-      <c r="CG164" s="21">
+      <c r="CG164" s="20">
         <v>0.59336852384765482</v>
       </c>
-      <c r="CH164" s="21">
+      <c r="CH164" s="20">
         <v>0.64095392712188404</v>
       </c>
-      <c r="CI164" s="21">
+      <c r="CI164" s="20">
         <v>0.6464270654902593</v>
       </c>
-      <c r="CJ164" s="21">
+      <c r="CJ164" s="20">
         <v>0.94890269798461568</v>
       </c>
-      <c r="CK164" s="21">
+      <c r="CK164" s="20">
         <v>0.87264213018068471</v>
       </c>
-      <c r="CL164" s="21">
+      <c r="CL164" s="20">
         <v>0.55785951527030686</v>
       </c>
-      <c r="CM164" s="21">
+      <c r="CM164" s="20">
         <v>0.61229989214461655</v>
       </c>
-      <c r="CN164" s="21">
+      <c r="CN164" s="20">
         <v>0.71867427343568591</v>
       </c>
-      <c r="CO164" s="21">
+      <c r="CO164" s="20">
         <v>0.73957934408039272</v>
       </c>
-      <c r="CP164" s="21">
-        <v>0.53680618602480346</v>
-      </c>
-      <c r="CQ164" s="8"/>
+      <c r="CP164" s="20">
+        <v>0.53357666534338333</v>
+      </c>
+      <c r="CQ164" s="20">
+        <v>0.63536633357314132</v>
+      </c>
       <c r="CR164" s="8"/>
       <c r="CS164" s="8"/>
       <c r="CT164" s="8"/>
@@ -26718,46 +26872,48 @@
       <c r="CC165" s="15">
         <v>12.331296000094479</v>
       </c>
-      <c r="CD165" s="21">
+      <c r="CD165" s="20">
         <v>16.377269650702271</v>
       </c>
-      <c r="CE165" s="21">
+      <c r="CE165" s="20">
         <v>19.807236317647099</v>
       </c>
-      <c r="CF165" s="21">
+      <c r="CF165" s="20">
         <v>15.159788781635985</v>
       </c>
-      <c r="CG165" s="21">
+      <c r="CG165" s="20">
         <v>16.223448810278832</v>
       </c>
-      <c r="CH165" s="21">
+      <c r="CH165" s="20">
         <v>20.481987420857038</v>
       </c>
-      <c r="CI165" s="21">
+      <c r="CI165" s="20">
         <v>18.321264722301514</v>
       </c>
-      <c r="CJ165" s="21">
+      <c r="CJ165" s="20">
         <v>16.600795448791171</v>
       </c>
-      <c r="CK165" s="21">
+      <c r="CK165" s="20">
         <v>16.405668592360829</v>
       </c>
-      <c r="CL165" s="21">
+      <c r="CL165" s="20">
         <v>18.951192764948299</v>
       </c>
-      <c r="CM165" s="21">
+      <c r="CM165" s="20">
         <v>17.785181361601524</v>
       </c>
-      <c r="CN165" s="21">
+      <c r="CN165" s="20">
         <v>15.127593432922945</v>
       </c>
-      <c r="CO165" s="21">
+      <c r="CO165" s="20">
         <v>15.896808419825733</v>
       </c>
-      <c r="CP165" s="21">
-        <v>17.264666294592423</v>
-      </c>
-      <c r="CQ165" s="8"/>
+      <c r="CP165" s="20">
+        <v>17.791344989241704</v>
+      </c>
+      <c r="CQ165" s="20">
+        <v>17.652401980290779</v>
+      </c>
       <c r="CR165" s="8"/>
       <c r="CS165" s="8"/>
       <c r="CT165" s="8"/>
@@ -27059,46 +27215,48 @@
       <c r="CC166" s="15">
         <v>49.282665541919236</v>
       </c>
-      <c r="CD166" s="21">
+      <c r="CD166" s="20">
         <v>50.55711067390871</v>
       </c>
-      <c r="CE166" s="21">
+      <c r="CE166" s="20">
         <v>62.918140361561981</v>
       </c>
-      <c r="CF166" s="21">
+      <c r="CF166" s="20">
         <v>62.512150090526752</v>
       </c>
-      <c r="CG166" s="21">
+      <c r="CG166" s="20">
         <v>64.310408029086403</v>
       </c>
-      <c r="CH166" s="21">
+      <c r="CH166" s="20">
         <v>61.161312525362796</v>
       </c>
-      <c r="CI166" s="21">
+      <c r="CI166" s="20">
         <v>59.98789450296573</v>
       </c>
-      <c r="CJ166" s="21">
+      <c r="CJ166" s="20">
         <v>57.674572278271384</v>
       </c>
-      <c r="CK166" s="21">
+      <c r="CK166" s="20">
         <v>60.630953060817014</v>
       </c>
-      <c r="CL166" s="21">
+      <c r="CL166" s="20">
         <v>58.044220266448377</v>
       </c>
-      <c r="CM166" s="21">
+      <c r="CM166" s="20">
         <v>56.342870326104055</v>
       </c>
-      <c r="CN166" s="21">
+      <c r="CN166" s="20">
         <v>51.100317624662694</v>
       </c>
-      <c r="CO166" s="21">
+      <c r="CO166" s="20">
         <v>52.545643538551502</v>
       </c>
-      <c r="CP166" s="21">
-        <v>50.224257727386103</v>
-      </c>
-      <c r="CQ166" s="8"/>
+      <c r="CP166" s="20">
+        <v>49.944576762366964</v>
+      </c>
+      <c r="CQ166" s="20">
+        <v>52.364547293168606</v>
+      </c>
       <c r="CR166" s="8"/>
       <c r="CS166" s="8"/>
       <c r="CT166" s="8"/>
@@ -27400,46 +27558,48 @@
       <c r="CC167" s="15">
         <v>8.6803901470086657</v>
       </c>
-      <c r="CD167" s="21">
+      <c r="CD167" s="20">
         <v>10.455400938710682</v>
       </c>
-      <c r="CE167" s="21">
+      <c r="CE167" s="20">
         <v>11.344422275397761</v>
       </c>
-      <c r="CF167" s="21">
+      <c r="CF167" s="20">
         <v>11.421453982524229</v>
       </c>
-      <c r="CG167" s="21">
+      <c r="CG167" s="20">
         <v>10.46046872292475</v>
       </c>
-      <c r="CH167" s="21">
+      <c r="CH167" s="20">
         <v>12.880979902968203</v>
       </c>
-      <c r="CI167" s="21">
+      <c r="CI167" s="20">
         <v>12.013832945535796</v>
       </c>
-      <c r="CJ167" s="21">
+      <c r="CJ167" s="20">
         <v>12.208201536342186</v>
       </c>
-      <c r="CK167" s="21">
+      <c r="CK167" s="20">
         <v>11.801617241714322</v>
       </c>
-      <c r="CL167" s="21">
+      <c r="CL167" s="20">
         <v>12.392135547770765</v>
       </c>
-      <c r="CM167" s="21">
+      <c r="CM167" s="20">
         <v>10.860189371072559</v>
       </c>
-      <c r="CN167" s="21">
+      <c r="CN167" s="20">
         <v>8.8673750202839567</v>
       </c>
-      <c r="CO167" s="21">
+      <c r="CO167" s="20">
         <v>10.659285741136884</v>
       </c>
-      <c r="CP167" s="21">
-        <v>7.4619825924802887</v>
-      </c>
-      <c r="CQ167" s="8"/>
+      <c r="CP167" s="20">
+        <v>7.5387080999438281</v>
+      </c>
+      <c r="CQ167" s="20">
+        <v>8.6344841182179728</v>
+      </c>
       <c r="CR167" s="8"/>
       <c r="CS167" s="8"/>
       <c r="CT167" s="8"/>
@@ -27741,46 +27901,48 @@
       <c r="CC168" s="15">
         <v>1.4704774648675385</v>
       </c>
-      <c r="CD168" s="21">
+      <c r="CD168" s="20">
         <v>0.8526095909891741</v>
       </c>
-      <c r="CE168" s="21">
+      <c r="CE168" s="20">
         <v>1.2523114542096694</v>
       </c>
-      <c r="CF168" s="21">
+      <c r="CF168" s="20">
         <v>1.3949869434038273</v>
       </c>
-      <c r="CG168" s="21">
+      <c r="CG168" s="20">
         <v>1.085332025667505</v>
       </c>
-      <c r="CH168" s="21">
+      <c r="CH168" s="20">
         <v>0.99683704814768415</v>
       </c>
-      <c r="CI168" s="21">
+      <c r="CI168" s="20">
         <v>1.1137360342585709</v>
       </c>
-      <c r="CJ168" s="21">
+      <c r="CJ168" s="20">
         <v>1.3987847999926508</v>
       </c>
-      <c r="CK168" s="21">
+      <c r="CK168" s="20">
         <v>1.5697519524923442</v>
       </c>
-      <c r="CL168" s="21">
+      <c r="CL168" s="20">
         <v>1.012985457012362</v>
       </c>
-      <c r="CM168" s="21">
+      <c r="CM168" s="20">
         <v>1.2898738108361971</v>
       </c>
-      <c r="CN168" s="21">
+      <c r="CN168" s="20">
         <v>1.5187813540445654</v>
       </c>
-      <c r="CO168" s="21">
+      <c r="CO168" s="20">
         <v>1.8103655541660508</v>
       </c>
-      <c r="CP168" s="21">
-        <v>0.95590419449563047</v>
-      </c>
-      <c r="CQ168" s="8"/>
+      <c r="CP168" s="20">
+        <v>0.98537268715271287</v>
+      </c>
+      <c r="CQ168" s="20">
+        <v>1.6843773550724355</v>
+      </c>
       <c r="CR168" s="8"/>
       <c r="CS168" s="8"/>
       <c r="CT168" s="8"/>
@@ -28273,7 +28435,9 @@
       <c r="CP170" s="14">
         <v>100</v>
       </c>
-      <c r="CQ170" s="8"/>
+      <c r="CQ170" s="14">
+        <v>100</v>
+      </c>
       <c r="CR170" s="8"/>
       <c r="CS170" s="8"/>
       <c r="CT170" s="8"/>
@@ -28426,6 +28590,7 @@
       <c r="CN171" s="11"/>
       <c r="CO171" s="11"/>
       <c r="CP171" s="11"/>
+      <c r="CQ171" s="11"/>
     </row>
     <row r="172" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
@@ -28527,7 +28692,7 @@
       <c r="CN173" s="1"/>
       <c r="CO173" s="1"/>
       <c r="CP173" s="1"/>
-      <c r="CQ173" s="16"/>
+      <c r="CQ173" s="1"/>
       <c r="CR173" s="16"/>
       <c r="CS173" s="16"/>
       <c r="CT173" s="16"/>
@@ -28680,7 +28845,7 @@
       <c r="CN174" s="1"/>
       <c r="CO174" s="1"/>
       <c r="CP174" s="1"/>
-      <c r="CQ174" s="16"/>
+      <c r="CQ174" s="1"/>
       <c r="CR174" s="16"/>
       <c r="CS174" s="16"/>
       <c r="CT174" s="16"/>
@@ -28739,7 +28904,151 @@
       <c r="EU174" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="159">
+  <mergeCells count="168">
+    <mergeCell ref="CP9:CQ9"/>
+    <mergeCell ref="CP34:CQ34"/>
+    <mergeCell ref="CP108:CQ108"/>
+    <mergeCell ref="CP133:CQ133"/>
+    <mergeCell ref="CP158:CQ158"/>
+    <mergeCell ref="CL59:CO59"/>
+    <mergeCell ref="CP59:CQ59"/>
+    <mergeCell ref="CL84:CO84"/>
+    <mergeCell ref="CP84:CQ84"/>
+    <mergeCell ref="CH133:CK133"/>
+    <mergeCell ref="CH158:CK158"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CL34:CO34"/>
+    <mergeCell ref="CL108:CO108"/>
+    <mergeCell ref="CL133:CO133"/>
+    <mergeCell ref="CL158:CO158"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH34:CK34"/>
+    <mergeCell ref="CD59:CG59"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="CH108:CK108"/>
+    <mergeCell ref="BZ108:CC108"/>
+    <mergeCell ref="BR108:BU108"/>
+    <mergeCell ref="BR34:BU34"/>
+    <mergeCell ref="BV34:BY34"/>
+    <mergeCell ref="BV108:BY108"/>
+    <mergeCell ref="BV59:BY59"/>
+    <mergeCell ref="CH59:CK59"/>
+    <mergeCell ref="CH84:CK84"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BZ59:CC59"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="AT133:AW133"/>
+    <mergeCell ref="AX133:BA133"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="BR133:BU133"/>
+    <mergeCell ref="BV133:BY133"/>
+    <mergeCell ref="BZ133:CC133"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="N59:Q59"/>
+    <mergeCell ref="R59:U59"/>
+    <mergeCell ref="V59:Y59"/>
+    <mergeCell ref="Z59:AC59"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="BZ158:CC158"/>
+    <mergeCell ref="BR158:BU158"/>
+    <mergeCell ref="BV158:BY158"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BV84:BY84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AL158:AO158"/>
+    <mergeCell ref="AP158:AS158"/>
+    <mergeCell ref="AT158:AW158"/>
+    <mergeCell ref="AX158:BA158"/>
+    <mergeCell ref="BJ108:BM108"/>
+    <mergeCell ref="BN108:BQ108"/>
+    <mergeCell ref="AL133:AO133"/>
+    <mergeCell ref="AP133:AS133"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="BB34:BE34"/>
+    <mergeCell ref="BF34:BI34"/>
+    <mergeCell ref="V34:Y34"/>
+    <mergeCell ref="Z34:AC34"/>
+    <mergeCell ref="AD34:AG34"/>
+    <mergeCell ref="AH34:AK34"/>
+    <mergeCell ref="AL34:AO34"/>
+    <mergeCell ref="AP34:AS34"/>
+    <mergeCell ref="AT34:AW34"/>
+    <mergeCell ref="AX34:BA34"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="V108:Y108"/>
+    <mergeCell ref="Z108:AC108"/>
+    <mergeCell ref="AD108:AG108"/>
+    <mergeCell ref="AH108:AK108"/>
+    <mergeCell ref="AL108:AO108"/>
+    <mergeCell ref="AP108:AS108"/>
+    <mergeCell ref="AT108:AW108"/>
+    <mergeCell ref="AX108:BA108"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="AD59:AG59"/>
+    <mergeCell ref="AH59:AK59"/>
+    <mergeCell ref="AL59:AO59"/>
+    <mergeCell ref="AP59:AS59"/>
+    <mergeCell ref="AT59:AW59"/>
+    <mergeCell ref="AX59:BA59"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="J108:M108"/>
+    <mergeCell ref="N108:Q108"/>
+    <mergeCell ref="V158:Y158"/>
+    <mergeCell ref="Z158:AC158"/>
+    <mergeCell ref="AD158:AG158"/>
+    <mergeCell ref="AH158:AK158"/>
+    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="F133:I133"/>
+    <mergeCell ref="J133:M133"/>
+    <mergeCell ref="N133:Q133"/>
+    <mergeCell ref="R133:U133"/>
+    <mergeCell ref="V133:Y133"/>
+    <mergeCell ref="Z133:AC133"/>
+    <mergeCell ref="AD133:AG133"/>
+    <mergeCell ref="AH133:AK133"/>
+    <mergeCell ref="B158:E158"/>
+    <mergeCell ref="F158:I158"/>
+    <mergeCell ref="J158:M158"/>
+    <mergeCell ref="N158:Q158"/>
+    <mergeCell ref="R158:U158"/>
     <mergeCell ref="R108:U108"/>
     <mergeCell ref="CD158:CG158"/>
     <mergeCell ref="CD133:CG133"/>
@@ -28764,149 +29073,14 @@
     <mergeCell ref="BJ59:BM59"/>
     <mergeCell ref="BB59:BE59"/>
     <mergeCell ref="BN59:BQ59"/>
-    <mergeCell ref="V158:Y158"/>
-    <mergeCell ref="Z158:AC158"/>
-    <mergeCell ref="AD158:AG158"/>
-    <mergeCell ref="AH158:AK158"/>
-    <mergeCell ref="B133:E133"/>
-    <mergeCell ref="F133:I133"/>
-    <mergeCell ref="J133:M133"/>
-    <mergeCell ref="N133:Q133"/>
-    <mergeCell ref="R133:U133"/>
-    <mergeCell ref="V133:Y133"/>
-    <mergeCell ref="Z133:AC133"/>
-    <mergeCell ref="AD133:AG133"/>
-    <mergeCell ref="AH133:AK133"/>
-    <mergeCell ref="B158:E158"/>
-    <mergeCell ref="F158:I158"/>
-    <mergeCell ref="J158:M158"/>
-    <mergeCell ref="N158:Q158"/>
-    <mergeCell ref="R158:U158"/>
-    <mergeCell ref="V108:Y108"/>
-    <mergeCell ref="Z108:AC108"/>
-    <mergeCell ref="AD108:AG108"/>
-    <mergeCell ref="AH108:AK108"/>
-    <mergeCell ref="AL108:AO108"/>
-    <mergeCell ref="AP108:AS108"/>
-    <mergeCell ref="AT108:AW108"/>
-    <mergeCell ref="AX108:BA108"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="R34:U34"/>
-    <mergeCell ref="AD59:AG59"/>
-    <mergeCell ref="AH59:AK59"/>
-    <mergeCell ref="AL59:AO59"/>
-    <mergeCell ref="AP59:AS59"/>
-    <mergeCell ref="AT59:AW59"/>
-    <mergeCell ref="AX59:BA59"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="J108:M108"/>
-    <mergeCell ref="N108:Q108"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="BB34:BE34"/>
-    <mergeCell ref="BF34:BI34"/>
-    <mergeCell ref="V34:Y34"/>
-    <mergeCell ref="Z34:AC34"/>
-    <mergeCell ref="AD34:AG34"/>
-    <mergeCell ref="AH34:AK34"/>
-    <mergeCell ref="AL34:AO34"/>
-    <mergeCell ref="AP34:AS34"/>
-    <mergeCell ref="AT34:AW34"/>
-    <mergeCell ref="AX34:BA34"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="BZ158:CC158"/>
-    <mergeCell ref="BR158:BU158"/>
-    <mergeCell ref="BV158:BY158"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BV84:BY84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AL158:AO158"/>
-    <mergeCell ref="AP158:AS158"/>
-    <mergeCell ref="AT158:AW158"/>
-    <mergeCell ref="AX158:BA158"/>
-    <mergeCell ref="BJ108:BM108"/>
-    <mergeCell ref="BN108:BQ108"/>
-    <mergeCell ref="AL133:AO133"/>
-    <mergeCell ref="AP133:AS133"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BZ59:CC59"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="AT133:AW133"/>
-    <mergeCell ref="AX133:BA133"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="BR133:BU133"/>
-    <mergeCell ref="BV133:BY133"/>
-    <mergeCell ref="BZ133:CC133"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="N59:Q59"/>
-    <mergeCell ref="R59:U59"/>
-    <mergeCell ref="V59:Y59"/>
-    <mergeCell ref="Z59:AC59"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH34:CK34"/>
-    <mergeCell ref="CD59:CG59"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="CH108:CK108"/>
-    <mergeCell ref="BZ108:CC108"/>
-    <mergeCell ref="BR108:BU108"/>
-    <mergeCell ref="BR34:BU34"/>
-    <mergeCell ref="BV34:BY34"/>
-    <mergeCell ref="BV108:BY108"/>
-    <mergeCell ref="BV59:BY59"/>
-    <mergeCell ref="CH59:CK59"/>
-    <mergeCell ref="CH84:CK84"/>
-    <mergeCell ref="CH133:CK133"/>
-    <mergeCell ref="CH158:CK158"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CL34:CO34"/>
-    <mergeCell ref="CL108:CO108"/>
-    <mergeCell ref="CL133:CO133"/>
-    <mergeCell ref="CL158:CO158"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ9:CC9"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="50" max="93" man="1"/>
-    <brk id="100" max="93" man="1"/>
-    <brk id="124" max="93" man="1"/>
+    <brk id="50" max="94" man="1"/>
+    <brk id="100" max="94" man="1"/>
+    <brk id="124" max="94" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-05EOS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-05EOS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948E9536-37C6-4E2F-9EEC-A6ADE40659E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BE28AD-7329-4F5C-B184-D99C1A6BB816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="1560" windowWidth="28770" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EOS" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">EOS!$A$37:$A$48</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EOS!$A$1:$CQ$174</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EOS!$A$1:$CR$174</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="57">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -219,13 +219,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of August 2023</t>
+    <t>As of November 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2023</t>
+    <t>Q1 2000 to Q3 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2023</t>
+    <t>Q1 2001 to Q3 2023</t>
   </si>
 </sst>
 </file>
@@ -316,7 +316,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -351,10 +351,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -695,19 +706,20 @@
   <dimension ref="A1:EU174"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="95" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BX14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BX3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="CQ5" sqref="CQ5"/>
+      <selection pane="bottomRight" activeCell="CU17" sqref="CU17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.77734375" style="1" customWidth="1"/>
     <col min="2" max="73" width="8.77734375" style="1" customWidth="1"/>
-    <col min="74" max="95" width="10" style="1" customWidth="1"/>
-    <col min="96" max="16384" width="7.77734375" style="1"/>
+    <col min="74" max="89" width="10" style="1" customWidth="1"/>
+    <col min="90" max="96" width="11.109375" style="22" customWidth="1"/>
+    <col min="97" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:151" x14ac:dyDescent="0.2">
@@ -742,148 +754,149 @@
     </row>
     <row r="9" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="22">
+      <c r="B9" s="32">
         <v>2000</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22">
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32">
         <v>2001</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22">
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32">
         <v>2002</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22">
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32">
         <v>2003</v>
       </c>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22">
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32">
         <v>2004</v>
       </c>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22">
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32">
         <v>2005</v>
       </c>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22">
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32">
         <v>2006</v>
       </c>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22">
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="32">
         <v>2007</v>
       </c>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22">
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="32"/>
+      <c r="AH9" s="32">
         <v>2008</v>
       </c>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="22"/>
-      <c r="AL9" s="22">
+      <c r="AI9" s="32"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="32"/>
+      <c r="AL9" s="32">
         <v>2009</v>
       </c>
-      <c r="AM9" s="22"/>
-      <c r="AN9" s="22"/>
-      <c r="AO9" s="22"/>
-      <c r="AP9" s="22">
+      <c r="AM9" s="32"/>
+      <c r="AN9" s="32"/>
+      <c r="AO9" s="32"/>
+      <c r="AP9" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="22"/>
-      <c r="AR9" s="22"/>
-      <c r="AS9" s="22"/>
-      <c r="AT9" s="22">
+      <c r="AQ9" s="32"/>
+      <c r="AR9" s="32"/>
+      <c r="AS9" s="32"/>
+      <c r="AT9" s="32">
         <v>2011</v>
       </c>
-      <c r="AU9" s="22"/>
-      <c r="AV9" s="22"/>
-      <c r="AW9" s="22"/>
-      <c r="AX9" s="22">
+      <c r="AU9" s="32"/>
+      <c r="AV9" s="32"/>
+      <c r="AW9" s="32"/>
+      <c r="AX9" s="32">
         <v>2012</v>
       </c>
-      <c r="AY9" s="22"/>
-      <c r="AZ9" s="22"/>
-      <c r="BA9" s="22"/>
-      <c r="BB9" s="22">
+      <c r="AY9" s="32"/>
+      <c r="AZ9" s="32"/>
+      <c r="BA9" s="32"/>
+      <c r="BB9" s="32">
         <v>2013</v>
       </c>
-      <c r="BC9" s="22"/>
-      <c r="BD9" s="22"/>
-      <c r="BE9" s="22"/>
-      <c r="BF9" s="22">
+      <c r="BC9" s="32"/>
+      <c r="BD9" s="32"/>
+      <c r="BE9" s="32"/>
+      <c r="BF9" s="32">
         <v>2014</v>
       </c>
-      <c r="BG9" s="22"/>
-      <c r="BH9" s="22"/>
-      <c r="BI9" s="22"/>
-      <c r="BJ9" s="22">
+      <c r="BG9" s="32"/>
+      <c r="BH9" s="32"/>
+      <c r="BI9" s="32"/>
+      <c r="BJ9" s="32">
         <v>2015</v>
       </c>
-      <c r="BK9" s="22"/>
-      <c r="BL9" s="22"/>
-      <c r="BM9" s="22"/>
-      <c r="BN9" s="22">
+      <c r="BK9" s="32"/>
+      <c r="BL9" s="32"/>
+      <c r="BM9" s="32"/>
+      <c r="BN9" s="32">
         <v>2016</v>
       </c>
-      <c r="BO9" s="22"/>
-      <c r="BP9" s="22"/>
-      <c r="BQ9" s="22"/>
-      <c r="BR9" s="22">
+      <c r="BO9" s="32"/>
+      <c r="BP9" s="32"/>
+      <c r="BQ9" s="32"/>
+      <c r="BR9" s="32">
         <v>2017</v>
       </c>
-      <c r="BS9" s="22"/>
-      <c r="BT9" s="22"/>
-      <c r="BU9" s="22"/>
-      <c r="BV9" s="22">
+      <c r="BS9" s="32"/>
+      <c r="BT9" s="32"/>
+      <c r="BU9" s="32"/>
+      <c r="BV9" s="32">
         <v>2018</v>
       </c>
-      <c r="BW9" s="22"/>
-      <c r="BX9" s="22"/>
-      <c r="BY9" s="22"/>
-      <c r="BZ9" s="22">
+      <c r="BW9" s="32"/>
+      <c r="BX9" s="32"/>
+      <c r="BY9" s="32"/>
+      <c r="BZ9" s="32">
         <v>2019</v>
       </c>
-      <c r="CA9" s="22"/>
-      <c r="CB9" s="22"/>
-      <c r="CC9" s="22"/>
-      <c r="CD9" s="22">
+      <c r="CA9" s="32"/>
+      <c r="CB9" s="32"/>
+      <c r="CC9" s="32"/>
+      <c r="CD9" s="32">
         <v>2020</v>
       </c>
-      <c r="CE9" s="22"/>
-      <c r="CF9" s="22"/>
-      <c r="CG9" s="22"/>
-      <c r="CH9" s="22">
+      <c r="CE9" s="32"/>
+      <c r="CF9" s="32"/>
+      <c r="CG9" s="32"/>
+      <c r="CH9" s="32">
         <v>2021</v>
       </c>
-      <c r="CI9" s="22"/>
-      <c r="CJ9" s="22"/>
-      <c r="CK9" s="22"/>
-      <c r="CL9" s="22">
+      <c r="CI9" s="32"/>
+      <c r="CJ9" s="32"/>
+      <c r="CK9" s="32"/>
+      <c r="CL9" s="31">
         <v>2022</v>
       </c>
-      <c r="CM9" s="22"/>
-      <c r="CN9" s="22"/>
-      <c r="CO9" s="22"/>
-      <c r="CP9" s="22">
+      <c r="CM9" s="31"/>
+      <c r="CN9" s="31"/>
+      <c r="CO9" s="31"/>
+      <c r="CP9" s="31">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="23"/>
+      <c r="CQ9" s="31"/>
+      <c r="CR9" s="31"/>
     </row>
     <row r="10" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
@@ -1151,23 +1164,26 @@
       <c r="CK10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CL10" s="5" t="s">
+      <c r="CL10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="5" t="s">
+      <c r="CM10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="CN10" s="5" t="s">
+      <c r="CN10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="CO10" s="5" t="s">
+      <c r="CO10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CP10" s="5" t="s">
+      <c r="CP10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="5" t="s">
+      <c r="CQ10" s="13" t="s">
         <v>8</v>
+      </c>
+      <c r="CR10" s="13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1441,25 +1457,27 @@
       <c r="CK12" s="18">
         <v>30220.178862962039</v>
       </c>
-      <c r="CL12" s="18">
+      <c r="CL12" s="23">
         <v>50141.526896531599</v>
       </c>
-      <c r="CM12" s="18">
+      <c r="CM12" s="23">
         <v>33174.177713591889</v>
       </c>
-      <c r="CN12" s="18">
+      <c r="CN12" s="23">
         <v>45433.318337045661</v>
       </c>
-      <c r="CO12" s="18">
+      <c r="CO12" s="23">
         <v>57101.427341662231</v>
       </c>
-      <c r="CP12" s="18">
+      <c r="CP12" s="23">
         <v>90759.354467504862</v>
       </c>
-      <c r="CQ12" s="18">
-        <v>36688.044009385638</v>
-      </c>
-      <c r="CR12" s="8"/>
+      <c r="CQ12" s="23">
+        <v>34722.619909424669</v>
+      </c>
+      <c r="CR12" s="23">
+        <v>54722.458757352855</v>
+      </c>
       <c r="CS12" s="8"/>
       <c r="CT12" s="8"/>
       <c r="CU12" s="8"/>
@@ -1784,25 +1802,27 @@
       <c r="CK13" s="18">
         <v>827.28506832280971</v>
       </c>
-      <c r="CL13" s="18">
+      <c r="CL13" s="23">
         <v>574.23768992813712</v>
       </c>
-      <c r="CM13" s="18">
+      <c r="CM13" s="23">
         <v>434.56660096089865</v>
       </c>
-      <c r="CN13" s="18">
+      <c r="CN13" s="23">
         <v>901.3910259754723</v>
       </c>
-      <c r="CO13" s="18">
+      <c r="CO13" s="23">
         <v>1017.4234524259053</v>
       </c>
-      <c r="CP13" s="18">
+      <c r="CP13" s="23">
         <v>474.27613087101957</v>
       </c>
-      <c r="CQ13" s="18">
-        <v>455.9713996188803</v>
-      </c>
-      <c r="CR13" s="8"/>
+      <c r="CQ13" s="23">
+        <v>470.71334369924239</v>
+      </c>
+      <c r="CR13" s="23">
+        <v>954.34872015458097</v>
+      </c>
       <c r="CS13" s="8"/>
       <c r="CT13" s="8"/>
       <c r="CU13" s="8"/>
@@ -2127,25 +2147,27 @@
       <c r="CK14" s="18">
         <v>13235.535014912855</v>
       </c>
-      <c r="CL14" s="18">
+      <c r="CL14" s="23">
         <v>17456.163863680598</v>
       </c>
-      <c r="CM14" s="18">
+      <c r="CM14" s="23">
         <v>66283.591438967225</v>
       </c>
-      <c r="CN14" s="18">
+      <c r="CN14" s="23">
         <v>105311.49157059008</v>
       </c>
-      <c r="CO14" s="18">
+      <c r="CO14" s="23">
         <v>64203.136054041541</v>
       </c>
-      <c r="CP14" s="18">
+      <c r="CP14" s="23">
         <v>128049.61270907105</v>
       </c>
-      <c r="CQ14" s="18">
+      <c r="CQ14" s="23">
         <v>132330.33872905793</v>
       </c>
-      <c r="CR14" s="8"/>
+      <c r="CR14" s="23">
+        <v>174583.24150521151</v>
+      </c>
       <c r="CS14" s="8"/>
       <c r="CT14" s="8"/>
       <c r="CU14" s="8"/>
@@ -2470,25 +2492,27 @@
       <c r="CK15" s="18">
         <v>4195.2180605646736</v>
       </c>
-      <c r="CL15" s="18">
+      <c r="CL15" s="23">
         <v>3729.5283113630962</v>
       </c>
-      <c r="CM15" s="18">
+      <c r="CM15" s="23">
         <v>4331.5359392082883</v>
       </c>
-      <c r="CN15" s="18">
+      <c r="CN15" s="23">
         <v>4463.2768148689938</v>
       </c>
-      <c r="CO15" s="18">
+      <c r="CO15" s="23">
         <v>4595.0686874499042</v>
       </c>
-      <c r="CP15" s="18">
+      <c r="CP15" s="23">
         <v>4570.1940500558103</v>
       </c>
-      <c r="CQ15" s="18">
-        <v>5219.9633965336925</v>
-      </c>
-      <c r="CR15" s="8"/>
+      <c r="CQ15" s="23">
+        <v>5139.0553496337761</v>
+      </c>
+      <c r="CR15" s="23">
+        <v>5303.5480278897912</v>
+      </c>
       <c r="CS15" s="8"/>
       <c r="CT15" s="8"/>
       <c r="CU15" s="8"/>
@@ -2813,25 +2837,27 @@
       <c r="CK16" s="18">
         <v>71751.796558186717</v>
       </c>
-      <c r="CL16" s="18">
+      <c r="CL16" s="23">
         <v>119217.8979954884</v>
       </c>
-      <c r="CM16" s="18">
+      <c r="CM16" s="23">
         <v>118035.67759448505</v>
       </c>
-      <c r="CN16" s="18">
+      <c r="CN16" s="23">
         <v>85298.716941900639</v>
       </c>
-      <c r="CO16" s="18">
+      <c r="CO16" s="23">
         <v>88349.252531254111</v>
       </c>
-      <c r="CP16" s="18">
+      <c r="CP16" s="23">
         <v>135502.32232032763</v>
       </c>
-      <c r="CQ16" s="18">
-        <v>128987.3449783593</v>
-      </c>
-      <c r="CR16" s="8"/>
+      <c r="CQ16" s="23">
+        <v>132006.04495852461</v>
+      </c>
+      <c r="CR16" s="23">
+        <v>90807.764514924245</v>
+      </c>
       <c r="CS16" s="8"/>
       <c r="CT16" s="8"/>
       <c r="CU16" s="8"/>
@@ -3156,25 +3182,27 @@
       <c r="CK17" s="18">
         <v>292354.81528290245</v>
       </c>
-      <c r="CL17" s="18">
+      <c r="CL17" s="23">
         <v>407354.16197559203</v>
       </c>
-      <c r="CM17" s="18">
+      <c r="CM17" s="23">
         <v>417649.08107765322</v>
       </c>
-      <c r="CN17" s="18">
+      <c r="CN17" s="23">
         <v>328602.19931776245</v>
       </c>
-      <c r="CO17" s="18">
+      <c r="CO17" s="23">
         <v>330617.25478872925</v>
       </c>
-      <c r="CP17" s="18">
+      <c r="CP17" s="23">
         <v>438458.15859506308</v>
       </c>
-      <c r="CQ17" s="18">
-        <v>441409.99578828533</v>
-      </c>
-      <c r="CR17" s="8"/>
+      <c r="CQ17" s="23">
+        <v>442320.61266757827</v>
+      </c>
+      <c r="CR17" s="23">
+        <v>339614.21704754344</v>
+      </c>
       <c r="CS17" s="8"/>
       <c r="CT17" s="8"/>
       <c r="CU17" s="8"/>
@@ -3499,25 +3527,27 @@
       <c r="CK18" s="18">
         <v>55767.085148338512</v>
       </c>
-      <c r="CL18" s="18">
+      <c r="CL18" s="23">
         <v>86134.983310187468</v>
       </c>
-      <c r="CM18" s="18">
+      <c r="CM18" s="23">
         <v>79391.782907497327</v>
       </c>
-      <c r="CN18" s="18">
+      <c r="CN18" s="23">
         <v>58500.276885178675</v>
       </c>
-      <c r="CO18" s="18">
+      <c r="CO18" s="23">
         <v>67519.422955250629</v>
       </c>
-      <c r="CP18" s="18">
+      <c r="CP18" s="23">
         <v>67323.097737259697</v>
       </c>
-      <c r="CQ18" s="18">
-        <v>72565.429562570003</v>
-      </c>
-      <c r="CR18" s="8"/>
+      <c r="CQ18" s="23">
+        <v>78879.443606324872</v>
+      </c>
+      <c r="CR18" s="23">
+        <v>63688.062502897381</v>
+      </c>
       <c r="CS18" s="8"/>
       <c r="CT18" s="8"/>
       <c r="CU18" s="8"/>
@@ -3842,25 +3872,27 @@
       <c r="CK19" s="18">
         <v>7425.0266070361704</v>
       </c>
-      <c r="CL19" s="18">
+      <c r="CL19" s="23">
         <v>6985.328235938412</v>
       </c>
-      <c r="CM19" s="18">
+      <c r="CM19" s="23">
         <v>9386.617492368041</v>
       </c>
-      <c r="CN19" s="18">
+      <c r="CN19" s="23">
         <v>9326.1589327401853</v>
       </c>
-      <c r="CO19" s="18">
+      <c r="CO19" s="23">
         <v>11124.599699881461</v>
       </c>
-      <c r="CP19" s="18">
+      <c r="CP19" s="23">
         <v>8730.0729440266932</v>
       </c>
-      <c r="CQ19" s="18">
-        <v>14091.47674314199</v>
-      </c>
-      <c r="CR19" s="8"/>
+      <c r="CQ19" s="23">
+        <v>10916.291705433185</v>
+      </c>
+      <c r="CR19" s="23">
+        <v>8832.2082543798206</v>
+      </c>
       <c r="CS19" s="8"/>
       <c r="CT19" s="8"/>
       <c r="CU19" s="8"/>
@@ -4006,13 +4038,13 @@
       <c r="CI20" s="8"/>
       <c r="CJ20" s="8"/>
       <c r="CK20" s="8"/>
-      <c r="CL20" s="8"/>
-      <c r="CM20" s="8"/>
-      <c r="CN20" s="8"/>
-      <c r="CO20" s="8"/>
-      <c r="CP20" s="8"/>
-      <c r="CQ20" s="8"/>
-      <c r="CR20" s="8"/>
+      <c r="CL20" s="24"/>
+      <c r="CM20" s="24"/>
+      <c r="CN20" s="24"/>
+      <c r="CO20" s="24"/>
+      <c r="CP20" s="24"/>
+      <c r="CQ20" s="24"/>
+      <c r="CR20" s="24"/>
       <c r="CS20" s="8"/>
       <c r="CT20" s="8"/>
       <c r="CU20" s="8"/>
@@ -4337,25 +4369,27 @@
       <c r="CK21" s="19">
         <v>475776.94060322625</v>
       </c>
-      <c r="CL21" s="19">
+      <c r="CL21" s="25">
         <v>691593.82827870979</v>
       </c>
-      <c r="CM21" s="19">
+      <c r="CM21" s="25">
         <v>728687.03076473204</v>
       </c>
-      <c r="CN21" s="19">
+      <c r="CN21" s="25">
         <v>637836.8298260622</v>
       </c>
-      <c r="CO21" s="19">
+      <c r="CO21" s="25">
         <v>624527.585510695</v>
       </c>
-      <c r="CP21" s="19">
+      <c r="CP21" s="25">
         <v>873867.08895417978</v>
       </c>
-      <c r="CQ21" s="19">
-        <v>831748.56460695283</v>
-      </c>
-      <c r="CR21" s="8"/>
+      <c r="CQ21" s="25">
+        <v>836785.12026967644</v>
+      </c>
+      <c r="CR21" s="25">
+        <v>738505.84933035367</v>
+      </c>
       <c r="CS21" s="8"/>
       <c r="CT21" s="8"/>
       <c r="CU21" s="8"/>
@@ -4502,12 +4536,13 @@
       <c r="CI22" s="11"/>
       <c r="CJ22" s="11"/>
       <c r="CK22" s="11"/>
-      <c r="CL22" s="11"/>
-      <c r="CM22" s="11"/>
-      <c r="CN22" s="11"/>
-      <c r="CO22" s="11"/>
-      <c r="CP22" s="11"/>
-      <c r="CQ22" s="11"/>
+      <c r="CL22" s="26"/>
+      <c r="CM22" s="26"/>
+      <c r="CN22" s="26"/>
+      <c r="CO22" s="26"/>
+      <c r="CP22" s="26"/>
+      <c r="CQ22" s="26"/>
+      <c r="CR22" s="26"/>
     </row>
     <row r="23" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
@@ -4603,13 +4638,13 @@
       <c r="CI24" s="8"/>
       <c r="CJ24" s="8"/>
       <c r="CK24" s="8"/>
-      <c r="CL24" s="8"/>
-      <c r="CM24" s="8"/>
-      <c r="CN24" s="8"/>
-      <c r="CO24" s="8"/>
-      <c r="CP24" s="8"/>
-      <c r="CQ24" s="8"/>
-      <c r="CR24" s="8"/>
+      <c r="CL24" s="24"/>
+      <c r="CM24" s="24"/>
+      <c r="CN24" s="24"/>
+      <c r="CO24" s="24"/>
+      <c r="CP24" s="24"/>
+      <c r="CQ24" s="24"/>
+      <c r="CR24" s="24"/>
       <c r="CS24" s="8"/>
       <c r="CT24" s="8"/>
       <c r="CU24" s="8"/>
@@ -4755,13 +4790,13 @@
       <c r="CI25" s="8"/>
       <c r="CJ25" s="8"/>
       <c r="CK25" s="8"/>
-      <c r="CL25" s="8"/>
-      <c r="CM25" s="8"/>
-      <c r="CN25" s="8"/>
-      <c r="CO25" s="8"/>
-      <c r="CP25" s="8"/>
-      <c r="CQ25" s="8"/>
-      <c r="CR25" s="8"/>
+      <c r="CL25" s="24"/>
+      <c r="CM25" s="24"/>
+      <c r="CN25" s="24"/>
+      <c r="CO25" s="24"/>
+      <c r="CP25" s="24"/>
+      <c r="CQ25" s="24"/>
+      <c r="CR25" s="24"/>
       <c r="CS25" s="8"/>
       <c r="CT25" s="8"/>
       <c r="CU25" s="8"/>
@@ -4850,148 +4885,149 @@
     </row>
     <row r="34" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="21">
+      <c r="B34" s="31">
         <v>2000</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21">
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31">
         <v>2001</v>
       </c>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21">
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31">
         <v>2002</v>
       </c>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21">
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31">
         <v>2003</v>
       </c>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21">
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31">
         <v>2004</v>
       </c>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="21">
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31">
         <v>2005</v>
       </c>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="21"/>
-      <c r="Z34" s="21">
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31">
         <v>2006</v>
       </c>
-      <c r="AA34" s="21"/>
-      <c r="AB34" s="21"/>
-      <c r="AC34" s="21"/>
-      <c r="AD34" s="21">
+      <c r="AA34" s="31"/>
+      <c r="AB34" s="31"/>
+      <c r="AC34" s="31"/>
+      <c r="AD34" s="31">
         <v>2007</v>
       </c>
-      <c r="AE34" s="21"/>
-      <c r="AF34" s="21"/>
-      <c r="AG34" s="21"/>
-      <c r="AH34" s="21">
+      <c r="AE34" s="31"/>
+      <c r="AF34" s="31"/>
+      <c r="AG34" s="31"/>
+      <c r="AH34" s="31">
         <v>2008</v>
       </c>
-      <c r="AI34" s="21"/>
-      <c r="AJ34" s="21"/>
-      <c r="AK34" s="21"/>
-      <c r="AL34" s="21">
+      <c r="AI34" s="31"/>
+      <c r="AJ34" s="31"/>
+      <c r="AK34" s="31"/>
+      <c r="AL34" s="31">
         <v>2009</v>
       </c>
-      <c r="AM34" s="21"/>
-      <c r="AN34" s="21"/>
-      <c r="AO34" s="21"/>
-      <c r="AP34" s="21">
+      <c r="AM34" s="31"/>
+      <c r="AN34" s="31"/>
+      <c r="AO34" s="31"/>
+      <c r="AP34" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ34" s="21"/>
-      <c r="AR34" s="21"/>
-      <c r="AS34" s="21"/>
-      <c r="AT34" s="21">
+      <c r="AQ34" s="31"/>
+      <c r="AR34" s="31"/>
+      <c r="AS34" s="31"/>
+      <c r="AT34" s="31">
         <v>2011</v>
       </c>
-      <c r="AU34" s="21"/>
-      <c r="AV34" s="21"/>
-      <c r="AW34" s="21"/>
-      <c r="AX34" s="21">
+      <c r="AU34" s="31"/>
+      <c r="AV34" s="31"/>
+      <c r="AW34" s="31"/>
+      <c r="AX34" s="31">
         <v>2012</v>
       </c>
-      <c r="AY34" s="21"/>
-      <c r="AZ34" s="21"/>
-      <c r="BA34" s="21"/>
-      <c r="BB34" s="21">
+      <c r="AY34" s="31"/>
+      <c r="AZ34" s="31"/>
+      <c r="BA34" s="31"/>
+      <c r="BB34" s="31">
         <v>2013</v>
       </c>
-      <c r="BC34" s="21"/>
-      <c r="BD34" s="21"/>
-      <c r="BE34" s="21"/>
-      <c r="BF34" s="21">
+      <c r="BC34" s="31"/>
+      <c r="BD34" s="31"/>
+      <c r="BE34" s="31"/>
+      <c r="BF34" s="31">
         <v>2014</v>
       </c>
-      <c r="BG34" s="21"/>
-      <c r="BH34" s="21"/>
-      <c r="BI34" s="21"/>
-      <c r="BJ34" s="21">
+      <c r="BG34" s="31"/>
+      <c r="BH34" s="31"/>
+      <c r="BI34" s="31"/>
+      <c r="BJ34" s="31">
         <v>2015</v>
       </c>
-      <c r="BK34" s="21"/>
-      <c r="BL34" s="21"/>
-      <c r="BM34" s="21"/>
-      <c r="BN34" s="21">
+      <c r="BK34" s="31"/>
+      <c r="BL34" s="31"/>
+      <c r="BM34" s="31"/>
+      <c r="BN34" s="31">
         <v>2016</v>
       </c>
-      <c r="BO34" s="21"/>
-      <c r="BP34" s="21"/>
-      <c r="BQ34" s="21"/>
-      <c r="BR34" s="21">
+      <c r="BO34" s="31"/>
+      <c r="BP34" s="31"/>
+      <c r="BQ34" s="31"/>
+      <c r="BR34" s="31">
         <v>2017</v>
       </c>
-      <c r="BS34" s="21"/>
-      <c r="BT34" s="21"/>
-      <c r="BU34" s="21"/>
-      <c r="BV34" s="21">
+      <c r="BS34" s="31"/>
+      <c r="BT34" s="31"/>
+      <c r="BU34" s="31"/>
+      <c r="BV34" s="31">
         <v>2018</v>
       </c>
-      <c r="BW34" s="21"/>
-      <c r="BX34" s="21"/>
-      <c r="BY34" s="21"/>
-      <c r="BZ34" s="21">
+      <c r="BW34" s="31"/>
+      <c r="BX34" s="31"/>
+      <c r="BY34" s="31"/>
+      <c r="BZ34" s="31">
         <v>2019</v>
       </c>
-      <c r="CA34" s="21"/>
-      <c r="CB34" s="21"/>
-      <c r="CC34" s="21"/>
-      <c r="CD34" s="22">
+      <c r="CA34" s="31"/>
+      <c r="CB34" s="31"/>
+      <c r="CC34" s="31"/>
+      <c r="CD34" s="32">
         <v>2020</v>
       </c>
-      <c r="CE34" s="22"/>
-      <c r="CF34" s="22"/>
-      <c r="CG34" s="22"/>
-      <c r="CH34" s="22">
+      <c r="CE34" s="32"/>
+      <c r="CF34" s="32"/>
+      <c r="CG34" s="32"/>
+      <c r="CH34" s="32">
         <v>2021</v>
       </c>
-      <c r="CI34" s="22"/>
-      <c r="CJ34" s="22"/>
-      <c r="CK34" s="22"/>
-      <c r="CL34" s="22">
+      <c r="CI34" s="32"/>
+      <c r="CJ34" s="32"/>
+      <c r="CK34" s="32"/>
+      <c r="CL34" s="31">
         <v>2022</v>
       </c>
-      <c r="CM34" s="22"/>
-      <c r="CN34" s="22"/>
-      <c r="CO34" s="22"/>
-      <c r="CP34" s="22">
+      <c r="CM34" s="31"/>
+      <c r="CN34" s="31"/>
+      <c r="CO34" s="31"/>
+      <c r="CP34" s="31">
         <v>2023</v>
       </c>
-      <c r="CQ34" s="23"/>
+      <c r="CQ34" s="31"/>
+      <c r="CR34" s="31"/>
     </row>
     <row r="35" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
@@ -5259,23 +5295,26 @@
       <c r="CK35" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CL35" s="13" t="s">
+      <c r="CL35" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CM35" s="13" t="s">
+      <c r="CM35" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CN35" s="13" t="s">
+      <c r="CN35" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CO35" s="13" t="s">
+      <c r="CO35" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="CP35" s="13" t="s">
+      <c r="CP35" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CQ35" s="13" t="s">
+      <c r="CQ35" s="27" t="s">
         <v>8</v>
+      </c>
+      <c r="CR35" s="27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -5549,25 +5588,27 @@
       <c r="CK37" s="18">
         <v>25473.984362080206</v>
       </c>
-      <c r="CL37" s="18">
+      <c r="CL37" s="23">
         <v>39764.430508135309</v>
       </c>
-      <c r="CM37" s="18">
+      <c r="CM37" s="23">
         <v>26620.30384489982</v>
       </c>
-      <c r="CN37" s="18">
+      <c r="CN37" s="23">
         <v>35357.329087856539</v>
       </c>
-      <c r="CO37" s="18">
+      <c r="CO37" s="23">
         <v>42923.047723132688</v>
       </c>
-      <c r="CP37" s="18">
+      <c r="CP37" s="23">
         <v>66380.3538554962</v>
       </c>
-      <c r="CQ37" s="18">
-        <v>25899.265033307081</v>
-      </c>
-      <c r="CR37" s="8"/>
+      <c r="CQ37" s="23">
+        <v>24511.809227412497</v>
+      </c>
+      <c r="CR37" s="23">
+        <v>42003.108653506613</v>
+      </c>
       <c r="CS37" s="8"/>
       <c r="CT37" s="8"/>
       <c r="CU37" s="8"/>
@@ -5892,25 +5933,27 @@
       <c r="CK38" s="18">
         <v>770.19546330619676</v>
       </c>
-      <c r="CL38" s="18">
+      <c r="CL38" s="23">
         <v>513.260353030533</v>
       </c>
-      <c r="CM38" s="18">
+      <c r="CM38" s="23">
         <v>382.06821091022977</v>
       </c>
-      <c r="CN38" s="18">
+      <c r="CN38" s="23">
         <v>776.70768745237024</v>
       </c>
-      <c r="CO38" s="18">
+      <c r="CO38" s="23">
         <v>889.21572221660801</v>
       </c>
-      <c r="CP38" s="18">
+      <c r="CP38" s="23">
         <v>396.58022379505599</v>
       </c>
-      <c r="CQ38" s="18">
-        <v>382.30657292821888</v>
-      </c>
-      <c r="CR38" s="8"/>
+      <c r="CQ38" s="23">
+        <v>394.66687035997319</v>
+      </c>
+      <c r="CR38" s="23">
+        <v>795.16883248606666</v>
+      </c>
       <c r="CS38" s="8"/>
       <c r="CT38" s="8"/>
       <c r="CU38" s="8"/>
@@ -6235,25 +6278,27 @@
       <c r="CK39" s="18">
         <v>12202.689945533572</v>
       </c>
-      <c r="CL39" s="18">
+      <c r="CL39" s="23">
         <v>15389.064093647212</v>
       </c>
-      <c r="CM39" s="18">
+      <c r="CM39" s="23">
         <v>57321.791102132127</v>
       </c>
-      <c r="CN39" s="18">
+      <c r="CN39" s="23">
         <v>88956.594041921373</v>
       </c>
-      <c r="CO39" s="18">
+      <c r="CO39" s="23">
         <v>54857.258251901527</v>
       </c>
-      <c r="CP39" s="18">
+      <c r="CP39" s="23">
         <v>104952.98838100983</v>
       </c>
-      <c r="CQ39" s="18">
+      <c r="CQ39" s="23">
         <v>107908.32982931691</v>
       </c>
-      <c r="CR39" s="8"/>
+      <c r="CR39" s="23">
+        <v>139971.22516500723</v>
+      </c>
       <c r="CS39" s="8"/>
       <c r="CT39" s="8"/>
       <c r="CU39" s="8"/>
@@ -6578,25 +6623,27 @@
       <c r="CK40" s="18">
         <v>3847.7974661865246</v>
       </c>
-      <c r="CL40" s="18">
+      <c r="CL40" s="23">
         <v>3434.5919735030589</v>
       </c>
-      <c r="CM40" s="18">
+      <c r="CM40" s="23">
         <v>3938.4675463402086</v>
       </c>
-      <c r="CN40" s="18">
+      <c r="CN40" s="23">
         <v>3966.0472849247194</v>
       </c>
-      <c r="CO40" s="18">
+      <c r="CO40" s="23">
         <v>3977.1461621146914</v>
       </c>
-      <c r="CP40" s="18">
+      <c r="CP40" s="23">
         <v>3948.5227029077737</v>
       </c>
-      <c r="CQ40" s="18">
-        <v>4480.5580480484614</v>
-      </c>
-      <c r="CR40" s="8"/>
+      <c r="CQ40" s="23">
+        <v>4411.1105877597502</v>
+      </c>
+      <c r="CR40" s="23">
+        <v>4489.0256045275964</v>
+      </c>
       <c r="CS40" s="8"/>
       <c r="CT40" s="8"/>
       <c r="CU40" s="8"/>
@@ -6921,25 +6968,27 @@
       <c r="CK41" s="18">
         <v>72338.577129792466</v>
       </c>
-      <c r="CL41" s="18">
+      <c r="CL41" s="23">
         <v>116677.43002870887</v>
       </c>
-      <c r="CM41" s="18">
+      <c r="CM41" s="23">
         <v>114398.77827366724</v>
       </c>
-      <c r="CN41" s="18">
+      <c r="CN41" s="23">
         <v>83482.535941170252</v>
       </c>
-      <c r="CO41" s="18">
+      <c r="CO41" s="23">
         <v>85486.339096444455</v>
       </c>
-      <c r="CP41" s="18">
+      <c r="CP41" s="23">
         <v>131657.7994655674</v>
       </c>
-      <c r="CQ41" s="18">
-        <v>124483.47918496309</v>
-      </c>
-      <c r="CR41" s="8"/>
+      <c r="CQ41" s="23">
+        <v>127397.97452047074</v>
+      </c>
+      <c r="CR41" s="23">
+        <v>88544.277655303624</v>
+      </c>
       <c r="CS41" s="8"/>
       <c r="CT41" s="8"/>
       <c r="CU41" s="8"/>
@@ -7264,25 +7313,27 @@
       <c r="CK42" s="18">
         <v>267343.98843610822</v>
       </c>
-      <c r="CL42" s="18">
+      <c r="CL42" s="23">
         <v>357362.75456158456</v>
       </c>
-      <c r="CM42" s="18">
+      <c r="CM42" s="23">
         <v>362411.57167247194</v>
       </c>
-      <c r="CN42" s="18">
+      <c r="CN42" s="23">
         <v>282000.18209253578</v>
       </c>
-      <c r="CO42" s="18">
+      <c r="CO42" s="23">
         <v>282568.33591674821</v>
       </c>
-      <c r="CP42" s="18">
+      <c r="CP42" s="23">
         <v>369595.05173715425</v>
       </c>
-      <c r="CQ42" s="18">
-        <v>369271.05106020212</v>
-      </c>
-      <c r="CR42" s="8"/>
+      <c r="CQ42" s="23">
+        <v>370084.79216041439</v>
+      </c>
+      <c r="CR42" s="23">
+        <v>281734.9483746647</v>
+      </c>
       <c r="CS42" s="8"/>
       <c r="CT42" s="8"/>
       <c r="CU42" s="8"/>
@@ -7607,25 +7658,27 @@
       <c r="CK43" s="18">
         <v>52037.635302078721</v>
       </c>
-      <c r="CL43" s="18">
+      <c r="CL43" s="23">
         <v>76295.067345606396</v>
       </c>
-      <c r="CM43" s="18">
+      <c r="CM43" s="23">
         <v>69855.480841691693</v>
       </c>
-      <c r="CN43" s="18">
+      <c r="CN43" s="23">
         <v>48935.143393238061</v>
       </c>
-      <c r="CO43" s="18">
+      <c r="CO43" s="23">
         <v>57321.148454949551</v>
       </c>
-      <c r="CP43" s="18">
+      <c r="CP43" s="23">
         <v>55787.222374251556</v>
       </c>
-      <c r="CQ43" s="18">
-        <v>60889.765891529736</v>
-      </c>
-      <c r="CR43" s="8"/>
+      <c r="CQ43" s="23">
+        <v>66187.864990199887</v>
+      </c>
+      <c r="CR43" s="23">
+        <v>51514.425499060904</v>
+      </c>
       <c r="CS43" s="8"/>
       <c r="CT43" s="8"/>
       <c r="CU43" s="8"/>
@@ -7950,25 +8003,27 @@
       <c r="CK44" s="18">
         <v>6921.6089579479312</v>
       </c>
-      <c r="CL44" s="18">
+      <c r="CL44" s="23">
         <v>6236.6807855633124</v>
       </c>
-      <c r="CM44" s="18">
+      <c r="CM44" s="23">
         <v>8296.7941167833451</v>
       </c>
-      <c r="CN44" s="18">
+      <c r="CN44" s="23">
         <v>8381.4864233369353</v>
       </c>
-      <c r="CO44" s="18">
+      <c r="CO44" s="23">
         <v>9735.3833275709912</v>
       </c>
-      <c r="CP44" s="18">
+      <c r="CP44" s="23">
         <v>7291.860155735676</v>
       </c>
-      <c r="CQ44" s="18">
-        <v>11878.108919901721</v>
-      </c>
-      <c r="CR44" s="8"/>
+      <c r="CQ44" s="23">
+        <v>9201.6546059773391</v>
+      </c>
+      <c r="CR44" s="23">
+        <v>7593.185856089387</v>
+      </c>
       <c r="CS44" s="8"/>
       <c r="CT44" s="8"/>
       <c r="CU44" s="8"/>
@@ -8114,13 +8169,13 @@
       <c r="CI45" s="8"/>
       <c r="CJ45" s="8"/>
       <c r="CK45" s="8"/>
-      <c r="CL45" s="8"/>
-      <c r="CM45" s="8"/>
-      <c r="CN45" s="8"/>
-      <c r="CO45" s="8"/>
-      <c r="CP45" s="8"/>
-      <c r="CQ45" s="8"/>
-      <c r="CR45" s="8"/>
+      <c r="CL45" s="24"/>
+      <c r="CM45" s="24"/>
+      <c r="CN45" s="24"/>
+      <c r="CO45" s="24"/>
+      <c r="CP45" s="24"/>
+      <c r="CQ45" s="24"/>
+      <c r="CR45" s="24"/>
       <c r="CS45" s="8"/>
       <c r="CT45" s="8"/>
       <c r="CU45" s="8"/>
@@ -8445,25 +8500,27 @@
       <c r="CK46" s="19">
         <v>440936.47706303385</v>
       </c>
-      <c r="CL46" s="19">
+      <c r="CL46" s="25">
         <v>615673.2796497792</v>
       </c>
-      <c r="CM46" s="19">
+      <c r="CM46" s="25">
         <v>643225.25560889661</v>
       </c>
-      <c r="CN46" s="19">
+      <c r="CN46" s="25">
         <v>551856.02595243603</v>
       </c>
-      <c r="CO46" s="19">
+      <c r="CO46" s="25">
         <v>537757.87465507863</v>
       </c>
-      <c r="CP46" s="19">
+      <c r="CP46" s="25">
         <v>740010.37889591767</v>
       </c>
-      <c r="CQ46" s="19">
-        <v>705192.86454019742</v>
-      </c>
-      <c r="CR46" s="8"/>
+      <c r="CQ46" s="25">
+        <v>710098.20279191155</v>
+      </c>
+      <c r="CR46" s="25">
+        <v>616645.36564064596</v>
+      </c>
       <c r="CS46" s="8"/>
       <c r="CT46" s="8"/>
       <c r="CU46" s="8"/>
@@ -8610,12 +8667,13 @@
       <c r="CI47" s="11"/>
       <c r="CJ47" s="11"/>
       <c r="CK47" s="11"/>
-      <c r="CL47" s="11"/>
-      <c r="CM47" s="11"/>
-      <c r="CN47" s="11"/>
-      <c r="CO47" s="11"/>
-      <c r="CP47" s="11"/>
-      <c r="CQ47" s="11"/>
+      <c r="CL47" s="26"/>
+      <c r="CM47" s="26"/>
+      <c r="CN47" s="26"/>
+      <c r="CO47" s="26"/>
+      <c r="CP47" s="26"/>
+      <c r="CQ47" s="26"/>
+      <c r="CR47" s="26"/>
     </row>
     <row r="48" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
@@ -8711,13 +8769,13 @@
       <c r="CI49" s="8"/>
       <c r="CJ49" s="8"/>
       <c r="CK49" s="8"/>
-      <c r="CL49" s="8"/>
-      <c r="CM49" s="8"/>
-      <c r="CN49" s="8"/>
-      <c r="CO49" s="8"/>
-      <c r="CP49" s="8"/>
-      <c r="CQ49" s="8"/>
-      <c r="CR49" s="8"/>
+      <c r="CL49" s="24"/>
+      <c r="CM49" s="24"/>
+      <c r="CN49" s="24"/>
+      <c r="CO49" s="24"/>
+      <c r="CP49" s="24"/>
+      <c r="CQ49" s="24"/>
+      <c r="CR49" s="24"/>
       <c r="CS49" s="8"/>
       <c r="CT49" s="8"/>
       <c r="CU49" s="8"/>
@@ -8863,13 +8921,13 @@
       <c r="CI50" s="8"/>
       <c r="CJ50" s="8"/>
       <c r="CK50" s="8"/>
-      <c r="CL50" s="8"/>
-      <c r="CM50" s="8"/>
-      <c r="CN50" s="8"/>
-      <c r="CO50" s="8"/>
-      <c r="CP50" s="8"/>
-      <c r="CQ50" s="8"/>
-      <c r="CR50" s="8"/>
+      <c r="CL50" s="24"/>
+      <c r="CM50" s="24"/>
+      <c r="CN50" s="24"/>
+      <c r="CO50" s="24"/>
+      <c r="CP50" s="24"/>
+      <c r="CQ50" s="24"/>
+      <c r="CR50" s="24"/>
       <c r="CS50" s="8"/>
       <c r="CT50" s="8"/>
       <c r="CU50" s="8"/>
@@ -8958,148 +9016,147 @@
     </row>
     <row r="59" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22" t="s">
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22" t="s">
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="22" t="s">
+      <c r="K59" s="32"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="32"/>
+      <c r="N59" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="O59" s="22"/>
-      <c r="P59" s="22"/>
-      <c r="Q59" s="22"/>
-      <c r="R59" s="22" t="s">
+      <c r="O59" s="32"/>
+      <c r="P59" s="32"/>
+      <c r="Q59" s="32"/>
+      <c r="R59" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="S59" s="22"/>
-      <c r="T59" s="22"/>
-      <c r="U59" s="22"/>
-      <c r="V59" s="22" t="s">
+      <c r="S59" s="32"/>
+      <c r="T59" s="32"/>
+      <c r="U59" s="32"/>
+      <c r="V59" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="W59" s="22"/>
-      <c r="X59" s="22"/>
-      <c r="Y59" s="22"/>
-      <c r="Z59" s="22" t="s">
+      <c r="W59" s="32"/>
+      <c r="X59" s="32"/>
+      <c r="Y59" s="32"/>
+      <c r="Z59" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="AA59" s="22"/>
-      <c r="AB59" s="22"/>
-      <c r="AC59" s="22"/>
-      <c r="AD59" s="22" t="s">
+      <c r="AA59" s="32"/>
+      <c r="AB59" s="32"/>
+      <c r="AC59" s="32"/>
+      <c r="AD59" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AE59" s="22"/>
-      <c r="AF59" s="22"/>
-      <c r="AG59" s="22"/>
-      <c r="AH59" s="22" t="s">
+      <c r="AE59" s="32"/>
+      <c r="AF59" s="32"/>
+      <c r="AG59" s="32"/>
+      <c r="AH59" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="AI59" s="22"/>
-      <c r="AJ59" s="22"/>
-      <c r="AK59" s="22"/>
-      <c r="AL59" s="22" t="s">
+      <c r="AI59" s="32"/>
+      <c r="AJ59" s="32"/>
+      <c r="AK59" s="32"/>
+      <c r="AL59" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="AM59" s="22"/>
-      <c r="AN59" s="22"/>
-      <c r="AO59" s="22"/>
-      <c r="AP59" s="22" t="s">
+      <c r="AM59" s="32"/>
+      <c r="AN59" s="32"/>
+      <c r="AO59" s="32"/>
+      <c r="AP59" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="AQ59" s="22"/>
-      <c r="AR59" s="22"/>
-      <c r="AS59" s="22"/>
-      <c r="AT59" s="22" t="s">
+      <c r="AQ59" s="32"/>
+      <c r="AR59" s="32"/>
+      <c r="AS59" s="32"/>
+      <c r="AT59" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="AU59" s="22"/>
-      <c r="AV59" s="22"/>
-      <c r="AW59" s="22"/>
-      <c r="AX59" s="22" t="s">
+      <c r="AU59" s="32"/>
+      <c r="AV59" s="32"/>
+      <c r="AW59" s="32"/>
+      <c r="AX59" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="AY59" s="22"/>
-      <c r="AZ59" s="22"/>
-      <c r="BA59" s="22"/>
-      <c r="BB59" s="22" t="s">
+      <c r="AY59" s="32"/>
+      <c r="AZ59" s="32"/>
+      <c r="BA59" s="32"/>
+      <c r="BB59" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="BC59" s="22"/>
-      <c r="BD59" s="22"/>
-      <c r="BE59" s="22"/>
-      <c r="BF59" s="22" t="s">
+      <c r="BC59" s="32"/>
+      <c r="BD59" s="32"/>
+      <c r="BE59" s="32"/>
+      <c r="BF59" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="BG59" s="22"/>
-      <c r="BH59" s="22"/>
-      <c r="BI59" s="22"/>
-      <c r="BJ59" s="22" t="s">
+      <c r="BG59" s="32"/>
+      <c r="BH59" s="32"/>
+      <c r="BI59" s="32"/>
+      <c r="BJ59" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="BK59" s="22"/>
-      <c r="BL59" s="22"/>
-      <c r="BM59" s="22"/>
-      <c r="BN59" s="22" t="s">
+      <c r="BK59" s="32"/>
+      <c r="BL59" s="32"/>
+      <c r="BM59" s="32"/>
+      <c r="BN59" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="BO59" s="22"/>
-      <c r="BP59" s="22"/>
-      <c r="BQ59" s="22"/>
-      <c r="BR59" s="22" t="s">
+      <c r="BO59" s="32"/>
+      <c r="BP59" s="32"/>
+      <c r="BQ59" s="32"/>
+      <c r="BR59" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="BS59" s="22"/>
-      <c r="BT59" s="22"/>
-      <c r="BU59" s="22"/>
-      <c r="BV59" s="22" t="s">
+      <c r="BS59" s="32"/>
+      <c r="BT59" s="32"/>
+      <c r="BU59" s="32"/>
+      <c r="BV59" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="BW59" s="22"/>
-      <c r="BX59" s="22"/>
-      <c r="BY59" s="22"/>
-      <c r="BZ59" s="22" t="s">
+      <c r="BW59" s="32"/>
+      <c r="BX59" s="32"/>
+      <c r="BY59" s="32"/>
+      <c r="BZ59" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="CA59" s="22"/>
-      <c r="CB59" s="22"/>
-      <c r="CC59" s="22"/>
-      <c r="CD59" s="22" t="s">
+      <c r="CA59" s="32"/>
+      <c r="CB59" s="32"/>
+      <c r="CC59" s="32"/>
+      <c r="CD59" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="CE59" s="22"/>
-      <c r="CF59" s="22"/>
-      <c r="CG59" s="22"/>
-      <c r="CH59" s="22" t="s">
+      <c r="CE59" s="32"/>
+      <c r="CF59" s="32"/>
+      <c r="CG59" s="32"/>
+      <c r="CH59" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="CI59" s="22"/>
-      <c r="CJ59" s="22"/>
-      <c r="CK59" s="22"/>
-      <c r="CL59" s="22" t="s">
+      <c r="CI59" s="32"/>
+      <c r="CJ59" s="32"/>
+      <c r="CK59" s="32"/>
+      <c r="CL59" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="CM59" s="22">
-        <v>0</v>
-      </c>
-      <c r="CN59" s="22"/>
-      <c r="CO59" s="22"/>
-      <c r="CP59" s="22"/>
-      <c r="CQ59" s="23"/>
+      <c r="CM59" s="31"/>
+      <c r="CN59" s="31"/>
+      <c r="CO59" s="28"/>
+      <c r="CP59" s="21"/>
+      <c r="CQ59" s="21"/>
+      <c r="CR59" s="21"/>
     </row>
     <row r="60" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
@@ -9367,16 +9424,19 @@
       <c r="CK60" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CL60" s="13" t="s">
+      <c r="CL60" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CM60" s="13" t="s">
+      <c r="CM60" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CN60" s="13"/>
-      <c r="CO60" s="13"/>
-      <c r="CP60" s="13"/>
-      <c r="CQ60" s="13"/>
+      <c r="CN60" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="CO60" s="27"/>
+      <c r="CP60" s="27"/>
+      <c r="CQ60" s="27"/>
+      <c r="CR60" s="27"/>
     </row>
     <row r="61" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
@@ -9649,17 +9709,19 @@
       <c r="CK62" s="14">
         <v>88.951321567609739</v>
       </c>
-      <c r="CL62" s="14">
+      <c r="CL62" s="29">
         <v>81.00636355727508</v>
       </c>
-      <c r="CM62" s="14">
-        <v>10.592173003142975</v>
-      </c>
-      <c r="CN62" s="14"/>
-      <c r="CO62" s="14"/>
-      <c r="CP62" s="14"/>
-      <c r="CQ62" s="14"/>
-      <c r="CR62" s="8"/>
+      <c r="CM62" s="29">
+        <v>4.6676128921753701</v>
+      </c>
+      <c r="CN62" s="29">
+        <v>20.445656976661922</v>
+      </c>
+      <c r="CO62" s="29"/>
+      <c r="CP62" s="29"/>
+      <c r="CQ62" s="29"/>
+      <c r="CR62" s="29"/>
       <c r="CS62" s="8"/>
       <c r="CT62" s="8"/>
       <c r="CU62" s="8"/>
@@ -9980,17 +10042,19 @@
       <c r="CK63" s="14">
         <v>22.983417854811677</v>
       </c>
-      <c r="CL63" s="14">
+      <c r="CL63" s="29">
         <v>-17.407697336903681</v>
       </c>
-      <c r="CM63" s="14">
-        <v>4.9255507925947626</v>
-      </c>
-      <c r="CN63" s="14"/>
-      <c r="CO63" s="14"/>
-      <c r="CP63" s="14"/>
-      <c r="CQ63" s="14"/>
-      <c r="CR63" s="8"/>
+      <c r="CM63" s="29">
+        <v>8.3178833022181919</v>
+      </c>
+      <c r="CN63" s="29">
+        <v>5.8751077671090286</v>
+      </c>
+      <c r="CO63" s="29"/>
+      <c r="CP63" s="29"/>
+      <c r="CQ63" s="29"/>
+      <c r="CR63" s="29"/>
       <c r="CS63" s="8"/>
       <c r="CT63" s="8"/>
       <c r="CU63" s="8"/>
@@ -10311,17 +10375,19 @@
       <c r="CK64" s="14">
         <v>385.08153226675034</v>
       </c>
-      <c r="CL64" s="14">
+      <c r="CL64" s="29">
         <v>633.54955710224431</v>
       </c>
-      <c r="CM64" s="14">
+      <c r="CM64" s="29">
         <v>99.642680573374463</v>
       </c>
-      <c r="CN64" s="14"/>
-      <c r="CO64" s="14"/>
-      <c r="CP64" s="14"/>
-      <c r="CQ64" s="14"/>
-      <c r="CR64" s="8"/>
+      <c r="CN64" s="29">
+        <v>65.777959177597154</v>
+      </c>
+      <c r="CO64" s="29"/>
+      <c r="CP64" s="29"/>
+      <c r="CQ64" s="29"/>
+      <c r="CR64" s="29"/>
       <c r="CS64" s="8"/>
       <c r="CT64" s="8"/>
       <c r="CU64" s="8"/>
@@ -10642,17 +10708,19 @@
       <c r="CK65" s="14">
         <v>9.5311047271619174</v>
       </c>
-      <c r="CL65" s="14">
+      <c r="CL65" s="29">
         <v>22.540805927960932</v>
       </c>
-      <c r="CM65" s="14">
-        <v>20.510679578657488</v>
-      </c>
-      <c r="CN65" s="14"/>
-      <c r="CO65" s="14"/>
-      <c r="CP65" s="14"/>
-      <c r="CQ65" s="14"/>
-      <c r="CR65" s="8"/>
+      <c r="CM65" s="29">
+        <v>18.642796037220123</v>
+      </c>
+      <c r="CN65" s="29">
+        <v>18.826329799252221</v>
+      </c>
+      <c r="CO65" s="29"/>
+      <c r="CP65" s="29"/>
+      <c r="CQ65" s="29"/>
+      <c r="CR65" s="29"/>
       <c r="CS65" s="8"/>
       <c r="CT65" s="8"/>
       <c r="CU65" s="8"/>
@@ -10973,17 +11041,19 @@
       <c r="CK66" s="14">
         <v>23.131763620173302</v>
       </c>
-      <c r="CL66" s="14">
+      <c r="CL66" s="29">
         <v>13.659378833751518</v>
       </c>
-      <c r="CM66" s="14">
-        <v>9.2782687464200535</v>
-      </c>
-      <c r="CN66" s="14"/>
-      <c r="CO66" s="14"/>
-      <c r="CP66" s="14"/>
-      <c r="CQ66" s="14"/>
-      <c r="CR66" s="8"/>
+      <c r="CM66" s="29">
+        <v>11.835715818089469</v>
+      </c>
+      <c r="CN66" s="29">
+        <v>6.4585350993919093</v>
+      </c>
+      <c r="CO66" s="29"/>
+      <c r="CP66" s="29"/>
+      <c r="CQ66" s="29"/>
+      <c r="CR66" s="29"/>
       <c r="CS66" s="8"/>
       <c r="CT66" s="8"/>
       <c r="CU66" s="8"/>
@@ -11304,17 +11374,19 @@
       <c r="CK67" s="14">
         <v>13.08767207025528</v>
       </c>
-      <c r="CL67" s="14">
+      <c r="CL67" s="29">
         <v>7.6356152760591556</v>
       </c>
-      <c r="CM67" s="14">
-        <v>5.6892055524993026</v>
-      </c>
-      <c r="CN67" s="14"/>
-      <c r="CO67" s="14"/>
-      <c r="CP67" s="14"/>
-      <c r="CQ67" s="14"/>
-      <c r="CR67" s="8"/>
+      <c r="CM67" s="29">
+        <v>5.9072395242114624</v>
+      </c>
+      <c r="CN67" s="29">
+        <v>3.3511698195094084</v>
+      </c>
+      <c r="CO67" s="29"/>
+      <c r="CP67" s="29"/>
+      <c r="CQ67" s="29"/>
+      <c r="CR67" s="29"/>
       <c r="CS67" s="8"/>
       <c r="CT67" s="8"/>
       <c r="CU67" s="8"/>
@@ -11635,17 +11707,19 @@
       <c r="CK68" s="14">
         <v>21.073968229917895</v>
       </c>
-      <c r="CL68" s="14">
+      <c r="CL68" s="29">
         <v>-21.840006057913556</v>
       </c>
-      <c r="CM68" s="14">
-        <v>-8.5983121866415217</v>
-      </c>
-      <c r="CN68" s="14"/>
-      <c r="CO68" s="14"/>
-      <c r="CP68" s="14"/>
-      <c r="CQ68" s="14"/>
-      <c r="CR68" s="8"/>
+      <c r="CM68" s="29">
+        <v>-0.64533038862397518</v>
+      </c>
+      <c r="CN68" s="29">
+        <v>8.867967630137926</v>
+      </c>
+      <c r="CO68" s="29"/>
+      <c r="CP68" s="29"/>
+      <c r="CQ68" s="29"/>
+      <c r="CR68" s="29"/>
       <c r="CS68" s="8"/>
       <c r="CT68" s="8"/>
       <c r="CU68" s="8"/>
@@ -11966,17 +12040,19 @@
       <c r="CK69" s="14">
         <v>49.825721692895598</v>
       </c>
-      <c r="CL69" s="14">
+      <c r="CL69" s="29">
         <v>24.977275929738639</v>
       </c>
-      <c r="CM69" s="14">
-        <v>50.123052895244939</v>
-      </c>
-      <c r="CN69" s="14"/>
-      <c r="CO69" s="14"/>
-      <c r="CP69" s="14"/>
-      <c r="CQ69" s="14"/>
-      <c r="CR69" s="8"/>
+      <c r="CM69" s="29">
+        <v>16.296330539823018</v>
+      </c>
+      <c r="CN69" s="29">
+        <v>-5.2963999640442978</v>
+      </c>
+      <c r="CO69" s="29"/>
+      <c r="CP69" s="29"/>
+      <c r="CQ69" s="29"/>
+      <c r="CR69" s="29"/>
       <c r="CS69" s="8"/>
       <c r="CT69" s="8"/>
       <c r="CU69" s="8"/>
@@ -12118,13 +12194,13 @@
       <c r="CI70" s="8"/>
       <c r="CJ70" s="8"/>
       <c r="CK70" s="8"/>
-      <c r="CL70" s="8"/>
-      <c r="CM70" s="8"/>
-      <c r="CN70" s="8"/>
-      <c r="CO70" s="8"/>
-      <c r="CP70" s="8"/>
-      <c r="CQ70" s="8"/>
-      <c r="CR70" s="8"/>
+      <c r="CL70" s="24"/>
+      <c r="CM70" s="24"/>
+      <c r="CN70" s="24"/>
+      <c r="CO70" s="24"/>
+      <c r="CP70" s="24"/>
+      <c r="CQ70" s="24"/>
+      <c r="CR70" s="24"/>
       <c r="CS70" s="8"/>
       <c r="CT70" s="8"/>
       <c r="CU70" s="8"/>
@@ -12445,17 +12521,19 @@
       <c r="CK71" s="14">
         <v>31.264786544482661</v>
       </c>
-      <c r="CL71" s="14">
+      <c r="CL71" s="29">
         <v>26.355536041888229</v>
       </c>
-      <c r="CM71" s="14">
-        <v>14.143456585752759</v>
-      </c>
-      <c r="CN71" s="14"/>
-      <c r="CO71" s="14"/>
-      <c r="CP71" s="14"/>
-      <c r="CQ71" s="14"/>
-      <c r="CR71" s="8"/>
+      <c r="CM71" s="29">
+        <v>14.834638869790112</v>
+      </c>
+      <c r="CN71" s="29">
+        <v>15.782879695382874</v>
+      </c>
+      <c r="CO71" s="29"/>
+      <c r="CP71" s="29"/>
+      <c r="CQ71" s="29"/>
+      <c r="CR71" s="29"/>
       <c r="CS71" s="8"/>
       <c r="CT71" s="8"/>
       <c r="CU71" s="8"/>
@@ -12598,12 +12676,13 @@
       <c r="CI72" s="11"/>
       <c r="CJ72" s="11"/>
       <c r="CK72" s="11"/>
-      <c r="CL72" s="11"/>
-      <c r="CM72" s="11"/>
-      <c r="CN72" s="11"/>
-      <c r="CO72" s="11"/>
-      <c r="CP72" s="11"/>
-      <c r="CQ72" s="11"/>
+      <c r="CL72" s="26"/>
+      <c r="CM72" s="26"/>
+      <c r="CN72" s="26"/>
+      <c r="CO72" s="26"/>
+      <c r="CP72" s="26"/>
+      <c r="CQ72" s="26"/>
+      <c r="CR72" s="26"/>
     </row>
     <row r="73" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
@@ -12699,13 +12778,13 @@
       <c r="CI74" s="8"/>
       <c r="CJ74" s="8"/>
       <c r="CK74" s="8"/>
-      <c r="CL74" s="8"/>
-      <c r="CM74" s="8"/>
-      <c r="CN74" s="8"/>
-      <c r="CO74" s="8"/>
-      <c r="CP74" s="8"/>
-      <c r="CQ74" s="8"/>
-      <c r="CR74" s="8"/>
+      <c r="CL74" s="24"/>
+      <c r="CM74" s="24"/>
+      <c r="CN74" s="24"/>
+      <c r="CO74" s="24"/>
+      <c r="CP74" s="24"/>
+      <c r="CQ74" s="24"/>
+      <c r="CR74" s="24"/>
       <c r="CS74" s="8"/>
       <c r="CT74" s="8"/>
       <c r="CU74" s="8"/>
@@ -12847,13 +12926,13 @@
       <c r="CI75" s="8"/>
       <c r="CJ75" s="8"/>
       <c r="CK75" s="8"/>
-      <c r="CL75" s="8"/>
-      <c r="CM75" s="8"/>
-      <c r="CN75" s="8"/>
-      <c r="CO75" s="8"/>
-      <c r="CP75" s="8"/>
-      <c r="CQ75" s="8"/>
-      <c r="CR75" s="8"/>
+      <c r="CL75" s="24"/>
+      <c r="CM75" s="24"/>
+      <c r="CN75" s="24"/>
+      <c r="CO75" s="24"/>
+      <c r="CP75" s="24"/>
+      <c r="CQ75" s="24"/>
+      <c r="CR75" s="24"/>
       <c r="CS75" s="8"/>
       <c r="CT75" s="8"/>
       <c r="CU75" s="8"/>
@@ -12938,148 +13017,147 @@
     </row>
     <row r="84" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
-      <c r="B84" s="22" t="s">
+      <c r="B84" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22" t="s">
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="22"/>
-      <c r="J84" s="22" t="s">
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="32"/>
+      <c r="J84" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="K84" s="22"/>
-      <c r="L84" s="22"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="22" t="s">
+      <c r="K84" s="32"/>
+      <c r="L84" s="32"/>
+      <c r="M84" s="32"/>
+      <c r="N84" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="O84" s="22"/>
-      <c r="P84" s="22"/>
-      <c r="Q84" s="22"/>
-      <c r="R84" s="22" t="s">
+      <c r="O84" s="32"/>
+      <c r="P84" s="32"/>
+      <c r="Q84" s="32"/>
+      <c r="R84" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="S84" s="22"/>
-      <c r="T84" s="22"/>
-      <c r="U84" s="22"/>
-      <c r="V84" s="22" t="s">
+      <c r="S84" s="32"/>
+      <c r="T84" s="32"/>
+      <c r="U84" s="32"/>
+      <c r="V84" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="W84" s="22"/>
-      <c r="X84" s="22"/>
-      <c r="Y84" s="22"/>
-      <c r="Z84" s="22" t="s">
+      <c r="W84" s="32"/>
+      <c r="X84" s="32"/>
+      <c r="Y84" s="32"/>
+      <c r="Z84" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="AA84" s="22"/>
-      <c r="AB84" s="22"/>
-      <c r="AC84" s="22"/>
-      <c r="AD84" s="22" t="s">
+      <c r="AA84" s="32"/>
+      <c r="AB84" s="32"/>
+      <c r="AC84" s="32"/>
+      <c r="AD84" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AE84" s="22"/>
-      <c r="AF84" s="22"/>
-      <c r="AG84" s="22"/>
-      <c r="AH84" s="22" t="s">
+      <c r="AE84" s="32"/>
+      <c r="AF84" s="32"/>
+      <c r="AG84" s="32"/>
+      <c r="AH84" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="AI84" s="22"/>
-      <c r="AJ84" s="22"/>
-      <c r="AK84" s="22"/>
-      <c r="AL84" s="22" t="s">
+      <c r="AI84" s="32"/>
+      <c r="AJ84" s="32"/>
+      <c r="AK84" s="32"/>
+      <c r="AL84" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="AM84" s="22"/>
-      <c r="AN84" s="22"/>
-      <c r="AO84" s="22"/>
-      <c r="AP84" s="22" t="s">
+      <c r="AM84" s="32"/>
+      <c r="AN84" s="32"/>
+      <c r="AO84" s="32"/>
+      <c r="AP84" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="AQ84" s="22"/>
-      <c r="AR84" s="22"/>
-      <c r="AS84" s="22"/>
-      <c r="AT84" s="22" t="s">
+      <c r="AQ84" s="32"/>
+      <c r="AR84" s="32"/>
+      <c r="AS84" s="32"/>
+      <c r="AT84" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="AU84" s="22"/>
-      <c r="AV84" s="22"/>
-      <c r="AW84" s="22"/>
-      <c r="AX84" s="22" t="s">
+      <c r="AU84" s="32"/>
+      <c r="AV84" s="32"/>
+      <c r="AW84" s="32"/>
+      <c r="AX84" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="AY84" s="22"/>
-      <c r="AZ84" s="22"/>
-      <c r="BA84" s="22"/>
-      <c r="BB84" s="22" t="s">
+      <c r="AY84" s="32"/>
+      <c r="AZ84" s="32"/>
+      <c r="BA84" s="32"/>
+      <c r="BB84" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="BC84" s="22"/>
-      <c r="BD84" s="22"/>
-      <c r="BE84" s="22"/>
-      <c r="BF84" s="22" t="s">
+      <c r="BC84" s="32"/>
+      <c r="BD84" s="32"/>
+      <c r="BE84" s="32"/>
+      <c r="BF84" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="BG84" s="22"/>
-      <c r="BH84" s="22"/>
-      <c r="BI84" s="22"/>
-      <c r="BJ84" s="22" t="s">
+      <c r="BG84" s="32"/>
+      <c r="BH84" s="32"/>
+      <c r="BI84" s="32"/>
+      <c r="BJ84" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="BK84" s="22"/>
-      <c r="BL84" s="22"/>
-      <c r="BM84" s="22"/>
-      <c r="BN84" s="22" t="s">
+      <c r="BK84" s="32"/>
+      <c r="BL84" s="32"/>
+      <c r="BM84" s="32"/>
+      <c r="BN84" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="BO84" s="22"/>
-      <c r="BP84" s="22"/>
-      <c r="BQ84" s="22"/>
-      <c r="BR84" s="22" t="s">
+      <c r="BO84" s="32"/>
+      <c r="BP84" s="32"/>
+      <c r="BQ84" s="32"/>
+      <c r="BR84" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="BS84" s="22"/>
-      <c r="BT84" s="22"/>
-      <c r="BU84" s="22"/>
-      <c r="BV84" s="22" t="s">
+      <c r="BS84" s="32"/>
+      <c r="BT84" s="32"/>
+      <c r="BU84" s="32"/>
+      <c r="BV84" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="BW84" s="22"/>
-      <c r="BX84" s="22"/>
-      <c r="BY84" s="22"/>
-      <c r="BZ84" s="22" t="s">
+      <c r="BW84" s="32"/>
+      <c r="BX84" s="32"/>
+      <c r="BY84" s="32"/>
+      <c r="BZ84" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="CA84" s="22"/>
-      <c r="CB84" s="22"/>
-      <c r="CC84" s="22"/>
-      <c r="CD84" s="22" t="s">
+      <c r="CA84" s="32"/>
+      <c r="CB84" s="32"/>
+      <c r="CC84" s="32"/>
+      <c r="CD84" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="CE84" s="22"/>
-      <c r="CF84" s="22"/>
-      <c r="CG84" s="22"/>
-      <c r="CH84" s="22" t="s">
+      <c r="CE84" s="32"/>
+      <c r="CF84" s="32"/>
+      <c r="CG84" s="32"/>
+      <c r="CH84" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="CI84" s="22"/>
-      <c r="CJ84" s="22"/>
-      <c r="CK84" s="22"/>
-      <c r="CL84" s="22" t="s">
+      <c r="CI84" s="32"/>
+      <c r="CJ84" s="32"/>
+      <c r="CK84" s="32"/>
+      <c r="CL84" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="CM84" s="22">
-        <v>0</v>
-      </c>
-      <c r="CN84" s="22"/>
-      <c r="CO84" s="22"/>
-      <c r="CP84" s="22"/>
-      <c r="CQ84" s="23"/>
+      <c r="CM84" s="31"/>
+      <c r="CN84" s="31"/>
+      <c r="CO84" s="28"/>
+      <c r="CP84" s="21"/>
+      <c r="CQ84" s="21"/>
+      <c r="CR84" s="21"/>
     </row>
     <row r="85" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
@@ -13347,16 +13425,19 @@
       <c r="CK85" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CL85" s="5" t="s">
+      <c r="CL85" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CM85" s="5" t="s">
+      <c r="CM85" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="CN85" s="5"/>
-      <c r="CO85" s="5"/>
-      <c r="CP85" s="5"/>
-      <c r="CQ85" s="5"/>
+      <c r="CN85" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="CO85" s="13"/>
+      <c r="CP85" s="13"/>
+      <c r="CQ85" s="13"/>
+      <c r="CR85" s="13"/>
     </row>
     <row r="86" spans="1:147" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
@@ -13629,17 +13710,19 @@
       <c r="CK87" s="14">
         <v>68.497582133349454</v>
       </c>
-      <c r="CL87" s="14">
+      <c r="CL87" s="29">
         <v>66.933998569187622</v>
       </c>
-      <c r="CM87" s="14">
-        <v>-2.7086047394266757</v>
-      </c>
-      <c r="CN87" s="14"/>
-      <c r="CO87" s="14"/>
-      <c r="CP87" s="14"/>
-      <c r="CQ87" s="14"/>
-      <c r="CR87" s="8"/>
+      <c r="CM87" s="29">
+        <v>-7.9206256614208002</v>
+      </c>
+      <c r="CN87" s="29">
+        <v>18.79604522484297</v>
+      </c>
+      <c r="CO87" s="29"/>
+      <c r="CP87" s="29"/>
+      <c r="CQ87" s="29"/>
+      <c r="CR87" s="29"/>
       <c r="CS87" s="8"/>
       <c r="CT87" s="8"/>
       <c r="CU87" s="8"/>
@@ -13960,17 +14043,19 @@
       <c r="CK88" s="14">
         <v>15.453253697379125</v>
       </c>
-      <c r="CL88" s="14">
+      <c r="CL88" s="29">
         <v>-22.733127261153541</v>
       </c>
-      <c r="CM88" s="14">
-        <v>6.2387293991619686E-2</v>
-      </c>
-      <c r="CN88" s="14"/>
-      <c r="CO88" s="14"/>
-      <c r="CP88" s="14"/>
-      <c r="CQ88" s="14"/>
-      <c r="CR88" s="8"/>
+      <c r="CM88" s="29">
+        <v>3.2974895816976471</v>
+      </c>
+      <c r="CN88" s="29">
+        <v>2.3768459269728197</v>
+      </c>
+      <c r="CO88" s="29"/>
+      <c r="CP88" s="29"/>
+      <c r="CQ88" s="29"/>
+      <c r="CR88" s="29"/>
       <c r="CS88" s="8"/>
       <c r="CT88" s="8"/>
       <c r="CU88" s="8"/>
@@ -14291,17 +14376,19 @@
       <c r="CK89" s="14">
         <v>349.55053760077203</v>
       </c>
-      <c r="CL89" s="14">
+      <c r="CL89" s="29">
         <v>581.9972140107966</v>
       </c>
-      <c r="CM89" s="14">
+      <c r="CM89" s="29">
         <v>88.250101321944186</v>
       </c>
-      <c r="CN89" s="14"/>
-      <c r="CO89" s="14"/>
-      <c r="CP89" s="14"/>
-      <c r="CQ89" s="14"/>
-      <c r="CR89" s="8"/>
+      <c r="CN89" s="29">
+        <v>57.34777918660518</v>
+      </c>
+      <c r="CO89" s="29"/>
+      <c r="CP89" s="29"/>
+      <c r="CQ89" s="29"/>
+      <c r="CR89" s="29"/>
       <c r="CS89" s="8"/>
       <c r="CT89" s="8"/>
       <c r="CU89" s="8"/>
@@ -14622,17 +14709,19 @@
       <c r="CK90" s="14">
         <v>3.3616295313059226</v>
       </c>
-      <c r="CL90" s="14">
+      <c r="CL90" s="29">
         <v>14.963370710976747</v>
       </c>
-      <c r="CM90" s="14">
-        <v>13.763995648814898</v>
-      </c>
-      <c r="CN90" s="14"/>
-      <c r="CO90" s="14"/>
-      <c r="CP90" s="14"/>
-      <c r="CQ90" s="14"/>
-      <c r="CR90" s="8"/>
+      <c r="CM90" s="29">
+        <v>12.000683917244444</v>
+      </c>
+      <c r="CN90" s="29">
+        <v>13.186386395108343</v>
+      </c>
+      <c r="CO90" s="29"/>
+      <c r="CP90" s="29"/>
+      <c r="CQ90" s="29"/>
+      <c r="CR90" s="29"/>
       <c r="CS90" s="8"/>
       <c r="CT90" s="8"/>
       <c r="CU90" s="8"/>
@@ -14953,17 +15042,19 @@
       <c r="CK91" s="14">
         <v>18.175311829899286</v>
       </c>
-      <c r="CL91" s="14">
+      <c r="CL91" s="29">
         <v>12.839132155355642</v>
       </c>
-      <c r="CM91" s="14">
-        <v>8.8153921427124118</v>
-      </c>
-      <c r="CN91" s="14"/>
-      <c r="CO91" s="14"/>
-      <c r="CP91" s="14"/>
-      <c r="CQ91" s="14"/>
-      <c r="CR91" s="8"/>
+      <c r="CM91" s="29">
+        <v>11.363055133077154</v>
+      </c>
+      <c r="CN91" s="29">
+        <v>6.0632342526110676</v>
+      </c>
+      <c r="CO91" s="29"/>
+      <c r="CP91" s="29"/>
+      <c r="CQ91" s="29"/>
+      <c r="CR91" s="29"/>
       <c r="CS91" s="8"/>
       <c r="CT91" s="8"/>
       <c r="CU91" s="8"/>
@@ -15284,17 +15375,19 @@
       <c r="CK92" s="14">
         <v>5.6946661002921388</v>
       </c>
-      <c r="CL92" s="14">
+      <c r="CL92" s="29">
         <v>3.4229356639520034</v>
       </c>
-      <c r="CM92" s="14">
-        <v>1.8927318893474592</v>
-      </c>
-      <c r="CN92" s="14"/>
-      <c r="CO92" s="14"/>
-      <c r="CP92" s="14"/>
-      <c r="CQ92" s="14"/>
-      <c r="CR92" s="8"/>
+      <c r="CM92" s="29">
+        <v>2.1172669659889038</v>
+      </c>
+      <c r="CN92" s="29">
+        <v>-9.4054449150689834E-2</v>
+      </c>
+      <c r="CO92" s="29"/>
+      <c r="CP92" s="29"/>
+      <c r="CQ92" s="29"/>
+      <c r="CR92" s="29"/>
       <c r="CS92" s="8"/>
       <c r="CT92" s="8"/>
       <c r="CU92" s="8"/>
@@ -15615,17 +15708,19 @@
       <c r="CK93" s="14">
         <v>10.153253740682118</v>
       </c>
-      <c r="CL93" s="14">
+      <c r="CL93" s="29">
         <v>-26.879647249614521</v>
       </c>
-      <c r="CM93" s="14">
-        <v>-12.834662136934242</v>
-      </c>
-      <c r="CN93" s="14"/>
-      <c r="CO93" s="14"/>
-      <c r="CP93" s="14"/>
-      <c r="CQ93" s="14"/>
-      <c r="CR93" s="8"/>
+      <c r="CM93" s="29">
+        <v>-5.2502907535679952</v>
+      </c>
+      <c r="CN93" s="29">
+        <v>5.2708175085868021</v>
+      </c>
+      <c r="CO93" s="29"/>
+      <c r="CP93" s="29"/>
+      <c r="CQ93" s="29"/>
+      <c r="CR93" s="29"/>
       <c r="CS93" s="8"/>
       <c r="CT93" s="8"/>
       <c r="CU93" s="8"/>
@@ -15946,17 +16041,19 @@
       <c r="CK94" s="14">
         <v>40.652027393024923</v>
       </c>
-      <c r="CL94" s="14">
+      <c r="CL94" s="29">
         <v>16.918925410049781</v>
       </c>
-      <c r="CM94" s="14">
-        <v>43.165043662754471</v>
-      </c>
-      <c r="CN94" s="14"/>
-      <c r="CO94" s="14"/>
-      <c r="CP94" s="14"/>
-      <c r="CQ94" s="14"/>
-      <c r="CR94" s="8"/>
+      <c r="CM94" s="29">
+        <v>10.906146114480265</v>
+      </c>
+      <c r="CN94" s="29">
+        <v>-9.4052597287833066</v>
+      </c>
+      <c r="CO94" s="29"/>
+      <c r="CP94" s="29"/>
+      <c r="CQ94" s="29"/>
+      <c r="CR94" s="29"/>
       <c r="CS94" s="8"/>
       <c r="CT94" s="8"/>
       <c r="CU94" s="8"/>
@@ -16098,13 +16195,13 @@
       <c r="CI95" s="8"/>
       <c r="CJ95" s="8"/>
       <c r="CK95" s="8"/>
-      <c r="CL95" s="8"/>
-      <c r="CM95" s="8"/>
-      <c r="CN95" s="8"/>
-      <c r="CO95" s="8"/>
-      <c r="CP95" s="8"/>
-      <c r="CQ95" s="8"/>
-      <c r="CR95" s="8"/>
+      <c r="CL95" s="24"/>
+      <c r="CM95" s="24"/>
+      <c r="CN95" s="24"/>
+      <c r="CO95" s="24"/>
+      <c r="CP95" s="24"/>
+      <c r="CQ95" s="24"/>
+      <c r="CR95" s="24"/>
       <c r="CS95" s="8"/>
       <c r="CT95" s="8"/>
       <c r="CU95" s="8"/>
@@ -16425,17 +16522,19 @@
       <c r="CK96" s="14">
         <v>21.958128353759164</v>
       </c>
-      <c r="CL96" s="14">
+      <c r="CL96" s="29">
         <v>20.195305425122001</v>
       </c>
-      <c r="CM96" s="14">
-        <v>9.6338892776590939</v>
-      </c>
-      <c r="CN96" s="14"/>
-      <c r="CO96" s="14"/>
-      <c r="CP96" s="14"/>
-      <c r="CQ96" s="14"/>
-      <c r="CR96" s="8"/>
+      <c r="CM96" s="29">
+        <v>10.396505205584774</v>
+      </c>
+      <c r="CN96" s="29">
+        <v>11.740261343779196</v>
+      </c>
+      <c r="CO96" s="29"/>
+      <c r="CP96" s="29"/>
+      <c r="CQ96" s="29"/>
+      <c r="CR96" s="29"/>
       <c r="CS96" s="8"/>
       <c r="CT96" s="8"/>
       <c r="CU96" s="8"/>
@@ -16578,12 +16677,13 @@
       <c r="CI97" s="11"/>
       <c r="CJ97" s="11"/>
       <c r="CK97" s="11"/>
-      <c r="CL97" s="11"/>
-      <c r="CM97" s="11"/>
-      <c r="CN97" s="11"/>
-      <c r="CO97" s="11"/>
-      <c r="CP97" s="11"/>
-      <c r="CQ97" s="11"/>
+      <c r="CL97" s="26"/>
+      <c r="CM97" s="26"/>
+      <c r="CN97" s="26"/>
+      <c r="CO97" s="26"/>
+      <c r="CP97" s="26"/>
+      <c r="CQ97" s="26"/>
+      <c r="CR97" s="26"/>
     </row>
     <row r="98" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
@@ -16679,13 +16779,13 @@
       <c r="CI99" s="8"/>
       <c r="CJ99" s="8"/>
       <c r="CK99" s="8"/>
-      <c r="CL99" s="8"/>
-      <c r="CM99" s="8"/>
-      <c r="CN99" s="8"/>
-      <c r="CO99" s="8"/>
-      <c r="CP99" s="8"/>
-      <c r="CQ99" s="8"/>
-      <c r="CR99" s="8"/>
+      <c r="CL99" s="24"/>
+      <c r="CM99" s="24"/>
+      <c r="CN99" s="24"/>
+      <c r="CO99" s="24"/>
+      <c r="CP99" s="24"/>
+      <c r="CQ99" s="24"/>
+      <c r="CR99" s="24"/>
       <c r="CS99" s="8"/>
       <c r="CT99" s="8"/>
       <c r="CU99" s="8"/>
@@ -16827,13 +16927,13 @@
       <c r="CI100" s="8"/>
       <c r="CJ100" s="8"/>
       <c r="CK100" s="8"/>
-      <c r="CL100" s="8"/>
-      <c r="CM100" s="8"/>
-      <c r="CN100" s="8"/>
-      <c r="CO100" s="8"/>
-      <c r="CP100" s="8"/>
-      <c r="CQ100" s="8"/>
-      <c r="CR100" s="8"/>
+      <c r="CL100" s="24"/>
+      <c r="CM100" s="24"/>
+      <c r="CN100" s="24"/>
+      <c r="CO100" s="24"/>
+      <c r="CP100" s="24"/>
+      <c r="CQ100" s="24"/>
+      <c r="CR100" s="24"/>
       <c r="CS100" s="8"/>
       <c r="CT100" s="8"/>
       <c r="CU100" s="8"/>
@@ -16913,148 +17013,149 @@
     </row>
     <row r="108" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
-      <c r="B108" s="21">
+      <c r="B108" s="31">
         <v>2000</v>
       </c>
-      <c r="C108" s="21"/>
-      <c r="D108" s="21"/>
-      <c r="E108" s="21"/>
-      <c r="F108" s="21">
+      <c r="C108" s="31"/>
+      <c r="D108" s="31"/>
+      <c r="E108" s="31"/>
+      <c r="F108" s="31">
         <v>2001</v>
       </c>
-      <c r="G108" s="21"/>
-      <c r="H108" s="21"/>
-      <c r="I108" s="21"/>
-      <c r="J108" s="21">
+      <c r="G108" s="31"/>
+      <c r="H108" s="31"/>
+      <c r="I108" s="31"/>
+      <c r="J108" s="31">
         <v>2002</v>
       </c>
-      <c r="K108" s="21"/>
-      <c r="L108" s="21"/>
-      <c r="M108" s="21"/>
-      <c r="N108" s="21">
+      <c r="K108" s="31"/>
+      <c r="L108" s="31"/>
+      <c r="M108" s="31"/>
+      <c r="N108" s="31">
         <v>2003</v>
       </c>
-      <c r="O108" s="21"/>
-      <c r="P108" s="21"/>
-      <c r="Q108" s="21"/>
-      <c r="R108" s="21">
+      <c r="O108" s="31"/>
+      <c r="P108" s="31"/>
+      <c r="Q108" s="31"/>
+      <c r="R108" s="31">
         <v>2004</v>
       </c>
-      <c r="S108" s="21"/>
-      <c r="T108" s="21"/>
-      <c r="U108" s="21"/>
-      <c r="V108" s="21">
+      <c r="S108" s="31"/>
+      <c r="T108" s="31"/>
+      <c r="U108" s="31"/>
+      <c r="V108" s="31">
         <v>2005</v>
       </c>
-      <c r="W108" s="21"/>
-      <c r="X108" s="21"/>
-      <c r="Y108" s="21"/>
-      <c r="Z108" s="21">
+      <c r="W108" s="31"/>
+      <c r="X108" s="31"/>
+      <c r="Y108" s="31"/>
+      <c r="Z108" s="31">
         <v>2006</v>
       </c>
-      <c r="AA108" s="21"/>
-      <c r="AB108" s="21"/>
-      <c r="AC108" s="21"/>
-      <c r="AD108" s="21">
+      <c r="AA108" s="31"/>
+      <c r="AB108" s="31"/>
+      <c r="AC108" s="31"/>
+      <c r="AD108" s="31">
         <v>2007</v>
       </c>
-      <c r="AE108" s="21"/>
-      <c r="AF108" s="21"/>
-      <c r="AG108" s="21"/>
-      <c r="AH108" s="21">
+      <c r="AE108" s="31"/>
+      <c r="AF108" s="31"/>
+      <c r="AG108" s="31"/>
+      <c r="AH108" s="31">
         <v>2008</v>
       </c>
-      <c r="AI108" s="21"/>
-      <c r="AJ108" s="21"/>
-      <c r="AK108" s="21"/>
-      <c r="AL108" s="21">
+      <c r="AI108" s="31"/>
+      <c r="AJ108" s="31"/>
+      <c r="AK108" s="31"/>
+      <c r="AL108" s="31">
         <v>2009</v>
       </c>
-      <c r="AM108" s="21"/>
-      <c r="AN108" s="21"/>
-      <c r="AO108" s="21"/>
-      <c r="AP108" s="21">
+      <c r="AM108" s="31"/>
+      <c r="AN108" s="31"/>
+      <c r="AO108" s="31"/>
+      <c r="AP108" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="21"/>
-      <c r="AR108" s="21"/>
-      <c r="AS108" s="21"/>
-      <c r="AT108" s="21">
+      <c r="AQ108" s="31"/>
+      <c r="AR108" s="31"/>
+      <c r="AS108" s="31"/>
+      <c r="AT108" s="31">
         <v>2011</v>
       </c>
-      <c r="AU108" s="21"/>
-      <c r="AV108" s="21"/>
-      <c r="AW108" s="21"/>
-      <c r="AX108" s="21">
+      <c r="AU108" s="31"/>
+      <c r="AV108" s="31"/>
+      <c r="AW108" s="31"/>
+      <c r="AX108" s="31">
         <v>2012</v>
       </c>
-      <c r="AY108" s="21"/>
-      <c r="AZ108" s="21"/>
-      <c r="BA108" s="21"/>
-      <c r="BB108" s="21">
+      <c r="AY108" s="31"/>
+      <c r="AZ108" s="31"/>
+      <c r="BA108" s="31"/>
+      <c r="BB108" s="31">
         <v>2013</v>
       </c>
-      <c r="BC108" s="21"/>
-      <c r="BD108" s="21"/>
-      <c r="BE108" s="21"/>
-      <c r="BF108" s="21">
+      <c r="BC108" s="31"/>
+      <c r="BD108" s="31"/>
+      <c r="BE108" s="31"/>
+      <c r="BF108" s="31">
         <v>2014</v>
       </c>
-      <c r="BG108" s="21"/>
-      <c r="BH108" s="21"/>
-      <c r="BI108" s="21"/>
-      <c r="BJ108" s="21">
+      <c r="BG108" s="31"/>
+      <c r="BH108" s="31"/>
+      <c r="BI108" s="31"/>
+      <c r="BJ108" s="31">
         <v>2015</v>
       </c>
-      <c r="BK108" s="21"/>
-      <c r="BL108" s="21"/>
-      <c r="BM108" s="21"/>
-      <c r="BN108" s="21">
+      <c r="BK108" s="31"/>
+      <c r="BL108" s="31"/>
+      <c r="BM108" s="31"/>
+      <c r="BN108" s="31">
         <v>2016</v>
       </c>
-      <c r="BO108" s="21"/>
-      <c r="BP108" s="21"/>
-      <c r="BQ108" s="21"/>
-      <c r="BR108" s="21">
+      <c r="BO108" s="31"/>
+      <c r="BP108" s="31"/>
+      <c r="BQ108" s="31"/>
+      <c r="BR108" s="31">
         <v>2017</v>
       </c>
-      <c r="BS108" s="21"/>
-      <c r="BT108" s="21"/>
-      <c r="BU108" s="21"/>
-      <c r="BV108" s="21">
+      <c r="BS108" s="31"/>
+      <c r="BT108" s="31"/>
+      <c r="BU108" s="31"/>
+      <c r="BV108" s="31">
         <v>2018</v>
       </c>
-      <c r="BW108" s="21"/>
-      <c r="BX108" s="21"/>
-      <c r="BY108" s="21"/>
-      <c r="BZ108" s="21">
+      <c r="BW108" s="31"/>
+      <c r="BX108" s="31"/>
+      <c r="BY108" s="31"/>
+      <c r="BZ108" s="31">
         <v>2019</v>
       </c>
-      <c r="CA108" s="21"/>
-      <c r="CB108" s="21"/>
-      <c r="CC108" s="21"/>
-      <c r="CD108" s="22">
+      <c r="CA108" s="31"/>
+      <c r="CB108" s="31"/>
+      <c r="CC108" s="31"/>
+      <c r="CD108" s="32">
         <v>2020</v>
       </c>
-      <c r="CE108" s="22"/>
-      <c r="CF108" s="22"/>
-      <c r="CG108" s="22"/>
-      <c r="CH108" s="22">
+      <c r="CE108" s="32"/>
+      <c r="CF108" s="32"/>
+      <c r="CG108" s="32"/>
+      <c r="CH108" s="32">
         <v>2021</v>
       </c>
-      <c r="CI108" s="22"/>
-      <c r="CJ108" s="22"/>
-      <c r="CK108" s="22"/>
-      <c r="CL108" s="22">
+      <c r="CI108" s="32"/>
+      <c r="CJ108" s="32"/>
+      <c r="CK108" s="32"/>
+      <c r="CL108" s="31">
         <v>2022</v>
       </c>
-      <c r="CM108" s="22"/>
-      <c r="CN108" s="22"/>
-      <c r="CO108" s="22"/>
-      <c r="CP108" s="22">
+      <c r="CM108" s="31"/>
+      <c r="CN108" s="31"/>
+      <c r="CO108" s="31"/>
+      <c r="CP108" s="31">
         <v>2023</v>
       </c>
-      <c r="CQ108" s="23"/>
+      <c r="CQ108" s="31"/>
+      <c r="CR108" s="31"/>
     </row>
     <row r="109" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
@@ -17322,23 +17423,26 @@
       <c r="CK109" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CL109" s="13" t="s">
+      <c r="CL109" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CM109" s="13" t="s">
+      <c r="CM109" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CN109" s="13" t="s">
+      <c r="CN109" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CO109" s="13" t="s">
+      <c r="CO109" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="CP109" s="13" t="s">
+      <c r="CP109" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CQ109" s="13" t="s">
+      <c r="CQ109" s="27" t="s">
         <v>8</v>
+      </c>
+      <c r="CR109" s="27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -17612,25 +17716,27 @@
       <c r="CK111" s="14">
         <v>118.63153574023102</v>
       </c>
-      <c r="CL111" s="14">
+      <c r="CL111" s="29">
         <v>126.09642903416727</v>
       </c>
-      <c r="CM111" s="14">
+      <c r="CM111" s="29">
         <v>124.61983118929622</v>
       </c>
-      <c r="CN111" s="14">
+      <c r="CN111" s="29">
         <v>128.49759727085754</v>
       </c>
-      <c r="CO111" s="14">
+      <c r="CO111" s="29">
         <v>133.0320896828776</v>
       </c>
-      <c r="CP111" s="14">
+      <c r="CP111" s="29">
         <v>136.72622876503408</v>
       </c>
-      <c r="CQ111" s="14">
-        <v>141.65669937816355</v>
-      </c>
-      <c r="CR111" s="8"/>
+      <c r="CQ111" s="29">
+        <v>141.65669937816352</v>
+      </c>
+      <c r="CR111" s="29">
+        <v>130.28192558024958</v>
+      </c>
       <c r="CS111" s="8"/>
       <c r="CT111" s="8"/>
       <c r="CU111" s="8"/>
@@ -17955,25 +18061,27 @@
       <c r="CK112" s="14">
         <v>107.41235280347485</v>
       </c>
-      <c r="CL112" s="14">
+      <c r="CL112" s="29">
         <v>111.88039102135299</v>
       </c>
-      <c r="CM112" s="14">
+      <c r="CM112" s="29">
         <v>113.74058049100657</v>
       </c>
-      <c r="CN112" s="14">
+      <c r="CN112" s="29">
         <v>116.05280088472769</v>
       </c>
-      <c r="CO112" s="14">
+      <c r="CO112" s="29">
         <v>114.41806830514707</v>
       </c>
-      <c r="CP112" s="14">
+      <c r="CP112" s="29">
         <v>119.59147290110843</v>
       </c>
-      <c r="CQ112" s="14">
+      <c r="CQ112" s="29">
         <v>119.26852215132922</v>
       </c>
-      <c r="CR112" s="8"/>
+      <c r="CR112" s="29">
+        <v>120.01837611904935</v>
+      </c>
       <c r="CS112" s="8"/>
       <c r="CT112" s="8"/>
       <c r="CU112" s="8"/>
@@ -18298,25 +18406,27 @@
       <c r="CK113" s="14">
         <v>108.46407696982685</v>
       </c>
-      <c r="CL113" s="14">
+      <c r="CL113" s="29">
         <v>113.43226434989448</v>
       </c>
-      <c r="CM113" s="14">
+      <c r="CM113" s="29">
         <v>115.6341945436903</v>
       </c>
-      <c r="CN113" s="14">
+      <c r="CN113" s="29">
         <v>118.385255983341</v>
       </c>
-      <c r="CO113" s="14">
+      <c r="CO113" s="29">
         <v>117.03672057255258</v>
       </c>
-      <c r="CP113" s="14">
+      <c r="CP113" s="29">
         <v>122.00663809992125</v>
       </c>
-      <c r="CQ113" s="14">
+      <c r="CQ113" s="29">
         <v>122.63218135093956</v>
       </c>
-      <c r="CR113" s="8"/>
+      <c r="CR113" s="29">
+        <v>124.72795126241223</v>
+      </c>
       <c r="CS113" s="8"/>
       <c r="CT113" s="8"/>
       <c r="CU113" s="8"/>
@@ -18641,25 +18751,27 @@
       <c r="CK114" s="14">
         <v>109.02907695717339</v>
       </c>
-      <c r="CL114" s="14">
+      <c r="CL114" s="29">
         <v>108.58723074343011</v>
       </c>
-      <c r="CM114" s="14">
+      <c r="CM114" s="29">
         <v>109.98023693843398</v>
       </c>
-      <c r="CN114" s="14">
+      <c r="CN114" s="29">
         <v>112.53715586887442</v>
       </c>
-      <c r="CO114" s="14">
+      <c r="CO114" s="29">
         <v>115.53683219443604</v>
       </c>
-      <c r="CP114" s="14">
+      <c r="CP114" s="29">
         <v>115.7444035129955</v>
       </c>
-      <c r="CQ114" s="14">
+      <c r="CQ114" s="29">
         <v>116.50252804574832</v>
       </c>
-      <c r="CR114" s="8"/>
+      <c r="CR114" s="29">
+        <v>118.14474888583113</v>
+      </c>
       <c r="CS114" s="8"/>
       <c r="CT114" s="8"/>
       <c r="CU114" s="8"/>
@@ -18984,25 +19096,27 @@
       <c r="CK115" s="14">
         <v>99.188841424745021</v>
       </c>
-      <c r="CL115" s="14">
+      <c r="CL115" s="29">
         <v>102.1773430955365</v>
       </c>
-      <c r="CM115" s="14">
+      <c r="CM115" s="29">
         <v>103.17914174932667</v>
       </c>
-      <c r="CN115" s="14">
+      <c r="CN115" s="29">
         <v>102.17552207806702</v>
       </c>
-      <c r="CO115" s="14">
+      <c r="CO115" s="29">
         <v>103.34897185336216</v>
       </c>
-      <c r="CP115" s="14">
+      <c r="CP115" s="29">
         <v>102.92008743148232</v>
       </c>
-      <c r="CQ115" s="14">
-        <v>103.61804299083268</v>
-      </c>
-      <c r="CR115" s="8"/>
+      <c r="CQ115" s="29">
+        <v>103.61706726923939</v>
+      </c>
+      <c r="CR115" s="29">
+        <v>102.55633330527832</v>
+      </c>
       <c r="CS115" s="8"/>
       <c r="CT115" s="8"/>
       <c r="CU115" s="8"/>
@@ -19327,25 +19441,27 @@
       <c r="CK116" s="14">
         <v>109.3552980162752</v>
       </c>
-      <c r="CL116" s="14">
+      <c r="CL116" s="29">
         <v>113.98898088171985</v>
       </c>
-      <c r="CM116" s="14">
+      <c r="CM116" s="29">
         <v>115.24165168078628</v>
       </c>
-      <c r="CN116" s="14">
+      <c r="CN116" s="29">
         <v>116.52552735229604</v>
       </c>
-      <c r="CO116" s="14">
+      <c r="CO116" s="29">
         <v>117.00435355436905</v>
       </c>
-      <c r="CP116" s="14">
+      <c r="CP116" s="29">
         <v>118.63204242974616</v>
       </c>
-      <c r="CQ116" s="14">
-        <v>119.53549960685177</v>
-      </c>
-      <c r="CR116" s="8"/>
+      <c r="CQ116" s="29">
+        <v>119.51872166523746</v>
+      </c>
+      <c r="CR116" s="29">
+        <v>120.54387253224547</v>
+      </c>
       <c r="CS116" s="8"/>
       <c r="CT116" s="8"/>
       <c r="CU116" s="8"/>
@@ -19670,25 +19786,27 @@
       <c r="CK117" s="14">
         <v>107.16683189889456</v>
       </c>
-      <c r="CL117" s="14">
+      <c r="CL117" s="29">
         <v>112.89718497790633</v>
       </c>
-      <c r="CM117" s="14">
+      <c r="CM117" s="29">
         <v>113.65147294228359</v>
       </c>
-      <c r="CN117" s="14">
+      <c r="CN117" s="29">
         <v>119.54655249515902</v>
       </c>
-      <c r="CO117" s="14">
+      <c r="CO117" s="29">
         <v>117.79146924859019</v>
       </c>
-      <c r="CP117" s="14">
+      <c r="CP117" s="29">
         <v>120.67834689029524</v>
       </c>
-      <c r="CQ117" s="14">
+      <c r="CQ117" s="29">
         <v>119.17508385865621</v>
       </c>
-      <c r="CR117" s="8"/>
+      <c r="CR117" s="29">
+        <v>123.63151075820188</v>
+      </c>
       <c r="CS117" s="8"/>
       <c r="CT117" s="8"/>
       <c r="CU117" s="8"/>
@@ -20013,25 +20131,27 @@
       <c r="CK118" s="14">
         <v>107.27313045488039</v>
       </c>
-      <c r="CL118" s="14">
+      <c r="CL118" s="29">
         <v>112.00394049520814</v>
       </c>
-      <c r="CM118" s="14">
+      <c r="CM118" s="29">
         <v>113.13547570597326</v>
       </c>
-      <c r="CN118" s="14">
+      <c r="CN118" s="29">
         <v>111.27094242821842</v>
       </c>
-      <c r="CO118" s="14">
+      <c r="CO118" s="29">
         <v>114.26976550965541</v>
       </c>
-      <c r="CP118" s="14">
+      <c r="CP118" s="29">
         <v>119.72353771979209</v>
       </c>
-      <c r="CQ118" s="14">
-        <v>118.63400847867105</v>
-      </c>
-      <c r="CR118" s="8"/>
+      <c r="CQ118" s="29">
+        <v>118.63400847867109</v>
+      </c>
+      <c r="CR118" s="29">
+        <v>116.31755657998013</v>
+      </c>
       <c r="CS118" s="8"/>
       <c r="CT118" s="8"/>
       <c r="CU118" s="8"/>
@@ -20177,13 +20297,13 @@
       <c r="CI119" s="8"/>
       <c r="CJ119" s="8"/>
       <c r="CK119" s="8"/>
-      <c r="CL119" s="8"/>
-      <c r="CM119" s="8"/>
-      <c r="CN119" s="8"/>
-      <c r="CO119" s="8"/>
-      <c r="CP119" s="8"/>
-      <c r="CQ119" s="8"/>
-      <c r="CR119" s="8"/>
+      <c r="CL119" s="24"/>
+      <c r="CM119" s="24"/>
+      <c r="CN119" s="24"/>
+      <c r="CO119" s="24"/>
+      <c r="CP119" s="24"/>
+      <c r="CQ119" s="24"/>
+      <c r="CR119" s="24"/>
       <c r="CS119" s="8"/>
       <c r="CT119" s="8"/>
       <c r="CU119" s="8"/>
@@ -20508,25 +20628,27 @@
       <c r="CK120" s="14">
         <v>107.90147001950392</v>
       </c>
-      <c r="CL120" s="14">
+      <c r="CL120" s="29">
         <v>112.33130479076783</v>
       </c>
-      <c r="CM120" s="14">
+      <c r="CM120" s="29">
         <v>113.28644583069654</v>
       </c>
-      <c r="CN120" s="14">
+      <c r="CN120" s="29">
         <v>115.58029627840591</v>
       </c>
-      <c r="CO120" s="14">
+      <c r="CO120" s="29">
         <v>116.13546076127123</v>
       </c>
-      <c r="CP120" s="14">
+      <c r="CP120" s="29">
         <v>118.08849090170519</v>
       </c>
-      <c r="CQ120" s="14">
-        <v>117.94625363222767</v>
-      </c>
-      <c r="CR120" s="8"/>
+      <c r="CQ120" s="29">
+        <v>117.84076019058585</v>
+      </c>
+      <c r="CR120" s="29">
+        <v>119.7618421348394</v>
+      </c>
       <c r="CS120" s="8"/>
       <c r="CT120" s="8"/>
       <c r="CU120" s="8"/>
@@ -20673,12 +20795,13 @@
       <c r="CI121" s="11"/>
       <c r="CJ121" s="11"/>
       <c r="CK121" s="11"/>
-      <c r="CL121" s="11"/>
-      <c r="CM121" s="11"/>
-      <c r="CN121" s="11"/>
-      <c r="CO121" s="11"/>
-      <c r="CP121" s="11"/>
-      <c r="CQ121" s="11"/>
+      <c r="CL121" s="26"/>
+      <c r="CM121" s="26"/>
+      <c r="CN121" s="26"/>
+      <c r="CO121" s="26"/>
+      <c r="CP121" s="26"/>
+      <c r="CQ121" s="26"/>
+      <c r="CR121" s="26"/>
     </row>
     <row r="122" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
@@ -20717,148 +20840,149 @@
     </row>
     <row r="133" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
-      <c r="B133" s="21">
+      <c r="B133" s="31">
         <v>2000</v>
       </c>
-      <c r="C133" s="21"/>
-      <c r="D133" s="21"/>
-      <c r="E133" s="21"/>
-      <c r="F133" s="21">
+      <c r="C133" s="31"/>
+      <c r="D133" s="31"/>
+      <c r="E133" s="31"/>
+      <c r="F133" s="31">
         <v>2001</v>
       </c>
-      <c r="G133" s="21"/>
-      <c r="H133" s="21"/>
-      <c r="I133" s="21"/>
-      <c r="J133" s="21">
+      <c r="G133" s="31"/>
+      <c r="H133" s="31"/>
+      <c r="I133" s="31"/>
+      <c r="J133" s="31">
         <v>2002</v>
       </c>
-      <c r="K133" s="21"/>
-      <c r="L133" s="21"/>
-      <c r="M133" s="21"/>
-      <c r="N133" s="21">
+      <c r="K133" s="31"/>
+      <c r="L133" s="31"/>
+      <c r="M133" s="31"/>
+      <c r="N133" s="31">
         <v>2003</v>
       </c>
-      <c r="O133" s="21"/>
-      <c r="P133" s="21"/>
-      <c r="Q133" s="21"/>
-      <c r="R133" s="21">
+      <c r="O133" s="31"/>
+      <c r="P133" s="31"/>
+      <c r="Q133" s="31"/>
+      <c r="R133" s="31">
         <v>2004</v>
       </c>
-      <c r="S133" s="21"/>
-      <c r="T133" s="21"/>
-      <c r="U133" s="21"/>
-      <c r="V133" s="21">
+      <c r="S133" s="31"/>
+      <c r="T133" s="31"/>
+      <c r="U133" s="31"/>
+      <c r="V133" s="31">
         <v>2005</v>
       </c>
-      <c r="W133" s="21"/>
-      <c r="X133" s="21"/>
-      <c r="Y133" s="21"/>
-      <c r="Z133" s="21">
+      <c r="W133" s="31"/>
+      <c r="X133" s="31"/>
+      <c r="Y133" s="31"/>
+      <c r="Z133" s="31">
         <v>2006</v>
       </c>
-      <c r="AA133" s="21"/>
-      <c r="AB133" s="21"/>
-      <c r="AC133" s="21"/>
-      <c r="AD133" s="21">
+      <c r="AA133" s="31"/>
+      <c r="AB133" s="31"/>
+      <c r="AC133" s="31"/>
+      <c r="AD133" s="31">
         <v>2007</v>
       </c>
-      <c r="AE133" s="21"/>
-      <c r="AF133" s="21"/>
-      <c r="AG133" s="21"/>
-      <c r="AH133" s="21">
+      <c r="AE133" s="31"/>
+      <c r="AF133" s="31"/>
+      <c r="AG133" s="31"/>
+      <c r="AH133" s="31">
         <v>2008</v>
       </c>
-      <c r="AI133" s="21"/>
-      <c r="AJ133" s="21"/>
-      <c r="AK133" s="21"/>
-      <c r="AL133" s="21">
+      <c r="AI133" s="31"/>
+      <c r="AJ133" s="31"/>
+      <c r="AK133" s="31"/>
+      <c r="AL133" s="31">
         <v>2009</v>
       </c>
-      <c r="AM133" s="21"/>
-      <c r="AN133" s="21"/>
-      <c r="AO133" s="21"/>
-      <c r="AP133" s="21">
+      <c r="AM133" s="31"/>
+      <c r="AN133" s="31"/>
+      <c r="AO133" s="31"/>
+      <c r="AP133" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ133" s="21"/>
-      <c r="AR133" s="21"/>
-      <c r="AS133" s="21"/>
-      <c r="AT133" s="21">
+      <c r="AQ133" s="31"/>
+      <c r="AR133" s="31"/>
+      <c r="AS133" s="31"/>
+      <c r="AT133" s="31">
         <v>2011</v>
       </c>
-      <c r="AU133" s="21"/>
-      <c r="AV133" s="21"/>
-      <c r="AW133" s="21"/>
-      <c r="AX133" s="21">
+      <c r="AU133" s="31"/>
+      <c r="AV133" s="31"/>
+      <c r="AW133" s="31"/>
+      <c r="AX133" s="31">
         <v>2012</v>
       </c>
-      <c r="AY133" s="21"/>
-      <c r="AZ133" s="21"/>
-      <c r="BA133" s="21"/>
-      <c r="BB133" s="21">
+      <c r="AY133" s="31"/>
+      <c r="AZ133" s="31"/>
+      <c r="BA133" s="31"/>
+      <c r="BB133" s="31">
         <v>2013</v>
       </c>
-      <c r="BC133" s="21"/>
-      <c r="BD133" s="21"/>
-      <c r="BE133" s="21"/>
-      <c r="BF133" s="21">
+      <c r="BC133" s="31"/>
+      <c r="BD133" s="31"/>
+      <c r="BE133" s="31"/>
+      <c r="BF133" s="31">
         <v>2014</v>
       </c>
-      <c r="BG133" s="21"/>
-      <c r="BH133" s="21"/>
-      <c r="BI133" s="21"/>
-      <c r="BJ133" s="21">
+      <c r="BG133" s="31"/>
+      <c r="BH133" s="31"/>
+      <c r="BI133" s="31"/>
+      <c r="BJ133" s="31">
         <v>2015</v>
       </c>
-      <c r="BK133" s="21"/>
-      <c r="BL133" s="21"/>
-      <c r="BM133" s="21"/>
-      <c r="BN133" s="21">
+      <c r="BK133" s="31"/>
+      <c r="BL133" s="31"/>
+      <c r="BM133" s="31"/>
+      <c r="BN133" s="31">
         <v>2016</v>
       </c>
-      <c r="BO133" s="21"/>
-      <c r="BP133" s="21"/>
-      <c r="BQ133" s="21"/>
-      <c r="BR133" s="21">
+      <c r="BO133" s="31"/>
+      <c r="BP133" s="31"/>
+      <c r="BQ133" s="31"/>
+      <c r="BR133" s="31">
         <v>2017</v>
       </c>
-      <c r="BS133" s="21"/>
-      <c r="BT133" s="21"/>
-      <c r="BU133" s="21"/>
-      <c r="BV133" s="21">
+      <c r="BS133" s="31"/>
+      <c r="BT133" s="31"/>
+      <c r="BU133" s="31"/>
+      <c r="BV133" s="31">
         <v>2018</v>
       </c>
-      <c r="BW133" s="21"/>
-      <c r="BX133" s="21"/>
-      <c r="BY133" s="21"/>
-      <c r="BZ133" s="21">
+      <c r="BW133" s="31"/>
+      <c r="BX133" s="31"/>
+      <c r="BY133" s="31"/>
+      <c r="BZ133" s="31">
         <v>2019</v>
       </c>
-      <c r="CA133" s="21"/>
-      <c r="CB133" s="21"/>
-      <c r="CC133" s="21"/>
-      <c r="CD133" s="22">
+      <c r="CA133" s="31"/>
+      <c r="CB133" s="31"/>
+      <c r="CC133" s="31"/>
+      <c r="CD133" s="32">
         <v>2020</v>
       </c>
-      <c r="CE133" s="22"/>
-      <c r="CF133" s="22"/>
-      <c r="CG133" s="22"/>
-      <c r="CH133" s="22">
+      <c r="CE133" s="32"/>
+      <c r="CF133" s="32"/>
+      <c r="CG133" s="32"/>
+      <c r="CH133" s="32">
         <v>2021</v>
       </c>
-      <c r="CI133" s="22"/>
-      <c r="CJ133" s="22"/>
-      <c r="CK133" s="22"/>
-      <c r="CL133" s="22">
+      <c r="CI133" s="32"/>
+      <c r="CJ133" s="32"/>
+      <c r="CK133" s="32"/>
+      <c r="CL133" s="31">
         <v>2022</v>
       </c>
-      <c r="CM133" s="22"/>
-      <c r="CN133" s="22"/>
-      <c r="CO133" s="22"/>
-      <c r="CP133" s="22">
+      <c r="CM133" s="31"/>
+      <c r="CN133" s="31"/>
+      <c r="CO133" s="31"/>
+      <c r="CP133" s="31">
         <v>2023</v>
       </c>
-      <c r="CQ133" s="23"/>
+      <c r="CQ133" s="31"/>
+      <c r="CR133" s="31"/>
     </row>
     <row r="134" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
@@ -21126,23 +21250,26 @@
       <c r="CK134" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CL134" s="13" t="s">
+      <c r="CL134" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CM134" s="13" t="s">
+      <c r="CM134" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CN134" s="13" t="s">
+      <c r="CN134" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CO134" s="13" t="s">
+      <c r="CO134" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="CP134" s="13" t="s">
+      <c r="CP134" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CQ134" s="13" t="s">
+      <c r="CQ134" s="27" t="s">
         <v>8</v>
+      </c>
+      <c r="CR134" s="27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -21416,25 +21543,27 @@
       <c r="CK136" s="20">
         <v>6.3517535811312325</v>
       </c>
-      <c r="CL136" s="20">
+      <c r="CL136" s="30">
         <v>7.2501408841845167</v>
       </c>
-      <c r="CM136" s="20">
+      <c r="CM136" s="30">
         <v>4.5525961507475614</v>
       </c>
-      <c r="CN136" s="20">
+      <c r="CN136" s="30">
         <v>7.123031504693027</v>
       </c>
-      <c r="CO136" s="20">
+      <c r="CO136" s="30">
         <v>9.1431393370668612</v>
       </c>
-      <c r="CP136" s="20">
+      <c r="CP136" s="30">
         <v>10.385944912529338</v>
       </c>
-      <c r="CQ136" s="20">
-        <v>4.4109536908816631</v>
-      </c>
-      <c r="CR136" s="8"/>
+      <c r="CQ136" s="30">
+        <v>4.1495264516934016</v>
+      </c>
+      <c r="CR136" s="30">
+        <v>7.4098883315511861</v>
+      </c>
       <c r="CS136" s="8"/>
       <c r="CT136" s="8"/>
       <c r="CU136" s="8"/>
@@ -21759,25 +21888,27 @@
       <c r="CK137" s="20">
         <v>0.17388086679314779</v>
       </c>
-      <c r="CL137" s="20">
+      <c r="CL137" s="30">
         <v>8.303106049360541E-2</v>
       </c>
-      <c r="CM137" s="20">
+      <c r="CM137" s="30">
         <v>5.9636933637316959E-2</v>
       </c>
-      <c r="CN137" s="20">
+      <c r="CN137" s="30">
         <v>0.14132000283227314</v>
       </c>
-      <c r="CO137" s="20">
+      <c r="CO137" s="30">
         <v>0.16291089073254109</v>
       </c>
-      <c r="CP137" s="20">
+      <c r="CP137" s="30">
         <v>5.4273256982205413E-2</v>
       </c>
-      <c r="CQ137" s="20">
-        <v>5.4820821943269836E-2</v>
-      </c>
-      <c r="CR137" s="8"/>
+      <c r="CQ137" s="30">
+        <v>5.6252594877349446E-2</v>
+      </c>
+      <c r="CR137" s="30">
+        <v>0.12922696834695957</v>
+      </c>
       <c r="CS137" s="8"/>
       <c r="CT137" s="8"/>
       <c r="CU137" s="8"/>
@@ -22102,25 +22233,27 @@
       <c r="CK138" s="20">
         <v>2.7818782049697144</v>
       </c>
-      <c r="CL138" s="20">
+      <c r="CL138" s="30">
         <v>2.5240485310759349</v>
       </c>
-      <c r="CM138" s="20">
+      <c r="CM138" s="30">
         <v>9.0963045368606146</v>
       </c>
-      <c r="CN138" s="20">
+      <c r="CN138" s="30">
         <v>16.510726042475234</v>
       </c>
-      <c r="CO138" s="20">
+      <c r="CO138" s="30">
         <v>10.280272247948936</v>
       </c>
-      <c r="CP138" s="20">
+      <c r="CP138" s="30">
         <v>14.653213781321977</v>
       </c>
-      <c r="CQ138" s="20">
-        <v>15.909896855859479</v>
-      </c>
-      <c r="CR138" s="8"/>
+      <c r="CQ138" s="30">
+        <v>15.814136212939701</v>
+      </c>
+      <c r="CR138" s="30">
+        <v>23.640062115082273</v>
+      </c>
       <c r="CS138" s="8"/>
       <c r="CT138" s="8"/>
       <c r="CU138" s="8"/>
@@ -22445,25 +22578,27 @@
       <c r="CK139" s="20">
         <v>0.88176153624546327</v>
       </c>
-      <c r="CL139" s="20">
+      <c r="CL139" s="30">
         <v>0.53926570175523747</v>
       </c>
-      <c r="CM139" s="20">
+      <c r="CM139" s="30">
         <v>0.59443022262417511</v>
       </c>
-      <c r="CN139" s="20">
+      <c r="CN139" s="30">
         <v>0.69975213191846064</v>
       </c>
-      <c r="CO139" s="20">
+      <c r="CO139" s="30">
         <v>0.73576712927618371</v>
       </c>
-      <c r="CP139" s="20">
+      <c r="CP139" s="30">
         <v>0.52298502916791312</v>
       </c>
-      <c r="CQ139" s="20">
-        <v>0.62758910789349109</v>
-      </c>
-      <c r="CR139" s="8"/>
+      <c r="CQ139" s="30">
+        <v>0.61414277395104466</v>
+      </c>
+      <c r="CR139" s="30">
+        <v>0.71814570361207397</v>
+      </c>
       <c r="CS139" s="8"/>
       <c r="CT139" s="8"/>
       <c r="CU139" s="8"/>
@@ -22788,25 +22923,27 @@
       <c r="CK140" s="20">
         <v>15.080973968014156</v>
       </c>
-      <c r="CL140" s="20">
+      <c r="CL140" s="30">
         <v>17.238137924424048</v>
       </c>
-      <c r="CM140" s="20">
+      <c r="CM140" s="30">
         <v>16.198405160389729</v>
       </c>
-      <c r="CN140" s="20">
+      <c r="CN140" s="30">
         <v>13.373125061649633</v>
       </c>
-      <c r="CO140" s="20">
+      <c r="CO140" s="30">
         <v>14.14657327890621</v>
       </c>
-      <c r="CP140" s="20">
+      <c r="CP140" s="30">
         <v>15.506056245062746</v>
       </c>
-      <c r="CQ140" s="20">
-        <v>15.507973258638918</v>
-      </c>
-      <c r="CR140" s="8"/>
+      <c r="CQ140" s="30">
+        <v>15.775381488139049</v>
+      </c>
+      <c r="CR140" s="30">
+        <v>12.296146956353148</v>
+      </c>
       <c r="CS140" s="8"/>
       <c r="CT140" s="8"/>
       <c r="CU140" s="8"/>
@@ -23131,25 +23268,27 @@
       <c r="CK141" s="20">
         <v>61.447874063049959</v>
       </c>
-      <c r="CL141" s="20">
+      <c r="CL141" s="30">
         <v>58.900780388605469</v>
       </c>
-      <c r="CM141" s="20">
+      <c r="CM141" s="30">
         <v>57.315289478851419</v>
       </c>
-      <c r="CN141" s="20">
+      <c r="CN141" s="30">
         <v>51.518222835669761</v>
       </c>
-      <c r="CO141" s="20">
+      <c r="CO141" s="30">
         <v>52.938775237345773</v>
       </c>
-      <c r="CP141" s="20">
+      <c r="CP141" s="30">
         <v>50.174467506242607</v>
       </c>
-      <c r="CQ141" s="20">
-        <v>53.070124142249163</v>
-      </c>
-      <c r="CR141" s="8"/>
+      <c r="CQ141" s="30">
+        <v>52.859521752134953</v>
+      </c>
+      <c r="CR141" s="30">
+        <v>45.986665827425938</v>
+      </c>
       <c r="CS141" s="8"/>
       <c r="CT141" s="8"/>
       <c r="CU141" s="8"/>
@@ -23474,25 +23613,27 @@
       <c r="CK142" s="20">
         <v>11.721266919248494</v>
       </c>
-      <c r="CL142" s="20">
+      <c r="CL142" s="30">
         <v>12.454562170481861</v>
       </c>
-      <c r="CM142" s="20">
+      <c r="CM142" s="30">
         <v>10.895182644348477</v>
       </c>
-      <c r="CN142" s="20">
+      <c r="CN142" s="30">
         <v>9.1716680739699008</v>
       </c>
-      <c r="CO142" s="20">
+      <c r="CO142" s="30">
         <v>10.811279520989928</v>
       </c>
-      <c r="CP142" s="20">
+      <c r="CP142" s="30">
         <v>7.7040431649428687</v>
       </c>
-      <c r="CQ142" s="20">
-        <v>8.7244430168462248</v>
-      </c>
-      <c r="CR142" s="8"/>
+      <c r="CQ142" s="30">
+        <v>9.4264873616423603</v>
+      </c>
+      <c r="CR142" s="30">
+        <v>8.6239076590452282</v>
+      </c>
       <c r="CS142" s="8"/>
       <c r="CT142" s="8"/>
       <c r="CU142" s="8"/>
@@ -23817,25 +23958,27 @@
       <c r="CK143" s="20">
         <v>1.5606108605478348</v>
       </c>
-      <c r="CL143" s="20">
+      <c r="CL143" s="30">
         <v>1.0100333389793279</v>
       </c>
-      <c r="CM143" s="20">
+      <c r="CM143" s="30">
         <v>1.2881548725406995</v>
       </c>
-      <c r="CN143" s="20">
+      <c r="CN143" s="30">
         <v>1.462154346791706</v>
       </c>
-      <c r="CO143" s="20">
+      <c r="CO143" s="30">
         <v>1.7812823577335724</v>
       </c>
-      <c r="CP143" s="20">
+      <c r="CP143" s="30">
         <v>0.99901610375035477</v>
       </c>
-      <c r="CQ143" s="20">
-        <v>1.6941991056877856</v>
-      </c>
-      <c r="CR143" s="8"/>
+      <c r="CQ143" s="30">
+        <v>1.3045513646221525</v>
+      </c>
+      <c r="CR143" s="30">
+        <v>1.1959564385831878</v>
+      </c>
       <c r="CS143" s="8"/>
       <c r="CT143" s="8"/>
       <c r="CU143" s="8"/>
@@ -23981,13 +24124,13 @@
       <c r="CI144" s="8"/>
       <c r="CJ144" s="8"/>
       <c r="CK144" s="8"/>
-      <c r="CL144" s="8"/>
-      <c r="CM144" s="8"/>
-      <c r="CN144" s="8"/>
-      <c r="CO144" s="8"/>
-      <c r="CP144" s="8"/>
-      <c r="CQ144" s="8"/>
-      <c r="CR144" s="8"/>
+      <c r="CL144" s="24"/>
+      <c r="CM144" s="24"/>
+      <c r="CN144" s="24"/>
+      <c r="CO144" s="24"/>
+      <c r="CP144" s="24"/>
+      <c r="CQ144" s="24"/>
+      <c r="CR144" s="24"/>
       <c r="CS144" s="8"/>
       <c r="CT144" s="8"/>
       <c r="CU144" s="8"/>
@@ -24312,25 +24455,27 @@
       <c r="CK145" s="14">
         <v>100</v>
       </c>
-      <c r="CL145" s="14">
+      <c r="CL145" s="29">
         <v>100</v>
       </c>
-      <c r="CM145" s="14">
+      <c r="CM145" s="29">
         <v>100</v>
       </c>
-      <c r="CN145" s="14">
+      <c r="CN145" s="29">
         <v>100</v>
       </c>
-      <c r="CO145" s="14">
+      <c r="CO145" s="29">
         <v>100</v>
       </c>
-      <c r="CP145" s="14">
+      <c r="CP145" s="29">
         <v>100</v>
       </c>
-      <c r="CQ145" s="14">
+      <c r="CQ145" s="29">
         <v>100</v>
       </c>
-      <c r="CR145" s="8"/>
+      <c r="CR145" s="29">
+        <v>100</v>
+      </c>
       <c r="CS145" s="8"/>
       <c r="CT145" s="8"/>
       <c r="CU145" s="8"/>
@@ -24477,12 +24622,13 @@
       <c r="CI146" s="11"/>
       <c r="CJ146" s="11"/>
       <c r="CK146" s="11"/>
-      <c r="CL146" s="11"/>
-      <c r="CM146" s="11"/>
-      <c r="CN146" s="11"/>
-      <c r="CO146" s="11"/>
-      <c r="CP146" s="11"/>
-      <c r="CQ146" s="11"/>
+      <c r="CL146" s="26"/>
+      <c r="CM146" s="26"/>
+      <c r="CN146" s="26"/>
+      <c r="CO146" s="26"/>
+      <c r="CP146" s="26"/>
+      <c r="CQ146" s="26"/>
+      <c r="CR146" s="26"/>
     </row>
     <row r="147" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
@@ -24578,13 +24724,13 @@
       <c r="CI148" s="8"/>
       <c r="CJ148" s="8"/>
       <c r="CK148" s="8"/>
-      <c r="CL148" s="8"/>
-      <c r="CM148" s="8"/>
-      <c r="CN148" s="8"/>
-      <c r="CO148" s="8"/>
-      <c r="CP148" s="8"/>
-      <c r="CQ148" s="8"/>
-      <c r="CR148" s="8"/>
+      <c r="CL148" s="24"/>
+      <c r="CM148" s="24"/>
+      <c r="CN148" s="24"/>
+      <c r="CO148" s="24"/>
+      <c r="CP148" s="24"/>
+      <c r="CQ148" s="24"/>
+      <c r="CR148" s="24"/>
       <c r="CS148" s="8"/>
       <c r="CT148" s="8"/>
       <c r="CU148" s="8"/>
@@ -24730,13 +24876,13 @@
       <c r="CI149" s="8"/>
       <c r="CJ149" s="8"/>
       <c r="CK149" s="8"/>
-      <c r="CL149" s="8"/>
-      <c r="CM149" s="8"/>
-      <c r="CN149" s="8"/>
-      <c r="CO149" s="8"/>
-      <c r="CP149" s="8"/>
-      <c r="CQ149" s="8"/>
-      <c r="CR149" s="8"/>
+      <c r="CL149" s="24"/>
+      <c r="CM149" s="24"/>
+      <c r="CN149" s="24"/>
+      <c r="CO149" s="24"/>
+      <c r="CP149" s="24"/>
+      <c r="CQ149" s="24"/>
+      <c r="CR149" s="24"/>
       <c r="CS149" s="8"/>
       <c r="CT149" s="8"/>
       <c r="CU149" s="8"/>
@@ -24825,148 +24971,149 @@
     </row>
     <row r="158" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
-      <c r="B158" s="21">
+      <c r="B158" s="31">
         <v>2000</v>
       </c>
-      <c r="C158" s="21"/>
-      <c r="D158" s="21"/>
-      <c r="E158" s="21"/>
-      <c r="F158" s="21">
+      <c r="C158" s="31"/>
+      <c r="D158" s="31"/>
+      <c r="E158" s="31"/>
+      <c r="F158" s="31">
         <v>2001</v>
       </c>
-      <c r="G158" s="21"/>
-      <c r="H158" s="21"/>
-      <c r="I158" s="21"/>
-      <c r="J158" s="21">
+      <c r="G158" s="31"/>
+      <c r="H158" s="31"/>
+      <c r="I158" s="31"/>
+      <c r="J158" s="31">
         <v>2002</v>
       </c>
-      <c r="K158" s="21"/>
-      <c r="L158" s="21"/>
-      <c r="M158" s="21"/>
-      <c r="N158" s="21">
+      <c r="K158" s="31"/>
+      <c r="L158" s="31"/>
+      <c r="M158" s="31"/>
+      <c r="N158" s="31">
         <v>2003</v>
       </c>
-      <c r="O158" s="21"/>
-      <c r="P158" s="21"/>
-      <c r="Q158" s="21"/>
-      <c r="R158" s="21">
+      <c r="O158" s="31"/>
+      <c r="P158" s="31"/>
+      <c r="Q158" s="31"/>
+      <c r="R158" s="31">
         <v>2004</v>
       </c>
-      <c r="S158" s="21"/>
-      <c r="T158" s="21"/>
-      <c r="U158" s="21"/>
-      <c r="V158" s="21">
+      <c r="S158" s="31"/>
+      <c r="T158" s="31"/>
+      <c r="U158" s="31"/>
+      <c r="V158" s="31">
         <v>2005</v>
       </c>
-      <c r="W158" s="21"/>
-      <c r="X158" s="21"/>
-      <c r="Y158" s="21"/>
-      <c r="Z158" s="21">
+      <c r="W158" s="31"/>
+      <c r="X158" s="31"/>
+      <c r="Y158" s="31"/>
+      <c r="Z158" s="31">
         <v>2006</v>
       </c>
-      <c r="AA158" s="21"/>
-      <c r="AB158" s="21"/>
-      <c r="AC158" s="21"/>
-      <c r="AD158" s="21">
+      <c r="AA158" s="31"/>
+      <c r="AB158" s="31"/>
+      <c r="AC158" s="31"/>
+      <c r="AD158" s="31">
         <v>2007</v>
       </c>
-      <c r="AE158" s="21"/>
-      <c r="AF158" s="21"/>
-      <c r="AG158" s="21"/>
-      <c r="AH158" s="21">
+      <c r="AE158" s="31"/>
+      <c r="AF158" s="31"/>
+      <c r="AG158" s="31"/>
+      <c r="AH158" s="31">
         <v>2008</v>
       </c>
-      <c r="AI158" s="21"/>
-      <c r="AJ158" s="21"/>
-      <c r="AK158" s="21"/>
-      <c r="AL158" s="21">
+      <c r="AI158" s="31"/>
+      <c r="AJ158" s="31"/>
+      <c r="AK158" s="31"/>
+      <c r="AL158" s="31">
         <v>2009</v>
       </c>
-      <c r="AM158" s="21"/>
-      <c r="AN158" s="21"/>
-      <c r="AO158" s="21"/>
-      <c r="AP158" s="21">
+      <c r="AM158" s="31"/>
+      <c r="AN158" s="31"/>
+      <c r="AO158" s="31"/>
+      <c r="AP158" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ158" s="21"/>
-      <c r="AR158" s="21"/>
-      <c r="AS158" s="21"/>
-      <c r="AT158" s="21">
+      <c r="AQ158" s="31"/>
+      <c r="AR158" s="31"/>
+      <c r="AS158" s="31"/>
+      <c r="AT158" s="31">
         <v>2011</v>
       </c>
-      <c r="AU158" s="21"/>
-      <c r="AV158" s="21"/>
-      <c r="AW158" s="21"/>
-      <c r="AX158" s="21">
+      <c r="AU158" s="31"/>
+      <c r="AV158" s="31"/>
+      <c r="AW158" s="31"/>
+      <c r="AX158" s="31">
         <v>2012</v>
       </c>
-      <c r="AY158" s="21"/>
-      <c r="AZ158" s="21"/>
-      <c r="BA158" s="21"/>
-      <c r="BB158" s="21">
+      <c r="AY158" s="31"/>
+      <c r="AZ158" s="31"/>
+      <c r="BA158" s="31"/>
+      <c r="BB158" s="31">
         <v>2013</v>
       </c>
-      <c r="BC158" s="21"/>
-      <c r="BD158" s="21"/>
-      <c r="BE158" s="21"/>
-      <c r="BF158" s="21">
+      <c r="BC158" s="31"/>
+      <c r="BD158" s="31"/>
+      <c r="BE158" s="31"/>
+      <c r="BF158" s="31">
         <v>2014</v>
       </c>
-      <c r="BG158" s="21"/>
-      <c r="BH158" s="21"/>
-      <c r="BI158" s="21"/>
-      <c r="BJ158" s="21">
+      <c r="BG158" s="31"/>
+      <c r="BH158" s="31"/>
+      <c r="BI158" s="31"/>
+      <c r="BJ158" s="31">
         <v>2015</v>
       </c>
-      <c r="BK158" s="21"/>
-      <c r="BL158" s="21"/>
-      <c r="BM158" s="21"/>
-      <c r="BN158" s="21">
+      <c r="BK158" s="31"/>
+      <c r="BL158" s="31"/>
+      <c r="BM158" s="31"/>
+      <c r="BN158" s="31">
         <v>2016</v>
       </c>
-      <c r="BO158" s="21"/>
-      <c r="BP158" s="21"/>
-      <c r="BQ158" s="21"/>
-      <c r="BR158" s="21">
+      <c r="BO158" s="31"/>
+      <c r="BP158" s="31"/>
+      <c r="BQ158" s="31"/>
+      <c r="BR158" s="31">
         <v>2017</v>
       </c>
-      <c r="BS158" s="21"/>
-      <c r="BT158" s="21"/>
-      <c r="BU158" s="21"/>
-      <c r="BV158" s="21">
+      <c r="BS158" s="31"/>
+      <c r="BT158" s="31"/>
+      <c r="BU158" s="31"/>
+      <c r="BV158" s="31">
         <v>2018</v>
       </c>
-      <c r="BW158" s="21"/>
-      <c r="BX158" s="21"/>
-      <c r="BY158" s="21"/>
-      <c r="BZ158" s="21">
+      <c r="BW158" s="31"/>
+      <c r="BX158" s="31"/>
+      <c r="BY158" s="31"/>
+      <c r="BZ158" s="31">
         <v>2019</v>
       </c>
-      <c r="CA158" s="21"/>
-      <c r="CB158" s="21"/>
-      <c r="CC158" s="21"/>
-      <c r="CD158" s="22">
+      <c r="CA158" s="31"/>
+      <c r="CB158" s="31"/>
+      <c r="CC158" s="31"/>
+      <c r="CD158" s="32">
         <v>2020</v>
       </c>
-      <c r="CE158" s="22"/>
-      <c r="CF158" s="22"/>
-      <c r="CG158" s="22"/>
-      <c r="CH158" s="22">
+      <c r="CE158" s="32"/>
+      <c r="CF158" s="32"/>
+      <c r="CG158" s="32"/>
+      <c r="CH158" s="32">
         <v>2021</v>
       </c>
-      <c r="CI158" s="22"/>
-      <c r="CJ158" s="22"/>
-      <c r="CK158" s="22"/>
-      <c r="CL158" s="22">
+      <c r="CI158" s="32"/>
+      <c r="CJ158" s="32"/>
+      <c r="CK158" s="32"/>
+      <c r="CL158" s="31">
         <v>2022</v>
       </c>
-      <c r="CM158" s="22"/>
-      <c r="CN158" s="22"/>
-      <c r="CO158" s="22"/>
-      <c r="CP158" s="22">
+      <c r="CM158" s="31"/>
+      <c r="CN158" s="31"/>
+      <c r="CO158" s="31"/>
+      <c r="CP158" s="31">
         <v>2023</v>
       </c>
-      <c r="CQ158" s="23"/>
+      <c r="CQ158" s="31"/>
+      <c r="CR158" s="31"/>
     </row>
     <row r="159" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
@@ -25234,23 +25381,26 @@
       <c r="CK159" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CL159" s="13" t="s">
+      <c r="CL159" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CM159" s="13" t="s">
+      <c r="CM159" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CN159" s="13" t="s">
+      <c r="CN159" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CO159" s="13" t="s">
+      <c r="CO159" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="CP159" s="13" t="s">
+      <c r="CP159" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CQ159" s="13" t="s">
+      <c r="CQ159" s="27" t="s">
         <v>8</v>
+      </c>
+      <c r="CR159" s="27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -25524,25 +25674,27 @@
       <c r="CK161" s="20">
         <v>5.7772458590307521</v>
       </c>
-      <c r="CL161" s="20">
+      <c r="CL161" s="30">
         <v>6.4586903187929448</v>
       </c>
-      <c r="CM161" s="20">
+      <c r="CM161" s="30">
         <v>4.1385663284785403</v>
       </c>
-      <c r="CN161" s="20">
+      <c r="CN161" s="30">
         <v>6.4069843265431619</v>
       </c>
-      <c r="CO161" s="20">
+      <c r="CO161" s="30">
         <v>7.9818538688371241</v>
       </c>
-      <c r="CP161" s="20">
+      <c r="CP161" s="30">
         <v>8.9701922768346183</v>
       </c>
-      <c r="CQ161" s="20">
-        <v>3.6726498998531447</v>
-      </c>
-      <c r="CR161" s="8"/>
+      <c r="CQ161" s="30">
+        <v>3.4518900528178751</v>
+      </c>
+      <c r="CR161" s="30">
+        <v>6.8115502027439527</v>
+      </c>
       <c r="CS161" s="8"/>
       <c r="CT161" s="8"/>
       <c r="CU161" s="8"/>
@@ -25867,25 +26019,27 @@
       <c r="CK162" s="20">
         <v>0.17467265771166715</v>
       </c>
-      <c r="CL162" s="20">
+      <c r="CL162" s="30">
         <v>8.3365702231303115E-2</v>
       </c>
-      <c r="CM162" s="20">
+      <c r="CM162" s="30">
         <v>5.9398819865764195E-2</v>
       </c>
-      <c r="CN162" s="20">
+      <c r="CN162" s="30">
         <v>0.14074462376520538</v>
       </c>
-      <c r="CO162" s="20">
+      <c r="CO162" s="30">
         <v>0.16535615081173041</v>
       </c>
-      <c r="CP162" s="20">
+      <c r="CP162" s="30">
         <v>5.3591170489628352E-2</v>
       </c>
-      <c r="CQ162" s="20">
-        <v>5.4213051797892466E-2</v>
-      </c>
-      <c r="CR162" s="8"/>
+      <c r="CQ162" s="30">
+        <v>5.5579195779999334E-2</v>
+      </c>
+      <c r="CR162" s="30">
+        <v>0.12895075140310977</v>
+      </c>
       <c r="CS162" s="8"/>
       <c r="CT162" s="8"/>
       <c r="CU162" s="8"/>
@@ -26210,25 +26364,27 @@
       <c r="CK163" s="20">
         <v>2.7674485056923839</v>
       </c>
-      <c r="CL163" s="20">
+      <c r="CL163" s="30">
         <v>2.4995504275256444</v>
       </c>
-      <c r="CM163" s="20">
+      <c r="CM163" s="30">
         <v>8.911620089896747</v>
       </c>
-      <c r="CN163" s="20">
+      <c r="CN163" s="30">
         <v>16.119529344341789</v>
       </c>
-      <c r="CO163" s="20">
+      <c r="CO163" s="30">
         <v>10.2011073825906</v>
       </c>
-      <c r="CP163" s="20">
+      <c r="CP163" s="30">
         <v>14.182637348627166</v>
       </c>
-      <c r="CQ163" s="20">
-        <v>15.30195996802601</v>
-      </c>
-      <c r="CR163" s="8"/>
+      <c r="CQ163" s="30">
+        <v>15.196254462418146</v>
+      </c>
+      <c r="CR163" s="30">
+        <v>22.69882058054359</v>
+      </c>
       <c r="CS163" s="8"/>
       <c r="CT163" s="8"/>
       <c r="CU163" s="8"/>
@@ -26553,25 +26709,27 @@
       <c r="CK164" s="20">
         <v>0.87264213018068471</v>
       </c>
-      <c r="CL164" s="20">
+      <c r="CL164" s="30">
         <v>0.55785951527030686</v>
       </c>
-      <c r="CM164" s="20">
+      <c r="CM164" s="30">
         <v>0.61229989214461655</v>
       </c>
-      <c r="CN164" s="20">
+      <c r="CN164" s="30">
         <v>0.71867427343568591</v>
       </c>
-      <c r="CO164" s="20">
+      <c r="CO164" s="30">
         <v>0.73957934408039272</v>
       </c>
-      <c r="CP164" s="20">
+      <c r="CP164" s="30">
         <v>0.53357666534338333</v>
       </c>
-      <c r="CQ164" s="20">
-        <v>0.63536633357314132</v>
-      </c>
-      <c r="CR164" s="8"/>
+      <c r="CQ164" s="30">
+        <v>0.6211972612261899</v>
+      </c>
+      <c r="CR164" s="30">
+        <v>0.72797524390114443</v>
+      </c>
       <c r="CS164" s="8"/>
       <c r="CT164" s="8"/>
       <c r="CU164" s="8"/>
@@ -26896,25 +27054,27 @@
       <c r="CK165" s="20">
         <v>16.405668592360829</v>
       </c>
-      <c r="CL165" s="20">
+      <c r="CL165" s="30">
         <v>18.951192764948299</v>
       </c>
-      <c r="CM165" s="20">
+      <c r="CM165" s="30">
         <v>17.785181361601524</v>
       </c>
-      <c r="CN165" s="20">
+      <c r="CN165" s="30">
         <v>15.127593432922945</v>
       </c>
-      <c r="CO165" s="20">
+      <c r="CO165" s="30">
         <v>15.896808419825733</v>
       </c>
-      <c r="CP165" s="20">
+      <c r="CP165" s="30">
         <v>17.791344989241704</v>
       </c>
-      <c r="CQ165" s="20">
-        <v>17.652401980290779</v>
-      </c>
-      <c r="CR165" s="8"/>
+      <c r="CQ165" s="30">
+        <v>17.940895219784647</v>
+      </c>
+      <c r="CR165" s="30">
+        <v>14.359027504133287</v>
+      </c>
       <c r="CS165" s="8"/>
       <c r="CT165" s="8"/>
       <c r="CU165" s="8"/>
@@ -27239,25 +27399,27 @@
       <c r="CK166" s="20">
         <v>60.630953060817014</v>
       </c>
-      <c r="CL166" s="20">
+      <c r="CL166" s="30">
         <v>58.044220266448377</v>
       </c>
-      <c r="CM166" s="20">
+      <c r="CM166" s="30">
         <v>56.342870326104055</v>
       </c>
-      <c r="CN166" s="20">
+      <c r="CN166" s="30">
         <v>51.100317624662694</v>
       </c>
-      <c r="CO166" s="20">
+      <c r="CO166" s="30">
         <v>52.545643538551502</v>
       </c>
-      <c r="CP166" s="20">
+      <c r="CP166" s="30">
         <v>49.944576762366964</v>
       </c>
-      <c r="CQ166" s="20">
-        <v>52.364547293168606</v>
-      </c>
-      <c r="CR166" s="8"/>
+      <c r="CQ166" s="30">
+        <v>52.11741005755858</v>
+      </c>
+      <c r="CR166" s="30">
+        <v>45.688326560593588</v>
+      </c>
       <c r="CS166" s="8"/>
       <c r="CT166" s="8"/>
       <c r="CU166" s="8"/>
@@ -27582,25 +27744,27 @@
       <c r="CK167" s="20">
         <v>11.801617241714322</v>
       </c>
-      <c r="CL167" s="20">
+      <c r="CL167" s="30">
         <v>12.392135547770765</v>
       </c>
-      <c r="CM167" s="20">
+      <c r="CM167" s="30">
         <v>10.860189371072559</v>
       </c>
-      <c r="CN167" s="20">
+      <c r="CN167" s="30">
         <v>8.8673750202839567</v>
       </c>
-      <c r="CO167" s="20">
+      <c r="CO167" s="30">
         <v>10.659285741136884</v>
       </c>
-      <c r="CP167" s="20">
+      <c r="CP167" s="30">
         <v>7.5387080999438281</v>
       </c>
-      <c r="CQ167" s="20">
-        <v>8.6344841182179728</v>
-      </c>
-      <c r="CR167" s="8"/>
+      <c r="CQ167" s="30">
+        <v>9.3209452903791821</v>
+      </c>
+      <c r="CR167" s="30">
+        <v>8.3539791863255921</v>
+      </c>
       <c r="CS167" s="8"/>
       <c r="CT167" s="8"/>
       <c r="CU167" s="8"/>
@@ -27925,25 +28089,27 @@
       <c r="CK168" s="20">
         <v>1.5697519524923442</v>
       </c>
-      <c r="CL168" s="20">
+      <c r="CL168" s="30">
         <v>1.012985457012362</v>
       </c>
-      <c r="CM168" s="20">
+      <c r="CM168" s="30">
         <v>1.2898738108361971</v>
       </c>
-      <c r="CN168" s="20">
+      <c r="CN168" s="30">
         <v>1.5187813540445654</v>
       </c>
-      <c r="CO168" s="20">
+      <c r="CO168" s="30">
         <v>1.8103655541660508</v>
       </c>
-      <c r="CP168" s="20">
+      <c r="CP168" s="30">
         <v>0.98537268715271287</v>
       </c>
-      <c r="CQ168" s="20">
-        <v>1.6843773550724355</v>
-      </c>
-      <c r="CR168" s="8"/>
+      <c r="CQ168" s="30">
+        <v>1.2958284600353802</v>
+      </c>
+      <c r="CR168" s="30">
+        <v>1.2313699703557595</v>
+      </c>
       <c r="CS168" s="8"/>
       <c r="CT168" s="8"/>
       <c r="CU168" s="8"/>
@@ -28089,13 +28255,13 @@
       <c r="CI169" s="8"/>
       <c r="CJ169" s="8"/>
       <c r="CK169" s="8"/>
-      <c r="CL169" s="8"/>
-      <c r="CM169" s="8"/>
-      <c r="CN169" s="8"/>
-      <c r="CO169" s="8"/>
-      <c r="CP169" s="8"/>
-      <c r="CQ169" s="8"/>
-      <c r="CR169" s="8"/>
+      <c r="CL169" s="24"/>
+      <c r="CM169" s="24"/>
+      <c r="CN169" s="24"/>
+      <c r="CO169" s="24"/>
+      <c r="CP169" s="24"/>
+      <c r="CQ169" s="24"/>
+      <c r="CR169" s="24"/>
       <c r="CS169" s="8"/>
       <c r="CT169" s="8"/>
       <c r="CU169" s="8"/>
@@ -28420,25 +28586,27 @@
       <c r="CK170" s="14">
         <v>100</v>
       </c>
-      <c r="CL170" s="14">
+      <c r="CL170" s="29">
         <v>100</v>
       </c>
-      <c r="CM170" s="14">
+      <c r="CM170" s="29">
         <v>100</v>
       </c>
-      <c r="CN170" s="14">
+      <c r="CN170" s="29">
         <v>100</v>
       </c>
-      <c r="CO170" s="14">
+      <c r="CO170" s="29">
         <v>100</v>
       </c>
-      <c r="CP170" s="14">
+      <c r="CP170" s="29">
         <v>100</v>
       </c>
-      <c r="CQ170" s="14">
+      <c r="CQ170" s="29">
         <v>100</v>
       </c>
-      <c r="CR170" s="8"/>
+      <c r="CR170" s="29">
+        <v>100</v>
+      </c>
       <c r="CS170" s="8"/>
       <c r="CT170" s="8"/>
       <c r="CU170" s="8"/>
@@ -28585,12 +28753,13 @@
       <c r="CI171" s="11"/>
       <c r="CJ171" s="11"/>
       <c r="CK171" s="11"/>
-      <c r="CL171" s="11"/>
-      <c r="CM171" s="11"/>
-      <c r="CN171" s="11"/>
-      <c r="CO171" s="11"/>
-      <c r="CP171" s="11"/>
-      <c r="CQ171" s="11"/>
+      <c r="CL171" s="26"/>
+      <c r="CM171" s="26"/>
+      <c r="CN171" s="26"/>
+      <c r="CO171" s="26"/>
+      <c r="CP171" s="26"/>
+      <c r="CQ171" s="26"/>
+      <c r="CR171" s="26"/>
     </row>
     <row r="172" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
@@ -28687,13 +28856,13 @@
       <c r="CI173" s="1"/>
       <c r="CJ173" s="1"/>
       <c r="CK173" s="1"/>
-      <c r="CL173" s="1"/>
-      <c r="CM173" s="1"/>
-      <c r="CN173" s="1"/>
-      <c r="CO173" s="1"/>
-      <c r="CP173" s="1"/>
-      <c r="CQ173" s="1"/>
-      <c r="CR173" s="16"/>
+      <c r="CL173" s="22"/>
+      <c r="CM173" s="22"/>
+      <c r="CN173" s="22"/>
+      <c r="CO173" s="22"/>
+      <c r="CP173" s="22"/>
+      <c r="CQ173" s="22"/>
+      <c r="CR173" s="22"/>
       <c r="CS173" s="16"/>
       <c r="CT173" s="16"/>
       <c r="CU173" s="16"/>
@@ -28840,13 +29009,13 @@
       <c r="CI174" s="1"/>
       <c r="CJ174" s="1"/>
       <c r="CK174" s="1"/>
-      <c r="CL174" s="1"/>
-      <c r="CM174" s="1"/>
-      <c r="CN174" s="1"/>
-      <c r="CO174" s="1"/>
-      <c r="CP174" s="1"/>
-      <c r="CQ174" s="1"/>
-      <c r="CR174" s="16"/>
+      <c r="CL174" s="22"/>
+      <c r="CM174" s="22"/>
+      <c r="CN174" s="22"/>
+      <c r="CO174" s="22"/>
+      <c r="CP174" s="22"/>
+      <c r="CQ174" s="22"/>
+      <c r="CR174" s="22"/>
       <c r="CS174" s="16"/>
       <c r="CT174" s="16"/>
       <c r="CU174" s="16"/>
@@ -28904,16 +29073,12 @@
       <c r="EU174" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="168">
-    <mergeCell ref="CP9:CQ9"/>
-    <mergeCell ref="CP34:CQ34"/>
-    <mergeCell ref="CP108:CQ108"/>
-    <mergeCell ref="CP133:CQ133"/>
-    <mergeCell ref="CP158:CQ158"/>
-    <mergeCell ref="CL59:CO59"/>
-    <mergeCell ref="CP59:CQ59"/>
-    <mergeCell ref="CL84:CO84"/>
-    <mergeCell ref="CP84:CQ84"/>
+  <mergeCells count="166">
+    <mergeCell ref="CP9:CR9"/>
+    <mergeCell ref="CP34:CR34"/>
+    <mergeCell ref="CP108:CR108"/>
+    <mergeCell ref="CP133:CR133"/>
+    <mergeCell ref="CP158:CR158"/>
     <mergeCell ref="CH133:CK133"/>
     <mergeCell ref="CH158:CK158"/>
     <mergeCell ref="CL9:CO9"/>
@@ -28924,6 +29089,8 @@
     <mergeCell ref="CD9:CG9"/>
     <mergeCell ref="BV9:BY9"/>
     <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="CL59:CN59"/>
+    <mergeCell ref="CL84:CN84"/>
     <mergeCell ref="BR9:BU9"/>
     <mergeCell ref="CH9:CK9"/>
     <mergeCell ref="CH34:CK34"/>
@@ -29078,9 +29245,9 @@
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="50" max="94" man="1"/>
-    <brk id="100" max="94" man="1"/>
-    <brk id="124" max="94" man="1"/>
+    <brk id="50" max="95" man="1"/>
+    <brk id="100" max="95" man="1"/>
+    <brk id="124" max="95" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-05EOS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-05EOS_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BE28AD-7329-4F5C-B184-D99C1A6BB816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7832BC-0B64-4CA8-A9A6-14CC23C0D093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">EOS!$A$37:$A$48</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EOS!$A$1:$CR$174</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EOS!$A$1:$CS$174</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="57">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -219,13 +219,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of November 2023</t>
+    <t>Q1 2000 to Q4 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2023</t>
+    <t>Q1 2001 to Q4 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2023</t>
+    <t>As of January 2024</t>
   </si>
 </sst>
 </file>
@@ -316,7 +316,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -348,24 +348,22 @@
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -404,9 +402,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -444,7 +442,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -550,7 +548,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -692,7 +690,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -710,16 +708,15 @@
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="CU17" sqref="CU17"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.77734375" style="1" customWidth="1"/>
     <col min="2" max="73" width="8.77734375" style="1" customWidth="1"/>
-    <col min="74" max="89" width="10" style="1" customWidth="1"/>
-    <col min="90" max="96" width="11.109375" style="22" customWidth="1"/>
-    <col min="97" max="16384" width="7.77734375" style="1"/>
+    <col min="74" max="97" width="10" style="1" customWidth="1"/>
+    <col min="98" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:151" x14ac:dyDescent="0.2">
@@ -734,7 +731,7 @@
     </row>
     <row r="3" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:151" x14ac:dyDescent="0.2">
@@ -744,7 +741,7 @@
     </row>
     <row r="6" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:151" x14ac:dyDescent="0.2">
@@ -754,149 +751,150 @@
     </row>
     <row r="9" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="32">
+      <c r="B9" s="25">
         <v>2000</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25">
         <v>2001</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32">
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25">
         <v>2002</v>
       </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32">
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25">
         <v>2003</v>
       </c>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32">
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25">
         <v>2004</v>
       </c>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32">
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25">
         <v>2005</v>
       </c>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32">
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25">
         <v>2006</v>
       </c>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="32">
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25">
         <v>2007</v>
       </c>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="32"/>
-      <c r="AH9" s="32">
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="25"/>
+      <c r="AG9" s="25"/>
+      <c r="AH9" s="25">
         <v>2008</v>
       </c>
-      <c r="AI9" s="32"/>
-      <c r="AJ9" s="32"/>
-      <c r="AK9" s="32"/>
-      <c r="AL9" s="32">
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="25"/>
+      <c r="AK9" s="25"/>
+      <c r="AL9" s="25">
         <v>2009</v>
       </c>
-      <c r="AM9" s="32"/>
-      <c r="AN9" s="32"/>
-      <c r="AO9" s="32"/>
-      <c r="AP9" s="32">
+      <c r="AM9" s="25"/>
+      <c r="AN9" s="25"/>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="32"/>
-      <c r="AR9" s="32"/>
-      <c r="AS9" s="32"/>
-      <c r="AT9" s="32">
+      <c r="AQ9" s="25"/>
+      <c r="AR9" s="25"/>
+      <c r="AS9" s="25"/>
+      <c r="AT9" s="25">
         <v>2011</v>
       </c>
-      <c r="AU9" s="32"/>
-      <c r="AV9" s="32"/>
-      <c r="AW9" s="32"/>
-      <c r="AX9" s="32">
+      <c r="AU9" s="25"/>
+      <c r="AV9" s="25"/>
+      <c r="AW9" s="25"/>
+      <c r="AX9" s="25">
         <v>2012</v>
       </c>
-      <c r="AY9" s="32"/>
-      <c r="AZ9" s="32"/>
-      <c r="BA9" s="32"/>
-      <c r="BB9" s="32">
+      <c r="AY9" s="25"/>
+      <c r="AZ9" s="25"/>
+      <c r="BA9" s="25"/>
+      <c r="BB9" s="25">
         <v>2013</v>
       </c>
-      <c r="BC9" s="32"/>
-      <c r="BD9" s="32"/>
-      <c r="BE9" s="32"/>
-      <c r="BF9" s="32">
+      <c r="BC9" s="25"/>
+      <c r="BD9" s="25"/>
+      <c r="BE9" s="25"/>
+      <c r="BF9" s="25">
         <v>2014</v>
       </c>
-      <c r="BG9" s="32"/>
-      <c r="BH9" s="32"/>
-      <c r="BI9" s="32"/>
-      <c r="BJ9" s="32">
+      <c r="BG9" s="25"/>
+      <c r="BH9" s="25"/>
+      <c r="BI9" s="25"/>
+      <c r="BJ9" s="25">
         <v>2015</v>
       </c>
-      <c r="BK9" s="32"/>
-      <c r="BL9" s="32"/>
-      <c r="BM9" s="32"/>
-      <c r="BN9" s="32">
+      <c r="BK9" s="25"/>
+      <c r="BL9" s="25"/>
+      <c r="BM9" s="25"/>
+      <c r="BN9" s="25">
         <v>2016</v>
       </c>
-      <c r="BO9" s="32"/>
-      <c r="BP9" s="32"/>
-      <c r="BQ9" s="32"/>
-      <c r="BR9" s="32">
+      <c r="BO9" s="25"/>
+      <c r="BP9" s="25"/>
+      <c r="BQ9" s="25"/>
+      <c r="BR9" s="25">
         <v>2017</v>
       </c>
-      <c r="BS9" s="32"/>
-      <c r="BT9" s="32"/>
-      <c r="BU9" s="32"/>
-      <c r="BV9" s="32">
+      <c r="BS9" s="25"/>
+      <c r="BT9" s="25"/>
+      <c r="BU9" s="25"/>
+      <c r="BV9" s="25">
         <v>2018</v>
       </c>
-      <c r="BW9" s="32"/>
-      <c r="BX9" s="32"/>
-      <c r="BY9" s="32"/>
-      <c r="BZ9" s="32">
+      <c r="BW9" s="25"/>
+      <c r="BX9" s="25"/>
+      <c r="BY9" s="25"/>
+      <c r="BZ9" s="25">
         <v>2019</v>
       </c>
-      <c r="CA9" s="32"/>
-      <c r="CB9" s="32"/>
-      <c r="CC9" s="32"/>
-      <c r="CD9" s="32">
+      <c r="CA9" s="25"/>
+      <c r="CB9" s="25"/>
+      <c r="CC9" s="25"/>
+      <c r="CD9" s="25">
         <v>2020</v>
       </c>
-      <c r="CE9" s="32"/>
-      <c r="CF9" s="32"/>
-      <c r="CG9" s="32"/>
-      <c r="CH9" s="32">
+      <c r="CE9" s="25"/>
+      <c r="CF9" s="25"/>
+      <c r="CG9" s="25"/>
+      <c r="CH9" s="25">
         <v>2021</v>
       </c>
-      <c r="CI9" s="32"/>
-      <c r="CJ9" s="32"/>
-      <c r="CK9" s="32"/>
-      <c r="CL9" s="31">
+      <c r="CI9" s="25"/>
+      <c r="CJ9" s="25"/>
+      <c r="CK9" s="25"/>
+      <c r="CL9" s="22">
         <v>2022</v>
       </c>
-      <c r="CM9" s="31"/>
-      <c r="CN9" s="31"/>
-      <c r="CO9" s="31"/>
-      <c r="CP9" s="31">
+      <c r="CM9" s="22"/>
+      <c r="CN9" s="22"/>
+      <c r="CO9" s="22"/>
+      <c r="CP9" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="31"/>
-      <c r="CR9" s="31"/>
+      <c r="CQ9" s="22"/>
+      <c r="CR9" s="22"/>
+      <c r="CS9" s="22"/>
     </row>
     <row r="10" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
@@ -1164,26 +1162,29 @@
       <c r="CK10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CL10" s="13" t="s">
+      <c r="CL10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="13" t="s">
+      <c r="CM10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CN10" s="13" t="s">
+      <c r="CN10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CO10" s="13" t="s">
+      <c r="CO10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CP10" s="13" t="s">
+      <c r="CP10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="13" t="s">
+      <c r="CQ10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="13" t="s">
+      <c r="CR10" s="5" t="s">
         <v>9</v>
+      </c>
+      <c r="CS10" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1457,28 +1458,30 @@
       <c r="CK12" s="18">
         <v>30220.178862962039</v>
       </c>
-      <c r="CL12" s="23">
+      <c r="CL12" s="18">
         <v>50141.526896531599</v>
       </c>
-      <c r="CM12" s="23">
+      <c r="CM12" s="18">
         <v>33174.177713591889</v>
       </c>
-      <c r="CN12" s="23">
+      <c r="CN12" s="18">
         <v>45433.318337045661</v>
       </c>
-      <c r="CO12" s="23">
+      <c r="CO12" s="18">
         <v>57101.427341662231</v>
       </c>
-      <c r="CP12" s="23">
+      <c r="CP12" s="18">
         <v>90759.354467504862</v>
       </c>
-      <c r="CQ12" s="23">
+      <c r="CQ12" s="18">
         <v>34722.619909424669</v>
       </c>
-      <c r="CR12" s="23">
-        <v>54722.458757352855</v>
-      </c>
-      <c r="CS12" s="8"/>
+      <c r="CR12" s="18">
+        <v>54027.934607252195</v>
+      </c>
+      <c r="CS12" s="18">
+        <v>64509.942308165642</v>
+      </c>
       <c r="CT12" s="8"/>
       <c r="CU12" s="8"/>
       <c r="CV12" s="8"/>
@@ -1802,28 +1805,30 @@
       <c r="CK13" s="18">
         <v>827.28506832280971</v>
       </c>
-      <c r="CL13" s="23">
+      <c r="CL13" s="18">
         <v>574.23768992813712</v>
       </c>
-      <c r="CM13" s="23">
+      <c r="CM13" s="18">
         <v>434.56660096089865</v>
       </c>
-      <c r="CN13" s="23">
+      <c r="CN13" s="18">
         <v>901.3910259754723</v>
       </c>
-      <c r="CO13" s="23">
+      <c r="CO13" s="18">
         <v>1017.4234524259053</v>
       </c>
-      <c r="CP13" s="23">
+      <c r="CP13" s="18">
         <v>474.27613087101957</v>
       </c>
-      <c r="CQ13" s="23">
+      <c r="CQ13" s="18">
         <v>470.71334369924239</v>
       </c>
-      <c r="CR13" s="23">
-        <v>954.34872015458097</v>
-      </c>
-      <c r="CS13" s="8"/>
+      <c r="CR13" s="18">
+        <v>945.33914883780653</v>
+      </c>
+      <c r="CS13" s="18">
+        <v>958.91017310616871</v>
+      </c>
       <c r="CT13" s="8"/>
       <c r="CU13" s="8"/>
       <c r="CV13" s="8"/>
@@ -2147,28 +2152,30 @@
       <c r="CK14" s="18">
         <v>13235.535014912855</v>
       </c>
-      <c r="CL14" s="23">
+      <c r="CL14" s="18">
         <v>17456.163863680598</v>
       </c>
-      <c r="CM14" s="23">
+      <c r="CM14" s="18">
         <v>66283.591438967225</v>
       </c>
-      <c r="CN14" s="23">
+      <c r="CN14" s="18">
         <v>105311.49157059008</v>
       </c>
-      <c r="CO14" s="23">
+      <c r="CO14" s="18">
         <v>64203.136054041541</v>
       </c>
-      <c r="CP14" s="23">
+      <c r="CP14" s="18">
         <v>128049.61270907105</v>
       </c>
-      <c r="CQ14" s="23">
+      <c r="CQ14" s="18">
         <v>132330.33872905793</v>
       </c>
-      <c r="CR14" s="23">
+      <c r="CR14" s="18">
         <v>174583.24150521151</v>
       </c>
-      <c r="CS14" s="8"/>
+      <c r="CS14" s="18">
+        <v>107496.30220590543</v>
+      </c>
       <c r="CT14" s="8"/>
       <c r="CU14" s="8"/>
       <c r="CV14" s="8"/>
@@ -2492,28 +2499,30 @@
       <c r="CK15" s="18">
         <v>4195.2180605646736</v>
       </c>
-      <c r="CL15" s="23">
+      <c r="CL15" s="18">
         <v>3729.5283113630962</v>
       </c>
-      <c r="CM15" s="23">
+      <c r="CM15" s="18">
         <v>4331.5359392082883</v>
       </c>
-      <c r="CN15" s="23">
+      <c r="CN15" s="18">
         <v>4463.2768148689938</v>
       </c>
-      <c r="CO15" s="23">
+      <c r="CO15" s="18">
         <v>4595.0686874499042</v>
       </c>
-      <c r="CP15" s="23">
+      <c r="CP15" s="18">
         <v>4570.1940500558103</v>
       </c>
-      <c r="CQ15" s="23">
+      <c r="CQ15" s="18">
         <v>5139.0553496337761</v>
       </c>
-      <c r="CR15" s="23">
+      <c r="CR15" s="18">
         <v>5303.5480278897912</v>
       </c>
-      <c r="CS15" s="8"/>
+      <c r="CS15" s="18">
+        <v>5496.1059442223577</v>
+      </c>
       <c r="CT15" s="8"/>
       <c r="CU15" s="8"/>
       <c r="CV15" s="8"/>
@@ -2837,28 +2846,30 @@
       <c r="CK16" s="18">
         <v>71751.796558186717</v>
       </c>
-      <c r="CL16" s="23">
+      <c r="CL16" s="18">
         <v>119217.8979954884</v>
       </c>
-      <c r="CM16" s="23">
+      <c r="CM16" s="18">
         <v>118035.67759448505</v>
       </c>
-      <c r="CN16" s="23">
+      <c r="CN16" s="18">
         <v>85298.716941900639</v>
       </c>
-      <c r="CO16" s="23">
+      <c r="CO16" s="18">
         <v>88349.252531254111</v>
       </c>
-      <c r="CP16" s="23">
+      <c r="CP16" s="18">
         <v>135502.32232032763</v>
       </c>
-      <c r="CQ16" s="23">
+      <c r="CQ16" s="18">
         <v>132006.04495852461</v>
       </c>
-      <c r="CR16" s="23">
-        <v>90807.764514924245</v>
-      </c>
-      <c r="CS16" s="8"/>
+      <c r="CR16" s="18">
+        <v>91459.468119856145</v>
+      </c>
+      <c r="CS16" s="18">
+        <v>101041.95380359537</v>
+      </c>
       <c r="CT16" s="8"/>
       <c r="CU16" s="8"/>
       <c r="CV16" s="8"/>
@@ -3182,28 +3193,30 @@
       <c r="CK17" s="18">
         <v>292354.81528290245</v>
       </c>
-      <c r="CL17" s="23">
+      <c r="CL17" s="18">
         <v>407354.16197559203</v>
       </c>
-      <c r="CM17" s="23">
+      <c r="CM17" s="18">
         <v>417649.08107765322</v>
       </c>
-      <c r="CN17" s="23">
+      <c r="CN17" s="18">
         <v>328602.19931776245</v>
       </c>
-      <c r="CO17" s="23">
+      <c r="CO17" s="18">
         <v>330617.25478872925</v>
       </c>
-      <c r="CP17" s="23">
+      <c r="CP17" s="18">
         <v>438458.15859506308</v>
       </c>
-      <c r="CQ17" s="23">
+      <c r="CQ17" s="18">
         <v>442320.61266757827</v>
       </c>
-      <c r="CR17" s="23">
-        <v>339614.21704754344</v>
-      </c>
-      <c r="CS17" s="8"/>
+      <c r="CR17" s="18">
+        <v>335490.92535057128</v>
+      </c>
+      <c r="CS17" s="18">
+        <v>355528.42317422281</v>
+      </c>
       <c r="CT17" s="8"/>
       <c r="CU17" s="8"/>
       <c r="CV17" s="8"/>
@@ -3527,28 +3540,30 @@
       <c r="CK18" s="18">
         <v>55767.085148338512</v>
       </c>
-      <c r="CL18" s="23">
+      <c r="CL18" s="18">
         <v>86134.983310187468</v>
       </c>
-      <c r="CM18" s="23">
+      <c r="CM18" s="18">
         <v>79391.782907497327</v>
       </c>
-      <c r="CN18" s="23">
+      <c r="CN18" s="18">
         <v>58500.276885178675</v>
       </c>
-      <c r="CO18" s="23">
+      <c r="CO18" s="18">
         <v>67519.422955250629</v>
       </c>
-      <c r="CP18" s="23">
+      <c r="CP18" s="18">
         <v>67323.097737259697</v>
       </c>
-      <c r="CQ18" s="23">
+      <c r="CQ18" s="18">
         <v>78879.443606324872</v>
       </c>
-      <c r="CR18" s="23">
-        <v>63688.062502897381</v>
-      </c>
-      <c r="CS18" s="8"/>
+      <c r="CR18" s="18">
+        <v>65216.703649807001</v>
+      </c>
+      <c r="CS18" s="18">
+        <v>72513.69130028045</v>
+      </c>
       <c r="CT18" s="8"/>
       <c r="CU18" s="8"/>
       <c r="CV18" s="8"/>
@@ -3872,28 +3887,30 @@
       <c r="CK19" s="18">
         <v>7425.0266070361704</v>
       </c>
-      <c r="CL19" s="23">
+      <c r="CL19" s="18">
         <v>6985.328235938412</v>
       </c>
-      <c r="CM19" s="23">
+      <c r="CM19" s="18">
         <v>9386.617492368041</v>
       </c>
-      <c r="CN19" s="23">
+      <c r="CN19" s="18">
         <v>9326.1589327401853</v>
       </c>
-      <c r="CO19" s="23">
+      <c r="CO19" s="18">
         <v>11124.599699881461</v>
       </c>
-      <c r="CP19" s="23">
+      <c r="CP19" s="18">
         <v>8730.0729440266932</v>
       </c>
-      <c r="CQ19" s="23">
+      <c r="CQ19" s="18">
         <v>10916.291705433185</v>
       </c>
-      <c r="CR19" s="23">
-        <v>8832.2082543798206</v>
-      </c>
-      <c r="CS19" s="8"/>
+      <c r="CR19" s="18">
+        <v>8923.0113683427662</v>
+      </c>
+      <c r="CS19" s="18">
+        <v>12747.53989161925</v>
+      </c>
       <c r="CT19" s="8"/>
       <c r="CU19" s="8"/>
       <c r="CV19" s="8"/>
@@ -4038,13 +4055,13 @@
       <c r="CI20" s="8"/>
       <c r="CJ20" s="8"/>
       <c r="CK20" s="8"/>
-      <c r="CL20" s="24"/>
-      <c r="CM20" s="24"/>
-      <c r="CN20" s="24"/>
-      <c r="CO20" s="24"/>
-      <c r="CP20" s="24"/>
-      <c r="CQ20" s="24"/>
-      <c r="CR20" s="24"/>
+      <c r="CL20" s="8"/>
+      <c r="CM20" s="8"/>
+      <c r="CN20" s="8"/>
+      <c r="CO20" s="8"/>
+      <c r="CP20" s="8"/>
+      <c r="CQ20" s="8"/>
+      <c r="CR20" s="8"/>
       <c r="CS20" s="8"/>
       <c r="CT20" s="8"/>
       <c r="CU20" s="8"/>
@@ -4369,28 +4386,30 @@
       <c r="CK21" s="19">
         <v>475776.94060322625</v>
       </c>
-      <c r="CL21" s="25">
+      <c r="CL21" s="19">
         <v>691593.82827870979</v>
       </c>
-      <c r="CM21" s="25">
+      <c r="CM21" s="19">
         <v>728687.03076473204</v>
       </c>
-      <c r="CN21" s="25">
+      <c r="CN21" s="19">
         <v>637836.8298260622</v>
       </c>
-      <c r="CO21" s="25">
+      <c r="CO21" s="19">
         <v>624527.585510695</v>
       </c>
-      <c r="CP21" s="25">
+      <c r="CP21" s="19">
         <v>873867.08895417978</v>
       </c>
-      <c r="CQ21" s="25">
+      <c r="CQ21" s="19">
         <v>836785.12026967644</v>
       </c>
-      <c r="CR21" s="25">
-        <v>738505.84933035367</v>
-      </c>
-      <c r="CS21" s="8"/>
+      <c r="CR21" s="19">
+        <v>735950.17177776853</v>
+      </c>
+      <c r="CS21" s="19">
+        <v>720292.86880111741</v>
+      </c>
       <c r="CT21" s="8"/>
       <c r="CU21" s="8"/>
       <c r="CV21" s="8"/>
@@ -4536,13 +4555,14 @@
       <c r="CI22" s="11"/>
       <c r="CJ22" s="11"/>
       <c r="CK22" s="11"/>
-      <c r="CL22" s="26"/>
-      <c r="CM22" s="26"/>
-      <c r="CN22" s="26"/>
-      <c r="CO22" s="26"/>
-      <c r="CP22" s="26"/>
-      <c r="CQ22" s="26"/>
-      <c r="CR22" s="26"/>
+      <c r="CL22" s="11"/>
+      <c r="CM22" s="11"/>
+      <c r="CN22" s="11"/>
+      <c r="CO22" s="11"/>
+      <c r="CP22" s="11"/>
+      <c r="CQ22" s="11"/>
+      <c r="CR22" s="11"/>
+      <c r="CS22" s="11"/>
     </row>
     <row r="23" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
@@ -4638,13 +4658,13 @@
       <c r="CI24" s="8"/>
       <c r="CJ24" s="8"/>
       <c r="CK24" s="8"/>
-      <c r="CL24" s="24"/>
-      <c r="CM24" s="24"/>
-      <c r="CN24" s="24"/>
-      <c r="CO24" s="24"/>
-      <c r="CP24" s="24"/>
-      <c r="CQ24" s="24"/>
-      <c r="CR24" s="24"/>
+      <c r="CL24" s="8"/>
+      <c r="CM24" s="8"/>
+      <c r="CN24" s="8"/>
+      <c r="CO24" s="8"/>
+      <c r="CP24" s="8"/>
+      <c r="CQ24" s="8"/>
+      <c r="CR24" s="8"/>
       <c r="CS24" s="8"/>
       <c r="CT24" s="8"/>
       <c r="CU24" s="8"/>
@@ -4790,13 +4810,13 @@
       <c r="CI25" s="8"/>
       <c r="CJ25" s="8"/>
       <c r="CK25" s="8"/>
-      <c r="CL25" s="24"/>
-      <c r="CM25" s="24"/>
-      <c r="CN25" s="24"/>
-      <c r="CO25" s="24"/>
-      <c r="CP25" s="24"/>
-      <c r="CQ25" s="24"/>
-      <c r="CR25" s="24"/>
+      <c r="CL25" s="8"/>
+      <c r="CM25" s="8"/>
+      <c r="CN25" s="8"/>
+      <c r="CO25" s="8"/>
+      <c r="CP25" s="8"/>
+      <c r="CQ25" s="8"/>
+      <c r="CR25" s="8"/>
       <c r="CS25" s="8"/>
       <c r="CT25" s="8"/>
       <c r="CU25" s="8"/>
@@ -4865,7 +4885,7 @@
     </row>
     <row r="28" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:151" x14ac:dyDescent="0.2">
@@ -4875,7 +4895,7 @@
     </row>
     <row r="31" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:151" x14ac:dyDescent="0.2">
@@ -4885,149 +4905,150 @@
     </row>
     <row r="34" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="31">
+      <c r="B34" s="26">
         <v>2000</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31">
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26">
         <v>2001</v>
       </c>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31">
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26">
         <v>2002</v>
       </c>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31">
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26">
         <v>2003</v>
       </c>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31">
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26">
         <v>2004</v>
       </c>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31">
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26">
         <v>2005</v>
       </c>
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="31"/>
-      <c r="Z34" s="31">
+      <c r="W34" s="26"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="26"/>
+      <c r="Z34" s="26">
         <v>2006</v>
       </c>
-      <c r="AA34" s="31"/>
-      <c r="AB34" s="31"/>
-      <c r="AC34" s="31"/>
-      <c r="AD34" s="31">
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="26"/>
+      <c r="AD34" s="26">
         <v>2007</v>
       </c>
-      <c r="AE34" s="31"/>
-      <c r="AF34" s="31"/>
-      <c r="AG34" s="31"/>
-      <c r="AH34" s="31">
+      <c r="AE34" s="26"/>
+      <c r="AF34" s="26"/>
+      <c r="AG34" s="26"/>
+      <c r="AH34" s="26">
         <v>2008</v>
       </c>
-      <c r="AI34" s="31"/>
-      <c r="AJ34" s="31"/>
-      <c r="AK34" s="31"/>
-      <c r="AL34" s="31">
+      <c r="AI34" s="26"/>
+      <c r="AJ34" s="26"/>
+      <c r="AK34" s="26"/>
+      <c r="AL34" s="26">
         <v>2009</v>
       </c>
-      <c r="AM34" s="31"/>
-      <c r="AN34" s="31"/>
-      <c r="AO34" s="31"/>
-      <c r="AP34" s="31">
+      <c r="AM34" s="26"/>
+      <c r="AN34" s="26"/>
+      <c r="AO34" s="26"/>
+      <c r="AP34" s="26">
         <v>2010</v>
       </c>
-      <c r="AQ34" s="31"/>
-      <c r="AR34" s="31"/>
-      <c r="AS34" s="31"/>
-      <c r="AT34" s="31">
+      <c r="AQ34" s="26"/>
+      <c r="AR34" s="26"/>
+      <c r="AS34" s="26"/>
+      <c r="AT34" s="26">
         <v>2011</v>
       </c>
-      <c r="AU34" s="31"/>
-      <c r="AV34" s="31"/>
-      <c r="AW34" s="31"/>
-      <c r="AX34" s="31">
+      <c r="AU34" s="26"/>
+      <c r="AV34" s="26"/>
+      <c r="AW34" s="26"/>
+      <c r="AX34" s="26">
         <v>2012</v>
       </c>
-      <c r="AY34" s="31"/>
-      <c r="AZ34" s="31"/>
-      <c r="BA34" s="31"/>
-      <c r="BB34" s="31">
+      <c r="AY34" s="26"/>
+      <c r="AZ34" s="26"/>
+      <c r="BA34" s="26"/>
+      <c r="BB34" s="26">
         <v>2013</v>
       </c>
-      <c r="BC34" s="31"/>
-      <c r="BD34" s="31"/>
-      <c r="BE34" s="31"/>
-      <c r="BF34" s="31">
+      <c r="BC34" s="26"/>
+      <c r="BD34" s="26"/>
+      <c r="BE34" s="26"/>
+      <c r="BF34" s="26">
         <v>2014</v>
       </c>
-      <c r="BG34" s="31"/>
-      <c r="BH34" s="31"/>
-      <c r="BI34" s="31"/>
-      <c r="BJ34" s="31">
+      <c r="BG34" s="26"/>
+      <c r="BH34" s="26"/>
+      <c r="BI34" s="26"/>
+      <c r="BJ34" s="26">
         <v>2015</v>
       </c>
-      <c r="BK34" s="31"/>
-      <c r="BL34" s="31"/>
-      <c r="BM34" s="31"/>
-      <c r="BN34" s="31">
+      <c r="BK34" s="26"/>
+      <c r="BL34" s="26"/>
+      <c r="BM34" s="26"/>
+      <c r="BN34" s="26">
         <v>2016</v>
       </c>
-      <c r="BO34" s="31"/>
-      <c r="BP34" s="31"/>
-      <c r="BQ34" s="31"/>
-      <c r="BR34" s="31">
+      <c r="BO34" s="26"/>
+      <c r="BP34" s="26"/>
+      <c r="BQ34" s="26"/>
+      <c r="BR34" s="26">
         <v>2017</v>
       </c>
-      <c r="BS34" s="31"/>
-      <c r="BT34" s="31"/>
-      <c r="BU34" s="31"/>
-      <c r="BV34" s="31">
+      <c r="BS34" s="26"/>
+      <c r="BT34" s="26"/>
+      <c r="BU34" s="26"/>
+      <c r="BV34" s="26">
         <v>2018</v>
       </c>
-      <c r="BW34" s="31"/>
-      <c r="BX34" s="31"/>
-      <c r="BY34" s="31"/>
-      <c r="BZ34" s="31">
+      <c r="BW34" s="26"/>
+      <c r="BX34" s="26"/>
+      <c r="BY34" s="26"/>
+      <c r="BZ34" s="26">
         <v>2019</v>
       </c>
-      <c r="CA34" s="31"/>
-      <c r="CB34" s="31"/>
-      <c r="CC34" s="31"/>
-      <c r="CD34" s="32">
+      <c r="CA34" s="26"/>
+      <c r="CB34" s="26"/>
+      <c r="CC34" s="26"/>
+      <c r="CD34" s="25">
         <v>2020</v>
       </c>
-      <c r="CE34" s="32"/>
-      <c r="CF34" s="32"/>
-      <c r="CG34" s="32"/>
-      <c r="CH34" s="32">
+      <c r="CE34" s="25"/>
+      <c r="CF34" s="25"/>
+      <c r="CG34" s="25"/>
+      <c r="CH34" s="25">
         <v>2021</v>
       </c>
-      <c r="CI34" s="32"/>
-      <c r="CJ34" s="32"/>
-      <c r="CK34" s="32"/>
-      <c r="CL34" s="31">
+      <c r="CI34" s="25"/>
+      <c r="CJ34" s="25"/>
+      <c r="CK34" s="25"/>
+      <c r="CL34" s="22">
         <v>2022</v>
       </c>
-      <c r="CM34" s="31"/>
-      <c r="CN34" s="31"/>
-      <c r="CO34" s="31"/>
-      <c r="CP34" s="31">
+      <c r="CM34" s="22"/>
+      <c r="CN34" s="22"/>
+      <c r="CO34" s="22"/>
+      <c r="CP34" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ34" s="31"/>
-      <c r="CR34" s="31"/>
+      <c r="CQ34" s="22"/>
+      <c r="CR34" s="22"/>
+      <c r="CS34" s="22"/>
     </row>
     <row r="35" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
@@ -5295,26 +5316,29 @@
       <c r="CK35" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CL35" s="27" t="s">
+      <c r="CL35" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CM35" s="27" t="s">
+      <c r="CM35" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="CN35" s="27" t="s">
+      <c r="CN35" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="CO35" s="27" t="s">
+      <c r="CO35" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CP35" s="27" t="s">
+      <c r="CP35" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CQ35" s="27" t="s">
+      <c r="CQ35" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="CR35" s="27" t="s">
+      <c r="CR35" s="13" t="s">
         <v>9</v>
+      </c>
+      <c r="CS35" s="13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -5588,28 +5612,30 @@
       <c r="CK37" s="18">
         <v>25473.984362080206</v>
       </c>
-      <c r="CL37" s="23">
+      <c r="CL37" s="18">
         <v>39764.430508135309</v>
       </c>
-      <c r="CM37" s="23">
+      <c r="CM37" s="18">
         <v>26620.30384489982</v>
       </c>
-      <c r="CN37" s="23">
+      <c r="CN37" s="18">
         <v>35357.329087856539</v>
       </c>
-      <c r="CO37" s="23">
+      <c r="CO37" s="18">
         <v>42923.047723132688</v>
       </c>
-      <c r="CP37" s="23">
+      <c r="CP37" s="18">
         <v>66380.3538554962</v>
       </c>
-      <c r="CQ37" s="23">
+      <c r="CQ37" s="18">
         <v>24511.809227412497</v>
       </c>
-      <c r="CR37" s="23">
-        <v>42003.108653506613</v>
-      </c>
-      <c r="CS37" s="8"/>
+      <c r="CR37" s="18">
+        <v>41470.015404379861</v>
+      </c>
+      <c r="CS37" s="18">
+        <v>47177.108464258839</v>
+      </c>
       <c r="CT37" s="8"/>
       <c r="CU37" s="8"/>
       <c r="CV37" s="8"/>
@@ -5933,28 +5959,30 @@
       <c r="CK38" s="18">
         <v>770.19546330619676</v>
       </c>
-      <c r="CL38" s="23">
+      <c r="CL38" s="18">
         <v>513.260353030533</v>
       </c>
-      <c r="CM38" s="23">
+      <c r="CM38" s="18">
         <v>382.06821091022977</v>
       </c>
-      <c r="CN38" s="23">
+      <c r="CN38" s="18">
         <v>776.70768745237024</v>
       </c>
-      <c r="CO38" s="23">
+      <c r="CO38" s="18">
         <v>889.21572221660801</v>
       </c>
-      <c r="CP38" s="23">
+      <c r="CP38" s="18">
         <v>396.58022379505599</v>
       </c>
-      <c r="CQ38" s="23">
+      <c r="CQ38" s="18">
         <v>394.66687035997319</v>
       </c>
-      <c r="CR38" s="23">
-        <v>795.16883248606666</v>
-      </c>
-      <c r="CS38" s="8"/>
+      <c r="CR38" s="18">
+        <v>787.66200594157351</v>
+      </c>
+      <c r="CS38" s="18">
+        <v>813.84963393951602</v>
+      </c>
       <c r="CT38" s="8"/>
       <c r="CU38" s="8"/>
       <c r="CV38" s="8"/>
@@ -6278,28 +6306,30 @@
       <c r="CK39" s="18">
         <v>12202.689945533572</v>
       </c>
-      <c r="CL39" s="23">
+      <c r="CL39" s="18">
         <v>15389.064093647212</v>
       </c>
-      <c r="CM39" s="23">
+      <c r="CM39" s="18">
         <v>57321.791102132127</v>
       </c>
-      <c r="CN39" s="23">
+      <c r="CN39" s="18">
         <v>88956.594041921373</v>
       </c>
-      <c r="CO39" s="23">
+      <c r="CO39" s="18">
         <v>54857.258251901527</v>
       </c>
-      <c r="CP39" s="23">
+      <c r="CP39" s="18">
         <v>104952.98838100983</v>
       </c>
-      <c r="CQ39" s="23">
+      <c r="CQ39" s="18">
         <v>107908.32982931691</v>
       </c>
-      <c r="CR39" s="23">
+      <c r="CR39" s="18">
         <v>139971.22516500723</v>
       </c>
-      <c r="CS39" s="8"/>
+      <c r="CS39" s="18">
+        <v>88041.043596806237</v>
+      </c>
       <c r="CT39" s="8"/>
       <c r="CU39" s="8"/>
       <c r="CV39" s="8"/>
@@ -6623,28 +6653,30 @@
       <c r="CK40" s="18">
         <v>3847.7974661865246</v>
       </c>
-      <c r="CL40" s="23">
+      <c r="CL40" s="18">
         <v>3434.5919735030589</v>
       </c>
-      <c r="CM40" s="23">
+      <c r="CM40" s="18">
         <v>3938.4675463402086</v>
       </c>
-      <c r="CN40" s="23">
+      <c r="CN40" s="18">
         <v>3966.0472849247194</v>
       </c>
-      <c r="CO40" s="23">
+      <c r="CO40" s="18">
         <v>3977.1461621146914</v>
       </c>
-      <c r="CP40" s="23">
+      <c r="CP40" s="18">
         <v>3948.5227029077737</v>
       </c>
-      <c r="CQ40" s="23">
+      <c r="CQ40" s="18">
         <v>4411.1105877597502</v>
       </c>
-      <c r="CR40" s="23">
+      <c r="CR40" s="18">
         <v>4489.0256045275964</v>
       </c>
-      <c r="CS40" s="8"/>
+      <c r="CS40" s="18">
+        <v>4564.4944289546975</v>
+      </c>
       <c r="CT40" s="8"/>
       <c r="CU40" s="8"/>
       <c r="CV40" s="8"/>
@@ -6968,28 +7000,30 @@
       <c r="CK41" s="18">
         <v>72338.577129792466</v>
       </c>
-      <c r="CL41" s="23">
+      <c r="CL41" s="18">
         <v>116677.43002870887</v>
       </c>
-      <c r="CM41" s="23">
+      <c r="CM41" s="18">
         <v>114398.77827366724</v>
       </c>
-      <c r="CN41" s="23">
+      <c r="CN41" s="18">
         <v>83482.535941170252</v>
       </c>
-      <c r="CO41" s="23">
+      <c r="CO41" s="18">
         <v>85486.339096444455</v>
       </c>
-      <c r="CP41" s="23">
+      <c r="CP41" s="18">
         <v>131657.7994655674</v>
       </c>
-      <c r="CQ41" s="23">
+      <c r="CQ41" s="18">
         <v>127397.97452047074</v>
       </c>
-      <c r="CR41" s="23">
-        <v>88544.277655303624</v>
-      </c>
-      <c r="CS41" s="8"/>
+      <c r="CR41" s="18">
+        <v>89179.736806316752</v>
+      </c>
+      <c r="CS41" s="18">
+        <v>97450.270291274341</v>
+      </c>
       <c r="CT41" s="8"/>
       <c r="CU41" s="8"/>
       <c r="CV41" s="8"/>
@@ -7313,28 +7347,30 @@
       <c r="CK42" s="18">
         <v>267343.98843610822</v>
       </c>
-      <c r="CL42" s="23">
+      <c r="CL42" s="18">
         <v>357362.75456158456</v>
       </c>
-      <c r="CM42" s="23">
+      <c r="CM42" s="18">
         <v>362411.57167247194</v>
       </c>
-      <c r="CN42" s="23">
+      <c r="CN42" s="18">
         <v>282000.18209253578</v>
       </c>
-      <c r="CO42" s="23">
+      <c r="CO42" s="18">
         <v>282568.33591674821</v>
       </c>
-      <c r="CP42" s="23">
+      <c r="CP42" s="18">
         <v>369595.05173715425</v>
       </c>
-      <c r="CQ42" s="23">
+      <c r="CQ42" s="18">
         <v>370084.79216041439</v>
       </c>
-      <c r="CR42" s="23">
-        <v>281734.9483746647</v>
-      </c>
-      <c r="CS42" s="8"/>
+      <c r="CR42" s="18">
+        <v>278178.63413722097</v>
+      </c>
+      <c r="CS42" s="18">
+        <v>295075.50765888061</v>
+      </c>
       <c r="CT42" s="8"/>
       <c r="CU42" s="8"/>
       <c r="CV42" s="8"/>
@@ -7658,28 +7694,30 @@
       <c r="CK43" s="18">
         <v>52037.635302078721</v>
       </c>
-      <c r="CL43" s="23">
+      <c r="CL43" s="18">
         <v>76295.067345606396</v>
       </c>
-      <c r="CM43" s="23">
+      <c r="CM43" s="18">
         <v>69855.480841691693</v>
       </c>
-      <c r="CN43" s="23">
+      <c r="CN43" s="18">
         <v>48935.143393238061</v>
       </c>
-      <c r="CO43" s="23">
+      <c r="CO43" s="18">
         <v>57321.148454949551</v>
       </c>
-      <c r="CP43" s="23">
+      <c r="CP43" s="18">
         <v>55787.222374251556</v>
       </c>
-      <c r="CQ43" s="23">
+      <c r="CQ43" s="18">
         <v>66187.864990199887</v>
       </c>
-      <c r="CR43" s="23">
-        <v>51514.425499060904</v>
-      </c>
-      <c r="CS43" s="8"/>
+      <c r="CR43" s="18">
+        <v>52750.874958858687</v>
+      </c>
+      <c r="CS43" s="18">
+        <v>59781.530887036999</v>
+      </c>
       <c r="CT43" s="8"/>
       <c r="CU43" s="8"/>
       <c r="CV43" s="8"/>
@@ -8003,28 +8041,30 @@
       <c r="CK44" s="18">
         <v>6921.6089579479312</v>
       </c>
-      <c r="CL44" s="23">
+      <c r="CL44" s="18">
         <v>6236.6807855633124</v>
       </c>
-      <c r="CM44" s="23">
+      <c r="CM44" s="18">
         <v>8296.7941167833451</v>
       </c>
-      <c r="CN44" s="23">
+      <c r="CN44" s="18">
         <v>8381.4864233369353</v>
       </c>
-      <c r="CO44" s="23">
+      <c r="CO44" s="18">
         <v>9735.3833275709912</v>
       </c>
-      <c r="CP44" s="23">
+      <c r="CP44" s="18">
         <v>7291.860155735676</v>
       </c>
-      <c r="CQ44" s="23">
+      <c r="CQ44" s="18">
         <v>9201.6546059773391</v>
       </c>
-      <c r="CR44" s="23">
-        <v>7593.185856089387</v>
-      </c>
-      <c r="CS44" s="8"/>
+      <c r="CR44" s="18">
+        <v>7671.2506956826346</v>
+      </c>
+      <c r="CS44" s="18">
+        <v>10833.178553917587</v>
+      </c>
       <c r="CT44" s="8"/>
       <c r="CU44" s="8"/>
       <c r="CV44" s="8"/>
@@ -8169,13 +8209,13 @@
       <c r="CI45" s="8"/>
       <c r="CJ45" s="8"/>
       <c r="CK45" s="8"/>
-      <c r="CL45" s="24"/>
-      <c r="CM45" s="24"/>
-      <c r="CN45" s="24"/>
-      <c r="CO45" s="24"/>
-      <c r="CP45" s="24"/>
-      <c r="CQ45" s="24"/>
-      <c r="CR45" s="24"/>
+      <c r="CL45" s="8"/>
+      <c r="CM45" s="8"/>
+      <c r="CN45" s="8"/>
+      <c r="CO45" s="8"/>
+      <c r="CP45" s="8"/>
+      <c r="CQ45" s="8"/>
+      <c r="CR45" s="8"/>
       <c r="CS45" s="8"/>
       <c r="CT45" s="8"/>
       <c r="CU45" s="8"/>
@@ -8500,28 +8540,30 @@
       <c r="CK46" s="19">
         <v>440936.47706303385</v>
       </c>
-      <c r="CL46" s="25">
+      <c r="CL46" s="19">
         <v>615673.2796497792</v>
       </c>
-      <c r="CM46" s="25">
+      <c r="CM46" s="19">
         <v>643225.25560889661</v>
       </c>
-      <c r="CN46" s="25">
+      <c r="CN46" s="19">
         <v>551856.02595243603</v>
       </c>
-      <c r="CO46" s="25">
+      <c r="CO46" s="19">
         <v>537757.87465507863</v>
       </c>
-      <c r="CP46" s="25">
+      <c r="CP46" s="19">
         <v>740010.37889591767</v>
       </c>
-      <c r="CQ46" s="25">
+      <c r="CQ46" s="19">
         <v>710098.20279191155</v>
       </c>
-      <c r="CR46" s="25">
-        <v>616645.36564064596</v>
-      </c>
-      <c r="CS46" s="8"/>
+      <c r="CR46" s="19">
+        <v>614498.42477793526</v>
+      </c>
+      <c r="CS46" s="19">
+        <v>603736.98351506877</v>
+      </c>
       <c r="CT46" s="8"/>
       <c r="CU46" s="8"/>
       <c r="CV46" s="8"/>
@@ -8667,13 +8709,14 @@
       <c r="CI47" s="11"/>
       <c r="CJ47" s="11"/>
       <c r="CK47" s="11"/>
-      <c r="CL47" s="26"/>
-      <c r="CM47" s="26"/>
-      <c r="CN47" s="26"/>
-      <c r="CO47" s="26"/>
-      <c r="CP47" s="26"/>
-      <c r="CQ47" s="26"/>
-      <c r="CR47" s="26"/>
+      <c r="CL47" s="11"/>
+      <c r="CM47" s="11"/>
+      <c r="CN47" s="11"/>
+      <c r="CO47" s="11"/>
+      <c r="CP47" s="11"/>
+      <c r="CQ47" s="11"/>
+      <c r="CR47" s="11"/>
+      <c r="CS47" s="11"/>
     </row>
     <row r="48" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
@@ -8769,13 +8812,13 @@
       <c r="CI49" s="8"/>
       <c r="CJ49" s="8"/>
       <c r="CK49" s="8"/>
-      <c r="CL49" s="24"/>
-      <c r="CM49" s="24"/>
-      <c r="CN49" s="24"/>
-      <c r="CO49" s="24"/>
-      <c r="CP49" s="24"/>
-      <c r="CQ49" s="24"/>
-      <c r="CR49" s="24"/>
+      <c r="CL49" s="8"/>
+      <c r="CM49" s="8"/>
+      <c r="CN49" s="8"/>
+      <c r="CO49" s="8"/>
+      <c r="CP49" s="8"/>
+      <c r="CQ49" s="8"/>
+      <c r="CR49" s="8"/>
       <c r="CS49" s="8"/>
       <c r="CT49" s="8"/>
       <c r="CU49" s="8"/>
@@ -8921,13 +8964,13 @@
       <c r="CI50" s="8"/>
       <c r="CJ50" s="8"/>
       <c r="CK50" s="8"/>
-      <c r="CL50" s="24"/>
-      <c r="CM50" s="24"/>
-      <c r="CN50" s="24"/>
-      <c r="CO50" s="24"/>
-      <c r="CP50" s="24"/>
-      <c r="CQ50" s="24"/>
-      <c r="CR50" s="24"/>
+      <c r="CL50" s="8"/>
+      <c r="CM50" s="8"/>
+      <c r="CN50" s="8"/>
+      <c r="CO50" s="8"/>
+      <c r="CP50" s="8"/>
+      <c r="CQ50" s="8"/>
+      <c r="CR50" s="8"/>
       <c r="CS50" s="8"/>
       <c r="CT50" s="8"/>
       <c r="CU50" s="8"/>
@@ -8996,167 +9039,186 @@
     </row>
     <row r="53" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="CP55" s="6"/>
+      <c r="CQ55" s="6"/>
+      <c r="CR55" s="6"/>
+      <c r="CS55" s="6"/>
     </row>
     <row r="56" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="CP56" s="6"/>
+      <c r="CQ56" s="6"/>
+      <c r="CR56" s="6"/>
+      <c r="CS56" s="6"/>
     </row>
     <row r="57" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="CP57" s="6"/>
+      <c r="CQ57" s="6"/>
+      <c r="CR57" s="6"/>
+      <c r="CS57" s="6"/>
+    </row>
+    <row r="58" spans="1:151" x14ac:dyDescent="0.2">
+      <c r="CP58" s="6"/>
+      <c r="CQ58" s="6"/>
+      <c r="CR58" s="6"/>
+      <c r="CS58" s="6"/>
     </row>
     <row r="59" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
-      <c r="B59" s="32" t="s">
+      <c r="B59" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32" t="s">
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="32" t="s">
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="K59" s="32"/>
-      <c r="L59" s="32"/>
-      <c r="M59" s="32"/>
-      <c r="N59" s="32" t="s">
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="O59" s="32"/>
-      <c r="P59" s="32"/>
-      <c r="Q59" s="32"/>
-      <c r="R59" s="32" t="s">
+      <c r="O59" s="25"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="S59" s="32"/>
-      <c r="T59" s="32"/>
-      <c r="U59" s="32"/>
-      <c r="V59" s="32" t="s">
+      <c r="S59" s="25"/>
+      <c r="T59" s="25"/>
+      <c r="U59" s="25"/>
+      <c r="V59" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="W59" s="32"/>
-      <c r="X59" s="32"/>
-      <c r="Y59" s="32"/>
-      <c r="Z59" s="32" t="s">
+      <c r="W59" s="25"/>
+      <c r="X59" s="25"/>
+      <c r="Y59" s="25"/>
+      <c r="Z59" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AA59" s="32"/>
-      <c r="AB59" s="32"/>
-      <c r="AC59" s="32"/>
-      <c r="AD59" s="32" t="s">
+      <c r="AA59" s="25"/>
+      <c r="AB59" s="25"/>
+      <c r="AC59" s="25"/>
+      <c r="AD59" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AE59" s="32"/>
-      <c r="AF59" s="32"/>
-      <c r="AG59" s="32"/>
-      <c r="AH59" s="32" t="s">
+      <c r="AE59" s="25"/>
+      <c r="AF59" s="25"/>
+      <c r="AG59" s="25"/>
+      <c r="AH59" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="AI59" s="32"/>
-      <c r="AJ59" s="32"/>
-      <c r="AK59" s="32"/>
-      <c r="AL59" s="32" t="s">
+      <c r="AI59" s="25"/>
+      <c r="AJ59" s="25"/>
+      <c r="AK59" s="25"/>
+      <c r="AL59" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AM59" s="32"/>
-      <c r="AN59" s="32"/>
-      <c r="AO59" s="32"/>
-      <c r="AP59" s="32" t="s">
+      <c r="AM59" s="25"/>
+      <c r="AN59" s="25"/>
+      <c r="AO59" s="25"/>
+      <c r="AP59" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="AQ59" s="32"/>
-      <c r="AR59" s="32"/>
-      <c r="AS59" s="32"/>
-      <c r="AT59" s="32" t="s">
+      <c r="AQ59" s="25"/>
+      <c r="AR59" s="25"/>
+      <c r="AS59" s="25"/>
+      <c r="AT59" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="AU59" s="32"/>
-      <c r="AV59" s="32"/>
-      <c r="AW59" s="32"/>
-      <c r="AX59" s="32" t="s">
+      <c r="AU59" s="25"/>
+      <c r="AV59" s="25"/>
+      <c r="AW59" s="25"/>
+      <c r="AX59" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="AY59" s="32"/>
-      <c r="AZ59" s="32"/>
-      <c r="BA59" s="32"/>
-      <c r="BB59" s="32" t="s">
+      <c r="AY59" s="25"/>
+      <c r="AZ59" s="25"/>
+      <c r="BA59" s="25"/>
+      <c r="BB59" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="BC59" s="32"/>
-      <c r="BD59" s="32"/>
-      <c r="BE59" s="32"/>
-      <c r="BF59" s="32" t="s">
+      <c r="BC59" s="25"/>
+      <c r="BD59" s="25"/>
+      <c r="BE59" s="25"/>
+      <c r="BF59" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="BG59" s="32"/>
-      <c r="BH59" s="32"/>
-      <c r="BI59" s="32"/>
-      <c r="BJ59" s="32" t="s">
+      <c r="BG59" s="25"/>
+      <c r="BH59" s="25"/>
+      <c r="BI59" s="25"/>
+      <c r="BJ59" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="BK59" s="32"/>
-      <c r="BL59" s="32"/>
-      <c r="BM59" s="32"/>
-      <c r="BN59" s="32" t="s">
+      <c r="BK59" s="25"/>
+      <c r="BL59" s="25"/>
+      <c r="BM59" s="25"/>
+      <c r="BN59" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="BO59" s="32"/>
-      <c r="BP59" s="32"/>
-      <c r="BQ59" s="32"/>
-      <c r="BR59" s="32" t="s">
+      <c r="BO59" s="25"/>
+      <c r="BP59" s="25"/>
+      <c r="BQ59" s="25"/>
+      <c r="BR59" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="BS59" s="32"/>
-      <c r="BT59" s="32"/>
-      <c r="BU59" s="32"/>
-      <c r="BV59" s="32" t="s">
+      <c r="BS59" s="25"/>
+      <c r="BT59" s="25"/>
+      <c r="BU59" s="25"/>
+      <c r="BV59" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="BW59" s="32"/>
-      <c r="BX59" s="32"/>
-      <c r="BY59" s="32"/>
-      <c r="BZ59" s="32" t="s">
+      <c r="BW59" s="25"/>
+      <c r="BX59" s="25"/>
+      <c r="BY59" s="25"/>
+      <c r="BZ59" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="CA59" s="32"/>
-      <c r="CB59" s="32"/>
-      <c r="CC59" s="32"/>
-      <c r="CD59" s="32" t="s">
+      <c r="CA59" s="25"/>
+      <c r="CB59" s="25"/>
+      <c r="CC59" s="25"/>
+      <c r="CD59" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="CE59" s="32"/>
-      <c r="CF59" s="32"/>
-      <c r="CG59" s="32"/>
-      <c r="CH59" s="32" t="s">
+      <c r="CE59" s="25"/>
+      <c r="CF59" s="25"/>
+      <c r="CG59" s="25"/>
+      <c r="CH59" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="CI59" s="32"/>
-      <c r="CJ59" s="32"/>
-      <c r="CK59" s="32"/>
-      <c r="CL59" s="31" t="s">
+      <c r="CI59" s="25"/>
+      <c r="CJ59" s="25"/>
+      <c r="CK59" s="25"/>
+      <c r="CL59" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="CM59" s="31"/>
-      <c r="CN59" s="31"/>
-      <c r="CO59" s="28"/>
+      <c r="CM59" s="22"/>
+      <c r="CN59" s="22"/>
+      <c r="CO59" s="22"/>
       <c r="CP59" s="21"/>
       <c r="CQ59" s="21"/>
       <c r="CR59" s="21"/>
+      <c r="CS59" s="21"/>
     </row>
     <row r="60" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
@@ -9424,22 +9486,29 @@
       <c r="CK60" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CL60" s="27" t="s">
+      <c r="CL60" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CM60" s="27" t="s">
+      <c r="CM60" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="CN60" s="27" t="s">
+      <c r="CN60" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="CO60" s="27"/>
-      <c r="CP60" s="27"/>
-      <c r="CQ60" s="27"/>
-      <c r="CR60" s="27"/>
+      <c r="CO60" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="CP60" s="13"/>
+      <c r="CQ60" s="13"/>
+      <c r="CR60" s="13"/>
+      <c r="CS60" s="13"/>
     </row>
     <row r="61" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
+      <c r="CP61" s="6"/>
+      <c r="CQ61" s="6"/>
+      <c r="CR61" s="6"/>
+      <c r="CS61" s="6"/>
     </row>
     <row r="62" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -9709,20 +9778,22 @@
       <c r="CK62" s="14">
         <v>88.951321567609739</v>
       </c>
-      <c r="CL62" s="29">
+      <c r="CL62" s="14">
         <v>81.00636355727508</v>
       </c>
-      <c r="CM62" s="29">
+      <c r="CM62" s="14">
         <v>4.6676128921753701</v>
       </c>
-      <c r="CN62" s="29">
-        <v>20.445656976661922</v>
-      </c>
-      <c r="CO62" s="29"/>
-      <c r="CP62" s="29"/>
-      <c r="CQ62" s="29"/>
-      <c r="CR62" s="29"/>
-      <c r="CS62" s="8"/>
+      <c r="CN62" s="14">
+        <v>18.916989964166049</v>
+      </c>
+      <c r="CO62" s="14">
+        <v>12.974307843786633</v>
+      </c>
+      <c r="CP62" s="23"/>
+      <c r="CQ62" s="23"/>
+      <c r="CR62" s="23"/>
+      <c r="CS62" s="23"/>
       <c r="CT62" s="8"/>
       <c r="CU62" s="8"/>
       <c r="CV62" s="8"/>
@@ -10042,20 +10113,22 @@
       <c r="CK63" s="14">
         <v>22.983417854811677</v>
       </c>
-      <c r="CL63" s="29">
+      <c r="CL63" s="14">
         <v>-17.407697336903681</v>
       </c>
-      <c r="CM63" s="29">
+      <c r="CM63" s="14">
         <v>8.3178833022181919</v>
       </c>
-      <c r="CN63" s="29">
-        <v>5.8751077671090286</v>
-      </c>
-      <c r="CO63" s="29"/>
-      <c r="CP63" s="29"/>
-      <c r="CQ63" s="29"/>
-      <c r="CR63" s="29"/>
-      <c r="CS63" s="8"/>
+      <c r="CN63" s="14">
+        <v>4.8755891279008665</v>
+      </c>
+      <c r="CO63" s="14">
+        <v>-5.7511235051855465</v>
+      </c>
+      <c r="CP63" s="23"/>
+      <c r="CQ63" s="23"/>
+      <c r="CR63" s="23"/>
+      <c r="CS63" s="23"/>
       <c r="CT63" s="8"/>
       <c r="CU63" s="8"/>
       <c r="CV63" s="8"/>
@@ -10375,20 +10448,22 @@
       <c r="CK64" s="14">
         <v>385.08153226675034</v>
       </c>
-      <c r="CL64" s="29">
+      <c r="CL64" s="14">
         <v>633.54955710224431</v>
       </c>
-      <c r="CM64" s="29">
+      <c r="CM64" s="14">
         <v>99.642680573374463</v>
       </c>
-      <c r="CN64" s="29">
+      <c r="CN64" s="14">
         <v>65.777959177597154</v>
       </c>
-      <c r="CO64" s="29"/>
-      <c r="CP64" s="29"/>
-      <c r="CQ64" s="29"/>
-      <c r="CR64" s="29"/>
-      <c r="CS64" s="8"/>
+      <c r="CO64" s="14">
+        <v>67.431544333633241</v>
+      </c>
+      <c r="CP64" s="23"/>
+      <c r="CQ64" s="23"/>
+      <c r="CR64" s="23"/>
+      <c r="CS64" s="23"/>
       <c r="CT64" s="8"/>
       <c r="CU64" s="8"/>
       <c r="CV64" s="8"/>
@@ -10708,20 +10783,22 @@
       <c r="CK65" s="14">
         <v>9.5311047271619174</v>
       </c>
-      <c r="CL65" s="29">
+      <c r="CL65" s="14">
         <v>22.540805927960932</v>
       </c>
-      <c r="CM65" s="29">
+      <c r="CM65" s="14">
         <v>18.642796037220123</v>
       </c>
-      <c r="CN65" s="29">
+      <c r="CN65" s="14">
         <v>18.826329799252221</v>
       </c>
-      <c r="CO65" s="29"/>
-      <c r="CP65" s="29"/>
-      <c r="CQ65" s="29"/>
-      <c r="CR65" s="29"/>
-      <c r="CS65" s="8"/>
+      <c r="CO65" s="14">
+        <v>19.608787551606682</v>
+      </c>
+      <c r="CP65" s="23"/>
+      <c r="CQ65" s="23"/>
+      <c r="CR65" s="23"/>
+      <c r="CS65" s="23"/>
       <c r="CT65" s="8"/>
       <c r="CU65" s="8"/>
       <c r="CV65" s="8"/>
@@ -11041,20 +11118,22 @@
       <c r="CK66" s="14">
         <v>23.131763620173302</v>
       </c>
-      <c r="CL66" s="29">
+      <c r="CL66" s="14">
         <v>13.659378833751518</v>
       </c>
-      <c r="CM66" s="29">
+      <c r="CM66" s="14">
         <v>11.835715818089469</v>
       </c>
-      <c r="CN66" s="29">
-        <v>6.4585350993919093</v>
-      </c>
-      <c r="CO66" s="29"/>
-      <c r="CP66" s="29"/>
-      <c r="CQ66" s="29"/>
-      <c r="CR66" s="29"/>
-      <c r="CS66" s="8"/>
+      <c r="CN66" s="14">
+        <v>7.2225601964819361</v>
+      </c>
+      <c r="CO66" s="14">
+        <v>14.366506686461378</v>
+      </c>
+      <c r="CP66" s="23"/>
+      <c r="CQ66" s="23"/>
+      <c r="CR66" s="23"/>
+      <c r="CS66" s="23"/>
       <c r="CT66" s="8"/>
       <c r="CU66" s="8"/>
       <c r="CV66" s="8"/>
@@ -11374,20 +11453,22 @@
       <c r="CK67" s="14">
         <v>13.08767207025528</v>
       </c>
-      <c r="CL67" s="29">
+      <c r="CL67" s="14">
         <v>7.6356152760591556</v>
       </c>
-      <c r="CM67" s="29">
+      <c r="CM67" s="14">
         <v>5.9072395242114624</v>
       </c>
-      <c r="CN67" s="29">
-        <v>3.3511698195094084</v>
-      </c>
-      <c r="CO67" s="29"/>
-      <c r="CP67" s="29"/>
-      <c r="CQ67" s="29"/>
-      <c r="CR67" s="29"/>
-      <c r="CS67" s="8"/>
+      <c r="CN67" s="14">
+        <v>2.0963724671079689</v>
+      </c>
+      <c r="CO67" s="14">
+        <v>7.5347453965801918</v>
+      </c>
+      <c r="CP67" s="23"/>
+      <c r="CQ67" s="23"/>
+      <c r="CR67" s="23"/>
+      <c r="CS67" s="23"/>
       <c r="CT67" s="8"/>
       <c r="CU67" s="8"/>
       <c r="CV67" s="8"/>
@@ -11707,20 +11788,22 @@
       <c r="CK68" s="14">
         <v>21.073968229917895</v>
       </c>
-      <c r="CL68" s="29">
+      <c r="CL68" s="14">
         <v>-21.840006057913556</v>
       </c>
-      <c r="CM68" s="29">
+      <c r="CM68" s="14">
         <v>-0.64533038862397518</v>
       </c>
-      <c r="CN68" s="29">
-        <v>8.867967630137926</v>
-      </c>
-      <c r="CO68" s="29"/>
-      <c r="CP68" s="29"/>
-      <c r="CQ68" s="29"/>
-      <c r="CR68" s="29"/>
-      <c r="CS68" s="8"/>
+      <c r="CN68" s="14">
+        <v>11.481017051955121</v>
+      </c>
+      <c r="CO68" s="14">
+        <v>7.3967876596632465</v>
+      </c>
+      <c r="CP68" s="23"/>
+      <c r="CQ68" s="23"/>
+      <c r="CR68" s="23"/>
+      <c r="CS68" s="23"/>
       <c r="CT68" s="8"/>
       <c r="CU68" s="8"/>
       <c r="CV68" s="8"/>
@@ -12040,20 +12123,22 @@
       <c r="CK69" s="14">
         <v>49.825721692895598</v>
       </c>
-      <c r="CL69" s="29">
+      <c r="CL69" s="14">
         <v>24.977275929738639</v>
       </c>
-      <c r="CM69" s="29">
+      <c r="CM69" s="14">
         <v>16.296330539823018</v>
       </c>
-      <c r="CN69" s="29">
-        <v>-5.2963999640442978</v>
-      </c>
-      <c r="CO69" s="29"/>
-      <c r="CP69" s="29"/>
-      <c r="CQ69" s="29"/>
-      <c r="CR69" s="29"/>
-      <c r="CS69" s="8"/>
+      <c r="CN69" s="14">
+        <v>-4.3227610349008643</v>
+      </c>
+      <c r="CO69" s="14">
+        <v>14.588751375522136</v>
+      </c>
+      <c r="CP69" s="23"/>
+      <c r="CQ69" s="23"/>
+      <c r="CR69" s="23"/>
+      <c r="CS69" s="23"/>
       <c r="CT69" s="8"/>
       <c r="CU69" s="8"/>
       <c r="CV69" s="8"/>
@@ -12194,14 +12279,14 @@
       <c r="CI70" s="8"/>
       <c r="CJ70" s="8"/>
       <c r="CK70" s="8"/>
-      <c r="CL70" s="24"/>
-      <c r="CM70" s="24"/>
-      <c r="CN70" s="24"/>
-      <c r="CO70" s="24"/>
+      <c r="CL70" s="8"/>
+      <c r="CM70" s="8"/>
+      <c r="CN70" s="8"/>
+      <c r="CO70" s="8"/>
       <c r="CP70" s="24"/>
       <c r="CQ70" s="24"/>
       <c r="CR70" s="24"/>
-      <c r="CS70" s="8"/>
+      <c r="CS70" s="24"/>
       <c r="CT70" s="8"/>
       <c r="CU70" s="8"/>
       <c r="CV70" s="8"/>
@@ -12521,20 +12606,22 @@
       <c r="CK71" s="14">
         <v>31.264786544482661</v>
       </c>
-      <c r="CL71" s="29">
+      <c r="CL71" s="14">
         <v>26.355536041888229</v>
       </c>
-      <c r="CM71" s="29">
+      <c r="CM71" s="14">
         <v>14.834638869790112</v>
       </c>
-      <c r="CN71" s="29">
-        <v>15.782879695382874</v>
-      </c>
-      <c r="CO71" s="29"/>
-      <c r="CP71" s="29"/>
-      <c r="CQ71" s="29"/>
-      <c r="CR71" s="29"/>
-      <c r="CS71" s="8"/>
+      <c r="CN71" s="14">
+        <v>15.382200801804075</v>
+      </c>
+      <c r="CO71" s="14">
+        <v>15.334035759543312</v>
+      </c>
+      <c r="CP71" s="23"/>
+      <c r="CQ71" s="23"/>
+      <c r="CR71" s="23"/>
+      <c r="CS71" s="23"/>
       <c r="CT71" s="8"/>
       <c r="CU71" s="8"/>
       <c r="CV71" s="8"/>
@@ -12676,18 +12763,23 @@
       <c r="CI72" s="11"/>
       <c r="CJ72" s="11"/>
       <c r="CK72" s="11"/>
-      <c r="CL72" s="26"/>
-      <c r="CM72" s="26"/>
-      <c r="CN72" s="26"/>
-      <c r="CO72" s="26"/>
-      <c r="CP72" s="26"/>
-      <c r="CQ72" s="26"/>
-      <c r="CR72" s="26"/>
+      <c r="CL72" s="11"/>
+      <c r="CM72" s="11"/>
+      <c r="CN72" s="11"/>
+      <c r="CO72" s="11"/>
+      <c r="CP72" s="5"/>
+      <c r="CQ72" s="5"/>
+      <c r="CR72" s="5"/>
+      <c r="CS72" s="5"/>
     </row>
     <row r="73" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
         <v>0</v>
       </c>
+      <c r="CP73" s="6"/>
+      <c r="CQ73" s="6"/>
+      <c r="CR73" s="6"/>
+      <c r="CS73" s="6"/>
     </row>
     <row r="74" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="8"/>
@@ -12778,14 +12870,14 @@
       <c r="CI74" s="8"/>
       <c r="CJ74" s="8"/>
       <c r="CK74" s="8"/>
-      <c r="CL74" s="24"/>
-      <c r="CM74" s="24"/>
-      <c r="CN74" s="24"/>
-      <c r="CO74" s="24"/>
+      <c r="CL74" s="8"/>
+      <c r="CM74" s="8"/>
+      <c r="CN74" s="8"/>
+      <c r="CO74" s="8"/>
       <c r="CP74" s="24"/>
       <c r="CQ74" s="24"/>
       <c r="CR74" s="24"/>
-      <c r="CS74" s="8"/>
+      <c r="CS74" s="24"/>
       <c r="CT74" s="8"/>
       <c r="CU74" s="8"/>
       <c r="CV74" s="8"/>
@@ -12926,14 +13018,14 @@
       <c r="CI75" s="8"/>
       <c r="CJ75" s="8"/>
       <c r="CK75" s="8"/>
-      <c r="CL75" s="24"/>
-      <c r="CM75" s="24"/>
-      <c r="CN75" s="24"/>
-      <c r="CO75" s="24"/>
+      <c r="CL75" s="8"/>
+      <c r="CM75" s="8"/>
+      <c r="CN75" s="8"/>
+      <c r="CO75" s="8"/>
       <c r="CP75" s="24"/>
       <c r="CQ75" s="24"/>
       <c r="CR75" s="24"/>
-      <c r="CS75" s="8"/>
+      <c r="CS75" s="24"/>
       <c r="CT75" s="8"/>
       <c r="CU75" s="8"/>
       <c r="CV75" s="8"/>
@@ -12989,175 +13081,212 @@
       <c r="A76" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="CP76" s="6"/>
+      <c r="CQ76" s="6"/>
+      <c r="CR76" s="6"/>
+      <c r="CS76" s="6"/>
     </row>
     <row r="77" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CP77" s="6"/>
+      <c r="CQ77" s="6"/>
+      <c r="CR77" s="6"/>
+      <c r="CS77" s="6"/>
     </row>
     <row r="78" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="CP78" s="6"/>
+      <c r="CQ78" s="6"/>
+      <c r="CR78" s="6"/>
+      <c r="CS78" s="6"/>
+    </row>
+    <row r="79" spans="1:147" x14ac:dyDescent="0.2">
+      <c r="CP79" s="6"/>
+      <c r="CQ79" s="6"/>
+      <c r="CR79" s="6"/>
+      <c r="CS79" s="6"/>
     </row>
     <row r="80" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="CP80" s="6"/>
+      <c r="CQ80" s="6"/>
+      <c r="CR80" s="6"/>
+      <c r="CS80" s="6"/>
     </row>
     <row r="81" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="CP81" s="6"/>
+      <c r="CQ81" s="6"/>
+      <c r="CR81" s="6"/>
+      <c r="CS81" s="6"/>
     </row>
     <row r="82" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="CP82" s="6"/>
+      <c r="CQ82" s="6"/>
+      <c r="CR82" s="6"/>
+      <c r="CS82" s="6"/>
+    </row>
+    <row r="83" spans="1:147" x14ac:dyDescent="0.2">
+      <c r="CP83" s="6"/>
+      <c r="CQ83" s="6"/>
+      <c r="CR83" s="6"/>
+      <c r="CS83" s="6"/>
     </row>
     <row r="84" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
-      <c r="B84" s="32" t="s">
+      <c r="B84" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="32" t="s">
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G84" s="32"/>
-      <c r="H84" s="32"/>
-      <c r="I84" s="32"/>
-      <c r="J84" s="32" t="s">
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="K84" s="32"/>
-      <c r="L84" s="32"/>
-      <c r="M84" s="32"/>
-      <c r="N84" s="32" t="s">
+      <c r="K84" s="25"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="O84" s="32"/>
-      <c r="P84" s="32"/>
-      <c r="Q84" s="32"/>
-      <c r="R84" s="32" t="s">
+      <c r="O84" s="25"/>
+      <c r="P84" s="25"/>
+      <c r="Q84" s="25"/>
+      <c r="R84" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="S84" s="32"/>
-      <c r="T84" s="32"/>
-      <c r="U84" s="32"/>
-      <c r="V84" s="32" t="s">
+      <c r="S84" s="25"/>
+      <c r="T84" s="25"/>
+      <c r="U84" s="25"/>
+      <c r="V84" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="W84" s="32"/>
-      <c r="X84" s="32"/>
-      <c r="Y84" s="32"/>
-      <c r="Z84" s="32" t="s">
+      <c r="W84" s="25"/>
+      <c r="X84" s="25"/>
+      <c r="Y84" s="25"/>
+      <c r="Z84" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AA84" s="32"/>
-      <c r="AB84" s="32"/>
-      <c r="AC84" s="32"/>
-      <c r="AD84" s="32" t="s">
+      <c r="AA84" s="25"/>
+      <c r="AB84" s="25"/>
+      <c r="AC84" s="25"/>
+      <c r="AD84" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AE84" s="32"/>
-      <c r="AF84" s="32"/>
-      <c r="AG84" s="32"/>
-      <c r="AH84" s="32" t="s">
+      <c r="AE84" s="25"/>
+      <c r="AF84" s="25"/>
+      <c r="AG84" s="25"/>
+      <c r="AH84" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="AI84" s="32"/>
-      <c r="AJ84" s="32"/>
-      <c r="AK84" s="32"/>
-      <c r="AL84" s="32" t="s">
+      <c r="AI84" s="25"/>
+      <c r="AJ84" s="25"/>
+      <c r="AK84" s="25"/>
+      <c r="AL84" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AM84" s="32"/>
-      <c r="AN84" s="32"/>
-      <c r="AO84" s="32"/>
-      <c r="AP84" s="32" t="s">
+      <c r="AM84" s="25"/>
+      <c r="AN84" s="25"/>
+      <c r="AO84" s="25"/>
+      <c r="AP84" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="AQ84" s="32"/>
-      <c r="AR84" s="32"/>
-      <c r="AS84" s="32"/>
-      <c r="AT84" s="32" t="s">
+      <c r="AQ84" s="25"/>
+      <c r="AR84" s="25"/>
+      <c r="AS84" s="25"/>
+      <c r="AT84" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="AU84" s="32"/>
-      <c r="AV84" s="32"/>
-      <c r="AW84" s="32"/>
-      <c r="AX84" s="32" t="s">
+      <c r="AU84" s="25"/>
+      <c r="AV84" s="25"/>
+      <c r="AW84" s="25"/>
+      <c r="AX84" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="AY84" s="32"/>
-      <c r="AZ84" s="32"/>
-      <c r="BA84" s="32"/>
-      <c r="BB84" s="32" t="s">
+      <c r="AY84" s="25"/>
+      <c r="AZ84" s="25"/>
+      <c r="BA84" s="25"/>
+      <c r="BB84" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="BC84" s="32"/>
-      <c r="BD84" s="32"/>
-      <c r="BE84" s="32"/>
-      <c r="BF84" s="32" t="s">
+      <c r="BC84" s="25"/>
+      <c r="BD84" s="25"/>
+      <c r="BE84" s="25"/>
+      <c r="BF84" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="BG84" s="32"/>
-      <c r="BH84" s="32"/>
-      <c r="BI84" s="32"/>
-      <c r="BJ84" s="32" t="s">
+      <c r="BG84" s="25"/>
+      <c r="BH84" s="25"/>
+      <c r="BI84" s="25"/>
+      <c r="BJ84" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="BK84" s="32"/>
-      <c r="BL84" s="32"/>
-      <c r="BM84" s="32"/>
-      <c r="BN84" s="32" t="s">
+      <c r="BK84" s="25"/>
+      <c r="BL84" s="25"/>
+      <c r="BM84" s="25"/>
+      <c r="BN84" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="BO84" s="32"/>
-      <c r="BP84" s="32"/>
-      <c r="BQ84" s="32"/>
-      <c r="BR84" s="32" t="s">
+      <c r="BO84" s="25"/>
+      <c r="BP84" s="25"/>
+      <c r="BQ84" s="25"/>
+      <c r="BR84" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="BS84" s="32"/>
-      <c r="BT84" s="32"/>
-      <c r="BU84" s="32"/>
-      <c r="BV84" s="32" t="s">
+      <c r="BS84" s="25"/>
+      <c r="BT84" s="25"/>
+      <c r="BU84" s="25"/>
+      <c r="BV84" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="BW84" s="32"/>
-      <c r="BX84" s="32"/>
-      <c r="BY84" s="32"/>
-      <c r="BZ84" s="32" t="s">
+      <c r="BW84" s="25"/>
+      <c r="BX84" s="25"/>
+      <c r="BY84" s="25"/>
+      <c r="BZ84" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="CA84" s="32"/>
-      <c r="CB84" s="32"/>
-      <c r="CC84" s="32"/>
-      <c r="CD84" s="32" t="s">
+      <c r="CA84" s="25"/>
+      <c r="CB84" s="25"/>
+      <c r="CC84" s="25"/>
+      <c r="CD84" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="CE84" s="32"/>
-      <c r="CF84" s="32"/>
-      <c r="CG84" s="32"/>
-      <c r="CH84" s="32" t="s">
+      <c r="CE84" s="25"/>
+      <c r="CF84" s="25"/>
+      <c r="CG84" s="25"/>
+      <c r="CH84" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="CI84" s="32"/>
-      <c r="CJ84" s="32"/>
-      <c r="CK84" s="32"/>
-      <c r="CL84" s="31" t="s">
+      <c r="CI84" s="25"/>
+      <c r="CJ84" s="25"/>
+      <c r="CK84" s="25"/>
+      <c r="CL84" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="CM84" s="31"/>
-      <c r="CN84" s="31"/>
-      <c r="CO84" s="28"/>
+      <c r="CM84" s="22"/>
+      <c r="CN84" s="22"/>
+      <c r="CO84" s="22"/>
       <c r="CP84" s="21"/>
       <c r="CQ84" s="21"/>
       <c r="CR84" s="21"/>
+      <c r="CS84" s="21"/>
     </row>
     <row r="85" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
@@ -13425,22 +13554,29 @@
       <c r="CK85" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CL85" s="13" t="s">
+      <c r="CL85" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CM85" s="13" t="s">
+      <c r="CM85" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CN85" s="13" t="s">
+      <c r="CN85" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CO85" s="13"/>
-      <c r="CP85" s="13"/>
-      <c r="CQ85" s="13"/>
-      <c r="CR85" s="13"/>
+      <c r="CO85" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="CP85" s="5"/>
+      <c r="CQ85" s="5"/>
+      <c r="CR85" s="5"/>
+      <c r="CS85" s="5"/>
     </row>
     <row r="86" spans="1:147" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
+      <c r="CP86" s="6"/>
+      <c r="CQ86" s="6"/>
+      <c r="CR86" s="6"/>
+      <c r="CS86" s="6"/>
     </row>
     <row r="87" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
@@ -13710,20 +13846,22 @@
       <c r="CK87" s="14">
         <v>68.497582133349454</v>
       </c>
-      <c r="CL87" s="29">
+      <c r="CL87" s="14">
         <v>66.933998569187622</v>
       </c>
-      <c r="CM87" s="29">
+      <c r="CM87" s="14">
         <v>-7.9206256614208002</v>
       </c>
-      <c r="CN87" s="29">
-        <v>18.79604522484297</v>
-      </c>
-      <c r="CO87" s="29"/>
-      <c r="CP87" s="29"/>
-      <c r="CQ87" s="29"/>
-      <c r="CR87" s="29"/>
-      <c r="CS87" s="8"/>
+      <c r="CN87" s="14">
+        <v>17.288314683878994</v>
+      </c>
+      <c r="CO87" s="14">
+        <v>9.9109009419978662</v>
+      </c>
+      <c r="CP87" s="23"/>
+      <c r="CQ87" s="23"/>
+      <c r="CR87" s="23"/>
+      <c r="CS87" s="23"/>
       <c r="CT87" s="8"/>
       <c r="CU87" s="8"/>
       <c r="CV87" s="8"/>
@@ -14043,20 +14181,22 @@
       <c r="CK88" s="14">
         <v>15.453253697379125</v>
       </c>
-      <c r="CL88" s="29">
+      <c r="CL88" s="14">
         <v>-22.733127261153541</v>
       </c>
-      <c r="CM88" s="29">
+      <c r="CM88" s="14">
         <v>3.2974895816976471</v>
       </c>
-      <c r="CN88" s="29">
-        <v>2.3768459269728197</v>
-      </c>
-      <c r="CO88" s="29"/>
-      <c r="CP88" s="29"/>
-      <c r="CQ88" s="29"/>
-      <c r="CR88" s="29"/>
-      <c r="CS88" s="8"/>
+      <c r="CN88" s="14">
+        <v>1.4103527834433862</v>
+      </c>
+      <c r="CO88" s="14">
+        <v>-8.4755685706075781</v>
+      </c>
+      <c r="CP88" s="23"/>
+      <c r="CQ88" s="23"/>
+      <c r="CR88" s="23"/>
+      <c r="CS88" s="23"/>
       <c r="CT88" s="8"/>
       <c r="CU88" s="8"/>
       <c r="CV88" s="8"/>
@@ -14376,20 +14516,22 @@
       <c r="CK89" s="14">
         <v>349.55053760077203</v>
       </c>
-      <c r="CL89" s="29">
+      <c r="CL89" s="14">
         <v>581.9972140107966</v>
       </c>
-      <c r="CM89" s="29">
+      <c r="CM89" s="14">
         <v>88.250101321944186</v>
       </c>
-      <c r="CN89" s="29">
+      <c r="CN89" s="14">
         <v>57.34777918660518</v>
       </c>
-      <c r="CO89" s="29"/>
-      <c r="CP89" s="29"/>
-      <c r="CQ89" s="29"/>
-      <c r="CR89" s="29"/>
-      <c r="CS89" s="8"/>
+      <c r="CO89" s="14">
+        <v>60.491148122143812</v>
+      </c>
+      <c r="CP89" s="23"/>
+      <c r="CQ89" s="23"/>
+      <c r="CR89" s="23"/>
+      <c r="CS89" s="23"/>
       <c r="CT89" s="8"/>
       <c r="CU89" s="8"/>
       <c r="CV89" s="8"/>
@@ -14709,20 +14851,22 @@
       <c r="CK90" s="14">
         <v>3.3616295313059226</v>
       </c>
-      <c r="CL90" s="29">
+      <c r="CL90" s="14">
         <v>14.963370710976747</v>
       </c>
-      <c r="CM90" s="29">
+      <c r="CM90" s="14">
         <v>12.000683917244444</v>
       </c>
-      <c r="CN90" s="29">
+      <c r="CN90" s="14">
         <v>13.186386395108343</v>
       </c>
-      <c r="CO90" s="29"/>
-      <c r="CP90" s="29"/>
-      <c r="CQ90" s="29"/>
-      <c r="CR90" s="29"/>
-      <c r="CS90" s="8"/>
+      <c r="CO90" s="14">
+        <v>14.768083517647398</v>
+      </c>
+      <c r="CP90" s="23"/>
+      <c r="CQ90" s="23"/>
+      <c r="CR90" s="23"/>
+      <c r="CS90" s="23"/>
       <c r="CT90" s="8"/>
       <c r="CU90" s="8"/>
       <c r="CV90" s="8"/>
@@ -15042,20 +15186,22 @@
       <c r="CK91" s="14">
         <v>18.175311829899286</v>
       </c>
-      <c r="CL91" s="29">
+      <c r="CL91" s="14">
         <v>12.839132155355642</v>
       </c>
-      <c r="CM91" s="29">
+      <c r="CM91" s="14">
         <v>11.363055133077154</v>
       </c>
-      <c r="CN91" s="29">
-        <v>6.0632342526110676</v>
-      </c>
-      <c r="CO91" s="29"/>
-      <c r="CP91" s="29"/>
-      <c r="CQ91" s="29"/>
-      <c r="CR91" s="29"/>
-      <c r="CS91" s="8"/>
+      <c r="CN91" s="14">
+        <v>6.8244223787850729</v>
+      </c>
+      <c r="CO91" s="14">
+        <v>13.995138078532477</v>
+      </c>
+      <c r="CP91" s="23"/>
+      <c r="CQ91" s="23"/>
+      <c r="CR91" s="23"/>
+      <c r="CS91" s="23"/>
       <c r="CT91" s="8"/>
       <c r="CU91" s="8"/>
       <c r="CV91" s="8"/>
@@ -15375,20 +15521,22 @@
       <c r="CK92" s="14">
         <v>5.6946661002921388</v>
       </c>
-      <c r="CL92" s="29">
+      <c r="CL92" s="14">
         <v>3.4229356639520034</v>
       </c>
-      <c r="CM92" s="29">
+      <c r="CM92" s="14">
         <v>2.1172669659889038</v>
       </c>
-      <c r="CN92" s="29">
-        <v>-9.4054449150689834E-2</v>
-      </c>
-      <c r="CO92" s="29"/>
-      <c r="CP92" s="29"/>
-      <c r="CQ92" s="29"/>
-      <c r="CR92" s="29"/>
-      <c r="CS92" s="8"/>
+      <c r="CN92" s="14">
+        <v>-1.355157974352224</v>
+      </c>
+      <c r="CO92" s="14">
+        <v>4.4262467348136596</v>
+      </c>
+      <c r="CP92" s="23"/>
+      <c r="CQ92" s="23"/>
+      <c r="CR92" s="23"/>
+      <c r="CS92" s="23"/>
       <c r="CT92" s="8"/>
       <c r="CU92" s="8"/>
       <c r="CV92" s="8"/>
@@ -15708,20 +15856,22 @@
       <c r="CK93" s="14">
         <v>10.153253740682118</v>
       </c>
-      <c r="CL93" s="29">
+      <c r="CL93" s="14">
         <v>-26.879647249614521</v>
       </c>
-      <c r="CM93" s="29">
+      <c r="CM93" s="14">
         <v>-5.2502907535679952</v>
       </c>
-      <c r="CN93" s="29">
-        <v>5.2708175085868021</v>
-      </c>
-      <c r="CO93" s="29"/>
-      <c r="CP93" s="29"/>
-      <c r="CQ93" s="29"/>
-      <c r="CR93" s="29"/>
-      <c r="CS93" s="8"/>
+      <c r="CN93" s="14">
+        <v>7.7975281178963343</v>
+      </c>
+      <c r="CO93" s="14">
+        <v>4.2922769316479048</v>
+      </c>
+      <c r="CP93" s="23"/>
+      <c r="CQ93" s="23"/>
+      <c r="CR93" s="23"/>
+      <c r="CS93" s="23"/>
       <c r="CT93" s="8"/>
       <c r="CU93" s="8"/>
       <c r="CV93" s="8"/>
@@ -16041,20 +16191,22 @@
       <c r="CK94" s="14">
         <v>40.652027393024923</v>
       </c>
-      <c r="CL94" s="29">
+      <c r="CL94" s="14">
         <v>16.918925410049781</v>
       </c>
-      <c r="CM94" s="29">
+      <c r="CM94" s="14">
         <v>10.906146114480265</v>
       </c>
-      <c r="CN94" s="29">
-        <v>-9.4052597287833066</v>
-      </c>
-      <c r="CO94" s="29"/>
-      <c r="CP94" s="29"/>
-      <c r="CQ94" s="29"/>
-      <c r="CR94" s="29"/>
-      <c r="CS94" s="8"/>
+      <c r="CN94" s="14">
+        <v>-8.4738636058248602</v>
+      </c>
+      <c r="CO94" s="14">
+        <v>11.276343102357316</v>
+      </c>
+      <c r="CP94" s="23"/>
+      <c r="CQ94" s="23"/>
+      <c r="CR94" s="23"/>
+      <c r="CS94" s="23"/>
       <c r="CT94" s="8"/>
       <c r="CU94" s="8"/>
       <c r="CV94" s="8"/>
@@ -16195,14 +16347,14 @@
       <c r="CI95" s="8"/>
       <c r="CJ95" s="8"/>
       <c r="CK95" s="8"/>
-      <c r="CL95" s="24"/>
-      <c r="CM95" s="24"/>
-      <c r="CN95" s="24"/>
-      <c r="CO95" s="24"/>
+      <c r="CL95" s="8"/>
+      <c r="CM95" s="8"/>
+      <c r="CN95" s="8"/>
+      <c r="CO95" s="8"/>
       <c r="CP95" s="24"/>
       <c r="CQ95" s="24"/>
       <c r="CR95" s="24"/>
-      <c r="CS95" s="8"/>
+      <c r="CS95" s="24"/>
       <c r="CT95" s="8"/>
       <c r="CU95" s="8"/>
       <c r="CV95" s="8"/>
@@ -16522,20 +16674,22 @@
       <c r="CK96" s="14">
         <v>21.958128353759164</v>
       </c>
-      <c r="CL96" s="29">
+      <c r="CL96" s="14">
         <v>20.195305425122001</v>
       </c>
-      <c r="CM96" s="29">
+      <c r="CM96" s="14">
         <v>10.396505205584774</v>
       </c>
-      <c r="CN96" s="29">
-        <v>11.740261343779196</v>
-      </c>
-      <c r="CO96" s="29"/>
-      <c r="CP96" s="29"/>
-      <c r="CQ96" s="29"/>
-      <c r="CR96" s="29"/>
-      <c r="CS96" s="8"/>
+      <c r="CN96" s="14">
+        <v>11.351221311280611</v>
+      </c>
+      <c r="CO96" s="14">
+        <v>12.269296642528872</v>
+      </c>
+      <c r="CP96" s="23"/>
+      <c r="CQ96" s="23"/>
+      <c r="CR96" s="23"/>
+      <c r="CS96" s="23"/>
       <c r="CT96" s="8"/>
       <c r="CU96" s="8"/>
       <c r="CV96" s="8"/>
@@ -16677,18 +16831,23 @@
       <c r="CI97" s="11"/>
       <c r="CJ97" s="11"/>
       <c r="CK97" s="11"/>
-      <c r="CL97" s="26"/>
-      <c r="CM97" s="26"/>
-      <c r="CN97" s="26"/>
-      <c r="CO97" s="26"/>
-      <c r="CP97" s="26"/>
-      <c r="CQ97" s="26"/>
-      <c r="CR97" s="26"/>
+      <c r="CL97" s="11"/>
+      <c r="CM97" s="11"/>
+      <c r="CN97" s="11"/>
+      <c r="CO97" s="11"/>
+      <c r="CP97" s="5"/>
+      <c r="CQ97" s="5"/>
+      <c r="CR97" s="5"/>
+      <c r="CS97" s="5"/>
     </row>
     <row r="98" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
         <v>0</v>
       </c>
+      <c r="CP98" s="6"/>
+      <c r="CQ98" s="6"/>
+      <c r="CR98" s="6"/>
+      <c r="CS98" s="6"/>
     </row>
     <row r="99" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="8"/>
@@ -16779,14 +16938,14 @@
       <c r="CI99" s="8"/>
       <c r="CJ99" s="8"/>
       <c r="CK99" s="8"/>
-      <c r="CL99" s="24"/>
-      <c r="CM99" s="24"/>
-      <c r="CN99" s="24"/>
-      <c r="CO99" s="24"/>
+      <c r="CL99" s="8"/>
+      <c r="CM99" s="8"/>
+      <c r="CN99" s="8"/>
+      <c r="CO99" s="8"/>
       <c r="CP99" s="24"/>
       <c r="CQ99" s="24"/>
       <c r="CR99" s="24"/>
-      <c r="CS99" s="8"/>
+      <c r="CS99" s="24"/>
       <c r="CT99" s="8"/>
       <c r="CU99" s="8"/>
       <c r="CV99" s="8"/>
@@ -16927,14 +17086,14 @@
       <c r="CI100" s="8"/>
       <c r="CJ100" s="8"/>
       <c r="CK100" s="8"/>
-      <c r="CL100" s="24"/>
-      <c r="CM100" s="24"/>
-      <c r="CN100" s="24"/>
-      <c r="CO100" s="24"/>
+      <c r="CL100" s="8"/>
+      <c r="CM100" s="8"/>
+      <c r="CN100" s="8"/>
+      <c r="CO100" s="8"/>
       <c r="CP100" s="24"/>
       <c r="CQ100" s="24"/>
       <c r="CR100" s="24"/>
-      <c r="CS100" s="8"/>
+      <c r="CS100" s="24"/>
       <c r="CT100" s="8"/>
       <c r="CU100" s="8"/>
       <c r="CV100" s="8"/>
@@ -16993,7 +17152,7 @@
     </row>
     <row r="102" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="104" spans="1:151" x14ac:dyDescent="0.2">
@@ -17003,7 +17162,7 @@
     </row>
     <row r="105" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="106" spans="1:151" x14ac:dyDescent="0.2">
@@ -17013,149 +17172,150 @@
     </row>
     <row r="108" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
-      <c r="B108" s="31">
+      <c r="B108" s="26">
         <v>2000</v>
       </c>
-      <c r="C108" s="31"/>
-      <c r="D108" s="31"/>
-      <c r="E108" s="31"/>
-      <c r="F108" s="31">
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="26">
         <v>2001</v>
       </c>
-      <c r="G108" s="31"/>
-      <c r="H108" s="31"/>
-      <c r="I108" s="31"/>
-      <c r="J108" s="31">
+      <c r="G108" s="26"/>
+      <c r="H108" s="26"/>
+      <c r="I108" s="26"/>
+      <c r="J108" s="26">
         <v>2002</v>
       </c>
-      <c r="K108" s="31"/>
-      <c r="L108" s="31"/>
-      <c r="M108" s="31"/>
-      <c r="N108" s="31">
+      <c r="K108" s="26"/>
+      <c r="L108" s="26"/>
+      <c r="M108" s="26"/>
+      <c r="N108" s="26">
         <v>2003</v>
       </c>
-      <c r="O108" s="31"/>
-      <c r="P108" s="31"/>
-      <c r="Q108" s="31"/>
-      <c r="R108" s="31">
+      <c r="O108" s="26"/>
+      <c r="P108" s="26"/>
+      <c r="Q108" s="26"/>
+      <c r="R108" s="26">
         <v>2004</v>
       </c>
-      <c r="S108" s="31"/>
-      <c r="T108" s="31"/>
-      <c r="U108" s="31"/>
-      <c r="V108" s="31">
+      <c r="S108" s="26"/>
+      <c r="T108" s="26"/>
+      <c r="U108" s="26"/>
+      <c r="V108" s="26">
         <v>2005</v>
       </c>
-      <c r="W108" s="31"/>
-      <c r="X108" s="31"/>
-      <c r="Y108" s="31"/>
-      <c r="Z108" s="31">
+      <c r="W108" s="26"/>
+      <c r="X108" s="26"/>
+      <c r="Y108" s="26"/>
+      <c r="Z108" s="26">
         <v>2006</v>
       </c>
-      <c r="AA108" s="31"/>
-      <c r="AB108" s="31"/>
-      <c r="AC108" s="31"/>
-      <c r="AD108" s="31">
+      <c r="AA108" s="26"/>
+      <c r="AB108" s="26"/>
+      <c r="AC108" s="26"/>
+      <c r="AD108" s="26">
         <v>2007</v>
       </c>
-      <c r="AE108" s="31"/>
-      <c r="AF108" s="31"/>
-      <c r="AG108" s="31"/>
-      <c r="AH108" s="31">
+      <c r="AE108" s="26"/>
+      <c r="AF108" s="26"/>
+      <c r="AG108" s="26"/>
+      <c r="AH108" s="26">
         <v>2008</v>
       </c>
-      <c r="AI108" s="31"/>
-      <c r="AJ108" s="31"/>
-      <c r="AK108" s="31"/>
-      <c r="AL108" s="31">
+      <c r="AI108" s="26"/>
+      <c r="AJ108" s="26"/>
+      <c r="AK108" s="26"/>
+      <c r="AL108" s="26">
         <v>2009</v>
       </c>
-      <c r="AM108" s="31"/>
-      <c r="AN108" s="31"/>
-      <c r="AO108" s="31"/>
-      <c r="AP108" s="31">
+      <c r="AM108" s="26"/>
+      <c r="AN108" s="26"/>
+      <c r="AO108" s="26"/>
+      <c r="AP108" s="26">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="31"/>
-      <c r="AR108" s="31"/>
-      <c r="AS108" s="31"/>
-      <c r="AT108" s="31">
+      <c r="AQ108" s="26"/>
+      <c r="AR108" s="26"/>
+      <c r="AS108" s="26"/>
+      <c r="AT108" s="26">
         <v>2011</v>
       </c>
-      <c r="AU108" s="31"/>
-      <c r="AV108" s="31"/>
-      <c r="AW108" s="31"/>
-      <c r="AX108" s="31">
+      <c r="AU108" s="26"/>
+      <c r="AV108" s="26"/>
+      <c r="AW108" s="26"/>
+      <c r="AX108" s="26">
         <v>2012</v>
       </c>
-      <c r="AY108" s="31"/>
-      <c r="AZ108" s="31"/>
-      <c r="BA108" s="31"/>
-      <c r="BB108" s="31">
+      <c r="AY108" s="26"/>
+      <c r="AZ108" s="26"/>
+      <c r="BA108" s="26"/>
+      <c r="BB108" s="26">
         <v>2013</v>
       </c>
-      <c r="BC108" s="31"/>
-      <c r="BD108" s="31"/>
-      <c r="BE108" s="31"/>
-      <c r="BF108" s="31">
+      <c r="BC108" s="26"/>
+      <c r="BD108" s="26"/>
+      <c r="BE108" s="26"/>
+      <c r="BF108" s="26">
         <v>2014</v>
       </c>
-      <c r="BG108" s="31"/>
-      <c r="BH108" s="31"/>
-      <c r="BI108" s="31"/>
-      <c r="BJ108" s="31">
+      <c r="BG108" s="26"/>
+      <c r="BH108" s="26"/>
+      <c r="BI108" s="26"/>
+      <c r="BJ108" s="26">
         <v>2015</v>
       </c>
-      <c r="BK108" s="31"/>
-      <c r="BL108" s="31"/>
-      <c r="BM108" s="31"/>
-      <c r="BN108" s="31">
+      <c r="BK108" s="26"/>
+      <c r="BL108" s="26"/>
+      <c r="BM108" s="26"/>
+      <c r="BN108" s="26">
         <v>2016</v>
       </c>
-      <c r="BO108" s="31"/>
-      <c r="BP108" s="31"/>
-      <c r="BQ108" s="31"/>
-      <c r="BR108" s="31">
+      <c r="BO108" s="26"/>
+      <c r="BP108" s="26"/>
+      <c r="BQ108" s="26"/>
+      <c r="BR108" s="26">
         <v>2017</v>
       </c>
-      <c r="BS108" s="31"/>
-      <c r="BT108" s="31"/>
-      <c r="BU108" s="31"/>
-      <c r="BV108" s="31">
+      <c r="BS108" s="26"/>
+      <c r="BT108" s="26"/>
+      <c r="BU108" s="26"/>
+      <c r="BV108" s="26">
         <v>2018</v>
       </c>
-      <c r="BW108" s="31"/>
-      <c r="BX108" s="31"/>
-      <c r="BY108" s="31"/>
-      <c r="BZ108" s="31">
+      <c r="BW108" s="26"/>
+      <c r="BX108" s="26"/>
+      <c r="BY108" s="26"/>
+      <c r="BZ108" s="26">
         <v>2019</v>
       </c>
-      <c r="CA108" s="31"/>
-      <c r="CB108" s="31"/>
-      <c r="CC108" s="31"/>
-      <c r="CD108" s="32">
+      <c r="CA108" s="26"/>
+      <c r="CB108" s="26"/>
+      <c r="CC108" s="26"/>
+      <c r="CD108" s="25">
         <v>2020</v>
       </c>
-      <c r="CE108" s="32"/>
-      <c r="CF108" s="32"/>
-      <c r="CG108" s="32"/>
-      <c r="CH108" s="32">
+      <c r="CE108" s="25"/>
+      <c r="CF108" s="25"/>
+      <c r="CG108" s="25"/>
+      <c r="CH108" s="25">
         <v>2021</v>
       </c>
-      <c r="CI108" s="32"/>
-      <c r="CJ108" s="32"/>
-      <c r="CK108" s="32"/>
-      <c r="CL108" s="31">
+      <c r="CI108" s="25"/>
+      <c r="CJ108" s="25"/>
+      <c r="CK108" s="25"/>
+      <c r="CL108" s="22">
         <v>2022</v>
       </c>
-      <c r="CM108" s="31"/>
-      <c r="CN108" s="31"/>
-      <c r="CO108" s="31"/>
-      <c r="CP108" s="31">
+      <c r="CM108" s="22"/>
+      <c r="CN108" s="22"/>
+      <c r="CO108" s="22"/>
+      <c r="CP108" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ108" s="31"/>
-      <c r="CR108" s="31"/>
+      <c r="CQ108" s="22"/>
+      <c r="CR108" s="22"/>
+      <c r="CS108" s="22"/>
     </row>
     <row r="109" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
@@ -17423,26 +17583,29 @@
       <c r="CK109" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CL109" s="27" t="s">
+      <c r="CL109" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CM109" s="27" t="s">
+      <c r="CM109" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="CN109" s="27" t="s">
+      <c r="CN109" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="CO109" s="27" t="s">
+      <c r="CO109" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CP109" s="27" t="s">
+      <c r="CP109" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CQ109" s="27" t="s">
+      <c r="CQ109" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="CR109" s="27" t="s">
+      <c r="CR109" s="13" t="s">
         <v>9</v>
+      </c>
+      <c r="CS109" s="13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -17716,28 +17879,30 @@
       <c r="CK111" s="14">
         <v>118.63153574023102</v>
       </c>
-      <c r="CL111" s="29">
+      <c r="CL111" s="14">
         <v>126.09642903416727</v>
       </c>
-      <c r="CM111" s="29">
+      <c r="CM111" s="14">
         <v>124.61983118929622</v>
       </c>
-      <c r="CN111" s="29">
+      <c r="CN111" s="14">
         <v>128.49759727085754</v>
       </c>
-      <c r="CO111" s="29">
+      <c r="CO111" s="14">
         <v>133.0320896828776</v>
       </c>
-      <c r="CP111" s="29">
+      <c r="CP111" s="14">
         <v>136.72622876503408</v>
       </c>
-      <c r="CQ111" s="29">
+      <c r="CQ111" s="14">
         <v>141.65669937816352</v>
       </c>
-      <c r="CR111" s="29">
-        <v>130.28192558024958</v>
-      </c>
-      <c r="CS111" s="8"/>
+      <c r="CR111" s="14">
+        <v>130.28192558024955</v>
+      </c>
+      <c r="CS111" s="14">
+        <v>136.73992410331394</v>
+      </c>
       <c r="CT111" s="8"/>
       <c r="CU111" s="8"/>
       <c r="CV111" s="8"/>
@@ -18061,28 +18226,30 @@
       <c r="CK112" s="14">
         <v>107.41235280347485</v>
       </c>
-      <c r="CL112" s="29">
+      <c r="CL112" s="14">
         <v>111.88039102135299</v>
       </c>
-      <c r="CM112" s="29">
+      <c r="CM112" s="14">
         <v>113.74058049100657</v>
       </c>
-      <c r="CN112" s="29">
+      <c r="CN112" s="14">
         <v>116.05280088472769</v>
       </c>
-      <c r="CO112" s="29">
+      <c r="CO112" s="14">
         <v>114.41806830514707</v>
       </c>
-      <c r="CP112" s="29">
+      <c r="CP112" s="14">
         <v>119.59147290110843</v>
       </c>
-      <c r="CQ112" s="29">
+      <c r="CQ112" s="14">
         <v>119.26852215132922</v>
       </c>
-      <c r="CR112" s="29">
+      <c r="CR112" s="14">
         <v>120.01837611904935</v>
       </c>
-      <c r="CS112" s="8"/>
+      <c r="CS112" s="14">
+        <v>117.82399759332365</v>
+      </c>
       <c r="CT112" s="8"/>
       <c r="CU112" s="8"/>
       <c r="CV112" s="8"/>
@@ -18406,28 +18573,30 @@
       <c r="CK113" s="14">
         <v>108.46407696982685</v>
       </c>
-      <c r="CL113" s="29">
+      <c r="CL113" s="14">
         <v>113.43226434989448</v>
       </c>
-      <c r="CM113" s="29">
+      <c r="CM113" s="14">
         <v>115.6341945436903</v>
       </c>
-      <c r="CN113" s="29">
+      <c r="CN113" s="14">
         <v>118.385255983341</v>
       </c>
-      <c r="CO113" s="29">
+      <c r="CO113" s="14">
         <v>117.03672057255258</v>
       </c>
-      <c r="CP113" s="29">
+      <c r="CP113" s="14">
         <v>122.00663809992125</v>
       </c>
-      <c r="CQ113" s="29">
+      <c r="CQ113" s="14">
         <v>122.63218135093956</v>
       </c>
-      <c r="CR113" s="29">
+      <c r="CR113" s="14">
         <v>124.72795126241223</v>
       </c>
-      <c r="CS113" s="8"/>
+      <c r="CS113" s="14">
+        <v>122.09794183971367</v>
+      </c>
       <c r="CT113" s="8"/>
       <c r="CU113" s="8"/>
       <c r="CV113" s="8"/>
@@ -18751,28 +18920,30 @@
       <c r="CK114" s="14">
         <v>109.02907695717339</v>
       </c>
-      <c r="CL114" s="29">
+      <c r="CL114" s="14">
         <v>108.58723074343011</v>
       </c>
-      <c r="CM114" s="29">
+      <c r="CM114" s="14">
         <v>109.98023693843398</v>
       </c>
-      <c r="CN114" s="29">
+      <c r="CN114" s="14">
         <v>112.53715586887442</v>
       </c>
-      <c r="CO114" s="29">
+      <c r="CO114" s="14">
         <v>115.53683219443604</v>
       </c>
-      <c r="CP114" s="29">
+      <c r="CP114" s="14">
         <v>115.7444035129955</v>
       </c>
-      <c r="CQ114" s="29">
+      <c r="CQ114" s="14">
         <v>116.50252804574832</v>
       </c>
-      <c r="CR114" s="29">
+      <c r="CR114" s="14">
         <v>118.14474888583113</v>
       </c>
-      <c r="CS114" s="8"/>
+      <c r="CS114" s="14">
+        <v>120.40996061596698</v>
+      </c>
       <c r="CT114" s="8"/>
       <c r="CU114" s="8"/>
       <c r="CV114" s="8"/>
@@ -19096,28 +19267,30 @@
       <c r="CK115" s="14">
         <v>99.188841424745021</v>
       </c>
-      <c r="CL115" s="29">
+      <c r="CL115" s="14">
         <v>102.1773430955365</v>
       </c>
-      <c r="CM115" s="29">
+      <c r="CM115" s="14">
         <v>103.17914174932667</v>
       </c>
-      <c r="CN115" s="29">
+      <c r="CN115" s="14">
         <v>102.17552207806702</v>
       </c>
-      <c r="CO115" s="29">
+      <c r="CO115" s="14">
         <v>103.34897185336216</v>
       </c>
-      <c r="CP115" s="29">
+      <c r="CP115" s="14">
         <v>102.92008743148232</v>
       </c>
-      <c r="CQ115" s="29">
+      <c r="CQ115" s="14">
         <v>103.61706726923939</v>
       </c>
-      <c r="CR115" s="29">
-        <v>102.55633330527832</v>
-      </c>
-      <c r="CS115" s="8"/>
+      <c r="CR115" s="14">
+        <v>102.55633330527829</v>
+      </c>
+      <c r="CS115" s="14">
+        <v>103.68565782484302</v>
+      </c>
       <c r="CT115" s="8"/>
       <c r="CU115" s="8"/>
       <c r="CV115" s="8"/>
@@ -19441,28 +19614,30 @@
       <c r="CK116" s="14">
         <v>109.3552980162752</v>
       </c>
-      <c r="CL116" s="29">
+      <c r="CL116" s="14">
         <v>113.98898088171985</v>
       </c>
-      <c r="CM116" s="29">
+      <c r="CM116" s="14">
         <v>115.24165168078628</v>
       </c>
-      <c r="CN116" s="29">
+      <c r="CN116" s="14">
         <v>116.52552735229604</v>
       </c>
-      <c r="CO116" s="29">
+      <c r="CO116" s="14">
         <v>117.00435355436905</v>
       </c>
-      <c r="CP116" s="29">
+      <c r="CP116" s="14">
         <v>118.63204242974616</v>
       </c>
-      <c r="CQ116" s="29">
+      <c r="CQ116" s="14">
         <v>119.51872166523746</v>
       </c>
-      <c r="CR116" s="29">
-        <v>120.54387253224547</v>
-      </c>
-      <c r="CS116" s="8"/>
+      <c r="CR116" s="14">
+        <v>120.60269344232925</v>
+      </c>
+      <c r="CS116" s="14">
+        <v>120.48726985000336</v>
+      </c>
       <c r="CT116" s="8"/>
       <c r="CU116" s="8"/>
       <c r="CV116" s="8"/>
@@ -19786,28 +19961,30 @@
       <c r="CK117" s="14">
         <v>107.16683189889456</v>
       </c>
-      <c r="CL117" s="29">
+      <c r="CL117" s="14">
         <v>112.89718497790633</v>
       </c>
-      <c r="CM117" s="29">
+      <c r="CM117" s="14">
         <v>113.65147294228359</v>
       </c>
-      <c r="CN117" s="29">
+      <c r="CN117" s="14">
         <v>119.54655249515902</v>
       </c>
-      <c r="CO117" s="29">
+      <c r="CO117" s="14">
         <v>117.79146924859019</v>
       </c>
-      <c r="CP117" s="29">
+      <c r="CP117" s="14">
         <v>120.67834689029524</v>
       </c>
-      <c r="CQ117" s="29">
+      <c r="CQ117" s="14">
         <v>119.17508385865621</v>
       </c>
-      <c r="CR117" s="29">
+      <c r="CR117" s="14">
         <v>123.63151075820188</v>
       </c>
-      <c r="CS117" s="8"/>
+      <c r="CS117" s="14">
+        <v>121.29781593800617</v>
+      </c>
       <c r="CT117" s="8"/>
       <c r="CU117" s="8"/>
       <c r="CV117" s="8"/>
@@ -20131,28 +20308,30 @@
       <c r="CK118" s="14">
         <v>107.27313045488039</v>
       </c>
-      <c r="CL118" s="29">
+      <c r="CL118" s="14">
         <v>112.00394049520814</v>
       </c>
-      <c r="CM118" s="29">
+      <c r="CM118" s="14">
         <v>113.13547570597326</v>
       </c>
-      <c r="CN118" s="29">
+      <c r="CN118" s="14">
         <v>111.27094242821842</v>
       </c>
-      <c r="CO118" s="29">
+      <c r="CO118" s="14">
         <v>114.26976550965541</v>
       </c>
-      <c r="CP118" s="29">
+      <c r="CP118" s="14">
         <v>119.72353771979209</v>
       </c>
-      <c r="CQ118" s="29">
+      <c r="CQ118" s="14">
         <v>118.63400847867109</v>
       </c>
-      <c r="CR118" s="29">
-        <v>116.31755657998013</v>
-      </c>
-      <c r="CS118" s="8"/>
+      <c r="CR118" s="14">
+        <v>116.31755657998011</v>
+      </c>
+      <c r="CS118" s="14">
+        <v>117.67128020805468</v>
+      </c>
       <c r="CT118" s="8"/>
       <c r="CU118" s="8"/>
       <c r="CV118" s="8"/>
@@ -20297,13 +20476,13 @@
       <c r="CI119" s="8"/>
       <c r="CJ119" s="8"/>
       <c r="CK119" s="8"/>
-      <c r="CL119" s="24"/>
-      <c r="CM119" s="24"/>
-      <c r="CN119" s="24"/>
-      <c r="CO119" s="24"/>
-      <c r="CP119" s="24"/>
-      <c r="CQ119" s="24"/>
-      <c r="CR119" s="24"/>
+      <c r="CL119" s="8"/>
+      <c r="CM119" s="8"/>
+      <c r="CN119" s="8"/>
+      <c r="CO119" s="8"/>
+      <c r="CP119" s="8"/>
+      <c r="CQ119" s="8"/>
+      <c r="CR119" s="8"/>
       <c r="CS119" s="8"/>
       <c r="CT119" s="8"/>
       <c r="CU119" s="8"/>
@@ -20628,28 +20807,30 @@
       <c r="CK120" s="14">
         <v>107.90147001950392</v>
       </c>
-      <c r="CL120" s="29">
+      <c r="CL120" s="14">
         <v>112.33130479076783</v>
       </c>
-      <c r="CM120" s="29">
+      <c r="CM120" s="14">
         <v>113.28644583069654</v>
       </c>
-      <c r="CN120" s="29">
+      <c r="CN120" s="14">
         <v>115.58029627840591</v>
       </c>
-      <c r="CO120" s="29">
+      <c r="CO120" s="14">
         <v>116.13546076127123</v>
       </c>
-      <c r="CP120" s="29">
+      <c r="CP120" s="14">
         <v>118.08849090170519</v>
       </c>
-      <c r="CQ120" s="29">
+      <c r="CQ120" s="14">
         <v>117.84076019058585</v>
       </c>
-      <c r="CR120" s="29">
-        <v>119.7618421348394</v>
-      </c>
-      <c r="CS120" s="8"/>
+      <c r="CR120" s="14">
+        <v>119.76437076201178</v>
+      </c>
+      <c r="CS120" s="14">
+        <v>119.30573883472213</v>
+      </c>
       <c r="CT120" s="8"/>
       <c r="CU120" s="8"/>
       <c r="CV120" s="8"/>
@@ -20795,13 +20976,14 @@
       <c r="CI121" s="11"/>
       <c r="CJ121" s="11"/>
       <c r="CK121" s="11"/>
-      <c r="CL121" s="26"/>
-      <c r="CM121" s="26"/>
-      <c r="CN121" s="26"/>
-      <c r="CO121" s="26"/>
-      <c r="CP121" s="26"/>
-      <c r="CQ121" s="26"/>
-      <c r="CR121" s="26"/>
+      <c r="CL121" s="11"/>
+      <c r="CM121" s="11"/>
+      <c r="CN121" s="11"/>
+      <c r="CO121" s="11"/>
+      <c r="CP121" s="11"/>
+      <c r="CQ121" s="11"/>
+      <c r="CR121" s="11"/>
+      <c r="CS121" s="11"/>
     </row>
     <row r="122" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
@@ -20820,7 +21002,7 @@
     </row>
     <row r="127" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="129" spans="1:151" x14ac:dyDescent="0.2">
@@ -20830,7 +21012,7 @@
     </row>
     <row r="130" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="131" spans="1:151" x14ac:dyDescent="0.2">
@@ -20840,149 +21022,150 @@
     </row>
     <row r="133" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
-      <c r="B133" s="31">
+      <c r="B133" s="26">
         <v>2000</v>
       </c>
-      <c r="C133" s="31"/>
-      <c r="D133" s="31"/>
-      <c r="E133" s="31"/>
-      <c r="F133" s="31">
+      <c r="C133" s="26"/>
+      <c r="D133" s="26"/>
+      <c r="E133" s="26"/>
+      <c r="F133" s="26">
         <v>2001</v>
       </c>
-      <c r="G133" s="31"/>
-      <c r="H133" s="31"/>
-      <c r="I133" s="31"/>
-      <c r="J133" s="31">
+      <c r="G133" s="26"/>
+      <c r="H133" s="26"/>
+      <c r="I133" s="26"/>
+      <c r="J133" s="26">
         <v>2002</v>
       </c>
-      <c r="K133" s="31"/>
-      <c r="L133" s="31"/>
-      <c r="M133" s="31"/>
-      <c r="N133" s="31">
+      <c r="K133" s="26"/>
+      <c r="L133" s="26"/>
+      <c r="M133" s="26"/>
+      <c r="N133" s="26">
         <v>2003</v>
       </c>
-      <c r="O133" s="31"/>
-      <c r="P133" s="31"/>
-      <c r="Q133" s="31"/>
-      <c r="R133" s="31">
+      <c r="O133" s="26"/>
+      <c r="P133" s="26"/>
+      <c r="Q133" s="26"/>
+      <c r="R133" s="26">
         <v>2004</v>
       </c>
-      <c r="S133" s="31"/>
-      <c r="T133" s="31"/>
-      <c r="U133" s="31"/>
-      <c r="V133" s="31">
+      <c r="S133" s="26"/>
+      <c r="T133" s="26"/>
+      <c r="U133" s="26"/>
+      <c r="V133" s="26">
         <v>2005</v>
       </c>
-      <c r="W133" s="31"/>
-      <c r="X133" s="31"/>
-      <c r="Y133" s="31"/>
-      <c r="Z133" s="31">
+      <c r="W133" s="26"/>
+      <c r="X133" s="26"/>
+      <c r="Y133" s="26"/>
+      <c r="Z133" s="26">
         <v>2006</v>
       </c>
-      <c r="AA133" s="31"/>
-      <c r="AB133" s="31"/>
-      <c r="AC133" s="31"/>
-      <c r="AD133" s="31">
+      <c r="AA133" s="26"/>
+      <c r="AB133" s="26"/>
+      <c r="AC133" s="26"/>
+      <c r="AD133" s="26">
         <v>2007</v>
       </c>
-      <c r="AE133" s="31"/>
-      <c r="AF133" s="31"/>
-      <c r="AG133" s="31"/>
-      <c r="AH133" s="31">
+      <c r="AE133" s="26"/>
+      <c r="AF133" s="26"/>
+      <c r="AG133" s="26"/>
+      <c r="AH133" s="26">
         <v>2008</v>
       </c>
-      <c r="AI133" s="31"/>
-      <c r="AJ133" s="31"/>
-      <c r="AK133" s="31"/>
-      <c r="AL133" s="31">
+      <c r="AI133" s="26"/>
+      <c r="AJ133" s="26"/>
+      <c r="AK133" s="26"/>
+      <c r="AL133" s="26">
         <v>2009</v>
       </c>
-      <c r="AM133" s="31"/>
-      <c r="AN133" s="31"/>
-      <c r="AO133" s="31"/>
-      <c r="AP133" s="31">
+      <c r="AM133" s="26"/>
+      <c r="AN133" s="26"/>
+      <c r="AO133" s="26"/>
+      <c r="AP133" s="26">
         <v>2010</v>
       </c>
-      <c r="AQ133" s="31"/>
-      <c r="AR133" s="31"/>
-      <c r="AS133" s="31"/>
-      <c r="AT133" s="31">
+      <c r="AQ133" s="26"/>
+      <c r="AR133" s="26"/>
+      <c r="AS133" s="26"/>
+      <c r="AT133" s="26">
         <v>2011</v>
       </c>
-      <c r="AU133" s="31"/>
-      <c r="AV133" s="31"/>
-      <c r="AW133" s="31"/>
-      <c r="AX133" s="31">
+      <c r="AU133" s="26"/>
+      <c r="AV133" s="26"/>
+      <c r="AW133" s="26"/>
+      <c r="AX133" s="26">
         <v>2012</v>
       </c>
-      <c r="AY133" s="31"/>
-      <c r="AZ133" s="31"/>
-      <c r="BA133" s="31"/>
-      <c r="BB133" s="31">
+      <c r="AY133" s="26"/>
+      <c r="AZ133" s="26"/>
+      <c r="BA133" s="26"/>
+      <c r="BB133" s="26">
         <v>2013</v>
       </c>
-      <c r="BC133" s="31"/>
-      <c r="BD133" s="31"/>
-      <c r="BE133" s="31"/>
-      <c r="BF133" s="31">
+      <c r="BC133" s="26"/>
+      <c r="BD133" s="26"/>
+      <c r="BE133" s="26"/>
+      <c r="BF133" s="26">
         <v>2014</v>
       </c>
-      <c r="BG133" s="31"/>
-      <c r="BH133" s="31"/>
-      <c r="BI133" s="31"/>
-      <c r="BJ133" s="31">
+      <c r="BG133" s="26"/>
+      <c r="BH133" s="26"/>
+      <c r="BI133" s="26"/>
+      <c r="BJ133" s="26">
         <v>2015</v>
       </c>
-      <c r="BK133" s="31"/>
-      <c r="BL133" s="31"/>
-      <c r="BM133" s="31"/>
-      <c r="BN133" s="31">
+      <c r="BK133" s="26"/>
+      <c r="BL133" s="26"/>
+      <c r="BM133" s="26"/>
+      <c r="BN133" s="26">
         <v>2016</v>
       </c>
-      <c r="BO133" s="31"/>
-      <c r="BP133" s="31"/>
-      <c r="BQ133" s="31"/>
-      <c r="BR133" s="31">
+      <c r="BO133" s="26"/>
+      <c r="BP133" s="26"/>
+      <c r="BQ133" s="26"/>
+      <c r="BR133" s="26">
         <v>2017</v>
       </c>
-      <c r="BS133" s="31"/>
-      <c r="BT133" s="31"/>
-      <c r="BU133" s="31"/>
-      <c r="BV133" s="31">
+      <c r="BS133" s="26"/>
+      <c r="BT133" s="26"/>
+      <c r="BU133" s="26"/>
+      <c r="BV133" s="26">
         <v>2018</v>
       </c>
-      <c r="BW133" s="31"/>
-      <c r="BX133" s="31"/>
-      <c r="BY133" s="31"/>
-      <c r="BZ133" s="31">
+      <c r="BW133" s="26"/>
+      <c r="BX133" s="26"/>
+      <c r="BY133" s="26"/>
+      <c r="BZ133" s="26">
         <v>2019</v>
       </c>
-      <c r="CA133" s="31"/>
-      <c r="CB133" s="31"/>
-      <c r="CC133" s="31"/>
-      <c r="CD133" s="32">
+      <c r="CA133" s="26"/>
+      <c r="CB133" s="26"/>
+      <c r="CC133" s="26"/>
+      <c r="CD133" s="25">
         <v>2020</v>
       </c>
-      <c r="CE133" s="32"/>
-      <c r="CF133" s="32"/>
-      <c r="CG133" s="32"/>
-      <c r="CH133" s="32">
+      <c r="CE133" s="25"/>
+      <c r="CF133" s="25"/>
+      <c r="CG133" s="25"/>
+      <c r="CH133" s="25">
         <v>2021</v>
       </c>
-      <c r="CI133" s="32"/>
-      <c r="CJ133" s="32"/>
-      <c r="CK133" s="32"/>
-      <c r="CL133" s="31">
+      <c r="CI133" s="25"/>
+      <c r="CJ133" s="25"/>
+      <c r="CK133" s="25"/>
+      <c r="CL133" s="22">
         <v>2022</v>
       </c>
-      <c r="CM133" s="31"/>
-      <c r="CN133" s="31"/>
-      <c r="CO133" s="31"/>
-      <c r="CP133" s="31">
+      <c r="CM133" s="22"/>
+      <c r="CN133" s="22"/>
+      <c r="CO133" s="22"/>
+      <c r="CP133" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ133" s="31"/>
-      <c r="CR133" s="31"/>
+      <c r="CQ133" s="22"/>
+      <c r="CR133" s="22"/>
+      <c r="CS133" s="22"/>
     </row>
     <row r="134" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
@@ -21250,26 +21433,29 @@
       <c r="CK134" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CL134" s="27" t="s">
+      <c r="CL134" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CM134" s="27" t="s">
+      <c r="CM134" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="CN134" s="27" t="s">
+      <c r="CN134" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="CO134" s="27" t="s">
+      <c r="CO134" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CP134" s="27" t="s">
+      <c r="CP134" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CQ134" s="27" t="s">
+      <c r="CQ134" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="CR134" s="27" t="s">
+      <c r="CR134" s="13" t="s">
         <v>9</v>
+      </c>
+      <c r="CS134" s="13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -21543,28 +21729,30 @@
       <c r="CK136" s="20">
         <v>6.3517535811312325</v>
       </c>
-      <c r="CL136" s="30">
+      <c r="CL136" s="20">
         <v>7.2501408841845167</v>
       </c>
-      <c r="CM136" s="30">
+      <c r="CM136" s="20">
         <v>4.5525961507475614</v>
       </c>
-      <c r="CN136" s="30">
+      <c r="CN136" s="20">
         <v>7.123031504693027</v>
       </c>
-      <c r="CO136" s="30">
+      <c r="CO136" s="20">
         <v>9.1431393370668612</v>
       </c>
-      <c r="CP136" s="30">
+      <c r="CP136" s="20">
         <v>10.385944912529338</v>
       </c>
-      <c r="CQ136" s="30">
+      <c r="CQ136" s="20">
         <v>4.1495264516934016</v>
       </c>
-      <c r="CR136" s="30">
-        <v>7.4098883315511861</v>
-      </c>
-      <c r="CS136" s="8"/>
+      <c r="CR136" s="20">
+        <v>7.341248997434402</v>
+      </c>
+      <c r="CS136" s="20">
+        <v>8.9560712180225277</v>
+      </c>
       <c r="CT136" s="8"/>
       <c r="CU136" s="8"/>
       <c r="CV136" s="8"/>
@@ -21888,28 +22076,30 @@
       <c r="CK137" s="20">
         <v>0.17388086679314779</v>
       </c>
-      <c r="CL137" s="30">
+      <c r="CL137" s="20">
         <v>8.303106049360541E-2</v>
       </c>
-      <c r="CM137" s="30">
+      <c r="CM137" s="20">
         <v>5.9636933637316959E-2</v>
       </c>
-      <c r="CN137" s="30">
+      <c r="CN137" s="20">
         <v>0.14132000283227314</v>
       </c>
-      <c r="CO137" s="30">
+      <c r="CO137" s="20">
         <v>0.16291089073254109</v>
       </c>
-      <c r="CP137" s="30">
+      <c r="CP137" s="20">
         <v>5.4273256982205413E-2</v>
       </c>
-      <c r="CQ137" s="30">
+      <c r="CQ137" s="20">
         <v>5.6252594877349446E-2</v>
       </c>
-      <c r="CR137" s="30">
-        <v>0.12922696834695957</v>
-      </c>
-      <c r="CS137" s="8"/>
+      <c r="CR137" s="20">
+        <v>0.12845151548157613</v>
+      </c>
+      <c r="CS137" s="20">
+        <v>0.13312781712002994</v>
+      </c>
       <c r="CT137" s="8"/>
       <c r="CU137" s="8"/>
       <c r="CV137" s="8"/>
@@ -22233,28 +22423,30 @@
       <c r="CK138" s="20">
         <v>2.7818782049697144</v>
       </c>
-      <c r="CL138" s="30">
+      <c r="CL138" s="20">
         <v>2.5240485310759349</v>
       </c>
-      <c r="CM138" s="30">
+      <c r="CM138" s="20">
         <v>9.0963045368606146</v>
       </c>
-      <c r="CN138" s="30">
+      <c r="CN138" s="20">
         <v>16.510726042475234</v>
       </c>
-      <c r="CO138" s="30">
+      <c r="CO138" s="20">
         <v>10.280272247948936</v>
       </c>
-      <c r="CP138" s="30">
+      <c r="CP138" s="20">
         <v>14.653213781321977</v>
       </c>
-      <c r="CQ138" s="30">
+      <c r="CQ138" s="20">
         <v>15.814136212939701</v>
       </c>
-      <c r="CR138" s="30">
-        <v>23.640062115082273</v>
-      </c>
-      <c r="CS138" s="8"/>
+      <c r="CR138" s="20">
+        <v>23.722155140406652</v>
+      </c>
+      <c r="CS138" s="20">
+        <v>14.923971465221687</v>
+      </c>
       <c r="CT138" s="8"/>
       <c r="CU138" s="8"/>
       <c r="CV138" s="8"/>
@@ -22578,28 +22770,30 @@
       <c r="CK139" s="20">
         <v>0.88176153624546327</v>
       </c>
-      <c r="CL139" s="30">
+      <c r="CL139" s="20">
         <v>0.53926570175523747</v>
       </c>
-      <c r="CM139" s="30">
+      <c r="CM139" s="20">
         <v>0.59443022262417511</v>
       </c>
-      <c r="CN139" s="30">
+      <c r="CN139" s="20">
         <v>0.69975213191846064</v>
       </c>
-      <c r="CO139" s="30">
+      <c r="CO139" s="20">
         <v>0.73576712927618371</v>
       </c>
-      <c r="CP139" s="30">
+      <c r="CP139" s="20">
         <v>0.52298502916791312</v>
       </c>
-      <c r="CQ139" s="30">
+      <c r="CQ139" s="20">
         <v>0.61414277395104466</v>
       </c>
-      <c r="CR139" s="30">
-        <v>0.71814570361207397</v>
-      </c>
-      <c r="CS139" s="8"/>
+      <c r="CR139" s="20">
+        <v>0.72063955295757154</v>
+      </c>
+      <c r="CS139" s="20">
+        <v>0.76303767290800528</v>
+      </c>
       <c r="CT139" s="8"/>
       <c r="CU139" s="8"/>
       <c r="CV139" s="8"/>
@@ -22923,28 +23117,30 @@
       <c r="CK140" s="20">
         <v>15.080973968014156</v>
       </c>
-      <c r="CL140" s="30">
+      <c r="CL140" s="20">
         <v>17.238137924424048</v>
       </c>
-      <c r="CM140" s="30">
+      <c r="CM140" s="20">
         <v>16.198405160389729</v>
       </c>
-      <c r="CN140" s="30">
+      <c r="CN140" s="20">
         <v>13.373125061649633</v>
       </c>
-      <c r="CO140" s="30">
+      <c r="CO140" s="20">
         <v>14.14657327890621</v>
       </c>
-      <c r="CP140" s="30">
+      <c r="CP140" s="20">
         <v>15.506056245062746</v>
       </c>
-      <c r="CQ140" s="30">
+      <c r="CQ140" s="20">
         <v>15.775381488139049</v>
       </c>
-      <c r="CR140" s="30">
-        <v>12.296146956353148</v>
-      </c>
-      <c r="CS140" s="8"/>
+      <c r="CR140" s="20">
+        <v>12.427399520666697</v>
+      </c>
+      <c r="CS140" s="20">
+        <v>14.027898675683604</v>
+      </c>
       <c r="CT140" s="8"/>
       <c r="CU140" s="8"/>
       <c r="CV140" s="8"/>
@@ -23268,28 +23464,30 @@
       <c r="CK141" s="20">
         <v>61.447874063049959</v>
       </c>
-      <c r="CL141" s="30">
+      <c r="CL141" s="20">
         <v>58.900780388605469</v>
       </c>
-      <c r="CM141" s="30">
+      <c r="CM141" s="20">
         <v>57.315289478851419</v>
       </c>
-      <c r="CN141" s="30">
+      <c r="CN141" s="20">
         <v>51.518222835669761</v>
       </c>
-      <c r="CO141" s="30">
+      <c r="CO141" s="20">
         <v>52.938775237345773</v>
       </c>
-      <c r="CP141" s="30">
+      <c r="CP141" s="20">
         <v>50.174467506242607</v>
       </c>
-      <c r="CQ141" s="30">
+      <c r="CQ141" s="20">
         <v>52.859521752134953</v>
       </c>
-      <c r="CR141" s="30">
-        <v>45.986665827425938</v>
-      </c>
-      <c r="CS141" s="8"/>
+      <c r="CR141" s="20">
+        <v>45.58609240353271</v>
+      </c>
+      <c r="CS141" s="20">
+        <v>49.358870339224339</v>
+      </c>
       <c r="CT141" s="8"/>
       <c r="CU141" s="8"/>
       <c r="CV141" s="8"/>
@@ -23613,28 +23811,30 @@
       <c r="CK142" s="20">
         <v>11.721266919248494</v>
       </c>
-      <c r="CL142" s="30">
+      <c r="CL142" s="20">
         <v>12.454562170481861</v>
       </c>
-      <c r="CM142" s="30">
+      <c r="CM142" s="20">
         <v>10.895182644348477</v>
       </c>
-      <c r="CN142" s="30">
+      <c r="CN142" s="20">
         <v>9.1716680739699008</v>
       </c>
-      <c r="CO142" s="30">
+      <c r="CO142" s="20">
         <v>10.811279520989928</v>
       </c>
-      <c r="CP142" s="30">
+      <c r="CP142" s="20">
         <v>7.7040431649428687</v>
       </c>
-      <c r="CQ142" s="30">
+      <c r="CQ142" s="20">
         <v>9.4264873616423603</v>
       </c>
-      <c r="CR142" s="30">
-        <v>8.6239076590452282</v>
-      </c>
-      <c r="CS142" s="8"/>
+      <c r="CR142" s="20">
+        <v>8.8615651100765263</v>
+      </c>
+      <c r="CS142" s="20">
+        <v>10.067251036508937</v>
+      </c>
       <c r="CT142" s="8"/>
       <c r="CU142" s="8"/>
       <c r="CV142" s="8"/>
@@ -23958,28 +24158,30 @@
       <c r="CK143" s="20">
         <v>1.5606108605478348</v>
       </c>
-      <c r="CL143" s="30">
+      <c r="CL143" s="20">
         <v>1.0100333389793279</v>
       </c>
-      <c r="CM143" s="30">
+      <c r="CM143" s="20">
         <v>1.2881548725406995</v>
       </c>
-      <c r="CN143" s="30">
+      <c r="CN143" s="20">
         <v>1.462154346791706</v>
       </c>
-      <c r="CO143" s="30">
+      <c r="CO143" s="20">
         <v>1.7812823577335724</v>
       </c>
-      <c r="CP143" s="30">
+      <c r="CP143" s="20">
         <v>0.99901610375035477</v>
       </c>
-      <c r="CQ143" s="30">
+      <c r="CQ143" s="20">
         <v>1.3045513646221525</v>
       </c>
-      <c r="CR143" s="30">
-        <v>1.1959564385831878</v>
-      </c>
-      <c r="CS143" s="8"/>
+      <c r="CR143" s="20">
+        <v>1.2124477594438563</v>
+      </c>
+      <c r="CS143" s="20">
+        <v>1.7697717753108866</v>
+      </c>
       <c r="CT143" s="8"/>
       <c r="CU143" s="8"/>
       <c r="CV143" s="8"/>
@@ -24124,13 +24326,13 @@
       <c r="CI144" s="8"/>
       <c r="CJ144" s="8"/>
       <c r="CK144" s="8"/>
-      <c r="CL144" s="24"/>
-      <c r="CM144" s="24"/>
-      <c r="CN144" s="24"/>
-      <c r="CO144" s="24"/>
-      <c r="CP144" s="24"/>
-      <c r="CQ144" s="24"/>
-      <c r="CR144" s="24"/>
+      <c r="CL144" s="8"/>
+      <c r="CM144" s="8"/>
+      <c r="CN144" s="8"/>
+      <c r="CO144" s="8"/>
+      <c r="CP144" s="8"/>
+      <c r="CQ144" s="8"/>
+      <c r="CR144" s="8"/>
       <c r="CS144" s="8"/>
       <c r="CT144" s="8"/>
       <c r="CU144" s="8"/>
@@ -24455,28 +24657,30 @@
       <c r="CK145" s="14">
         <v>100</v>
       </c>
-      <c r="CL145" s="29">
+      <c r="CL145" s="14">
         <v>100</v>
       </c>
-      <c r="CM145" s="29">
+      <c r="CM145" s="14">
         <v>100</v>
       </c>
-      <c r="CN145" s="29">
+      <c r="CN145" s="14">
         <v>100</v>
       </c>
-      <c r="CO145" s="29">
+      <c r="CO145" s="14">
         <v>100</v>
       </c>
-      <c r="CP145" s="29">
+      <c r="CP145" s="14">
         <v>100</v>
       </c>
-      <c r="CQ145" s="29">
+      <c r="CQ145" s="14">
         <v>100</v>
       </c>
-      <c r="CR145" s="29">
+      <c r="CR145" s="14">
         <v>100</v>
       </c>
-      <c r="CS145" s="8"/>
+      <c r="CS145" s="14">
+        <v>100</v>
+      </c>
       <c r="CT145" s="8"/>
       <c r="CU145" s="8"/>
       <c r="CV145" s="8"/>
@@ -24622,13 +24826,14 @@
       <c r="CI146" s="11"/>
       <c r="CJ146" s="11"/>
       <c r="CK146" s="11"/>
-      <c r="CL146" s="26"/>
-      <c r="CM146" s="26"/>
-      <c r="CN146" s="26"/>
-      <c r="CO146" s="26"/>
-      <c r="CP146" s="26"/>
-      <c r="CQ146" s="26"/>
-      <c r="CR146" s="26"/>
+      <c r="CL146" s="11"/>
+      <c r="CM146" s="11"/>
+      <c r="CN146" s="11"/>
+      <c r="CO146" s="11"/>
+      <c r="CP146" s="11"/>
+      <c r="CQ146" s="11"/>
+      <c r="CR146" s="11"/>
+      <c r="CS146" s="11"/>
     </row>
     <row r="147" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
@@ -24724,13 +24929,13 @@
       <c r="CI148" s="8"/>
       <c r="CJ148" s="8"/>
       <c r="CK148" s="8"/>
-      <c r="CL148" s="24"/>
-      <c r="CM148" s="24"/>
-      <c r="CN148" s="24"/>
-      <c r="CO148" s="24"/>
-      <c r="CP148" s="24"/>
-      <c r="CQ148" s="24"/>
-      <c r="CR148" s="24"/>
+      <c r="CL148" s="8"/>
+      <c r="CM148" s="8"/>
+      <c r="CN148" s="8"/>
+      <c r="CO148" s="8"/>
+      <c r="CP148" s="8"/>
+      <c r="CQ148" s="8"/>
+      <c r="CR148" s="8"/>
       <c r="CS148" s="8"/>
       <c r="CT148" s="8"/>
       <c r="CU148" s="8"/>
@@ -24876,13 +25081,13 @@
       <c r="CI149" s="8"/>
       <c r="CJ149" s="8"/>
       <c r="CK149" s="8"/>
-      <c r="CL149" s="24"/>
-      <c r="CM149" s="24"/>
-      <c r="CN149" s="24"/>
-      <c r="CO149" s="24"/>
-      <c r="CP149" s="24"/>
-      <c r="CQ149" s="24"/>
-      <c r="CR149" s="24"/>
+      <c r="CL149" s="8"/>
+      <c r="CM149" s="8"/>
+      <c r="CN149" s="8"/>
+      <c r="CO149" s="8"/>
+      <c r="CP149" s="8"/>
+      <c r="CQ149" s="8"/>
+      <c r="CR149" s="8"/>
       <c r="CS149" s="8"/>
       <c r="CT149" s="8"/>
       <c r="CU149" s="8"/>
@@ -24951,7 +25156,7 @@
     </row>
     <row r="152" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="154" spans="1:151" x14ac:dyDescent="0.2">
@@ -24961,7 +25166,7 @@
     </row>
     <row r="155" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="156" spans="1:151" x14ac:dyDescent="0.2">
@@ -24971,149 +25176,150 @@
     </row>
     <row r="158" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
-      <c r="B158" s="31">
+      <c r="B158" s="26">
         <v>2000</v>
       </c>
-      <c r="C158" s="31"/>
-      <c r="D158" s="31"/>
-      <c r="E158" s="31"/>
-      <c r="F158" s="31">
+      <c r="C158" s="26"/>
+      <c r="D158" s="26"/>
+      <c r="E158" s="26"/>
+      <c r="F158" s="26">
         <v>2001</v>
       </c>
-      <c r="G158" s="31"/>
-      <c r="H158" s="31"/>
-      <c r="I158" s="31"/>
-      <c r="J158" s="31">
+      <c r="G158" s="26"/>
+      <c r="H158" s="26"/>
+      <c r="I158" s="26"/>
+      <c r="J158" s="26">
         <v>2002</v>
       </c>
-      <c r="K158" s="31"/>
-      <c r="L158" s="31"/>
-      <c r="M158" s="31"/>
-      <c r="N158" s="31">
+      <c r="K158" s="26"/>
+      <c r="L158" s="26"/>
+      <c r="M158" s="26"/>
+      <c r="N158" s="26">
         <v>2003</v>
       </c>
-      <c r="O158" s="31"/>
-      <c r="P158" s="31"/>
-      <c r="Q158" s="31"/>
-      <c r="R158" s="31">
+      <c r="O158" s="26"/>
+      <c r="P158" s="26"/>
+      <c r="Q158" s="26"/>
+      <c r="R158" s="26">
         <v>2004</v>
       </c>
-      <c r="S158" s="31"/>
-      <c r="T158" s="31"/>
-      <c r="U158" s="31"/>
-      <c r="V158" s="31">
+      <c r="S158" s="26"/>
+      <c r="T158" s="26"/>
+      <c r="U158" s="26"/>
+      <c r="V158" s="26">
         <v>2005</v>
       </c>
-      <c r="W158" s="31"/>
-      <c r="X158" s="31"/>
-      <c r="Y158" s="31"/>
-      <c r="Z158" s="31">
+      <c r="W158" s="26"/>
+      <c r="X158" s="26"/>
+      <c r="Y158" s="26"/>
+      <c r="Z158" s="26">
         <v>2006</v>
       </c>
-      <c r="AA158" s="31"/>
-      <c r="AB158" s="31"/>
-      <c r="AC158" s="31"/>
-      <c r="AD158" s="31">
+      <c r="AA158" s="26"/>
+      <c r="AB158" s="26"/>
+      <c r="AC158" s="26"/>
+      <c r="AD158" s="26">
         <v>2007</v>
       </c>
-      <c r="AE158" s="31"/>
-      <c r="AF158" s="31"/>
-      <c r="AG158" s="31"/>
-      <c r="AH158" s="31">
+      <c r="AE158" s="26"/>
+      <c r="AF158" s="26"/>
+      <c r="AG158" s="26"/>
+      <c r="AH158" s="26">
         <v>2008</v>
       </c>
-      <c r="AI158" s="31"/>
-      <c r="AJ158" s="31"/>
-      <c r="AK158" s="31"/>
-      <c r="AL158" s="31">
+      <c r="AI158" s="26"/>
+      <c r="AJ158" s="26"/>
+      <c r="AK158" s="26"/>
+      <c r="AL158" s="26">
         <v>2009</v>
       </c>
-      <c r="AM158" s="31"/>
-      <c r="AN158" s="31"/>
-      <c r="AO158" s="31"/>
-      <c r="AP158" s="31">
+      <c r="AM158" s="26"/>
+      <c r="AN158" s="26"/>
+      <c r="AO158" s="26"/>
+      <c r="AP158" s="26">
         <v>2010</v>
       </c>
-      <c r="AQ158" s="31"/>
-      <c r="AR158" s="31"/>
-      <c r="AS158" s="31"/>
-      <c r="AT158" s="31">
+      <c r="AQ158" s="26"/>
+      <c r="AR158" s="26"/>
+      <c r="AS158" s="26"/>
+      <c r="AT158" s="26">
         <v>2011</v>
       </c>
-      <c r="AU158" s="31"/>
-      <c r="AV158" s="31"/>
-      <c r="AW158" s="31"/>
-      <c r="AX158" s="31">
+      <c r="AU158" s="26"/>
+      <c r="AV158" s="26"/>
+      <c r="AW158" s="26"/>
+      <c r="AX158" s="26">
         <v>2012</v>
       </c>
-      <c r="AY158" s="31"/>
-      <c r="AZ158" s="31"/>
-      <c r="BA158" s="31"/>
-      <c r="BB158" s="31">
+      <c r="AY158" s="26"/>
+      <c r="AZ158" s="26"/>
+      <c r="BA158" s="26"/>
+      <c r="BB158" s="26">
         <v>2013</v>
       </c>
-      <c r="BC158" s="31"/>
-      <c r="BD158" s="31"/>
-      <c r="BE158" s="31"/>
-      <c r="BF158" s="31">
+      <c r="BC158" s="26"/>
+      <c r="BD158" s="26"/>
+      <c r="BE158" s="26"/>
+      <c r="BF158" s="26">
         <v>2014</v>
       </c>
-      <c r="BG158" s="31"/>
-      <c r="BH158" s="31"/>
-      <c r="BI158" s="31"/>
-      <c r="BJ158" s="31">
+      <c r="BG158" s="26"/>
+      <c r="BH158" s="26"/>
+      <c r="BI158" s="26"/>
+      <c r="BJ158" s="26">
         <v>2015</v>
       </c>
-      <c r="BK158" s="31"/>
-      <c r="BL158" s="31"/>
-      <c r="BM158" s="31"/>
-      <c r="BN158" s="31">
+      <c r="BK158" s="26"/>
+      <c r="BL158" s="26"/>
+      <c r="BM158" s="26"/>
+      <c r="BN158" s="26">
         <v>2016</v>
       </c>
-      <c r="BO158" s="31"/>
-      <c r="BP158" s="31"/>
-      <c r="BQ158" s="31"/>
-      <c r="BR158" s="31">
+      <c r="BO158" s="26"/>
+      <c r="BP158" s="26"/>
+      <c r="BQ158" s="26"/>
+      <c r="BR158" s="26">
         <v>2017</v>
       </c>
-      <c r="BS158" s="31"/>
-      <c r="BT158" s="31"/>
-      <c r="BU158" s="31"/>
-      <c r="BV158" s="31">
+      <c r="BS158" s="26"/>
+      <c r="BT158" s="26"/>
+      <c r="BU158" s="26"/>
+      <c r="BV158" s="26">
         <v>2018</v>
       </c>
-      <c r="BW158" s="31"/>
-      <c r="BX158" s="31"/>
-      <c r="BY158" s="31"/>
-      <c r="BZ158" s="31">
+      <c r="BW158" s="26"/>
+      <c r="BX158" s="26"/>
+      <c r="BY158" s="26"/>
+      <c r="BZ158" s="26">
         <v>2019</v>
       </c>
-      <c r="CA158" s="31"/>
-      <c r="CB158" s="31"/>
-      <c r="CC158" s="31"/>
-      <c r="CD158" s="32">
+      <c r="CA158" s="26"/>
+      <c r="CB158" s="26"/>
+      <c r="CC158" s="26"/>
+      <c r="CD158" s="25">
         <v>2020</v>
       </c>
-      <c r="CE158" s="32"/>
-      <c r="CF158" s="32"/>
-      <c r="CG158" s="32"/>
-      <c r="CH158" s="32">
+      <c r="CE158" s="25"/>
+      <c r="CF158" s="25"/>
+      <c r="CG158" s="25"/>
+      <c r="CH158" s="25">
         <v>2021</v>
       </c>
-      <c r="CI158" s="32"/>
-      <c r="CJ158" s="32"/>
-      <c r="CK158" s="32"/>
-      <c r="CL158" s="31">
+      <c r="CI158" s="25"/>
+      <c r="CJ158" s="25"/>
+      <c r="CK158" s="25"/>
+      <c r="CL158" s="22">
         <v>2022</v>
       </c>
-      <c r="CM158" s="31"/>
-      <c r="CN158" s="31"/>
-      <c r="CO158" s="31"/>
-      <c r="CP158" s="31">
+      <c r="CM158" s="22"/>
+      <c r="CN158" s="22"/>
+      <c r="CO158" s="22"/>
+      <c r="CP158" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ158" s="31"/>
-      <c r="CR158" s="31"/>
+      <c r="CQ158" s="22"/>
+      <c r="CR158" s="22"/>
+      <c r="CS158" s="22"/>
     </row>
     <row r="159" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
@@ -25381,26 +25587,29 @@
       <c r="CK159" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CL159" s="27" t="s">
+      <c r="CL159" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CM159" s="27" t="s">
+      <c r="CM159" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="CN159" s="27" t="s">
+      <c r="CN159" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="CO159" s="27" t="s">
+      <c r="CO159" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CP159" s="27" t="s">
+      <c r="CP159" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CQ159" s="27" t="s">
+      <c r="CQ159" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="CR159" s="27" t="s">
+      <c r="CR159" s="13" t="s">
         <v>9</v>
+      </c>
+      <c r="CS159" s="13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -25674,28 +25883,30 @@
       <c r="CK161" s="20">
         <v>5.7772458590307521</v>
       </c>
-      <c r="CL161" s="30">
+      <c r="CL161" s="20">
         <v>6.4586903187929448</v>
       </c>
-      <c r="CM161" s="30">
+      <c r="CM161" s="20">
         <v>4.1385663284785403</v>
       </c>
-      <c r="CN161" s="30">
+      <c r="CN161" s="20">
         <v>6.4069843265431619</v>
       </c>
-      <c r="CO161" s="30">
+      <c r="CO161" s="20">
         <v>7.9818538688371241</v>
       </c>
-      <c r="CP161" s="30">
+      <c r="CP161" s="20">
         <v>8.9701922768346183</v>
       </c>
-      <c r="CQ161" s="30">
+      <c r="CQ161" s="20">
         <v>3.4518900528178751</v>
       </c>
-      <c r="CR161" s="30">
-        <v>6.8115502027439527</v>
-      </c>
-      <c r="CS161" s="8"/>
+      <c r="CR161" s="20">
+        <v>6.7485958844184362</v>
+      </c>
+      <c r="CS161" s="20">
+        <v>7.8141822933531353</v>
+      </c>
       <c r="CT161" s="8"/>
       <c r="CU161" s="8"/>
       <c r="CV161" s="8"/>
@@ -26019,28 +26230,30 @@
       <c r="CK162" s="20">
         <v>0.17467265771166715</v>
       </c>
-      <c r="CL162" s="30">
+      <c r="CL162" s="20">
         <v>8.3365702231303115E-2</v>
       </c>
-      <c r="CM162" s="30">
+      <c r="CM162" s="20">
         <v>5.9398819865764195E-2</v>
       </c>
-      <c r="CN162" s="30">
+      <c r="CN162" s="20">
         <v>0.14074462376520538</v>
       </c>
-      <c r="CO162" s="30">
+      <c r="CO162" s="20">
         <v>0.16535615081173041</v>
       </c>
-      <c r="CP162" s="30">
+      <c r="CP162" s="20">
         <v>5.3591170489628352E-2</v>
       </c>
-      <c r="CQ162" s="30">
+      <c r="CQ162" s="20">
         <v>5.5579195779999334E-2</v>
       </c>
-      <c r="CR162" s="30">
-        <v>0.12895075140310977</v>
-      </c>
-      <c r="CS162" s="8"/>
+      <c r="CR162" s="20">
+        <v>0.12817966233619157</v>
+      </c>
+      <c r="CS162" s="20">
+        <v>0.13480201746149995</v>
+      </c>
       <c r="CT162" s="8"/>
       <c r="CU162" s="8"/>
       <c r="CV162" s="8"/>
@@ -26364,28 +26577,30 @@
       <c r="CK163" s="20">
         <v>2.7674485056923839</v>
       </c>
-      <c r="CL163" s="30">
+      <c r="CL163" s="20">
         <v>2.4995504275256444</v>
       </c>
-      <c r="CM163" s="30">
+      <c r="CM163" s="20">
         <v>8.911620089896747</v>
       </c>
-      <c r="CN163" s="30">
+      <c r="CN163" s="20">
         <v>16.119529344341789</v>
       </c>
-      <c r="CO163" s="30">
+      <c r="CO163" s="20">
         <v>10.2011073825906</v>
       </c>
-      <c r="CP163" s="30">
+      <c r="CP163" s="20">
         <v>14.182637348627166</v>
       </c>
-      <c r="CQ163" s="30">
+      <c r="CQ163" s="20">
         <v>15.196254462418146</v>
       </c>
-      <c r="CR163" s="30">
-        <v>22.69882058054359</v>
-      </c>
-      <c r="CS163" s="8"/>
+      <c r="CR163" s="20">
+        <v>22.778125951354458</v>
+      </c>
+      <c r="CS163" s="20">
+        <v>14.582681863253589</v>
+      </c>
       <c r="CT163" s="8"/>
       <c r="CU163" s="8"/>
       <c r="CV163" s="8"/>
@@ -26709,28 +26924,30 @@
       <c r="CK164" s="20">
         <v>0.87264213018068471</v>
       </c>
-      <c r="CL164" s="30">
+      <c r="CL164" s="20">
         <v>0.55785951527030686</v>
       </c>
-      <c r="CM164" s="30">
+      <c r="CM164" s="20">
         <v>0.61229989214461655</v>
       </c>
-      <c r="CN164" s="30">
+      <c r="CN164" s="20">
         <v>0.71867427343568591</v>
       </c>
-      <c r="CO164" s="30">
+      <c r="CO164" s="20">
         <v>0.73957934408039272</v>
       </c>
-      <c r="CP164" s="30">
+      <c r="CP164" s="20">
         <v>0.53357666534338333</v>
       </c>
-      <c r="CQ164" s="30">
+      <c r="CQ164" s="20">
         <v>0.6211972612261899</v>
       </c>
-      <c r="CR164" s="30">
-        <v>0.72797524390114443</v>
-      </c>
-      <c r="CS164" s="8"/>
+      <c r="CR164" s="20">
+        <v>0.73051865123166437</v>
+      </c>
+      <c r="CS164" s="20">
+        <v>0.7560402217501011</v>
+      </c>
       <c r="CT164" s="8"/>
       <c r="CU164" s="8"/>
       <c r="CV164" s="8"/>
@@ -27054,28 +27271,30 @@
       <c r="CK165" s="20">
         <v>16.405668592360829</v>
       </c>
-      <c r="CL165" s="30">
+      <c r="CL165" s="20">
         <v>18.951192764948299</v>
       </c>
-      <c r="CM165" s="30">
+      <c r="CM165" s="20">
         <v>17.785181361601524</v>
       </c>
-      <c r="CN165" s="30">
+      <c r="CN165" s="20">
         <v>15.127593432922945</v>
       </c>
-      <c r="CO165" s="30">
+      <c r="CO165" s="20">
         <v>15.896808419825733</v>
       </c>
-      <c r="CP165" s="30">
+      <c r="CP165" s="20">
         <v>17.791344989241704</v>
       </c>
-      <c r="CQ165" s="30">
+      <c r="CQ165" s="20">
         <v>17.940895219784647</v>
       </c>
-      <c r="CR165" s="30">
-        <v>14.359027504133287</v>
-      </c>
-      <c r="CS165" s="8"/>
+      <c r="CR165" s="20">
+        <v>14.512606250950789</v>
+      </c>
+      <c r="CS165" s="20">
+        <v>16.141179512293711</v>
+      </c>
       <c r="CT165" s="8"/>
       <c r="CU165" s="8"/>
       <c r="CV165" s="8"/>
@@ -27399,28 +27618,30 @@
       <c r="CK166" s="20">
         <v>60.630953060817014</v>
       </c>
-      <c r="CL166" s="30">
+      <c r="CL166" s="20">
         <v>58.044220266448377</v>
       </c>
-      <c r="CM166" s="30">
+      <c r="CM166" s="20">
         <v>56.342870326104055</v>
       </c>
-      <c r="CN166" s="30">
+      <c r="CN166" s="20">
         <v>51.100317624662694</v>
       </c>
-      <c r="CO166" s="30">
+      <c r="CO166" s="20">
         <v>52.545643538551502</v>
       </c>
-      <c r="CP166" s="30">
+      <c r="CP166" s="20">
         <v>49.944576762366964</v>
       </c>
-      <c r="CQ166" s="30">
+      <c r="CQ166" s="20">
         <v>52.11741005755858</v>
       </c>
-      <c r="CR166" s="30">
-        <v>45.688326560593588</v>
-      </c>
-      <c r="CS166" s="8"/>
+      <c r="CR166" s="20">
+        <v>45.269218426027365</v>
+      </c>
+      <c r="CS166" s="20">
+        <v>48.874843800506682</v>
+      </c>
       <c r="CT166" s="8"/>
       <c r="CU166" s="8"/>
       <c r="CV166" s="8"/>
@@ -27744,28 +27965,30 @@
       <c r="CK167" s="20">
         <v>11.801617241714322</v>
       </c>
-      <c r="CL167" s="30">
+      <c r="CL167" s="20">
         <v>12.392135547770765</v>
       </c>
-      <c r="CM167" s="30">
+      <c r="CM167" s="20">
         <v>10.860189371072559</v>
       </c>
-      <c r="CN167" s="30">
+      <c r="CN167" s="20">
         <v>8.8673750202839567</v>
       </c>
-      <c r="CO167" s="30">
+      <c r="CO167" s="20">
         <v>10.659285741136884</v>
       </c>
-      <c r="CP167" s="30">
+      <c r="CP167" s="20">
         <v>7.5387080999438281</v>
       </c>
-      <c r="CQ167" s="30">
+      <c r="CQ167" s="20">
         <v>9.3209452903791821</v>
       </c>
-      <c r="CR167" s="30">
-        <v>8.3539791863255921</v>
-      </c>
-      <c r="CS167" s="8"/>
+      <c r="CR167" s="20">
+        <v>8.5843791996572758</v>
+      </c>
+      <c r="CS167" s="20">
+        <v>9.9019163177610601</v>
+      </c>
       <c r="CT167" s="8"/>
       <c r="CU167" s="8"/>
       <c r="CV167" s="8"/>
@@ -28089,28 +28312,30 @@
       <c r="CK168" s="20">
         <v>1.5697519524923442</v>
       </c>
-      <c r="CL168" s="30">
+      <c r="CL168" s="20">
         <v>1.012985457012362</v>
       </c>
-      <c r="CM168" s="30">
+      <c r="CM168" s="20">
         <v>1.2898738108361971</v>
       </c>
-      <c r="CN168" s="30">
+      <c r="CN168" s="20">
         <v>1.5187813540445654</v>
       </c>
-      <c r="CO168" s="30">
+      <c r="CO168" s="20">
         <v>1.8103655541660508</v>
       </c>
-      <c r="CP168" s="30">
+      <c r="CP168" s="20">
         <v>0.98537268715271287</v>
       </c>
-      <c r="CQ168" s="30">
+      <c r="CQ168" s="20">
         <v>1.2958284600353802</v>
       </c>
-      <c r="CR168" s="30">
-        <v>1.2313699703557595</v>
-      </c>
-      <c r="CS168" s="8"/>
+      <c r="CR168" s="20">
+        <v>1.2483759740238287</v>
+      </c>
+      <c r="CS168" s="20">
+        <v>1.7943539736202361</v>
+      </c>
       <c r="CT168" s="8"/>
       <c r="CU168" s="8"/>
       <c r="CV168" s="8"/>
@@ -28255,13 +28480,13 @@
       <c r="CI169" s="8"/>
       <c r="CJ169" s="8"/>
       <c r="CK169" s="8"/>
-      <c r="CL169" s="24"/>
-      <c r="CM169" s="24"/>
-      <c r="CN169" s="24"/>
-      <c r="CO169" s="24"/>
-      <c r="CP169" s="24"/>
-      <c r="CQ169" s="24"/>
-      <c r="CR169" s="24"/>
+      <c r="CL169" s="8"/>
+      <c r="CM169" s="8"/>
+      <c r="CN169" s="8"/>
+      <c r="CO169" s="8"/>
+      <c r="CP169" s="8"/>
+      <c r="CQ169" s="8"/>
+      <c r="CR169" s="8"/>
       <c r="CS169" s="8"/>
       <c r="CT169" s="8"/>
       <c r="CU169" s="8"/>
@@ -28586,28 +28811,30 @@
       <c r="CK170" s="14">
         <v>100</v>
       </c>
-      <c r="CL170" s="29">
+      <c r="CL170" s="14">
         <v>100</v>
       </c>
-      <c r="CM170" s="29">
+      <c r="CM170" s="14">
         <v>100</v>
       </c>
-      <c r="CN170" s="29">
+      <c r="CN170" s="14">
         <v>100</v>
       </c>
-      <c r="CO170" s="29">
+      <c r="CO170" s="14">
         <v>100</v>
       </c>
-      <c r="CP170" s="29">
+      <c r="CP170" s="14">
         <v>100</v>
       </c>
-      <c r="CQ170" s="29">
+      <c r="CQ170" s="14">
         <v>100</v>
       </c>
-      <c r="CR170" s="29">
+      <c r="CR170" s="14">
         <v>100</v>
       </c>
-      <c r="CS170" s="8"/>
+      <c r="CS170" s="14">
+        <v>100</v>
+      </c>
       <c r="CT170" s="8"/>
       <c r="CU170" s="8"/>
       <c r="CV170" s="8"/>
@@ -28753,13 +28980,14 @@
       <c r="CI171" s="11"/>
       <c r="CJ171" s="11"/>
       <c r="CK171" s="11"/>
-      <c r="CL171" s="26"/>
-      <c r="CM171" s="26"/>
-      <c r="CN171" s="26"/>
-      <c r="CO171" s="26"/>
-      <c r="CP171" s="26"/>
-      <c r="CQ171" s="26"/>
-      <c r="CR171" s="26"/>
+      <c r="CL171" s="11"/>
+      <c r="CM171" s="11"/>
+      <c r="CN171" s="11"/>
+      <c r="CO171" s="11"/>
+      <c r="CP171" s="11"/>
+      <c r="CQ171" s="11"/>
+      <c r="CR171" s="11"/>
+      <c r="CS171" s="11"/>
     </row>
     <row r="172" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
@@ -28856,14 +29084,14 @@
       <c r="CI173" s="1"/>
       <c r="CJ173" s="1"/>
       <c r="CK173" s="1"/>
-      <c r="CL173" s="22"/>
-      <c r="CM173" s="22"/>
-      <c r="CN173" s="22"/>
-      <c r="CO173" s="22"/>
-      <c r="CP173" s="22"/>
-      <c r="CQ173" s="22"/>
-      <c r="CR173" s="22"/>
-      <c r="CS173" s="16"/>
+      <c r="CL173" s="1"/>
+      <c r="CM173" s="1"/>
+      <c r="CN173" s="1"/>
+      <c r="CO173" s="1"/>
+      <c r="CP173" s="1"/>
+      <c r="CQ173" s="1"/>
+      <c r="CR173" s="1"/>
+      <c r="CS173" s="1"/>
       <c r="CT173" s="16"/>
       <c r="CU173" s="16"/>
       <c r="CV173" s="16"/>
@@ -29009,14 +29237,14 @@
       <c r="CI174" s="1"/>
       <c r="CJ174" s="1"/>
       <c r="CK174" s="1"/>
-      <c r="CL174" s="22"/>
-      <c r="CM174" s="22"/>
-      <c r="CN174" s="22"/>
-      <c r="CO174" s="22"/>
-      <c r="CP174" s="22"/>
-      <c r="CQ174" s="22"/>
-      <c r="CR174" s="22"/>
-      <c r="CS174" s="16"/>
+      <c r="CL174" s="1"/>
+      <c r="CM174" s="1"/>
+      <c r="CN174" s="1"/>
+      <c r="CO174" s="1"/>
+      <c r="CP174" s="1"/>
+      <c r="CQ174" s="1"/>
+      <c r="CR174" s="1"/>
+      <c r="CS174" s="1"/>
       <c r="CT174" s="16"/>
       <c r="CU174" s="16"/>
       <c r="CV174" s="16"/>
@@ -29073,31 +29301,10 @@
       <c r="EU174" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="166">
-    <mergeCell ref="CP9:CR9"/>
-    <mergeCell ref="CP34:CR34"/>
-    <mergeCell ref="CP108:CR108"/>
-    <mergeCell ref="CP133:CR133"/>
-    <mergeCell ref="CP158:CR158"/>
+  <mergeCells count="154">
     <mergeCell ref="CH133:CK133"/>
     <mergeCell ref="CH158:CK158"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CL34:CO34"/>
-    <mergeCell ref="CL108:CO108"/>
-    <mergeCell ref="CL133:CO133"/>
-    <mergeCell ref="CL158:CO158"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="CL59:CN59"/>
-    <mergeCell ref="CL84:CN84"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH34:CK34"/>
-    <mergeCell ref="CD59:CG59"/>
-    <mergeCell ref="CD84:CG84"/>
     <mergeCell ref="CH108:CK108"/>
-    <mergeCell ref="BZ108:CC108"/>
     <mergeCell ref="BR108:BU108"/>
     <mergeCell ref="BR34:BU34"/>
     <mergeCell ref="BV34:BY34"/>
@@ -29108,6 +29315,14 @@
     <mergeCell ref="BN9:BQ9"/>
     <mergeCell ref="BZ59:CC59"/>
     <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH34:CK34"/>
+    <mergeCell ref="CD59:CG59"/>
+    <mergeCell ref="CD84:CG84"/>
     <mergeCell ref="AT133:AW133"/>
     <mergeCell ref="AX133:BA133"/>
     <mergeCell ref="B84:E84"/>
@@ -29126,6 +29341,12 @@
     <mergeCell ref="N84:Q84"/>
     <mergeCell ref="R84:U84"/>
     <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="V108:Y108"/>
+    <mergeCell ref="Z108:AC108"/>
+    <mergeCell ref="AD108:AG108"/>
+    <mergeCell ref="AH108:AK108"/>
+    <mergeCell ref="AL108:AO108"/>
+    <mergeCell ref="AP108:AS108"/>
     <mergeCell ref="BF9:BI9"/>
     <mergeCell ref="BJ9:BM9"/>
     <mergeCell ref="AX84:BA84"/>
@@ -29174,12 +29395,6 @@
     <mergeCell ref="AT9:AW9"/>
     <mergeCell ref="AX9:BA9"/>
     <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="V108:Y108"/>
-    <mergeCell ref="Z108:AC108"/>
-    <mergeCell ref="AD108:AG108"/>
-    <mergeCell ref="AH108:AK108"/>
-    <mergeCell ref="AL108:AO108"/>
-    <mergeCell ref="AP108:AS108"/>
     <mergeCell ref="AT108:AW108"/>
     <mergeCell ref="AX108:BA108"/>
     <mergeCell ref="B34:E34"/>
@@ -29198,6 +29413,7 @@
     <mergeCell ref="F108:I108"/>
     <mergeCell ref="J108:M108"/>
     <mergeCell ref="N108:Q108"/>
+    <mergeCell ref="R108:U108"/>
     <mergeCell ref="V158:Y158"/>
     <mergeCell ref="Z158:AC158"/>
     <mergeCell ref="AD158:AG158"/>
@@ -29216,7 +29432,6 @@
     <mergeCell ref="J158:M158"/>
     <mergeCell ref="N158:Q158"/>
     <mergeCell ref="R158:U158"/>
-    <mergeCell ref="R108:U108"/>
     <mergeCell ref="CD158:CG158"/>
     <mergeCell ref="CD133:CG133"/>
     <mergeCell ref="CD108:CG108"/>
@@ -29240,14 +29455,15 @@
     <mergeCell ref="BJ59:BM59"/>
     <mergeCell ref="BB59:BE59"/>
     <mergeCell ref="BN59:BQ59"/>
+    <mergeCell ref="BZ108:CC108"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="50" max="95" man="1"/>
-    <brk id="100" max="95" man="1"/>
-    <brk id="124" max="95" man="1"/>
+    <brk id="50" max="96" man="1"/>
+    <brk id="100" max="96" man="1"/>
+    <brk id="124" max="96" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-05EOS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-05EOS_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7832BC-0B64-4CA8-A9A6-14CC23C0D093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56DB849-85C0-4F6D-AB81-BA9890FF7A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">EOS!$A$37:$A$48</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EOS!$A$1:$CS$174</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EOS!$A$1:$CT$174</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="58">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -219,13 +219,16 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2023</t>
+    <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2023</t>
+    <t>Q1 2000 to Q1 2024</t>
   </si>
   <si>
-    <t>As of January 2024</t>
+    <t>Q1 2001 to Q1 2024</t>
+  </si>
+  <si>
+    <t>As of May 2024</t>
   </si>
 </sst>
 </file>
@@ -316,7 +319,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -349,21 +352,37 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -704,19 +723,20 @@
   <dimension ref="A1:EU174"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="95" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BX3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="CA3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="CX12" sqref="CX12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.77734375" style="1" customWidth="1"/>
     <col min="2" max="73" width="8.77734375" style="1" customWidth="1"/>
-    <col min="74" max="97" width="10" style="1" customWidth="1"/>
-    <col min="98" max="16384" width="7.77734375" style="1"/>
+    <col min="74" max="93" width="10" style="1" customWidth="1"/>
+    <col min="94" max="98" width="9.6640625" style="23" customWidth="1"/>
+    <col min="99" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:151" x14ac:dyDescent="0.2">
@@ -731,7 +751,7 @@
     </row>
     <row r="3" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:151" x14ac:dyDescent="0.2">
@@ -741,7 +761,7 @@
     </row>
     <row r="6" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:151" x14ac:dyDescent="0.2">
@@ -751,150 +771,153 @@
     </row>
     <row r="9" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="25">
+      <c r="B9" s="36">
         <v>2000</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25">
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36">
         <v>2001</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25">
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36">
         <v>2002</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25">
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36">
         <v>2003</v>
       </c>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25">
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36">
         <v>2004</v>
       </c>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25">
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36">
         <v>2005</v>
       </c>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25">
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36">
         <v>2006</v>
       </c>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25">
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36">
         <v>2007</v>
       </c>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="25">
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="36">
         <v>2008</v>
       </c>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="25"/>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="25">
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="36"/>
+      <c r="AK9" s="36"/>
+      <c r="AL9" s="36">
         <v>2009</v>
       </c>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="25"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="25">
+      <c r="AM9" s="36"/>
+      <c r="AN9" s="36"/>
+      <c r="AO9" s="36"/>
+      <c r="AP9" s="36">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="25"/>
-      <c r="AR9" s="25"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="25">
+      <c r="AQ9" s="36"/>
+      <c r="AR9" s="36"/>
+      <c r="AS9" s="36"/>
+      <c r="AT9" s="36">
         <v>2011</v>
       </c>
-      <c r="AU9" s="25"/>
-      <c r="AV9" s="25"/>
-      <c r="AW9" s="25"/>
-      <c r="AX9" s="25">
+      <c r="AU9" s="36"/>
+      <c r="AV9" s="36"/>
+      <c r="AW9" s="36"/>
+      <c r="AX9" s="36">
         <v>2012</v>
       </c>
-      <c r="AY9" s="25"/>
-      <c r="AZ9" s="25"/>
-      <c r="BA9" s="25"/>
-      <c r="BB9" s="25">
+      <c r="AY9" s="36"/>
+      <c r="AZ9" s="36"/>
+      <c r="BA9" s="36"/>
+      <c r="BB9" s="36">
         <v>2013</v>
       </c>
-      <c r="BC9" s="25"/>
-      <c r="BD9" s="25"/>
-      <c r="BE9" s="25"/>
-      <c r="BF9" s="25">
+      <c r="BC9" s="36"/>
+      <c r="BD9" s="36"/>
+      <c r="BE9" s="36"/>
+      <c r="BF9" s="36">
         <v>2014</v>
       </c>
-      <c r="BG9" s="25"/>
-      <c r="BH9" s="25"/>
-      <c r="BI9" s="25"/>
-      <c r="BJ9" s="25">
+      <c r="BG9" s="36"/>
+      <c r="BH9" s="36"/>
+      <c r="BI9" s="36"/>
+      <c r="BJ9" s="36">
         <v>2015</v>
       </c>
-      <c r="BK9" s="25"/>
-      <c r="BL9" s="25"/>
-      <c r="BM9" s="25"/>
-      <c r="BN9" s="25">
+      <c r="BK9" s="36"/>
+      <c r="BL9" s="36"/>
+      <c r="BM9" s="36"/>
+      <c r="BN9" s="36">
         <v>2016</v>
       </c>
-      <c r="BO9" s="25"/>
-      <c r="BP9" s="25"/>
-      <c r="BQ9" s="25"/>
-      <c r="BR9" s="25">
+      <c r="BO9" s="36"/>
+      <c r="BP9" s="36"/>
+      <c r="BQ9" s="36"/>
+      <c r="BR9" s="36">
         <v>2017</v>
       </c>
-      <c r="BS9" s="25"/>
-      <c r="BT9" s="25"/>
-      <c r="BU9" s="25"/>
-      <c r="BV9" s="25">
+      <c r="BS9" s="36"/>
+      <c r="BT9" s="36"/>
+      <c r="BU9" s="36"/>
+      <c r="BV9" s="36">
         <v>2018</v>
       </c>
-      <c r="BW9" s="25"/>
-      <c r="BX9" s="25"/>
-      <c r="BY9" s="25"/>
-      <c r="BZ9" s="25">
+      <c r="BW9" s="36"/>
+      <c r="BX9" s="36"/>
+      <c r="BY9" s="36"/>
+      <c r="BZ9" s="36">
         <v>2019</v>
       </c>
-      <c r="CA9" s="25"/>
-      <c r="CB9" s="25"/>
-      <c r="CC9" s="25"/>
-      <c r="CD9" s="25">
+      <c r="CA9" s="36"/>
+      <c r="CB9" s="36"/>
+      <c r="CC9" s="36"/>
+      <c r="CD9" s="36">
         <v>2020</v>
       </c>
-      <c r="CE9" s="25"/>
-      <c r="CF9" s="25"/>
-      <c r="CG9" s="25"/>
-      <c r="CH9" s="25">
+      <c r="CE9" s="36"/>
+      <c r="CF9" s="36"/>
+      <c r="CG9" s="36"/>
+      <c r="CH9" s="21">
         <v>2021</v>
       </c>
-      <c r="CI9" s="25"/>
-      <c r="CJ9" s="25"/>
-      <c r="CK9" s="25"/>
-      <c r="CL9" s="22">
+      <c r="CI9" s="21"/>
+      <c r="CJ9" s="21"/>
+      <c r="CK9" s="21"/>
+      <c r="CL9" s="21">
         <v>2022</v>
       </c>
-      <c r="CM9" s="22"/>
-      <c r="CN9" s="22"/>
-      <c r="CO9" s="22"/>
-      <c r="CP9" s="22">
+      <c r="CM9" s="21"/>
+      <c r="CN9" s="21"/>
+      <c r="CO9" s="21"/>
+      <c r="CP9" s="24">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="22"/>
-      <c r="CR9" s="22"/>
-      <c r="CS9" s="22"/>
+      <c r="CQ9" s="24"/>
+      <c r="CR9" s="24"/>
+      <c r="CS9" s="24"/>
+      <c r="CT9" s="24">
+        <v>2024</v>
+      </c>
     </row>
     <row r="10" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
@@ -1174,17 +1197,20 @@
       <c r="CO10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CP10" s="5" t="s">
+      <c r="CP10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="5" t="s">
+      <c r="CQ10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="5" t="s">
+      <c r="CR10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="CS10" s="5" t="s">
+      <c r="CS10" s="13" t="s">
         <v>10</v>
+      </c>
+      <c r="CT10" s="13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1459,30 +1485,32 @@
         <v>30220.178862962039</v>
       </c>
       <c r="CL12" s="18">
-        <v>50141.526896531599</v>
+        <v>50477.262190952722</v>
       </c>
       <c r="CM12" s="18">
-        <v>33174.177713591889</v>
+        <v>33032.716368919682</v>
       </c>
       <c r="CN12" s="18">
-        <v>45433.318337045661</v>
+        <v>43660.12341782482</v>
       </c>
       <c r="CO12" s="18">
-        <v>57101.427341662231</v>
-      </c>
-      <c r="CP12" s="18">
-        <v>90759.354467504862</v>
-      </c>
-      <c r="CQ12" s="18">
-        <v>34722.619909424669</v>
-      </c>
-      <c r="CR12" s="18">
-        <v>54027.934607252195</v>
-      </c>
-      <c r="CS12" s="18">
-        <v>64509.942308165642</v>
-      </c>
-      <c r="CT12" s="8"/>
+        <v>54545.476736266144</v>
+      </c>
+      <c r="CP12" s="25">
+        <v>91388.504694742951</v>
+      </c>
+      <c r="CQ12" s="25">
+        <v>34472.852940256031</v>
+      </c>
+      <c r="CR12" s="25">
+        <v>51853.834593934924</v>
+      </c>
+      <c r="CS12" s="25">
+        <v>61415.796931664518</v>
+      </c>
+      <c r="CT12" s="25">
+        <v>100665.95681405888</v>
+      </c>
       <c r="CU12" s="8"/>
       <c r="CV12" s="8"/>
       <c r="CW12" s="8"/>
@@ -1806,30 +1834,32 @@
         <v>827.28506832280971</v>
       </c>
       <c r="CL13" s="18">
-        <v>574.23768992813712</v>
+        <v>577.49882343806291</v>
       </c>
       <c r="CM13" s="18">
-        <v>434.56660096089865</v>
+        <v>436.16385659667912</v>
       </c>
       <c r="CN13" s="18">
-        <v>901.3910259754723</v>
+        <v>892.50095851204617</v>
       </c>
       <c r="CO13" s="18">
-        <v>1017.4234524259053</v>
-      </c>
-      <c r="CP13" s="18">
-        <v>474.27613087101957</v>
-      </c>
-      <c r="CQ13" s="18">
-        <v>470.71334369924239</v>
-      </c>
-      <c r="CR13" s="18">
-        <v>945.33914883780653</v>
-      </c>
-      <c r="CS13" s="18">
-        <v>958.91017310616871</v>
-      </c>
-      <c r="CT13" s="8"/>
+        <v>1000.4370497140442</v>
+      </c>
+      <c r="CP13" s="25">
+        <v>480.04158316722192</v>
+      </c>
+      <c r="CQ13" s="25">
+        <v>464.05012427240712</v>
+      </c>
+      <c r="CR13" s="25">
+        <v>930.61252590324239</v>
+      </c>
+      <c r="CS13" s="25">
+        <v>942.90067939335495</v>
+      </c>
+      <c r="CT13" s="25">
+        <v>554.11170074826589</v>
+      </c>
       <c r="CU13" s="8"/>
       <c r="CV13" s="8"/>
       <c r="CW13" s="8"/>
@@ -2164,19 +2194,21 @@
       <c r="CO14" s="18">
         <v>64203.136054041541</v>
       </c>
-      <c r="CP14" s="18">
+      <c r="CP14" s="25">
         <v>128049.61270907105</v>
       </c>
-      <c r="CQ14" s="18">
+      <c r="CQ14" s="25">
         <v>132330.33872905793</v>
       </c>
-      <c r="CR14" s="18">
+      <c r="CR14" s="25">
         <v>174583.24150521151</v>
       </c>
-      <c r="CS14" s="18">
+      <c r="CS14" s="25">
         <v>107496.30220590543</v>
       </c>
-      <c r="CT14" s="8"/>
+      <c r="CT14" s="25">
+        <v>151426.10425368711</v>
+      </c>
       <c r="CU14" s="8"/>
       <c r="CV14" s="8"/>
       <c r="CW14" s="8"/>
@@ -2511,19 +2543,21 @@
       <c r="CO15" s="18">
         <v>4595.0686874499042</v>
       </c>
-      <c r="CP15" s="18">
+      <c r="CP15" s="25">
         <v>4570.1940500558103</v>
       </c>
-      <c r="CQ15" s="18">
+      <c r="CQ15" s="25">
         <v>5139.0553496337761</v>
       </c>
-      <c r="CR15" s="18">
+      <c r="CR15" s="25">
         <v>5303.5480278897912</v>
       </c>
-      <c r="CS15" s="18">
+      <c r="CS15" s="25">
         <v>5496.1059442223577</v>
       </c>
-      <c r="CT15" s="8"/>
+      <c r="CT15" s="25">
+        <v>5221.04502611514</v>
+      </c>
       <c r="CU15" s="8"/>
       <c r="CV15" s="8"/>
       <c r="CW15" s="8"/>
@@ -2858,19 +2892,21 @@
       <c r="CO16" s="18">
         <v>88349.252531254111</v>
       </c>
-      <c r="CP16" s="18">
-        <v>135502.32232032763</v>
-      </c>
-      <c r="CQ16" s="18">
+      <c r="CP16" s="25">
+        <v>136255.87042386705</v>
+      </c>
+      <c r="CQ16" s="25">
         <v>132006.04495852461</v>
       </c>
-      <c r="CR16" s="18">
-        <v>91459.468119856145</v>
-      </c>
-      <c r="CS16" s="18">
-        <v>101041.95380359537</v>
-      </c>
-      <c r="CT16" s="8"/>
+      <c r="CR16" s="25">
+        <v>90834.805619856139</v>
+      </c>
+      <c r="CS16" s="25">
+        <v>100998.99676650774</v>
+      </c>
+      <c r="CT16" s="25">
+        <v>146104.69416379082</v>
+      </c>
       <c r="CU16" s="8"/>
       <c r="CV16" s="8"/>
       <c r="CW16" s="8"/>
@@ -3200,24 +3236,26 @@
         <v>417649.08107765322</v>
       </c>
       <c r="CN17" s="18">
-        <v>328602.19931776245</v>
+        <v>328596.49198779499</v>
       </c>
       <c r="CO17" s="18">
         <v>330617.25478872925</v>
       </c>
-      <c r="CP17" s="18">
-        <v>438458.15859506308</v>
-      </c>
-      <c r="CQ17" s="18">
-        <v>442320.61266757827</v>
-      </c>
-      <c r="CR17" s="18">
-        <v>335490.92535057128</v>
-      </c>
-      <c r="CS17" s="18">
-        <v>355528.42317422281</v>
-      </c>
-      <c r="CT17" s="8"/>
+      <c r="CP17" s="25">
+        <v>438940.2579160161</v>
+      </c>
+      <c r="CQ17" s="25">
+        <v>442320.61266757833</v>
+      </c>
+      <c r="CR17" s="25">
+        <v>334923.1459927574</v>
+      </c>
+      <c r="CS17" s="25">
+        <v>354637.50058273773</v>
+      </c>
+      <c r="CT17" s="25">
+        <v>490017.52442568971</v>
+      </c>
       <c r="CU17" s="8"/>
       <c r="CV17" s="8"/>
       <c r="CW17" s="8"/>
@@ -3541,30 +3579,32 @@
         <v>55767.085148338512</v>
       </c>
       <c r="CL18" s="18">
-        <v>86134.983310187468</v>
+        <v>86543.705593525374</v>
       </c>
       <c r="CM18" s="18">
-        <v>79391.782907497327</v>
+        <v>79625.510768074906</v>
       </c>
       <c r="CN18" s="18">
-        <v>58500.276885178675</v>
+        <v>62073.100453054387</v>
       </c>
       <c r="CO18" s="18">
-        <v>67519.422955250629</v>
-      </c>
-      <c r="CP18" s="18">
-        <v>67323.097737259697</v>
-      </c>
-      <c r="CQ18" s="18">
-        <v>78879.443606324872</v>
-      </c>
-      <c r="CR18" s="18">
-        <v>65216.703649807001</v>
-      </c>
-      <c r="CS18" s="18">
-        <v>72513.69130028045</v>
-      </c>
-      <c r="CT18" s="8"/>
+        <v>66718.593327664843</v>
+      </c>
+      <c r="CP18" s="25">
+        <v>68561.433407578908</v>
+      </c>
+      <c r="CQ18" s="25">
+        <v>79162.752002960682</v>
+      </c>
+      <c r="CR18" s="25">
+        <v>65974.839012592245</v>
+      </c>
+      <c r="CS18" s="25">
+        <v>72001.17877859922</v>
+      </c>
+      <c r="CT18" s="25">
+        <v>71295.046251172957</v>
+      </c>
       <c r="CU18" s="8"/>
       <c r="CV18" s="8"/>
       <c r="CW18" s="8"/>
@@ -3888,30 +3928,32 @@
         <v>7425.0266070361704</v>
       </c>
       <c r="CL19" s="18">
-        <v>6985.328235938412</v>
+        <v>6985.1501328726408</v>
       </c>
       <c r="CM19" s="18">
-        <v>9386.617492368041</v>
+        <v>9386.674155788116</v>
       </c>
       <c r="CN19" s="18">
-        <v>9326.1589327401853</v>
+        <v>9284.947884364643</v>
       </c>
       <c r="CO19" s="18">
-        <v>11124.599699881461</v>
-      </c>
-      <c r="CP19" s="18">
-        <v>8730.0729440266932</v>
-      </c>
-      <c r="CQ19" s="18">
-        <v>10916.291705433185</v>
-      </c>
-      <c r="CR19" s="18">
-        <v>8923.0113683427662</v>
-      </c>
-      <c r="CS19" s="18">
-        <v>12747.53989161925</v>
-      </c>
-      <c r="CT19" s="8"/>
+        <v>11024.543795387575</v>
+      </c>
+      <c r="CP19" s="25">
+        <v>8484.317640903666</v>
+      </c>
+      <c r="CQ19" s="25">
+        <v>11183.54873158895</v>
+      </c>
+      <c r="CR19" s="25">
+        <v>9272.9031053682593</v>
+      </c>
+      <c r="CS19" s="25">
+        <v>12603.042609203625</v>
+      </c>
+      <c r="CT19" s="25">
+        <v>8753.4010204739516</v>
+      </c>
       <c r="CU19" s="8"/>
       <c r="CV19" s="8"/>
       <c r="CW19" s="8"/>
@@ -4059,11 +4101,11 @@
       <c r="CM20" s="8"/>
       <c r="CN20" s="8"/>
       <c r="CO20" s="8"/>
-      <c r="CP20" s="8"/>
-      <c r="CQ20" s="8"/>
-      <c r="CR20" s="8"/>
-      <c r="CS20" s="8"/>
-      <c r="CT20" s="8"/>
+      <c r="CP20" s="26"/>
+      <c r="CQ20" s="26"/>
+      <c r="CR20" s="26"/>
+      <c r="CS20" s="26"/>
+      <c r="CT20" s="26"/>
       <c r="CU20" s="8"/>
       <c r="CV20" s="8"/>
       <c r="CW20" s="8"/>
@@ -4387,30 +4429,32 @@
         <v>475776.94060322625</v>
       </c>
       <c r="CL21" s="19">
-        <v>691593.82827870979</v>
+        <v>692341.36888691294</v>
       </c>
       <c r="CM21" s="19">
-        <v>728687.03076473204</v>
+        <v>728780.95119969314</v>
       </c>
       <c r="CN21" s="19">
-        <v>637836.8298260622</v>
+        <v>639580.6500289106</v>
       </c>
       <c r="CO21" s="19">
-        <v>624527.585510695</v>
-      </c>
-      <c r="CP21" s="19">
-        <v>873867.08895417978</v>
-      </c>
-      <c r="CQ21" s="19">
-        <v>836785.12026967644</v>
-      </c>
-      <c r="CR21" s="19">
-        <v>735950.17177776853</v>
-      </c>
-      <c r="CS21" s="19">
-        <v>720292.86880111741</v>
-      </c>
-      <c r="CT21" s="8"/>
+        <v>621053.76297050749</v>
+      </c>
+      <c r="CP21" s="27">
+        <v>876730.23242540262</v>
+      </c>
+      <c r="CQ21" s="27">
+        <v>837079.25550387276</v>
+      </c>
+      <c r="CR21" s="27">
+        <v>733676.93038351345</v>
+      </c>
+      <c r="CS21" s="27">
+        <v>715591.82449823397</v>
+      </c>
+      <c r="CT21" s="27">
+        <v>974037.8836557368</v>
+      </c>
       <c r="CU21" s="8"/>
       <c r="CV21" s="8"/>
       <c r="CW21" s="8"/>
@@ -4559,10 +4603,11 @@
       <c r="CM22" s="11"/>
       <c r="CN22" s="11"/>
       <c r="CO22" s="11"/>
-      <c r="CP22" s="11"/>
-      <c r="CQ22" s="11"/>
-      <c r="CR22" s="11"/>
-      <c r="CS22" s="11"/>
+      <c r="CP22" s="28"/>
+      <c r="CQ22" s="28"/>
+      <c r="CR22" s="28"/>
+      <c r="CS22" s="28"/>
+      <c r="CT22" s="28"/>
     </row>
     <row r="23" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
@@ -4662,11 +4707,11 @@
       <c r="CM24" s="8"/>
       <c r="CN24" s="8"/>
       <c r="CO24" s="8"/>
-      <c r="CP24" s="8"/>
-      <c r="CQ24" s="8"/>
-      <c r="CR24" s="8"/>
-      <c r="CS24" s="8"/>
-      <c r="CT24" s="8"/>
+      <c r="CP24" s="26"/>
+      <c r="CQ24" s="26"/>
+      <c r="CR24" s="26"/>
+      <c r="CS24" s="26"/>
+      <c r="CT24" s="26"/>
       <c r="CU24" s="8"/>
       <c r="CV24" s="8"/>
       <c r="CW24" s="8"/>
@@ -4814,11 +4859,11 @@
       <c r="CM25" s="8"/>
       <c r="CN25" s="8"/>
       <c r="CO25" s="8"/>
-      <c r="CP25" s="8"/>
-      <c r="CQ25" s="8"/>
-      <c r="CR25" s="8"/>
-      <c r="CS25" s="8"/>
-      <c r="CT25" s="8"/>
+      <c r="CP25" s="26"/>
+      <c r="CQ25" s="26"/>
+      <c r="CR25" s="26"/>
+      <c r="CS25" s="26"/>
+      <c r="CT25" s="26"/>
       <c r="CU25" s="8"/>
       <c r="CV25" s="8"/>
       <c r="CW25" s="8"/>
@@ -4885,7 +4930,7 @@
     </row>
     <row r="28" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:151" x14ac:dyDescent="0.2">
@@ -4895,7 +4940,7 @@
     </row>
     <row r="31" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:151" x14ac:dyDescent="0.2">
@@ -4905,150 +4950,153 @@
     </row>
     <row r="34" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="26">
+      <c r="B34" s="35">
         <v>2000</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26">
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35">
         <v>2001</v>
       </c>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26">
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35">
         <v>2002</v>
       </c>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26">
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35">
         <v>2003</v>
       </c>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26">
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35">
         <v>2004</v>
       </c>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26">
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35">
         <v>2005</v>
       </c>
-      <c r="W34" s="26"/>
-      <c r="X34" s="26"/>
-      <c r="Y34" s="26"/>
-      <c r="Z34" s="26">
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35">
         <v>2006</v>
       </c>
-      <c r="AA34" s="26"/>
-      <c r="AB34" s="26"/>
-      <c r="AC34" s="26"/>
-      <c r="AD34" s="26">
+      <c r="AA34" s="35"/>
+      <c r="AB34" s="35"/>
+      <c r="AC34" s="35"/>
+      <c r="AD34" s="35">
         <v>2007</v>
       </c>
-      <c r="AE34" s="26"/>
-      <c r="AF34" s="26"/>
-      <c r="AG34" s="26"/>
-      <c r="AH34" s="26">
+      <c r="AE34" s="35"/>
+      <c r="AF34" s="35"/>
+      <c r="AG34" s="35"/>
+      <c r="AH34" s="35">
         <v>2008</v>
       </c>
-      <c r="AI34" s="26"/>
-      <c r="AJ34" s="26"/>
-      <c r="AK34" s="26"/>
-      <c r="AL34" s="26">
+      <c r="AI34" s="35"/>
+      <c r="AJ34" s="35"/>
+      <c r="AK34" s="35"/>
+      <c r="AL34" s="35">
         <v>2009</v>
       </c>
-      <c r="AM34" s="26"/>
-      <c r="AN34" s="26"/>
-      <c r="AO34" s="26"/>
-      <c r="AP34" s="26">
+      <c r="AM34" s="35"/>
+      <c r="AN34" s="35"/>
+      <c r="AO34" s="35"/>
+      <c r="AP34" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ34" s="26"/>
-      <c r="AR34" s="26"/>
-      <c r="AS34" s="26"/>
-      <c r="AT34" s="26">
+      <c r="AQ34" s="35"/>
+      <c r="AR34" s="35"/>
+      <c r="AS34" s="35"/>
+      <c r="AT34" s="35">
         <v>2011</v>
       </c>
-      <c r="AU34" s="26"/>
-      <c r="AV34" s="26"/>
-      <c r="AW34" s="26"/>
-      <c r="AX34" s="26">
+      <c r="AU34" s="35"/>
+      <c r="AV34" s="35"/>
+      <c r="AW34" s="35"/>
+      <c r="AX34" s="35">
         <v>2012</v>
       </c>
-      <c r="AY34" s="26"/>
-      <c r="AZ34" s="26"/>
-      <c r="BA34" s="26"/>
-      <c r="BB34" s="26">
+      <c r="AY34" s="35"/>
+      <c r="AZ34" s="35"/>
+      <c r="BA34" s="35"/>
+      <c r="BB34" s="35">
         <v>2013</v>
       </c>
-      <c r="BC34" s="26"/>
-      <c r="BD34" s="26"/>
-      <c r="BE34" s="26"/>
-      <c r="BF34" s="26">
+      <c r="BC34" s="35"/>
+      <c r="BD34" s="35"/>
+      <c r="BE34" s="35"/>
+      <c r="BF34" s="35">
         <v>2014</v>
       </c>
-      <c r="BG34" s="26"/>
-      <c r="BH34" s="26"/>
-      <c r="BI34" s="26"/>
-      <c r="BJ34" s="26">
+      <c r="BG34" s="35"/>
+      <c r="BH34" s="35"/>
+      <c r="BI34" s="35"/>
+      <c r="BJ34" s="35">
         <v>2015</v>
       </c>
-      <c r="BK34" s="26"/>
-      <c r="BL34" s="26"/>
-      <c r="BM34" s="26"/>
-      <c r="BN34" s="26">
+      <c r="BK34" s="35"/>
+      <c r="BL34" s="35"/>
+      <c r="BM34" s="35"/>
+      <c r="BN34" s="35">
         <v>2016</v>
       </c>
-      <c r="BO34" s="26"/>
-      <c r="BP34" s="26"/>
-      <c r="BQ34" s="26"/>
-      <c r="BR34" s="26">
+      <c r="BO34" s="35"/>
+      <c r="BP34" s="35"/>
+      <c r="BQ34" s="35"/>
+      <c r="BR34" s="35">
         <v>2017</v>
       </c>
-      <c r="BS34" s="26"/>
-      <c r="BT34" s="26"/>
-      <c r="BU34" s="26"/>
-      <c r="BV34" s="26">
+      <c r="BS34" s="35"/>
+      <c r="BT34" s="35"/>
+      <c r="BU34" s="35"/>
+      <c r="BV34" s="35">
         <v>2018</v>
       </c>
-      <c r="BW34" s="26"/>
-      <c r="BX34" s="26"/>
-      <c r="BY34" s="26"/>
-      <c r="BZ34" s="26">
+      <c r="BW34" s="35"/>
+      <c r="BX34" s="35"/>
+      <c r="BY34" s="35"/>
+      <c r="BZ34" s="35">
         <v>2019</v>
       </c>
-      <c r="CA34" s="26"/>
-      <c r="CB34" s="26"/>
-      <c r="CC34" s="26"/>
-      <c r="CD34" s="25">
+      <c r="CA34" s="35"/>
+      <c r="CB34" s="35"/>
+      <c r="CC34" s="35"/>
+      <c r="CD34" s="36">
         <v>2020</v>
       </c>
-      <c r="CE34" s="25"/>
-      <c r="CF34" s="25"/>
-      <c r="CG34" s="25"/>
-      <c r="CH34" s="25">
+      <c r="CE34" s="36"/>
+      <c r="CF34" s="36"/>
+      <c r="CG34" s="36"/>
+      <c r="CH34" s="21">
         <v>2021</v>
       </c>
-      <c r="CI34" s="25"/>
-      <c r="CJ34" s="25"/>
-      <c r="CK34" s="25"/>
-      <c r="CL34" s="22">
+      <c r="CI34" s="21"/>
+      <c r="CJ34" s="21"/>
+      <c r="CK34" s="21"/>
+      <c r="CL34" s="21">
         <v>2022</v>
       </c>
-      <c r="CM34" s="22"/>
-      <c r="CN34" s="22"/>
-      <c r="CO34" s="22"/>
-      <c r="CP34" s="22">
+      <c r="CM34" s="21"/>
+      <c r="CN34" s="21"/>
+      <c r="CO34" s="21"/>
+      <c r="CP34" s="24">
         <v>2023</v>
       </c>
-      <c r="CQ34" s="22"/>
-      <c r="CR34" s="22"/>
-      <c r="CS34" s="22"/>
+      <c r="CQ34" s="24"/>
+      <c r="CR34" s="24"/>
+      <c r="CS34" s="24"/>
+      <c r="CT34" s="24">
+        <v>2024</v>
+      </c>
     </row>
     <row r="35" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
@@ -5328,17 +5376,20 @@
       <c r="CO35" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CP35" s="13" t="s">
+      <c r="CP35" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CQ35" s="13" t="s">
+      <c r="CQ35" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CR35" s="13" t="s">
+      <c r="CR35" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CS35" s="13" t="s">
+      <c r="CS35" s="29" t="s">
         <v>10</v>
+      </c>
+      <c r="CT35" s="29" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -5613,30 +5664,32 @@
         <v>25473.984362080206</v>
       </c>
       <c r="CL37" s="18">
-        <v>39764.430508135309</v>
+        <v>40030.68332512043</v>
       </c>
       <c r="CM37" s="18">
-        <v>26620.30384489982</v>
+        <v>26506.789532352457</v>
       </c>
       <c r="CN37" s="18">
-        <v>35357.329087856539</v>
+        <v>33977.385060200402</v>
       </c>
       <c r="CO37" s="18">
-        <v>42923.047723132688</v>
-      </c>
-      <c r="CP37" s="18">
-        <v>66380.3538554962</v>
-      </c>
-      <c r="CQ37" s="18">
-        <v>24511.809227412497</v>
-      </c>
-      <c r="CR37" s="18">
-        <v>41470.015404379861</v>
-      </c>
-      <c r="CS37" s="18">
-        <v>47177.108464258839</v>
-      </c>
-      <c r="CT37" s="8"/>
+        <v>41001.743914789178</v>
+      </c>
+      <c r="CP37" s="25">
+        <v>66840.507136195039</v>
+      </c>
+      <c r="CQ37" s="25">
+        <v>24335.490726229673</v>
+      </c>
+      <c r="CR37" s="25">
+        <v>39801.249761229999</v>
+      </c>
+      <c r="CS37" s="25">
+        <v>45097.200111910657</v>
+      </c>
+      <c r="CT37" s="25">
+        <v>72305.397080042458</v>
+      </c>
       <c r="CU37" s="8"/>
       <c r="CV37" s="8"/>
       <c r="CW37" s="8"/>
@@ -5960,30 +6013,32 @@
         <v>770.19546330619676</v>
       </c>
       <c r="CL38" s="18">
-        <v>513.260353030533</v>
+        <v>516.17519224422813</v>
       </c>
       <c r="CM38" s="18">
-        <v>382.06821091022977</v>
+        <v>383.47250797719153</v>
       </c>
       <c r="CN38" s="18">
-        <v>776.70768745237024</v>
+        <v>769.04732303578328</v>
       </c>
       <c r="CO38" s="18">
-        <v>889.21572221660801</v>
-      </c>
-      <c r="CP38" s="18">
-        <v>396.58022379505599</v>
-      </c>
-      <c r="CQ38" s="18">
-        <v>394.66687035997319</v>
-      </c>
-      <c r="CR38" s="18">
-        <v>787.66200594157351</v>
-      </c>
-      <c r="CS38" s="18">
-        <v>813.84963393951602</v>
-      </c>
-      <c r="CT38" s="8"/>
+        <v>874.3698128567687</v>
+      </c>
+      <c r="CP38" s="25">
+        <v>401.40117980165178</v>
+      </c>
+      <c r="CQ38" s="25">
+        <v>389.08013271399068</v>
+      </c>
+      <c r="CR38" s="25">
+        <v>775.39169916792036</v>
+      </c>
+      <c r="CS38" s="25">
+        <v>800.26199980740012</v>
+      </c>
+      <c r="CT38" s="25">
+        <v>453.13602828715932</v>
+      </c>
       <c r="CU38" s="8"/>
       <c r="CV38" s="8"/>
       <c r="CW38" s="8"/>
@@ -6318,19 +6373,21 @@
       <c r="CO39" s="18">
         <v>54857.258251901527</v>
       </c>
-      <c r="CP39" s="18">
+      <c r="CP39" s="25">
         <v>104952.98838100983</v>
       </c>
-      <c r="CQ39" s="18">
+      <c r="CQ39" s="25">
         <v>107908.32982931691</v>
       </c>
-      <c r="CR39" s="18">
+      <c r="CR39" s="25">
         <v>139971.22516500723</v>
       </c>
-      <c r="CS39" s="18">
+      <c r="CS39" s="25">
         <v>88041.043596806237</v>
       </c>
-      <c r="CT39" s="8"/>
+      <c r="CT39" s="25">
+        <v>120172.09772732317</v>
+      </c>
       <c r="CU39" s="8"/>
       <c r="CV39" s="8"/>
       <c r="CW39" s="8"/>
@@ -6665,19 +6722,21 @@
       <c r="CO40" s="18">
         <v>3977.1461621146914</v>
       </c>
-      <c r="CP40" s="18">
-        <v>3948.5227029077737</v>
-      </c>
-      <c r="CQ40" s="18">
-        <v>4411.1105877597502</v>
-      </c>
-      <c r="CR40" s="18">
+      <c r="CP40" s="25">
+        <v>3948.5227029077732</v>
+      </c>
+      <c r="CQ40" s="25">
+        <v>4411.1105877597493</v>
+      </c>
+      <c r="CR40" s="25">
         <v>4489.0256045275964</v>
       </c>
-      <c r="CS40" s="18">
-        <v>4564.4944289546975</v>
-      </c>
-      <c r="CT40" s="8"/>
+      <c r="CS40" s="25">
+        <v>4564.4944289546966</v>
+      </c>
+      <c r="CT40" s="25">
+        <v>4356.5529553400547</v>
+      </c>
       <c r="CU40" s="8"/>
       <c r="CV40" s="8"/>
       <c r="CW40" s="8"/>
@@ -7012,19 +7071,21 @@
       <c r="CO41" s="18">
         <v>85486.339096444455</v>
       </c>
-      <c r="CP41" s="18">
-        <v>131657.7994655674</v>
-      </c>
-      <c r="CQ41" s="18">
-        <v>127397.97452047074</v>
-      </c>
-      <c r="CR41" s="18">
-        <v>89179.736806316752</v>
-      </c>
-      <c r="CS41" s="18">
-        <v>97450.270291274341</v>
-      </c>
-      <c r="CT41" s="8"/>
+      <c r="CP41" s="25">
+        <v>132389.96761888449</v>
+      </c>
+      <c r="CQ41" s="25">
+        <v>127397.97452047073</v>
+      </c>
+      <c r="CR41" s="25">
+        <v>88570.644729925349</v>
+      </c>
+      <c r="CS41" s="25">
+        <v>97408.840224678061</v>
+      </c>
+      <c r="CT41" s="25">
+        <v>141361.49065992335</v>
+      </c>
       <c r="CU41" s="8"/>
       <c r="CV41" s="8"/>
       <c r="CW41" s="8"/>
@@ -7354,24 +7415,26 @@
         <v>362411.57167247194</v>
       </c>
       <c r="CN42" s="18">
-        <v>282000.18209253578</v>
+        <v>281995.14447501418</v>
       </c>
       <c r="CO42" s="18">
         <v>282568.33591674821</v>
       </c>
-      <c r="CP42" s="18">
-        <v>369595.05173715425</v>
-      </c>
-      <c r="CQ42" s="18">
-        <v>370084.79216041439</v>
-      </c>
-      <c r="CR42" s="18">
-        <v>278178.63413722097</v>
-      </c>
-      <c r="CS42" s="18">
-        <v>295075.50765888061</v>
-      </c>
-      <c r="CT42" s="8"/>
+      <c r="CP42" s="25">
+        <v>370976.65010641125</v>
+      </c>
+      <c r="CQ42" s="25">
+        <v>372232.40369391814</v>
+      </c>
+      <c r="CR42" s="25">
+        <v>279294.63152185868</v>
+      </c>
+      <c r="CS42" s="25">
+        <v>294572.86033506453</v>
+      </c>
+      <c r="CT42" s="25">
+        <v>405890.48919580912</v>
+      </c>
       <c r="CU42" s="8"/>
       <c r="CV42" s="8"/>
       <c r="CW42" s="8"/>
@@ -7695,30 +7758,32 @@
         <v>52037.635302078721</v>
       </c>
       <c r="CL43" s="18">
-        <v>76295.067345606396</v>
+        <v>76657.097881104608</v>
       </c>
       <c r="CM43" s="18">
-        <v>69855.480841691693</v>
+        <v>70061.134014964919</v>
       </c>
       <c r="CN43" s="18">
-        <v>48935.143393238061</v>
+        <v>51923.789651372848</v>
       </c>
       <c r="CO43" s="18">
-        <v>57321.148454949551</v>
-      </c>
-      <c r="CP43" s="18">
-        <v>55787.222374251556</v>
-      </c>
-      <c r="CQ43" s="18">
-        <v>66187.864990199887</v>
-      </c>
-      <c r="CR43" s="18">
-        <v>52750.874958858687</v>
-      </c>
-      <c r="CS43" s="18">
-        <v>59781.530887036999</v>
-      </c>
-      <c r="CT43" s="8"/>
+        <v>56641.27780498279</v>
+      </c>
+      <c r="CP43" s="25">
+        <v>56722.129138118144</v>
+      </c>
+      <c r="CQ43" s="25">
+        <v>66425.589510680875</v>
+      </c>
+      <c r="CR43" s="25">
+        <v>54458.070986274273</v>
+      </c>
+      <c r="CS43" s="25">
+        <v>60129.24129404522</v>
+      </c>
+      <c r="CT43" s="25">
+        <v>57685.077201933127</v>
+      </c>
       <c r="CU43" s="8"/>
       <c r="CV43" s="8"/>
       <c r="CW43" s="8"/>
@@ -8042,30 +8107,32 @@
         <v>6921.6089579479312</v>
       </c>
       <c r="CL44" s="18">
-        <v>6236.6807855633124</v>
+        <v>6236.5217705634977</v>
       </c>
       <c r="CM44" s="18">
-        <v>8296.7941167833451</v>
+        <v>8296.8442013564818</v>
       </c>
       <c r="CN44" s="18">
-        <v>8381.4864233369353</v>
+        <v>8338.1713455441513</v>
       </c>
       <c r="CO44" s="18">
-        <v>9735.3833275709912</v>
-      </c>
-      <c r="CP44" s="18">
-        <v>7291.860155735676</v>
-      </c>
-      <c r="CQ44" s="18">
-        <v>9201.6546059773391</v>
-      </c>
-      <c r="CR44" s="18">
-        <v>7671.2506956826346</v>
-      </c>
-      <c r="CS44" s="18">
-        <v>10833.178553917587</v>
-      </c>
-      <c r="CT44" s="8"/>
+        <v>9647.8221918255676</v>
+      </c>
+      <c r="CP44" s="25">
+        <v>7111.5053813856466</v>
+      </c>
+      <c r="CQ44" s="25">
+        <v>9426.9331998502021</v>
+      </c>
+      <c r="CR44" s="25">
+        <v>7972.0580263325928</v>
+      </c>
+      <c r="CS44" s="25">
+        <v>10710.381145611891</v>
+      </c>
+      <c r="CT44" s="25">
+        <v>7180.5097103007411</v>
+      </c>
       <c r="CU44" s="8"/>
       <c r="CV44" s="8"/>
       <c r="CW44" s="8"/>
@@ -8213,11 +8280,11 @@
       <c r="CM45" s="8"/>
       <c r="CN45" s="8"/>
       <c r="CO45" s="8"/>
-      <c r="CP45" s="8"/>
-      <c r="CQ45" s="8"/>
-      <c r="CR45" s="8"/>
-      <c r="CS45" s="8"/>
-      <c r="CT45" s="8"/>
+      <c r="CP45" s="26"/>
+      <c r="CQ45" s="26"/>
+      <c r="CR45" s="26"/>
+      <c r="CS45" s="26"/>
+      <c r="CT45" s="26"/>
       <c r="CU45" s="8"/>
       <c r="CV45" s="8"/>
       <c r="CW45" s="8"/>
@@ -8541,30 +8608,32 @@
         <v>440936.47706303385</v>
       </c>
       <c r="CL46" s="19">
-        <v>615673.2796497792</v>
+        <v>616304.31882647634</v>
       </c>
       <c r="CM46" s="19">
-        <v>643225.25560889661</v>
+        <v>643318.84885126259</v>
       </c>
       <c r="CN46" s="19">
-        <v>551856.02595243603</v>
+        <v>553408.71512318368</v>
       </c>
       <c r="CO46" s="19">
-        <v>537757.87465507863</v>
-      </c>
-      <c r="CP46" s="19">
-        <v>740010.37889591767</v>
-      </c>
-      <c r="CQ46" s="19">
-        <v>710098.20279191155</v>
-      </c>
-      <c r="CR46" s="19">
-        <v>614498.42477793526</v>
-      </c>
-      <c r="CS46" s="19">
-        <v>603736.98351506877</v>
-      </c>
-      <c r="CT46" s="8"/>
+        <v>535054.29315166315</v>
+      </c>
+      <c r="CP46" s="27">
+        <v>743343.67164471385</v>
+      </c>
+      <c r="CQ46" s="27">
+        <v>712526.91220094031</v>
+      </c>
+      <c r="CR46" s="27">
+        <v>615332.29749432369</v>
+      </c>
+      <c r="CS46" s="27">
+        <v>601324.32313687867</v>
+      </c>
+      <c r="CT46" s="27">
+        <v>809404.75055895909</v>
+      </c>
       <c r="CU46" s="8"/>
       <c r="CV46" s="8"/>
       <c r="CW46" s="8"/>
@@ -8713,10 +8782,11 @@
       <c r="CM47" s="11"/>
       <c r="CN47" s="11"/>
       <c r="CO47" s="11"/>
-      <c r="CP47" s="11"/>
-      <c r="CQ47" s="11"/>
-      <c r="CR47" s="11"/>
-      <c r="CS47" s="11"/>
+      <c r="CP47" s="28"/>
+      <c r="CQ47" s="28"/>
+      <c r="CR47" s="28"/>
+      <c r="CS47" s="28"/>
+      <c r="CT47" s="28"/>
     </row>
     <row r="48" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
@@ -8816,11 +8886,11 @@
       <c r="CM49" s="8"/>
       <c r="CN49" s="8"/>
       <c r="CO49" s="8"/>
-      <c r="CP49" s="8"/>
-      <c r="CQ49" s="8"/>
-      <c r="CR49" s="8"/>
-      <c r="CS49" s="8"/>
-      <c r="CT49" s="8"/>
+      <c r="CP49" s="26"/>
+      <c r="CQ49" s="26"/>
+      <c r="CR49" s="26"/>
+      <c r="CS49" s="26"/>
+      <c r="CT49" s="26"/>
       <c r="CU49" s="8"/>
       <c r="CV49" s="8"/>
       <c r="CW49" s="8"/>
@@ -8968,11 +9038,11 @@
       <c r="CM50" s="8"/>
       <c r="CN50" s="8"/>
       <c r="CO50" s="8"/>
-      <c r="CP50" s="8"/>
-      <c r="CQ50" s="8"/>
-      <c r="CR50" s="8"/>
-      <c r="CS50" s="8"/>
-      <c r="CT50" s="8"/>
+      <c r="CP50" s="26"/>
+      <c r="CQ50" s="26"/>
+      <c r="CR50" s="26"/>
+      <c r="CS50" s="26"/>
+      <c r="CT50" s="26"/>
       <c r="CU50" s="8"/>
       <c r="CV50" s="8"/>
       <c r="CW50" s="8"/>
@@ -9039,186 +9109,191 @@
     </row>
     <row r="53" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="CP55" s="6"/>
-      <c r="CQ55" s="6"/>
-      <c r="CR55" s="6"/>
-      <c r="CS55" s="6"/>
+      <c r="CP55" s="30"/>
+      <c r="CQ55" s="30"/>
+      <c r="CR55" s="30"/>
+      <c r="CS55" s="30"/>
+      <c r="CT55" s="30"/>
     </row>
     <row r="56" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="CP56" s="6"/>
-      <c r="CQ56" s="6"/>
-      <c r="CR56" s="6"/>
-      <c r="CS56" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="CP56" s="30"/>
+      <c r="CQ56" s="30"/>
+      <c r="CR56" s="30"/>
+      <c r="CS56" s="30"/>
+      <c r="CT56" s="30"/>
     </row>
     <row r="57" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="CP57" s="6"/>
-      <c r="CQ57" s="6"/>
-      <c r="CR57" s="6"/>
-      <c r="CS57" s="6"/>
+      <c r="CQ57" s="30"/>
+      <c r="CR57" s="30"/>
+      <c r="CS57" s="30"/>
+      <c r="CT57" s="30"/>
     </row>
     <row r="58" spans="1:151" x14ac:dyDescent="0.2">
-      <c r="CP58" s="6"/>
-      <c r="CQ58" s="6"/>
-      <c r="CR58" s="6"/>
-      <c r="CS58" s="6"/>
+      <c r="CQ58" s="30"/>
+      <c r="CR58" s="30"/>
+      <c r="CS58" s="30"/>
+      <c r="CT58" s="30"/>
     </row>
     <row r="59" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25" t="s">
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="25" t="s">
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="K59" s="25"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="25" t="s">
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="O59" s="25"/>
-      <c r="P59" s="25"/>
-      <c r="Q59" s="25"/>
-      <c r="R59" s="25" t="s">
+      <c r="O59" s="36"/>
+      <c r="P59" s="36"/>
+      <c r="Q59" s="36"/>
+      <c r="R59" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="S59" s="25"/>
-      <c r="T59" s="25"/>
-      <c r="U59" s="25"/>
-      <c r="V59" s="25" t="s">
+      <c r="S59" s="36"/>
+      <c r="T59" s="36"/>
+      <c r="U59" s="36"/>
+      <c r="V59" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="W59" s="25"/>
-      <c r="X59" s="25"/>
-      <c r="Y59" s="25"/>
-      <c r="Z59" s="25" t="s">
+      <c r="W59" s="36"/>
+      <c r="X59" s="36"/>
+      <c r="Y59" s="36"/>
+      <c r="Z59" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="AA59" s="25"/>
-      <c r="AB59" s="25"/>
-      <c r="AC59" s="25"/>
-      <c r="AD59" s="25" t="s">
+      <c r="AA59" s="36"/>
+      <c r="AB59" s="36"/>
+      <c r="AC59" s="36"/>
+      <c r="AD59" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="AE59" s="25"/>
-      <c r="AF59" s="25"/>
-      <c r="AG59" s="25"/>
-      <c r="AH59" s="25" t="s">
+      <c r="AE59" s="36"/>
+      <c r="AF59" s="36"/>
+      <c r="AG59" s="36"/>
+      <c r="AH59" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="AI59" s="25"/>
-      <c r="AJ59" s="25"/>
-      <c r="AK59" s="25"/>
-      <c r="AL59" s="25" t="s">
+      <c r="AI59" s="36"/>
+      <c r="AJ59" s="36"/>
+      <c r="AK59" s="36"/>
+      <c r="AL59" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="AM59" s="25"/>
-      <c r="AN59" s="25"/>
-      <c r="AO59" s="25"/>
-      <c r="AP59" s="25" t="s">
+      <c r="AM59" s="36"/>
+      <c r="AN59" s="36"/>
+      <c r="AO59" s="36"/>
+      <c r="AP59" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="AQ59" s="25"/>
-      <c r="AR59" s="25"/>
-      <c r="AS59" s="25"/>
-      <c r="AT59" s="25" t="s">
+      <c r="AQ59" s="36"/>
+      <c r="AR59" s="36"/>
+      <c r="AS59" s="36"/>
+      <c r="AT59" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="AU59" s="25"/>
-      <c r="AV59" s="25"/>
-      <c r="AW59" s="25"/>
-      <c r="AX59" s="25" t="s">
+      <c r="AU59" s="36"/>
+      <c r="AV59" s="36"/>
+      <c r="AW59" s="36"/>
+      <c r="AX59" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="AY59" s="25"/>
-      <c r="AZ59" s="25"/>
-      <c r="BA59" s="25"/>
-      <c r="BB59" s="25" t="s">
+      <c r="AY59" s="36"/>
+      <c r="AZ59" s="36"/>
+      <c r="BA59" s="36"/>
+      <c r="BB59" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="BC59" s="25"/>
-      <c r="BD59" s="25"/>
-      <c r="BE59" s="25"/>
-      <c r="BF59" s="25" t="s">
+      <c r="BC59" s="36"/>
+      <c r="BD59" s="36"/>
+      <c r="BE59" s="36"/>
+      <c r="BF59" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="BG59" s="25"/>
-      <c r="BH59" s="25"/>
-      <c r="BI59" s="25"/>
-      <c r="BJ59" s="25" t="s">
+      <c r="BG59" s="36"/>
+      <c r="BH59" s="36"/>
+      <c r="BI59" s="36"/>
+      <c r="BJ59" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="BK59" s="25"/>
-      <c r="BL59" s="25"/>
-      <c r="BM59" s="25"/>
-      <c r="BN59" s="25" t="s">
+      <c r="BK59" s="36"/>
+      <c r="BL59" s="36"/>
+      <c r="BM59" s="36"/>
+      <c r="BN59" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="BO59" s="25"/>
-      <c r="BP59" s="25"/>
-      <c r="BQ59" s="25"/>
-      <c r="BR59" s="25" t="s">
+      <c r="BO59" s="36"/>
+      <c r="BP59" s="36"/>
+      <c r="BQ59" s="36"/>
+      <c r="BR59" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="BS59" s="25"/>
-      <c r="BT59" s="25"/>
-      <c r="BU59" s="25"/>
-      <c r="BV59" s="25" t="s">
+      <c r="BS59" s="36"/>
+      <c r="BT59" s="36"/>
+      <c r="BU59" s="36"/>
+      <c r="BV59" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="BW59" s="25"/>
-      <c r="BX59" s="25"/>
-      <c r="BY59" s="25"/>
-      <c r="BZ59" s="25" t="s">
+      <c r="BW59" s="36"/>
+      <c r="BX59" s="36"/>
+      <c r="BY59" s="36"/>
+      <c r="BZ59" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="CA59" s="25"/>
-      <c r="CB59" s="25"/>
-      <c r="CC59" s="25"/>
-      <c r="CD59" s="25" t="s">
+      <c r="CA59" s="36"/>
+      <c r="CB59" s="36"/>
+      <c r="CC59" s="36"/>
+      <c r="CD59" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="CE59" s="25"/>
-      <c r="CF59" s="25"/>
-      <c r="CG59" s="25"/>
-      <c r="CH59" s="25" t="s">
+      <c r="CE59" s="36"/>
+      <c r="CF59" s="36"/>
+      <c r="CG59" s="36"/>
+      <c r="CH59" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="CI59" s="25"/>
-      <c r="CJ59" s="25"/>
-      <c r="CK59" s="25"/>
-      <c r="CL59" s="22" t="s">
+      <c r="CI59" s="21"/>
+      <c r="CJ59" s="21"/>
+      <c r="CK59" s="21"/>
+      <c r="CL59" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="CM59" s="22"/>
-      <c r="CN59" s="22"/>
-      <c r="CO59" s="22"/>
-      <c r="CP59" s="21"/>
-      <c r="CQ59" s="21"/>
-      <c r="CR59" s="21"/>
-      <c r="CS59" s="21"/>
+      <c r="CM59" s="21"/>
+      <c r="CN59" s="21"/>
+      <c r="CO59" s="21"/>
+      <c r="CP59" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="CQ59" s="22"/>
+      <c r="CR59" s="22"/>
+      <c r="CS59" s="22"/>
+      <c r="CT59" s="22"/>
     </row>
     <row r="60" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
@@ -9498,17 +9573,20 @@
       <c r="CO60" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CP60" s="13"/>
-      <c r="CQ60" s="13"/>
-      <c r="CR60" s="13"/>
-      <c r="CS60" s="13"/>
+      <c r="CP60" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ60" s="29"/>
+      <c r="CR60" s="29"/>
+      <c r="CS60" s="29"/>
+      <c r="CT60" s="29"/>
     </row>
     <row r="61" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
-      <c r="CP61" s="6"/>
-      <c r="CQ61" s="6"/>
-      <c r="CR61" s="6"/>
-      <c r="CS61" s="6"/>
+      <c r="CQ61" s="30"/>
+      <c r="CR61" s="30"/>
+      <c r="CS61" s="30"/>
+      <c r="CT61" s="30"/>
     </row>
     <row r="62" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -9767,34 +9845,36 @@
         <v>36.025949084078405</v>
       </c>
       <c r="CH62" s="14">
-        <v>138.82779599063096</v>
+        <v>140.42692799489407</v>
       </c>
       <c r="CI62" s="14">
-        <v>77.210128092135221</v>
+        <v>76.454468578103729</v>
       </c>
       <c r="CJ62" s="14">
-        <v>70.765711576238061</v>
+        <v>64.100979541967575</v>
       </c>
       <c r="CK62" s="14">
-        <v>88.951321567609739</v>
+        <v>80.493560225473317</v>
       </c>
       <c r="CL62" s="14">
-        <v>81.00636355727508</v>
+        <v>81.048853935511062</v>
       </c>
       <c r="CM62" s="14">
-        <v>4.6676128921753701</v>
+        <v>4.3597279595551726</v>
       </c>
       <c r="CN62" s="14">
-        <v>18.916989964166049</v>
+        <v>18.767036221351844</v>
       </c>
       <c r="CO62" s="14">
-        <v>12.974307843786633</v>
-      </c>
-      <c r="CP62" s="23"/>
-      <c r="CQ62" s="23"/>
-      <c r="CR62" s="23"/>
-      <c r="CS62" s="23"/>
-      <c r="CT62" s="8"/>
+        <v>12.595581900616963</v>
+      </c>
+      <c r="CP62" s="31">
+        <v>10.15166201734516</v>
+      </c>
+      <c r="CQ62" s="32"/>
+      <c r="CR62" s="32"/>
+      <c r="CS62" s="32"/>
+      <c r="CT62" s="32"/>
       <c r="CU62" s="8"/>
       <c r="CV62" s="8"/>
       <c r="CW62" s="8"/>
@@ -10102,34 +10182,36 @@
         <v>8.2811579877068766</v>
       </c>
       <c r="CH63" s="14">
-        <v>16.677421780876813</v>
+        <v>17.340040512971868</v>
       </c>
       <c r="CI63" s="14">
-        <v>14.766763267207324</v>
+        <v>15.188590114975867</v>
       </c>
       <c r="CJ63" s="14">
-        <v>14.868866752247499</v>
+        <v>13.735960005400671</v>
       </c>
       <c r="CK63" s="14">
-        <v>22.983417854811677</v>
+        <v>20.930147058289464</v>
       </c>
       <c r="CL63" s="14">
-        <v>-17.407697336903681</v>
+        <v>-16.875746982589888</v>
       </c>
       <c r="CM63" s="14">
-        <v>8.3178833022181919</v>
+        <v>6.3935301501872175</v>
       </c>
       <c r="CN63" s="14">
-        <v>4.8755891279008665</v>
+        <v>4.2701990432295815</v>
       </c>
       <c r="CO63" s="14">
         <v>-5.7511235051855465</v>
       </c>
-      <c r="CP63" s="23"/>
-      <c r="CQ63" s="23"/>
-      <c r="CR63" s="23"/>
-      <c r="CS63" s="23"/>
-      <c r="CT63" s="8"/>
+      <c r="CP63" s="31">
+        <v>15.429937775878415</v>
+      </c>
+      <c r="CQ63" s="32"/>
+      <c r="CR63" s="32"/>
+      <c r="CS63" s="32"/>
+      <c r="CT63" s="32"/>
       <c r="CU63" s="8"/>
       <c r="CV63" s="8"/>
       <c r="CW63" s="8"/>
@@ -10460,11 +10542,13 @@
       <c r="CO64" s="14">
         <v>67.431544333633241</v>
       </c>
-      <c r="CP64" s="23"/>
-      <c r="CQ64" s="23"/>
-      <c r="CR64" s="23"/>
-      <c r="CS64" s="23"/>
-      <c r="CT64" s="8"/>
+      <c r="CP64" s="31">
+        <v>18.255808080987705</v>
+      </c>
+      <c r="CQ64" s="32"/>
+      <c r="CR64" s="32"/>
+      <c r="CS64" s="32"/>
+      <c r="CT64" s="32"/>
       <c r="CU64" s="8"/>
       <c r="CV64" s="8"/>
       <c r="CW64" s="8"/>
@@ -10795,11 +10879,13 @@
       <c r="CO65" s="14">
         <v>19.608787551606682</v>
       </c>
-      <c r="CP65" s="23"/>
-      <c r="CQ65" s="23"/>
-      <c r="CR65" s="23"/>
-      <c r="CS65" s="23"/>
-      <c r="CT65" s="8"/>
+      <c r="CP65" s="31">
+        <v>14.241210962396252</v>
+      </c>
+      <c r="CQ65" s="32"/>
+      <c r="CR65" s="32"/>
+      <c r="CS65" s="32"/>
+      <c r="CT65" s="32"/>
       <c r="CU65" s="8"/>
       <c r="CV65" s="8"/>
       <c r="CW65" s="8"/>
@@ -11119,22 +11205,24 @@
         <v>23.131763620173302</v>
       </c>
       <c r="CL66" s="14">
-        <v>13.659378833751518</v>
+        <v>14.29145515468106</v>
       </c>
       <c r="CM66" s="14">
         <v>11.835715818089469</v>
       </c>
       <c r="CN66" s="14">
-        <v>7.2225601964819361</v>
+        <v>6.490236754353873</v>
       </c>
       <c r="CO66" s="14">
-        <v>14.366506686461378</v>
-      </c>
-      <c r="CP66" s="23"/>
-      <c r="CQ66" s="23"/>
-      <c r="CR66" s="23"/>
-      <c r="CS66" s="23"/>
-      <c r="CT66" s="8"/>
+        <v>14.317884840937054</v>
+      </c>
+      <c r="CP66" s="31">
+        <v>7.2281830568370395</v>
+      </c>
+      <c r="CQ66" s="32"/>
+      <c r="CR66" s="32"/>
+      <c r="CS66" s="32"/>
+      <c r="CT66" s="32"/>
       <c r="CU66" s="8"/>
       <c r="CV66" s="8"/>
       <c r="CW66" s="8"/>
@@ -11448,28 +11536,30 @@
         <v>18.136928614181684</v>
       </c>
       <c r="CJ67" s="14">
-        <v>25.920433726774974</v>
+        <v>25.918246676699169</v>
       </c>
       <c r="CK67" s="14">
         <v>13.08767207025528</v>
       </c>
       <c r="CL67" s="14">
-        <v>7.6356152760591556</v>
+        <v>7.753964213164636</v>
       </c>
       <c r="CM67" s="14">
         <v>5.9072395242114624</v>
       </c>
       <c r="CN67" s="14">
-        <v>2.0963724671079689</v>
+        <v>1.9253565266903081</v>
       </c>
       <c r="CO67" s="14">
-        <v>7.5347453965801918</v>
-      </c>
-      <c r="CP67" s="23"/>
-      <c r="CQ67" s="23"/>
-      <c r="CR67" s="23"/>
-      <c r="CS67" s="23"/>
-      <c r="CT67" s="8"/>
+        <v>7.2652728936842408</v>
+      </c>
+      <c r="CP67" s="31">
+        <v>11.636496217543652</v>
+      </c>
+      <c r="CQ67" s="32"/>
+      <c r="CR67" s="32"/>
+      <c r="CS67" s="32"/>
+      <c r="CT67" s="32"/>
       <c r="CU67" s="8"/>
       <c r="CV67" s="8"/>
       <c r="CW67" s="8"/>
@@ -11777,34 +11867,36 @@
         <v>31.608514948222933</v>
       </c>
       <c r="CH68" s="14">
-        <v>18.247417420891338</v>
+        <v>18.808517598655698</v>
       </c>
       <c r="CI68" s="14">
-        <v>8.727672753688438</v>
+        <v>9.0477649018633883</v>
       </c>
       <c r="CJ68" s="14">
-        <v>6.0349312142396343</v>
+        <v>12.510868106023779</v>
       </c>
       <c r="CK68" s="14">
-        <v>21.073968229917895</v>
+        <v>19.637942614708479</v>
       </c>
       <c r="CL68" s="14">
-        <v>-21.840006057913556</v>
+        <v>-20.778255405892594</v>
       </c>
       <c r="CM68" s="14">
-        <v>-0.64533038862397518</v>
+        <v>-0.58116897543312973</v>
       </c>
       <c r="CN68" s="14">
-        <v>11.481017051955121</v>
+        <v>6.2857156015410141</v>
       </c>
       <c r="CO68" s="14">
-        <v>7.3967876596632465</v>
-      </c>
-      <c r="CP68" s="23"/>
-      <c r="CQ68" s="23"/>
-      <c r="CR68" s="23"/>
-      <c r="CS68" s="23"/>
-      <c r="CT68" s="8"/>
+        <v>7.917711071920877</v>
+      </c>
+      <c r="CP68" s="31">
+        <v>3.9870999011112787</v>
+      </c>
+      <c r="CQ68" s="32"/>
+      <c r="CR68" s="32"/>
+      <c r="CS68" s="32"/>
+      <c r="CT68" s="32"/>
       <c r="CU68" s="8"/>
       <c r="CV68" s="8"/>
       <c r="CW68" s="8"/>
@@ -12112,34 +12204,36 @@
         <v>68.718234565959278</v>
       </c>
       <c r="CH69" s="14">
-        <v>23.84613341052264</v>
+        <v>23.842975738427754</v>
       </c>
       <c r="CI69" s="14">
-        <v>38.266959628266875</v>
+        <v>38.267794293024679</v>
       </c>
       <c r="CJ69" s="14">
-        <v>47.383224948001214</v>
+        <v>46.731958198540923</v>
       </c>
       <c r="CK69" s="14">
-        <v>49.825721692895598</v>
+        <v>48.478172252479169</v>
       </c>
       <c r="CL69" s="14">
-        <v>24.977275929738639</v>
+        <v>21.462208821766481</v>
       </c>
       <c r="CM69" s="14">
-        <v>16.296330539823018</v>
+        <v>19.142824668019671</v>
       </c>
       <c r="CN69" s="14">
-        <v>-4.3227610349008643</v>
+        <v>-0.12972371139170491</v>
       </c>
       <c r="CO69" s="14">
-        <v>14.588751375522136</v>
-      </c>
-      <c r="CP69" s="23"/>
-      <c r="CQ69" s="23"/>
-      <c r="CR69" s="23"/>
-      <c r="CS69" s="23"/>
-      <c r="CT69" s="8"/>
+        <v>14.318042026160384</v>
+      </c>
+      <c r="CP69" s="31">
+        <v>3.1715382539782695</v>
+      </c>
+      <c r="CQ69" s="32"/>
+      <c r="CR69" s="32"/>
+      <c r="CS69" s="32"/>
+      <c r="CT69" s="32"/>
       <c r="CU69" s="8"/>
       <c r="CV69" s="8"/>
       <c r="CW69" s="8"/>
@@ -12283,11 +12377,11 @@
       <c r="CM70" s="8"/>
       <c r="CN70" s="8"/>
       <c r="CO70" s="8"/>
-      <c r="CP70" s="24"/>
-      <c r="CQ70" s="24"/>
-      <c r="CR70" s="24"/>
-      <c r="CS70" s="24"/>
-      <c r="CT70" s="8"/>
+      <c r="CP70" s="26"/>
+      <c r="CQ70" s="33"/>
+      <c r="CR70" s="33"/>
+      <c r="CS70" s="33"/>
+      <c r="CT70" s="33"/>
       <c r="CU70" s="8"/>
       <c r="CV70" s="8"/>
       <c r="CW70" s="8"/>
@@ -12595,34 +12689,36 @@
         <v>16.232728166487263</v>
       </c>
       <c r="CH71" s="14">
-        <v>22.144436404354195</v>
+        <v>22.276461767428344</v>
       </c>
       <c r="CI71" s="14">
-        <v>23.340939279204221</v>
+        <v>23.356836686700902</v>
       </c>
       <c r="CJ71" s="14">
-        <v>42.406357445597052</v>
+        <v>42.795690691210041</v>
       </c>
       <c r="CK71" s="14">
-        <v>31.264786544482661</v>
+        <v>30.534649742185536</v>
       </c>
       <c r="CL71" s="14">
-        <v>26.355536041888229</v>
+        <v>26.632651438254257</v>
       </c>
       <c r="CM71" s="14">
-        <v>14.834638869790112</v>
+        <v>14.860199642416944</v>
       </c>
       <c r="CN71" s="14">
-        <v>15.382200801804075</v>
+        <v>14.712183733255443</v>
       </c>
       <c r="CO71" s="14">
-        <v>15.334035759543312</v>
-      </c>
-      <c r="CP71" s="23"/>
-      <c r="CQ71" s="23"/>
-      <c r="CR71" s="23"/>
-      <c r="CS71" s="23"/>
-      <c r="CT71" s="8"/>
+        <v>15.22220251521378</v>
+      </c>
+      <c r="CP71" s="31">
+        <v>11.098927313267225</v>
+      </c>
+      <c r="CQ71" s="32"/>
+      <c r="CR71" s="32"/>
+      <c r="CS71" s="32"/>
+      <c r="CT71" s="32"/>
       <c r="CU71" s="8"/>
       <c r="CV71" s="8"/>
       <c r="CW71" s="8"/>
@@ -12767,19 +12863,20 @@
       <c r="CM72" s="11"/>
       <c r="CN72" s="11"/>
       <c r="CO72" s="11"/>
-      <c r="CP72" s="5"/>
-      <c r="CQ72" s="5"/>
-      <c r="CR72" s="5"/>
-      <c r="CS72" s="5"/>
+      <c r="CP72" s="28"/>
+      <c r="CQ72" s="13"/>
+      <c r="CR72" s="13"/>
+      <c r="CS72" s="13"/>
+      <c r="CT72" s="13"/>
     </row>
     <row r="73" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="CP73" s="6"/>
-      <c r="CQ73" s="6"/>
-      <c r="CR73" s="6"/>
-      <c r="CS73" s="6"/>
+      <c r="CQ73" s="30"/>
+      <c r="CR73" s="30"/>
+      <c r="CS73" s="30"/>
+      <c r="CT73" s="30"/>
     </row>
     <row r="74" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="8"/>
@@ -12874,11 +12971,11 @@
       <c r="CM74" s="8"/>
       <c r="CN74" s="8"/>
       <c r="CO74" s="8"/>
-      <c r="CP74" s="24"/>
-      <c r="CQ74" s="24"/>
-      <c r="CR74" s="24"/>
-      <c r="CS74" s="24"/>
-      <c r="CT74" s="8"/>
+      <c r="CP74" s="26"/>
+      <c r="CQ74" s="33"/>
+      <c r="CR74" s="33"/>
+      <c r="CS74" s="33"/>
+      <c r="CT74" s="33"/>
       <c r="CU74" s="8"/>
       <c r="CV74" s="8"/>
       <c r="CW74" s="8"/>
@@ -13022,11 +13119,11 @@
       <c r="CM75" s="8"/>
       <c r="CN75" s="8"/>
       <c r="CO75" s="8"/>
-      <c r="CP75" s="24"/>
-      <c r="CQ75" s="24"/>
-      <c r="CR75" s="24"/>
-      <c r="CS75" s="24"/>
-      <c r="CT75" s="8"/>
+      <c r="CP75" s="26"/>
+      <c r="CQ75" s="33"/>
+      <c r="CR75" s="33"/>
+      <c r="CS75" s="33"/>
+      <c r="CT75" s="33"/>
       <c r="CU75" s="8"/>
       <c r="CV75" s="8"/>
       <c r="CW75" s="8"/>
@@ -13081,212 +13178,215 @@
       <c r="A76" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="CP76" s="6"/>
-      <c r="CQ76" s="6"/>
-      <c r="CR76" s="6"/>
-      <c r="CS76" s="6"/>
+      <c r="CQ76" s="30"/>
+      <c r="CR76" s="30"/>
+      <c r="CS76" s="30"/>
+      <c r="CT76" s="30"/>
     </row>
     <row r="77" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CP77" s="6"/>
-      <c r="CQ77" s="6"/>
-      <c r="CR77" s="6"/>
-      <c r="CS77" s="6"/>
+      <c r="CQ77" s="30"/>
+      <c r="CR77" s="30"/>
+      <c r="CS77" s="30"/>
+      <c r="CT77" s="30"/>
     </row>
     <row r="78" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="CP78" s="6"/>
-      <c r="CQ78" s="6"/>
-      <c r="CR78" s="6"/>
-      <c r="CS78" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="CQ78" s="30"/>
+      <c r="CR78" s="30"/>
+      <c r="CS78" s="30"/>
+      <c r="CT78" s="30"/>
     </row>
     <row r="79" spans="1:147" x14ac:dyDescent="0.2">
-      <c r="CP79" s="6"/>
-      <c r="CQ79" s="6"/>
-      <c r="CR79" s="6"/>
-      <c r="CS79" s="6"/>
+      <c r="CQ79" s="30"/>
+      <c r="CR79" s="30"/>
+      <c r="CS79" s="30"/>
+      <c r="CT79" s="30"/>
     </row>
     <row r="80" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="CP80" s="6"/>
-      <c r="CQ80" s="6"/>
-      <c r="CR80" s="6"/>
-      <c r="CS80" s="6"/>
+      <c r="CQ80" s="30"/>
+      <c r="CR80" s="30"/>
+      <c r="CS80" s="30"/>
+      <c r="CT80" s="30"/>
     </row>
     <row r="81" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="CP81" s="6"/>
-      <c r="CQ81" s="6"/>
-      <c r="CR81" s="6"/>
-      <c r="CS81" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="CQ81" s="30"/>
+      <c r="CR81" s="30"/>
+      <c r="CS81" s="30"/>
+      <c r="CT81" s="30"/>
     </row>
     <row r="82" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="CP82" s="6"/>
-      <c r="CQ82" s="6"/>
-      <c r="CR82" s="6"/>
-      <c r="CS82" s="6"/>
+      <c r="CQ82" s="30"/>
+      <c r="CR82" s="30"/>
+      <c r="CS82" s="30"/>
+      <c r="CT82" s="30"/>
     </row>
     <row r="83" spans="1:147" x14ac:dyDescent="0.2">
-      <c r="CP83" s="6"/>
-      <c r="CQ83" s="6"/>
-      <c r="CR83" s="6"/>
-      <c r="CS83" s="6"/>
+      <c r="CQ83" s="30"/>
+      <c r="CR83" s="30"/>
+      <c r="CS83" s="30"/>
+      <c r="CT83" s="30"/>
     </row>
     <row r="84" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
-      <c r="B84" s="25" t="s">
+      <c r="B84" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25" t="s">
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="25" t="s">
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="K84" s="25"/>
-      <c r="L84" s="25"/>
-      <c r="M84" s="25"/>
-      <c r="N84" s="25" t="s">
+      <c r="K84" s="36"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="O84" s="25"/>
-      <c r="P84" s="25"/>
-      <c r="Q84" s="25"/>
-      <c r="R84" s="25" t="s">
+      <c r="O84" s="36"/>
+      <c r="P84" s="36"/>
+      <c r="Q84" s="36"/>
+      <c r="R84" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="S84" s="25"/>
-      <c r="T84" s="25"/>
-      <c r="U84" s="25"/>
-      <c r="V84" s="25" t="s">
+      <c r="S84" s="36"/>
+      <c r="T84" s="36"/>
+      <c r="U84" s="36"/>
+      <c r="V84" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="W84" s="25"/>
-      <c r="X84" s="25"/>
-      <c r="Y84" s="25"/>
-      <c r="Z84" s="25" t="s">
+      <c r="W84" s="36"/>
+      <c r="X84" s="36"/>
+      <c r="Y84" s="36"/>
+      <c r="Z84" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="AA84" s="25"/>
-      <c r="AB84" s="25"/>
-      <c r="AC84" s="25"/>
-      <c r="AD84" s="25" t="s">
+      <c r="AA84" s="36"/>
+      <c r="AB84" s="36"/>
+      <c r="AC84" s="36"/>
+      <c r="AD84" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="AE84" s="25"/>
-      <c r="AF84" s="25"/>
-      <c r="AG84" s="25"/>
-      <c r="AH84" s="25" t="s">
+      <c r="AE84" s="36"/>
+      <c r="AF84" s="36"/>
+      <c r="AG84" s="36"/>
+      <c r="AH84" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="AI84" s="25"/>
-      <c r="AJ84" s="25"/>
-      <c r="AK84" s="25"/>
-      <c r="AL84" s="25" t="s">
+      <c r="AI84" s="36"/>
+      <c r="AJ84" s="36"/>
+      <c r="AK84" s="36"/>
+      <c r="AL84" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="AM84" s="25"/>
-      <c r="AN84" s="25"/>
-      <c r="AO84" s="25"/>
-      <c r="AP84" s="25" t="s">
+      <c r="AM84" s="36"/>
+      <c r="AN84" s="36"/>
+      <c r="AO84" s="36"/>
+      <c r="AP84" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="AQ84" s="25"/>
-      <c r="AR84" s="25"/>
-      <c r="AS84" s="25"/>
-      <c r="AT84" s="25" t="s">
+      <c r="AQ84" s="36"/>
+      <c r="AR84" s="36"/>
+      <c r="AS84" s="36"/>
+      <c r="AT84" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="AU84" s="25"/>
-      <c r="AV84" s="25"/>
-      <c r="AW84" s="25"/>
-      <c r="AX84" s="25" t="s">
+      <c r="AU84" s="36"/>
+      <c r="AV84" s="36"/>
+      <c r="AW84" s="36"/>
+      <c r="AX84" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="AY84" s="25"/>
-      <c r="AZ84" s="25"/>
-      <c r="BA84" s="25"/>
-      <c r="BB84" s="25" t="s">
+      <c r="AY84" s="36"/>
+      <c r="AZ84" s="36"/>
+      <c r="BA84" s="36"/>
+      <c r="BB84" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="BC84" s="25"/>
-      <c r="BD84" s="25"/>
-      <c r="BE84" s="25"/>
-      <c r="BF84" s="25" t="s">
+      <c r="BC84" s="36"/>
+      <c r="BD84" s="36"/>
+      <c r="BE84" s="36"/>
+      <c r="BF84" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="BG84" s="25"/>
-      <c r="BH84" s="25"/>
-      <c r="BI84" s="25"/>
-      <c r="BJ84" s="25" t="s">
+      <c r="BG84" s="36"/>
+      <c r="BH84" s="36"/>
+      <c r="BI84" s="36"/>
+      <c r="BJ84" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="BK84" s="25"/>
-      <c r="BL84" s="25"/>
-      <c r="BM84" s="25"/>
-      <c r="BN84" s="25" t="s">
+      <c r="BK84" s="36"/>
+      <c r="BL84" s="36"/>
+      <c r="BM84" s="36"/>
+      <c r="BN84" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="BO84" s="25"/>
-      <c r="BP84" s="25"/>
-      <c r="BQ84" s="25"/>
-      <c r="BR84" s="25" t="s">
+      <c r="BO84" s="36"/>
+      <c r="BP84" s="36"/>
+      <c r="BQ84" s="36"/>
+      <c r="BR84" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="BS84" s="25"/>
-      <c r="BT84" s="25"/>
-      <c r="BU84" s="25"/>
-      <c r="BV84" s="25" t="s">
+      <c r="BS84" s="36"/>
+      <c r="BT84" s="36"/>
+      <c r="BU84" s="36"/>
+      <c r="BV84" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="BW84" s="25"/>
-      <c r="BX84" s="25"/>
-      <c r="BY84" s="25"/>
-      <c r="BZ84" s="25" t="s">
+      <c r="BW84" s="36"/>
+      <c r="BX84" s="36"/>
+      <c r="BY84" s="36"/>
+      <c r="BZ84" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="CA84" s="25"/>
-      <c r="CB84" s="25"/>
-      <c r="CC84" s="25"/>
-      <c r="CD84" s="25" t="s">
+      <c r="CA84" s="36"/>
+      <c r="CB84" s="36"/>
+      <c r="CC84" s="36"/>
+      <c r="CD84" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="CE84" s="25"/>
-      <c r="CF84" s="25"/>
-      <c r="CG84" s="25"/>
-      <c r="CH84" s="25" t="s">
+      <c r="CE84" s="36"/>
+      <c r="CF84" s="36"/>
+      <c r="CG84" s="36"/>
+      <c r="CH84" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="CI84" s="25"/>
-      <c r="CJ84" s="25"/>
-      <c r="CK84" s="25"/>
-      <c r="CL84" s="22" t="s">
+      <c r="CI84" s="21"/>
+      <c r="CJ84" s="21"/>
+      <c r="CK84" s="21"/>
+      <c r="CL84" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="CM84" s="22"/>
-      <c r="CN84" s="22"/>
-      <c r="CO84" s="22"/>
-      <c r="CP84" s="21"/>
-      <c r="CQ84" s="21"/>
-      <c r="CR84" s="21"/>
-      <c r="CS84" s="21"/>
+      <c r="CM84" s="21"/>
+      <c r="CN84" s="21"/>
+      <c r="CO84" s="21"/>
+      <c r="CP84" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="CQ84" s="22"/>
+      <c r="CR84" s="22"/>
+      <c r="CS84" s="22"/>
+      <c r="CT84" s="22"/>
     </row>
     <row r="85" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
@@ -13566,17 +13666,20 @@
       <c r="CO85" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CP85" s="5"/>
-      <c r="CQ85" s="5"/>
-      <c r="CR85" s="5"/>
-      <c r="CS85" s="5"/>
+      <c r="CP85" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ85" s="13"/>
+      <c r="CR85" s="13"/>
+      <c r="CS85" s="13"/>
+      <c r="CT85" s="13"/>
     </row>
     <row r="86" spans="1:147" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
-      <c r="CP86" s="6"/>
-      <c r="CQ86" s="6"/>
-      <c r="CR86" s="6"/>
-      <c r="CS86" s="6"/>
+      <c r="CQ86" s="30"/>
+      <c r="CR86" s="30"/>
+      <c r="CS86" s="30"/>
+      <c r="CT86" s="30"/>
     </row>
     <row r="87" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
@@ -13835,34 +13938,36 @@
         <v>26.723039518925432</v>
       </c>
       <c r="CH87" s="14">
-        <v>119.68926506651778</v>
+        <v>121.16025018909821</v>
       </c>
       <c r="CI87" s="14">
-        <v>54.234815611170461</v>
+        <v>53.577127435746974</v>
       </c>
       <c r="CJ87" s="14">
-        <v>47.556407623831774</v>
+        <v>41.79750024321649</v>
       </c>
       <c r="CK87" s="14">
-        <v>68.497582133349454</v>
+        <v>60.955362663341816</v>
       </c>
       <c r="CL87" s="14">
-        <v>66.933998569187622</v>
+        <v>66.97318552703959</v>
       </c>
       <c r="CM87" s="14">
-        <v>-7.9206256614208002</v>
+        <v>-8.1914816710361578</v>
       </c>
       <c r="CN87" s="14">
-        <v>17.288314683878994</v>
+        <v>17.140414692628639</v>
       </c>
       <c r="CO87" s="14">
-        <v>9.9109009419978662</v>
-      </c>
-      <c r="CP87" s="23"/>
-      <c r="CQ87" s="23"/>
-      <c r="CR87" s="23"/>
-      <c r="CS87" s="23"/>
-      <c r="CT87" s="8"/>
+        <v>9.9884926983417017</v>
+      </c>
+      <c r="CP87" s="31">
+        <v>8.1760150812621504</v>
+      </c>
+      <c r="CQ87" s="32"/>
+      <c r="CR87" s="32"/>
+      <c r="CS87" s="32"/>
+      <c r="CT87" s="32"/>
       <c r="CU87" s="8"/>
       <c r="CV87" s="8"/>
       <c r="CW87" s="8"/>
@@ -14170,34 +14275,36 @@
         <v>4.2518005373774344</v>
       </c>
       <c r="CH88" s="14">
-        <v>11.869552952245726</v>
+        <v>12.504867481876559</v>
       </c>
       <c r="CI88" s="14">
-        <v>8.5848592374627088</v>
+        <v>8.9839644102808052</v>
       </c>
       <c r="CJ88" s="14">
-        <v>8.149243885412119</v>
+        <v>7.0826101531543628</v>
       </c>
       <c r="CK88" s="14">
-        <v>15.453253697379125</v>
+        <v>13.525702826576719</v>
       </c>
       <c r="CL88" s="14">
-        <v>-22.733127261153541</v>
+        <v>-22.235476281524015</v>
       </c>
       <c r="CM88" s="14">
-        <v>3.2974895816976471</v>
+        <v>1.4623277080224852</v>
       </c>
       <c r="CN88" s="14">
-        <v>1.4103527834433862</v>
+        <v>0.8249656350265866</v>
       </c>
       <c r="CO88" s="14">
         <v>-8.4755685706075781</v>
       </c>
-      <c r="CP88" s="23"/>
-      <c r="CQ88" s="23"/>
-      <c r="CR88" s="23"/>
-      <c r="CS88" s="23"/>
-      <c r="CT88" s="8"/>
+      <c r="CP88" s="31">
+        <v>12.888564132041608</v>
+      </c>
+      <c r="CQ88" s="32"/>
+      <c r="CR88" s="32"/>
+      <c r="CS88" s="32"/>
+      <c r="CT88" s="32"/>
       <c r="CU88" s="8"/>
       <c r="CV88" s="8"/>
       <c r="CW88" s="8"/>
@@ -14528,11 +14635,13 @@
       <c r="CO89" s="14">
         <v>60.491148122143812</v>
       </c>
-      <c r="CP89" s="23"/>
-      <c r="CQ89" s="23"/>
-      <c r="CR89" s="23"/>
-      <c r="CS89" s="23"/>
-      <c r="CT89" s="8"/>
+      <c r="CP89" s="31">
+        <v>14.500882329394528</v>
+      </c>
+      <c r="CQ89" s="32"/>
+      <c r="CR89" s="32"/>
+      <c r="CS89" s="32"/>
+      <c r="CT89" s="32"/>
       <c r="CU89" s="8"/>
       <c r="CV89" s="8"/>
       <c r="CW89" s="8"/>
@@ -14852,22 +14961,24 @@
         <v>3.3616295313059226</v>
       </c>
       <c r="CL90" s="14">
-        <v>14.963370710976747</v>
+        <v>14.963370710976733</v>
       </c>
       <c r="CM90" s="14">
-        <v>12.000683917244444</v>
+        <v>12.00068391724443</v>
       </c>
       <c r="CN90" s="14">
         <v>13.186386395108343</v>
       </c>
       <c r="CO90" s="14">
-        <v>14.768083517647398</v>
-      </c>
-      <c r="CP90" s="23"/>
-      <c r="CQ90" s="23"/>
-      <c r="CR90" s="23"/>
-      <c r="CS90" s="23"/>
-      <c r="CT90" s="8"/>
+        <v>14.768083517647383</v>
+      </c>
+      <c r="CP90" s="31">
+        <v>10.33374462129342</v>
+      </c>
+      <c r="CQ90" s="32"/>
+      <c r="CR90" s="32"/>
+      <c r="CS90" s="32"/>
+      <c r="CT90" s="32"/>
       <c r="CU90" s="8"/>
       <c r="CV90" s="8"/>
       <c r="CW90" s="8"/>
@@ -15187,22 +15298,24 @@
         <v>18.175311829899286</v>
       </c>
       <c r="CL91" s="14">
-        <v>12.839132155355642</v>
+        <v>13.466646965320962</v>
       </c>
       <c r="CM91" s="14">
-        <v>11.363055133077154</v>
+        <v>11.36305513307714</v>
       </c>
       <c r="CN91" s="14">
-        <v>6.8244223787850729</v>
+        <v>6.0948181932813696</v>
       </c>
       <c r="CO91" s="14">
-        <v>13.995138078532477</v>
-      </c>
-      <c r="CP91" s="23"/>
-      <c r="CQ91" s="23"/>
-      <c r="CR91" s="23"/>
-      <c r="CS91" s="23"/>
-      <c r="CT91" s="8"/>
+        <v>13.94667411688178</v>
+      </c>
+      <c r="CP91" s="31">
+        <v>6.77658828867267</v>
+      </c>
+      <c r="CQ91" s="32"/>
+      <c r="CR91" s="32"/>
+      <c r="CS91" s="32"/>
+      <c r="CT91" s="32"/>
       <c r="CU91" s="8"/>
       <c r="CV91" s="8"/>
       <c r="CW91" s="8"/>
@@ -15516,28 +15629,30 @@
         <v>6.8840178404070684</v>
       </c>
       <c r="CJ92" s="14">
-        <v>18.016237940591878</v>
+        <v>18.014129712633761</v>
       </c>
       <c r="CK92" s="14">
         <v>5.6946661002921388</v>
       </c>
       <c r="CL92" s="14">
-        <v>3.4229356639520034</v>
+        <v>3.8095451669350098</v>
       </c>
       <c r="CM92" s="14">
-        <v>2.1172669659889038</v>
+        <v>2.7098560832714611</v>
       </c>
       <c r="CN92" s="14">
-        <v>-1.355157974352224</v>
+        <v>-0.95764519569405593</v>
       </c>
       <c r="CO92" s="14">
-        <v>4.4262467348136596</v>
-      </c>
-      <c r="CP92" s="23"/>
-      <c r="CQ92" s="23"/>
-      <c r="CR92" s="23"/>
-      <c r="CS92" s="23"/>
-      <c r="CT92" s="8"/>
+        <v>4.2483615085071591</v>
+      </c>
+      <c r="CP92" s="31">
+        <v>9.4113306267074108</v>
+      </c>
+      <c r="CQ92" s="32"/>
+      <c r="CR92" s="32"/>
+      <c r="CS92" s="32"/>
+      <c r="CT92" s="32"/>
       <c r="CU92" s="8"/>
       <c r="CV92" s="8"/>
       <c r="CW92" s="8"/>
@@ -15845,34 +15960,36 @@
         <v>26.711100106264723</v>
       </c>
       <c r="CH93" s="14">
-        <v>12.415382690912935</v>
+        <v>12.948809065772423</v>
       </c>
       <c r="CI93" s="14">
-        <v>2.8710639306631833</v>
+        <v>3.1739143366789477</v>
       </c>
       <c r="CJ93" s="14">
-        <v>-3.2511224615543171</v>
+        <v>2.657681534593209</v>
       </c>
       <c r="CK93" s="14">
-        <v>10.153253740682118</v>
+        <v>8.8467557685507785</v>
       </c>
       <c r="CL93" s="14">
-        <v>-26.879647249614521</v>
+        <v>-26.00537888077325</v>
       </c>
       <c r="CM93" s="14">
-        <v>-5.2502907535679952</v>
+        <v>-5.1891031388494184</v>
       </c>
       <c r="CN93" s="14">
-        <v>7.7975281178963343</v>
+        <v>4.8807711299909187</v>
       </c>
       <c r="CO93" s="14">
-        <v>4.2922769316479048</v>
-      </c>
-      <c r="CP93" s="23"/>
-      <c r="CQ93" s="23"/>
-      <c r="CR93" s="23"/>
-      <c r="CS93" s="23"/>
-      <c r="CT93" s="8"/>
+        <v>6.157988704053551</v>
+      </c>
+      <c r="CP93" s="31">
+        <v>1.6976585301835314</v>
+      </c>
+      <c r="CQ93" s="32"/>
+      <c r="CR93" s="32"/>
+      <c r="CS93" s="32"/>
+      <c r="CT93" s="32"/>
       <c r="CU93" s="8"/>
       <c r="CV93" s="8"/>
       <c r="CW93" s="8"/>
@@ -16180,34 +16297,36 @@
         <v>62.43989318054517</v>
       </c>
       <c r="CH94" s="14">
-        <v>18.74286702631008</v>
+        <v>18.739839470847897</v>
       </c>
       <c r="CI94" s="14">
-        <v>31.796044372733689</v>
+        <v>31.796839975050773</v>
       </c>
       <c r="CJ94" s="14">
-        <v>44.626175375585518</v>
+        <v>43.87875496339899</v>
       </c>
       <c r="CK94" s="14">
-        <v>40.652027393024923</v>
+        <v>39.386987193883385</v>
       </c>
       <c r="CL94" s="14">
-        <v>16.918925410049781</v>
+        <v>14.029993688983637</v>
       </c>
       <c r="CM94" s="14">
-        <v>10.906146114480265</v>
+        <v>13.620708923387497</v>
       </c>
       <c r="CN94" s="14">
-        <v>-8.4738636058248602</v>
+        <v>-4.3908106950477475</v>
       </c>
       <c r="CO94" s="14">
-        <v>11.276343102357316</v>
-      </c>
-      <c r="CP94" s="23"/>
-      <c r="CQ94" s="23"/>
-      <c r="CR94" s="23"/>
-      <c r="CS94" s="23"/>
-      <c r="CT94" s="8"/>
+        <v>11.013459127455832</v>
+      </c>
+      <c r="CP94" s="31">
+        <v>0.97031957672018621</v>
+      </c>
+      <c r="CQ94" s="32"/>
+      <c r="CR94" s="32"/>
+      <c r="CS94" s="32"/>
+      <c r="CT94" s="32"/>
       <c r="CU94" s="8"/>
       <c r="CV94" s="8"/>
       <c r="CW94" s="8"/>
@@ -16351,11 +16470,11 @@
       <c r="CM95" s="8"/>
       <c r="CN95" s="8"/>
       <c r="CO95" s="8"/>
-      <c r="CP95" s="24"/>
-      <c r="CQ95" s="24"/>
-      <c r="CR95" s="24"/>
-      <c r="CS95" s="24"/>
-      <c r="CT95" s="8"/>
+      <c r="CP95" s="26"/>
+      <c r="CQ95" s="33"/>
+      <c r="CR95" s="33"/>
+      <c r="CS95" s="33"/>
+      <c r="CT95" s="33"/>
       <c r="CU95" s="8"/>
       <c r="CV95" s="8"/>
       <c r="CW95" s="8"/>
@@ -16663,34 +16782,36 @@
         <v>12.311513952847946</v>
       </c>
       <c r="CH96" s="14">
-        <v>16.849939192814546</v>
+        <v>16.969705458239105</v>
       </c>
       <c r="CI96" s="14">
-        <v>13.798731749966194</v>
+        <v>13.815290167392675</v>
       </c>
       <c r="CJ96" s="14">
-        <v>33.199486060127384</v>
+        <v>33.574253009890725</v>
       </c>
       <c r="CK96" s="14">
-        <v>21.958128353759164</v>
+        <v>21.344983004246828</v>
       </c>
       <c r="CL96" s="14">
-        <v>20.195305425122001</v>
+        <v>20.613088199696051</v>
       </c>
       <c r="CM96" s="14">
-        <v>10.396505205584774</v>
+        <v>10.757972267291493</v>
       </c>
       <c r="CN96" s="14">
-        <v>11.351221311280611</v>
+        <v>11.189484494720389</v>
       </c>
       <c r="CO96" s="14">
-        <v>12.269296642528872</v>
-      </c>
-      <c r="CP96" s="23"/>
-      <c r="CQ96" s="23"/>
-      <c r="CR96" s="23"/>
-      <c r="CS96" s="23"/>
-      <c r="CT96" s="8"/>
+        <v>12.385664564031657</v>
+      </c>
+      <c r="CP96" s="31">
+        <v>8.8870170601007743</v>
+      </c>
+      <c r="CQ96" s="32"/>
+      <c r="CR96" s="32"/>
+      <c r="CS96" s="32"/>
+      <c r="CT96" s="32"/>
       <c r="CU96" s="8"/>
       <c r="CV96" s="8"/>
       <c r="CW96" s="8"/>
@@ -16835,19 +16956,20 @@
       <c r="CM97" s="11"/>
       <c r="CN97" s="11"/>
       <c r="CO97" s="11"/>
-      <c r="CP97" s="5"/>
-      <c r="CQ97" s="5"/>
-      <c r="CR97" s="5"/>
-      <c r="CS97" s="5"/>
+      <c r="CP97" s="28"/>
+      <c r="CQ97" s="13"/>
+      <c r="CR97" s="13"/>
+      <c r="CS97" s="13"/>
+      <c r="CT97" s="13"/>
     </row>
     <row r="98" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="CP98" s="6"/>
-      <c r="CQ98" s="6"/>
-      <c r="CR98" s="6"/>
-      <c r="CS98" s="6"/>
+      <c r="CQ98" s="30"/>
+      <c r="CR98" s="30"/>
+      <c r="CS98" s="30"/>
+      <c r="CT98" s="30"/>
     </row>
     <row r="99" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="8"/>
@@ -16942,11 +17064,11 @@
       <c r="CM99" s="8"/>
       <c r="CN99" s="8"/>
       <c r="CO99" s="8"/>
-      <c r="CP99" s="24"/>
-      <c r="CQ99" s="24"/>
-      <c r="CR99" s="24"/>
-      <c r="CS99" s="24"/>
-      <c r="CT99" s="8"/>
+      <c r="CP99" s="26"/>
+      <c r="CQ99" s="33"/>
+      <c r="CR99" s="33"/>
+      <c r="CS99" s="33"/>
+      <c r="CT99" s="33"/>
       <c r="CU99" s="8"/>
       <c r="CV99" s="8"/>
       <c r="CW99" s="8"/>
@@ -17090,11 +17212,11 @@
       <c r="CM100" s="8"/>
       <c r="CN100" s="8"/>
       <c r="CO100" s="8"/>
-      <c r="CP100" s="24"/>
-      <c r="CQ100" s="24"/>
-      <c r="CR100" s="24"/>
-      <c r="CS100" s="24"/>
-      <c r="CT100" s="8"/>
+      <c r="CP100" s="26"/>
+      <c r="CQ100" s="33"/>
+      <c r="CR100" s="33"/>
+      <c r="CS100" s="33"/>
+      <c r="CT100" s="33"/>
       <c r="CU100" s="8"/>
       <c r="CV100" s="8"/>
       <c r="CW100" s="8"/>
@@ -17152,7 +17274,7 @@
     </row>
     <row r="102" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="1:151" x14ac:dyDescent="0.2">
@@ -17162,7 +17284,7 @@
     </row>
     <row r="105" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="106" spans="1:151" x14ac:dyDescent="0.2">
@@ -17172,150 +17294,153 @@
     </row>
     <row r="108" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
-      <c r="B108" s="26">
+      <c r="B108" s="35">
         <v>2000</v>
       </c>
-      <c r="C108" s="26"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="26"/>
-      <c r="F108" s="26">
+      <c r="C108" s="35"/>
+      <c r="D108" s="35"/>
+      <c r="E108" s="35"/>
+      <c r="F108" s="35">
         <v>2001</v>
       </c>
-      <c r="G108" s="26"/>
-      <c r="H108" s="26"/>
-      <c r="I108" s="26"/>
-      <c r="J108" s="26">
+      <c r="G108" s="35"/>
+      <c r="H108" s="35"/>
+      <c r="I108" s="35"/>
+      <c r="J108" s="35">
         <v>2002</v>
       </c>
-      <c r="K108" s="26"/>
-      <c r="L108" s="26"/>
-      <c r="M108" s="26"/>
-      <c r="N108" s="26">
+      <c r="K108" s="35"/>
+      <c r="L108" s="35"/>
+      <c r="M108" s="35"/>
+      <c r="N108" s="35">
         <v>2003</v>
       </c>
-      <c r="O108" s="26"/>
-      <c r="P108" s="26"/>
-      <c r="Q108" s="26"/>
-      <c r="R108" s="26">
+      <c r="O108" s="35"/>
+      <c r="P108" s="35"/>
+      <c r="Q108" s="35"/>
+      <c r="R108" s="35">
         <v>2004</v>
       </c>
-      <c r="S108" s="26"/>
-      <c r="T108" s="26"/>
-      <c r="U108" s="26"/>
-      <c r="V108" s="26">
+      <c r="S108" s="35"/>
+      <c r="T108" s="35"/>
+      <c r="U108" s="35"/>
+      <c r="V108" s="35">
         <v>2005</v>
       </c>
-      <c r="W108" s="26"/>
-      <c r="X108" s="26"/>
-      <c r="Y108" s="26"/>
-      <c r="Z108" s="26">
+      <c r="W108" s="35"/>
+      <c r="X108" s="35"/>
+      <c r="Y108" s="35"/>
+      <c r="Z108" s="35">
         <v>2006</v>
       </c>
-      <c r="AA108" s="26"/>
-      <c r="AB108" s="26"/>
-      <c r="AC108" s="26"/>
-      <c r="AD108" s="26">
+      <c r="AA108" s="35"/>
+      <c r="AB108" s="35"/>
+      <c r="AC108" s="35"/>
+      <c r="AD108" s="35">
         <v>2007</v>
       </c>
-      <c r="AE108" s="26"/>
-      <c r="AF108" s="26"/>
-      <c r="AG108" s="26"/>
-      <c r="AH108" s="26">
+      <c r="AE108" s="35"/>
+      <c r="AF108" s="35"/>
+      <c r="AG108" s="35"/>
+      <c r="AH108" s="35">
         <v>2008</v>
       </c>
-      <c r="AI108" s="26"/>
-      <c r="AJ108" s="26"/>
-      <c r="AK108" s="26"/>
-      <c r="AL108" s="26">
+      <c r="AI108" s="35"/>
+      <c r="AJ108" s="35"/>
+      <c r="AK108" s="35"/>
+      <c r="AL108" s="35">
         <v>2009</v>
       </c>
-      <c r="AM108" s="26"/>
-      <c r="AN108" s="26"/>
-      <c r="AO108" s="26"/>
-      <c r="AP108" s="26">
+      <c r="AM108" s="35"/>
+      <c r="AN108" s="35"/>
+      <c r="AO108" s="35"/>
+      <c r="AP108" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="26"/>
-      <c r="AR108" s="26"/>
-      <c r="AS108" s="26"/>
-      <c r="AT108" s="26">
+      <c r="AQ108" s="35"/>
+      <c r="AR108" s="35"/>
+      <c r="AS108" s="35"/>
+      <c r="AT108" s="35">
         <v>2011</v>
       </c>
-      <c r="AU108" s="26"/>
-      <c r="AV108" s="26"/>
-      <c r="AW108" s="26"/>
-      <c r="AX108" s="26">
+      <c r="AU108" s="35"/>
+      <c r="AV108" s="35"/>
+      <c r="AW108" s="35"/>
+      <c r="AX108" s="35">
         <v>2012</v>
       </c>
-      <c r="AY108" s="26"/>
-      <c r="AZ108" s="26"/>
-      <c r="BA108" s="26"/>
-      <c r="BB108" s="26">
+      <c r="AY108" s="35"/>
+      <c r="AZ108" s="35"/>
+      <c r="BA108" s="35"/>
+      <c r="BB108" s="35">
         <v>2013</v>
       </c>
-      <c r="BC108" s="26"/>
-      <c r="BD108" s="26"/>
-      <c r="BE108" s="26"/>
-      <c r="BF108" s="26">
+      <c r="BC108" s="35"/>
+      <c r="BD108" s="35"/>
+      <c r="BE108" s="35"/>
+      <c r="BF108" s="35">
         <v>2014</v>
       </c>
-      <c r="BG108" s="26"/>
-      <c r="BH108" s="26"/>
-      <c r="BI108" s="26"/>
-      <c r="BJ108" s="26">
+      <c r="BG108" s="35"/>
+      <c r="BH108" s="35"/>
+      <c r="BI108" s="35"/>
+      <c r="BJ108" s="35">
         <v>2015</v>
       </c>
-      <c r="BK108" s="26"/>
-      <c r="BL108" s="26"/>
-      <c r="BM108" s="26"/>
-      <c r="BN108" s="26">
+      <c r="BK108" s="35"/>
+      <c r="BL108" s="35"/>
+      <c r="BM108" s="35"/>
+      <c r="BN108" s="35">
         <v>2016</v>
       </c>
-      <c r="BO108" s="26"/>
-      <c r="BP108" s="26"/>
-      <c r="BQ108" s="26"/>
-      <c r="BR108" s="26">
+      <c r="BO108" s="35"/>
+      <c r="BP108" s="35"/>
+      <c r="BQ108" s="35"/>
+      <c r="BR108" s="35">
         <v>2017</v>
       </c>
-      <c r="BS108" s="26"/>
-      <c r="BT108" s="26"/>
-      <c r="BU108" s="26"/>
-      <c r="BV108" s="26">
+      <c r="BS108" s="35"/>
+      <c r="BT108" s="35"/>
+      <c r="BU108" s="35"/>
+      <c r="BV108" s="35">
         <v>2018</v>
       </c>
-      <c r="BW108" s="26"/>
-      <c r="BX108" s="26"/>
-      <c r="BY108" s="26"/>
-      <c r="BZ108" s="26">
+      <c r="BW108" s="35"/>
+      <c r="BX108" s="35"/>
+      <c r="BY108" s="35"/>
+      <c r="BZ108" s="35">
         <v>2019</v>
       </c>
-      <c r="CA108" s="26"/>
-      <c r="CB108" s="26"/>
-      <c r="CC108" s="26"/>
-      <c r="CD108" s="25">
+      <c r="CA108" s="35"/>
+      <c r="CB108" s="35"/>
+      <c r="CC108" s="35"/>
+      <c r="CD108" s="36">
         <v>2020</v>
       </c>
-      <c r="CE108" s="25"/>
-      <c r="CF108" s="25"/>
-      <c r="CG108" s="25"/>
-      <c r="CH108" s="25">
+      <c r="CE108" s="36"/>
+      <c r="CF108" s="36"/>
+      <c r="CG108" s="36"/>
+      <c r="CH108" s="21">
         <v>2021</v>
       </c>
-      <c r="CI108" s="25"/>
-      <c r="CJ108" s="25"/>
-      <c r="CK108" s="25"/>
-      <c r="CL108" s="22">
+      <c r="CI108" s="21"/>
+      <c r="CJ108" s="21"/>
+      <c r="CK108" s="21"/>
+      <c r="CL108" s="21">
         <v>2022</v>
       </c>
-      <c r="CM108" s="22"/>
-      <c r="CN108" s="22"/>
-      <c r="CO108" s="22"/>
-      <c r="CP108" s="22">
+      <c r="CM108" s="21"/>
+      <c r="CN108" s="21"/>
+      <c r="CO108" s="21"/>
+      <c r="CP108" s="24">
         <v>2023</v>
       </c>
-      <c r="CQ108" s="22"/>
-      <c r="CR108" s="22"/>
-      <c r="CS108" s="22"/>
+      <c r="CQ108" s="24"/>
+      <c r="CR108" s="24"/>
+      <c r="CS108" s="24"/>
+      <c r="CT108" s="24">
+        <v>2024</v>
+      </c>
     </row>
     <row r="109" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
@@ -17595,17 +17720,20 @@
       <c r="CO109" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CP109" s="13" t="s">
+      <c r="CP109" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CQ109" s="13" t="s">
+      <c r="CQ109" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CR109" s="13" t="s">
+      <c r="CR109" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CS109" s="13" t="s">
+      <c r="CS109" s="29" t="s">
         <v>10</v>
+      </c>
+      <c r="CT109" s="29" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -17880,30 +18008,32 @@
         <v>118.63153574023102</v>
       </c>
       <c r="CL111" s="14">
-        <v>126.09642903416727</v>
+        <v>126.09642903416729</v>
       </c>
       <c r="CM111" s="14">
-        <v>124.61983118929622</v>
+        <v>124.61983118929625</v>
       </c>
       <c r="CN111" s="14">
-        <v>128.49759727085754</v>
+        <v>128.49759727085751</v>
       </c>
       <c r="CO111" s="14">
         <v>133.0320896828776</v>
       </c>
-      <c r="CP111" s="14">
-        <v>136.72622876503408</v>
-      </c>
-      <c r="CQ111" s="14">
+      <c r="CP111" s="31">
+        <v>136.72622876503405</v>
+      </c>
+      <c r="CQ111" s="31">
         <v>141.65669937816352</v>
       </c>
-      <c r="CR111" s="14">
+      <c r="CR111" s="31">
         <v>130.28192558024955</v>
       </c>
-      <c r="CS111" s="14">
-        <v>136.73992410331394</v>
-      </c>
-      <c r="CT111" s="8"/>
+      <c r="CS111" s="31">
+        <v>136.18538796035799</v>
+      </c>
+      <c r="CT111" s="31">
+        <v>139.22329574183948</v>
+      </c>
       <c r="CU111" s="8"/>
       <c r="CV111" s="8"/>
       <c r="CW111" s="8"/>
@@ -18238,19 +18368,21 @@
       <c r="CO112" s="14">
         <v>114.41806830514707</v>
       </c>
-      <c r="CP112" s="14">
+      <c r="CP112" s="31">
         <v>119.59147290110843</v>
       </c>
-      <c r="CQ112" s="14">
+      <c r="CQ112" s="31">
         <v>119.26852215132922</v>
       </c>
-      <c r="CR112" s="14">
+      <c r="CR112" s="31">
         <v>120.01837611904935</v>
       </c>
-      <c r="CS112" s="14">
-        <v>117.82399759332365</v>
-      </c>
-      <c r="CT112" s="8"/>
+      <c r="CS112" s="31">
+        <v>117.82399759332367</v>
+      </c>
+      <c r="CT112" s="31">
+        <v>122.28374398804517</v>
+      </c>
       <c r="CU112" s="8"/>
       <c r="CV112" s="8"/>
       <c r="CW112" s="8"/>
@@ -18585,19 +18717,21 @@
       <c r="CO113" s="14">
         <v>117.03672057255258</v>
       </c>
-      <c r="CP113" s="14">
+      <c r="CP113" s="31">
         <v>122.00663809992125</v>
       </c>
-      <c r="CQ113" s="14">
+      <c r="CQ113" s="31">
         <v>122.63218135093956</v>
       </c>
-      <c r="CR113" s="14">
+      <c r="CR113" s="31">
         <v>124.72795126241223</v>
       </c>
-      <c r="CS113" s="14">
+      <c r="CS113" s="31">
         <v>122.09794183971367</v>
       </c>
-      <c r="CT113" s="8"/>
+      <c r="CT113" s="31">
+        <v>126.00770654539204</v>
+      </c>
       <c r="CU113" s="8"/>
       <c r="CV113" s="8"/>
       <c r="CW113" s="8"/>
@@ -18932,19 +19066,21 @@
       <c r="CO114" s="14">
         <v>115.53683219443604</v>
       </c>
-      <c r="CP114" s="14">
+      <c r="CP114" s="31">
         <v>115.7444035129955</v>
       </c>
-      <c r="CQ114" s="14">
-        <v>116.50252804574832</v>
-      </c>
-      <c r="CR114" s="14">
+      <c r="CQ114" s="31">
+        <v>116.50252804574835</v>
+      </c>
+      <c r="CR114" s="31">
         <v>118.14474888583113</v>
       </c>
-      <c r="CS114" s="14">
-        <v>120.40996061596698</v>
-      </c>
-      <c r="CT114" s="8"/>
+      <c r="CS114" s="31">
+        <v>120.40996061596701</v>
+      </c>
+      <c r="CT114" s="31">
+        <v>119.8434881806138</v>
+      </c>
       <c r="CU114" s="8"/>
       <c r="CV114" s="8"/>
       <c r="CW114" s="8"/>
@@ -19279,19 +19415,21 @@
       <c r="CO115" s="14">
         <v>103.34897185336216</v>
       </c>
-      <c r="CP115" s="14">
+      <c r="CP115" s="31">
         <v>102.92008743148232</v>
       </c>
-      <c r="CQ115" s="14">
+      <c r="CQ115" s="31">
         <v>103.61706726923939</v>
       </c>
-      <c r="CR115" s="14">
+      <c r="CR115" s="31">
         <v>102.55633330527829</v>
       </c>
-      <c r="CS115" s="14">
+      <c r="CS115" s="31">
         <v>103.68565782484302</v>
       </c>
-      <c r="CT115" s="8"/>
+      <c r="CT115" s="31">
+        <v>103.35537173647829</v>
+      </c>
       <c r="CU115" s="8"/>
       <c r="CV115" s="8"/>
       <c r="CW115" s="8"/>
@@ -19621,24 +19759,26 @@
         <v>115.24165168078628</v>
       </c>
       <c r="CN116" s="14">
-        <v>116.52552735229604</v>
+        <v>116.52558507684159</v>
       </c>
       <c r="CO116" s="14">
         <v>117.00435355436905</v>
       </c>
-      <c r="CP116" s="14">
-        <v>118.63204242974616</v>
-      </c>
-      <c r="CQ116" s="14">
-        <v>119.51872166523746</v>
-      </c>
-      <c r="CR116" s="14">
-        <v>120.60269344232925</v>
-      </c>
-      <c r="CS116" s="14">
-        <v>120.48726985000336</v>
-      </c>
-      <c r="CT116" s="8"/>
+      <c r="CP116" s="31">
+        <v>118.32018478524459</v>
+      </c>
+      <c r="CQ116" s="31">
+        <v>118.82915304474481</v>
+      </c>
+      <c r="CR116" s="31">
+        <v>119.9175022333163</v>
+      </c>
+      <c r="CS116" s="31">
+        <v>120.3904189202468</v>
+      </c>
+      <c r="CT116" s="31">
+        <v>120.72653522790384</v>
+      </c>
       <c r="CU116" s="8"/>
       <c r="CV116" s="8"/>
       <c r="CW116" s="8"/>
@@ -19973,19 +20113,21 @@
       <c r="CO117" s="14">
         <v>117.79146924859019</v>
       </c>
-      <c r="CP117" s="14">
-        <v>120.67834689029524</v>
-      </c>
-      <c r="CQ117" s="14">
-        <v>119.17508385865621</v>
-      </c>
-      <c r="CR117" s="14">
-        <v>123.63151075820188</v>
-      </c>
-      <c r="CS117" s="14">
-        <v>121.29781593800617</v>
-      </c>
-      <c r="CT117" s="8"/>
+      <c r="CP117" s="31">
+        <v>120.87246097661833</v>
+      </c>
+      <c r="CQ117" s="31">
+        <v>119.17508385865622</v>
+      </c>
+      <c r="CR117" s="31">
+        <v>121.14795441289259</v>
+      </c>
+      <c r="CS117" s="31">
+        <v>119.74403340048416</v>
+      </c>
+      <c r="CT117" s="31">
+        <v>123.59356996541166</v>
+      </c>
       <c r="CU117" s="8"/>
       <c r="CV117" s="8"/>
       <c r="CW117" s="8"/>
@@ -20312,27 +20454,29 @@
         <v>112.00394049520814</v>
       </c>
       <c r="CM118" s="14">
-        <v>113.13547570597326</v>
+        <v>113.13547570597329</v>
       </c>
       <c r="CN118" s="14">
-        <v>111.27094242821842</v>
+        <v>111.35472634927849</v>
       </c>
       <c r="CO118" s="14">
-        <v>114.26976550965541</v>
-      </c>
-      <c r="CP118" s="14">
-        <v>119.72353771979209</v>
-      </c>
-      <c r="CQ118" s="14">
+        <v>114.26976550965544</v>
+      </c>
+      <c r="CP118" s="31">
+        <v>119.3041020978674</v>
+      </c>
+      <c r="CQ118" s="31">
         <v>118.63400847867109</v>
       </c>
-      <c r="CR118" s="14">
+      <c r="CR118" s="31">
         <v>116.31755657998011</v>
       </c>
-      <c r="CS118" s="14">
+      <c r="CS118" s="31">
         <v>117.67128020805468</v>
       </c>
-      <c r="CT118" s="8"/>
+      <c r="CT118" s="31">
+        <v>121.90500916553087</v>
+      </c>
       <c r="CU118" s="8"/>
       <c r="CV118" s="8"/>
       <c r="CW118" s="8"/>
@@ -20480,11 +20624,11 @@
       <c r="CM119" s="8"/>
       <c r="CN119" s="8"/>
       <c r="CO119" s="8"/>
-      <c r="CP119" s="8"/>
-      <c r="CQ119" s="8"/>
-      <c r="CR119" s="8"/>
-      <c r="CS119" s="8"/>
-      <c r="CT119" s="8"/>
+      <c r="CP119" s="26"/>
+      <c r="CQ119" s="26"/>
+      <c r="CR119" s="26"/>
+      <c r="CS119" s="26"/>
+      <c r="CT119" s="26"/>
       <c r="CU119" s="8"/>
       <c r="CV119" s="8"/>
       <c r="CW119" s="8"/>
@@ -20808,30 +20952,32 @@
         <v>107.90147001950392</v>
       </c>
       <c r="CL120" s="14">
-        <v>112.33130479076783</v>
+        <v>112.33758189545402</v>
       </c>
       <c r="CM120" s="14">
-        <v>113.28644583069654</v>
+        <v>113.28456371223</v>
       </c>
       <c r="CN120" s="14">
-        <v>115.58029627840591</v>
+        <v>115.57111996086759</v>
       </c>
       <c r="CO120" s="14">
-        <v>116.13546076127123</v>
-      </c>
-      <c r="CP120" s="14">
-        <v>118.08849090170519</v>
-      </c>
-      <c r="CQ120" s="14">
-        <v>117.84076019058585</v>
-      </c>
-      <c r="CR120" s="14">
-        <v>119.76437076201178</v>
-      </c>
-      <c r="CS120" s="14">
-        <v>119.30573883472213</v>
-      </c>
-      <c r="CT120" s="8"/>
+        <v>116.07303612354485</v>
+      </c>
+      <c r="CP120" s="31">
+        <v>117.94413080635491</v>
+      </c>
+      <c r="CQ120" s="31">
+        <v>117.48037037902188</v>
+      </c>
+      <c r="CR120" s="31">
+        <v>119.232637937436</v>
+      </c>
+      <c r="CS120" s="31">
+        <v>119.00264083203311</v>
+      </c>
+      <c r="CT120" s="31">
+        <v>120.34002555372764</v>
+      </c>
       <c r="CU120" s="8"/>
       <c r="CV120" s="8"/>
       <c r="CW120" s="8"/>
@@ -20980,10 +21126,11 @@
       <c r="CM121" s="11"/>
       <c r="CN121" s="11"/>
       <c r="CO121" s="11"/>
-      <c r="CP121" s="11"/>
-      <c r="CQ121" s="11"/>
-      <c r="CR121" s="11"/>
-      <c r="CS121" s="11"/>
+      <c r="CP121" s="28"/>
+      <c r="CQ121" s="28"/>
+      <c r="CR121" s="28"/>
+      <c r="CS121" s="28"/>
+      <c r="CT121" s="28"/>
     </row>
     <row r="122" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
@@ -21002,7 +21149,7 @@
     </row>
     <row r="127" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="129" spans="1:151" x14ac:dyDescent="0.2">
@@ -21012,7 +21159,7 @@
     </row>
     <row r="130" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="131" spans="1:151" x14ac:dyDescent="0.2">
@@ -21022,150 +21169,153 @@
     </row>
     <row r="133" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
-      <c r="B133" s="26">
+      <c r="B133" s="35">
         <v>2000</v>
       </c>
-      <c r="C133" s="26"/>
-      <c r="D133" s="26"/>
-      <c r="E133" s="26"/>
-      <c r="F133" s="26">
+      <c r="C133" s="35"/>
+      <c r="D133" s="35"/>
+      <c r="E133" s="35"/>
+      <c r="F133" s="35">
         <v>2001</v>
       </c>
-      <c r="G133" s="26"/>
-      <c r="H133" s="26"/>
-      <c r="I133" s="26"/>
-      <c r="J133" s="26">
+      <c r="G133" s="35"/>
+      <c r="H133" s="35"/>
+      <c r="I133" s="35"/>
+      <c r="J133" s="35">
         <v>2002</v>
       </c>
-      <c r="K133" s="26"/>
-      <c r="L133" s="26"/>
-      <c r="M133" s="26"/>
-      <c r="N133" s="26">
+      <c r="K133" s="35"/>
+      <c r="L133" s="35"/>
+      <c r="M133" s="35"/>
+      <c r="N133" s="35">
         <v>2003</v>
       </c>
-      <c r="O133" s="26"/>
-      <c r="P133" s="26"/>
-      <c r="Q133" s="26"/>
-      <c r="R133" s="26">
+      <c r="O133" s="35"/>
+      <c r="P133" s="35"/>
+      <c r="Q133" s="35"/>
+      <c r="R133" s="35">
         <v>2004</v>
       </c>
-      <c r="S133" s="26"/>
-      <c r="T133" s="26"/>
-      <c r="U133" s="26"/>
-      <c r="V133" s="26">
+      <c r="S133" s="35"/>
+      <c r="T133" s="35"/>
+      <c r="U133" s="35"/>
+      <c r="V133" s="35">
         <v>2005</v>
       </c>
-      <c r="W133" s="26"/>
-      <c r="X133" s="26"/>
-      <c r="Y133" s="26"/>
-      <c r="Z133" s="26">
+      <c r="W133" s="35"/>
+      <c r="X133" s="35"/>
+      <c r="Y133" s="35"/>
+      <c r="Z133" s="35">
         <v>2006</v>
       </c>
-      <c r="AA133" s="26"/>
-      <c r="AB133" s="26"/>
-      <c r="AC133" s="26"/>
-      <c r="AD133" s="26">
+      <c r="AA133" s="35"/>
+      <c r="AB133" s="35"/>
+      <c r="AC133" s="35"/>
+      <c r="AD133" s="35">
         <v>2007</v>
       </c>
-      <c r="AE133" s="26"/>
-      <c r="AF133" s="26"/>
-      <c r="AG133" s="26"/>
-      <c r="AH133" s="26">
+      <c r="AE133" s="35"/>
+      <c r="AF133" s="35"/>
+      <c r="AG133" s="35"/>
+      <c r="AH133" s="35">
         <v>2008</v>
       </c>
-      <c r="AI133" s="26"/>
-      <c r="AJ133" s="26"/>
-      <c r="AK133" s="26"/>
-      <c r="AL133" s="26">
+      <c r="AI133" s="35"/>
+      <c r="AJ133" s="35"/>
+      <c r="AK133" s="35"/>
+      <c r="AL133" s="35">
         <v>2009</v>
       </c>
-      <c r="AM133" s="26"/>
-      <c r="AN133" s="26"/>
-      <c r="AO133" s="26"/>
-      <c r="AP133" s="26">
+      <c r="AM133" s="35"/>
+      <c r="AN133" s="35"/>
+      <c r="AO133" s="35"/>
+      <c r="AP133" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ133" s="26"/>
-      <c r="AR133" s="26"/>
-      <c r="AS133" s="26"/>
-      <c r="AT133" s="26">
+      <c r="AQ133" s="35"/>
+      <c r="AR133" s="35"/>
+      <c r="AS133" s="35"/>
+      <c r="AT133" s="35">
         <v>2011</v>
       </c>
-      <c r="AU133" s="26"/>
-      <c r="AV133" s="26"/>
-      <c r="AW133" s="26"/>
-      <c r="AX133" s="26">
+      <c r="AU133" s="35"/>
+      <c r="AV133" s="35"/>
+      <c r="AW133" s="35"/>
+      <c r="AX133" s="35">
         <v>2012</v>
       </c>
-      <c r="AY133" s="26"/>
-      <c r="AZ133" s="26"/>
-      <c r="BA133" s="26"/>
-      <c r="BB133" s="26">
+      <c r="AY133" s="35"/>
+      <c r="AZ133" s="35"/>
+      <c r="BA133" s="35"/>
+      <c r="BB133" s="35">
         <v>2013</v>
       </c>
-      <c r="BC133" s="26"/>
-      <c r="BD133" s="26"/>
-      <c r="BE133" s="26"/>
-      <c r="BF133" s="26">
+      <c r="BC133" s="35"/>
+      <c r="BD133" s="35"/>
+      <c r="BE133" s="35"/>
+      <c r="BF133" s="35">
         <v>2014</v>
       </c>
-      <c r="BG133" s="26"/>
-      <c r="BH133" s="26"/>
-      <c r="BI133" s="26"/>
-      <c r="BJ133" s="26">
+      <c r="BG133" s="35"/>
+      <c r="BH133" s="35"/>
+      <c r="BI133" s="35"/>
+      <c r="BJ133" s="35">
         <v>2015</v>
       </c>
-      <c r="BK133" s="26"/>
-      <c r="BL133" s="26"/>
-      <c r="BM133" s="26"/>
-      <c r="BN133" s="26">
+      <c r="BK133" s="35"/>
+      <c r="BL133" s="35"/>
+      <c r="BM133" s="35"/>
+      <c r="BN133" s="35">
         <v>2016</v>
       </c>
-      <c r="BO133" s="26"/>
-      <c r="BP133" s="26"/>
-      <c r="BQ133" s="26"/>
-      <c r="BR133" s="26">
+      <c r="BO133" s="35"/>
+      <c r="BP133" s="35"/>
+      <c r="BQ133" s="35"/>
+      <c r="BR133" s="35">
         <v>2017</v>
       </c>
-      <c r="BS133" s="26"/>
-      <c r="BT133" s="26"/>
-      <c r="BU133" s="26"/>
-      <c r="BV133" s="26">
+      <c r="BS133" s="35"/>
+      <c r="BT133" s="35"/>
+      <c r="BU133" s="35"/>
+      <c r="BV133" s="35">
         <v>2018</v>
       </c>
-      <c r="BW133" s="26"/>
-      <c r="BX133" s="26"/>
-      <c r="BY133" s="26"/>
-      <c r="BZ133" s="26">
+      <c r="BW133" s="35"/>
+      <c r="BX133" s="35"/>
+      <c r="BY133" s="35"/>
+      <c r="BZ133" s="35">
         <v>2019</v>
       </c>
-      <c r="CA133" s="26"/>
-      <c r="CB133" s="26"/>
-      <c r="CC133" s="26"/>
-      <c r="CD133" s="25">
+      <c r="CA133" s="35"/>
+      <c r="CB133" s="35"/>
+      <c r="CC133" s="35"/>
+      <c r="CD133" s="36">
         <v>2020</v>
       </c>
-      <c r="CE133" s="25"/>
-      <c r="CF133" s="25"/>
-      <c r="CG133" s="25"/>
-      <c r="CH133" s="25">
+      <c r="CE133" s="36"/>
+      <c r="CF133" s="36"/>
+      <c r="CG133" s="36"/>
+      <c r="CH133" s="21">
         <v>2021</v>
       </c>
-      <c r="CI133" s="25"/>
-      <c r="CJ133" s="25"/>
-      <c r="CK133" s="25"/>
-      <c r="CL133" s="22">
+      <c r="CI133" s="21"/>
+      <c r="CJ133" s="21"/>
+      <c r="CK133" s="21"/>
+      <c r="CL133" s="21">
         <v>2022</v>
       </c>
-      <c r="CM133" s="22"/>
-      <c r="CN133" s="22"/>
-      <c r="CO133" s="22"/>
-      <c r="CP133" s="22">
+      <c r="CM133" s="21"/>
+      <c r="CN133" s="21"/>
+      <c r="CO133" s="21"/>
+      <c r="CP133" s="24">
         <v>2023</v>
       </c>
-      <c r="CQ133" s="22"/>
-      <c r="CR133" s="22"/>
-      <c r="CS133" s="22"/>
+      <c r="CQ133" s="24"/>
+      <c r="CR133" s="24"/>
+      <c r="CS133" s="24"/>
+      <c r="CT133" s="24">
+        <v>2024</v>
+      </c>
     </row>
     <row r="134" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
@@ -21445,17 +21595,20 @@
       <c r="CO134" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CP134" s="13" t="s">
+      <c r="CP134" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CQ134" s="13" t="s">
+      <c r="CQ134" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CR134" s="13" t="s">
+      <c r="CR134" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CS134" s="13" t="s">
+      <c r="CS134" s="29" t="s">
         <v>10</v>
+      </c>
+      <c r="CT134" s="29" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -21730,30 +21883,32 @@
         <v>6.3517535811312325</v>
       </c>
       <c r="CL136" s="20">
-        <v>7.2501408841845167</v>
+        <v>7.2908054406897183</v>
       </c>
       <c r="CM136" s="20">
-        <v>4.5525961507475614</v>
+        <v>4.5325987616090133</v>
       </c>
       <c r="CN136" s="20">
-        <v>7.123031504693027</v>
+        <v>6.8263671541425266</v>
       </c>
       <c r="CO136" s="20">
-        <v>9.1431393370668612</v>
-      </c>
-      <c r="CP136" s="20">
-        <v>10.385944912529338</v>
-      </c>
-      <c r="CQ136" s="20">
-        <v>4.1495264516934016</v>
-      </c>
-      <c r="CR136" s="20">
-        <v>7.341248997434402</v>
-      </c>
-      <c r="CS136" s="20">
-        <v>8.9560712180225277</v>
-      </c>
-      <c r="CT136" s="8"/>
+        <v>8.7827302543622761</v>
+      </c>
+      <c r="CP136" s="34">
+        <v>10.423788448805297</v>
+      </c>
+      <c r="CQ136" s="34">
+        <v>4.1182304678552075</v>
+      </c>
+      <c r="CR136" s="34">
+        <v>7.0676659503017865</v>
+      </c>
+      <c r="CS136" s="34">
+        <v>8.5825179703148056</v>
+      </c>
+      <c r="CT136" s="34">
+        <v>10.334911865670122</v>
+      </c>
       <c r="CU136" s="8"/>
       <c r="CV136" s="8"/>
       <c r="CW136" s="8"/>
@@ -22077,30 +22232,32 @@
         <v>0.17388086679314779</v>
       </c>
       <c r="CL137" s="20">
-        <v>8.303106049360541E-2</v>
+        <v>8.3412439208495656E-2</v>
       </c>
       <c r="CM137" s="20">
-        <v>5.9636933637316959E-2</v>
+        <v>5.98484161638256E-2</v>
       </c>
       <c r="CN137" s="20">
-        <v>0.14132000283227314</v>
+        <v>0.13954470925155457</v>
       </c>
       <c r="CO137" s="20">
-        <v>0.16291089073254109</v>
-      </c>
-      <c r="CP137" s="20">
-        <v>5.4273256982205413E-2</v>
-      </c>
-      <c r="CQ137" s="20">
-        <v>5.6252594877349446E-2</v>
-      </c>
-      <c r="CR137" s="20">
-        <v>0.12845151548157613</v>
-      </c>
-      <c r="CS137" s="20">
-        <v>0.13312781712002994</v>
-      </c>
-      <c r="CT137" s="8"/>
+        <v>0.16108702810670397</v>
+      </c>
+      <c r="CP137" s="34">
+        <v>5.4753624936512799E-2</v>
+      </c>
+      <c r="CQ137" s="34">
+        <v>5.5436820494742294E-2</v>
+      </c>
+      <c r="CR137" s="34">
+        <v>0.12684227721550209</v>
+      </c>
+      <c r="CS137" s="34">
+        <v>0.13176515537394626</v>
+      </c>
+      <c r="CT137" s="34">
+        <v>5.6888105693444539E-2</v>
+      </c>
       <c r="CU137" s="8"/>
       <c r="CV137" s="8"/>
       <c r="CW137" s="8"/>
@@ -22424,30 +22581,32 @@
         <v>2.7818782049697144</v>
       </c>
       <c r="CL138" s="20">
-        <v>2.5240485310759349</v>
+        <v>2.521323244304341</v>
       </c>
       <c r="CM138" s="20">
-        <v>9.0963045368606146</v>
+        <v>9.0951322657176412</v>
       </c>
       <c r="CN138" s="20">
-        <v>16.510726042475234</v>
+        <v>16.465709456005236</v>
       </c>
       <c r="CO138" s="20">
-        <v>10.280272247948936</v>
-      </c>
-      <c r="CP138" s="20">
-        <v>14.653213781321977</v>
-      </c>
-      <c r="CQ138" s="20">
-        <v>15.814136212939701</v>
-      </c>
-      <c r="CR138" s="20">
-        <v>23.722155140406652</v>
-      </c>
-      <c r="CS138" s="20">
-        <v>14.923971465221687</v>
-      </c>
-      <c r="CT138" s="8"/>
+        <v>10.337774260791397</v>
+      </c>
+      <c r="CP138" s="34">
+        <v>14.605360688296587</v>
+      </c>
+      <c r="CQ138" s="34">
+        <v>15.808579397825692</v>
+      </c>
+      <c r="CR138" s="34">
+        <v>23.795656408870862</v>
+      </c>
+      <c r="CS138" s="34">
+        <v>15.022013741043057</v>
+      </c>
+      <c r="CT138" s="34">
+        <v>15.546223282954674</v>
+      </c>
       <c r="CU138" s="8"/>
       <c r="CV138" s="8"/>
       <c r="CW138" s="8"/>
@@ -22771,30 +22930,32 @@
         <v>0.88176153624546327</v>
       </c>
       <c r="CL139" s="20">
-        <v>0.53926570175523747</v>
+        <v>0.53868344128549062</v>
       </c>
       <c r="CM139" s="20">
-        <v>0.59443022262417511</v>
+        <v>0.59435361641627282</v>
       </c>
       <c r="CN139" s="20">
-        <v>0.69975213191846064</v>
+        <v>0.69784425383526583</v>
       </c>
       <c r="CO139" s="20">
-        <v>0.73576712927618371</v>
-      </c>
-      <c r="CP139" s="20">
-        <v>0.52298502916791312</v>
-      </c>
-      <c r="CQ139" s="20">
-        <v>0.61414277395104466</v>
-      </c>
-      <c r="CR139" s="20">
-        <v>0.72063955295757154</v>
-      </c>
-      <c r="CS139" s="20">
-        <v>0.76303767290800528</v>
-      </c>
-      <c r="CT139" s="8"/>
+        <v>0.73988259333163631</v>
+      </c>
+      <c r="CP139" s="34">
+        <v>0.52127711364677609</v>
+      </c>
+      <c r="CQ139" s="34">
+        <v>0.6139269747570516</v>
+      </c>
+      <c r="CR139" s="34">
+        <v>0.72287239904319722</v>
+      </c>
+      <c r="CS139" s="34">
+        <v>0.7680504103126351</v>
+      </c>
+      <c r="CT139" s="34">
+        <v>0.53602073530442496</v>
+      </c>
       <c r="CU139" s="8"/>
       <c r="CV139" s="8"/>
       <c r="CW139" s="8"/>
@@ -23118,30 +23279,32 @@
         <v>15.080973968014156</v>
       </c>
       <c r="CL140" s="20">
-        <v>17.238137924424048</v>
+        <v>17.219525418097824</v>
       </c>
       <c r="CM140" s="20">
-        <v>16.198405160389729</v>
+        <v>16.19631761782178</v>
       </c>
       <c r="CN140" s="20">
-        <v>13.373125061649633</v>
+        <v>13.336663161720876</v>
       </c>
       <c r="CO140" s="20">
-        <v>14.14657327890621</v>
-      </c>
-      <c r="CP140" s="20">
-        <v>15.506056245062746</v>
-      </c>
-      <c r="CQ140" s="20">
-        <v>15.775381488139049</v>
-      </c>
-      <c r="CR140" s="20">
-        <v>12.427399520666697</v>
-      </c>
-      <c r="CS140" s="20">
-        <v>14.027898675683604</v>
-      </c>
-      <c r="CT140" s="8"/>
+        <v>14.225701187072531</v>
+      </c>
+      <c r="CP140" s="34">
+        <v>15.541367844351198</v>
+      </c>
+      <c r="CQ140" s="34">
+        <v>15.7698382907679</v>
+      </c>
+      <c r="CR140" s="34">
+        <v>12.380763502046364</v>
+      </c>
+      <c r="CS140" s="34">
+        <v>14.114051238263833</v>
+      </c>
+      <c r="CT140" s="34">
+        <v>14.999898527091576</v>
+      </c>
       <c r="CU140" s="8"/>
       <c r="CV140" s="8"/>
       <c r="CW140" s="8"/>
@@ -23465,30 +23628,32 @@
         <v>61.447874063049959</v>
       </c>
       <c r="CL141" s="20">
-        <v>58.900780388605469</v>
+        <v>58.837183545813701</v>
       </c>
       <c r="CM141" s="20">
-        <v>57.315289478851419</v>
+        <v>57.307903066090603</v>
       </c>
       <c r="CN141" s="20">
-        <v>51.518222835669761</v>
+        <v>51.376865759297388</v>
       </c>
       <c r="CO141" s="20">
-        <v>52.938775237345773</v>
-      </c>
-      <c r="CP141" s="20">
-        <v>50.174467506242607</v>
-      </c>
-      <c r="CQ141" s="20">
-        <v>52.859521752134953</v>
-      </c>
-      <c r="CR141" s="20">
-        <v>45.58609240353271</v>
-      </c>
-      <c r="CS141" s="20">
-        <v>49.358870339224339</v>
-      </c>
-      <c r="CT141" s="8"/>
+        <v>53.234884723567731</v>
+      </c>
+      <c r="CP141" s="34">
+        <v>50.065600760877572</v>
+      </c>
+      <c r="CQ141" s="34">
+        <v>52.840947826538496</v>
+      </c>
+      <c r="CR141" s="34">
+        <v>45.6499491973509</v>
+      </c>
+      <c r="CS141" s="34">
+        <v>49.55862943674714</v>
+      </c>
+      <c r="CT141" s="34">
+        <v>50.307850715884598</v>
+      </c>
       <c r="CU141" s="8"/>
       <c r="CV141" s="8"/>
       <c r="CW141" s="8"/>
@@ -23812,30 +23977,32 @@
         <v>11.721266919248494</v>
       </c>
       <c r="CL142" s="20">
-        <v>12.454562170481861</v>
+        <v>12.500149418005011</v>
       </c>
       <c r="CM142" s="20">
-        <v>10.895182644348477</v>
+        <v>10.925849617364209</v>
       </c>
       <c r="CN142" s="20">
-        <v>9.1716680739699008</v>
+        <v>9.7052811791989857</v>
       </c>
       <c r="CO142" s="20">
-        <v>10.811279520989928</v>
-      </c>
-      <c r="CP142" s="20">
-        <v>7.7040431649428687</v>
-      </c>
-      <c r="CQ142" s="20">
-        <v>9.4264873616423603</v>
-      </c>
-      <c r="CR142" s="20">
-        <v>8.8615651100765263</v>
-      </c>
-      <c r="CS142" s="20">
-        <v>10.067251036508937</v>
-      </c>
-      <c r="CT142" s="8"/>
+        <v>10.742804778856668</v>
+      </c>
+      <c r="CP142" s="34">
+        <v>7.8201288003847322</v>
+      </c>
+      <c r="CQ142" s="34">
+        <v>9.4570199276183633</v>
+      </c>
+      <c r="CR142" s="34">
+        <v>8.992355665061643</v>
+      </c>
+      <c r="CS142" s="34">
+        <v>10.061766542551789</v>
+      </c>
+      <c r="CT142" s="34">
+        <v>7.3195352508867533</v>
+      </c>
       <c r="CU142" s="8"/>
       <c r="CV142" s="8"/>
       <c r="CW142" s="8"/>
@@ -24159,30 +24326,32 @@
         <v>1.5606108605478348</v>
       </c>
       <c r="CL143" s="20">
-        <v>1.0100333389793279</v>
+        <v>1.0089170525954221</v>
       </c>
       <c r="CM143" s="20">
-        <v>1.2881548725406995</v>
+        <v>1.2879966388166579</v>
       </c>
       <c r="CN143" s="20">
-        <v>1.462154346791706</v>
+        <v>1.451724326548175</v>
       </c>
       <c r="CO143" s="20">
-        <v>1.7812823577335724</v>
-      </c>
-      <c r="CP143" s="20">
-        <v>0.99901610375035477</v>
-      </c>
-      <c r="CQ143" s="20">
-        <v>1.3045513646221525</v>
-      </c>
-      <c r="CR143" s="20">
-        <v>1.2124477594438563</v>
-      </c>
-      <c r="CS143" s="20">
-        <v>1.7697717753108866</v>
-      </c>
-      <c r="CT143" s="8"/>
+        <v>1.7751351739110399</v>
+      </c>
+      <c r="CP143" s="34">
+        <v>0.96772271870133808</v>
+      </c>
+      <c r="CQ143" s="34">
+        <v>1.336020294142531</v>
+      </c>
+      <c r="CR143" s="34">
+        <v>1.2638946001097586</v>
+      </c>
+      <c r="CS143" s="34">
+        <v>1.7612055053927922</v>
+      </c>
+      <c r="CT143" s="34">
+        <v>0.8986715165144179</v>
+      </c>
       <c r="CU143" s="8"/>
       <c r="CV143" s="8"/>
       <c r="CW143" s="8"/>
@@ -24330,11 +24499,11 @@
       <c r="CM144" s="8"/>
       <c r="CN144" s="8"/>
       <c r="CO144" s="8"/>
-      <c r="CP144" s="8"/>
-      <c r="CQ144" s="8"/>
-      <c r="CR144" s="8"/>
-      <c r="CS144" s="8"/>
-      <c r="CT144" s="8"/>
+      <c r="CP144" s="26"/>
+      <c r="CQ144" s="26"/>
+      <c r="CR144" s="26"/>
+      <c r="CS144" s="26"/>
+      <c r="CT144" s="26"/>
       <c r="CU144" s="8"/>
       <c r="CV144" s="8"/>
       <c r="CW144" s="8"/>
@@ -24669,19 +24838,21 @@
       <c r="CO145" s="14">
         <v>100</v>
       </c>
-      <c r="CP145" s="14">
+      <c r="CP145" s="31">
         <v>100</v>
       </c>
-      <c r="CQ145" s="14">
+      <c r="CQ145" s="31">
         <v>100</v>
       </c>
-      <c r="CR145" s="14">
+      <c r="CR145" s="31">
         <v>100</v>
       </c>
-      <c r="CS145" s="14">
+      <c r="CS145" s="31">
         <v>100</v>
       </c>
-      <c r="CT145" s="8"/>
+      <c r="CT145" s="31">
+        <v>100</v>
+      </c>
       <c r="CU145" s="8"/>
       <c r="CV145" s="8"/>
       <c r="CW145" s="8"/>
@@ -24830,10 +25001,11 @@
       <c r="CM146" s="11"/>
       <c r="CN146" s="11"/>
       <c r="CO146" s="11"/>
-      <c r="CP146" s="11"/>
-      <c r="CQ146" s="11"/>
-      <c r="CR146" s="11"/>
-      <c r="CS146" s="11"/>
+      <c r="CP146" s="28"/>
+      <c r="CQ146" s="28"/>
+      <c r="CR146" s="28"/>
+      <c r="CS146" s="28"/>
+      <c r="CT146" s="28"/>
     </row>
     <row r="147" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
@@ -24933,11 +25105,11 @@
       <c r="CM148" s="8"/>
       <c r="CN148" s="8"/>
       <c r="CO148" s="8"/>
-      <c r="CP148" s="8"/>
-      <c r="CQ148" s="8"/>
-      <c r="CR148" s="8"/>
-      <c r="CS148" s="8"/>
-      <c r="CT148" s="8"/>
+      <c r="CP148" s="26"/>
+      <c r="CQ148" s="26"/>
+      <c r="CR148" s="26"/>
+      <c r="CS148" s="26"/>
+      <c r="CT148" s="26"/>
       <c r="CU148" s="8"/>
       <c r="CV148" s="8"/>
       <c r="CW148" s="8"/>
@@ -25085,11 +25257,11 @@
       <c r="CM149" s="8"/>
       <c r="CN149" s="8"/>
       <c r="CO149" s="8"/>
-      <c r="CP149" s="8"/>
-      <c r="CQ149" s="8"/>
-      <c r="CR149" s="8"/>
-      <c r="CS149" s="8"/>
-      <c r="CT149" s="8"/>
+      <c r="CP149" s="26"/>
+      <c r="CQ149" s="26"/>
+      <c r="CR149" s="26"/>
+      <c r="CS149" s="26"/>
+      <c r="CT149" s="26"/>
       <c r="CU149" s="8"/>
       <c r="CV149" s="8"/>
       <c r="CW149" s="8"/>
@@ -25156,7 +25328,7 @@
     </row>
     <row r="152" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="154" spans="1:151" x14ac:dyDescent="0.2">
@@ -25166,7 +25338,7 @@
     </row>
     <row r="155" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="156" spans="1:151" x14ac:dyDescent="0.2">
@@ -25176,150 +25348,153 @@
     </row>
     <row r="158" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
-      <c r="B158" s="26">
+      <c r="B158" s="35">
         <v>2000</v>
       </c>
-      <c r="C158" s="26"/>
-      <c r="D158" s="26"/>
-      <c r="E158" s="26"/>
-      <c r="F158" s="26">
+      <c r="C158" s="35"/>
+      <c r="D158" s="35"/>
+      <c r="E158" s="35"/>
+      <c r="F158" s="35">
         <v>2001</v>
       </c>
-      <c r="G158" s="26"/>
-      <c r="H158" s="26"/>
-      <c r="I158" s="26"/>
-      <c r="J158" s="26">
+      <c r="G158" s="35"/>
+      <c r="H158" s="35"/>
+      <c r="I158" s="35"/>
+      <c r="J158" s="35">
         <v>2002</v>
       </c>
-      <c r="K158" s="26"/>
-      <c r="L158" s="26"/>
-      <c r="M158" s="26"/>
-      <c r="N158" s="26">
+      <c r="K158" s="35"/>
+      <c r="L158" s="35"/>
+      <c r="M158" s="35"/>
+      <c r="N158" s="35">
         <v>2003</v>
       </c>
-      <c r="O158" s="26"/>
-      <c r="P158" s="26"/>
-      <c r="Q158" s="26"/>
-      <c r="R158" s="26">
+      <c r="O158" s="35"/>
+      <c r="P158" s="35"/>
+      <c r="Q158" s="35"/>
+      <c r="R158" s="35">
         <v>2004</v>
       </c>
-      <c r="S158" s="26"/>
-      <c r="T158" s="26"/>
-      <c r="U158" s="26"/>
-      <c r="V158" s="26">
+      <c r="S158" s="35"/>
+      <c r="T158" s="35"/>
+      <c r="U158" s="35"/>
+      <c r="V158" s="35">
         <v>2005</v>
       </c>
-      <c r="W158" s="26"/>
-      <c r="X158" s="26"/>
-      <c r="Y158" s="26"/>
-      <c r="Z158" s="26">
+      <c r="W158" s="35"/>
+      <c r="X158" s="35"/>
+      <c r="Y158" s="35"/>
+      <c r="Z158" s="35">
         <v>2006</v>
       </c>
-      <c r="AA158" s="26"/>
-      <c r="AB158" s="26"/>
-      <c r="AC158" s="26"/>
-      <c r="AD158" s="26">
+      <c r="AA158" s="35"/>
+      <c r="AB158" s="35"/>
+      <c r="AC158" s="35"/>
+      <c r="AD158" s="35">
         <v>2007</v>
       </c>
-      <c r="AE158" s="26"/>
-      <c r="AF158" s="26"/>
-      <c r="AG158" s="26"/>
-      <c r="AH158" s="26">
+      <c r="AE158" s="35"/>
+      <c r="AF158" s="35"/>
+      <c r="AG158" s="35"/>
+      <c r="AH158" s="35">
         <v>2008</v>
       </c>
-      <c r="AI158" s="26"/>
-      <c r="AJ158" s="26"/>
-      <c r="AK158" s="26"/>
-      <c r="AL158" s="26">
+      <c r="AI158" s="35"/>
+      <c r="AJ158" s="35"/>
+      <c r="AK158" s="35"/>
+      <c r="AL158" s="35">
         <v>2009</v>
       </c>
-      <c r="AM158" s="26"/>
-      <c r="AN158" s="26"/>
-      <c r="AO158" s="26"/>
-      <c r="AP158" s="26">
+      <c r="AM158" s="35"/>
+      <c r="AN158" s="35"/>
+      <c r="AO158" s="35"/>
+      <c r="AP158" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ158" s="26"/>
-      <c r="AR158" s="26"/>
-      <c r="AS158" s="26"/>
-      <c r="AT158" s="26">
+      <c r="AQ158" s="35"/>
+      <c r="AR158" s="35"/>
+      <c r="AS158" s="35"/>
+      <c r="AT158" s="35">
         <v>2011</v>
       </c>
-      <c r="AU158" s="26"/>
-      <c r="AV158" s="26"/>
-      <c r="AW158" s="26"/>
-      <c r="AX158" s="26">
+      <c r="AU158" s="35"/>
+      <c r="AV158" s="35"/>
+      <c r="AW158" s="35"/>
+      <c r="AX158" s="35">
         <v>2012</v>
       </c>
-      <c r="AY158" s="26"/>
-      <c r="AZ158" s="26"/>
-      <c r="BA158" s="26"/>
-      <c r="BB158" s="26">
+      <c r="AY158" s="35"/>
+      <c r="AZ158" s="35"/>
+      <c r="BA158" s="35"/>
+      <c r="BB158" s="35">
         <v>2013</v>
       </c>
-      <c r="BC158" s="26"/>
-      <c r="BD158" s="26"/>
-      <c r="BE158" s="26"/>
-      <c r="BF158" s="26">
+      <c r="BC158" s="35"/>
+      <c r="BD158" s="35"/>
+      <c r="BE158" s="35"/>
+      <c r="BF158" s="35">
         <v>2014</v>
       </c>
-      <c r="BG158" s="26"/>
-      <c r="BH158" s="26"/>
-      <c r="BI158" s="26"/>
-      <c r="BJ158" s="26">
+      <c r="BG158" s="35"/>
+      <c r="BH158" s="35"/>
+      <c r="BI158" s="35"/>
+      <c r="BJ158" s="35">
         <v>2015</v>
       </c>
-      <c r="BK158" s="26"/>
-      <c r="BL158" s="26"/>
-      <c r="BM158" s="26"/>
-      <c r="BN158" s="26">
+      <c r="BK158" s="35"/>
+      <c r="BL158" s="35"/>
+      <c r="BM158" s="35"/>
+      <c r="BN158" s="35">
         <v>2016</v>
       </c>
-      <c r="BO158" s="26"/>
-      <c r="BP158" s="26"/>
-      <c r="BQ158" s="26"/>
-      <c r="BR158" s="26">
+      <c r="BO158" s="35"/>
+      <c r="BP158" s="35"/>
+      <c r="BQ158" s="35"/>
+      <c r="BR158" s="35">
         <v>2017</v>
       </c>
-      <c r="BS158" s="26"/>
-      <c r="BT158" s="26"/>
-      <c r="BU158" s="26"/>
-      <c r="BV158" s="26">
+      <c r="BS158" s="35"/>
+      <c r="BT158" s="35"/>
+      <c r="BU158" s="35"/>
+      <c r="BV158" s="35">
         <v>2018</v>
       </c>
-      <c r="BW158" s="26"/>
-      <c r="BX158" s="26"/>
-      <c r="BY158" s="26"/>
-      <c r="BZ158" s="26">
+      <c r="BW158" s="35"/>
+      <c r="BX158" s="35"/>
+      <c r="BY158" s="35"/>
+      <c r="BZ158" s="35">
         <v>2019</v>
       </c>
-      <c r="CA158" s="26"/>
-      <c r="CB158" s="26"/>
-      <c r="CC158" s="26"/>
-      <c r="CD158" s="25">
+      <c r="CA158" s="35"/>
+      <c r="CB158" s="35"/>
+      <c r="CC158" s="35"/>
+      <c r="CD158" s="36">
         <v>2020</v>
       </c>
-      <c r="CE158" s="25"/>
-      <c r="CF158" s="25"/>
-      <c r="CG158" s="25"/>
-      <c r="CH158" s="25">
+      <c r="CE158" s="36"/>
+      <c r="CF158" s="36"/>
+      <c r="CG158" s="36"/>
+      <c r="CH158" s="21">
         <v>2021</v>
       </c>
-      <c r="CI158" s="25"/>
-      <c r="CJ158" s="25"/>
-      <c r="CK158" s="25"/>
-      <c r="CL158" s="22">
+      <c r="CI158" s="21"/>
+      <c r="CJ158" s="21"/>
+      <c r="CK158" s="21"/>
+      <c r="CL158" s="21">
         <v>2022</v>
       </c>
-      <c r="CM158" s="22"/>
-      <c r="CN158" s="22"/>
-      <c r="CO158" s="22"/>
-      <c r="CP158" s="22">
+      <c r="CM158" s="21"/>
+      <c r="CN158" s="21"/>
+      <c r="CO158" s="21"/>
+      <c r="CP158" s="24">
         <v>2023</v>
       </c>
-      <c r="CQ158" s="22"/>
-      <c r="CR158" s="22"/>
-      <c r="CS158" s="22"/>
+      <c r="CQ158" s="24"/>
+      <c r="CR158" s="24"/>
+      <c r="CS158" s="24"/>
+      <c r="CT158" s="24">
+        <v>2024</v>
+      </c>
     </row>
     <row r="159" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
@@ -25599,17 +25774,20 @@
       <c r="CO159" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CP159" s="13" t="s">
+      <c r="CP159" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CQ159" s="13" t="s">
+      <c r="CQ159" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CR159" s="13" t="s">
+      <c r="CR159" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CS159" s="13" t="s">
+      <c r="CS159" s="29" t="s">
         <v>10</v>
+      </c>
+      <c r="CT159" s="29" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -25884,30 +26062,32 @@
         <v>5.7772458590307521</v>
       </c>
       <c r="CL161" s="20">
-        <v>6.4586903187929448</v>
+        <v>6.4952787287527149</v>
       </c>
       <c r="CM161" s="20">
-        <v>4.1385663284785403</v>
+        <v>4.1203191200886007</v>
       </c>
       <c r="CN161" s="20">
-        <v>6.4069843265431619</v>
+        <v>6.139654857556291</v>
       </c>
       <c r="CO161" s="20">
-        <v>7.9818538688371241</v>
-      </c>
-      <c r="CP161" s="20">
-        <v>8.9701922768346183</v>
-      </c>
-      <c r="CQ161" s="20">
-        <v>3.4518900528178751</v>
-      </c>
-      <c r="CR161" s="20">
-        <v>6.7485958844184362</v>
-      </c>
-      <c r="CS161" s="20">
-        <v>7.8141822933531353</v>
-      </c>
-      <c r="CT161" s="8"/>
+        <v>7.6630996965324938</v>
+      </c>
+      <c r="CP161" s="34">
+        <v>8.9918714163940461</v>
+      </c>
+      <c r="CQ161" s="34">
+        <v>3.4153784663458158</v>
+      </c>
+      <c r="CR161" s="34">
+        <v>6.4682529948945442</v>
+      </c>
+      <c r="CS161" s="34">
+        <v>7.4996467591159188</v>
+      </c>
+      <c r="CT161" s="34">
+        <v>8.9331569934707904</v>
+      </c>
       <c r="CU161" s="8"/>
       <c r="CV161" s="8"/>
       <c r="CW161" s="8"/>
@@ -26231,30 +26411,32 @@
         <v>0.17467265771166715</v>
       </c>
       <c r="CL162" s="20">
-        <v>8.3365702231303115E-2</v>
+        <v>8.3753297920594313E-2</v>
       </c>
       <c r="CM162" s="20">
-        <v>5.9398819865764195E-2</v>
+        <v>5.9608467661399364E-2</v>
       </c>
       <c r="CN162" s="20">
-        <v>0.14074462376520538</v>
+        <v>0.13896552439811152</v>
       </c>
       <c r="CO162" s="20">
-        <v>0.16535615081173041</v>
-      </c>
-      <c r="CP162" s="20">
-        <v>5.3591170489628352E-2</v>
-      </c>
-      <c r="CQ162" s="20">
-        <v>5.5579195779999334E-2</v>
-      </c>
-      <c r="CR162" s="20">
-        <v>0.12817966233619157</v>
-      </c>
-      <c r="CS162" s="20">
-        <v>0.13480201746149995</v>
-      </c>
-      <c r="CT162" s="8"/>
+        <v>0.16341702590711205</v>
+      </c>
+      <c r="CP162" s="34">
+        <v>5.3999407691669186E-2</v>
+      </c>
+      <c r="CQ162" s="34">
+        <v>5.4605675385951721E-2</v>
+      </c>
+      <c r="CR162" s="34">
+        <v>0.12601186421147886</v>
+      </c>
+      <c r="CS162" s="34">
+        <v>0.13308325790527478</v>
+      </c>
+      <c r="CT162" s="34">
+        <v>5.5983860729039756E-2</v>
+      </c>
       <c r="CU162" s="8"/>
       <c r="CV162" s="8"/>
       <c r="CW162" s="8"/>
@@ -26578,30 +26760,32 @@
         <v>2.7674485056923839</v>
       </c>
       <c r="CL163" s="20">
-        <v>2.4995504275256444</v>
+        <v>2.496991116815471</v>
       </c>
       <c r="CM163" s="20">
-        <v>8.911620089896747</v>
+        <v>8.9103235828529428</v>
       </c>
       <c r="CN163" s="20">
-        <v>16.119529344341789</v>
+        <v>16.074303062271156</v>
       </c>
       <c r="CO163" s="20">
-        <v>10.2011073825906</v>
-      </c>
-      <c r="CP163" s="20">
-        <v>14.182637348627166</v>
-      </c>
-      <c r="CQ163" s="20">
-        <v>15.196254462418146</v>
-      </c>
-      <c r="CR163" s="20">
-        <v>22.778125951354458</v>
-      </c>
-      <c r="CS163" s="20">
-        <v>14.582681863253589</v>
-      </c>
-      <c r="CT163" s="8"/>
+        <v>10.252652666100939</v>
+      </c>
+      <c r="CP163" s="34">
+        <v>14.119039736867878</v>
+      </c>
+      <c r="CQ163" s="34">
+        <v>15.144456718974508</v>
+      </c>
+      <c r="CR163" s="34">
+        <v>22.747257983203529</v>
+      </c>
+      <c r="CS163" s="34">
+        <v>14.64119115247656</v>
+      </c>
+      <c r="CT163" s="34">
+        <v>14.846972129127566</v>
+      </c>
       <c r="CU163" s="8"/>
       <c r="CV163" s="8"/>
       <c r="CW163" s="8"/>
@@ -26925,30 +27109,32 @@
         <v>0.87264213018068471</v>
       </c>
       <c r="CL164" s="20">
-        <v>0.55785951527030686</v>
+        <v>0.55728831821963687</v>
       </c>
       <c r="CM164" s="20">
-        <v>0.61229989214461655</v>
+        <v>0.61221081169514979</v>
       </c>
       <c r="CN164" s="20">
-        <v>0.71867427343568591</v>
+        <v>0.71665790157314635</v>
       </c>
       <c r="CO164" s="20">
-        <v>0.73957934408039272</v>
-      </c>
-      <c r="CP164" s="20">
-        <v>0.53357666534338333</v>
-      </c>
-      <c r="CQ164" s="20">
-        <v>0.6211972612261899</v>
-      </c>
-      <c r="CR164" s="20">
-        <v>0.73051865123166437</v>
-      </c>
-      <c r="CS164" s="20">
-        <v>0.7560402217501011</v>
-      </c>
-      <c r="CT164" s="8"/>
+        <v>0.74331637237930814</v>
+      </c>
+      <c r="CP164" s="34">
+        <v>0.53118400728041659</v>
+      </c>
+      <c r="CQ164" s="34">
+        <v>0.61907985680627431</v>
+      </c>
+      <c r="CR164" s="34">
+        <v>0.72952868276331728</v>
+      </c>
+      <c r="CS164" s="34">
+        <v>0.75907364018529599</v>
+      </c>
+      <c r="CT164" s="34">
+        <v>0.53824158461282867</v>
+      </c>
       <c r="CU164" s="8"/>
       <c r="CV164" s="8"/>
       <c r="CW164" s="8"/>
@@ -27272,30 +27458,32 @@
         <v>16.405668592360829</v>
       </c>
       <c r="CL165" s="20">
-        <v>18.951192764948299</v>
+        <v>18.931788479249647</v>
       </c>
       <c r="CM165" s="20">
-        <v>17.785181361601524</v>
+        <v>17.782593884501061</v>
       </c>
       <c r="CN165" s="20">
-        <v>15.127593432922945</v>
+        <v>15.085150208122004</v>
       </c>
       <c r="CO165" s="20">
-        <v>15.896808419825733</v>
-      </c>
-      <c r="CP165" s="20">
-        <v>17.791344989241704</v>
-      </c>
-      <c r="CQ165" s="20">
-        <v>17.940895219784647</v>
-      </c>
-      <c r="CR165" s="20">
-        <v>14.512606250950789</v>
-      </c>
-      <c r="CS165" s="20">
-        <v>16.141179512293711</v>
-      </c>
-      <c r="CT165" s="8"/>
+        <v>15.977133571417401</v>
+      </c>
+      <c r="CP165" s="34">
+        <v>17.810061842049443</v>
+      </c>
+      <c r="CQ165" s="34">
+        <v>17.879742131696933</v>
+      </c>
+      <c r="CR165" s="34">
+        <v>14.393953493192416</v>
+      </c>
+      <c r="CS165" s="34">
+        <v>16.199052071689611</v>
+      </c>
+      <c r="CT165" s="34">
+        <v>17.464870395472953</v>
+      </c>
       <c r="CU165" s="8"/>
       <c r="CV165" s="8"/>
       <c r="CW165" s="8"/>
@@ -27619,30 +27807,32 @@
         <v>60.630953060817014</v>
       </c>
       <c r="CL166" s="20">
-        <v>58.044220266448377</v>
+        <v>57.984788301021439</v>
       </c>
       <c r="CM166" s="20">
-        <v>56.342870326104055</v>
+        <v>56.334673283646111</v>
       </c>
       <c r="CN166" s="20">
-        <v>51.100317624662694</v>
+        <v>50.956036066805467</v>
       </c>
       <c r="CO166" s="20">
-        <v>52.545643538551502</v>
-      </c>
-      <c r="CP166" s="20">
-        <v>49.944576762366964</v>
-      </c>
-      <c r="CQ166" s="20">
-        <v>52.11741005755858</v>
-      </c>
-      <c r="CR166" s="20">
-        <v>45.269218426027365</v>
-      </c>
-      <c r="CS166" s="20">
-        <v>48.874843800506682</v>
-      </c>
-      <c r="CT166" s="8"/>
+        <v>52.81115197717947</v>
+      </c>
+      <c r="CP166" s="34">
+        <v>49.906478558644686</v>
+      </c>
+      <c r="CQ166" s="34">
+        <v>52.241171150170473</v>
+      </c>
+      <c r="CR166" s="34">
+        <v>45.389236459579003</v>
+      </c>
+      <c r="CS166" s="34">
+        <v>48.987351583982289</v>
+      </c>
+      <c r="CT166" s="34">
+        <v>50.146788601810044</v>
+      </c>
       <c r="CU166" s="8"/>
       <c r="CV166" s="8"/>
       <c r="CW166" s="8"/>
@@ -27966,30 +28156,32 @@
         <v>11.801617241714322</v>
       </c>
       <c r="CL167" s="20">
-        <v>12.392135547770765</v>
+        <v>12.438189306716154</v>
       </c>
       <c r="CM167" s="20">
-        <v>10.860189371072559</v>
+        <v>10.89057691066709</v>
       </c>
       <c r="CN167" s="20">
-        <v>8.8673750202839567</v>
+        <v>9.3825392033833612</v>
       </c>
       <c r="CO167" s="20">
-        <v>10.659285741136884</v>
-      </c>
-      <c r="CP167" s="20">
-        <v>7.5387080999438281</v>
-      </c>
-      <c r="CQ167" s="20">
-        <v>9.3209452903791821</v>
-      </c>
-      <c r="CR167" s="20">
-        <v>8.5843791996572758</v>
-      </c>
-      <c r="CS167" s="20">
-        <v>9.9019163177610601</v>
-      </c>
-      <c r="CT167" s="8"/>
+        <v>10.586080427716073</v>
+      </c>
+      <c r="CP167" s="34">
+        <v>7.6306735769493264</v>
+      </c>
+      <c r="CQ167" s="34">
+        <v>9.3225376295608804</v>
+      </c>
+      <c r="CR167" s="34">
+        <v>8.850188947993038</v>
+      </c>
+      <c r="CS167" s="34">
+        <v>9.9994693346801604</v>
+      </c>
+      <c r="CT167" s="34">
+        <v>7.126851820686368</v>
+      </c>
       <c r="CU167" s="8"/>
       <c r="CV167" s="8"/>
       <c r="CW167" s="8"/>
@@ -28313,30 +28505,32 @@
         <v>1.5697519524923442</v>
       </c>
       <c r="CL168" s="20">
-        <v>1.012985457012362</v>
+        <v>1.0119224513043568</v>
       </c>
       <c r="CM168" s="20">
-        <v>1.2898738108361971</v>
+        <v>1.2896939388876416</v>
       </c>
       <c r="CN168" s="20">
-        <v>1.5187813540445654</v>
+        <v>1.506693175890472</v>
       </c>
       <c r="CO168" s="20">
-        <v>1.8103655541660508</v>
-      </c>
-      <c r="CP168" s="20">
-        <v>0.98537268715271287</v>
-      </c>
-      <c r="CQ168" s="20">
-        <v>1.2958284600353802</v>
-      </c>
-      <c r="CR168" s="20">
-        <v>1.2483759740238287</v>
-      </c>
-      <c r="CS168" s="20">
-        <v>1.7943539736202361</v>
-      </c>
-      <c r="CT168" s="8"/>
+        <v>1.8031482627672057</v>
+      </c>
+      <c r="CP168" s="34">
+        <v>0.95669145412253398</v>
+      </c>
+      <c r="CQ168" s="34">
+        <v>1.3230283710591559</v>
+      </c>
+      <c r="CR168" s="34">
+        <v>1.2955695741626716</v>
+      </c>
+      <c r="CS168" s="34">
+        <v>1.7811321999648935</v>
+      </c>
+      <c r="CT168" s="34">
+        <v>0.88713461409041916</v>
+      </c>
       <c r="CU168" s="8"/>
       <c r="CV168" s="8"/>
       <c r="CW168" s="8"/>
@@ -28484,11 +28678,11 @@
       <c r="CM169" s="8"/>
       <c r="CN169" s="8"/>
       <c r="CO169" s="8"/>
-      <c r="CP169" s="8"/>
-      <c r="CQ169" s="8"/>
-      <c r="CR169" s="8"/>
-      <c r="CS169" s="8"/>
-      <c r="CT169" s="8"/>
+      <c r="CP169" s="26"/>
+      <c r="CQ169" s="26"/>
+      <c r="CR169" s="26"/>
+      <c r="CS169" s="26"/>
+      <c r="CT169" s="26"/>
       <c r="CU169" s="8"/>
       <c r="CV169" s="8"/>
       <c r="CW169" s="8"/>
@@ -28823,19 +29017,21 @@
       <c r="CO170" s="14">
         <v>100</v>
       </c>
-      <c r="CP170" s="14">
+      <c r="CP170" s="31">
         <v>100</v>
       </c>
-      <c r="CQ170" s="14">
+      <c r="CQ170" s="31">
         <v>100</v>
       </c>
-      <c r="CR170" s="14">
+      <c r="CR170" s="31">
         <v>100</v>
       </c>
-      <c r="CS170" s="14">
+      <c r="CS170" s="31">
         <v>100</v>
       </c>
-      <c r="CT170" s="8"/>
+      <c r="CT170" s="31">
+        <v>100</v>
+      </c>
       <c r="CU170" s="8"/>
       <c r="CV170" s="8"/>
       <c r="CW170" s="8"/>
@@ -28984,10 +29180,11 @@
       <c r="CM171" s="11"/>
       <c r="CN171" s="11"/>
       <c r="CO171" s="11"/>
-      <c r="CP171" s="11"/>
-      <c r="CQ171" s="11"/>
-      <c r="CR171" s="11"/>
-      <c r="CS171" s="11"/>
+      <c r="CP171" s="28"/>
+      <c r="CQ171" s="28"/>
+      <c r="CR171" s="28"/>
+      <c r="CS171" s="28"/>
+      <c r="CT171" s="28"/>
     </row>
     <row r="172" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
@@ -29088,11 +29285,11 @@
       <c r="CM173" s="1"/>
       <c r="CN173" s="1"/>
       <c r="CO173" s="1"/>
-      <c r="CP173" s="1"/>
-      <c r="CQ173" s="1"/>
-      <c r="CR173" s="1"/>
-      <c r="CS173" s="1"/>
-      <c r="CT173" s="16"/>
+      <c r="CP173" s="23"/>
+      <c r="CQ173" s="23"/>
+      <c r="CR173" s="23"/>
+      <c r="CS173" s="23"/>
+      <c r="CT173" s="23"/>
       <c r="CU173" s="16"/>
       <c r="CV173" s="16"/>
       <c r="CW173" s="16"/>
@@ -29241,11 +29438,11 @@
       <c r="CM174" s="1"/>
       <c r="CN174" s="1"/>
       <c r="CO174" s="1"/>
-      <c r="CP174" s="1"/>
-      <c r="CQ174" s="1"/>
-      <c r="CR174" s="1"/>
-      <c r="CS174" s="1"/>
-      <c r="CT174" s="16"/>
+      <c r="CP174" s="23"/>
+      <c r="CQ174" s="23"/>
+      <c r="CR174" s="23"/>
+      <c r="CS174" s="23"/>
+      <c r="CT174" s="23"/>
       <c r="CU174" s="16"/>
       <c r="CV174" s="16"/>
       <c r="CW174" s="16"/>
@@ -29301,17 +29498,10 @@
       <c r="EU174" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="154">
-    <mergeCell ref="CH133:CK133"/>
-    <mergeCell ref="CH158:CK158"/>
-    <mergeCell ref="CH108:CK108"/>
-    <mergeCell ref="BR108:BU108"/>
-    <mergeCell ref="BR34:BU34"/>
-    <mergeCell ref="BV34:BY34"/>
-    <mergeCell ref="BV108:BY108"/>
-    <mergeCell ref="BV59:BY59"/>
-    <mergeCell ref="CH59:CK59"/>
-    <mergeCell ref="CH84:CK84"/>
+  <mergeCells count="147">
+    <mergeCell ref="CD158:CG158"/>
+    <mergeCell ref="CD133:CG133"/>
+    <mergeCell ref="CD108:CG108"/>
     <mergeCell ref="BN9:BQ9"/>
     <mergeCell ref="BZ59:CC59"/>
     <mergeCell ref="BZ84:CC84"/>
@@ -29319,10 +29509,14 @@
     <mergeCell ref="BV9:BY9"/>
     <mergeCell ref="BZ9:CC9"/>
     <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH34:CK34"/>
     <mergeCell ref="CD59:CG59"/>
     <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="CD34:CG34"/>
+    <mergeCell ref="BZ34:CC34"/>
+    <mergeCell ref="BR59:BU59"/>
+    <mergeCell ref="BR34:BU34"/>
+    <mergeCell ref="BV34:BY34"/>
+    <mergeCell ref="BV59:BY59"/>
     <mergeCell ref="AT133:AW133"/>
     <mergeCell ref="AX133:BA133"/>
     <mergeCell ref="B84:E84"/>
@@ -29432,10 +29626,13 @@
     <mergeCell ref="J158:M158"/>
     <mergeCell ref="N158:Q158"/>
     <mergeCell ref="R158:U158"/>
-    <mergeCell ref="CD158:CG158"/>
-    <mergeCell ref="CD133:CG133"/>
-    <mergeCell ref="CD108:CG108"/>
-    <mergeCell ref="CD34:CG34"/>
+    <mergeCell ref="BJ34:BM34"/>
+    <mergeCell ref="BN34:BQ34"/>
+    <mergeCell ref="BF59:BI59"/>
+    <mergeCell ref="BJ59:BM59"/>
+    <mergeCell ref="BB59:BE59"/>
+    <mergeCell ref="BN59:BQ59"/>
+    <mergeCell ref="BZ108:CC108"/>
     <mergeCell ref="BB158:BE158"/>
     <mergeCell ref="BF158:BI158"/>
     <mergeCell ref="BJ158:BM158"/>
@@ -29446,24 +29643,17 @@
     <mergeCell ref="BN84:BQ84"/>
     <mergeCell ref="BB108:BE108"/>
     <mergeCell ref="BF108:BI108"/>
-    <mergeCell ref="BZ34:CC34"/>
-    <mergeCell ref="BR59:BU59"/>
     <mergeCell ref="BB133:BE133"/>
-    <mergeCell ref="BJ34:BM34"/>
-    <mergeCell ref="BN34:BQ34"/>
-    <mergeCell ref="BF59:BI59"/>
-    <mergeCell ref="BJ59:BM59"/>
-    <mergeCell ref="BB59:BE59"/>
-    <mergeCell ref="BN59:BQ59"/>
-    <mergeCell ref="BZ108:CC108"/>
+    <mergeCell ref="BR108:BU108"/>
+    <mergeCell ref="BV108:BY108"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="50" max="96" man="1"/>
-    <brk id="100" max="96" man="1"/>
-    <brk id="124" max="96" man="1"/>
+    <brk id="50" max="97" man="1"/>
+    <brk id="100" max="97" man="1"/>
+    <brk id="124" max="97" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-05EOS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-05EOS_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56DB849-85C0-4F6D-AB81-BA9890FF7A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CC2A88-56D7-439B-8BAE-7B3458D5F98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="58">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -222,13 +222,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2024</t>
+    <t>As of August 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2024</t>
+    <t>Q1 2000 to Q2 2024</t>
   </si>
   <si>
-    <t>As of May 2024</t>
+    <t>Q1 2001 to Q2 2024</t>
   </si>
 </sst>
 </file>
@@ -319,7 +319,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -354,35 +354,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -727,16 +711,15 @@
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="CX12" sqref="CX12"/>
+      <selection pane="bottomRight" activeCell="CP1" sqref="CP1:CU1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.77734375" style="1" customWidth="1"/>
     <col min="2" max="73" width="8.77734375" style="1" customWidth="1"/>
-    <col min="74" max="93" width="10" style="1" customWidth="1"/>
-    <col min="94" max="98" width="9.6640625" style="23" customWidth="1"/>
-    <col min="99" max="16384" width="7.77734375" style="1"/>
+    <col min="74" max="99" width="10" style="1" customWidth="1"/>
+    <col min="100" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:151" x14ac:dyDescent="0.2">
@@ -751,7 +734,7 @@
     </row>
     <row r="3" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:151" x14ac:dyDescent="0.2">
@@ -761,7 +744,7 @@
     </row>
     <row r="6" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:151" x14ac:dyDescent="0.2">
@@ -771,132 +754,132 @@
     </row>
     <row r="9" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="36">
+      <c r="B9" s="25">
         <v>2000</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25">
         <v>2001</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36">
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25">
         <v>2002</v>
       </c>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36">
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25">
         <v>2003</v>
       </c>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36">
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25">
         <v>2004</v>
       </c>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36">
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25">
         <v>2005</v>
       </c>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36">
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25">
         <v>2006</v>
       </c>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="36"/>
-      <c r="AD9" s="36">
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25">
         <v>2007</v>
       </c>
-      <c r="AE9" s="36"/>
-      <c r="AF9" s="36"/>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="36">
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="25"/>
+      <c r="AG9" s="25"/>
+      <c r="AH9" s="25">
         <v>2008</v>
       </c>
-      <c r="AI9" s="36"/>
-      <c r="AJ9" s="36"/>
-      <c r="AK9" s="36"/>
-      <c r="AL9" s="36">
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="25"/>
+      <c r="AK9" s="25"/>
+      <c r="AL9" s="25">
         <v>2009</v>
       </c>
-      <c r="AM9" s="36"/>
-      <c r="AN9" s="36"/>
-      <c r="AO9" s="36"/>
-      <c r="AP9" s="36">
+      <c r="AM9" s="25"/>
+      <c r="AN9" s="25"/>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="36"/>
-      <c r="AR9" s="36"/>
-      <c r="AS9" s="36"/>
-      <c r="AT9" s="36">
+      <c r="AQ9" s="25"/>
+      <c r="AR9" s="25"/>
+      <c r="AS9" s="25"/>
+      <c r="AT9" s="25">
         <v>2011</v>
       </c>
-      <c r="AU9" s="36"/>
-      <c r="AV9" s="36"/>
-      <c r="AW9" s="36"/>
-      <c r="AX9" s="36">
+      <c r="AU9" s="25"/>
+      <c r="AV9" s="25"/>
+      <c r="AW9" s="25"/>
+      <c r="AX9" s="25">
         <v>2012</v>
       </c>
-      <c r="AY9" s="36"/>
-      <c r="AZ9" s="36"/>
-      <c r="BA9" s="36"/>
-      <c r="BB9" s="36">
+      <c r="AY9" s="25"/>
+      <c r="AZ9" s="25"/>
+      <c r="BA9" s="25"/>
+      <c r="BB9" s="25">
         <v>2013</v>
       </c>
-      <c r="BC9" s="36"/>
-      <c r="BD9" s="36"/>
-      <c r="BE9" s="36"/>
-      <c r="BF9" s="36">
+      <c r="BC9" s="25"/>
+      <c r="BD9" s="25"/>
+      <c r="BE9" s="25"/>
+      <c r="BF9" s="25">
         <v>2014</v>
       </c>
-      <c r="BG9" s="36"/>
-      <c r="BH9" s="36"/>
-      <c r="BI9" s="36"/>
-      <c r="BJ9" s="36">
+      <c r="BG9" s="25"/>
+      <c r="BH9" s="25"/>
+      <c r="BI9" s="25"/>
+      <c r="BJ9" s="25">
         <v>2015</v>
       </c>
-      <c r="BK9" s="36"/>
-      <c r="BL9" s="36"/>
-      <c r="BM9" s="36"/>
-      <c r="BN9" s="36">
+      <c r="BK9" s="25"/>
+      <c r="BL9" s="25"/>
+      <c r="BM9" s="25"/>
+      <c r="BN9" s="25">
         <v>2016</v>
       </c>
-      <c r="BO9" s="36"/>
-      <c r="BP9" s="36"/>
-      <c r="BQ9" s="36"/>
-      <c r="BR9" s="36">
+      <c r="BO9" s="25"/>
+      <c r="BP9" s="25"/>
+      <c r="BQ9" s="25"/>
+      <c r="BR9" s="25">
         <v>2017</v>
       </c>
-      <c r="BS9" s="36"/>
-      <c r="BT9" s="36"/>
-      <c r="BU9" s="36"/>
-      <c r="BV9" s="36">
+      <c r="BS9" s="25"/>
+      <c r="BT9" s="25"/>
+      <c r="BU9" s="25"/>
+      <c r="BV9" s="25">
         <v>2018</v>
       </c>
-      <c r="BW9" s="36"/>
-      <c r="BX9" s="36"/>
-      <c r="BY9" s="36"/>
-      <c r="BZ9" s="36">
+      <c r="BW9" s="25"/>
+      <c r="BX9" s="25"/>
+      <c r="BY9" s="25"/>
+      <c r="BZ9" s="25">
         <v>2019</v>
       </c>
-      <c r="CA9" s="36"/>
-      <c r="CB9" s="36"/>
-      <c r="CC9" s="36"/>
-      <c r="CD9" s="36">
+      <c r="CA9" s="25"/>
+      <c r="CB9" s="25"/>
+      <c r="CC9" s="25"/>
+      <c r="CD9" s="25">
         <v>2020</v>
       </c>
-      <c r="CE9" s="36"/>
-      <c r="CF9" s="36"/>
-      <c r="CG9" s="36"/>
+      <c r="CE9" s="25"/>
+      <c r="CF9" s="25"/>
+      <c r="CG9" s="25"/>
       <c r="CH9" s="21">
         <v>2021</v>
       </c>
@@ -909,15 +892,16 @@
       <c r="CM9" s="21"/>
       <c r="CN9" s="21"/>
       <c r="CO9" s="21"/>
-      <c r="CP9" s="24">
+      <c r="CP9" s="21">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="24"/>
-      <c r="CR9" s="24"/>
-      <c r="CS9" s="24"/>
-      <c r="CT9" s="24">
+      <c r="CQ9" s="21"/>
+      <c r="CR9" s="21"/>
+      <c r="CS9" s="21"/>
+      <c r="CT9" s="21">
         <v>2024</v>
       </c>
+      <c r="CU9" s="21"/>
     </row>
     <row r="10" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
@@ -1197,20 +1181,23 @@
       <c r="CO10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CP10" s="13" t="s">
+      <c r="CP10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="13" t="s">
+      <c r="CQ10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="13" t="s">
+      <c r="CR10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CS10" s="13" t="s">
+      <c r="CS10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CT10" s="13" t="s">
+      <c r="CT10" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="CU10" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1496,22 +1483,24 @@
       <c r="CO12" s="18">
         <v>54545.476736266144</v>
       </c>
-      <c r="CP12" s="25">
+      <c r="CP12" s="18">
         <v>91388.504694742951</v>
       </c>
-      <c r="CQ12" s="25">
+      <c r="CQ12" s="18">
         <v>34472.852940256031</v>
       </c>
-      <c r="CR12" s="25">
+      <c r="CR12" s="18">
         <v>51853.834593934924</v>
       </c>
-      <c r="CS12" s="25">
+      <c r="CS12" s="18">
         <v>61415.796931664518</v>
       </c>
-      <c r="CT12" s="25">
-        <v>100665.95681405888</v>
-      </c>
-      <c r="CU12" s="8"/>
+      <c r="CT12" s="18">
+        <v>102696.07234617718</v>
+      </c>
+      <c r="CU12" s="18">
+        <v>38145.561898129105</v>
+      </c>
       <c r="CV12" s="8"/>
       <c r="CW12" s="8"/>
       <c r="CX12" s="8"/>
@@ -1845,22 +1834,24 @@
       <c r="CO13" s="18">
         <v>1000.4370497140442</v>
       </c>
-      <c r="CP13" s="25">
+      <c r="CP13" s="18">
         <v>480.04158316722192</v>
       </c>
-      <c r="CQ13" s="25">
+      <c r="CQ13" s="18">
         <v>464.05012427240712</v>
       </c>
-      <c r="CR13" s="25">
+      <c r="CR13" s="18">
         <v>930.61252590324239</v>
       </c>
-      <c r="CS13" s="25">
+      <c r="CS13" s="18">
         <v>942.90067939335495</v>
       </c>
-      <c r="CT13" s="25">
-        <v>554.11170074826589</v>
-      </c>
-      <c r="CU13" s="8"/>
+      <c r="CT13" s="18">
+        <v>534.38963333813354</v>
+      </c>
+      <c r="CU13" s="18">
+        <v>519.70697381865602</v>
+      </c>
       <c r="CV13" s="8"/>
       <c r="CW13" s="8"/>
       <c r="CX13" s="8"/>
@@ -2194,22 +2185,24 @@
       <c r="CO14" s="18">
         <v>64203.136054041541</v>
       </c>
-      <c r="CP14" s="25">
+      <c r="CP14" s="18">
         <v>128049.61270907105</v>
       </c>
-      <c r="CQ14" s="25">
+      <c r="CQ14" s="18">
         <v>132330.33872905793</v>
       </c>
-      <c r="CR14" s="25">
+      <c r="CR14" s="18">
         <v>174583.24150521151</v>
       </c>
-      <c r="CS14" s="25">
+      <c r="CS14" s="18">
         <v>107496.30220590543</v>
       </c>
-      <c r="CT14" s="25">
+      <c r="CT14" s="18">
         <v>151426.10425368711</v>
       </c>
-      <c r="CU14" s="8"/>
+      <c r="CU14" s="18">
+        <v>167362.97894372992</v>
+      </c>
       <c r="CV14" s="8"/>
       <c r="CW14" s="8"/>
       <c r="CX14" s="8"/>
@@ -2543,22 +2536,24 @@
       <c r="CO15" s="18">
         <v>4595.0686874499042</v>
       </c>
-      <c r="CP15" s="25">
+      <c r="CP15" s="18">
         <v>4570.1940500558103</v>
       </c>
-      <c r="CQ15" s="25">
+      <c r="CQ15" s="18">
         <v>5139.0553496337761</v>
       </c>
-      <c r="CR15" s="25">
+      <c r="CR15" s="18">
         <v>5303.5480278897912</v>
       </c>
-      <c r="CS15" s="25">
+      <c r="CS15" s="18">
         <v>5496.1059442223577</v>
       </c>
-      <c r="CT15" s="25">
-        <v>5221.04502611514</v>
-      </c>
-      <c r="CU15" s="8"/>
+      <c r="CT15" s="18">
+        <v>4977.9404636384443</v>
+      </c>
+      <c r="CU15" s="18">
+        <v>5391.142877497583</v>
+      </c>
       <c r="CV15" s="8"/>
       <c r="CW15" s="8"/>
       <c r="CX15" s="8"/>
@@ -2892,22 +2887,24 @@
       <c r="CO16" s="18">
         <v>88349.252531254111</v>
       </c>
-      <c r="CP16" s="25">
+      <c r="CP16" s="18">
         <v>136255.87042386705</v>
       </c>
-      <c r="CQ16" s="25">
+      <c r="CQ16" s="18">
         <v>132006.04495852461</v>
       </c>
-      <c r="CR16" s="25">
+      <c r="CR16" s="18">
         <v>90834.805619856139</v>
       </c>
-      <c r="CS16" s="25">
+      <c r="CS16" s="18">
         <v>100998.99676650774</v>
       </c>
-      <c r="CT16" s="25">
-        <v>146104.69416379082</v>
-      </c>
-      <c r="CU16" s="8"/>
+      <c r="CT16" s="18">
+        <v>144427.11597770988</v>
+      </c>
+      <c r="CU16" s="18">
+        <v>142487.33049555379</v>
+      </c>
       <c r="CV16" s="8"/>
       <c r="CW16" s="8"/>
       <c r="CX16" s="8"/>
@@ -3241,22 +3238,24 @@
       <c r="CO17" s="18">
         <v>330617.25478872925</v>
       </c>
-      <c r="CP17" s="25">
+      <c r="CP17" s="18">
         <v>438940.2579160161</v>
       </c>
-      <c r="CQ17" s="25">
+      <c r="CQ17" s="18">
         <v>442320.61266757833</v>
       </c>
-      <c r="CR17" s="25">
+      <c r="CR17" s="18">
         <v>334923.1459927574</v>
       </c>
-      <c r="CS17" s="25">
+      <c r="CS17" s="18">
         <v>354637.50058273773</v>
       </c>
-      <c r="CT17" s="25">
-        <v>490017.52442568971</v>
-      </c>
-      <c r="CU17" s="8"/>
+      <c r="CT17" s="18">
+        <v>489463.82320816326</v>
+      </c>
+      <c r="CU17" s="18">
+        <v>472218.42256727559</v>
+      </c>
       <c r="CV17" s="8"/>
       <c r="CW17" s="8"/>
       <c r="CX17" s="8"/>
@@ -3590,22 +3589,24 @@
       <c r="CO18" s="18">
         <v>66718.593327664843</v>
       </c>
-      <c r="CP18" s="25">
+      <c r="CP18" s="18">
         <v>68561.433407578908</v>
       </c>
-      <c r="CQ18" s="25">
+      <c r="CQ18" s="18">
         <v>79162.752002960682</v>
       </c>
-      <c r="CR18" s="25">
+      <c r="CR18" s="18">
         <v>65974.839012592245</v>
       </c>
-      <c r="CS18" s="25">
+      <c r="CS18" s="18">
         <v>72001.17877859922</v>
       </c>
-      <c r="CT18" s="25">
-        <v>71295.046251172957</v>
-      </c>
-      <c r="CU18" s="8"/>
+      <c r="CT18" s="18">
+        <v>74272.253945248944</v>
+      </c>
+      <c r="CU18" s="18">
+        <v>83334.967220423583</v>
+      </c>
       <c r="CV18" s="8"/>
       <c r="CW18" s="8"/>
       <c r="CX18" s="8"/>
@@ -3939,22 +3940,24 @@
       <c r="CO19" s="18">
         <v>11024.543795387575</v>
       </c>
-      <c r="CP19" s="25">
+      <c r="CP19" s="18">
         <v>8484.317640903666</v>
       </c>
-      <c r="CQ19" s="25">
+      <c r="CQ19" s="18">
         <v>11183.54873158895</v>
       </c>
-      <c r="CR19" s="25">
+      <c r="CR19" s="18">
         <v>9272.9031053682593</v>
       </c>
-      <c r="CS19" s="25">
+      <c r="CS19" s="18">
         <v>12603.042609203625</v>
       </c>
-      <c r="CT19" s="25">
-        <v>8753.4010204739516</v>
-      </c>
-      <c r="CU19" s="8"/>
+      <c r="CT19" s="18">
+        <v>9152.9725122828659</v>
+      </c>
+      <c r="CU19" s="18">
+        <v>14514.532929209307</v>
+      </c>
       <c r="CV19" s="8"/>
       <c r="CW19" s="8"/>
       <c r="CX19" s="8"/>
@@ -4101,11 +4104,11 @@
       <c r="CM20" s="8"/>
       <c r="CN20" s="8"/>
       <c r="CO20" s="8"/>
-      <c r="CP20" s="26"/>
-      <c r="CQ20" s="26"/>
-      <c r="CR20" s="26"/>
-      <c r="CS20" s="26"/>
-      <c r="CT20" s="26"/>
+      <c r="CP20" s="8"/>
+      <c r="CQ20" s="8"/>
+      <c r="CR20" s="8"/>
+      <c r="CS20" s="8"/>
+      <c r="CT20" s="8"/>
       <c r="CU20" s="8"/>
       <c r="CV20" s="8"/>
       <c r="CW20" s="8"/>
@@ -4440,22 +4443,24 @@
       <c r="CO21" s="19">
         <v>621053.76297050749</v>
       </c>
-      <c r="CP21" s="27">
+      <c r="CP21" s="19">
         <v>876730.23242540262</v>
       </c>
-      <c r="CQ21" s="27">
+      <c r="CQ21" s="19">
         <v>837079.25550387276</v>
       </c>
-      <c r="CR21" s="27">
+      <c r="CR21" s="19">
         <v>733676.93038351345</v>
       </c>
-      <c r="CS21" s="27">
+      <c r="CS21" s="19">
         <v>715591.82449823397</v>
       </c>
-      <c r="CT21" s="27">
-        <v>974037.8836557368</v>
-      </c>
-      <c r="CU21" s="8"/>
+      <c r="CT21" s="19">
+        <v>976950.6723402458</v>
+      </c>
+      <c r="CU21" s="19">
+        <v>923974.64390563755</v>
+      </c>
       <c r="CV21" s="8"/>
       <c r="CW21" s="8"/>
       <c r="CX21" s="8"/>
@@ -4603,11 +4608,12 @@
       <c r="CM22" s="11"/>
       <c r="CN22" s="11"/>
       <c r="CO22" s="11"/>
-      <c r="CP22" s="28"/>
-      <c r="CQ22" s="28"/>
-      <c r="CR22" s="28"/>
-      <c r="CS22" s="28"/>
-      <c r="CT22" s="28"/>
+      <c r="CP22" s="11"/>
+      <c r="CQ22" s="11"/>
+      <c r="CR22" s="11"/>
+      <c r="CS22" s="11"/>
+      <c r="CT22" s="11"/>
+      <c r="CU22" s="11"/>
     </row>
     <row r="23" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
@@ -4707,11 +4713,11 @@
       <c r="CM24" s="8"/>
       <c r="CN24" s="8"/>
       <c r="CO24" s="8"/>
-      <c r="CP24" s="26"/>
-      <c r="CQ24" s="26"/>
-      <c r="CR24" s="26"/>
-      <c r="CS24" s="26"/>
-      <c r="CT24" s="26"/>
+      <c r="CP24" s="8"/>
+      <c r="CQ24" s="8"/>
+      <c r="CR24" s="8"/>
+      <c r="CS24" s="8"/>
+      <c r="CT24" s="8"/>
       <c r="CU24" s="8"/>
       <c r="CV24" s="8"/>
       <c r="CW24" s="8"/>
@@ -4859,11 +4865,11 @@
       <c r="CM25" s="8"/>
       <c r="CN25" s="8"/>
       <c r="CO25" s="8"/>
-      <c r="CP25" s="26"/>
-      <c r="CQ25" s="26"/>
-      <c r="CR25" s="26"/>
-      <c r="CS25" s="26"/>
-      <c r="CT25" s="26"/>
+      <c r="CP25" s="8"/>
+      <c r="CQ25" s="8"/>
+      <c r="CR25" s="8"/>
+      <c r="CS25" s="8"/>
+      <c r="CT25" s="8"/>
       <c r="CU25" s="8"/>
       <c r="CV25" s="8"/>
       <c r="CW25" s="8"/>
@@ -4930,7 +4936,7 @@
     </row>
     <row r="28" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:151" x14ac:dyDescent="0.2">
@@ -4940,7 +4946,7 @@
     </row>
     <row r="31" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:151" x14ac:dyDescent="0.2">
@@ -4950,132 +4956,132 @@
     </row>
     <row r="34" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="35">
+      <c r="B34" s="26">
         <v>2000</v>
       </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35">
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26">
         <v>2001</v>
       </c>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35">
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26">
         <v>2002</v>
       </c>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35">
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26">
         <v>2003</v>
       </c>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35">
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26">
         <v>2004</v>
       </c>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="35">
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26">
         <v>2005</v>
       </c>
-      <c r="W34" s="35"/>
-      <c r="X34" s="35"/>
-      <c r="Y34" s="35"/>
-      <c r="Z34" s="35">
+      <c r="W34" s="26"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="26"/>
+      <c r="Z34" s="26">
         <v>2006</v>
       </c>
-      <c r="AA34" s="35"/>
-      <c r="AB34" s="35"/>
-      <c r="AC34" s="35"/>
-      <c r="AD34" s="35">
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="26"/>
+      <c r="AD34" s="26">
         <v>2007</v>
       </c>
-      <c r="AE34" s="35"/>
-      <c r="AF34" s="35"/>
-      <c r="AG34" s="35"/>
-      <c r="AH34" s="35">
+      <c r="AE34" s="26"/>
+      <c r="AF34" s="26"/>
+      <c r="AG34" s="26"/>
+      <c r="AH34" s="26">
         <v>2008</v>
       </c>
-      <c r="AI34" s="35"/>
-      <c r="AJ34" s="35"/>
-      <c r="AK34" s="35"/>
-      <c r="AL34" s="35">
+      <c r="AI34" s="26"/>
+      <c r="AJ34" s="26"/>
+      <c r="AK34" s="26"/>
+      <c r="AL34" s="26">
         <v>2009</v>
       </c>
-      <c r="AM34" s="35"/>
-      <c r="AN34" s="35"/>
-      <c r="AO34" s="35"/>
-      <c r="AP34" s="35">
+      <c r="AM34" s="26"/>
+      <c r="AN34" s="26"/>
+      <c r="AO34" s="26"/>
+      <c r="AP34" s="26">
         <v>2010</v>
       </c>
-      <c r="AQ34" s="35"/>
-      <c r="AR34" s="35"/>
-      <c r="AS34" s="35"/>
-      <c r="AT34" s="35">
+      <c r="AQ34" s="26"/>
+      <c r="AR34" s="26"/>
+      <c r="AS34" s="26"/>
+      <c r="AT34" s="26">
         <v>2011</v>
       </c>
-      <c r="AU34" s="35"/>
-      <c r="AV34" s="35"/>
-      <c r="AW34" s="35"/>
-      <c r="AX34" s="35">
+      <c r="AU34" s="26"/>
+      <c r="AV34" s="26"/>
+      <c r="AW34" s="26"/>
+      <c r="AX34" s="26">
         <v>2012</v>
       </c>
-      <c r="AY34" s="35"/>
-      <c r="AZ34" s="35"/>
-      <c r="BA34" s="35"/>
-      <c r="BB34" s="35">
+      <c r="AY34" s="26"/>
+      <c r="AZ34" s="26"/>
+      <c r="BA34" s="26"/>
+      <c r="BB34" s="26">
         <v>2013</v>
       </c>
-      <c r="BC34" s="35"/>
-      <c r="BD34" s="35"/>
-      <c r="BE34" s="35"/>
-      <c r="BF34" s="35">
+      <c r="BC34" s="26"/>
+      <c r="BD34" s="26"/>
+      <c r="BE34" s="26"/>
+      <c r="BF34" s="26">
         <v>2014</v>
       </c>
-      <c r="BG34" s="35"/>
-      <c r="BH34" s="35"/>
-      <c r="BI34" s="35"/>
-      <c r="BJ34" s="35">
+      <c r="BG34" s="26"/>
+      <c r="BH34" s="26"/>
+      <c r="BI34" s="26"/>
+      <c r="BJ34" s="26">
         <v>2015</v>
       </c>
-      <c r="BK34" s="35"/>
-      <c r="BL34" s="35"/>
-      <c r="BM34" s="35"/>
-      <c r="BN34" s="35">
+      <c r="BK34" s="26"/>
+      <c r="BL34" s="26"/>
+      <c r="BM34" s="26"/>
+      <c r="BN34" s="26">
         <v>2016</v>
       </c>
-      <c r="BO34" s="35"/>
-      <c r="BP34" s="35"/>
-      <c r="BQ34" s="35"/>
-      <c r="BR34" s="35">
+      <c r="BO34" s="26"/>
+      <c r="BP34" s="26"/>
+      <c r="BQ34" s="26"/>
+      <c r="BR34" s="26">
         <v>2017</v>
       </c>
-      <c r="BS34" s="35"/>
-      <c r="BT34" s="35"/>
-      <c r="BU34" s="35"/>
-      <c r="BV34" s="35">
+      <c r="BS34" s="26"/>
+      <c r="BT34" s="26"/>
+      <c r="BU34" s="26"/>
+      <c r="BV34" s="26">
         <v>2018</v>
       </c>
-      <c r="BW34" s="35"/>
-      <c r="BX34" s="35"/>
-      <c r="BY34" s="35"/>
-      <c r="BZ34" s="35">
+      <c r="BW34" s="26"/>
+      <c r="BX34" s="26"/>
+      <c r="BY34" s="26"/>
+      <c r="BZ34" s="26">
         <v>2019</v>
       </c>
-      <c r="CA34" s="35"/>
-      <c r="CB34" s="35"/>
-      <c r="CC34" s="35"/>
-      <c r="CD34" s="36">
+      <c r="CA34" s="26"/>
+      <c r="CB34" s="26"/>
+      <c r="CC34" s="26"/>
+      <c r="CD34" s="25">
         <v>2020</v>
       </c>
-      <c r="CE34" s="36"/>
-      <c r="CF34" s="36"/>
-      <c r="CG34" s="36"/>
+      <c r="CE34" s="25"/>
+      <c r="CF34" s="25"/>
+      <c r="CG34" s="25"/>
       <c r="CH34" s="21">
         <v>2021</v>
       </c>
@@ -5088,15 +5094,16 @@
       <c r="CM34" s="21"/>
       <c r="CN34" s="21"/>
       <c r="CO34" s="21"/>
-      <c r="CP34" s="24">
+      <c r="CP34" s="21">
         <v>2023</v>
       </c>
-      <c r="CQ34" s="24"/>
-      <c r="CR34" s="24"/>
-      <c r="CS34" s="24"/>
-      <c r="CT34" s="24">
+      <c r="CQ34" s="21"/>
+      <c r="CR34" s="21"/>
+      <c r="CS34" s="21"/>
+      <c r="CT34" s="21">
         <v>2024</v>
       </c>
+      <c r="CU34" s="21"/>
     </row>
     <row r="35" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
@@ -5376,20 +5383,23 @@
       <c r="CO35" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CP35" s="29" t="s">
+      <c r="CP35" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CQ35" s="29" t="s">
+      <c r="CQ35" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="CR35" s="29" t="s">
+      <c r="CR35" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="CS35" s="29" t="s">
+      <c r="CS35" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CT35" s="29" t="s">
+      <c r="CT35" s="13" t="s">
         <v>7</v>
+      </c>
+      <c r="CU35" s="13" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -5675,22 +5685,24 @@
       <c r="CO37" s="18">
         <v>41001.743914789178</v>
       </c>
-      <c r="CP37" s="25">
+      <c r="CP37" s="18">
         <v>66840.507136195039</v>
       </c>
-      <c r="CQ37" s="25">
+      <c r="CQ37" s="18">
         <v>24335.490726229673</v>
       </c>
-      <c r="CR37" s="25">
+      <c r="CR37" s="18">
         <v>39801.249761229999</v>
       </c>
-      <c r="CS37" s="25">
+      <c r="CS37" s="18">
         <v>45097.200111910657</v>
       </c>
-      <c r="CT37" s="25">
-        <v>72305.397080042458</v>
-      </c>
-      <c r="CU37" s="8"/>
+      <c r="CT37" s="18">
+        <v>73763.569378939006</v>
+      </c>
+      <c r="CU37" s="18">
+        <v>26958.75242415956</v>
+      </c>
       <c r="CV37" s="8"/>
       <c r="CW37" s="8"/>
       <c r="CX37" s="8"/>
@@ -6024,22 +6036,24 @@
       <c r="CO38" s="18">
         <v>874.3698128567687</v>
       </c>
-      <c r="CP38" s="25">
+      <c r="CP38" s="18">
         <v>401.40117980165178</v>
       </c>
-      <c r="CQ38" s="25">
+      <c r="CQ38" s="18">
         <v>389.08013271399068</v>
       </c>
-      <c r="CR38" s="25">
+      <c r="CR38" s="18">
         <v>775.39169916792036</v>
       </c>
-      <c r="CS38" s="25">
+      <c r="CS38" s="18">
         <v>800.26199980740012</v>
       </c>
-      <c r="CT38" s="25">
-        <v>453.13602828715932</v>
-      </c>
-      <c r="CU38" s="8"/>
+      <c r="CT38" s="18">
+        <v>437.00790956349607</v>
+      </c>
+      <c r="CU38" s="18">
+        <v>425.47272384273145</v>
+      </c>
       <c r="CV38" s="8"/>
       <c r="CW38" s="8"/>
       <c r="CX38" s="8"/>
@@ -6373,22 +6387,24 @@
       <c r="CO39" s="18">
         <v>54857.258251901527</v>
       </c>
-      <c r="CP39" s="25">
+      <c r="CP39" s="18">
         <v>104952.98838100983</v>
       </c>
-      <c r="CQ39" s="25">
+      <c r="CQ39" s="18">
         <v>107908.32982931691</v>
       </c>
-      <c r="CR39" s="25">
+      <c r="CR39" s="18">
         <v>139971.22516500723</v>
       </c>
-      <c r="CS39" s="25">
+      <c r="CS39" s="18">
         <v>88041.043596806237</v>
       </c>
-      <c r="CT39" s="25">
+      <c r="CT39" s="18">
         <v>120172.09772732317</v>
       </c>
-      <c r="CU39" s="8"/>
+      <c r="CU39" s="18">
+        <v>132251.56752630067</v>
+      </c>
       <c r="CV39" s="8"/>
       <c r="CW39" s="8"/>
       <c r="CX39" s="8"/>
@@ -6722,22 +6738,24 @@
       <c r="CO40" s="18">
         <v>3977.1461621146914</v>
       </c>
-      <c r="CP40" s="25">
+      <c r="CP40" s="18">
         <v>3948.5227029077732</v>
       </c>
-      <c r="CQ40" s="25">
+      <c r="CQ40" s="18">
         <v>4411.1105877597493</v>
       </c>
-      <c r="CR40" s="25">
+      <c r="CR40" s="18">
         <v>4489.0256045275964</v>
       </c>
-      <c r="CS40" s="25">
+      <c r="CS40" s="18">
         <v>4564.4944289546966</v>
       </c>
-      <c r="CT40" s="25">
-        <v>4356.5529553400547</v>
-      </c>
-      <c r="CU40" s="8"/>
+      <c r="CT40" s="18">
+        <v>4153.7012475273468</v>
+      </c>
+      <c r="CU40" s="18">
+        <v>4540.1651977513411</v>
+      </c>
       <c r="CV40" s="8"/>
       <c r="CW40" s="8"/>
       <c r="CX40" s="8"/>
@@ -7071,22 +7089,24 @@
       <c r="CO41" s="18">
         <v>85486.339096444455</v>
       </c>
-      <c r="CP41" s="25">
+      <c r="CP41" s="18">
         <v>132389.96761888449</v>
       </c>
-      <c r="CQ41" s="25">
+      <c r="CQ41" s="18">
         <v>127397.97452047073</v>
       </c>
-      <c r="CR41" s="25">
+      <c r="CR41" s="18">
         <v>88570.644729925349</v>
       </c>
-      <c r="CS41" s="25">
+      <c r="CS41" s="18">
         <v>97408.840224678061</v>
       </c>
-      <c r="CT41" s="25">
-        <v>141361.49065992335</v>
-      </c>
-      <c r="CU41" s="8"/>
+      <c r="CT41" s="18">
+        <v>139628.09619555547</v>
+      </c>
+      <c r="CU41" s="18">
+        <v>136933.7534025386</v>
+      </c>
       <c r="CV41" s="8"/>
       <c r="CW41" s="8"/>
       <c r="CX41" s="8"/>
@@ -7420,22 +7440,24 @@
       <c r="CO42" s="18">
         <v>282568.33591674821</v>
       </c>
-      <c r="CP42" s="25">
+      <c r="CP42" s="18">
         <v>370976.65010641125</v>
       </c>
-      <c r="CQ42" s="25">
+      <c r="CQ42" s="18">
         <v>372232.40369391814</v>
       </c>
-      <c r="CR42" s="25">
+      <c r="CR42" s="18">
         <v>279294.63152185868</v>
       </c>
-      <c r="CS42" s="25">
+      <c r="CS42" s="18">
         <v>294572.86033506453</v>
       </c>
-      <c r="CT42" s="25">
-        <v>405890.48919580912</v>
-      </c>
-      <c r="CU42" s="8"/>
+      <c r="CT42" s="18">
+        <v>405436.75997405779</v>
+      </c>
+      <c r="CU42" s="18">
+        <v>388024.31549253245</v>
+      </c>
       <c r="CV42" s="8"/>
       <c r="CW42" s="8"/>
       <c r="CX42" s="8"/>
@@ -7769,22 +7791,24 @@
       <c r="CO43" s="18">
         <v>56641.27780498279</v>
       </c>
-      <c r="CP43" s="25">
+      <c r="CP43" s="18">
         <v>56722.129138118144</v>
       </c>
-      <c r="CQ43" s="25">
+      <c r="CQ43" s="18">
         <v>66425.589510680875</v>
       </c>
-      <c r="CR43" s="25">
+      <c r="CR43" s="18">
         <v>54458.070986274273</v>
       </c>
-      <c r="CS43" s="25">
+      <c r="CS43" s="18">
         <v>60129.24129404522</v>
       </c>
-      <c r="CT43" s="25">
-        <v>57685.077201933127</v>
-      </c>
-      <c r="CU43" s="8"/>
+      <c r="CT43" s="18">
+        <v>60093.946607444414</v>
+      </c>
+      <c r="CU43" s="18">
+        <v>68278.004479713622</v>
+      </c>
       <c r="CV43" s="8"/>
       <c r="CW43" s="8"/>
       <c r="CX43" s="8"/>
@@ -8118,22 +8142,24 @@
       <c r="CO44" s="18">
         <v>9647.8221918255676</v>
       </c>
-      <c r="CP44" s="25">
+      <c r="CP44" s="18">
         <v>7111.5053813856466</v>
       </c>
-      <c r="CQ44" s="25">
+      <c r="CQ44" s="18">
         <v>9426.9331998502021</v>
       </c>
-      <c r="CR44" s="25">
+      <c r="CR44" s="18">
         <v>7972.0580263325928</v>
       </c>
-      <c r="CS44" s="25">
+      <c r="CS44" s="18">
         <v>10710.381145611891</v>
       </c>
-      <c r="CT44" s="25">
-        <v>7180.5097103007411</v>
-      </c>
-      <c r="CU44" s="8"/>
+      <c r="CT44" s="18">
+        <v>7509.6085256193328</v>
+      </c>
+      <c r="CU44" s="18">
+        <v>11946.285158690835</v>
+      </c>
       <c r="CV44" s="8"/>
       <c r="CW44" s="8"/>
       <c r="CX44" s="8"/>
@@ -8280,11 +8306,11 @@
       <c r="CM45" s="8"/>
       <c r="CN45" s="8"/>
       <c r="CO45" s="8"/>
-      <c r="CP45" s="26"/>
-      <c r="CQ45" s="26"/>
-      <c r="CR45" s="26"/>
-      <c r="CS45" s="26"/>
-      <c r="CT45" s="26"/>
+      <c r="CP45" s="8"/>
+      <c r="CQ45" s="8"/>
+      <c r="CR45" s="8"/>
+      <c r="CS45" s="8"/>
+      <c r="CT45" s="8"/>
       <c r="CU45" s="8"/>
       <c r="CV45" s="8"/>
       <c r="CW45" s="8"/>
@@ -8619,22 +8645,24 @@
       <c r="CO46" s="19">
         <v>535054.29315166315</v>
       </c>
-      <c r="CP46" s="27">
+      <c r="CP46" s="19">
         <v>743343.67164471385</v>
       </c>
-      <c r="CQ46" s="27">
+      <c r="CQ46" s="19">
         <v>712526.91220094031</v>
       </c>
-      <c r="CR46" s="27">
+      <c r="CR46" s="19">
         <v>615332.29749432369</v>
       </c>
-      <c r="CS46" s="27">
+      <c r="CS46" s="19">
         <v>601324.32313687867</v>
       </c>
-      <c r="CT46" s="27">
-        <v>809404.75055895909</v>
-      </c>
-      <c r="CU46" s="8"/>
+      <c r="CT46" s="19">
+        <v>811194.78756603005</v>
+      </c>
+      <c r="CU46" s="19">
+        <v>769358.31640552985</v>
+      </c>
       <c r="CV46" s="8"/>
       <c r="CW46" s="8"/>
       <c r="CX46" s="8"/>
@@ -8782,11 +8810,12 @@
       <c r="CM47" s="11"/>
       <c r="CN47" s="11"/>
       <c r="CO47" s="11"/>
-      <c r="CP47" s="28"/>
-      <c r="CQ47" s="28"/>
-      <c r="CR47" s="28"/>
-      <c r="CS47" s="28"/>
-      <c r="CT47" s="28"/>
+      <c r="CP47" s="11"/>
+      <c r="CQ47" s="11"/>
+      <c r="CR47" s="11"/>
+      <c r="CS47" s="11"/>
+      <c r="CT47" s="11"/>
+      <c r="CU47" s="11"/>
     </row>
     <row r="48" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
@@ -8886,11 +8915,11 @@
       <c r="CM49" s="8"/>
       <c r="CN49" s="8"/>
       <c r="CO49" s="8"/>
-      <c r="CP49" s="26"/>
-      <c r="CQ49" s="26"/>
-      <c r="CR49" s="26"/>
-      <c r="CS49" s="26"/>
-      <c r="CT49" s="26"/>
+      <c r="CP49" s="8"/>
+      <c r="CQ49" s="8"/>
+      <c r="CR49" s="8"/>
+      <c r="CS49" s="8"/>
+      <c r="CT49" s="8"/>
       <c r="CU49" s="8"/>
       <c r="CV49" s="8"/>
       <c r="CW49" s="8"/>
@@ -9038,11 +9067,11 @@
       <c r="CM50" s="8"/>
       <c r="CN50" s="8"/>
       <c r="CO50" s="8"/>
-      <c r="CP50" s="26"/>
-      <c r="CQ50" s="26"/>
-      <c r="CR50" s="26"/>
-      <c r="CS50" s="26"/>
-      <c r="CT50" s="26"/>
+      <c r="CP50" s="8"/>
+      <c r="CQ50" s="8"/>
+      <c r="CR50" s="8"/>
+      <c r="CS50" s="8"/>
+      <c r="CT50" s="8"/>
       <c r="CU50" s="8"/>
       <c r="CV50" s="8"/>
       <c r="CW50" s="8"/>
@@ -9109,172 +9138,172 @@
     </row>
     <row r="53" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="CP55" s="30"/>
-      <c r="CQ55" s="30"/>
-      <c r="CR55" s="30"/>
-      <c r="CS55" s="30"/>
-      <c r="CT55" s="30"/>
+      <c r="CP55" s="6"/>
+      <c r="CQ55" s="6"/>
+      <c r="CR55" s="6"/>
+      <c r="CS55" s="6"/>
+      <c r="CT55" s="6"/>
+      <c r="CU55" s="6"/>
     </row>
     <row r="56" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="CP56" s="30"/>
-      <c r="CQ56" s="30"/>
-      <c r="CR56" s="30"/>
-      <c r="CS56" s="30"/>
-      <c r="CT56" s="30"/>
+        <v>57</v>
+      </c>
+      <c r="CP56" s="6"/>
+      <c r="CQ56" s="6"/>
+      <c r="CR56" s="6"/>
+      <c r="CS56" s="6"/>
+      <c r="CT56" s="6"/>
+      <c r="CU56" s="6"/>
     </row>
     <row r="57" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="CQ57" s="30"/>
-      <c r="CR57" s="30"/>
-      <c r="CS57" s="30"/>
-      <c r="CT57" s="30"/>
+      <c r="CR57" s="6"/>
+      <c r="CS57" s="6"/>
+      <c r="CU57" s="6"/>
     </row>
     <row r="58" spans="1:151" x14ac:dyDescent="0.2">
-      <c r="CQ58" s="30"/>
-      <c r="CR58" s="30"/>
-      <c r="CS58" s="30"/>
-      <c r="CT58" s="30"/>
+      <c r="CR58" s="6"/>
+      <c r="CS58" s="6"/>
+      <c r="CU58" s="6"/>
     </row>
     <row r="59" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
-      <c r="B59" s="36" t="s">
+      <c r="B59" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36" t="s">
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="36" t="s">
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="K59" s="36"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="36"/>
-      <c r="N59" s="36" t="s">
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="O59" s="36"/>
-      <c r="P59" s="36"/>
-      <c r="Q59" s="36"/>
-      <c r="R59" s="36" t="s">
+      <c r="O59" s="25"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="S59" s="36"/>
-      <c r="T59" s="36"/>
-      <c r="U59" s="36"/>
-      <c r="V59" s="36" t="s">
+      <c r="S59" s="25"/>
+      <c r="T59" s="25"/>
+      <c r="U59" s="25"/>
+      <c r="V59" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="W59" s="36"/>
-      <c r="X59" s="36"/>
-      <c r="Y59" s="36"/>
-      <c r="Z59" s="36" t="s">
+      <c r="W59" s="25"/>
+      <c r="X59" s="25"/>
+      <c r="Y59" s="25"/>
+      <c r="Z59" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AA59" s="36"/>
-      <c r="AB59" s="36"/>
-      <c r="AC59" s="36"/>
-      <c r="AD59" s="36" t="s">
+      <c r="AA59" s="25"/>
+      <c r="AB59" s="25"/>
+      <c r="AC59" s="25"/>
+      <c r="AD59" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AE59" s="36"/>
-      <c r="AF59" s="36"/>
-      <c r="AG59" s="36"/>
-      <c r="AH59" s="36" t="s">
+      <c r="AE59" s="25"/>
+      <c r="AF59" s="25"/>
+      <c r="AG59" s="25"/>
+      <c r="AH59" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="AI59" s="36"/>
-      <c r="AJ59" s="36"/>
-      <c r="AK59" s="36"/>
-      <c r="AL59" s="36" t="s">
+      <c r="AI59" s="25"/>
+      <c r="AJ59" s="25"/>
+      <c r="AK59" s="25"/>
+      <c r="AL59" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AM59" s="36"/>
-      <c r="AN59" s="36"/>
-      <c r="AO59" s="36"/>
-      <c r="AP59" s="36" t="s">
+      <c r="AM59" s="25"/>
+      <c r="AN59" s="25"/>
+      <c r="AO59" s="25"/>
+      <c r="AP59" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="AQ59" s="36"/>
-      <c r="AR59" s="36"/>
-      <c r="AS59" s="36"/>
-      <c r="AT59" s="36" t="s">
+      <c r="AQ59" s="25"/>
+      <c r="AR59" s="25"/>
+      <c r="AS59" s="25"/>
+      <c r="AT59" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="AU59" s="36"/>
-      <c r="AV59" s="36"/>
-      <c r="AW59" s="36"/>
-      <c r="AX59" s="36" t="s">
+      <c r="AU59" s="25"/>
+      <c r="AV59" s="25"/>
+      <c r="AW59" s="25"/>
+      <c r="AX59" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="AY59" s="36"/>
-      <c r="AZ59" s="36"/>
-      <c r="BA59" s="36"/>
-      <c r="BB59" s="36" t="s">
+      <c r="AY59" s="25"/>
+      <c r="AZ59" s="25"/>
+      <c r="BA59" s="25"/>
+      <c r="BB59" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="BC59" s="36"/>
-      <c r="BD59" s="36"/>
-      <c r="BE59" s="36"/>
-      <c r="BF59" s="36" t="s">
+      <c r="BC59" s="25"/>
+      <c r="BD59" s="25"/>
+      <c r="BE59" s="25"/>
+      <c r="BF59" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="BG59" s="36"/>
-      <c r="BH59" s="36"/>
-      <c r="BI59" s="36"/>
-      <c r="BJ59" s="36" t="s">
+      <c r="BG59" s="25"/>
+      <c r="BH59" s="25"/>
+      <c r="BI59" s="25"/>
+      <c r="BJ59" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="BK59" s="36"/>
-      <c r="BL59" s="36"/>
-      <c r="BM59" s="36"/>
-      <c r="BN59" s="36" t="s">
+      <c r="BK59" s="25"/>
+      <c r="BL59" s="25"/>
+      <c r="BM59" s="25"/>
+      <c r="BN59" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="BO59" s="36"/>
-      <c r="BP59" s="36"/>
-      <c r="BQ59" s="36"/>
-      <c r="BR59" s="36" t="s">
+      <c r="BO59" s="25"/>
+      <c r="BP59" s="25"/>
+      <c r="BQ59" s="25"/>
+      <c r="BR59" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="BS59" s="36"/>
-      <c r="BT59" s="36"/>
-      <c r="BU59" s="36"/>
-      <c r="BV59" s="36" t="s">
+      <c r="BS59" s="25"/>
+      <c r="BT59" s="25"/>
+      <c r="BU59" s="25"/>
+      <c r="BV59" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="BW59" s="36"/>
-      <c r="BX59" s="36"/>
-      <c r="BY59" s="36"/>
-      <c r="BZ59" s="36" t="s">
+      <c r="BW59" s="25"/>
+      <c r="BX59" s="25"/>
+      <c r="BY59" s="25"/>
+      <c r="BZ59" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="CA59" s="36"/>
-      <c r="CB59" s="36"/>
-      <c r="CC59" s="36"/>
-      <c r="CD59" s="36" t="s">
+      <c r="CA59" s="25"/>
+      <c r="CB59" s="25"/>
+      <c r="CC59" s="25"/>
+      <c r="CD59" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="CE59" s="36"/>
-      <c r="CF59" s="36"/>
-      <c r="CG59" s="36"/>
+      <c r="CE59" s="25"/>
+      <c r="CF59" s="25"/>
+      <c r="CG59" s="25"/>
       <c r="CH59" s="21" t="s">
         <v>52</v>
       </c>
@@ -9287,13 +9316,14 @@
       <c r="CM59" s="21"/>
       <c r="CN59" s="21"/>
       <c r="CO59" s="21"/>
-      <c r="CP59" s="24" t="s">
+      <c r="CP59" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="CQ59" s="22"/>
+      <c r="CQ59" s="21"/>
       <c r="CR59" s="22"/>
       <c r="CS59" s="22"/>
-      <c r="CT59" s="22"/>
+      <c r="CT59" s="21"/>
+      <c r="CU59" s="22"/>
     </row>
     <row r="60" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
@@ -9573,20 +9603,22 @@
       <c r="CO60" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CP60" s="29" t="s">
+      <c r="CP60" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CQ60" s="29"/>
-      <c r="CR60" s="29"/>
-      <c r="CS60" s="29"/>
-      <c r="CT60" s="29"/>
+      <c r="CQ60" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR60" s="13"/>
+      <c r="CS60" s="13"/>
+      <c r="CT60" s="13"/>
+      <c r="CU60" s="13"/>
     </row>
     <row r="61" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
-      <c r="CQ61" s="30"/>
-      <c r="CR61" s="30"/>
-      <c r="CS61" s="30"/>
-      <c r="CT61" s="30"/>
+      <c r="CR61" s="6"/>
+      <c r="CS61" s="6"/>
+      <c r="CU61" s="6"/>
     </row>
     <row r="62" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -9868,14 +9900,16 @@
       <c r="CO62" s="14">
         <v>12.595581900616963</v>
       </c>
-      <c r="CP62" s="31">
-        <v>10.15166201734516</v>
-      </c>
-      <c r="CQ62" s="32"/>
-      <c r="CR62" s="32"/>
-      <c r="CS62" s="32"/>
-      <c r="CT62" s="32"/>
-      <c r="CU62" s="8"/>
+      <c r="CP62" s="14">
+        <v>12.373074369915457</v>
+      </c>
+      <c r="CQ62" s="14">
+        <v>10.653916472298206</v>
+      </c>
+      <c r="CR62" s="23"/>
+      <c r="CS62" s="23"/>
+      <c r="CT62" s="14"/>
+      <c r="CU62" s="23"/>
       <c r="CV62" s="8"/>
       <c r="CW62" s="8"/>
       <c r="CX62" s="8"/>
@@ -10205,14 +10239,16 @@
       <c r="CO63" s="14">
         <v>-5.7511235051855465</v>
       </c>
-      <c r="CP63" s="31">
-        <v>15.429937775878415</v>
-      </c>
-      <c r="CQ63" s="32"/>
-      <c r="CR63" s="32"/>
-      <c r="CS63" s="32"/>
-      <c r="CT63" s="32"/>
-      <c r="CU63" s="8"/>
+      <c r="CP63" s="14">
+        <v>11.321529650063567</v>
+      </c>
+      <c r="CQ63" s="14">
+        <v>11.993715039622984</v>
+      </c>
+      <c r="CR63" s="23"/>
+      <c r="CS63" s="23"/>
+      <c r="CT63" s="14"/>
+      <c r="CU63" s="23"/>
       <c r="CV63" s="8"/>
       <c r="CW63" s="8"/>
       <c r="CX63" s="8"/>
@@ -10542,14 +10578,16 @@
       <c r="CO64" s="14">
         <v>67.431544333633241</v>
       </c>
-      <c r="CP64" s="31">
+      <c r="CP64" s="14">
         <v>18.255808080987705</v>
       </c>
-      <c r="CQ64" s="32"/>
-      <c r="CR64" s="32"/>
-      <c r="CS64" s="32"/>
-      <c r="CT64" s="32"/>
-      <c r="CU64" s="8"/>
+      <c r="CQ64" s="14">
+        <v>26.473626948390262</v>
+      </c>
+      <c r="CR64" s="23"/>
+      <c r="CS64" s="23"/>
+      <c r="CT64" s="14"/>
+      <c r="CU64" s="23"/>
       <c r="CV64" s="8"/>
       <c r="CW64" s="8"/>
       <c r="CX64" s="8"/>
@@ -10879,14 +10917,16 @@
       <c r="CO65" s="14">
         <v>19.608787551606682</v>
       </c>
-      <c r="CP65" s="31">
-        <v>14.241210962396252</v>
-      </c>
-      <c r="CQ65" s="32"/>
-      <c r="CR65" s="32"/>
-      <c r="CS65" s="32"/>
-      <c r="CT65" s="32"/>
-      <c r="CU65" s="8"/>
+      <c r="CP65" s="14">
+        <v>8.9218621598278673</v>
+      </c>
+      <c r="CQ65" s="14">
+        <v>4.9053281335405643</v>
+      </c>
+      <c r="CR65" s="23"/>
+      <c r="CS65" s="23"/>
+      <c r="CT65" s="14"/>
+      <c r="CU65" s="23"/>
       <c r="CV65" s="8"/>
       <c r="CW65" s="8"/>
       <c r="CX65" s="8"/>
@@ -11216,14 +11256,16 @@
       <c r="CO66" s="14">
         <v>14.317884840937054</v>
       </c>
-      <c r="CP66" s="31">
-        <v>7.2281830568370395</v>
-      </c>
-      <c r="CQ66" s="32"/>
-      <c r="CR66" s="32"/>
-      <c r="CS66" s="32"/>
-      <c r="CT66" s="32"/>
-      <c r="CU66" s="8"/>
+      <c r="CP66" s="14">
+        <v>5.9969860589665416</v>
+      </c>
+      <c r="CQ66" s="14">
+        <v>7.9400042174752912</v>
+      </c>
+      <c r="CR66" s="23"/>
+      <c r="CS66" s="23"/>
+      <c r="CT66" s="14"/>
+      <c r="CU66" s="23"/>
       <c r="CV66" s="8"/>
       <c r="CW66" s="8"/>
       <c r="CX66" s="8"/>
@@ -11553,14 +11595,16 @@
       <c r="CO67" s="14">
         <v>7.2652728936842408</v>
       </c>
-      <c r="CP67" s="31">
-        <v>11.636496217543652</v>
-      </c>
-      <c r="CQ67" s="32"/>
-      <c r="CR67" s="32"/>
-      <c r="CS67" s="32"/>
-      <c r="CT67" s="32"/>
-      <c r="CU67" s="8"/>
+      <c r="CP67" s="14">
+        <v>11.510351210896232</v>
+      </c>
+      <c r="CQ67" s="14">
+        <v>6.7593073990803703</v>
+      </c>
+      <c r="CR67" s="23"/>
+      <c r="CS67" s="23"/>
+      <c r="CT67" s="14"/>
+      <c r="CU67" s="23"/>
       <c r="CV67" s="8"/>
       <c r="CW67" s="8"/>
       <c r="CX67" s="8"/>
@@ -11890,14 +11934,16 @@
       <c r="CO68" s="14">
         <v>7.917711071920877</v>
       </c>
-      <c r="CP68" s="31">
-        <v>3.9870999011112787</v>
-      </c>
-      <c r="CQ68" s="32"/>
-      <c r="CR68" s="32"/>
-      <c r="CS68" s="32"/>
-      <c r="CT68" s="32"/>
-      <c r="CU68" s="8"/>
+      <c r="CP68" s="14">
+        <v>8.3294940811998117</v>
+      </c>
+      <c r="CQ68" s="14">
+        <v>5.2704272045858858</v>
+      </c>
+      <c r="CR68" s="23"/>
+      <c r="CS68" s="23"/>
+      <c r="CT68" s="14"/>
+      <c r="CU68" s="23"/>
       <c r="CV68" s="8"/>
       <c r="CW68" s="8"/>
       <c r="CX68" s="8"/>
@@ -12227,14 +12273,16 @@
       <c r="CO69" s="14">
         <v>14.318042026160384</v>
       </c>
-      <c r="CP69" s="31">
-        <v>3.1715382539782695</v>
-      </c>
-      <c r="CQ69" s="32"/>
-      <c r="CR69" s="32"/>
-      <c r="CS69" s="32"/>
-      <c r="CT69" s="32"/>
-      <c r="CU69" s="8"/>
+      <c r="CP69" s="14">
+        <v>7.8810683390206293</v>
+      </c>
+      <c r="CQ69" s="14">
+        <v>29.784679957728343</v>
+      </c>
+      <c r="CR69" s="23"/>
+      <c r="CS69" s="23"/>
+      <c r="CT69" s="14"/>
+      <c r="CU69" s="23"/>
       <c r="CV69" s="8"/>
       <c r="CW69" s="8"/>
       <c r="CX69" s="8"/>
@@ -12377,12 +12425,12 @@
       <c r="CM70" s="8"/>
       <c r="CN70" s="8"/>
       <c r="CO70" s="8"/>
-      <c r="CP70" s="26"/>
-      <c r="CQ70" s="33"/>
-      <c r="CR70" s="33"/>
-      <c r="CS70" s="33"/>
-      <c r="CT70" s="33"/>
-      <c r="CU70" s="8"/>
+      <c r="CP70" s="8"/>
+      <c r="CQ70" s="8"/>
+      <c r="CR70" s="24"/>
+      <c r="CS70" s="24"/>
+      <c r="CT70" s="8"/>
+      <c r="CU70" s="24"/>
       <c r="CV70" s="8"/>
       <c r="CW70" s="8"/>
       <c r="CX70" s="8"/>
@@ -12712,14 +12760,16 @@
       <c r="CO71" s="14">
         <v>15.22220251521378</v>
       </c>
-      <c r="CP71" s="31">
-        <v>11.098927313267225</v>
-      </c>
-      <c r="CQ71" s="32"/>
-      <c r="CR71" s="32"/>
-      <c r="CS71" s="32"/>
-      <c r="CT71" s="32"/>
-      <c r="CU71" s="8"/>
+      <c r="CP71" s="14">
+        <v>11.431160487940687</v>
+      </c>
+      <c r="CQ71" s="14">
+        <v>10.380783878040177</v>
+      </c>
+      <c r="CR71" s="23"/>
+      <c r="CS71" s="23"/>
+      <c r="CT71" s="14"/>
+      <c r="CU71" s="23"/>
       <c r="CV71" s="8"/>
       <c r="CW71" s="8"/>
       <c r="CX71" s="8"/>
@@ -12863,20 +12913,20 @@
       <c r="CM72" s="11"/>
       <c r="CN72" s="11"/>
       <c r="CO72" s="11"/>
-      <c r="CP72" s="28"/>
-      <c r="CQ72" s="13"/>
-      <c r="CR72" s="13"/>
-      <c r="CS72" s="13"/>
-      <c r="CT72" s="13"/>
+      <c r="CP72" s="11"/>
+      <c r="CQ72" s="11"/>
+      <c r="CR72" s="5"/>
+      <c r="CS72" s="5"/>
+      <c r="CT72" s="11"/>
+      <c r="CU72" s="5"/>
     </row>
     <row r="73" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="CQ73" s="30"/>
-      <c r="CR73" s="30"/>
-      <c r="CS73" s="30"/>
-      <c r="CT73" s="30"/>
+      <c r="CR73" s="6"/>
+      <c r="CS73" s="6"/>
+      <c r="CU73" s="6"/>
     </row>
     <row r="74" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="8"/>
@@ -12971,12 +13021,12 @@
       <c r="CM74" s="8"/>
       <c r="CN74" s="8"/>
       <c r="CO74" s="8"/>
-      <c r="CP74" s="26"/>
-      <c r="CQ74" s="33"/>
-      <c r="CR74" s="33"/>
-      <c r="CS74" s="33"/>
-      <c r="CT74" s="33"/>
-      <c r="CU74" s="8"/>
+      <c r="CP74" s="8"/>
+      <c r="CQ74" s="8"/>
+      <c r="CR74" s="24"/>
+      <c r="CS74" s="24"/>
+      <c r="CT74" s="8"/>
+      <c r="CU74" s="24"/>
       <c r="CV74" s="8"/>
       <c r="CW74" s="8"/>
       <c r="CX74" s="8"/>
@@ -13119,12 +13169,12 @@
       <c r="CM75" s="8"/>
       <c r="CN75" s="8"/>
       <c r="CO75" s="8"/>
-      <c r="CP75" s="26"/>
-      <c r="CQ75" s="33"/>
-      <c r="CR75" s="33"/>
-      <c r="CS75" s="33"/>
-      <c r="CT75" s="33"/>
-      <c r="CU75" s="8"/>
+      <c r="CP75" s="8"/>
+      <c r="CQ75" s="8"/>
+      <c r="CR75" s="24"/>
+      <c r="CS75" s="24"/>
+      <c r="CT75" s="8"/>
+      <c r="CU75" s="24"/>
       <c r="CV75" s="8"/>
       <c r="CW75" s="8"/>
       <c r="CX75" s="8"/>
@@ -13178,196 +13228,188 @@
       <c r="A76" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="CQ76" s="30"/>
-      <c r="CR76" s="30"/>
-      <c r="CS76" s="30"/>
-      <c r="CT76" s="30"/>
+      <c r="CR76" s="6"/>
+      <c r="CS76" s="6"/>
+      <c r="CU76" s="6"/>
     </row>
     <row r="77" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CQ77" s="30"/>
-      <c r="CR77" s="30"/>
-      <c r="CS77" s="30"/>
-      <c r="CT77" s="30"/>
+      <c r="CR77" s="6"/>
+      <c r="CS77" s="6"/>
+      <c r="CU77" s="6"/>
     </row>
     <row r="78" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="CQ78" s="30"/>
-      <c r="CR78" s="30"/>
-      <c r="CS78" s="30"/>
-      <c r="CT78" s="30"/>
+        <v>55</v>
+      </c>
+      <c r="CR78" s="6"/>
+      <c r="CS78" s="6"/>
+      <c r="CU78" s="6"/>
     </row>
     <row r="79" spans="1:147" x14ac:dyDescent="0.2">
-      <c r="CQ79" s="30"/>
-      <c r="CR79" s="30"/>
-      <c r="CS79" s="30"/>
-      <c r="CT79" s="30"/>
+      <c r="CR79" s="6"/>
+      <c r="CS79" s="6"/>
+      <c r="CU79" s="6"/>
     </row>
     <row r="80" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="CQ80" s="30"/>
-      <c r="CR80" s="30"/>
-      <c r="CS80" s="30"/>
-      <c r="CT80" s="30"/>
+      <c r="CR80" s="6"/>
+      <c r="CS80" s="6"/>
+      <c r="CU80" s="6"/>
     </row>
     <row r="81" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="CQ81" s="30"/>
-      <c r="CR81" s="30"/>
-      <c r="CS81" s="30"/>
-      <c r="CT81" s="30"/>
+        <v>57</v>
+      </c>
+      <c r="CR81" s="6"/>
+      <c r="CS81" s="6"/>
+      <c r="CU81" s="6"/>
     </row>
     <row r="82" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="CQ82" s="30"/>
-      <c r="CR82" s="30"/>
-      <c r="CS82" s="30"/>
-      <c r="CT82" s="30"/>
+      <c r="CR82" s="6"/>
+      <c r="CS82" s="6"/>
+      <c r="CU82" s="6"/>
     </row>
     <row r="83" spans="1:147" x14ac:dyDescent="0.2">
-      <c r="CQ83" s="30"/>
-      <c r="CR83" s="30"/>
-      <c r="CS83" s="30"/>
-      <c r="CT83" s="30"/>
+      <c r="CR83" s="6"/>
+      <c r="CS83" s="6"/>
+      <c r="CU83" s="6"/>
     </row>
     <row r="84" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
-      <c r="B84" s="36" t="s">
+      <c r="B84" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="36" t="s">
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G84" s="36"/>
-      <c r="H84" s="36"/>
-      <c r="I84" s="36"/>
-      <c r="J84" s="36" t="s">
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="K84" s="36"/>
-      <c r="L84" s="36"/>
-      <c r="M84" s="36"/>
-      <c r="N84" s="36" t="s">
+      <c r="K84" s="25"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="O84" s="36"/>
-      <c r="P84" s="36"/>
-      <c r="Q84" s="36"/>
-      <c r="R84" s="36" t="s">
+      <c r="O84" s="25"/>
+      <c r="P84" s="25"/>
+      <c r="Q84" s="25"/>
+      <c r="R84" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="S84" s="36"/>
-      <c r="T84" s="36"/>
-      <c r="U84" s="36"/>
-      <c r="V84" s="36" t="s">
+      <c r="S84" s="25"/>
+      <c r="T84" s="25"/>
+      <c r="U84" s="25"/>
+      <c r="V84" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="W84" s="36"/>
-      <c r="X84" s="36"/>
-      <c r="Y84" s="36"/>
-      <c r="Z84" s="36" t="s">
+      <c r="W84" s="25"/>
+      <c r="X84" s="25"/>
+      <c r="Y84" s="25"/>
+      <c r="Z84" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AA84" s="36"/>
-      <c r="AB84" s="36"/>
-      <c r="AC84" s="36"/>
-      <c r="AD84" s="36" t="s">
+      <c r="AA84" s="25"/>
+      <c r="AB84" s="25"/>
+      <c r="AC84" s="25"/>
+      <c r="AD84" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AE84" s="36"/>
-      <c r="AF84" s="36"/>
-      <c r="AG84" s="36"/>
-      <c r="AH84" s="36" t="s">
+      <c r="AE84" s="25"/>
+      <c r="AF84" s="25"/>
+      <c r="AG84" s="25"/>
+      <c r="AH84" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="AI84" s="36"/>
-      <c r="AJ84" s="36"/>
-      <c r="AK84" s="36"/>
-      <c r="AL84" s="36" t="s">
+      <c r="AI84" s="25"/>
+      <c r="AJ84" s="25"/>
+      <c r="AK84" s="25"/>
+      <c r="AL84" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AM84" s="36"/>
-      <c r="AN84" s="36"/>
-      <c r="AO84" s="36"/>
-      <c r="AP84" s="36" t="s">
+      <c r="AM84" s="25"/>
+      <c r="AN84" s="25"/>
+      <c r="AO84" s="25"/>
+      <c r="AP84" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="AQ84" s="36"/>
-      <c r="AR84" s="36"/>
-      <c r="AS84" s="36"/>
-      <c r="AT84" s="36" t="s">
+      <c r="AQ84" s="25"/>
+      <c r="AR84" s="25"/>
+      <c r="AS84" s="25"/>
+      <c r="AT84" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="AU84" s="36"/>
-      <c r="AV84" s="36"/>
-      <c r="AW84" s="36"/>
-      <c r="AX84" s="36" t="s">
+      <c r="AU84" s="25"/>
+      <c r="AV84" s="25"/>
+      <c r="AW84" s="25"/>
+      <c r="AX84" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="AY84" s="36"/>
-      <c r="AZ84" s="36"/>
-      <c r="BA84" s="36"/>
-      <c r="BB84" s="36" t="s">
+      <c r="AY84" s="25"/>
+      <c r="AZ84" s="25"/>
+      <c r="BA84" s="25"/>
+      <c r="BB84" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="BC84" s="36"/>
-      <c r="BD84" s="36"/>
-      <c r="BE84" s="36"/>
-      <c r="BF84" s="36" t="s">
+      <c r="BC84" s="25"/>
+      <c r="BD84" s="25"/>
+      <c r="BE84" s="25"/>
+      <c r="BF84" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="BG84" s="36"/>
-      <c r="BH84" s="36"/>
-      <c r="BI84" s="36"/>
-      <c r="BJ84" s="36" t="s">
+      <c r="BG84" s="25"/>
+      <c r="BH84" s="25"/>
+      <c r="BI84" s="25"/>
+      <c r="BJ84" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="BK84" s="36"/>
-      <c r="BL84" s="36"/>
-      <c r="BM84" s="36"/>
-      <c r="BN84" s="36" t="s">
+      <c r="BK84" s="25"/>
+      <c r="BL84" s="25"/>
+      <c r="BM84" s="25"/>
+      <c r="BN84" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="BO84" s="36"/>
-      <c r="BP84" s="36"/>
-      <c r="BQ84" s="36"/>
-      <c r="BR84" s="36" t="s">
+      <c r="BO84" s="25"/>
+      <c r="BP84" s="25"/>
+      <c r="BQ84" s="25"/>
+      <c r="BR84" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="BS84" s="36"/>
-      <c r="BT84" s="36"/>
-      <c r="BU84" s="36"/>
-      <c r="BV84" s="36" t="s">
+      <c r="BS84" s="25"/>
+      <c r="BT84" s="25"/>
+      <c r="BU84" s="25"/>
+      <c r="BV84" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="BW84" s="36"/>
-      <c r="BX84" s="36"/>
-      <c r="BY84" s="36"/>
-      <c r="BZ84" s="36" t="s">
+      <c r="BW84" s="25"/>
+      <c r="BX84" s="25"/>
+      <c r="BY84" s="25"/>
+      <c r="BZ84" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="CA84" s="36"/>
-      <c r="CB84" s="36"/>
-      <c r="CC84" s="36"/>
-      <c r="CD84" s="36" t="s">
+      <c r="CA84" s="25"/>
+      <c r="CB84" s="25"/>
+      <c r="CC84" s="25"/>
+      <c r="CD84" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="CE84" s="36"/>
-      <c r="CF84" s="36"/>
-      <c r="CG84" s="36"/>
+      <c r="CE84" s="25"/>
+      <c r="CF84" s="25"/>
+      <c r="CG84" s="25"/>
       <c r="CH84" s="21" t="s">
         <v>52</v>
       </c>
@@ -13380,13 +13422,14 @@
       <c r="CM84" s="21"/>
       <c r="CN84" s="21"/>
       <c r="CO84" s="21"/>
-      <c r="CP84" s="24" t="s">
+      <c r="CP84" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="CQ84" s="22"/>
+      <c r="CQ84" s="21"/>
       <c r="CR84" s="22"/>
       <c r="CS84" s="22"/>
-      <c r="CT84" s="22"/>
+      <c r="CT84" s="21"/>
+      <c r="CU84" s="22"/>
     </row>
     <row r="85" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
@@ -13666,20 +13709,22 @@
       <c r="CO85" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CP85" s="13" t="s">
+      <c r="CP85" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CQ85" s="13"/>
-      <c r="CR85" s="13"/>
-      <c r="CS85" s="13"/>
-      <c r="CT85" s="13"/>
+      <c r="CQ85" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR85" s="5"/>
+      <c r="CS85" s="5"/>
+      <c r="CT85" s="5"/>
+      <c r="CU85" s="5"/>
     </row>
     <row r="86" spans="1:147" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
-      <c r="CQ86" s="30"/>
-      <c r="CR86" s="30"/>
-      <c r="CS86" s="30"/>
-      <c r="CT86" s="30"/>
+      <c r="CR86" s="6"/>
+      <c r="CS86" s="6"/>
+      <c r="CU86" s="6"/>
     </row>
     <row r="87" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
@@ -13961,14 +14006,16 @@
       <c r="CO87" s="14">
         <v>9.9884926983417017</v>
       </c>
-      <c r="CP87" s="31">
-        <v>8.1760150812621504</v>
-      </c>
-      <c r="CQ87" s="32"/>
-      <c r="CR87" s="32"/>
-      <c r="CS87" s="32"/>
-      <c r="CT87" s="32"/>
-      <c r="CU87" s="8"/>
+      <c r="CP87" s="14">
+        <v>10.357584852905816</v>
+      </c>
+      <c r="CQ87" s="14">
+        <v>10.779571809096254</v>
+      </c>
+      <c r="CR87" s="23"/>
+      <c r="CS87" s="23"/>
+      <c r="CT87" s="14"/>
+      <c r="CU87" s="23"/>
       <c r="CV87" s="8"/>
       <c r="CW87" s="8"/>
       <c r="CX87" s="8"/>
@@ -14298,14 +14345,16 @@
       <c r="CO88" s="14">
         <v>-8.4755685706075781</v>
       </c>
-      <c r="CP88" s="31">
-        <v>12.888564132041608</v>
-      </c>
-      <c r="CQ88" s="32"/>
-      <c r="CR88" s="32"/>
-      <c r="CS88" s="32"/>
-      <c r="CT88" s="32"/>
-      <c r="CU88" s="8"/>
+      <c r="CP88" s="14">
+        <v>8.8706091445568234</v>
+      </c>
+      <c r="CQ88" s="14">
+        <v>9.3534950949275526</v>
+      </c>
+      <c r="CR88" s="23"/>
+      <c r="CS88" s="23"/>
+      <c r="CT88" s="14"/>
+      <c r="CU88" s="23"/>
       <c r="CV88" s="8"/>
       <c r="CW88" s="8"/>
       <c r="CX88" s="8"/>
@@ -14635,14 +14684,16 @@
       <c r="CO89" s="14">
         <v>60.491148122143812</v>
       </c>
-      <c r="CP89" s="31">
+      <c r="CP89" s="14">
         <v>14.500882329394528</v>
       </c>
-      <c r="CQ89" s="32"/>
-      <c r="CR89" s="32"/>
-      <c r="CS89" s="32"/>
-      <c r="CT89" s="32"/>
-      <c r="CU89" s="8"/>
+      <c r="CQ89" s="14">
+        <v>22.559183091322495</v>
+      </c>
+      <c r="CR89" s="23"/>
+      <c r="CS89" s="23"/>
+      <c r="CT89" s="14"/>
+      <c r="CU89" s="23"/>
       <c r="CV89" s="8"/>
       <c r="CW89" s="8"/>
       <c r="CX89" s="8"/>
@@ -14972,14 +15023,16 @@
       <c r="CO90" s="14">
         <v>14.768083517647383</v>
       </c>
-      <c r="CP90" s="31">
-        <v>10.33374462129342</v>
-      </c>
-      <c r="CQ90" s="32"/>
-      <c r="CR90" s="32"/>
-      <c r="CS90" s="32"/>
-      <c r="CT90" s="32"/>
-      <c r="CU90" s="8"/>
+      <c r="CP90" s="14">
+        <v>5.1963369608708518</v>
+      </c>
+      <c r="CQ90" s="14">
+        <v>2.9256716063682688</v>
+      </c>
+      <c r="CR90" s="23"/>
+      <c r="CS90" s="23"/>
+      <c r="CT90" s="14"/>
+      <c r="CU90" s="23"/>
       <c r="CV90" s="8"/>
       <c r="CW90" s="8"/>
       <c r="CX90" s="8"/>
@@ -15309,14 +15362,16 @@
       <c r="CO91" s="14">
         <v>13.94667411688178</v>
       </c>
-      <c r="CP91" s="31">
-        <v>6.77658828867267</v>
-      </c>
-      <c r="CQ91" s="32"/>
-      <c r="CR91" s="32"/>
-      <c r="CS91" s="32"/>
-      <c r="CT91" s="32"/>
-      <c r="CU91" s="8"/>
+      <c r="CP91" s="14">
+        <v>5.4672787574868522</v>
+      </c>
+      <c r="CQ91" s="14">
+        <v>7.4850317816753176</v>
+      </c>
+      <c r="CR91" s="23"/>
+      <c r="CS91" s="23"/>
+      <c r="CT91" s="14"/>
+      <c r="CU91" s="23"/>
       <c r="CV91" s="8"/>
       <c r="CW91" s="8"/>
       <c r="CX91" s="8"/>
@@ -15646,14 +15701,16 @@
       <c r="CO92" s="14">
         <v>4.2483615085071591</v>
       </c>
-      <c r="CP92" s="31">
-        <v>9.4113306267074108</v>
-      </c>
-      <c r="CQ92" s="32"/>
-      <c r="CR92" s="32"/>
-      <c r="CS92" s="32"/>
-      <c r="CT92" s="32"/>
-      <c r="CU92" s="8"/>
+      <c r="CP92" s="14">
+        <v>9.2890239473999259</v>
+      </c>
+      <c r="CQ92" s="14">
+        <v>4.2424871241461943</v>
+      </c>
+      <c r="CR92" s="23"/>
+      <c r="CS92" s="23"/>
+      <c r="CT92" s="14"/>
+      <c r="CU92" s="23"/>
       <c r="CV92" s="8"/>
       <c r="CW92" s="8"/>
       <c r="CX92" s="8"/>
@@ -15983,14 +16040,16 @@
       <c r="CO93" s="14">
         <v>6.157988704053551</v>
       </c>
-      <c r="CP93" s="31">
-        <v>1.6976585301835314</v>
-      </c>
-      <c r="CQ93" s="32"/>
-      <c r="CR93" s="32"/>
-      <c r="CS93" s="32"/>
-      <c r="CT93" s="32"/>
-      <c r="CU93" s="8"/>
+      <c r="CP93" s="14">
+        <v>5.9444479968583579</v>
+      </c>
+      <c r="CQ93" s="14">
+        <v>2.7887068563160966</v>
+      </c>
+      <c r="CR93" s="23"/>
+      <c r="CS93" s="23"/>
+      <c r="CT93" s="14"/>
+      <c r="CU93" s="23"/>
       <c r="CV93" s="8"/>
       <c r="CW93" s="8"/>
       <c r="CX93" s="8"/>
@@ -16320,14 +16379,16 @@
       <c r="CO94" s="14">
         <v>11.013459127455832</v>
       </c>
-      <c r="CP94" s="31">
-        <v>0.97031957672018621</v>
-      </c>
-      <c r="CQ94" s="32"/>
-      <c r="CR94" s="32"/>
-      <c r="CS94" s="32"/>
-      <c r="CT94" s="32"/>
-      <c r="CU94" s="8"/>
+      <c r="CP94" s="14">
+        <v>5.5980150879969699</v>
+      </c>
+      <c r="CQ94" s="14">
+        <v>26.725043080613602</v>
+      </c>
+      <c r="CR94" s="23"/>
+      <c r="CS94" s="23"/>
+      <c r="CT94" s="14"/>
+      <c r="CU94" s="23"/>
       <c r="CV94" s="8"/>
       <c r="CW94" s="8"/>
       <c r="CX94" s="8"/>
@@ -16470,12 +16531,12 @@
       <c r="CM95" s="8"/>
       <c r="CN95" s="8"/>
       <c r="CO95" s="8"/>
-      <c r="CP95" s="26"/>
-      <c r="CQ95" s="33"/>
-      <c r="CR95" s="33"/>
-      <c r="CS95" s="33"/>
-      <c r="CT95" s="33"/>
-      <c r="CU95" s="8"/>
+      <c r="CP95" s="8"/>
+      <c r="CQ95" s="8"/>
+      <c r="CR95" s="24"/>
+      <c r="CS95" s="24"/>
+      <c r="CT95" s="8"/>
+      <c r="CU95" s="24"/>
       <c r="CV95" s="8"/>
       <c r="CW95" s="8"/>
       <c r="CX95" s="8"/>
@@ -16805,14 +16866,16 @@
       <c r="CO96" s="14">
         <v>12.385664564031657</v>
       </c>
-      <c r="CP96" s="31">
-        <v>8.8870170601007743</v>
-      </c>
-      <c r="CQ96" s="32"/>
-      <c r="CR96" s="32"/>
-      <c r="CS96" s="32"/>
-      <c r="CT96" s="32"/>
-      <c r="CU96" s="8"/>
+      <c r="CP96" s="14">
+        <v>9.1278258643393713</v>
+      </c>
+      <c r="CQ96" s="14">
+        <v>7.9760361652925837</v>
+      </c>
+      <c r="CR96" s="23"/>
+      <c r="CS96" s="23"/>
+      <c r="CT96" s="14"/>
+      <c r="CU96" s="23"/>
       <c r="CV96" s="8"/>
       <c r="CW96" s="8"/>
       <c r="CX96" s="8"/>
@@ -16956,20 +17019,20 @@
       <c r="CM97" s="11"/>
       <c r="CN97" s="11"/>
       <c r="CO97" s="11"/>
-      <c r="CP97" s="28"/>
-      <c r="CQ97" s="13"/>
-      <c r="CR97" s="13"/>
-      <c r="CS97" s="13"/>
-      <c r="CT97" s="13"/>
+      <c r="CP97" s="11"/>
+      <c r="CQ97" s="11"/>
+      <c r="CR97" s="5"/>
+      <c r="CS97" s="5"/>
+      <c r="CT97" s="11"/>
+      <c r="CU97" s="5"/>
     </row>
     <row r="98" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="CQ98" s="30"/>
-      <c r="CR98" s="30"/>
-      <c r="CS98" s="30"/>
-      <c r="CT98" s="30"/>
+      <c r="CR98" s="6"/>
+      <c r="CS98" s="6"/>
+      <c r="CU98" s="6"/>
     </row>
     <row r="99" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="8"/>
@@ -17064,12 +17127,12 @@
       <c r="CM99" s="8"/>
       <c r="CN99" s="8"/>
       <c r="CO99" s="8"/>
-      <c r="CP99" s="26"/>
-      <c r="CQ99" s="33"/>
-      <c r="CR99" s="33"/>
-      <c r="CS99" s="33"/>
-      <c r="CT99" s="33"/>
-      <c r="CU99" s="8"/>
+      <c r="CP99" s="8"/>
+      <c r="CQ99" s="8"/>
+      <c r="CR99" s="24"/>
+      <c r="CS99" s="24"/>
+      <c r="CT99" s="8"/>
+      <c r="CU99" s="24"/>
       <c r="CV99" s="8"/>
       <c r="CW99" s="8"/>
       <c r="CX99" s="8"/>
@@ -17212,12 +17275,12 @@
       <c r="CM100" s="8"/>
       <c r="CN100" s="8"/>
       <c r="CO100" s="8"/>
-      <c r="CP100" s="26"/>
-      <c r="CQ100" s="33"/>
-      <c r="CR100" s="33"/>
-      <c r="CS100" s="33"/>
-      <c r="CT100" s="33"/>
-      <c r="CU100" s="8"/>
+      <c r="CP100" s="8"/>
+      <c r="CQ100" s="8"/>
+      <c r="CR100" s="24"/>
+      <c r="CS100" s="24"/>
+      <c r="CT100" s="8"/>
+      <c r="CU100" s="24"/>
       <c r="CV100" s="8"/>
       <c r="CW100" s="8"/>
       <c r="CX100" s="8"/>
@@ -17274,7 +17337,7 @@
     </row>
     <row r="102" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="104" spans="1:151" x14ac:dyDescent="0.2">
@@ -17284,7 +17347,7 @@
     </row>
     <row r="105" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="106" spans="1:151" x14ac:dyDescent="0.2">
@@ -17294,132 +17357,132 @@
     </row>
     <row r="108" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
-      <c r="B108" s="35">
+      <c r="B108" s="26">
         <v>2000</v>
       </c>
-      <c r="C108" s="35"/>
-      <c r="D108" s="35"/>
-      <c r="E108" s="35"/>
-      <c r="F108" s="35">
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="26">
         <v>2001</v>
       </c>
-      <c r="G108" s="35"/>
-      <c r="H108" s="35"/>
-      <c r="I108" s="35"/>
-      <c r="J108" s="35">
+      <c r="G108" s="26"/>
+      <c r="H108" s="26"/>
+      <c r="I108" s="26"/>
+      <c r="J108" s="26">
         <v>2002</v>
       </c>
-      <c r="K108" s="35"/>
-      <c r="L108" s="35"/>
-      <c r="M108" s="35"/>
-      <c r="N108" s="35">
+      <c r="K108" s="26"/>
+      <c r="L108" s="26"/>
+      <c r="M108" s="26"/>
+      <c r="N108" s="26">
         <v>2003</v>
       </c>
-      <c r="O108" s="35"/>
-      <c r="P108" s="35"/>
-      <c r="Q108" s="35"/>
-      <c r="R108" s="35">
+      <c r="O108" s="26"/>
+      <c r="P108" s="26"/>
+      <c r="Q108" s="26"/>
+      <c r="R108" s="26">
         <v>2004</v>
       </c>
-      <c r="S108" s="35"/>
-      <c r="T108" s="35"/>
-      <c r="U108" s="35"/>
-      <c r="V108" s="35">
+      <c r="S108" s="26"/>
+      <c r="T108" s="26"/>
+      <c r="U108" s="26"/>
+      <c r="V108" s="26">
         <v>2005</v>
       </c>
-      <c r="W108" s="35"/>
-      <c r="X108" s="35"/>
-      <c r="Y108" s="35"/>
-      <c r="Z108" s="35">
+      <c r="W108" s="26"/>
+      <c r="X108" s="26"/>
+      <c r="Y108" s="26"/>
+      <c r="Z108" s="26">
         <v>2006</v>
       </c>
-      <c r="AA108" s="35"/>
-      <c r="AB108" s="35"/>
-      <c r="AC108" s="35"/>
-      <c r="AD108" s="35">
+      <c r="AA108" s="26"/>
+      <c r="AB108" s="26"/>
+      <c r="AC108" s="26"/>
+      <c r="AD108" s="26">
         <v>2007</v>
       </c>
-      <c r="AE108" s="35"/>
-      <c r="AF108" s="35"/>
-      <c r="AG108" s="35"/>
-      <c r="AH108" s="35">
+      <c r="AE108" s="26"/>
+      <c r="AF108" s="26"/>
+      <c r="AG108" s="26"/>
+      <c r="AH108" s="26">
         <v>2008</v>
       </c>
-      <c r="AI108" s="35"/>
-      <c r="AJ108" s="35"/>
-      <c r="AK108" s="35"/>
-      <c r="AL108" s="35">
+      <c r="AI108" s="26"/>
+      <c r="AJ108" s="26"/>
+      <c r="AK108" s="26"/>
+      <c r="AL108" s="26">
         <v>2009</v>
       </c>
-      <c r="AM108" s="35"/>
-      <c r="AN108" s="35"/>
-      <c r="AO108" s="35"/>
-      <c r="AP108" s="35">
+      <c r="AM108" s="26"/>
+      <c r="AN108" s="26"/>
+      <c r="AO108" s="26"/>
+      <c r="AP108" s="26">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="35"/>
-      <c r="AR108" s="35"/>
-      <c r="AS108" s="35"/>
-      <c r="AT108" s="35">
+      <c r="AQ108" s="26"/>
+      <c r="AR108" s="26"/>
+      <c r="AS108" s="26"/>
+      <c r="AT108" s="26">
         <v>2011</v>
       </c>
-      <c r="AU108" s="35"/>
-      <c r="AV108" s="35"/>
-      <c r="AW108" s="35"/>
-      <c r="AX108" s="35">
+      <c r="AU108" s="26"/>
+      <c r="AV108" s="26"/>
+      <c r="AW108" s="26"/>
+      <c r="AX108" s="26">
         <v>2012</v>
       </c>
-      <c r="AY108" s="35"/>
-      <c r="AZ108" s="35"/>
-      <c r="BA108" s="35"/>
-      <c r="BB108" s="35">
+      <c r="AY108" s="26"/>
+      <c r="AZ108" s="26"/>
+      <c r="BA108" s="26"/>
+      <c r="BB108" s="26">
         <v>2013</v>
       </c>
-      <c r="BC108" s="35"/>
-      <c r="BD108" s="35"/>
-      <c r="BE108" s="35"/>
-      <c r="BF108" s="35">
+      <c r="BC108" s="26"/>
+      <c r="BD108" s="26"/>
+      <c r="BE108" s="26"/>
+      <c r="BF108" s="26">
         <v>2014</v>
       </c>
-      <c r="BG108" s="35"/>
-      <c r="BH108" s="35"/>
-      <c r="BI108" s="35"/>
-      <c r="BJ108" s="35">
+      <c r="BG108" s="26"/>
+      <c r="BH108" s="26"/>
+      <c r="BI108" s="26"/>
+      <c r="BJ108" s="26">
         <v>2015</v>
       </c>
-      <c r="BK108" s="35"/>
-      <c r="BL108" s="35"/>
-      <c r="BM108" s="35"/>
-      <c r="BN108" s="35">
+      <c r="BK108" s="26"/>
+      <c r="BL108" s="26"/>
+      <c r="BM108" s="26"/>
+      <c r="BN108" s="26">
         <v>2016</v>
       </c>
-      <c r="BO108" s="35"/>
-      <c r="BP108" s="35"/>
-      <c r="BQ108" s="35"/>
-      <c r="BR108" s="35">
+      <c r="BO108" s="26"/>
+      <c r="BP108" s="26"/>
+      <c r="BQ108" s="26"/>
+      <c r="BR108" s="26">
         <v>2017</v>
       </c>
-      <c r="BS108" s="35"/>
-      <c r="BT108" s="35"/>
-      <c r="BU108" s="35"/>
-      <c r="BV108" s="35">
+      <c r="BS108" s="26"/>
+      <c r="BT108" s="26"/>
+      <c r="BU108" s="26"/>
+      <c r="BV108" s="26">
         <v>2018</v>
       </c>
-      <c r="BW108" s="35"/>
-      <c r="BX108" s="35"/>
-      <c r="BY108" s="35"/>
-      <c r="BZ108" s="35">
+      <c r="BW108" s="26"/>
+      <c r="BX108" s="26"/>
+      <c r="BY108" s="26"/>
+      <c r="BZ108" s="26">
         <v>2019</v>
       </c>
-      <c r="CA108" s="35"/>
-      <c r="CB108" s="35"/>
-      <c r="CC108" s="35"/>
-      <c r="CD108" s="36">
+      <c r="CA108" s="26"/>
+      <c r="CB108" s="26"/>
+      <c r="CC108" s="26"/>
+      <c r="CD108" s="25">
         <v>2020</v>
       </c>
-      <c r="CE108" s="36"/>
-      <c r="CF108" s="36"/>
-      <c r="CG108" s="36"/>
+      <c r="CE108" s="25"/>
+      <c r="CF108" s="25"/>
+      <c r="CG108" s="25"/>
       <c r="CH108" s="21">
         <v>2021</v>
       </c>
@@ -17432,15 +17495,16 @@
       <c r="CM108" s="21"/>
       <c r="CN108" s="21"/>
       <c r="CO108" s="21"/>
-      <c r="CP108" s="24">
+      <c r="CP108" s="21">
         <v>2023</v>
       </c>
-      <c r="CQ108" s="24"/>
-      <c r="CR108" s="24"/>
-      <c r="CS108" s="24"/>
-      <c r="CT108" s="24">
+      <c r="CQ108" s="21"/>
+      <c r="CR108" s="21"/>
+      <c r="CS108" s="21"/>
+      <c r="CT108" s="21">
         <v>2024</v>
       </c>
+      <c r="CU108" s="21"/>
     </row>
     <row r="109" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
@@ -17720,20 +17784,23 @@
       <c r="CO109" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CP109" s="29" t="s">
+      <c r="CP109" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CQ109" s="29" t="s">
+      <c r="CQ109" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="CR109" s="29" t="s">
+      <c r="CR109" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="CS109" s="29" t="s">
+      <c r="CS109" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CT109" s="29" t="s">
+      <c r="CT109" s="13" t="s">
         <v>7</v>
+      </c>
+      <c r="CU109" s="13" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -18019,22 +18086,24 @@
       <c r="CO111" s="14">
         <v>133.0320896828776</v>
       </c>
-      <c r="CP111" s="31">
+      <c r="CP111" s="14">
         <v>136.72622876503405</v>
       </c>
-      <c r="CQ111" s="31">
+      <c r="CQ111" s="14">
         <v>141.65669937816352</v>
       </c>
-      <c r="CR111" s="31">
+      <c r="CR111" s="14">
         <v>130.28192558024955</v>
       </c>
-      <c r="CS111" s="31">
+      <c r="CS111" s="14">
         <v>136.18538796035799</v>
       </c>
-      <c r="CT111" s="31">
+      <c r="CT111" s="14">
         <v>139.22329574183948</v>
       </c>
-      <c r="CU111" s="8"/>
+      <c r="CU111" s="14">
+        <v>141.49602065392421</v>
+      </c>
       <c r="CV111" s="8"/>
       <c r="CW111" s="8"/>
       <c r="CX111" s="8"/>
@@ -18368,22 +18437,24 @@
       <c r="CO112" s="14">
         <v>114.41806830514707</v>
       </c>
-      <c r="CP112" s="31">
+      <c r="CP112" s="14">
         <v>119.59147290110843</v>
       </c>
-      <c r="CQ112" s="31">
+      <c r="CQ112" s="14">
         <v>119.26852215132922</v>
       </c>
-      <c r="CR112" s="31">
+      <c r="CR112" s="14">
         <v>120.01837611904935</v>
       </c>
-      <c r="CS112" s="31">
+      <c r="CS112" s="14">
         <v>117.82399759332367</v>
       </c>
-      <c r="CT112" s="31">
+      <c r="CT112" s="14">
         <v>122.28374398804517</v>
       </c>
-      <c r="CU112" s="8"/>
+      <c r="CU112" s="14">
+        <v>122.14812952633753</v>
+      </c>
       <c r="CV112" s="8"/>
       <c r="CW112" s="8"/>
       <c r="CX112" s="8"/>
@@ -18717,22 +18788,24 @@
       <c r="CO113" s="14">
         <v>117.03672057255258</v>
       </c>
-      <c r="CP113" s="31">
+      <c r="CP113" s="14">
         <v>122.00663809992125</v>
       </c>
-      <c r="CQ113" s="31">
+      <c r="CQ113" s="14">
         <v>122.63218135093956</v>
       </c>
-      <c r="CR113" s="31">
+      <c r="CR113" s="14">
         <v>124.72795126241223</v>
       </c>
-      <c r="CS113" s="31">
+      <c r="CS113" s="14">
         <v>122.09794183971367</v>
       </c>
-      <c r="CT113" s="31">
+      <c r="CT113" s="14">
         <v>126.00770654539204</v>
       </c>
-      <c r="CU113" s="8"/>
+      <c r="CU113" s="14">
+        <v>126.54895671497179</v>
+      </c>
       <c r="CV113" s="8"/>
       <c r="CW113" s="8"/>
       <c r="CX113" s="8"/>
@@ -19066,22 +19139,24 @@
       <c r="CO114" s="14">
         <v>115.53683219443604</v>
       </c>
-      <c r="CP114" s="31">
+      <c r="CP114" s="14">
         <v>115.7444035129955</v>
       </c>
-      <c r="CQ114" s="31">
+      <c r="CQ114" s="14">
         <v>116.50252804574835</v>
       </c>
-      <c r="CR114" s="31">
+      <c r="CR114" s="14">
         <v>118.14474888583113</v>
       </c>
-      <c r="CS114" s="31">
+      <c r="CS114" s="14">
         <v>120.40996061596701</v>
       </c>
-      <c r="CT114" s="31">
+      <c r="CT114" s="14">
         <v>119.8434881806138</v>
       </c>
-      <c r="CU114" s="8"/>
+      <c r="CU114" s="14">
+        <v>118.7433197401653</v>
+      </c>
       <c r="CV114" s="8"/>
       <c r="CW114" s="8"/>
       <c r="CX114" s="8"/>
@@ -19415,22 +19490,24 @@
       <c r="CO115" s="14">
         <v>103.34897185336216</v>
       </c>
-      <c r="CP115" s="31">
+      <c r="CP115" s="14">
         <v>102.92008743148232</v>
       </c>
-      <c r="CQ115" s="31">
+      <c r="CQ115" s="14">
         <v>103.61706726923939</v>
       </c>
-      <c r="CR115" s="31">
+      <c r="CR115" s="14">
         <v>102.55633330527829</v>
       </c>
-      <c r="CS115" s="31">
+      <c r="CS115" s="14">
         <v>103.68565782484302</v>
       </c>
-      <c r="CT115" s="31">
-        <v>103.35537173647829</v>
-      </c>
-      <c r="CU115" s="8"/>
+      <c r="CT115" s="14">
+        <v>103.43700151539213</v>
+      </c>
+      <c r="CU115" s="14">
+        <v>104.05566703242958</v>
+      </c>
       <c r="CV115" s="8"/>
       <c r="CW115" s="8"/>
       <c r="CX115" s="8"/>
@@ -19764,22 +19841,24 @@
       <c r="CO116" s="14">
         <v>117.00435355436905</v>
       </c>
-      <c r="CP116" s="31">
+      <c r="CP116" s="14">
         <v>118.32018478524459</v>
       </c>
-      <c r="CQ116" s="31">
+      <c r="CQ116" s="14">
         <v>118.82915304474481</v>
       </c>
-      <c r="CR116" s="31">
+      <c r="CR116" s="14">
         <v>119.9175022333163</v>
       </c>
-      <c r="CS116" s="31">
+      <c r="CS116" s="14">
         <v>120.3904189202468</v>
       </c>
-      <c r="CT116" s="31">
-        <v>120.72653522790384</v>
-      </c>
-      <c r="CU116" s="8"/>
+      <c r="CT116" s="14">
+        <v>120.72507269431662</v>
+      </c>
+      <c r="CU116" s="14">
+        <v>121.69815233560111</v>
+      </c>
       <c r="CV116" s="8"/>
       <c r="CW116" s="8"/>
       <c r="CX116" s="8"/>
@@ -20113,22 +20192,24 @@
       <c r="CO117" s="14">
         <v>117.79146924859019</v>
       </c>
-      <c r="CP117" s="31">
+      <c r="CP117" s="14">
         <v>120.87246097661833</v>
       </c>
-      <c r="CQ117" s="31">
+      <c r="CQ117" s="14">
         <v>119.17508385865622</v>
       </c>
-      <c r="CR117" s="31">
+      <c r="CR117" s="14">
         <v>121.14795441289259</v>
       </c>
-      <c r="CS117" s="31">
+      <c r="CS117" s="14">
         <v>119.74403340048416</v>
       </c>
-      <c r="CT117" s="31">
+      <c r="CT117" s="14">
         <v>123.59356996541166</v>
       </c>
-      <c r="CU117" s="8"/>
+      <c r="CU117" s="14">
+        <v>122.05243526878937</v>
+      </c>
       <c r="CV117" s="8"/>
       <c r="CW117" s="8"/>
       <c r="CX117" s="8"/>
@@ -20462,22 +20543,24 @@
       <c r="CO118" s="14">
         <v>114.26976550965544</v>
       </c>
-      <c r="CP118" s="31">
+      <c r="CP118" s="14">
         <v>119.3041020978674</v>
       </c>
-      <c r="CQ118" s="31">
+      <c r="CQ118" s="14">
         <v>118.63400847867109</v>
       </c>
-      <c r="CR118" s="31">
+      <c r="CR118" s="14">
         <v>116.31755657998011</v>
       </c>
-      <c r="CS118" s="31">
+      <c r="CS118" s="14">
         <v>117.67128020805468</v>
       </c>
-      <c r="CT118" s="31">
-        <v>121.90500916553087</v>
-      </c>
-      <c r="CU118" s="8"/>
+      <c r="CT118" s="14">
+        <v>121.88348408651571</v>
+      </c>
+      <c r="CU118" s="14">
+        <v>121.49829621846997</v>
+      </c>
       <c r="CV118" s="8"/>
       <c r="CW118" s="8"/>
       <c r="CX118" s="8"/>
@@ -20624,11 +20707,11 @@
       <c r="CM119" s="8"/>
       <c r="CN119" s="8"/>
       <c r="CO119" s="8"/>
-      <c r="CP119" s="26"/>
-      <c r="CQ119" s="26"/>
-      <c r="CR119" s="26"/>
-      <c r="CS119" s="26"/>
-      <c r="CT119" s="26"/>
+      <c r="CP119" s="8"/>
+      <c r="CQ119" s="8"/>
+      <c r="CR119" s="8"/>
+      <c r="CS119" s="8"/>
+      <c r="CT119" s="8"/>
       <c r="CU119" s="8"/>
       <c r="CV119" s="8"/>
       <c r="CW119" s="8"/>
@@ -20963,22 +21046,24 @@
       <c r="CO120" s="14">
         <v>116.07303612354485</v>
       </c>
-      <c r="CP120" s="31">
+      <c r="CP120" s="14">
         <v>117.94413080635491</v>
       </c>
-      <c r="CQ120" s="31">
+      <c r="CQ120" s="14">
         <v>117.48037037902188</v>
       </c>
-      <c r="CR120" s="31">
+      <c r="CR120" s="14">
         <v>119.232637937436</v>
       </c>
-      <c r="CS120" s="31">
+      <c r="CS120" s="14">
         <v>119.00264083203311</v>
       </c>
-      <c r="CT120" s="31">
-        <v>120.34002555372764</v>
-      </c>
-      <c r="CU120" s="8"/>
+      <c r="CT120" s="14">
+        <v>120.43354904579233</v>
+      </c>
+      <c r="CU120" s="14">
+        <v>120.09679029954219</v>
+      </c>
       <c r="CV120" s="8"/>
       <c r="CW120" s="8"/>
       <c r="CX120" s="8"/>
@@ -21126,11 +21211,12 @@
       <c r="CM121" s="11"/>
       <c r="CN121" s="11"/>
       <c r="CO121" s="11"/>
-      <c r="CP121" s="28"/>
-      <c r="CQ121" s="28"/>
-      <c r="CR121" s="28"/>
-      <c r="CS121" s="28"/>
-      <c r="CT121" s="28"/>
+      <c r="CP121" s="11"/>
+      <c r="CQ121" s="11"/>
+      <c r="CR121" s="11"/>
+      <c r="CS121" s="11"/>
+      <c r="CT121" s="11"/>
+      <c r="CU121" s="11"/>
     </row>
     <row r="122" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
@@ -21149,7 +21235,7 @@
     </row>
     <row r="127" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="129" spans="1:151" x14ac:dyDescent="0.2">
@@ -21159,7 +21245,7 @@
     </row>
     <row r="130" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="131" spans="1:151" x14ac:dyDescent="0.2">
@@ -21169,132 +21255,132 @@
     </row>
     <row r="133" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
-      <c r="B133" s="35">
+      <c r="B133" s="26">
         <v>2000</v>
       </c>
-      <c r="C133" s="35"/>
-      <c r="D133" s="35"/>
-      <c r="E133" s="35"/>
-      <c r="F133" s="35">
+      <c r="C133" s="26"/>
+      <c r="D133" s="26"/>
+      <c r="E133" s="26"/>
+      <c r="F133" s="26">
         <v>2001</v>
       </c>
-      <c r="G133" s="35"/>
-      <c r="H133" s="35"/>
-      <c r="I133" s="35"/>
-      <c r="J133" s="35">
+      <c r="G133" s="26"/>
+      <c r="H133" s="26"/>
+      <c r="I133" s="26"/>
+      <c r="J133" s="26">
         <v>2002</v>
       </c>
-      <c r="K133" s="35"/>
-      <c r="L133" s="35"/>
-      <c r="M133" s="35"/>
-      <c r="N133" s="35">
+      <c r="K133" s="26"/>
+      <c r="L133" s="26"/>
+      <c r="M133" s="26"/>
+      <c r="N133" s="26">
         <v>2003</v>
       </c>
-      <c r="O133" s="35"/>
-      <c r="P133" s="35"/>
-      <c r="Q133" s="35"/>
-      <c r="R133" s="35">
+      <c r="O133" s="26"/>
+      <c r="P133" s="26"/>
+      <c r="Q133" s="26"/>
+      <c r="R133" s="26">
         <v>2004</v>
       </c>
-      <c r="S133" s="35"/>
-      <c r="T133" s="35"/>
-      <c r="U133" s="35"/>
-      <c r="V133" s="35">
+      <c r="S133" s="26"/>
+      <c r="T133" s="26"/>
+      <c r="U133" s="26"/>
+      <c r="V133" s="26">
         <v>2005</v>
       </c>
-      <c r="W133" s="35"/>
-      <c r="X133" s="35"/>
-      <c r="Y133" s="35"/>
-      <c r="Z133" s="35">
+      <c r="W133" s="26"/>
+      <c r="X133" s="26"/>
+      <c r="Y133" s="26"/>
+      <c r="Z133" s="26">
         <v>2006</v>
       </c>
-      <c r="AA133" s="35"/>
-      <c r="AB133" s="35"/>
-      <c r="AC133" s="35"/>
-      <c r="AD133" s="35">
+      <c r="AA133" s="26"/>
+      <c r="AB133" s="26"/>
+      <c r="AC133" s="26"/>
+      <c r="AD133" s="26">
         <v>2007</v>
       </c>
-      <c r="AE133" s="35"/>
-      <c r="AF133" s="35"/>
-      <c r="AG133" s="35"/>
-      <c r="AH133" s="35">
+      <c r="AE133" s="26"/>
+      <c r="AF133" s="26"/>
+      <c r="AG133" s="26"/>
+      <c r="AH133" s="26">
         <v>2008</v>
       </c>
-      <c r="AI133" s="35"/>
-      <c r="AJ133" s="35"/>
-      <c r="AK133" s="35"/>
-      <c r="AL133" s="35">
+      <c r="AI133" s="26"/>
+      <c r="AJ133" s="26"/>
+      <c r="AK133" s="26"/>
+      <c r="AL133" s="26">
         <v>2009</v>
       </c>
-      <c r="AM133" s="35"/>
-      <c r="AN133" s="35"/>
-      <c r="AO133" s="35"/>
-      <c r="AP133" s="35">
+      <c r="AM133" s="26"/>
+      <c r="AN133" s="26"/>
+      <c r="AO133" s="26"/>
+      <c r="AP133" s="26">
         <v>2010</v>
       </c>
-      <c r="AQ133" s="35"/>
-      <c r="AR133" s="35"/>
-      <c r="AS133" s="35"/>
-      <c r="AT133" s="35">
+      <c r="AQ133" s="26"/>
+      <c r="AR133" s="26"/>
+      <c r="AS133" s="26"/>
+      <c r="AT133" s="26">
         <v>2011</v>
       </c>
-      <c r="AU133" s="35"/>
-      <c r="AV133" s="35"/>
-      <c r="AW133" s="35"/>
-      <c r="AX133" s="35">
+      <c r="AU133" s="26"/>
+      <c r="AV133" s="26"/>
+      <c r="AW133" s="26"/>
+      <c r="AX133" s="26">
         <v>2012</v>
       </c>
-      <c r="AY133" s="35"/>
-      <c r="AZ133" s="35"/>
-      <c r="BA133" s="35"/>
-      <c r="BB133" s="35">
+      <c r="AY133" s="26"/>
+      <c r="AZ133" s="26"/>
+      <c r="BA133" s="26"/>
+      <c r="BB133" s="26">
         <v>2013</v>
       </c>
-      <c r="BC133" s="35"/>
-      <c r="BD133" s="35"/>
-      <c r="BE133" s="35"/>
-      <c r="BF133" s="35">
+      <c r="BC133" s="26"/>
+      <c r="BD133" s="26"/>
+      <c r="BE133" s="26"/>
+      <c r="BF133" s="26">
         <v>2014</v>
       </c>
-      <c r="BG133" s="35"/>
-      <c r="BH133" s="35"/>
-      <c r="BI133" s="35"/>
-      <c r="BJ133" s="35">
+      <c r="BG133" s="26"/>
+      <c r="BH133" s="26"/>
+      <c r="BI133" s="26"/>
+      <c r="BJ133" s="26">
         <v>2015</v>
       </c>
-      <c r="BK133" s="35"/>
-      <c r="BL133" s="35"/>
-      <c r="BM133" s="35"/>
-      <c r="BN133" s="35">
+      <c r="BK133" s="26"/>
+      <c r="BL133" s="26"/>
+      <c r="BM133" s="26"/>
+      <c r="BN133" s="26">
         <v>2016</v>
       </c>
-      <c r="BO133" s="35"/>
-      <c r="BP133" s="35"/>
-      <c r="BQ133" s="35"/>
-      <c r="BR133" s="35">
+      <c r="BO133" s="26"/>
+      <c r="BP133" s="26"/>
+      <c r="BQ133" s="26"/>
+      <c r="BR133" s="26">
         <v>2017</v>
       </c>
-      <c r="BS133" s="35"/>
-      <c r="BT133" s="35"/>
-      <c r="BU133" s="35"/>
-      <c r="BV133" s="35">
+      <c r="BS133" s="26"/>
+      <c r="BT133" s="26"/>
+      <c r="BU133" s="26"/>
+      <c r="BV133" s="26">
         <v>2018</v>
       </c>
-      <c r="BW133" s="35"/>
-      <c r="BX133" s="35"/>
-      <c r="BY133" s="35"/>
-      <c r="BZ133" s="35">
+      <c r="BW133" s="26"/>
+      <c r="BX133" s="26"/>
+      <c r="BY133" s="26"/>
+      <c r="BZ133" s="26">
         <v>2019</v>
       </c>
-      <c r="CA133" s="35"/>
-      <c r="CB133" s="35"/>
-      <c r="CC133" s="35"/>
-      <c r="CD133" s="36">
+      <c r="CA133" s="26"/>
+      <c r="CB133" s="26"/>
+      <c r="CC133" s="26"/>
+      <c r="CD133" s="25">
         <v>2020</v>
       </c>
-      <c r="CE133" s="36"/>
-      <c r="CF133" s="36"/>
-      <c r="CG133" s="36"/>
+      <c r="CE133" s="25"/>
+      <c r="CF133" s="25"/>
+      <c r="CG133" s="25"/>
       <c r="CH133" s="21">
         <v>2021</v>
       </c>
@@ -21307,15 +21393,16 @@
       <c r="CM133" s="21"/>
       <c r="CN133" s="21"/>
       <c r="CO133" s="21"/>
-      <c r="CP133" s="24">
+      <c r="CP133" s="21">
         <v>2023</v>
       </c>
-      <c r="CQ133" s="24"/>
-      <c r="CR133" s="24"/>
-      <c r="CS133" s="24"/>
-      <c r="CT133" s="24">
+      <c r="CQ133" s="21"/>
+      <c r="CR133" s="21"/>
+      <c r="CS133" s="21"/>
+      <c r="CT133" s="21">
         <v>2024</v>
       </c>
+      <c r="CU133" s="21"/>
     </row>
     <row r="134" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
@@ -21595,20 +21682,23 @@
       <c r="CO134" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CP134" s="29" t="s">
+      <c r="CP134" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CQ134" s="29" t="s">
+      <c r="CQ134" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="CR134" s="29" t="s">
+      <c r="CR134" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="CS134" s="29" t="s">
+      <c r="CS134" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CT134" s="29" t="s">
+      <c r="CT134" s="13" t="s">
         <v>7</v>
+      </c>
+      <c r="CU134" s="13" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -21894,22 +21984,24 @@
       <c r="CO136" s="20">
         <v>8.7827302543622761</v>
       </c>
-      <c r="CP136" s="34">
+      <c r="CP136" s="20">
         <v>10.423788448805297</v>
       </c>
-      <c r="CQ136" s="34">
+      <c r="CQ136" s="20">
         <v>4.1182304678552075</v>
       </c>
-      <c r="CR136" s="34">
+      <c r="CR136" s="20">
         <v>7.0676659503017865</v>
       </c>
-      <c r="CS136" s="34">
+      <c r="CS136" s="20">
         <v>8.5825179703148056</v>
       </c>
-      <c r="CT136" s="34">
-        <v>10.334911865670122</v>
-      </c>
-      <c r="CU136" s="8"/>
+      <c r="CT136" s="20">
+        <v>10.511899449352228</v>
+      </c>
+      <c r="CU136" s="20">
+        <v>4.1284208554563735</v>
+      </c>
       <c r="CV136" s="8"/>
       <c r="CW136" s="8"/>
       <c r="CX136" s="8"/>
@@ -22243,22 +22335,24 @@
       <c r="CO137" s="20">
         <v>0.16108702810670397</v>
       </c>
-      <c r="CP137" s="34">
+      <c r="CP137" s="20">
         <v>5.4753624936512799E-2</v>
       </c>
-      <c r="CQ137" s="34">
+      <c r="CQ137" s="20">
         <v>5.5436820494742294E-2</v>
       </c>
-      <c r="CR137" s="34">
+      <c r="CR137" s="20">
         <v>0.12684227721550209</v>
       </c>
-      <c r="CS137" s="34">
+      <c r="CS137" s="20">
         <v>0.13176515537394626</v>
       </c>
-      <c r="CT137" s="34">
-        <v>5.6888105693444539E-2</v>
-      </c>
-      <c r="CU137" s="8"/>
+      <c r="CT137" s="20">
+        <v>5.4699755931179699E-2</v>
+      </c>
+      <c r="CU137" s="20">
+        <v>5.6246886994848304E-2</v>
+      </c>
       <c r="CV137" s="8"/>
       <c r="CW137" s="8"/>
       <c r="CX137" s="8"/>
@@ -22592,22 +22686,24 @@
       <c r="CO138" s="20">
         <v>10.337774260791397</v>
       </c>
-      <c r="CP138" s="34">
+      <c r="CP138" s="20">
         <v>14.605360688296587</v>
       </c>
-      <c r="CQ138" s="34">
+      <c r="CQ138" s="20">
         <v>15.808579397825692</v>
       </c>
-      <c r="CR138" s="34">
+      <c r="CR138" s="20">
         <v>23.795656408870862</v>
       </c>
-      <c r="CS138" s="34">
+      <c r="CS138" s="20">
         <v>15.022013741043057</v>
       </c>
-      <c r="CT138" s="34">
-        <v>15.546223282954674</v>
-      </c>
-      <c r="CU138" s="8"/>
+      <c r="CT138" s="20">
+        <v>15.499872055049821</v>
+      </c>
+      <c r="CU138" s="20">
+        <v>18.113373570110884</v>
+      </c>
       <c r="CV138" s="8"/>
       <c r="CW138" s="8"/>
       <c r="CX138" s="8"/>
@@ -22941,22 +23037,24 @@
       <c r="CO139" s="20">
         <v>0.73988259333163631</v>
       </c>
-      <c r="CP139" s="34">
+      <c r="CP139" s="20">
         <v>0.52127711364677609</v>
       </c>
-      <c r="CQ139" s="34">
+      <c r="CQ139" s="20">
         <v>0.6139269747570516</v>
       </c>
-      <c r="CR139" s="34">
+      <c r="CR139" s="20">
         <v>0.72287239904319722</v>
       </c>
-      <c r="CS139" s="34">
+      <c r="CS139" s="20">
         <v>0.7680504103126351</v>
       </c>
-      <c r="CT139" s="34">
-        <v>0.53602073530442496</v>
-      </c>
-      <c r="CU139" s="8"/>
+      <c r="CT139" s="20">
+        <v>0.50953856776760176</v>
+      </c>
+      <c r="CU139" s="20">
+        <v>0.58347303284311358</v>
+      </c>
       <c r="CV139" s="8"/>
       <c r="CW139" s="8"/>
       <c r="CX139" s="8"/>
@@ -23290,22 +23388,24 @@
       <c r="CO140" s="20">
         <v>14.225701187072531</v>
       </c>
-      <c r="CP140" s="34">
+      <c r="CP140" s="20">
         <v>15.541367844351198</v>
       </c>
-      <c r="CQ140" s="34">
+      <c r="CQ140" s="20">
         <v>15.7698382907679</v>
       </c>
-      <c r="CR140" s="34">
+      <c r="CR140" s="20">
         <v>12.380763502046364</v>
       </c>
-      <c r="CS140" s="34">
+      <c r="CS140" s="20">
         <v>14.114051238263833</v>
       </c>
-      <c r="CT140" s="34">
-        <v>14.999898527091576</v>
-      </c>
-      <c r="CU140" s="8"/>
+      <c r="CT140" s="20">
+        <v>14.783460420958672</v>
+      </c>
+      <c r="CU140" s="20">
+        <v>15.421129945001558</v>
+      </c>
       <c r="CV140" s="8"/>
       <c r="CW140" s="8"/>
       <c r="CX140" s="8"/>
@@ -23639,22 +23739,24 @@
       <c r="CO141" s="20">
         <v>53.234884723567731</v>
       </c>
-      <c r="CP141" s="34">
+      <c r="CP141" s="20">
         <v>50.065600760877572</v>
       </c>
-      <c r="CQ141" s="34">
+      <c r="CQ141" s="20">
         <v>52.840947826538496</v>
       </c>
-      <c r="CR141" s="34">
+      <c r="CR141" s="20">
         <v>45.6499491973509</v>
       </c>
-      <c r="CS141" s="34">
+      <c r="CS141" s="20">
         <v>49.55862943674714</v>
       </c>
-      <c r="CT141" s="34">
-        <v>50.307850715884598</v>
-      </c>
-      <c r="CU141" s="8"/>
+      <c r="CT141" s="20">
+        <v>50.10118085447165</v>
+      </c>
+      <c r="CU141" s="20">
+        <v>51.107292357202574</v>
+      </c>
       <c r="CV141" s="8"/>
       <c r="CW141" s="8"/>
       <c r="CX141" s="8"/>
@@ -23988,22 +24090,24 @@
       <c r="CO142" s="20">
         <v>10.742804778856668</v>
       </c>
-      <c r="CP142" s="34">
+      <c r="CP142" s="20">
         <v>7.8201288003847322</v>
       </c>
-      <c r="CQ142" s="34">
+      <c r="CQ142" s="20">
         <v>9.4570199276183633</v>
       </c>
-      <c r="CR142" s="34">
+      <c r="CR142" s="20">
         <v>8.992355665061643</v>
       </c>
-      <c r="CS142" s="34">
+      <c r="CS142" s="20">
         <v>10.061766542551789</v>
       </c>
-      <c r="CT142" s="34">
-        <v>7.3195352508867533</v>
-      </c>
-      <c r="CU142" s="8"/>
+      <c r="CT142" s="20">
+        <v>7.6024569149773722</v>
+      </c>
+      <c r="CU142" s="20">
+        <v>9.0191833477341952</v>
+      </c>
       <c r="CV142" s="8"/>
       <c r="CW142" s="8"/>
       <c r="CX142" s="8"/>
@@ -24337,22 +24441,24 @@
       <c r="CO143" s="20">
         <v>1.7751351739110399</v>
       </c>
-      <c r="CP143" s="34">
+      <c r="CP143" s="20">
         <v>0.96772271870133808</v>
       </c>
-      <c r="CQ143" s="34">
+      <c r="CQ143" s="20">
         <v>1.336020294142531</v>
       </c>
-      <c r="CR143" s="34">
+      <c r="CR143" s="20">
         <v>1.2638946001097586</v>
       </c>
-      <c r="CS143" s="34">
+      <c r="CS143" s="20">
         <v>1.7612055053927922</v>
       </c>
-      <c r="CT143" s="34">
-        <v>0.8986715165144179</v>
-      </c>
-      <c r="CU143" s="8"/>
+      <c r="CT143" s="20">
+        <v>0.93689198149148001</v>
+      </c>
+      <c r="CU143" s="20">
+        <v>1.5708800046564511</v>
+      </c>
       <c r="CV143" s="8"/>
       <c r="CW143" s="8"/>
       <c r="CX143" s="8"/>
@@ -24499,11 +24605,11 @@
       <c r="CM144" s="8"/>
       <c r="CN144" s="8"/>
       <c r="CO144" s="8"/>
-      <c r="CP144" s="26"/>
-      <c r="CQ144" s="26"/>
-      <c r="CR144" s="26"/>
-      <c r="CS144" s="26"/>
-      <c r="CT144" s="26"/>
+      <c r="CP144" s="8"/>
+      <c r="CQ144" s="8"/>
+      <c r="CR144" s="8"/>
+      <c r="CS144" s="8"/>
+      <c r="CT144" s="8"/>
       <c r="CU144" s="8"/>
       <c r="CV144" s="8"/>
       <c r="CW144" s="8"/>
@@ -24838,22 +24944,24 @@
       <c r="CO145" s="14">
         <v>100</v>
       </c>
-      <c r="CP145" s="31">
+      <c r="CP145" s="14">
         <v>100</v>
       </c>
-      <c r="CQ145" s="31">
+      <c r="CQ145" s="14">
         <v>100</v>
       </c>
-      <c r="CR145" s="31">
+      <c r="CR145" s="14">
         <v>100</v>
       </c>
-      <c r="CS145" s="31">
+      <c r="CS145" s="14">
         <v>100</v>
       </c>
-      <c r="CT145" s="31">
+      <c r="CT145" s="14">
         <v>100</v>
       </c>
-      <c r="CU145" s="8"/>
+      <c r="CU145" s="14">
+        <v>100</v>
+      </c>
       <c r="CV145" s="8"/>
       <c r="CW145" s="8"/>
       <c r="CX145" s="8"/>
@@ -25001,11 +25109,12 @@
       <c r="CM146" s="11"/>
       <c r="CN146" s="11"/>
       <c r="CO146" s="11"/>
-      <c r="CP146" s="28"/>
-      <c r="CQ146" s="28"/>
-      <c r="CR146" s="28"/>
-      <c r="CS146" s="28"/>
-      <c r="CT146" s="28"/>
+      <c r="CP146" s="11"/>
+      <c r="CQ146" s="11"/>
+      <c r="CR146" s="11"/>
+      <c r="CS146" s="11"/>
+      <c r="CT146" s="11"/>
+      <c r="CU146" s="11"/>
     </row>
     <row r="147" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
@@ -25105,11 +25214,11 @@
       <c r="CM148" s="8"/>
       <c r="CN148" s="8"/>
       <c r="CO148" s="8"/>
-      <c r="CP148" s="26"/>
-      <c r="CQ148" s="26"/>
-      <c r="CR148" s="26"/>
-      <c r="CS148" s="26"/>
-      <c r="CT148" s="26"/>
+      <c r="CP148" s="8"/>
+      <c r="CQ148" s="8"/>
+      <c r="CR148" s="8"/>
+      <c r="CS148" s="8"/>
+      <c r="CT148" s="8"/>
       <c r="CU148" s="8"/>
       <c r="CV148" s="8"/>
       <c r="CW148" s="8"/>
@@ -25257,11 +25366,11 @@
       <c r="CM149" s="8"/>
       <c r="CN149" s="8"/>
       <c r="CO149" s="8"/>
-      <c r="CP149" s="26"/>
-      <c r="CQ149" s="26"/>
-      <c r="CR149" s="26"/>
-      <c r="CS149" s="26"/>
-      <c r="CT149" s="26"/>
+      <c r="CP149" s="8"/>
+      <c r="CQ149" s="8"/>
+      <c r="CR149" s="8"/>
+      <c r="CS149" s="8"/>
+      <c r="CT149" s="8"/>
       <c r="CU149" s="8"/>
       <c r="CV149" s="8"/>
       <c r="CW149" s="8"/>
@@ -25328,7 +25437,7 @@
     </row>
     <row r="152" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="154" spans="1:151" x14ac:dyDescent="0.2">
@@ -25338,7 +25447,7 @@
     </row>
     <row r="155" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="156" spans="1:151" x14ac:dyDescent="0.2">
@@ -25348,132 +25457,132 @@
     </row>
     <row r="158" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
-      <c r="B158" s="35">
+      <c r="B158" s="26">
         <v>2000</v>
       </c>
-      <c r="C158" s="35"/>
-      <c r="D158" s="35"/>
-      <c r="E158" s="35"/>
-      <c r="F158" s="35">
+      <c r="C158" s="26"/>
+      <c r="D158" s="26"/>
+      <c r="E158" s="26"/>
+      <c r="F158" s="26">
         <v>2001</v>
       </c>
-      <c r="G158" s="35"/>
-      <c r="H158" s="35"/>
-      <c r="I158" s="35"/>
-      <c r="J158" s="35">
+      <c r="G158" s="26"/>
+      <c r="H158" s="26"/>
+      <c r="I158" s="26"/>
+      <c r="J158" s="26">
         <v>2002</v>
       </c>
-      <c r="K158" s="35"/>
-      <c r="L158" s="35"/>
-      <c r="M158" s="35"/>
-      <c r="N158" s="35">
+      <c r="K158" s="26"/>
+      <c r="L158" s="26"/>
+      <c r="M158" s="26"/>
+      <c r="N158" s="26">
         <v>2003</v>
       </c>
-      <c r="O158" s="35"/>
-      <c r="P158" s="35"/>
-      <c r="Q158" s="35"/>
-      <c r="R158" s="35">
+      <c r="O158" s="26"/>
+      <c r="P158" s="26"/>
+      <c r="Q158" s="26"/>
+      <c r="R158" s="26">
         <v>2004</v>
       </c>
-      <c r="S158" s="35"/>
-      <c r="T158" s="35"/>
-      <c r="U158" s="35"/>
-      <c r="V158" s="35">
+      <c r="S158" s="26"/>
+      <c r="T158" s="26"/>
+      <c r="U158" s="26"/>
+      <c r="V158" s="26">
         <v>2005</v>
       </c>
-      <c r="W158" s="35"/>
-      <c r="X158" s="35"/>
-      <c r="Y158" s="35"/>
-      <c r="Z158" s="35">
+      <c r="W158" s="26"/>
+      <c r="X158" s="26"/>
+      <c r="Y158" s="26"/>
+      <c r="Z158" s="26">
         <v>2006</v>
       </c>
-      <c r="AA158" s="35"/>
-      <c r="AB158" s="35"/>
-      <c r="AC158" s="35"/>
-      <c r="AD158" s="35">
+      <c r="AA158" s="26"/>
+      <c r="AB158" s="26"/>
+      <c r="AC158" s="26"/>
+      <c r="AD158" s="26">
         <v>2007</v>
       </c>
-      <c r="AE158" s="35"/>
-      <c r="AF158" s="35"/>
-      <c r="AG158" s="35"/>
-      <c r="AH158" s="35">
+      <c r="AE158" s="26"/>
+      <c r="AF158" s="26"/>
+      <c r="AG158" s="26"/>
+      <c r="AH158" s="26">
         <v>2008</v>
       </c>
-      <c r="AI158" s="35"/>
-      <c r="AJ158" s="35"/>
-      <c r="AK158" s="35"/>
-      <c r="AL158" s="35">
+      <c r="AI158" s="26"/>
+      <c r="AJ158" s="26"/>
+      <c r="AK158" s="26"/>
+      <c r="AL158" s="26">
         <v>2009</v>
       </c>
-      <c r="AM158" s="35"/>
-      <c r="AN158" s="35"/>
-      <c r="AO158" s="35"/>
-      <c r="AP158" s="35">
+      <c r="AM158" s="26"/>
+      <c r="AN158" s="26"/>
+      <c r="AO158" s="26"/>
+      <c r="AP158" s="26">
         <v>2010</v>
       </c>
-      <c r="AQ158" s="35"/>
-      <c r="AR158" s="35"/>
-      <c r="AS158" s="35"/>
-      <c r="AT158" s="35">
+      <c r="AQ158" s="26"/>
+      <c r="AR158" s="26"/>
+      <c r="AS158" s="26"/>
+      <c r="AT158" s="26">
         <v>2011</v>
       </c>
-      <c r="AU158" s="35"/>
-      <c r="AV158" s="35"/>
-      <c r="AW158" s="35"/>
-      <c r="AX158" s="35">
+      <c r="AU158" s="26"/>
+      <c r="AV158" s="26"/>
+      <c r="AW158" s="26"/>
+      <c r="AX158" s="26">
         <v>2012</v>
       </c>
-      <c r="AY158" s="35"/>
-      <c r="AZ158" s="35"/>
-      <c r="BA158" s="35"/>
-      <c r="BB158" s="35">
+      <c r="AY158" s="26"/>
+      <c r="AZ158" s="26"/>
+      <c r="BA158" s="26"/>
+      <c r="BB158" s="26">
         <v>2013</v>
       </c>
-      <c r="BC158" s="35"/>
-      <c r="BD158" s="35"/>
-      <c r="BE158" s="35"/>
-      <c r="BF158" s="35">
+      <c r="BC158" s="26"/>
+      <c r="BD158" s="26"/>
+      <c r="BE158" s="26"/>
+      <c r="BF158" s="26">
         <v>2014</v>
       </c>
-      <c r="BG158" s="35"/>
-      <c r="BH158" s="35"/>
-      <c r="BI158" s="35"/>
-      <c r="BJ158" s="35">
+      <c r="BG158" s="26"/>
+      <c r="BH158" s="26"/>
+      <c r="BI158" s="26"/>
+      <c r="BJ158" s="26">
         <v>2015</v>
       </c>
-      <c r="BK158" s="35"/>
-      <c r="BL158" s="35"/>
-      <c r="BM158" s="35"/>
-      <c r="BN158" s="35">
+      <c r="BK158" s="26"/>
+      <c r="BL158" s="26"/>
+      <c r="BM158" s="26"/>
+      <c r="BN158" s="26">
         <v>2016</v>
       </c>
-      <c r="BO158" s="35"/>
-      <c r="BP158" s="35"/>
-      <c r="BQ158" s="35"/>
-      <c r="BR158" s="35">
+      <c r="BO158" s="26"/>
+      <c r="BP158" s="26"/>
+      <c r="BQ158" s="26"/>
+      <c r="BR158" s="26">
         <v>2017</v>
       </c>
-      <c r="BS158" s="35"/>
-      <c r="BT158" s="35"/>
-      <c r="BU158" s="35"/>
-      <c r="BV158" s="35">
+      <c r="BS158" s="26"/>
+      <c r="BT158" s="26"/>
+      <c r="BU158" s="26"/>
+      <c r="BV158" s="26">
         <v>2018</v>
       </c>
-      <c r="BW158" s="35"/>
-      <c r="BX158" s="35"/>
-      <c r="BY158" s="35"/>
-      <c r="BZ158" s="35">
+      <c r="BW158" s="26"/>
+      <c r="BX158" s="26"/>
+      <c r="BY158" s="26"/>
+      <c r="BZ158" s="26">
         <v>2019</v>
       </c>
-      <c r="CA158" s="35"/>
-      <c r="CB158" s="35"/>
-      <c r="CC158" s="35"/>
-      <c r="CD158" s="36">
+      <c r="CA158" s="26"/>
+      <c r="CB158" s="26"/>
+      <c r="CC158" s="26"/>
+      <c r="CD158" s="25">
         <v>2020</v>
       </c>
-      <c r="CE158" s="36"/>
-      <c r="CF158" s="36"/>
-      <c r="CG158" s="36"/>
+      <c r="CE158" s="25"/>
+      <c r="CF158" s="25"/>
+      <c r="CG158" s="25"/>
       <c r="CH158" s="21">
         <v>2021</v>
       </c>
@@ -25486,15 +25595,16 @@
       <c r="CM158" s="21"/>
       <c r="CN158" s="21"/>
       <c r="CO158" s="21"/>
-      <c r="CP158" s="24">
+      <c r="CP158" s="21">
         <v>2023</v>
       </c>
-      <c r="CQ158" s="24"/>
-      <c r="CR158" s="24"/>
-      <c r="CS158" s="24"/>
-      <c r="CT158" s="24">
+      <c r="CQ158" s="21"/>
+      <c r="CR158" s="21"/>
+      <c r="CS158" s="21"/>
+      <c r="CT158" s="21">
         <v>2024</v>
       </c>
+      <c r="CU158" s="21"/>
     </row>
     <row r="159" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
@@ -25774,20 +25884,23 @@
       <c r="CO159" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CP159" s="29" t="s">
+      <c r="CP159" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CQ159" s="29" t="s">
+      <c r="CQ159" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="CR159" s="29" t="s">
+      <c r="CR159" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="CS159" s="29" t="s">
+      <c r="CS159" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CT159" s="29" t="s">
+      <c r="CT159" s="13" t="s">
         <v>7</v>
+      </c>
+      <c r="CU159" s="13" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26073,22 +26186,24 @@
       <c r="CO161" s="20">
         <v>7.6630996965324938</v>
       </c>
-      <c r="CP161" s="34">
+      <c r="CP161" s="20">
         <v>8.9918714163940461</v>
       </c>
-      <c r="CQ161" s="34">
+      <c r="CQ161" s="20">
         <v>3.4153784663458158</v>
       </c>
-      <c r="CR161" s="34">
+      <c r="CR161" s="20">
         <v>6.4682529948945442</v>
       </c>
-      <c r="CS161" s="34">
+      <c r="CS161" s="20">
         <v>7.4996467591159188</v>
       </c>
-      <c r="CT161" s="34">
-        <v>8.9331569934707904</v>
-      </c>
-      <c r="CU161" s="8"/>
+      <c r="CT161" s="20">
+        <v>9.0932006109487933</v>
+      </c>
+      <c r="CU161" s="20">
+        <v>3.5040568028317205</v>
+      </c>
       <c r="CV161" s="8"/>
       <c r="CW161" s="8"/>
       <c r="CX161" s="8"/>
@@ -26422,22 +26537,24 @@
       <c r="CO162" s="20">
         <v>0.16341702590711205</v>
       </c>
-      <c r="CP162" s="34">
+      <c r="CP162" s="20">
         <v>5.3999407691669186E-2</v>
       </c>
-      <c r="CQ162" s="34">
+      <c r="CQ162" s="20">
         <v>5.4605675385951721E-2</v>
       </c>
-      <c r="CR162" s="34">
+      <c r="CR162" s="20">
         <v>0.12601186421147886</v>
       </c>
-      <c r="CS162" s="34">
+      <c r="CS162" s="20">
         <v>0.13308325790527478</v>
       </c>
-      <c r="CT162" s="34">
-        <v>5.5983860729039756E-2</v>
-      </c>
-      <c r="CU162" s="8"/>
+      <c r="CT162" s="20">
+        <v>5.3872129883221702E-2</v>
+      </c>
+      <c r="CU162" s="20">
+        <v>5.5302284354389719E-2</v>
+      </c>
       <c r="CV162" s="8"/>
       <c r="CW162" s="8"/>
       <c r="CX162" s="8"/>
@@ -26771,22 +26888,24 @@
       <c r="CO163" s="20">
         <v>10.252652666100939</v>
       </c>
-      <c r="CP163" s="34">
+      <c r="CP163" s="20">
         <v>14.119039736867878</v>
       </c>
-      <c r="CQ163" s="34">
+      <c r="CQ163" s="20">
         <v>15.144456718974508</v>
       </c>
-      <c r="CR163" s="34">
+      <c r="CR163" s="20">
         <v>22.747257983203529</v>
       </c>
-      <c r="CS163" s="34">
+      <c r="CS163" s="20">
         <v>14.64119115247656</v>
       </c>
-      <c r="CT163" s="34">
-        <v>14.846972129127566</v>
-      </c>
-      <c r="CU163" s="8"/>
+      <c r="CT163" s="20">
+        <v>14.814209801310064</v>
+      </c>
+      <c r="CU163" s="20">
+        <v>17.189853505995075</v>
+      </c>
       <c r="CV163" s="8"/>
       <c r="CW163" s="8"/>
       <c r="CX163" s="8"/>
@@ -27120,22 +27239,24 @@
       <c r="CO164" s="20">
         <v>0.74331637237930814</v>
       </c>
-      <c r="CP164" s="34">
+      <c r="CP164" s="20">
         <v>0.53118400728041659</v>
       </c>
-      <c r="CQ164" s="34">
+      <c r="CQ164" s="20">
         <v>0.61907985680627431</v>
       </c>
-      <c r="CR164" s="34">
+      <c r="CR164" s="20">
         <v>0.72952868276331728</v>
       </c>
-      <c r="CS164" s="34">
+      <c r="CS164" s="20">
         <v>0.75907364018529599</v>
       </c>
-      <c r="CT164" s="34">
-        <v>0.53824158461282867</v>
-      </c>
-      <c r="CU164" s="8"/>
+      <c r="CT164" s="20">
+        <v>0.51204732959273869</v>
+      </c>
+      <c r="CU164" s="20">
+        <v>0.59012362652595463</v>
+      </c>
       <c r="CV164" s="8"/>
       <c r="CW164" s="8"/>
       <c r="CX164" s="8"/>
@@ -27469,22 +27590,24 @@
       <c r="CO165" s="20">
         <v>15.977133571417401</v>
       </c>
-      <c r="CP165" s="34">
+      <c r="CP165" s="20">
         <v>17.810061842049443</v>
       </c>
-      <c r="CQ165" s="34">
+      <c r="CQ165" s="20">
         <v>17.879742131696933</v>
       </c>
-      <c r="CR165" s="34">
+      <c r="CR165" s="20">
         <v>14.393953493192416</v>
       </c>
-      <c r="CS165" s="34">
+      <c r="CS165" s="20">
         <v>16.199052071689611</v>
       </c>
-      <c r="CT165" s="34">
-        <v>17.464870395472953</v>
-      </c>
-      <c r="CU165" s="8"/>
+      <c r="CT165" s="20">
+        <v>17.212647114573571</v>
+      </c>
+      <c r="CU165" s="20">
+        <v>17.79843675990897</v>
+      </c>
       <c r="CV165" s="8"/>
       <c r="CW165" s="8"/>
       <c r="CX165" s="8"/>
@@ -27818,22 +27941,24 @@
       <c r="CO166" s="20">
         <v>52.81115197717947</v>
       </c>
-      <c r="CP166" s="34">
+      <c r="CP166" s="20">
         <v>49.906478558644686</v>
       </c>
-      <c r="CQ166" s="34">
+      <c r="CQ166" s="20">
         <v>52.241171150170473</v>
       </c>
-      <c r="CR166" s="34">
+      <c r="CR166" s="20">
         <v>45.389236459579003</v>
       </c>
-      <c r="CS166" s="34">
+      <c r="CS166" s="20">
         <v>48.987351583982289</v>
       </c>
-      <c r="CT166" s="34">
-        <v>50.146788601810044</v>
-      </c>
-      <c r="CU166" s="8"/>
+      <c r="CT166" s="20">
+        <v>49.980197874614156</v>
+      </c>
+      <c r="CU166" s="20">
+        <v>50.434798353177776</v>
+      </c>
       <c r="CV166" s="8"/>
       <c r="CW166" s="8"/>
       <c r="CX166" s="8"/>
@@ -28167,22 +28292,24 @@
       <c r="CO167" s="20">
         <v>10.586080427716073</v>
       </c>
-      <c r="CP167" s="34">
+      <c r="CP167" s="20">
         <v>7.6306735769493264</v>
       </c>
-      <c r="CQ167" s="34">
+      <c r="CQ167" s="20">
         <v>9.3225376295608804</v>
       </c>
-      <c r="CR167" s="34">
+      <c r="CR167" s="20">
         <v>8.850188947993038</v>
       </c>
-      <c r="CS167" s="34">
+      <c r="CS167" s="20">
         <v>9.9994693346801604</v>
       </c>
-      <c r="CT167" s="34">
-        <v>7.126851820686368</v>
-      </c>
-      <c r="CU167" s="8"/>
+      <c r="CT167" s="20">
+        <v>7.4080784946553733</v>
+      </c>
+      <c r="CU167" s="20">
+        <v>8.874669061707289</v>
+      </c>
       <c r="CV167" s="8"/>
       <c r="CW167" s="8"/>
       <c r="CX167" s="8"/>
@@ -28516,22 +28643,24 @@
       <c r="CO168" s="20">
         <v>1.8031482627672057</v>
       </c>
-      <c r="CP168" s="34">
+      <c r="CP168" s="20">
         <v>0.95669145412253398</v>
       </c>
-      <c r="CQ168" s="34">
+      <c r="CQ168" s="20">
         <v>1.3230283710591559</v>
       </c>
-      <c r="CR168" s="34">
+      <c r="CR168" s="20">
         <v>1.2955695741626716</v>
       </c>
-      <c r="CS168" s="34">
+      <c r="CS168" s="20">
         <v>1.7811321999648935</v>
       </c>
-      <c r="CT168" s="34">
-        <v>0.88713461409041916</v>
-      </c>
-      <c r="CU168" s="8"/>
+      <c r="CT168" s="20">
+        <v>0.92574664442207877</v>
+      </c>
+      <c r="CU168" s="20">
+        <v>1.5527596054988155</v>
+      </c>
       <c r="CV168" s="8"/>
       <c r="CW168" s="8"/>
       <c r="CX168" s="8"/>
@@ -28678,11 +28807,11 @@
       <c r="CM169" s="8"/>
       <c r="CN169" s="8"/>
       <c r="CO169" s="8"/>
-      <c r="CP169" s="26"/>
-      <c r="CQ169" s="26"/>
-      <c r="CR169" s="26"/>
-      <c r="CS169" s="26"/>
-      <c r="CT169" s="26"/>
+      <c r="CP169" s="8"/>
+      <c r="CQ169" s="8"/>
+      <c r="CR169" s="8"/>
+      <c r="CS169" s="8"/>
+      <c r="CT169" s="8"/>
       <c r="CU169" s="8"/>
       <c r="CV169" s="8"/>
       <c r="CW169" s="8"/>
@@ -29017,22 +29146,24 @@
       <c r="CO170" s="14">
         <v>100</v>
       </c>
-      <c r="CP170" s="31">
+      <c r="CP170" s="14">
         <v>100</v>
       </c>
-      <c r="CQ170" s="31">
+      <c r="CQ170" s="14">
         <v>100</v>
       </c>
-      <c r="CR170" s="31">
+      <c r="CR170" s="14">
         <v>100</v>
       </c>
-      <c r="CS170" s="31">
+      <c r="CS170" s="14">
         <v>100</v>
       </c>
-      <c r="CT170" s="31">
+      <c r="CT170" s="14">
         <v>100</v>
       </c>
-      <c r="CU170" s="8"/>
+      <c r="CU170" s="14">
+        <v>100</v>
+      </c>
       <c r="CV170" s="8"/>
       <c r="CW170" s="8"/>
       <c r="CX170" s="8"/>
@@ -29180,11 +29311,12 @@
       <c r="CM171" s="11"/>
       <c r="CN171" s="11"/>
       <c r="CO171" s="11"/>
-      <c r="CP171" s="28"/>
-      <c r="CQ171" s="28"/>
-      <c r="CR171" s="28"/>
-      <c r="CS171" s="28"/>
-      <c r="CT171" s="28"/>
+      <c r="CP171" s="11"/>
+      <c r="CQ171" s="11"/>
+      <c r="CR171" s="11"/>
+      <c r="CS171" s="11"/>
+      <c r="CT171" s="11"/>
+      <c r="CU171" s="11"/>
     </row>
     <row r="172" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
@@ -29285,12 +29417,12 @@
       <c r="CM173" s="1"/>
       <c r="CN173" s="1"/>
       <c r="CO173" s="1"/>
-      <c r="CP173" s="23"/>
-      <c r="CQ173" s="23"/>
-      <c r="CR173" s="23"/>
-      <c r="CS173" s="23"/>
-      <c r="CT173" s="23"/>
-      <c r="CU173" s="16"/>
+      <c r="CP173" s="1"/>
+      <c r="CQ173" s="1"/>
+      <c r="CR173" s="1"/>
+      <c r="CS173" s="1"/>
+      <c r="CT173" s="1"/>
+      <c r="CU173" s="1"/>
       <c r="CV173" s="16"/>
       <c r="CW173" s="16"/>
       <c r="CX173" s="16"/>
@@ -29438,12 +29570,12 @@
       <c r="CM174" s="1"/>
       <c r="CN174" s="1"/>
       <c r="CO174" s="1"/>
-      <c r="CP174" s="23"/>
-      <c r="CQ174" s="23"/>
-      <c r="CR174" s="23"/>
-      <c r="CS174" s="23"/>
-      <c r="CT174" s="23"/>
-      <c r="CU174" s="16"/>
+      <c r="CP174" s="1"/>
+      <c r="CQ174" s="1"/>
+      <c r="CR174" s="1"/>
+      <c r="CS174" s="1"/>
+      <c r="CT174" s="1"/>
+      <c r="CU174" s="1"/>
       <c r="CV174" s="16"/>
       <c r="CW174" s="16"/>
       <c r="CX174" s="16"/>
@@ -29499,24 +29631,111 @@
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="CD158:CG158"/>
-    <mergeCell ref="CD133:CG133"/>
-    <mergeCell ref="CD108:CG108"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BZ59:CC59"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="CD59:CG59"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="CD34:CG34"/>
-    <mergeCell ref="BZ34:CC34"/>
-    <mergeCell ref="BR59:BU59"/>
-    <mergeCell ref="BR34:BU34"/>
-    <mergeCell ref="BV34:BY34"/>
-    <mergeCell ref="BV59:BY59"/>
+    <mergeCell ref="BJ34:BM34"/>
+    <mergeCell ref="BN34:BQ34"/>
+    <mergeCell ref="BF59:BI59"/>
+    <mergeCell ref="BJ59:BM59"/>
+    <mergeCell ref="BB59:BE59"/>
+    <mergeCell ref="BN59:BQ59"/>
+    <mergeCell ref="BZ108:CC108"/>
+    <mergeCell ref="BB158:BE158"/>
+    <mergeCell ref="BF158:BI158"/>
+    <mergeCell ref="BJ158:BM158"/>
+    <mergeCell ref="BN158:BQ158"/>
+    <mergeCell ref="BF133:BI133"/>
+    <mergeCell ref="BJ133:BM133"/>
+    <mergeCell ref="BN133:BQ133"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="BB108:BE108"/>
+    <mergeCell ref="BF108:BI108"/>
+    <mergeCell ref="BB133:BE133"/>
+    <mergeCell ref="BR108:BU108"/>
+    <mergeCell ref="BV108:BY108"/>
+    <mergeCell ref="V158:Y158"/>
+    <mergeCell ref="Z158:AC158"/>
+    <mergeCell ref="AD158:AG158"/>
+    <mergeCell ref="AH158:AK158"/>
+    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="F133:I133"/>
+    <mergeCell ref="J133:M133"/>
+    <mergeCell ref="N133:Q133"/>
+    <mergeCell ref="R133:U133"/>
+    <mergeCell ref="V133:Y133"/>
+    <mergeCell ref="Z133:AC133"/>
+    <mergeCell ref="AD133:AG133"/>
+    <mergeCell ref="AH133:AK133"/>
+    <mergeCell ref="B158:E158"/>
+    <mergeCell ref="F158:I158"/>
+    <mergeCell ref="J158:M158"/>
+    <mergeCell ref="N158:Q158"/>
+    <mergeCell ref="R158:U158"/>
+    <mergeCell ref="AT108:AW108"/>
+    <mergeCell ref="AX108:BA108"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="AD59:AG59"/>
+    <mergeCell ref="AH59:AK59"/>
+    <mergeCell ref="AL59:AO59"/>
+    <mergeCell ref="AP59:AS59"/>
+    <mergeCell ref="AT59:AW59"/>
+    <mergeCell ref="AX59:BA59"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="J108:M108"/>
+    <mergeCell ref="N108:Q108"/>
+    <mergeCell ref="R108:U108"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="BB34:BE34"/>
+    <mergeCell ref="BF34:BI34"/>
+    <mergeCell ref="V34:Y34"/>
+    <mergeCell ref="Z34:AC34"/>
+    <mergeCell ref="AD34:AG34"/>
+    <mergeCell ref="AH34:AK34"/>
+    <mergeCell ref="AL34:AO34"/>
+    <mergeCell ref="AP34:AS34"/>
+    <mergeCell ref="AT34:AW34"/>
+    <mergeCell ref="AX34:BA34"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="BZ158:CC158"/>
+    <mergeCell ref="BR158:BU158"/>
+    <mergeCell ref="BV158:BY158"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BV84:BY84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AL158:AO158"/>
+    <mergeCell ref="AP158:AS158"/>
+    <mergeCell ref="AT158:AW158"/>
+    <mergeCell ref="AX158:BA158"/>
+    <mergeCell ref="BJ108:BM108"/>
+    <mergeCell ref="BN108:BQ108"/>
+    <mergeCell ref="AL133:AO133"/>
+    <mergeCell ref="AP133:AS133"/>
     <mergeCell ref="AT133:AW133"/>
     <mergeCell ref="AX133:BA133"/>
     <mergeCell ref="B84:E84"/>
@@ -29541,111 +29760,24 @@
     <mergeCell ref="AH108:AK108"/>
     <mergeCell ref="AL108:AO108"/>
     <mergeCell ref="AP108:AS108"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="BZ158:CC158"/>
-    <mergeCell ref="BR158:BU158"/>
-    <mergeCell ref="BV158:BY158"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BV84:BY84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AL158:AO158"/>
-    <mergeCell ref="AP158:AS158"/>
-    <mergeCell ref="AT158:AW158"/>
-    <mergeCell ref="AX158:BA158"/>
-    <mergeCell ref="BJ108:BM108"/>
-    <mergeCell ref="BN108:BQ108"/>
-    <mergeCell ref="AL133:AO133"/>
-    <mergeCell ref="AP133:AS133"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="BB34:BE34"/>
-    <mergeCell ref="BF34:BI34"/>
-    <mergeCell ref="V34:Y34"/>
-    <mergeCell ref="Z34:AC34"/>
-    <mergeCell ref="AD34:AG34"/>
-    <mergeCell ref="AH34:AK34"/>
-    <mergeCell ref="AL34:AO34"/>
-    <mergeCell ref="AP34:AS34"/>
-    <mergeCell ref="AT34:AW34"/>
-    <mergeCell ref="AX34:BA34"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="AT108:AW108"/>
-    <mergeCell ref="AX108:BA108"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="R34:U34"/>
-    <mergeCell ref="AD59:AG59"/>
-    <mergeCell ref="AH59:AK59"/>
-    <mergeCell ref="AL59:AO59"/>
-    <mergeCell ref="AP59:AS59"/>
-    <mergeCell ref="AT59:AW59"/>
-    <mergeCell ref="AX59:BA59"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="J108:M108"/>
-    <mergeCell ref="N108:Q108"/>
-    <mergeCell ref="R108:U108"/>
-    <mergeCell ref="V158:Y158"/>
-    <mergeCell ref="Z158:AC158"/>
-    <mergeCell ref="AD158:AG158"/>
-    <mergeCell ref="AH158:AK158"/>
-    <mergeCell ref="B133:E133"/>
-    <mergeCell ref="F133:I133"/>
-    <mergeCell ref="J133:M133"/>
-    <mergeCell ref="N133:Q133"/>
-    <mergeCell ref="R133:U133"/>
-    <mergeCell ref="V133:Y133"/>
-    <mergeCell ref="Z133:AC133"/>
-    <mergeCell ref="AD133:AG133"/>
-    <mergeCell ref="AH133:AK133"/>
-    <mergeCell ref="B158:E158"/>
-    <mergeCell ref="F158:I158"/>
-    <mergeCell ref="J158:M158"/>
-    <mergeCell ref="N158:Q158"/>
-    <mergeCell ref="R158:U158"/>
-    <mergeCell ref="BJ34:BM34"/>
-    <mergeCell ref="BN34:BQ34"/>
-    <mergeCell ref="BF59:BI59"/>
-    <mergeCell ref="BJ59:BM59"/>
-    <mergeCell ref="BB59:BE59"/>
-    <mergeCell ref="BN59:BQ59"/>
-    <mergeCell ref="BZ108:CC108"/>
-    <mergeCell ref="BB158:BE158"/>
-    <mergeCell ref="BF158:BI158"/>
-    <mergeCell ref="BJ158:BM158"/>
-    <mergeCell ref="BN158:BQ158"/>
-    <mergeCell ref="BF133:BI133"/>
-    <mergeCell ref="BJ133:BM133"/>
-    <mergeCell ref="BN133:BQ133"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="BB108:BE108"/>
-    <mergeCell ref="BF108:BI108"/>
-    <mergeCell ref="BB133:BE133"/>
-    <mergeCell ref="BR108:BU108"/>
-    <mergeCell ref="BV108:BY108"/>
+    <mergeCell ref="CD158:CG158"/>
+    <mergeCell ref="CD133:CG133"/>
+    <mergeCell ref="CD108:CG108"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BZ59:CC59"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="CD59:CG59"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="CD34:CG34"/>
+    <mergeCell ref="BZ34:CC34"/>
+    <mergeCell ref="BR59:BU59"/>
+    <mergeCell ref="BR34:BU34"/>
+    <mergeCell ref="BV34:BY34"/>
+    <mergeCell ref="BV59:BY59"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>

--- a/Data/National Accounts/PSA-05EOS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-05EOS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CC2A88-56D7-439B-8BAE-7B3458D5F98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81861303-C04D-43AB-80BC-0D62B4EB43FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="975" windowWidth="12660" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EOS" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">EOS!$A$37:$A$48</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EOS!$A$1:$CT$174</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EOS!$A$1:$CV$174</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="58">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -222,13 +222,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>As of August 2024</t>
+    <t>As of November 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2024</t>
+    <t>Q1 2000 to Q3 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2024</t>
+    <t>Q1 2001 to Q3 2024</t>
   </si>
 </sst>
 </file>
@@ -319,7 +319,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -354,15 +354,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -707,19 +723,20 @@
   <dimension ref="A1:EU174"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="95" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="CA3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="CN3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="CP1" sqref="CP1:CU1048576"/>
+      <selection pane="bottomRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.77734375" style="1" customWidth="1"/>
     <col min="2" max="73" width="8.77734375" style="1" customWidth="1"/>
-    <col min="74" max="99" width="10" style="1" customWidth="1"/>
-    <col min="100" max="16384" width="7.77734375" style="1"/>
+    <col min="74" max="93" width="10" style="1" customWidth="1"/>
+    <col min="94" max="100" width="10" style="23" customWidth="1"/>
+    <col min="101" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:151" x14ac:dyDescent="0.2">
@@ -754,132 +771,132 @@
     </row>
     <row r="9" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="25">
+      <c r="B9" s="35">
         <v>2000</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35">
         <v>2001</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25">
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35">
         <v>2002</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25">
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35">
         <v>2003</v>
       </c>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25">
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35">
         <v>2004</v>
       </c>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25">
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35">
         <v>2005</v>
       </c>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25">
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35">
         <v>2006</v>
       </c>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25">
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35">
         <v>2007</v>
       </c>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="25">
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35">
         <v>2008</v>
       </c>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="25"/>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="25">
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="35">
         <v>2009</v>
       </c>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="25"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="25">
+      <c r="AM9" s="35"/>
+      <c r="AN9" s="35"/>
+      <c r="AO9" s="35"/>
+      <c r="AP9" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="25"/>
-      <c r="AR9" s="25"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="25">
+      <c r="AQ9" s="35"/>
+      <c r="AR9" s="35"/>
+      <c r="AS9" s="35"/>
+      <c r="AT9" s="35">
         <v>2011</v>
       </c>
-      <c r="AU9" s="25"/>
-      <c r="AV9" s="25"/>
-      <c r="AW9" s="25"/>
-      <c r="AX9" s="25">
+      <c r="AU9" s="35"/>
+      <c r="AV9" s="35"/>
+      <c r="AW9" s="35"/>
+      <c r="AX9" s="35">
         <v>2012</v>
       </c>
-      <c r="AY9" s="25"/>
-      <c r="AZ9" s="25"/>
-      <c r="BA9" s="25"/>
-      <c r="BB9" s="25">
+      <c r="AY9" s="35"/>
+      <c r="AZ9" s="35"/>
+      <c r="BA9" s="35"/>
+      <c r="BB9" s="35">
         <v>2013</v>
       </c>
-      <c r="BC9" s="25"/>
-      <c r="BD9" s="25"/>
-      <c r="BE9" s="25"/>
-      <c r="BF9" s="25">
+      <c r="BC9" s="35"/>
+      <c r="BD9" s="35"/>
+      <c r="BE9" s="35"/>
+      <c r="BF9" s="35">
         <v>2014</v>
       </c>
-      <c r="BG9" s="25"/>
-      <c r="BH9" s="25"/>
-      <c r="BI9" s="25"/>
-      <c r="BJ9" s="25">
+      <c r="BG9" s="35"/>
+      <c r="BH9" s="35"/>
+      <c r="BI9" s="35"/>
+      <c r="BJ9" s="35">
         <v>2015</v>
       </c>
-      <c r="BK9" s="25"/>
-      <c r="BL9" s="25"/>
-      <c r="BM9" s="25"/>
-      <c r="BN9" s="25">
+      <c r="BK9" s="35"/>
+      <c r="BL9" s="35"/>
+      <c r="BM9" s="35"/>
+      <c r="BN9" s="35">
         <v>2016</v>
       </c>
-      <c r="BO9" s="25"/>
-      <c r="BP9" s="25"/>
-      <c r="BQ9" s="25"/>
-      <c r="BR9" s="25">
+      <c r="BO9" s="35"/>
+      <c r="BP9" s="35"/>
+      <c r="BQ9" s="35"/>
+      <c r="BR9" s="35">
         <v>2017</v>
       </c>
-      <c r="BS9" s="25"/>
-      <c r="BT9" s="25"/>
-      <c r="BU9" s="25"/>
-      <c r="BV9" s="25">
+      <c r="BS9" s="35"/>
+      <c r="BT9" s="35"/>
+      <c r="BU9" s="35"/>
+      <c r="BV9" s="35">
         <v>2018</v>
       </c>
-      <c r="BW9" s="25"/>
-      <c r="BX9" s="25"/>
-      <c r="BY9" s="25"/>
-      <c r="BZ9" s="25">
+      <c r="BW9" s="35"/>
+      <c r="BX9" s="35"/>
+      <c r="BY9" s="35"/>
+      <c r="BZ9" s="35">
         <v>2019</v>
       </c>
-      <c r="CA9" s="25"/>
-      <c r="CB9" s="25"/>
-      <c r="CC9" s="25"/>
-      <c r="CD9" s="25">
+      <c r="CA9" s="35"/>
+      <c r="CB9" s="35"/>
+      <c r="CC9" s="35"/>
+      <c r="CD9" s="35">
         <v>2020</v>
       </c>
-      <c r="CE9" s="25"/>
-      <c r="CF9" s="25"/>
-      <c r="CG9" s="25"/>
+      <c r="CE9" s="35"/>
+      <c r="CF9" s="35"/>
+      <c r="CG9" s="35"/>
       <c r="CH9" s="21">
         <v>2021</v>
       </c>
@@ -892,16 +909,17 @@
       <c r="CM9" s="21"/>
       <c r="CN9" s="21"/>
       <c r="CO9" s="21"/>
-      <c r="CP9" s="21">
+      <c r="CP9" s="24">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="21"/>
-      <c r="CR9" s="21"/>
-      <c r="CS9" s="21"/>
-      <c r="CT9" s="21">
+      <c r="CQ9" s="24"/>
+      <c r="CR9" s="24"/>
+      <c r="CS9" s="24"/>
+      <c r="CT9" s="24">
         <v>2024</v>
       </c>
-      <c r="CU9" s="21"/>
+      <c r="CU9" s="24"/>
+      <c r="CV9" s="24"/>
     </row>
     <row r="10" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
@@ -1181,23 +1199,26 @@
       <c r="CO10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CP10" s="5" t="s">
+      <c r="CP10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="5" t="s">
+      <c r="CQ10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="5" t="s">
+      <c r="CR10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="CS10" s="5" t="s">
+      <c r="CS10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CT10" s="5" t="s">
+      <c r="CT10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CU10" s="5" t="s">
+      <c r="CU10" s="13" t="s">
         <v>8</v>
+      </c>
+      <c r="CV10" s="13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1483,25 +1504,27 @@
       <c r="CO12" s="18">
         <v>54545.476736266144</v>
       </c>
-      <c r="CP12" s="18">
+      <c r="CP12" s="25">
         <v>91388.504694742951</v>
       </c>
-      <c r="CQ12" s="18">
+      <c r="CQ12" s="25">
         <v>34472.852940256031</v>
       </c>
-      <c r="CR12" s="18">
+      <c r="CR12" s="25">
         <v>51853.834593934924</v>
       </c>
-      <c r="CS12" s="18">
+      <c r="CS12" s="25">
         <v>61415.796931664518</v>
       </c>
-      <c r="CT12" s="18">
+      <c r="CT12" s="25">
         <v>102696.07234617718</v>
       </c>
-      <c r="CU12" s="18">
-        <v>38145.561898129105</v>
-      </c>
-      <c r="CV12" s="8"/>
+      <c r="CU12" s="25">
+        <v>38250.076815867869</v>
+      </c>
+      <c r="CV12" s="25">
+        <v>50573.182042746033</v>
+      </c>
       <c r="CW12" s="8"/>
       <c r="CX12" s="8"/>
       <c r="CY12" s="8"/>
@@ -1834,25 +1857,27 @@
       <c r="CO13" s="18">
         <v>1000.4370497140442</v>
       </c>
-      <c r="CP13" s="18">
+      <c r="CP13" s="25">
         <v>480.04158316722192</v>
       </c>
-      <c r="CQ13" s="18">
+      <c r="CQ13" s="25">
         <v>464.05012427240712</v>
       </c>
-      <c r="CR13" s="18">
+      <c r="CR13" s="25">
         <v>930.61252590324239</v>
       </c>
-      <c r="CS13" s="18">
+      <c r="CS13" s="25">
         <v>942.90067939335495</v>
       </c>
-      <c r="CT13" s="18">
+      <c r="CT13" s="25">
         <v>534.38963333813354</v>
       </c>
-      <c r="CU13" s="18">
-        <v>519.70697381865602</v>
-      </c>
-      <c r="CV13" s="8"/>
+      <c r="CU13" s="25">
+        <v>490.03761118240203</v>
+      </c>
+      <c r="CV13" s="25">
+        <v>1007.5205428879642</v>
+      </c>
       <c r="CW13" s="8"/>
       <c r="CX13" s="8"/>
       <c r="CY13" s="8"/>
@@ -2185,25 +2210,27 @@
       <c r="CO14" s="18">
         <v>64203.136054041541</v>
       </c>
-      <c r="CP14" s="18">
+      <c r="CP14" s="25">
         <v>128049.61270907105</v>
       </c>
-      <c r="CQ14" s="18">
+      <c r="CQ14" s="25">
         <v>132330.33872905793</v>
       </c>
-      <c r="CR14" s="18">
+      <c r="CR14" s="25">
         <v>174583.24150521151</v>
       </c>
-      <c r="CS14" s="18">
+      <c r="CS14" s="25">
         <v>107496.30220590543</v>
       </c>
-      <c r="CT14" s="18">
+      <c r="CT14" s="25">
         <v>151426.10425368711</v>
       </c>
-      <c r="CU14" s="18">
+      <c r="CU14" s="25">
         <v>167362.97894372992</v>
       </c>
-      <c r="CV14" s="8"/>
+      <c r="CV14" s="25">
+        <v>149127.23704708871</v>
+      </c>
       <c r="CW14" s="8"/>
       <c r="CX14" s="8"/>
       <c r="CY14" s="8"/>
@@ -2536,25 +2563,27 @@
       <c r="CO15" s="18">
         <v>4595.0686874499042</v>
       </c>
-      <c r="CP15" s="18">
+      <c r="CP15" s="25">
         <v>4570.1940500558103</v>
       </c>
-      <c r="CQ15" s="18">
+      <c r="CQ15" s="25">
         <v>5139.0553496337761</v>
       </c>
-      <c r="CR15" s="18">
+      <c r="CR15" s="25">
         <v>5303.5480278897912</v>
       </c>
-      <c r="CS15" s="18">
+      <c r="CS15" s="25">
         <v>5496.1059442223577</v>
       </c>
-      <c r="CT15" s="18">
+      <c r="CT15" s="25">
         <v>4977.9404636384443</v>
       </c>
-      <c r="CU15" s="18">
-        <v>5391.142877497583</v>
-      </c>
-      <c r="CV15" s="8"/>
+      <c r="CU15" s="25">
+        <v>5418.3606287574867</v>
+      </c>
+      <c r="CV15" s="25">
+        <v>5553.9493145297602</v>
+      </c>
       <c r="CW15" s="8"/>
       <c r="CX15" s="8"/>
       <c r="CY15" s="8"/>
@@ -2887,25 +2916,27 @@
       <c r="CO16" s="18">
         <v>88349.252531254111</v>
       </c>
-      <c r="CP16" s="18">
+      <c r="CP16" s="25">
         <v>136255.87042386705</v>
       </c>
-      <c r="CQ16" s="18">
+      <c r="CQ16" s="25">
         <v>132006.04495852461</v>
       </c>
-      <c r="CR16" s="18">
+      <c r="CR16" s="25">
         <v>90834.805619856139</v>
       </c>
-      <c r="CS16" s="18">
+      <c r="CS16" s="25">
         <v>100998.99676650774</v>
       </c>
-      <c r="CT16" s="18">
+      <c r="CT16" s="25">
         <v>144427.11597770988</v>
       </c>
-      <c r="CU16" s="18">
-        <v>142487.33049555379</v>
-      </c>
-      <c r="CV16" s="8"/>
+      <c r="CU16" s="25">
+        <v>142031.78516345526</v>
+      </c>
+      <c r="CV16" s="25">
+        <v>101431.26716389808</v>
+      </c>
       <c r="CW16" s="8"/>
       <c r="CX16" s="8"/>
       <c r="CY16" s="8"/>
@@ -3238,25 +3269,27 @@
       <c r="CO17" s="18">
         <v>330617.25478872925</v>
       </c>
-      <c r="CP17" s="18">
+      <c r="CP17" s="25">
         <v>438940.2579160161</v>
       </c>
-      <c r="CQ17" s="18">
+      <c r="CQ17" s="25">
         <v>442320.61266757833</v>
       </c>
-      <c r="CR17" s="18">
+      <c r="CR17" s="25">
         <v>334923.1459927574</v>
       </c>
-      <c r="CS17" s="18">
+      <c r="CS17" s="25">
         <v>354637.50058273773</v>
       </c>
-      <c r="CT17" s="18">
+      <c r="CT17" s="25">
         <v>489463.82320816326</v>
       </c>
-      <c r="CU17" s="18">
-        <v>472218.42256727559</v>
-      </c>
-      <c r="CV17" s="8"/>
+      <c r="CU17" s="25">
+        <v>469821.55779187358</v>
+      </c>
+      <c r="CV17" s="25">
+        <v>378125.3313893525</v>
+      </c>
       <c r="CW17" s="8"/>
       <c r="CX17" s="8"/>
       <c r="CY17" s="8"/>
@@ -3589,25 +3622,27 @@
       <c r="CO18" s="18">
         <v>66718.593327664843</v>
       </c>
-      <c r="CP18" s="18">
+      <c r="CP18" s="25">
         <v>68561.433407578908</v>
       </c>
-      <c r="CQ18" s="18">
+      <c r="CQ18" s="25">
         <v>79162.752002960682</v>
       </c>
-      <c r="CR18" s="18">
+      <c r="CR18" s="25">
         <v>65974.839012592245</v>
       </c>
-      <c r="CS18" s="18">
+      <c r="CS18" s="25">
         <v>72001.17877859922</v>
       </c>
-      <c r="CT18" s="18">
+      <c r="CT18" s="25">
         <v>74272.253945248944</v>
       </c>
-      <c r="CU18" s="18">
-        <v>83334.967220423583</v>
-      </c>
-      <c r="CV18" s="8"/>
+      <c r="CU18" s="25">
+        <v>85948.802711667129</v>
+      </c>
+      <c r="CV18" s="25">
+        <v>70845.972496813789</v>
+      </c>
       <c r="CW18" s="8"/>
       <c r="CX18" s="8"/>
       <c r="CY18" s="8"/>
@@ -3940,25 +3975,27 @@
       <c r="CO19" s="18">
         <v>11024.543795387575</v>
       </c>
-      <c r="CP19" s="18">
+      <c r="CP19" s="25">
         <v>8484.317640903666</v>
       </c>
-      <c r="CQ19" s="18">
+      <c r="CQ19" s="25">
         <v>11183.54873158895</v>
       </c>
-      <c r="CR19" s="18">
+      <c r="CR19" s="25">
         <v>9272.9031053682593</v>
       </c>
-      <c r="CS19" s="18">
+      <c r="CS19" s="25">
         <v>12603.042609203625</v>
       </c>
-      <c r="CT19" s="18">
+      <c r="CT19" s="25">
         <v>9152.9725122828659</v>
       </c>
-      <c r="CU19" s="18">
-        <v>14514.532929209307</v>
-      </c>
-      <c r="CV19" s="8"/>
+      <c r="CU19" s="25">
+        <v>15843.539534704643</v>
+      </c>
+      <c r="CV19" s="25">
+        <v>10065.050719549774</v>
+      </c>
       <c r="CW19" s="8"/>
       <c r="CX19" s="8"/>
       <c r="CY19" s="8"/>
@@ -4104,13 +4141,13 @@
       <c r="CM20" s="8"/>
       <c r="CN20" s="8"/>
       <c r="CO20" s="8"/>
-      <c r="CP20" s="8"/>
-      <c r="CQ20" s="8"/>
-      <c r="CR20" s="8"/>
-      <c r="CS20" s="8"/>
-      <c r="CT20" s="8"/>
-      <c r="CU20" s="8"/>
-      <c r="CV20" s="8"/>
+      <c r="CP20" s="26"/>
+      <c r="CQ20" s="26"/>
+      <c r="CR20" s="26"/>
+      <c r="CS20" s="26"/>
+      <c r="CT20" s="26"/>
+      <c r="CU20" s="26"/>
+      <c r="CV20" s="26"/>
       <c r="CW20" s="8"/>
       <c r="CX20" s="8"/>
       <c r="CY20" s="8"/>
@@ -4443,25 +4480,27 @@
       <c r="CO21" s="19">
         <v>621053.76297050749</v>
       </c>
-      <c r="CP21" s="19">
+      <c r="CP21" s="27">
         <v>876730.23242540262</v>
       </c>
-      <c r="CQ21" s="19">
+      <c r="CQ21" s="27">
         <v>837079.25550387276</v>
       </c>
-      <c r="CR21" s="19">
+      <c r="CR21" s="27">
         <v>733676.93038351345</v>
       </c>
-      <c r="CS21" s="19">
+      <c r="CS21" s="27">
         <v>715591.82449823397</v>
       </c>
-      <c r="CT21" s="19">
+      <c r="CT21" s="27">
         <v>976950.6723402458</v>
       </c>
-      <c r="CU21" s="19">
-        <v>923974.64390563755</v>
-      </c>
-      <c r="CV21" s="8"/>
+      <c r="CU21" s="27">
+        <v>925167.13920123829</v>
+      </c>
+      <c r="CV21" s="27">
+        <v>766729.51071686659</v>
+      </c>
       <c r="CW21" s="8"/>
       <c r="CX21" s="8"/>
       <c r="CY21" s="8"/>
@@ -4608,12 +4647,13 @@
       <c r="CM22" s="11"/>
       <c r="CN22" s="11"/>
       <c r="CO22" s="11"/>
-      <c r="CP22" s="11"/>
-      <c r="CQ22" s="11"/>
-      <c r="CR22" s="11"/>
-      <c r="CS22" s="11"/>
-      <c r="CT22" s="11"/>
-      <c r="CU22" s="11"/>
+      <c r="CP22" s="28"/>
+      <c r="CQ22" s="28"/>
+      <c r="CR22" s="28"/>
+      <c r="CS22" s="28"/>
+      <c r="CT22" s="28"/>
+      <c r="CU22" s="28"/>
+      <c r="CV22" s="28"/>
     </row>
     <row r="23" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
@@ -4713,13 +4753,13 @@
       <c r="CM24" s="8"/>
       <c r="CN24" s="8"/>
       <c r="CO24" s="8"/>
-      <c r="CP24" s="8"/>
-      <c r="CQ24" s="8"/>
-      <c r="CR24" s="8"/>
-      <c r="CS24" s="8"/>
-      <c r="CT24" s="8"/>
-      <c r="CU24" s="8"/>
-      <c r="CV24" s="8"/>
+      <c r="CP24" s="26"/>
+      <c r="CQ24" s="26"/>
+      <c r="CR24" s="26"/>
+      <c r="CS24" s="26"/>
+      <c r="CT24" s="26"/>
+      <c r="CU24" s="26"/>
+      <c r="CV24" s="26"/>
       <c r="CW24" s="8"/>
       <c r="CX24" s="8"/>
       <c r="CY24" s="8"/>
@@ -4865,13 +4905,13 @@
       <c r="CM25" s="8"/>
       <c r="CN25" s="8"/>
       <c r="CO25" s="8"/>
-      <c r="CP25" s="8"/>
-      <c r="CQ25" s="8"/>
-      <c r="CR25" s="8"/>
-      <c r="CS25" s="8"/>
-      <c r="CT25" s="8"/>
-      <c r="CU25" s="8"/>
-      <c r="CV25" s="8"/>
+      <c r="CP25" s="26"/>
+      <c r="CQ25" s="26"/>
+      <c r="CR25" s="26"/>
+      <c r="CS25" s="26"/>
+      <c r="CT25" s="26"/>
+      <c r="CU25" s="26"/>
+      <c r="CV25" s="26"/>
       <c r="CW25" s="8"/>
       <c r="CX25" s="8"/>
       <c r="CY25" s="8"/>
@@ -4956,132 +4996,132 @@
     </row>
     <row r="34" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="26">
+      <c r="B34" s="36">
         <v>2000</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26">
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36">
         <v>2001</v>
       </c>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26">
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36">
         <v>2002</v>
       </c>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26">
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36">
         <v>2003</v>
       </c>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26">
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36">
         <v>2004</v>
       </c>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26">
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36">
         <v>2005</v>
       </c>
-      <c r="W34" s="26"/>
-      <c r="X34" s="26"/>
-      <c r="Y34" s="26"/>
-      <c r="Z34" s="26">
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="36">
         <v>2006</v>
       </c>
-      <c r="AA34" s="26"/>
-      <c r="AB34" s="26"/>
-      <c r="AC34" s="26"/>
-      <c r="AD34" s="26">
+      <c r="AA34" s="36"/>
+      <c r="AB34" s="36"/>
+      <c r="AC34" s="36"/>
+      <c r="AD34" s="36">
         <v>2007</v>
       </c>
-      <c r="AE34" s="26"/>
-      <c r="AF34" s="26"/>
-      <c r="AG34" s="26"/>
-      <c r="AH34" s="26">
+      <c r="AE34" s="36"/>
+      <c r="AF34" s="36"/>
+      <c r="AG34" s="36"/>
+      <c r="AH34" s="36">
         <v>2008</v>
       </c>
-      <c r="AI34" s="26"/>
-      <c r="AJ34" s="26"/>
-      <c r="AK34" s="26"/>
-      <c r="AL34" s="26">
+      <c r="AI34" s="36"/>
+      <c r="AJ34" s="36"/>
+      <c r="AK34" s="36"/>
+      <c r="AL34" s="36">
         <v>2009</v>
       </c>
-      <c r="AM34" s="26"/>
-      <c r="AN34" s="26"/>
-      <c r="AO34" s="26"/>
-      <c r="AP34" s="26">
+      <c r="AM34" s="36"/>
+      <c r="AN34" s="36"/>
+      <c r="AO34" s="36"/>
+      <c r="AP34" s="36">
         <v>2010</v>
       </c>
-      <c r="AQ34" s="26"/>
-      <c r="AR34" s="26"/>
-      <c r="AS34" s="26"/>
-      <c r="AT34" s="26">
+      <c r="AQ34" s="36"/>
+      <c r="AR34" s="36"/>
+      <c r="AS34" s="36"/>
+      <c r="AT34" s="36">
         <v>2011</v>
       </c>
-      <c r="AU34" s="26"/>
-      <c r="AV34" s="26"/>
-      <c r="AW34" s="26"/>
-      <c r="AX34" s="26">
+      <c r="AU34" s="36"/>
+      <c r="AV34" s="36"/>
+      <c r="AW34" s="36"/>
+      <c r="AX34" s="36">
         <v>2012</v>
       </c>
-      <c r="AY34" s="26"/>
-      <c r="AZ34" s="26"/>
-      <c r="BA34" s="26"/>
-      <c r="BB34" s="26">
+      <c r="AY34" s="36"/>
+      <c r="AZ34" s="36"/>
+      <c r="BA34" s="36"/>
+      <c r="BB34" s="36">
         <v>2013</v>
       </c>
-      <c r="BC34" s="26"/>
-      <c r="BD34" s="26"/>
-      <c r="BE34" s="26"/>
-      <c r="BF34" s="26">
+      <c r="BC34" s="36"/>
+      <c r="BD34" s="36"/>
+      <c r="BE34" s="36"/>
+      <c r="BF34" s="36">
         <v>2014</v>
       </c>
-      <c r="BG34" s="26"/>
-      <c r="BH34" s="26"/>
-      <c r="BI34" s="26"/>
-      <c r="BJ34" s="26">
+      <c r="BG34" s="36"/>
+      <c r="BH34" s="36"/>
+      <c r="BI34" s="36"/>
+      <c r="BJ34" s="36">
         <v>2015</v>
       </c>
-      <c r="BK34" s="26"/>
-      <c r="BL34" s="26"/>
-      <c r="BM34" s="26"/>
-      <c r="BN34" s="26">
+      <c r="BK34" s="36"/>
+      <c r="BL34" s="36"/>
+      <c r="BM34" s="36"/>
+      <c r="BN34" s="36">
         <v>2016</v>
       </c>
-      <c r="BO34" s="26"/>
-      <c r="BP34" s="26"/>
-      <c r="BQ34" s="26"/>
-      <c r="BR34" s="26">
+      <c r="BO34" s="36"/>
+      <c r="BP34" s="36"/>
+      <c r="BQ34" s="36"/>
+      <c r="BR34" s="36">
         <v>2017</v>
       </c>
-      <c r="BS34" s="26"/>
-      <c r="BT34" s="26"/>
-      <c r="BU34" s="26"/>
-      <c r="BV34" s="26">
+      <c r="BS34" s="36"/>
+      <c r="BT34" s="36"/>
+      <c r="BU34" s="36"/>
+      <c r="BV34" s="36">
         <v>2018</v>
       </c>
-      <c r="BW34" s="26"/>
-      <c r="BX34" s="26"/>
-      <c r="BY34" s="26"/>
-      <c r="BZ34" s="26">
+      <c r="BW34" s="36"/>
+      <c r="BX34" s="36"/>
+      <c r="BY34" s="36"/>
+      <c r="BZ34" s="36">
         <v>2019</v>
       </c>
-      <c r="CA34" s="26"/>
-      <c r="CB34" s="26"/>
-      <c r="CC34" s="26"/>
-      <c r="CD34" s="25">
+      <c r="CA34" s="36"/>
+      <c r="CB34" s="36"/>
+      <c r="CC34" s="36"/>
+      <c r="CD34" s="35">
         <v>2020</v>
       </c>
-      <c r="CE34" s="25"/>
-      <c r="CF34" s="25"/>
-      <c r="CG34" s="25"/>
+      <c r="CE34" s="35"/>
+      <c r="CF34" s="35"/>
+      <c r="CG34" s="35"/>
       <c r="CH34" s="21">
         <v>2021</v>
       </c>
@@ -5094,16 +5134,17 @@
       <c r="CM34" s="21"/>
       <c r="CN34" s="21"/>
       <c r="CO34" s="21"/>
-      <c r="CP34" s="21">
+      <c r="CP34" s="24">
         <v>2023</v>
       </c>
-      <c r="CQ34" s="21"/>
-      <c r="CR34" s="21"/>
-      <c r="CS34" s="21"/>
-      <c r="CT34" s="21">
+      <c r="CQ34" s="24"/>
+      <c r="CR34" s="24"/>
+      <c r="CS34" s="24"/>
+      <c r="CT34" s="24">
         <v>2024</v>
       </c>
-      <c r="CU34" s="21"/>
+      <c r="CU34" s="24"/>
+      <c r="CV34" s="24"/>
     </row>
     <row r="35" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
@@ -5383,23 +5424,26 @@
       <c r="CO35" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CP35" s="13" t="s">
+      <c r="CP35" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CQ35" s="13" t="s">
+      <c r="CQ35" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CR35" s="13" t="s">
+      <c r="CR35" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CS35" s="13" t="s">
+      <c r="CS35" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="CT35" s="13" t="s">
+      <c r="CT35" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CU35" s="13" t="s">
+      <c r="CU35" s="29" t="s">
         <v>8</v>
+      </c>
+      <c r="CV35" s="29" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -5685,25 +5729,27 @@
       <c r="CO37" s="18">
         <v>41001.743914789178</v>
       </c>
-      <c r="CP37" s="18">
+      <c r="CP37" s="25">
         <v>66840.507136195039</v>
       </c>
-      <c r="CQ37" s="18">
+      <c r="CQ37" s="25">
         <v>24335.490726229673</v>
       </c>
-      <c r="CR37" s="18">
+      <c r="CR37" s="25">
         <v>39801.249761229999</v>
       </c>
-      <c r="CS37" s="18">
+      <c r="CS37" s="25">
         <v>45097.200111910657</v>
       </c>
-      <c r="CT37" s="18">
+      <c r="CT37" s="25">
         <v>73763.569378939006</v>
       </c>
-      <c r="CU37" s="18">
-        <v>26958.75242415956</v>
-      </c>
-      <c r="CV37" s="8"/>
+      <c r="CU37" s="25">
+        <v>27032.616634089813</v>
+      </c>
+      <c r="CV37" s="25">
+        <v>38852.41629649551</v>
+      </c>
       <c r="CW37" s="8"/>
       <c r="CX37" s="8"/>
       <c r="CY37" s="8"/>
@@ -6036,25 +6082,27 @@
       <c r="CO38" s="18">
         <v>874.3698128567687</v>
       </c>
-      <c r="CP38" s="18">
+      <c r="CP38" s="25">
         <v>401.40117980165178</v>
       </c>
-      <c r="CQ38" s="18">
+      <c r="CQ38" s="25">
         <v>389.08013271399068</v>
       </c>
-      <c r="CR38" s="18">
+      <c r="CR38" s="25">
         <v>775.39169916792036</v>
       </c>
-      <c r="CS38" s="18">
+      <c r="CS38" s="25">
         <v>800.26199980740012</v>
       </c>
-      <c r="CT38" s="18">
+      <c r="CT38" s="25">
         <v>437.00790956349607</v>
       </c>
-      <c r="CU38" s="18">
-        <v>425.47272384273145</v>
-      </c>
-      <c r="CV38" s="8"/>
+      <c r="CU38" s="25">
+        <v>401.18306607121667</v>
+      </c>
+      <c r="CV38" s="25">
+        <v>816.81503332931379</v>
+      </c>
       <c r="CW38" s="8"/>
       <c r="CX38" s="8"/>
       <c r="CY38" s="8"/>
@@ -6387,25 +6435,27 @@
       <c r="CO39" s="18">
         <v>54857.258251901527</v>
       </c>
-      <c r="CP39" s="18">
+      <c r="CP39" s="25">
         <v>104952.98838100983</v>
       </c>
-      <c r="CQ39" s="18">
+      <c r="CQ39" s="25">
         <v>107908.32982931691</v>
       </c>
-      <c r="CR39" s="18">
+      <c r="CR39" s="25">
         <v>139971.22516500723</v>
       </c>
-      <c r="CS39" s="18">
+      <c r="CS39" s="25">
         <v>88041.043596806237</v>
       </c>
-      <c r="CT39" s="18">
+      <c r="CT39" s="25">
         <v>120172.09772732317</v>
       </c>
-      <c r="CU39" s="18">
+      <c r="CU39" s="25">
         <v>132251.56752630067</v>
       </c>
-      <c r="CV39" s="8"/>
+      <c r="CV39" s="25">
+        <v>118168.11838631412</v>
+      </c>
       <c r="CW39" s="8"/>
       <c r="CX39" s="8"/>
       <c r="CY39" s="8"/>
@@ -6738,25 +6788,27 @@
       <c r="CO40" s="18">
         <v>3977.1461621146914</v>
       </c>
-      <c r="CP40" s="18">
+      <c r="CP40" s="25">
         <v>3948.5227029077732</v>
       </c>
-      <c r="CQ40" s="18">
+      <c r="CQ40" s="25">
         <v>4411.1105877597493</v>
       </c>
-      <c r="CR40" s="18">
+      <c r="CR40" s="25">
         <v>4489.0256045275964</v>
       </c>
-      <c r="CS40" s="18">
+      <c r="CS40" s="25">
         <v>4564.4944289546966</v>
       </c>
-      <c r="CT40" s="18">
+      <c r="CT40" s="25">
         <v>4153.7012475273468</v>
       </c>
-      <c r="CU40" s="18">
-        <v>4540.1651977513411</v>
-      </c>
-      <c r="CV40" s="8"/>
+      <c r="CU40" s="25">
+        <v>4563.0866987835352</v>
+      </c>
+      <c r="CV40" s="25">
+        <v>4590.6186378588518</v>
+      </c>
       <c r="CW40" s="8"/>
       <c r="CX40" s="8"/>
       <c r="CY40" s="8"/>
@@ -7089,25 +7141,27 @@
       <c r="CO41" s="18">
         <v>85486.339096444455</v>
       </c>
-      <c r="CP41" s="18">
+      <c r="CP41" s="25">
         <v>132389.96761888449</v>
       </c>
-      <c r="CQ41" s="18">
+      <c r="CQ41" s="25">
         <v>127397.97452047073</v>
       </c>
-      <c r="CR41" s="18">
+      <c r="CR41" s="25">
         <v>88570.644729925349</v>
       </c>
-      <c r="CS41" s="18">
+      <c r="CS41" s="25">
         <v>97408.840224678061</v>
       </c>
-      <c r="CT41" s="18">
+      <c r="CT41" s="25">
         <v>139628.09619555547</v>
       </c>
-      <c r="CU41" s="18">
-        <v>136933.7534025386</v>
-      </c>
-      <c r="CV41" s="8"/>
+      <c r="CU41" s="25">
+        <v>136495.94832704976</v>
+      </c>
+      <c r="CV41" s="25">
+        <v>98232.123883433189</v>
+      </c>
       <c r="CW41" s="8"/>
       <c r="CX41" s="8"/>
       <c r="CY41" s="8"/>
@@ -7440,25 +7494,27 @@
       <c r="CO42" s="18">
         <v>282568.33591674821</v>
       </c>
-      <c r="CP42" s="18">
+      <c r="CP42" s="25">
         <v>370976.65010641125</v>
       </c>
-      <c r="CQ42" s="18">
+      <c r="CQ42" s="25">
         <v>372232.40369391814</v>
       </c>
-      <c r="CR42" s="18">
+      <c r="CR42" s="25">
         <v>279294.63152185868</v>
       </c>
-      <c r="CS42" s="18">
+      <c r="CS42" s="25">
         <v>294572.86033506453</v>
       </c>
-      <c r="CT42" s="18">
+      <c r="CT42" s="25">
         <v>405436.75997405779</v>
       </c>
-      <c r="CU42" s="18">
-        <v>388024.31549253245</v>
-      </c>
-      <c r="CV42" s="8"/>
+      <c r="CU42" s="25">
+        <v>386054.79933357524</v>
+      </c>
+      <c r="CV42" s="25">
+        <v>306808.35544004542</v>
+      </c>
       <c r="CW42" s="8"/>
       <c r="CX42" s="8"/>
       <c r="CY42" s="8"/>
@@ -7791,25 +7847,27 @@
       <c r="CO43" s="18">
         <v>56641.27780498279</v>
       </c>
-      <c r="CP43" s="18">
+      <c r="CP43" s="25">
         <v>56722.129138118144</v>
       </c>
-      <c r="CQ43" s="18">
+      <c r="CQ43" s="25">
         <v>66425.589510680875</v>
       </c>
-      <c r="CR43" s="18">
+      <c r="CR43" s="25">
         <v>54458.070986274273</v>
       </c>
-      <c r="CS43" s="18">
+      <c r="CS43" s="25">
         <v>60129.24129404522</v>
       </c>
-      <c r="CT43" s="18">
+      <c r="CT43" s="25">
         <v>60093.946607444414</v>
       </c>
-      <c r="CU43" s="18">
-        <v>68278.004479713622</v>
-      </c>
-      <c r="CV43" s="8"/>
+      <c r="CU43" s="25">
+        <v>70419.572147320781</v>
+      </c>
+      <c r="CV43" s="25">
+        <v>56900.572938345198</v>
+      </c>
       <c r="CW43" s="8"/>
       <c r="CX43" s="8"/>
       <c r="CY43" s="8"/>
@@ -8142,25 +8200,27 @@
       <c r="CO44" s="18">
         <v>9647.8221918255676</v>
       </c>
-      <c r="CP44" s="18">
+      <c r="CP44" s="25">
         <v>7111.5053813856466</v>
       </c>
-      <c r="CQ44" s="18">
+      <c r="CQ44" s="25">
         <v>9426.9331998502021</v>
       </c>
-      <c r="CR44" s="18">
+      <c r="CR44" s="25">
         <v>7972.0580263325928</v>
       </c>
-      <c r="CS44" s="18">
+      <c r="CS44" s="25">
         <v>10710.381145611891</v>
       </c>
-      <c r="CT44" s="18">
+      <c r="CT44" s="25">
         <v>7509.6085256193328</v>
       </c>
-      <c r="CU44" s="18">
-        <v>11946.285158690835</v>
-      </c>
-      <c r="CV44" s="8"/>
+      <c r="CU44" s="25">
+        <v>13040.133094719178</v>
+      </c>
+      <c r="CV44" s="25">
+        <v>8419.5378904147547</v>
+      </c>
       <c r="CW44" s="8"/>
       <c r="CX44" s="8"/>
       <c r="CY44" s="8"/>
@@ -8306,13 +8366,13 @@
       <c r="CM45" s="8"/>
       <c r="CN45" s="8"/>
       <c r="CO45" s="8"/>
-      <c r="CP45" s="8"/>
-      <c r="CQ45" s="8"/>
-      <c r="CR45" s="8"/>
-      <c r="CS45" s="8"/>
-      <c r="CT45" s="8"/>
-      <c r="CU45" s="8"/>
-      <c r="CV45" s="8"/>
+      <c r="CP45" s="26"/>
+      <c r="CQ45" s="26"/>
+      <c r="CR45" s="26"/>
+      <c r="CS45" s="26"/>
+      <c r="CT45" s="26"/>
+      <c r="CU45" s="26"/>
+      <c r="CV45" s="26"/>
       <c r="CW45" s="8"/>
       <c r="CX45" s="8"/>
       <c r="CY45" s="8"/>
@@ -8645,25 +8705,27 @@
       <c r="CO46" s="19">
         <v>535054.29315166315</v>
       </c>
-      <c r="CP46" s="19">
+      <c r="CP46" s="27">
         <v>743343.67164471385</v>
       </c>
-      <c r="CQ46" s="19">
+      <c r="CQ46" s="27">
         <v>712526.91220094031</v>
       </c>
-      <c r="CR46" s="19">
+      <c r="CR46" s="27">
         <v>615332.29749432369</v>
       </c>
-      <c r="CS46" s="19">
+      <c r="CS46" s="27">
         <v>601324.32313687867</v>
       </c>
-      <c r="CT46" s="19">
+      <c r="CT46" s="27">
         <v>811194.78756603005</v>
       </c>
-      <c r="CU46" s="19">
-        <v>769358.31640552985</v>
-      </c>
-      <c r="CV46" s="8"/>
+      <c r="CU46" s="27">
+        <v>770258.9068279101</v>
+      </c>
+      <c r="CV46" s="27">
+        <v>632788.55850623618</v>
+      </c>
       <c r="CW46" s="8"/>
       <c r="CX46" s="8"/>
       <c r="CY46" s="8"/>
@@ -8810,12 +8872,13 @@
       <c r="CM47" s="11"/>
       <c r="CN47" s="11"/>
       <c r="CO47" s="11"/>
-      <c r="CP47" s="11"/>
-      <c r="CQ47" s="11"/>
-      <c r="CR47" s="11"/>
-      <c r="CS47" s="11"/>
-      <c r="CT47" s="11"/>
-      <c r="CU47" s="11"/>
+      <c r="CP47" s="28"/>
+      <c r="CQ47" s="28"/>
+      <c r="CR47" s="28"/>
+      <c r="CS47" s="28"/>
+      <c r="CT47" s="28"/>
+      <c r="CU47" s="28"/>
+      <c r="CV47" s="28"/>
     </row>
     <row r="48" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
@@ -8915,13 +8978,13 @@
       <c r="CM49" s="8"/>
       <c r="CN49" s="8"/>
       <c r="CO49" s="8"/>
-      <c r="CP49" s="8"/>
-      <c r="CQ49" s="8"/>
-      <c r="CR49" s="8"/>
-      <c r="CS49" s="8"/>
-      <c r="CT49" s="8"/>
-      <c r="CU49" s="8"/>
-      <c r="CV49" s="8"/>
+      <c r="CP49" s="26"/>
+      <c r="CQ49" s="26"/>
+      <c r="CR49" s="26"/>
+      <c r="CS49" s="26"/>
+      <c r="CT49" s="26"/>
+      <c r="CU49" s="26"/>
+      <c r="CV49" s="26"/>
       <c r="CW49" s="8"/>
       <c r="CX49" s="8"/>
       <c r="CY49" s="8"/>
@@ -9067,13 +9130,13 @@
       <c r="CM50" s="8"/>
       <c r="CN50" s="8"/>
       <c r="CO50" s="8"/>
-      <c r="CP50" s="8"/>
-      <c r="CQ50" s="8"/>
-      <c r="CR50" s="8"/>
-      <c r="CS50" s="8"/>
-      <c r="CT50" s="8"/>
-      <c r="CU50" s="8"/>
-      <c r="CV50" s="8"/>
+      <c r="CP50" s="26"/>
+      <c r="CQ50" s="26"/>
+      <c r="CR50" s="26"/>
+      <c r="CS50" s="26"/>
+      <c r="CT50" s="26"/>
+      <c r="CU50" s="26"/>
+      <c r="CV50" s="26"/>
       <c r="CW50" s="8"/>
       <c r="CX50" s="8"/>
       <c r="CY50" s="8"/>
@@ -9145,165 +9208,162 @@
       <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="CP55" s="6"/>
-      <c r="CQ55" s="6"/>
-      <c r="CR55" s="6"/>
-      <c r="CS55" s="6"/>
-      <c r="CT55" s="6"/>
-      <c r="CU55" s="6"/>
+      <c r="CP55" s="30"/>
+      <c r="CQ55" s="30"/>
+      <c r="CR55" s="30"/>
+      <c r="CS55" s="30"/>
+      <c r="CT55" s="30"/>
+      <c r="CU55" s="30"/>
+      <c r="CV55" s="30"/>
     </row>
     <row r="56" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="CP56" s="6"/>
-      <c r="CQ56" s="6"/>
-      <c r="CR56" s="6"/>
-      <c r="CS56" s="6"/>
-      <c r="CT56" s="6"/>
-      <c r="CU56" s="6"/>
+      <c r="CS56" s="30"/>
+      <c r="CT56" s="30"/>
+      <c r="CU56" s="30"/>
+      <c r="CV56" s="30"/>
     </row>
     <row r="57" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="CR57" s="6"/>
-      <c r="CS57" s="6"/>
-      <c r="CU57" s="6"/>
+      <c r="CS57" s="30"/>
+      <c r="CV57" s="30"/>
     </row>
     <row r="58" spans="1:151" x14ac:dyDescent="0.2">
-      <c r="CR58" s="6"/>
-      <c r="CS58" s="6"/>
-      <c r="CU58" s="6"/>
+      <c r="CS58" s="30"/>
+      <c r="CV58" s="30"/>
     </row>
     <row r="59" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25" t="s">
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="25" t="s">
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="K59" s="25"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="25" t="s">
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="O59" s="25"/>
-      <c r="P59" s="25"/>
-      <c r="Q59" s="25"/>
-      <c r="R59" s="25" t="s">
+      <c r="O59" s="35"/>
+      <c r="P59" s="35"/>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="S59" s="25"/>
-      <c r="T59" s="25"/>
-      <c r="U59" s="25"/>
-      <c r="V59" s="25" t="s">
+      <c r="S59" s="35"/>
+      <c r="T59" s="35"/>
+      <c r="U59" s="35"/>
+      <c r="V59" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="W59" s="25"/>
-      <c r="X59" s="25"/>
-      <c r="Y59" s="25"/>
-      <c r="Z59" s="25" t="s">
+      <c r="W59" s="35"/>
+      <c r="X59" s="35"/>
+      <c r="Y59" s="35"/>
+      <c r="Z59" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="AA59" s="25"/>
-      <c r="AB59" s="25"/>
-      <c r="AC59" s="25"/>
-      <c r="AD59" s="25" t="s">
+      <c r="AA59" s="35"/>
+      <c r="AB59" s="35"/>
+      <c r="AC59" s="35"/>
+      <c r="AD59" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AE59" s="25"/>
-      <c r="AF59" s="25"/>
-      <c r="AG59" s="25"/>
-      <c r="AH59" s="25" t="s">
+      <c r="AE59" s="35"/>
+      <c r="AF59" s="35"/>
+      <c r="AG59" s="35"/>
+      <c r="AH59" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AI59" s="25"/>
-      <c r="AJ59" s="25"/>
-      <c r="AK59" s="25"/>
-      <c r="AL59" s="25" t="s">
+      <c r="AI59" s="35"/>
+      <c r="AJ59" s="35"/>
+      <c r="AK59" s="35"/>
+      <c r="AL59" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="AM59" s="25"/>
-      <c r="AN59" s="25"/>
-      <c r="AO59" s="25"/>
-      <c r="AP59" s="25" t="s">
+      <c r="AM59" s="35"/>
+      <c r="AN59" s="35"/>
+      <c r="AO59" s="35"/>
+      <c r="AP59" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AQ59" s="25"/>
-      <c r="AR59" s="25"/>
-      <c r="AS59" s="25"/>
-      <c r="AT59" s="25" t="s">
+      <c r="AQ59" s="35"/>
+      <c r="AR59" s="35"/>
+      <c r="AS59" s="35"/>
+      <c r="AT59" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="AU59" s="25"/>
-      <c r="AV59" s="25"/>
-      <c r="AW59" s="25"/>
-      <c r="AX59" s="25" t="s">
+      <c r="AU59" s="35"/>
+      <c r="AV59" s="35"/>
+      <c r="AW59" s="35"/>
+      <c r="AX59" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="AY59" s="25"/>
-      <c r="AZ59" s="25"/>
-      <c r="BA59" s="25"/>
-      <c r="BB59" s="25" t="s">
+      <c r="AY59" s="35"/>
+      <c r="AZ59" s="35"/>
+      <c r="BA59" s="35"/>
+      <c r="BB59" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="BC59" s="25"/>
-      <c r="BD59" s="25"/>
-      <c r="BE59" s="25"/>
-      <c r="BF59" s="25" t="s">
+      <c r="BC59" s="35"/>
+      <c r="BD59" s="35"/>
+      <c r="BE59" s="35"/>
+      <c r="BF59" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="BG59" s="25"/>
-      <c r="BH59" s="25"/>
-      <c r="BI59" s="25"/>
-      <c r="BJ59" s="25" t="s">
+      <c r="BG59" s="35"/>
+      <c r="BH59" s="35"/>
+      <c r="BI59" s="35"/>
+      <c r="BJ59" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="BK59" s="25"/>
-      <c r="BL59" s="25"/>
-      <c r="BM59" s="25"/>
-      <c r="BN59" s="25" t="s">
+      <c r="BK59" s="35"/>
+      <c r="BL59" s="35"/>
+      <c r="BM59" s="35"/>
+      <c r="BN59" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="BO59" s="25"/>
-      <c r="BP59" s="25"/>
-      <c r="BQ59" s="25"/>
-      <c r="BR59" s="25" t="s">
+      <c r="BO59" s="35"/>
+      <c r="BP59" s="35"/>
+      <c r="BQ59" s="35"/>
+      <c r="BR59" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="BS59" s="25"/>
-      <c r="BT59" s="25"/>
-      <c r="BU59" s="25"/>
-      <c r="BV59" s="25" t="s">
+      <c r="BS59" s="35"/>
+      <c r="BT59" s="35"/>
+      <c r="BU59" s="35"/>
+      <c r="BV59" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="BW59" s="25"/>
-      <c r="BX59" s="25"/>
-      <c r="BY59" s="25"/>
-      <c r="BZ59" s="25" t="s">
+      <c r="BW59" s="35"/>
+      <c r="BX59" s="35"/>
+      <c r="BY59" s="35"/>
+      <c r="BZ59" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="CA59" s="25"/>
-      <c r="CB59" s="25"/>
-      <c r="CC59" s="25"/>
-      <c r="CD59" s="25" t="s">
+      <c r="CA59" s="35"/>
+      <c r="CB59" s="35"/>
+      <c r="CC59" s="35"/>
+      <c r="CD59" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="CE59" s="25"/>
-      <c r="CF59" s="25"/>
-      <c r="CG59" s="25"/>
+      <c r="CE59" s="35"/>
+      <c r="CF59" s="35"/>
+      <c r="CG59" s="35"/>
       <c r="CH59" s="21" t="s">
         <v>52</v>
       </c>
@@ -9316,14 +9376,15 @@
       <c r="CM59" s="21"/>
       <c r="CN59" s="21"/>
       <c r="CO59" s="21"/>
-      <c r="CP59" s="21" t="s">
+      <c r="CP59" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="CQ59" s="21"/>
-      <c r="CR59" s="22"/>
+      <c r="CQ59" s="24"/>
+      <c r="CR59" s="24"/>
       <c r="CS59" s="22"/>
-      <c r="CT59" s="21"/>
-      <c r="CU59" s="22"/>
+      <c r="CT59" s="24"/>
+      <c r="CU59" s="24"/>
+      <c r="CV59" s="22"/>
     </row>
     <row r="60" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
@@ -9603,22 +9664,24 @@
       <c r="CO60" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CP60" s="13" t="s">
+      <c r="CP60" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CQ60" s="13" t="s">
+      <c r="CQ60" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CR60" s="13"/>
-      <c r="CS60" s="13"/>
-      <c r="CT60" s="13"/>
-      <c r="CU60" s="13"/>
+      <c r="CR60" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="CS60" s="29"/>
+      <c r="CT60" s="29"/>
+      <c r="CU60" s="29"/>
+      <c r="CV60" s="29"/>
     </row>
     <row r="61" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
-      <c r="CR61" s="6"/>
-      <c r="CS61" s="6"/>
-      <c r="CU61" s="6"/>
+      <c r="CS61" s="30"/>
+      <c r="CV61" s="30"/>
     </row>
     <row r="62" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -9900,17 +9963,19 @@
       <c r="CO62" s="14">
         <v>12.595581900616963</v>
       </c>
-      <c r="CP62" s="14">
+      <c r="CP62" s="31">
         <v>12.373074369915457</v>
       </c>
-      <c r="CQ62" s="14">
-        <v>10.653916472298206</v>
-      </c>
-      <c r="CR62" s="23"/>
-      <c r="CS62" s="23"/>
-      <c r="CT62" s="14"/>
-      <c r="CU62" s="23"/>
-      <c r="CV62" s="8"/>
+      <c r="CQ62" s="31">
+        <v>10.957096826764072</v>
+      </c>
+      <c r="CR62" s="31">
+        <v>-2.4697354809294723</v>
+      </c>
+      <c r="CS62" s="32"/>
+      <c r="CT62" s="31"/>
+      <c r="CU62" s="31"/>
+      <c r="CV62" s="32"/>
       <c r="CW62" s="8"/>
       <c r="CX62" s="8"/>
       <c r="CY62" s="8"/>
@@ -10239,17 +10304,19 @@
       <c r="CO63" s="14">
         <v>-5.7511235051855465</v>
       </c>
-      <c r="CP63" s="14">
+      <c r="CP63" s="31">
         <v>11.321529650063567</v>
       </c>
-      <c r="CQ63" s="14">
-        <v>11.993715039622984</v>
-      </c>
-      <c r="CR63" s="23"/>
-      <c r="CS63" s="23"/>
-      <c r="CT63" s="14"/>
-      <c r="CU63" s="23"/>
-      <c r="CV63" s="8"/>
+      <c r="CQ63" s="31">
+        <v>5.600146525279186</v>
+      </c>
+      <c r="CR63" s="31">
+        <v>8.264236171770392</v>
+      </c>
+      <c r="CS63" s="32"/>
+      <c r="CT63" s="31"/>
+      <c r="CU63" s="31"/>
+      <c r="CV63" s="32"/>
       <c r="CW63" s="8"/>
       <c r="CX63" s="8"/>
       <c r="CY63" s="8"/>
@@ -10578,17 +10645,19 @@
       <c r="CO64" s="14">
         <v>67.431544333633241</v>
       </c>
-      <c r="CP64" s="14">
+      <c r="CP64" s="31">
         <v>18.255808080987705</v>
       </c>
-      <c r="CQ64" s="14">
+      <c r="CQ64" s="31">
         <v>26.473626948390262</v>
       </c>
-      <c r="CR64" s="23"/>
-      <c r="CS64" s="23"/>
-      <c r="CT64" s="14"/>
-      <c r="CU64" s="23"/>
-      <c r="CV64" s="8"/>
+      <c r="CR64" s="31">
+        <v>-14.581012609599711</v>
+      </c>
+      <c r="CS64" s="32"/>
+      <c r="CT64" s="31"/>
+      <c r="CU64" s="31"/>
+      <c r="CV64" s="32"/>
       <c r="CW64" s="8"/>
       <c r="CX64" s="8"/>
       <c r="CY64" s="8"/>
@@ -10917,17 +10986,19 @@
       <c r="CO65" s="14">
         <v>19.608787551606682</v>
       </c>
-      <c r="CP65" s="14">
+      <c r="CP65" s="31">
         <v>8.9218621598278673</v>
       </c>
-      <c r="CQ65" s="14">
-        <v>4.9053281335405643</v>
-      </c>
-      <c r="CR65" s="23"/>
-      <c r="CS65" s="23"/>
-      <c r="CT65" s="14"/>
-      <c r="CU65" s="23"/>
-      <c r="CV65" s="8"/>
+      <c r="CQ65" s="31">
+        <v>5.434953704937513</v>
+      </c>
+      <c r="CR65" s="31">
+        <v>4.7213918931851424</v>
+      </c>
+      <c r="CS65" s="32"/>
+      <c r="CT65" s="31"/>
+      <c r="CU65" s="31"/>
+      <c r="CV65" s="32"/>
       <c r="CW65" s="8"/>
       <c r="CX65" s="8"/>
       <c r="CY65" s="8"/>
@@ -11256,17 +11327,19 @@
       <c r="CO66" s="14">
         <v>14.317884840937054</v>
       </c>
-      <c r="CP66" s="14">
+      <c r="CP66" s="31">
         <v>5.9969860589665416</v>
       </c>
-      <c r="CQ66" s="14">
-        <v>7.9400042174752912</v>
-      </c>
-      <c r="CR66" s="23"/>
-      <c r="CS66" s="23"/>
-      <c r="CT66" s="14"/>
-      <c r="CU66" s="23"/>
-      <c r="CV66" s="8"/>
+      <c r="CQ66" s="31">
+        <v>7.5949099210423867</v>
+      </c>
+      <c r="CR66" s="31">
+        <v>11.665640138415839</v>
+      </c>
+      <c r="CS66" s="32"/>
+      <c r="CT66" s="31"/>
+      <c r="CU66" s="31"/>
+      <c r="CV66" s="32"/>
       <c r="CW66" s="8"/>
       <c r="CX66" s="8"/>
       <c r="CY66" s="8"/>
@@ -11595,17 +11668,19 @@
       <c r="CO67" s="14">
         <v>7.2652728936842408</v>
       </c>
-      <c r="CP67" s="14">
+      <c r="CP67" s="31">
         <v>11.510351210896232</v>
       </c>
-      <c r="CQ67" s="14">
-        <v>6.7593073990803703</v>
-      </c>
-      <c r="CR67" s="23"/>
-      <c r="CS67" s="23"/>
-      <c r="CT67" s="14"/>
-      <c r="CU67" s="23"/>
-      <c r="CV67" s="8"/>
+      <c r="CQ67" s="31">
+        <v>6.2174233659246738</v>
+      </c>
+      <c r="CR67" s="31">
+        <v>12.899133999394991</v>
+      </c>
+      <c r="CS67" s="32"/>
+      <c r="CT67" s="31"/>
+      <c r="CU67" s="31"/>
+      <c r="CV67" s="32"/>
       <c r="CW67" s="8"/>
       <c r="CX67" s="8"/>
       <c r="CY67" s="8"/>
@@ -11934,17 +12009,19 @@
       <c r="CO68" s="14">
         <v>7.917711071920877</v>
       </c>
-      <c r="CP68" s="14">
+      <c r="CP68" s="31">
         <v>8.3294940811998117</v>
       </c>
-      <c r="CQ68" s="14">
-        <v>5.2704272045858858</v>
-      </c>
-      <c r="CR68" s="23"/>
-      <c r="CS68" s="23"/>
-      <c r="CT68" s="14"/>
-      <c r="CU68" s="23"/>
-      <c r="CV68" s="8"/>
+      <c r="CQ68" s="31">
+        <v>8.5722774120493597</v>
+      </c>
+      <c r="CR68" s="31">
+        <v>7.383320000662394</v>
+      </c>
+      <c r="CS68" s="32"/>
+      <c r="CT68" s="31"/>
+      <c r="CU68" s="31"/>
+      <c r="CV68" s="32"/>
       <c r="CW68" s="8"/>
       <c r="CX68" s="8"/>
       <c r="CY68" s="8"/>
@@ -12273,17 +12350,19 @@
       <c r="CO69" s="14">
         <v>14.318042026160384</v>
       </c>
-      <c r="CP69" s="14">
+      <c r="CP69" s="31">
         <v>7.8810683390206293</v>
       </c>
-      <c r="CQ69" s="14">
-        <v>29.784679957728343</v>
-      </c>
-      <c r="CR69" s="23"/>
-      <c r="CS69" s="23"/>
-      <c r="CT69" s="14"/>
-      <c r="CU69" s="23"/>
-      <c r="CV69" s="8"/>
+      <c r="CQ69" s="31">
+        <v>41.668265726362222</v>
+      </c>
+      <c r="CR69" s="31">
+        <v>8.5426064003939075</v>
+      </c>
+      <c r="CS69" s="32"/>
+      <c r="CT69" s="31"/>
+      <c r="CU69" s="31"/>
+      <c r="CV69" s="32"/>
       <c r="CW69" s="8"/>
       <c r="CX69" s="8"/>
       <c r="CY69" s="8"/>
@@ -12425,13 +12504,13 @@
       <c r="CM70" s="8"/>
       <c r="CN70" s="8"/>
       <c r="CO70" s="8"/>
-      <c r="CP70" s="8"/>
-      <c r="CQ70" s="8"/>
-      <c r="CR70" s="24"/>
-      <c r="CS70" s="24"/>
-      <c r="CT70" s="8"/>
-      <c r="CU70" s="24"/>
-      <c r="CV70" s="8"/>
+      <c r="CP70" s="26"/>
+      <c r="CQ70" s="26"/>
+      <c r="CR70" s="26"/>
+      <c r="CS70" s="33"/>
+      <c r="CT70" s="26"/>
+      <c r="CU70" s="26"/>
+      <c r="CV70" s="33"/>
       <c r="CW70" s="8"/>
       <c r="CX70" s="8"/>
       <c r="CY70" s="8"/>
@@ -12760,17 +12839,19 @@
       <c r="CO71" s="14">
         <v>15.22220251521378</v>
       </c>
-      <c r="CP71" s="14">
+      <c r="CP71" s="31">
         <v>11.431160487940687</v>
       </c>
-      <c r="CQ71" s="14">
-        <v>10.380783878040177</v>
-      </c>
-      <c r="CR71" s="23"/>
-      <c r="CS71" s="23"/>
-      <c r="CT71" s="14"/>
-      <c r="CU71" s="23"/>
-      <c r="CV71" s="8"/>
+      <c r="CQ71" s="31">
+        <v>10.523242944820296</v>
+      </c>
+      <c r="CR71" s="31">
+        <v>4.5050592385500892</v>
+      </c>
+      <c r="CS71" s="32"/>
+      <c r="CT71" s="31"/>
+      <c r="CU71" s="31"/>
+      <c r="CV71" s="32"/>
       <c r="CW71" s="8"/>
       <c r="CX71" s="8"/>
       <c r="CY71" s="8"/>
@@ -12913,20 +12994,20 @@
       <c r="CM72" s="11"/>
       <c r="CN72" s="11"/>
       <c r="CO72" s="11"/>
-      <c r="CP72" s="11"/>
-      <c r="CQ72" s="11"/>
-      <c r="CR72" s="5"/>
-      <c r="CS72" s="5"/>
-      <c r="CT72" s="11"/>
-      <c r="CU72" s="5"/>
+      <c r="CP72" s="28"/>
+      <c r="CQ72" s="28"/>
+      <c r="CR72" s="28"/>
+      <c r="CS72" s="13"/>
+      <c r="CT72" s="28"/>
+      <c r="CU72" s="28"/>
+      <c r="CV72" s="13"/>
     </row>
     <row r="73" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="CR73" s="6"/>
-      <c r="CS73" s="6"/>
-      <c r="CU73" s="6"/>
+      <c r="CS73" s="30"/>
+      <c r="CV73" s="30"/>
     </row>
     <row r="74" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="8"/>
@@ -13021,13 +13102,13 @@
       <c r="CM74" s="8"/>
       <c r="CN74" s="8"/>
       <c r="CO74" s="8"/>
-      <c r="CP74" s="8"/>
-      <c r="CQ74" s="8"/>
-      <c r="CR74" s="24"/>
-      <c r="CS74" s="24"/>
-      <c r="CT74" s="8"/>
-      <c r="CU74" s="24"/>
-      <c r="CV74" s="8"/>
+      <c r="CP74" s="26"/>
+      <c r="CQ74" s="26"/>
+      <c r="CR74" s="26"/>
+      <c r="CS74" s="33"/>
+      <c r="CT74" s="26"/>
+      <c r="CU74" s="26"/>
+      <c r="CV74" s="33"/>
       <c r="CW74" s="8"/>
       <c r="CX74" s="8"/>
       <c r="CY74" s="8"/>
@@ -13169,13 +13250,13 @@
       <c r="CM75" s="8"/>
       <c r="CN75" s="8"/>
       <c r="CO75" s="8"/>
-      <c r="CP75" s="8"/>
-      <c r="CQ75" s="8"/>
-      <c r="CR75" s="24"/>
-      <c r="CS75" s="24"/>
-      <c r="CT75" s="8"/>
-      <c r="CU75" s="24"/>
-      <c r="CV75" s="8"/>
+      <c r="CP75" s="26"/>
+      <c r="CQ75" s="26"/>
+      <c r="CR75" s="26"/>
+      <c r="CS75" s="33"/>
+      <c r="CT75" s="26"/>
+      <c r="CU75" s="26"/>
+      <c r="CV75" s="33"/>
       <c r="CW75" s="8"/>
       <c r="CX75" s="8"/>
       <c r="CY75" s="8"/>
@@ -13228,188 +13309,180 @@
       <c r="A76" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="CR76" s="6"/>
-      <c r="CS76" s="6"/>
-      <c r="CU76" s="6"/>
+      <c r="CS76" s="30"/>
+      <c r="CV76" s="30"/>
     </row>
     <row r="77" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CR77" s="6"/>
-      <c r="CS77" s="6"/>
-      <c r="CU77" s="6"/>
+      <c r="CS77" s="30"/>
+      <c r="CV77" s="30"/>
     </row>
     <row r="78" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="CR78" s="6"/>
-      <c r="CS78" s="6"/>
-      <c r="CU78" s="6"/>
+      <c r="CS78" s="30"/>
+      <c r="CV78" s="30"/>
     </row>
     <row r="79" spans="1:147" x14ac:dyDescent="0.2">
-      <c r="CR79" s="6"/>
-      <c r="CS79" s="6"/>
-      <c r="CU79" s="6"/>
+      <c r="CS79" s="30"/>
+      <c r="CV79" s="30"/>
     </row>
     <row r="80" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="CR80" s="6"/>
-      <c r="CS80" s="6"/>
-      <c r="CU80" s="6"/>
+      <c r="CS80" s="30"/>
+      <c r="CV80" s="30"/>
     </row>
     <row r="81" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="CR81" s="6"/>
-      <c r="CS81" s="6"/>
-      <c r="CU81" s="6"/>
+      <c r="CS81" s="30"/>
+      <c r="CV81" s="30"/>
     </row>
     <row r="82" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="CR82" s="6"/>
-      <c r="CS82" s="6"/>
-      <c r="CU82" s="6"/>
+      <c r="CS82" s="30"/>
+      <c r="CV82" s="30"/>
     </row>
     <row r="83" spans="1:147" x14ac:dyDescent="0.2">
-      <c r="CR83" s="6"/>
-      <c r="CS83" s="6"/>
-      <c r="CU83" s="6"/>
+      <c r="CS83" s="30"/>
+      <c r="CV83" s="30"/>
     </row>
     <row r="84" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
-      <c r="B84" s="25" t="s">
+      <c r="B84" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25" t="s">
+      <c r="C84" s="35"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="25" t="s">
+      <c r="G84" s="35"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="35"/>
+      <c r="J84" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="K84" s="25"/>
-      <c r="L84" s="25"/>
-      <c r="M84" s="25"/>
-      <c r="N84" s="25" t="s">
+      <c r="K84" s="35"/>
+      <c r="L84" s="35"/>
+      <c r="M84" s="35"/>
+      <c r="N84" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="O84" s="25"/>
-      <c r="P84" s="25"/>
-      <c r="Q84" s="25"/>
-      <c r="R84" s="25" t="s">
+      <c r="O84" s="35"/>
+      <c r="P84" s="35"/>
+      <c r="Q84" s="35"/>
+      <c r="R84" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="S84" s="25"/>
-      <c r="T84" s="25"/>
-      <c r="U84" s="25"/>
-      <c r="V84" s="25" t="s">
+      <c r="S84" s="35"/>
+      <c r="T84" s="35"/>
+      <c r="U84" s="35"/>
+      <c r="V84" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="W84" s="25"/>
-      <c r="X84" s="25"/>
-      <c r="Y84" s="25"/>
-      <c r="Z84" s="25" t="s">
+      <c r="W84" s="35"/>
+      <c r="X84" s="35"/>
+      <c r="Y84" s="35"/>
+      <c r="Z84" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="AA84" s="25"/>
-      <c r="AB84" s="25"/>
-      <c r="AC84" s="25"/>
-      <c r="AD84" s="25" t="s">
+      <c r="AA84" s="35"/>
+      <c r="AB84" s="35"/>
+      <c r="AC84" s="35"/>
+      <c r="AD84" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AE84" s="25"/>
-      <c r="AF84" s="25"/>
-      <c r="AG84" s="25"/>
-      <c r="AH84" s="25" t="s">
+      <c r="AE84" s="35"/>
+      <c r="AF84" s="35"/>
+      <c r="AG84" s="35"/>
+      <c r="AH84" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AI84" s="25"/>
-      <c r="AJ84" s="25"/>
-      <c r="AK84" s="25"/>
-      <c r="AL84" s="25" t="s">
+      <c r="AI84" s="35"/>
+      <c r="AJ84" s="35"/>
+      <c r="AK84" s="35"/>
+      <c r="AL84" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="AM84" s="25"/>
-      <c r="AN84" s="25"/>
-      <c r="AO84" s="25"/>
-      <c r="AP84" s="25" t="s">
+      <c r="AM84" s="35"/>
+      <c r="AN84" s="35"/>
+      <c r="AO84" s="35"/>
+      <c r="AP84" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AQ84" s="25"/>
-      <c r="AR84" s="25"/>
-      <c r="AS84" s="25"/>
-      <c r="AT84" s="25" t="s">
+      <c r="AQ84" s="35"/>
+      <c r="AR84" s="35"/>
+      <c r="AS84" s="35"/>
+      <c r="AT84" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="AU84" s="25"/>
-      <c r="AV84" s="25"/>
-      <c r="AW84" s="25"/>
-      <c r="AX84" s="25" t="s">
+      <c r="AU84" s="35"/>
+      <c r="AV84" s="35"/>
+      <c r="AW84" s="35"/>
+      <c r="AX84" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="AY84" s="25"/>
-      <c r="AZ84" s="25"/>
-      <c r="BA84" s="25"/>
-      <c r="BB84" s="25" t="s">
+      <c r="AY84" s="35"/>
+      <c r="AZ84" s="35"/>
+      <c r="BA84" s="35"/>
+      <c r="BB84" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="BC84" s="25"/>
-      <c r="BD84" s="25"/>
-      <c r="BE84" s="25"/>
-      <c r="BF84" s="25" t="s">
+      <c r="BC84" s="35"/>
+      <c r="BD84" s="35"/>
+      <c r="BE84" s="35"/>
+      <c r="BF84" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="BG84" s="25"/>
-      <c r="BH84" s="25"/>
-      <c r="BI84" s="25"/>
-      <c r="BJ84" s="25" t="s">
+      <c r="BG84" s="35"/>
+      <c r="BH84" s="35"/>
+      <c r="BI84" s="35"/>
+      <c r="BJ84" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="BK84" s="25"/>
-      <c r="BL84" s="25"/>
-      <c r="BM84" s="25"/>
-      <c r="BN84" s="25" t="s">
+      <c r="BK84" s="35"/>
+      <c r="BL84" s="35"/>
+      <c r="BM84" s="35"/>
+      <c r="BN84" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="BO84" s="25"/>
-      <c r="BP84" s="25"/>
-      <c r="BQ84" s="25"/>
-      <c r="BR84" s="25" t="s">
+      <c r="BO84" s="35"/>
+      <c r="BP84" s="35"/>
+      <c r="BQ84" s="35"/>
+      <c r="BR84" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="BS84" s="25"/>
-      <c r="BT84" s="25"/>
-      <c r="BU84" s="25"/>
-      <c r="BV84" s="25" t="s">
+      <c r="BS84" s="35"/>
+      <c r="BT84" s="35"/>
+      <c r="BU84" s="35"/>
+      <c r="BV84" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="BW84" s="25"/>
-      <c r="BX84" s="25"/>
-      <c r="BY84" s="25"/>
-      <c r="BZ84" s="25" t="s">
+      <c r="BW84" s="35"/>
+      <c r="BX84" s="35"/>
+      <c r="BY84" s="35"/>
+      <c r="BZ84" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="CA84" s="25"/>
-      <c r="CB84" s="25"/>
-      <c r="CC84" s="25"/>
-      <c r="CD84" s="25" t="s">
+      <c r="CA84" s="35"/>
+      <c r="CB84" s="35"/>
+      <c r="CC84" s="35"/>
+      <c r="CD84" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="CE84" s="25"/>
-      <c r="CF84" s="25"/>
-      <c r="CG84" s="25"/>
+      <c r="CE84" s="35"/>
+      <c r="CF84" s="35"/>
+      <c r="CG84" s="35"/>
       <c r="CH84" s="21" t="s">
         <v>52</v>
       </c>
@@ -13422,14 +13495,15 @@
       <c r="CM84" s="21"/>
       <c r="CN84" s="21"/>
       <c r="CO84" s="21"/>
-      <c r="CP84" s="21" t="s">
+      <c r="CP84" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="CQ84" s="21"/>
-      <c r="CR84" s="22"/>
+      <c r="CQ84" s="24"/>
+      <c r="CR84" s="24"/>
       <c r="CS84" s="22"/>
-      <c r="CT84" s="21"/>
-      <c r="CU84" s="22"/>
+      <c r="CT84" s="24"/>
+      <c r="CU84" s="24"/>
+      <c r="CV84" s="22"/>
     </row>
     <row r="85" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
@@ -13709,22 +13783,24 @@
       <c r="CO85" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CP85" s="5" t="s">
+      <c r="CP85" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CQ85" s="5" t="s">
+      <c r="CQ85" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="CR85" s="5"/>
-      <c r="CS85" s="5"/>
-      <c r="CT85" s="5"/>
-      <c r="CU85" s="5"/>
+      <c r="CR85" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="CS85" s="13"/>
+      <c r="CT85" s="13"/>
+      <c r="CU85" s="13"/>
+      <c r="CV85" s="13"/>
     </row>
     <row r="86" spans="1:147" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
-      <c r="CR86" s="6"/>
-      <c r="CS86" s="6"/>
-      <c r="CU86" s="6"/>
+      <c r="CS86" s="30"/>
+      <c r="CV86" s="30"/>
     </row>
     <row r="87" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
@@ -14006,17 +14082,19 @@
       <c r="CO87" s="14">
         <v>9.9884926983417017</v>
       </c>
-      <c r="CP87" s="14">
+      <c r="CP87" s="31">
         <v>10.357584852905816</v>
       </c>
-      <c r="CQ87" s="14">
-        <v>10.779571809096254</v>
-      </c>
-      <c r="CR87" s="23"/>
-      <c r="CS87" s="23"/>
-      <c r="CT87" s="14"/>
-      <c r="CU87" s="23"/>
-      <c r="CV87" s="8"/>
+      <c r="CQ87" s="31">
+        <v>11.083096446265955</v>
+      </c>
+      <c r="CR87" s="31">
+        <v>-2.3839288224028081</v>
+      </c>
+      <c r="CS87" s="32"/>
+      <c r="CT87" s="31"/>
+      <c r="CU87" s="31"/>
+      <c r="CV87" s="32"/>
       <c r="CW87" s="8"/>
       <c r="CX87" s="8"/>
       <c r="CY87" s="8"/>
@@ -14345,17 +14423,19 @@
       <c r="CO88" s="14">
         <v>-8.4755685706075781</v>
       </c>
-      <c r="CP88" s="14">
+      <c r="CP88" s="31">
         <v>8.8706091445568234</v>
       </c>
-      <c r="CQ88" s="14">
-        <v>9.3534950949275526</v>
-      </c>
-      <c r="CR88" s="23"/>
-      <c r="CS88" s="23"/>
-      <c r="CT88" s="14"/>
-      <c r="CU88" s="23"/>
-      <c r="CV88" s="8"/>
+      <c r="CQ88" s="31">
+        <v>3.1106531379032845</v>
+      </c>
+      <c r="CR88" s="31">
+        <v>5.3422462744758832</v>
+      </c>
+      <c r="CS88" s="32"/>
+      <c r="CT88" s="31"/>
+      <c r="CU88" s="31"/>
+      <c r="CV88" s="32"/>
       <c r="CW88" s="8"/>
       <c r="CX88" s="8"/>
       <c r="CY88" s="8"/>
@@ -14684,17 +14764,19 @@
       <c r="CO89" s="14">
         <v>60.491148122143812</v>
       </c>
-      <c r="CP89" s="14">
+      <c r="CP89" s="31">
         <v>14.500882329394528</v>
       </c>
-      <c r="CQ89" s="14">
+      <c r="CQ89" s="31">
         <v>22.559183091322495</v>
       </c>
-      <c r="CR89" s="23"/>
-      <c r="CS89" s="23"/>
-      <c r="CT89" s="14"/>
-      <c r="CU89" s="23"/>
-      <c r="CV89" s="8"/>
+      <c r="CR89" s="31">
+        <v>-15.57684927955026</v>
+      </c>
+      <c r="CS89" s="32"/>
+      <c r="CT89" s="31"/>
+      <c r="CU89" s="31"/>
+      <c r="CV89" s="32"/>
       <c r="CW89" s="8"/>
       <c r="CX89" s="8"/>
       <c r="CY89" s="8"/>
@@ -15023,17 +15105,19 @@
       <c r="CO90" s="14">
         <v>14.768083517647383</v>
       </c>
-      <c r="CP90" s="14">
+      <c r="CP90" s="31">
         <v>5.1963369608708518</v>
       </c>
-      <c r="CQ90" s="14">
-        <v>2.9256716063682688</v>
-      </c>
-      <c r="CR90" s="23"/>
-      <c r="CS90" s="23"/>
-      <c r="CT90" s="14"/>
-      <c r="CU90" s="23"/>
-      <c r="CV90" s="8"/>
+      <c r="CQ90" s="31">
+        <v>3.445302673786955</v>
+      </c>
+      <c r="CR90" s="31">
+        <v>2.2631422112805382</v>
+      </c>
+      <c r="CS90" s="32"/>
+      <c r="CT90" s="31"/>
+      <c r="CU90" s="31"/>
+      <c r="CV90" s="32"/>
       <c r="CW90" s="8"/>
       <c r="CX90" s="8"/>
       <c r="CY90" s="8"/>
@@ -15362,17 +15446,19 @@
       <c r="CO91" s="14">
         <v>13.94667411688178</v>
       </c>
-      <c r="CP91" s="14">
+      <c r="CP91" s="31">
         <v>5.4672787574868522</v>
       </c>
-      <c r="CQ91" s="14">
-        <v>7.4850317816753176</v>
-      </c>
-      <c r="CR91" s="23"/>
-      <c r="CS91" s="23"/>
-      <c r="CT91" s="14"/>
-      <c r="CU91" s="23"/>
-      <c r="CV91" s="8"/>
+      <c r="CQ91" s="31">
+        <v>7.1413802619892692</v>
+      </c>
+      <c r="CR91" s="31">
+        <v>10.908218160732801</v>
+      </c>
+      <c r="CS91" s="32"/>
+      <c r="CT91" s="31"/>
+      <c r="CU91" s="31"/>
+      <c r="CV91" s="32"/>
       <c r="CW91" s="8"/>
       <c r="CX91" s="8"/>
       <c r="CY91" s="8"/>
@@ -15701,17 +15787,19 @@
       <c r="CO92" s="14">
         <v>4.2483615085071591</v>
       </c>
-      <c r="CP92" s="14">
+      <c r="CP92" s="31">
         <v>9.2890239473999259</v>
       </c>
-      <c r="CQ92" s="14">
-        <v>4.2424871241461943</v>
-      </c>
-      <c r="CR92" s="23"/>
-      <c r="CS92" s="23"/>
-      <c r="CT92" s="14"/>
-      <c r="CU92" s="23"/>
-      <c r="CV92" s="8"/>
+      <c r="CQ92" s="31">
+        <v>3.7133778527844328</v>
+      </c>
+      <c r="CR92" s="31">
+        <v>9.8511467149462248</v>
+      </c>
+      <c r="CS92" s="32"/>
+      <c r="CT92" s="31"/>
+      <c r="CU92" s="31"/>
+      <c r="CV92" s="32"/>
       <c r="CW92" s="8"/>
       <c r="CX92" s="8"/>
       <c r="CY92" s="8"/>
@@ -16040,17 +16128,19 @@
       <c r="CO93" s="14">
         <v>6.157988704053551</v>
       </c>
-      <c r="CP93" s="14">
+      <c r="CP93" s="31">
         <v>5.9444479968583579</v>
       </c>
-      <c r="CQ93" s="14">
-        <v>2.7887068563160966</v>
-      </c>
-      <c r="CR93" s="23"/>
-      <c r="CS93" s="23"/>
-      <c r="CT93" s="14"/>
-      <c r="CU93" s="23"/>
-      <c r="CV93" s="8"/>
+      <c r="CQ93" s="31">
+        <v>6.0127168852565376</v>
+      </c>
+      <c r="CR93" s="31">
+        <v>4.4851055276756711</v>
+      </c>
+      <c r="CS93" s="32"/>
+      <c r="CT93" s="31"/>
+      <c r="CU93" s="31"/>
+      <c r="CV93" s="32"/>
       <c r="CW93" s="8"/>
       <c r="CX93" s="8"/>
       <c r="CY93" s="8"/>
@@ -16379,17 +16469,19 @@
       <c r="CO94" s="14">
         <v>11.013459127455832</v>
       </c>
-      <c r="CP94" s="14">
+      <c r="CP94" s="31">
         <v>5.5980150879969699</v>
       </c>
-      <c r="CQ94" s="14">
-        <v>26.725043080613602</v>
-      </c>
-      <c r="CR94" s="23"/>
-      <c r="CS94" s="23"/>
-      <c r="CT94" s="14"/>
-      <c r="CU94" s="23"/>
-      <c r="CV94" s="8"/>
+      <c r="CQ94" s="31">
+        <v>38.328476698300904</v>
+      </c>
+      <c r="CR94" s="31">
+        <v>5.6131034496247594</v>
+      </c>
+      <c r="CS94" s="32"/>
+      <c r="CT94" s="31"/>
+      <c r="CU94" s="31"/>
+      <c r="CV94" s="32"/>
       <c r="CW94" s="8"/>
       <c r="CX94" s="8"/>
       <c r="CY94" s="8"/>
@@ -16531,13 +16623,13 @@
       <c r="CM95" s="8"/>
       <c r="CN95" s="8"/>
       <c r="CO95" s="8"/>
-      <c r="CP95" s="8"/>
-      <c r="CQ95" s="8"/>
-      <c r="CR95" s="24"/>
-      <c r="CS95" s="24"/>
-      <c r="CT95" s="8"/>
-      <c r="CU95" s="24"/>
-      <c r="CV95" s="8"/>
+      <c r="CP95" s="26"/>
+      <c r="CQ95" s="26"/>
+      <c r="CR95" s="26"/>
+      <c r="CS95" s="33"/>
+      <c r="CT95" s="26"/>
+      <c r="CU95" s="26"/>
+      <c r="CV95" s="33"/>
       <c r="CW95" s="8"/>
       <c r="CX95" s="8"/>
       <c r="CY95" s="8"/>
@@ -16866,17 +16958,19 @@
       <c r="CO96" s="14">
         <v>12.385664564031657</v>
       </c>
-      <c r="CP96" s="14">
+      <c r="CP96" s="31">
         <v>9.1278258643393713</v>
       </c>
-      <c r="CQ96" s="14">
-        <v>7.9760361652925837</v>
-      </c>
-      <c r="CR96" s="23"/>
-      <c r="CS96" s="23"/>
-      <c r="CT96" s="14"/>
-      <c r="CU96" s="23"/>
-      <c r="CV96" s="8"/>
+      <c r="CQ96" s="31">
+        <v>8.1024300469774886</v>
+      </c>
+      <c r="CR96" s="31">
+        <v>2.8368835965535482</v>
+      </c>
+      <c r="CS96" s="32"/>
+      <c r="CT96" s="31"/>
+      <c r="CU96" s="31"/>
+      <c r="CV96" s="32"/>
       <c r="CW96" s="8"/>
       <c r="CX96" s="8"/>
       <c r="CY96" s="8"/>
@@ -17019,20 +17113,20 @@
       <c r="CM97" s="11"/>
       <c r="CN97" s="11"/>
       <c r="CO97" s="11"/>
-      <c r="CP97" s="11"/>
-      <c r="CQ97" s="11"/>
-      <c r="CR97" s="5"/>
-      <c r="CS97" s="5"/>
-      <c r="CT97" s="11"/>
-      <c r="CU97" s="5"/>
+      <c r="CP97" s="28"/>
+      <c r="CQ97" s="28"/>
+      <c r="CR97" s="28"/>
+      <c r="CS97" s="13"/>
+      <c r="CT97" s="28"/>
+      <c r="CU97" s="28"/>
+      <c r="CV97" s="13"/>
     </row>
     <row r="98" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="CR98" s="6"/>
-      <c r="CS98" s="6"/>
-      <c r="CU98" s="6"/>
+      <c r="CS98" s="30"/>
+      <c r="CV98" s="30"/>
     </row>
     <row r="99" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="8"/>
@@ -17127,13 +17221,13 @@
       <c r="CM99" s="8"/>
       <c r="CN99" s="8"/>
       <c r="CO99" s="8"/>
-      <c r="CP99" s="8"/>
-      <c r="CQ99" s="8"/>
-      <c r="CR99" s="24"/>
-      <c r="CS99" s="24"/>
-      <c r="CT99" s="8"/>
-      <c r="CU99" s="24"/>
-      <c r="CV99" s="8"/>
+      <c r="CP99" s="26"/>
+      <c r="CQ99" s="26"/>
+      <c r="CR99" s="26"/>
+      <c r="CS99" s="33"/>
+      <c r="CT99" s="26"/>
+      <c r="CU99" s="26"/>
+      <c r="CV99" s="33"/>
       <c r="CW99" s="8"/>
       <c r="CX99" s="8"/>
       <c r="CY99" s="8"/>
@@ -17275,13 +17369,13 @@
       <c r="CM100" s="8"/>
       <c r="CN100" s="8"/>
       <c r="CO100" s="8"/>
-      <c r="CP100" s="8"/>
-      <c r="CQ100" s="8"/>
-      <c r="CR100" s="24"/>
-      <c r="CS100" s="24"/>
-      <c r="CT100" s="8"/>
-      <c r="CU100" s="24"/>
-      <c r="CV100" s="8"/>
+      <c r="CP100" s="26"/>
+      <c r="CQ100" s="26"/>
+      <c r="CR100" s="33"/>
+      <c r="CS100" s="33"/>
+      <c r="CT100" s="26"/>
+      <c r="CU100" s="26"/>
+      <c r="CV100" s="33"/>
       <c r="CW100" s="8"/>
       <c r="CX100" s="8"/>
       <c r="CY100" s="8"/>
@@ -17357,132 +17451,132 @@
     </row>
     <row r="108" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
-      <c r="B108" s="26">
+      <c r="B108" s="36">
         <v>2000</v>
       </c>
-      <c r="C108" s="26"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="26"/>
-      <c r="F108" s="26">
+      <c r="C108" s="36"/>
+      <c r="D108" s="36"/>
+      <c r="E108" s="36"/>
+      <c r="F108" s="36">
         <v>2001</v>
       </c>
-      <c r="G108" s="26"/>
-      <c r="H108" s="26"/>
-      <c r="I108" s="26"/>
-      <c r="J108" s="26">
+      <c r="G108" s="36"/>
+      <c r="H108" s="36"/>
+      <c r="I108" s="36"/>
+      <c r="J108" s="36">
         <v>2002</v>
       </c>
-      <c r="K108" s="26"/>
-      <c r="L108" s="26"/>
-      <c r="M108" s="26"/>
-      <c r="N108" s="26">
+      <c r="K108" s="36"/>
+      <c r="L108" s="36"/>
+      <c r="M108" s="36"/>
+      <c r="N108" s="36">
         <v>2003</v>
       </c>
-      <c r="O108" s="26"/>
-      <c r="P108" s="26"/>
-      <c r="Q108" s="26"/>
-      <c r="R108" s="26">
+      <c r="O108" s="36"/>
+      <c r="P108" s="36"/>
+      <c r="Q108" s="36"/>
+      <c r="R108" s="36">
         <v>2004</v>
       </c>
-      <c r="S108" s="26"/>
-      <c r="T108" s="26"/>
-      <c r="U108" s="26"/>
-      <c r="V108" s="26">
+      <c r="S108" s="36"/>
+      <c r="T108" s="36"/>
+      <c r="U108" s="36"/>
+      <c r="V108" s="36">
         <v>2005</v>
       </c>
-      <c r="W108" s="26"/>
-      <c r="X108" s="26"/>
-      <c r="Y108" s="26"/>
-      <c r="Z108" s="26">
+      <c r="W108" s="36"/>
+      <c r="X108" s="36"/>
+      <c r="Y108" s="36"/>
+      <c r="Z108" s="36">
         <v>2006</v>
       </c>
-      <c r="AA108" s="26"/>
-      <c r="AB108" s="26"/>
-      <c r="AC108" s="26"/>
-      <c r="AD108" s="26">
+      <c r="AA108" s="36"/>
+      <c r="AB108" s="36"/>
+      <c r="AC108" s="36"/>
+      <c r="AD108" s="36">
         <v>2007</v>
       </c>
-      <c r="AE108" s="26"/>
-      <c r="AF108" s="26"/>
-      <c r="AG108" s="26"/>
-      <c r="AH108" s="26">
+      <c r="AE108" s="36"/>
+      <c r="AF108" s="36"/>
+      <c r="AG108" s="36"/>
+      <c r="AH108" s="36">
         <v>2008</v>
       </c>
-      <c r="AI108" s="26"/>
-      <c r="AJ108" s="26"/>
-      <c r="AK108" s="26"/>
-      <c r="AL108" s="26">
+      <c r="AI108" s="36"/>
+      <c r="AJ108" s="36"/>
+      <c r="AK108" s="36"/>
+      <c r="AL108" s="36">
         <v>2009</v>
       </c>
-      <c r="AM108" s="26"/>
-      <c r="AN108" s="26"/>
-      <c r="AO108" s="26"/>
-      <c r="AP108" s="26">
+      <c r="AM108" s="36"/>
+      <c r="AN108" s="36"/>
+      <c r="AO108" s="36"/>
+      <c r="AP108" s="36">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="26"/>
-      <c r="AR108" s="26"/>
-      <c r="AS108" s="26"/>
-      <c r="AT108" s="26">
+      <c r="AQ108" s="36"/>
+      <c r="AR108" s="36"/>
+      <c r="AS108" s="36"/>
+      <c r="AT108" s="36">
         <v>2011</v>
       </c>
-      <c r="AU108" s="26"/>
-      <c r="AV108" s="26"/>
-      <c r="AW108" s="26"/>
-      <c r="AX108" s="26">
+      <c r="AU108" s="36"/>
+      <c r="AV108" s="36"/>
+      <c r="AW108" s="36"/>
+      <c r="AX108" s="36">
         <v>2012</v>
       </c>
-      <c r="AY108" s="26"/>
-      <c r="AZ108" s="26"/>
-      <c r="BA108" s="26"/>
-      <c r="BB108" s="26">
+      <c r="AY108" s="36"/>
+      <c r="AZ108" s="36"/>
+      <c r="BA108" s="36"/>
+      <c r="BB108" s="36">
         <v>2013</v>
       </c>
-      <c r="BC108" s="26"/>
-      <c r="BD108" s="26"/>
-      <c r="BE108" s="26"/>
-      <c r="BF108" s="26">
+      <c r="BC108" s="36"/>
+      <c r="BD108" s="36"/>
+      <c r="BE108" s="36"/>
+      <c r="BF108" s="36">
         <v>2014</v>
       </c>
-      <c r="BG108" s="26"/>
-      <c r="BH108" s="26"/>
-      <c r="BI108" s="26"/>
-      <c r="BJ108" s="26">
+      <c r="BG108" s="36"/>
+      <c r="BH108" s="36"/>
+      <c r="BI108" s="36"/>
+      <c r="BJ108" s="36">
         <v>2015</v>
       </c>
-      <c r="BK108" s="26"/>
-      <c r="BL108" s="26"/>
-      <c r="BM108" s="26"/>
-      <c r="BN108" s="26">
+      <c r="BK108" s="36"/>
+      <c r="BL108" s="36"/>
+      <c r="BM108" s="36"/>
+      <c r="BN108" s="36">
         <v>2016</v>
       </c>
-      <c r="BO108" s="26"/>
-      <c r="BP108" s="26"/>
-      <c r="BQ108" s="26"/>
-      <c r="BR108" s="26">
+      <c r="BO108" s="36"/>
+      <c r="BP108" s="36"/>
+      <c r="BQ108" s="36"/>
+      <c r="BR108" s="36">
         <v>2017</v>
       </c>
-      <c r="BS108" s="26"/>
-      <c r="BT108" s="26"/>
-      <c r="BU108" s="26"/>
-      <c r="BV108" s="26">
+      <c r="BS108" s="36"/>
+      <c r="BT108" s="36"/>
+      <c r="BU108" s="36"/>
+      <c r="BV108" s="36">
         <v>2018</v>
       </c>
-      <c r="BW108" s="26"/>
-      <c r="BX108" s="26"/>
-      <c r="BY108" s="26"/>
-      <c r="BZ108" s="26">
+      <c r="BW108" s="36"/>
+      <c r="BX108" s="36"/>
+      <c r="BY108" s="36"/>
+      <c r="BZ108" s="36">
         <v>2019</v>
       </c>
-      <c r="CA108" s="26"/>
-      <c r="CB108" s="26"/>
-      <c r="CC108" s="26"/>
-      <c r="CD108" s="25">
+      <c r="CA108" s="36"/>
+      <c r="CB108" s="36"/>
+      <c r="CC108" s="36"/>
+      <c r="CD108" s="35">
         <v>2020</v>
       </c>
-      <c r="CE108" s="25"/>
-      <c r="CF108" s="25"/>
-      <c r="CG108" s="25"/>
+      <c r="CE108" s="35"/>
+      <c r="CF108" s="35"/>
+      <c r="CG108" s="35"/>
       <c r="CH108" s="21">
         <v>2021</v>
       </c>
@@ -17495,16 +17589,17 @@
       <c r="CM108" s="21"/>
       <c r="CN108" s="21"/>
       <c r="CO108" s="21"/>
-      <c r="CP108" s="21">
+      <c r="CP108" s="24">
         <v>2023</v>
       </c>
-      <c r="CQ108" s="21"/>
-      <c r="CR108" s="21"/>
-      <c r="CS108" s="21"/>
-      <c r="CT108" s="21">
+      <c r="CQ108" s="24"/>
+      <c r="CR108" s="24"/>
+      <c r="CS108" s="24"/>
+      <c r="CT108" s="24">
         <v>2024</v>
       </c>
-      <c r="CU108" s="21"/>
+      <c r="CU108" s="24"/>
+      <c r="CV108" s="24"/>
     </row>
     <row r="109" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
@@ -17784,23 +17879,26 @@
       <c r="CO109" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CP109" s="13" t="s">
+      <c r="CP109" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CQ109" s="13" t="s">
+      <c r="CQ109" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CR109" s="13" t="s">
+      <c r="CR109" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CS109" s="13" t="s">
+      <c r="CS109" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="CT109" s="13" t="s">
+      <c r="CT109" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CU109" s="13" t="s">
+      <c r="CU109" s="29" t="s">
         <v>8</v>
+      </c>
+      <c r="CV109" s="29" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -18086,25 +18184,27 @@
       <c r="CO111" s="14">
         <v>133.0320896828776</v>
       </c>
-      <c r="CP111" s="14">
+      <c r="CP111" s="31">
         <v>136.72622876503405</v>
       </c>
-      <c r="CQ111" s="14">
+      <c r="CQ111" s="31">
         <v>141.65669937816352</v>
       </c>
-      <c r="CR111" s="14">
+      <c r="CR111" s="31">
         <v>130.28192558024955</v>
       </c>
-      <c r="CS111" s="14">
+      <c r="CS111" s="31">
         <v>136.18538796035799</v>
       </c>
-      <c r="CT111" s="14">
+      <c r="CT111" s="31">
         <v>139.22329574183948</v>
       </c>
-      <c r="CU111" s="14">
+      <c r="CU111" s="31">
         <v>141.49602065392421</v>
       </c>
-      <c r="CV111" s="8"/>
+      <c r="CV111" s="31">
+        <v>130.1674049222718</v>
+      </c>
       <c r="CW111" s="8"/>
       <c r="CX111" s="8"/>
       <c r="CY111" s="8"/>
@@ -18437,25 +18537,27 @@
       <c r="CO112" s="14">
         <v>114.41806830514707</v>
       </c>
-      <c r="CP112" s="14">
+      <c r="CP112" s="31">
         <v>119.59147290110843</v>
       </c>
-      <c r="CQ112" s="14">
+      <c r="CQ112" s="31">
         <v>119.26852215132922</v>
       </c>
-      <c r="CR112" s="14">
+      <c r="CR112" s="31">
         <v>120.01837611904935</v>
       </c>
-      <c r="CS112" s="14">
+      <c r="CS112" s="31">
         <v>117.82399759332367</v>
       </c>
-      <c r="CT112" s="14">
+      <c r="CT112" s="31">
         <v>122.28374398804517</v>
       </c>
-      <c r="CU112" s="14">
+      <c r="CU112" s="31">
         <v>122.14812952633753</v>
       </c>
-      <c r="CV112" s="8"/>
+      <c r="CV112" s="31">
+        <v>123.34745343524598</v>
+      </c>
       <c r="CW112" s="8"/>
       <c r="CX112" s="8"/>
       <c r="CY112" s="8"/>
@@ -18788,25 +18890,27 @@
       <c r="CO113" s="14">
         <v>117.03672057255258</v>
       </c>
-      <c r="CP113" s="14">
+      <c r="CP113" s="31">
         <v>122.00663809992125</v>
       </c>
-      <c r="CQ113" s="14">
+      <c r="CQ113" s="31">
         <v>122.63218135093956</v>
       </c>
-      <c r="CR113" s="14">
+      <c r="CR113" s="31">
         <v>124.72795126241223</v>
       </c>
-      <c r="CS113" s="14">
+      <c r="CS113" s="31">
         <v>122.09794183971367</v>
       </c>
-      <c r="CT113" s="14">
+      <c r="CT113" s="31">
         <v>126.00770654539204</v>
       </c>
-      <c r="CU113" s="14">
+      <c r="CU113" s="31">
         <v>126.54895671497179</v>
       </c>
-      <c r="CV113" s="8"/>
+      <c r="CV113" s="31">
+        <v>126.19921437655741</v>
+      </c>
       <c r="CW113" s="8"/>
       <c r="CX113" s="8"/>
       <c r="CY113" s="8"/>
@@ -19139,25 +19243,27 @@
       <c r="CO114" s="14">
         <v>115.53683219443604</v>
       </c>
-      <c r="CP114" s="14">
+      <c r="CP114" s="31">
         <v>115.7444035129955</v>
       </c>
-      <c r="CQ114" s="14">
+      <c r="CQ114" s="31">
         <v>116.50252804574835</v>
       </c>
-      <c r="CR114" s="14">
+      <c r="CR114" s="31">
         <v>118.14474888583113</v>
       </c>
-      <c r="CS114" s="14">
+      <c r="CS114" s="31">
         <v>120.40996061596701</v>
       </c>
-      <c r="CT114" s="14">
+      <c r="CT114" s="31">
         <v>119.8434881806138</v>
       </c>
-      <c r="CU114" s="14">
+      <c r="CU114" s="31">
         <v>118.7433197401653</v>
       </c>
-      <c r="CV114" s="8"/>
+      <c r="CV114" s="31">
+        <v>120.98476812528742</v>
+      </c>
       <c r="CW114" s="8"/>
       <c r="CX114" s="8"/>
       <c r="CY114" s="8"/>
@@ -19490,25 +19596,27 @@
       <c r="CO115" s="14">
         <v>103.34897185336216</v>
       </c>
-      <c r="CP115" s="14">
+      <c r="CP115" s="31">
         <v>102.92008743148232</v>
       </c>
-      <c r="CQ115" s="14">
+      <c r="CQ115" s="31">
         <v>103.61706726923939</v>
       </c>
-      <c r="CR115" s="14">
+      <c r="CR115" s="31">
         <v>102.55633330527829</v>
       </c>
-      <c r="CS115" s="14">
+      <c r="CS115" s="31">
         <v>103.68565782484302</v>
       </c>
-      <c r="CT115" s="14">
+      <c r="CT115" s="31">
         <v>103.43700151539213</v>
       </c>
-      <c r="CU115" s="14">
-        <v>104.05566703242958</v>
-      </c>
-      <c r="CV115" s="8"/>
+      <c r="CU115" s="31">
+        <v>104.05567850493365</v>
+      </c>
+      <c r="CV115" s="31">
+        <v>103.25671802053384</v>
+      </c>
       <c r="CW115" s="8"/>
       <c r="CX115" s="8"/>
       <c r="CY115" s="8"/>
@@ -19841,25 +19949,27 @@
       <c r="CO116" s="14">
         <v>117.00435355436905</v>
       </c>
-      <c r="CP116" s="14">
+      <c r="CP116" s="31">
         <v>118.32018478524459</v>
       </c>
-      <c r="CQ116" s="14">
+      <c r="CQ116" s="31">
         <v>118.82915304474481</v>
       </c>
-      <c r="CR116" s="14">
+      <c r="CR116" s="31">
         <v>119.9175022333163</v>
       </c>
-      <c r="CS116" s="14">
+      <c r="CS116" s="31">
         <v>120.3904189202468</v>
       </c>
-      <c r="CT116" s="14">
+      <c r="CT116" s="31">
         <v>120.72507269431662</v>
       </c>
-      <c r="CU116" s="14">
+      <c r="CU116" s="31">
         <v>121.69815233560111</v>
       </c>
-      <c r="CV116" s="8"/>
+      <c r="CV116" s="31">
+        <v>123.24479587494265</v>
+      </c>
       <c r="CW116" s="8"/>
       <c r="CX116" s="8"/>
       <c r="CY116" s="8"/>
@@ -20192,25 +20302,27 @@
       <c r="CO117" s="14">
         <v>117.79146924859019</v>
       </c>
-      <c r="CP117" s="14">
+      <c r="CP117" s="31">
         <v>120.87246097661833</v>
       </c>
-      <c r="CQ117" s="14">
+      <c r="CQ117" s="31">
         <v>119.17508385865622</v>
       </c>
-      <c r="CR117" s="14">
+      <c r="CR117" s="31">
         <v>121.14795441289259</v>
       </c>
-      <c r="CS117" s="14">
+      <c r="CS117" s="31">
         <v>119.74403340048416</v>
       </c>
-      <c r="CT117" s="14">
+      <c r="CT117" s="31">
         <v>123.59356996541166</v>
       </c>
-      <c r="CU117" s="14">
+      <c r="CU117" s="31">
         <v>122.05243526878937</v>
       </c>
-      <c r="CV117" s="8"/>
+      <c r="CV117" s="31">
+        <v>124.50836404332726</v>
+      </c>
       <c r="CW117" s="8"/>
       <c r="CX117" s="8"/>
       <c r="CY117" s="8"/>
@@ -20543,25 +20655,27 @@
       <c r="CO118" s="14">
         <v>114.26976550965544</v>
       </c>
-      <c r="CP118" s="14">
+      <c r="CP118" s="31">
         <v>119.3041020978674</v>
       </c>
-      <c r="CQ118" s="14">
+      <c r="CQ118" s="31">
         <v>118.63400847867109</v>
       </c>
-      <c r="CR118" s="14">
+      <c r="CR118" s="31">
         <v>116.31755657998011</v>
       </c>
-      <c r="CS118" s="14">
+      <c r="CS118" s="31">
         <v>117.67128020805468</v>
       </c>
-      <c r="CT118" s="14">
+      <c r="CT118" s="31">
         <v>121.88348408651571</v>
       </c>
-      <c r="CU118" s="14">
+      <c r="CU118" s="31">
         <v>121.49829621846997</v>
       </c>
-      <c r="CV118" s="8"/>
+      <c r="CV118" s="31">
+        <v>119.54398032947103</v>
+      </c>
       <c r="CW118" s="8"/>
       <c r="CX118" s="8"/>
       <c r="CY118" s="8"/>
@@ -20707,13 +20821,13 @@
       <c r="CM119" s="8"/>
       <c r="CN119" s="8"/>
       <c r="CO119" s="8"/>
-      <c r="CP119" s="8"/>
-      <c r="CQ119" s="8"/>
-      <c r="CR119" s="8"/>
-      <c r="CS119" s="8"/>
-      <c r="CT119" s="8"/>
-      <c r="CU119" s="8"/>
-      <c r="CV119" s="8"/>
+      <c r="CP119" s="26"/>
+      <c r="CQ119" s="26"/>
+      <c r="CR119" s="26"/>
+      <c r="CS119" s="26"/>
+      <c r="CT119" s="26"/>
+      <c r="CU119" s="26"/>
+      <c r="CV119" s="26"/>
       <c r="CW119" s="8"/>
       <c r="CX119" s="8"/>
       <c r="CY119" s="8"/>
@@ -21046,25 +21160,27 @@
       <c r="CO120" s="14">
         <v>116.07303612354485</v>
       </c>
-      <c r="CP120" s="14">
+      <c r="CP120" s="31">
         <v>117.94413080635491</v>
       </c>
-      <c r="CQ120" s="14">
+      <c r="CQ120" s="31">
         <v>117.48037037902188</v>
       </c>
-      <c r="CR120" s="14">
+      <c r="CR120" s="31">
         <v>119.232637937436</v>
       </c>
-      <c r="CS120" s="14">
+      <c r="CS120" s="31">
         <v>119.00264083203311</v>
       </c>
-      <c r="CT120" s="14">
+      <c r="CT120" s="31">
         <v>120.43354904579233</v>
       </c>
-      <c r="CU120" s="14">
-        <v>120.09679029954219</v>
-      </c>
-      <c r="CV120" s="8"/>
+      <c r="CU120" s="31">
+        <v>120.11119001677932</v>
+      </c>
+      <c r="CV120" s="31">
+        <v>121.16677844599657</v>
+      </c>
       <c r="CW120" s="8"/>
       <c r="CX120" s="8"/>
       <c r="CY120" s="8"/>
@@ -21211,12 +21327,13 @@
       <c r="CM121" s="11"/>
       <c r="CN121" s="11"/>
       <c r="CO121" s="11"/>
-      <c r="CP121" s="11"/>
-      <c r="CQ121" s="11"/>
-      <c r="CR121" s="11"/>
-      <c r="CS121" s="11"/>
-      <c r="CT121" s="11"/>
-      <c r="CU121" s="11"/>
+      <c r="CP121" s="28"/>
+      <c r="CQ121" s="28"/>
+      <c r="CR121" s="28"/>
+      <c r="CS121" s="28"/>
+      <c r="CT121" s="28"/>
+      <c r="CU121" s="28"/>
+      <c r="CV121" s="28"/>
     </row>
     <row r="122" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
@@ -21255,132 +21372,132 @@
     </row>
     <row r="133" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
-      <c r="B133" s="26">
+      <c r="B133" s="36">
         <v>2000</v>
       </c>
-      <c r="C133" s="26"/>
-      <c r="D133" s="26"/>
-      <c r="E133" s="26"/>
-      <c r="F133" s="26">
+      <c r="C133" s="36"/>
+      <c r="D133" s="36"/>
+      <c r="E133" s="36"/>
+      <c r="F133" s="36">
         <v>2001</v>
       </c>
-      <c r="G133" s="26"/>
-      <c r="H133" s="26"/>
-      <c r="I133" s="26"/>
-      <c r="J133" s="26">
+      <c r="G133" s="36"/>
+      <c r="H133" s="36"/>
+      <c r="I133" s="36"/>
+      <c r="J133" s="36">
         <v>2002</v>
       </c>
-      <c r="K133" s="26"/>
-      <c r="L133" s="26"/>
-      <c r="M133" s="26"/>
-      <c r="N133" s="26">
+      <c r="K133" s="36"/>
+      <c r="L133" s="36"/>
+      <c r="M133" s="36"/>
+      <c r="N133" s="36">
         <v>2003</v>
       </c>
-      <c r="O133" s="26"/>
-      <c r="P133" s="26"/>
-      <c r="Q133" s="26"/>
-      <c r="R133" s="26">
+      <c r="O133" s="36"/>
+      <c r="P133" s="36"/>
+      <c r="Q133" s="36"/>
+      <c r="R133" s="36">
         <v>2004</v>
       </c>
-      <c r="S133" s="26"/>
-      <c r="T133" s="26"/>
-      <c r="U133" s="26"/>
-      <c r="V133" s="26">
+      <c r="S133" s="36"/>
+      <c r="T133" s="36"/>
+      <c r="U133" s="36"/>
+      <c r="V133" s="36">
         <v>2005</v>
       </c>
-      <c r="W133" s="26"/>
-      <c r="X133" s="26"/>
-      <c r="Y133" s="26"/>
-      <c r="Z133" s="26">
+      <c r="W133" s="36"/>
+      <c r="X133" s="36"/>
+      <c r="Y133" s="36"/>
+      <c r="Z133" s="36">
         <v>2006</v>
       </c>
-      <c r="AA133" s="26"/>
-      <c r="AB133" s="26"/>
-      <c r="AC133" s="26"/>
-      <c r="AD133" s="26">
+      <c r="AA133" s="36"/>
+      <c r="AB133" s="36"/>
+      <c r="AC133" s="36"/>
+      <c r="AD133" s="36">
         <v>2007</v>
       </c>
-      <c r="AE133" s="26"/>
-      <c r="AF133" s="26"/>
-      <c r="AG133" s="26"/>
-      <c r="AH133" s="26">
+      <c r="AE133" s="36"/>
+      <c r="AF133" s="36"/>
+      <c r="AG133" s="36"/>
+      <c r="AH133" s="36">
         <v>2008</v>
       </c>
-      <c r="AI133" s="26"/>
-      <c r="AJ133" s="26"/>
-      <c r="AK133" s="26"/>
-      <c r="AL133" s="26">
+      <c r="AI133" s="36"/>
+      <c r="AJ133" s="36"/>
+      <c r="AK133" s="36"/>
+      <c r="AL133" s="36">
         <v>2009</v>
       </c>
-      <c r="AM133" s="26"/>
-      <c r="AN133" s="26"/>
-      <c r="AO133" s="26"/>
-      <c r="AP133" s="26">
+      <c r="AM133" s="36"/>
+      <c r="AN133" s="36"/>
+      <c r="AO133" s="36"/>
+      <c r="AP133" s="36">
         <v>2010</v>
       </c>
-      <c r="AQ133" s="26"/>
-      <c r="AR133" s="26"/>
-      <c r="AS133" s="26"/>
-      <c r="AT133" s="26">
+      <c r="AQ133" s="36"/>
+      <c r="AR133" s="36"/>
+      <c r="AS133" s="36"/>
+      <c r="AT133" s="36">
         <v>2011</v>
       </c>
-      <c r="AU133" s="26"/>
-      <c r="AV133" s="26"/>
-      <c r="AW133" s="26"/>
-      <c r="AX133" s="26">
+      <c r="AU133" s="36"/>
+      <c r="AV133" s="36"/>
+      <c r="AW133" s="36"/>
+      <c r="AX133" s="36">
         <v>2012</v>
       </c>
-      <c r="AY133" s="26"/>
-      <c r="AZ133" s="26"/>
-      <c r="BA133" s="26"/>
-      <c r="BB133" s="26">
+      <c r="AY133" s="36"/>
+      <c r="AZ133" s="36"/>
+      <c r="BA133" s="36"/>
+      <c r="BB133" s="36">
         <v>2013</v>
       </c>
-      <c r="BC133" s="26"/>
-      <c r="BD133" s="26"/>
-      <c r="BE133" s="26"/>
-      <c r="BF133" s="26">
+      <c r="BC133" s="36"/>
+      <c r="BD133" s="36"/>
+      <c r="BE133" s="36"/>
+      <c r="BF133" s="36">
         <v>2014</v>
       </c>
-      <c r="BG133" s="26"/>
-      <c r="BH133" s="26"/>
-      <c r="BI133" s="26"/>
-      <c r="BJ133" s="26">
+      <c r="BG133" s="36"/>
+      <c r="BH133" s="36"/>
+      <c r="BI133" s="36"/>
+      <c r="BJ133" s="36">
         <v>2015</v>
       </c>
-      <c r="BK133" s="26"/>
-      <c r="BL133" s="26"/>
-      <c r="BM133" s="26"/>
-      <c r="BN133" s="26">
+      <c r="BK133" s="36"/>
+      <c r="BL133" s="36"/>
+      <c r="BM133" s="36"/>
+      <c r="BN133" s="36">
         <v>2016</v>
       </c>
-      <c r="BO133" s="26"/>
-      <c r="BP133" s="26"/>
-      <c r="BQ133" s="26"/>
-      <c r="BR133" s="26">
+      <c r="BO133" s="36"/>
+      <c r="BP133" s="36"/>
+      <c r="BQ133" s="36"/>
+      <c r="BR133" s="36">
         <v>2017</v>
       </c>
-      <c r="BS133" s="26"/>
-      <c r="BT133" s="26"/>
-      <c r="BU133" s="26"/>
-      <c r="BV133" s="26">
+      <c r="BS133" s="36"/>
+      <c r="BT133" s="36"/>
+      <c r="BU133" s="36"/>
+      <c r="BV133" s="36">
         <v>2018</v>
       </c>
-      <c r="BW133" s="26"/>
-      <c r="BX133" s="26"/>
-      <c r="BY133" s="26"/>
-      <c r="BZ133" s="26">
+      <c r="BW133" s="36"/>
+      <c r="BX133" s="36"/>
+      <c r="BY133" s="36"/>
+      <c r="BZ133" s="36">
         <v>2019</v>
       </c>
-      <c r="CA133" s="26"/>
-      <c r="CB133" s="26"/>
-      <c r="CC133" s="26"/>
-      <c r="CD133" s="25">
+      <c r="CA133" s="36"/>
+      <c r="CB133" s="36"/>
+      <c r="CC133" s="36"/>
+      <c r="CD133" s="35">
         <v>2020</v>
       </c>
-      <c r="CE133" s="25"/>
-      <c r="CF133" s="25"/>
-      <c r="CG133" s="25"/>
+      <c r="CE133" s="35"/>
+      <c r="CF133" s="35"/>
+      <c r="CG133" s="35"/>
       <c r="CH133" s="21">
         <v>2021</v>
       </c>
@@ -21393,16 +21510,17 @@
       <c r="CM133" s="21"/>
       <c r="CN133" s="21"/>
       <c r="CO133" s="21"/>
-      <c r="CP133" s="21">
+      <c r="CP133" s="24">
         <v>2023</v>
       </c>
-      <c r="CQ133" s="21"/>
-      <c r="CR133" s="21"/>
-      <c r="CS133" s="21"/>
-      <c r="CT133" s="21">
+      <c r="CQ133" s="24"/>
+      <c r="CR133" s="24"/>
+      <c r="CS133" s="24"/>
+      <c r="CT133" s="24">
         <v>2024</v>
       </c>
-      <c r="CU133" s="21"/>
+      <c r="CU133" s="24"/>
+      <c r="CV133" s="24"/>
     </row>
     <row r="134" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
@@ -21682,23 +21800,26 @@
       <c r="CO134" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CP134" s="13" t="s">
+      <c r="CP134" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CQ134" s="13" t="s">
+      <c r="CQ134" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CR134" s="13" t="s">
+      <c r="CR134" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CS134" s="13" t="s">
+      <c r="CS134" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="CT134" s="13" t="s">
+      <c r="CT134" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CU134" s="13" t="s">
+      <c r="CU134" s="29" t="s">
         <v>8</v>
+      </c>
+      <c r="CV134" s="29" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -21984,25 +22105,27 @@
       <c r="CO136" s="20">
         <v>8.7827302543622761</v>
       </c>
-      <c r="CP136" s="20">
+      <c r="CP136" s="34">
         <v>10.423788448805297</v>
       </c>
-      <c r="CQ136" s="20">
+      <c r="CQ136" s="34">
         <v>4.1182304678552075</v>
       </c>
-      <c r="CR136" s="20">
+      <c r="CR136" s="34">
         <v>7.0676659503017865</v>
       </c>
-      <c r="CS136" s="20">
+      <c r="CS136" s="34">
         <v>8.5825179703148056</v>
       </c>
-      <c r="CT136" s="20">
+      <c r="CT136" s="34">
         <v>10.511899449352228</v>
       </c>
-      <c r="CU136" s="20">
-        <v>4.1284208554563735</v>
-      </c>
-      <c r="CV136" s="8"/>
+      <c r="CU136" s="34">
+        <v>4.1343963912176829</v>
+      </c>
+      <c r="CV136" s="34">
+        <v>6.5959613313255412</v>
+      </c>
       <c r="CW136" s="8"/>
       <c r="CX136" s="8"/>
       <c r="CY136" s="8"/>
@@ -22335,25 +22458,27 @@
       <c r="CO137" s="20">
         <v>0.16108702810670397</v>
       </c>
-      <c r="CP137" s="20">
+      <c r="CP137" s="34">
         <v>5.4753624936512799E-2</v>
       </c>
-      <c r="CQ137" s="20">
+      <c r="CQ137" s="34">
         <v>5.5436820494742294E-2</v>
       </c>
-      <c r="CR137" s="20">
+      <c r="CR137" s="34">
         <v>0.12684227721550209</v>
       </c>
-      <c r="CS137" s="20">
+      <c r="CS137" s="34">
         <v>0.13176515537394626</v>
       </c>
-      <c r="CT137" s="20">
+      <c r="CT137" s="34">
         <v>5.4699755931179699E-2</v>
       </c>
-      <c r="CU137" s="20">
-        <v>5.6246886994848304E-2</v>
-      </c>
-      <c r="CV137" s="8"/>
+      <c r="CU137" s="34">
+        <v>5.2967468300429033E-2</v>
+      </c>
+      <c r="CV137" s="34">
+        <v>0.13140495165576269</v>
+      </c>
       <c r="CW137" s="8"/>
       <c r="CX137" s="8"/>
       <c r="CY137" s="8"/>
@@ -22686,25 +22811,27 @@
       <c r="CO138" s="20">
         <v>10.337774260791397</v>
       </c>
-      <c r="CP138" s="20">
+      <c r="CP138" s="34">
         <v>14.605360688296587</v>
       </c>
-      <c r="CQ138" s="20">
+      <c r="CQ138" s="34">
         <v>15.808579397825692</v>
       </c>
-      <c r="CR138" s="20">
+      <c r="CR138" s="34">
         <v>23.795656408870862</v>
       </c>
-      <c r="CS138" s="20">
+      <c r="CS138" s="34">
         <v>15.022013741043057</v>
       </c>
-      <c r="CT138" s="20">
+      <c r="CT138" s="34">
         <v>15.499872055049821</v>
       </c>
-      <c r="CU138" s="20">
-        <v>18.113373570110884</v>
-      </c>
-      <c r="CV138" s="8"/>
+      <c r="CU138" s="34">
+        <v>18.090026315485666</v>
+      </c>
+      <c r="CV138" s="34">
+        <v>19.4497844367122</v>
+      </c>
       <c r="CW138" s="8"/>
       <c r="CX138" s="8"/>
       <c r="CY138" s="8"/>
@@ -23037,25 +23164,27 @@
       <c r="CO139" s="20">
         <v>0.73988259333163631</v>
       </c>
-      <c r="CP139" s="20">
+      <c r="CP139" s="34">
         <v>0.52127711364677609</v>
       </c>
-      <c r="CQ139" s="20">
+      <c r="CQ139" s="34">
         <v>0.6139269747570516</v>
       </c>
-      <c r="CR139" s="20">
+      <c r="CR139" s="34">
         <v>0.72287239904319722</v>
       </c>
-      <c r="CS139" s="20">
+      <c r="CS139" s="34">
         <v>0.7680504103126351</v>
       </c>
-      <c r="CT139" s="20">
+      <c r="CT139" s="34">
         <v>0.50953856776760176</v>
       </c>
-      <c r="CU139" s="20">
-        <v>0.58347303284311358</v>
-      </c>
-      <c r="CV139" s="8"/>
+      <c r="CU139" s="34">
+        <v>0.58566289259209281</v>
+      </c>
+      <c r="CV139" s="34">
+        <v>0.7243687945879379</v>
+      </c>
       <c r="CW139" s="8"/>
       <c r="CX139" s="8"/>
       <c r="CY139" s="8"/>
@@ -23388,25 +23517,27 @@
       <c r="CO140" s="20">
         <v>14.225701187072531</v>
       </c>
-      <c r="CP140" s="20">
+      <c r="CP140" s="34">
         <v>15.541367844351198</v>
       </c>
-      <c r="CQ140" s="20">
+      <c r="CQ140" s="34">
         <v>15.7698382907679</v>
       </c>
-      <c r="CR140" s="20">
+      <c r="CR140" s="34">
         <v>12.380763502046364</v>
       </c>
-      <c r="CS140" s="20">
+      <c r="CS140" s="34">
         <v>14.114051238263833</v>
       </c>
-      <c r="CT140" s="20">
+      <c r="CT140" s="34">
         <v>14.783460420958672</v>
       </c>
-      <c r="CU140" s="20">
-        <v>15.421129945001558</v>
-      </c>
-      <c r="CV140" s="8"/>
+      <c r="CU140" s="34">
+        <v>15.352013614110987</v>
+      </c>
+      <c r="CV140" s="34">
+        <v>13.229080887869207</v>
+      </c>
       <c r="CW140" s="8"/>
       <c r="CX140" s="8"/>
       <c r="CY140" s="8"/>
@@ -23739,25 +23870,27 @@
       <c r="CO141" s="20">
         <v>53.234884723567731</v>
       </c>
-      <c r="CP141" s="20">
+      <c r="CP141" s="34">
         <v>50.065600760877572</v>
       </c>
-      <c r="CQ141" s="20">
+      <c r="CQ141" s="34">
         <v>52.840947826538496</v>
       </c>
-      <c r="CR141" s="20">
+      <c r="CR141" s="34">
         <v>45.6499491973509</v>
       </c>
-      <c r="CS141" s="20">
+      <c r="CS141" s="34">
         <v>49.55862943674714</v>
       </c>
-      <c r="CT141" s="20">
+      <c r="CT141" s="34">
         <v>50.10118085447165</v>
       </c>
-      <c r="CU141" s="20">
-        <v>51.107292357202574</v>
-      </c>
-      <c r="CV141" s="8"/>
+      <c r="CU141" s="34">
+        <v>50.782343847351029</v>
+      </c>
+      <c r="CV141" s="34">
+        <v>49.316652887902791</v>
+      </c>
       <c r="CW141" s="8"/>
       <c r="CX141" s="8"/>
       <c r="CY141" s="8"/>
@@ -24090,25 +24223,27 @@
       <c r="CO142" s="20">
         <v>10.742804778856668</v>
       </c>
-      <c r="CP142" s="20">
+      <c r="CP142" s="34">
         <v>7.8201288003847322</v>
       </c>
-      <c r="CQ142" s="20">
+      <c r="CQ142" s="34">
         <v>9.4570199276183633</v>
       </c>
-      <c r="CR142" s="20">
+      <c r="CR142" s="34">
         <v>8.992355665061643</v>
       </c>
-      <c r="CS142" s="20">
+      <c r="CS142" s="34">
         <v>10.061766542551789</v>
       </c>
-      <c r="CT142" s="20">
+      <c r="CT142" s="34">
         <v>7.6024569149773722</v>
       </c>
-      <c r="CU142" s="20">
-        <v>9.0191833477341952</v>
-      </c>
-      <c r="CV142" s="8"/>
+      <c r="CU142" s="34">
+        <v>9.2900838205162337</v>
+      </c>
+      <c r="CV142" s="34">
+        <v>9.2400216121295724</v>
+      </c>
       <c r="CW142" s="8"/>
       <c r="CX142" s="8"/>
       <c r="CY142" s="8"/>
@@ -24441,25 +24576,27 @@
       <c r="CO143" s="20">
         <v>1.7751351739110399</v>
       </c>
-      <c r="CP143" s="20">
+      <c r="CP143" s="34">
         <v>0.96772271870133808</v>
       </c>
-      <c r="CQ143" s="20">
+      <c r="CQ143" s="34">
         <v>1.336020294142531</v>
       </c>
-      <c r="CR143" s="20">
+      <c r="CR143" s="34">
         <v>1.2638946001097586</v>
       </c>
-      <c r="CS143" s="20">
+      <c r="CS143" s="34">
         <v>1.7612055053927922</v>
       </c>
-      <c r="CT143" s="20">
+      <c r="CT143" s="34">
         <v>0.93689198149148001</v>
       </c>
-      <c r="CU143" s="20">
-        <v>1.5708800046564511</v>
-      </c>
-      <c r="CV143" s="8"/>
+      <c r="CU143" s="34">
+        <v>1.7125056504258769</v>
+      </c>
+      <c r="CV143" s="34">
+        <v>1.3127250978169975</v>
+      </c>
       <c r="CW143" s="8"/>
       <c r="CX143" s="8"/>
       <c r="CY143" s="8"/>
@@ -24605,13 +24742,13 @@
       <c r="CM144" s="8"/>
       <c r="CN144" s="8"/>
       <c r="CO144" s="8"/>
-      <c r="CP144" s="8"/>
-      <c r="CQ144" s="8"/>
-      <c r="CR144" s="8"/>
-      <c r="CS144" s="8"/>
-      <c r="CT144" s="8"/>
-      <c r="CU144" s="8"/>
-      <c r="CV144" s="8"/>
+      <c r="CP144" s="26"/>
+      <c r="CQ144" s="26"/>
+      <c r="CR144" s="26"/>
+      <c r="CS144" s="26"/>
+      <c r="CT144" s="26"/>
+      <c r="CU144" s="26"/>
+      <c r="CV144" s="26"/>
       <c r="CW144" s="8"/>
       <c r="CX144" s="8"/>
       <c r="CY144" s="8"/>
@@ -24944,25 +25081,27 @@
       <c r="CO145" s="14">
         <v>100</v>
       </c>
-      <c r="CP145" s="14">
+      <c r="CP145" s="31">
         <v>100</v>
       </c>
-      <c r="CQ145" s="14">
+      <c r="CQ145" s="31">
         <v>100</v>
       </c>
-      <c r="CR145" s="14">
+      <c r="CR145" s="31">
         <v>100</v>
       </c>
-      <c r="CS145" s="14">
+      <c r="CS145" s="31">
         <v>100</v>
       </c>
-      <c r="CT145" s="14">
+      <c r="CT145" s="31">
         <v>100</v>
       </c>
-      <c r="CU145" s="14">
+      <c r="CU145" s="31">
         <v>100</v>
       </c>
-      <c r="CV145" s="8"/>
+      <c r="CV145" s="31">
+        <v>100</v>
+      </c>
       <c r="CW145" s="8"/>
       <c r="CX145" s="8"/>
       <c r="CY145" s="8"/>
@@ -25109,12 +25248,13 @@
       <c r="CM146" s="11"/>
       <c r="CN146" s="11"/>
       <c r="CO146" s="11"/>
-      <c r="CP146" s="11"/>
-      <c r="CQ146" s="11"/>
-      <c r="CR146" s="11"/>
-      <c r="CS146" s="11"/>
-      <c r="CT146" s="11"/>
-      <c r="CU146" s="11"/>
+      <c r="CP146" s="28"/>
+      <c r="CQ146" s="28"/>
+      <c r="CR146" s="28"/>
+      <c r="CS146" s="28"/>
+      <c r="CT146" s="28"/>
+      <c r="CU146" s="28"/>
+      <c r="CV146" s="28"/>
     </row>
     <row r="147" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
@@ -25214,13 +25354,13 @@
       <c r="CM148" s="8"/>
       <c r="CN148" s="8"/>
       <c r="CO148" s="8"/>
-      <c r="CP148" s="8"/>
-      <c r="CQ148" s="8"/>
-      <c r="CR148" s="8"/>
-      <c r="CS148" s="8"/>
-      <c r="CT148" s="8"/>
-      <c r="CU148" s="8"/>
-      <c r="CV148" s="8"/>
+      <c r="CP148" s="26"/>
+      <c r="CQ148" s="26"/>
+      <c r="CR148" s="26"/>
+      <c r="CS148" s="26"/>
+      <c r="CT148" s="26"/>
+      <c r="CU148" s="26"/>
+      <c r="CV148" s="26"/>
       <c r="CW148" s="8"/>
       <c r="CX148" s="8"/>
       <c r="CY148" s="8"/>
@@ -25366,13 +25506,13 @@
       <c r="CM149" s="8"/>
       <c r="CN149" s="8"/>
       <c r="CO149" s="8"/>
-      <c r="CP149" s="8"/>
-      <c r="CQ149" s="8"/>
-      <c r="CR149" s="8"/>
-      <c r="CS149" s="8"/>
-      <c r="CT149" s="8"/>
-      <c r="CU149" s="8"/>
-      <c r="CV149" s="8"/>
+      <c r="CP149" s="26"/>
+      <c r="CQ149" s="26"/>
+      <c r="CR149" s="26"/>
+      <c r="CS149" s="26"/>
+      <c r="CT149" s="26"/>
+      <c r="CU149" s="26"/>
+      <c r="CV149" s="26"/>
       <c r="CW149" s="8"/>
       <c r="CX149" s="8"/>
       <c r="CY149" s="8"/>
@@ -25457,132 +25597,132 @@
     </row>
     <row r="158" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
-      <c r="B158" s="26">
+      <c r="B158" s="36">
         <v>2000</v>
       </c>
-      <c r="C158" s="26"/>
-      <c r="D158" s="26"/>
-      <c r="E158" s="26"/>
-      <c r="F158" s="26">
+      <c r="C158" s="36"/>
+      <c r="D158" s="36"/>
+      <c r="E158" s="36"/>
+      <c r="F158" s="36">
         <v>2001</v>
       </c>
-      <c r="G158" s="26"/>
-      <c r="H158" s="26"/>
-      <c r="I158" s="26"/>
-      <c r="J158" s="26">
+      <c r="G158" s="36"/>
+      <c r="H158" s="36"/>
+      <c r="I158" s="36"/>
+      <c r="J158" s="36">
         <v>2002</v>
       </c>
-      <c r="K158" s="26"/>
-      <c r="L158" s="26"/>
-      <c r="M158" s="26"/>
-      <c r="N158" s="26">
+      <c r="K158" s="36"/>
+      <c r="L158" s="36"/>
+      <c r="M158" s="36"/>
+      <c r="N158" s="36">
         <v>2003</v>
       </c>
-      <c r="O158" s="26"/>
-      <c r="P158" s="26"/>
-      <c r="Q158" s="26"/>
-      <c r="R158" s="26">
+      <c r="O158" s="36"/>
+      <c r="P158" s="36"/>
+      <c r="Q158" s="36"/>
+      <c r="R158" s="36">
         <v>2004</v>
       </c>
-      <c r="S158" s="26"/>
-      <c r="T158" s="26"/>
-      <c r="U158" s="26"/>
-      <c r="V158" s="26">
+      <c r="S158" s="36"/>
+      <c r="T158" s="36"/>
+      <c r="U158" s="36"/>
+      <c r="V158" s="36">
         <v>2005</v>
       </c>
-      <c r="W158" s="26"/>
-      <c r="X158" s="26"/>
-      <c r="Y158" s="26"/>
-      <c r="Z158" s="26">
+      <c r="W158" s="36"/>
+      <c r="X158" s="36"/>
+      <c r="Y158" s="36"/>
+      <c r="Z158" s="36">
         <v>2006</v>
       </c>
-      <c r="AA158" s="26"/>
-      <c r="AB158" s="26"/>
-      <c r="AC158" s="26"/>
-      <c r="AD158" s="26">
+      <c r="AA158" s="36"/>
+      <c r="AB158" s="36"/>
+      <c r="AC158" s="36"/>
+      <c r="AD158" s="36">
         <v>2007</v>
       </c>
-      <c r="AE158" s="26"/>
-      <c r="AF158" s="26"/>
-      <c r="AG158" s="26"/>
-      <c r="AH158" s="26">
+      <c r="AE158" s="36"/>
+      <c r="AF158" s="36"/>
+      <c r="AG158" s="36"/>
+      <c r="AH158" s="36">
         <v>2008</v>
       </c>
-      <c r="AI158" s="26"/>
-      <c r="AJ158" s="26"/>
-      <c r="AK158" s="26"/>
-      <c r="AL158" s="26">
+      <c r="AI158" s="36"/>
+      <c r="AJ158" s="36"/>
+      <c r="AK158" s="36"/>
+      <c r="AL158" s="36">
         <v>2009</v>
       </c>
-      <c r="AM158" s="26"/>
-      <c r="AN158" s="26"/>
-      <c r="AO158" s="26"/>
-      <c r="AP158" s="26">
+      <c r="AM158" s="36"/>
+      <c r="AN158" s="36"/>
+      <c r="AO158" s="36"/>
+      <c r="AP158" s="36">
         <v>2010</v>
       </c>
-      <c r="AQ158" s="26"/>
-      <c r="AR158" s="26"/>
-      <c r="AS158" s="26"/>
-      <c r="AT158" s="26">
+      <c r="AQ158" s="36"/>
+      <c r="AR158" s="36"/>
+      <c r="AS158" s="36"/>
+      <c r="AT158" s="36">
         <v>2011</v>
       </c>
-      <c r="AU158" s="26"/>
-      <c r="AV158" s="26"/>
-      <c r="AW158" s="26"/>
-      <c r="AX158" s="26">
+      <c r="AU158" s="36"/>
+      <c r="AV158" s="36"/>
+      <c r="AW158" s="36"/>
+      <c r="AX158" s="36">
         <v>2012</v>
       </c>
-      <c r="AY158" s="26"/>
-      <c r="AZ158" s="26"/>
-      <c r="BA158" s="26"/>
-      <c r="BB158" s="26">
+      <c r="AY158" s="36"/>
+      <c r="AZ158" s="36"/>
+      <c r="BA158" s="36"/>
+      <c r="BB158" s="36">
         <v>2013</v>
       </c>
-      <c r="BC158" s="26"/>
-      <c r="BD158" s="26"/>
-      <c r="BE158" s="26"/>
-      <c r="BF158" s="26">
+      <c r="BC158" s="36"/>
+      <c r="BD158" s="36"/>
+      <c r="BE158" s="36"/>
+      <c r="BF158" s="36">
         <v>2014</v>
       </c>
-      <c r="BG158" s="26"/>
-      <c r="BH158" s="26"/>
-      <c r="BI158" s="26"/>
-      <c r="BJ158" s="26">
+      <c r="BG158" s="36"/>
+      <c r="BH158" s="36"/>
+      <c r="BI158" s="36"/>
+      <c r="BJ158" s="36">
         <v>2015</v>
       </c>
-      <c r="BK158" s="26"/>
-      <c r="BL158" s="26"/>
-      <c r="BM158" s="26"/>
-      <c r="BN158" s="26">
+      <c r="BK158" s="36"/>
+      <c r="BL158" s="36"/>
+      <c r="BM158" s="36"/>
+      <c r="BN158" s="36">
         <v>2016</v>
       </c>
-      <c r="BO158" s="26"/>
-      <c r="BP158" s="26"/>
-      <c r="BQ158" s="26"/>
-      <c r="BR158" s="26">
+      <c r="BO158" s="36"/>
+      <c r="BP158" s="36"/>
+      <c r="BQ158" s="36"/>
+      <c r="BR158" s="36">
         <v>2017</v>
       </c>
-      <c r="BS158" s="26"/>
-      <c r="BT158" s="26"/>
-      <c r="BU158" s="26"/>
-      <c r="BV158" s="26">
+      <c r="BS158" s="36"/>
+      <c r="BT158" s="36"/>
+      <c r="BU158" s="36"/>
+      <c r="BV158" s="36">
         <v>2018</v>
       </c>
-      <c r="BW158" s="26"/>
-      <c r="BX158" s="26"/>
-      <c r="BY158" s="26"/>
-      <c r="BZ158" s="26">
+      <c r="BW158" s="36"/>
+      <c r="BX158" s="36"/>
+      <c r="BY158" s="36"/>
+      <c r="BZ158" s="36">
         <v>2019</v>
       </c>
-      <c r="CA158" s="26"/>
-      <c r="CB158" s="26"/>
-      <c r="CC158" s="26"/>
-      <c r="CD158" s="25">
+      <c r="CA158" s="36"/>
+      <c r="CB158" s="36"/>
+      <c r="CC158" s="36"/>
+      <c r="CD158" s="35">
         <v>2020</v>
       </c>
-      <c r="CE158" s="25"/>
-      <c r="CF158" s="25"/>
-      <c r="CG158" s="25"/>
+      <c r="CE158" s="35"/>
+      <c r="CF158" s="35"/>
+      <c r="CG158" s="35"/>
       <c r="CH158" s="21">
         <v>2021</v>
       </c>
@@ -25595,16 +25735,17 @@
       <c r="CM158" s="21"/>
       <c r="CN158" s="21"/>
       <c r="CO158" s="21"/>
-      <c r="CP158" s="21">
+      <c r="CP158" s="24">
         <v>2023</v>
       </c>
-      <c r="CQ158" s="21"/>
-      <c r="CR158" s="21"/>
-      <c r="CS158" s="21"/>
-      <c r="CT158" s="21">
+      <c r="CQ158" s="24"/>
+      <c r="CR158" s="24"/>
+      <c r="CS158" s="24"/>
+      <c r="CT158" s="24">
         <v>2024</v>
       </c>
-      <c r="CU158" s="21"/>
+      <c r="CU158" s="24"/>
+      <c r="CV158" s="24"/>
     </row>
     <row r="159" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
@@ -25884,23 +26025,26 @@
       <c r="CO159" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="CP159" s="13" t="s">
+      <c r="CP159" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CQ159" s="13" t="s">
+      <c r="CQ159" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CR159" s="13" t="s">
+      <c r="CR159" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CS159" s="13" t="s">
+      <c r="CS159" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="CT159" s="13" t="s">
+      <c r="CT159" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CU159" s="13" t="s">
+      <c r="CU159" s="29" t="s">
         <v>8</v>
+      </c>
+      <c r="CV159" s="29" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26186,25 +26330,27 @@
       <c r="CO161" s="20">
         <v>7.6630996965324938</v>
       </c>
-      <c r="CP161" s="20">
+      <c r="CP161" s="34">
         <v>8.9918714163940461</v>
       </c>
-      <c r="CQ161" s="20">
+      <c r="CQ161" s="34">
         <v>3.4153784663458158</v>
       </c>
-      <c r="CR161" s="20">
+      <c r="CR161" s="34">
         <v>6.4682529948945442</v>
       </c>
-      <c r="CS161" s="20">
+      <c r="CS161" s="34">
         <v>7.4996467591159188</v>
       </c>
-      <c r="CT161" s="20">
+      <c r="CT161" s="34">
         <v>9.0932006109487933</v>
       </c>
-      <c r="CU161" s="20">
-        <v>3.5040568028317205</v>
-      </c>
-      <c r="CV161" s="8"/>
+      <c r="CU161" s="34">
+        <v>3.5095493728746185</v>
+      </c>
+      <c r="CV161" s="34">
+        <v>6.1398733864927513</v>
+      </c>
       <c r="CW161" s="8"/>
       <c r="CX161" s="8"/>
       <c r="CY161" s="8"/>
@@ -26537,25 +26683,27 @@
       <c r="CO162" s="20">
         <v>0.16341702590711205</v>
       </c>
-      <c r="CP162" s="20">
+      <c r="CP162" s="34">
         <v>5.3999407691669186E-2</v>
       </c>
-      <c r="CQ162" s="20">
+      <c r="CQ162" s="34">
         <v>5.4605675385951721E-2</v>
       </c>
-      <c r="CR162" s="20">
+      <c r="CR162" s="34">
         <v>0.12601186421147886</v>
       </c>
-      <c r="CS162" s="20">
+      <c r="CS162" s="34">
         <v>0.13308325790527478</v>
       </c>
-      <c r="CT162" s="20">
+      <c r="CT162" s="34">
         <v>5.3872129883221702E-2</v>
       </c>
-      <c r="CU162" s="20">
-        <v>5.5302284354389719E-2</v>
-      </c>
-      <c r="CV162" s="8"/>
+      <c r="CU162" s="34">
+        <v>5.2084183969176523E-2</v>
+      </c>
+      <c r="CV162" s="34">
+        <v>0.12908182715210453</v>
+      </c>
       <c r="CW162" s="8"/>
       <c r="CX162" s="8"/>
       <c r="CY162" s="8"/>
@@ -26888,25 +27036,27 @@
       <c r="CO163" s="20">
         <v>10.252652666100939</v>
       </c>
-      <c r="CP163" s="20">
+      <c r="CP163" s="34">
         <v>14.119039736867878</v>
       </c>
-      <c r="CQ163" s="20">
+      <c r="CQ163" s="34">
         <v>15.144456718974508</v>
       </c>
-      <c r="CR163" s="20">
+      <c r="CR163" s="34">
         <v>22.747257983203529</v>
       </c>
-      <c r="CS163" s="20">
+      <c r="CS163" s="34">
         <v>14.64119115247656</v>
       </c>
-      <c r="CT163" s="20">
+      <c r="CT163" s="34">
         <v>14.814209801310064</v>
       </c>
-      <c r="CU163" s="20">
-        <v>17.189853505995075</v>
-      </c>
-      <c r="CV163" s="8"/>
+      <c r="CU163" s="34">
+        <v>17.169755046512964</v>
+      </c>
+      <c r="CV163" s="34">
+        <v>18.674186945677775</v>
+      </c>
       <c r="CW163" s="8"/>
       <c r="CX163" s="8"/>
       <c r="CY163" s="8"/>
@@ -27239,25 +27389,27 @@
       <c r="CO164" s="20">
         <v>0.74331637237930814</v>
       </c>
-      <c r="CP164" s="20">
+      <c r="CP164" s="34">
         <v>0.53118400728041659</v>
       </c>
-      <c r="CQ164" s="20">
+      <c r="CQ164" s="34">
         <v>0.61907985680627431</v>
       </c>
-      <c r="CR164" s="20">
+      <c r="CR164" s="34">
         <v>0.72952868276331728</v>
       </c>
-      <c r="CS164" s="20">
+      <c r="CS164" s="34">
         <v>0.75907364018529599</v>
       </c>
-      <c r="CT164" s="20">
+      <c r="CT164" s="34">
         <v>0.51204732959273869</v>
       </c>
-      <c r="CU164" s="20">
-        <v>0.59012362652595463</v>
-      </c>
-      <c r="CV164" s="8"/>
+      <c r="CU164" s="34">
+        <v>0.59240946885967161</v>
+      </c>
+      <c r="CV164" s="34">
+        <v>0.72545854000513044</v>
+      </c>
       <c r="CW164" s="8"/>
       <c r="CX164" s="8"/>
       <c r="CY164" s="8"/>
@@ -27590,25 +27742,27 @@
       <c r="CO165" s="20">
         <v>15.977133571417401</v>
       </c>
-      <c r="CP165" s="20">
+      <c r="CP165" s="34">
         <v>17.810061842049443</v>
       </c>
-      <c r="CQ165" s="20">
+      <c r="CQ165" s="34">
         <v>17.879742131696933</v>
       </c>
-      <c r="CR165" s="20">
+      <c r="CR165" s="34">
         <v>14.393953493192416</v>
       </c>
-      <c r="CS165" s="20">
+      <c r="CS165" s="34">
         <v>16.199052071689611</v>
       </c>
-      <c r="CT165" s="20">
+      <c r="CT165" s="34">
         <v>17.212647114573571</v>
       </c>
-      <c r="CU165" s="20">
-        <v>17.79843675990897</v>
-      </c>
-      <c r="CV165" s="8"/>
+      <c r="CU165" s="34">
+        <v>17.720788051535695</v>
+      </c>
+      <c r="CV165" s="34">
+        <v>15.523688373146383</v>
+      </c>
       <c r="CW165" s="8"/>
       <c r="CX165" s="8"/>
       <c r="CY165" s="8"/>
@@ -27941,25 +28095,27 @@
       <c r="CO166" s="20">
         <v>52.81115197717947</v>
       </c>
-      <c r="CP166" s="20">
+      <c r="CP166" s="34">
         <v>49.906478558644686</v>
       </c>
-      <c r="CQ166" s="20">
+      <c r="CQ166" s="34">
         <v>52.241171150170473</v>
       </c>
-      <c r="CR166" s="20">
+      <c r="CR166" s="34">
         <v>45.389236459579003</v>
       </c>
-      <c r="CS166" s="20">
+      <c r="CS166" s="34">
         <v>48.987351583982289</v>
       </c>
-      <c r="CT166" s="20">
+      <c r="CT166" s="34">
         <v>49.980197874614156</v>
       </c>
-      <c r="CU166" s="20">
-        <v>50.434798353177776</v>
-      </c>
-      <c r="CV166" s="8"/>
+      <c r="CU166" s="34">
+        <v>50.12013440044867</v>
+      </c>
+      <c r="CV166" s="34">
+        <v>48.485130035267822</v>
+      </c>
       <c r="CW166" s="8"/>
       <c r="CX166" s="8"/>
       <c r="CY166" s="8"/>
@@ -28292,25 +28448,27 @@
       <c r="CO167" s="20">
         <v>10.586080427716073</v>
       </c>
-      <c r="CP167" s="20">
+      <c r="CP167" s="34">
         <v>7.6306735769493264</v>
       </c>
-      <c r="CQ167" s="20">
+      <c r="CQ167" s="34">
         <v>9.3225376295608804</v>
       </c>
-      <c r="CR167" s="20">
+      <c r="CR167" s="34">
         <v>8.850188947993038</v>
       </c>
-      <c r="CS167" s="20">
+      <c r="CS167" s="34">
         <v>9.9994693346801604</v>
       </c>
-      <c r="CT167" s="20">
+      <c r="CT167" s="34">
         <v>7.4080784946553733</v>
       </c>
-      <c r="CU167" s="20">
-        <v>8.874669061707289</v>
-      </c>
-      <c r="CV167" s="8"/>
+      <c r="CU167" s="34">
+        <v>9.1423249407557705</v>
+      </c>
+      <c r="CV167" s="34">
+        <v>8.9920356766034111</v>
+      </c>
       <c r="CW167" s="8"/>
       <c r="CX167" s="8"/>
       <c r="CY167" s="8"/>
@@ -28643,25 +28801,27 @@
       <c r="CO168" s="20">
         <v>1.8031482627672057</v>
       </c>
-      <c r="CP168" s="20">
+      <c r="CP168" s="34">
         <v>0.95669145412253398</v>
       </c>
-      <c r="CQ168" s="20">
+      <c r="CQ168" s="34">
         <v>1.3230283710591559</v>
       </c>
-      <c r="CR168" s="20">
+      <c r="CR168" s="34">
         <v>1.2955695741626716</v>
       </c>
-      <c r="CS168" s="20">
+      <c r="CS168" s="34">
         <v>1.7811321999648935</v>
       </c>
-      <c r="CT168" s="20">
+      <c r="CT168" s="34">
         <v>0.92574664442207877</v>
       </c>
-      <c r="CU168" s="20">
-        <v>1.5527596054988155</v>
-      </c>
-      <c r="CV168" s="8"/>
+      <c r="CU168" s="34">
+        <v>1.6929545350434463</v>
+      </c>
+      <c r="CV168" s="34">
+        <v>1.3305452156546504</v>
+      </c>
       <c r="CW168" s="8"/>
       <c r="CX168" s="8"/>
       <c r="CY168" s="8"/>
@@ -28807,13 +28967,13 @@
       <c r="CM169" s="8"/>
       <c r="CN169" s="8"/>
       <c r="CO169" s="8"/>
-      <c r="CP169" s="8"/>
-      <c r="CQ169" s="8"/>
-      <c r="CR169" s="8"/>
-      <c r="CS169" s="8"/>
-      <c r="CT169" s="8"/>
-      <c r="CU169" s="8"/>
-      <c r="CV169" s="8"/>
+      <c r="CP169" s="26"/>
+      <c r="CQ169" s="26"/>
+      <c r="CR169" s="26"/>
+      <c r="CS169" s="26"/>
+      <c r="CT169" s="26"/>
+      <c r="CU169" s="26"/>
+      <c r="CV169" s="26"/>
       <c r="CW169" s="8"/>
       <c r="CX169" s="8"/>
       <c r="CY169" s="8"/>
@@ -29146,25 +29306,27 @@
       <c r="CO170" s="14">
         <v>100</v>
       </c>
-      <c r="CP170" s="14">
+      <c r="CP170" s="31">
         <v>100</v>
       </c>
-      <c r="CQ170" s="14">
+      <c r="CQ170" s="31">
         <v>100</v>
       </c>
-      <c r="CR170" s="14">
+      <c r="CR170" s="31">
         <v>100</v>
       </c>
-      <c r="CS170" s="14">
+      <c r="CS170" s="31">
         <v>100</v>
       </c>
-      <c r="CT170" s="14">
+      <c r="CT170" s="31">
         <v>100</v>
       </c>
-      <c r="CU170" s="14">
+      <c r="CU170" s="31">
         <v>100</v>
       </c>
-      <c r="CV170" s="8"/>
+      <c r="CV170" s="31">
+        <v>100</v>
+      </c>
       <c r="CW170" s="8"/>
       <c r="CX170" s="8"/>
       <c r="CY170" s="8"/>
@@ -29311,12 +29473,13 @@
       <c r="CM171" s="11"/>
       <c r="CN171" s="11"/>
       <c r="CO171" s="11"/>
-      <c r="CP171" s="11"/>
-      <c r="CQ171" s="11"/>
-      <c r="CR171" s="11"/>
-      <c r="CS171" s="11"/>
-      <c r="CT171" s="11"/>
-      <c r="CU171" s="11"/>
+      <c r="CP171" s="28"/>
+      <c r="CQ171" s="28"/>
+      <c r="CR171" s="28"/>
+      <c r="CS171" s="28"/>
+      <c r="CT171" s="28"/>
+      <c r="CU171" s="28"/>
+      <c r="CV171" s="28"/>
     </row>
     <row r="172" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
@@ -29417,13 +29580,13 @@
       <c r="CM173" s="1"/>
       <c r="CN173" s="1"/>
       <c r="CO173" s="1"/>
-      <c r="CP173" s="1"/>
-      <c r="CQ173" s="1"/>
-      <c r="CR173" s="1"/>
-      <c r="CS173" s="1"/>
-      <c r="CT173" s="1"/>
-      <c r="CU173" s="1"/>
-      <c r="CV173" s="16"/>
+      <c r="CP173" s="23"/>
+      <c r="CQ173" s="23"/>
+      <c r="CR173" s="23"/>
+      <c r="CS173" s="23"/>
+      <c r="CT173" s="23"/>
+      <c r="CU173" s="23"/>
+      <c r="CV173" s="23"/>
       <c r="CW173" s="16"/>
       <c r="CX173" s="16"/>
       <c r="CY173" s="16"/>
@@ -29570,13 +29733,13 @@
       <c r="CM174" s="1"/>
       <c r="CN174" s="1"/>
       <c r="CO174" s="1"/>
-      <c r="CP174" s="1"/>
-      <c r="CQ174" s="1"/>
-      <c r="CR174" s="1"/>
-      <c r="CS174" s="1"/>
-      <c r="CT174" s="1"/>
-      <c r="CU174" s="1"/>
-      <c r="CV174" s="16"/>
+      <c r="CP174" s="23"/>
+      <c r="CQ174" s="23"/>
+      <c r="CR174" s="23"/>
+      <c r="CS174" s="23"/>
+      <c r="CT174" s="23"/>
+      <c r="CU174" s="23"/>
+      <c r="CV174" s="23"/>
       <c r="CW174" s="16"/>
       <c r="CX174" s="16"/>
       <c r="CY174" s="16"/>
@@ -29783,9 +29946,9 @@
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="50" max="97" man="1"/>
-    <brk id="100" max="97" man="1"/>
-    <brk id="124" max="97" man="1"/>
+    <brk id="50" max="99" man="1"/>
+    <brk id="100" max="99" man="1"/>
+    <brk id="124" max="99" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-05EOS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-05EOS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81861303-C04D-43AB-80BC-0D62B4EB43FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B99B003-2C07-4477-940D-A26C0C51CAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="975" windowWidth="12660" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EOS" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">EOS!$A$37:$A$48</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EOS!$A$1:$CV$174</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EOS!$A$1:$CW$174</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="58">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -222,13 +222,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>As of November 2024</t>
+    <t>Q1 2000 to Q4 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2024</t>
+    <t>Q1 2001 to Q4 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2024</t>
+    <t>As of January 2025</t>
   </si>
 </sst>
 </file>
@@ -379,10 +379,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -727,7 +727,7 @@
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" sqref="A1:A1048576"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -735,8 +735,8 @@
     <col min="1" max="1" width="43.77734375" style="1" customWidth="1"/>
     <col min="2" max="73" width="8.77734375" style="1" customWidth="1"/>
     <col min="74" max="93" width="10" style="1" customWidth="1"/>
-    <col min="94" max="100" width="10" style="23" customWidth="1"/>
-    <col min="101" max="16384" width="7.77734375" style="1"/>
+    <col min="94" max="101" width="10" style="23" customWidth="1"/>
+    <col min="102" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:151" x14ac:dyDescent="0.2">
@@ -751,7 +751,7 @@
     </row>
     <row r="3" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:151" x14ac:dyDescent="0.2">
@@ -761,7 +761,7 @@
     </row>
     <row r="6" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:151" x14ac:dyDescent="0.2">
@@ -771,132 +771,132 @@
     </row>
     <row r="9" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="35">
+      <c r="B9" s="36">
         <v>2000</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35">
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36">
         <v>2001</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35">
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36">
         <v>2002</v>
       </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35">
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36">
         <v>2003</v>
       </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35">
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36">
         <v>2004</v>
       </c>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35">
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36">
         <v>2005</v>
       </c>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35">
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36">
         <v>2006</v>
       </c>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="35">
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36">
         <v>2007</v>
       </c>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="35"/>
-      <c r="AH9" s="35">
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="36">
         <v>2008</v>
       </c>
-      <c r="AI9" s="35"/>
-      <c r="AJ9" s="35"/>
-      <c r="AK9" s="35"/>
-      <c r="AL9" s="35">
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="36"/>
+      <c r="AK9" s="36"/>
+      <c r="AL9" s="36">
         <v>2009</v>
       </c>
-      <c r="AM9" s="35"/>
-      <c r="AN9" s="35"/>
-      <c r="AO9" s="35"/>
-      <c r="AP9" s="35">
+      <c r="AM9" s="36"/>
+      <c r="AN9" s="36"/>
+      <c r="AO9" s="36"/>
+      <c r="AP9" s="36">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="35"/>
-      <c r="AR9" s="35"/>
-      <c r="AS9" s="35"/>
-      <c r="AT9" s="35">
+      <c r="AQ9" s="36"/>
+      <c r="AR9" s="36"/>
+      <c r="AS9" s="36"/>
+      <c r="AT9" s="36">
         <v>2011</v>
       </c>
-      <c r="AU9" s="35"/>
-      <c r="AV9" s="35"/>
-      <c r="AW9" s="35"/>
-      <c r="AX9" s="35">
+      <c r="AU9" s="36"/>
+      <c r="AV9" s="36"/>
+      <c r="AW9" s="36"/>
+      <c r="AX9" s="36">
         <v>2012</v>
       </c>
-      <c r="AY9" s="35"/>
-      <c r="AZ9" s="35"/>
-      <c r="BA9" s="35"/>
-      <c r="BB9" s="35">
+      <c r="AY9" s="36"/>
+      <c r="AZ9" s="36"/>
+      <c r="BA9" s="36"/>
+      <c r="BB9" s="36">
         <v>2013</v>
       </c>
-      <c r="BC9" s="35"/>
-      <c r="BD9" s="35"/>
-      <c r="BE9" s="35"/>
-      <c r="BF9" s="35">
+      <c r="BC9" s="36"/>
+      <c r="BD9" s="36"/>
+      <c r="BE9" s="36"/>
+      <c r="BF9" s="36">
         <v>2014</v>
       </c>
-      <c r="BG9" s="35"/>
-      <c r="BH9" s="35"/>
-      <c r="BI9" s="35"/>
-      <c r="BJ9" s="35">
+      <c r="BG9" s="36"/>
+      <c r="BH9" s="36"/>
+      <c r="BI9" s="36"/>
+      <c r="BJ9" s="36">
         <v>2015</v>
       </c>
-      <c r="BK9" s="35"/>
-      <c r="BL9" s="35"/>
-      <c r="BM9" s="35"/>
-      <c r="BN9" s="35">
+      <c r="BK9" s="36"/>
+      <c r="BL9" s="36"/>
+      <c r="BM9" s="36"/>
+      <c r="BN9" s="36">
         <v>2016</v>
       </c>
-      <c r="BO9" s="35"/>
-      <c r="BP9" s="35"/>
-      <c r="BQ9" s="35"/>
-      <c r="BR9" s="35">
+      <c r="BO9" s="36"/>
+      <c r="BP9" s="36"/>
+      <c r="BQ9" s="36"/>
+      <c r="BR9" s="36">
         <v>2017</v>
       </c>
-      <c r="BS9" s="35"/>
-      <c r="BT9" s="35"/>
-      <c r="BU9" s="35"/>
-      <c r="BV9" s="35">
+      <c r="BS9" s="36"/>
+      <c r="BT9" s="36"/>
+      <c r="BU9" s="36"/>
+      <c r="BV9" s="36">
         <v>2018</v>
       </c>
-      <c r="BW9" s="35"/>
-      <c r="BX9" s="35"/>
-      <c r="BY9" s="35"/>
-      <c r="BZ9" s="35">
+      <c r="BW9" s="36"/>
+      <c r="BX9" s="36"/>
+      <c r="BY9" s="36"/>
+      <c r="BZ9" s="36">
         <v>2019</v>
       </c>
-      <c r="CA9" s="35"/>
-      <c r="CB9" s="35"/>
-      <c r="CC9" s="35"/>
-      <c r="CD9" s="35">
+      <c r="CA9" s="36"/>
+      <c r="CB9" s="36"/>
+      <c r="CC9" s="36"/>
+      <c r="CD9" s="36">
         <v>2020</v>
       </c>
-      <c r="CE9" s="35"/>
-      <c r="CF9" s="35"/>
-      <c r="CG9" s="35"/>
+      <c r="CE9" s="36"/>
+      <c r="CF9" s="36"/>
+      <c r="CG9" s="36"/>
       <c r="CH9" s="21">
         <v>2021</v>
       </c>
@@ -920,6 +920,7 @@
       </c>
       <c r="CU9" s="24"/>
       <c r="CV9" s="24"/>
+      <c r="CW9" s="24"/>
     </row>
     <row r="10" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
@@ -1219,6 +1220,9 @@
       </c>
       <c r="CV10" s="13" t="s">
         <v>9</v>
+      </c>
+      <c r="CW10" s="13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1523,9 +1527,11 @@
         <v>38250.076815867869</v>
       </c>
       <c r="CV12" s="25">
-        <v>50573.182042746033</v>
-      </c>
-      <c r="CW12" s="8"/>
+        <v>48967.591094554649</v>
+      </c>
+      <c r="CW12" s="25">
+        <v>57686.066483357688</v>
+      </c>
       <c r="CX12" s="8"/>
       <c r="CY12" s="8"/>
       <c r="CZ12" s="8"/>
@@ -1876,9 +1882,11 @@
         <v>490.03761118240203</v>
       </c>
       <c r="CV13" s="25">
-        <v>1007.5205428879642</v>
-      </c>
-      <c r="CW13" s="8"/>
+        <v>961.13545683437087</v>
+      </c>
+      <c r="CW13" s="25">
+        <v>887.19010522286317</v>
+      </c>
       <c r="CX13" s="8"/>
       <c r="CY13" s="8"/>
       <c r="CZ13" s="8"/>
@@ -2231,7 +2239,9 @@
       <c r="CV14" s="25">
         <v>149127.23704708871</v>
       </c>
-      <c r="CW14" s="8"/>
+      <c r="CW14" s="25">
+        <v>105862.45688709842</v>
+      </c>
       <c r="CX14" s="8"/>
       <c r="CY14" s="8"/>
       <c r="CZ14" s="8"/>
@@ -2582,9 +2592,11 @@
         <v>5418.3606287574867</v>
       </c>
       <c r="CV15" s="25">
-        <v>5553.9493145297602</v>
-      </c>
-      <c r="CW15" s="8"/>
+        <v>5794.112552485175</v>
+      </c>
+      <c r="CW15" s="25">
+        <v>5625.5953832952018</v>
+      </c>
       <c r="CX15" s="8"/>
       <c r="CY15" s="8"/>
       <c r="CZ15" s="8"/>
@@ -2935,9 +2947,11 @@
         <v>142031.78516345526</v>
       </c>
       <c r="CV16" s="25">
-        <v>101431.26716389808</v>
-      </c>
-      <c r="CW16" s="8"/>
+        <v>102948.32523319367</v>
+      </c>
+      <c r="CW16" s="25">
+        <v>119346.31969001608</v>
+      </c>
       <c r="CX16" s="8"/>
       <c r="CY16" s="8"/>
       <c r="CZ16" s="8"/>
@@ -3288,9 +3302,11 @@
         <v>469821.55779187358</v>
       </c>
       <c r="CV17" s="25">
-        <v>378125.3313893525</v>
-      </c>
-      <c r="CW17" s="8"/>
+        <v>377392.31476536294</v>
+      </c>
+      <c r="CW17" s="25">
+        <v>444241.7478027849</v>
+      </c>
       <c r="CX17" s="8"/>
       <c r="CY17" s="8"/>
       <c r="CZ17" s="8"/>
@@ -3641,9 +3657,11 @@
         <v>85948.802711667129</v>
       </c>
       <c r="CV18" s="25">
-        <v>70845.972496813789</v>
-      </c>
-      <c r="CW18" s="8"/>
+        <v>66191.657628261586</v>
+      </c>
+      <c r="CW18" s="25">
+        <v>72687.03305027858</v>
+      </c>
       <c r="CX18" s="8"/>
       <c r="CY18" s="8"/>
       <c r="CZ18" s="8"/>
@@ -3994,9 +4012,11 @@
         <v>15843.539534704643</v>
       </c>
       <c r="CV19" s="25">
-        <v>10065.050719549774</v>
-      </c>
-      <c r="CW19" s="8"/>
+        <v>10720.056415337889</v>
+      </c>
+      <c r="CW19" s="25">
+        <v>14769.568088895277</v>
+      </c>
       <c r="CX19" s="8"/>
       <c r="CY19" s="8"/>
       <c r="CZ19" s="8"/>
@@ -4148,7 +4168,7 @@
       <c r="CT20" s="26"/>
       <c r="CU20" s="26"/>
       <c r="CV20" s="26"/>
-      <c r="CW20" s="8"/>
+      <c r="CW20" s="26"/>
       <c r="CX20" s="8"/>
       <c r="CY20" s="8"/>
       <c r="CZ20" s="8"/>
@@ -4499,9 +4519,11 @@
         <v>925167.13920123829</v>
       </c>
       <c r="CV21" s="27">
-        <v>766729.51071686659</v>
-      </c>
-      <c r="CW21" s="8"/>
+        <v>762102.43019311887</v>
+      </c>
+      <c r="CW21" s="27">
+        <v>821105.97749094898</v>
+      </c>
       <c r="CX21" s="8"/>
       <c r="CY21" s="8"/>
       <c r="CZ21" s="8"/>
@@ -4654,6 +4676,7 @@
       <c r="CT22" s="28"/>
       <c r="CU22" s="28"/>
       <c r="CV22" s="28"/>
+      <c r="CW22" s="28"/>
     </row>
     <row r="23" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
@@ -4760,7 +4783,7 @@
       <c r="CT24" s="26"/>
       <c r="CU24" s="26"/>
       <c r="CV24" s="26"/>
-      <c r="CW24" s="8"/>
+      <c r="CW24" s="26"/>
       <c r="CX24" s="8"/>
       <c r="CY24" s="8"/>
       <c r="CZ24" s="8"/>
@@ -4912,7 +4935,7 @@
       <c r="CT25" s="26"/>
       <c r="CU25" s="26"/>
       <c r="CV25" s="26"/>
-      <c r="CW25" s="8"/>
+      <c r="CW25" s="26"/>
       <c r="CX25" s="8"/>
       <c r="CY25" s="8"/>
       <c r="CZ25" s="8"/>
@@ -4976,7 +4999,7 @@
     </row>
     <row r="28" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:151" x14ac:dyDescent="0.2">
@@ -4986,7 +5009,7 @@
     </row>
     <row r="31" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:151" x14ac:dyDescent="0.2">
@@ -4996,132 +5019,132 @@
     </row>
     <row r="34" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="36">
+      <c r="B34" s="35">
         <v>2000</v>
       </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36">
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35">
         <v>2001</v>
       </c>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36">
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35">
         <v>2002</v>
       </c>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36">
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35">
         <v>2003</v>
       </c>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36">
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35">
         <v>2004</v>
       </c>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36">
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35">
         <v>2005</v>
       </c>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="36">
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35">
         <v>2006</v>
       </c>
-      <c r="AA34" s="36"/>
-      <c r="AB34" s="36"/>
-      <c r="AC34" s="36"/>
-      <c r="AD34" s="36">
+      <c r="AA34" s="35"/>
+      <c r="AB34" s="35"/>
+      <c r="AC34" s="35"/>
+      <c r="AD34" s="35">
         <v>2007</v>
       </c>
-      <c r="AE34" s="36"/>
-      <c r="AF34" s="36"/>
-      <c r="AG34" s="36"/>
-      <c r="AH34" s="36">
+      <c r="AE34" s="35"/>
+      <c r="AF34" s="35"/>
+      <c r="AG34" s="35"/>
+      <c r="AH34" s="35">
         <v>2008</v>
       </c>
-      <c r="AI34" s="36"/>
-      <c r="AJ34" s="36"/>
-      <c r="AK34" s="36"/>
-      <c r="AL34" s="36">
+      <c r="AI34" s="35"/>
+      <c r="AJ34" s="35"/>
+      <c r="AK34" s="35"/>
+      <c r="AL34" s="35">
         <v>2009</v>
       </c>
-      <c r="AM34" s="36"/>
-      <c r="AN34" s="36"/>
-      <c r="AO34" s="36"/>
-      <c r="AP34" s="36">
+      <c r="AM34" s="35"/>
+      <c r="AN34" s="35"/>
+      <c r="AO34" s="35"/>
+      <c r="AP34" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ34" s="36"/>
-      <c r="AR34" s="36"/>
-      <c r="AS34" s="36"/>
-      <c r="AT34" s="36">
+      <c r="AQ34" s="35"/>
+      <c r="AR34" s="35"/>
+      <c r="AS34" s="35"/>
+      <c r="AT34" s="35">
         <v>2011</v>
       </c>
-      <c r="AU34" s="36"/>
-      <c r="AV34" s="36"/>
-      <c r="AW34" s="36"/>
-      <c r="AX34" s="36">
+      <c r="AU34" s="35"/>
+      <c r="AV34" s="35"/>
+      <c r="AW34" s="35"/>
+      <c r="AX34" s="35">
         <v>2012</v>
       </c>
-      <c r="AY34" s="36"/>
-      <c r="AZ34" s="36"/>
-      <c r="BA34" s="36"/>
-      <c r="BB34" s="36">
+      <c r="AY34" s="35"/>
+      <c r="AZ34" s="35"/>
+      <c r="BA34" s="35"/>
+      <c r="BB34" s="35">
         <v>2013</v>
       </c>
-      <c r="BC34" s="36"/>
-      <c r="BD34" s="36"/>
-      <c r="BE34" s="36"/>
-      <c r="BF34" s="36">
+      <c r="BC34" s="35"/>
+      <c r="BD34" s="35"/>
+      <c r="BE34" s="35"/>
+      <c r="BF34" s="35">
         <v>2014</v>
       </c>
-      <c r="BG34" s="36"/>
-      <c r="BH34" s="36"/>
-      <c r="BI34" s="36"/>
-      <c r="BJ34" s="36">
+      <c r="BG34" s="35"/>
+      <c r="BH34" s="35"/>
+      <c r="BI34" s="35"/>
+      <c r="BJ34" s="35">
         <v>2015</v>
       </c>
-      <c r="BK34" s="36"/>
-      <c r="BL34" s="36"/>
-      <c r="BM34" s="36"/>
-      <c r="BN34" s="36">
+      <c r="BK34" s="35"/>
+      <c r="BL34" s="35"/>
+      <c r="BM34" s="35"/>
+      <c r="BN34" s="35">
         <v>2016</v>
       </c>
-      <c r="BO34" s="36"/>
-      <c r="BP34" s="36"/>
-      <c r="BQ34" s="36"/>
-      <c r="BR34" s="36">
+      <c r="BO34" s="35"/>
+      <c r="BP34" s="35"/>
+      <c r="BQ34" s="35"/>
+      <c r="BR34" s="35">
         <v>2017</v>
       </c>
-      <c r="BS34" s="36"/>
-      <c r="BT34" s="36"/>
-      <c r="BU34" s="36"/>
-      <c r="BV34" s="36">
+      <c r="BS34" s="35"/>
+      <c r="BT34" s="35"/>
+      <c r="BU34" s="35"/>
+      <c r="BV34" s="35">
         <v>2018</v>
       </c>
-      <c r="BW34" s="36"/>
-      <c r="BX34" s="36"/>
-      <c r="BY34" s="36"/>
-      <c r="BZ34" s="36">
+      <c r="BW34" s="35"/>
+      <c r="BX34" s="35"/>
+      <c r="BY34" s="35"/>
+      <c r="BZ34" s="35">
         <v>2019</v>
       </c>
-      <c r="CA34" s="36"/>
-      <c r="CB34" s="36"/>
-      <c r="CC34" s="36"/>
-      <c r="CD34" s="35">
+      <c r="CA34" s="35"/>
+      <c r="CB34" s="35"/>
+      <c r="CC34" s="35"/>
+      <c r="CD34" s="36">
         <v>2020</v>
       </c>
-      <c r="CE34" s="35"/>
-      <c r="CF34" s="35"/>
-      <c r="CG34" s="35"/>
+      <c r="CE34" s="36"/>
+      <c r="CF34" s="36"/>
+      <c r="CG34" s="36"/>
       <c r="CH34" s="21">
         <v>2021</v>
       </c>
@@ -5145,6 +5168,7 @@
       </c>
       <c r="CU34" s="24"/>
       <c r="CV34" s="24"/>
+      <c r="CW34" s="24"/>
     </row>
     <row r="35" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
@@ -5444,6 +5468,9 @@
       </c>
       <c r="CV35" s="29" t="s">
         <v>9</v>
+      </c>
+      <c r="CW35" s="29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -5748,9 +5775,11 @@
         <v>27032.616634089813</v>
       </c>
       <c r="CV37" s="25">
-        <v>38852.41629649551</v>
-      </c>
-      <c r="CW37" s="8"/>
+        <v>37618.934727780084</v>
+      </c>
+      <c r="CW37" s="25">
+        <v>42901.41555910671</v>
+      </c>
       <c r="CX37" s="8"/>
       <c r="CY37" s="8"/>
       <c r="CZ37" s="8"/>
@@ -6101,9 +6130,11 @@
         <v>401.18306607121667</v>
       </c>
       <c r="CV38" s="25">
-        <v>816.81503332931379</v>
-      </c>
-      <c r="CW38" s="8"/>
+        <v>779.20980941770358</v>
+      </c>
+      <c r="CW38" s="25">
+        <v>737.40500713509221</v>
+      </c>
       <c r="CX38" s="8"/>
       <c r="CY38" s="8"/>
       <c r="CZ38" s="8"/>
@@ -6456,7 +6487,9 @@
       <c r="CV39" s="25">
         <v>118168.11838631412</v>
       </c>
-      <c r="CW39" s="8"/>
+      <c r="CW39" s="25">
+        <v>86172.815660470078</v>
+      </c>
       <c r="CX39" s="8"/>
       <c r="CY39" s="8"/>
       <c r="CZ39" s="8"/>
@@ -6807,9 +6840,11 @@
         <v>4563.0866987835352</v>
       </c>
       <c r="CV40" s="25">
-        <v>4590.6186378588518</v>
-      </c>
-      <c r="CW40" s="8"/>
+        <v>4789.1256414071913</v>
+      </c>
+      <c r="CW40" s="25">
+        <v>4604.2556966026332</v>
+      </c>
       <c r="CX40" s="8"/>
       <c r="CY40" s="8"/>
       <c r="CZ40" s="8"/>
@@ -7160,9 +7195,11 @@
         <v>136495.94832704976</v>
       </c>
       <c r="CV41" s="25">
-        <v>98232.123883433189</v>
-      </c>
-      <c r="CW41" s="8"/>
+        <v>99701.33392455992</v>
+      </c>
+      <c r="CW41" s="25">
+        <v>114546.3064887722</v>
+      </c>
       <c r="CX41" s="8"/>
       <c r="CY41" s="8"/>
       <c r="CZ41" s="8"/>
@@ -7513,9 +7550,11 @@
         <v>386054.79933357524</v>
       </c>
       <c r="CV42" s="25">
-        <v>306808.35544004542</v>
-      </c>
-      <c r="CW42" s="8"/>
+        <v>306237.27388930705</v>
+      </c>
+      <c r="CW42" s="25">
+        <v>361598.28160961281</v>
+      </c>
       <c r="CX42" s="8"/>
       <c r="CY42" s="8"/>
       <c r="CZ42" s="8"/>
@@ -7866,9 +7905,11 @@
         <v>70419.572147320781</v>
       </c>
       <c r="CV43" s="25">
-        <v>56900.572938345198</v>
-      </c>
-      <c r="CW43" s="8"/>
+        <v>53162.418554650489</v>
+      </c>
+      <c r="CW43" s="25">
+        <v>59446.488482829634</v>
+      </c>
       <c r="CX43" s="8"/>
       <c r="CY43" s="8"/>
       <c r="CZ43" s="8"/>
@@ -8219,9 +8260,11 @@
         <v>13040.133094719178</v>
       </c>
       <c r="CV44" s="25">
-        <v>8419.5378904147547</v>
-      </c>
-      <c r="CW44" s="8"/>
+        <v>8967.4581570671435</v>
+      </c>
+      <c r="CW44" s="25">
+        <v>12291.940892641089</v>
+      </c>
       <c r="CX44" s="8"/>
       <c r="CY44" s="8"/>
       <c r="CZ44" s="8"/>
@@ -8373,7 +8416,7 @@
       <c r="CT45" s="26"/>
       <c r="CU45" s="26"/>
       <c r="CV45" s="26"/>
-      <c r="CW45" s="8"/>
+      <c r="CW45" s="26"/>
       <c r="CX45" s="8"/>
       <c r="CY45" s="8"/>
       <c r="CZ45" s="8"/>
@@ -8724,9 +8767,11 @@
         <v>770258.9068279101</v>
       </c>
       <c r="CV46" s="27">
-        <v>632788.55850623618</v>
-      </c>
-      <c r="CW46" s="8"/>
+        <v>629423.87309050374</v>
+      </c>
+      <c r="CW46" s="27">
+        <v>682298.9093971703</v>
+      </c>
       <c r="CX46" s="8"/>
       <c r="CY46" s="8"/>
       <c r="CZ46" s="8"/>
@@ -8879,6 +8924,7 @@
       <c r="CT47" s="28"/>
       <c r="CU47" s="28"/>
       <c r="CV47" s="28"/>
+      <c r="CW47" s="28"/>
     </row>
     <row r="48" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
@@ -8985,7 +9031,7 @@
       <c r="CT49" s="26"/>
       <c r="CU49" s="26"/>
       <c r="CV49" s="26"/>
-      <c r="CW49" s="8"/>
+      <c r="CW49" s="26"/>
       <c r="CX49" s="8"/>
       <c r="CY49" s="8"/>
       <c r="CZ49" s="8"/>
@@ -9137,7 +9183,7 @@
       <c r="CT50" s="26"/>
       <c r="CU50" s="26"/>
       <c r="CV50" s="26"/>
-      <c r="CW50" s="8"/>
+      <c r="CW50" s="26"/>
       <c r="CX50" s="8"/>
       <c r="CY50" s="8"/>
       <c r="CZ50" s="8"/>
@@ -9201,7 +9247,7 @@
     </row>
     <row r="53" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:151" x14ac:dyDescent="0.2">
@@ -9215,155 +9261,158 @@
       <c r="CT55" s="30"/>
       <c r="CU55" s="30"/>
       <c r="CV55" s="30"/>
+      <c r="CW55" s="30"/>
     </row>
     <row r="56" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="CS56" s="30"/>
-      <c r="CT56" s="30"/>
-      <c r="CU56" s="30"/>
-      <c r="CV56" s="30"/>
+      <c r="CW56" s="30"/>
     </row>
     <row r="57" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="CS57" s="30"/>
+      <c r="CT57" s="30"/>
+      <c r="CU57" s="30"/>
       <c r="CV57" s="30"/>
+      <c r="CW57" s="30"/>
     </row>
     <row r="58" spans="1:151" x14ac:dyDescent="0.2">
-      <c r="CS58" s="30"/>
+      <c r="CT58" s="30"/>
+      <c r="CU58" s="30"/>
       <c r="CV58" s="30"/>
+      <c r="CW58" s="30"/>
     </row>
     <row r="59" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35" t="s">
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35" t="s">
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35" t="s">
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
-      <c r="Q59" s="35"/>
-      <c r="R59" s="35" t="s">
+      <c r="O59" s="36"/>
+      <c r="P59" s="36"/>
+      <c r="Q59" s="36"/>
+      <c r="R59" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="S59" s="35"/>
-      <c r="T59" s="35"/>
-      <c r="U59" s="35"/>
-      <c r="V59" s="35" t="s">
+      <c r="S59" s="36"/>
+      <c r="T59" s="36"/>
+      <c r="U59" s="36"/>
+      <c r="V59" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="W59" s="35"/>
-      <c r="X59" s="35"/>
-      <c r="Y59" s="35"/>
-      <c r="Z59" s="35" t="s">
+      <c r="W59" s="36"/>
+      <c r="X59" s="36"/>
+      <c r="Y59" s="36"/>
+      <c r="Z59" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="AA59" s="35"/>
-      <c r="AB59" s="35"/>
-      <c r="AC59" s="35"/>
-      <c r="AD59" s="35" t="s">
+      <c r="AA59" s="36"/>
+      <c r="AB59" s="36"/>
+      <c r="AC59" s="36"/>
+      <c r="AD59" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="AE59" s="35"/>
-      <c r="AF59" s="35"/>
-      <c r="AG59" s="35"/>
-      <c r="AH59" s="35" t="s">
+      <c r="AE59" s="36"/>
+      <c r="AF59" s="36"/>
+      <c r="AG59" s="36"/>
+      <c r="AH59" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="AI59" s="35"/>
-      <c r="AJ59" s="35"/>
-      <c r="AK59" s="35"/>
-      <c r="AL59" s="35" t="s">
+      <c r="AI59" s="36"/>
+      <c r="AJ59" s="36"/>
+      <c r="AK59" s="36"/>
+      <c r="AL59" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="AM59" s="35"/>
-      <c r="AN59" s="35"/>
-      <c r="AO59" s="35"/>
-      <c r="AP59" s="35" t="s">
+      <c r="AM59" s="36"/>
+      <c r="AN59" s="36"/>
+      <c r="AO59" s="36"/>
+      <c r="AP59" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="AQ59" s="35"/>
-      <c r="AR59" s="35"/>
-      <c r="AS59" s="35"/>
-      <c r="AT59" s="35" t="s">
+      <c r="AQ59" s="36"/>
+      <c r="AR59" s="36"/>
+      <c r="AS59" s="36"/>
+      <c r="AT59" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="AU59" s="35"/>
-      <c r="AV59" s="35"/>
-      <c r="AW59" s="35"/>
-      <c r="AX59" s="35" t="s">
+      <c r="AU59" s="36"/>
+      <c r="AV59" s="36"/>
+      <c r="AW59" s="36"/>
+      <c r="AX59" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="AY59" s="35"/>
-      <c r="AZ59" s="35"/>
-      <c r="BA59" s="35"/>
-      <c r="BB59" s="35" t="s">
+      <c r="AY59" s="36"/>
+      <c r="AZ59" s="36"/>
+      <c r="BA59" s="36"/>
+      <c r="BB59" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="BC59" s="35"/>
-      <c r="BD59" s="35"/>
-      <c r="BE59" s="35"/>
-      <c r="BF59" s="35" t="s">
+      <c r="BC59" s="36"/>
+      <c r="BD59" s="36"/>
+      <c r="BE59" s="36"/>
+      <c r="BF59" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="BG59" s="35"/>
-      <c r="BH59" s="35"/>
-      <c r="BI59" s="35"/>
-      <c r="BJ59" s="35" t="s">
+      <c r="BG59" s="36"/>
+      <c r="BH59" s="36"/>
+      <c r="BI59" s="36"/>
+      <c r="BJ59" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="BK59" s="35"/>
-      <c r="BL59" s="35"/>
-      <c r="BM59" s="35"/>
-      <c r="BN59" s="35" t="s">
+      <c r="BK59" s="36"/>
+      <c r="BL59" s="36"/>
+      <c r="BM59" s="36"/>
+      <c r="BN59" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="BO59" s="35"/>
-      <c r="BP59" s="35"/>
-      <c r="BQ59" s="35"/>
-      <c r="BR59" s="35" t="s">
+      <c r="BO59" s="36"/>
+      <c r="BP59" s="36"/>
+      <c r="BQ59" s="36"/>
+      <c r="BR59" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="BS59" s="35"/>
-      <c r="BT59" s="35"/>
-      <c r="BU59" s="35"/>
-      <c r="BV59" s="35" t="s">
+      <c r="BS59" s="36"/>
+      <c r="BT59" s="36"/>
+      <c r="BU59" s="36"/>
+      <c r="BV59" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="BW59" s="35"/>
-      <c r="BX59" s="35"/>
-      <c r="BY59" s="35"/>
-      <c r="BZ59" s="35" t="s">
+      <c r="BW59" s="36"/>
+      <c r="BX59" s="36"/>
+      <c r="BY59" s="36"/>
+      <c r="BZ59" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="CA59" s="35"/>
-      <c r="CB59" s="35"/>
-      <c r="CC59" s="35"/>
-      <c r="CD59" s="35" t="s">
+      <c r="CA59" s="36"/>
+      <c r="CB59" s="36"/>
+      <c r="CC59" s="36"/>
+      <c r="CD59" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="CE59" s="35"/>
-      <c r="CF59" s="35"/>
-      <c r="CG59" s="35"/>
+      <c r="CE59" s="36"/>
+      <c r="CF59" s="36"/>
+      <c r="CG59" s="36"/>
       <c r="CH59" s="21" t="s">
         <v>52</v>
       </c>
@@ -9381,10 +9430,11 @@
       </c>
       <c r="CQ59" s="24"/>
       <c r="CR59" s="24"/>
-      <c r="CS59" s="22"/>
-      <c r="CT59" s="24"/>
-      <c r="CU59" s="24"/>
+      <c r="CS59" s="24"/>
+      <c r="CT59" s="22"/>
+      <c r="CU59" s="22"/>
       <c r="CV59" s="22"/>
+      <c r="CW59" s="22"/>
     </row>
     <row r="60" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
@@ -9673,15 +9723,20 @@
       <c r="CR60" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CS60" s="29"/>
+      <c r="CS60" s="29" t="s">
+        <v>10</v>
+      </c>
       <c r="CT60" s="29"/>
       <c r="CU60" s="29"/>
       <c r="CV60" s="29"/>
+      <c r="CW60" s="29"/>
     </row>
     <row r="61" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
-      <c r="CS61" s="30"/>
+      <c r="CT61" s="30"/>
+      <c r="CU61" s="30"/>
       <c r="CV61" s="30"/>
+      <c r="CW61" s="30"/>
     </row>
     <row r="62" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -9970,13 +10025,15 @@
         <v>10.957096826764072</v>
       </c>
       <c r="CR62" s="31">
-        <v>-2.4697354809294723</v>
-      </c>
-      <c r="CS62" s="32"/>
-      <c r="CT62" s="31"/>
-      <c r="CU62" s="31"/>
+        <v>-5.5661139084164546</v>
+      </c>
+      <c r="CS62" s="31">
+        <v>-6.0729171233531218</v>
+      </c>
+      <c r="CT62" s="32"/>
+      <c r="CU62" s="32"/>
       <c r="CV62" s="32"/>
-      <c r="CW62" s="8"/>
+      <c r="CW62" s="32"/>
       <c r="CX62" s="8"/>
       <c r="CY62" s="8"/>
       <c r="CZ62" s="8"/>
@@ -10311,13 +10368,15 @@
         <v>5.600146525279186</v>
       </c>
       <c r="CR63" s="31">
-        <v>8.264236171770392</v>
-      </c>
-      <c r="CS63" s="32"/>
-      <c r="CT63" s="31"/>
-      <c r="CU63" s="31"/>
+        <v>3.2798753596727295</v>
+      </c>
+      <c r="CS63" s="31">
+        <v>-5.9084244383337392</v>
+      </c>
+      <c r="CT63" s="32"/>
+      <c r="CU63" s="32"/>
       <c r="CV63" s="32"/>
-      <c r="CW63" s="8"/>
+      <c r="CW63" s="32"/>
       <c r="CX63" s="8"/>
       <c r="CY63" s="8"/>
       <c r="CZ63" s="8"/>
@@ -10654,11 +10713,13 @@
       <c r="CR64" s="31">
         <v>-14.581012609599711</v>
       </c>
-      <c r="CS64" s="32"/>
-      <c r="CT64" s="31"/>
-      <c r="CU64" s="31"/>
+      <c r="CS64" s="31">
+        <v>-1.5199083924556192</v>
+      </c>
+      <c r="CT64" s="32"/>
+      <c r="CU64" s="32"/>
       <c r="CV64" s="32"/>
-      <c r="CW64" s="8"/>
+      <c r="CW64" s="32"/>
       <c r="CX64" s="8"/>
       <c r="CY64" s="8"/>
       <c r="CZ64" s="8"/>
@@ -10993,13 +11054,15 @@
         <v>5.434953704937513</v>
       </c>
       <c r="CR65" s="31">
-        <v>4.7213918931851424</v>
-      </c>
-      <c r="CS65" s="32"/>
-      <c r="CT65" s="31"/>
-      <c r="CU65" s="31"/>
+        <v>9.2497422860253096</v>
+      </c>
+      <c r="CS65" s="31">
+        <v>2.3560215248209744</v>
+      </c>
+      <c r="CT65" s="32"/>
+      <c r="CU65" s="32"/>
       <c r="CV65" s="32"/>
-      <c r="CW65" s="8"/>
+      <c r="CW65" s="32"/>
       <c r="CX65" s="8"/>
       <c r="CY65" s="8"/>
       <c r="CZ65" s="8"/>
@@ -11334,13 +11397,15 @@
         <v>7.5949099210423867</v>
       </c>
       <c r="CR66" s="31">
-        <v>11.665640138415839</v>
-      </c>
-      <c r="CS66" s="32"/>
-      <c r="CT66" s="31"/>
-      <c r="CU66" s="31"/>
+        <v>13.335768740489897</v>
+      </c>
+      <c r="CS66" s="31">
+        <v>18.165846702343174</v>
+      </c>
+      <c r="CT66" s="32"/>
+      <c r="CU66" s="32"/>
       <c r="CV66" s="32"/>
-      <c r="CW66" s="8"/>
+      <c r="CW66" s="32"/>
       <c r="CX66" s="8"/>
       <c r="CY66" s="8"/>
       <c r="CZ66" s="8"/>
@@ -11675,13 +11740,15 @@
         <v>6.2174233659246738</v>
       </c>
       <c r="CR67" s="31">
-        <v>12.899133999394991</v>
-      </c>
-      <c r="CS67" s="32"/>
-      <c r="CT67" s="31"/>
-      <c r="CU67" s="31"/>
+        <v>12.680272856843388</v>
+      </c>
+      <c r="CS67" s="31">
+        <v>25.266433209350424</v>
+      </c>
+      <c r="CT67" s="32"/>
+      <c r="CU67" s="32"/>
       <c r="CV67" s="32"/>
-      <c r="CW67" s="8"/>
+      <c r="CW67" s="32"/>
       <c r="CX67" s="8"/>
       <c r="CY67" s="8"/>
       <c r="CZ67" s="8"/>
@@ -12016,13 +12083,15 @@
         <v>8.5722774120493597</v>
       </c>
       <c r="CR68" s="31">
-        <v>7.383320000662394</v>
-      </c>
-      <c r="CS68" s="32"/>
-      <c r="CT68" s="31"/>
-      <c r="CU68" s="31"/>
+        <v>0.32863833987977387</v>
+      </c>
+      <c r="CS68" s="31">
+        <v>0.95255978209513614</v>
+      </c>
+      <c r="CT68" s="32"/>
+      <c r="CU68" s="32"/>
       <c r="CV68" s="32"/>
-      <c r="CW68" s="8"/>
+      <c r="CW68" s="32"/>
       <c r="CX68" s="8"/>
       <c r="CY68" s="8"/>
       <c r="CZ68" s="8"/>
@@ -12357,13 +12426,15 @@
         <v>41.668265726362222</v>
       </c>
       <c r="CR69" s="31">
-        <v>8.5426064003939075</v>
-      </c>
-      <c r="CS69" s="32"/>
-      <c r="CT69" s="31"/>
-      <c r="CU69" s="31"/>
+        <v>15.606259372340972</v>
+      </c>
+      <c r="CS69" s="31">
+        <v>17.190495556283409</v>
+      </c>
+      <c r="CT69" s="32"/>
+      <c r="CU69" s="32"/>
       <c r="CV69" s="32"/>
-      <c r="CW69" s="8"/>
+      <c r="CW69" s="32"/>
       <c r="CX69" s="8"/>
       <c r="CY69" s="8"/>
       <c r="CZ69" s="8"/>
@@ -12507,11 +12578,11 @@
       <c r="CP70" s="26"/>
       <c r="CQ70" s="26"/>
       <c r="CR70" s="26"/>
-      <c r="CS70" s="33"/>
-      <c r="CT70" s="26"/>
-      <c r="CU70" s="26"/>
+      <c r="CS70" s="26"/>
+      <c r="CT70" s="33"/>
+      <c r="CU70" s="33"/>
       <c r="CV70" s="33"/>
-      <c r="CW70" s="8"/>
+      <c r="CW70" s="33"/>
       <c r="CX70" s="8"/>
       <c r="CY70" s="8"/>
       <c r="CZ70" s="8"/>
@@ -12846,13 +12917,15 @@
         <v>10.523242944820296</v>
       </c>
       <c r="CR71" s="31">
-        <v>4.5050592385500892</v>
-      </c>
-      <c r="CS71" s="32"/>
-      <c r="CT71" s="31"/>
-      <c r="CU71" s="31"/>
+        <v>3.8743892076239348</v>
+      </c>
+      <c r="CS71" s="31">
+        <v>14.745019350479652</v>
+      </c>
+      <c r="CT71" s="32"/>
+      <c r="CU71" s="32"/>
       <c r="CV71" s="32"/>
-      <c r="CW71" s="8"/>
+      <c r="CW71" s="32"/>
       <c r="CX71" s="8"/>
       <c r="CY71" s="8"/>
       <c r="CZ71" s="8"/>
@@ -12997,17 +13070,20 @@
       <c r="CP72" s="28"/>
       <c r="CQ72" s="28"/>
       <c r="CR72" s="28"/>
-      <c r="CS72" s="13"/>
-      <c r="CT72" s="28"/>
-      <c r="CU72" s="28"/>
+      <c r="CS72" s="28"/>
+      <c r="CT72" s="13"/>
+      <c r="CU72" s="13"/>
       <c r="CV72" s="13"/>
+      <c r="CW72" s="13"/>
     </row>
     <row r="73" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="CS73" s="30"/>
+      <c r="CT73" s="30"/>
+      <c r="CU73" s="30"/>
       <c r="CV73" s="30"/>
+      <c r="CW73" s="30"/>
     </row>
     <row r="74" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="8"/>
@@ -13105,11 +13181,11 @@
       <c r="CP74" s="26"/>
       <c r="CQ74" s="26"/>
       <c r="CR74" s="26"/>
-      <c r="CS74" s="33"/>
-      <c r="CT74" s="26"/>
-      <c r="CU74" s="26"/>
+      <c r="CS74" s="26"/>
+      <c r="CT74" s="33"/>
+      <c r="CU74" s="33"/>
       <c r="CV74" s="33"/>
-      <c r="CW74" s="8"/>
+      <c r="CW74" s="33"/>
       <c r="CX74" s="8"/>
       <c r="CY74" s="8"/>
       <c r="CZ74" s="8"/>
@@ -13253,11 +13329,11 @@
       <c r="CP75" s="26"/>
       <c r="CQ75" s="26"/>
       <c r="CR75" s="26"/>
-      <c r="CS75" s="33"/>
-      <c r="CT75" s="26"/>
-      <c r="CU75" s="26"/>
+      <c r="CS75" s="26"/>
+      <c r="CT75" s="33"/>
+      <c r="CU75" s="33"/>
       <c r="CV75" s="33"/>
-      <c r="CW75" s="8"/>
+      <c r="CW75" s="33"/>
       <c r="CX75" s="8"/>
       <c r="CY75" s="8"/>
       <c r="CZ75" s="8"/>
@@ -13309,180 +13385,196 @@
       <c r="A76" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="CS76" s="30"/>
+      <c r="CT76" s="30"/>
+      <c r="CU76" s="30"/>
       <c r="CV76" s="30"/>
+      <c r="CW76" s="30"/>
     </row>
     <row r="77" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CS77" s="30"/>
+      <c r="CT77" s="30"/>
+      <c r="CU77" s="30"/>
       <c r="CV77" s="30"/>
+      <c r="CW77" s="30"/>
     </row>
     <row r="78" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="CS78" s="30"/>
+        <v>57</v>
+      </c>
+      <c r="CT78" s="30"/>
+      <c r="CU78" s="30"/>
       <c r="CV78" s="30"/>
+      <c r="CW78" s="30"/>
     </row>
     <row r="79" spans="1:147" x14ac:dyDescent="0.2">
-      <c r="CS79" s="30"/>
+      <c r="CT79" s="30"/>
+      <c r="CU79" s="30"/>
       <c r="CV79" s="30"/>
+      <c r="CW79" s="30"/>
     </row>
     <row r="80" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="CS80" s="30"/>
+      <c r="CT80" s="30"/>
+      <c r="CU80" s="30"/>
       <c r="CV80" s="30"/>
+      <c r="CW80" s="30"/>
     </row>
     <row r="81" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="CS81" s="30"/>
+        <v>56</v>
+      </c>
+      <c r="CT81" s="30"/>
+      <c r="CU81" s="30"/>
       <c r="CV81" s="30"/>
+      <c r="CW81" s="30"/>
     </row>
     <row r="82" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="CS82" s="30"/>
+      <c r="CT82" s="30"/>
+      <c r="CU82" s="30"/>
       <c r="CV82" s="30"/>
+      <c r="CW82" s="30"/>
     </row>
     <row r="83" spans="1:147" x14ac:dyDescent="0.2">
-      <c r="CS83" s="30"/>
+      <c r="CT83" s="30"/>
+      <c r="CU83" s="30"/>
       <c r="CV83" s="30"/>
+      <c r="CW83" s="30"/>
     </row>
     <row r="84" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
-      <c r="B84" s="35" t="s">
+      <c r="B84" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="35"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="35"/>
-      <c r="F84" s="35" t="s">
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="G84" s="35"/>
-      <c r="H84" s="35"/>
-      <c r="I84" s="35"/>
-      <c r="J84" s="35" t="s">
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="K84" s="35"/>
-      <c r="L84" s="35"/>
-      <c r="M84" s="35"/>
-      <c r="N84" s="35" t="s">
+      <c r="K84" s="36"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="O84" s="35"/>
-      <c r="P84" s="35"/>
-      <c r="Q84" s="35"/>
-      <c r="R84" s="35" t="s">
+      <c r="O84" s="36"/>
+      <c r="P84" s="36"/>
+      <c r="Q84" s="36"/>
+      <c r="R84" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="S84" s="35"/>
-      <c r="T84" s="35"/>
-      <c r="U84" s="35"/>
-      <c r="V84" s="35" t="s">
+      <c r="S84" s="36"/>
+      <c r="T84" s="36"/>
+      <c r="U84" s="36"/>
+      <c r="V84" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="W84" s="35"/>
-      <c r="X84" s="35"/>
-      <c r="Y84" s="35"/>
-      <c r="Z84" s="35" t="s">
+      <c r="W84" s="36"/>
+      <c r="X84" s="36"/>
+      <c r="Y84" s="36"/>
+      <c r="Z84" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="AA84" s="35"/>
-      <c r="AB84" s="35"/>
-      <c r="AC84" s="35"/>
-      <c r="AD84" s="35" t="s">
+      <c r="AA84" s="36"/>
+      <c r="AB84" s="36"/>
+      <c r="AC84" s="36"/>
+      <c r="AD84" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="AE84" s="35"/>
-      <c r="AF84" s="35"/>
-      <c r="AG84" s="35"/>
-      <c r="AH84" s="35" t="s">
+      <c r="AE84" s="36"/>
+      <c r="AF84" s="36"/>
+      <c r="AG84" s="36"/>
+      <c r="AH84" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="AI84" s="35"/>
-      <c r="AJ84" s="35"/>
-      <c r="AK84" s="35"/>
-      <c r="AL84" s="35" t="s">
+      <c r="AI84" s="36"/>
+      <c r="AJ84" s="36"/>
+      <c r="AK84" s="36"/>
+      <c r="AL84" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="AM84" s="35"/>
-      <c r="AN84" s="35"/>
-      <c r="AO84" s="35"/>
-      <c r="AP84" s="35" t="s">
+      <c r="AM84" s="36"/>
+      <c r="AN84" s="36"/>
+      <c r="AO84" s="36"/>
+      <c r="AP84" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="AQ84" s="35"/>
-      <c r="AR84" s="35"/>
-      <c r="AS84" s="35"/>
-      <c r="AT84" s="35" t="s">
+      <c r="AQ84" s="36"/>
+      <c r="AR84" s="36"/>
+      <c r="AS84" s="36"/>
+      <c r="AT84" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="AU84" s="35"/>
-      <c r="AV84" s="35"/>
-      <c r="AW84" s="35"/>
-      <c r="AX84" s="35" t="s">
+      <c r="AU84" s="36"/>
+      <c r="AV84" s="36"/>
+      <c r="AW84" s="36"/>
+      <c r="AX84" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="AY84" s="35"/>
-      <c r="AZ84" s="35"/>
-      <c r="BA84" s="35"/>
-      <c r="BB84" s="35" t="s">
+      <c r="AY84" s="36"/>
+      <c r="AZ84" s="36"/>
+      <c r="BA84" s="36"/>
+      <c r="BB84" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="BC84" s="35"/>
-      <c r="BD84" s="35"/>
-      <c r="BE84" s="35"/>
-      <c r="BF84" s="35" t="s">
+      <c r="BC84" s="36"/>
+      <c r="BD84" s="36"/>
+      <c r="BE84" s="36"/>
+      <c r="BF84" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="BG84" s="35"/>
-      <c r="BH84" s="35"/>
-      <c r="BI84" s="35"/>
-      <c r="BJ84" s="35" t="s">
+      <c r="BG84" s="36"/>
+      <c r="BH84" s="36"/>
+      <c r="BI84" s="36"/>
+      <c r="BJ84" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="BK84" s="35"/>
-      <c r="BL84" s="35"/>
-      <c r="BM84" s="35"/>
-      <c r="BN84" s="35" t="s">
+      <c r="BK84" s="36"/>
+      <c r="BL84" s="36"/>
+      <c r="BM84" s="36"/>
+      <c r="BN84" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="BO84" s="35"/>
-      <c r="BP84" s="35"/>
-      <c r="BQ84" s="35"/>
-      <c r="BR84" s="35" t="s">
+      <c r="BO84" s="36"/>
+      <c r="BP84" s="36"/>
+      <c r="BQ84" s="36"/>
+      <c r="BR84" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="BS84" s="35"/>
-      <c r="BT84" s="35"/>
-      <c r="BU84" s="35"/>
-      <c r="BV84" s="35" t="s">
+      <c r="BS84" s="36"/>
+      <c r="BT84" s="36"/>
+      <c r="BU84" s="36"/>
+      <c r="BV84" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="BW84" s="35"/>
-      <c r="BX84" s="35"/>
-      <c r="BY84" s="35"/>
-      <c r="BZ84" s="35" t="s">
+      <c r="BW84" s="36"/>
+      <c r="BX84" s="36"/>
+      <c r="BY84" s="36"/>
+      <c r="BZ84" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="CA84" s="35"/>
-      <c r="CB84" s="35"/>
-      <c r="CC84" s="35"/>
-      <c r="CD84" s="35" t="s">
+      <c r="CA84" s="36"/>
+      <c r="CB84" s="36"/>
+      <c r="CC84" s="36"/>
+      <c r="CD84" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="CE84" s="35"/>
-      <c r="CF84" s="35"/>
-      <c r="CG84" s="35"/>
+      <c r="CE84" s="36"/>
+      <c r="CF84" s="36"/>
+      <c r="CG84" s="36"/>
       <c r="CH84" s="21" t="s">
         <v>52</v>
       </c>
@@ -13500,10 +13592,11 @@
       </c>
       <c r="CQ84" s="24"/>
       <c r="CR84" s="24"/>
-      <c r="CS84" s="22"/>
-      <c r="CT84" s="24"/>
-      <c r="CU84" s="24"/>
+      <c r="CS84" s="24"/>
+      <c r="CT84" s="22"/>
+      <c r="CU84" s="22"/>
       <c r="CV84" s="22"/>
+      <c r="CW84" s="22"/>
     </row>
     <row r="85" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
@@ -13792,15 +13885,20 @@
       <c r="CR85" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="CS85" s="13"/>
+      <c r="CS85" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="CT85" s="13"/>
       <c r="CU85" s="13"/>
       <c r="CV85" s="13"/>
+      <c r="CW85" s="13"/>
     </row>
     <row r="86" spans="1:147" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
-      <c r="CS86" s="30"/>
+      <c r="CT86" s="30"/>
+      <c r="CU86" s="30"/>
       <c r="CV86" s="30"/>
+      <c r="CW86" s="30"/>
     </row>
     <row r="87" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
@@ -14089,13 +14187,15 @@
         <v>11.083096446265955</v>
       </c>
       <c r="CR87" s="31">
-        <v>-2.3839288224028081</v>
-      </c>
-      <c r="CS87" s="32"/>
-      <c r="CT87" s="31"/>
-      <c r="CU87" s="31"/>
+        <v>-5.4830314287660542</v>
+      </c>
+      <c r="CS87" s="31">
+        <v>-4.8690041673430215</v>
+      </c>
+      <c r="CT87" s="32"/>
+      <c r="CU87" s="32"/>
       <c r="CV87" s="32"/>
-      <c r="CW87" s="8"/>
+      <c r="CW87" s="32"/>
       <c r="CX87" s="8"/>
       <c r="CY87" s="8"/>
       <c r="CZ87" s="8"/>
@@ -14430,13 +14530,15 @@
         <v>3.1106531379032845</v>
       </c>
       <c r="CR88" s="31">
-        <v>5.3422462744758832</v>
-      </c>
-      <c r="CS88" s="32"/>
-      <c r="CT88" s="31"/>
-      <c r="CU88" s="31"/>
+        <v>0.49241051379327416</v>
+      </c>
+      <c r="CS88" s="31">
+        <v>-7.8545517202410906</v>
+      </c>
+      <c r="CT88" s="32"/>
+      <c r="CU88" s="32"/>
       <c r="CV88" s="32"/>
-      <c r="CW88" s="8"/>
+      <c r="CW88" s="32"/>
       <c r="CX88" s="8"/>
       <c r="CY88" s="8"/>
       <c r="CZ88" s="8"/>
@@ -14773,11 +14875,13 @@
       <c r="CR89" s="31">
         <v>-15.57684927955026</v>
       </c>
-      <c r="CS89" s="32"/>
-      <c r="CT89" s="31"/>
-      <c r="CU89" s="31"/>
+      <c r="CS89" s="31">
+        <v>-2.1219965825165872</v>
+      </c>
+      <c r="CT89" s="32"/>
+      <c r="CU89" s="32"/>
       <c r="CV89" s="32"/>
-      <c r="CW89" s="8"/>
+      <c r="CW89" s="32"/>
       <c r="CX89" s="8"/>
       <c r="CY89" s="8"/>
       <c r="CZ89" s="8"/>
@@ -15112,13 +15216,15 @@
         <v>3.445302673786955</v>
       </c>
       <c r="CR90" s="31">
-        <v>2.2631422112805382</v>
-      </c>
-      <c r="CS90" s="32"/>
-      <c r="CT90" s="31"/>
-      <c r="CU90" s="31"/>
+        <v>6.6851932538971539</v>
+      </c>
+      <c r="CS90" s="31">
+        <v>0.87109905087655193</v>
+      </c>
+      <c r="CT90" s="32"/>
+      <c r="CU90" s="32"/>
       <c r="CV90" s="32"/>
-      <c r="CW90" s="8"/>
+      <c r="CW90" s="32"/>
       <c r="CX90" s="8"/>
       <c r="CY90" s="8"/>
       <c r="CZ90" s="8"/>
@@ -15453,13 +15559,15 @@
         <v>7.1413802619892692</v>
       </c>
       <c r="CR91" s="31">
-        <v>10.908218160732801</v>
-      </c>
-      <c r="CS91" s="32"/>
-      <c r="CT91" s="31"/>
-      <c r="CU91" s="31"/>
+        <v>12.567018371126125</v>
+      </c>
+      <c r="CS91" s="31">
+        <v>17.593337755141917</v>
+      </c>
+      <c r="CT91" s="32"/>
+      <c r="CU91" s="32"/>
       <c r="CV91" s="32"/>
-      <c r="CW91" s="8"/>
+      <c r="CW91" s="32"/>
       <c r="CX91" s="8"/>
       <c r="CY91" s="8"/>
       <c r="CZ91" s="8"/>
@@ -15794,13 +15902,15 @@
         <v>3.7133778527844328</v>
       </c>
       <c r="CR92" s="31">
-        <v>9.8511467149462248</v>
-      </c>
-      <c r="CS92" s="32"/>
-      <c r="CT92" s="31"/>
-      <c r="CU92" s="31"/>
+        <v>9.6466739158714461</v>
+      </c>
+      <c r="CS92" s="31">
+        <v>22.753427182093304</v>
+      </c>
+      <c r="CT92" s="32"/>
+      <c r="CU92" s="32"/>
       <c r="CV92" s="32"/>
-      <c r="CW92" s="8"/>
+      <c r="CW92" s="32"/>
       <c r="CX92" s="8"/>
       <c r="CY92" s="8"/>
       <c r="CZ92" s="8"/>
@@ -16135,13 +16245,15 @@
         <v>6.0127168852565376</v>
       </c>
       <c r="CR93" s="31">
-        <v>4.4851055276756711</v>
-      </c>
-      <c r="CS93" s="32"/>
-      <c r="CT93" s="31"/>
-      <c r="CU93" s="31"/>
+        <v>-2.3791743044852609</v>
+      </c>
+      <c r="CS93" s="31">
+        <v>-1.1354755132810936</v>
+      </c>
+      <c r="CT93" s="32"/>
+      <c r="CU93" s="32"/>
       <c r="CV93" s="32"/>
-      <c r="CW93" s="8"/>
+      <c r="CW93" s="32"/>
       <c r="CX93" s="8"/>
       <c r="CY93" s="8"/>
       <c r="CZ93" s="8"/>
@@ -16476,13 +16588,15 @@
         <v>38.328476698300904</v>
       </c>
       <c r="CR94" s="31">
-        <v>5.6131034496247594</v>
-      </c>
-      <c r="CS94" s="32"/>
-      <c r="CT94" s="31"/>
-      <c r="CU94" s="31"/>
+        <v>12.486112462385918</v>
+      </c>
+      <c r="CS94" s="31">
+        <v>14.766605646683018</v>
+      </c>
+      <c r="CT94" s="32"/>
+      <c r="CU94" s="32"/>
       <c r="CV94" s="32"/>
-      <c r="CW94" s="8"/>
+      <c r="CW94" s="32"/>
       <c r="CX94" s="8"/>
       <c r="CY94" s="8"/>
       <c r="CZ94" s="8"/>
@@ -16626,11 +16740,11 @@
       <c r="CP95" s="26"/>
       <c r="CQ95" s="26"/>
       <c r="CR95" s="26"/>
-      <c r="CS95" s="33"/>
-      <c r="CT95" s="26"/>
-      <c r="CU95" s="26"/>
+      <c r="CS95" s="26"/>
+      <c r="CT95" s="33"/>
+      <c r="CU95" s="33"/>
       <c r="CV95" s="33"/>
-      <c r="CW95" s="8"/>
+      <c r="CW95" s="33"/>
       <c r="CX95" s="8"/>
       <c r="CY95" s="8"/>
       <c r="CZ95" s="8"/>
@@ -16965,13 +17079,15 @@
         <v>8.1024300469774886</v>
       </c>
       <c r="CR96" s="31">
-        <v>2.8368835965535482</v>
-      </c>
-      <c r="CS96" s="32"/>
-      <c r="CT96" s="31"/>
-      <c r="CU96" s="31"/>
+        <v>2.2900757287667091</v>
+      </c>
+      <c r="CS96" s="31">
+        <v>13.466042058281985</v>
+      </c>
+      <c r="CT96" s="32"/>
+      <c r="CU96" s="32"/>
       <c r="CV96" s="32"/>
-      <c r="CW96" s="8"/>
+      <c r="CW96" s="32"/>
       <c r="CX96" s="8"/>
       <c r="CY96" s="8"/>
       <c r="CZ96" s="8"/>
@@ -17116,17 +17232,20 @@
       <c r="CP97" s="28"/>
       <c r="CQ97" s="28"/>
       <c r="CR97" s="28"/>
-      <c r="CS97" s="13"/>
-      <c r="CT97" s="28"/>
-      <c r="CU97" s="28"/>
+      <c r="CS97" s="28"/>
+      <c r="CT97" s="13"/>
+      <c r="CU97" s="13"/>
       <c r="CV97" s="13"/>
+      <c r="CW97" s="13"/>
     </row>
     <row r="98" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="CS98" s="30"/>
+      <c r="CT98" s="30"/>
+      <c r="CU98" s="30"/>
       <c r="CV98" s="30"/>
+      <c r="CW98" s="30"/>
     </row>
     <row r="99" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="8"/>
@@ -17224,11 +17343,11 @@
       <c r="CP99" s="26"/>
       <c r="CQ99" s="26"/>
       <c r="CR99" s="26"/>
-      <c r="CS99" s="33"/>
-      <c r="CT99" s="26"/>
-      <c r="CU99" s="26"/>
+      <c r="CS99" s="26"/>
+      <c r="CT99" s="33"/>
+      <c r="CU99" s="33"/>
       <c r="CV99" s="33"/>
-      <c r="CW99" s="8"/>
+      <c r="CW99" s="33"/>
       <c r="CX99" s="8"/>
       <c r="CY99" s="8"/>
       <c r="CZ99" s="8"/>
@@ -17371,12 +17490,12 @@
       <c r="CO100" s="8"/>
       <c r="CP100" s="26"/>
       <c r="CQ100" s="26"/>
-      <c r="CR100" s="33"/>
-      <c r="CS100" s="33"/>
-      <c r="CT100" s="26"/>
-      <c r="CU100" s="26"/>
+      <c r="CR100" s="26"/>
+      <c r="CS100" s="26"/>
+      <c r="CT100" s="33"/>
+      <c r="CU100" s="33"/>
       <c r="CV100" s="33"/>
-      <c r="CW100" s="8"/>
+      <c r="CW100" s="33"/>
       <c r="CX100" s="8"/>
       <c r="CY100" s="8"/>
       <c r="CZ100" s="8"/>
@@ -17431,7 +17550,7 @@
     </row>
     <row r="102" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="1:151" x14ac:dyDescent="0.2">
@@ -17441,7 +17560,7 @@
     </row>
     <row r="105" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="106" spans="1:151" x14ac:dyDescent="0.2">
@@ -17451,132 +17570,132 @@
     </row>
     <row r="108" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
-      <c r="B108" s="36">
+      <c r="B108" s="35">
         <v>2000</v>
       </c>
-      <c r="C108" s="36"/>
-      <c r="D108" s="36"/>
-      <c r="E108" s="36"/>
-      <c r="F108" s="36">
+      <c r="C108" s="35"/>
+      <c r="D108" s="35"/>
+      <c r="E108" s="35"/>
+      <c r="F108" s="35">
         <v>2001</v>
       </c>
-      <c r="G108" s="36"/>
-      <c r="H108" s="36"/>
-      <c r="I108" s="36"/>
-      <c r="J108" s="36">
+      <c r="G108" s="35"/>
+      <c r="H108" s="35"/>
+      <c r="I108" s="35"/>
+      <c r="J108" s="35">
         <v>2002</v>
       </c>
-      <c r="K108" s="36"/>
-      <c r="L108" s="36"/>
-      <c r="M108" s="36"/>
-      <c r="N108" s="36">
+      <c r="K108" s="35"/>
+      <c r="L108" s="35"/>
+      <c r="M108" s="35"/>
+      <c r="N108" s="35">
         <v>2003</v>
       </c>
-      <c r="O108" s="36"/>
-      <c r="P108" s="36"/>
-      <c r="Q108" s="36"/>
-      <c r="R108" s="36">
+      <c r="O108" s="35"/>
+      <c r="P108" s="35"/>
+      <c r="Q108" s="35"/>
+      <c r="R108" s="35">
         <v>2004</v>
       </c>
-      <c r="S108" s="36"/>
-      <c r="T108" s="36"/>
-      <c r="U108" s="36"/>
-      <c r="V108" s="36">
+      <c r="S108" s="35"/>
+      <c r="T108" s="35"/>
+      <c r="U108" s="35"/>
+      <c r="V108" s="35">
         <v>2005</v>
       </c>
-      <c r="W108" s="36"/>
-      <c r="X108" s="36"/>
-      <c r="Y108" s="36"/>
-      <c r="Z108" s="36">
+      <c r="W108" s="35"/>
+      <c r="X108" s="35"/>
+      <c r="Y108" s="35"/>
+      <c r="Z108" s="35">
         <v>2006</v>
       </c>
-      <c r="AA108" s="36"/>
-      <c r="AB108" s="36"/>
-      <c r="AC108" s="36"/>
-      <c r="AD108" s="36">
+      <c r="AA108" s="35"/>
+      <c r="AB108" s="35"/>
+      <c r="AC108" s="35"/>
+      <c r="AD108" s="35">
         <v>2007</v>
       </c>
-      <c r="AE108" s="36"/>
-      <c r="AF108" s="36"/>
-      <c r="AG108" s="36"/>
-      <c r="AH108" s="36">
+      <c r="AE108" s="35"/>
+      <c r="AF108" s="35"/>
+      <c r="AG108" s="35"/>
+      <c r="AH108" s="35">
         <v>2008</v>
       </c>
-      <c r="AI108" s="36"/>
-      <c r="AJ108" s="36"/>
-      <c r="AK108" s="36"/>
-      <c r="AL108" s="36">
+      <c r="AI108" s="35"/>
+      <c r="AJ108" s="35"/>
+      <c r="AK108" s="35"/>
+      <c r="AL108" s="35">
         <v>2009</v>
       </c>
-      <c r="AM108" s="36"/>
-      <c r="AN108" s="36"/>
-      <c r="AO108" s="36"/>
-      <c r="AP108" s="36">
+      <c r="AM108" s="35"/>
+      <c r="AN108" s="35"/>
+      <c r="AO108" s="35"/>
+      <c r="AP108" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="36"/>
-      <c r="AR108" s="36"/>
-      <c r="AS108" s="36"/>
-      <c r="AT108" s="36">
+      <c r="AQ108" s="35"/>
+      <c r="AR108" s="35"/>
+      <c r="AS108" s="35"/>
+      <c r="AT108" s="35">
         <v>2011</v>
       </c>
-      <c r="AU108" s="36"/>
-      <c r="AV108" s="36"/>
-      <c r="AW108" s="36"/>
-      <c r="AX108" s="36">
+      <c r="AU108" s="35"/>
+      <c r="AV108" s="35"/>
+      <c r="AW108" s="35"/>
+      <c r="AX108" s="35">
         <v>2012</v>
       </c>
-      <c r="AY108" s="36"/>
-      <c r="AZ108" s="36"/>
-      <c r="BA108" s="36"/>
-      <c r="BB108" s="36">
+      <c r="AY108" s="35"/>
+      <c r="AZ108" s="35"/>
+      <c r="BA108" s="35"/>
+      <c r="BB108" s="35">
         <v>2013</v>
       </c>
-      <c r="BC108" s="36"/>
-      <c r="BD108" s="36"/>
-      <c r="BE108" s="36"/>
-      <c r="BF108" s="36">
+      <c r="BC108" s="35"/>
+      <c r="BD108" s="35"/>
+      <c r="BE108" s="35"/>
+      <c r="BF108" s="35">
         <v>2014</v>
       </c>
-      <c r="BG108" s="36"/>
-      <c r="BH108" s="36"/>
-      <c r="BI108" s="36"/>
-      <c r="BJ108" s="36">
+      <c r="BG108" s="35"/>
+      <c r="BH108" s="35"/>
+      <c r="BI108" s="35"/>
+      <c r="BJ108" s="35">
         <v>2015</v>
       </c>
-      <c r="BK108" s="36"/>
-      <c r="BL108" s="36"/>
-      <c r="BM108" s="36"/>
-      <c r="BN108" s="36">
+      <c r="BK108" s="35"/>
+      <c r="BL108" s="35"/>
+      <c r="BM108" s="35"/>
+      <c r="BN108" s="35">
         <v>2016</v>
       </c>
-      <c r="BO108" s="36"/>
-      <c r="BP108" s="36"/>
-      <c r="BQ108" s="36"/>
-      <c r="BR108" s="36">
+      <c r="BO108" s="35"/>
+      <c r="BP108" s="35"/>
+      <c r="BQ108" s="35"/>
+      <c r="BR108" s="35">
         <v>2017</v>
       </c>
-      <c r="BS108" s="36"/>
-      <c r="BT108" s="36"/>
-      <c r="BU108" s="36"/>
-      <c r="BV108" s="36">
+      <c r="BS108" s="35"/>
+      <c r="BT108" s="35"/>
+      <c r="BU108" s="35"/>
+      <c r="BV108" s="35">
         <v>2018</v>
       </c>
-      <c r="BW108" s="36"/>
-      <c r="BX108" s="36"/>
-      <c r="BY108" s="36"/>
-      <c r="BZ108" s="36">
+      <c r="BW108" s="35"/>
+      <c r="BX108" s="35"/>
+      <c r="BY108" s="35"/>
+      <c r="BZ108" s="35">
         <v>2019</v>
       </c>
-      <c r="CA108" s="36"/>
-      <c r="CB108" s="36"/>
-      <c r="CC108" s="36"/>
-      <c r="CD108" s="35">
+      <c r="CA108" s="35"/>
+      <c r="CB108" s="35"/>
+      <c r="CC108" s="35"/>
+      <c r="CD108" s="36">
         <v>2020</v>
       </c>
-      <c r="CE108" s="35"/>
-      <c r="CF108" s="35"/>
-      <c r="CG108" s="35"/>
+      <c r="CE108" s="36"/>
+      <c r="CF108" s="36"/>
+      <c r="CG108" s="36"/>
       <c r="CH108" s="21">
         <v>2021</v>
       </c>
@@ -17600,6 +17719,7 @@
       </c>
       <c r="CU108" s="24"/>
       <c r="CV108" s="24"/>
+      <c r="CW108" s="24"/>
     </row>
     <row r="109" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
@@ -17899,6 +18019,9 @@
       </c>
       <c r="CV109" s="29" t="s">
         <v>9</v>
+      </c>
+      <c r="CW109" s="29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -18203,9 +18326,11 @@
         <v>141.49602065392421</v>
       </c>
       <c r="CV111" s="31">
-        <v>130.1674049222718</v>
-      </c>
-      <c r="CW111" s="8"/>
+        <v>130.16740492227186</v>
+      </c>
+      <c r="CW111" s="31">
+        <v>134.46191863735049</v>
+      </c>
       <c r="CX111" s="8"/>
       <c r="CY111" s="8"/>
       <c r="CZ111" s="8"/>
@@ -18558,7 +18683,9 @@
       <c r="CV112" s="31">
         <v>123.34745343524598</v>
       </c>
-      <c r="CW112" s="8"/>
+      <c r="CW112" s="31">
+        <v>120.31246013228257</v>
+      </c>
       <c r="CX112" s="8"/>
       <c r="CY112" s="8"/>
       <c r="CZ112" s="8"/>
@@ -18911,7 +19038,9 @@
       <c r="CV113" s="31">
         <v>126.19921437655741</v>
       </c>
-      <c r="CW113" s="8"/>
+      <c r="CW113" s="31">
+        <v>122.84901691527359</v>
+      </c>
       <c r="CX113" s="8"/>
       <c r="CY113" s="8"/>
       <c r="CZ113" s="8"/>
@@ -19262,9 +19391,11 @@
         <v>118.7433197401653</v>
       </c>
       <c r="CV114" s="31">
-        <v>120.98476812528742</v>
-      </c>
-      <c r="CW114" s="8"/>
+        <v>120.98476812528745</v>
+      </c>
+      <c r="CW114" s="31">
+        <v>122.18251448211683</v>
+      </c>
       <c r="CX114" s="8"/>
       <c r="CY114" s="8"/>
       <c r="CZ114" s="8"/>
@@ -19615,9 +19746,11 @@
         <v>104.05567850493365</v>
       </c>
       <c r="CV115" s="31">
-        <v>103.25671802053384</v>
-      </c>
-      <c r="CW115" s="8"/>
+        <v>103.25671802053382</v>
+      </c>
+      <c r="CW115" s="31">
+        <v>104.19045654843038</v>
+      </c>
       <c r="CX115" s="8"/>
       <c r="CY115" s="8"/>
       <c r="CZ115" s="8"/>
@@ -19968,9 +20101,11 @@
         <v>121.69815233560111</v>
       </c>
       <c r="CV116" s="31">
-        <v>123.24479587494265</v>
-      </c>
-      <c r="CW116" s="8"/>
+        <v>123.23526459479119</v>
+      </c>
+      <c r="CW116" s="31">
+        <v>122.8550494834473</v>
+      </c>
       <c r="CX116" s="8"/>
       <c r="CY116" s="8"/>
       <c r="CZ116" s="8"/>
@@ -20323,7 +20458,9 @@
       <c r="CV117" s="31">
         <v>124.50836404332726</v>
       </c>
-      <c r="CW117" s="8"/>
+      <c r="CW117" s="31">
+        <v>122.27304741687696</v>
+      </c>
       <c r="CX117" s="8"/>
       <c r="CY117" s="8"/>
       <c r="CZ117" s="8"/>
@@ -20674,9 +20811,11 @@
         <v>121.49829621846997</v>
       </c>
       <c r="CV118" s="31">
-        <v>119.54398032947103</v>
-      </c>
-      <c r="CW118" s="8"/>
+        <v>119.543980329471</v>
+      </c>
+      <c r="CW118" s="31">
+        <v>120.15651733028987</v>
+      </c>
       <c r="CX118" s="8"/>
       <c r="CY118" s="8"/>
       <c r="CZ118" s="8"/>
@@ -20828,7 +20967,7 @@
       <c r="CT119" s="26"/>
       <c r="CU119" s="26"/>
       <c r="CV119" s="26"/>
-      <c r="CW119" s="8"/>
+      <c r="CW119" s="26"/>
       <c r="CX119" s="8"/>
       <c r="CY119" s="8"/>
       <c r="CZ119" s="8"/>
@@ -21179,9 +21318,11 @@
         <v>120.11119001677932</v>
       </c>
       <c r="CV120" s="31">
-        <v>121.16677844599657</v>
-      </c>
-      <c r="CW120" s="8"/>
+        <v>121.07936523779381</v>
+      </c>
+      <c r="CW120" s="31">
+        <v>120.34402608329222</v>
+      </c>
       <c r="CX120" s="8"/>
       <c r="CY120" s="8"/>
       <c r="CZ120" s="8"/>
@@ -21334,6 +21475,7 @@
       <c r="CT121" s="28"/>
       <c r="CU121" s="28"/>
       <c r="CV121" s="28"/>
+      <c r="CW121" s="28"/>
     </row>
     <row r="122" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
@@ -21352,7 +21494,7 @@
     </row>
     <row r="127" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="129" spans="1:151" x14ac:dyDescent="0.2">
@@ -21362,7 +21504,7 @@
     </row>
     <row r="130" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="131" spans="1:151" x14ac:dyDescent="0.2">
@@ -21372,132 +21514,132 @@
     </row>
     <row r="133" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
-      <c r="B133" s="36">
+      <c r="B133" s="35">
         <v>2000</v>
       </c>
-      <c r="C133" s="36"/>
-      <c r="D133" s="36"/>
-      <c r="E133" s="36"/>
-      <c r="F133" s="36">
+      <c r="C133" s="35"/>
+      <c r="D133" s="35"/>
+      <c r="E133" s="35"/>
+      <c r="F133" s="35">
         <v>2001</v>
       </c>
-      <c r="G133" s="36"/>
-      <c r="H133" s="36"/>
-      <c r="I133" s="36"/>
-      <c r="J133" s="36">
+      <c r="G133" s="35"/>
+      <c r="H133" s="35"/>
+      <c r="I133" s="35"/>
+      <c r="J133" s="35">
         <v>2002</v>
       </c>
-      <c r="K133" s="36"/>
-      <c r="L133" s="36"/>
-      <c r="M133" s="36"/>
-      <c r="N133" s="36">
+      <c r="K133" s="35"/>
+      <c r="L133" s="35"/>
+      <c r="M133" s="35"/>
+      <c r="N133" s="35">
         <v>2003</v>
       </c>
-      <c r="O133" s="36"/>
-      <c r="P133" s="36"/>
-      <c r="Q133" s="36"/>
-      <c r="R133" s="36">
+      <c r="O133" s="35"/>
+      <c r="P133" s="35"/>
+      <c r="Q133" s="35"/>
+      <c r="R133" s="35">
         <v>2004</v>
       </c>
-      <c r="S133" s="36"/>
-      <c r="T133" s="36"/>
-      <c r="U133" s="36"/>
-      <c r="V133" s="36">
+      <c r="S133" s="35"/>
+      <c r="T133" s="35"/>
+      <c r="U133" s="35"/>
+      <c r="V133" s="35">
         <v>2005</v>
       </c>
-      <c r="W133" s="36"/>
-      <c r="X133" s="36"/>
-      <c r="Y133" s="36"/>
-      <c r="Z133" s="36">
+      <c r="W133" s="35"/>
+      <c r="X133" s="35"/>
+      <c r="Y133" s="35"/>
+      <c r="Z133" s="35">
         <v>2006</v>
       </c>
-      <c r="AA133" s="36"/>
-      <c r="AB133" s="36"/>
-      <c r="AC133" s="36"/>
-      <c r="AD133" s="36">
+      <c r="AA133" s="35"/>
+      <c r="AB133" s="35"/>
+      <c r="AC133" s="35"/>
+      <c r="AD133" s="35">
         <v>2007</v>
       </c>
-      <c r="AE133" s="36"/>
-      <c r="AF133" s="36"/>
-      <c r="AG133" s="36"/>
-      <c r="AH133" s="36">
+      <c r="AE133" s="35"/>
+      <c r="AF133" s="35"/>
+      <c r="AG133" s="35"/>
+      <c r="AH133" s="35">
         <v>2008</v>
       </c>
-      <c r="AI133" s="36"/>
-      <c r="AJ133" s="36"/>
-      <c r="AK133" s="36"/>
-      <c r="AL133" s="36">
+      <c r="AI133" s="35"/>
+      <c r="AJ133" s="35"/>
+      <c r="AK133" s="35"/>
+      <c r="AL133" s="35">
         <v>2009</v>
       </c>
-      <c r="AM133" s="36"/>
-      <c r="AN133" s="36"/>
-      <c r="AO133" s="36"/>
-      <c r="AP133" s="36">
+      <c r="AM133" s="35"/>
+      <c r="AN133" s="35"/>
+      <c r="AO133" s="35"/>
+      <c r="AP133" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ133" s="36"/>
-      <c r="AR133" s="36"/>
-      <c r="AS133" s="36"/>
-      <c r="AT133" s="36">
+      <c r="AQ133" s="35"/>
+      <c r="AR133" s="35"/>
+      <c r="AS133" s="35"/>
+      <c r="AT133" s="35">
         <v>2011</v>
       </c>
-      <c r="AU133" s="36"/>
-      <c r="AV133" s="36"/>
-      <c r="AW133" s="36"/>
-      <c r="AX133" s="36">
+      <c r="AU133" s="35"/>
+      <c r="AV133" s="35"/>
+      <c r="AW133" s="35"/>
+      <c r="AX133" s="35">
         <v>2012</v>
       </c>
-      <c r="AY133" s="36"/>
-      <c r="AZ133" s="36"/>
-      <c r="BA133" s="36"/>
-      <c r="BB133" s="36">
+      <c r="AY133" s="35"/>
+      <c r="AZ133" s="35"/>
+      <c r="BA133" s="35"/>
+      <c r="BB133" s="35">
         <v>2013</v>
       </c>
-      <c r="BC133" s="36"/>
-      <c r="BD133" s="36"/>
-      <c r="BE133" s="36"/>
-      <c r="BF133" s="36">
+      <c r="BC133" s="35"/>
+      <c r="BD133" s="35"/>
+      <c r="BE133" s="35"/>
+      <c r="BF133" s="35">
         <v>2014</v>
       </c>
-      <c r="BG133" s="36"/>
-      <c r="BH133" s="36"/>
-      <c r="BI133" s="36"/>
-      <c r="BJ133" s="36">
+      <c r="BG133" s="35"/>
+      <c r="BH133" s="35"/>
+      <c r="BI133" s="35"/>
+      <c r="BJ133" s="35">
         <v>2015</v>
       </c>
-      <c r="BK133" s="36"/>
-      <c r="BL133" s="36"/>
-      <c r="BM133" s="36"/>
-      <c r="BN133" s="36">
+      <c r="BK133" s="35"/>
+      <c r="BL133" s="35"/>
+      <c r="BM133" s="35"/>
+      <c r="BN133" s="35">
         <v>2016</v>
       </c>
-      <c r="BO133" s="36"/>
-      <c r="BP133" s="36"/>
-      <c r="BQ133" s="36"/>
-      <c r="BR133" s="36">
+      <c r="BO133" s="35"/>
+      <c r="BP133" s="35"/>
+      <c r="BQ133" s="35"/>
+      <c r="BR133" s="35">
         <v>2017</v>
       </c>
-      <c r="BS133" s="36"/>
-      <c r="BT133" s="36"/>
-      <c r="BU133" s="36"/>
-      <c r="BV133" s="36">
+      <c r="BS133" s="35"/>
+      <c r="BT133" s="35"/>
+      <c r="BU133" s="35"/>
+      <c r="BV133" s="35">
         <v>2018</v>
       </c>
-      <c r="BW133" s="36"/>
-      <c r="BX133" s="36"/>
-      <c r="BY133" s="36"/>
-      <c r="BZ133" s="36">
+      <c r="BW133" s="35"/>
+      <c r="BX133" s="35"/>
+      <c r="BY133" s="35"/>
+      <c r="BZ133" s="35">
         <v>2019</v>
       </c>
-      <c r="CA133" s="36"/>
-      <c r="CB133" s="36"/>
-      <c r="CC133" s="36"/>
-      <c r="CD133" s="35">
+      <c r="CA133" s="35"/>
+      <c r="CB133" s="35"/>
+      <c r="CC133" s="35"/>
+      <c r="CD133" s="36">
         <v>2020</v>
       </c>
-      <c r="CE133" s="35"/>
-      <c r="CF133" s="35"/>
-      <c r="CG133" s="35"/>
+      <c r="CE133" s="36"/>
+      <c r="CF133" s="36"/>
+      <c r="CG133" s="36"/>
       <c r="CH133" s="21">
         <v>2021</v>
       </c>
@@ -21521,6 +21663,7 @@
       </c>
       <c r="CU133" s="24"/>
       <c r="CV133" s="24"/>
+      <c r="CW133" s="24"/>
     </row>
     <row r="134" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
@@ -21820,6 +21963,9 @@
       </c>
       <c r="CV134" s="29" t="s">
         <v>9</v>
+      </c>
+      <c r="CW134" s="29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -22124,9 +22270,11 @@
         <v>4.1343963912176829</v>
       </c>
       <c r="CV136" s="34">
-        <v>6.5959613313255412</v>
-      </c>
-      <c r="CW136" s="8"/>
+        <v>6.4253293461019574</v>
+      </c>
+      <c r="CW136" s="34">
+        <v>7.025410612601898</v>
+      </c>
       <c r="CX136" s="8"/>
       <c r="CY136" s="8"/>
       <c r="CZ136" s="8"/>
@@ -22477,9 +22625,11 @@
         <v>5.2967468300429033E-2</v>
       </c>
       <c r="CV137" s="34">
-        <v>0.13140495165576269</v>
-      </c>
-      <c r="CW137" s="8"/>
+        <v>0.12611630914112379</v>
+      </c>
+      <c r="CW137" s="34">
+        <v>0.10804818495340239</v>
+      </c>
       <c r="CX137" s="8"/>
       <c r="CY137" s="8"/>
       <c r="CZ137" s="8"/>
@@ -22830,9 +22980,11 @@
         <v>18.090026315485666</v>
       </c>
       <c r="CV138" s="34">
-        <v>19.4497844367122</v>
-      </c>
-      <c r="CW138" s="8"/>
+        <v>19.567873180682476</v>
+      </c>
+      <c r="CW138" s="34">
+        <v>12.892666694569927</v>
+      </c>
       <c r="CX138" s="8"/>
       <c r="CY138" s="8"/>
       <c r="CZ138" s="8"/>
@@ -23183,9 +23335,11 @@
         <v>0.58566289259209281</v>
       </c>
       <c r="CV139" s="34">
-        <v>0.7243687945879379</v>
-      </c>
-      <c r="CW139" s="8"/>
+        <v>0.76028002574626763</v>
+      </c>
+      <c r="CW139" s="34">
+        <v>0.68512415419082884</v>
+      </c>
       <c r="CX139" s="8"/>
       <c r="CY139" s="8"/>
       <c r="CZ139" s="8"/>
@@ -23536,9 +23690,11 @@
         <v>15.352013614110987</v>
       </c>
       <c r="CV140" s="34">
-        <v>13.229080887869207</v>
-      </c>
-      <c r="CW140" s="8"/>
+        <v>13.508463056220183</v>
+      </c>
+      <c r="CW140" s="34">
+        <v>14.534825340658495</v>
+      </c>
       <c r="CX140" s="8"/>
       <c r="CY140" s="8"/>
       <c r="CZ140" s="8"/>
@@ -23889,9 +24045,11 @@
         <v>50.782343847351029</v>
       </c>
       <c r="CV141" s="34">
-        <v>49.316652887902791</v>
-      </c>
-      <c r="CW141" s="8"/>
+        <v>49.519893890081249</v>
+      </c>
+      <c r="CW141" s="34">
+        <v>54.102851517443952</v>
+      </c>
       <c r="CX141" s="8"/>
       <c r="CY141" s="8"/>
       <c r="CZ141" s="8"/>
@@ -24242,9 +24400,11 @@
         <v>9.2900838205162337</v>
       </c>
       <c r="CV142" s="34">
-        <v>9.2400216121295724</v>
-      </c>
-      <c r="CW142" s="8"/>
+        <v>8.6854017263123584</v>
+      </c>
+      <c r="CW142" s="34">
+        <v>8.8523327125675202</v>
+      </c>
       <c r="CX142" s="8"/>
       <c r="CY142" s="8"/>
       <c r="CZ142" s="8"/>
@@ -24595,9 +24755,11 @@
         <v>1.7125056504258769</v>
       </c>
       <c r="CV143" s="34">
-        <v>1.3127250978169975</v>
-      </c>
-      <c r="CW143" s="8"/>
+        <v>1.406642465714405</v>
+      </c>
+      <c r="CW143" s="34">
+        <v>1.7987407830139783</v>
+      </c>
       <c r="CX143" s="8"/>
       <c r="CY143" s="8"/>
       <c r="CZ143" s="8"/>
@@ -24749,7 +24911,7 @@
       <c r="CT144" s="26"/>
       <c r="CU144" s="26"/>
       <c r="CV144" s="26"/>
-      <c r="CW144" s="8"/>
+      <c r="CW144" s="26"/>
       <c r="CX144" s="8"/>
       <c r="CY144" s="8"/>
       <c r="CZ144" s="8"/>
@@ -25102,7 +25264,9 @@
       <c r="CV145" s="31">
         <v>100</v>
       </c>
-      <c r="CW145" s="8"/>
+      <c r="CW145" s="31">
+        <v>100</v>
+      </c>
       <c r="CX145" s="8"/>
       <c r="CY145" s="8"/>
       <c r="CZ145" s="8"/>
@@ -25255,6 +25419,7 @@
       <c r="CT146" s="28"/>
       <c r="CU146" s="28"/>
       <c r="CV146" s="28"/>
+      <c r="CW146" s="28"/>
     </row>
     <row r="147" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
@@ -25361,7 +25526,7 @@
       <c r="CT148" s="26"/>
       <c r="CU148" s="26"/>
       <c r="CV148" s="26"/>
-      <c r="CW148" s="8"/>
+      <c r="CW148" s="26"/>
       <c r="CX148" s="8"/>
       <c r="CY148" s="8"/>
       <c r="CZ148" s="8"/>
@@ -25513,7 +25678,7 @@
       <c r="CT149" s="26"/>
       <c r="CU149" s="26"/>
       <c r="CV149" s="26"/>
-      <c r="CW149" s="8"/>
+      <c r="CW149" s="26"/>
       <c r="CX149" s="8"/>
       <c r="CY149" s="8"/>
       <c r="CZ149" s="8"/>
@@ -25577,7 +25742,7 @@
     </row>
     <row r="152" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="154" spans="1:151" x14ac:dyDescent="0.2">
@@ -25587,7 +25752,7 @@
     </row>
     <row r="155" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="156" spans="1:151" x14ac:dyDescent="0.2">
@@ -25597,132 +25762,132 @@
     </row>
     <row r="158" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
-      <c r="B158" s="36">
+      <c r="B158" s="35">
         <v>2000</v>
       </c>
-      <c r="C158" s="36"/>
-      <c r="D158" s="36"/>
-      <c r="E158" s="36"/>
-      <c r="F158" s="36">
+      <c r="C158" s="35"/>
+      <c r="D158" s="35"/>
+      <c r="E158" s="35"/>
+      <c r="F158" s="35">
         <v>2001</v>
       </c>
-      <c r="G158" s="36"/>
-      <c r="H158" s="36"/>
-      <c r="I158" s="36"/>
-      <c r="J158" s="36">
+      <c r="G158" s="35"/>
+      <c r="H158" s="35"/>
+      <c r="I158" s="35"/>
+      <c r="J158" s="35">
         <v>2002</v>
       </c>
-      <c r="K158" s="36"/>
-      <c r="L158" s="36"/>
-      <c r="M158" s="36"/>
-      <c r="N158" s="36">
+      <c r="K158" s="35"/>
+      <c r="L158" s="35"/>
+      <c r="M158" s="35"/>
+      <c r="N158" s="35">
         <v>2003</v>
       </c>
-      <c r="O158" s="36"/>
-      <c r="P158" s="36"/>
-      <c r="Q158" s="36"/>
-      <c r="R158" s="36">
+      <c r="O158" s="35"/>
+      <c r="P158" s="35"/>
+      <c r="Q158" s="35"/>
+      <c r="R158" s="35">
         <v>2004</v>
       </c>
-      <c r="S158" s="36"/>
-      <c r="T158" s="36"/>
-      <c r="U158" s="36"/>
-      <c r="V158" s="36">
+      <c r="S158" s="35"/>
+      <c r="T158" s="35"/>
+      <c r="U158" s="35"/>
+      <c r="V158" s="35">
         <v>2005</v>
       </c>
-      <c r="W158" s="36"/>
-      <c r="X158" s="36"/>
-      <c r="Y158" s="36"/>
-      <c r="Z158" s="36">
+      <c r="W158" s="35"/>
+      <c r="X158" s="35"/>
+      <c r="Y158" s="35"/>
+      <c r="Z158" s="35">
         <v>2006</v>
       </c>
-      <c r="AA158" s="36"/>
-      <c r="AB158" s="36"/>
-      <c r="AC158" s="36"/>
-      <c r="AD158" s="36">
+      <c r="AA158" s="35"/>
+      <c r="AB158" s="35"/>
+      <c r="AC158" s="35"/>
+      <c r="AD158" s="35">
         <v>2007</v>
       </c>
-      <c r="AE158" s="36"/>
-      <c r="AF158" s="36"/>
-      <c r="AG158" s="36"/>
-      <c r="AH158" s="36">
+      <c r="AE158" s="35"/>
+      <c r="AF158" s="35"/>
+      <c r="AG158" s="35"/>
+      <c r="AH158" s="35">
         <v>2008</v>
       </c>
-      <c r="AI158" s="36"/>
-      <c r="AJ158" s="36"/>
-      <c r="AK158" s="36"/>
-      <c r="AL158" s="36">
+      <c r="AI158" s="35"/>
+      <c r="AJ158" s="35"/>
+      <c r="AK158" s="35"/>
+      <c r="AL158" s="35">
         <v>2009</v>
       </c>
-      <c r="AM158" s="36"/>
-      <c r="AN158" s="36"/>
-      <c r="AO158" s="36"/>
-      <c r="AP158" s="36">
+      <c r="AM158" s="35"/>
+      <c r="AN158" s="35"/>
+      <c r="AO158" s="35"/>
+      <c r="AP158" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ158" s="36"/>
-      <c r="AR158" s="36"/>
-      <c r="AS158" s="36"/>
-      <c r="AT158" s="36">
+      <c r="AQ158" s="35"/>
+      <c r="AR158" s="35"/>
+      <c r="AS158" s="35"/>
+      <c r="AT158" s="35">
         <v>2011</v>
       </c>
-      <c r="AU158" s="36"/>
-      <c r="AV158" s="36"/>
-      <c r="AW158" s="36"/>
-      <c r="AX158" s="36">
+      <c r="AU158" s="35"/>
+      <c r="AV158" s="35"/>
+      <c r="AW158" s="35"/>
+      <c r="AX158" s="35">
         <v>2012</v>
       </c>
-      <c r="AY158" s="36"/>
-      <c r="AZ158" s="36"/>
-      <c r="BA158" s="36"/>
-      <c r="BB158" s="36">
+      <c r="AY158" s="35"/>
+      <c r="AZ158" s="35"/>
+      <c r="BA158" s="35"/>
+      <c r="BB158" s="35">
         <v>2013</v>
       </c>
-      <c r="BC158" s="36"/>
-      <c r="BD158" s="36"/>
-      <c r="BE158" s="36"/>
-      <c r="BF158" s="36">
+      <c r="BC158" s="35"/>
+      <c r="BD158" s="35"/>
+      <c r="BE158" s="35"/>
+      <c r="BF158" s="35">
         <v>2014</v>
       </c>
-      <c r="BG158" s="36"/>
-      <c r="BH158" s="36"/>
-      <c r="BI158" s="36"/>
-      <c r="BJ158" s="36">
+      <c r="BG158" s="35"/>
+      <c r="BH158" s="35"/>
+      <c r="BI158" s="35"/>
+      <c r="BJ158" s="35">
         <v>2015</v>
       </c>
-      <c r="BK158" s="36"/>
-      <c r="BL158" s="36"/>
-      <c r="BM158" s="36"/>
-      <c r="BN158" s="36">
+      <c r="BK158" s="35"/>
+      <c r="BL158" s="35"/>
+      <c r="BM158" s="35"/>
+      <c r="BN158" s="35">
         <v>2016</v>
       </c>
-      <c r="BO158" s="36"/>
-      <c r="BP158" s="36"/>
-      <c r="BQ158" s="36"/>
-      <c r="BR158" s="36">
+      <c r="BO158" s="35"/>
+      <c r="BP158" s="35"/>
+      <c r="BQ158" s="35"/>
+      <c r="BR158" s="35">
         <v>2017</v>
       </c>
-      <c r="BS158" s="36"/>
-      <c r="BT158" s="36"/>
-      <c r="BU158" s="36"/>
-      <c r="BV158" s="36">
+      <c r="BS158" s="35"/>
+      <c r="BT158" s="35"/>
+      <c r="BU158" s="35"/>
+      <c r="BV158" s="35">
         <v>2018</v>
       </c>
-      <c r="BW158" s="36"/>
-      <c r="BX158" s="36"/>
-      <c r="BY158" s="36"/>
-      <c r="BZ158" s="36">
+      <c r="BW158" s="35"/>
+      <c r="BX158" s="35"/>
+      <c r="BY158" s="35"/>
+      <c r="BZ158" s="35">
         <v>2019</v>
       </c>
-      <c r="CA158" s="36"/>
-      <c r="CB158" s="36"/>
-      <c r="CC158" s="36"/>
-      <c r="CD158" s="35">
+      <c r="CA158" s="35"/>
+      <c r="CB158" s="35"/>
+      <c r="CC158" s="35"/>
+      <c r="CD158" s="36">
         <v>2020</v>
       </c>
-      <c r="CE158" s="35"/>
-      <c r="CF158" s="35"/>
-      <c r="CG158" s="35"/>
+      <c r="CE158" s="36"/>
+      <c r="CF158" s="36"/>
+      <c r="CG158" s="36"/>
       <c r="CH158" s="21">
         <v>2021</v>
       </c>
@@ -25746,6 +25911,7 @@
       </c>
       <c r="CU158" s="24"/>
       <c r="CV158" s="24"/>
+      <c r="CW158" s="24"/>
     </row>
     <row r="159" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
@@ -26045,6 +26211,9 @@
       </c>
       <c r="CV159" s="29" t="s">
         <v>9</v>
+      </c>
+      <c r="CW159" s="29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26349,9 +26518,11 @@
         <v>3.5095493728746185</v>
       </c>
       <c r="CV161" s="34">
-        <v>6.1398733864927513</v>
-      </c>
-      <c r="CW161" s="8"/>
+        <v>5.9767251189677904</v>
+      </c>
+      <c r="CW161" s="34">
+        <v>6.287774312436067</v>
+      </c>
       <c r="CX161" s="8"/>
       <c r="CY161" s="8"/>
       <c r="CZ161" s="8"/>
@@ -26702,9 +26873,11 @@
         <v>5.2084183969176523E-2</v>
       </c>
       <c r="CV162" s="34">
-        <v>0.12908182715210453</v>
-      </c>
-      <c r="CW162" s="8"/>
+        <v>0.12379730778112105</v>
+      </c>
+      <c r="CW162" s="34">
+        <v>0.10807653317028011</v>
+      </c>
       <c r="CX162" s="8"/>
       <c r="CY162" s="8"/>
       <c r="CZ162" s="8"/>
@@ -27055,9 +27228,11 @@
         <v>17.169755046512964</v>
       </c>
       <c r="CV163" s="34">
-        <v>18.674186945677775</v>
-      </c>
-      <c r="CW163" s="8"/>
+        <v>18.774012781895696</v>
+      </c>
+      <c r="CW163" s="34">
+        <v>12.629774791316335</v>
+      </c>
       <c r="CX163" s="8"/>
       <c r="CY163" s="8"/>
       <c r="CZ163" s="8"/>
@@ -27408,9 +27583,11 @@
         <v>0.59240946885967161</v>
       </c>
       <c r="CV164" s="34">
-        <v>0.72545854000513044</v>
-      </c>
-      <c r="CW164" s="8"/>
+        <v>0.76087448318290452</v>
+      </c>
+      <c r="CW164" s="34">
+        <v>0.67481504560378369</v>
+      </c>
       <c r="CX164" s="8"/>
       <c r="CY164" s="8"/>
       <c r="CZ164" s="8"/>
@@ -27761,9 +27938,11 @@
         <v>17.720788051535695</v>
       </c>
       <c r="CV165" s="34">
-        <v>15.523688373146383</v>
-      </c>
-      <c r="CW165" s="8"/>
+        <v>15.840094122109036</v>
+      </c>
+      <c r="CW165" s="34">
+        <v>16.788288081828679</v>
+      </c>
       <c r="CX165" s="8"/>
       <c r="CY165" s="8"/>
       <c r="CZ165" s="8"/>
@@ -28114,9 +28293,11 @@
         <v>50.12013440044867</v>
       </c>
       <c r="CV166" s="34">
-        <v>48.485130035267822</v>
-      </c>
-      <c r="CW166" s="8"/>
+        <v>48.653584171452891</v>
+      </c>
+      <c r="CW166" s="34">
+        <v>52.997048160181691</v>
+      </c>
       <c r="CX166" s="8"/>
       <c r="CY166" s="8"/>
       <c r="CZ166" s="8"/>
@@ -28467,9 +28648,11 @@
         <v>9.1423249407557705</v>
       </c>
       <c r="CV167" s="34">
-        <v>8.9920356766034111</v>
-      </c>
-      <c r="CW167" s="8"/>
+        <v>8.446203079908658</v>
+      </c>
+      <c r="CW167" s="34">
+        <v>8.712675289976973</v>
+      </c>
       <c r="CX167" s="8"/>
       <c r="CY167" s="8"/>
       <c r="CZ167" s="8"/>
@@ -28820,9 +29003,11 @@
         <v>1.6929545350434463</v>
       </c>
       <c r="CV168" s="34">
-        <v>1.3305452156546504</v>
-      </c>
-      <c r="CW168" s="8"/>
+        <v>1.4247089347018982</v>
+      </c>
+      <c r="CW168" s="34">
+        <v>1.8015477854861814</v>
+      </c>
       <c r="CX168" s="8"/>
       <c r="CY168" s="8"/>
       <c r="CZ168" s="8"/>
@@ -28974,7 +29159,7 @@
       <c r="CT169" s="26"/>
       <c r="CU169" s="26"/>
       <c r="CV169" s="26"/>
-      <c r="CW169" s="8"/>
+      <c r="CW169" s="26"/>
       <c r="CX169" s="8"/>
       <c r="CY169" s="8"/>
       <c r="CZ169" s="8"/>
@@ -29327,7 +29512,9 @@
       <c r="CV170" s="31">
         <v>100</v>
       </c>
-      <c r="CW170" s="8"/>
+      <c r="CW170" s="31">
+        <v>100</v>
+      </c>
       <c r="CX170" s="8"/>
       <c r="CY170" s="8"/>
       <c r="CZ170" s="8"/>
@@ -29480,6 +29667,7 @@
       <c r="CT171" s="28"/>
       <c r="CU171" s="28"/>
       <c r="CV171" s="28"/>
+      <c r="CW171" s="28"/>
     </row>
     <row r="172" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
@@ -29587,7 +29775,7 @@
       <c r="CT173" s="23"/>
       <c r="CU173" s="23"/>
       <c r="CV173" s="23"/>
-      <c r="CW173" s="16"/>
+      <c r="CW173" s="23"/>
       <c r="CX173" s="16"/>
       <c r="CY173" s="16"/>
       <c r="CZ173" s="16"/>
@@ -29740,7 +29928,7 @@
       <c r="CT174" s="23"/>
       <c r="CU174" s="23"/>
       <c r="CV174" s="23"/>
-      <c r="CW174" s="16"/>
+      <c r="CW174" s="23"/>
       <c r="CX174" s="16"/>
       <c r="CY174" s="16"/>
       <c r="CZ174" s="16"/>
@@ -29794,63 +29982,72 @@
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="BJ34:BM34"/>
-    <mergeCell ref="BN34:BQ34"/>
-    <mergeCell ref="BF59:BI59"/>
-    <mergeCell ref="BJ59:BM59"/>
-    <mergeCell ref="BB59:BE59"/>
-    <mergeCell ref="BN59:BQ59"/>
-    <mergeCell ref="BZ108:CC108"/>
-    <mergeCell ref="BB158:BE158"/>
-    <mergeCell ref="BF158:BI158"/>
-    <mergeCell ref="BJ158:BM158"/>
-    <mergeCell ref="BN158:BQ158"/>
-    <mergeCell ref="BF133:BI133"/>
-    <mergeCell ref="BJ133:BM133"/>
-    <mergeCell ref="BN133:BQ133"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="BB108:BE108"/>
-    <mergeCell ref="BF108:BI108"/>
-    <mergeCell ref="BB133:BE133"/>
-    <mergeCell ref="BR108:BU108"/>
-    <mergeCell ref="BV108:BY108"/>
-    <mergeCell ref="V158:Y158"/>
-    <mergeCell ref="Z158:AC158"/>
-    <mergeCell ref="AD158:AG158"/>
-    <mergeCell ref="AH158:AK158"/>
-    <mergeCell ref="B133:E133"/>
-    <mergeCell ref="F133:I133"/>
-    <mergeCell ref="J133:M133"/>
-    <mergeCell ref="N133:Q133"/>
-    <mergeCell ref="R133:U133"/>
-    <mergeCell ref="V133:Y133"/>
-    <mergeCell ref="Z133:AC133"/>
-    <mergeCell ref="AD133:AG133"/>
-    <mergeCell ref="AH133:AK133"/>
-    <mergeCell ref="B158:E158"/>
-    <mergeCell ref="F158:I158"/>
-    <mergeCell ref="J158:M158"/>
-    <mergeCell ref="N158:Q158"/>
-    <mergeCell ref="R158:U158"/>
-    <mergeCell ref="AT108:AW108"/>
-    <mergeCell ref="AX108:BA108"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="R34:U34"/>
-    <mergeCell ref="AD59:AG59"/>
-    <mergeCell ref="AH59:AK59"/>
-    <mergeCell ref="AL59:AO59"/>
-    <mergeCell ref="AP59:AS59"/>
-    <mergeCell ref="AT59:AW59"/>
-    <mergeCell ref="AX59:BA59"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="J108:M108"/>
-    <mergeCell ref="N108:Q108"/>
-    <mergeCell ref="R108:U108"/>
+    <mergeCell ref="CD158:CG158"/>
+    <mergeCell ref="CD133:CG133"/>
+    <mergeCell ref="CD108:CG108"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BZ59:CC59"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="CD59:CG59"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="CD34:CG34"/>
+    <mergeCell ref="BZ34:CC34"/>
+    <mergeCell ref="BR59:BU59"/>
+    <mergeCell ref="BR34:BU34"/>
+    <mergeCell ref="BV34:BY34"/>
+    <mergeCell ref="BV59:BY59"/>
+    <mergeCell ref="AT133:AW133"/>
+    <mergeCell ref="AX133:BA133"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="BR133:BU133"/>
+    <mergeCell ref="BV133:BY133"/>
+    <mergeCell ref="BZ133:CC133"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="N59:Q59"/>
+    <mergeCell ref="R59:U59"/>
+    <mergeCell ref="V59:Y59"/>
+    <mergeCell ref="Z59:AC59"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="V108:Y108"/>
+    <mergeCell ref="Z108:AC108"/>
+    <mergeCell ref="AD108:AG108"/>
+    <mergeCell ref="AH108:AK108"/>
+    <mergeCell ref="AL108:AO108"/>
+    <mergeCell ref="AP108:AS108"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="BZ158:CC158"/>
+    <mergeCell ref="BR158:BU158"/>
+    <mergeCell ref="BV158:BY158"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BV84:BY84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AL158:AO158"/>
+    <mergeCell ref="AP158:AS158"/>
+    <mergeCell ref="AT158:AW158"/>
+    <mergeCell ref="AX158:BA158"/>
+    <mergeCell ref="BJ108:BM108"/>
+    <mergeCell ref="BN108:BQ108"/>
+    <mergeCell ref="AL133:AO133"/>
+    <mergeCell ref="AP133:AS133"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="BB34:BE34"/>
@@ -29875,80 +30072,71 @@
     <mergeCell ref="AT9:AW9"/>
     <mergeCell ref="AX9:BA9"/>
     <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="BZ158:CC158"/>
-    <mergeCell ref="BR158:BU158"/>
-    <mergeCell ref="BV158:BY158"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BV84:BY84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AL158:AO158"/>
-    <mergeCell ref="AP158:AS158"/>
-    <mergeCell ref="AT158:AW158"/>
-    <mergeCell ref="AX158:BA158"/>
-    <mergeCell ref="BJ108:BM108"/>
-    <mergeCell ref="BN108:BQ108"/>
-    <mergeCell ref="AL133:AO133"/>
-    <mergeCell ref="AP133:AS133"/>
-    <mergeCell ref="AT133:AW133"/>
-    <mergeCell ref="AX133:BA133"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="BR133:BU133"/>
-    <mergeCell ref="BV133:BY133"/>
-    <mergeCell ref="BZ133:CC133"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="N59:Q59"/>
-    <mergeCell ref="R59:U59"/>
-    <mergeCell ref="V59:Y59"/>
-    <mergeCell ref="Z59:AC59"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="V108:Y108"/>
-    <mergeCell ref="Z108:AC108"/>
-    <mergeCell ref="AD108:AG108"/>
-    <mergeCell ref="AH108:AK108"/>
-    <mergeCell ref="AL108:AO108"/>
-    <mergeCell ref="AP108:AS108"/>
-    <mergeCell ref="CD158:CG158"/>
-    <mergeCell ref="CD133:CG133"/>
-    <mergeCell ref="CD108:CG108"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BZ59:CC59"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="CD59:CG59"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="CD34:CG34"/>
-    <mergeCell ref="BZ34:CC34"/>
-    <mergeCell ref="BR59:BU59"/>
-    <mergeCell ref="BR34:BU34"/>
-    <mergeCell ref="BV34:BY34"/>
-    <mergeCell ref="BV59:BY59"/>
+    <mergeCell ref="AT108:AW108"/>
+    <mergeCell ref="AX108:BA108"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="AD59:AG59"/>
+    <mergeCell ref="AH59:AK59"/>
+    <mergeCell ref="AL59:AO59"/>
+    <mergeCell ref="AP59:AS59"/>
+    <mergeCell ref="AT59:AW59"/>
+    <mergeCell ref="AX59:BA59"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="J108:M108"/>
+    <mergeCell ref="N108:Q108"/>
+    <mergeCell ref="R108:U108"/>
+    <mergeCell ref="V158:Y158"/>
+    <mergeCell ref="Z158:AC158"/>
+    <mergeCell ref="AD158:AG158"/>
+    <mergeCell ref="AH158:AK158"/>
+    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="F133:I133"/>
+    <mergeCell ref="J133:M133"/>
+    <mergeCell ref="N133:Q133"/>
+    <mergeCell ref="R133:U133"/>
+    <mergeCell ref="V133:Y133"/>
+    <mergeCell ref="Z133:AC133"/>
+    <mergeCell ref="AD133:AG133"/>
+    <mergeCell ref="AH133:AK133"/>
+    <mergeCell ref="B158:E158"/>
+    <mergeCell ref="F158:I158"/>
+    <mergeCell ref="J158:M158"/>
+    <mergeCell ref="N158:Q158"/>
+    <mergeCell ref="R158:U158"/>
+    <mergeCell ref="BJ34:BM34"/>
+    <mergeCell ref="BN34:BQ34"/>
+    <mergeCell ref="BF59:BI59"/>
+    <mergeCell ref="BJ59:BM59"/>
+    <mergeCell ref="BB59:BE59"/>
+    <mergeCell ref="BN59:BQ59"/>
+    <mergeCell ref="BZ108:CC108"/>
+    <mergeCell ref="BB158:BE158"/>
+    <mergeCell ref="BF158:BI158"/>
+    <mergeCell ref="BJ158:BM158"/>
+    <mergeCell ref="BN158:BQ158"/>
+    <mergeCell ref="BF133:BI133"/>
+    <mergeCell ref="BJ133:BM133"/>
+    <mergeCell ref="BN133:BQ133"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="BB108:BE108"/>
+    <mergeCell ref="BF108:BI108"/>
+    <mergeCell ref="BB133:BE133"/>
+    <mergeCell ref="BR108:BU108"/>
+    <mergeCell ref="BV108:BY108"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="50" max="99" man="1"/>
-    <brk id="100" max="99" man="1"/>
-    <brk id="124" max="99" man="1"/>
+    <brk id="50" max="100" man="1"/>
+    <brk id="100" max="100" man="1"/>
+    <brk id="124" max="100" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-05EOS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-05EOS_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibili